--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Recovery</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Cross-flow Velocity</t>
-  </si>
-  <si>
-    <t>u5</t>
   </si>
 </sst>
 </file>
@@ -423,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,656 +502,653 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.499725188928964E-06</v>
+        <v>5.478280435092508E-06</v>
       </c>
       <c r="C2">
-        <v>0.01381</v>
+        <v>0.0147</v>
       </c>
       <c r="D2">
-        <v>6.415243720361465E-05</v>
+        <v>6.853649490723139E-05</v>
       </c>
       <c r="E2">
-        <v>0.01467976034192205</v>
+        <v>0.01562206338554944</v>
       </c>
       <c r="F2">
         <v>4.9</v>
       </c>
       <c r="G2">
-        <v>19.18717597350449</v>
+        <v>19.08344412928917</v>
       </c>
       <c r="H2">
-        <v>19.96475220970266</v>
+        <v>19.6678512662795</v>
       </c>
       <c r="I2">
-        <v>19.55538357144083</v>
+        <v>18.81242502759866</v>
       </c>
       <c r="J2">
-        <v>19.40789691293147</v>
+        <v>18.70966378878408</v>
       </c>
       <c r="K2">
-        <v>19.52088091093385</v>
+        <v>17.79466186531651</v>
       </c>
       <c r="L2">
-        <v>0.3372150930618713</v>
+        <v>0.3854045034786154</v>
       </c>
       <c r="M2">
-        <v>0.0093063</v>
+        <v>0.009722999999999999</v>
       </c>
       <c r="N2">
-        <v>0.002202557142857142</v>
+        <v>0.01071514285714286</v>
       </c>
       <c r="O2">
-        <v>0.006582159183673467</v>
+        <v>0.01135294897959183</v>
       </c>
       <c r="P2">
-        <v>0.007937142857142865</v>
+        <v>0.00986473469387756</v>
       </c>
       <c r="Q2">
-        <v>0.3632432522455447</v>
+        <v>0.4270603300092276</v>
       </c>
       <c r="R2">
-        <v>1.013487068095362</v>
+        <v>1.017017639400741</v>
       </c>
       <c r="S2">
-        <v>0.4186091761</v>
+        <v>0.4471470261</v>
       </c>
       <c r="T2">
-        <v>8.964038328732378E-05</v>
+        <v>8.964155703575425E-05</v>
       </c>
       <c r="U2">
-        <v>0.001398351736058349</v>
+        <v>0.001398447362268863</v>
       </c>
       <c r="V2">
-        <v>1.055405809249991</v>
+        <v>1.05540469602797</v>
       </c>
       <c r="W2">
-        <v>1.062980473709055</v>
+        <v>1.062725400377513</v>
       </c>
       <c r="X2">
-        <v>270.70391972825</v>
+        <v>270.7081578673033</v>
       </c>
       <c r="Y2">
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.495362700374802E-06</v>
+        <v>5.473720782008644E-06</v>
       </c>
       <c r="C3">
-        <v>0.01394884694507875</v>
+        <v>0.0148477925606575</v>
       </c>
       <c r="D3">
-        <v>6.488046035058747E-05</v>
+        <v>6.931665604608287E-05</v>
       </c>
       <c r="E3">
-        <v>0.01483462618503015</v>
+        <v>0.01578679887389152</v>
       </c>
       <c r="F3">
-        <v>4.899985695141122</v>
+        <v>4.899985694153031</v>
       </c>
       <c r="S3">
-        <v>0.4228375516161617</v>
+        <v>0.4516636627272728</v>
       </c>
       <c r="T3">
-        <v>8.885530549684928E-05</v>
+        <v>8.885648049281569E-05</v>
       </c>
       <c r="U3">
-        <v>0.001401876170104905</v>
+        <v>0.001401973003019861</v>
       </c>
       <c r="V3">
-        <v>1.055641575716098</v>
+        <v>1.055640446711198</v>
       </c>
       <c r="W3">
-        <v>1.074194510139765</v>
+        <v>1.073931896183097</v>
       </c>
       <c r="X3">
-        <v>267.9955489536243</v>
+        <v>267.9997859863252</v>
       </c>
       <c r="Y3">
         <v>0.1683</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.490909161941832E-06</v>
+        <v>5.469066288192021E-06</v>
       </c>
       <c r="C4">
-        <v>0.01409052007247394</v>
+        <v>0.01499859333519435</v>
       </c>
       <c r="D4">
-        <v>6.562508240404459E-05</v>
+        <v>7.011465379470398E-05</v>
       </c>
       <c r="E4">
-        <v>0.01499277364187199</v>
+        <v>0.01595502307868577</v>
       </c>
       <c r="F4">
-        <v>4.899971317439351</v>
+        <v>4.899971315437977</v>
       </c>
       <c r="S4">
-        <v>0.4271522205102041</v>
+        <v>0.4562724756122449</v>
       </c>
       <c r="T4">
-        <v>8.806923548952271E-05</v>
+        <v>8.807041174577197E-05</v>
       </c>
       <c r="U4">
-        <v>0.001405445471833063</v>
+        <v>0.001405543539162455</v>
       </c>
       <c r="V4">
-        <v>1.055880757267287</v>
+        <v>1.055879612093398</v>
       </c>
       <c r="W4">
-        <v>1.085646172474438</v>
+        <v>1.085375719638488</v>
       </c>
       <c r="X4">
-        <v>265.287178103415</v>
+        <v>265.2914140125917</v>
       </c>
       <c r="Y4">
         <v>0.1666</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.486361704438478E-06</v>
+        <v>5.464313960426034E-06</v>
       </c>
       <c r="C5">
-        <v>0.01423510661876332</v>
+        <v>0.01515249517727064</v>
       </c>
       <c r="D5">
-        <v>6.638687418066981E-05</v>
+        <v>7.093110324981635E-05</v>
       </c>
       <c r="E5">
-        <v>0.01515430751138873</v>
+        <v>0.01612684733010946</v>
       </c>
       <c r="F5">
-        <v>4.899956865489386</v>
+        <v>4.89995686244866</v>
       </c>
       <c r="S5">
-        <v>0.4315558516494846</v>
+        <v>0.4609763155670104</v>
       </c>
       <c r="T5">
-        <v>8.728216186831051E-05</v>
+        <v>8.728333939749716E-05</v>
       </c>
       <c r="U5">
-        <v>0.00140906068004959</v>
+        <v>0.001409160010425741</v>
       </c>
       <c r="V5">
-        <v>1.056123439021161</v>
+        <v>1.056122277279057</v>
       </c>
       <c r="W5">
-        <v>1.097343049340241</v>
+        <v>1.097064444225133</v>
       </c>
       <c r="X5">
-        <v>262.5788071978968</v>
+        <v>262.5830419642745</v>
       </c>
       <c r="Y5">
         <v>0.1649</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.481717322751408E-06</v>
+        <v>5.459460689662554E-06</v>
       </c>
       <c r="C6">
-        <v>0.01438269744943605</v>
+        <v>0.01530959480304169</v>
       </c>
       <c r="D6">
-        <v>6.716643300734928E-05</v>
+        <v>7.176664784249535E-05</v>
       </c>
       <c r="E6">
-        <v>0.01531933707608144</v>
+        <v>0.01630238772178447</v>
       </c>
       <c r="F6">
-        <v>4.899942337842103</v>
+        <v>4.899942333735041</v>
       </c>
       <c r="S6">
-        <v>0.4360512251041667</v>
+        <v>0.4657781521875</v>
       </c>
       <c r="T6">
-        <v>8.649407297679895E-05</v>
+        <v>8.649525179179099E-05</v>
       </c>
       <c r="U6">
-        <v>0.001412722868478156</v>
+        <v>0.001412823491502389</v>
       </c>
       <c r="V6">
-        <v>1.056369709134654</v>
+        <v>1.056368530411053</v>
       </c>
       <c r="W6">
-        <v>1.109293054024724</v>
+        <v>1.109005967468332</v>
       </c>
       <c r="X6">
-        <v>259.8704362122455</v>
+        <v>259.8746698158698</v>
       </c>
       <c r="Y6">
         <v>0.1632</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.47697288513282E-06</v>
+        <v>5.454503218593095E-06</v>
       </c>
       <c r="C7">
-        <v>0.01453338724960898</v>
+        <v>0.01546999299414905</v>
       </c>
       <c r="D7">
-        <v>6.796438407924299E-05</v>
+        <v>7.262196130674452E-05</v>
       </c>
       <c r="E7">
-        <v>0.01548797634583428</v>
+        <v>0.01648176536181135</v>
       </c>
       <c r="F7">
-        <v>4.899927733002672</v>
+        <v>4.89992772780133</v>
       </c>
       <c r="S7">
-        <v>0.440641238</v>
+        <v>0.4706810801052632</v>
       </c>
       <c r="T7">
-        <v>8.570495690742171E-05</v>
+        <v>8.570613702196102E-05</v>
       </c>
       <c r="U7">
-        <v>0.00141643314764043</v>
+        <v>0.001416535093939419</v>
       </c>
       <c r="V7">
-        <v>1.056619658926543</v>
+        <v>1.056618462792707</v>
       </c>
       <c r="W7">
-        <v>1.121504442131374</v>
+        <v>1.121208528014378</v>
       </c>
       <c r="X7">
-        <v>257.162065155443</v>
+        <v>257.1662975787993</v>
       </c>
       <c r="Y7">
         <v>0.1615</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.472125131392996E-06</v>
+        <v>5.449438152377887E-06</v>
       </c>
       <c r="C8">
-        <v>0.01468727472690185</v>
+        <v>0.01563379481364737</v>
       </c>
       <c r="D8">
-        <v>6.878138203894452E-05</v>
+        <v>7.349774924191259E-05</v>
       </c>
       <c r="E8">
-        <v>0.01566034431605929</v>
+        <v>0.01666510664869433</v>
       </c>
       <c r="F8">
-        <v>4.899913049428593</v>
+        <v>4.899913043104027</v>
       </c>
       <c r="S8">
-        <v>0.4453289107446809</v>
+        <v>0.4756883256382979</v>
       </c>
       <c r="T8">
-        <v>8.491480148315176E-05</v>
+        <v>8.491598291071244E-05</v>
       </c>
       <c r="U8">
-        <v>0.001420192666321698</v>
+        <v>0.001420295967570818</v>
       </c>
       <c r="V8">
-        <v>1.056873383037248</v>
+        <v>1.056872169049601</v>
       </c>
       <c r="W8">
-        <v>1.133985830272215</v>
+        <v>1.133680724400975</v>
       </c>
       <c r="X8">
-        <v>254.4536940230359</v>
+        <v>254.4579252455036</v>
       </c>
       <c r="Y8">
         <v>0.1598</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.467170644163148E-06</v>
+        <v>5.444261951497901E-06</v>
       </c>
       <c r="C9">
-        <v>0.01484446282738425</v>
+        <v>0.01580110983584528</v>
       </c>
       <c r="D9">
-        <v>6.96181129809759E-05</v>
+        <v>7.439475100633617E-05</v>
       </c>
       <c r="E9">
-        <v>0.01583656523773759</v>
+        <v>0.01685254356189931</v>
       </c>
       <c r="F9">
-        <v>4.899898285527619</v>
+        <v>4.899898278049834</v>
       </c>
       <c r="S9">
-        <v>0.450117393655914</v>
+        <v>0.4808032538709678</v>
       </c>
       <c r="T9">
-        <v>8.41235942500508E-05</v>
+        <v>8.412477700439513E-05</v>
       </c>
       <c r="U9">
-        <v>0.001424002613344081</v>
+        <v>0.001424107302326474</v>
       </c>
       <c r="V9">
-        <v>1.057130979584858</v>
+        <v>1.057129747283644</v>
       </c>
       <c r="W9">
-        <v>1.146746215621839</v>
+        <v>1.146431534823082</v>
       </c>
       <c r="X9">
-        <v>251.7453228040459</v>
+        <v>251.7495528045151</v>
       </c>
       <c r="Y9">
         <v>0.1581</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.462105868993235E-06</v>
+        <v>5.438970917785705E-06</v>
       </c>
       <c r="C10">
-        <v>0.01500505896558428</v>
+        <v>0.01597205239111527</v>
       </c>
       <c r="D10">
-        <v>7.047529600933727E-05</v>
+        <v>7.531374182874417E-05</v>
       </c>
       <c r="E10">
-        <v>0.01601676891455269</v>
+        <v>0.0170442139703358</v>
       </c>
       <c r="F10">
-        <v>4.899883439655548</v>
+        <v>4.899883430993452</v>
       </c>
       <c r="S10">
-        <v>0.4550099740217391</v>
+        <v>0.4860293761956522</v>
       </c>
       <c r="T10">
-        <v>8.333132247455779E-05</v>
+        <v>8.333250657020093E-05</v>
       </c>
       <c r="U10">
-        <v>0.001427864219546712</v>
+        <v>0.001427970330213886</v>
       </c>
       <c r="V10">
-        <v>1.057392550324119</v>
+        <v>1.057391299232074</v>
       </c>
       <c r="W10">
-        <v>1.159794997433215</v>
+        <v>1.159470338118082</v>
       </c>
       <c r="X10">
-        <v>249.0369515123684</v>
+        <v>249.0411802713995</v>
       </c>
       <c r="Y10">
         <v>0.1564</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.456927083454988E-06</v>
+        <v>5.433561189423311E-06</v>
       </c>
       <c r="C11">
-        <v>0.01516917526964555</v>
+        <v>0.01614674182682171</v>
       </c>
       <c r="D11">
-        <v>7.135368552158968E-05</v>
+        <v>7.62555349511497E-05</v>
       </c>
       <c r="E11">
-        <v>0.01620109101058757</v>
+        <v>0.01724026196367028</v>
       </c>
       <c r="F11">
-        <v>4.899868510113922</v>
+        <v>4.899868500235274</v>
       </c>
       <c r="S11">
-        <v>0.4600100836263736</v>
+        <v>0.4913703583516483</v>
       </c>
       <c r="T11">
-        <v>8.253797312261711E-05</v>
+        <v>8.253915857395444E-05</v>
       </c>
       <c r="U11">
-        <v>0.001431778759512767</v>
+        <v>0.001431886327020887</v>
       </c>
       <c r="V11">
-        <v>1.057658200836356</v>
+        <v>1.057656930458943</v>
       </c>
       <c r="W11">
-        <v>1.173141999318434</v>
+        <v>1.172806936304101</v>
       </c>
       <c r="X11">
-        <v>246.3285801331822</v>
+        <v>246.3328076287642</v>
       </c>
       <c r="Y11">
         <v>0.1547</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.451630396846328E-06</v>
+        <v>5.428028733296794E-06</v>
       </c>
       <c r="C12">
-        <v>0.01533692884280248</v>
+        <v>0.01632530278562027</v>
       </c>
       <c r="D12">
-        <v>7.225407327753446E-05</v>
+        <v>7.722098395575404E-05</v>
       </c>
       <c r="E12">
-        <v>0.01638967338461842</v>
+        <v>0.01744083820538424</v>
       </c>
       <c r="F12">
-        <v>4.89985349514757</v>
+        <v>4.899853484018919</v>
       </c>
       <c r="S12">
-        <v>0.4651213067777778</v>
+        <v>0.496830029</v>
       </c>
       <c r="T12">
-        <v>8.17435328584092E-05</v>
+        <v>8.174471968005165E-05</v>
       </c>
       <c r="U12">
-        <v>0.001435747553815633</v>
+        <v>0.001435856614589315</v>
       </c>
       <c r="V12">
-        <v>1.057928040706317</v>
+        <v>1.057926750530483</v>
       </c>
       <c r="W12">
-        <v>1.186797493455352</v>
+        <v>1.186451578597568</v>
       </c>
       <c r="X12">
-        <v>243.6202086653736</v>
+        <v>243.6244348744676</v>
       </c>
       <c r="Y12">
         <v>0.153</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.446211748918225E-06</v>
+        <v>5.42236931354799E-06</v>
       </c>
       <c r="C13">
-        <v>0.01550844204246007</v>
+        <v>0.01650786550249291</v>
       </c>
       <c r="D13">
-        <v>7.317729062692101E-05</v>
+        <v>7.821098557678435E-05</v>
       </c>
       <c r="E13">
-        <v>0.01658266444747616</v>
+        <v>0.01764610030512525</v>
       </c>
       <c r="F13">
-        <v>4.89983839294201</v>
+        <v>4.899838380528645</v>
       </c>
       <c r="S13">
-        <v>0.4703473888764045</v>
+        <v>0.5024123888764045</v>
       </c>
       <c r="T13">
-        <v>8.094798803272483E-05</v>
+        <v>8.094917623974718E-05</v>
       </c>
       <c r="U13">
-        <v>0.001439771971189238</v>
+        <v>0.001439882562987259</v>
       </c>
       <c r="V13">
-        <v>1.058202183721938</v>
+        <v>1.0582008732149</v>
       </c>
       <c r="W13">
-        <v>1.200772226464603</v>
+        <v>1.200414986743214</v>
       </c>
       <c r="X13">
-        <v>240.911837116505</v>
+        <v>240.916062016157</v>
       </c>
       <c r="Y13">
         <v>0.1513</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.440666878432042E-06</v>
+        <v>5.416578523747557E-06</v>
       </c>
       <c r="C14">
-        <v>0.01568384277827635</v>
+        <v>0.01669456612200332</v>
       </c>
       <c r="D14">
-        <v>7.41242112782745E-05</v>
+        <v>7.922648185403747E-05</v>
       </c>
       <c r="E14">
-        <v>0.01678021953818825</v>
+        <v>0.01785621323092839</v>
       </c>
       <c r="F14">
-        <v>4.899823201620729</v>
+        <v>4.899823187886606</v>
       </c>
       <c r="S14">
-        <v>0.4756922455681818</v>
+        <v>0.5081216205681818</v>
       </c>
       <c r="T14">
-        <v>8.015132466546919E-05</v>
+        <v>8.015251427479103E-05</v>
       </c>
       <c r="U14">
-        <v>0.00144385343071098</v>
+        <v>0.001443965592720428</v>
       </c>
       <c r="V14">
-        <v>1.058480748093282</v>
+        <v>1.058479416699792</v>
       </c>
       <c r="W14">
-        <v>1.215077446646506</v>
+        <v>1.214708383056353</v>
       </c>
       <c r="X14">
-        <v>238.2034654722449</v>
+        <v>238.2076890460784</v>
       </c>
       <c r="Y14">
         <v>0.1496</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.434991336925651E-06</v>
+        <v>5.410651749506586E-06</v>
       </c>
       <c r="C15">
-        <v>0.01586326483077058</v>
+        <v>0.01688554703740733</v>
       </c>
       <c r="D15">
-        <v>7.509575369151054E-05</v>
+        <v>8.026846339521043E-05</v>
       </c>
       <c r="E15">
-        <v>0.01698250133584819</v>
+        <v>0.01807134973512266</v>
       </c>
       <c r="F15">
-        <v>4.899807919242273</v>
+        <v>4.899807904149959</v>
       </c>
       <c r="S15">
-        <v>0.4811599725287357</v>
+        <v>0.5139620989655173</v>
       </c>
       <c r="T15">
-        <v>7.935352844128346E-05</v>
+        <v>7.935471946766066E-05</v>
       </c>
       <c r="U15">
-        <v>0.001447993404412339</v>
+        <v>0.00144810717723054</v>
       </c>
       <c r="V15">
-        <v>1.058763856667652</v>
+        <v>1.058762503814058</v>
       </c>
       <c r="W15">
-        <v>1.229724933805083</v>
+        <v>1.229343519396099</v>
       </c>
       <c r="X15">
-        <v>235.4950937308147</v>
+        <v>235.499315949879</v>
       </c>
       <c r="Y15">
         <v>0.1479</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.429180452826079E-06</v>
+        <v>5.404584123997062E-06</v>
       </c>
       <c r="C16">
-        <v>0.01604684819213197</v>
+        <v>0.01708095725338422</v>
       </c>
       <c r="D16">
-        <v>7.609288428953519E-05</v>
+        <v>8.133797298061114E-05</v>
       </c>
       <c r="E16">
-        <v>0.01718968029041634</v>
+        <v>0.01829169080848653</v>
       </c>
       <c r="F16">
-        <v>4.899792543797157</v>
+        <v>4.899792527307764</v>
       </c>
       <c r="S16">
-        <v>0.4867548559302326</v>
+        <v>0.5199384024418605</v>
       </c>
       <c r="T16">
-        <v>7.855458469781457E-05</v>
+        <v>7.855577715591808E-05</v>
       </c>
       <c r="U16">
-        <v>0.001452193419900349</v>
+        <v>0.001452308845650344</v>
       </c>
       <c r="V16">
-        <v>1.05905163716693</v>
+        <v>1.059050262257544</v>
       </c>
       <c r="W16">
-        <v>1.244727030442892</v>
+        <v>1.244332708060308</v>
       </c>
       <c r="X16">
-        <v>232.786721904895</v>
+        <v>232.7909427375093</v>
       </c>
       <c r="Y16">
         <v>0.1462</v>
@@ -1165,37 +1159,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.423229340930043E-06</v>
+        <v>5.398370587963721E-06</v>
       </c>
       <c r="C17">
-        <v>0.01623473943104776</v>
+        <v>0.01728095277433014</v>
       </c>
       <c r="D17">
-        <v>7.711662031553875E-05</v>
+        <v>8.24361079647462E-05</v>
       </c>
       <c r="E17">
-        <v>0.01740193509457368</v>
+        <v>0.0185174261917712</v>
       </c>
       <c r="F17">
-        <v>4.899777073204656</v>
+        <v>4.89977705527775</v>
       </c>
       <c r="S17">
-        <v>0.4924813836470589</v>
+        <v>0.5260553248235295</v>
       </c>
       <c r="T17">
-        <v>7.775447840334924E-05</v>
+        <v>7.775567231005205E-05</v>
       </c>
       <c r="U17">
-        <v>0.00145645506291489</v>
+        <v>0.00145657218537293</v>
       </c>
       <c r="V17">
-        <v>1.059344222453438</v>
+        <v>1.059342824866367</v>
       </c>
       <c r="W17">
-        <v>1.260096675928579</v>
+        <v>1.259688856583075</v>
       </c>
       <c r="X17">
-        <v>230.0783499759198</v>
+        <v>230.0825693984312</v>
       </c>
       <c r="Y17">
         <v>0.1445</v>
@@ -1206,37 +1200,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.417132868346783E-06</v>
+        <v>5.392005823018942E-06</v>
       </c>
       <c r="C18">
-        <v>0.01642709208355648</v>
+        <v>0.0174856970203583</v>
       </c>
       <c r="D18">
-        <v>7.81680334839011E-05</v>
+        <v>8.35640246670469E-05</v>
       </c>
       <c r="E18">
-        <v>0.01761945318011491</v>
+        <v>0.01874875489457655</v>
       </c>
       <c r="F18">
-        <v>4.899761505309318</v>
+        <v>4.899761485902847</v>
       </c>
       <c r="S18">
-        <v>0.4983442572619048</v>
+        <v>0.5323178882142857</v>
       </c>
       <c r="T18">
-        <v>7.695319415080591E-05</v>
+        <v>7.695438952334562E-05</v>
       </c>
       <c r="U18">
-        <v>0.001460779980428317</v>
+        <v>0.001460898845065585</v>
       </c>
       <c r="V18">
-        <v>1.059641750790252</v>
+        <v>1.059640329878514</v>
       </c>
       <c r="W18">
-        <v>1.275847442441341</v>
+        <v>1.275425503032418</v>
       </c>
       <c r="X18">
-        <v>227.369977929027</v>
+        <v>227.3741959169862</v>
       </c>
       <c r="Y18">
         <v>0.1428</v>
@@ -1247,37 +1241,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.41088566930997E-06</v>
+        <v>5.385484238284701E-06</v>
       </c>
       <c r="C19">
-        <v>0.01662406707211157</v>
+        <v>0.01769536127331844</v>
       </c>
       <c r="D19">
-        <v>7.924825325128509E-05</v>
+        <v>8.472294232970899E-05</v>
       </c>
       <c r="E19">
-        <v>0.01784243126216702</v>
+        <v>0.01898588576493748</v>
       </c>
       <c r="F19">
-        <v>4.899745837877282</v>
+        <v>4.899745816947503</v>
       </c>
       <c r="S19">
-        <v>0.5043484049397591</v>
+        <v>0.538731356746988</v>
       </c>
       <c r="T19">
-        <v>7.615071614931153E-05</v>
+        <v>7.615191300343633E-05</v>
       </c>
       <c r="U19">
-        <v>0.001465169883903044</v>
+        <v>0.00146529053792945</v>
       </c>
       <c r="V19">
-        <v>1.059944366120636</v>
+        <v>1.059942921213407</v>
       </c>
       <c r="W19">
-        <v>1.291993574378495</v>
+        <v>1.291556854757651</v>
       </c>
       <c r="X19">
-        <v>224.6616057794056</v>
+        <v>224.665822298723</v>
       </c>
       <c r="Y19">
         <v>0.1411</v>
@@ -1288,37 +1282,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.404482083565609E-06</v>
+        <v>5.378799980013204E-06</v>
       </c>
       <c r="C20">
-        <v>0.0168258331552684</v>
+        <v>0.01791012515540366</v>
       </c>
       <c r="D20">
-        <v>8.035847138867525E-05</v>
+        <v>8.591414704415965E-05</v>
       </c>
       <c r="E20">
-        <v>0.01807107590646801</v>
+        <v>0.0192290381074409</v>
       </c>
       <c r="F20">
-        <v>4.899730068592415</v>
+        <v>4.899730046093777</v>
       </c>
       <c r="S20">
-        <v>0.5104989952439024</v>
+        <v>0.5453012513414633</v>
       </c>
       <c r="T20">
-        <v>7.534702820006238E-05</v>
+        <v>7.53482265558116E-05</v>
       </c>
       <c r="U20">
-        <v>0.001469626552408085</v>
+        <v>0.001469749044997358</v>
       </c>
       <c r="V20">
-        <v>1.060252218386719</v>
+        <v>1.060250748780009</v>
       </c>
       <c r="W20">
-        <v>1.308550029432875</v>
+        <v>1.308097830438157</v>
       </c>
       <c r="X20">
-        <v>221.9532335276115</v>
+        <v>221.9574485617624</v>
       </c>
       <c r="Y20">
         <v>0.1394</v>
@@ -1329,37 +1323,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.397916193021002E-06</v>
+        <v>5.371946899627008E-06</v>
       </c>
       <c r="C21">
-        <v>0.01703256741062494</v>
+        <v>0.01813017714316119</v>
       </c>
       <c r="D21">
-        <v>8.1499945547981E-05</v>
+        <v>8.713899660665066E-05</v>
       </c>
       <c r="E21">
-        <v>0.01830560416277154</v>
+        <v>0.01947844233785376</v>
       </c>
       <c r="F21">
-        <v>4.899714195052164</v>
+        <v>4.899714170937255</v>
       </c>
       <c r="S21">
-        <v>0.5168014519753087</v>
+        <v>0.5520333655555555</v>
       </c>
       <c r="T21">
-        <v>7.454211368311469E-05</v>
+        <v>7.454331355505722E-05</v>
       </c>
       <c r="U21">
-        <v>0.001474151836210113</v>
+        <v>0.001474276218371248</v>
       </c>
       <c r="V21">
-        <v>1.060565463853223</v>
+        <v>1.060563968821932</v>
       </c>
       <c r="W21">
-        <v>1.325532524458475</v>
+        <v>1.325064104615902</v>
       </c>
       <c r="X21">
-        <v>219.2448611702119</v>
+        <v>219.249074674085</v>
       </c>
       <c r="Y21">
         <v>0.1377</v>
@@ -1370,37 +1364,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.391181758257004E-06</v>
+        <v>5.364918531777673E-06</v>
       </c>
       <c r="C22">
-        <v>0.0172444557539384</v>
+        <v>0.01835571511999312</v>
       </c>
       <c r="D22">
-        <v>8.267400452255181E-05</v>
+        <v>8.839892560817679E-05</v>
       </c>
       <c r="E22">
-        <v>0.01854624422258545</v>
+        <v>0.01973434068967378</v>
       </c>
       <c r="F22">
-        <v>4.899698214763173</v>
+        <v>4.899698188982564</v>
       </c>
       <c r="S22">
-        <v>0.523261470125</v>
+        <v>0.5589337826249999</v>
       </c>
       <c r="T22">
-        <v>7.373595553714406E-05</v>
+        <v>7.373715694744518E-05</v>
       </c>
       <c r="U22">
-        <v>0.00147874766045029</v>
+        <v>0.001478873985438848</v>
       </c>
       <c r="V22">
-        <v>1.060884265462037</v>
+        <v>1.060882744240012</v>
       </c>
       <c r="W22">
-        <v>1.34295758309815</v>
+        <v>1.342472155760121</v>
       </c>
       <c r="X22">
-        <v>216.5364886809938</v>
+        <v>216.5407006423545</v>
       </c>
       <c r="Y22">
         <v>0.136</v>
@@ -1411,37 +1405,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.384272228917962E-06</v>
+        <v>5.357708080675061E-06</v>
       </c>
       <c r="C23">
-        <v>0.01746169349760189</v>
+        <v>0.01858694697055496</v>
       </c>
       <c r="D23">
-        <v>8.38820528759142E-05</v>
+        <v>8.969545081125524E-05</v>
       </c>
       <c r="E23">
-        <v>0.01879323614585076</v>
+        <v>0.01999698797820374</v>
       </c>
       <c r="F23">
-        <v>4.899682125136536</v>
+        <v>4.899682097638728</v>
       </c>
       <c r="S23">
-        <v>0.5298850330379747</v>
+        <v>0.5660088937974683</v>
       </c>
       <c r="T23">
-        <v>7.292853625633754E-05</v>
+        <v>7.292973922109501E-05</v>
       </c>
       <c r="U23">
-        <v>0.001483416029501655</v>
+        <v>0.001483544352607442</v>
       </c>
       <c r="V23">
-        <v>1.06120879318484</v>
+        <v>1.061207244982592</v>
       </c>
       <c r="W23">
-        <v>1.360842588403386</v>
+        <v>1.360339318245152</v>
       </c>
       <c r="X23">
-        <v>213.828116076659</v>
+        <v>213.832326451729</v>
       </c>
       <c r="Y23">
         <v>0.1343</v>
@@ -1452,37 +1446,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.377180708063083E-06</v>
+        <v>5.350308397648613E-06</v>
       </c>
       <c r="C24">
-        <v>0.01768448595202145</v>
+        <v>0.01882409122080808</v>
       </c>
       <c r="D24">
-        <v>8.512557661861955E-05</v>
+        <v>9.103017710171361E-05</v>
       </c>
       <c r="E24">
-        <v>0.01904683263363547</v>
+        <v>0.02026665242178849</v>
       </c>
       <c r="F24">
-        <v>4.899665923482868</v>
+        <v>4.89966589421412</v>
       </c>
       <c r="S24">
-        <v>0.5366784308974359</v>
+        <v>0.5732654180769231</v>
       </c>
       <c r="T24">
-        <v>7.211983785559089E-05</v>
+        <v>7.212104239737939E-05</v>
       </c>
       <c r="U24">
-        <v>0.001488159030862935</v>
+        <v>0.001488289409830699</v>
       </c>
       <c r="V24">
-        <v>1.061539224445576</v>
+        <v>1.06153764843035</v>
       </c>
       <c r="W24">
-        <v>1.379205838786059</v>
+        <v>1.378683838216904</v>
       </c>
       <c r="X24">
-        <v>211.1197433376302</v>
+        <v>211.123952109919</v>
       </c>
       <c r="Y24">
         <v>0.1326</v>
@@ -1493,37 +1487,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.369899939230166E-06</v>
+        <v>5.342711941542105E-06</v>
       </c>
       <c r="C25">
-        <v>0.01791304907377993</v>
+        <v>0.0190673777278692</v>
       </c>
       <c r="D25">
-        <v>8.640614901889835E-05</v>
+        <v>9.24048042101785E-05</v>
       </c>
       <c r="E25">
-        <v>0.01930729986756467</v>
+        <v>0.02054361652374542</v>
       </c>
       <c r="F25">
-        <v>4.899649607006912</v>
+        <v>4.899649575911189</v>
       </c>
       <c r="S25">
-        <v>0.5436482806493507</v>
+        <v>0.5807104235064935</v>
       </c>
       <c r="T25">
-        <v>7.130984186672109E-05</v>
+        <v>7.13110480009762E-05</v>
       </c>
       <c r="U25">
-        <v>0.00149297884011231</v>
+        <v>0.001493111334935399</v>
       </c>
       <c r="V25">
-        <v>1.061875744524822</v>
+        <v>1.061874139838747</v>
       </c>
       <c r="W25">
-        <v>1.398066608802655</v>
+        <v>1.397524933588124</v>
       </c>
       <c r="X25">
-        <v>208.4113704790888</v>
+        <v>208.4155775954214</v>
       </c>
       <c r="Y25">
         <v>0.1309</v>
@@ -1534,37 +1528,37 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.362422266126289E-06</v>
+        <v>5.33491079735809E-06</v>
       </c>
       <c r="C26">
-        <v>0.01814761016489521</v>
+        <v>0.01931704842423313</v>
       </c>
       <c r="D26">
-        <v>8.772543731476883E-05</v>
+        <v>9.382113305811761E-05</v>
       </c>
       <c r="E26">
-        <v>0.01957491841007295</v>
+        <v>0.02082817804159671</v>
       </c>
       <c r="F26">
-        <v>4.899633172801934</v>
+        <v>4.899633139820683</v>
       </c>
       <c r="S26">
-        <v>0.5508015475</v>
+        <v>0.5883513501315789</v>
       </c>
       <c r="T26">
-        <v>7.049852930332535E-05</v>
+        <v>7.049973705392968E-05</v>
       </c>
       <c r="U26">
-        <v>0.001497877725436419</v>
+        <v>0.001498012398879029</v>
       </c>
       <c r="V26">
-        <v>1.0622185470391</v>
+        <v>1.062216912773811</v>
       </c>
       <c r="W26">
-        <v>1.417445214342719</v>
+        <v>1.416882859972565</v>
       </c>
       <c r="X26">
-        <v>205.7029974796922</v>
+        <v>205.7072029230772</v>
       </c>
       <c r="Y26">
         <v>0.1292</v>
@@ -1575,37 +1569,37 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.35473963200258E-06</v>
+        <v>5.32689658907519E-06</v>
       </c>
       <c r="C27">
-        <v>0.01838840862792962</v>
+        <v>0.0195733581214488</v>
       </c>
       <c r="D27">
-        <v>8.908520939204315E-05</v>
+        <v>9.528107438057241E-05</v>
       </c>
       <c r="E27">
-        <v>0.01984998418854788</v>
+        <v>0.02112065100484</v>
       </c>
       <c r="F27">
-        <v>4.899616617843571</v>
+        <v>4.899616582915663</v>
       </c>
       <c r="S27">
-        <v>0.5581455681333334</v>
+        <v>0.5961960348000001</v>
       </c>
       <c r="T27">
-        <v>6.968588065293637E-05</v>
+        <v>6.968709003848308E-05</v>
       </c>
       <c r="U27">
-        <v>0.001502858053202422</v>
+        <v>0.001502994970601522</v>
       </c>
       <c r="V27">
-        <v>1.062567834410897</v>
+        <v>1.062566169626067</v>
       </c>
       <c r="W27">
-        <v>1.437363083891954</v>
+        <v>1.436778979921089</v>
       </c>
       <c r="X27">
-        <v>202.9946243432596</v>
+        <v>202.9988280684875</v>
       </c>
       <c r="Y27">
         <v>0.1275</v>
@@ -1616,37 +1610,37 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.346843524703512E-06</v>
+        <v>5.31866051167903E-06</v>
       </c>
       <c r="C28">
-        <v>0.01863569678223418</v>
+        <v>0.01983657537884162</v>
       </c>
       <c r="D28">
-        <v>9.048734188152266E-05</v>
+        <v>9.678665611293805E-05</v>
       </c>
       <c r="E28">
-        <v>0.02013280954597648</v>
+        <v>0.02142136685186031</v>
       </c>
       <c r="F28">
-        <v>4.899599938983391</v>
+        <v>4.899599902044921</v>
       </c>
       <c r="S28">
-        <v>0.5656880758108108</v>
+        <v>0.604252737972973</v>
       </c>
       <c r="T28">
-        <v>6.887187584685809E-05</v>
+        <v>6.88730868884639E-05</v>
       </c>
       <c r="U28">
-        <v>0.001507922293375148</v>
+        <v>0.001508061522992736</v>
       </c>
       <c r="V28">
-        <v>1.062923818406236</v>
+        <v>1.062922122115319</v>
       </c>
       <c r="W28">
-        <v>1.457842834610896</v>
+        <v>1.457235840262606</v>
       </c>
       <c r="X28">
-        <v>200.2862510613818</v>
+        <v>200.2904530314181</v>
       </c>
       <c r="Y28">
         <v>0.1258</v>
@@ -1657,37 +1651,37 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.338724956887352E-06</v>
+        <v>5.310193243780574E-06</v>
       </c>
       <c r="C29">
-        <v>0.01888974074717051</v>
+        <v>0.02010698344353653</v>
       </c>
       <c r="D29">
-        <v>9.193382841511929E-05</v>
+        <v>9.834003344613144E-05</v>
       </c>
       <c r="E29">
-        <v>0.02042372438939263</v>
+        <v>0.02173067562577433</v>
       </c>
       <c r="F29">
-        <v>4.899583132941919</v>
+        <v>4.899583093926062</v>
       </c>
       <c r="S29">
-        <v>0.5734372275342466</v>
+        <v>0.6125301727397261</v>
       </c>
       <c r="T29">
-        <v>6.805649424046309E-05</v>
+        <v>6.805770695858545E-05</v>
       </c>
       <c r="U29">
-        <v>0.001513073025630775</v>
+        <v>0.001513214638739145</v>
       </c>
       <c r="V29">
-        <v>1.063286720693446</v>
+        <v>1.06328499186608</v>
       </c>
       <c r="W29">
-        <v>1.478908355495484</v>
+        <v>1.478277253454036</v>
       </c>
       <c r="X29">
-        <v>197.577877630749</v>
+        <v>197.5820778017392</v>
       </c>
       <c r="Y29">
         <v>0.1241</v>
@@ -1698,37 +1692,37 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.330374446235282E-06</v>
+        <v>5.301484951225634E-06</v>
       </c>
       <c r="C30">
-        <v>0.01915082139881989</v>
+        <v>0.02038488126867668</v>
       </c>
       <c r="D30">
-        <v>9.342678861645303E-05</v>
+        <v>9.994349821775896E-05</v>
       </c>
       <c r="E30">
-        <v>0.02072307743629526</v>
+        <v>0.02204894729996984</v>
       </c>
       <c r="F30">
-        <v>4.899566196301221</v>
+        <v>4.899566155138032</v>
       </c>
       <c r="S30">
-        <v>0.5814016334722223</v>
+        <v>0.62103753625</v>
       </c>
       <c r="T30">
-        <v>6.723971458526433E-05</v>
+        <v>6.724092900331134E-05</v>
       </c>
       <c r="U30">
-        <v>0.001518312945730164</v>
+        <v>0.001518457016887</v>
       </c>
       <c r="V30">
-        <v>1.063656773455155</v>
+        <v>1.06365501100857</v>
       </c>
       <c r="W30">
-        <v>1.500584897631808</v>
+        <v>1.49992838775305</v>
       </c>
       <c r="X30">
-        <v>194.8695040383022</v>
+        <v>194.8737023761933</v>
       </c>
       <c r="Y30">
         <v>0.1224</v>
@@ -1739,37 +1733,37 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.321781949394566E-06</v>
+        <v>5.292525246764894E-06</v>
       </c>
       <c r="C31">
-        <v>0.01941923540741431</v>
+        <v>0.02067058461755638</v>
       </c>
       <c r="D31">
-        <v>9.496847865652741E-05</v>
+        <v>0.0001015994899190925</v>
       </c>
       <c r="E31">
-        <v>0.02103123755387486</v>
+        <v>0.02237657320388895</v>
       </c>
       <c r="F31">
-        <v>4.899549125496875</v>
+        <v>4.899549082113128</v>
       </c>
       <c r="S31">
-        <v>0.5895903888732396</v>
+        <v>0.6297845438028169</v>
       </c>
       <c r="T31">
-        <v>6.64215150093346E-05</v>
+        <v>6.642273115009428E-05</v>
       </c>
       <c r="U31">
-        <v>0.00152364487262927</v>
+        <v>0.001523791479775936</v>
       </c>
       <c r="V31">
-        <v>1.064034220030606</v>
+        <v>1.064032422832403</v>
       </c>
       <c r="W31">
-        <v>1.522899171171243</v>
+        <v>1.522215864210133</v>
       </c>
       <c r="X31">
-        <v>192.1611302917515</v>
+        <v>192.1653267555209</v>
       </c>
       <c r="Y31">
         <v>0.1207</v>
@@ -1780,37 +1774,37 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.312936851429478E-06</v>
+        <v>5.283303115547108E-06</v>
       </c>
       <c r="C32">
-        <v>0.01969529636353942</v>
+        <v>0.02096442726223691</v>
       </c>
       <c r="D32">
-        <v>9.656130186438875E-05</v>
+        <v>0.0001033106083276729</v>
       </c>
       <c r="E32">
-        <v>0.02134859523298771</v>
+        <v>0.02271396756137909</v>
       </c>
       <c r="F32">
-        <v>4.899531916809507</v>
+        <v>4.899531871128461</v>
       </c>
       <c r="S32">
-        <v>0.5980131087142858</v>
+        <v>0.6387814658571429</v>
       </c>
       <c r="T32">
-        <v>6.560187297785096E-05</v>
+        <v>6.560309086654949E-05</v>
       </c>
       <c r="U32">
-        <v>0.001529071755611949</v>
+        <v>0.001529220980364021</v>
       </c>
       <c r="V32">
-        <v>1.06441931563877</v>
+        <v>1.064417482498623</v>
       </c>
       <c r="W32">
-        <v>1.545879452062832</v>
+        <v>1.545167861318306</v>
       </c>
       <c r="X32">
-        <v>189.4527563649658</v>
+        <v>189.456950920619</v>
       </c>
       <c r="Y32">
         <v>0.119</v>
@@ -1821,37 +1815,37 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.303827913416909E-06</v>
+        <v>5.273806921073419E-06</v>
       </c>
       <c r="C33">
-        <v>0.01997933600211442</v>
+        <v>0.02126676228620661</v>
       </c>
       <c r="D33">
-        <v>9.82078210262596E-05</v>
+        <v>0.0001050796258627922</v>
       </c>
       <c r="E33">
-        <v>0.02167556417872832</v>
+        <v>0.02306156919251561</v>
       </c>
       <c r="F33">
-        <v>4.899514566355467</v>
+        <v>4.899514518296716</v>
       </c>
       <c r="S33">
-        <v>0.6066799653623189</v>
+        <v>0.6480391682608696</v>
       </c>
       <c r="T33">
-        <v>6.478076527877193E-05</v>
+        <v>6.478198493582374E-05</v>
       </c>
       <c r="U33">
-        <v>0.001534596682717794</v>
+        <v>0.001534748610385127</v>
       </c>
       <c r="V33">
-        <v>1.064812328111972</v>
+        <v>1.064810457790649</v>
       </c>
       <c r="W33">
-        <v>1.569555697228698</v>
+        <v>1.568814230783375</v>
       </c>
       <c r="X33">
-        <v>186.7443822674011</v>
+        <v>186.7485748542864</v>
       </c>
       <c r="Y33">
         <v>0.1173</v>
@@ -1862,37 +1856,37 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.29444320985665E-06</v>
+        <v>5.264024313708775E-06</v>
       </c>
       <c r="C34">
-        <v>0.02027170553418925</v>
+        <v>0.02157796350179991</v>
       </c>
       <c r="D34">
-        <v>9.991077203071172E-05</v>
+        <v>0.0001069095029082606</v>
       </c>
       <c r="E34">
-        <v>0.02201258304085994</v>
+        <v>0.02341984333371203</v>
       </c>
       <c r="F34">
-        <v>4.899497070077047</v>
+        <v>4.899497019556173</v>
       </c>
       <c r="S34">
-        <v>0.6156017295588236</v>
+        <v>0.6575691560294118</v>
       </c>
       <c r="T34">
-        <v>6.395816797969256E-05</v>
+        <v>6.395938943307883E-05</v>
       </c>
       <c r="U34">
-        <v>0.001540222889045963</v>
+        <v>0.001540377609220384</v>
       </c>
       <c r="V34">
-        <v>1.065213538735263</v>
+        <v>1.065211629919546</v>
       </c>
       <c r="W34">
-        <v>1.593959669866759</v>
+        <v>1.593186621340954</v>
       </c>
       <c r="X34">
-        <v>184.0360079881655</v>
+        <v>184.0401985759526</v>
       </c>
       <c r="Y34">
         <v>0.1156</v>
@@ -1903,37 +1897,37 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.284770102298687E-06</v>
+        <v>5.253942210175873E-06</v>
       </c>
       <c r="C35">
-        <v>0.02057277709780355</v>
+        <v>0.02189842699432068</v>
       </c>
       <c r="D35">
-        <v>0.0001016730781941695</v>
+        <v>0.0001088034032888427</v>
       </c>
       <c r="E35">
-        <v>0.02236011731387037</v>
+        <v>0.02378928364976933</v>
       </c>
       <c r="F35">
-        <v>4.899479423731788</v>
+        <v>4.899479370660242</v>
       </c>
       <c r="S35">
-        <v>0.6247898150746269</v>
+        <v>0.6673836210447762</v>
       </c>
       <c r="T35">
-        <v>6.313405640008693E-05</v>
+        <v>6.313527967105953E-05</v>
       </c>
       <c r="U35">
-        <v>0.001545953766207858</v>
+        <v>0.001546111372615084</v>
       </c>
       <c r="V35">
-        <v>1.065623243122877</v>
+        <v>1.065621294446627</v>
       </c>
       <c r="W35">
-        <v>1.619125077036233</v>
+        <v>1.618318615630567</v>
       </c>
       <c r="X35">
-        <v>181.3276335200753</v>
+        <v>181.3318220426199</v>
       </c>
       <c r="Y35">
         <v>0.1139</v>
@@ -1944,37 +1938,37 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.274795178606395E-06</v>
+        <v>5.243546707097192E-06</v>
       </c>
       <c r="C36">
-        <v>0.02088294534052491</v>
+        <v>0.02222857280630601</v>
       </c>
       <c r="D36">
-        <v>0.0001034978665970254</v>
+        <v>0.0001107647125186216</v>
       </c>
       <c r="E36">
-        <v>0.0227186614010642</v>
+        <v>0.02417041440554204</v>
       </c>
       <c r="F36">
-        <v>4.89946162288101</v>
+        <v>4.899461567165694</v>
       </c>
       <c r="S36">
-        <v>0.6342563274242425</v>
+        <v>0.6774954940909091</v>
       </c>
       <c r="T36">
-        <v>6.230840507662012E-05</v>
+        <v>6.230963019440167E-05</v>
       </c>
       <c r="U36">
-        <v>0.00155179287238656</v>
+        <v>0.001551953463590544</v>
       </c>
       <c r="V36">
-        <v>1.066041752175262</v>
+        <v>1.066039762188857</v>
       </c>
       <c r="W36">
-        <v>1.645087719121231</v>
+        <v>1.64424587792803</v>
       </c>
       <c r="X36">
-        <v>178.6192588609804</v>
+        <v>178.6234452837866</v>
       </c>
       <c r="Y36">
         <v>0.1122</v>
@@ -1985,37 +1979,37 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.264504177146365E-06</v>
+        <v>5.232823053852518E-06</v>
       </c>
       <c r="C37">
-        <v>0.02120262914781611</v>
+        <v>0.02256884677697966</v>
       </c>
       <c r="D37">
-        <v>0.000105388486321625</v>
+        <v>0.0001127970567233565</v>
       </c>
       <c r="E37">
-        <v>0.02308874086674115</v>
+        <v>0.02456379286569975</v>
       </c>
       <c r="F37">
-        <v>4.899443662877477</v>
+        <v>4.89944360442056</v>
       </c>
       <c r="S37">
-        <v>0.6440141170769232</v>
+        <v>0.6879185016923078</v>
       </c>
       <c r="T37">
-        <v>6.148118772161255E-05</v>
+        <v>6.148241471188533E-05</v>
       </c>
       <c r="U37">
-        <v>0.001557743943065094</v>
+        <v>0.001557907622434829</v>
       </c>
       <c r="V37">
-        <v>1.06646939312453</v>
+        <v>1.066467360310908</v>
       </c>
       <c r="W37">
-        <v>1.671885652913914</v>
+        <v>1.671006317394541</v>
       </c>
       <c r="X37">
-        <v>175.9108839937494</v>
+        <v>175.91506826079</v>
       </c>
       <c r="Y37">
         <v>0.1105</v>
@@ -2026,37 +2020,37 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.253881934202144E-06</v>
+        <v>5.221755553999242E-06</v>
       </c>
       <c r="C38">
-        <v>0.02153227353315195</v>
+        <v>0.02291972255385866</v>
       </c>
       <c r="D38">
-        <v>0.000107348528107684</v>
+        <v>0.0001149043248936668</v>
       </c>
       <c r="E38">
-        <v>0.02347091491121257</v>
+        <v>0.02497001189291513</v>
       </c>
       <c r="F38">
-        <v>4.899425538852004</v>
+        <v>4.899425477550558</v>
       </c>
       <c r="S38">
-        <v>0.65407683765625</v>
+        <v>0.6986672282812501</v>
       </c>
       <c r="T38">
-        <v>6.065237718720787E-05</v>
+        <v>6.065360607633385E-05</v>
       </c>
       <c r="U38">
-        <v>0.001563810902878671</v>
+        <v>0.001563977779036943</v>
       </c>
       <c r="V38">
-        <v>1.066906510652978</v>
+        <v>1.066904433415035</v>
       </c>
       <c r="W38">
-        <v>1.69955937083364</v>
+        <v>1.698640264824158</v>
       </c>
       <c r="X38">
-        <v>173.2025089033432</v>
+        <v>173.2066909562469</v>
       </c>
       <c r="Y38">
         <v>0.1088</v>
@@ -2067,37 +2061,37 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.242912319395189E-06</v>
+        <v>5.210327516756983E-06</v>
       </c>
       <c r="C39">
-        <v>0.0218723517078352</v>
+        <v>0.02328170379558826</v>
       </c>
       <c r="D39">
-        <v>0.000109381846254158</v>
+        <v>0.0001170906924261629</v>
       </c>
       <c r="E39">
-        <v>0.02386577908089027</v>
+        <v>0.02538970281770227</v>
       </c>
       <c r="F39">
-        <v>4.899407245698947</v>
+        <v>4.899407181444598</v>
       </c>
       <c r="S39">
-        <v>0.6644590096825397</v>
+        <v>0.7097571842857143</v>
       </c>
       <c r="T39">
-        <v>5.982194542738946E-05</v>
+        <v>5.982317624291573E-05</v>
       </c>
       <c r="U39">
-        <v>0.001569997878466983</v>
+        <v>0.00157016806566032</v>
       </c>
       <c r="V39">
-        <v>1.067353468106567</v>
+        <v>1.067351344760667</v>
       </c>
       <c r="W39">
-        <v>1.728151997168014</v>
+        <v>1.727190667870903</v>
       </c>
       <c r="X39">
-        <v>170.4941335955218</v>
+        <v>170.4983133756224</v>
       </c>
       <c r="Y39">
         <v>0.1071</v>
@@ -2108,37 +2102,37 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.231578130500956E-06</v>
+        <v>5.198521129935399E-06</v>
       </c>
       <c r="C40">
-        <v>0.02222336735076393</v>
+        <v>0.02365532658757475</v>
       </c>
       <c r="D40">
-        <v>0.0001114925835998187</v>
+        <v>0.0001193606487663989</v>
       </c>
       <c r="E40">
-        <v>0.02427396822874733</v>
+        <v>0.02582353855659251</v>
       </c>
       <c r="F40">
-        <v>4.899388778060679</v>
+        <v>4.899388710739188</v>
       </c>
       <c r="S40">
-        <v>0.6751760904838711</v>
+        <v>0.7212048808064516</v>
       </c>
       <c r="T40">
-        <v>5.898986344220786E-05</v>
+        <v>5.899109621589386E-05</v>
       </c>
       <c r="U40">
-        <v>0.001576309211932886</v>
+        <v>0.00157648283051377</v>
       </c>
       <c r="V40">
-        <v>1.067810648844166</v>
+        <v>1.067808477607994</v>
       </c>
       <c r="W40">
-        <v>1.757709502443688</v>
+        <v>1.756703303169558</v>
       </c>
       <c r="X40">
-        <v>167.7857580469323</v>
+        <v>167.7899355087577</v>
       </c>
       <c r="Y40">
         <v>0.1054</v>
@@ -2149,37 +2143,37 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.219861038464083E-06</v>
+        <v>5.18631743691282E-06</v>
       </c>
       <c r="C41">
-        <v>0.0225858571010453</v>
+        <v>0.02404116209476833</v>
       </c>
       <c r="D41">
-        <v>0.0001136851981822593</v>
+        <v>0.0001217190258111951</v>
       </c>
       <c r="E41">
-        <v>0.02469615978979961</v>
+        <v>0.02627223708582126</v>
       </c>
       <c r="F41">
-        <v>4.899370130310501</v>
+        <v>4.899370059801469</v>
       </c>
       <c r="S41">
-        <v>0.6862445509836066</v>
+        <v>0.7330279116393443</v>
       </c>
       <c r="T41">
-        <v>5.815610124135229E-05</v>
+        <v>5.8157335999714E-05</v>
       </c>
       <c r="U41">
-        <v>0.001582749476176714</v>
+        <v>0.001582926652720228</v>
       </c>
       <c r="V41">
-        <v>1.068278457661338</v>
+        <v>1.068276236666236</v>
       </c>
       <c r="W41">
-        <v>1.788280940608227</v>
+        <v>1.787227012640902</v>
       </c>
       <c r="X41">
-        <v>165.077382257224</v>
+        <v>165.0815573251329</v>
       </c>
       <c r="Y41">
         <v>0.1037</v>
@@ -2190,37 +2184,37 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.207741459001945E-06</v>
+        <v>5.173696185690076E-06</v>
       </c>
       <c r="C42">
-        <v>0.02296039329942635</v>
+        <v>0.02443981947925095</v>
       </c>
       <c r="D42">
-        <v>0.0001159644942619748</v>
+        <v>0.0001241710321539765</v>
       </c>
       <c r="E42">
-        <v>0.02513307735839949</v>
+        <v>0.0267365652089654</v>
       </c>
       <c r="F42">
-        <v>4.899351296534292</v>
+        <v>4.899351222710573</v>
       </c>
       <c r="S42">
-        <v>0.6976819601666667</v>
+        <v>0.7452450435000001</v>
       </c>
       <c r="T42">
-        <v>5.732062778674739E-05</v>
+        <v>5.73218645620734E-05</v>
       </c>
       <c r="U42">
-        <v>0.001589323490987382</v>
+        <v>0.001589504359097272</v>
       </c>
       <c r="V42">
-        <v>1.068757322378773</v>
+        <v>1.068755049640559</v>
       </c>
       <c r="W42">
-        <v>1.819918708066581</v>
+        <v>1.818813959793565</v>
       </c>
       <c r="X42">
-        <v>162.369006220159</v>
+        <v>162.3731788381851</v>
       </c>
       <c r="Y42">
         <v>0.102</v>
@@ -2231,37 +2225,37 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.195198472736265E-06</v>
+        <v>5.160635750276829E-06</v>
       </c>
       <c r="C43">
-        <v>0.02334758700798846</v>
+        <v>0.02485194911394751</v>
       </c>
       <c r="D43">
-        <v>0.000118335655790041</v>
+        <v>0.0001267222895509993</v>
       </c>
       <c r="E43">
-        <v>0.02558549465457486</v>
+        <v>0.02721734274579866</v>
       </c>
       <c r="F43">
-        <v>4.899332270510498</v>
+        <v>4.899332193237774</v>
       </c>
       <c r="S43">
-        <v>0.7095070781355933</v>
+        <v>0.7578763154237289</v>
       </c>
       <c r="T43">
-        <v>5.648341093770784E-05</v>
+        <v>5.648464976343483E-05</v>
       </c>
       <c r="U43">
-        <v>0.001596036340761669</v>
+        <v>0.00159622104142013</v>
       </c>
       <c r="V43">
-        <v>1.069247695563745</v>
+        <v>1.069245368984015</v>
       </c>
       <c r="W43">
-        <v>1.852678830888838</v>
+        <v>1.851519914680181</v>
       </c>
       <c r="X43">
-        <v>159.66062992255</v>
+        <v>159.6648000329717</v>
       </c>
       <c r="Y43">
         <v>0.1003</v>
@@ -2272,37 +2266,37 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.182209695784964E-06</v>
+        <v>5.147112968234698E-06</v>
       </c>
       <c r="C44">
-        <v>0.02374809134164706</v>
+        <v>0.02527824612816124</v>
       </c>
       <c r="D44">
-        <v>0.0001208042846801884</v>
+        <v>0.0001293788753980137</v>
       </c>
       <c r="E44">
-        <v>0.02605423988377046</v>
+        <v>0.02771544711801348</v>
       </c>
       <c r="F44">
-        <v>4.899313045688393</v>
+        <v>4.899312964824705</v>
       </c>
       <c r="S44">
-        <v>0.7217399587931034</v>
+        <v>0.7709431484482758</v>
       </c>
       <c r="T44">
-        <v>5.56444173902256E-05</v>
+        <v>5.564565829602826E-05</v>
       </c>
       <c r="U44">
-        <v>0.001602893393751445</v>
+        <v>0.001603082075689677</v>
       </c>
       <c r="V44">
-        <v>1.069750056416564</v>
+        <v>1.069747673784928</v>
       </c>
       <c r="W44">
-        <v>1.88662128050474</v>
+        <v>1.885404565851257</v>
       </c>
       <c r="X44">
-        <v>156.9522533339986</v>
+        <v>156.9564208548169</v>
       </c>
       <c r="Y44">
         <v>0.09860000000000002</v>
@@ -2313,37 +2307,37 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.168751165575152E-06</v>
+        <v>5.133103072664803E-06</v>
       </c>
       <c r="C45">
-        <v>0.02416260514966402</v>
+        <v>0.02571945432557813</v>
       </c>
       <c r="D45">
-        <v>0.0001233764431533964</v>
+        <v>0.0001321473679258921</v>
       </c>
       <c r="E45">
-        <v>0.02654020056716474</v>
+        <v>0.02823181846755152</v>
       </c>
       <c r="F45">
-        <v>4.8992936151642</v>
+        <v>4.899293530559251</v>
       </c>
       <c r="S45">
-        <v>0.7344020633333334</v>
+        <v>0.7844684668421052</v>
       </c>
       <c r="T45">
-        <v>5.480361262278498E-05</v>
+        <v>5.480485564323556E-05</v>
       </c>
       <c r="U45">
-        <v>0.001609900323452553</v>
+        <v>0.001610093144032712</v>
       </c>
       <c r="V45">
-        <v>1.070264912812172</v>
+        <v>1.070262471778474</v>
       </c>
       <c r="W45">
-        <v>1.921810323473189</v>
+        <v>1.92053186854092</v>
       </c>
       <c r="X45">
-        <v>154.2438764449078</v>
+        <v>154.2480413086498</v>
       </c>
       <c r="Y45">
         <v>0.09690000000000001</v>
@@ -2354,37 +2348,37 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.154797178241741E-06</v>
+        <v>5.118579502167889E-06</v>
       </c>
       <c r="C46">
-        <v>0.02459187709085171</v>
+        <v>0.0261763705212505</v>
       </c>
       <c r="D46">
-        <v>0.0001260587021036117</v>
+        <v>0.0001350348995839269</v>
       </c>
       <c r="E46">
-        <v>0.02704432887180177</v>
+        <v>0.02876746526775241</v>
       </c>
       <c r="F46">
-        <v>4.899273971655145</v>
+        <v>4.899273883149755</v>
       </c>
       <c r="S46">
-        <v>0.7475163858928572</v>
+        <v>0.7984768323214285</v>
       </c>
       <c r="T46">
-        <v>5.396096082995682E-05</v>
+        <v>5.396220599815779E-05</v>
       </c>
       <c r="U46">
-        <v>0.001617063131723904</v>
+        <v>0.001617260257365428</v>
       </c>
       <c r="V46">
-        <v>1.070792803555682</v>
+        <v>1.070790301633687</v>
       </c>
       <c r="W46">
-        <v>1.958314907444009</v>
+        <v>1.956970426377715</v>
       </c>
       <c r="X46">
-        <v>151.535499269484</v>
+        <v>151.539661394037</v>
       </c>
       <c r="Y46">
         <v>0.09520000000000002</v>
@@ -2395,37 +2389,37 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.140320140280944E-06</v>
+        <v>5.103513744412815E-06</v>
       </c>
       <c r="C47">
-        <v>0.02503671015246531</v>
+        <v>0.02664984935073534</v>
       </c>
       <c r="D47">
-        <v>0.0001288581949379236</v>
+        <v>0.0001380492160315353</v>
       </c>
       <c r="E47">
-        <v>0.02756764753543737</v>
+        <v>0.02932347056741325</v>
       </c>
       <c r="F47">
-        <v>4.899254107471481</v>
+        <v>4.899254014896824</v>
       </c>
       <c r="S47">
-        <v>0.7611075929090909</v>
+        <v>0.8129945929090908</v>
       </c>
       <c r="T47">
-        <v>5.311642482688957E-05</v>
+        <v>5.311767217857004E-05</v>
       </c>
       <c r="U47">
-        <v>0.001624388173220817</v>
+        <v>0.001624589780249845</v>
       </c>
       <c r="V47">
-        <v>1.071334300916282</v>
+        <v>1.071331735463423</v>
       </c>
       <c r="W47">
-        <v>1.996209090183734</v>
+        <v>1.994793916150561</v>
       </c>
       <c r="X47">
-        <v>148.8271217404154</v>
+        <v>148.831281047063</v>
       </c>
       <c r="Y47">
         <v>0.09350000000000001</v>
@@ -2436,37 +2430,37 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.125290401788381E-06</v>
+        <v>5.087875173097043E-06</v>
       </c>
       <c r="C48">
-        <v>0.0254979666701973</v>
+        <v>0.02714080861248911</v>
       </c>
       <c r="D48">
-        <v>0.000131782678391412</v>
+        <v>0.0001411987425042719</v>
       </c>
       <c r="E48">
-        <v>0.02811125644315815</v>
+        <v>0.02990099892726016</v>
       </c>
       <c r="F48">
-        <v>4.899234014484896</v>
+        <v>4.899233917661777</v>
       </c>
       <c r="S48">
-        <v>0.775202177962963</v>
+        <v>0.8280500483333333</v>
       </c>
       <c r="T48">
-        <v>5.226996600660279E-05</v>
+        <v>5.227121557771547E-05</v>
       </c>
       <c r="U48">
-        <v>0.001631882184352936</v>
+        <v>0.001632088459691999</v>
       </c>
       <c r="V48">
-        <v>1.071890013277025</v>
+        <v>1.071887381487601</v>
       </c>
       <c r="W48">
-        <v>2.035572515797115</v>
+        <v>2.034081559677562</v>
       </c>
       <c r="X48">
-        <v>146.1187438653901</v>
+        <v>146.1229002675404</v>
       </c>
       <c r="Y48">
         <v>0.09180000000000001</v>
@@ -2477,37 +2471,37 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.109676062653755E-06</v>
+        <v>5.071630817917833E-06</v>
       </c>
       <c r="C49">
-        <v>0.02597657391532571</v>
+        <v>0.02765023521380958</v>
       </c>
       <c r="D49">
-        <v>0.0001348406015623923</v>
+        <v>0.0001444926601875407</v>
       </c>
       <c r="E49">
-        <v>0.0286763399419596</v>
+        <v>0.03050130410882303</v>
       </c>
       <c r="F49">
-        <v>4.899213684094666</v>
+        <v>4.89921358283264</v>
       </c>
       <c r="S49">
-        <v>0.7898286341509434</v>
+        <v>0.8436736341509434</v>
       </c>
       <c r="T49">
-        <v>5.142154424205823E-05</v>
+        <v>5.142279607083032E-05</v>
       </c>
       <c r="U49">
-        <v>0.001639552313250966</v>
+        <v>0.001639763455346805</v>
       </c>
       <c r="V49">
-        <v>1.072460588172788</v>
+        <v>1.072457887059619</v>
       </c>
       <c r="W49">
-        <v>2.076490944385199</v>
+        <v>2.07491864685871</v>
       </c>
       <c r="X49">
-        <v>143.410365661518</v>
+        <v>143.4145190734</v>
       </c>
       <c r="Y49">
         <v>0.09010000000000001</v>
@@ -2518,37 +2512,37 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.093442733364946E-06</v>
+        <v>5.054745186881492E-06</v>
       </c>
       <c r="C50">
-        <v>0.02647353032520577</v>
+        <v>0.02817919180137924</v>
       </c>
       <c r="D50">
-        <v>0.0001380411848306966</v>
+        <v>0.0001479409909965102</v>
       </c>
       <c r="E50">
-        <v>0.02926417497857547</v>
+        <v>0.03112573768453787</v>
       </c>
       <c r="F50">
-        <v>4.899193107190469</v>
+        <v>4.899193001286943</v>
       </c>
       <c r="S50">
-        <v>0.8050176463461539</v>
+        <v>0.8598981271153846</v>
       </c>
       <c r="T50">
-        <v>5.057111778325261E-05</v>
+        <v>5.05723719084884E-05</v>
       </c>
       <c r="U50">
-        <v>0.001647406152793069</v>
+        <v>0.001647622372492153</v>
       </c>
       <c r="V50">
-        <v>1.073046715641637</v>
+        <v>1.073043942025201</v>
       </c>
       <c r="W50">
-        <v>2.11905684131611</v>
+        <v>2.117397121397134</v>
       </c>
       <c r="X50">
-        <v>140.7019870974426</v>
+        <v>140.706137425974</v>
       </c>
       <c r="Y50">
         <v>0.08840000000000001</v>
@@ -2559,37 +2553,37 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.076553319263319E-06</v>
+        <v>5.037179988725527E-06</v>
       </c>
       <c r="C51">
-        <v>0.02698991246521313</v>
+        <v>0.02872882417021027</v>
       </c>
       <c r="D51">
-        <v>0.0001413945084655243</v>
+        <v>0.0001515546960760636</v>
       </c>
       <c r="E51">
-        <v>0.02987614021170757</v>
+        <v>0.03177575860128429</v>
       </c>
       <c r="F51">
-        <v>4.89917227411128</v>
+        <v>4.899172163350442</v>
       </c>
       <c r="S51">
-        <v>0.8208023060784314</v>
+        <v>0.8767588747058823</v>
       </c>
       <c r="T51">
-        <v>4.971864315813892E-05</v>
+        <v>4.971989962154978E-05</v>
       </c>
       <c r="U51">
-        <v>0.001655451777442373</v>
+        <v>0.00165567329911708</v>
       </c>
       <c r="V51">
-        <v>1.073649131904405</v>
+        <v>1.073646282390498</v>
       </c>
       <c r="W51">
-        <v>2.163370037053408</v>
+        <v>2.161616231379884</v>
       </c>
       <c r="X51">
-        <v>137.9936080850348</v>
+        <v>137.9977552396272</v>
       </c>
       <c r="Y51">
         <v>0.08670000000000001</v>
@@ -2600,37 +2594,37 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.057708736793158E-06</v>
+        <v>5.017635632878102E-06</v>
       </c>
       <c r="C52">
-        <v>0.02752688282434808</v>
+        <v>0.02930036955969296</v>
       </c>
       <c r="D52">
-        <v>0.000144943782270149</v>
+        <v>0.0001553805557005862</v>
       </c>
       <c r="E52">
-        <v>0.03051294021688398</v>
+        <v>0.03245210851509008</v>
       </c>
       <c r="F52">
-        <v>4.89809014284776</v>
+        <v>4.898089882189242</v>
       </c>
       <c r="S52">
-        <v>0.8372183522000001</v>
+        <v>0.8942940522</v>
       </c>
       <c r="T52">
-        <v>4.886407511504051E-05</v>
+        <v>4.886533395713221E-05</v>
       </c>
       <c r="U52">
-        <v>0.003743320018391136</v>
+        <v>0.003743830909085458</v>
       </c>
       <c r="V52">
-        <v>1.074268623311002</v>
+        <v>1.074265694283021</v>
       </c>
       <c r="W52">
-        <v>2.209481550824329</v>
+        <v>2.207626429597964</v>
       </c>
       <c r="X52">
-        <v>135.285228689909</v>
+        <v>135.2893725635664</v>
       </c>
       <c r="Y52">
         <v>0.08500000000000001</v>
@@ -2641,37 +2635,37 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.950619656990301E-06</v>
+        <v>5.878970554975657E-06</v>
       </c>
       <c r="C53">
-        <v>0.02808569790683947</v>
+        <v>0.02989516525365199</v>
       </c>
       <c r="D53">
-        <v>0.0001271173906233253</v>
+        <v>0.0001304395860101953</v>
       </c>
       <c r="E53">
-        <v>0.02999001685325555</v>
+        <v>0.03189723682532887</v>
       </c>
       <c r="F53">
-        <v>5.569260657235001</v>
+        <v>5.599260554276713</v>
       </c>
       <c r="S53">
-        <v>0.8543044410204083</v>
+        <v>0.9125449512244899</v>
       </c>
       <c r="T53">
-        <v>9.03076653541297E-05</v>
+        <v>9.03100379456502E-05</v>
       </c>
       <c r="U53">
-        <v>0.001420697862156251</v>
+        <v>0.001420895703572081</v>
       </c>
       <c r="V53">
-        <v>1.055229297126696</v>
+        <v>1.055227076030976</v>
       </c>
       <c r="W53">
-        <v>2.171615992270496</v>
+        <v>2.169880056144821</v>
       </c>
       <c r="X53">
-        <v>272.9523358483066</v>
+        <v>272.9608603849376</v>
       </c>
       <c r="Y53">
         <v>0.1715</v>
@@ -2682,37 +2676,37 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.93241324461331E-06</v>
+        <v>5.86023966704266E-06</v>
       </c>
       <c r="C54">
-        <v>0.02866816833426064</v>
+        <v>0.03051526370506119</v>
       </c>
       <c r="D54">
-        <v>0.0001302790718792779</v>
+        <v>0.000133698601856819</v>
       </c>
       <c r="E54">
-        <v>0.03064229215962336</v>
+        <v>0.03259044466770082</v>
       </c>
       <c r="F54">
-        <v>5.569242249505668</v>
+        <v>5.599242141793145</v>
       </c>
       <c r="S54">
-        <v>0.8721024502083334</v>
+        <v>0.931556304375</v>
       </c>
       <c r="T54">
-        <v>8.8691973267788E-05</v>
+        <v>8.869435049712679E-05</v>
       </c>
       <c r="U54">
-        <v>0.00142806823931846</v>
+        <v>0.001428271235998368</v>
       </c>
       <c r="V54">
-        <v>1.055713141202032</v>
+        <v>1.055710855575526</v>
       </c>
       <c r="W54">
-        <v>2.218848092659186</v>
+        <v>2.217037052224546</v>
       </c>
       <c r="X54">
-        <v>267.376258785183</v>
+        <v>267.3847761054204</v>
       </c>
       <c r="Y54">
         <v>0.168</v>
@@ -2723,37 +2717,37 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.913418351116599E-06</v>
+        <v>5.840700309998134E-06</v>
       </c>
       <c r="C55">
-        <v>0.0292753574675028</v>
+        <v>0.03116167998385277</v>
       </c>
       <c r="D55">
-        <v>0.0001336001752834878</v>
+        <v>0.0001371226335799562</v>
       </c>
       <c r="E55">
-        <v>0.03132324598001192</v>
+        <v>0.0333140989574495</v>
       </c>
       <c r="F55">
-        <v>5.56922358577364</v>
+        <v>5.599223473067999</v>
       </c>
       <c r="S55">
-        <v>0.8906578214893618</v>
+        <v>0.9513766512765959</v>
       </c>
       <c r="T55">
-        <v>8.707206498403101E-05</v>
+        <v>8.707444693653054E-05</v>
       </c>
       <c r="U55">
-        <v>0.00143563385251465</v>
+        <v>0.00143584225162445</v>
       </c>
       <c r="V55">
-        <v>1.056211571919204</v>
+        <v>1.056209218491328</v>
       </c>
       <c r="W55">
-        <v>2.268156841420125</v>
+        <v>2.266265235200646</v>
       </c>
       <c r="X55">
-        <v>261.800180622546</v>
+        <v>261.8086904738952</v>
       </c>
       <c r="Y55">
         <v>0.1645</v>
@@ -2764,37 +2758,37 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.893582922786394E-06</v>
+        <v>5.820299246988396E-06</v>
       </c>
       <c r="C56">
-        <v>0.02990887393037713</v>
+        <v>0.03183612688277175</v>
       </c>
       <c r="D56">
-        <v>0.0001370929571786682</v>
+        <v>0.0001407244191113933</v>
       </c>
       <c r="E56">
-        <v>0.03203479178317493</v>
+        <v>0.03407022858592671</v>
       </c>
       <c r="F56">
-        <v>5.569204654821529</v>
+        <v>5.599204536866633</v>
       </c>
       <c r="S56">
-        <v>0.9100199480434784</v>
+        <v>0.9720587523913045</v>
       </c>
       <c r="T56">
-        <v>8.544783937651672E-05</v>
+        <v>8.545022614481556E-05</v>
       </c>
       <c r="U56">
-        <v>0.001443404212780922</v>
+        <v>0.001443618279073422</v>
       </c>
       <c r="V56">
-        <v>1.056725354505501</v>
+        <v>1.056722929760938</v>
       </c>
       <c r="W56">
-        <v>2.319680795305933</v>
+        <v>2.317702624892974</v>
       </c>
       <c r="X56">
-        <v>256.2241013787988</v>
+        <v>256.2326035151381</v>
       </c>
       <c r="Y56">
         <v>0.161</v>
@@ -2805,37 +2799,37 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.872850259696951E-06</v>
+        <v>5.798978509120365E-06</v>
       </c>
       <c r="C57">
-        <v>0.03057046906311487</v>
+        <v>0.03254046915974198</v>
       </c>
       <c r="D57">
-        <v>0.0001407709536240411</v>
+        <v>0.0001445180315829034</v>
       </c>
       <c r="E57">
-        <v>0.03277901538902622</v>
+        <v>0.03486104493007647</v>
       </c>
       <c r="F57">
-        <v>5.569185444659755</v>
+        <v>5.599185321180676</v>
       </c>
       <c r="S57">
-        <v>0.9302426135555557</v>
+        <v>0.9936600580000001</v>
       </c>
       <c r="T57">
-        <v>8.381919064125139E-05</v>
+        <v>8.382158231520513E-05</v>
       </c>
       <c r="U57">
-        <v>0.001451389515346048</v>
+        <v>0.001451609532614221</v>
       </c>
       <c r="V57">
-        <v>1.057255312159163</v>
+        <v>1.057252812326277</v>
       </c>
       <c r="W57">
-        <v>2.373570991240132</v>
+        <v>2.371499655107243</v>
       </c>
       <c r="X57">
-        <v>250.6480210942604</v>
+        <v>250.6565152255301</v>
       </c>
       <c r="Y57">
         <v>0.1575</v>
@@ -2846,37 +2840,37 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.851158487472006E-06</v>
+        <v>5.776674805688562E-06</v>
       </c>
       <c r="C58">
-        <v>0.03126205311105785</v>
+        <v>0.03327674077629105</v>
       </c>
       <c r="D58">
-        <v>0.0001446491508843205</v>
+        <v>0.0001485190591729641</v>
       </c>
       <c r="E58">
-        <v>0.0335581946267</v>
+        <v>0.03568896260884284</v>
       </c>
       <c r="F58">
-        <v>5.569165942454929</v>
+        <v>5.59916581315603</v>
       </c>
       <c r="S58">
-        <v>0.9513844911363638</v>
+        <v>1.016243241136364</v>
       </c>
       <c r="T58">
-        <v>8.218600789688358E-05</v>
+        <v>8.218840457090235E-05</v>
       </c>
       <c r="U58">
-        <v>0.00145960070387507</v>
+        <v>0.00145982697694816</v>
       </c>
       <c r="V58">
-        <v>1.057802331944152</v>
+        <v>1.05779975296087</v>
       </c>
       <c r="W58">
-        <v>2.429992369782766</v>
+        <v>2.427820585635568</v>
       </c>
       <c r="X58">
-        <v>245.0719394788633</v>
+        <v>245.0804253043669</v>
       </c>
       <c r="Y58">
         <v>0.154</v>
@@ -2887,37 +2881,37 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.828439963069011E-06</v>
+        <v>5.753319012461561E-06</v>
       </c>
       <c r="C59">
-        <v>0.03198571366827119</v>
+        <v>0.03404716453715426</v>
       </c>
       <c r="D59">
-        <v>0.0001487441835812288</v>
+        <v>0.0001527448107308355</v>
       </c>
       <c r="E59">
-        <v>0.03437482171452902</v>
+        <v>0.03655662317164875</v>
       </c>
       <c r="F59">
-        <v>5.569146134446821</v>
+        <v>5.599145999009668</v>
       </c>
       <c r="S59">
-        <v>0.9735097118604653</v>
+        <v>1.039876804883721</v>
       </c>
       <c r="T59">
-        <v>8.05481749877579E-05</v>
+        <v>8.055057676240027E-05</v>
       </c>
       <c r="U59">
-        <v>0.001468049547572094</v>
+        <v>0.001468282404432045</v>
       </c>
       <c r="V59">
-        <v>1.058367371134424</v>
+        <v>1.058364708616956</v>
       </c>
       <c r="W59">
-        <v>2.489125395693629</v>
+        <v>2.486845113717602</v>
       </c>
       <c r="X59">
-        <v>239.4958566762415</v>
+        <v>239.5043338899646</v>
       </c>
       <c r="Y59">
         <v>0.1505</v>
@@ -2928,37 +2922,37 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.804620581631576E-06</v>
+        <v>5.72883537461733E-06</v>
       </c>
       <c r="C60">
-        <v>0.03274373675123999</v>
+        <v>0.03485417453064053</v>
       </c>
       <c r="D60">
-        <v>0.0001530745664831168</v>
+        <v>0.0001572145610934752</v>
       </c>
       <c r="E60">
-        <v>0.0352316288156829</v>
+        <v>0.03746692205890782</v>
       </c>
       <c r="F60">
-        <v>5.569126005859276</v>
+        <v>5.599125863940302</v>
       </c>
       <c r="S60">
-        <v>0.9966885145238095</v>
+        <v>1.064635776428571</v>
       </c>
       <c r="T60">
-        <v>7.890556992010307E-05</v>
+        <v>7.890797690216951E-05</v>
       </c>
       <c r="U60">
-        <v>0.001476748720533376</v>
+        <v>0.001476988514662538</v>
       </c>
       <c r="V60">
-        <v>1.058951464797744</v>
+        <v>1.058948714007217</v>
       </c>
       <c r="W60">
-        <v>2.55116790844916</v>
+        <v>2.548770208088968</v>
       </c>
       <c r="X60">
-        <v>233.9197724371859</v>
+        <v>233.9282407256938</v>
       </c>
       <c r="Y60">
         <v>0.147</v>
@@ -2969,37 +2963,37 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.779618989639257E-06</v>
+        <v>5.703140791560702E-06</v>
       </c>
       <c r="C61">
-        <v>0.0335386309508682</v>
+        <v>0.03570044184697095</v>
       </c>
       <c r="D61">
-        <v>0.0001576609661186513</v>
+        <v>0.0001619498341685178</v>
       </c>
       <c r="E61">
-        <v>0.03613161729080198</v>
+        <v>0.03842303953727393</v>
       </c>
       <c r="F61">
-        <v>5.569105540796268</v>
+        <v>5.599105392024279</v>
       </c>
       <c r="S61">
-        <v>1.020997990487805</v>
+        <v>1.090602502682927</v>
       </c>
       <c r="T61">
-        <v>7.725806454779515E-05</v>
+        <v>7.726047684022402E-05</v>
       </c>
       <c r="U61">
-        <v>0.001485711897725251</v>
+        <v>0.001485959010520373</v>
       </c>
       <c r="V61">
-        <v>1.059555734002438</v>
+        <v>1.059552889820968</v>
       </c>
       <c r="W61">
-        <v>2.616337240463576</v>
+        <v>2.613812213419996</v>
       </c>
       <c r="X61">
-        <v>228.3436866698354</v>
+        <v>228.3521456617203</v>
       </c>
       <c r="Y61">
         <v>0.1435</v>
@@ -3010,37 +3004,37 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.75334572106492E-06</v>
+        <v>5.67614383996529E-06</v>
       </c>
       <c r="C62">
-        <v>0.03437315520048694</v>
+        <v>0.03658890414729101</v>
       </c>
       <c r="D62">
-        <v>0.0001625265196072507</v>
+        <v>0.0001669747403547155</v>
       </c>
       <c r="E62">
-        <v>0.03707809131005137</v>
+        <v>0.03942847614442357</v>
       </c>
       <c r="F62">
-        <v>5.569084722125997</v>
+        <v>5.59908456609906</v>
       </c>
       <c r="S62">
-        <v>1.04652294025</v>
+        <v>1.11786756525</v>
       </c>
       <c r="T62">
-        <v>7.560552409990749E-05</v>
+        <v>7.560794181252758E-05</v>
       </c>
       <c r="U62">
-        <v>0.00149495386087156</v>
+        <v>0.001495208704868146</v>
       </c>
       <c r="V62">
-        <v>1.060181395283345</v>
+        <v>1.060178452158264</v>
       </c>
       <c r="W62">
-        <v>2.684872650981273</v>
+        <v>2.682209261525413</v>
       </c>
       <c r="X62">
-        <v>222.7675994384615</v>
+        <v>222.7760487526108</v>
       </c>
       <c r="Y62">
         <v>0.14</v>
@@ -3051,37 +3045,37 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.725702117162238E-06</v>
+        <v>5.647743771960904E-06</v>
       </c>
       <c r="C63">
-        <v>0.03525035080768898</v>
+        <v>0.0375227997731099</v>
       </c>
       <c r="D63">
-        <v>0.000167697213905459</v>
+        <v>0.0001723163728153373</v>
       </c>
       <c r="E63">
-        <v>0.0380746965309483</v>
+        <v>0.04048709356315148</v>
       </c>
       <c r="F63">
-        <v>5.569063531351181</v>
+        <v>5.599063367633264</v>
       </c>
       <c r="S63">
-        <v>1.073356861794872</v>
+        <v>1.146530836153846</v>
       </c>
       <c r="T63">
-        <v>7.394780656125408E-05</v>
+        <v>7.395022980898008E-05</v>
       </c>
       <c r="U63">
-        <v>0.001504490616136687</v>
+        <v>0.001504753638364071</v>
       </c>
       <c r="V63">
-        <v>1.060829771559298</v>
+        <v>1.060826723457395</v>
       </c>
       <c r="W63">
-        <v>2.757038126788436</v>
+        <v>2.754224051915067</v>
       </c>
       <c r="X63">
-        <v>217.1915105009637</v>
+        <v>217.1999497347703</v>
       </c>
       <c r="Y63">
         <v>0.1365</v>
@@ -3092,37 +3086,37 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.696579185709617E-06</v>
+        <v>5.617829293509619E-06</v>
       </c>
       <c r="C64">
-        <v>0.03617357853384118</v>
+        <v>0.03850570723101239</v>
       </c>
       <c r="D64">
-        <v>0.0001732023336956749</v>
+        <v>0.0001780052803374297</v>
       </c>
       <c r="E64">
-        <v>0.0391254648306208</v>
+        <v>0.04160316179562344</v>
       </c>
       <c r="F64">
-        <v>5.569041948459149</v>
+        <v>5.599041776576261</v>
       </c>
       <c r="S64">
-        <v>1.101603095</v>
+        <v>1.176702700263158</v>
       </c>
       <c r="T64">
-        <v>7.228476217330909E-05</v>
+        <v>7.228719107653238E-05</v>
       </c>
       <c r="U64">
-        <v>0.001514339532313597</v>
+        <v>0.001514611218169855</v>
       </c>
       <c r="V64">
-        <v>1.06150230434871</v>
+        <v>1.061499144700867</v>
       </c>
       <c r="W64">
-        <v>2.833125621333874</v>
+        <v>2.830147060926765</v>
       </c>
       <c r="X64">
-        <v>211.6154196781824</v>
+        <v>211.6238484058659</v>
       </c>
       <c r="Y64">
         <v>0.133</v>
@@ -3133,37 +3127,37 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.665856177475033E-06</v>
+        <v>5.586277128896446E-06</v>
       </c>
       <c r="C65">
-        <v>0.03714656167438566</v>
+        <v>0.03954159106751712</v>
       </c>
       <c r="D65">
-        <v>0.0001790749989237816</v>
+        <v>0.000184076033172995</v>
       </c>
       <c r="E65">
-        <v>0.0402348661115824</v>
+        <v>0.04278141381661481</v>
       </c>
       <c r="F65">
-        <v>5.569019951751568</v>
+        <v>5.599019771187397</v>
       </c>
       <c r="S65">
-        <v>1.131376151621622</v>
+        <v>1.208505475945946</v>
       </c>
       <c r="T65">
-        <v>7.061623283226358E-05</v>
+        <v>7.061866751423121E-05</v>
       </c>
       <c r="U65">
-        <v>0.001524519497561458</v>
+        <v>0.001524800375162036</v>
       </c>
       <c r="V65">
-        <v>1.062200567822165</v>
+        <v>1.062197289464661</v>
       </c>
       <c r="W65">
-        <v>2.91345880605231</v>
+        <v>2.910300259633661</v>
       </c>
       <c r="X65">
-        <v>206.0393270292568</v>
+        <v>206.0477447857549</v>
       </c>
       <c r="Y65">
         <v>0.1295</v>
@@ -3174,37 +3168,37 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.633399003307863E-06</v>
+        <v>5.552950455135113E-06</v>
       </c>
       <c r="C66">
-        <v>0.0381734363042596</v>
+        <v>0.04063485537402668</v>
       </c>
       <c r="D66">
-        <v>0.0001853528082282925</v>
+        <v>0.0001905678999434663</v>
       </c>
       <c r="E66">
-        <v>0.04140786860505325</v>
+        <v>0.04402710918930609</v>
       </c>
       <c r="F66">
-        <v>5.568997517652824</v>
+        <v>5.598997327843628</v>
       </c>
       <c r="S66">
-        <v>1.162803266944445</v>
+        <v>1.2420750725</v>
       </c>
       <c r="T66">
-        <v>6.894205123527189E-05</v>
+        <v>6.894449182586248E-05</v>
       </c>
       <c r="U66">
-        <v>0.001535051094113499</v>
+        <v>0.001535341739445745</v>
       </c>
       <c r="V66">
-        <v>1.062926285245935</v>
+        <v>1.062922880342952</v>
       </c>
       <c r="W66">
-        <v>2.998397437006028</v>
+        <v>2.995041441449394</v>
       </c>
       <c r="X66">
-        <v>200.4632321845944</v>
+        <v>200.4716384790349</v>
       </c>
       <c r="Y66">
         <v>0.126</v>
@@ -3215,37 +3209,37 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.599058387787815E-06</v>
+        <v>5.51769697171277E-06</v>
       </c>
       <c r="C67">
-        <v>0.03925881011843193</v>
+        <v>0.04179040644471477</v>
       </c>
       <c r="D67">
-        <v>0.0001920786154776037</v>
+        <v>0.0001975256685034378</v>
       </c>
       <c r="E67">
-        <v>0.04265000925521497</v>
+        <v>0.04534610822595825</v>
       </c>
       <c r="F67">
-        <v>5.568974620484699</v>
+        <v>5.598974420813544</v>
       </c>
       <c r="S67">
-        <v>1.196026217428572</v>
+        <v>1.277562931714286</v>
       </c>
       <c r="T67">
-        <v>6.726204026363102E-05</v>
+        <v>6.726448689621405E-05</v>
       </c>
       <c r="U67">
-        <v>0.001545956807684528</v>
+        <v>0.001546257850349078</v>
       </c>
       <c r="V67">
-        <v>1.063681347448112</v>
+        <v>1.063677807413741</v>
       </c>
       <c r="W67">
-        <v>3.088342451499998</v>
+        <v>3.08476926707199</v>
       </c>
       <c r="X67">
-        <v>194.8871351700234</v>
+        <v>194.8955294663949</v>
       </c>
       <c r="Y67">
         <v>0.1225</v>
@@ -3256,37 +3250,37 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.562667636127178E-06</v>
+        <v>5.480346642678279E-06</v>
       </c>
       <c r="C68">
-        <v>0.04040783163322471</v>
+        <v>0.04301372646754452</v>
       </c>
       <c r="D68">
-        <v>0.0001993014750032822</v>
+        <v>0.0002050006440255195</v>
       </c>
       <c r="E68">
-        <v>0.04396747616245561</v>
+        <v>0.04674495885579605</v>
       </c>
       <c r="F68">
-        <v>5.568951232212815</v>
+        <v>5.59895102200282</v>
       </c>
       <c r="S68">
-        <v>1.231203459117647</v>
+        <v>1.315138312058824</v>
       </c>
       <c r="T68">
-        <v>6.557601193906117E-05</v>
+        <v>6.557846475273327E-05</v>
       </c>
       <c r="U68">
-        <v>0.00155726125975882</v>
+        <v>0.00155757338975244</v>
       </c>
       <c r="V68">
-        <v>1.06446783476912</v>
+        <v>1.064464150168038</v>
       </c>
       <c r="W68">
-        <v>3.183741937904099</v>
+        <v>3.179929173863677</v>
       </c>
       <c r="X68">
-        <v>189.3110356749377</v>
+        <v>189.319417397355</v>
       </c>
       <c r="Y68">
         <v>0.119</v>
@@ -3297,37 +3291,37 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.524040077711824E-06</v>
+        <v>5.440709169238556E-06</v>
       </c>
       <c r="C69">
-        <v>0.0416262719410496</v>
+        <v>0.04431096058340873</v>
       </c>
       <c r="D69">
-        <v>0.0002070777946527871</v>
+        <v>0.0002130518657837828</v>
       </c>
       <c r="E69">
-        <v>0.04536720558250021</v>
+        <v>0.04823099882904845</v>
       </c>
       <c r="F69">
-        <v>5.568927322148616</v>
+        <v>5.598927100655136</v>
       </c>
       <c r="S69">
-        <v>1.268512654848485</v>
+        <v>1.354990988181818</v>
       </c>
       <c r="T69">
-        <v>6.388376653262044E-05</v>
+        <v>6.388622567289647E-05</v>
       </c>
       <c r="U69">
-        <v>0.001568991484115265</v>
+        <v>0.001569315459652654</v>
       </c>
       <c r="V69">
-        <v>1.065288042153707</v>
+        <v>1.065284202588476</v>
       </c>
       <c r="W69">
-        <v>3.285098159485895</v>
+        <v>3.281020328506698</v>
       </c>
       <c r="X69">
-        <v>183.7349335353637</v>
+        <v>183.743302065465</v>
       </c>
       <c r="Y69">
         <v>0.1155</v>
@@ -3338,37 +3332,37 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.482966077266205E-06</v>
+        <v>5.398570863842331E-06</v>
       </c>
       <c r="C70">
-        <v>0.0429206217581245</v>
+        <v>0.04568902023083451</v>
       </c>
       <c r="D70">
-        <v>0.0002154727533111546</v>
+        <v>0.0002217476106660634</v>
       </c>
       <c r="E70">
-        <v>0.0468569965188149</v>
+        <v>0.04981247627961646</v>
       </c>
       <c r="F70">
-        <v>5.568902856606264</v>
+        <v>5.598902623007882</v>
       </c>
       <c r="S70">
-        <v>1.3081536753125</v>
+        <v>1.3973344565625</v>
       </c>
       <c r="T70">
-        <v>6.218509139518464E-05</v>
+        <v>6.218755701033745E-05</v>
       </c>
       <c r="U70">
-        <v>0.001581177243914979</v>
+        <v>0.001581513900406486</v>
       </c>
       <c r="V70">
-        <v>1.066144508746167</v>
+        <v>1.066140502733811</v>
       </c>
       <c r="W70">
-        <v>3.392975852195141</v>
+        <v>3.388603828545338</v>
       </c>
       <c r="X70">
-        <v>178.1588285021238</v>
+        <v>178.1671831558064</v>
       </c>
       <c r="Y70">
         <v>0.112</v>
@@ -3379,37 +3373,37 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.439209361680671E-06</v>
+        <v>5.35369102910584E-06</v>
       </c>
       <c r="C71">
-        <v>0.04429820720989267</v>
+        <v>0.04715570644438833</v>
       </c>
       <c r="D71">
-        <v>0.0002245620619704443</v>
+        <v>0.0002311672558697228</v>
       </c>
       <c r="E71">
-        <v>0.04844564653682067</v>
+        <v>0.05149869268970358</v>
       </c>
       <c r="F71">
-        <v>5.568877798501004</v>
+        <v>5.598877551888739</v>
       </c>
       <c r="S71">
-        <v>1.350352180967742</v>
+        <v>1.442409761612903</v>
       </c>
       <c r="T71">
-        <v>6.047975971462946E-05</v>
+        <v>6.048223196284877E-05</v>
       </c>
       <c r="U71">
-        <v>0.001593851404372403</v>
+        <v>0.001594201665269999</v>
       </c>
       <c r="V71">
-        <v>1.06704005250304</v>
+        <v>1.067035867309673</v>
       </c>
       <c r="W71">
-        <v>3.508012059147043</v>
+        <v>3.503312427870992</v>
       </c>
       <c r="X71">
-        <v>172.5827203409224</v>
+        <v>172.5910603940522</v>
       </c>
       <c r="Y71">
         <v>0.1085</v>
@@ -3420,37 +3414,37 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.392502840244023E-06</v>
+        <v>5.305797638281975E-06</v>
       </c>
       <c r="C72">
-        <v>0.04576732871482342</v>
+        <v>0.04871985775067229</v>
       </c>
       <c r="D72">
-        <v>0.0002344341561243365</v>
+        <v>0.0002414036084419456</v>
       </c>
       <c r="E72">
-        <v>0.05014311369622285</v>
+        <v>0.0533001731007378</v>
       </c>
       <c r="F72">
-        <v>5.568852106878894</v>
+        <v>5.598851846243809</v>
       </c>
       <c r="S72">
-        <v>1.395363920333334</v>
+        <v>1.490490087</v>
       </c>
       <c r="T72">
-        <v>5.876752908157688E-05</v>
+        <v>5.877000812490621E-05</v>
       </c>
       <c r="U72">
-        <v>0.00160705036954926</v>
+        <v>0.001607415258668476</v>
       </c>
       <c r="V72">
-        <v>1.067977811070666</v>
+        <v>1.067973432542978</v>
       </c>
       <c r="W72">
-        <v>3.630927856352125</v>
+        <v>3.625862115696449</v>
       </c>
       <c r="X72">
-        <v>167.0066088276178</v>
+        <v>167.0149334800824</v>
       </c>
       <c r="Y72">
         <v>0.105</v>
@@ -3461,37 +3455,37 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.342543411698017E-06</v>
+        <v>5.254582161253532E-06</v>
       </c>
       <c r="C73">
-        <v>0.04733742852719233</v>
+        <v>0.05039152858316297</v>
       </c>
       <c r="D73">
-        <v>0.0002451929634960792</v>
+        <v>0.000252565843286878</v>
       </c>
       <c r="E73">
-        <v>0.0519607102047393</v>
+        <v>0.05522886968244116</v>
       </c>
       <c r="F73">
-        <v>5.568825736363992</v>
+        <v>5.598825460582313</v>
       </c>
       <c r="S73">
-        <v>1.443479917586207</v>
+        <v>1.541886296896552</v>
       </c>
       <c r="T73">
-        <v>5.704813981155318E-05</v>
+        <v>5.705062581925877E-05</v>
       </c>
       <c r="U73">
-        <v>0.001620814596179659</v>
+        <v>0.001621195252582555</v>
       </c>
       <c r="V73">
-        <v>1.068961290360182</v>
+        <v>1.068956702706474</v>
       </c>
       <c r="W73">
-        <v>3.762542375433693</v>
+        <v>3.757065964791916</v>
       </c>
       <c r="X73">
-        <v>161.4304935365359</v>
+        <v>161.4388019185557</v>
       </c>
       <c r="Y73">
         <v>0.1015</v>
@@ -3502,37 +3496,37 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.28898590881334E-06</v>
+        <v>5.199693388969602E-06</v>
       </c>
       <c r="C74">
-        <v>0.04901929408303862</v>
+        <v>0.05218220582387283</v>
       </c>
       <c r="D74">
-        <v>0.0002569614132546626</v>
+        <v>0.000264783240058079</v>
       </c>
       <c r="E74">
-        <v>0.05391133542875692</v>
+        <v>0.05729840639001436</v>
       </c>
       <c r="F74">
-        <v>5.568798636501263</v>
+        <v>5.598798344316866</v>
       </c>
       <c r="S74">
-        <v>1.495032771785714</v>
+        <v>1.596953664642857</v>
       </c>
       <c r="T74">
-        <v>5.532131313208271E-05</v>
+        <v>5.532380627680792E-05</v>
       </c>
       <c r="U74">
-        <v>0.001635189206613765</v>
+        <v>0.00163558690204358</v>
       </c>
       <c r="V74">
-        <v>1.069994422266866</v>
+        <v>1.069989607812092</v>
       </c>
       <c r="W74">
-        <v>3.903789676231494</v>
+        <v>3.897850774830909</v>
       </c>
       <c r="X74">
-        <v>155.8543740757084</v>
+        <v>155.8626652201114</v>
       </c>
       <c r="Y74">
         <v>0.098</v>
@@ -3543,37 +3537,37 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.231435647883359E-06</v>
+        <v>5.140729948009556E-06</v>
       </c>
       <c r="C75">
-        <v>0.05082530640414173</v>
+        <v>0.05410507332697708</v>
       </c>
       <c r="D75">
-        <v>0.0002698859431074531</v>
+        <v>0.0002782099863830726</v>
       </c>
       <c r="E75">
-        <v>0.05600975738546631</v>
+        <v>0.05952437439544651</v>
       </c>
       <c r="F75">
-        <v>5.568770750974998</v>
+        <v>5.59877044097811</v>
       </c>
       <c r="S75">
-        <v>1.550404355925926</v>
+        <v>1.656100096666667</v>
       </c>
       <c r="T75">
-        <v>5.358674904627214E-05</v>
+        <v>5.358924951324441E-05</v>
       </c>
       <c r="U75">
-        <v>0.001650224718496332</v>
+        <v>0.001650640878702683</v>
       </c>
       <c r="V75">
-        <v>1.071081634013757</v>
+        <v>1.071076572876264</v>
       </c>
       <c r="W75">
-        <v>4.055739130012043</v>
+        <v>4.049277169758266</v>
       </c>
       <c r="X75">
-        <v>150.2782501021902</v>
+        <v>150.2865229742477</v>
       </c>
       <c r="Y75">
         <v>0.0945</v>
@@ -3584,37 +3578,37 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.16943948474961E-06</v>
+        <v>5.077231316371595E-06</v>
       </c>
       <c r="C76">
-        <v>0.05276974565264306</v>
+        <v>0.05617533730161531</v>
       </c>
       <c r="D76">
-        <v>0.0002841423376751235</v>
+        <v>0.000293031411238911</v>
       </c>
       <c r="E76">
-        <v>0.05827295479984804</v>
+        <v>0.06192469080737653</v>
       </c>
       <c r="F76">
-        <v>5.568742016673454</v>
+        <v>5.598741687275498</v>
       </c>
       <c r="S76">
-        <v>1.610035292692308</v>
+        <v>1.719796254230769</v>
       </c>
       <c r="T76">
-        <v>5.184412381980369E-05</v>
+        <v>5.184663179852277E-05</v>
       </c>
       <c r="U76">
-        <v>0.00166597791893919</v>
+        <v>0.001666414148665062</v>
       </c>
       <c r="V76">
-        <v>1.072227931984405</v>
+        <v>1.072222601728125</v>
       </c>
       <c r="W76">
-        <v>4.219620188258367</v>
+        <v>4.212564000501805</v>
       </c>
       <c r="X76">
-        <v>144.7021211217362</v>
+        <v>144.7103745681535</v>
       </c>
       <c r="Y76">
         <v>0.091</v>
@@ -3625,37 +3619,37 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.102474888611267E-06</v>
+        <v>5.00866672561672E-06</v>
       </c>
       <c r="C77">
-        <v>0.05486916978524178</v>
+        <v>0.05841062953723038</v>
       </c>
       <c r="D77">
-        <v>0.0002999433835882197</v>
+        <v>0.000309472181286307</v>
       </c>
       <c r="E77">
-        <v>0.06072053488631178</v>
+        <v>0.06452003626217907</v>
       </c>
       <c r="F77">
-        <v>5.568712362558686</v>
+        <v>5.598712011961544</v>
       </c>
       <c r="S77">
-        <v>1.6744367044</v>
+        <v>1.7885881044</v>
       </c>
       <c r="T77">
-        <v>5.009308713498649E-05</v>
+        <v>5.009560281966676E-05</v>
       </c>
       <c r="U77">
-        <v>0.00168251292331802</v>
+        <v>0.001682971036917486</v>
       </c>
       <c r="V77">
-        <v>1.073439003477249</v>
+        <v>1.073433378668152</v>
       </c>
       <c r="W77">
-        <v>4.396852634779999</v>
+        <v>4.389118113073406</v>
       </c>
       <c r="X77">
-        <v>139.1259865632667</v>
+        <v>139.1342192989832</v>
       </c>
       <c r="Y77">
         <v>0.08749999999999999</v>
@@ -3666,37 +3660,37 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.029936546632901E-06</v>
+        <v>4.934421790833476E-06</v>
       </c>
       <c r="C78">
-        <v>0.05714288755197734</v>
+        <v>0.06083151109372805</v>
       </c>
       <c r="D78">
-        <v>0.0003175490311484513</v>
+        <v>0.0003278071938716854</v>
       </c>
       <c r="E78">
-        <v>0.06337524650929548</v>
+        <v>0.06733439214136208</v>
       </c>
       <c r="F78">
-        <v>5.568681708294021</v>
+        <v>5.598681334452446</v>
       </c>
       <c r="S78">
-        <v>1.744204900416667</v>
+        <v>1.86311260875</v>
       </c>
       <c r="T78">
-        <v>4.833325874540162E-05</v>
+        <v>4.833578233707573E-05</v>
       </c>
       <c r="U78">
-        <v>0.00169990246297425</v>
+        <v>0.001700384521845991</v>
       </c>
       <c r="V78">
-        <v>1.074721341361326</v>
+        <v>1.07471539302076</v>
       </c>
       <c r="W78">
-        <v>4.58908374433711</v>
+        <v>4.58057089397021</v>
       </c>
       <c r="X78">
-        <v>133.5498457417025</v>
+        <v>133.5580563416522</v>
       </c>
       <c r="Y78">
         <v>0.08399999999999999</v>
@@ -3707,37 +3701,37 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.951119850400041E-06</v>
+        <v>4.853781860230206E-06</v>
       </c>
       <c r="C79">
-        <v>0.0596135544441873</v>
+        <v>0.06346210691546093</v>
       </c>
       <c r="D79">
-        <v>0.0003372800684307166</v>
+        <v>0.0003483762812765421</v>
       </c>
       <c r="E79">
-        <v>0.06626361413679255</v>
+        <v>0.07039570331501872</v>
       </c>
       <c r="F79">
-        <v>5.568649962562321</v>
+        <v>5.598649563137736</v>
       </c>
       <c r="S79">
-        <v>1.820039896086957</v>
+        <v>1.944117504782609</v>
       </c>
       <c r="T79">
-        <v>4.656422458905209E-05</v>
+        <v>4.656675629611884E-05</v>
       </c>
       <c r="U79">
-        <v>0.001718229466137176</v>
+        <v>0.001718737824700811</v>
       </c>
       <c r="V79">
-        <v>1.076082397820875</v>
+        <v>1.076076092756272</v>
       </c>
       <c r="W79">
-        <v>4.798234188037115</v>
+        <v>4.788823354763179</v>
       </c>
       <c r="X79">
-        <v>127.9736979760549</v>
+        <v>127.9818848570248</v>
       </c>
       <c r="Y79">
         <v>0.08049999999999999</v>
@@ -3748,37 +3742,37 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.863421294123785E-06</v>
+        <v>4.764154247442061E-06</v>
       </c>
       <c r="C80">
-        <v>0.06230793055217623</v>
+        <v>0.06633091285337842</v>
       </c>
       <c r="D80">
-        <v>0.0003596533613619322</v>
+        <v>0.0003717261414494398</v>
       </c>
       <c r="E80">
-        <v>0.06941396904043091</v>
+        <v>0.07373380881218668</v>
       </c>
       <c r="F80">
-        <v>5.567096377685889</v>
+        <v>5.597095479718665</v>
       </c>
       <c r="S80">
-        <v>1.902768982272728</v>
+        <v>2.032486482272728</v>
       </c>
       <c r="T80">
-        <v>4.478553211126883E-05</v>
+        <v>4.478807214675115E-05</v>
       </c>
       <c r="U80">
-        <v>0.003648140856190775</v>
+        <v>0.003649269071421714</v>
       </c>
       <c r="V80">
-        <v>1.077530775970746</v>
+        <v>1.077524075953824</v>
       </c>
       <c r="W80">
-        <v>5.026355469980516</v>
+        <v>5.015905361373243</v>
       </c>
       <c r="X80">
-        <v>122.3975423341902</v>
+        <v>122.4057037187872</v>
       </c>
       <c r="Y80">
         <v>0.07699999999999999</v>
@@ -3789,37 +3783,37 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.655089720899555E-06</v>
+        <v>6.079801936453564E-06</v>
       </c>
       <c r="C81">
-        <v>0.06525784851364358</v>
+        <v>0.06947182650632742</v>
       </c>
       <c r="D81">
-        <v>0.0002688455317024166</v>
+        <v>0.0002935372557777966</v>
       </c>
       <c r="E81">
-        <v>0.07015912422476993</v>
+        <v>0.07422263320023154</v>
       </c>
       <c r="F81">
-        <v>5.268820341450621</v>
+        <v>6.698819959328116</v>
       </c>
       <c r="S81">
-        <v>1.99337702904762</v>
+        <v>2.129271552857143</v>
       </c>
       <c r="T81">
-        <v>9.153111719524621E-05</v>
+        <v>9.153654259157798E-05</v>
       </c>
       <c r="U81">
-        <v>0.001463373896699486</v>
+        <v>0.001463847922084622</v>
       </c>
       <c r="V81">
-        <v>1.054927905074305</v>
+        <v>1.054922946021633</v>
       </c>
       <c r="W81">
-        <v>5.080313122720487</v>
+        <v>5.049158721104186</v>
       </c>
       <c r="X81">
-        <v>277.0335529656044</v>
+        <v>277.0528418497964</v>
       </c>
       <c r="Y81">
         <v>0.1743</v>
@@ -3830,37 +3824,37 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.509063085844132E-06</v>
+        <v>5.979018985763291E-06</v>
       </c>
       <c r="C82">
-        <v>0.06850729866274065</v>
+        <v>0.07293074096885491</v>
       </c>
       <c r="D82">
-        <v>0.0002889719178325442</v>
+        <v>0.0003138710913578802</v>
       </c>
       <c r="E82">
-        <v>0.07376305173069961</v>
+        <v>0.07805377226414206</v>
       </c>
       <c r="F82">
-        <v>5.268790615876424</v>
+        <v>6.698790204614375</v>
       </c>
       <c r="S82">
-        <v>2.093045880500001</v>
+        <v>2.235735130500001</v>
       </c>
       <c r="T82">
-        <v>8.770024629620838E-05</v>
+        <v>8.770569034032883E-05</v>
       </c>
       <c r="U82">
-        <v>0.001481495551381175</v>
+        <v>0.001481999347390451</v>
       </c>
       <c r="V82">
-        <v>1.056077289980098</v>
+        <v>1.056071989926298</v>
       </c>
       <c r="W82">
-        <v>5.341278184699465</v>
+        <v>5.309780426132114</v>
       </c>
       <c r="X82">
-        <v>263.8100528112071</v>
+        <v>263.82927105635</v>
       </c>
       <c r="Y82">
         <v>0.166</v>
@@ -3871,37 +3865,37 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.34802301533636E-06</v>
+        <v>5.867719572156544E-06</v>
       </c>
       <c r="C83">
-        <v>0.07209773691247266</v>
+        <v>0.07675268148872318</v>
       </c>
       <c r="D83">
-        <v>0.0003122618862005547</v>
+        <v>0.0003371635290899828</v>
       </c>
       <c r="E83">
-        <v>0.07774373221485151</v>
+        <v>0.0822916390327629</v>
       </c>
       <c r="F83">
-        <v>5.268759544632558</v>
+        <v>6.698759100690238</v>
       </c>
       <c r="S83">
-        <v>2.203206190000001</v>
+        <v>2.353405400526317</v>
       </c>
       <c r="T83">
-        <v>8.384530420148299E-05</v>
+        <v>8.385076735203125E-05</v>
       </c>
       <c r="U83">
-        <v>0.001500797851967056</v>
+        <v>0.001501334967366192</v>
       </c>
       <c r="V83">
-        <v>1.057311964860729</v>
+        <v>1.057306281624552</v>
       </c>
       <c r="W83">
-        <v>5.629524418164483</v>
+        <v>5.598070682500878</v>
       </c>
       <c r="X83">
-        <v>250.5865251273717</v>
+        <v>250.6056665715577</v>
       </c>
       <c r="Y83">
         <v>0.1577</v>
@@ -3912,37 +3906,37 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.169605503818513E-06</v>
+        <v>5.744200605931417E-06</v>
       </c>
       <c r="C84">
-        <v>0.07608581885837667</v>
+        <v>0.08099798804203613</v>
       </c>
       <c r="D84">
-        <v>0.0003395092324099946</v>
+        <v>0.0003640996564268976</v>
       </c>
       <c r="E84">
-        <v>0.08216130723529674</v>
+        <v>0.08700293424908666</v>
       </c>
       <c r="F84">
-        <v>5.268726969340309</v>
+        <v>6.698726488528197</v>
       </c>
       <c r="S84">
-        <v>2.32560653388889</v>
+        <v>2.484150145000001</v>
       </c>
       <c r="T84">
-        <v>7.996485658545295E-05</v>
+        <v>7.997033928018372E-05</v>
       </c>
       <c r="U84">
-        <v>0.001521426885971746</v>
+        <v>0.001522001515081645</v>
       </c>
       <c r="V84">
-        <v>1.058643305329263</v>
+        <v>1.058637188950932</v>
       </c>
       <c r="W84">
-        <v>5.949406751288685</v>
+        <v>5.918566955720181</v>
       </c>
       <c r="X84">
-        <v>237.362965407934</v>
+        <v>237.3820229332909</v>
       </c>
       <c r="Y84">
         <v>0.1493999999999999</v>
@@ -3953,37 +3947,37 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.970943350549576E-06</v>
+        <v>5.606380090562E-06</v>
       </c>
       <c r="C85">
-        <v>0.08054148413049238</v>
+        <v>0.08574115794707197</v>
       </c>
       <c r="D85">
-        <v>0.0003717935762803146</v>
+        <v>0.000395590951124576</v>
       </c>
       <c r="E85">
-        <v>0.08708891787581122</v>
+        <v>0.09226937853982832</v>
       </c>
       <c r="F85">
-        <v>5.268692702252219</v>
+        <v>6.698692179567388</v>
       </c>
       <c r="S85">
-        <v>2.462406918235295</v>
+        <v>2.630276624117648</v>
       </c>
       <c r="T85">
-        <v>7.605729863588122E-05</v>
+        <v>7.606280129620446E-05</v>
       </c>
       <c r="U85">
-        <v>0.001543556376898912</v>
+        <v>0.001544173522843361</v>
       </c>
       <c r="V85">
-        <v>1.060084955981469</v>
+        <v>1.06007834673335</v>
       </c>
       <c r="W85">
-        <v>6.306221424750993</v>
+        <v>6.276828472097165</v>
       </c>
       <c r="X85">
-        <v>224.1393686371554</v>
+        <v>224.1583340579145</v>
       </c>
       <c r="Y85">
         <v>0.1410999999999999</v>
@@ -3994,37 +3988,37 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.748532126337473E-06</v>
+        <v>5.451688822758132E-06</v>
       </c>
       <c r="C86">
-        <v>0.08555208979013058</v>
+        <v>0.09107525588431863</v>
       </c>
       <c r="D86">
-        <v>0.0004106203228951307</v>
+        <v>0.0004328762592830042</v>
       </c>
       <c r="E86">
-        <v>0.09261624992796251</v>
+        <v>0.0981920587104224</v>
       </c>
       <c r="F86">
-        <v>5.268656518622922</v>
+        <v>6.69865594803054</v>
       </c>
       <c r="S86">
-        <v>2.616307350625</v>
+        <v>2.794668913124999</v>
       </c>
       <c r="T86">
-        <v>7.212082325986311E-05</v>
+        <v>7.212634625322548E-05</v>
       </c>
       <c r="U86">
-        <v>0.001567394939925527</v>
+        <v>0.001568060631037223</v>
       </c>
       <c r="V86">
-        <v>1.061653451844284</v>
+        <v>1.061646277639329</v>
       </c>
       <c r="W86">
-        <v>6.706462702966149</v>
+        <v>6.679731885062749</v>
       </c>
       <c r="X86">
-        <v>210.9157282124775</v>
+        <v>210.9345919337315</v>
       </c>
       <c r="Y86">
         <v>0.1328</v>
@@ -4035,37 +4029,37 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.498054442051752E-06</v>
+        <v>5.276924688309544E-06</v>
       </c>
       <c r="C87">
-        <v>0.09122818775461294</v>
+        <v>0.09711808119265435</v>
       </c>
       <c r="D87">
-        <v>0.0004581511152978689</v>
+        <v>0.0004776816433451567</v>
       </c>
       <c r="E87">
-        <v>0.09885423606039209</v>
+        <v>0.1048973194610888</v>
       </c>
       <c r="F87">
-        <v>5.268618146452868</v>
+        <v>6.698617520589738</v>
       </c>
       <c r="S87">
-        <v>2.790727840666666</v>
+        <v>2.980980173999999</v>
       </c>
       <c r="T87">
-        <v>6.815338130385384E-05</v>
+        <v>6.81589249190171E-05</v>
       </c>
       <c r="U87">
-        <v>0.001593195854341138</v>
+        <v>0.001593917437713536</v>
       </c>
       <c r="V87">
-        <v>1.063369061905448</v>
+        <v>1.063361234764811</v>
       </c>
       <c r="W87">
-        <v>7.158163364257212</v>
+        <v>7.135872072182911</v>
       </c>
       <c r="X87">
-        <v>197.6920359561312</v>
+        <v>197.7107866585151</v>
       </c>
       <c r="Y87">
         <v>0.1245</v>
@@ -4076,37 +4070,37 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.214148963935453E-06</v>
+        <v>5.078053870132499E-06</v>
       </c>
       <c r="C88">
-        <v>0.09771176180027831</v>
+        <v>0.1040209668747479</v>
       </c>
       <c r="D88">
-        <v>0.0005176008301269411</v>
+        <v>0.0005324832346219238</v>
       </c>
       <c r="E88">
-        <v>0.1059413442730379</v>
+        <v>0.1125448506891593</v>
       </c>
       <c r="F88">
-        <v>5.268577252459195</v>
+        <v>6.698576562224646</v>
       </c>
       <c r="S88">
-        <v>2.990065543571429</v>
+        <v>3.193907329285714</v>
       </c>
       <c r="T88">
-        <v>6.415263061393442E-05</v>
+        <v>6.415819502153854E-05</v>
       </c>
       <c r="U88">
-        <v>0.001621270453476186</v>
+        <v>0.001622056999822276</v>
       </c>
       <c r="V88">
-        <v>1.06525695608192</v>
+        <v>1.06524836728177</v>
       </c>
       <c r="W88">
-        <v>7.671350055976676</v>
+        <v>7.656112291779543</v>
       </c>
       <c r="X88">
-        <v>184.4682815971943</v>
+        <v>184.4869058048707</v>
       </c>
       <c r="Y88">
         <v>0.1162</v>
@@ -4117,37 +4111,37 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.890107380836338E-06</v>
+        <v>4.849937316821376E-06</v>
       </c>
       <c r="C89">
-        <v>0.1051882357210592</v>
+        <v>0.1119816194624499</v>
       </c>
       <c r="D89">
-        <v>0.0005939597852410252</v>
+        <v>0.0006009592539932123</v>
       </c>
       <c r="E89">
-        <v>0.114052050790206</v>
+        <v>0.1213389340605722</v>
       </c>
       <c r="F89">
-        <v>5.268533422491138</v>
+        <v>6.698532656470742</v>
       </c>
       <c r="S89">
-        <v>3.220070585384616</v>
+        <v>3.439592508461538</v>
       </c>
       <c r="T89">
-        <v>6.011586984270668E-05</v>
+        <v>6.012145502001143E-05</v>
       </c>
       <c r="U89">
-        <v>0.001652006849063873</v>
+        <v>0.001652869722612562</v>
       </c>
       <c r="V89">
-        <v>1.067348853681867</v>
+        <v>1.067339366977425</v>
       </c>
       <c r="W89">
-        <v>8.258656827676033</v>
+        <v>8.254349255821236</v>
       </c>
       <c r="X89">
-        <v>171.2444517346993</v>
+        <v>171.262933155725</v>
       </c>
       <c r="Y89">
         <v>0.1079</v>
@@ -4158,37 +4152,37 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.517482429909608E-06</v>
+        <v>4.585950824675626E-06</v>
       </c>
       <c r="C90">
-        <v>0.1139044253823774</v>
+        <v>0.1212633411464879</v>
       </c>
       <c r="D90">
-        <v>0.0006953986104768183</v>
+        <v>0.0006888105298902261</v>
       </c>
       <c r="E90">
-        <v>0.1234083284781558</v>
+        <v>0.1315442876465156</v>
       </c>
       <c r="F90">
-        <v>5.268486133544407</v>
+        <v>6.698485277177296</v>
       </c>
       <c r="S90">
-        <v>3.488409800833334</v>
+        <v>3.7262252175</v>
       </c>
       <c r="T90">
-        <v>5.603995107022966E-05</v>
+        <v>5.604555670584258E-05</v>
       </c>
       <c r="U90">
-        <v>0.001685896734638661</v>
+        <v>0.001686850416193225</v>
       </c>
       <c r="V90">
-        <v>1.069685407803261</v>
+        <v>1.069674849684628</v>
       </c>
       <c r="W90">
-        <v>8.93615702231396</v>
+        <v>8.948590996361608</v>
       </c>
       <c r="X90">
-        <v>158.0205288113434</v>
+        <v>158.0388475049875</v>
       </c>
       <c r="Y90">
         <v>0.09959999999999999</v>
@@ -4199,37 +4193,37 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.085600168573618E-06</v>
+        <v>4.277455873479714E-06</v>
       </c>
       <c r="C91">
-        <v>0.1241961550889138</v>
+        <v>0.1322246621116332</v>
       </c>
       <c r="D91">
-        <v>0.0008362423400964899</v>
+        <v>0.0008053521227696719</v>
       </c>
       <c r="E91">
-        <v>0.1342952988114487</v>
+        <v>0.1435086730739084</v>
       </c>
       <c r="F91">
-        <v>5.268434712697537</v>
+        <v>6.698433747040162</v>
       </c>
       <c r="S91">
-        <v>3.805537964545455</v>
+        <v>4.064972964545455</v>
       </c>
       <c r="T91">
-        <v>5.192116182395865E-05</v>
+        <v>5.192678715542482E-05</v>
       </c>
       <c r="U91">
-        <v>0.001723574782488441</v>
+        <v>0.00172463809060845</v>
       </c>
       <c r="V91">
-        <v>1.072319750455156</v>
+        <v>1.072307895837597</v>
       </c>
       <c r="W91">
-        <v>9.724496655427133</v>
+        <v>9.762494766932543</v>
       </c>
       <c r="X91">
-        <v>144.7964890176854</v>
+        <v>144.8146201457571</v>
       </c>
       <c r="Y91">
         <v>0.09129999999999998</v>
@@ -4240,37 +4234,37 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.577961716710373E-06</v>
+        <v>3.910950838285174E-06</v>
       </c>
       <c r="C92">
-        <v>0.1365321463637955</v>
+        <v>0.1453665931105196</v>
       </c>
       <c r="D92">
-        <v>0.001044820478265354</v>
+        <v>0.0009673477620246473</v>
       </c>
       <c r="E92">
-        <v>0.1470732451684395</v>
+        <v>0.1576885383504083</v>
       </c>
       <c r="F92">
-        <v>5.266466036797961</v>
+        <v>6.696463639373067</v>
       </c>
       <c r="S92">
-        <v>4.186091761000001</v>
+        <v>4.471470261000001</v>
       </c>
       <c r="T92">
-        <v>4.775506226316487E-05</v>
+        <v>4.776070582899278E-05</v>
       </c>
       <c r="U92">
-        <v>0.003848093264443767</v>
+        <v>0.003850703793771411</v>
       </c>
       <c r="V92">
-        <v>1.075322933351747</v>
+        <v>1.075309483865777</v>
       </c>
       <c r="W92">
-        <v>10.64976431342792</v>
+        <v>10.72711145240873</v>
       </c>
       <c r="X92">
-        <v>131.5722997933404</v>
+        <v>131.5902118364265</v>
       </c>
       <c r="Y92">
         <v>0.08299999999999998</v>
@@ -4281,37 +4275,37 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.727727873693305E-06</v>
+        <v>6.685746443783995E-06</v>
       </c>
       <c r="C93">
-        <v>0.15158629368441</v>
+        <v>0.1614109537047968</v>
       </c>
       <c r="D93">
-        <v>0.000519609185985427</v>
+        <v>0.0006253778443980418</v>
       </c>
       <c r="E93">
-        <v>0.1651525895044222</v>
+        <v>0.1738282651354299</v>
       </c>
       <c r="F93">
-        <v>7.478681994598379</v>
+        <v>9.348681001452317</v>
       </c>
       <c r="S93">
-        <v>4.65121306777778</v>
+        <v>4.968300290000002</v>
       </c>
       <c r="T93">
-        <v>8.986014701800494E-05</v>
+        <v>8.987182781478796E-05</v>
       </c>
       <c r="U93">
-        <v>0.00141939043251542</v>
+        <v>0.001420459974430192</v>
       </c>
       <c r="V93">
-        <v>1.055552340230393</v>
+        <v>1.055541447251079</v>
       </c>
       <c r="W93">
-        <v>11.95891307055918</v>
+        <v>11.82505205002924</v>
       </c>
       <c r="X93">
-        <v>270.9169130455509</v>
+        <v>270.9573212191833</v>
       </c>
       <c r="Y93">
         <v>0.1709999999999999</v>
@@ -4322,37 +4316,37 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.820948648331383E-06</v>
+        <v>6.123303238475458E-06</v>
       </c>
       <c r="C94">
-        <v>0.1704696292467132</v>
+        <v>0.1815091506873466</v>
       </c>
       <c r="D94">
-        <v>0.0006605203030384123</v>
+        <v>0.0007684607667852865</v>
       </c>
       <c r="E94">
-        <v>0.1853827453217057</v>
+        <v>0.1956946538859932</v>
       </c>
       <c r="F94">
-        <v>7.478626809328309</v>
+        <v>9.348625645654661</v>
       </c>
       <c r="S94">
-        <v>5.232614701250003</v>
+        <v>5.589337826250003</v>
       </c>
       <c r="T94">
-        <v>8.102978124939796E-05</v>
+        <v>8.104148522994975E-05</v>
       </c>
       <c r="U94">
-        <v>0.001462746585062585</v>
+        <v>0.001463986150471004</v>
       </c>
       <c r="V94">
-        <v>1.058425280442087</v>
+        <v>1.058412576041162</v>
       </c>
       <c r="W94">
-        <v>13.42380487485197</v>
+        <v>13.31256148884307</v>
       </c>
       <c r="X94">
-        <v>240.6436190632976</v>
+        <v>240.6833065875288</v>
       </c>
       <c r="Y94">
         <v>0.1519999999999999</v>
@@ -4363,37 +4357,37 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.69269310373686E-06</v>
+        <v>5.412860126575031E-06</v>
       </c>
       <c r="C95">
-        <v>0.1947280733815239</v>
+        <v>0.2073292492474269</v>
       </c>
       <c r="D95">
-        <v>0.0008987169553815328</v>
+        <v>0.000991986243476455</v>
       </c>
       <c r="E95">
-        <v>0.2106617269640671</v>
+        <v>0.2234229217623105</v>
       </c>
       <c r="F95">
-        <v>7.478563574637838</v>
+        <v>9.348562183952223</v>
       </c>
       <c r="S95">
-        <v>5.980131087142862</v>
+        <v>6.387814658571433</v>
       </c>
       <c r="T95">
-        <v>7.205922052313787E-05</v>
+        <v>7.207093212301223E-05</v>
       </c>
       <c r="U95">
-        <v>0.001513652532171046</v>
+        <v>0.00151511798583053</v>
       </c>
       <c r="V95">
-        <v>1.061869544877579</v>
+        <v>1.06185444581026</v>
       </c>
       <c r="W95">
-        <v>15.25428870123585</v>
+        <v>15.19883821512316</v>
       </c>
       <c r="X95">
-        <v>210.3694788763453</v>
+        <v>210.4082723339432</v>
       </c>
       <c r="Y95">
         <v>0.1329999999999999</v>
@@ -4404,37 +4398,37 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.266258316174872E-06</v>
+        <v>4.493376827593311E-06</v>
       </c>
       <c r="C96">
-        <v>0.2270329661192143</v>
+        <v>0.2417187930814186</v>
       </c>
       <c r="D96">
-        <v>0.001380540790012931</v>
+        <v>0.001386700041648678</v>
       </c>
       <c r="E96">
-        <v>0.2428624442837109</v>
+        <v>0.2595045887726697</v>
       </c>
       <c r="F96">
-        <v>7.478489419025081</v>
+        <v>9.348487713324717</v>
       </c>
       <c r="S96">
-        <v>6.976819601666674</v>
+        <v>7.452450435000007</v>
       </c>
       <c r="T96">
-        <v>6.292540565960015E-05</v>
+        <v>6.293709767437935E-05</v>
       </c>
       <c r="U96">
-        <v>0.001574861016405113</v>
+        <v>0.001576639299765007</v>
       </c>
       <c r="V96">
-        <v>1.066110490440508</v>
+        <v>1.066092108484845</v>
       </c>
       <c r="W96">
-        <v>17.5859843797039</v>
+        <v>17.6533733858959</v>
       </c>
       <c r="X96">
-        <v>180.0941002503415</v>
+        <v>180.1317484288529</v>
       </c>
       <c r="Y96">
         <v>0.1139999999999999</v>
@@ -4445,37 +4439,37 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.447784437135072E-06</v>
+        <v>3.270357514661198E-06</v>
       </c>
       <c r="C97">
-        <v>0.2721634511850547</v>
+        <v>0.2897852116893728</v>
       </c>
       <c r="D97">
-        <v>0.002809290735450868</v>
+        <v>0.002255890908905818</v>
       </c>
       <c r="E97">
-        <v>0.2847501739508825</v>
+        <v>0.3078718721100667</v>
       </c>
       <c r="F97">
-        <v>7.476127617222507</v>
+        <v>9.346122371295033</v>
       </c>
       <c r="S97">
-        <v>8.372183522000013</v>
+        <v>8.942940522000011</v>
       </c>
       <c r="T97">
-        <v>5.359683165668915E-05</v>
+        <v>5.360845470052746E-05</v>
       </c>
       <c r="U97">
-        <v>0.003994668549414274</v>
+        <v>0.004000080137757185</v>
       </c>
       <c r="V97">
-        <v>1.071523846845105</v>
+        <v>1.071500747789778</v>
       </c>
       <c r="W97">
-        <v>20.61912917819569</v>
+        <v>20.9436647693923</v>
       </c>
       <c r="X97">
-        <v>149.8167973484818</v>
+        <v>149.8529154279977</v>
       </c>
       <c r="Y97">
         <v>0.09499999999999986</v>
@@ -4486,37 +4480,37 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.637521049129356E-06</v>
+        <v>6.333834704018829E-06</v>
       </c>
       <c r="C98">
-        <v>0.339501991297455</v>
+        <v>0.3616675418844887</v>
       </c>
       <c r="D98">
-        <v>0.001174947121164702</v>
+        <v>0.001471656881257804</v>
       </c>
       <c r="E98">
-        <v>0.3690996445180222</v>
+        <v>0.3876038618074713</v>
       </c>
       <c r="F98">
-        <v>11.89855152639599</v>
+        <v>13.59854907357415</v>
       </c>
       <c r="S98">
-        <v>10.46522940249999</v>
+        <v>11.17867565249999</v>
       </c>
       <c r="T98">
-        <v>9.106893053937329E-05</v>
+        <v>9.109262966747752E-05</v>
       </c>
       <c r="U98">
-        <v>0.001478650137425604</v>
+        <v>0.001481154059722909</v>
       </c>
       <c r="V98">
-        <v>1.05549862564255</v>
+        <v>1.055477275384774</v>
       </c>
       <c r="W98">
-        <v>26.72698367255773</v>
+        <v>26.36760964676676</v>
       </c>
       <c r="X98">
-        <v>274.3042344884949</v>
+        <v>274.3821369399205</v>
       </c>
       <c r="Y98">
         <v>0.1744000000000002</v>
@@ -4527,37 +4521,37 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>3.105003435268078E-06</v>
+        <v>3.374143336361402E-06</v>
       </c>
       <c r="C99">
-        <v>0.4522776726895518</v>
+        <v>0.4817328368855657</v>
       </c>
       <c r="D99">
-        <v>0.00368210657036947</v>
+        <v>0.00358816860222483</v>
       </c>
       <c r="E99">
-        <v>0.4724378896790355</v>
+        <v>0.5051206946559993</v>
       </c>
       <c r="F99">
-        <v>11.89842116323369</v>
+        <v>13.59841759632233</v>
       </c>
       <c r="S99">
-        <v>13.95363920333332</v>
+        <v>14.90490086999999</v>
       </c>
       <c r="T99">
-        <v>7.063218798155731E-05</v>
+        <v>7.065510749637527E-05</v>
       </c>
       <c r="U99">
-        <v>0.001595113434002661</v>
+        <v>0.001598717117643982</v>
       </c>
       <c r="V99">
-        <v>1.062948835451319</v>
+        <v>1.062919026306977</v>
       </c>
       <c r="W99">
-        <v>34.20983994779403</v>
+        <v>34.36195201741492</v>
       </c>
       <c r="X99">
-        <v>204.8041824170965</v>
+        <v>204.8743651536581</v>
       </c>
       <c r="Y99">
         <v>0.1308000000000001</v>
@@ -4568,37 +4562,37 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.024093550102606E-07</v>
+        <v>1.779452181289389E-07</v>
       </c>
       <c r="C100">
-        <v>0.6765754557491429</v>
+        <v>0.7208051710272362</v>
       </c>
       <c r="D100">
-        <v>0.1303585832868036</v>
+        <v>0.08637744362692296</v>
       </c>
       <c r="E100">
-        <v>0.6777115326288652</v>
+        <v>0.7230987794849566</v>
       </c>
       <c r="F100">
-        <v>11.89599680347854</v>
+        <v>13.59598320406923</v>
       </c>
       <c r="S100">
-        <v>20.93045880499998</v>
+        <v>22.35735130499998</v>
       </c>
       <c r="T100">
-        <v>4.928880334575906E-05</v>
+        <v>4.930977889869909E-05</v>
       </c>
       <c r="U100">
-        <v>0.004003196521458685</v>
+        <v>0.004016795930774003</v>
       </c>
       <c r="V100">
-        <v>1.075405789204243</v>
+        <v>1.07536030380759</v>
       </c>
       <c r="W100">
-        <v>49.07397050172811</v>
+        <v>49.19039316224195</v>
       </c>
       <c r="X100">
-        <v>135.2714620067003</v>
+        <v>135.3277521722178</v>
       </c>
       <c r="Y100">
         <v>0.08720000000000008</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Recovery</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Salinity</t>
-  </si>
-  <si>
     <t>Mass transfer</t>
   </si>
   <si>
@@ -82,13 +79,31 @@
     <t>CP modulus Corr</t>
   </si>
   <si>
-    <t xml:space="preserve">CP Factor </t>
+    <t>Cross-flow Velocity</t>
   </si>
   <si>
-    <t>Reynolds number</t>
+    <t>Brine pH</t>
   </si>
   <si>
-    <t>Cross-flow Velocity</t>
+    <t>Permeate pH</t>
+  </si>
+  <si>
+    <t>Film layer pH</t>
+  </si>
+  <si>
+    <t>Brine Alkalinity</t>
+  </si>
+  <si>
+    <t>Film layer Alkalinity</t>
+  </si>
+  <si>
+    <t>Permeate Alkalinity</t>
+  </si>
+  <si>
+    <t>Trace Conc. in Brine</t>
+  </si>
+  <si>
+    <t>Trace Conc. in Permeate</t>
   </si>
 </sst>
 </file>
@@ -420,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,4100 +517,5306 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.478280435092508E-06</v>
+        <v>8.485271237496528E-06</v>
       </c>
       <c r="C2">
-        <v>0.0147</v>
+        <v>0.01528279910082424</v>
       </c>
       <c r="D2">
-        <v>6.853649490723139E-05</v>
+        <v>4.764594595499045E-05</v>
       </c>
       <c r="E2">
-        <v>0.01562206338554944</v>
+        <v>0.01679531681568136</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>7.42</v>
       </c>
       <c r="G2">
-        <v>19.08344412928917</v>
+        <v>29.83522330797501</v>
       </c>
       <c r="H2">
-        <v>19.6678512662795</v>
+        <v>37.81762853479822</v>
       </c>
       <c r="I2">
-        <v>18.81242502759866</v>
+        <v>61.50626183831429</v>
       </c>
       <c r="J2">
-        <v>18.70966378878408</v>
+        <v>88.05169502763073</v>
       </c>
       <c r="K2">
-        <v>17.79466186531651</v>
+        <v>133.5561355708601</v>
       </c>
       <c r="L2">
-        <v>0.3854045034786154</v>
+        <v>0.8338719066208979</v>
       </c>
       <c r="M2">
-        <v>0.009722999999999999</v>
+        <v>0.031947</v>
       </c>
       <c r="N2">
-        <v>0.01071514285714286</v>
+        <v>0.03047295918367347</v>
       </c>
       <c r="O2">
-        <v>0.01135294897959183</v>
+        <v>0.0350084693877551</v>
       </c>
       <c r="P2">
-        <v>0.00986473469387756</v>
+        <v>0.03741795918367343</v>
       </c>
       <c r="Q2">
-        <v>0.4270603300092276</v>
+        <v>0.9687182943759999</v>
       </c>
       <c r="R2">
-        <v>1.017017639400741</v>
+        <v>1.017347115945773</v>
       </c>
       <c r="S2">
-        <v>0.4471470261</v>
+        <v>8.964539657310869E-05</v>
       </c>
       <c r="T2">
-        <v>8.964155703575425E-05</v>
+        <v>0.001398537310292016</v>
       </c>
       <c r="U2">
-        <v>0.001398447362268863</v>
+        <v>1.055400580816817</v>
       </c>
       <c r="V2">
-        <v>1.05540469602797</v>
+        <v>0.17</v>
       </c>
       <c r="W2">
-        <v>1.062725400377513</v>
+        <v>7.996908332209969</v>
       </c>
       <c r="X2">
-        <v>270.7081578673033</v>
+        <v>9.527715071342273</v>
       </c>
       <c r="Y2">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>8.431974054565831</v>
+      </c>
+      <c r="Z2">
+        <v>0.002525592234190321</v>
+      </c>
+      <c r="AA2">
+        <v>0.2059073799801705</v>
+      </c>
+      <c r="AB2">
+        <v>6.652484762308826E-05</v>
+      </c>
+      <c r="AC2">
+        <v>0.002556182908434622</v>
+      </c>
+      <c r="AD2">
+        <v>2.824572100359084E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.473720782008644E-06</v>
+        <v>8.48283027621533E-06</v>
       </c>
       <c r="C3">
-        <v>0.0148477925606575</v>
+        <v>0.01543668953673201</v>
       </c>
       <c r="D3">
-        <v>6.931665604608287E-05</v>
+        <v>4.817858644624711E-05</v>
       </c>
       <c r="E3">
-        <v>0.01578679887389152</v>
+        <v>0.01697820227209175</v>
       </c>
       <c r="F3">
-        <v>4.899985694153031</v>
+        <v>7.419985694102834</v>
       </c>
       <c r="S3">
-        <v>0.4516636627272728</v>
+        <v>8.885577390501866E-05</v>
       </c>
       <c r="T3">
-        <v>8.885648049281569E-05</v>
+        <v>0.001401977922210843</v>
       </c>
       <c r="U3">
-        <v>0.001401973003019861</v>
+        <v>1.055641260165767</v>
       </c>
       <c r="V3">
-        <v>1.055640446711198</v>
+        <v>0.1683</v>
       </c>
       <c r="W3">
-        <v>1.073931896183097</v>
+        <v>7.994219612878207</v>
       </c>
       <c r="X3">
-        <v>267.9997859863252</v>
+        <v>9.525855925028262</v>
       </c>
       <c r="Y3">
-        <v>0.1683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>8.433127493579049</v>
+      </c>
+      <c r="Z3">
+        <v>0.002550431298701101</v>
+      </c>
+      <c r="AB3">
+        <v>6.66418326416091E-05</v>
+      </c>
+      <c r="AC3">
+        <v>0.002581717627499583</v>
+      </c>
+      <c r="AD3">
+        <v>2.848980920377763E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.469066288192021E-06</v>
+        <v>8.477651534498975E-06</v>
       </c>
       <c r="C4">
-        <v>0.01499859333519435</v>
+        <v>0.01559371515867371</v>
       </c>
       <c r="D4">
-        <v>7.011465379470398E-05</v>
+        <v>4.873683437135424E-05</v>
       </c>
       <c r="E4">
-        <v>0.01595502307868577</v>
+        <v>0.01716447414567764</v>
       </c>
       <c r="F4">
-        <v>4.899971315437977</v>
+        <v>7.4199713153363</v>
       </c>
       <c r="S4">
-        <v>0.4562724756122449</v>
+        <v>8.806970424645449E-05</v>
       </c>
       <c r="T4">
-        <v>8.807041174577197E-05</v>
+        <v>0.001405548521308018</v>
       </c>
       <c r="U4">
-        <v>0.001405543539162455</v>
+        <v>1.055880437398685</v>
       </c>
       <c r="V4">
-        <v>1.055879612093398</v>
+        <v>0.1666</v>
       </c>
       <c r="W4">
-        <v>1.085375719638488</v>
+        <v>7.991545866900955</v>
       </c>
       <c r="X4">
-        <v>265.2914140125917</v>
+        <v>9.524167650482944</v>
       </c>
       <c r="Y4">
-        <v>0.1666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>8.434341222473666</v>
+      </c>
+      <c r="Z4">
+        <v>0.002575776089171096</v>
+      </c>
+      <c r="AB4">
+        <v>6.677871447017697E-05</v>
+      </c>
+      <c r="AC4">
+        <v>0.002607770972584233</v>
+      </c>
+      <c r="AD4">
+        <v>2.873797558968533E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.464313960426034E-06</v>
+        <v>8.472360888888931E-06</v>
       </c>
       <c r="C5">
-        <v>0.01515249517727064</v>
+        <v>0.01575397266717167</v>
       </c>
       <c r="D5">
-        <v>7.093110324981635E-05</v>
+        <v>4.930802808812911E-05</v>
       </c>
       <c r="E5">
-        <v>0.01612684733010946</v>
+        <v>0.01735483448550743</v>
       </c>
       <c r="F5">
-        <v>4.89995686244866</v>
+        <v>7.419956862294174</v>
       </c>
       <c r="S5">
-        <v>0.4609763155670104</v>
+        <v>8.728263097596939E-05</v>
       </c>
       <c r="T5">
-        <v>8.728333939749716E-05</v>
+        <v>0.001409165056991092</v>
       </c>
       <c r="U5">
-        <v>0.001409160010425741</v>
+        <v>1.05612311473216</v>
       </c>
       <c r="V5">
-        <v>1.056122277279057</v>
+        <v>0.1649</v>
       </c>
       <c r="W5">
-        <v>1.097064444225133</v>
+        <v>7.988877354597219</v>
       </c>
       <c r="X5">
-        <v>262.5830419642745</v>
+        <v>9.522492541468212</v>
       </c>
       <c r="Y5">
-        <v>0.1649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>8.435660439113876</v>
+      </c>
+      <c r="Z5">
+        <v>0.002601642041487601</v>
+      </c>
+      <c r="AB5">
+        <v>6.69176785135918E-05</v>
+      </c>
+      <c r="AC5">
+        <v>0.002634358941625415</v>
+      </c>
+      <c r="AD5">
+        <v>2.898668549128518E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.459460689662554E-06</v>
+        <v>8.466954680205949E-06</v>
       </c>
       <c r="C6">
-        <v>0.01530959480304169</v>
+        <v>0.01591756292382879</v>
       </c>
       <c r="D6">
-        <v>7.176664784249535E-05</v>
+        <v>4.989261939623822E-05</v>
       </c>
       <c r="E6">
-        <v>0.01630238772178447</v>
+        <v>0.01754941819125677</v>
       </c>
       <c r="F6">
-        <v>4.899942333735041</v>
+        <v>7.419942333526367</v>
       </c>
       <c r="S6">
-        <v>0.4657781521875</v>
+        <v>8.649454243712355E-05</v>
       </c>
       <c r="T6">
-        <v>8.649525179179099E-05</v>
+        <v>0.001412828604002508</v>
       </c>
       <c r="U6">
-        <v>0.001412823491502389</v>
+        <v>1.056369380319705</v>
       </c>
       <c r="V6">
-        <v>1.056368530411053</v>
+        <v>0.1632</v>
       </c>
       <c r="W6">
-        <v>1.109005967468332</v>
+        <v>7.986216486437727</v>
       </c>
       <c r="X6">
-        <v>259.8746698158698</v>
+        <v>9.520825637032404</v>
       </c>
       <c r="Y6">
-        <v>0.1632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>8.437071461851575</v>
+      </c>
+      <c r="Z6">
+        <v>0.00262804542026858</v>
+      </c>
+      <c r="AB6">
+        <v>6.705912388557654E-05</v>
+      </c>
+      <c r="AC6">
+        <v>0.002661498235960145</v>
+      </c>
+      <c r="AD6">
+        <v>2.923666374650179E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.454503218593095E-06</v>
+        <v>8.461429092091713E-06</v>
       </c>
       <c r="C7">
-        <v>0.01546999299414905</v>
+        <v>0.0160845910322965</v>
       </c>
       <c r="D7">
-        <v>7.262196130674452E-05</v>
+        <v>5.049108120326167E-05</v>
       </c>
       <c r="E7">
-        <v>0.01648176536181135</v>
+        <v>0.01774836611784135</v>
       </c>
       <c r="F7">
-        <v>4.89992772780133</v>
+        <v>7.419927727537043</v>
       </c>
       <c r="S7">
-        <v>0.4706810801052632</v>
+        <v>8.570542672297761E-05</v>
       </c>
       <c r="T7">
-        <v>8.570613702196102E-05</v>
+        <v>0.001416540273941292</v>
       </c>
       <c r="U7">
-        <v>0.001416535093939419</v>
+        <v>1.056619325475769</v>
       </c>
       <c r="V7">
-        <v>1.056618462792707</v>
+        <v>0.1615</v>
       </c>
       <c r="W7">
-        <v>1.121208528014378</v>
+        <v>7.98356573742945</v>
       </c>
       <c r="X7">
-        <v>257.1662975787993</v>
+        <v>9.519128135982506</v>
       </c>
       <c r="Y7">
-        <v>0.1615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>8.438491371987054</v>
+      </c>
+      <c r="Z7">
+        <v>0.002655003170756822</v>
+      </c>
+      <c r="AB7">
+        <v>6.720444193364788E-05</v>
+      </c>
+      <c r="AC7">
+        <v>0.002689206252509762</v>
+      </c>
+      <c r="AD7">
+        <v>2.94920690969028E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.449438152377887E-06</v>
+        <v>8.455780135003335E-06</v>
       </c>
       <c r="C8">
-        <v>0.01563379481364737</v>
+        <v>0.01625516656369111</v>
       </c>
       <c r="D8">
-        <v>7.349774924191259E-05</v>
+        <v>5.110390880529868E-05</v>
       </c>
       <c r="E8">
-        <v>0.01666510664869433</v>
+        <v>0.01795182540411875</v>
       </c>
       <c r="F8">
-        <v>4.899913043104027</v>
+        <v>7.419913042782651</v>
       </c>
       <c r="S8">
-        <v>0.4756883256382979</v>
+        <v>8.491527165598104E-05</v>
       </c>
       <c r="T8">
-        <v>8.491598291071244E-05</v>
+        <v>0.001420301216695796</v>
       </c>
       <c r="U8">
-        <v>0.001420295967570818</v>
+        <v>1.056873044837591</v>
       </c>
       <c r="V8">
-        <v>1.056872169049601</v>
+        <v>0.1598</v>
       </c>
       <c r="W8">
-        <v>1.133680724400975</v>
+        <v>7.980921817229275</v>
       </c>
       <c r="X8">
-        <v>254.4579252455036</v>
+        <v>9.517470695768788</v>
       </c>
       <c r="Y8">
-        <v>0.1598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>8.440066198086829</v>
+      </c>
+      <c r="Z8">
+        <v>0.002682532944467707</v>
+      </c>
+      <c r="AB8">
+        <v>6.735173028361831E-05</v>
+      </c>
+      <c r="AC8">
+        <v>0.002717501084248197</v>
+      </c>
+      <c r="AD8">
+        <v>2.974590355020522E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.444261951497901E-06</v>
+        <v>8.450003649134794E-06</v>
       </c>
       <c r="C9">
-        <v>0.01580110983584528</v>
+        <v>0.01642940379653935</v>
       </c>
       <c r="D9">
-        <v>7.439475100633617E-05</v>
+        <v>5.173162115061002E-05</v>
       </c>
       <c r="E9">
-        <v>0.01685254356189931</v>
+        <v>0.01815994982737735</v>
       </c>
       <c r="F9">
-        <v>4.899898278049834</v>
+        <v>7.419898277669839</v>
       </c>
       <c r="S9">
-        <v>0.4808032538709678</v>
+        <v>8.412406478221966E-05</v>
       </c>
       <c r="T9">
-        <v>8.412477700439513E-05</v>
+        <v>0.001424112622252767</v>
       </c>
       <c r="U9">
-        <v>0.001424107302326474</v>
+        <v>1.057130636519292</v>
       </c>
       <c r="V9">
-        <v>1.057129747283644</v>
+        <v>0.1581</v>
       </c>
       <c r="W9">
-        <v>1.146431534823082</v>
+        <v>7.978281696699825</v>
       </c>
       <c r="X9">
-        <v>251.7495528045151</v>
+        <v>9.515812042302032</v>
       </c>
       <c r="Y9">
-        <v>0.1581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>8.441707230626566</v>
+      </c>
+      <c r="Z9">
+        <v>0.002710653172577214</v>
+      </c>
+      <c r="AB9">
+        <v>6.750247822719532E-05</v>
+      </c>
+      <c r="AC9">
+        <v>0.002746401677589036</v>
+      </c>
+      <c r="AD9">
+        <v>3.000259223986966E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.438970917785705E-06</v>
+        <v>8.444095281465891E-06</v>
       </c>
       <c r="C10">
-        <v>0.01597205239111527</v>
+        <v>0.01660742197235879</v>
       </c>
       <c r="D10">
-        <v>7.531374182874417E-05</v>
+        <v>5.237476233400979E-05</v>
       </c>
       <c r="E10">
-        <v>0.0170442139703358</v>
+        <v>0.01837290017627393</v>
       </c>
       <c r="F10">
-        <v>4.899883430993452</v>
+        <v>7.41988343055325</v>
       </c>
       <c r="S10">
-        <v>0.4860293761956522</v>
+        <v>8.333179336861216E-05</v>
       </c>
       <c r="T10">
-        <v>8.333250657020093E-05</v>
+        <v>0.001427975722679198</v>
       </c>
       <c r="U10">
-        <v>0.001427970330213886</v>
+        <v>1.057392202270915</v>
       </c>
       <c r="V10">
-        <v>1.057391299232074</v>
+        <v>0.1564</v>
       </c>
       <c r="W10">
-        <v>1.159470338118082</v>
+        <v>7.97565364909136</v>
       </c>
       <c r="X10">
-        <v>249.0411802713995</v>
+        <v>9.514150869134582</v>
       </c>
       <c r="Y10">
-        <v>0.1564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>8.443410764509231</v>
+      </c>
+      <c r="Z10">
+        <v>0.002739383071428844</v>
+      </c>
+      <c r="AB10">
+        <v>6.76569476509874E-05</v>
+      </c>
+      <c r="AC10">
+        <v>0.0027759277546037</v>
+      </c>
+      <c r="AD10">
+        <v>3.026246911762454E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.433561189423311E-06</v>
+        <v>8.438050471746041E-06</v>
       </c>
       <c r="C11">
-        <v>0.01614674182682171</v>
+        <v>0.01678934556807335</v>
       </c>
       <c r="D11">
-        <v>7.62555349511497E-05</v>
+        <v>5.303390314707166E-05</v>
       </c>
       <c r="E11">
-        <v>0.01724026196367028</v>
+        <v>0.01859084465164259</v>
       </c>
       <c r="F11">
-        <v>4.899868500235274</v>
+        <v>7.41986849973322</v>
       </c>
       <c r="S11">
-        <v>0.4913703583516483</v>
+        <v>8.253844438070021E-05</v>
       </c>
       <c r="T11">
-        <v>8.253915857395444E-05</v>
+        <v>0.001431891793825208</v>
       </c>
       <c r="U11">
-        <v>0.001431886327020887</v>
+        <v>1.057657847669937</v>
       </c>
       <c r="V11">
-        <v>1.057656930458943</v>
+        <v>0.1547</v>
       </c>
       <c r="W11">
-        <v>1.172806936304101</v>
+        <v>7.973034765387623</v>
       </c>
       <c r="X11">
-        <v>246.3328076287642</v>
+        <v>9.512515207256076</v>
       </c>
       <c r="Y11">
-        <v>0.1547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>8.44522899196657</v>
+      </c>
+      <c r="Z11">
+        <v>0.002768742699162666</v>
+      </c>
+      <c r="AB11">
+        <v>6.781467826563299E-05</v>
+      </c>
+      <c r="AC11">
+        <v>0.002806099900598053</v>
+      </c>
+      <c r="AD11">
+        <v>3.052304015041735E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.428028733296794E-06</v>
+        <v>8.431864466021647E-06</v>
       </c>
       <c r="C12">
-        <v>0.01632530278562027</v>
+        <v>0.01697530458657253</v>
       </c>
       <c r="D12">
-        <v>7.722098395575404E-05</v>
+        <v>5.370964257991624E-05</v>
       </c>
       <c r="E12">
-        <v>0.01744083820538424</v>
+        <v>0.01881395930091956</v>
       </c>
       <c r="F12">
-        <v>4.899853484018919</v>
+        <v>7.419853483453307</v>
       </c>
       <c r="S12">
-        <v>0.496830029</v>
+        <v>8.174400448258727E-05</v>
       </c>
       <c r="T12">
-        <v>8.174471968005165E-05</v>
+        <v>0.001435862157597867</v>
       </c>
       <c r="U12">
-        <v>0.001435856614589315</v>
+        <v>1.05792768229668</v>
       </c>
       <c r="V12">
-        <v>1.057926750530483</v>
+        <v>0.153</v>
       </c>
       <c r="W12">
-        <v>1.186451578597568</v>
+        <v>7.970417010680657</v>
       </c>
       <c r="X12">
-        <v>243.6244348744676</v>
+        <v>9.510879126676386</v>
       </c>
       <c r="Y12">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>8.447109220152592</v>
+      </c>
+      <c r="Z12">
+        <v>0.002798753010505967</v>
+      </c>
+      <c r="AB12">
+        <v>6.797661882959849E-05</v>
+      </c>
+      <c r="AC12">
+        <v>0.002836939643491915</v>
+      </c>
+      <c r="AD12">
+        <v>3.07870890580811E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.42236931354799E-06</v>
+        <v>8.425532278145625E-06</v>
       </c>
       <c r="C13">
-        <v>0.01650786550249291</v>
+        <v>0.01716543486684211</v>
       </c>
       <c r="D13">
-        <v>7.821098557678435E-05</v>
+        <v>5.440260973072462E-05</v>
       </c>
       <c r="E13">
-        <v>0.01764610030512525</v>
+        <v>0.01904242847143659</v>
       </c>
       <c r="F13">
-        <v>4.899838380528645</v>
+        <v>7.419838379897699</v>
       </c>
       <c r="S13">
-        <v>0.5024123888764045</v>
+        <v>8.094846002522487E-05</v>
       </c>
       <c r="T13">
-        <v>8.094917623974718E-05</v>
+        <v>0.001439888184133627</v>
       </c>
       <c r="U13">
-        <v>0.001439882562987259</v>
+        <v>1.058201819934143</v>
       </c>
       <c r="V13">
-        <v>1.0582008732149</v>
+        <v>0.1513</v>
       </c>
       <c r="W13">
-        <v>1.200414986743214</v>
+        <v>7.96781401964822</v>
       </c>
       <c r="X13">
-        <v>240.916062016157</v>
+        <v>9.509265103938613</v>
       </c>
       <c r="Y13">
-        <v>0.1513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>8.449091839740372</v>
+      </c>
+      <c r="Z13">
+        <v>0.002829435891311319</v>
+      </c>
+      <c r="AB13">
+        <v>6.814252289609037E-05</v>
+      </c>
+      <c r="AC13">
+        <v>0.002868469447474318</v>
+      </c>
+      <c r="AD13">
+        <v>3.105272643859302E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.416578523747557E-06</v>
+        <v>8.419048680592377E-06</v>
       </c>
       <c r="C14">
-        <v>0.01669456612200332</v>
+        <v>0.01735987841521837</v>
       </c>
       <c r="D14">
-        <v>7.922648185403747E-05</v>
+        <v>5.51134656834505E-05</v>
       </c>
       <c r="E14">
-        <v>0.01785621323092839</v>
+        <v>0.01927644530268127</v>
       </c>
       <c r="F14">
-        <v>4.899823187886606</v>
+        <v>7.419823187188489</v>
       </c>
       <c r="S14">
-        <v>0.5081216205681818</v>
+        <v>8.015179703004906E-05</v>
       </c>
       <c r="T14">
-        <v>8.015251427479103E-05</v>
+        <v>0.001443971294009872</v>
       </c>
       <c r="U14">
-        <v>0.001443965592720428</v>
+        <v>1.058480378785464</v>
       </c>
       <c r="V14">
-        <v>1.058479416699792</v>
+        <v>0.1496</v>
       </c>
       <c r="W14">
-        <v>1.214708383056353</v>
+        <v>7.965207655314422</v>
       </c>
       <c r="X14">
-        <v>238.2076890460784</v>
+        <v>9.50765187036766</v>
       </c>
       <c r="Y14">
-        <v>0.1496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>8.451134209424552</v>
+      </c>
+      <c r="Z14">
+        <v>0.002860814225043311</v>
+      </c>
+      <c r="AB14">
+        <v>6.83131851386533E-05</v>
+      </c>
+      <c r="AC14">
+        <v>0.002900712819304269</v>
+      </c>
+      <c r="AD14">
+        <v>3.132227139546549E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.410651749506586E-06</v>
+        <v>8.412408197648668E-06</v>
       </c>
       <c r="C15">
-        <v>0.01688554703740733</v>
+        <v>0.0175587837594659</v>
       </c>
       <c r="D15">
-        <v>8.026846339521043E-05</v>
+        <v>5.584290550869785E-05</v>
       </c>
       <c r="E15">
-        <v>0.01807134973512266</v>
+        <v>0.01951621225438566</v>
       </c>
       <c r="F15">
-        <v>4.899807904149959</v>
+        <v>7.419807903382758</v>
       </c>
       <c r="S15">
-        <v>0.5139620989655173</v>
+        <v>7.935400117921212E-05</v>
       </c>
       <c r="T15">
-        <v>7.935471946766066E-05</v>
+        <v>0.001448112960743508</v>
       </c>
       <c r="U15">
-        <v>0.00144810717723054</v>
+        <v>1.058763481695874</v>
       </c>
       <c r="V15">
-        <v>1.058762503814058</v>
+        <v>0.1479</v>
       </c>
       <c r="W15">
-        <v>1.229343519396099</v>
+        <v>7.962616706270011</v>
       </c>
       <c r="X15">
-        <v>235.499315949879</v>
+        <v>9.506068336908221</v>
       </c>
       <c r="Y15">
-        <v>0.1479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>8.453287328180549</v>
+      </c>
+      <c r="Z15">
+        <v>0.002892911938145663</v>
+      </c>
+      <c r="AB15">
+        <v>6.848830986165668E-05</v>
+      </c>
+      <c r="AC15">
+        <v>0.002933694319854945</v>
+      </c>
+      <c r="AD15">
+        <v>3.159329076437928E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.404584123997062E-06</v>
+        <v>8.405605101514532E-06</v>
       </c>
       <c r="C16">
-        <v>0.01708095725338422</v>
+        <v>0.01776230632753517</v>
       </c>
       <c r="D16">
-        <v>8.133797298061114E-05</v>
+        <v>5.659166039522219E-05</v>
       </c>
       <c r="E16">
-        <v>0.01829169080848653</v>
+        <v>0.01976194167370332</v>
       </c>
       <c r="F16">
-        <v>4.899792527307764</v>
+        <v>7.419792526469493</v>
       </c>
       <c r="S16">
-        <v>0.5199384024418605</v>
+        <v>7.855505780993839E-05</v>
       </c>
       <c r="T16">
-        <v>7.855577715591808E-05</v>
+        <v>0.001452314713546207</v>
       </c>
       <c r="U16">
-        <v>0.001452308845650344</v>
+        <v>1.059051256382397</v>
       </c>
       <c r="V16">
-        <v>1.059050262257544</v>
+        <v>0.1462</v>
       </c>
       <c r="W16">
-        <v>1.244332708060308</v>
+        <v>7.960023746833466</v>
       </c>
       <c r="X16">
-        <v>232.7909427375093</v>
+        <v>9.504494881618646</v>
       </c>
       <c r="Y16">
-        <v>0.1462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>8.455512520093407</v>
+      </c>
+      <c r="Z16">
+        <v>0.002925754073358267</v>
+      </c>
+      <c r="AB16">
+        <v>6.866865239965624E-05</v>
+      </c>
+      <c r="AC16">
+        <v>0.002967439680658324</v>
+      </c>
+      <c r="AD16">
+        <v>3.186794231690084E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.398370587963721E-06</v>
+        <v>8.398633366958144E-06</v>
       </c>
       <c r="C17">
-        <v>0.01728095277433014</v>
+        <v>0.01797060885303094</v>
       </c>
       <c r="D17">
-        <v>8.24361079647462E-05</v>
+        <v>5.736050019428687E-05</v>
       </c>
       <c r="E17">
-        <v>0.0185174261917712</v>
+        <v>0.02001385639402804</v>
       </c>
       <c r="F17">
-        <v>4.89977705527775</v>
+        <v>7.419777054366342</v>
       </c>
       <c r="S17">
-        <v>0.5260553248235295</v>
+        <v>7.775495189236705E-05</v>
       </c>
       <c r="T17">
-        <v>7.775567231005205E-05</v>
+        <v>0.001456578139893937</v>
       </c>
       <c r="U17">
-        <v>0.00145657218537293</v>
+        <v>1.059343835699222</v>
       </c>
       <c r="V17">
-        <v>1.059342824866367</v>
+        <v>0.1445</v>
       </c>
       <c r="W17">
-        <v>1.259688856583075</v>
+        <v>7.957442273070964</v>
       </c>
       <c r="X17">
-        <v>230.0825693984312</v>
+        <v>9.502951019155496</v>
       </c>
       <c r="Y17">
-        <v>0.1445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>8.457840574779658</v>
+      </c>
+      <c r="Z17">
+        <v>0.002959366843016604</v>
+      </c>
+      <c r="AB17">
+        <v>6.885420720088385E-05</v>
+      </c>
+      <c r="AC17">
+        <v>0.003001975818756458</v>
+      </c>
+      <c r="AD17">
+        <v>3.214479030147365E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.392005823018942E-06</v>
+        <v>8.391486674510092E-06</v>
       </c>
       <c r="C18">
-        <v>0.0174856970203583</v>
+        <v>0.01818386180961232</v>
       </c>
       <c r="D18">
-        <v>8.35640246670469E-05</v>
+        <v>5.815023585882489E-05</v>
       </c>
       <c r="E18">
-        <v>0.01874875489457655</v>
+        <v>0.02027219039033057</v>
       </c>
       <c r="F18">
-        <v>4.899761485902847</v>
+        <v>7.419761484916156</v>
       </c>
       <c r="S18">
-        <v>0.5323178882142857</v>
+        <v>7.695366801941811E-05</v>
       </c>
       <c r="T18">
-        <v>7.695438952334562E-05</v>
+        <v>0.001460904888541075</v>
       </c>
       <c r="U18">
-        <v>0.001460898845065585</v>
+        <v>1.059641357903366</v>
       </c>
       <c r="V18">
-        <v>1.059640329878514</v>
+        <v>0.1428</v>
       </c>
       <c r="W18">
-        <v>1.275425503032418</v>
+        <v>7.954865584146076</v>
       </c>
       <c r="X18">
-        <v>227.3741959169862</v>
+        <v>9.501448067403858</v>
       </c>
       <c r="Y18">
-        <v>0.1428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>8.460286714983747</v>
+      </c>
+      <c r="Z18">
+        <v>0.002993777707728696</v>
+      </c>
+      <c r="AB18">
+        <v>6.90452116255333E-05</v>
+      </c>
+      <c r="AC18">
+        <v>0.003037330950047589</v>
+      </c>
+      <c r="AD18">
+        <v>3.242322232294225E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.385484238284701E-06</v>
+        <v>8.38415839280959E-06</v>
       </c>
       <c r="C19">
-        <v>0.01769536127331844</v>
+        <v>0.01840224387676598</v>
       </c>
       <c r="D19">
-        <v>8.472294232970899E-05</v>
+        <v>5.896172219989708E-05</v>
       </c>
       <c r="E19">
-        <v>0.01898588576493748</v>
+        <v>0.02053718947848716</v>
       </c>
       <c r="F19">
-        <v>4.899745816947503</v>
+        <v>7.419745815883293</v>
       </c>
       <c r="S19">
-        <v>0.538731356746988</v>
+        <v>7.615119039835214E-05</v>
       </c>
       <c r="T19">
-        <v>7.615191300343633E-05</v>
+        <v>0.00146529667278033</v>
       </c>
       <c r="U19">
-        <v>0.00146529053792945</v>
+        <v>1.059943966934302</v>
       </c>
       <c r="V19">
-        <v>1.059942921213407</v>
+        <v>0.1411</v>
       </c>
       <c r="W19">
-        <v>1.291556854757651</v>
+        <v>7.952287486243486</v>
       </c>
       <c r="X19">
-        <v>224.665822298723</v>
+        <v>9.499950060826988</v>
       </c>
       <c r="Y19">
-        <v>0.1411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>8.462787220988261</v>
+      </c>
+      <c r="Z19">
+        <v>0.003029015448645601</v>
+      </c>
+      <c r="AB19">
+        <v>6.924264702823458E-05</v>
+      </c>
+      <c r="AC19">
+        <v>0.003073534657610537</v>
+      </c>
+      <c r="AD19">
+        <v>3.270678089902628E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.378799980013204E-06</v>
+        <v>8.376641555346453E-06</v>
       </c>
       <c r="C20">
-        <v>0.01791012515540366</v>
+        <v>0.01862594243962654</v>
       </c>
       <c r="D20">
-        <v>8.591414704415965E-05</v>
+        <v>5.979586089435582E-05</v>
       </c>
       <c r="E20">
-        <v>0.0192290381074409</v>
+        <v>0.0208091120665852</v>
       </c>
       <c r="F20">
-        <v>4.899730046093777</v>
+        <v>7.419730044949721</v>
       </c>
       <c r="S20">
-        <v>0.5453012513414633</v>
+        <v>7.534750283426516E-05</v>
       </c>
       <c r="T20">
-        <v>7.53482265558116E-05</v>
+        <v>0.001469755273740868</v>
       </c>
       <c r="U20">
-        <v>0.001469749044997358</v>
+        <v>1.060251812722128</v>
       </c>
       <c r="V20">
-        <v>1.060250748780009</v>
+        <v>0.1394</v>
       </c>
       <c r="W20">
-        <v>1.308097830438157</v>
+        <v>7.949721379602428</v>
       </c>
       <c r="X20">
-        <v>221.9574485617624</v>
+        <v>9.498482348850406</v>
       </c>
       <c r="Y20">
-        <v>0.1394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>8.465381709968401</v>
+      </c>
+      <c r="Z20">
+        <v>0.003065110238909228</v>
+      </c>
+      <c r="AB20">
+        <v>6.94465193014209E-05</v>
+      </c>
+      <c r="AC20">
+        <v>0.003110617924399701</v>
+      </c>
+      <c r="AD20">
+        <v>3.299361415070647E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.371946899627008E-06</v>
+        <v>8.368928819560677E-06</v>
       </c>
       <c r="C21">
-        <v>0.01813017714316119</v>
+        <v>0.01885515412578373</v>
       </c>
       <c r="D21">
-        <v>8.713899660665066E-05</v>
+        <v>6.065360384467739E-05</v>
       </c>
       <c r="E21">
-        <v>0.01947844233785376</v>
+        <v>0.0210882299595173</v>
       </c>
       <c r="F21">
-        <v>4.899714170937255</v>
+        <v>7.41971416971093</v>
       </c>
       <c r="S21">
-        <v>0.5520333655555555</v>
+        <v>7.454258870133629E-05</v>
       </c>
       <c r="T21">
-        <v>7.454331355505722E-05</v>
+        <v>0.001474282543626031</v>
       </c>
       <c r="U21">
-        <v>0.001474276218371248</v>
+        <v>1.060565051532747</v>
       </c>
       <c r="V21">
-        <v>1.060563968821932</v>
+        <v>0.1377</v>
       </c>
       <c r="W21">
-        <v>1.325064104615902</v>
+        <v>7.947161273327671</v>
       </c>
       <c r="X21">
-        <v>219.249074674085</v>
+        <v>9.497042634259303</v>
       </c>
       <c r="Y21">
-        <v>0.1377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>8.468063054599767</v>
+      </c>
+      <c r="Z21">
+        <v>0.003102093741620435</v>
+      </c>
+      <c r="AB21">
+        <v>6.965730559700015E-05</v>
+      </c>
+      <c r="AC21">
+        <v>0.003148613286254627</v>
+      </c>
+      <c r="AD21">
+        <v>3.328432764831195E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.364918531777673E-06</v>
+        <v>8.361012482063597E-06</v>
       </c>
       <c r="C22">
-        <v>0.01835571511999312</v>
+        <v>0.01909008538230796</v>
       </c>
       <c r="D22">
-        <v>8.839892560817679E-05</v>
+        <v>6.153595644073934E-05</v>
       </c>
       <c r="E22">
-        <v>0.01973434068967378</v>
+        <v>0.02137482924130998</v>
       </c>
       <c r="F22">
-        <v>4.899698188982564</v>
+        <v>7.419698187671442</v>
       </c>
       <c r="S22">
-        <v>0.5589337826249999</v>
+        <v>7.373643094541469E-05</v>
       </c>
       <c r="T22">
-        <v>7.373715694744518E-05</v>
+        <v>0.001478880409930366</v>
       </c>
       <c r="U22">
-        <v>0.001478873985438848</v>
+        <v>1.060883846290531</v>
       </c>
       <c r="V22">
-        <v>1.060882744240012</v>
+        <v>0.136</v>
       </c>
       <c r="W22">
-        <v>1.342472155760121</v>
+        <v>7.944597054385659</v>
       </c>
       <c r="X22">
-        <v>216.5407006423545</v>
+        <v>9.495648417813511</v>
       </c>
       <c r="Y22">
-        <v>0.136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>8.470854561492928</v>
+      </c>
+      <c r="Z22">
+        <v>0.003139999197070728</v>
+      </c>
+      <c r="AB22">
+        <v>6.987526821413198E-05</v>
+      </c>
+      <c r="AC22">
+        <v>0.003187554898237206</v>
+      </c>
+      <c r="AD22">
+        <v>3.357789761904689E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.357708080675061E-06</v>
+        <v>8.352884415093279E-06</v>
       </c>
       <c r="C23">
-        <v>0.01858694697055496</v>
+        <v>0.01933095309655945</v>
       </c>
       <c r="D23">
-        <v>8.969545081125524E-05</v>
+        <v>6.244398160770595E-05</v>
       </c>
       <c r="E23">
-        <v>0.01999698797820374</v>
+        <v>0.02166921120560847</v>
       </c>
       <c r="F23">
-        <v>4.899682097638728</v>
+        <v>7.419682096240177</v>
       </c>
       <c r="S23">
-        <v>0.5660088937974683</v>
+        <v>7.292901205418028E-05</v>
       </c>
       <c r="T23">
-        <v>7.292973922109501E-05</v>
+        <v>0.00148355087917374</v>
       </c>
       <c r="U23">
-        <v>0.001483544352607442</v>
+        <v>1.061208366968678</v>
       </c>
       <c r="V23">
-        <v>1.061207244982592</v>
+        <v>0.1343</v>
       </c>
       <c r="W23">
-        <v>1.360339318245152</v>
+        <v>7.942042188650697</v>
       </c>
       <c r="X23">
-        <v>213.832326451729</v>
+        <v>9.494288591466484</v>
       </c>
       <c r="Y23">
-        <v>0.1343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>8.473735157493334</v>
+      </c>
+      <c r="Z23">
+        <v>0.003178861525284103</v>
+      </c>
+      <c r="AB23">
+        <v>7.010104346523679E-05</v>
+      </c>
+      <c r="AC23">
+        <v>0.003227478657738702</v>
+      </c>
+      <c r="AD23">
+        <v>3.387572402722759E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.350308397648613E-06</v>
+        <v>8.344536067708117E-06</v>
       </c>
       <c r="C24">
-        <v>0.01882409122080808</v>
+        <v>0.01957798526469985</v>
       </c>
       <c r="D24">
-        <v>9.103017710171361E-05</v>
+        <v>6.337880375286427E-05</v>
       </c>
       <c r="E24">
-        <v>0.02026665242178849</v>
+        <v>0.02197169337889663</v>
       </c>
       <c r="F24">
-        <v>4.89966589421412</v>
+        <v>7.419665892725393</v>
       </c>
       <c r="S24">
-        <v>0.5732654180769231</v>
+        <v>7.212031404854805E-05</v>
       </c>
       <c r="T24">
-        <v>7.212104239737939E-05</v>
+        <v>0.001488296041428569</v>
       </c>
       <c r="U24">
-        <v>0.001488289409830699</v>
+        <v>1.061538790974139</v>
       </c>
       <c r="V24">
-        <v>1.06153764843035</v>
+        <v>0.1326</v>
       </c>
       <c r="W24">
-        <v>1.378683838216904</v>
+        <v>7.939486993015901</v>
       </c>
       <c r="X24">
-        <v>211.123952109919</v>
+        <v>9.492984594518113</v>
       </c>
       <c r="Y24">
-        <v>0.1326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>8.47673253328484</v>
+      </c>
+      <c r="Z24">
+        <v>0.003218717428897165</v>
+      </c>
+      <c r="AB24">
+        <v>7.033495376724542E-05</v>
+      </c>
+      <c r="AC24">
+        <v>0.003268422285093977</v>
+      </c>
+      <c r="AD24">
+        <v>3.417654096569266E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.342711941542105E-06</v>
+        <v>8.335958416633573E-06</v>
       </c>
       <c r="C25">
-        <v>0.0190673777278692</v>
+        <v>0.01983142171224462</v>
       </c>
       <c r="D25">
-        <v>9.24048042101785E-05</v>
+        <v>6.434161338473139E-05</v>
       </c>
       <c r="E25">
-        <v>0.02054361652374542</v>
+        <v>0.02228261061231742</v>
       </c>
       <c r="F25">
-        <v>4.899649575911189</v>
+        <v>7.419649574329419</v>
       </c>
       <c r="S25">
-        <v>0.5807104235064935</v>
+        <v>7.131031845271977E-05</v>
       </c>
       <c r="T25">
-        <v>7.13110480009762E-05</v>
+        <v>0.00149311807464696</v>
       </c>
       <c r="U25">
-        <v>0.001493111334935399</v>
+        <v>1.061875303590164</v>
       </c>
       <c r="V25">
-        <v>1.061874139838747</v>
+        <v>0.1309</v>
       </c>
       <c r="W25">
-        <v>1.397524933588124</v>
+        <v>7.936940447409616</v>
       </c>
       <c r="X25">
-        <v>208.4155775954214</v>
+        <v>9.491724010008344</v>
       </c>
       <c r="Y25">
-        <v>0.1309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>8.479823784013691</v>
+      </c>
+      <c r="Z25">
+        <v>0.003259605512989761</v>
+      </c>
+      <c r="AB25">
+        <v>7.057768325441882E-05</v>
+      </c>
+      <c r="AC25">
+        <v>0.003310425476576163</v>
+      </c>
+      <c r="AD25">
+        <v>3.448189486859558E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.33491079735809E-06</v>
+        <v>8.327141958429915E-06</v>
       </c>
       <c r="C26">
-        <v>0.01931704842423313</v>
+        <v>0.02009151487144014</v>
       </c>
       <c r="D26">
-        <v>9.382113305811761E-05</v>
+        <v>6.533367183600944E-05</v>
       </c>
       <c r="E26">
-        <v>0.02082817804159671</v>
+        <v>0.02260231627514691</v>
       </c>
       <c r="F26">
-        <v>4.899633139820683</v>
+        <v>7.419633138142877</v>
       </c>
       <c r="S26">
-        <v>0.5883513501315789</v>
+        <v>7.04990062882431E-05</v>
       </c>
       <c r="T26">
-        <v>7.049973705392968E-05</v>
+        <v>0.001498019249918767</v>
       </c>
       <c r="U26">
-        <v>0.001498012398879029</v>
+        <v>1.062218098412196</v>
       </c>
       <c r="V26">
-        <v>1.062216912773811</v>
+        <v>0.1292</v>
       </c>
       <c r="W26">
-        <v>1.416882859972565</v>
+        <v>7.9343849355549</v>
       </c>
       <c r="X26">
-        <v>205.7072029230772</v>
+        <v>9.490473435722951</v>
       </c>
       <c r="Y26">
-        <v>0.1292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>8.482958566332387</v>
+      </c>
+      <c r="Z26">
+        <v>0.003301566405486279</v>
+      </c>
+      <c r="AB26">
+        <v>7.08299748174731E-05</v>
+      </c>
+      <c r="AC26">
+        <v>0.003353529997388105</v>
+      </c>
+      <c r="AD26">
+        <v>3.479486583615686E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.32689658907519E-06</v>
+        <v>8.318076644674491E-06</v>
       </c>
       <c r="C27">
-        <v>0.0195733581214488</v>
+        <v>0.0203585306207682</v>
       </c>
       <c r="D27">
-        <v>9.528107438057241E-05</v>
+        <v>6.635631679282647E-05</v>
       </c>
       <c r="E27">
-        <v>0.02112065100484</v>
+        <v>0.02293118353058867</v>
       </c>
       <c r="F27">
-        <v>4.899616582915663</v>
+        <v>7.419616581138693</v>
       </c>
       <c r="S27">
-        <v>0.5961960348000001</v>
+        <v>6.968635803684431E-05</v>
       </c>
       <c r="T27">
-        <v>6.968709003848308E-05</v>
+        <v>0.001503001936323818</v>
       </c>
       <c r="U27">
-        <v>0.001502994970601522</v>
+        <v>1.062567377861917</v>
       </c>
       <c r="V27">
-        <v>1.062566169626067</v>
+        <v>0.1275</v>
       </c>
       <c r="W27">
-        <v>1.436778979921089</v>
+        <v>7.931838435074417</v>
       </c>
       <c r="X27">
-        <v>202.9988280684875</v>
+        <v>9.489300040760964</v>
       </c>
       <c r="Y27">
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>8.486227771685373</v>
+      </c>
+      <c r="Z27">
+        <v>0.00334464289122853</v>
+      </c>
+      <c r="AB27">
+        <v>7.109200326156497E-05</v>
+      </c>
+      <c r="AC27">
+        <v>0.003397779799142131</v>
+      </c>
+      <c r="AD27">
+        <v>3.511078313030897E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.31866051167903E-06</v>
+        <v>8.308751867058854E-06</v>
       </c>
       <c r="C28">
-        <v>0.01983657537884162</v>
+        <v>0.02063274919244354</v>
       </c>
       <c r="D28">
-        <v>9.678665611293805E-05</v>
+        <v>6.741096794800991E-05</v>
       </c>
       <c r="E28">
-        <v>0.02142136685186031</v>
+        <v>0.02326960673423931</v>
       </c>
       <c r="F28">
-        <v>4.899599902044921</v>
+        <v>7.419599900165516</v>
       </c>
       <c r="S28">
-        <v>0.604252737972973</v>
+        <v>6.887235363181147E-05</v>
       </c>
       <c r="T28">
-        <v>6.88730868884639E-05</v>
+        <v>0.001508068606899944</v>
       </c>
       <c r="U28">
-        <v>0.001508061522992736</v>
+        <v>1.062923353692161</v>
       </c>
       <c r="V28">
-        <v>1.062922122115319</v>
+        <v>0.1258</v>
       </c>
       <c r="W28">
-        <v>1.457235840262606</v>
+        <v>7.929292723825403</v>
       </c>
       <c r="X28">
-        <v>200.2904530314181</v>
+        <v>9.488186437842378</v>
       </c>
       <c r="Y28">
-        <v>0.1258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>8.489601956088498</v>
+      </c>
+      <c r="Z28">
+        <v>0.003388880065390245</v>
+      </c>
+      <c r="AB28">
+        <v>7.136453388756833E-05</v>
+      </c>
+      <c r="AC28">
+        <v>0.00344322127233148</v>
+      </c>
+      <c r="AD28">
+        <v>3.543157589287369E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.310193243780574E-06</v>
+        <v>8.299156413225843E-06</v>
       </c>
       <c r="C29">
-        <v>0.02010698344353653</v>
+        <v>0.02091446615442293</v>
       </c>
       <c r="D29">
-        <v>9.834003344613144E-05</v>
+        <v>6.849913336589592E-05</v>
       </c>
       <c r="E29">
-        <v>0.02173067562577433</v>
+        <v>0.02361800294339023</v>
       </c>
       <c r="F29">
-        <v>4.899583093926062</v>
+        <v>7.419583091940804</v>
       </c>
       <c r="S29">
-        <v>0.6125301727397261</v>
+        <v>6.805697242729541E-05</v>
       </c>
       <c r="T29">
-        <v>6.805770695858545E-05</v>
+        <v>0.001513221844490239</v>
       </c>
       <c r="U29">
-        <v>0.001513214638739145</v>
+        <v>1.06328624756248</v>
       </c>
       <c r="V29">
-        <v>1.06328499186608</v>
+        <v>0.1241</v>
       </c>
       <c r="W29">
-        <v>1.478277253454036</v>
+        <v>7.926744588150476</v>
       </c>
       <c r="X29">
-        <v>197.5820778017392</v>
+        <v>9.487099796659944</v>
       </c>
       <c r="Y29">
-        <v>0.1241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>8.493032653631033</v>
+      </c>
+      <c r="Z29">
+        <v>0.003434325483630008</v>
+      </c>
+      <c r="AB29">
+        <v>7.164830526697636E-05</v>
+      </c>
+      <c r="AC29">
+        <v>0.003489903322967626</v>
+      </c>
+      <c r="AD29">
+        <v>3.576033110398852E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.301484951225634E-06</v>
+        <v>8.289278420230869E-06</v>
       </c>
       <c r="C30">
-        <v>0.02038488126867668</v>
+        <v>0.02120399347415983</v>
       </c>
       <c r="D30">
-        <v>9.994349821775896E-05</v>
+        <v>6.962241643332572E-05</v>
       </c>
       <c r="E30">
-        <v>0.02204894729996984</v>
+        <v>0.02397681355583241</v>
       </c>
       <c r="F30">
-        <v>4.899566155138032</v>
+        <v>7.419566153043341</v>
       </c>
       <c r="S30">
-        <v>0.62103753625</v>
+        <v>6.724019317717205E-05</v>
       </c>
       <c r="T30">
-        <v>6.724092900331134E-05</v>
+        <v>0.001518464348306861</v>
       </c>
       <c r="U30">
-        <v>0.001518457016887</v>
+        <v>1.063656291640301</v>
       </c>
       <c r="V30">
-        <v>1.06365501100857</v>
+        <v>0.1224</v>
       </c>
       <c r="W30">
-        <v>1.49992838775305</v>
+        <v>7.924195330789592</v>
       </c>
       <c r="X30">
-        <v>194.8737023761933</v>
+        <v>9.486090386842916</v>
       </c>
       <c r="Y30">
-        <v>0.1224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+        <v>8.496583929710848</v>
+      </c>
+      <c r="Z30">
+        <v>0.003481029333329495</v>
+      </c>
+      <c r="AB30">
+        <v>7.194387144382822E-05</v>
+      </c>
+      <c r="AC30">
+        <v>0.003537877531187954</v>
+      </c>
+      <c r="AD30">
+        <v>3.609388294471551E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.292525246764894E-06</v>
+        <v>8.279105326934601E-06</v>
       </c>
       <c r="C31">
-        <v>0.02067058461755638</v>
+        <v>0.02150166067215598</v>
       </c>
       <c r="D31">
-        <v>0.0001015994899190925</v>
+        <v>7.078252345082315E-05</v>
       </c>
       <c r="E31">
-        <v>0.02237657320388895</v>
+        <v>0.02434650609244764</v>
       </c>
       <c r="F31">
-        <v>4.899549082113128</v>
+        <v>7.419549079905254</v>
       </c>
       <c r="S31">
-        <v>0.6297845438028169</v>
+        <v>6.642199400828049E-05</v>
       </c>
       <c r="T31">
-        <v>6.642273115009428E-05</v>
+        <v>0.001523798940865333</v>
       </c>
       <c r="U31">
-        <v>0.001523791479775936</v>
+        <v>1.064033729254769</v>
       </c>
       <c r="V31">
-        <v>1.064032422832403</v>
+        <v>0.1207</v>
       </c>
       <c r="W31">
-        <v>1.522215864210133</v>
+        <v>7.92165427864293</v>
       </c>
       <c r="X31">
-        <v>192.1653267555209</v>
+        <v>9.485161413503182</v>
       </c>
       <c r="Y31">
-        <v>0.1207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+        <v>8.500253160756415</v>
+      </c>
+      <c r="Z31">
+        <v>0.003529044621525068</v>
+      </c>
+      <c r="AB31">
+        <v>7.225200177616935E-05</v>
+      </c>
+      <c r="AC31">
+        <v>0.003587198427642084</v>
+      </c>
+      <c r="AD31">
+        <v>3.643271840386941E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.283303115547108E-06</v>
+        <v>8.268623823224147E-06</v>
       </c>
       <c r="C32">
-        <v>0.02096442726223691</v>
+        <v>0.02180781607428034</v>
       </c>
       <c r="D32">
-        <v>0.0001033106083276729</v>
+        <v>7.198127194863714E-05</v>
       </c>
       <c r="E32">
-        <v>0.02271396756137909</v>
+        <v>0.02472757613775134</v>
       </c>
       <c r="F32">
-        <v>4.899531871128461</v>
+        <v>7.419531868803476</v>
       </c>
       <c r="S32">
-        <v>0.6387814658571429</v>
+        <v>6.56023523875945E-05</v>
       </c>
       <c r="T32">
-        <v>6.560309086654949E-05</v>
+        <v>0.001529228575310335</v>
       </c>
       <c r="U32">
-        <v>0.001529220980364021</v>
+        <v>1.064418815608978</v>
       </c>
       <c r="V32">
-        <v>1.064417482498623</v>
+        <v>0.119</v>
       </c>
       <c r="W32">
-        <v>1.545167861318306</v>
+        <v>7.919099232964689</v>
       </c>
       <c r="X32">
-        <v>189.456950920619</v>
+        <v>9.484270374824098</v>
       </c>
       <c r="Y32">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>8.50398303608976</v>
+      </c>
+      <c r="Z32">
+        <v>0.003578427373235766</v>
+      </c>
+      <c r="AB32">
+        <v>7.257345440021144E-05</v>
+      </c>
+      <c r="AC32">
+        <v>0.003637923652059773</v>
+      </c>
+      <c r="AD32">
+        <v>3.678059805342732E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.273806921073419E-06</v>
+        <v>8.257819795085068E-06</v>
       </c>
       <c r="C33">
-        <v>0.02126676228620661</v>
+        <v>0.02212282817286486</v>
       </c>
       <c r="D33">
-        <v>0.0001050796258627922</v>
+        <v>7.322059981222E-05</v>
       </c>
       <c r="E33">
-        <v>0.02306156919251561</v>
+        <v>0.02512054945388647</v>
       </c>
       <c r="F33">
-        <v>4.899514518296716</v>
+        <v>7.419514515850502</v>
       </c>
       <c r="S33">
-        <v>0.6480391682608696</v>
+        <v>6.478124509758994E-05</v>
       </c>
       <c r="T33">
-        <v>6.478198493582374E-05</v>
+        <v>0.001534756343573897</v>
       </c>
       <c r="U33">
-        <v>0.001534748610385127</v>
+        <v>1.0648118185311</v>
       </c>
       <c r="V33">
-        <v>1.064810457790649</v>
+        <v>0.1173</v>
       </c>
       <c r="W33">
-        <v>1.568814230783375</v>
+        <v>7.916552045779278</v>
       </c>
       <c r="X33">
-        <v>186.7485748542864</v>
+        <v>9.483470592389478</v>
       </c>
       <c r="Y33">
-        <v>0.1173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>8.507834916842928</v>
+      </c>
+      <c r="Z33">
+        <v>0.003629236850320339</v>
+      </c>
+      <c r="AB33">
+        <v>7.290906035885282E-05</v>
+      </c>
+      <c r="AC33">
+        <v>0.003690114131103343</v>
+      </c>
+      <c r="AD33">
+        <v>3.713443458362666E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.264024313708775E-06</v>
+        <v>8.246678274140823E-06</v>
       </c>
       <c r="C34">
-        <v>0.02157796350179991</v>
+        <v>0.02244708710776269</v>
       </c>
       <c r="D34">
-        <v>0.0001069095029082606</v>
+        <v>7.450257523996073E-05</v>
       </c>
       <c r="E34">
-        <v>0.02341984333371203</v>
+        <v>0.02552598429019133</v>
       </c>
       <c r="F34">
-        <v>4.899497019556173</v>
+        <v>7.419497016984409</v>
       </c>
       <c r="S34">
-        <v>0.6575691560294118</v>
+        <v>6.395864821272627E-05</v>
       </c>
       <c r="T34">
-        <v>6.395938943307883E-05</v>
+        <v>0.00154038548524776</v>
       </c>
       <c r="U34">
-        <v>0.001540377609220384</v>
+        <v>1.065213019279882</v>
       </c>
       <c r="V34">
-        <v>1.065211629919546</v>
+        <v>0.1156</v>
       </c>
       <c r="W34">
-        <v>1.593186621340954</v>
+        <v>7.913999394059907</v>
       </c>
       <c r="X34">
-        <v>184.0401985759526</v>
+        <v>9.482731470628401</v>
       </c>
       <c r="Y34">
-        <v>0.1156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>8.511767836091858</v>
+      </c>
+      <c r="Z34">
+        <v>0.003681535788408009</v>
+      </c>
+      <c r="AB34">
+        <v>7.32596212295743E-05</v>
+      </c>
+      <c r="AC34">
+        <v>0.003743834420758045</v>
+      </c>
+      <c r="AD34">
+        <v>3.749713154131979E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.253942210175873E-06</v>
+        <v>8.235183331980085E-06</v>
       </c>
       <c r="C35">
-        <v>0.02189842699432068</v>
+        <v>0.0227810062798899</v>
       </c>
       <c r="D35">
-        <v>0.0001088034032888427</v>
+        <v>7.582940810721135E-05</v>
       </c>
       <c r="E35">
-        <v>0.02378928364976933</v>
+        <v>0.0259444738869151</v>
       </c>
       <c r="F35">
-        <v>4.899479370660242</v>
+        <v>7.419479367958388</v>
       </c>
       <c r="S35">
-        <v>0.6673836210447762</v>
+        <v>6.313453704501283E-05</v>
       </c>
       <c r="T35">
-        <v>6.313527967105953E-05</v>
+        <v>0.001546119396301241</v>
       </c>
       <c r="U35">
-        <v>0.001546111372615084</v>
+        <v>1.065622713467487</v>
       </c>
       <c r="V35">
-        <v>1.065621294446627</v>
+        <v>0.1139</v>
       </c>
       <c r="W35">
-        <v>1.618318615630567</v>
+        <v>7.911440389437577</v>
       </c>
       <c r="X35">
-        <v>181.3318220426199</v>
+        <v>9.482070269114702</v>
       </c>
       <c r="Y35">
-        <v>0.1139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+        <v>8.515797728190989</v>
+      </c>
+      <c r="Z35">
+        <v>0.003735390656574851</v>
+      </c>
+      <c r="AB35">
+        <v>7.3626048284259E-05</v>
+      </c>
+      <c r="AC35">
+        <v>0.00379915288776128</v>
+      </c>
+      <c r="AD35">
+        <v>3.786827649710919E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.243546707097192E-06</v>
+        <v>8.223318076621405E-06</v>
       </c>
       <c r="C36">
-        <v>0.02222857280630601</v>
+        <v>0.02312502411128054</v>
       </c>
       <c r="D36">
-        <v>0.0001107647125186216</v>
+        <v>7.7203461611081E-05</v>
       </c>
       <c r="E36">
-        <v>0.02417041440554204</v>
+        <v>0.02637664925465785</v>
       </c>
       <c r="F36">
-        <v>4.899461567165694</v>
+        <v>7.419461564328982</v>
       </c>
       <c r="S36">
-        <v>0.6774954940909091</v>
+        <v>6.230888613831465E-05</v>
       </c>
       <c r="T36">
-        <v>6.230963019440167E-05</v>
+        <v>0.001551961639994187</v>
       </c>
       <c r="U36">
-        <v>0.001551953463590544</v>
+        <v>1.066041211965153</v>
       </c>
       <c r="V36">
-        <v>1.066039762188857</v>
+        <v>0.1122</v>
       </c>
       <c r="W36">
-        <v>1.64424587792803</v>
+        <v>7.908878098784147</v>
       </c>
       <c r="X36">
-        <v>178.6234452837866</v>
+        <v>9.481504177221078</v>
       </c>
       <c r="Y36">
-        <v>0.1122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>8.519939454427721</v>
+      </c>
+      <c r="Z36">
+        <v>0.003790871938518647</v>
+      </c>
+      <c r="AB36">
+        <v>7.400937695046976E-05</v>
+      </c>
+      <c r="AC36">
+        <v>0.00385614204853801</v>
+      </c>
+      <c r="AD36">
+        <v>3.824756007164523E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.232823053852518E-06</v>
+        <v>8.211064487558739E-06</v>
       </c>
       <c r="C37">
-        <v>0.02256884677697966</v>
+        <v>0.0234796059674293</v>
       </c>
       <c r="D37">
-        <v>0.0001127970567233565</v>
+        <v>7.862726641643437E-05</v>
       </c>
       <c r="E37">
-        <v>0.02456379286569975</v>
+        <v>0.02682318215563782</v>
       </c>
       <c r="F37">
-        <v>4.89944360442056</v>
+        <v>7.419443601443976</v>
       </c>
       <c r="S37">
-        <v>0.6879185016923078</v>
+        <v>6.14816692006035E-05</v>
       </c>
       <c r="T37">
-        <v>6.148241471188533E-05</v>
+        <v>0.001557915956868862</v>
       </c>
       <c r="U37">
-        <v>0.001557907622434829</v>
+        <v>1.066468841995543</v>
       </c>
       <c r="V37">
-        <v>1.066467360310908</v>
+        <v>0.1105</v>
       </c>
       <c r="W37">
-        <v>1.671006317394541</v>
+        <v>7.906308715000713</v>
       </c>
       <c r="X37">
-        <v>175.91506826079</v>
+        <v>9.480997890957431</v>
       </c>
       <c r="Y37">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>8.524149396657306</v>
+      </c>
+      <c r="Z37">
+        <v>0.00384805443946585</v>
+      </c>
+      <c r="AB37">
+        <v>7.441038395244086E-05</v>
+      </c>
+      <c r="AC37">
+        <v>0.003914878886822108</v>
+      </c>
+      <c r="AD37">
+        <v>3.863819551220552E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.221755553999242E-06</v>
+        <v>8.198403396061504E-06</v>
       </c>
       <c r="C38">
-        <v>0.02291972255385866</v>
+        <v>0.02384524625963262</v>
       </c>
       <c r="D38">
-        <v>0.0001149043248936668</v>
+        <v>8.010353501143505E-05</v>
       </c>
       <c r="E38">
-        <v>0.02497001189291513</v>
+        <v>0.02728478843452596</v>
       </c>
       <c r="F38">
-        <v>4.899425477550558</v>
+        <v>7.419425474428825</v>
       </c>
       <c r="S38">
-        <v>0.6986672282812501</v>
+        <v>6.065285908385421E-05</v>
       </c>
       <c r="T38">
-        <v>6.065360607633385E-05</v>
+        <v>0.001563986277085435</v>
       </c>
       <c r="U38">
-        <v>0.001563977779036943</v>
+        <v>1.066905948222933</v>
       </c>
       <c r="V38">
-        <v>1.066904433415035</v>
+        <v>0.1088</v>
       </c>
       <c r="W38">
-        <v>1.698640264824158</v>
+        <v>7.903739603143195</v>
       </c>
       <c r="X38">
-        <v>173.2066909562469</v>
+        <v>9.48059970571345</v>
       </c>
       <c r="Y38">
-        <v>0.1088</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+        <v>8.528476449271066</v>
+      </c>
+      <c r="Z38">
+        <v>0.003907017627833247</v>
+      </c>
+      <c r="AB38">
+        <v>7.483042129418701E-05</v>
+      </c>
+      <c r="AC38">
+        <v>0.003975445147623824</v>
+      </c>
+      <c r="AD38">
+        <v>3.903793025853303E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.210327516756983E-06</v>
+        <v>8.185314372135688E-06</v>
       </c>
       <c r="C39">
-        <v>0.02328170379558826</v>
+        <v>0.02422247074732502</v>
       </c>
       <c r="D39">
-        <v>0.0001170906924261629</v>
+        <v>8.163517834234888E-05</v>
       </c>
       <c r="E39">
-        <v>0.02538970281770227</v>
+        <v>0.02776223163888453</v>
       </c>
       <c r="F39">
-        <v>4.899407181444598</v>
+        <v>7.41940717817216</v>
       </c>
       <c r="S39">
-        <v>0.7097571842857143</v>
+        <v>5.982242774234392E-05</v>
       </c>
       <c r="T39">
-        <v>5.982317624291573E-05</v>
+        <v>0.001570176733196893</v>
       </c>
       <c r="U39">
-        <v>0.00157016806566032</v>
+        <v>1.067352893973151</v>
       </c>
       <c r="V39">
-        <v>1.067351344760667</v>
+        <v>0.1071</v>
       </c>
       <c r="W39">
-        <v>1.727190667870903</v>
+        <v>7.901157299242379</v>
       </c>
       <c r="X39">
-        <v>170.4983133756224</v>
+        <v>9.480280155982648</v>
       </c>
       <c r="Y39">
-        <v>0.1071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>8.53288438043211</v>
+      </c>
+      <c r="Z39">
+        <v>0.00396784599619101</v>
+      </c>
+      <c r="AB39">
+        <v>7.527036436450786E-05</v>
+      </c>
+      <c r="AC39">
+        <v>0.004037927801867718</v>
+      </c>
+      <c r="AD39">
+        <v>3.944962544414103E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.198521129935399E-06</v>
+        <v>8.171775597275534E-06</v>
       </c>
       <c r="C40">
-        <v>0.02365532658757475</v>
+        <v>0.02461183906295378</v>
       </c>
       <c r="D40">
-        <v>0.0001193606487663989</v>
+        <v>8.322532432063715E-05</v>
       </c>
       <c r="E40">
-        <v>0.02582353855659251</v>
+        <v>0.02825632699618164</v>
       </c>
       <c r="F40">
-        <v>4.899388710739188</v>
+        <v>7.41938870731019</v>
       </c>
       <c r="S40">
-        <v>0.7212048808064516</v>
+        <v>5.899034617939873E-05</v>
       </c>
       <c r="T40">
-        <v>5.899109621589386E-05</v>
+        <v>0.001576491673721552</v>
       </c>
       <c r="U40">
-        <v>0.00157648283051377</v>
+        <v>1.067810062577555</v>
       </c>
       <c r="V40">
-        <v>1.067808477607994</v>
+        <v>0.1054</v>
       </c>
       <c r="W40">
-        <v>1.756703303169558</v>
+        <v>7.898570071647374</v>
       </c>
       <c r="X40">
-        <v>167.7899355087577</v>
+        <v>9.480059667199468</v>
       </c>
       <c r="Y40">
-        <v>0.1054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+        <v>8.537390553630837</v>
+      </c>
+      <c r="Z40">
+        <v>0.004030629474123695</v>
+      </c>
+      <c r="AB40">
+        <v>7.573154747679895E-05</v>
+      </c>
+      <c r="AC40">
+        <v>0.004102419385358421</v>
+      </c>
+      <c r="AD40">
+        <v>3.987300508240829E-05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.18631743691282E-06</v>
+        <v>8.157763768669193E-06</v>
       </c>
       <c r="C41">
-        <v>0.02404116209476833</v>
+        <v>0.02501394748489858</v>
       </c>
       <c r="D41">
-        <v>0.0001217190258111951</v>
+        <v>8.487733802575889E-05</v>
       </c>
       <c r="E41">
-        <v>0.02627223708582126</v>
+        <v>0.02876794581058682</v>
       </c>
       <c r="F41">
-        <v>4.899370059801469</v>
+        <v>7.41937005620973</v>
       </c>
       <c r="S41">
-        <v>0.7330279116393443</v>
+        <v>5.815658439847879E-05</v>
       </c>
       <c r="T41">
-        <v>5.8157335999714E-05</v>
+        <v>0.001582935678113531</v>
       </c>
       <c r="U41">
-        <v>0.001582926652720228</v>
+        <v>1.068277858821722</v>
       </c>
       <c r="V41">
-        <v>1.068276236666236</v>
+        <v>0.1037</v>
       </c>
       <c r="W41">
-        <v>1.787227012640902</v>
+        <v>7.895972926123785</v>
       </c>
       <c r="X41">
-        <v>165.0815573251329</v>
+        <v>9.479955082542398</v>
       </c>
       <c r="Y41">
-        <v>0.1037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+        <v>8.54200772757793</v>
+      </c>
+      <c r="Z41">
+        <v>0.004095463866363809</v>
+      </c>
+      <c r="AB41">
+        <v>7.621540581792195E-05</v>
+      </c>
+      <c r="AC41">
+        <v>0.004169018506346552</v>
+      </c>
+      <c r="AD41">
+        <v>4.030809004616526E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.173696185690076E-06</v>
+        <v>8.143253979578073E-06</v>
       </c>
       <c r="C42">
-        <v>0.02443981947925095</v>
+        <v>0.02542943198734646</v>
       </c>
       <c r="D42">
-        <v>0.0001241710321539765</v>
+        <v>8.659484431436914E-05</v>
       </c>
       <c r="E42">
-        <v>0.0267365652089654</v>
+        <v>0.02929802030305216</v>
       </c>
       <c r="F42">
-        <v>4.899351222710573</v>
+        <v>7.419351218949573</v>
       </c>
       <c r="S42">
-        <v>0.7452450435000001</v>
+        <v>5.732111136624349E-05</v>
       </c>
       <c r="T42">
-        <v>5.73218645620734E-05</v>
+        <v>0.001589513573545176</v>
       </c>
       <c r="U42">
-        <v>0.001589504359097272</v>
+        <v>1.068756710492841</v>
       </c>
       <c r="V42">
-        <v>1.068755049640559</v>
+        <v>0.102</v>
       </c>
       <c r="W42">
-        <v>1.818813959793565</v>
+        <v>7.893367989273257</v>
       </c>
       <c r="X42">
-        <v>162.3731788381851</v>
+        <v>9.479922791438392</v>
       </c>
       <c r="Y42">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+        <v>8.546687429438867</v>
+      </c>
+      <c r="Z42">
+        <v>0.00416245134070624</v>
+      </c>
+      <c r="AB42">
+        <v>7.67227143022698E-05</v>
+      </c>
+      <c r="AC42">
+        <v>0.004237830346618225</v>
+      </c>
+      <c r="AD42">
+        <v>4.075868483142772E-05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.160635750276829E-06</v>
+        <v>8.128219542889736E-06</v>
       </c>
       <c r="C43">
-        <v>0.02485194911394751</v>
+        <v>0.02585897159994023</v>
       </c>
       <c r="D43">
-        <v>0.0001267222895509993</v>
+        <v>8.83817534626724E-05</v>
       </c>
       <c r="E43">
-        <v>0.02721734274579866</v>
+        <v>0.029847548933668</v>
       </c>
       <c r="F43">
-        <v>4.899332193237774</v>
+        <v>7.419332189300622</v>
       </c>
       <c r="S43">
-        <v>0.7578763154237289</v>
+        <v>5.648389494206193E-05</v>
       </c>
       <c r="T43">
-        <v>5.648464976343483E-05</v>
+        <v>0.001596230452172181</v>
       </c>
       <c r="U43">
-        <v>0.00159622104142013</v>
+        <v>1.069247070132174</v>
       </c>
       <c r="V43">
-        <v>1.069245368984015</v>
+        <v>0.1003</v>
       </c>
       <c r="W43">
-        <v>1.851519914680181</v>
+        <v>7.890751697460721</v>
       </c>
       <c r="X43">
-        <v>159.6648000329717</v>
+        <v>9.480002103303153</v>
       </c>
       <c r="Y43">
-        <v>0.1003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>8.551465659441956</v>
+      </c>
+      <c r="Z43">
+        <v>0.004231700978441901</v>
+      </c>
+      <c r="AB43">
+        <v>7.725531856549679E-05</v>
+      </c>
+      <c r="AC43">
+        <v>0.00430896715444512</v>
+      </c>
+      <c r="AD43">
+        <v>4.122356492189372E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.147112968234698E-06</v>
+        <v>8.112631877476574E-06</v>
       </c>
       <c r="C44">
-        <v>0.02527824612816124</v>
+        <v>0.02630329211453466</v>
       </c>
       <c r="D44">
-        <v>0.0001293788753980137</v>
+        <v>9.024228910369131E-05</v>
       </c>
       <c r="E44">
-        <v>0.02771544711801348</v>
+        <v>0.0304176023255189</v>
       </c>
       <c r="F44">
-        <v>4.899312964824705</v>
+        <v>7.419312960704112</v>
       </c>
       <c r="S44">
-        <v>0.7709431484482758</v>
+        <v>5.564490181701067E-05</v>
       </c>
       <c r="T44">
-        <v>5.564565829602826E-05</v>
+        <v>0.001603091690403917</v>
       </c>
       <c r="U44">
-        <v>0.001603082075689677</v>
+        <v>1.069749416923027</v>
       </c>
       <c r="V44">
-        <v>1.069747673784928</v>
+        <v>0.09860000000000002</v>
       </c>
       <c r="W44">
-        <v>1.885404565851257</v>
+        <v>7.888121128305242</v>
       </c>
       <c r="X44">
-        <v>156.9564208548169</v>
+        <v>9.48019244640369</v>
       </c>
       <c r="Y44">
-        <v>0.09860000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+        <v>8.55633760905819</v>
+      </c>
+      <c r="Z44">
+        <v>0.004303329351888045</v>
+      </c>
+      <c r="AB44">
+        <v>7.781469552858495E-05</v>
+      </c>
+      <c r="AC44">
+        <v>0.004382548940471382</v>
+      </c>
+      <c r="AD44">
+        <v>4.170401695772482E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.133103072664803E-06</v>
+        <v>8.096460310343602E-06</v>
       </c>
       <c r="C45">
-        <v>0.02571945432557813</v>
+        <v>0.02676317018164749</v>
       </c>
       <c r="D45">
-        <v>0.0001321473679258921</v>
+        <v>9.218102017433836E-05</v>
       </c>
       <c r="E45">
-        <v>0.02823181846755152</v>
+        <v>0.03100932978606139</v>
       </c>
       <c r="F45">
-        <v>4.899293530559251</v>
+        <v>7.419293526247503</v>
       </c>
       <c r="S45">
-        <v>0.7844684668421052</v>
+        <v>5.480409747325358E-05</v>
       </c>
       <c r="T45">
-        <v>5.480485564323556E-05</v>
+        <v>0.001610102970806313</v>
       </c>
       <c r="U45">
-        <v>0.001610093144032712</v>
+        <v>1.070264258702976</v>
       </c>
       <c r="V45">
-        <v>1.070262471778474</v>
+        <v>0.09690000000000001</v>
       </c>
       <c r="W45">
-        <v>1.92053186854092</v>
+        <v>7.885480431938086</v>
       </c>
       <c r="X45">
-        <v>154.2480413086498</v>
+        <v>9.480505559482117</v>
       </c>
       <c r="Y45">
-        <v>0.09690000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>8.561310167419879</v>
+      </c>
+      <c r="Z45">
+        <v>0.004377461187964527</v>
+      </c>
+      <c r="AB45">
+        <v>7.84026138904958E-05</v>
+      </c>
+      <c r="AC45">
+        <v>0.004458704114568113</v>
+      </c>
+      <c r="AD45">
+        <v>4.220070640615834E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.118579502167889E-06</v>
+        <v>8.079671885414996E-06</v>
       </c>
       <c r="C46">
-        <v>0.0261763705212505</v>
+        <v>0.02723943784524522</v>
       </c>
       <c r="D46">
-        <v>0.0001350348995839269</v>
+        <v>9.420289654468153E-05</v>
       </c>
       <c r="E46">
-        <v>0.02876746526775241</v>
+        <v>0.03162396655589517</v>
       </c>
       <c r="F46">
-        <v>4.899273883149755</v>
+        <v>7.419273878638675</v>
       </c>
       <c r="S46">
-        <v>0.7984768323214285</v>
+        <v>5.396144610260477E-05</v>
       </c>
       <c r="T46">
-        <v>5.396220599815779E-05</v>
+        <v>0.001617270304768212</v>
       </c>
       <c r="U46">
-        <v>0.001617260257365428</v>
+        <v>1.070792134251595</v>
       </c>
       <c r="V46">
-        <v>1.070790301633687</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="W46">
-        <v>1.956970426377715</v>
+        <v>7.882825082447987</v>
       </c>
       <c r="X46">
-        <v>151.539661394037</v>
+        <v>9.480914866219754</v>
       </c>
       <c r="Y46">
-        <v>0.09520000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>8.566354362614751</v>
+      </c>
+      <c r="Z46">
+        <v>0.004454230091072991</v>
+      </c>
+      <c r="AB46">
+        <v>7.902029238753488E-05</v>
+      </c>
+      <c r="AC46">
+        <v>0.004537570246856719</v>
+      </c>
+      <c r="AD46">
+        <v>4.271659788327486E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.103513744412815E-06</v>
+        <v>8.062231186325377E-06</v>
       </c>
       <c r="C47">
-        <v>0.02664984935073534</v>
+        <v>0.02773298757158523</v>
       </c>
       <c r="D47">
-        <v>0.0001380492160315353</v>
+        <v>9.631328875461031E-05</v>
       </c>
       <c r="E47">
-        <v>0.02932347056741325</v>
+        <v>0.03226284188258147</v>
       </c>
       <c r="F47">
-        <v>4.899254014896824</v>
+        <v>7.419254010177743</v>
       </c>
       <c r="S47">
-        <v>0.8129945929090908</v>
+        <v>5.311691052147802E-05</v>
       </c>
       <c r="T47">
-        <v>5.311767217857004E-05</v>
+        <v>0.00162460005736102</v>
       </c>
       <c r="U47">
-        <v>0.001624589780249845</v>
+        <v>1.071333615801233</v>
       </c>
       <c r="V47">
-        <v>1.071331735463423</v>
+        <v>0.09350000000000001</v>
       </c>
       <c r="W47">
-        <v>1.994793916150561</v>
+        <v>7.880151639955661</v>
       </c>
       <c r="X47">
-        <v>148.831281047063</v>
+        <v>9.481461745358358</v>
       </c>
       <c r="Y47">
-        <v>0.09350000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+        <v>8.571504744630904</v>
+      </c>
+      <c r="Z47">
+        <v>0.004533779360139999</v>
+      </c>
+      <c r="AB47">
+        <v>7.967022892477255E-05</v>
+      </c>
+      <c r="AC47">
+        <v>0.004619294858656237</v>
+      </c>
+      <c r="AD47">
+        <v>4.325079644078217E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.087875173097043E-06</v>
+        <v>8.044100041272852E-06</v>
       </c>
       <c r="C48">
-        <v>0.02714080861248911</v>
+        <v>0.0282447778360821</v>
       </c>
       <c r="D48">
-        <v>0.0001411987425042719</v>
+        <v>9.851803378483483E-05</v>
       </c>
       <c r="E48">
-        <v>0.02990099892726016</v>
+        <v>0.03292738794408766</v>
       </c>
       <c r="F48">
-        <v>4.899233917661777</v>
+        <v>7.419233912725485</v>
       </c>
       <c r="S48">
-        <v>0.8280500483333333</v>
+        <v>5.227045212167481E-05</v>
       </c>
       <c r="T48">
-        <v>5.227121557771547E-05</v>
+        <v>0.001632098976140491</v>
       </c>
       <c r="U48">
-        <v>0.001632088459691999</v>
+        <v>1.07188931170116</v>
       </c>
       <c r="V48">
-        <v>1.071887381487601</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="W48">
-        <v>2.034081559677562</v>
+        <v>7.877466281500766</v>
       </c>
       <c r="X48">
-        <v>146.1229002675404</v>
+        <v>9.482118242937993</v>
       </c>
       <c r="Y48">
-        <v>0.09180000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+        <v>8.576732239530031</v>
+      </c>
+      <c r="Z48">
+        <v>0.004616262862569912</v>
+      </c>
+      <c r="AB48">
+        <v>8.035385236741137E-05</v>
+      </c>
+      <c r="AC48">
+        <v>0.004704036415363931</v>
+      </c>
+      <c r="AD48">
+        <v>4.380652095821599E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.071630817917833E-06</v>
+        <v>8.025237307262942E-06</v>
       </c>
       <c r="C49">
-        <v>0.02765023521380958</v>
+        <v>0.02877583934178582</v>
       </c>
       <c r="D49">
-        <v>0.0001444926601875407</v>
+        <v>0.0001008234856872652</v>
       </c>
       <c r="E49">
-        <v>0.03050130410882303</v>
+        <v>0.03361914986454939</v>
       </c>
       <c r="F49">
-        <v>4.89921358283264</v>
+        <v>7.41921357766935</v>
       </c>
       <c r="S49">
-        <v>0.8436736341509434</v>
+        <v>5.142203077690322E-05</v>
       </c>
       <c r="T49">
-        <v>5.142279607083032E-05</v>
+        <v>0.001639774221355606</v>
       </c>
       <c r="U49">
-        <v>0.001639763455346805</v>
+        <v>1.072459869444989</v>
       </c>
       <c r="V49">
-        <v>1.072457887059619</v>
+        <v>0.09010000000000001</v>
       </c>
       <c r="W49">
-        <v>2.07491864685871</v>
+        <v>7.874758708782561</v>
       </c>
       <c r="X49">
-        <v>143.4145190734</v>
+        <v>9.482894394674991</v>
       </c>
       <c r="Y49">
-        <v>0.09010000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+        <v>8.582042549869509</v>
+      </c>
+      <c r="Z49">
+        <v>0.004701846051441656</v>
+      </c>
+      <c r="AB49">
+        <v>8.107337668133046E-05</v>
+      </c>
+      <c r="AC49">
+        <v>0.004791965281296114</v>
+      </c>
+      <c r="AD49">
+        <v>4.438489851350478E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.054745186881492E-06</v>
+        <v>8.005598576416654E-06</v>
       </c>
       <c r="C50">
-        <v>0.02817919180137924</v>
+        <v>0.0293272819544031</v>
       </c>
       <c r="D50">
-        <v>0.0001479409909965102</v>
+        <v>0.0001032365734666639</v>
       </c>
       <c r="E50">
-        <v>0.03112573768453787</v>
+        <v>0.03433979687085099</v>
       </c>
       <c r="F50">
-        <v>4.899193001286943</v>
+        <v>7.41919299588624</v>
       </c>
       <c r="S50">
-        <v>0.8598981271153846</v>
+        <v>5.057160473611545E-05</v>
       </c>
       <c r="T50">
-        <v>5.05723719084884E-05</v>
+        <v>0.001647633398927178</v>
       </c>
       <c r="U50">
-        <v>0.001647622372492153</v>
+        <v>1.073045979030677</v>
       </c>
       <c r="V50">
-        <v>1.073043942025201</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="W50">
-        <v>2.117397121397134</v>
+        <v>7.872031316124055</v>
       </c>
       <c r="X50">
-        <v>140.706137425974</v>
+        <v>9.483797322717196</v>
       </c>
       <c r="Y50">
-        <v>0.08840000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+        <v>8.587438675036472</v>
+      </c>
+      <c r="Z50">
+        <v>0.004790707064417817</v>
+      </c>
+      <c r="AB50">
+        <v>8.183116106628081E-05</v>
+      </c>
+      <c r="AC50">
+        <v>0.004883264904041933</v>
+      </c>
+      <c r="AD50">
+        <v>4.498737346549319E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.037179988725527E-06</v>
+        <v>7.98513582209875E-06</v>
       </c>
       <c r="C51">
-        <v>0.02872882417021027</v>
+        <v>0.02990030245206852</v>
       </c>
       <c r="D51">
-        <v>0.0001515546960760636</v>
+        <v>0.0001057648671100581</v>
       </c>
       <c r="E51">
-        <v>0.03177575860128429</v>
+        <v>0.03509113475443561</v>
       </c>
       <c r="F51">
-        <v>4.899172163350442</v>
+        <v>7.41917215770123</v>
       </c>
       <c r="S51">
-        <v>0.8767588747058823</v>
+        <v>4.971913052844902E-05</v>
       </c>
       <c r="T51">
-        <v>4.971989962154978E-05</v>
+        <v>0.00165568459754108</v>
       </c>
       <c r="U51">
-        <v>0.00165567329911708</v>
+        <v>1.073648376629909</v>
       </c>
       <c r="V51">
-        <v>1.073646282390498</v>
+        <v>0.08670000000000001</v>
       </c>
       <c r="W51">
-        <v>2.161616231379884</v>
+        <v>7.86928453385116</v>
       </c>
       <c r="X51">
-        <v>137.9977552396272</v>
+        <v>9.484819123497529</v>
       </c>
       <c r="Y51">
-        <v>0.08670000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+        <v>8.59291084436885</v>
+      </c>
+      <c r="Z51">
+        <v>0.004883037964483534</v>
+      </c>
+      <c r="AB51">
+        <v>8.262939418465133E-05</v>
+      </c>
+      <c r="AC51">
+        <v>0.004978133090915981</v>
+      </c>
+      <c r="AD51">
+        <v>4.561633306979025E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.017635632878102E-06</v>
+        <v>7.962541285905649E-06</v>
       </c>
       <c r="C52">
-        <v>0.02930036955969296</v>
+        <v>0.03049619320376769</v>
       </c>
       <c r="D52">
-        <v>0.0001553805557005862</v>
+        <v>0.0001084309130779056</v>
       </c>
       <c r="E52">
-        <v>0.03245210851509008</v>
+        <v>0.03587419818943543</v>
       </c>
       <c r="F52">
-        <v>4.898089882189242</v>
+        <v>7.418089868892738</v>
       </c>
       <c r="S52">
-        <v>0.8942940522</v>
+        <v>4.886456289918886E-05</v>
       </c>
       <c r="T52">
-        <v>4.886533395713221E-05</v>
+        <v>0.003743856970232864</v>
       </c>
       <c r="U52">
-        <v>0.003743830909085458</v>
+        <v>1.074267848550482</v>
       </c>
       <c r="V52">
-        <v>1.074265694283021</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W52">
-        <v>2.207626429597964</v>
+        <v>7.866515075942492</v>
       </c>
       <c r="X52">
-        <v>135.2893725635664</v>
+        <v>9.486101725882879</v>
       </c>
       <c r="Y52">
-        <v>0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>8.598480252252472</v>
+      </c>
+      <c r="Z52">
+        <v>0.004979046135889511</v>
+      </c>
+      <c r="AB52">
+        <v>8.348266587195439E-05</v>
+      </c>
+      <c r="AC52">
+        <v>0.005076783426072906</v>
+      </c>
+      <c r="AD52">
+        <v>4.627395884887397E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.878970554975657E-06</v>
+        <v>1.08886290204737E-05</v>
       </c>
       <c r="C53">
-        <v>0.02989516525365199</v>
+        <v>0.0311163516178634</v>
       </c>
       <c r="D53">
-        <v>0.0001304395860101953</v>
+        <v>8.144714751039881E-05</v>
       </c>
       <c r="E53">
-        <v>0.03189723682532887</v>
+        <v>0.03509320293181876</v>
       </c>
       <c r="F53">
-        <v>5.599260554276713</v>
+        <v>9.719260549023888</v>
       </c>
       <c r="S53">
-        <v>0.9125449512244899</v>
+        <v>9.030858370959505E-05</v>
       </c>
       <c r="T53">
-        <v>9.03100379456502E-05</v>
+        <v>0.001420905797233235</v>
       </c>
       <c r="U53">
-        <v>0.001420895703572081</v>
+        <v>1.055228710868155</v>
       </c>
       <c r="V53">
-        <v>1.055227076030976</v>
+        <v>0.1715</v>
       </c>
       <c r="W53">
-        <v>2.169880056144821</v>
+        <v>7.862608811898007</v>
       </c>
       <c r="X53">
-        <v>272.9608603849376</v>
+        <v>9.369631885738094</v>
       </c>
       <c r="Y53">
-        <v>0.1715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+        <v>8.668130742671321</v>
+      </c>
+      <c r="Z53">
+        <v>0.005078955594461298</v>
+      </c>
+      <c r="AB53">
+        <v>6.397568659784562E-05</v>
+      </c>
+      <c r="AC53">
+        <v>0.005179446884587682</v>
+      </c>
+      <c r="AD53">
+        <v>3.642941888683514E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.86023966704266E-06</v>
+        <v>1.086665498277185E-05</v>
       </c>
       <c r="C54">
-        <v>0.03051526370506119</v>
+        <v>0.03176291212766243</v>
       </c>
       <c r="D54">
-        <v>0.000133698601856819</v>
+        <v>8.346926999614944E-05</v>
       </c>
       <c r="E54">
-        <v>0.03259044466770082</v>
+        <v>0.03589206613979427</v>
       </c>
       <c r="F54">
-        <v>5.599242141793145</v>
+        <v>9.719242136296899</v>
       </c>
       <c r="S54">
-        <v>0.931556304375</v>
+        <v>8.869289238773768E-05</v>
       </c>
       <c r="T54">
-        <v>8.869435049712679E-05</v>
+        <v>0.001428281594305982</v>
       </c>
       <c r="U54">
-        <v>0.001428271235998368</v>
+        <v>1.055712539241056</v>
       </c>
       <c r="V54">
-        <v>1.055710855575526</v>
+        <v>0.168</v>
       </c>
       <c r="W54">
-        <v>2.217037052224546</v>
+        <v>7.860310396515422</v>
       </c>
       <c r="X54">
-        <v>267.3847761054204</v>
+        <v>9.372006735892217</v>
       </c>
       <c r="Y54">
-        <v>0.168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+        <v>8.673855362845023</v>
+      </c>
+      <c r="Z54">
+        <v>0.005183434342541786</v>
+      </c>
+      <c r="AB54">
+        <v>6.468257395380529E-05</v>
+      </c>
+      <c r="AC54">
+        <v>0.005286593081789783</v>
+      </c>
+      <c r="AD54">
+        <v>3.693356415322956E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.840700309998134E-06</v>
+        <v>1.084369089580218E-05</v>
       </c>
       <c r="C55">
-        <v>0.03116167998385277</v>
+        <v>0.03243694282676171</v>
       </c>
       <c r="D55">
-        <v>0.0001371226335799562</v>
+        <v>8.559248187236997E-05</v>
       </c>
       <c r="E55">
-        <v>0.0333140989574495</v>
+        <v>0.03672745653353171</v>
       </c>
       <c r="F55">
-        <v>5.599223473067999</v>
+        <v>9.719223467316032</v>
       </c>
       <c r="S55">
-        <v>0.9513766512765959</v>
+        <v>8.70729848590562E-05</v>
       </c>
       <c r="T55">
-        <v>8.707444693653054E-05</v>
+        <v>0.001435852887335487</v>
       </c>
       <c r="U55">
-        <v>0.00143584225162445</v>
+        <v>1.056210953522377</v>
       </c>
       <c r="V55">
-        <v>1.056209218491328</v>
+        <v>0.1645</v>
       </c>
       <c r="W55">
-        <v>2.266265235200646</v>
+        <v>7.857983067190071</v>
       </c>
       <c r="X55">
-        <v>261.8086904738952</v>
+        <v>9.374481203587628</v>
       </c>
       <c r="Y55">
-        <v>0.1645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+        <v>8.679631832199926</v>
+      </c>
+      <c r="Z55">
+        <v>0.005292343954639404</v>
+      </c>
+      <c r="AB55">
+        <v>6.542507055495006E-05</v>
+      </c>
+      <c r="AC55">
+        <v>0.005398287965143753</v>
+      </c>
+      <c r="AD55">
+        <v>3.746295516286853E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.820299246988396E-06</v>
+        <v>1.081966899276364E-05</v>
       </c>
       <c r="C56">
-        <v>0.03183612688277175</v>
+        <v>0.03314023305165061</v>
       </c>
       <c r="D56">
-        <v>0.0001407244191113933</v>
+        <v>8.78244507925967E-05</v>
       </c>
       <c r="E56">
-        <v>0.03407022858592671</v>
+        <v>0.03760189815972093</v>
       </c>
       <c r="F56">
-        <v>5.599204536866633</v>
+        <v>9.719204530845754</v>
       </c>
       <c r="S56">
-        <v>0.9720587523913045</v>
+        <v>8.54487600000346E-05</v>
       </c>
       <c r="T56">
-        <v>8.545022614481556E-05</v>
+        <v>0.001443629205852498</v>
       </c>
       <c r="U56">
-        <v>0.001443618279073422</v>
+        <v>1.056724718885016</v>
       </c>
       <c r="V56">
-        <v>1.056722929760938</v>
+        <v>0.161</v>
       </c>
       <c r="W56">
-        <v>2.317702624892974</v>
+        <v>7.855622362841784</v>
       </c>
       <c r="X56">
-        <v>256.2326035151381</v>
+        <v>9.377048105644977</v>
       </c>
       <c r="Y56">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+        <v>8.685456038485198</v>
+      </c>
+      <c r="Z56">
+        <v>0.005405972626032545</v>
+      </c>
+      <c r="AB56">
+        <v>6.620520981106318E-05</v>
+      </c>
+      <c r="AC56">
+        <v>0.005514827639273772</v>
+      </c>
+      <c r="AD56">
+        <v>3.801968761636912E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.798978509120365E-06</v>
+        <v>1.079451526154767E-05</v>
       </c>
       <c r="C57">
-        <v>0.03254046915974198</v>
+        <v>0.03387473102055857</v>
       </c>
       <c r="D57">
-        <v>0.0001445180315829034</v>
+        <v>9.017363097256084E-05</v>
       </c>
       <c r="E57">
-        <v>0.03486104493007647</v>
+        <v>0.03851814977477341</v>
       </c>
       <c r="F57">
-        <v>5.599185321180676</v>
+        <v>9.719185314876718</v>
       </c>
       <c r="S57">
-        <v>0.9936600580000001</v>
+        <v>8.382011199910874E-05</v>
       </c>
       <c r="T57">
-        <v>8.382158231520513E-05</v>
+        <v>0.001451620765119946</v>
       </c>
       <c r="U57">
-        <v>0.001451609532614221</v>
+        <v>1.057254658480099</v>
       </c>
       <c r="V57">
-        <v>1.057252812326277</v>
+        <v>0.1575</v>
       </c>
       <c r="W57">
-        <v>2.371499655107243</v>
+        <v>7.853227863667663</v>
       </c>
       <c r="X57">
-        <v>250.6565152255301</v>
+        <v>9.379701224108025</v>
       </c>
       <c r="Y57">
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+        <v>8.691325218736843</v>
+      </c>
+      <c r="Z57">
+        <v>0.005524634124170799</v>
+      </c>
+      <c r="AB57">
+        <v>6.702524854347862E-05</v>
+      </c>
+      <c r="AC57">
+        <v>0.005636534482643936</v>
+      </c>
+      <c r="AD57">
+        <v>3.860597600904884E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.776674805688562E-06</v>
+        <v>1.076814872873049E-05</v>
       </c>
       <c r="C58">
-        <v>0.03327674077629105</v>
+        <v>0.03464256187032189</v>
       </c>
       <c r="D58">
-        <v>0.0001485190591729641</v>
+        <v>9.264936562682416E-05</v>
       </c>
       <c r="E58">
-        <v>0.03568896260884284</v>
+        <v>0.03947923241703515</v>
       </c>
       <c r="F58">
-        <v>5.59916581315603</v>
+        <v>9.719165806553754</v>
       </c>
       <c r="S58">
-        <v>1.016243241136364</v>
+        <v>8.218692997434879E-05</v>
       </c>
       <c r="T58">
-        <v>8.218840457090235E-05</v>
+        <v>0.001459838530929836</v>
       </c>
       <c r="U58">
-        <v>0.00145982697694816</v>
+        <v>1.057801659311574</v>
       </c>
       <c r="V58">
-        <v>1.05779975296087</v>
+        <v>0.154</v>
       </c>
       <c r="W58">
-        <v>2.427820585635568</v>
+        <v>7.850796344784445</v>
       </c>
       <c r="X58">
-        <v>245.0804253043669</v>
+        <v>9.382467862333092</v>
       </c>
       <c r="Y58">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+        <v>8.697256697014241</v>
+      </c>
+      <c r="Z58">
+        <v>0.005648670689525966</v>
+      </c>
+      <c r="AB58">
+        <v>6.788855211267426E-05</v>
+      </c>
+      <c r="AC58">
+        <v>0.005763760130522003</v>
+      </c>
+      <c r="AD58">
+        <v>3.922307365205895E-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.753319012461561E-06</v>
+        <v>1.074048057676942E-05</v>
       </c>
       <c r="C59">
-        <v>0.03404716453715426</v>
+        <v>0.03544604820764038</v>
       </c>
       <c r="D59">
-        <v>0.0001527448107308355</v>
+        <v>9.526200617454479E-05</v>
       </c>
       <c r="E59">
-        <v>0.03655662317164875</v>
+        <v>0.04048846086214717</v>
       </c>
       <c r="F59">
-        <v>5.599145999009668</v>
+        <v>9.719145992092654</v>
       </c>
       <c r="S59">
-        <v>1.039876804883721</v>
+        <v>8.054909777073181E-05</v>
       </c>
       <c r="T59">
-        <v>8.055057676240027E-05</v>
+        <v>0.001468294296838296</v>
       </c>
       <c r="U59">
-        <v>0.001468282404432045</v>
+        <v>1.058366678586006</v>
       </c>
       <c r="V59">
-        <v>1.058364708616956</v>
+        <v>0.1505</v>
       </c>
       <c r="W59">
-        <v>2.486845113717602</v>
+        <v>7.848324150399174</v>
       </c>
       <c r="X59">
-        <v>239.5043338899646</v>
+        <v>9.385323251483209</v>
       </c>
       <c r="Y59">
-        <v>0.1505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+        <v>8.703236781895828</v>
+      </c>
+      <c r="Z59">
+        <v>0.005778456320628601</v>
+      </c>
+      <c r="AB59">
+        <v>6.879740213205174E-05</v>
+      </c>
+      <c r="AC59">
+        <v>0.00589688889928642</v>
+      </c>
+      <c r="AD59">
+        <v>3.987426730935674E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.72883537461733E-06</v>
+        <v>1.071141324668281E-05</v>
       </c>
       <c r="C60">
-        <v>0.03485417453064053</v>
+        <v>0.03628773359338956</v>
       </c>
       <c r="D60">
-        <v>0.0001572145610934752</v>
+        <v>9.802305014125404E-05</v>
       </c>
       <c r="E60">
-        <v>0.03746692205890782</v>
+        <v>0.04154947973246584</v>
       </c>
       <c r="F60">
-        <v>5.599125863940302</v>
+        <v>9.719125856690832</v>
       </c>
       <c r="S60">
-        <v>1.064635776428571</v>
+        <v>7.890649339479497E-05</v>
       </c>
       <c r="T60">
-        <v>7.890797690216951E-05</v>
+        <v>0.00147700076376358</v>
       </c>
       <c r="U60">
-        <v>0.001476988514662538</v>
+        <v>1.058950751297431</v>
       </c>
       <c r="V60">
-        <v>1.058948714007217</v>
+        <v>0.147</v>
       </c>
       <c r="W60">
-        <v>2.548770208088968</v>
+        <v>7.845814142743205</v>
       </c>
       <c r="X60">
-        <v>233.9282407256938</v>
+        <v>9.388244007662763</v>
       </c>
       <c r="Y60">
-        <v>0.147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>8.709252821216484</v>
+      </c>
+      <c r="Z60">
+        <v>0.005914400580592803</v>
+      </c>
+      <c r="AB60">
+        <v>6.975427867516615E-05</v>
+      </c>
+      <c r="AC60">
+        <v>0.006036341628619205</v>
+      </c>
+      <c r="AD60">
+        <v>4.056301153385585E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.703140791560702E-06</v>
+        <v>1.068083928173184E-05</v>
       </c>
       <c r="C61">
-        <v>0.03570044184697095</v>
+        <v>0.03717040946029806</v>
       </c>
       <c r="D61">
-        <v>0.0001619498341685178</v>
+        <v>0.0001009453031064791</v>
       </c>
       <c r="E61">
-        <v>0.03842303953727393</v>
+        <v>0.04266630490539664</v>
       </c>
       <c r="F61">
-        <v>5.599105392024279</v>
+        <v>9.719105384423196</v>
       </c>
       <c r="S61">
-        <v>1.090602502682927</v>
+        <v>7.725898869015573E-05</v>
       </c>
       <c r="T61">
-        <v>7.726047684022402E-05</v>
+        <v>0.001485971636046089</v>
       </c>
       <c r="U61">
-        <v>0.001485959010520373</v>
+        <v>1.05955499844715</v>
       </c>
       <c r="V61">
-        <v>1.059552889820968</v>
+        <v>0.1435</v>
       </c>
       <c r="W61">
-        <v>2.613812213419996</v>
+        <v>7.843260325272222</v>
       </c>
       <c r="X61">
-        <v>228.3521456617203</v>
+        <v>9.391264106215232</v>
       </c>
       <c r="Y61">
-        <v>0.1435</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>8.715326769966465</v>
+      </c>
+      <c r="Z61">
+        <v>0.006056952929420063</v>
+      </c>
+      <c r="AB61">
+        <v>7.076367229103544E-05</v>
+      </c>
+      <c r="AC61">
+        <v>0.006182580131474946</v>
+      </c>
+      <c r="AD61">
+        <v>4.12910849863357E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.67614383996529E-06</v>
+        <v>1.064864010812604E-05</v>
       </c>
       <c r="C62">
-        <v>0.03658890414729101</v>
+        <v>0.03809714606422784</v>
       </c>
       <c r="D62">
-        <v>0.0001669747403547155</v>
+        <v>0.0001040430677231445</v>
       </c>
       <c r="E62">
-        <v>0.03942847614442357</v>
+        <v>0.04384337129232446</v>
       </c>
       <c r="F62">
-        <v>5.59908456609906</v>
+        <v>9.719084558125612</v>
       </c>
       <c r="S62">
-        <v>1.11786756525</v>
+        <v>7.560644888586979E-05</v>
       </c>
       <c r="T62">
-        <v>7.560794181252758E-05</v>
+        <v>0.001495221728164436</v>
       </c>
       <c r="U62">
-        <v>0.001495208704868146</v>
+        <v>1.060180636482025</v>
       </c>
       <c r="V62">
-        <v>1.060178452158264</v>
+        <v>0.14</v>
       </c>
       <c r="W62">
-        <v>2.682209261525413</v>
+        <v>7.840661552719915</v>
       </c>
       <c r="X62">
-        <v>222.7760487526108</v>
+        <v>9.394351918011814</v>
       </c>
       <c r="Y62">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>8.721442260098129</v>
+      </c>
+      <c r="Z62">
+        <v>0.006206607660848288</v>
+      </c>
+      <c r="AB62">
+        <v>7.182853998777356E-05</v>
+      </c>
+      <c r="AC62">
+        <v>0.006336112357637161</v>
+      </c>
+      <c r="AD62">
+        <v>4.206283067906308E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.647743771960904E-06</v>
+        <v>1.061468458464937E-05</v>
       </c>
       <c r="C63">
-        <v>0.0375227997731099</v>
+        <v>0.03907132819234335</v>
       </c>
       <c r="D63">
-        <v>0.0001723163728153373</v>
+        <v>0.000107332366566105</v>
       </c>
       <c r="E63">
-        <v>0.04048709356315148</v>
+        <v>0.04508558806428302</v>
       </c>
       <c r="F63">
-        <v>5.599063367633264</v>
+        <v>9.719063359264929</v>
       </c>
       <c r="S63">
-        <v>1.146530836153846</v>
+        <v>7.394873196436384E-05</v>
       </c>
       <c r="T63">
-        <v>7.395022980898008E-05</v>
+        <v>0.001504767082570388</v>
       </c>
       <c r="U63">
-        <v>0.001504753638364071</v>
+        <v>1.060828988226869</v>
       </c>
       <c r="V63">
-        <v>1.060826723457395</v>
+        <v>0.1365</v>
       </c>
       <c r="W63">
-        <v>2.754224051915067</v>
+        <v>7.838013158582014</v>
       </c>
       <c r="X63">
-        <v>217.1999497347703</v>
+        <v>9.397500555866808</v>
       </c>
       <c r="Y63">
-        <v>0.1365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>8.727597775070608</v>
+      </c>
+      <c r="Z63">
+        <v>0.006363909689588301</v>
+      </c>
+      <c r="AB63">
+        <v>7.295291279975468E-05</v>
+      </c>
+      <c r="AC63">
+        <v>0.006497498242943779</v>
+      </c>
+      <c r="AD63">
+        <v>4.288208182076982E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.617829293509619E-06</v>
+        <v>1.057882728890017E-05</v>
       </c>
       <c r="C64">
-        <v>0.03850570723101239</v>
+        <v>0.04009669650354802</v>
       </c>
       <c r="D64">
-        <v>0.0001780052803374297</v>
+        <v>0.0001108312058676606</v>
       </c>
       <c r="E64">
-        <v>0.04160316179562344</v>
+        <v>0.04639840266636984</v>
       </c>
       <c r="F64">
-        <v>5.599041776576261</v>
+        <v>9.719041767788548</v>
       </c>
       <c r="S64">
-        <v>1.176702700263158</v>
+        <v>7.228568816448616E-05</v>
       </c>
       <c r="T64">
-        <v>7.228719107653238E-05</v>
+        <v>0.001514625108421502</v>
       </c>
       <c r="U64">
-        <v>0.001514611218169855</v>
+        <v>1.061501495096149</v>
       </c>
       <c r="V64">
-        <v>1.061499144700867</v>
+        <v>0.133</v>
       </c>
       <c r="W64">
-        <v>2.830147060926765</v>
+        <v>7.835311631039903</v>
       </c>
       <c r="X64">
-        <v>211.6238484058659</v>
+        <v>9.400690699234952</v>
       </c>
       <c r="Y64">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>8.733785741831564</v>
+      </c>
+      <c r="Z64">
+        <v>0.006529461183714316</v>
+      </c>
+      <c r="AB64">
+        <v>7.414091559564636E-05</v>
+      </c>
+      <c r="AC64">
+        <v>0.006667356562973331</v>
+      </c>
+      <c r="AD64">
+        <v>4.37535275576237E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.586277128896446E-06</v>
+        <v>1.054090655792401E-05</v>
       </c>
       <c r="C65">
-        <v>0.03954159106751712</v>
+        <v>0.04117739556564749</v>
       </c>
       <c r="D65">
-        <v>0.000184076033172995</v>
+        <v>0.0001145598885208068</v>
       </c>
       <c r="E65">
-        <v>0.04278141381661481</v>
+        <v>0.04778787533202718</v>
       </c>
       <c r="F65">
-        <v>5.599019771187397</v>
+        <v>9.719019761953614</v>
       </c>
       <c r="S65">
-        <v>1.208505475945946</v>
+        <v>7.061715937647952E-05</v>
       </c>
       <c r="T65">
-        <v>7.061866751423121E-05</v>
+        <v>0.001524814738821417</v>
       </c>
       <c r="U65">
-        <v>0.001524800375162036</v>
+        <v>1.06219973114997</v>
       </c>
       <c r="V65">
-        <v>1.062197289464661</v>
+        <v>0.1295</v>
       </c>
       <c r="W65">
-        <v>2.910300259633661</v>
+        <v>7.832558437947888</v>
       </c>
       <c r="X65">
-        <v>206.0477447857549</v>
+        <v>9.403934796198907</v>
       </c>
       <c r="Y65">
-        <v>0.1295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>8.740016647286904</v>
+      </c>
+      <c r="Z65">
+        <v>0.006703929299068875</v>
+      </c>
+      <c r="AB65">
+        <v>7.539818828578383E-05</v>
+      </c>
+      <c r="AC65">
+        <v>0.006846372861227809</v>
+      </c>
+      <c r="AD65">
+        <v>4.468124369268187E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.552950455135113E-06</v>
+        <v>1.050074223020959E-05</v>
       </c>
       <c r="C66">
-        <v>0.04063485537402668</v>
+        <v>0.04231802989001211</v>
       </c>
       <c r="D66">
-        <v>0.0001905678999434663</v>
+        <v>0.0001185413874287043</v>
       </c>
       <c r="E66">
-        <v>0.04402710918930609</v>
+        <v>0.04926076614069487</v>
       </c>
       <c r="F66">
-        <v>5.598997327843628</v>
+        <v>9.718997318134615</v>
       </c>
       <c r="S66">
-        <v>1.2420750725</v>
+        <v>6.894297829454419E-05</v>
       </c>
       <c r="T66">
-        <v>6.894449182586248E-05</v>
+        <v>0.001535356606367611</v>
       </c>
       <c r="U66">
-        <v>0.001535341739445745</v>
+        <v>1.06292541952674</v>
       </c>
       <c r="V66">
-        <v>1.062922880342952</v>
+        <v>0.126</v>
       </c>
       <c r="W66">
-        <v>2.995041441449394</v>
+        <v>7.829747273163611</v>
       </c>
       <c r="X66">
-        <v>200.4716384790349</v>
+        <v>9.407226997043926</v>
       </c>
       <c r="Y66">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>8.746291303274186</v>
+      </c>
+      <c r="Z66">
+        <v>0.006888055163257294</v>
+      </c>
+      <c r="AB66">
+        <v>7.673043926222133E-05</v>
+      </c>
+      <c r="AC66">
+        <v>0.007035308739492675</v>
+      </c>
+      <c r="AD66">
+        <v>4.56704742827124E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.51769697171277E-06</v>
+        <v>1.045813290260875E-05</v>
       </c>
       <c r="C67">
-        <v>0.04179040644471477</v>
+        <v>0.0435237295615145</v>
       </c>
       <c r="D67">
-        <v>0.0001975256685034378</v>
+        <v>0.000122801794234369</v>
       </c>
       <c r="E67">
-        <v>0.04534610822595825</v>
+        <v>0.05082463696130281</v>
       </c>
       <c r="F67">
-        <v>5.598974420813544</v>
+        <v>9.718974410597376</v>
       </c>
       <c r="S67">
-        <v>1.277562931714286</v>
+        <v>6.726296779300381E-05</v>
       </c>
       <c r="T67">
-        <v>6.726448689621405E-05</v>
+        <v>0.001546273253185966</v>
       </c>
       <c r="U67">
-        <v>0.001546257850349078</v>
+        <v>1.06368045091821</v>
       </c>
       <c r="V67">
-        <v>1.063677807413741</v>
+        <v>0.1225</v>
       </c>
       <c r="W67">
-        <v>3.08476926707199</v>
+        <v>7.826874148299385</v>
       </c>
       <c r="X67">
-        <v>194.8955294663949</v>
+        <v>9.410521586157099</v>
       </c>
       <c r="Y67">
-        <v>0.1225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>8.752590157802658</v>
+      </c>
+      <c r="Z67">
+        <v>0.007082664441085724</v>
+      </c>
+      <c r="AB67">
+        <v>7.814270441205226E-05</v>
+      </c>
+      <c r="AC67">
+        <v>0.007235012689927245</v>
+      </c>
+      <c r="AD67">
+        <v>4.672841335921391E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.480346642678279E-06</v>
+        <v>1.041285284753731E-05</v>
       </c>
       <c r="C68">
-        <v>0.04301372646754452</v>
+        <v>0.04480022743702274</v>
       </c>
       <c r="D68">
-        <v>0.0002050006440255195</v>
+        <v>0.0001273708593067505</v>
       </c>
       <c r="E68">
-        <v>0.04674495885579605</v>
+        <v>0.05248797153145722</v>
       </c>
       <c r="F68">
-        <v>5.59895102200282</v>
+        <v>9.718951011244444</v>
       </c>
       <c r="S68">
-        <v>1.315138312058824</v>
+        <v>6.557693988785649E-05</v>
       </c>
       <c r="T68">
-        <v>6.557846475273327E-05</v>
+        <v>0.00155758936430767</v>
       </c>
       <c r="U68">
-        <v>0.00155757338975244</v>
+        <v>1.064466905509875</v>
       </c>
       <c r="V68">
-        <v>1.064464150168038</v>
+        <v>0.119</v>
       </c>
       <c r="W68">
-        <v>3.179929173863677</v>
+        <v>7.823937672121097</v>
       </c>
       <c r="X68">
-        <v>189.319417397355</v>
+        <v>9.413811810040672</v>
       </c>
       <c r="Y68">
-        <v>0.119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>8.758915882699291</v>
+      </c>
+      <c r="Z68">
+        <v>0.007288679786282008</v>
+      </c>
+      <c r="AB68">
+        <v>7.964208065036545E-05</v>
+      </c>
+      <c r="AC68">
+        <v>0.007446432815708658</v>
+      </c>
+      <c r="AD68">
+        <v>4.786169384467163E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.440709169238556E-06</v>
+        <v>1.036464825772871E-05</v>
       </c>
       <c r="C69">
-        <v>0.04431096058340873</v>
+        <v>0.04615395036362019</v>
       </c>
       <c r="D69">
-        <v>0.0002130518657837828</v>
+        <v>0.0001322826478116828</v>
       </c>
       <c r="E69">
-        <v>0.04823099882904845</v>
+        <v>0.05426031719850644</v>
       </c>
       <c r="F69">
-        <v>5.598927100655136</v>
+        <v>9.718927089315974</v>
       </c>
       <c r="S69">
-        <v>1.354990988181818</v>
+        <v>6.388469484401596E-05</v>
       </c>
       <c r="T69">
-        <v>6.388622567289647E-05</v>
+        <v>0.001569332045290062</v>
       </c>
       <c r="U69">
-        <v>0.001569315459652654</v>
+        <v>1.065287078073001</v>
       </c>
       <c r="V69">
-        <v>1.065284202588476</v>
+        <v>0.1155</v>
       </c>
       <c r="W69">
-        <v>3.281020328506698</v>
+        <v>7.820929409660357</v>
       </c>
       <c r="X69">
-        <v>183.743302065465</v>
+        <v>9.417088475182158</v>
       </c>
       <c r="Y69">
-        <v>0.1155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <v>8.765271211378979</v>
+      </c>
+      <c r="Z69">
+        <v>0.007507135474331452</v>
+      </c>
+      <c r="AB69">
+        <v>8.123652288493818E-05</v>
+      </c>
+      <c r="AC69">
+        <v>0.007670631940613627</v>
+      </c>
+      <c r="AD69">
+        <v>4.907783565284173E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.398570863842331E-06</v>
+        <v>1.031323282323516E-05</v>
       </c>
       <c r="C70">
-        <v>0.04568902023083451</v>
+        <v>0.0475921274797392</v>
       </c>
       <c r="D70">
-        <v>0.0002217476106660634</v>
+        <v>0.0001375763402519105</v>
       </c>
       <c r="E70">
-        <v>0.04981247627961646</v>
+        <v>0.05615245308666216</v>
       </c>
       <c r="F70">
-        <v>5.598902623007882</v>
+        <v>9.718902611045348</v>
       </c>
       <c r="S70">
-        <v>1.3973344565625</v>
+        <v>6.21860200012941E-05</v>
       </c>
       <c r="T70">
-        <v>6.218755701033745E-05</v>
+        <v>0.001581531140528026</v>
       </c>
       <c r="U70">
-        <v>0.001581513900406486</v>
+        <v>1.066143507565273</v>
       </c>
       <c r="V70">
-        <v>1.066140502733811</v>
+        <v>0.112</v>
       </c>
       <c r="W70">
-        <v>3.388603828545338</v>
+        <v>7.817848241932242</v>
       </c>
       <c r="X70">
-        <v>178.1671831558064</v>
+        <v>9.420332058201128</v>
       </c>
       <c r="Y70">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+        <v>8.771654794097588</v>
+      </c>
+      <c r="Z70">
+        <v>0.007739194816564156</v>
+      </c>
+      <c r="AB70">
+        <v>8.293468552163077E-05</v>
+      </c>
+      <c r="AC70">
+        <v>0.007908805506393652</v>
+      </c>
+      <c r="AD70">
+        <v>5.038573041733467E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.35369102910584E-06</v>
+        <v>1.025828252184004E-05</v>
       </c>
       <c r="C71">
-        <v>0.04715570644438833</v>
+        <v>0.04912291945198072</v>
       </c>
       <c r="D71">
-        <v>0.0002311672558697228</v>
+        <v>0.0001432972152186605</v>
       </c>
       <c r="E71">
-        <v>0.05149869268970358</v>
+        <v>0.05817659047640839</v>
       </c>
       <c r="F71">
-        <v>5.598877551888739</v>
+        <v>9.718877539255679</v>
       </c>
       <c r="S71">
-        <v>1.442409761612903</v>
+        <v>6.048068854223027E-05</v>
       </c>
       <c r="T71">
-        <v>6.048223196284877E-05</v>
+        <v>0.001594219607875075</v>
       </c>
       <c r="U71">
-        <v>0.001594201665269999</v>
+        <v>1.067039011721076</v>
       </c>
       <c r="V71">
-        <v>1.067035867309673</v>
+        <v>0.1085</v>
       </c>
       <c r="W71">
-        <v>3.503312427870992</v>
+        <v>7.81468774790476</v>
       </c>
       <c r="X71">
-        <v>172.5910603940522</v>
+        <v>9.423504340260745</v>
       </c>
       <c r="Y71">
-        <v>0.1085</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <v>8.778058628976835</v>
+      </c>
+      <c r="Z71">
+        <v>0.007986170949823592</v>
+      </c>
+      <c r="AB71">
+        <v>8.474577242625322E-05</v>
+      </c>
+      <c r="AC71">
+        <v>0.008162302918521921</v>
+      </c>
+      <c r="AD71">
+        <v>5.179596617997691E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.305797638281975E-06</v>
+        <v>1.019942933680588E-05</v>
       </c>
       <c r="C72">
-        <v>0.04871985775067229</v>
+        <v>0.05075557352653946</v>
       </c>
       <c r="D72">
-        <v>0.0002414036084419456</v>
+        <v>0.0001494978655148426</v>
       </c>
       <c r="E72">
-        <v>0.0533001731007378</v>
+        <v>0.06034661256436783</v>
       </c>
       <c r="F72">
-        <v>5.598851846243809</v>
+        <v>9.718851832887847</v>
       </c>
       <c r="S72">
-        <v>1.490490087</v>
+        <v>5.87684580444129E-05</v>
       </c>
       <c r="T72">
-        <v>5.877000812490621E-05</v>
+        <v>0.001607433957012184</v>
       </c>
       <c r="U72">
-        <v>0.001607415258668476</v>
+        <v>1.067976727949667</v>
       </c>
       <c r="V72">
-        <v>1.067973432542978</v>
+        <v>0.105</v>
       </c>
       <c r="W72">
-        <v>3.625862115696449</v>
+        <v>7.811442394841652</v>
       </c>
       <c r="X72">
-        <v>167.0149334800824</v>
+        <v>9.426623440909738</v>
       </c>
       <c r="Y72">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>8.784504919805338</v>
+      </c>
+      <c r="Z72">
+        <v>0.008249551789070171</v>
+      </c>
+      <c r="AB72">
+        <v>8.668249045403281E-05</v>
+      </c>
+      <c r="AC72">
+        <v>0.008432653150266653</v>
+      </c>
+      <c r="AD72">
+        <v>5.331861774267752E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.254582161253532E-06</v>
+        <v>1.013625372793201E-05</v>
       </c>
       <c r="C73">
-        <v>0.05039152858316297</v>
+        <v>0.05250061061829892</v>
       </c>
       <c r="D73">
-        <v>0.000252565843286878</v>
+        <v>0.0001562397133074117</v>
       </c>
       <c r="E73">
-        <v>0.05522886968244116</v>
+        <v>0.06267836274778354</v>
       </c>
       <c r="F73">
-        <v>5.598825460582313</v>
+        <v>9.718825446445072</v>
       </c>
       <c r="S73">
-        <v>1.541886296896552</v>
+        <v>5.704906881183316E-05</v>
       </c>
       <c r="T73">
-        <v>5.705062581925877E-05</v>
+        <v>0.001621214765954378</v>
       </c>
       <c r="U73">
-        <v>0.001621195252582555</v>
+        <v>1.068960161888824</v>
       </c>
       <c r="V73">
-        <v>1.068956702706474</v>
+        <v>0.1015</v>
       </c>
       <c r="W73">
-        <v>3.757065964791916</v>
+        <v>7.808104180294359</v>
       </c>
       <c r="X73">
-        <v>161.4388019185557</v>
+        <v>9.429483014851069</v>
       </c>
       <c r="Y73">
-        <v>0.1015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>8.790911281890997</v>
+      </c>
+      <c r="Z73">
+        <v>0.008531030040746587</v>
+      </c>
+      <c r="AB73">
+        <v>8.875067558196285E-05</v>
+      </c>
+      <c r="AC73">
+        <v>0.008721595720353685</v>
+      </c>
+      <c r="AD73">
+        <v>5.497285772793103E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.199693388969602E-06</v>
+        <v>1.006827553419773E-05</v>
       </c>
       <c r="C74">
-        <v>0.05218220582387283</v>
+        <v>0.05437005243633432</v>
       </c>
       <c r="D74">
-        <v>0.000264783240058079</v>
+        <v>0.0001635949130736723</v>
       </c>
       <c r="E74">
-        <v>0.05729840639001436</v>
+        <v>0.0651899928924996</v>
       </c>
       <c r="F74">
-        <v>5.598798344316866</v>
+        <v>9.71879832933304</v>
       </c>
       <c r="S74">
-        <v>1.596953664642857</v>
+        <v>5.532224205447891E-05</v>
       </c>
       <c r="T74">
-        <v>5.532380627680792E-05</v>
+        <v>0.001635607296693763</v>
       </c>
       <c r="U74">
-        <v>0.00163558690204358</v>
+        <v>1.069993245134052</v>
       </c>
       <c r="V74">
-        <v>1.069989607812092</v>
+        <v>0.098</v>
       </c>
       <c r="W74">
-        <v>3.897850774830909</v>
+        <v>7.804669537576172</v>
       </c>
       <c r="X74">
-        <v>155.8626652201114</v>
+        <v>9.432239033389777</v>
       </c>
       <c r="Y74">
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+        <v>8.797376127868016</v>
+      </c>
+      <c r="Z74">
+        <v>0.008832540018073895</v>
+      </c>
+      <c r="AB74">
+        <v>9.097187482756692E-05</v>
+      </c>
+      <c r="AC74">
+        <v>0.009031117965447463</v>
+      </c>
+      <c r="AD74">
+        <v>5.676743197553898E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.140729948009556E-06</v>
+        <v>9.994943006739561E-06</v>
       </c>
       <c r="C75">
-        <v>0.05410507332697708</v>
+        <v>0.05637769901126991</v>
       </c>
       <c r="D75">
-        <v>0.0002782099863830726</v>
+        <v>0.0001716487608627196</v>
       </c>
       <c r="E75">
-        <v>0.05952437439544651</v>
+        <v>0.06790238630529027</v>
       </c>
       <c r="F75">
-        <v>5.59877044097811</v>
+        <v>9.718770425074352</v>
       </c>
       <c r="S75">
-        <v>1.656100096666667</v>
+        <v>5.358767776463315E-05</v>
       </c>
       <c r="T75">
-        <v>5.358924951324441E-05</v>
+        <v>0.001650662228950848</v>
       </c>
       <c r="U75">
-        <v>0.001650640878702683</v>
+        <v>1.071080404548407</v>
       </c>
       <c r="V75">
-        <v>1.071076572876264</v>
+        <v>0.0945</v>
       </c>
       <c r="W75">
-        <v>4.049277169758266</v>
+        <v>7.801129581427563</v>
       </c>
       <c r="X75">
-        <v>150.2865229742477</v>
+        <v>9.434656852892083</v>
       </c>
       <c r="Y75">
-        <v>0.0945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+        <v>8.80381878325476</v>
+      </c>
+      <c r="Z75">
+        <v>0.009156301801157092</v>
+      </c>
+      <c r="AB75">
+        <v>9.335486903649004E-05</v>
+      </c>
+      <c r="AC75">
+        <v>0.009363501318539018</v>
+      </c>
+      <c r="AD75">
+        <v>5.872654654066018E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.077231316371595E-06</v>
+        <v>9.913630849613504E-06</v>
       </c>
       <c r="C76">
-        <v>0.05617533730161531</v>
+        <v>0.0585394701747471</v>
       </c>
       <c r="D76">
-        <v>0.000293031411238911</v>
+        <v>0.0001805319657379942</v>
       </c>
       <c r="E76">
-        <v>0.06192469080737653</v>
+        <v>0.07083695774076947</v>
       </c>
       <c r="F76">
-        <v>5.598741687275498</v>
+        <v>9.717052018253275</v>
       </c>
       <c r="S76">
-        <v>1.719796254230769</v>
+        <v>5.184505218594251E-05</v>
       </c>
       <c r="T76">
-        <v>5.184663179852277E-05</v>
+        <v>0.00390408393484965</v>
       </c>
       <c r="U76">
-        <v>0.001666414148665062</v>
+        <v>1.072226646126369</v>
       </c>
       <c r="V76">
-        <v>1.072222601728125</v>
+        <v>0.091</v>
       </c>
       <c r="W76">
-        <v>4.212564000501805</v>
+        <v>7.797475971778628</v>
       </c>
       <c r="X76">
-        <v>144.7103745681535</v>
+        <v>9.436940651183557</v>
       </c>
       <c r="Y76">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+        <v>8.810295355343326</v>
+      </c>
+      <c r="Z76">
+        <v>0.009504876683161731</v>
+      </c>
+      <c r="AB76">
+        <v>9.593838687813286E-05</v>
+      </c>
+      <c r="AC76">
+        <v>0.009721377271308186</v>
+      </c>
+      <c r="AD76">
+        <v>6.087078092412803E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.00866672561672E-06</v>
+        <v>1.822338450928172E-05</v>
       </c>
       <c r="C77">
-        <v>0.05841062953723038</v>
+        <v>0.06087382770310747</v>
       </c>
       <c r="D77">
-        <v>0.000309472181286307</v>
+        <v>0.0001046288850330163</v>
       </c>
       <c r="E77">
-        <v>0.06452003626217907</v>
+        <v>0.07458480086683335</v>
       </c>
       <c r="F77">
-        <v>5.598712011961544</v>
+        <v>11.71892804321638</v>
       </c>
       <c r="S77">
-        <v>1.7885881044</v>
+        <v>8.957186174354999E-05</v>
       </c>
       <c r="T77">
-        <v>5.009560281966676E-05</v>
+        <v>0.001400690197257249</v>
       </c>
       <c r="U77">
-        <v>0.001682971036917486</v>
+        <v>1.055487705228447</v>
       </c>
       <c r="V77">
-        <v>1.073433378668152</v>
+        <v>0.17</v>
       </c>
       <c r="W77">
-        <v>4.389118113073406</v>
+        <v>7.792733917435916</v>
       </c>
       <c r="X77">
-        <v>139.1342192989832</v>
+        <v>8.780732243394962</v>
       </c>
       <c r="Y77">
-        <v>0.08749999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+        <v>8.840270239298921</v>
+      </c>
+      <c r="Z77">
+        <v>0.009881234215013074</v>
+      </c>
+      <c r="AB77">
+        <v>5.554731399126139E-05</v>
+      </c>
+      <c r="AC77">
+        <v>0.01010779753092355</v>
+      </c>
+      <c r="AD77">
+        <v>4.820951315072313E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.934421790833476E-06</v>
+        <v>1.808090244199914E-05</v>
       </c>
       <c r="C78">
-        <v>0.06083151109372805</v>
+        <v>0.06340587765386058</v>
       </c>
       <c r="D78">
-        <v>0.0003278071938716854</v>
+        <v>0.0001104715068824765</v>
       </c>
       <c r="E78">
-        <v>0.06733439214136208</v>
+        <v>0.07813486754448772</v>
       </c>
       <c r="F78">
-        <v>5.598681334452446</v>
+        <v>11.71890251053053</v>
       </c>
       <c r="S78">
-        <v>1.86311260875</v>
+        <v>8.642515509086922E-05</v>
       </c>
       <c r="T78">
-        <v>4.833578233707573E-05</v>
+        <v>0.001415183789580926</v>
       </c>
       <c r="U78">
-        <v>0.001700384521845991</v>
+        <v>1.056456558707011</v>
       </c>
       <c r="V78">
-        <v>1.07471539302076</v>
+        <v>0.1632</v>
       </c>
       <c r="W78">
-        <v>4.58057089397021</v>
+        <v>7.790162941061492</v>
       </c>
       <c r="X78">
-        <v>133.5580563416522</v>
+        <v>8.777368146874405</v>
       </c>
       <c r="Y78">
-        <v>0.08399999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+        <v>8.847884199614517</v>
+      </c>
+      <c r="Z78">
+        <v>0.01029063783588898</v>
+      </c>
+      <c r="AB78">
+        <v>5.723824950164656E-05</v>
+      </c>
+      <c r="AC78">
+        <v>0.01052694703166408</v>
+      </c>
+      <c r="AD78">
+        <v>4.991606167628642E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.853781860230206E-06</v>
+        <v>1.792508331204269E-05</v>
       </c>
       <c r="C79">
-        <v>0.06346210691546093</v>
+        <v>0.06615785183416398</v>
       </c>
       <c r="D79">
-        <v>0.0003483762812765421</v>
+        <v>0.0001169738665598463</v>
       </c>
       <c r="E79">
-        <v>0.07039570331501872</v>
+        <v>0.08202190759378679</v>
       </c>
       <c r="F79">
-        <v>5.598649563137736</v>
+        <v>11.71887606741162</v>
       </c>
       <c r="S79">
-        <v>1.944117504782609</v>
+        <v>8.326198742245202E-05</v>
       </c>
       <c r="T79">
-        <v>4.656675629611884E-05</v>
+        <v>0.001430459657934324</v>
       </c>
       <c r="U79">
-        <v>0.001718737824700811</v>
+        <v>1.057484885789519</v>
       </c>
       <c r="V79">
-        <v>1.076076092756272</v>
+        <v>0.1564</v>
       </c>
       <c r="W79">
-        <v>4.788823354763179</v>
+        <v>7.78745388686292</v>
       </c>
       <c r="X79">
-        <v>127.9818848570248</v>
+        <v>8.770491631042184</v>
       </c>
       <c r="Y79">
-        <v>0.08049999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+        <v>8.85543449762716</v>
+      </c>
+      <c r="Z79">
+        <v>0.01073556825268843</v>
+      </c>
+      <c r="AB79">
+        <v>5.905738876679428E-05</v>
+      </c>
+      <c r="AC79">
+        <v>0.01098247011731573</v>
+      </c>
+      <c r="AD79">
+        <v>5.180818505456925E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.764154247442061E-06</v>
+        <v>1.775404103281997E-05</v>
       </c>
       <c r="C80">
-        <v>0.06633091285337842</v>
+        <v>0.06915970992360053</v>
       </c>
       <c r="D80">
-        <v>0.0003717261414494398</v>
+        <v>0.0001242504138341839</v>
       </c>
       <c r="E80">
-        <v>0.07373380881218668</v>
+        <v>0.08629405297465301</v>
       </c>
       <c r="F80">
-        <v>5.597095479718665</v>
+        <v>11.71884862668868</v>
       </c>
       <c r="S80">
-        <v>2.032486482272728</v>
+        <v>8.008154946601722E-05</v>
       </c>
       <c r="T80">
-        <v>4.478807214675115E-05</v>
+        <v>0.001446597237294815</v>
       </c>
       <c r="U80">
-        <v>0.003649269071421714</v>
+        <v>1.058579186274424</v>
       </c>
       <c r="V80">
-        <v>1.077524075953824</v>
+        <v>0.1496</v>
       </c>
       <c r="W80">
-        <v>5.015905361373243</v>
+        <v>7.784582706490316</v>
       </c>
       <c r="X80">
-        <v>122.4057037187872</v>
+        <v>8.758521725203451</v>
       </c>
       <c r="Y80">
-        <v>0.07699999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+        <v>8.862864843472341</v>
+      </c>
+      <c r="Z80">
+        <v>0.01122086420104851</v>
+      </c>
+      <c r="AB80">
+        <v>6.101200149723608E-05</v>
+      </c>
+      <c r="AC80">
+        <v>0.01147931838696396</v>
+      </c>
+      <c r="AD80">
+        <v>5.391857953538274E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.079801936453564E-06</v>
+        <v>1.756553195034573E-05</v>
       </c>
       <c r="C81">
-        <v>0.06947182650632742</v>
+        <v>0.07244711275739893</v>
       </c>
       <c r="D81">
-        <v>0.0002935372557777966</v>
+        <v>0.0001324429358234838</v>
       </c>
       <c r="E81">
-        <v>0.07422263320023154</v>
+        <v>0.09100863906101854</v>
       </c>
       <c r="F81">
-        <v>6.698819959328116</v>
+        <v>11.7188200881115</v>
       </c>
       <c r="S81">
-        <v>2.129271552857143</v>
+        <v>7.688295333202069E-05</v>
       </c>
       <c r="T81">
-        <v>9.153654259157798E-05</v>
+        <v>0.001463688165475891</v>
       </c>
       <c r="U81">
-        <v>0.001463847922084622</v>
+        <v>1.059747011201865</v>
       </c>
       <c r="V81">
-        <v>1.054922946021633</v>
+        <v>0.1428</v>
       </c>
       <c r="W81">
-        <v>5.049158721104186</v>
+        <v>7.781559450099449</v>
       </c>
       <c r="X81">
-        <v>277.0528418497964</v>
+        <v>8.740707938907638</v>
       </c>
       <c r="Y81">
-        <v>0.1743</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+        <v>8.870287603518012</v>
+      </c>
+      <c r="Z81">
+        <v>0.01175228573436048</v>
+      </c>
+      <c r="AB81">
+        <v>6.311907059087648E-05</v>
+      </c>
+      <c r="AC81">
+        <v>0.01202338504446056</v>
+      </c>
+      <c r="AD81">
+        <v>5.627227077668215E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.979018985763291E-06</v>
+        <v>1.735687024652627E-05</v>
       </c>
       <c r="C82">
-        <v>0.07293074096885491</v>
+        <v>0.0760628462484777</v>
       </c>
       <c r="D82">
-        <v>0.0003138710913578802</v>
+        <v>0.0001417290394152474</v>
       </c>
       <c r="E82">
-        <v>0.07805377226414206</v>
+        <v>0.09623440666813622</v>
       </c>
       <c r="F82">
-        <v>6.698790204614375</v>
+        <v>11.71879033562722</v>
       </c>
       <c r="S82">
-        <v>2.235735130500001</v>
+        <v>7.36652207470856E-05</v>
       </c>
       <c r="T82">
-        <v>8.770569034032883E-05</v>
+        <v>0.001481838856651103</v>
       </c>
       <c r="U82">
-        <v>0.001481999347390451</v>
+        <v>1.060997193485345</v>
       </c>
       <c r="V82">
-        <v>1.056071989926298</v>
+        <v>0.136</v>
       </c>
       <c r="W82">
-        <v>5.309780426132114</v>
+        <v>7.778346153336174</v>
       </c>
       <c r="X82">
-        <v>263.82927105635</v>
+        <v>8.713642978258731</v>
       </c>
       <c r="Y82">
-        <v>0.166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+        <v>8.877610489397028</v>
+      </c>
+      <c r="Z82">
+        <v>0.01233674406754896</v>
+      </c>
+      <c r="AB82">
+        <v>6.53817743960502E-05</v>
+      </c>
+      <c r="AC82">
+        <v>0.01262174068314476</v>
+      </c>
+      <c r="AD82">
+        <v>5.891863558898455E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.867719572156544E-06</v>
+        <v>1.712481914785916E-05</v>
       </c>
       <c r="C83">
-        <v>0.07675268148872318</v>
+        <v>0.08005869452263889</v>
       </c>
       <c r="D83">
-        <v>0.0003371635290899828</v>
+        <v>0.0001523339380794091</v>
       </c>
       <c r="E83">
-        <v>0.0822916390327629</v>
+        <v>0.1020543315822613</v>
       </c>
       <c r="F83">
-        <v>6.698759100690238</v>
+        <v>11.71875923391645</v>
       </c>
       <c r="S83">
-        <v>2.353405400526317</v>
+        <v>7.042726882980028E-05</v>
       </c>
       <c r="T83">
-        <v>8.385076735203125E-05</v>
+        <v>0.001501173780099354</v>
       </c>
       <c r="U83">
-        <v>0.001501334967366192</v>
+        <v>1.062340143853468</v>
       </c>
       <c r="V83">
-        <v>1.057306281624552</v>
+        <v>0.1292</v>
       </c>
       <c r="W83">
-        <v>5.598070682500878</v>
+        <v>7.774943800202238</v>
       </c>
       <c r="X83">
-        <v>250.6056665715577</v>
+        <v>8.673510165154116</v>
       </c>
       <c r="Y83">
-        <v>0.1577</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+        <v>8.884873374441741</v>
+      </c>
+      <c r="Z83">
+        <v>0.0129826052408728</v>
+      </c>
+      <c r="AB83">
+        <v>6.781099915394383E-05</v>
+      </c>
+      <c r="AC83">
+        <v>0.01328294184354243</v>
+      </c>
+      <c r="AD83">
+        <v>6.19062709335219E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.744200605931417E-06</v>
+        <v>1.686545079729607E-05</v>
       </c>
       <c r="C84">
-        <v>0.08099798804203613</v>
+        <v>0.08449793677733665</v>
       </c>
       <c r="D84">
-        <v>0.0003640996564268976</v>
+        <v>0.000164547118090639</v>
       </c>
       <c r="E84">
-        <v>0.08700293424908666</v>
+        <v>0.1085692863366273</v>
       </c>
       <c r="F84">
-        <v>6.698726488528197</v>
+        <v>11.71872662393728</v>
       </c>
       <c r="S84">
-        <v>2.484150145000001</v>
+        <v>6.716789265884458E-05</v>
       </c>
       <c r="T84">
-        <v>7.997033928018372E-05</v>
+        <v>0.00152183968471309</v>
       </c>
       <c r="U84">
-        <v>0.001522001515081645</v>
+        <v>1.063788235355666</v>
       </c>
       <c r="V84">
-        <v>1.058637188950932</v>
+        <v>0.1224</v>
       </c>
       <c r="W84">
-        <v>5.918566955720181</v>
+        <v>7.771304918901929</v>
       </c>
       <c r="X84">
-        <v>237.3820229332909</v>
+        <v>8.612915597449915</v>
       </c>
       <c r="Y84">
-        <v>0.1493999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
+        <v>8.892023054028199</v>
+      </c>
+      <c r="Z84">
+        <v>0.01370009380985718</v>
+      </c>
+      <c r="AB84">
+        <v>7.041481549556002E-05</v>
+      </c>
+      <c r="AC84">
+        <v>0.01401744381979848</v>
+      </c>
+      <c r="AD84">
+        <v>6.530493358688295E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.606380090562E-06</v>
+        <v>1.657396414358372E-05</v>
       </c>
       <c r="C85">
-        <v>0.08574115794707197</v>
+        <v>0.08945872440435113</v>
       </c>
       <c r="D85">
-        <v>0.000395590951124576</v>
+        <v>0.0001787463754554667</v>
       </c>
       <c r="E85">
-        <v>0.09226937853982832</v>
+        <v>0.115902809562739</v>
       </c>
       <c r="F85">
-        <v>6.698692179567388</v>
+        <v>11.71869231710939</v>
       </c>
       <c r="S85">
-        <v>2.630276624117648</v>
+        <v>6.388574408902296E-05</v>
       </c>
       <c r="T85">
-        <v>7.606280129620446E-05</v>
+        <v>0.001544011123853041</v>
       </c>
       <c r="U85">
-        <v>0.001544173522843361</v>
+        <v>1.065356309001982</v>
       </c>
       <c r="V85">
-        <v>1.06007834673335</v>
+        <v>0.1156</v>
       </c>
       <c r="W85">
-        <v>6.276828472097165</v>
+        <v>7.76742417443223</v>
       </c>
       <c r="X85">
-        <v>224.1583340579145</v>
+        <v>8.52057166329055</v>
       </c>
       <c r="Y85">
-        <v>0.1410999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
+        <v>8.899069603157423</v>
+      </c>
+      <c r="Z85">
+        <v>0.01450183963305492</v>
+      </c>
+      <c r="AB85">
+        <v>7.322243596898918E-05</v>
+      </c>
+      <c r="AC85">
+        <v>0.01483815787192857</v>
+      </c>
+      <c r="AD85">
+        <v>6.91970195132847E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.451688822758132E-06</v>
+        <v>1.624444725845333E-05</v>
       </c>
       <c r="C86">
-        <v>0.09107525588431863</v>
+        <v>0.09503872303115704</v>
       </c>
       <c r="D86">
-        <v>0.0004328762592830042</v>
+        <v>0.0001954332554039874</v>
       </c>
       <c r="E86">
-        <v>0.0981920587104224</v>
+        <v>0.124207355519385</v>
       </c>
       <c r="F86">
-        <v>6.69865594803054</v>
+        <v>11.71865608762898</v>
       </c>
       <c r="S86">
-        <v>2.794668913124999</v>
+        <v>6.057930500307297E-05</v>
       </c>
       <c r="T86">
-        <v>7.212634625322548E-05</v>
+        <v>0.001567897766190788</v>
       </c>
       <c r="U86">
-        <v>0.001568060631037223</v>
+        <v>1.067062349794397</v>
       </c>
       <c r="V86">
-        <v>1.061646277639329</v>
+        <v>0.1088</v>
       </c>
       <c r="W86">
-        <v>6.679731885062749</v>
+        <v>7.763269830531465</v>
       </c>
       <c r="X86">
-        <v>210.9345919337315</v>
+        <v>8.377906419754447</v>
       </c>
       <c r="Y86">
-        <v>0.1328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+        <v>8.905976909129645</v>
+      </c>
+      <c r="Z86">
+        <v>0.01540362820787278</v>
+      </c>
+      <c r="AB86">
+        <v>7.630632918125087E-05</v>
+      </c>
+      <c r="AC86">
+        <v>0.01576121792520452</v>
+      </c>
+      <c r="AD86">
+        <v>7.369306104904741E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.276924688309544E-06</v>
+        <v>1.586956589960845E-05</v>
       </c>
       <c r="C87">
-        <v>0.09711808119265435</v>
+        <v>0.1013616090162072</v>
       </c>
       <c r="D87">
-        <v>0.0004776816433451567</v>
+        <v>0.0002152866223188022</v>
       </c>
       <c r="E87">
-        <v>0.1048973194610888</v>
+        <v>0.1336725225673323</v>
       </c>
       <c r="F87">
-        <v>6.698617520589738</v>
+        <v>11.71861766213165</v>
       </c>
       <c r="S87">
-        <v>2.980980173999999</v>
+        <v>5.724685389931277E-05</v>
       </c>
       <c r="T87">
-        <v>6.81589249190171E-05</v>
+        <v>0.001593754248215588</v>
       </c>
       <c r="U87">
-        <v>0.001593917437713536</v>
+        <v>1.068928404267912</v>
       </c>
       <c r="V87">
-        <v>1.063361234764811</v>
+        <v>0.102</v>
       </c>
       <c r="W87">
-        <v>7.135872072182911</v>
+        <v>7.75880291910647</v>
       </c>
       <c r="X87">
-        <v>197.7107866585151</v>
+        <v>8.162796824585804</v>
       </c>
       <c r="Y87">
-        <v>0.1245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
+        <v>8.912577972922353</v>
+      </c>
+      <c r="Z87">
+        <v>0.01642544966645222</v>
+      </c>
+      <c r="AB87">
+        <v>7.982575486204856E-05</v>
+      </c>
+      <c r="AC87">
+        <v>0.01680705291614822</v>
+      </c>
+      <c r="AD87">
+        <v>7.89522548282243E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.078053870132499E-06</v>
+        <v>1.543681205456469E-05</v>
       </c>
       <c r="C88">
-        <v>0.1040209668747479</v>
+        <v>0.1085863463300564</v>
       </c>
       <c r="D88">
-        <v>0.0005324832346219238</v>
+        <v>0.0002392828538334922</v>
       </c>
       <c r="E88">
-        <v>0.1125448506891593</v>
+        <v>0.1445269563892825</v>
       </c>
       <c r="F88">
-        <v>6.698576562224646</v>
+        <v>11.71653627061741</v>
       </c>
       <c r="S88">
-        <v>3.193907329285714</v>
+        <v>5.388642307866247E-05</v>
       </c>
       <c r="T88">
-        <v>6.415819502153854E-05</v>
+        <v>0.003947040459233824</v>
       </c>
       <c r="U88">
-        <v>0.001622056999822276</v>
+        <v>1.070981849916279</v>
       </c>
       <c r="V88">
-        <v>1.06524836728177</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="W88">
-        <v>7.656112291779543</v>
+        <v>7.753964045082604</v>
       </c>
       <c r="X88">
-        <v>184.4869058048707</v>
+        <v>7.906286788168051</v>
       </c>
       <c r="Y88">
-        <v>0.1162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
+        <v>8.918696405011621</v>
+      </c>
+      <c r="Z88">
+        <v>0.01759299423156581</v>
+      </c>
+      <c r="AB88">
+        <v>8.410243413253879E-05</v>
+      </c>
+      <c r="AC88">
+        <v>0.01800191724909965</v>
+      </c>
+      <c r="AD88">
+        <v>8.518948555699628E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.849937316821376E-06</v>
+        <v>2.743960416144326E-05</v>
       </c>
       <c r="C89">
-        <v>0.1119816194624499</v>
+        <v>0.1169207358282274</v>
       </c>
       <c r="D89">
-        <v>0.0006009592539932123</v>
+        <v>0.0001409832170957995</v>
       </c>
       <c r="E89">
-        <v>0.1213389340605722</v>
+        <v>0.1587520398187997</v>
       </c>
       <c r="F89">
-        <v>6.698532656470742</v>
+        <v>16.91875023090746</v>
       </c>
       <c r="S89">
-        <v>3.439592508461538</v>
+        <v>8.962349005336606E-05</v>
       </c>
       <c r="T89">
-        <v>6.012145502001143E-05</v>
+        <v>0.001407785874353942</v>
       </c>
       <c r="U89">
-        <v>0.001652869722612562</v>
+        <v>1.0555495469489</v>
       </c>
       <c r="V89">
-        <v>1.067339366977425</v>
+        <v>0.1703</v>
       </c>
       <c r="W89">
-        <v>8.254349255821236</v>
+        <v>7.746226701040984</v>
       </c>
       <c r="X89">
-        <v>171.262933155725</v>
+        <v>6.665130934164907</v>
       </c>
       <c r="Y89">
-        <v>0.1079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
+        <v>8.927308020762638</v>
+      </c>
+      <c r="Z89">
+        <v>0.01893983206213759</v>
+      </c>
+      <c r="AB89">
+        <v>5.031591702483372E-05</v>
+      </c>
+      <c r="AC89">
+        <v>0.01938012707706447</v>
+      </c>
+      <c r="AD89">
+        <v>7.418070448726457E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.585950824675626E-06</v>
+        <v>2.674405324017569E-05</v>
       </c>
       <c r="C90">
-        <v>0.1212633411464879</v>
+        <v>0.1266523818791551</v>
       </c>
       <c r="D90">
-        <v>0.0006888105298902261</v>
+        <v>0.0001588816459876757</v>
       </c>
       <c r="E90">
-        <v>0.1315442876465156</v>
+        <v>0.1743753309769079</v>
       </c>
       <c r="F90">
-        <v>6.698485277177296</v>
+        <v>16.91870987395278</v>
       </c>
       <c r="S90">
-        <v>3.7262252175</v>
+        <v>8.354708345530955E-05</v>
       </c>
       <c r="T90">
-        <v>5.604555670584258E-05</v>
+        <v>0.001436731279857323</v>
       </c>
       <c r="U90">
-        <v>0.001686850416193225</v>
+        <v>1.057476681624778</v>
       </c>
       <c r="V90">
-        <v>1.069674849684628</v>
+        <v>0.1572</v>
       </c>
       <c r="W90">
-        <v>8.948590996361608</v>
+        <v>7.741350386687766</v>
       </c>
       <c r="X90">
-        <v>158.0388475049875</v>
+        <v>6.643191732255566</v>
       </c>
       <c r="Y90">
-        <v>0.09959999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+        <v>8.931844656962046</v>
+      </c>
+      <c r="Z90">
+        <v>0.02051395840756366</v>
+      </c>
+      <c r="AB90">
+        <v>5.39594889767381E-05</v>
+      </c>
+      <c r="AC90">
+        <v>0.02098895594144591</v>
+      </c>
+      <c r="AD90">
+        <v>8.085965586206433E-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.277455873479714E-06</v>
+        <v>2.591591670243607E-05</v>
       </c>
       <c r="C91">
-        <v>0.1322246621116332</v>
+        <v>0.1381517909912612</v>
       </c>
       <c r="D91">
-        <v>0.0008053521227696719</v>
+        <v>0.0001814819377340573</v>
       </c>
       <c r="E91">
-        <v>0.1435086730739084</v>
+        <v>0.1930175123318512</v>
       </c>
       <c r="F91">
-        <v>6.698433747040162</v>
+        <v>16.91866598086555</v>
       </c>
       <c r="S91">
-        <v>4.064972964545455</v>
+        <v>7.740675767306689E-05</v>
       </c>
       <c r="T91">
-        <v>5.192678715542482E-05</v>
+        <v>0.001468919945793929</v>
       </c>
       <c r="U91">
-        <v>0.00172463809060845</v>
+        <v>1.059649429299284</v>
       </c>
       <c r="V91">
-        <v>1.072307895837597</v>
+        <v>0.1441</v>
       </c>
       <c r="W91">
-        <v>9.762494766932543</v>
+        <v>7.735832963194317</v>
       </c>
       <c r="X91">
-        <v>144.8146201457571</v>
+        <v>6.626951563092131</v>
       </c>
       <c r="Y91">
-        <v>0.09129999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
+        <v>8.935303523574225</v>
+      </c>
+      <c r="Z91">
+        <v>0.02237395830925338</v>
+      </c>
+      <c r="AB91">
+        <v>5.872406785542782E-05</v>
+      </c>
+      <c r="AC91">
+        <v>0.02288969196740807</v>
+      </c>
+      <c r="AD91">
+        <v>8.908237036595954E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.910950838285174E-06</v>
+        <v>2.491799826028146E-05</v>
       </c>
       <c r="C92">
-        <v>0.1453665931105196</v>
+        <v>0.1519488218966139</v>
       </c>
       <c r="D92">
-        <v>0.0009673477620246473</v>
+        <v>0.0002107622400179103</v>
       </c>
       <c r="E92">
-        <v>0.1576885383504083</v>
+        <v>0.2155356138226056</v>
       </c>
       <c r="F92">
-        <v>6.696463639373067</v>
+        <v>16.91861779225353</v>
       </c>
       <c r="S92">
-        <v>4.471470261000001</v>
+        <v>7.119589122211423E-05</v>
       </c>
       <c r="T92">
-        <v>4.776070582899278E-05</v>
+        <v>0.001505070657266846</v>
       </c>
       <c r="U92">
-        <v>0.003850703793771411</v>
+        <v>1.062126396951528</v>
       </c>
       <c r="V92">
-        <v>1.075309483865777</v>
+        <v>0.131</v>
       </c>
       <c r="W92">
-        <v>10.72711145240873</v>
+        <v>7.729504571402037</v>
       </c>
       <c r="X92">
-        <v>131.5902118364265</v>
+        <v>6.615500490625205</v>
       </c>
       <c r="Y92">
-        <v>0.08299999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+        <v>8.937503381563806</v>
+      </c>
+      <c r="Z92">
+        <v>0.02460548173339318</v>
+      </c>
+      <c r="AB92">
+        <v>6.495845265167725E-05</v>
+      </c>
+      <c r="AC92">
+        <v>0.02516975292711229</v>
+      </c>
+      <c r="AD92">
+        <v>9.938842388852436E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.685746443783995E-06</v>
+        <v>2.369991498847913E-05</v>
       </c>
       <c r="C93">
-        <v>0.1614109537047968</v>
+        <v>0.1688086063029024</v>
       </c>
       <c r="D93">
-        <v>0.0006253778443980418</v>
+        <v>0.0002499161466947845</v>
       </c>
       <c r="E93">
-        <v>0.1738282651354299</v>
+        <v>0.2430949932649675</v>
       </c>
       <c r="F93">
-        <v>9.348681001452317</v>
+        <v>16.91856428226798</v>
       </c>
       <c r="S93">
-        <v>4.968300290000002</v>
+        <v>6.490643191620501E-05</v>
       </c>
       <c r="T93">
-        <v>8.987182781478796E-05</v>
+        <v>0.001546157557559879</v>
       </c>
       <c r="U93">
-        <v>0.001420459974430192</v>
+        <v>1.064988127684945</v>
       </c>
       <c r="V93">
-        <v>1.055541447251079</v>
+        <v>0.1179</v>
       </c>
       <c r="W93">
-        <v>11.82505205002924</v>
+        <v>7.722148723716119</v>
       </c>
       <c r="X93">
-        <v>270.9573212191833</v>
+        <v>6.608889192914401</v>
       </c>
       <c r="Y93">
-        <v>0.1709999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
+        <v>8.93825145536713</v>
+      </c>
+      <c r="Z93">
+        <v>0.02733220654236446</v>
+      </c>
+      <c r="AB93">
+        <v>7.323961680066117E-05</v>
+      </c>
+      <c r="AC93">
+        <v>0.02795534898302604</v>
+      </c>
+      <c r="AD93">
+        <v>0.0001125858292886687</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.123303238475458E-06</v>
+        <v>2.219308420634574E-05</v>
       </c>
       <c r="C94">
-        <v>0.1815091506873466</v>
+        <v>0.1898784425724284</v>
       </c>
       <c r="D94">
-        <v>0.0007684607667852865</v>
+        <v>0.0003044044033525004</v>
       </c>
       <c r="E94">
-        <v>0.1956946538859932</v>
+        <v>0.2772897490685626</v>
       </c>
       <c r="F94">
-        <v>9.348625645654661</v>
+        <v>16.91850402045846</v>
       </c>
       <c r="S94">
-        <v>5.589337826250003</v>
+        <v>5.852838941021556E-05</v>
       </c>
       <c r="T94">
-        <v>8.104148522994975E-05</v>
+        <v>0.001593543424689535</v>
       </c>
       <c r="U94">
-        <v>0.001463986150471004</v>
+        <v>1.068349025433097</v>
       </c>
       <c r="V94">
-        <v>1.058412576041162</v>
+        <v>0.1047999999999999</v>
       </c>
       <c r="W94">
-        <v>13.31256148884307</v>
+        <v>7.713450401225412</v>
       </c>
       <c r="X94">
-        <v>240.6833065875288</v>
+        <v>6.608891154247801</v>
       </c>
       <c r="Y94">
-        <v>0.1519999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
+        <v>8.937271949184195</v>
+      </c>
+      <c r="Z94">
+        <v>0.03073957740805994</v>
+      </c>
+      <c r="AB94">
+        <v>8.460355645166985E-05</v>
+      </c>
+      <c r="AC94">
+        <v>0.03143569437724322</v>
+      </c>
+      <c r="AD94">
+        <v>0.0001299582714713676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.412860126575031E-06</v>
+        <v>2.030105766123172E-05</v>
       </c>
       <c r="C95">
-        <v>0.2073292492474269</v>
+        <v>0.2169604480251535</v>
       </c>
       <c r="D95">
-        <v>0.000991986243476455</v>
+        <v>0.0003843214518839904</v>
       </c>
       <c r="E95">
-        <v>0.2234229217623105</v>
+        <v>0.3202749305189271</v>
       </c>
       <c r="F95">
-        <v>9.348562183952223</v>
+        <v>16.91629569808276</v>
       </c>
       <c r="S95">
-        <v>6.387814658571433</v>
+        <v>5.2049058530854E-05</v>
       </c>
       <c r="T95">
-        <v>7.207093212301223E-05</v>
+        <v>0.0039034579342947</v>
       </c>
       <c r="U95">
-        <v>0.00151511798583053</v>
+        <v>1.072378353895441</v>
       </c>
       <c r="V95">
-        <v>1.06185444581026</v>
+        <v>0.09169999999999993</v>
       </c>
       <c r="W95">
-        <v>15.19883821512316</v>
+        <v>7.702940009206153</v>
       </c>
       <c r="X95">
-        <v>210.4082723339432</v>
+        <v>6.620109250081212</v>
       </c>
       <c r="Y95">
-        <v>0.1329999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
+        <v>8.934293223106524</v>
+      </c>
+      <c r="Z95">
+        <v>0.03511885938686113</v>
+      </c>
+      <c r="AB95">
+        <v>0.0001010188740497361</v>
+      </c>
+      <c r="AC95">
+        <v>0.0359079423923535</v>
+      </c>
+      <c r="AD95">
+        <v>0.0001536554925890789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.493376827593311E-06</v>
+        <v>4.214446171781038E-05</v>
       </c>
       <c r="C96">
-        <v>0.2417187930814186</v>
+        <v>0.2530564691206986</v>
       </c>
       <c r="D96">
-        <v>0.001386700041648678</v>
+        <v>0.0002347097161293608</v>
       </c>
       <c r="E96">
-        <v>0.2595045887726697</v>
+        <v>0.4057990658543823</v>
       </c>
       <c r="F96">
-        <v>9.348487713324717</v>
+        <v>29.41865015165219</v>
       </c>
       <c r="S96">
-        <v>7.452450435000007</v>
+        <v>8.917672904223507E-05</v>
       </c>
       <c r="T96">
-        <v>6.293709767437935E-05</v>
+        <v>0.001407288703040846</v>
       </c>
       <c r="U96">
-        <v>0.001576639299765007</v>
+        <v>1.055877616767433</v>
       </c>
       <c r="V96">
-        <v>1.066092108484845</v>
+        <v>0.1697999999999998</v>
       </c>
       <c r="W96">
-        <v>17.6533733858959</v>
+        <v>7.684052261834556</v>
       </c>
       <c r="X96">
-        <v>180.1317484288529</v>
+        <v>6.115511274806176</v>
       </c>
       <c r="Y96">
-        <v>0.1139999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+        <v>8.911515776602046</v>
+      </c>
+      <c r="Z96">
+        <v>0.04095516613899637</v>
+      </c>
+      <c r="AB96">
+        <v>5.724497341746535E-05</v>
+      </c>
+      <c r="AC96">
+        <v>0.04186699020898092</v>
+      </c>
+      <c r="AD96">
+        <v>0.000154394334727425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.270357514661198E-06</v>
+        <v>3.799580593057753E-05</v>
       </c>
       <c r="C97">
-        <v>0.2897852116893728</v>
+        <v>0.3036208210016125</v>
       </c>
       <c r="D97">
-        <v>0.002255890908905818</v>
+        <v>0.0003210667712095282</v>
       </c>
       <c r="E97">
-        <v>0.3078718721100667</v>
+        <v>0.5004928884044352</v>
       </c>
       <c r="F97">
-        <v>9.346122371295033</v>
+        <v>29.41856962011052</v>
       </c>
       <c r="S97">
-        <v>8.942940522000011</v>
+        <v>7.595665990565687E-05</v>
       </c>
       <c r="T97">
-        <v>5.360845470052746E-05</v>
+        <v>0.001475549780730964</v>
       </c>
       <c r="U97">
-        <v>0.004000080137757185</v>
+        <v>1.060453480463667</v>
       </c>
       <c r="V97">
-        <v>1.071500747789778</v>
+        <v>0.1414999999999998</v>
       </c>
       <c r="W97">
-        <v>20.9436647693923</v>
+        <v>7.668687365986232</v>
       </c>
       <c r="X97">
-        <v>149.8529154279977</v>
+        <v>6.122269622353351</v>
       </c>
       <c r="Y97">
-        <v>0.09499999999999986</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
+        <v>8.896241671140077</v>
+      </c>
+      <c r="Z97">
+        <v>0.04913475037211217</v>
+      </c>
+      <c r="AB97">
+        <v>7.315873245281908E-05</v>
+      </c>
+      <c r="AC97">
+        <v>0.05020950938383163</v>
+      </c>
+      <c r="AD97">
+        <v>0.0001946261187678271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.333834704018829E-06</v>
+        <v>3.213581351714789E-05</v>
       </c>
       <c r="C98">
-        <v>0.3616675418844887</v>
+        <v>0.3794457595592124</v>
       </c>
       <c r="D98">
-        <v>0.001471656881257804</v>
+        <v>0.0004813888619094321</v>
       </c>
       <c r="E98">
-        <v>0.3876038618074713</v>
+        <v>0.6347504620703378</v>
       </c>
       <c r="F98">
-        <v>13.59854907357415</v>
+        <v>29.41846752897585</v>
       </c>
       <c r="S98">
-        <v>11.17867565249999</v>
+        <v>6.239587256149603E-05</v>
       </c>
       <c r="T98">
-        <v>9.109262966747752E-05</v>
+        <v>0.001564397503827475</v>
       </c>
       <c r="U98">
-        <v>0.001481154059722909</v>
+        <v>1.066602313374562</v>
       </c>
       <c r="V98">
-        <v>1.055477275384774</v>
+        <v>0.1132000000000001</v>
       </c>
       <c r="W98">
-        <v>26.36760964676676</v>
+        <v>7.647739027753453</v>
       </c>
       <c r="X98">
-        <v>274.3821369399205</v>
+        <v>6.156390408529425</v>
       </c>
       <c r="Y98">
-        <v>0.1744000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
+        <v>8.874638819723055</v>
+      </c>
+      <c r="Z98">
+        <v>0.06140014828202687</v>
+      </c>
+      <c r="AB98">
+        <v>0.0001023903895417239</v>
+      </c>
+      <c r="AC98">
+        <v>0.06271323020009745</v>
+      </c>
+      <c r="AD98">
+        <v>0.0002583524999024308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>3.374143336361402E-06</v>
+        <v>2.379894837908756E-05</v>
       </c>
       <c r="C99">
-        <v>0.4817328368855657</v>
+        <v>0.5057672164583134</v>
       </c>
       <c r="D99">
-        <v>0.00358816860222483</v>
+        <v>0.0008461670640625245</v>
       </c>
       <c r="E99">
-        <v>0.5051206946559993</v>
+        <v>0.8265077610660347</v>
       </c>
       <c r="F99">
-        <v>13.59841759632233</v>
+        <v>29.41832860891128</v>
       </c>
       <c r="S99">
-        <v>14.90490086999999</v>
+        <v>4.839319853266714E-05</v>
       </c>
       <c r="T99">
-        <v>7.065510749637527E-05</v>
+        <v>0.001688621924684969</v>
       </c>
       <c r="U99">
-        <v>0.001598717117643982</v>
+        <v>1.075546518588546</v>
       </c>
       <c r="V99">
-        <v>1.062919026306977</v>
+        <v>0.08490000000000007</v>
       </c>
       <c r="W99">
-        <v>34.36195201741492</v>
+        <v>7.6166646559899</v>
       </c>
       <c r="X99">
-        <v>204.8743651536581</v>
+        <v>6.255257747050225</v>
       </c>
       <c r="Y99">
-        <v>0.1308000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
+        <v>8.847483248631489</v>
+      </c>
+      <c r="Z99">
+        <v>0.08183273424618857</v>
+      </c>
+      <c r="AB99">
+        <v>0.000168312495145869</v>
+      </c>
+      <c r="AC99">
+        <v>0.08353152276682911</v>
+      </c>
+      <c r="AD99">
+        <v>0.0003706258328086295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.779452181289389E-07</v>
+        <v>1.232067664522122E-05</v>
       </c>
       <c r="C100">
-        <v>0.7208051710272362</v>
+        <v>0.7582277411554387</v>
       </c>
       <c r="D100">
-        <v>0.08637744362692296</v>
+        <v>0.00215574496615641</v>
       </c>
       <c r="E100">
-        <v>0.7230987794849566</v>
+        <v>1.091136337732721</v>
       </c>
       <c r="F100">
-        <v>13.59598320406923</v>
+        <v>29.41664753378258</v>
       </c>
       <c r="S100">
-        <v>22.35735130499998</v>
+        <v>3.376816617715252E-05</v>
       </c>
       <c r="T100">
-        <v>4.930977889869909E-05</v>
+        <v>0.003352466217424324</v>
       </c>
       <c r="U100">
-        <v>0.004016795930774003</v>
+        <v>1.090509934944148</v>
       </c>
       <c r="V100">
-        <v>1.07536030380759</v>
+        <v>0.05660000000000005</v>
       </c>
       <c r="W100">
-        <v>49.19039316224195</v>
+        <v>0</v>
       </c>
       <c r="X100">
-        <v>135.3277521722178</v>
+        <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.08720000000000008</v>
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0.1226649451217099</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0.1251119712338394</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Recovery</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve"> Pressure drop Corr</t>
   </si>
   <si>
-    <t>CP modulus Corr</t>
-  </si>
-  <si>
     <t>Cross-flow Velocity</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Brine Alkalinity</t>
-  </si>
-  <si>
-    <t>Film layer Alkalinity</t>
   </si>
   <si>
     <t>Permeate Alkalinity</t>
@@ -435,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,123 +520,111 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.485271237496528E-06</v>
+        <v>5.575161272722939E-06</v>
       </c>
       <c r="C2">
         <v>0.01528279910082424</v>
       </c>
       <c r="D2">
-        <v>4.764594595499045E-05</v>
+        <v>7.081916557345742E-05</v>
       </c>
       <c r="E2">
-        <v>0.01679531681568136</v>
+        <v>0.0162589400869221</v>
       </c>
       <c r="F2">
-        <v>7.42</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>29.83522330797501</v>
+        <v>18.9489100524082</v>
       </c>
       <c r="H2">
-        <v>37.81762853479822</v>
+        <v>18.74111166878413</v>
       </c>
       <c r="I2">
-        <v>61.50626183831429</v>
+        <v>19.78796225663777</v>
       </c>
       <c r="J2">
-        <v>88.05169502763073</v>
+        <v>20.45868268672586</v>
       </c>
       <c r="K2">
-        <v>133.5561355708601</v>
+        <v>24.75239762644668</v>
       </c>
       <c r="L2">
-        <v>0.8338719066208979</v>
+        <v>0.214718741087579</v>
       </c>
       <c r="M2">
-        <v>0.031947</v>
+        <v>0.011112</v>
       </c>
       <c r="N2">
-        <v>0.03047295918367347</v>
+        <v>0.01842551020408163</v>
       </c>
       <c r="O2">
-        <v>0.0350084693877551</v>
+        <v>0.003795655102040817</v>
       </c>
       <c r="P2">
-        <v>0.03741795918367343</v>
+        <v>0.0001020489795918366</v>
       </c>
       <c r="Q2">
-        <v>0.9687182943759999</v>
+        <v>0.2481539553732934</v>
       </c>
       <c r="R2">
-        <v>1.017347115945773</v>
+        <v>1.001035365858081</v>
       </c>
       <c r="S2">
-        <v>8.964539657310869E-05</v>
+        <v>8.964085134901906E-05</v>
       </c>
       <c r="T2">
-        <v>0.001398537310292016</v>
+        <v>0.001398452219922817</v>
       </c>
       <c r="U2">
-        <v>1.055400580816817</v>
+        <v>0.17</v>
       </c>
       <c r="V2">
-        <v>0.17</v>
+        <v>7.999001207581545</v>
       </c>
       <c r="W2">
-        <v>7.996908332209969</v>
+        <v>9.733184612597539</v>
       </c>
       <c r="X2">
-        <v>9.527715071342273</v>
+        <v>8.452662113479041</v>
       </c>
       <c r="Y2">
-        <v>8.431974054565831</v>
+        <v>0.002525592234190321</v>
       </c>
       <c r="Z2">
-        <v>0.002525592234190321</v>
+        <v>9.2568110157867E-05</v>
       </c>
       <c r="AA2">
-        <v>0.2059073799801705</v>
+        <v>0.002556182908434622</v>
       </c>
       <c r="AB2">
-        <v>6.652484762308826E-05</v>
-      </c>
-      <c r="AC2">
-        <v>0.002556182908434622</v>
-      </c>
-      <c r="AD2">
-        <v>2.824572100359084E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>3.09177790268806E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.48283027621533E-06</v>
+        <v>5.567112591175569E-06</v>
       </c>
       <c r="C3">
-        <v>0.01543668953673201</v>
+        <v>0.01543645546380657</v>
       </c>
       <c r="D3">
-        <v>4.817858644624711E-05</v>
+        <v>7.166686258954538E-05</v>
       </c>
       <c r="E3">
-        <v>0.01697820227209175</v>
+        <v>0.01642990766178214</v>
       </c>
       <c r="F3">
-        <v>7.419985694102834</v>
+        <v>3.099985694102835</v>
       </c>
       <c r="S3">
         <v>8.885577390501866E-05</v>
@@ -651,51 +633,48 @@
         <v>0.001401977922210843</v>
       </c>
       <c r="U3">
-        <v>1.055641260165767</v>
+        <v>0.1683</v>
       </c>
       <c r="V3">
-        <v>0.1683</v>
+        <v>7.994877685091557</v>
       </c>
       <c r="W3">
-        <v>7.994219612878207</v>
+        <v>9.731743912635322</v>
       </c>
       <c r="X3">
-        <v>9.525855925028262</v>
+        <v>8.451549833629931</v>
       </c>
       <c r="Y3">
-        <v>8.433127493579049</v>
+        <v>0.002550168235443175</v>
       </c>
       <c r="Z3">
-        <v>0.002550431298701101</v>
+        <v>9.282763230129255E-05</v>
+      </c>
+      <c r="AA3">
+        <v>0.002581690637014499</v>
       </c>
       <c r="AB3">
-        <v>6.66418326416091E-05</v>
-      </c>
-      <c r="AC3">
-        <v>0.002581717627499583</v>
-      </c>
-      <c r="AD3">
-        <v>2.848980920377763E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>3.129751123205769E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.477651534498975E-06</v>
+        <v>5.558897409464255E-06</v>
       </c>
       <c r="C4">
-        <v>0.01559371515867371</v>
+        <v>0.01559323902096185</v>
       </c>
       <c r="D4">
-        <v>4.873683437135424E-05</v>
+        <v>7.25348841620524E-05</v>
       </c>
       <c r="E4">
-        <v>0.01716447414567764</v>
+        <v>0.01660447336978005</v>
       </c>
       <c r="F4">
-        <v>7.4199713153363</v>
+        <v>3.0999713153363</v>
       </c>
       <c r="S4">
         <v>8.806970424645449E-05</v>
@@ -704,51 +683,48 @@
         <v>0.001405548521308018</v>
       </c>
       <c r="U4">
-        <v>1.055880437398685</v>
+        <v>0.1666</v>
       </c>
       <c r="V4">
-        <v>0.1666</v>
+        <v>7.990777570222193</v>
       </c>
       <c r="W4">
-        <v>7.991545866900955</v>
+        <v>9.730323865837544</v>
       </c>
       <c r="X4">
-        <v>9.524167650482944</v>
+        <v>8.450559265596784</v>
       </c>
       <c r="Y4">
-        <v>8.434341222473666</v>
+        <v>0.002575243139556867</v>
       </c>
       <c r="Z4">
-        <v>0.002575776089171096</v>
+        <v>9.309372872181813E-05</v>
+      </c>
+      <c r="AA4">
+        <v>0.00260771505666534</v>
       </c>
       <c r="AB4">
-        <v>6.677871447017697E-05</v>
-      </c>
-      <c r="AC4">
-        <v>0.002607770972584233</v>
-      </c>
-      <c r="AD4">
-        <v>2.873797558968533E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>3.16801033017202E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.472360888888931E-06</v>
+        <v>5.550510527049963E-06</v>
       </c>
       <c r="C5">
-        <v>0.01575397266717167</v>
+        <v>0.01575324628010412</v>
       </c>
       <c r="D5">
-        <v>4.930802808812911E-05</v>
+        <v>7.342396405856515E-05</v>
       </c>
       <c r="E5">
-        <v>0.01735483448550743</v>
+        <v>0.01678275096056549</v>
       </c>
       <c r="F5">
-        <v>7.419956862294174</v>
+        <v>3.099956862294174</v>
       </c>
       <c r="S5">
         <v>8.728263097596939E-05</v>
@@ -757,51 +733,48 @@
         <v>0.001409165056991092</v>
       </c>
       <c r="U5">
-        <v>1.05612311473216</v>
+        <v>0.1649</v>
       </c>
       <c r="V5">
-        <v>0.1649</v>
+        <v>7.986692131553399</v>
       </c>
       <c r="W5">
-        <v>7.988877354597219</v>
+        <v>9.728899313506142</v>
       </c>
       <c r="X5">
-        <v>9.522492541468212</v>
+        <v>8.44963207594656</v>
       </c>
       <c r="Y5">
-        <v>8.435660439113876</v>
+        <v>0.002600832308740734</v>
       </c>
       <c r="Z5">
-        <v>0.002601642041487601</v>
+        <v>9.336623269399164E-05</v>
+      </c>
+      <c r="AA5">
+        <v>0.002634272118040223</v>
       </c>
       <c r="AB5">
-        <v>6.69176785135918E-05</v>
-      </c>
-      <c r="AC5">
-        <v>0.002634358941625415</v>
-      </c>
-      <c r="AD5">
-        <v>2.898668549128518E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>3.206830886458331E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.466954680205949E-06</v>
+        <v>5.541946517793329E-06</v>
       </c>
       <c r="C6">
-        <v>0.01591756292382879</v>
+        <v>0.01591657776256293</v>
       </c>
       <c r="D6">
-        <v>4.989261939623822E-05</v>
+        <v>7.433487166451517E-05</v>
       </c>
       <c r="E6">
-        <v>0.01754941819125677</v>
+        <v>0.01696485898694839</v>
       </c>
       <c r="F6">
-        <v>7.419942333526367</v>
+        <v>3.099942333526367</v>
       </c>
       <c r="S6">
         <v>8.649454243712355E-05</v>
@@ -810,51 +783,48 @@
         <v>0.001412828604002508</v>
       </c>
       <c r="U6">
-        <v>1.056369380319705</v>
+        <v>0.1632</v>
       </c>
       <c r="V6">
-        <v>0.1632</v>
+        <v>7.982630565765501</v>
       </c>
       <c r="W6">
-        <v>7.986216486437727</v>
+        <v>9.727461990158879</v>
       </c>
       <c r="X6">
-        <v>9.520825637032404</v>
+        <v>8.448748878094808</v>
       </c>
       <c r="Y6">
-        <v>8.437071461851575</v>
+        <v>0.002626951747032888</v>
       </c>
       <c r="Z6">
-        <v>0.00262804542026858</v>
+        <v>9.364520084504992E-05</v>
+      </c>
+      <c r="AA6">
+        <v>0.002661378407719136</v>
       </c>
       <c r="AB6">
-        <v>6.705912388557654E-05</v>
-      </c>
-      <c r="AC6">
-        <v>0.002661498235960145</v>
-      </c>
-      <c r="AD6">
-        <v>2.923666374650179E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>3.246315042066765E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.461429092091713E-06</v>
+        <v>5.533199731330116E-06</v>
       </c>
       <c r="C7">
-        <v>0.0160845910322965</v>
+        <v>0.01608333821404607</v>
       </c>
       <c r="D7">
-        <v>5.049108120326167E-05</v>
+        <v>7.526841399057449E-05</v>
       </c>
       <c r="E7">
-        <v>0.01774836611784135</v>
+        <v>0.01715092106139897</v>
       </c>
       <c r="F7">
-        <v>7.419927727537043</v>
+        <v>3.099927727537044</v>
       </c>
       <c r="S7">
         <v>8.570542672297761E-05</v>
@@ -863,51 +833,48 @@
         <v>0.001416540273941292</v>
       </c>
       <c r="U7">
-        <v>1.056619325475769</v>
+        <v>0.1615</v>
       </c>
       <c r="V7">
-        <v>0.1615</v>
+        <v>7.978578849252207</v>
       </c>
       <c r="W7">
-        <v>7.98356573742945</v>
+        <v>9.726029993111529</v>
       </c>
       <c r="X7">
-        <v>9.519128135982506</v>
+        <v>8.447951718080439</v>
       </c>
       <c r="Y7">
-        <v>8.438491371987054</v>
+        <v>0.002653618131729601</v>
       </c>
       <c r="Z7">
-        <v>0.002655003170756822</v>
+        <v>9.393109429249434E-05</v>
+      </c>
+      <c r="AA7">
+        <v>0.002689051199901225</v>
       </c>
       <c r="AB7">
-        <v>6.720444193364788E-05</v>
-      </c>
-      <c r="AC7">
-        <v>0.002689206252509762</v>
-      </c>
-      <c r="AD7">
-        <v>2.94920690969028E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>3.286292283560913E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.455780135003335E-06</v>
+        <v>5.524264269165279E-06</v>
       </c>
       <c r="C8">
-        <v>0.01625516656369111</v>
+        <v>0.01625363682894028</v>
       </c>
       <c r="D8">
-        <v>5.110390880529868E-05</v>
+        <v>7.622543814339927E-05</v>
       </c>
       <c r="E8">
-        <v>0.01795182540411875</v>
+        <v>0.01734106612436926</v>
       </c>
       <c r="F8">
-        <v>7.419913042782651</v>
+        <v>3.099913042782652</v>
       </c>
       <c r="S8">
         <v>8.491527165598104E-05</v>
@@ -916,51 +883,48 @@
         <v>0.001420301216695796</v>
       </c>
       <c r="U8">
-        <v>1.056873044837591</v>
+        <v>0.1598</v>
       </c>
       <c r="V8">
-        <v>0.1598</v>
+        <v>7.974546440339645</v>
       </c>
       <c r="W8">
-        <v>7.980921817229275</v>
+        <v>9.724592094739386</v>
       </c>
       <c r="X8">
-        <v>9.517470695768788</v>
+        <v>8.447215125577424</v>
       </c>
       <c r="Y8">
-        <v>8.440066198086829</v>
+        <v>0.002680848844893826</v>
       </c>
       <c r="Z8">
-        <v>0.002682532944467707</v>
+        <v>9.422397782451494E-05</v>
+      </c>
+      <c r="AA8">
+        <v>0.002717308521997668</v>
       </c>
       <c r="AB8">
-        <v>6.735173028361831E-05</v>
-      </c>
-      <c r="AC8">
-        <v>0.002717501084248197</v>
-      </c>
-      <c r="AD8">
-        <v>2.974590355020522E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>3.326898120612278E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.450003649134794E-06</v>
+        <v>5.515133991868621E-06</v>
       </c>
       <c r="C9">
-        <v>0.01642940379653935</v>
+        <v>0.01642758748905637</v>
       </c>
       <c r="D9">
-        <v>5.173162115061002E-05</v>
+        <v>7.72068335661181E-05</v>
       </c>
       <c r="E9">
-        <v>0.01815994982737735</v>
+        <v>0.01753542873619183</v>
       </c>
       <c r="F9">
-        <v>7.419898277669839</v>
+        <v>3.099898277669839</v>
       </c>
       <c r="S9">
         <v>8.412406478221966E-05</v>
@@ -969,51 +933,48 @@
         <v>0.001424112622252767</v>
       </c>
       <c r="U9">
-        <v>1.057130636519292</v>
+        <v>0.1581</v>
       </c>
       <c r="V9">
-        <v>0.1581</v>
+        <v>7.97053665963032</v>
       </c>
       <c r="W9">
-        <v>7.978281696699825</v>
+        <v>9.723150962952493</v>
       </c>
       <c r="X9">
-        <v>9.515812042302032</v>
+        <v>8.446544743645143</v>
       </c>
       <c r="Y9">
-        <v>8.441707230626566</v>
+        <v>0.002708662015507474</v>
       </c>
       <c r="Z9">
-        <v>0.002710653172577214</v>
+        <v>9.452409602215129E-05</v>
+      </c>
+      <c r="AA9">
+        <v>0.002746169162221233</v>
       </c>
       <c r="AB9">
-        <v>6.750247822719532E-05</v>
-      </c>
-      <c r="AC9">
-        <v>0.002746401677589036</v>
-      </c>
-      <c r="AD9">
-        <v>3.000259223986966E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>3.368122418324032E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.444095281465891E-06</v>
+        <v>5.505802484153675E-06</v>
       </c>
       <c r="C10">
-        <v>0.01660742197235879</v>
+        <v>0.01660530901792039</v>
       </c>
       <c r="D10">
-        <v>5.237476233400979E-05</v>
+        <v>7.821353499035455E-05</v>
       </c>
       <c r="E10">
-        <v>0.01837290017627393</v>
+        <v>0.01773414937936651</v>
       </c>
       <c r="F10">
-        <v>7.41988343055325</v>
+        <v>3.099883430553251</v>
       </c>
       <c r="S10">
         <v>8.333179336861216E-05</v>
@@ -1022,51 +983,48 @@
         <v>0.001427975722679198</v>
       </c>
       <c r="U10">
-        <v>1.057392202270915</v>
+        <v>0.1564</v>
       </c>
       <c r="V10">
-        <v>0.1564</v>
+        <v>7.966542145496518</v>
       </c>
       <c r="W10">
-        <v>7.97565364909136</v>
+        <v>9.721715117223971</v>
       </c>
       <c r="X10">
-        <v>9.514150869134582</v>
+        <v>8.445959828877204</v>
       </c>
       <c r="Y10">
-        <v>8.443410764509231</v>
+        <v>0.002737076558110576</v>
       </c>
       <c r="Z10">
-        <v>0.002739383071428844</v>
+        <v>9.483183102732233E-05</v>
+      </c>
+      <c r="AA10">
+        <v>0.002775652726765124</v>
       </c>
       <c r="AB10">
-        <v>6.76569476509874E-05</v>
-      </c>
-      <c r="AC10">
-        <v>0.0027759277546037</v>
-      </c>
-      <c r="AD10">
-        <v>3.026246911762454E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>3.409899127068619E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.438050471746041E-06</v>
+        <v>5.496263035075452E-06</v>
       </c>
       <c r="C11">
-        <v>0.01678934556807335</v>
+        <v>0.01678692545179875</v>
       </c>
       <c r="D11">
-        <v>5.303390314707166E-05</v>
+        <v>7.924652540311215E-05</v>
       </c>
       <c r="E11">
-        <v>0.01859084465164259</v>
+        <v>0.01793737478416872</v>
       </c>
       <c r="F11">
-        <v>7.41986849973322</v>
+        <v>3.09986849973322</v>
       </c>
       <c r="S11">
         <v>8.253844438070021E-05</v>
@@ -1075,51 +1033,48 @@
         <v>0.001431891793825208</v>
       </c>
       <c r="U11">
-        <v>1.057657847669937</v>
+        <v>0.1547</v>
       </c>
       <c r="V11">
-        <v>0.1547</v>
+        <v>7.962561227811692</v>
       </c>
       <c r="W11">
-        <v>7.973034765387623</v>
+        <v>9.720282533949334</v>
       </c>
       <c r="X11">
-        <v>9.512515207256076</v>
+        <v>8.44545462154856</v>
       </c>
       <c r="Y11">
-        <v>8.44522899196657</v>
+        <v>0.00276611221445215</v>
       </c>
       <c r="Z11">
-        <v>0.002768742699162666</v>
+        <v>9.514740511763245E-05</v>
+      </c>
+      <c r="AA11">
+        <v>0.002805779690891437</v>
       </c>
       <c r="AB11">
-        <v>6.781467826563299E-05</v>
-      </c>
-      <c r="AC11">
-        <v>0.002806099900598053</v>
-      </c>
-      <c r="AD11">
-        <v>3.052304015041735E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>3.452273283535188E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.431864466021647E-06</v>
+        <v>5.48650866287989E-06</v>
       </c>
       <c r="C12">
-        <v>0.01697530458657253</v>
+        <v>0.0169725663287587</v>
       </c>
       <c r="D12">
-        <v>5.370964257991624E-05</v>
+        <v>8.030683862264304E-05</v>
       </c>
       <c r="E12">
-        <v>0.01881395930091956</v>
+        <v>0.01814525828559388</v>
       </c>
       <c r="F12">
-        <v>7.419853483453307</v>
+        <v>3.099853483453306</v>
       </c>
       <c r="S12">
         <v>8.174400448258727E-05</v>
@@ -1128,51 +1083,48 @@
         <v>0.001435862157597867</v>
       </c>
       <c r="U12">
-        <v>1.05792768229668</v>
+        <v>0.153</v>
       </c>
       <c r="V12">
-        <v>0.153</v>
+        <v>7.958608487086065</v>
       </c>
       <c r="W12">
-        <v>7.970417010680657</v>
+        <v>9.718862000759259</v>
       </c>
       <c r="X12">
-        <v>9.510879126676386</v>
+        <v>8.445047287427547</v>
       </c>
       <c r="Y12">
-        <v>8.447109220152592</v>
+        <v>0.002795789601222533</v>
       </c>
       <c r="Z12">
-        <v>0.002798753010505967</v>
+        <v>9.547120173105514E-05</v>
+      </c>
+      <c r="AA12">
+        <v>0.002836571434869838</v>
       </c>
       <c r="AB12">
-        <v>6.797661882959849E-05</v>
-      </c>
-      <c r="AC12">
-        <v>0.002836939643491915</v>
-      </c>
-      <c r="AD12">
-        <v>3.07870890580811E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>3.495175010463225E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.425532278145625E-06</v>
+        <v>5.476532055722105E-06</v>
       </c>
       <c r="C13">
-        <v>0.01716543486684211</v>
+        <v>0.0171623669971872</v>
       </c>
       <c r="D13">
-        <v>5.440260973072462E-05</v>
+        <v>8.139556321716605E-05</v>
       </c>
       <c r="E13">
-        <v>0.01904242847143659</v>
+        <v>0.01835796018611036</v>
       </c>
       <c r="F13">
-        <v>7.419838379897699</v>
+        <v>3.099838379897699</v>
       </c>
       <c r="S13">
         <v>8.094846002522487E-05</v>
@@ -1181,51 +1133,48 @@
         <v>0.001439888184133627</v>
       </c>
       <c r="U13">
-        <v>1.058201819934143</v>
+        <v>0.1513</v>
       </c>
       <c r="V13">
-        <v>0.1513</v>
+        <v>7.954661331588237</v>
       </c>
       <c r="W13">
-        <v>7.96781401964822</v>
+        <v>9.717423396241985</v>
       </c>
       <c r="X13">
-        <v>9.509265103938613</v>
+        <v>8.444673917294597</v>
       </c>
       <c r="Y13">
-        <v>8.449091839740372</v>
+        <v>0.002826130257396595</v>
       </c>
       <c r="Z13">
-        <v>0.002829435891311319</v>
+        <v>9.580314539485271E-05</v>
+      </c>
+      <c r="AA13">
+        <v>0.002868050307732368</v>
       </c>
       <c r="AB13">
-        <v>6.814252289609037E-05</v>
-      </c>
-      <c r="AC13">
-        <v>0.002868469447474318</v>
-      </c>
-      <c r="AD13">
-        <v>3.105272643859302E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>3.538943687091863E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.419048680592377E-06</v>
+        <v>5.466325560321571E-06</v>
       </c>
       <c r="C14">
-        <v>0.01735987841521837</v>
+        <v>0.01735646894530049</v>
       </c>
       <c r="D14">
-        <v>5.51134656834505E-05</v>
+        <v>8.251384605420722E-05</v>
       </c>
       <c r="E14">
-        <v>0.01927644530268127</v>
+        <v>0.01857564815382592</v>
       </c>
       <c r="F14">
-        <v>7.419823187188489</v>
+        <v>3.099823187188488</v>
       </c>
       <c r="S14">
         <v>8.015179703004906E-05</v>
@@ -1234,51 +1183,48 @@
         <v>0.001443971294009872</v>
       </c>
       <c r="U14">
-        <v>1.058480378785464</v>
+        <v>0.1496</v>
       </c>
       <c r="V14">
-        <v>0.1496</v>
+        <v>7.950734600161847</v>
       </c>
       <c r="W14">
-        <v>7.965207655314422</v>
+        <v>9.716004919329107</v>
       </c>
       <c r="X14">
-        <v>9.50765187036766</v>
+        <v>8.44441399449118</v>
       </c>
       <c r="Y14">
-        <v>8.451134209424552</v>
+        <v>0.00285715670185116</v>
       </c>
       <c r="Z14">
-        <v>0.002860814225043311</v>
+        <v>9.614404354292163E-05</v>
+      </c>
+      <c r="AA14">
+        <v>0.002900239635810339</v>
       </c>
       <c r="AB14">
-        <v>6.83131851386533E-05</v>
-      </c>
-      <c r="AC14">
-        <v>0.002900712819304269</v>
-      </c>
-      <c r="AD14">
-        <v>3.132227139546549E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>3.583212111219028E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.412408197648668E-06</v>
+        <v>5.455881174618688E-06</v>
       </c>
       <c r="C15">
-        <v>0.0175587837594659</v>
+        <v>0.01755502015333781</v>
       </c>
       <c r="D15">
-        <v>5.584290550869785E-05</v>
+        <v>8.366289605995025E-05</v>
       </c>
       <c r="E15">
-        <v>0.01951621225438566</v>
+        <v>0.01879849764913755</v>
       </c>
       <c r="F15">
-        <v>7.419807903382758</v>
+        <v>3.099807903382759</v>
       </c>
       <c r="S15">
         <v>7.935400117921212E-05</v>
@@ -1287,51 +1233,48 @@
         <v>0.001448112960743508</v>
       </c>
       <c r="U15">
-        <v>1.058763481695874</v>
+        <v>0.1479</v>
       </c>
       <c r="V15">
-        <v>0.1479</v>
+        <v>7.946822050472433</v>
       </c>
       <c r="W15">
-        <v>7.962616706270011</v>
+        <v>9.714578902171182</v>
       </c>
       <c r="X15">
-        <v>9.506068336908221</v>
+        <v>8.444208972064992</v>
       </c>
       <c r="Y15">
-        <v>8.453287328180549</v>
+        <v>0.002888892479532864</v>
       </c>
       <c r="Z15">
-        <v>0.002892911938145663</v>
+        <v>9.649385937631224E-05</v>
+      </c>
+      <c r="AA15">
+        <v>0.002933163860117214</v>
       </c>
       <c r="AB15">
-        <v>6.848830986165668E-05</v>
-      </c>
-      <c r="AC15">
-        <v>0.002933694319854945</v>
-      </c>
-      <c r="AD15">
-        <v>3.159329076437928E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>3.628293046979412E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.405605101514532E-06</v>
+        <v>5.445190545774091E-06</v>
       </c>
       <c r="C16">
-        <v>0.01776230632753517</v>
+        <v>0.0177581754702829</v>
       </c>
       <c r="D16">
-        <v>5.659166039522219E-05</v>
+        <v>8.484398818675673E-05</v>
       </c>
       <c r="E16">
-        <v>0.01976194167370332</v>
+        <v>0.01902669238262285</v>
       </c>
       <c r="F16">
-        <v>7.419792526469493</v>
+        <v>3.099792526469494</v>
       </c>
       <c r="S16">
         <v>7.855505780993839E-05</v>
@@ -1340,51 +1283,48 @@
         <v>0.001452314713546207</v>
       </c>
       <c r="U16">
-        <v>1.059051256382397</v>
+        <v>0.1462</v>
       </c>
       <c r="V16">
-        <v>0.1462</v>
+        <v>7.942928179311612</v>
       </c>
       <c r="W16">
-        <v>7.960023746833466</v>
+        <v>9.713157614528548</v>
       </c>
       <c r="X16">
-        <v>9.504494881618646</v>
+        <v>8.444084355357594</v>
       </c>
       <c r="Y16">
-        <v>8.455512520093407</v>
+        <v>0.002921362230930033</v>
       </c>
       <c r="Z16">
-        <v>0.002925754073358267</v>
+        <v>9.685313860636077E-05</v>
+      </c>
+      <c r="AA16">
+        <v>0.002966848522089859</v>
       </c>
       <c r="AB16">
-        <v>6.866865239965624E-05</v>
-      </c>
-      <c r="AC16">
-        <v>0.002967439680658324</v>
-      </c>
-      <c r="AD16">
-        <v>3.186794231690084E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>3.674092667193439E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.398633366958144E-06</v>
+        <v>5.434244900837989E-06</v>
       </c>
       <c r="C17">
-        <v>0.01797060885303094</v>
+        <v>0.01796609701713109</v>
       </c>
       <c r="D17">
-        <v>5.736050019428687E-05</v>
+        <v>8.605846867260406E-05</v>
       </c>
       <c r="E17">
-        <v>0.02001385639402804</v>
+        <v>0.01926042478921481</v>
       </c>
       <c r="F17">
-        <v>7.419777054366342</v>
+        <v>3.099777054366343</v>
       </c>
       <c r="S17">
         <v>7.775495189236705E-05</v>
@@ -1393,51 +1333,48 @@
         <v>0.001456578139893937</v>
       </c>
       <c r="U17">
-        <v>1.059343835699222</v>
+        <v>0.1445</v>
       </c>
       <c r="V17">
-        <v>0.1445</v>
+        <v>7.939057150371445</v>
       </c>
       <c r="W17">
-        <v>7.957442273070964</v>
+        <v>9.711779758002832</v>
       </c>
       <c r="X17">
-        <v>9.502951019155496</v>
+        <v>8.444113975297752</v>
       </c>
       <c r="Y17">
-        <v>8.457840574779658</v>
+        <v>0.002954591749663253</v>
       </c>
       <c r="Z17">
-        <v>0.002959366843016604</v>
+        <v>9.722274613736387E-05</v>
+      </c>
+      <c r="AA17">
+        <v>0.003001320376153599</v>
       </c>
       <c r="AB17">
-        <v>6.885420720088385E-05</v>
-      </c>
-      <c r="AC17">
-        <v>0.003001975818756458</v>
-      </c>
-      <c r="AD17">
-        <v>3.214479030147365E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>3.720249399747492E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.391486674510092E-06</v>
+        <v>5.423035057003686E-06</v>
       </c>
       <c r="C18">
-        <v>0.01818386180961232</v>
+        <v>0.01817895461889845</v>
       </c>
       <c r="D18">
-        <v>5.815023585882489E-05</v>
+        <v>8.730775953989921E-05</v>
       </c>
       <c r="E18">
-        <v>0.02027219039033057</v>
+        <v>0.01949989655549404</v>
       </c>
       <c r="F18">
-        <v>7.419761484916156</v>
+        <v>3.099761484916157</v>
       </c>
       <c r="S18">
         <v>7.695366801941811E-05</v>
@@ -1446,51 +1383,48 @@
         <v>0.001460904888541075</v>
       </c>
       <c r="U18">
-        <v>1.059641357903366</v>
+        <v>0.1428</v>
       </c>
       <c r="V18">
-        <v>0.1428</v>
+        <v>7.935194024718841</v>
       </c>
       <c r="W18">
-        <v>7.954865584146076</v>
+        <v>9.710367640327853</v>
       </c>
       <c r="X18">
-        <v>9.501448067403858</v>
+        <v>8.444145099981672</v>
       </c>
       <c r="Y18">
-        <v>8.460286714983747</v>
+        <v>0.002988608047324275</v>
       </c>
       <c r="Z18">
-        <v>0.002993777707728696</v>
+        <v>9.760210141301255E-05</v>
+      </c>
+      <c r="AA18">
+        <v>0.003036607493798315</v>
       </c>
       <c r="AB18">
-        <v>6.90452116255333E-05</v>
-      </c>
-      <c r="AC18">
-        <v>0.003037330950047589</v>
-      </c>
-      <c r="AD18">
-        <v>3.242322232294225E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+        <v>3.76758988700119E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.38415839280959E-06</v>
+        <v>5.411551398224536E-06</v>
       </c>
       <c r="C19">
-        <v>0.01840224387676598</v>
+        <v>0.01839692626780639</v>
       </c>
       <c r="D19">
-        <v>5.896172219989708E-05</v>
+        <v>8.85933639539501E-05</v>
       </c>
       <c r="E19">
-        <v>0.02053718947848716</v>
+        <v>0.01974531917692705</v>
       </c>
       <c r="F19">
-        <v>7.419745815883293</v>
+        <v>3.099745815883293</v>
       </c>
       <c r="S19">
         <v>7.615119039835214E-05</v>
@@ -1499,51 +1433,48 @@
         <v>0.00146529667278033</v>
       </c>
       <c r="U19">
-        <v>1.059943966934302</v>
+        <v>0.1411</v>
       </c>
       <c r="V19">
-        <v>0.1411</v>
+        <v>7.931343836297042</v>
       </c>
       <c r="W19">
-        <v>7.952287486243486</v>
+        <v>9.708982490832646</v>
       </c>
       <c r="X19">
-        <v>9.499950060826988</v>
+        <v>8.444295499832304</v>
       </c>
       <c r="Y19">
-        <v>8.462787220988261</v>
+        <v>0.003023439444262965</v>
       </c>
       <c r="Z19">
-        <v>0.003029015448645601</v>
+        <v>9.7992422419518E-05</v>
+      </c>
+      <c r="AA19">
+        <v>0.003072739199761306</v>
       </c>
       <c r="AB19">
-        <v>6.924264702823458E-05</v>
-      </c>
-      <c r="AC19">
-        <v>0.003073534657610537</v>
-      </c>
-      <c r="AD19">
-        <v>3.270678089902628E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+        <v>3.815528548694922E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.376641555346453E-06</v>
+        <v>5.399783843350714E-06</v>
       </c>
       <c r="C20">
-        <v>0.01862594243962654</v>
+        <v>0.01862019862029239</v>
       </c>
       <c r="D20">
-        <v>5.979586089435582E-05</v>
+        <v>8.99168721454899E-05</v>
       </c>
       <c r="E20">
-        <v>0.0208091120665852</v>
+        <v>0.01999691455381208</v>
       </c>
       <c r="F20">
-        <v>7.419730044949721</v>
+        <v>3.099730044949721</v>
       </c>
       <c r="S20">
         <v>7.534750283426516E-05</v>
@@ -1552,51 +1483,48 @@
         <v>0.001469755273740868</v>
       </c>
       <c r="U20">
-        <v>1.060251812722128</v>
+        <v>0.1394</v>
       </c>
       <c r="V20">
-        <v>0.1394</v>
+        <v>7.927516143414314</v>
       </c>
       <c r="W20">
-        <v>7.949721379602428</v>
+        <v>9.707625022608548</v>
       </c>
       <c r="X20">
-        <v>9.498482348850406</v>
+        <v>8.444563707148772</v>
       </c>
       <c r="Y20">
-        <v>8.465381709968401</v>
+        <v>0.003059115627456178</v>
       </c>
       <c r="Z20">
-        <v>0.003065110238909228</v>
+        <v>9.839419846579634E-05</v>
+      </c>
+      <c r="AA20">
+        <v>0.003109746320667091</v>
       </c>
       <c r="AB20">
-        <v>6.94465193014209E-05</v>
-      </c>
-      <c r="AC20">
-        <v>0.003110617924399701</v>
-      </c>
-      <c r="AD20">
-        <v>3.299361415070647E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+        <v>3.864101384546424E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.368928819560677E-06</v>
+        <v>5.387721786085827E-06</v>
       </c>
       <c r="C21">
-        <v>0.01885515412578373</v>
+        <v>0.01884896753076334</v>
       </c>
       <c r="D21">
-        <v>6.065360384467739E-05</v>
+        <v>9.127996826225727E-05</v>
       </c>
       <c r="E21">
-        <v>0.0210882299595173</v>
+        <v>0.02025491562385006</v>
       </c>
       <c r="F21">
-        <v>7.41971416971093</v>
+        <v>3.09971416971093</v>
       </c>
       <c r="S21">
         <v>7.454258870133629E-05</v>
@@ -1605,51 +1533,48 @@
         <v>0.001474282543626031</v>
       </c>
       <c r="U21">
-        <v>1.060565051532747</v>
+        <v>0.1377</v>
       </c>
       <c r="V21">
-        <v>0.1377</v>
+        <v>7.923697270116227</v>
       </c>
       <c r="W21">
-        <v>7.947161273327671</v>
+        <v>9.706277058531679</v>
       </c>
       <c r="X21">
-        <v>9.497042634259303</v>
+        <v>8.444913891034599</v>
       </c>
       <c r="Y21">
-        <v>8.468063054599767</v>
+        <v>0.003095667743863466</v>
       </c>
       <c r="Z21">
-        <v>0.003102093741620435</v>
+        <v>9.880768731827475E-05</v>
+      </c>
+      <c r="AA21">
+        <v>0.003147661200998222</v>
       </c>
       <c r="AB21">
-        <v>6.965730559700015E-05</v>
-      </c>
-      <c r="AC21">
-        <v>0.003148613286254627</v>
-      </c>
-      <c r="AD21">
-        <v>3.328432764831195E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+        <v>3.913532992195964E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.361012482063597E-06</v>
+        <v>5.37535412670238E-06</v>
       </c>
       <c r="C22">
-        <v>0.01909008538230796</v>
+        <v>0.0190834386252946</v>
       </c>
       <c r="D22">
-        <v>6.153595644073934E-05</v>
+        <v>9.268443633752852E-05</v>
       </c>
       <c r="E22">
-        <v>0.02137482924130998</v>
+        <v>0.02051956706643257</v>
       </c>
       <c r="F22">
-        <v>7.419698187671442</v>
+        <v>3.099698187671443</v>
       </c>
       <c r="S22">
         <v>7.373643094541469E-05</v>
@@ -1658,51 +1583,48 @@
         <v>0.001478880409930366</v>
       </c>
       <c r="U22">
-        <v>1.060883846290531</v>
+        <v>0.136</v>
       </c>
       <c r="V22">
-        <v>0.136</v>
+        <v>7.919888150460081</v>
       </c>
       <c r="W22">
-        <v>7.944597054385659</v>
+        <v>9.704938918143966</v>
       </c>
       <c r="X22">
-        <v>9.495648417813511</v>
+        <v>8.445345121474285</v>
       </c>
       <c r="Y22">
-        <v>8.470854561492928</v>
+        <v>0.003133128494570281</v>
       </c>
       <c r="Z22">
-        <v>0.003139999197070728</v>
+        <v>9.923341893945903E-05</v>
+      </c>
+      <c r="AA22">
+        <v>0.003186517774386676</v>
       </c>
       <c r="AB22">
-        <v>6.987526821413198E-05</v>
-      </c>
-      <c r="AC22">
-        <v>0.003187554898237206</v>
-      </c>
-      <c r="AD22">
-        <v>3.357789761904689E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+        <v>3.963867052731876E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.352884415093279E-06</v>
+        <v>5.362669176543004E-06</v>
       </c>
       <c r="C23">
-        <v>0.01933095309655945</v>
+        <v>0.0193238279188257</v>
       </c>
       <c r="D23">
-        <v>6.244398160770595E-05</v>
+        <v>9.413216880553013E-05</v>
       </c>
       <c r="E23">
-        <v>0.02166921120560847</v>
+        <v>0.02079112602590103</v>
       </c>
       <c r="F23">
-        <v>7.419682096240177</v>
+        <v>3.099682096240177</v>
       </c>
       <c r="S23">
         <v>7.292901205418028E-05</v>
@@ -1711,51 +1633,48 @@
         <v>0.00148355087917374</v>
       </c>
       <c r="U23">
-        <v>1.061208366968678</v>
+        <v>0.1343</v>
       </c>
       <c r="V23">
-        <v>0.1343</v>
+        <v>7.916098739202716</v>
       </c>
       <c r="W23">
-        <v>7.942042188650697</v>
+        <v>9.70360579153116</v>
       </c>
       <c r="X23">
-        <v>9.494288591466484</v>
+        <v>8.44584769931055</v>
       </c>
       <c r="Y23">
-        <v>8.473735157493334</v>
+        <v>0.003171532229704849</v>
       </c>
       <c r="Z23">
-        <v>0.003178861525284103</v>
+        <v>9.967189136777981E-05</v>
+      </c>
+      <c r="AA23">
+        <v>0.003226351687093756</v>
       </c>
       <c r="AB23">
-        <v>7.010104346523679E-05</v>
-      </c>
-      <c r="AC23">
-        <v>0.003227478657738702</v>
-      </c>
-      <c r="AD23">
-        <v>3.387572402722759E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>4.015200192477867E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.344536067708117E-06</v>
+        <v>5.349654668319457E-06</v>
       </c>
       <c r="C24">
-        <v>0.01957798526469985</v>
+        <v>0.01957036247972339</v>
       </c>
       <c r="D24">
-        <v>6.337880375286427E-05</v>
+        <v>9.562517402142733E-05</v>
       </c>
       <c r="E24">
-        <v>0.02197169337889663</v>
+        <v>0.02106986291951504</v>
       </c>
       <c r="F24">
-        <v>7.419665892725393</v>
+        <v>3.099665892725394</v>
       </c>
       <c r="S24">
         <v>7.212031404854805E-05</v>
@@ -1764,51 +1683,48 @@
         <v>0.001488296041428569</v>
       </c>
       <c r="U24">
-        <v>1.061538790974139</v>
+        <v>0.1326</v>
       </c>
       <c r="V24">
-        <v>0.1326</v>
+        <v>7.912325505557029</v>
       </c>
       <c r="W24">
-        <v>7.939486993015901</v>
+        <v>9.702328077868463</v>
       </c>
       <c r="X24">
-        <v>9.492984594518113</v>
+        <v>8.446509288454219</v>
       </c>
       <c r="Y24">
-        <v>8.47673253328484</v>
+        <v>0.003210915054555324</v>
       </c>
       <c r="Z24">
-        <v>0.003218717428897165</v>
+        <v>0.0001001244312437936</v>
+      </c>
+      <c r="AA24">
+        <v>0.003267200401006179</v>
       </c>
       <c r="AB24">
-        <v>7.033495376724542E-05</v>
-      </c>
-      <c r="AC24">
-        <v>0.003268422285093977</v>
-      </c>
-      <c r="AD24">
-        <v>3.417654096569266E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>4.067078380129233E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.335958416633573E-06</v>
+        <v>5.336297685542892E-06</v>
       </c>
       <c r="C25">
-        <v>0.01983142171224462</v>
+        <v>0.01982328114603121</v>
       </c>
       <c r="D25">
-        <v>6.434161338473139E-05</v>
+        <v>9.716558577815967E-05</v>
       </c>
       <c r="E25">
-        <v>0.02228261061231742</v>
+        <v>0.02135606228534408</v>
       </c>
       <c r="F25">
-        <v>7.419649574329419</v>
+        <v>3.09964957432942</v>
       </c>
       <c r="S25">
         <v>7.131031845271977E-05</v>
@@ -1817,51 +1733,48 @@
         <v>0.00149311807464696</v>
       </c>
       <c r="U25">
-        <v>1.061875303590164</v>
+        <v>0.1309</v>
       </c>
       <c r="V25">
-        <v>0.1309</v>
+        <v>7.908561269144989</v>
       </c>
       <c r="W25">
-        <v>7.936940447409616</v>
+        <v>9.701045329517818</v>
       </c>
       <c r="X25">
-        <v>9.491724010008344</v>
+        <v>8.447219832733248</v>
       </c>
       <c r="Y25">
-        <v>8.479823784013691</v>
+        <v>0.00325131493278015</v>
       </c>
       <c r="Z25">
-        <v>0.003259605512989761</v>
+        <v>0.0001005908133508341</v>
+      </c>
+      <c r="AA25">
+        <v>0.003309103383047801</v>
       </c>
       <c r="AB25">
-        <v>7.057768325441882E-05</v>
-      </c>
-      <c r="AC25">
-        <v>0.003310425476576163</v>
-      </c>
-      <c r="AD25">
-        <v>3.448189486859558E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+        <v>4.120167203751337E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.327141958429915E-06</v>
+        <v>5.322584659829754E-06</v>
       </c>
       <c r="C26">
-        <v>0.02009151487144014</v>
+        <v>0.0200828352981398</v>
       </c>
       <c r="D26">
-        <v>6.533367183600944E-05</v>
+        <v>9.875567251337803E-05</v>
       </c>
       <c r="E26">
-        <v>0.02260231627514691</v>
+        <v>0.02165002371641977</v>
       </c>
       <c r="F26">
-        <v>7.419633138142877</v>
+        <v>3.099633138142877</v>
       </c>
       <c r="S26">
         <v>7.04990062882431E-05</v>
@@ -1870,51 +1783,48 @@
         <v>0.001498019249918767</v>
       </c>
       <c r="U26">
-        <v>1.062218098412196</v>
+        <v>0.1292</v>
       </c>
       <c r="V26">
-        <v>0.1292</v>
+        <v>7.904807906353436</v>
       </c>
       <c r="W26">
-        <v>7.9343849355549</v>
+        <v>9.699786231039187</v>
       </c>
       <c r="X26">
-        <v>9.490473435722951</v>
+        <v>8.448028755046789</v>
       </c>
       <c r="Y26">
-        <v>8.482958566332387</v>
+        <v>0.00329277182908843</v>
       </c>
       <c r="Z26">
-        <v>0.003301566405486279</v>
+        <v>0.0001010721303889395</v>
+      </c>
+      <c r="AA26">
+        <v>0.00335210208977162</v>
       </c>
       <c r="AB26">
-        <v>7.08299748174731E-05</v>
-      </c>
-      <c r="AC26">
-        <v>0.003353529997388105</v>
-      </c>
-      <c r="AD26">
-        <v>3.479486583615686E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>4.174231747300572E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.318076644674491E-06</v>
+        <v>5.30850127693763E-06</v>
       </c>
       <c r="C27">
-        <v>0.0203585306207682</v>
+        <v>0.02034928969314816</v>
       </c>
       <c r="D27">
-        <v>6.635631679282647E-05</v>
+        <v>0.000100397848917938</v>
       </c>
       <c r="E27">
-        <v>0.02293118353058867</v>
+        <v>0.02195206284205713</v>
       </c>
       <c r="F27">
-        <v>7.419616581138693</v>
+        <v>3.099616581138693</v>
       </c>
       <c r="S27">
         <v>6.968635803684431E-05</v>
@@ -1923,51 +1833,48 @@
         <v>0.001503001936323818</v>
       </c>
       <c r="U27">
-        <v>1.062567377861917</v>
+        <v>0.1275</v>
       </c>
       <c r="V27">
-        <v>0.1275</v>
+        <v>7.901067438605805</v>
       </c>
       <c r="W27">
-        <v>7.931838435074417</v>
+        <v>9.698547798700568</v>
       </c>
       <c r="X27">
-        <v>9.489300040760964</v>
+        <v>8.448927318322658</v>
       </c>
       <c r="Y27">
-        <v>8.486227771685373</v>
+        <v>0.00333532782507109</v>
       </c>
       <c r="Z27">
-        <v>0.00334464289122853</v>
+        <v>0.0001015690644881104</v>
+      </c>
+      <c r="AA27">
+        <v>0.003396240220068935</v>
       </c>
       <c r="AB27">
-        <v>7.109200326156497E-05</v>
-      </c>
-      <c r="AC27">
-        <v>0.003397779799142131</v>
-      </c>
-      <c r="AD27">
-        <v>3.511078313030897E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+        <v>4.229374902585174E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.308751867058854E-06</v>
+        <v>5.294032464727022E-06</v>
       </c>
       <c r="C28">
-        <v>0.02063274919244354</v>
+        <v>0.02062292336671883</v>
       </c>
       <c r="D28">
-        <v>6.741096794800991E-05</v>
+        <v>0.000102094687165552</v>
       </c>
       <c r="E28">
-        <v>0.02326960673423931</v>
+        <v>0.02226251241289665</v>
       </c>
       <c r="F28">
-        <v>7.419599900165516</v>
+        <v>3.099599900165516</v>
       </c>
       <c r="S28">
         <v>6.887235363181147E-05</v>
@@ -1976,51 +1883,48 @@
         <v>0.001508068606899944</v>
       </c>
       <c r="U28">
-        <v>1.062923353692161</v>
+        <v>0.1258</v>
       </c>
       <c r="V28">
-        <v>0.1258</v>
+        <v>7.897334061509858</v>
       </c>
       <c r="W28">
-        <v>7.929292723825403</v>
+        <v>9.697361216440898</v>
       </c>
       <c r="X28">
-        <v>9.488186437842378</v>
+        <v>8.449967346093159</v>
       </c>
       <c r="Y28">
-        <v>8.489601956088498</v>
+        <v>0.003379027267781671</v>
       </c>
       <c r="Z28">
-        <v>0.003388880065390245</v>
+        <v>0.0001020829245154549</v>
+      </c>
+      <c r="AA28">
+        <v>0.003441563821028977</v>
       </c>
       <c r="AB28">
-        <v>7.136453388756833E-05</v>
-      </c>
-      <c r="AC28">
-        <v>0.00344322127233148</v>
-      </c>
-      <c r="AD28">
-        <v>3.543157589287369E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>4.285341613217313E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.299156413225843E-06</v>
+        <v>5.279162334982237E-06</v>
       </c>
       <c r="C29">
-        <v>0.02091446615442293</v>
+        <v>0.0209040306089045</v>
       </c>
       <c r="D29">
-        <v>6.849913336589592E-05</v>
+        <v>0.0001038489300030379</v>
       </c>
       <c r="E29">
-        <v>0.02361800294339023</v>
+        <v>0.02258172346055837</v>
       </c>
       <c r="F29">
-        <v>7.419583091940804</v>
+        <v>3.099583091940804</v>
       </c>
       <c r="S29">
         <v>6.805697242729541E-05</v>
@@ -2029,51 +1933,48 @@
         <v>0.001513221844490239</v>
       </c>
       <c r="U29">
-        <v>1.06328624756248</v>
+        <v>0.1241</v>
       </c>
       <c r="V29">
-        <v>0.1241</v>
+        <v>7.893618466636161</v>
       </c>
       <c r="W29">
-        <v>7.926744588150476</v>
+        <v>9.696191410528677</v>
       </c>
       <c r="X29">
-        <v>9.487099796659944</v>
+        <v>8.451084467409721</v>
       </c>
       <c r="Y29">
-        <v>8.493032653631033</v>
+        <v>0.003423916916319564</v>
       </c>
       <c r="Z29">
-        <v>0.003434325483630008</v>
+        <v>0.0001026139652078217</v>
+      </c>
+      <c r="AA29">
+        <v>0.003488121497808386</v>
       </c>
       <c r="AB29">
-        <v>7.164830526697636E-05</v>
-      </c>
-      <c r="AC29">
-        <v>0.003489903322967626</v>
-      </c>
-      <c r="AD29">
-        <v>3.576033110398852E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>4.342568423207029E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.289278420230869E-06</v>
+        <v>5.263874122663222E-06</v>
       </c>
       <c r="C30">
-        <v>0.02120399347415983</v>
+        <v>0.02119292202111146</v>
       </c>
       <c r="D30">
-        <v>6.962241643332572E-05</v>
+        <v>0.0001056635051198375</v>
       </c>
       <c r="E30">
-        <v>0.02397681355583241</v>
+        <v>0.02291006655186873</v>
       </c>
       <c r="F30">
-        <v>7.419566153043341</v>
+        <v>3.099566153043341</v>
       </c>
       <c r="S30">
         <v>6.724019317717205E-05</v>
@@ -2082,51 +1983,48 @@
         <v>0.001518464348306861</v>
       </c>
       <c r="U30">
-        <v>1.063656291640301</v>
+        <v>0.1224</v>
       </c>
       <c r="V30">
-        <v>0.1224</v>
+        <v>7.889907680123552</v>
       </c>
       <c r="W30">
-        <v>7.924195330789592</v>
+        <v>9.695059048400996</v>
       </c>
       <c r="X30">
-        <v>9.486090386842916</v>
+        <v>8.45231305316649</v>
       </c>
       <c r="Y30">
-        <v>8.496583929710848</v>
+        <v>0.003470046123973893</v>
       </c>
       <c r="Z30">
-        <v>0.003481029333329495</v>
+        <v>0.0001031634416429901</v>
+      </c>
+      <c r="AA30">
+        <v>0.003535964495219168</v>
       </c>
       <c r="AB30">
-        <v>7.194387144382822E-05</v>
-      </c>
-      <c r="AC30">
-        <v>0.003537877531187954</v>
-      </c>
-      <c r="AD30">
-        <v>3.609388294471551E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>4.400908113319674E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.279105326934601E-06</v>
+        <v>5.248150125214224E-06</v>
       </c>
       <c r="C31">
-        <v>0.02150166067215598</v>
+        <v>0.02148992566218177</v>
       </c>
       <c r="D31">
-        <v>7.078252345082315E-05</v>
+        <v>0.0001075415408923807</v>
       </c>
       <c r="E31">
-        <v>0.02434650609244764</v>
+        <v>0.02324793314811166</v>
       </c>
       <c r="F31">
-        <v>7.419549079905254</v>
+        <v>3.099549079905254</v>
       </c>
       <c r="S31">
         <v>6.642199400828049E-05</v>
@@ -2135,51 +2033,48 @@
         <v>0.001523798940865333</v>
       </c>
       <c r="U31">
-        <v>1.064033729254769</v>
+        <v>0.1207</v>
       </c>
       <c r="V31">
-        <v>0.1207</v>
+        <v>7.886205251562667</v>
       </c>
       <c r="W31">
-        <v>7.92165427864293</v>
+        <v>9.693971193891329</v>
       </c>
       <c r="X31">
-        <v>9.485161413503182</v>
+        <v>8.453658576026424</v>
       </c>
       <c r="Y31">
-        <v>8.500253160756415</v>
+        <v>0.003517467006823624</v>
       </c>
       <c r="Z31">
-        <v>0.003529044621525068</v>
+        <v>0.0001037324444850146</v>
+      </c>
+      <c r="AA31">
+        <v>0.003585146965840097</v>
       </c>
       <c r="AB31">
-        <v>7.225200177616935E-05</v>
-      </c>
-      <c r="AC31">
-        <v>0.003587198427642084</v>
-      </c>
-      <c r="AD31">
-        <v>3.643271840386941E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>4.46039389362617E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.268623823224147E-06</v>
+        <v>5.231971638280324E-06</v>
       </c>
       <c r="C32">
-        <v>0.02180781607428034</v>
+        <v>0.0217953882924859</v>
       </c>
       <c r="D32">
-        <v>7.198127194863714E-05</v>
+        <v>0.0001094863837281626</v>
       </c>
       <c r="E32">
-        <v>0.02472757613775134</v>
+        <v>0.02359573707842364</v>
       </c>
       <c r="F32">
-        <v>7.419531868803476</v>
+        <v>3.099531868803477</v>
       </c>
       <c r="S32">
         <v>6.56023523875945E-05</v>
@@ -2188,51 +2083,48 @@
         <v>0.001529228575310335</v>
       </c>
       <c r="U32">
-        <v>1.064418815608978</v>
+        <v>0.119</v>
       </c>
       <c r="V32">
-        <v>0.119</v>
+        <v>7.882514781140639</v>
       </c>
       <c r="W32">
-        <v>7.919099232964689</v>
+        <v>9.692922016135361</v>
       </c>
       <c r="X32">
-        <v>9.484270374824098</v>
+        <v>8.455107940380449</v>
       </c>
       <c r="Y32">
-        <v>8.50398303608976</v>
+        <v>0.003566234643428462</v>
       </c>
       <c r="Z32">
-        <v>0.003578427373235766</v>
+        <v>0.0001043218786548002</v>
+      </c>
+      <c r="AA32">
+        <v>0.003635726151938723</v>
       </c>
       <c r="AB32">
-        <v>7.257345440021144E-05</v>
-      </c>
-      <c r="AC32">
-        <v>0.003637923652059773</v>
-      </c>
-      <c r="AD32">
-        <v>3.678059805342732E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>4.521167867024885E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.257819795085068E-06</v>
+        <v>5.215318886717777E-06</v>
       </c>
       <c r="C33">
-        <v>0.02212282817286486</v>
+        <v>0.02210967672594616</v>
       </c>
       <c r="D33">
-        <v>7.322059981222E-05</v>
+        <v>0.0001115016172145441</v>
       </c>
       <c r="E33">
-        <v>0.02512054945388647</v>
+        <v>0.02395391613786185</v>
       </c>
       <c r="F33">
-        <v>7.419514515850502</v>
+        <v>3.099514515850502</v>
       </c>
       <c r="S33">
         <v>6.478124509758994E-05</v>
@@ -2241,51 +2133,48 @@
         <v>0.001534756343573897</v>
       </c>
       <c r="U33">
-        <v>1.0648118185311</v>
+        <v>0.1173</v>
       </c>
       <c r="V33">
-        <v>0.1173</v>
+        <v>7.878825405899334</v>
       </c>
       <c r="W33">
-        <v>7.916552045779278</v>
+        <v>9.691896875239911</v>
       </c>
       <c r="X33">
-        <v>9.483470592389478</v>
+        <v>8.456637297966004</v>
       </c>
       <c r="Y33">
-        <v>8.507834916842928</v>
+        <v>0.003616407292193298</v>
       </c>
       <c r="Z33">
-        <v>0.003629236850320339</v>
+        <v>0.0001049325827267916</v>
+      </c>
+      <c r="AA33">
+        <v>0.003687762593580295</v>
       </c>
       <c r="AB33">
-        <v>7.290906035885282E-05</v>
-      </c>
-      <c r="AC33">
-        <v>0.003690114131103343</v>
-      </c>
-      <c r="AD33">
-        <v>3.713443458362666E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+        <v>4.583453307123016E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.246678274140823E-06</v>
+        <v>5.198170964823467E-06</v>
       </c>
       <c r="C34">
-        <v>0.02244708710776269</v>
+        <v>0.02243317930107457</v>
       </c>
       <c r="D34">
-        <v>7.450257523996073E-05</v>
+        <v>0.0001135910830077478</v>
       </c>
       <c r="E34">
-        <v>0.02552598429019133</v>
+        <v>0.024322933828138</v>
       </c>
       <c r="F34">
-        <v>7.419497016984409</v>
+        <v>3.099497016984409</v>
       </c>
       <c r="S34">
         <v>6.395864821272627E-05</v>
@@ -2294,51 +2183,48 @@
         <v>0.00154038548524776</v>
       </c>
       <c r="U34">
-        <v>1.065213019279882</v>
+        <v>0.1156</v>
       </c>
       <c r="V34">
-        <v>0.1156</v>
+        <v>7.875152627103527</v>
       </c>
       <c r="W34">
-        <v>7.913999394059907</v>
+        <v>9.690938938529937</v>
       </c>
       <c r="X34">
-        <v>9.482731470628401</v>
+        <v>8.458307930358743</v>
       </c>
       <c r="Y34">
-        <v>8.511767836091858</v>
+        <v>0.003668046626156041</v>
       </c>
       <c r="Z34">
-        <v>0.003681535788408009</v>
+        <v>0.0001055665533168713</v>
+      </c>
+      <c r="AA34">
+        <v>0.003741320359176017</v>
       </c>
       <c r="AB34">
-        <v>7.32596212295743E-05</v>
-      </c>
-      <c r="AC34">
-        <v>0.003743834420758045</v>
-      </c>
-      <c r="AD34">
-        <v>3.749713154131979E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+        <v>4.646946429418673E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.235183331980085E-06</v>
+        <v>5.180505690443806E-06</v>
       </c>
       <c r="C35">
-        <v>0.0227810062798899</v>
+        <v>0.02276630748343377</v>
       </c>
       <c r="D35">
-        <v>7.582940810721135E-05</v>
+        <v>0.0001157589056121388</v>
       </c>
       <c r="E35">
-        <v>0.0259444738869151</v>
+        <v>0.02470328121980781</v>
       </c>
       <c r="F35">
-        <v>7.419479367958388</v>
+        <v>3.099479367958388</v>
       </c>
       <c r="S35">
         <v>6.313453704501283E-05</v>
@@ -2347,51 +2233,48 @@
         <v>0.001546119396301241</v>
       </c>
       <c r="U35">
-        <v>1.065622713467487</v>
+        <v>0.1139</v>
       </c>
       <c r="V35">
-        <v>0.1139</v>
+        <v>7.871479521385801</v>
       </c>
       <c r="W35">
-        <v>7.911440389437577</v>
+        <v>9.690021409015177</v>
       </c>
       <c r="X35">
-        <v>9.482070269114702</v>
+        <v>8.46007581445704</v>
       </c>
       <c r="Y35">
-        <v>8.515797728190989</v>
+        <v>0.003721217970526774</v>
       </c>
       <c r="Z35">
-        <v>0.003735390656574851</v>
+        <v>0.0001062245510817938</v>
+      </c>
+      <c r="AA35">
+        <v>0.003796467387457835</v>
       </c>
       <c r="AB35">
-        <v>7.3626048284259E-05</v>
-      </c>
-      <c r="AC35">
-        <v>0.00379915288776128</v>
-      </c>
-      <c r="AD35">
-        <v>3.786827649710919E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+        <v>4.712005182470911E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.223318076621405E-06</v>
+        <v>5.162299625515887E-06</v>
       </c>
       <c r="C36">
-        <v>0.02312502411128054</v>
+        <v>0.02310949761340077</v>
       </c>
       <c r="D36">
-        <v>7.7203461611081E-05</v>
+        <v>0.0001180095162979009</v>
       </c>
       <c r="E36">
-        <v>0.02637664925465785</v>
+        <v>0.02509547904446374</v>
       </c>
       <c r="F36">
-        <v>7.419461564328982</v>
+        <v>3.099461564328982</v>
       </c>
       <c r="S36">
         <v>6.230888613831465E-05</v>
@@ -2400,51 +2283,48 @@
         <v>0.001551961639994187</v>
       </c>
       <c r="U36">
-        <v>1.066041211965153</v>
+        <v>0.1122</v>
       </c>
       <c r="V36">
-        <v>0.1122</v>
+        <v>7.867811679791834</v>
       </c>
       <c r="W36">
-        <v>7.908878098784147</v>
+        <v>9.689160230690019</v>
       </c>
       <c r="X36">
-        <v>9.481504177221078</v>
+        <v>8.461960588629335</v>
       </c>
       <c r="Y36">
-        <v>8.519939454427721</v>
+        <v>0.003775990598094123</v>
       </c>
       <c r="Z36">
-        <v>0.003790871938518647</v>
+        <v>0.0001069082563790357</v>
+      </c>
+      <c r="AA36">
+        <v>0.003853275680421973</v>
       </c>
       <c r="AB36">
-        <v>7.400937695046976E-05</v>
-      </c>
-      <c r="AC36">
-        <v>0.00385614204853801</v>
-      </c>
-      <c r="AD36">
-        <v>3.824756007164523E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+        <v>4.778595826623324E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.211064487558739E-06</v>
+        <v>5.143527840895669E-06</v>
       </c>
       <c r="C37">
-        <v>0.0234796059674293</v>
+        <v>0.02346321281489466</v>
       </c>
       <c r="D37">
-        <v>7.862726641643437E-05</v>
+        <v>0.0001203476849548239</v>
       </c>
       <c r="E37">
-        <v>0.02682318215563782</v>
+        <v>0.02550007987652832</v>
       </c>
       <c r="F37">
-        <v>7.419443601443976</v>
+        <v>3.099443601443975</v>
       </c>
       <c r="S37">
         <v>6.14816692006035E-05</v>
@@ -2453,51 +2333,48 @@
         <v>0.001557915956868862</v>
       </c>
       <c r="U37">
-        <v>1.066468841995543</v>
+        <v>0.1105</v>
       </c>
       <c r="V37">
-        <v>0.1105</v>
+        <v>7.864147862634256</v>
       </c>
       <c r="W37">
-        <v>7.906308715000713</v>
+        <v>9.688343291916674</v>
       </c>
       <c r="X37">
-        <v>9.480997890957431</v>
+        <v>8.463940717656467</v>
       </c>
       <c r="Y37">
-        <v>8.524149396657306</v>
+        <v>0.003832438018735894</v>
       </c>
       <c r="Z37">
-        <v>0.00384805443946585</v>
+        <v>0.0001076188761366874</v>
+      </c>
+      <c r="AA37">
+        <v>0.003911821676147446</v>
       </c>
       <c r="AB37">
-        <v>7.441038395244086E-05</v>
-      </c>
-      <c r="AC37">
-        <v>0.003914878886822108</v>
-      </c>
-      <c r="AD37">
-        <v>3.863819551220552E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
+        <v>4.84695519951168E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8.198403396061504E-06</v>
+        <v>5.12416391734697E-06</v>
       </c>
       <c r="C38">
-        <v>0.02384524625963262</v>
+        <v>0.02382794508254996</v>
       </c>
       <c r="D38">
-        <v>8.010353501143505E-05</v>
+        <v>0.0001227785503130217</v>
       </c>
       <c r="E38">
-        <v>0.02728478843452596</v>
+        <v>0.02591767061009799</v>
       </c>
       <c r="F38">
-        <v>7.419425474428825</v>
+        <v>3.099425474428826</v>
       </c>
       <c r="S38">
         <v>6.065285908385421E-05</v>
@@ -2506,51 +2383,48 @@
         <v>0.001563986277085435</v>
       </c>
       <c r="U38">
-        <v>1.066905948222933</v>
+        <v>0.1088</v>
       </c>
       <c r="V38">
-        <v>0.1088</v>
+        <v>7.860487598011058</v>
       </c>
       <c r="W38">
-        <v>7.903739603143195</v>
+        <v>9.687603028068864</v>
       </c>
       <c r="X38">
-        <v>9.48059970571345</v>
+        <v>8.466057356323182</v>
       </c>
       <c r="Y38">
-        <v>8.528476449271066</v>
+        <v>0.003890638317839006</v>
       </c>
       <c r="Z38">
-        <v>0.003907017627833247</v>
+        <v>0.0001083586611851606</v>
+      </c>
+      <c r="AA38">
+        <v>0.003972186553087324</v>
       </c>
       <c r="AB38">
-        <v>7.483042129418701E-05</v>
-      </c>
-      <c r="AC38">
-        <v>0.003975445147623824</v>
-      </c>
-      <c r="AD38">
-        <v>3.903793025853303E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+        <v>4.916913742283937E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.185314372135688E-06</v>
+        <v>5.104179800843949E-06</v>
       </c>
       <c r="C39">
-        <v>0.02422247074732502</v>
+        <v>0.02420421756718864</v>
       </c>
       <c r="D39">
-        <v>8.163517834234888E-05</v>
+        <v>0.0001253076566812487</v>
       </c>
       <c r="E39">
-        <v>0.02776223163888453</v>
+        <v>0.02634887510741998</v>
       </c>
       <c r="F39">
-        <v>7.41940717817216</v>
+        <v>3.09940717817216</v>
       </c>
       <c r="S39">
         <v>5.982242774234392E-05</v>
@@ -2559,51 +2433,48 @@
         <v>0.001570176733196893</v>
       </c>
       <c r="U39">
-        <v>1.067352893973151</v>
+        <v>0.1071</v>
       </c>
       <c r="V39">
-        <v>0.1071</v>
+        <v>7.856834212260339</v>
       </c>
       <c r="W39">
-        <v>7.901157299242379</v>
+        <v>9.686928299894271</v>
       </c>
       <c r="X39">
-        <v>9.480280155982648</v>
+        <v>8.468291200747457</v>
       </c>
       <c r="Y39">
-        <v>8.53288438043211</v>
+        <v>0.003950674502865257</v>
       </c>
       <c r="Z39">
-        <v>0.00396784599619101</v>
+        <v>0.0001091291338848001</v>
+      </c>
+      <c r="AA39">
+        <v>0.004034456670796284</v>
       </c>
       <c r="AB39">
-        <v>7.527036436450786E-05</v>
-      </c>
-      <c r="AC39">
-        <v>0.004037927801867718</v>
-      </c>
-      <c r="AD39">
-        <v>3.944962544414103E-05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
+        <v>4.988714170259637E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.171775597275534E-06</v>
+        <v>5.08354563961732E-06</v>
       </c>
       <c r="C40">
-        <v>0.02461183906295378</v>
+        <v>0.02459258708187425</v>
       </c>
       <c r="D40">
-        <v>8.322532432063715E-05</v>
+        <v>0.0001279409952493149</v>
       </c>
       <c r="E40">
-        <v>0.02825632699618164</v>
+        <v>0.02679435708905641</v>
       </c>
       <c r="F40">
-        <v>7.41938870731019</v>
+        <v>3.09938870731019</v>
       </c>
       <c r="S40">
         <v>5.899034617939873E-05</v>
@@ -2612,51 +2483,48 @@
         <v>0.001576491673721552</v>
       </c>
       <c r="U40">
-        <v>1.067810062577555</v>
+        <v>0.1054</v>
       </c>
       <c r="V40">
-        <v>0.1054</v>
+        <v>7.853178554715837</v>
       </c>
       <c r="W40">
-        <v>7.898570071647374</v>
+        <v>9.686319544598501</v>
       </c>
       <c r="X40">
-        <v>9.480059667199468</v>
+        <v>8.470635359895791</v>
       </c>
       <c r="Y40">
-        <v>8.537390553630837</v>
+        <v>0.004012634912042361</v>
       </c>
       <c r="Z40">
-        <v>0.004030629474123695</v>
+        <v>0.0001099320518728529</v>
+      </c>
+      <c r="AA40">
+        <v>0.004098723921265538</v>
       </c>
       <c r="AB40">
-        <v>7.573154747679895E-05</v>
-      </c>
-      <c r="AC40">
-        <v>0.004102419385358421</v>
-      </c>
-      <c r="AD40">
-        <v>3.987300508240829E-05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>5.062516514972594E-05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.157763768669193E-06</v>
+        <v>5.062229676412754E-06</v>
       </c>
       <c r="C41">
-        <v>0.02501394748489858</v>
+        <v>0.02499364685378613</v>
       </c>
       <c r="D41">
-        <v>8.487733802575889E-05</v>
+        <v>0.0001306850488538866</v>
       </c>
       <c r="E41">
-        <v>0.02876794581058682</v>
+        <v>0.02725482332567206</v>
       </c>
       <c r="F41">
-        <v>7.41937005620973</v>
+        <v>3.099370056209731</v>
       </c>
       <c r="S41">
         <v>5.815658439847879E-05</v>
@@ -2665,51 +2533,48 @@
         <v>0.001582935678113531</v>
       </c>
       <c r="U41">
-        <v>1.068277858821722</v>
+        <v>0.1037</v>
       </c>
       <c r="V41">
-        <v>0.1037</v>
+        <v>7.849525413109991</v>
       </c>
       <c r="W41">
-        <v>7.895972926123785</v>
+        <v>9.685780123327966</v>
       </c>
       <c r="X41">
-        <v>9.479955082542398</v>
+        <v>8.473092728224056</v>
       </c>
       <c r="Y41">
-        <v>8.54200772757793</v>
+        <v>0.004076613647454977</v>
       </c>
       <c r="Z41">
-        <v>0.004095463866363809</v>
+        <v>0.0001107695299323773</v>
+      </c>
+      <c r="AA41">
+        <v>0.004165086195955962</v>
       </c>
       <c r="AB41">
-        <v>7.621540581792195E-05</v>
-      </c>
-      <c r="AC41">
-        <v>0.004169018506346552</v>
-      </c>
-      <c r="AD41">
-        <v>4.030809004616526E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>5.138434913085859E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.143253979578073E-06</v>
+        <v>5.04019810831765E-06</v>
       </c>
       <c r="C42">
-        <v>0.02542943198734646</v>
+        <v>0.025408029550535</v>
       </c>
       <c r="D42">
-        <v>8.659484431436914E-05</v>
+        <v>0.0001335468427308839</v>
       </c>
       <c r="E42">
-        <v>0.02929802030305216</v>
+        <v>0.02773102712579755</v>
       </c>
       <c r="F42">
-        <v>7.419351218949573</v>
+        <v>3.099351218949574</v>
       </c>
       <c r="S42">
         <v>5.732111136624349E-05</v>
@@ -2718,51 +2583,48 @@
         <v>0.001589513573545176</v>
       </c>
       <c r="U42">
-        <v>1.068756710492841</v>
+        <v>0.102</v>
       </c>
       <c r="V42">
-        <v>0.102</v>
+        <v>7.845867591247396</v>
       </c>
       <c r="W42">
-        <v>7.893367989273257</v>
+        <v>9.685324826290417</v>
       </c>
       <c r="X42">
-        <v>9.479922791438392</v>
+        <v>8.475675433257972</v>
       </c>
       <c r="Y42">
-        <v>8.546687429438867</v>
+        <v>0.004142711049413686</v>
       </c>
       <c r="Z42">
-        <v>0.00416245134070624</v>
+        <v>0.0001116440225905826</v>
+      </c>
+      <c r="AA42">
+        <v>0.004233647893403047</v>
       </c>
       <c r="AB42">
-        <v>7.67227143022698E-05</v>
-      </c>
-      <c r="AC42">
-        <v>0.004237830346618225</v>
-      </c>
-      <c r="AD42">
-        <v>4.075868483142772E-05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+        <v>5.21652663967335E-05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.128219542889736E-06</v>
+        <v>5.017414862422597E-06</v>
       </c>
       <c r="C43">
-        <v>0.02585897159994023</v>
+        <v>0.02583641061337914</v>
       </c>
       <c r="D43">
-        <v>8.83817534626724E-05</v>
+        <v>0.0001365340033957125</v>
       </c>
       <c r="E43">
-        <v>0.029847548933668</v>
+        <v>0.02822377212818887</v>
       </c>
       <c r="F43">
-        <v>7.419332189300622</v>
+        <v>3.099332189300622</v>
       </c>
       <c r="S43">
         <v>5.648389494206193E-05</v>
@@ -2771,51 +2633,48 @@
         <v>0.001596230452172181</v>
       </c>
       <c r="U43">
-        <v>1.069247070132174</v>
+        <v>0.1003</v>
       </c>
       <c r="V43">
-        <v>0.1003</v>
+        <v>7.842211124017542</v>
       </c>
       <c r="W43">
-        <v>7.890751697460721</v>
+        <v>9.684947550459073</v>
       </c>
       <c r="X43">
-        <v>9.480002103303153</v>
+        <v>8.478370199877363</v>
       </c>
       <c r="Y43">
-        <v>8.551465659441956</v>
+        <v>0.00421103421935984</v>
       </c>
       <c r="Z43">
-        <v>0.004231700978441901</v>
+        <v>0.0001125576755532504</v>
+      </c>
+      <c r="AA43">
+        <v>0.004304520480301459</v>
       </c>
       <c r="AB43">
-        <v>7.725531856549679E-05</v>
-      </c>
-      <c r="AC43">
-        <v>0.00430896715444512</v>
-      </c>
-      <c r="AD43">
-        <v>4.122356492189372E-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+        <v>5.29703430594022E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.112631877476574E-06</v>
+        <v>4.993841478792476E-06</v>
       </c>
       <c r="C44">
-        <v>0.02630329211453466</v>
+        <v>0.02627951193424092</v>
       </c>
       <c r="D44">
-        <v>9.024228910369131E-05</v>
+        <v>0.0001396548220323366</v>
       </c>
       <c r="E44">
-        <v>0.0304176023255189</v>
+        <v>0.02873391652676641</v>
       </c>
       <c r="F44">
-        <v>7.419312960704112</v>
+        <v>3.099312960704113</v>
       </c>
       <c r="S44">
         <v>5.564490181701067E-05</v>
@@ -2824,51 +2683,48 @@
         <v>0.001603091690403917</v>
       </c>
       <c r="U44">
-        <v>1.069749416923027</v>
+        <v>0.09860000000000002</v>
       </c>
       <c r="V44">
-        <v>0.09860000000000002</v>
+        <v>7.838550735214581</v>
       </c>
       <c r="W44">
-        <v>7.888121128305242</v>
+        <v>9.684667302870212</v>
       </c>
       <c r="X44">
-        <v>9.48019244640369</v>
+        <v>8.481197472804745</v>
       </c>
       <c r="Y44">
-        <v>8.55633760905819</v>
+        <v>0.00428169760804616</v>
       </c>
       <c r="Z44">
-        <v>0.004303329351888045</v>
+        <v>0.000113513543265052</v>
+      </c>
+      <c r="AA44">
+        <v>0.004377823068874597</v>
       </c>
       <c r="AB44">
-        <v>7.781469552858495E-05</v>
-      </c>
-      <c r="AC44">
-        <v>0.004382548940471382</v>
-      </c>
-      <c r="AD44">
-        <v>4.170401695772482E-05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+        <v>5.379982344721644E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.096460310343602E-06</v>
+        <v>4.96943686783755E-06</v>
       </c>
       <c r="C45">
-        <v>0.02676317018164749</v>
+        <v>0.02673810591866563</v>
       </c>
       <c r="D45">
-        <v>9.218102017433836E-05</v>
+        <v>0.0001429183289770178</v>
       </c>
       <c r="E45">
-        <v>0.03100932978606139</v>
+        <v>0.02926237766100359</v>
       </c>
       <c r="F45">
-        <v>7.419293526247503</v>
+        <v>3.099293526247504</v>
       </c>
       <c r="S45">
         <v>5.480409747325358E-05</v>
@@ -2877,51 +2733,48 @@
         <v>0.001610102970806313</v>
       </c>
       <c r="U45">
-        <v>1.070264258702976</v>
+        <v>0.09690000000000001</v>
       </c>
       <c r="V45">
-        <v>0.09690000000000001</v>
+        <v>7.834885090019819</v>
       </c>
       <c r="W45">
-        <v>7.885480431938086</v>
+        <v>9.684459741167059</v>
       </c>
       <c r="X45">
-        <v>9.480505559482117</v>
+        <v>8.484118245324458</v>
       </c>
       <c r="Y45">
-        <v>8.561310167419879</v>
+        <v>0.00435482364427039</v>
       </c>
       <c r="Z45">
-        <v>0.004377461187964527</v>
+        <v>0.0001145135724444381</v>
+      </c>
+      <c r="AA45">
+        <v>0.00445368312581192</v>
       </c>
       <c r="AB45">
-        <v>7.84026138904958E-05</v>
-      </c>
-      <c r="AC45">
-        <v>0.004458704114568113</v>
-      </c>
-      <c r="AD45">
-        <v>4.220070640615834E-05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+        <v>5.465823109451447E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>8.079671885414996E-06</v>
+        <v>4.944157087793722E-06</v>
       </c>
       <c r="C46">
-        <v>0.02723943784524522</v>
+        <v>0.02721301998276721</v>
       </c>
       <c r="D46">
-        <v>9.420289654468153E-05</v>
+        <v>0.0001463343771961492</v>
       </c>
       <c r="E46">
-        <v>0.03162396655589517</v>
+        <v>0.02981013709151436</v>
       </c>
       <c r="F46">
-        <v>7.419273878638675</v>
+        <v>3.099273878638676</v>
       </c>
       <c r="S46">
         <v>5.396144610260477E-05</v>
@@ -2930,51 +2783,48 @@
         <v>0.001617270304768212</v>
       </c>
       <c r="U46">
-        <v>1.070792134251595</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="V46">
-        <v>0.09520000000000002</v>
+        <v>7.831211143278574</v>
       </c>
       <c r="W46">
-        <v>7.882825082447987</v>
+        <v>9.684371678576504</v>
       </c>
       <c r="X46">
-        <v>9.480914866219754</v>
+        <v>8.4871866749705</v>
       </c>
       <c r="Y46">
-        <v>8.566354362614751</v>
+        <v>0.004430543466981567</v>
       </c>
       <c r="Z46">
-        <v>0.004454230091072991</v>
+        <v>0.0001155620820992878</v>
+      </c>
+      <c r="AA46">
+        <v>0.004532237141789016</v>
       </c>
       <c r="AB46">
-        <v>7.902029238753488E-05</v>
-      </c>
-      <c r="AC46">
-        <v>0.004537570246856719</v>
-      </c>
-      <c r="AD46">
-        <v>4.271659788327486E-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+        <v>5.554368245878013E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.062231186325377E-06</v>
+        <v>4.917955155373314E-06</v>
       </c>
       <c r="C47">
-        <v>0.02773298757158523</v>
+        <v>0.02770514153923214</v>
       </c>
       <c r="D47">
-        <v>9.631328875461031E-05</v>
+        <v>0.0001499137357253096</v>
       </c>
       <c r="E47">
-        <v>0.03226284188258147</v>
+        <v>0.03037824622738414</v>
       </c>
       <c r="F47">
-        <v>7.419254010177743</v>
+        <v>3.099254010177742</v>
       </c>
       <c r="S47">
         <v>5.311691052147802E-05</v>
@@ -2983,51 +2833,48 @@
         <v>0.00162460005736102</v>
       </c>
       <c r="U47">
-        <v>1.071333615801233</v>
+        <v>0.09350000000000001</v>
       </c>
       <c r="V47">
-        <v>0.09350000000000001</v>
+        <v>7.827532566991875</v>
       </c>
       <c r="W47">
-        <v>7.880151639955661</v>
+        <v>9.684377106277701</v>
       </c>
       <c r="X47">
-        <v>9.481461745358358</v>
+        <v>8.490363782425311</v>
       </c>
       <c r="Y47">
-        <v>8.571504744630904</v>
+        <v>0.004508997673979428</v>
       </c>
       <c r="Z47">
-        <v>0.004533779360139999</v>
+        <v>0.0001166615041363182</v>
+      </c>
+      <c r="AA47">
+        <v>0.004613631568322293</v>
       </c>
       <c r="AB47">
-        <v>7.967022892477255E-05</v>
-      </c>
-      <c r="AC47">
-        <v>0.004619294858656237</v>
-      </c>
-      <c r="AD47">
-        <v>4.325079644078217E-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+        <v>5.646110469661829E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.044100041272852E-06</v>
+        <v>4.890780682117229E-06</v>
       </c>
       <c r="C48">
-        <v>0.0282447778360821</v>
+        <v>0.02821542353559338</v>
       </c>
       <c r="D48">
-        <v>9.851803378483483E-05</v>
+        <v>0.0001536682004224252</v>
       </c>
       <c r="E48">
-        <v>0.03292738794408766</v>
+        <v>0.03096783245141529</v>
       </c>
       <c r="F48">
-        <v>7.419233912725485</v>
+        <v>3.099233912725485</v>
       </c>
       <c r="S48">
         <v>5.227045212167481E-05</v>
@@ -3036,51 +2883,48 @@
         <v>0.001632098976140491</v>
       </c>
       <c r="U48">
-        <v>1.07188931170116</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="V48">
-        <v>0.09180000000000001</v>
+        <v>7.823842853784041</v>
       </c>
       <c r="W48">
-        <v>7.877466281500766</v>
+        <v>9.684488379747497</v>
       </c>
       <c r="X48">
-        <v>9.482118242937993</v>
+        <v>8.4936577702458</v>
       </c>
       <c r="Y48">
-        <v>8.576732239530031</v>
+        <v>0.004590337232680226</v>
       </c>
       <c r="Z48">
-        <v>0.004616262862569912</v>
+        <v>0.0001178156251539967</v>
+      </c>
+      <c r="AA48">
+        <v>0.00469802361394499</v>
       </c>
       <c r="AB48">
-        <v>8.035385236741137E-05</v>
-      </c>
-      <c r="AC48">
-        <v>0.004704036415363931</v>
-      </c>
-      <c r="AD48">
-        <v>4.380652095821599E-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+        <v>5.741218447981383E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.025237307262942E-06</v>
+        <v>4.862579651056778E-06</v>
       </c>
       <c r="C49">
-        <v>0.02877583934178582</v>
+        <v>0.02874489061738906</v>
       </c>
       <c r="D49">
-        <v>0.0001008234856872652</v>
+        <v>0.0001576107158648563</v>
       </c>
       <c r="E49">
-        <v>0.03361914986454939</v>
+        <v>0.03158010599068824</v>
       </c>
       <c r="F49">
-        <v>7.41921357766935</v>
+        <v>3.09921357766935</v>
       </c>
       <c r="S49">
         <v>5.142203077690322E-05</v>
@@ -3089,51 +2933,48 @@
         <v>0.001639774221355606</v>
       </c>
       <c r="U49">
-        <v>1.072459869444989</v>
+        <v>0.09010000000000001</v>
       </c>
       <c r="V49">
-        <v>0.09010000000000001</v>
+        <v>7.820145088894782</v>
       </c>
       <c r="W49">
-        <v>7.874758708782561</v>
+        <v>9.684722231495471</v>
       </c>
       <c r="X49">
-        <v>9.482894394674991</v>
+        <v>8.497081529564074</v>
       </c>
       <c r="Y49">
-        <v>8.582042549869509</v>
+        <v>0.00467472443282223</v>
       </c>
       <c r="Z49">
-        <v>0.004701846051441656</v>
+        <v>0.0001190287933755238</v>
+      </c>
+      <c r="AA49">
+        <v>0.004785582320161314</v>
       </c>
       <c r="AB49">
-        <v>8.107337668133046E-05</v>
-      </c>
-      <c r="AC49">
-        <v>0.004791965281296114</v>
-      </c>
-      <c r="AD49">
-        <v>4.438489851350478E-05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
+        <v>5.839857871591473E-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.005598576416654E-06</v>
+        <v>4.833294086850184E-06</v>
       </c>
       <c r="C50">
-        <v>0.0293272819544031</v>
+        <v>0.02929464600011068</v>
       </c>
       <c r="D50">
-        <v>0.0001032365734666639</v>
+        <v>0.0001617555174024336</v>
       </c>
       <c r="E50">
-        <v>0.03433979687085099</v>
+        <v>0.03221636748036162</v>
       </c>
       <c r="F50">
-        <v>7.41919299588624</v>
+        <v>3.09919299588624</v>
       </c>
       <c r="S50">
         <v>5.057160473611545E-05</v>
@@ -3142,51 +2983,48 @@
         <v>0.001647633398927178</v>
       </c>
       <c r="U50">
-        <v>1.073045979030677</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="V50">
-        <v>0.08840000000000001</v>
+        <v>7.816433101493018</v>
       </c>
       <c r="W50">
-        <v>7.872031316124055</v>
+        <v>9.685065879937115</v>
       </c>
       <c r="X50">
-        <v>9.483797322717196</v>
+        <v>8.500613700424918</v>
       </c>
       <c r="Y50">
-        <v>8.587438675036472</v>
+        <v>0.004762333964350052</v>
       </c>
       <c r="Z50">
-        <v>0.004790707064417817</v>
+        <v>0.0001203046983947294</v>
+      </c>
+      <c r="AA50">
+        <v>0.004876489699804495</v>
       </c>
       <c r="AB50">
-        <v>8.183116106628081E-05</v>
-      </c>
-      <c r="AC50">
-        <v>0.004883264904041933</v>
-      </c>
-      <c r="AD50">
-        <v>4.498737346549319E-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
+        <v>5.942462494684076E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.98513582209875E-06</v>
+        <v>4.802861650381762E-06</v>
       </c>
       <c r="C51">
-        <v>0.02990030245206852</v>
+        <v>0.02986587914683046</v>
       </c>
       <c r="D51">
-        <v>0.0001057648671100581</v>
+        <v>0.0001661182959096638</v>
       </c>
       <c r="E51">
-        <v>0.03509113475443561</v>
+        <v>0.03287801632179296</v>
       </c>
       <c r="F51">
-        <v>7.41917215770123</v>
+        <v>3.09917215770123</v>
       </c>
       <c r="S51">
         <v>4.971913052844902E-05</v>
@@ -3195,51 +3033,48 @@
         <v>0.00165568459754108</v>
       </c>
       <c r="U51">
-        <v>1.073648376629909</v>
+        <v>0.08670000000000001</v>
       </c>
       <c r="V51">
-        <v>0.08670000000000001</v>
+        <v>7.812707295239981</v>
       </c>
       <c r="W51">
-        <v>7.86928453385116</v>
+        <v>9.685563813488978</v>
       </c>
       <c r="X51">
-        <v>9.484819123497529</v>
+        <v>8.50429756459363</v>
       </c>
       <c r="Y51">
-        <v>8.59291084436885</v>
+        <v>0.00485335414603545</v>
       </c>
       <c r="Z51">
-        <v>0.004883037964483534</v>
+        <v>0.0001216494224702275</v>
+      </c>
+      <c r="AA51">
+        <v>0.004970941956174253</v>
       </c>
       <c r="AB51">
-        <v>8.262939418465133E-05</v>
-      </c>
-      <c r="AC51">
-        <v>0.004978133090915981</v>
-      </c>
-      <c r="AD51">
-        <v>4.561633306979025E-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+        <v>6.049014775861548E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.962541285905649E-06</v>
+        <v>4.769111641194788E-06</v>
       </c>
       <c r="C52">
-        <v>0.03049619320376769</v>
+        <v>0.03045987436384887</v>
       </c>
       <c r="D52">
-        <v>0.0001084309130779056</v>
+        <v>0.0001707839542487558</v>
       </c>
       <c r="E52">
-        <v>0.03587419818943543</v>
+        <v>0.03356511541538116</v>
       </c>
       <c r="F52">
-        <v>7.418089868892738</v>
+        <v>3.098089868892739</v>
       </c>
       <c r="S52">
         <v>4.886456289918886E-05</v>
@@ -3248,51 +3083,48 @@
         <v>0.003743856970232864</v>
       </c>
       <c r="U52">
-        <v>1.074267848550482</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V52">
-        <v>0.08500000000000001</v>
+        <v>7.808965193360266</v>
       </c>
       <c r="W52">
-        <v>7.866515075942492</v>
+        <v>9.686396033559705</v>
       </c>
       <c r="X52">
-        <v>9.486101725882879</v>
+        <v>8.50811002844471</v>
       </c>
       <c r="Y52">
-        <v>8.598480252252472</v>
+        <v>0.004947988240506754</v>
       </c>
       <c r="Z52">
-        <v>0.004979046135889511</v>
+        <v>0.0001231057668724404</v>
+      </c>
+      <c r="AA52">
+        <v>0.005069150992342566</v>
       </c>
       <c r="AB52">
-        <v>8.348266587195439E-05</v>
-      </c>
-      <c r="AC52">
-        <v>0.005076783426072906</v>
-      </c>
-      <c r="AD52">
-        <v>4.627395884887397E-05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
+        <v>6.161011802986168E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.08886290204737E-05</v>
+        <v>5.698876063163296E-06</v>
       </c>
       <c r="C53">
-        <v>0.0311163516178634</v>
+        <v>0.03107801906608561</v>
       </c>
       <c r="D53">
-        <v>8.144714751039881E-05</v>
+        <v>0.000147991572843378</v>
       </c>
       <c r="E53">
-        <v>0.03509320293181876</v>
+        <v>0.03309274282389862</v>
       </c>
       <c r="F53">
-        <v>9.719260549023888</v>
+        <v>3.897350417916627</v>
       </c>
       <c r="S53">
         <v>9.030858370959505E-05</v>
@@ -3301,51 +3133,48 @@
         <v>0.001420905797233235</v>
       </c>
       <c r="U53">
-        <v>1.055228710868155</v>
+        <v>0.1715</v>
       </c>
       <c r="V53">
-        <v>0.1715</v>
+        <v>7.804815301343567</v>
       </c>
       <c r="W53">
-        <v>7.862608811898007</v>
+        <v>9.664734227302155</v>
       </c>
       <c r="X53">
-        <v>9.369631885738094</v>
+        <v>8.572065650135258</v>
       </c>
       <c r="Y53">
-        <v>8.668130742671321</v>
+        <v>0.005046455229764597</v>
       </c>
       <c r="Z53">
-        <v>0.005078955594461298</v>
+        <v>0.0001084072592501631</v>
+      </c>
+      <c r="AA53">
+        <v>0.005171345704063234</v>
       </c>
       <c r="AB53">
-        <v>6.397568659784562E-05</v>
-      </c>
-      <c r="AC53">
-        <v>0.005179446884587682</v>
-      </c>
-      <c r="AD53">
-        <v>3.642941888683514E-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>5.167285276715614E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.086665498277185E-05</v>
+        <v>5.669814875098694E-06</v>
       </c>
       <c r="C54">
-        <v>0.03176291212766243</v>
+        <v>0.03172239463886149</v>
       </c>
       <c r="D54">
-        <v>8.346926999614944E-05</v>
+        <v>0.0001519548579352895</v>
       </c>
       <c r="E54">
-        <v>0.03589206613979427</v>
+        <v>0.03380648274328736</v>
       </c>
       <c r="F54">
-        <v>9.719242136296899</v>
+        <v>3.897332005189638</v>
       </c>
       <c r="S54">
         <v>8.869289238773768E-05</v>
@@ -3354,51 +3183,48 @@
         <v>0.001428281594305982</v>
       </c>
       <c r="U54">
-        <v>1.055712539241056</v>
+        <v>0.168</v>
       </c>
       <c r="V54">
-        <v>0.168</v>
+        <v>7.801289788357385</v>
       </c>
       <c r="W54">
-        <v>7.860310396515422</v>
+        <v>9.665383301484406</v>
       </c>
       <c r="X54">
-        <v>9.372006735892217</v>
+        <v>8.575636151616374</v>
       </c>
       <c r="Y54">
-        <v>8.673855362845023</v>
+        <v>0.005149331229150314</v>
       </c>
       <c r="Z54">
-        <v>0.005183434342541786</v>
+        <v>0.0001096310680170725</v>
+      </c>
+      <c r="AA54">
+        <v>0.005278005555131902</v>
       </c>
       <c r="AB54">
-        <v>6.468257395380529E-05</v>
-      </c>
-      <c r="AC54">
-        <v>0.005286593081789783</v>
-      </c>
-      <c r="AD54">
-        <v>3.693356415322956E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+        <v>5.263124079128459E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.084369089580218E-05</v>
+        <v>5.639514939041173E-06</v>
       </c>
       <c r="C55">
-        <v>0.03243694282676171</v>
+        <v>0.03239410612356204</v>
       </c>
       <c r="D55">
-        <v>8.559248187236997E-05</v>
+        <v>0.0001561328149923154</v>
       </c>
       <c r="E55">
-        <v>0.03672745653353171</v>
+        <v>0.03455118526123116</v>
       </c>
       <c r="F55">
-        <v>9.719223467316032</v>
+        <v>3.897313336208772</v>
       </c>
       <c r="S55">
         <v>8.70729848590562E-05</v>
@@ -3407,51 +3233,48 @@
         <v>0.001435852887335487</v>
       </c>
       <c r="U55">
-        <v>1.056210953522377</v>
+        <v>0.1645</v>
       </c>
       <c r="V55">
-        <v>0.1645</v>
+        <v>7.797745320927437</v>
       </c>
       <c r="W55">
-        <v>7.857983067190071</v>
+        <v>9.66614190664002</v>
       </c>
       <c r="X55">
-        <v>9.374481203587628</v>
+        <v>8.579301277109922</v>
       </c>
       <c r="Y55">
-        <v>8.679631832199926</v>
+        <v>0.00525655889215315</v>
       </c>
       <c r="Z55">
-        <v>0.005292343954639404</v>
+        <v>0.0001109210694368427</v>
+      </c>
+      <c r="AA55">
+        <v>0.005389183732032767</v>
       </c>
       <c r="AB55">
-        <v>6.542507055495006E-05</v>
-      </c>
-      <c r="AC55">
-        <v>0.005398287965143753</v>
-      </c>
-      <c r="AD55">
-        <v>3.746295516286853E-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>5.36328578531467E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.081966899276364E-05</v>
+        <v>5.607896138714091E-06</v>
       </c>
       <c r="C56">
-        <v>0.03314023305165061</v>
+        <v>0.03309493163027008</v>
       </c>
       <c r="D56">
-        <v>8.78244507925967E-05</v>
+        <v>0.000160543163181672</v>
       </c>
       <c r="E56">
-        <v>0.03760189815972093</v>
+        <v>0.03532887851097249</v>
       </c>
       <c r="F56">
-        <v>9.719204530845754</v>
+        <v>3.897294399738493</v>
       </c>
       <c r="S56">
         <v>8.54487600000346E-05</v>
@@ -3460,51 +3283,48 @@
         <v>0.001443629205852498</v>
       </c>
       <c r="U56">
-        <v>1.056724718885016</v>
+        <v>0.161</v>
       </c>
       <c r="V56">
-        <v>0.161</v>
+        <v>7.794178327809257</v>
       </c>
       <c r="W56">
-        <v>7.855622362841784</v>
+        <v>9.667030309511372</v>
       </c>
       <c r="X56">
-        <v>9.377048105644977</v>
+        <v>8.58307616522811</v>
       </c>
       <c r="Y56">
-        <v>8.685456038485198</v>
+        <v>0.00536842058395133</v>
       </c>
       <c r="Z56">
-        <v>0.005405972626032545</v>
+        <v>0.0001122830573914803</v>
+      </c>
+      <c r="AA56">
+        <v>0.005505173968427976</v>
       </c>
       <c r="AB56">
-        <v>6.620520981106318E-05</v>
-      </c>
-      <c r="AC56">
-        <v>0.005514827639273772</v>
-      </c>
-      <c r="AD56">
-        <v>3.801968761636912E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+        <v>5.468017786783535E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.079451526154767E-05</v>
+        <v>5.574871403834935E-06</v>
       </c>
       <c r="C57">
-        <v>0.03387473102055857</v>
+        <v>0.03382680692953871</v>
       </c>
       <c r="D57">
-        <v>9.017363097256084E-05</v>
+        <v>0.0001652056086824073</v>
       </c>
       <c r="E57">
-        <v>0.03851814977477341</v>
+        <v>0.03614176903042839</v>
       </c>
       <c r="F57">
-        <v>9.719185314876718</v>
+        <v>3.897275183769457</v>
       </c>
       <c r="S57">
         <v>8.382011199910874E-05</v>
@@ -3513,51 +3333,48 @@
         <v>0.001451620765119946</v>
       </c>
       <c r="U57">
-        <v>1.057254658480099</v>
+        <v>0.1575</v>
       </c>
       <c r="V57">
-        <v>0.1575</v>
+        <v>7.790585357387327</v>
       </c>
       <c r="W57">
-        <v>7.853227863667663</v>
+        <v>9.668040736671822</v>
       </c>
       <c r="X57">
-        <v>9.379701224108025</v>
+        <v>8.586947159577502</v>
       </c>
       <c r="Y57">
-        <v>8.691325218736843</v>
+        <v>0.005485223640097105</v>
       </c>
       <c r="Z57">
-        <v>0.005524634124170799</v>
+        <v>0.000113722108957559</v>
+      </c>
+      <c r="AA57">
+        <v>0.005626296052662646</v>
       </c>
       <c r="AB57">
-        <v>6.702524854347862E-05</v>
-      </c>
-      <c r="AC57">
-        <v>0.005636534482643936</v>
-      </c>
-      <c r="AD57">
-        <v>3.860597600904884E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>5.577798981817936E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.076814872873049E-05</v>
+        <v>5.540345966552693E-06</v>
       </c>
       <c r="C58">
-        <v>0.03464256187032189</v>
+        <v>0.03459184332319454</v>
       </c>
       <c r="D58">
-        <v>9.264936562682416E-05</v>
+        <v>0.0001701421287328766</v>
       </c>
       <c r="E58">
-        <v>0.03947923241703515</v>
+        <v>0.0369922615297439</v>
       </c>
       <c r="F58">
-        <v>9.719165806553754</v>
+        <v>3.897255675446493</v>
       </c>
       <c r="S58">
         <v>8.218692997434879E-05</v>
@@ -3566,51 +3383,48 @@
         <v>0.001459838530929836</v>
       </c>
       <c r="U58">
-        <v>1.057801659311574</v>
+        <v>0.154</v>
       </c>
       <c r="V58">
-        <v>0.154</v>
+        <v>7.786963273458984</v>
       </c>
       <c r="W58">
-        <v>7.850796344784445</v>
+        <v>9.669163432963984</v>
       </c>
       <c r="X58">
-        <v>9.382467862333092</v>
+        <v>8.590897753517003</v>
       </c>
       <c r="Y58">
-        <v>8.697256697014241</v>
+        <v>0.005607303220350276</v>
       </c>
       <c r="Z58">
-        <v>0.005648670689525966</v>
+        <v>0.000115243626178145</v>
+      </c>
+      <c r="AA58">
+        <v>0.005752898735909112</v>
       </c>
       <c r="AB58">
-        <v>6.788855211267426E-05</v>
-      </c>
-      <c r="AC58">
-        <v>0.005763760130522003</v>
-      </c>
-      <c r="AD58">
-        <v>3.922307365205895E-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30">
+        <v>5.693169574650381E-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.074048057676942E-05</v>
+        <v>5.504216428842953E-06</v>
       </c>
       <c r="C59">
-        <v>0.03544604820764038</v>
+        <v>0.0353923480021355</v>
       </c>
       <c r="D59">
-        <v>9.526200617454479E-05</v>
+        <v>0.0001753773082073756</v>
       </c>
       <c r="E59">
-        <v>0.04048846086214717</v>
+        <v>0.03788298125669529</v>
       </c>
       <c r="F59">
-        <v>9.719145992092654</v>
+        <v>3.897235860985394</v>
       </c>
       <c r="S59">
         <v>8.054909777073181E-05</v>
@@ -3619,51 +3433,48 @@
         <v>0.001468294296838296</v>
       </c>
       <c r="U59">
-        <v>1.058366678586006</v>
+        <v>0.1505</v>
       </c>
       <c r="V59">
-        <v>0.1505</v>
+        <v>7.783315466730171</v>
       </c>
       <c r="W59">
-        <v>7.848324150399174</v>
+        <v>9.670435363580099</v>
       </c>
       <c r="X59">
-        <v>9.385323251483209</v>
+        <v>8.59495907003331</v>
       </c>
       <c r="Y59">
-        <v>8.703236781895828</v>
+        <v>0.005735025536493814</v>
       </c>
       <c r="Z59">
-        <v>0.005778456320628601</v>
+        <v>0.0001168560490197915</v>
+      </c>
+      <c r="AA59">
+        <v>0.005885363085680335</v>
       </c>
       <c r="AB59">
-        <v>6.879740213205174E-05</v>
-      </c>
-      <c r="AC59">
-        <v>0.00589688889928642</v>
-      </c>
-      <c r="AD59">
-        <v>3.987426730935674E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
+        <v>5.814399589059615E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.071141324668281E-05</v>
+        <v>5.46636986125468E-06</v>
       </c>
       <c r="C60">
-        <v>0.03628773359338956</v>
+        <v>0.03623084730437188</v>
       </c>
       <c r="D60">
-        <v>9.802305014125404E-05</v>
+        <v>0.0001809387327573259</v>
       </c>
       <c r="E60">
-        <v>0.04154947973246584</v>
+        <v>0.03881679949362691</v>
       </c>
       <c r="F60">
-        <v>9.719125856690832</v>
+        <v>3.897215725583572</v>
       </c>
       <c r="S60">
         <v>7.890649339479497E-05</v>
@@ -3672,51 +3483,48 @@
         <v>0.00147700076376358</v>
       </c>
       <c r="U60">
-        <v>1.058950751297431</v>
+        <v>0.147</v>
       </c>
       <c r="V60">
-        <v>0.147</v>
+        <v>7.779631774473955</v>
       </c>
       <c r="W60">
-        <v>7.845814142743205</v>
+        <v>9.671823951994721</v>
       </c>
       <c r="X60">
-        <v>9.388244007662763</v>
+        <v>8.599092294301872</v>
       </c>
       <c r="Y60">
-        <v>8.709252821216484</v>
+        <v>0.005868791476671766</v>
       </c>
       <c r="Z60">
-        <v>0.005914400580592803</v>
+        <v>0.0001185650172571128</v>
+      </c>
+      <c r="AA60">
+        <v>0.006024106397341994</v>
       </c>
       <c r="AB60">
-        <v>6.975427867516615E-05</v>
-      </c>
-      <c r="AC60">
-        <v>0.006036341628619205</v>
-      </c>
-      <c r="AD60">
-        <v>4.056301153385585E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
+        <v>5.942288883023057E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.068083928173184E-05</v>
+        <v>5.426682603406659E-06</v>
       </c>
       <c r="C61">
-        <v>0.03717040946029806</v>
+        <v>0.03711011336709419</v>
       </c>
       <c r="D61">
-        <v>0.0001009453031064791</v>
+        <v>0.0001868574603715628</v>
       </c>
       <c r="E61">
-        <v>0.04266630490539664</v>
+        <v>0.03979686251955551</v>
       </c>
       <c r="F61">
-        <v>9.719105384423196</v>
+        <v>3.897195253315936</v>
       </c>
       <c r="S61">
         <v>7.725898869015573E-05</v>
@@ -3725,51 +3533,48 @@
         <v>0.001485971636046089</v>
       </c>
       <c r="U61">
-        <v>1.05955499844715</v>
+        <v>0.1435</v>
       </c>
       <c r="V61">
-        <v>0.1435</v>
+        <v>7.775915279946648</v>
       </c>
       <c r="W61">
-        <v>7.843260325272222</v>
+        <v>9.673375672862809</v>
       </c>
       <c r="X61">
-        <v>9.391264106215232</v>
+        <v>8.603336807231832</v>
       </c>
       <c r="Y61">
-        <v>8.715326769966465</v>
+        <v>0.006009040902511148</v>
       </c>
       <c r="Z61">
-        <v>0.006056952929420063</v>
+        <v>0.0001203811478165412</v>
+      </c>
+      <c r="AA61">
+        <v>0.006169586482915451</v>
       </c>
       <c r="AB61">
-        <v>7.076367229103544E-05</v>
-      </c>
-      <c r="AC61">
-        <v>0.006182580131474946</v>
-      </c>
-      <c r="AD61">
-        <v>4.12910849863357E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
+        <v>6.077160542027034E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.064864010812604E-05</v>
+        <v>5.385019050751961E-06</v>
       </c>
       <c r="C62">
-        <v>0.03809714606422784</v>
+        <v>0.03803319476476225</v>
       </c>
       <c r="D62">
-        <v>0.0001040430677231445</v>
+        <v>0.0001931685790871746</v>
       </c>
       <c r="E62">
-        <v>0.04384337129232446</v>
+        <v>0.04082662476624038</v>
       </c>
       <c r="F62">
-        <v>9.719084558125612</v>
+        <v>3.897174427018352</v>
       </c>
       <c r="S62">
         <v>7.560644888586979E-05</v>
@@ -3778,51 +3583,48 @@
         <v>0.001495221728164436</v>
       </c>
       <c r="U62">
-        <v>1.060180636482025</v>
+        <v>0.14</v>
       </c>
       <c r="V62">
-        <v>0.14</v>
+        <v>7.772156842909232</v>
       </c>
       <c r="W62">
-        <v>7.840661552719915</v>
+        <v>9.675064578999706</v>
       </c>
       <c r="X62">
-        <v>9.394351918011814</v>
+        <v>8.607660316788836</v>
       </c>
       <c r="Y62">
-        <v>8.721442260098129</v>
+        <v>0.006156257396378513</v>
       </c>
       <c r="Z62">
-        <v>0.006206607660848288</v>
+        <v>0.0001223121972057405</v>
+      </c>
+      <c r="AA62">
+        <v>0.006322306854852831</v>
       </c>
       <c r="AB62">
-        <v>7.182853998777356E-05</v>
-      </c>
-      <c r="AC62">
-        <v>0.006336112357637161</v>
-      </c>
-      <c r="AD62">
-        <v>4.206283067906308E-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
+        <v>6.219918147030933E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.061468458464937E-05</v>
+        <v>5.341230210308361E-06</v>
       </c>
       <c r="C63">
-        <v>0.03907132819234335</v>
+        <v>0.03900345184644623</v>
       </c>
       <c r="D63">
-        <v>0.000107332366566105</v>
+        <v>0.0001999118770997577</v>
       </c>
       <c r="E63">
-        <v>0.04508558806428302</v>
+        <v>0.0419098867741575</v>
       </c>
       <c r="F63">
-        <v>9.719063359264929</v>
+        <v>3.89715322815767</v>
       </c>
       <c r="S63">
         <v>7.394873196436384E-05</v>
@@ -3831,51 +3633,48 @@
         <v>0.001504767082570388</v>
       </c>
       <c r="U63">
-        <v>1.060828988226869</v>
+        <v>0.1365</v>
       </c>
       <c r="V63">
-        <v>0.1365</v>
+        <v>7.76836037053801</v>
       </c>
       <c r="W63">
-        <v>7.838013158582014</v>
+        <v>9.676926450128972</v>
       </c>
       <c r="X63">
-        <v>9.397500555866808</v>
+        <v>8.612089936126937</v>
       </c>
       <c r="Y63">
-        <v>8.727597775070608</v>
+        <v>0.006310973939947047</v>
       </c>
       <c r="Z63">
-        <v>0.006363909689588301</v>
+        <v>0.0001243703736814299</v>
+      </c>
+      <c r="AA63">
+        <v>0.006482822436221614</v>
       </c>
       <c r="AB63">
-        <v>7.295291279975468E-05</v>
-      </c>
-      <c r="AC63">
-        <v>0.006497498242943779</v>
-      </c>
-      <c r="AD63">
-        <v>4.288208182076982E-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
+        <v>6.371115526817705E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.057882728890017E-05</v>
+        <v>5.29515199963E-06</v>
       </c>
       <c r="C64">
-        <v>0.04009669650354802</v>
+        <v>0.04002459763511324</v>
       </c>
       <c r="D64">
-        <v>0.0001108312058676606</v>
+        <v>0.000207132651944803</v>
       </c>
       <c r="E64">
-        <v>0.04639840266636984</v>
+        <v>0.04305083875093653</v>
       </c>
       <c r="F64">
-        <v>9.719041767788548</v>
+        <v>3.897131636681288</v>
       </c>
       <c r="S64">
         <v>7.228568816448616E-05</v>
@@ -3884,51 +3683,48 @@
         <v>0.001514625108421502</v>
       </c>
       <c r="U64">
-        <v>1.061501495096149</v>
+        <v>0.133</v>
       </c>
       <c r="V64">
-        <v>0.133</v>
+        <v>7.764515604067108</v>
       </c>
       <c r="W64">
-        <v>7.835311631039903</v>
+        <v>9.678939420109124</v>
       </c>
       <c r="X64">
-        <v>9.400690699234952</v>
+        <v>8.616599148322591</v>
       </c>
       <c r="Y64">
-        <v>8.733785741831564</v>
+        <v>0.006473779296954037</v>
       </c>
       <c r="Z64">
-        <v>0.006529461183714316</v>
+        <v>0.0001265660995472538</v>
+      </c>
+      <c r="AA64">
+        <v>0.006651746417299336</v>
       </c>
       <c r="AB64">
-        <v>7.414091559564636E-05</v>
-      </c>
-      <c r="AC64">
-        <v>0.006667356562973331</v>
-      </c>
-      <c r="AD64">
-        <v>4.37535275576237E-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
+        <v>6.531807564327626E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.054090655792401E-05</v>
+        <v>5.246603337605134E-06</v>
       </c>
       <c r="C65">
-        <v>0.04117739556564749</v>
+        <v>0.04110074533736104</v>
       </c>
       <c r="D65">
-        <v>0.0001145598885208068</v>
+        <v>0.0002148826900189627</v>
       </c>
       <c r="E65">
-        <v>0.04778787533202718</v>
+        <v>0.04425411076216972</v>
       </c>
       <c r="F65">
-        <v>9.719019761953614</v>
+        <v>3.897109630846354</v>
       </c>
       <c r="S65">
         <v>7.061715937647952E-05</v>
@@ -3937,51 +3733,48 @@
         <v>0.001524814738821417</v>
       </c>
       <c r="U65">
-        <v>1.06219973114997</v>
+        <v>0.1295</v>
       </c>
       <c r="V65">
-        <v>0.1295</v>
+        <v>7.760622266950829</v>
       </c>
       <c r="W65">
-        <v>7.832558437947888</v>
+        <v>9.681139682964515</v>
       </c>
       <c r="X65">
-        <v>9.403934796198907</v>
+        <v>8.621212878810557</v>
       </c>
       <c r="Y65">
-        <v>8.740016647286904</v>
+        <v>0.006645325599586653</v>
       </c>
       <c r="Z65">
-        <v>0.006703929299068875</v>
+        <v>0.0001289144781579584</v>
+      </c>
+      <c r="AA65">
+        <v>0.006829757994100852</v>
       </c>
       <c r="AB65">
-        <v>7.539818828578383E-05</v>
-      </c>
-      <c r="AC65">
-        <v>0.006846372861227809</v>
-      </c>
-      <c r="AD65">
-        <v>4.468124369268187E-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
+        <v>6.702779282474834E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.050074223020959E-05</v>
+        <v>5.195383982894366E-06</v>
       </c>
       <c r="C66">
-        <v>0.04231802989001211</v>
+        <v>0.04223646374423166</v>
       </c>
       <c r="D66">
-        <v>0.0001185413874287043</v>
+        <v>0.0002232214599377025</v>
       </c>
       <c r="E66">
-        <v>0.04926076614069487</v>
+        <v>0.04552483074113441</v>
       </c>
       <c r="F66">
-        <v>9.718997318134615</v>
+        <v>3.897087187027356</v>
       </c>
       <c r="S66">
         <v>6.894297829454419E-05</v>
@@ -3990,51 +3783,48 @@
         <v>0.001535356606367611</v>
       </c>
       <c r="U66">
-        <v>1.06292541952674</v>
+        <v>0.126</v>
       </c>
       <c r="V66">
-        <v>0.126</v>
+        <v>7.756672967432989</v>
       </c>
       <c r="W66">
-        <v>7.829747273163611</v>
+        <v>9.683509487619997</v>
       </c>
       <c r="X66">
-        <v>9.407226997043926</v>
+        <v>8.62590890118503</v>
       </c>
       <c r="Y66">
-        <v>8.746291303274186</v>
+        <v>0.006826337019626338</v>
       </c>
       <c r="Z66">
-        <v>0.006888055163257294</v>
+        <v>0.0001314293527025958</v>
+      </c>
+      <c r="AA66">
+        <v>0.007017611610802965</v>
       </c>
       <c r="AB66">
-        <v>7.673043926222133E-05</v>
-      </c>
-      <c r="AC66">
-        <v>0.007035308739492675</v>
-      </c>
-      <c r="AD66">
-        <v>4.56704742827124E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+        <v>6.885300461490996E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.045813290260875E-05</v>
+        <v>5.141271901161304E-06</v>
       </c>
       <c r="C67">
-        <v>0.0435237295615145</v>
+        <v>0.04343684209521148</v>
       </c>
       <c r="D67">
-        <v>0.000122801794234369</v>
+        <v>0.0002322175830759603</v>
       </c>
       <c r="E67">
-        <v>0.05082463696130281</v>
+        <v>0.04686869159963947</v>
       </c>
       <c r="F67">
-        <v>9.718974410597376</v>
+        <v>3.897064279490115</v>
       </c>
       <c r="S67">
         <v>6.726296779300381E-05</v>
@@ -4043,51 +3833,48 @@
         <v>0.001546273253185966</v>
       </c>
       <c r="U67">
-        <v>1.06368045091821</v>
+        <v>0.1225</v>
       </c>
       <c r="V67">
-        <v>0.1225</v>
+        <v>7.752665911182987</v>
       </c>
       <c r="W67">
-        <v>7.826874148299385</v>
+        <v>9.686068475694196</v>
       </c>
       <c r="X67">
-        <v>9.410521586157099</v>
+        <v>8.630698566775802</v>
       </c>
       <c r="Y67">
-        <v>8.752590157802658</v>
+        <v>0.007017620095824159</v>
       </c>
       <c r="Z67">
-        <v>0.007082664441085724</v>
+        <v>0.0001341289066524496</v>
+      </c>
+      <c r="AA67">
+        <v>0.007216147570979768</v>
       </c>
       <c r="AB67">
-        <v>7.814270441205226E-05</v>
-      </c>
-      <c r="AC67">
-        <v>0.007235012689927245</v>
-      </c>
-      <c r="AD67">
-        <v>4.672841335921391E-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
+        <v>7.080558043525581E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.041285284753731E-05</v>
+        <v>5.084020406532391E-06</v>
       </c>
       <c r="C68">
-        <v>0.04480022743702274</v>
+        <v>0.0447075663455684</v>
       </c>
       <c r="D68">
-        <v>0.0001273708593067505</v>
+        <v>0.0002419506447278077</v>
       </c>
       <c r="E68">
-        <v>0.05248797153145722</v>
+        <v>0.04829202936229979</v>
       </c>
       <c r="F68">
-        <v>9.718951011244444</v>
+        <v>3.897040880137185</v>
       </c>
       <c r="S68">
         <v>6.557693988785649E-05</v>
@@ -4096,51 +3883,48 @@
         <v>0.00155758936430767</v>
       </c>
       <c r="U68">
-        <v>1.064466905509875</v>
+        <v>0.119</v>
       </c>
       <c r="V68">
-        <v>0.119</v>
+        <v>7.748595620932107</v>
       </c>
       <c r="W68">
-        <v>7.823937672121097</v>
+        <v>9.688804072810365</v>
       </c>
       <c r="X68">
-        <v>9.413811810040672</v>
+        <v>8.635564342841779</v>
       </c>
       <c r="Y68">
-        <v>8.758915882699291</v>
+        <v>0.007220075719035092</v>
       </c>
       <c r="Z68">
-        <v>0.007288679786282008</v>
+        <v>0.0001370316647853383</v>
+      </c>
+      <c r="AA68">
+        <v>0.007426304688348723</v>
       </c>
       <c r="AB68">
-        <v>7.964208065036545E-05</v>
-      </c>
-      <c r="AC68">
-        <v>0.007446432815708658</v>
-      </c>
-      <c r="AD68">
-        <v>4.786169384467163E-05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
+        <v>7.290150281244028E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.036464825772871E-05</v>
+        <v>5.023354680194713E-06</v>
       </c>
       <c r="C69">
-        <v>0.04615395036362019</v>
+        <v>0.04605500924559387</v>
       </c>
       <c r="D69">
-        <v>0.0001322826478116828</v>
+        <v>0.0002525134573511909</v>
       </c>
       <c r="E69">
-        <v>0.05426031719850644</v>
+        <v>0.04980191415255637</v>
       </c>
       <c r="F69">
-        <v>9.718927089315974</v>
+        <v>3.897016958208714</v>
       </c>
       <c r="S69">
         <v>6.388469484401596E-05</v>
@@ -4149,51 +3933,48 @@
         <v>0.001569332045290062</v>
       </c>
       <c r="U69">
-        <v>1.065287078073001</v>
+        <v>0.1155</v>
       </c>
       <c r="V69">
-        <v>0.1155</v>
+        <v>7.744454325446186</v>
       </c>
       <c r="W69">
-        <v>7.820929409660357</v>
+        <v>9.691752010444826</v>
       </c>
       <c r="X69">
-        <v>9.417088475182158</v>
+        <v>8.640531540743511</v>
       </c>
       <c r="Y69">
-        <v>8.765271211378979</v>
+        <v>0.007434713417648721</v>
       </c>
       <c r="Z69">
-        <v>0.007507135474331452</v>
+        <v>0.0001401622562994402</v>
+      </c>
+      <c r="AA69">
+        <v>0.007649135087910429</v>
       </c>
       <c r="AB69">
-        <v>8.123652288493818E-05</v>
-      </c>
-      <c r="AC69">
-        <v>0.007670631940613627</v>
-      </c>
-      <c r="AD69">
-        <v>4.907783565284173E-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+        <v>7.515566537940555E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.031323282323516E-05</v>
+        <v>4.958967748557906E-06</v>
       </c>
       <c r="C70">
-        <v>0.0475921274797392</v>
+        <v>0.04748633723897645</v>
       </c>
       <c r="D70">
-        <v>0.0001375763402519105</v>
+        <v>0.0002640149029286814</v>
       </c>
       <c r="E70">
-        <v>0.05615245308666216</v>
+        <v>0.05140625665144342</v>
       </c>
       <c r="F70">
-        <v>9.718902611045348</v>
+        <v>3.896992479938087</v>
       </c>
       <c r="S70">
         <v>6.21860200012941E-05</v>
@@ -4202,51 +3983,48 @@
         <v>0.001581531140528026</v>
       </c>
       <c r="U70">
-        <v>1.066143507565273</v>
+        <v>0.112</v>
       </c>
       <c r="V70">
-        <v>0.112</v>
+        <v>7.740237528201996</v>
       </c>
       <c r="W70">
-        <v>7.817848241932242</v>
+        <v>9.69490130003345</v>
       </c>
       <c r="X70">
-        <v>9.420332058201128</v>
+        <v>8.645586436125402</v>
       </c>
       <c r="Y70">
-        <v>8.771654794097588</v>
+        <v>0.007662668141440886</v>
       </c>
       <c r="Z70">
-        <v>0.007739194816564156</v>
+        <v>0.0001435457666294374</v>
+      </c>
+      <c r="AA70">
+        <v>0.007885821944864525</v>
       </c>
       <c r="AB70">
-        <v>8.293468552163077E-05</v>
-      </c>
-      <c r="AC70">
-        <v>0.007908805506393652</v>
-      </c>
-      <c r="AD70">
-        <v>5.038573041733467E-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+        <v>7.758879170823805E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.025828252184004E-05</v>
+        <v>4.890515853434196E-06</v>
       </c>
       <c r="C71">
-        <v>0.04912291945198072</v>
+        <v>0.04900963795949412</v>
       </c>
       <c r="D71">
-        <v>0.0001432972152186605</v>
+        <v>0.0002765835322000852</v>
       </c>
       <c r="E71">
-        <v>0.05817659047640839</v>
+        <v>0.05311393310342446</v>
       </c>
       <c r="F71">
-        <v>9.718877539255679</v>
+        <v>3.896967408148419</v>
       </c>
       <c r="S71">
         <v>6.048068854223027E-05</v>
@@ -4255,51 +4033,48 @@
         <v>0.001594219607875075</v>
       </c>
       <c r="U71">
-        <v>1.067039011721076</v>
+        <v>0.1085</v>
       </c>
       <c r="V71">
-        <v>0.1085</v>
+        <v>7.735937638792601</v>
       </c>
       <c r="W71">
-        <v>7.81468774790476</v>
+        <v>9.698237660840611</v>
       </c>
       <c r="X71">
-        <v>9.423504340260745</v>
+        <v>8.650716156280154</v>
       </c>
       <c r="Y71">
-        <v>8.778058628976835</v>
+        <v>0.007905220476112224</v>
       </c>
       <c r="Z71">
-        <v>0.007986170949823592</v>
+        <v>0.0001472112416389143</v>
+      </c>
+      <c r="AA71">
+        <v>0.008137700433676018</v>
       </c>
       <c r="AB71">
-        <v>8.474577242625322E-05</v>
-      </c>
-      <c r="AC71">
-        <v>0.008162302918521921</v>
-      </c>
-      <c r="AD71">
-        <v>5.179596617997691E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <v>8.022504996281301E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.019942933680588E-05</v>
+        <v>4.81761294947499E-06</v>
       </c>
       <c r="C72">
-        <v>0.05075557352653946</v>
+        <v>0.0506340731070706</v>
       </c>
       <c r="D72">
-        <v>0.0001494978655148426</v>
+        <v>0.000290372173724404</v>
       </c>
       <c r="E72">
-        <v>0.06034661256436783</v>
+        <v>0.05493493249801698</v>
       </c>
       <c r="F72">
-        <v>9.718851832887847</v>
+        <v>3.896941701780587</v>
       </c>
       <c r="S72">
         <v>5.87684580444129E-05</v>
@@ -4308,51 +4083,48 @@
         <v>0.001607433957012184</v>
       </c>
       <c r="U72">
-        <v>1.067976727949667</v>
+        <v>0.105</v>
       </c>
       <c r="V72">
-        <v>0.105</v>
+        <v>7.731547191511102</v>
       </c>
       <c r="W72">
-        <v>7.811442394841652</v>
+        <v>9.701788202345124</v>
       </c>
       <c r="X72">
-        <v>9.426623440909738</v>
+        <v>8.65594154293305</v>
       </c>
       <c r="Y72">
-        <v>8.784504919805338</v>
+        <v>0.008163820783927999</v>
       </c>
       <c r="Z72">
-        <v>0.008249551789070171</v>
+        <v>0.000151195446010967</v>
+      </c>
+      <c r="AA72">
+        <v>0.008406282946466458</v>
       </c>
       <c r="AB72">
-        <v>8.668249045403281E-05</v>
-      </c>
-      <c r="AC72">
-        <v>0.008432653150266653</v>
-      </c>
-      <c r="AD72">
-        <v>5.331861774267752E-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
+        <v>8.308986600728822E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.013625372793201E-05</v>
+        <v>4.739824253224439E-06</v>
       </c>
       <c r="C73">
-        <v>0.05250061061829892</v>
+        <v>0.05237006279442734</v>
       </c>
       <c r="D73">
-        <v>0.0001562397133074117</v>
+        <v>0.0003055638920429402</v>
       </c>
       <c r="E73">
-        <v>0.06267836274778354</v>
+        <v>0.05688053054887039</v>
       </c>
       <c r="F73">
-        <v>9.718825446445072</v>
+        <v>3.896915315337813</v>
       </c>
       <c r="S73">
         <v>5.704906881183316E-05</v>
@@ -4361,51 +4133,48 @@
         <v>0.001621214765954378</v>
       </c>
       <c r="U73">
-        <v>1.068960161888824</v>
+        <v>0.1015</v>
       </c>
       <c r="V73">
-        <v>0.1015</v>
+        <v>7.727056352846281</v>
       </c>
       <c r="W73">
-        <v>7.808104180294359</v>
+        <v>9.705521883251407</v>
       </c>
       <c r="X73">
-        <v>9.429483014851069</v>
+        <v>8.661242867085418</v>
       </c>
       <c r="Y73">
-        <v>8.790911281890997</v>
+        <v>0.008440118209373413</v>
       </c>
       <c r="Z73">
-        <v>0.008531030040746587</v>
+        <v>0.0001555372885039953</v>
+      </c>
+      <c r="AA73">
+        <v>0.008693289604413325</v>
       </c>
       <c r="AB73">
-        <v>8.875067558196285E-05</v>
-      </c>
-      <c r="AC73">
-        <v>0.008721595720353685</v>
-      </c>
-      <c r="AD73">
-        <v>5.497285772793103E-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+        <v>8.621719162135074E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.006827553419773E-05</v>
+        <v>4.65665861854196E-06</v>
       </c>
       <c r="C74">
-        <v>0.05437005243633432</v>
+        <v>0.05422950918379821</v>
       </c>
       <c r="D74">
-        <v>0.0001635949130736723</v>
+        <v>0.0003223797790139354</v>
       </c>
       <c r="E74">
-        <v>0.0651899928924996</v>
+        <v>0.05896349604420514</v>
       </c>
       <c r="F74">
-        <v>9.71879832933304</v>
+        <v>3.89688819822578</v>
       </c>
       <c r="S74">
         <v>5.532224205447891E-05</v>
@@ -4414,51 +4183,48 @@
         <v>0.001635607296693763</v>
       </c>
       <c r="U74">
-        <v>1.069993245134052</v>
+        <v>0.098</v>
       </c>
       <c r="V74">
-        <v>0.098</v>
+        <v>7.722458704267134</v>
       </c>
       <c r="W74">
-        <v>7.804669537576172</v>
+        <v>9.709419789803329</v>
       </c>
       <c r="X74">
-        <v>9.432239033389777</v>
+        <v>8.66661707730759</v>
       </c>
       <c r="Y74">
-        <v>8.797376127868016</v>
+        <v>0.008735996099404463</v>
       </c>
       <c r="Z74">
-        <v>0.008832540018073895</v>
+        <v>0.0001602839091208914</v>
+      </c>
+      <c r="AA74">
+        <v>0.009000685047727323</v>
       </c>
       <c r="AB74">
-        <v>9.097187482756692E-05</v>
-      </c>
-      <c r="AC74">
-        <v>0.009031117965447463</v>
-      </c>
-      <c r="AD74">
-        <v>5.676743197553898E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
+        <v>8.964597195730805E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.994943006739561E-06</v>
+        <v>4.56755960638243E-06</v>
       </c>
       <c r="C75">
-        <v>0.05637769901126991</v>
+        <v>0.05622606953212356</v>
       </c>
       <c r="D75">
-        <v>0.0001716487608627196</v>
+        <v>0.0003410892612537615</v>
       </c>
       <c r="E75">
-        <v>0.06790238630529027</v>
+        <v>0.06119833660006254</v>
       </c>
       <c r="F75">
-        <v>9.718770425074352</v>
+        <v>3.896860293967092</v>
       </c>
       <c r="S75">
         <v>5.358767776463315E-05</v>
@@ -4467,51 +4233,48 @@
         <v>0.001650662228950848</v>
       </c>
       <c r="U75">
-        <v>1.071080404548407</v>
+        <v>0.0945</v>
       </c>
       <c r="V75">
-        <v>0.0945</v>
+        <v>7.717741076236521</v>
       </c>
       <c r="W75">
-        <v>7.801129581427563</v>
+        <v>9.713444824978975</v>
       </c>
       <c r="X75">
-        <v>9.434656852892083</v>
+        <v>8.672055551303876</v>
       </c>
       <c r="Y75">
-        <v>8.80381878325476</v>
+        <v>0.009053615069414966</v>
       </c>
       <c r="Z75">
-        <v>0.009156301801157092</v>
+        <v>0.0001654900420171257</v>
+      </c>
+      <c r="AA75">
+        <v>0.009330723532015103</v>
       </c>
       <c r="AB75">
-        <v>9.335486903649004E-05</v>
-      </c>
-      <c r="AC75">
-        <v>0.009363501318539018</v>
-      </c>
-      <c r="AD75">
-        <v>5.872654654066018E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+        <v>9.342374179854203E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.913630849613504E-06</v>
+        <v>4.468981579957532E-06</v>
       </c>
       <c r="C76">
-        <v>0.0585394701747471</v>
+        <v>0.05837549185023394</v>
       </c>
       <c r="D76">
-        <v>0.0001805319657379942</v>
+        <v>0.0003622382353339946</v>
       </c>
       <c r="E76">
-        <v>0.07083695774076947</v>
+        <v>0.06359801953470678</v>
       </c>
       <c r="F76">
-        <v>9.717052018253275</v>
+        <v>3.895141887146016</v>
       </c>
       <c r="S76">
         <v>5.184505218594251E-05</v>
@@ -4520,51 +4283,48 @@
         <v>0.00390408393484965</v>
       </c>
       <c r="U76">
-        <v>1.072226646126369</v>
+        <v>0.091</v>
       </c>
       <c r="V76">
-        <v>0.091</v>
+        <v>7.712895512446482</v>
       </c>
       <c r="W76">
-        <v>7.797475971778628</v>
+        <v>9.717957476338709</v>
       </c>
       <c r="X76">
-        <v>9.436940651183557</v>
+        <v>8.677635188748267</v>
       </c>
       <c r="Y76">
-        <v>8.810295355343326</v>
+        <v>0.00939546603200719</v>
       </c>
       <c r="Z76">
-        <v>0.009504876683161731</v>
+        <v>0.0001713160352901309</v>
+      </c>
+      <c r="AA76">
+        <v>0.009686004293177277</v>
       </c>
       <c r="AB76">
-        <v>9.593838687813286E-05</v>
-      </c>
-      <c r="AC76">
-        <v>0.009721377271308186</v>
-      </c>
-      <c r="AD76">
-        <v>6.087078092412803E-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+        <v>9.763205096256574E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.822338450928172E-05</v>
+        <v>6.07277633117441E-06</v>
       </c>
       <c r="C77">
-        <v>0.06087382770310747</v>
+        <v>0.06069602199482994</v>
       </c>
       <c r="D77">
-        <v>0.0001046288850330163</v>
+        <v>0.0002571052046204573</v>
       </c>
       <c r="E77">
-        <v>0.07458480086683335</v>
+        <v>0.06493574651534401</v>
       </c>
       <c r="F77">
-        <v>11.71892804321638</v>
+        <v>6.4940699303624</v>
       </c>
       <c r="S77">
         <v>8.957186174354999E-05</v>
@@ -4573,51 +4333,48 @@
         <v>0.001400690197257249</v>
       </c>
       <c r="U77">
-        <v>1.055487705228447</v>
+        <v>0.17</v>
       </c>
       <c r="V77">
-        <v>0.17</v>
+        <v>7.706650966015587</v>
       </c>
       <c r="W77">
-        <v>7.792733917435916</v>
+        <v>9.593053782740636</v>
       </c>
       <c r="X77">
-        <v>8.780732243394962</v>
+        <v>8.698424049314815</v>
       </c>
       <c r="Y77">
-        <v>8.840270239298921</v>
+        <v>0.009764432031875872</v>
       </c>
       <c r="Z77">
-        <v>0.009881234215013074</v>
+        <v>0.0001355881029304602</v>
+      </c>
+      <c r="AA77">
+        <v>0.01006953918286587</v>
       </c>
       <c r="AB77">
-        <v>5.554731399126139E-05</v>
-      </c>
-      <c r="AC77">
-        <v>0.01010779753092355</v>
-      </c>
-      <c r="AD77">
-        <v>4.820951315072313E-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
+        <v>8.222679672713852E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.808090244199914E-05</v>
+        <v>5.998469170729033E-06</v>
       </c>
       <c r="C78">
-        <v>0.06340587765386058</v>
+        <v>0.06321431019442202</v>
       </c>
       <c r="D78">
-        <v>0.0001104715068824765</v>
+        <v>0.0002715099582772812</v>
       </c>
       <c r="E78">
-        <v>0.07813486754448772</v>
+        <v>0.06773812612531113</v>
       </c>
       <c r="F78">
-        <v>11.71890251053053</v>
+        <v>6.494044397676545</v>
       </c>
       <c r="S78">
         <v>8.642515509086922E-05</v>
@@ -4626,51 +4383,48 @@
         <v>0.001415183789580926</v>
       </c>
       <c r="U78">
-        <v>1.056456558707011</v>
+        <v>0.1632</v>
       </c>
       <c r="V78">
-        <v>0.1632</v>
+        <v>7.702436767863498</v>
       </c>
       <c r="W78">
-        <v>7.790162941061492</v>
+        <v>9.594442605282712</v>
       </c>
       <c r="X78">
-        <v>8.777368146874405</v>
+        <v>8.704799257414665</v>
       </c>
       <c r="Y78">
-        <v>8.847884199614517</v>
+        <v>0.0101656338622486</v>
       </c>
       <c r="Z78">
-        <v>0.01029063783588898</v>
+        <v>0.0001396595633655424</v>
+      </c>
+      <c r="AA78">
+        <v>0.01048567719895498</v>
       </c>
       <c r="AB78">
-        <v>5.723824950164656E-05</v>
-      </c>
-      <c r="AC78">
-        <v>0.01052694703166408</v>
-      </c>
-      <c r="AD78">
-        <v>4.991606167628642E-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
+        <v>8.557182720058385E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.792508331204269E-05</v>
+        <v>5.917717855662774E-06</v>
       </c>
       <c r="C79">
-        <v>0.06615785183416398</v>
+        <v>0.06595095368295005</v>
       </c>
       <c r="D79">
-        <v>0.0001169738665598463</v>
+        <v>0.0002875894522868034</v>
       </c>
       <c r="E79">
-        <v>0.08202190759378679</v>
+        <v>0.07078772354084911</v>
       </c>
       <c r="F79">
-        <v>11.71887606741162</v>
+        <v>6.494017954557639</v>
       </c>
       <c r="S79">
         <v>8.326198742245202E-05</v>
@@ -4679,51 +4433,48 @@
         <v>0.001430459657934324</v>
       </c>
       <c r="U79">
-        <v>1.057484885789519</v>
+        <v>0.1564</v>
       </c>
       <c r="V79">
-        <v>0.1564</v>
+        <v>7.698096631422238</v>
       </c>
       <c r="W79">
-        <v>7.78745388686292</v>
+        <v>9.59567774498351</v>
       </c>
       <c r="X79">
-        <v>8.770491631042184</v>
+        <v>8.711315236849492</v>
       </c>
       <c r="Y79">
-        <v>8.85543449762716</v>
+        <v>0.01060154578828699</v>
       </c>
       <c r="Z79">
-        <v>0.01073556825268843</v>
+        <v>0.0001441262966833578</v>
+      </c>
+      <c r="AA79">
+        <v>0.01093785569337909</v>
       </c>
       <c r="AB79">
-        <v>5.905738876679428E-05</v>
-      </c>
-      <c r="AC79">
-        <v>0.01098247011731573</v>
-      </c>
-      <c r="AD79">
-        <v>5.180818505456925E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
+        <v>8.926734694672494E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.775404103281997E-05</v>
+        <v>5.829660812643344E-06</v>
       </c>
       <c r="C80">
-        <v>0.06915970992360053</v>
+        <v>0.06893565205707111</v>
       </c>
       <c r="D80">
-        <v>0.0001242504138341839</v>
+        <v>0.0003056491116811627</v>
       </c>
       <c r="E80">
-        <v>0.08629405297465301</v>
+        <v>0.07411802064386523</v>
       </c>
       <c r="F80">
-        <v>11.71884862668868</v>
+        <v>6.493990513834699</v>
       </c>
       <c r="S80">
         <v>8.008154946601722E-05</v>
@@ -4732,51 +4483,48 @@
         <v>0.001446597237294815</v>
       </c>
       <c r="U80">
-        <v>1.058579186274424</v>
+        <v>0.1496</v>
       </c>
       <c r="V80">
-        <v>0.1496</v>
+        <v>7.693597023271791</v>
       </c>
       <c r="W80">
-        <v>7.784582706490316</v>
+        <v>9.596472577065803</v>
       </c>
       <c r="X80">
-        <v>8.758521725203451</v>
+        <v>8.717897549607358</v>
       </c>
       <c r="Y80">
-        <v>8.862864843472341</v>
+        <v>0.01107688303790534</v>
       </c>
       <c r="Z80">
-        <v>0.01122086420104851</v>
+        <v>0.0001490317645493838</v>
+      </c>
+      <c r="AA80">
+        <v>0.01143097334548965</v>
       </c>
       <c r="AB80">
-        <v>6.101200149723608E-05</v>
-      </c>
-      <c r="AC80">
-        <v>0.01147931838696396</v>
-      </c>
-      <c r="AD80">
-        <v>5.391857953538274E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
+        <v>9.33808909014176E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.756553195034573E-05</v>
+        <v>5.733279040488646E-06</v>
       </c>
       <c r="C81">
-        <v>0.07244711275739893</v>
+        <v>0.07220374743542302</v>
       </c>
       <c r="D81">
-        <v>0.0001324429358234838</v>
+        <v>0.0003260725261029581</v>
       </c>
       <c r="E81">
-        <v>0.09100863906101854</v>
+        <v>0.07776868974173164</v>
       </c>
       <c r="F81">
-        <v>11.7188200881115</v>
+        <v>6.49396197525752</v>
       </c>
       <c r="S81">
         <v>7.688295333202069E-05</v>
@@ -4785,51 +4533,48 @@
         <v>0.001463688165475891</v>
       </c>
       <c r="U81">
-        <v>1.059747011201865</v>
+        <v>0.1428</v>
       </c>
       <c r="V81">
-        <v>0.1428</v>
+        <v>7.688929773652757</v>
       </c>
       <c r="W81">
-        <v>7.781559450099449</v>
+        <v>9.59666924095789</v>
       </c>
       <c r="X81">
-        <v>8.740707938907638</v>
+        <v>8.724595804768647</v>
       </c>
       <c r="Y81">
-        <v>8.870287603518012</v>
+        <v>0.01159725690806515</v>
       </c>
       <c r="Z81">
-        <v>0.01175228573436048</v>
+        <v>0.0001544370857034923</v>
+      </c>
+      <c r="AA81">
+        <v>0.01197085870047004</v>
       </c>
       <c r="AB81">
-        <v>6.311907059087648E-05</v>
-      </c>
-      <c r="AC81">
-        <v>0.01202338504446056</v>
-      </c>
-      <c r="AD81">
-        <v>5.627227077668215E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
+        <v>9.798261138980289E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.735687024652627E-05</v>
+        <v>5.627359489262043E-06</v>
       </c>
       <c r="C82">
-        <v>0.0760628462484777</v>
+        <v>0.07579763118088902</v>
       </c>
       <c r="D82">
-        <v>0.0001417290394152474</v>
+        <v>0.0003493479151481895</v>
       </c>
       <c r="E82">
-        <v>0.09623440666813622</v>
+        <v>0.0817870573336683</v>
       </c>
       <c r="F82">
-        <v>11.71879033562722</v>
+        <v>6.493932222773239</v>
       </c>
       <c r="S82">
         <v>7.36652207470856E-05</v>
@@ -4838,51 +4583,48 @@
         <v>0.001481838856651103</v>
       </c>
       <c r="U82">
-        <v>1.060997193485345</v>
+        <v>0.136</v>
       </c>
       <c r="V82">
-        <v>0.136</v>
+        <v>7.684076244149334</v>
       </c>
       <c r="W82">
-        <v>7.778346153336174</v>
+        <v>9.595746009096262</v>
       </c>
       <c r="X82">
-        <v>8.713642978258731</v>
+        <v>8.731330159203615</v>
       </c>
       <c r="Y82">
-        <v>8.877610489397028</v>
+        <v>0.01216939789918323</v>
       </c>
       <c r="Z82">
-        <v>0.01233674406754896</v>
+        <v>0.000160393997993732</v>
+      </c>
+      <c r="AA82">
+        <v>0.01256450250492405</v>
       </c>
       <c r="AB82">
-        <v>6.53817743960502E-05</v>
-      </c>
-      <c r="AC82">
-        <v>0.01262174068314476</v>
-      </c>
-      <c r="AD82">
-        <v>5.891863558898455E-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
+        <v>0.0001031750543340531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.712481914785916E-05</v>
+        <v>5.510447824988881E-06</v>
       </c>
       <c r="C83">
-        <v>0.08005869452263889</v>
+        <v>0.07976859345803326</v>
       </c>
       <c r="D83">
-        <v>0.0001523339380794091</v>
+        <v>0.0003761060559624167</v>
       </c>
       <c r="E83">
-        <v>0.1020543315822613</v>
+        <v>0.08622999164184668</v>
       </c>
       <c r="F83">
-        <v>11.71875923391645</v>
+        <v>6.493901121062464</v>
       </c>
       <c r="S83">
         <v>7.042726882980028E-05</v>
@@ -4891,51 +4633,48 @@
         <v>0.001501173780099354</v>
       </c>
       <c r="U83">
-        <v>1.062340143853468</v>
+        <v>0.1292</v>
       </c>
       <c r="V83">
-        <v>0.1292</v>
+        <v>7.679011399704861</v>
       </c>
       <c r="W83">
-        <v>7.774943800202238</v>
+        <v>9.593305103947195</v>
       </c>
       <c r="X83">
-        <v>8.673510165154116</v>
+        <v>8.738200318832423</v>
       </c>
       <c r="Y83">
-        <v>8.884873374441741</v>
+        <v>0.01280145073608794</v>
       </c>
       <c r="Z83">
-        <v>0.0129826052408728</v>
+        <v>0.0001669755049072397</v>
+      </c>
+      <c r="AA83">
+        <v>0.01322036184442879</v>
       </c>
       <c r="AB83">
-        <v>6.781099915394383E-05</v>
-      </c>
-      <c r="AC83">
-        <v>0.01328294184354243</v>
-      </c>
-      <c r="AD83">
-        <v>6.19062709335219E-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
+        <v>0.0001090683291463257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.686545079729607E-05</v>
+        <v>5.380787386850404E-06</v>
       </c>
       <c r="C84">
-        <v>0.08449793677733665</v>
+        <v>0.08417928720259277</v>
       </c>
       <c r="D84">
-        <v>0.000164547118090639</v>
+        <v>0.0004071758540501266</v>
       </c>
       <c r="E84">
-        <v>0.1085692863366273</v>
+        <v>0.0911663597688373</v>
       </c>
       <c r="F84">
-        <v>11.71872662393728</v>
+        <v>6.493868511083297</v>
       </c>
       <c r="S84">
         <v>6.716789265884458E-05</v>
@@ -4944,51 +4683,48 @@
         <v>0.00152183968471309</v>
       </c>
       <c r="U84">
-        <v>1.063788235355666</v>
+        <v>0.1224</v>
       </c>
       <c r="V84">
-        <v>0.1224</v>
+        <v>7.673721159400952</v>
       </c>
       <c r="W84">
-        <v>7.771304918901929</v>
+        <v>9.588360826789515</v>
       </c>
       <c r="X84">
-        <v>8.612915597449915</v>
+        <v>8.745170070185917</v>
       </c>
       <c r="Y84">
-        <v>8.892023054028199</v>
+        <v>0.01350336602670909</v>
       </c>
       <c r="Z84">
-        <v>0.01370009380985718</v>
+        <v>0.0001742352350763671</v>
+      </c>
+      <c r="AA84">
+        <v>0.01394876703972226</v>
       </c>
       <c r="AB84">
-        <v>7.041481549556002E-05</v>
-      </c>
-      <c r="AC84">
-        <v>0.01401744381979848</v>
-      </c>
-      <c r="AD84">
-        <v>6.530493358688295E-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30">
+        <v>0.0001158222624399045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.657396414358372E-05</v>
+        <v>5.236239312456106E-06</v>
       </c>
       <c r="C85">
-        <v>0.08945872440435113</v>
+        <v>0.08910705845838941</v>
       </c>
       <c r="D85">
-        <v>0.0001787463754554667</v>
+        <v>0.0004436678944917028</v>
       </c>
       <c r="E85">
-        <v>0.115902809562739</v>
+        <v>0.09668025740617697</v>
       </c>
       <c r="F85">
-        <v>11.71869231710939</v>
+        <v>6.493834204255405</v>
       </c>
       <c r="S85">
         <v>6.388574408902296E-05</v>
@@ -4997,51 +4733,48 @@
         <v>0.001544011123853041</v>
       </c>
       <c r="U85">
-        <v>1.065356309001982</v>
+        <v>0.1156</v>
       </c>
       <c r="V85">
-        <v>0.1156</v>
+        <v>7.668177040234478</v>
       </c>
       <c r="W85">
-        <v>7.76742417443223</v>
+        <v>9.579685443066657</v>
       </c>
       <c r="X85">
-        <v>8.52057166329055</v>
+        <v>8.752342733391581</v>
       </c>
       <c r="Y85">
-        <v>8.899069603157423</v>
+        <v>0.01428743254386396</v>
       </c>
       <c r="Z85">
-        <v>0.01450183963305492</v>
+        <v>0.0001822316715746833</v>
+      </c>
+      <c r="AA85">
+        <v>0.01476246967368005</v>
       </c>
       <c r="AB85">
-        <v>7.322243596898918E-05</v>
-      </c>
-      <c r="AC85">
-        <v>0.01483815787192857</v>
-      </c>
-      <c r="AD85">
-        <v>6.91970195132847E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
+        <v>0.0001236311496750444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.624444725845333E-05</v>
+        <v>5.074177269755548E-06</v>
       </c>
       <c r="C86">
-        <v>0.09503872303115704</v>
+        <v>0.09464852036863296</v>
       </c>
       <c r="D86">
-        <v>0.0001954332554039874</v>
+        <v>0.0004871037931846942</v>
       </c>
       <c r="E86">
-        <v>0.124207355519385</v>
+        <v>0.1028752974712908</v>
       </c>
       <c r="F86">
-        <v>11.71865608762898</v>
+        <v>6.493797974774995</v>
       </c>
       <c r="S86">
         <v>6.057930500307297E-05</v>
@@ -5050,51 +4783,48 @@
         <v>0.001567897766190788</v>
       </c>
       <c r="U86">
-        <v>1.067062349794397</v>
+        <v>0.1088</v>
       </c>
       <c r="V86">
-        <v>0.1088</v>
+        <v>7.662361964398682</v>
       </c>
       <c r="W86">
-        <v>7.763269830531465</v>
+        <v>9.564946386642957</v>
       </c>
       <c r="X86">
-        <v>8.377906419754447</v>
+        <v>8.759678887690598</v>
       </c>
       <c r="Y86">
-        <v>8.905976909129645</v>
+        <v>0.01516900759838203</v>
       </c>
       <c r="Z86">
-        <v>0.01540362820787278</v>
+        <v>0.0001909857297364524</v>
+      </c>
+      <c r="AA86">
+        <v>0.01567739708143035</v>
       </c>
       <c r="AB86">
-        <v>7.630632918125087E-05</v>
-      </c>
-      <c r="AC86">
-        <v>0.01576121792520452</v>
-      </c>
-      <c r="AD86">
-        <v>7.369306104904741E-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30">
+        <v>0.0001327771681399149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.586956589960845E-05</v>
+        <v>4.891347583193205E-06</v>
       </c>
       <c r="C87">
-        <v>0.1013616090162072</v>
+        <v>0.1009259481403295</v>
       </c>
       <c r="D87">
-        <v>0.0002152866223188022</v>
+        <v>0.0005396233749215831</v>
       </c>
       <c r="E87">
-        <v>0.1336725225673323</v>
+        <v>0.1098803644999111</v>
       </c>
       <c r="F87">
-        <v>11.71861766213165</v>
+        <v>6.493759549277665</v>
       </c>
       <c r="S87">
         <v>5.724685389931277E-05</v>
@@ -5103,51 +4833,48 @@
         <v>0.001593754248215588</v>
       </c>
       <c r="U87">
-        <v>1.068928404267912</v>
+        <v>0.102</v>
       </c>
       <c r="V87">
-        <v>0.102</v>
+        <v>7.656243150659663</v>
       </c>
       <c r="W87">
-        <v>7.75880291910647</v>
+        <v>9.540938563184175</v>
       </c>
       <c r="X87">
-        <v>8.162796824585804</v>
+        <v>8.767264924584083</v>
       </c>
       <c r="Y87">
-        <v>8.912577972922353</v>
+        <v>0.01616754238962507</v>
       </c>
       <c r="Z87">
-        <v>0.01642544966645222</v>
+        <v>0.00020053144586382</v>
+      </c>
+      <c r="AA87">
+        <v>0.01671370507564971</v>
       </c>
       <c r="AB87">
-        <v>7.982575486204856E-05</v>
-      </c>
-      <c r="AC87">
-        <v>0.01680705291614822</v>
-      </c>
-      <c r="AD87">
-        <v>7.89522548282243E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30">
+        <v>0.0001436347781833717</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.543681205456469E-05</v>
+        <v>4.687612111588157E-06</v>
       </c>
       <c r="C88">
-        <v>0.1085863463300564</v>
+        <v>0.1080963999092872</v>
       </c>
       <c r="D88">
-        <v>0.0002392828538334922</v>
+        <v>0.0006038699504200789</v>
       </c>
       <c r="E88">
-        <v>0.1445269563892825</v>
+        <v>0.1178660113511368</v>
       </c>
       <c r="F88">
-        <v>11.71653627061741</v>
+        <v>6.491678157763423</v>
       </c>
       <c r="S88">
         <v>5.388642307866247E-05</v>
@@ -5156,646 +4883,610 @@
         <v>0.003947040459233824</v>
       </c>
       <c r="U88">
-        <v>1.070981849916279</v>
+        <v>0.09520000000000002</v>
       </c>
       <c r="V88">
-        <v>0.09520000000000002</v>
+        <v>7.649813095313562</v>
       </c>
       <c r="W88">
-        <v>7.753964045082604</v>
+        <v>9.502484993388245</v>
       </c>
       <c r="X88">
-        <v>7.906286788168051</v>
+        <v>8.775098828421894</v>
       </c>
       <c r="Y88">
-        <v>8.918696405011621</v>
+        <v>0.0173080431713223</v>
       </c>
       <c r="Z88">
-        <v>0.01759299423156581</v>
+        <v>0.0002108452153660636</v>
+      </c>
+      <c r="AA88">
+        <v>0.01789728152546874</v>
       </c>
       <c r="AB88">
-        <v>8.410243413253879E-05</v>
-      </c>
-      <c r="AC88">
-        <v>0.01800191724909965</v>
-      </c>
-      <c r="AD88">
-        <v>8.518948555699628E-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30">
+        <v>0.0001566822872024733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.743960416144326E-05</v>
+        <v>5.831444524404237E-06</v>
       </c>
       <c r="C89">
-        <v>0.1169207358282274</v>
+        <v>0.1163650560599693</v>
       </c>
       <c r="D89">
-        <v>0.0001409832170957995</v>
+        <v>0.0005368247053993842</v>
       </c>
       <c r="E89">
-        <v>0.1587520398187997</v>
+        <v>0.1241240133696772</v>
       </c>
       <c r="F89">
-        <v>16.91875023090746</v>
+        <v>7.520430317109748</v>
       </c>
       <c r="S89">
-        <v>8.962349005336606E-05</v>
+        <v>8.99379112340433E-05</v>
       </c>
       <c r="T89">
-        <v>0.001407785874353942</v>
+        <v>0.001405613609887396</v>
       </c>
       <c r="U89">
-        <v>1.0555495469489</v>
+        <v>0.1703</v>
       </c>
       <c r="V89">
-        <v>0.1703</v>
+        <v>7.642552107461992</v>
       </c>
       <c r="W89">
-        <v>7.746226701040984</v>
+        <v>9.336265031014243</v>
       </c>
       <c r="X89">
-        <v>6.665130934164907</v>
+        <v>8.787591165638931</v>
       </c>
       <c r="Y89">
-        <v>8.927308020762638</v>
+        <v>0.01862321224485739</v>
       </c>
       <c r="Z89">
-        <v>0.01893983206213759</v>
+        <v>0.0001783084636781431</v>
+      </c>
+      <c r="AA89">
+        <v>0.01926194300533537</v>
       </c>
       <c r="AB89">
-        <v>5.031591702483372E-05</v>
-      </c>
-      <c r="AC89">
-        <v>0.01938012707706447</v>
-      </c>
-      <c r="AD89">
-        <v>7.418070448726457E-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30">
+        <v>0.0001422805976548066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.674405324017569E-05</v>
+        <v>5.788733363646857E-06</v>
       </c>
       <c r="C90">
-        <v>0.1266523818791551</v>
+        <v>0.1173992366970637</v>
       </c>
       <c r="D90">
-        <v>0.0001588816459876757</v>
+        <v>0.0005478497498704208</v>
       </c>
       <c r="E90">
-        <v>0.1743753309769079</v>
+        <v>0.1257494338533245</v>
       </c>
       <c r="F90">
-        <v>16.91870987395278</v>
+        <v>7.520390208810703</v>
       </c>
       <c r="S90">
-        <v>8.354708345530955E-05</v>
+        <v>8.386772625173944E-05</v>
       </c>
       <c r="T90">
-        <v>0.001436731279857323</v>
+        <v>0.001434306788257016</v>
       </c>
       <c r="U90">
-        <v>1.057476681624778</v>
+        <v>0.1572</v>
       </c>
       <c r="V90">
-        <v>0.1572</v>
+        <v>7.63709385968995</v>
       </c>
       <c r="W90">
-        <v>7.741350386687766</v>
+        <v>9.353019867516405</v>
       </c>
       <c r="X90">
-        <v>6.643191732255566</v>
+        <v>8.813618006704544</v>
       </c>
       <c r="Y90">
-        <v>8.931844656962046</v>
+        <v>0.02016028755995567</v>
       </c>
       <c r="Z90">
-        <v>0.02051395840756366</v>
+        <v>0.0001897944749277383</v>
+      </c>
+      <c r="AA90">
+        <v>0.02085524820597542</v>
       </c>
       <c r="AB90">
-        <v>5.39594889767381E-05</v>
-      </c>
-      <c r="AC90">
-        <v>0.02098895594144591</v>
-      </c>
-      <c r="AD90">
-        <v>8.085965586206433E-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
+        <v>0.0001514594242103218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.591591670243607E-05</v>
+        <v>5.742973567119512E-06</v>
       </c>
       <c r="C91">
-        <v>0.1381517909912612</v>
+        <v>0.1184519518947861</v>
       </c>
       <c r="D91">
-        <v>0.0001814819377340573</v>
+        <v>0.0005598460956001695</v>
       </c>
       <c r="E91">
-        <v>0.1930175123318512</v>
+        <v>0.127491600090343</v>
       </c>
       <c r="F91">
-        <v>16.91866598086555</v>
+        <v>7.520346618223992</v>
       </c>
       <c r="S91">
-        <v>7.740675767306689E-05</v>
+        <v>7.773409680735491E-05</v>
       </c>
       <c r="T91">
-        <v>0.001468919945793929</v>
+        <v>0.001466189605216202</v>
       </c>
       <c r="U91">
-        <v>1.059649429299284</v>
+        <v>0.1441</v>
       </c>
       <c r="V91">
-        <v>0.1441</v>
+        <v>7.631060819178243</v>
       </c>
       <c r="W91">
-        <v>7.735832963194317</v>
+        <v>9.370214355208828</v>
       </c>
       <c r="X91">
-        <v>6.626951563092131</v>
+        <v>8.841197072682313</v>
       </c>
       <c r="Y91">
-        <v>8.935303523574225</v>
+        <v>0.02197578693132185</v>
       </c>
       <c r="Z91">
-        <v>0.02237395830925338</v>
+        <v>0.0002034497734076645</v>
+      </c>
+      <c r="AA91">
+        <v>0.02273741082249952</v>
       </c>
       <c r="AB91">
-        <v>5.872406785542782E-05</v>
-      </c>
-      <c r="AC91">
-        <v>0.02288969196740807</v>
-      </c>
-      <c r="AD91">
-        <v>8.908237036595954E-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
+        <v>0.0001624583144850945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.491799826028146E-05</v>
+        <v>5.693434129281428E-06</v>
       </c>
       <c r="C92">
-        <v>0.1519488218966139</v>
+        <v>0.1195236983111424</v>
       </c>
       <c r="D92">
-        <v>0.0002107622400179103</v>
+        <v>0.0005730534659023269</v>
       </c>
       <c r="E92">
-        <v>0.2155356138226056</v>
+        <v>0.1293785078943003</v>
       </c>
       <c r="F92">
-        <v>16.91861779225353</v>
+        <v>7.520298804064201</v>
       </c>
       <c r="S92">
-        <v>7.119589122211423E-05</v>
+        <v>7.153049417916009E-05</v>
       </c>
       <c r="T92">
-        <v>0.001505070657266846</v>
+        <v>0.001501962916930672</v>
       </c>
       <c r="U92">
-        <v>1.062126396951528</v>
+        <v>0.131</v>
       </c>
       <c r="V92">
-        <v>0.131</v>
+        <v>7.624323304429078</v>
       </c>
       <c r="W92">
-        <v>7.729504571402037</v>
+        <v>9.387480114519441</v>
       </c>
       <c r="X92">
-        <v>6.615500490625205</v>
+        <v>8.870556945644841</v>
       </c>
       <c r="Y92">
-        <v>8.937503381563806</v>
+        <v>0.02415302064711327</v>
       </c>
       <c r="Z92">
-        <v>0.02460548173339318</v>
+        <v>0.0002199180710715328</v>
+      </c>
+      <c r="AA92">
+        <v>0.02499490607330097</v>
       </c>
       <c r="AB92">
-        <v>6.495845265167725E-05</v>
-      </c>
-      <c r="AC92">
-        <v>0.02516975292711229</v>
-      </c>
-      <c r="AD92">
-        <v>9.938842388852436E-05</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
+        <v>0.0001758589606255967</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.369991498847913E-05</v>
+        <v>5.639083699122511E-06</v>
       </c>
       <c r="C93">
-        <v>0.1688086063029024</v>
+        <v>0.1206149886308235</v>
       </c>
       <c r="D93">
-        <v>0.0002499161466947845</v>
+        <v>0.0005878137383078354</v>
       </c>
       <c r="E93">
-        <v>0.2430949932649675</v>
+        <v>0.1314496720017101</v>
       </c>
       <c r="F93">
-        <v>16.91856428226798</v>
+        <v>7.520245767402721</v>
       </c>
       <c r="S93">
-        <v>6.490643191620501E-05</v>
+        <v>6.524899096966475E-05</v>
       </c>
       <c r="T93">
-        <v>0.001546157557559879</v>
+        <v>0.001542574234602069</v>
       </c>
       <c r="U93">
-        <v>1.064988127684945</v>
+        <v>0.1179</v>
       </c>
       <c r="V93">
-        <v>0.1179</v>
+        <v>7.61672377172687</v>
       </c>
       <c r="W93">
-        <v>7.722148723716119</v>
+        <v>9.40413138195656</v>
       </c>
       <c r="X93">
-        <v>6.608889192914401</v>
+        <v>8.901943754585801</v>
       </c>
       <c r="Y93">
-        <v>8.93825145536713</v>
+        <v>0.02681225426667346</v>
       </c>
       <c r="Z93">
-        <v>0.02733220654236446</v>
+        <v>0.0002401258048589789</v>
+      </c>
+      <c r="AA93">
+        <v>0.02775257797470935</v>
       </c>
       <c r="AB93">
-        <v>7.323961680066117E-05</v>
-      </c>
-      <c r="AC93">
-        <v>0.02795534898302604</v>
-      </c>
-      <c r="AD93">
-        <v>0.0001125858292886687</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
+        <v>0.000192524560183574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.219308420634574E-05</v>
+        <v>5.578413880058717E-06</v>
       </c>
       <c r="C94">
-        <v>0.1898784425724284</v>
+        <v>0.1217263513613097</v>
       </c>
       <c r="D94">
-        <v>0.0003044044033525004</v>
+        <v>0.0006046340507440909</v>
       </c>
       <c r="E94">
-        <v>0.2772897490685626</v>
+        <v>0.1337629041268185</v>
       </c>
       <c r="F94">
-        <v>16.91850402045846</v>
+        <v>7.520186119486621</v>
       </c>
       <c r="S94">
-        <v>5.852838941021556E-05</v>
+        <v>5.887977032361643E-05</v>
       </c>
       <c r="T94">
-        <v>0.001593543424689535</v>
+        <v>0.00158934512094116</v>
       </c>
       <c r="U94">
-        <v>1.068349025433097</v>
+        <v>0.1047999999999999</v>
       </c>
       <c r="V94">
-        <v>0.1047999999999999</v>
+        <v>7.608036878882921</v>
       </c>
       <c r="W94">
-        <v>7.713450401225412</v>
+        <v>9.419232442309793</v>
       </c>
       <c r="X94">
-        <v>6.608891154247801</v>
+        <v>8.935696980777182</v>
       </c>
       <c r="Y94">
-        <v>8.937271949184195</v>
+        <v>0.03013377032440027</v>
       </c>
       <c r="Z94">
-        <v>0.03073957740805994</v>
+        <v>0.0002654800537268218</v>
+      </c>
+      <c r="AA94">
+        <v>0.03119758465152508</v>
       </c>
       <c r="AB94">
-        <v>8.460355645166985E-05</v>
-      </c>
-      <c r="AC94">
-        <v>0.03143569437724322</v>
-      </c>
-      <c r="AD94">
-        <v>0.0001299582714713676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30">
+        <v>0.0002137792527029307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.030105766123172E-05</v>
+        <v>5.506688727222582E-06</v>
       </c>
       <c r="C95">
-        <v>0.2169604480251535</v>
+        <v>0.1228583300277636</v>
       </c>
       <c r="D95">
-        <v>0.0003843214518839904</v>
+        <v>0.0006245491913663604</v>
       </c>
       <c r="E95">
-        <v>0.3202749305189271</v>
+        <v>0.1364002298740792</v>
       </c>
       <c r="F95">
-        <v>16.91629569808276</v>
+        <v>7.517985130804691</v>
       </c>
       <c r="S95">
-        <v>5.2049058530854E-05</v>
+        <v>5.241037827537116E-05</v>
       </c>
       <c r="T95">
-        <v>0.0039034579342947</v>
+        <v>0.003891576795223292</v>
       </c>
       <c r="U95">
-        <v>1.072378353895441</v>
+        <v>0.09169999999999993</v>
       </c>
       <c r="V95">
-        <v>0.09169999999999993</v>
+        <v>7.597933632133468</v>
       </c>
       <c r="W95">
-        <v>7.702940009206153</v>
+        <v>9.431290652886263</v>
       </c>
       <c r="X95">
-        <v>6.620109250081212</v>
+        <v>8.972168834546581</v>
       </c>
       <c r="Y95">
-        <v>8.934293223106524</v>
+        <v>0.03440066893449648</v>
       </c>
       <c r="Z95">
-        <v>0.03511885938686113</v>
+        <v>0.0002983105239915414</v>
+      </c>
+      <c r="AA95">
+        <v>0.03562384256564254</v>
       </c>
       <c r="AB95">
-        <v>0.0001010188740497361</v>
-      </c>
-      <c r="AC95">
-        <v>0.0359079423923535</v>
-      </c>
-      <c r="AD95">
-        <v>0.0001536554925890789</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
+        <v>0.0002418466949140026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.214446171781038E-05</v>
+        <v>5.691344941422599E-06</v>
       </c>
       <c r="C96">
-        <v>0.2530564691206986</v>
+        <v>0.1240114789035787</v>
       </c>
       <c r="D96">
-        <v>0.0002347097161293608</v>
+        <v>0.0005852204244459534</v>
       </c>
       <c r="E96">
-        <v>0.4057990658543823</v>
+        <v>0.1320771786671488</v>
       </c>
       <c r="F96">
-        <v>29.41865015165219</v>
+        <v>7.57664013086267</v>
       </c>
       <c r="S96">
-        <v>8.917672904223507E-05</v>
+        <v>8.990808422171057E-05</v>
       </c>
       <c r="T96">
-        <v>0.001407288703040846</v>
+        <v>0.001402233982106162</v>
       </c>
       <c r="U96">
-        <v>1.055877616767433</v>
+        <v>0.1697999999999998</v>
       </c>
       <c r="V96">
-        <v>0.1697999999999998</v>
+        <v>7.585905107318367</v>
       </c>
       <c r="W96">
-        <v>7.684052261834556</v>
+        <v>9.507430915093197</v>
       </c>
       <c r="X96">
-        <v>6.115511274806176</v>
+        <v>9.018379027799829</v>
       </c>
       <c r="Y96">
-        <v>8.911515776602046</v>
+        <v>0.04008439533624732</v>
       </c>
       <c r="Z96">
-        <v>0.04095516613899637</v>
+        <v>0.0003241751131463835</v>
+      </c>
+      <c r="AA96">
+        <v>0.04152084187743063</v>
       </c>
       <c r="AB96">
-        <v>5.724497341746535E-05</v>
-      </c>
-      <c r="AC96">
-        <v>0.04186699020898092</v>
-      </c>
-      <c r="AD96">
-        <v>0.000154394334727425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
+        <v>0.0002556908592564879</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.799580593057753E-05</v>
+        <v>5.623526649968891E-06</v>
       </c>
       <c r="C97">
-        <v>0.3036208210016125</v>
+        <v>0.1251869670795704</v>
       </c>
       <c r="D97">
-        <v>0.0003210667712095282</v>
+        <v>0.0006038393319073357</v>
       </c>
       <c r="E97">
-        <v>0.5004928884044352</v>
+        <v>0.1346625276572257</v>
       </c>
       <c r="F97">
-        <v>29.41856962011052</v>
+        <v>7.576560992306172</v>
       </c>
       <c r="S97">
-        <v>7.595665990565687E-05</v>
+        <v>7.671462674206594E-05</v>
       </c>
       <c r="T97">
-        <v>0.001475549780730964</v>
+        <v>0.001469111293208797</v>
       </c>
       <c r="U97">
-        <v>1.060453480463667</v>
+        <v>0.1414999999999998</v>
       </c>
       <c r="V97">
-        <v>0.1414999999999998</v>
+        <v>7.571032995880621</v>
       </c>
       <c r="W97">
-        <v>7.668687365986232</v>
+        <v>9.51223413382103</v>
       </c>
       <c r="X97">
-        <v>6.122269622353351</v>
+        <v>9.062283612009978</v>
       </c>
       <c r="Y97">
-        <v>8.896241671140077</v>
+        <v>0.04803643938086753</v>
       </c>
       <c r="Z97">
-        <v>0.04913475037211217</v>
+        <v>0.0003785483374845139</v>
+      </c>
+      <c r="AA97">
+        <v>0.04977387208106548</v>
       </c>
       <c r="AB97">
-        <v>7.315873245281908E-05</v>
-      </c>
-      <c r="AC97">
-        <v>0.05020950938383163</v>
-      </c>
-      <c r="AD97">
-        <v>0.0001946261187678271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
+        <v>0.0003026797630189386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3.213581351714789E-05</v>
+        <v>5.538520268166197E-06</v>
       </c>
       <c r="C98">
-        <v>0.3794457595592124</v>
+        <v>0.1263848817694518</v>
       </c>
       <c r="D98">
-        <v>0.0004813888619094321</v>
+        <v>0.000627828536587008</v>
       </c>
       <c r="E98">
-        <v>0.6347504620703378</v>
+        <v>0.1379054074872489</v>
       </c>
       <c r="F98">
-        <v>29.41846752897585</v>
+        <v>7.576461133712056</v>
       </c>
       <c r="S98">
-        <v>6.239587256149603E-05</v>
+        <v>6.318681345575886E-05</v>
       </c>
       <c r="T98">
-        <v>0.001564397503827475</v>
+        <v>0.001555747032064459</v>
       </c>
       <c r="U98">
-        <v>1.066602313374562</v>
+        <v>0.1132000000000001</v>
       </c>
       <c r="V98">
-        <v>0.1132000000000001</v>
+        <v>7.55212353700956</v>
       </c>
       <c r="W98">
-        <v>7.647739027753453</v>
+        <v>9.498997524680082</v>
       </c>
       <c r="X98">
-        <v>6.156390408529425</v>
+        <v>9.11038736910286</v>
       </c>
       <c r="Y98">
-        <v>8.874638819723055</v>
+        <v>0.05995091214171315</v>
       </c>
       <c r="Z98">
-        <v>0.06140014828202687</v>
+        <v>0.0004591750193011668</v>
+      </c>
+      <c r="AA98">
+        <v>0.06214167016057697</v>
       </c>
       <c r="AB98">
-        <v>0.0001023903895417239</v>
-      </c>
-      <c r="AC98">
-        <v>0.06271323020009745</v>
-      </c>
-      <c r="AD98">
-        <v>0.0002583524999024308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:30">
+        <v>0.0003753357811429216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.379894837908756E-05</v>
+        <v>5.421227969735495E-06</v>
       </c>
       <c r="C99">
-        <v>0.5057672164583134</v>
+        <v>0.1276058240338485</v>
       </c>
       <c r="D99">
-        <v>0.0008461670640625245</v>
+        <v>0.0006621786023425913</v>
       </c>
       <c r="E99">
-        <v>0.8265077610660347</v>
+        <v>0.1423842930903021</v>
       </c>
       <c r="F99">
-        <v>29.41832860891128</v>
+        <v>7.576326266006575</v>
       </c>
       <c r="S99">
-        <v>4.839319853266714E-05</v>
+        <v>4.922797264793615E-05</v>
       </c>
       <c r="T99">
-        <v>0.001688621924684969</v>
+        <v>0.00167596649706495</v>
       </c>
       <c r="U99">
-        <v>1.075546518588546</v>
+        <v>0.08490000000000007</v>
       </c>
       <c r="V99">
-        <v>0.08490000000000007</v>
+        <v>7.526480251898173</v>
       </c>
       <c r="W99">
-        <v>7.6166646559899</v>
+        <v>9.443303308788593</v>
       </c>
       <c r="X99">
-        <v>6.255257747050225</v>
+        <v>9.162030523852183</v>
       </c>
       <c r="Y99">
-        <v>8.847483248631489</v>
+        <v>0.07978149118251714</v>
       </c>
       <c r="Z99">
-        <v>0.08183273424618857</v>
+        <v>0.0005926021109716349</v>
+      </c>
+      <c r="AA99">
+        <v>0.08273044828705499</v>
       </c>
       <c r="AB99">
-        <v>0.000168312495145869</v>
-      </c>
-      <c r="AC99">
-        <v>0.08353152276682911</v>
-      </c>
-      <c r="AD99">
-        <v>0.0003706258328086295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30">
+        <v>0.0005023218349870039</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.232067664522122E-05</v>
+        <v>5.228044200092014E-06</v>
       </c>
       <c r="C100">
-        <v>0.7582277411554387</v>
+        <v>0.1288503695772947</v>
       </c>
       <c r="D100">
-        <v>0.00215574496615641</v>
+        <v>0.0007218263037579244</v>
       </c>
       <c r="E100">
-        <v>1.091136337732721</v>
+        <v>0.1497048433126593</v>
       </c>
       <c r="F100">
-        <v>29.41664753378258</v>
+        <v>7.57467121187284</v>
       </c>
       <c r="S100">
-        <v>3.376816617715252E-05</v>
+        <v>3.466911542856202E-05</v>
       </c>
       <c r="T100">
-        <v>0.003352466217424324</v>
+        <v>0.003313918931850795</v>
       </c>
       <c r="U100">
-        <v>1.090509934944148</v>
+        <v>0.05660000000000005</v>
       </c>
       <c r="V100">
-        <v>0.05660000000000005</v>
+        <v>0</v>
       </c>
       <c r="W100">
         <v>0</v>
@@ -5804,18 +5495,15 @@
         <v>0</v>
       </c>
       <c r="Y100">
+        <v>0.1193759357182899</v>
+      </c>
+      <c r="Z100">
         <v>0</v>
       </c>
-      <c r="Z100">
-        <v>0.1226649451217099</v>
+      <c r="AA100">
+        <v>0.123844511513089</v>
       </c>
       <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>0.1251119712338394</v>
-      </c>
-      <c r="AD100">
         <v>0</v>
       </c>
     </row>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Recovery</t>
   </si>
@@ -67,18 +67,6 @@
     <t>Total_SEC (kWh/m3)</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Mass transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pressure drop Corr</t>
-  </si>
-  <si>
-    <t>Cross-flow Velocity</t>
-  </si>
-  <si>
     <t>Brine pH</t>
   </si>
   <si>
@@ -94,10 +82,16 @@
     <t>Permeate Alkalinity</t>
   </si>
   <si>
-    <t>Trace Conc. in Brine</t>
+    <t>Trace Conc. of C in Brine</t>
   </si>
   <si>
-    <t>Trace Conc. in Permeate</t>
+    <t>Trace Conc. of C in Permeate</t>
+  </si>
+  <si>
+    <t>Ptb</t>
+  </si>
+  <si>
+    <t>Ptp</t>
   </si>
 </sst>
 </file>
@@ -429,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,49 +508,43 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.575161272722939E-06</v>
+        <v>5.582025511947677E-06</v>
       </c>
       <c r="C2">
-        <v>0.01528279910082424</v>
+        <v>0.01506833702091214</v>
       </c>
       <c r="D2">
-        <v>7.081916557345742E-05</v>
+        <v>6.974519208251868E-05</v>
       </c>
       <c r="E2">
-        <v>0.0162589400869221</v>
+        <v>0.0160320019178025</v>
       </c>
       <c r="F2">
         <v>3.1</v>
       </c>
       <c r="G2">
-        <v>18.9489100524082</v>
+        <v>19.00268504021262</v>
       </c>
       <c r="H2">
-        <v>18.74111166878413</v>
+        <v>18.8328562143467</v>
       </c>
       <c r="I2">
-        <v>19.78796225663777</v>
+        <v>19.90197458412845</v>
       </c>
       <c r="J2">
-        <v>20.45868268672586</v>
+        <v>20.62652809160235</v>
       </c>
       <c r="K2">
-        <v>24.75239762644668</v>
+        <v>19.97889001465579</v>
       </c>
       <c r="L2">
-        <v>0.214718741087579</v>
+        <v>0.2147187442801989</v>
       </c>
       <c r="M2">
         <v>0.011112</v>
@@ -571,4939 +559,4639 @@
         <v>0.0001020489795918366</v>
       </c>
       <c r="Q2">
-        <v>0.2481539553732934</v>
+        <v>0.2481539585659132</v>
       </c>
       <c r="R2">
-        <v>1.001035365858081</v>
+        <v>7.999000510921586</v>
       </c>
       <c r="S2">
-        <v>8.964085134901906E-05</v>
+        <v>11.59271156246534</v>
       </c>
       <c r="T2">
-        <v>0.001398452219922817</v>
+        <v>10.49519669447878</v>
       </c>
       <c r="U2">
-        <v>0.17</v>
+        <v>0.003242160161828556</v>
       </c>
       <c r="V2">
-        <v>7.999001207581545</v>
+        <v>0.004196251792567682</v>
       </c>
       <c r="W2">
-        <v>9.733184612597539</v>
+        <v>0.003281516573938714</v>
       </c>
       <c r="X2">
-        <v>8.452662113479041</v>
+        <v>1.373530790367275E-05</v>
       </c>
       <c r="Y2">
-        <v>0.002525592234190321</v>
+        <v>7.004931436832828E-05</v>
       </c>
       <c r="Z2">
-        <v>9.2568110157867E-05</v>
-      </c>
-      <c r="AA2">
-        <v>0.002556182908434622</v>
-      </c>
-      <c r="AB2">
-        <v>3.09177790268806E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>1.888065133664491E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.567112591175569E-06</v>
+        <v>5.578066124211612E-06</v>
       </c>
       <c r="C3">
-        <v>0.01543645546380657</v>
+        <v>0.01521983794847608</v>
       </c>
       <c r="D3">
-        <v>7.166686258954538E-05</v>
+        <v>7.053168873583062E-05</v>
       </c>
       <c r="E3">
-        <v>0.01642990766178214</v>
+        <v>0.01620134036527435</v>
       </c>
       <c r="F3">
-        <v>3.099985694102835</v>
+        <v>3.099985694137483</v>
+      </c>
+      <c r="R3">
+        <v>7.81755789456609</v>
       </c>
       <c r="S3">
-        <v>8.885577390501866E-05</v>
+        <v>4.413789150846131</v>
       </c>
       <c r="T3">
-        <v>0.001401977922210843</v>
+        <v>6.17343867596425</v>
       </c>
       <c r="U3">
-        <v>0.1683</v>
+        <v>0.003232522872629171</v>
       </c>
       <c r="V3">
-        <v>7.994877685091557</v>
+        <v>1.500956014960333E-05</v>
       </c>
       <c r="W3">
-        <v>9.731743912635322</v>
+        <v>0.003314524465514825</v>
       </c>
       <c r="X3">
-        <v>8.451549833629931</v>
+        <v>0.004579806111553404</v>
       </c>
       <c r="Y3">
-        <v>0.002550168235443175</v>
+        <v>7.07568812931951E-05</v>
       </c>
       <c r="Z3">
-        <v>9.282763230129255E-05</v>
-      </c>
-      <c r="AA3">
-        <v>0.002581690637014499</v>
-      </c>
-      <c r="AB3">
-        <v>3.129751123205769E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.558897409464255E-06</v>
+        <v>5.569962732377493E-06</v>
       </c>
       <c r="C4">
-        <v>0.01559323902096185</v>
+        <v>0.01537442270622853</v>
       </c>
       <c r="D4">
-        <v>7.25348841620524E-05</v>
+        <v>7.13845041801612E-05</v>
       </c>
       <c r="E4">
-        <v>0.01660447336978005</v>
+        <v>0.0163735176715743</v>
       </c>
       <c r="F4">
-        <v>3.0999713153363</v>
+        <v>3.099971315406484</v>
+      </c>
+      <c r="R4">
+        <v>8.014384127855946</v>
       </c>
       <c r="S4">
-        <v>8.806970424645449E-05</v>
+        <v>11.59550315126457</v>
       </c>
       <c r="T4">
-        <v>0.001405548521308018</v>
+        <v>10.49670514514617</v>
       </c>
       <c r="U4">
-        <v>0.1666</v>
+        <v>0.003265354641123861</v>
       </c>
       <c r="V4">
-        <v>7.990777570222193</v>
+        <v>0.004224077110809174</v>
       </c>
       <c r="W4">
-        <v>9.730323865837544</v>
+        <v>0.00330161342831035</v>
       </c>
       <c r="X4">
-        <v>8.450559265596784</v>
+        <v>1.385989920057135E-05</v>
       </c>
       <c r="Y4">
-        <v>0.002575243139556867</v>
+        <v>7.14788902859828E-05</v>
       </c>
       <c r="Z4">
-        <v>9.309372872181813E-05</v>
-      </c>
-      <c r="AA4">
-        <v>0.00260771505666534</v>
-      </c>
-      <c r="AB4">
-        <v>3.16801033017202E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>1.877504519760349E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.550510527049963E-06</v>
+        <v>5.561689922830312E-06</v>
       </c>
       <c r="C5">
-        <v>0.01575324628010412</v>
+        <v>0.01553218598666202</v>
       </c>
       <c r="D5">
-        <v>7.342396405856515E-05</v>
+        <v>7.225797510354714E-05</v>
       </c>
       <c r="E5">
-        <v>0.01678275096056549</v>
+        <v>0.01654935727717495</v>
       </c>
       <c r="F5">
-        <v>3.099956862294174</v>
+        <v>3.09995686240081</v>
+      </c>
+      <c r="R5">
+        <v>7.826562748811816</v>
       </c>
       <c r="S5">
-        <v>8.728263097596939E-05</v>
+        <v>4.406475827303459</v>
       </c>
       <c r="T5">
-        <v>0.001409165056991092</v>
+        <v>6.162202113990118</v>
       </c>
       <c r="U5">
-        <v>0.1649</v>
+        <v>0.003255470904322981</v>
       </c>
       <c r="V5">
-        <v>7.986692131553399</v>
+        <v>1.512829648391789E-05</v>
       </c>
       <c r="W5">
-        <v>9.728899313506142</v>
+        <v>0.003335507794589832</v>
       </c>
       <c r="X5">
-        <v>8.44963207594656</v>
+        <v>0.00472396985472377</v>
       </c>
       <c r="Y5">
-        <v>0.002600832308740734</v>
+        <v>7.22157841265553E-05</v>
       </c>
       <c r="Z5">
-        <v>9.336623269399164E-05</v>
-      </c>
-      <c r="AA5">
-        <v>0.002634272118040223</v>
-      </c>
-      <c r="AB5">
-        <v>3.206830886458331E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.541946517793329E-06</v>
+        <v>5.553242339147867E-06</v>
       </c>
       <c r="C6">
-        <v>0.01591657776256293</v>
+        <v>0.01569322690344908</v>
       </c>
       <c r="D6">
-        <v>7.433487166451517E-05</v>
+        <v>7.315285496135161E-05</v>
       </c>
       <c r="E6">
-        <v>0.01696485898694839</v>
+        <v>0.01672897620063257</v>
       </c>
       <c r="F6">
-        <v>3.099942333526367</v>
+        <v>3.099942333670407</v>
+      </c>
+      <c r="R6">
+        <v>8.036219245036387</v>
       </c>
       <c r="S6">
-        <v>8.649454243712355E-05</v>
+        <v>11.59655189534119</v>
       </c>
       <c r="T6">
-        <v>0.001412828604002508</v>
+        <v>10.49616366216604</v>
       </c>
       <c r="U6">
-        <v>0.1632</v>
+        <v>0.003289224473154638</v>
       </c>
       <c r="V6">
-        <v>7.982630565765501</v>
+        <v>0.004234811408432976</v>
       </c>
       <c r="W6">
-        <v>9.727461990158879</v>
+        <v>0.003321044648130104</v>
       </c>
       <c r="X6">
-        <v>8.448748878094808</v>
+        <v>1.400681870750019E-05</v>
       </c>
       <c r="Y6">
-        <v>0.002626951747032888</v>
+        <v>7.296803187787357E-05</v>
       </c>
       <c r="Z6">
-        <v>9.364520084504992E-05</v>
-      </c>
-      <c r="AA6">
-        <v>0.002661378407719136</v>
-      </c>
-      <c r="AB6">
-        <v>3.246315042066765E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>1.865883979272285E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.533199731330116E-06</v>
+        <v>5.544614403490873E-06</v>
       </c>
       <c r="C7">
-        <v>0.01608333821404607</v>
+        <v>0.01585764873553843</v>
       </c>
       <c r="D7">
-        <v>7.526841399057449E-05</v>
+        <v>7.406993399647344E-05</v>
       </c>
       <c r="E7">
-        <v>0.01715092106139897</v>
+        <v>0.01691249645726277</v>
       </c>
       <c r="F7">
-        <v>3.099927727537044</v>
+        <v>3.099927727719471</v>
+      </c>
+      <c r="R7">
+        <v>7.841256847128567</v>
       </c>
       <c r="S7">
-        <v>8.570542672297761E-05</v>
+        <v>4.41084392113383</v>
       </c>
       <c r="T7">
-        <v>0.001416540273941292</v>
+        <v>6.178355574543898</v>
       </c>
       <c r="U7">
-        <v>0.1615</v>
+        <v>0.003279270926467498</v>
       </c>
       <c r="V7">
-        <v>7.978578849252207</v>
+        <v>1.574874972416164E-05</v>
       </c>
       <c r="W7">
-        <v>9.726029993111529</v>
+        <v>0.003355855572650342</v>
       </c>
       <c r="X7">
-        <v>8.447951718080439</v>
+        <v>0.004696336595635509</v>
       </c>
       <c r="Y7">
-        <v>0.002653618131729601</v>
+        <v>7.373611445986806E-05</v>
       </c>
       <c r="Z7">
-        <v>9.393109429249434E-05</v>
-      </c>
-      <c r="AA7">
-        <v>0.002689051199901225</v>
-      </c>
-      <c r="AB7">
-        <v>3.286292283560913E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>6.214607549731868E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.524264269165279E-06</v>
+        <v>5.535800292867533E-06</v>
       </c>
       <c r="C8">
-        <v>0.01625363682894028</v>
+        <v>0.01602555914832079</v>
       </c>
       <c r="D8">
-        <v>7.622543814339927E-05</v>
+        <v>7.501004165175559E-05</v>
       </c>
       <c r="E8">
-        <v>0.01734106612436926</v>
+        <v>0.01710004532430016</v>
       </c>
       <c r="F8">
-        <v>3.099913042782652</v>
+        <v>3.099913043004485</v>
+      </c>
+      <c r="R8">
+        <v>8.05702413111667</v>
       </c>
       <c r="S8">
-        <v>8.491527165598104E-05</v>
+        <v>11.59820214360147</v>
       </c>
       <c r="T8">
-        <v>0.001420301216695796</v>
+        <v>10.4961514738078</v>
       </c>
       <c r="U8">
-        <v>0.1598</v>
+        <v>0.003313989247496682</v>
       </c>
       <c r="V8">
-        <v>7.974546440339645</v>
+        <v>0.004251567283333722</v>
       </c>
       <c r="W8">
-        <v>9.724592094739386</v>
+        <v>0.003341595136235606</v>
       </c>
       <c r="X8">
-        <v>8.447215125577424</v>
+        <v>1.415757625088784E-05</v>
       </c>
       <c r="Y8">
-        <v>0.002680848844893826</v>
+        <v>7.45198800809784E-05</v>
       </c>
       <c r="Z8">
-        <v>9.422397782451494E-05</v>
-      </c>
-      <c r="AA8">
-        <v>0.002717308521997668</v>
-      </c>
-      <c r="AB8">
-        <v>3.326898120612278E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>1.854932224992682E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.515133991868621E-06</v>
+        <v>5.52679394632919E-06</v>
       </c>
       <c r="C9">
-        <v>0.01642758748905637</v>
+        <v>0.01619707042903766</v>
       </c>
       <c r="D9">
-        <v>7.72068335661181E-05</v>
+        <v>7.597404875728977E-05</v>
       </c>
       <c r="E9">
-        <v>0.01753542873619183</v>
+        <v>0.01729175562931932</v>
       </c>
       <c r="F9">
-        <v>3.099898277669839</v>
+        <v>3.099898277932136</v>
+      </c>
+      <c r="R9">
+        <v>7.854832051577086</v>
       </c>
       <c r="S9">
-        <v>8.412406478221966E-05</v>
+        <v>4.403493630707204</v>
       </c>
       <c r="T9">
-        <v>0.001424112622252767</v>
+        <v>6.167775122940649</v>
       </c>
       <c r="U9">
-        <v>0.1581</v>
+        <v>0.00330390776324037</v>
       </c>
       <c r="V9">
-        <v>7.97053665963032</v>
+        <v>1.591769605241777E-05</v>
       </c>
       <c r="W9">
-        <v>9.723150962952493</v>
+        <v>0.003377374034730065</v>
       </c>
       <c r="X9">
-        <v>8.446544743645143</v>
+        <v>0.004848364991259409</v>
       </c>
       <c r="Y9">
-        <v>0.002708662015507474</v>
+        <v>7.532116711955641E-05</v>
       </c>
       <c r="Z9">
-        <v>9.452409602215129E-05</v>
-      </c>
-      <c r="AA9">
-        <v>0.002746169162221233</v>
-      </c>
-      <c r="AB9">
-        <v>3.368122418324032E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>6.275863688228449E-08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.505802484153675E-06</v>
+        <v>5.517589030412981E-06</v>
       </c>
       <c r="C10">
-        <v>0.01660530901792039</v>
+        <v>0.01637229973751897</v>
       </c>
       <c r="D10">
-        <v>7.821353499035455E-05</v>
+        <v>7.696287041055369E-05</v>
       </c>
       <c r="E10">
-        <v>0.01773414937936651</v>
+        <v>0.01748776604902338</v>
       </c>
       <c r="F10">
-        <v>3.099883430553251</v>
+        <v>3.099883430857106</v>
+      </c>
+      <c r="R10">
+        <v>8.085954783184963</v>
       </c>
       <c r="S10">
-        <v>8.333179336861216E-05</v>
+        <v>11.59731674252209</v>
       </c>
       <c r="T10">
-        <v>0.001427975722679198</v>
+        <v>10.49356388604331</v>
       </c>
       <c r="U10">
-        <v>0.1564</v>
+        <v>0.003339646785709804</v>
       </c>
       <c r="V10">
-        <v>7.966542145496518</v>
+        <v>0.004243148850833053</v>
       </c>
       <c r="W10">
-        <v>9.721715117223971</v>
+        <v>0.003361385002593877</v>
       </c>
       <c r="X10">
-        <v>8.445959828877204</v>
+        <v>1.432469306354937E-05</v>
       </c>
       <c r="Y10">
-        <v>0.002737076558110576</v>
+        <v>7.613919329871591E-05</v>
       </c>
       <c r="Z10">
-        <v>9.483183102732233E-05</v>
-      </c>
-      <c r="AA10">
-        <v>0.002775652726765124</v>
-      </c>
-      <c r="AB10">
-        <v>3.409899127068619E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>1.841025050518059E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.496263035075452E-06</v>
+        <v>5.508178919635133E-06</v>
       </c>
       <c r="C11">
-        <v>0.01678692545179875</v>
+        <v>0.01655136937342126</v>
       </c>
       <c r="D11">
-        <v>7.924652540311215E-05</v>
+        <v>7.797746887036182E-05</v>
       </c>
       <c r="E11">
-        <v>0.01793737478416872</v>
+        <v>0.01768822143107749</v>
       </c>
       <c r="F11">
-        <v>3.09986849973322</v>
+        <v>3.09986850007977</v>
+      </c>
+      <c r="R11">
+        <v>7.876003335511717</v>
       </c>
       <c r="S11">
-        <v>8.253844438070021E-05</v>
+        <v>4.398440207734482</v>
       </c>
       <c r="T11">
-        <v>0.001431891793825208</v>
+        <v>6.161086820624971</v>
       </c>
       <c r="U11">
-        <v>0.1547</v>
+        <v>0.00332971819158757</v>
       </c>
       <c r="V11">
-        <v>7.962561227811692</v>
+        <v>1.609562294195928E-05</v>
       </c>
       <c r="W11">
-        <v>9.720282533949334</v>
+        <v>0.003398165885116188</v>
       </c>
       <c r="X11">
-        <v>8.44545462154856</v>
+        <v>0.00496109192424406</v>
       </c>
       <c r="Y11">
-        <v>0.00276611221445215</v>
+        <v>7.697588570746549E-05</v>
       </c>
       <c r="Z11">
-        <v>9.514740511763245E-05</v>
-      </c>
-      <c r="AA11">
-        <v>0.002805779690891437</v>
-      </c>
-      <c r="AB11">
-        <v>3.452273283535188E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>6.285026246673611E-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.48650866287989E-06</v>
+        <v>5.498556720942558E-06</v>
       </c>
       <c r="C12">
-        <v>0.0169725663287587</v>
+        <v>0.0167344070612496</v>
       </c>
       <c r="D12">
-        <v>8.030683862264304E-05</v>
+        <v>7.90188560745163E-05</v>
       </c>
       <c r="E12">
-        <v>0.01814525828559388</v>
+        <v>0.01789327314675612</v>
       </c>
       <c r="F12">
-        <v>3.099853483453306</v>
+        <v>3.099853483843729</v>
+      </c>
+      <c r="R12">
+        <v>8.122905306777868</v>
       </c>
       <c r="S12">
-        <v>8.174400448258727E-05</v>
+        <v>11.59392448309521</v>
       </c>
       <c r="T12">
-        <v>0.001435862157597867</v>
+        <v>10.48842414540361</v>
       </c>
       <c r="U12">
-        <v>0.153</v>
+        <v>0.003366536220128077</v>
       </c>
       <c r="V12">
-        <v>7.958608487086065</v>
+        <v>0.004210000607059969</v>
       </c>
       <c r="W12">
-        <v>9.718862000759259</v>
+        <v>0.00338080004023699</v>
       </c>
       <c r="X12">
-        <v>8.445047287427547</v>
+        <v>1.45089595624162E-05</v>
       </c>
       <c r="Y12">
-        <v>0.002795789601222533</v>
+        <v>7.783047499018769E-05</v>
       </c>
       <c r="Z12">
-        <v>9.547120173105514E-05</v>
-      </c>
-      <c r="AA12">
-        <v>0.002836571434869838</v>
-      </c>
-      <c r="AB12">
-        <v>3.495175010463225E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>1.824298257744468E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.476532055722105E-06</v>
+        <v>5.488715215204079E-06</v>
       </c>
       <c r="C13">
-        <v>0.0171623669971872</v>
+        <v>0.01692154625456617</v>
       </c>
       <c r="D13">
-        <v>8.139556321716605E-05</v>
+        <v>8.008809745891929E-05</v>
       </c>
       <c r="E13">
-        <v>0.01835796018611036</v>
+        <v>0.01810307944963266</v>
       </c>
       <c r="F13">
-        <v>3.099838379897699</v>
+        <v>3.099838380333218</v>
+      </c>
+      <c r="R13">
+        <v>7.90514638307593</v>
       </c>
       <c r="S13">
-        <v>8.094846002522487E-05</v>
+        <v>4.386227334829488</v>
       </c>
       <c r="T13">
-        <v>0.001439888184133627</v>
+        <v>6.136356479067382</v>
       </c>
       <c r="U13">
-        <v>0.1513</v>
+        <v>0.003357059092185022</v>
       </c>
       <c r="V13">
-        <v>7.954661331588237</v>
+        <v>1.586334212234484E-05</v>
       </c>
       <c r="W13">
-        <v>9.717423396241985</v>
+        <v>0.003418623535525468</v>
       </c>
       <c r="X13">
-        <v>8.444673917294597</v>
+        <v>0.005183990034428151</v>
       </c>
       <c r="Y13">
-        <v>0.002826130257396595</v>
+        <v>7.870497265940525E-05</v>
       </c>
       <c r="Z13">
-        <v>9.580314539485271E-05</v>
-      </c>
-      <c r="AA13">
-        <v>0.002868050307732368</v>
-      </c>
-      <c r="AB13">
-        <v>3.538943687091863E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.466325560321571E-06</v>
+        <v>5.478646845933835E-06</v>
       </c>
       <c r="C14">
-        <v>0.01735646894530049</v>
+        <v>0.01711292646089694</v>
       </c>
       <c r="D14">
-        <v>8.251384605420722E-05</v>
+        <v>8.118631542108871E-05</v>
       </c>
       <c r="E14">
-        <v>0.01857564815382592</v>
+        <v>0.01831780586912085</v>
       </c>
       <c r="F14">
-        <v>3.099823187188488</v>
+        <v>3.099823187670374</v>
+      </c>
+      <c r="R14">
+        <v>8.176120857342987</v>
       </c>
       <c r="S14">
-        <v>8.015179703004906E-05</v>
+        <v>11.5851186718469</v>
       </c>
       <c r="T14">
-        <v>0.001443971294009872</v>
+        <v>10.47785459837731</v>
       </c>
       <c r="U14">
-        <v>0.1496</v>
+        <v>0.003395027225708462</v>
       </c>
       <c r="V14">
-        <v>7.950734600161847</v>
+        <v>0.004124584771317822</v>
       </c>
       <c r="W14">
-        <v>9.716004919329107</v>
+        <v>0.003398562552583392</v>
       </c>
       <c r="X14">
-        <v>8.44441399449118</v>
+        <v>1.472113774840183E-05</v>
       </c>
       <c r="Y14">
-        <v>0.00285715670185116</v>
+        <v>7.959934734871667E-05</v>
       </c>
       <c r="Z14">
-        <v>9.614404354292163E-05</v>
-      </c>
-      <c r="AA14">
-        <v>0.002900239635810339</v>
-      </c>
-      <c r="AB14">
-        <v>3.583212111219028E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>1.801475878167588E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.455881174618688E-06</v>
+        <v>5.468343712118347E-06</v>
       </c>
       <c r="C15">
-        <v>0.01755502015333781</v>
+        <v>0.01730869358900586</v>
       </c>
       <c r="D15">
-        <v>8.366289605995025E-05</v>
+        <v>8.23146929864835E-05</v>
       </c>
       <c r="E15">
-        <v>0.01879849764913755</v>
+        <v>0.01853762563220704</v>
       </c>
       <c r="F15">
-        <v>3.099807903382759</v>
+        <v>3.09980790391233</v>
+      </c>
+      <c r="R15">
+        <v>7.951505956661169</v>
       </c>
       <c r="S15">
-        <v>7.935400117921212E-05</v>
+        <v>4.388583205606119</v>
       </c>
       <c r="T15">
-        <v>0.001448112960743508</v>
+        <v>6.141690729768356</v>
       </c>
       <c r="U15">
-        <v>0.1479</v>
+        <v>0.003386641506793411</v>
       </c>
       <c r="V15">
-        <v>7.946822050472433</v>
+        <v>1.603180983126943E-05</v>
       </c>
       <c r="W15">
-        <v>9.714578902171182</v>
+        <v>0.003437457281489541</v>
       </c>
       <c r="X15">
-        <v>8.444208972064992</v>
+        <v>0.005151187118505049</v>
       </c>
       <c r="Y15">
-        <v>0.002888892479532864</v>
+        <v>8.051428030505148E-05</v>
       </c>
       <c r="Z15">
-        <v>9.649385937631224E-05</v>
-      </c>
-      <c r="AA15">
-        <v>0.002933163860117214</v>
-      </c>
-      <c r="AB15">
-        <v>3.628293046979412E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.445190545774091E-06</v>
+        <v>5.457797566068062E-06</v>
       </c>
       <c r="C16">
-        <v>0.0177581754702829</v>
+        <v>0.01750900032035492</v>
       </c>
       <c r="D16">
-        <v>8.484398818675673E-05</v>
+        <v>8.347447768146229E-05</v>
       </c>
       <c r="E16">
-        <v>0.01902669238262285</v>
+        <v>0.01876272011600404</v>
       </c>
       <c r="F16">
-        <v>3.099792526469494</v>
+        <v>3.099792527048122</v>
+      </c>
+      <c r="R16">
+        <v>8.234288389851576</v>
       </c>
       <c r="S16">
-        <v>7.855505780993839E-05</v>
+        <v>11.57449063640393</v>
       </c>
       <c r="T16">
-        <v>0.001452314713546207</v>
+        <v>10.46539730483053</v>
       </c>
       <c r="U16">
-        <v>0.1462</v>
+        <v>0.003425834642804599</v>
       </c>
       <c r="V16">
-        <v>7.942928179311612</v>
+        <v>0.004023795049183148</v>
       </c>
       <c r="W16">
-        <v>9.713157614528548</v>
+        <v>0.003417530190361454</v>
       </c>
       <c r="X16">
-        <v>8.444084355357594</v>
+        <v>1.49487886607065E-05</v>
       </c>
       <c r="Y16">
-        <v>0.002921362230930033</v>
+        <v>8.145049286673812E-05</v>
       </c>
       <c r="Z16">
-        <v>9.685313860636077E-05</v>
-      </c>
-      <c r="AA16">
-        <v>0.002966848522089859</v>
-      </c>
-      <c r="AB16">
-        <v>3.674092667193439E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>1.776929142964073E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.434244900837989E-06</v>
+        <v>5.446999745041556E-06</v>
       </c>
       <c r="C17">
-        <v>0.01796609701713109</v>
+        <v>0.01771400650673931</v>
       </c>
       <c r="D17">
-        <v>8.605846867260406E-05</v>
+        <v>8.466698665629449E-05</v>
       </c>
       <c r="E17">
-        <v>0.01926042478921481</v>
+        <v>0.01899327931672079</v>
       </c>
       <c r="F17">
-        <v>3.099777054366343</v>
+        <v>3.099777054995454</v>
+      </c>
+      <c r="R17">
+        <v>8.00559618569066</v>
       </c>
       <c r="S17">
-        <v>7.775495189236705E-05</v>
+        <v>4.400655677748725</v>
       </c>
       <c r="T17">
-        <v>0.001456578139893937</v>
+        <v>6.170412843960284</v>
       </c>
       <c r="U17">
-        <v>0.1445</v>
+        <v>0.003418799814494263</v>
       </c>
       <c r="V17">
-        <v>7.939057150371445</v>
+        <v>1.669329457050941E-05</v>
       </c>
       <c r="W17">
-        <v>9.711779758002832</v>
+        <v>0.003457560559793228</v>
       </c>
       <c r="X17">
-        <v>8.444113975297752</v>
+        <v>0.004970342894132934</v>
       </c>
       <c r="Y17">
-        <v>0.002954591749663253</v>
+        <v>8.240873186878311E-05</v>
       </c>
       <c r="Z17">
-        <v>9.722274613736387E-05</v>
-      </c>
-      <c r="AA17">
-        <v>0.003001320376153599</v>
-      </c>
-      <c r="AB17">
-        <v>3.720249399747492E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>5.869671558940096E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.423035057003686E-06</v>
+        <v>5.435941181317177E-06</v>
       </c>
       <c r="C18">
-        <v>0.01817895461889845</v>
+        <v>0.01792387959626411</v>
       </c>
       <c r="D18">
-        <v>8.730775953989921E-05</v>
+        <v>8.589361107437398E-05</v>
       </c>
       <c r="E18">
-        <v>0.01949989655549404</v>
+        <v>0.01922950237086243</v>
       </c>
       <c r="F18">
-        <v>3.099761484916157</v>
+        <v>3.099761485597234</v>
+      </c>
+      <c r="R18">
+        <v>8.288788243360779</v>
       </c>
       <c r="S18">
-        <v>7.695366801941811E-05</v>
+        <v>11.56479227284268</v>
       </c>
       <c r="T18">
-        <v>0.001460904888541075</v>
+        <v>10.453764210795</v>
       </c>
       <c r="U18">
-        <v>0.1428</v>
+        <v>0.003459301082588594</v>
       </c>
       <c r="V18">
-        <v>7.935194024718841</v>
+        <v>0.003934092635111853</v>
       </c>
       <c r="W18">
-        <v>9.710367640327853</v>
+        <v>0.003439551246289183</v>
       </c>
       <c r="X18">
-        <v>8.444145099981672</v>
+        <v>1.518412634951831E-05</v>
       </c>
       <c r="Y18">
-        <v>0.002988608047324275</v>
+        <v>8.338908943013064E-05</v>
       </c>
       <c r="Z18">
-        <v>9.760210141301255E-05</v>
-      </c>
-      <c r="AA18">
-        <v>0.003036607493798315</v>
-      </c>
-      <c r="AB18">
-        <v>3.76758988700119E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>1.753897344997285E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.411551398224536E-06</v>
+        <v>5.424612379025985E-06</v>
       </c>
       <c r="C19">
-        <v>0.01839692626780639</v>
+        <v>0.01813879509006158</v>
       </c>
       <c r="D19">
-        <v>8.85933639539501E-05</v>
+        <v>8.715582133667774E-05</v>
       </c>
       <c r="E19">
-        <v>0.01974531917692705</v>
+        <v>0.01947159810617141</v>
       </c>
       <c r="F19">
-        <v>3.099745815883293</v>
+        <v>3.099745816617879</v>
+      </c>
+      <c r="R19">
+        <v>8.059110176806008</v>
       </c>
       <c r="S19">
-        <v>7.615119039835214E-05</v>
+        <v>4.402648914748339</v>
       </c>
       <c r="T19">
-        <v>0.00146529667278033</v>
+        <v>6.17571857999067</v>
       </c>
       <c r="U19">
-        <v>0.1411</v>
+        <v>0.003453580702437711</v>
       </c>
       <c r="V19">
-        <v>7.931343836297042</v>
+        <v>1.691578810791253E-05</v>
       </c>
       <c r="W19">
-        <v>9.708982490832646</v>
+        <v>0.003480808681469179</v>
       </c>
       <c r="X19">
-        <v>8.444295499832304</v>
+        <v>0.004951168014984222</v>
       </c>
       <c r="Y19">
-        <v>0.003023439444262965</v>
+        <v>8.439377514146072E-05</v>
       </c>
       <c r="Z19">
-        <v>9.7992422419518E-05</v>
-      </c>
-      <c r="AA19">
-        <v>0.003072739199761306</v>
-      </c>
-      <c r="AB19">
-        <v>3.815528548694922E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>5.677237549172463E-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.399783843350714E-06</v>
+        <v>5.413003382640915E-06</v>
       </c>
       <c r="C20">
-        <v>0.01862019862029239</v>
+        <v>0.0183589370323631</v>
       </c>
       <c r="D20">
-        <v>8.99168721454899E-05</v>
+        <v>8.845517285421849E-05</v>
       </c>
       <c r="E20">
-        <v>0.01999691455381208</v>
+        <v>0.01971978563090963</v>
       </c>
       <c r="F20">
-        <v>3.099730044949721</v>
+        <v>3.099730045739422</v>
+      </c>
+      <c r="R20">
+        <v>8.347428064276569</v>
       </c>
       <c r="S20">
-        <v>7.534750283426516E-05</v>
+        <v>11.55304006327301</v>
       </c>
       <c r="T20">
-        <v>0.001469755273740868</v>
+        <v>10.44000167664454</v>
       </c>
       <c r="U20">
-        <v>0.1394</v>
+        <v>0.00349549125017344</v>
       </c>
       <c r="V20">
-        <v>7.927516143414314</v>
+        <v>0.003828068573102367</v>
       </c>
       <c r="W20">
-        <v>9.707625022608548</v>
+        <v>0.003462877470084849</v>
       </c>
       <c r="X20">
-        <v>8.444563707148772</v>
+        <v>1.543622472884817E-05</v>
       </c>
       <c r="Y20">
-        <v>0.003059115627456178</v>
+        <v>8.542227517519204E-05</v>
       </c>
       <c r="Z20">
-        <v>9.839419846579634E-05</v>
-      </c>
-      <c r="AA20">
-        <v>0.003109746320667091</v>
-      </c>
-      <c r="AB20">
-        <v>3.864101384546424E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>1.728662320942769E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.387721786085827E-06</v>
+        <v>5.401103717729121E-06</v>
       </c>
       <c r="C21">
-        <v>0.01884896753076334</v>
+        <v>0.01858449853680148</v>
       </c>
       <c r="D21">
-        <v>9.127996826225727E-05</v>
+        <v>8.979331272119777E-05</v>
       </c>
       <c r="E21">
-        <v>0.02025491562385006</v>
+        <v>0.01997429495953034</v>
       </c>
       <c r="F21">
-        <v>3.09971416971093</v>
+        <v>3.099714170557418</v>
+      </c>
+      <c r="R21">
+        <v>8.121391668868874</v>
       </c>
       <c r="S21">
-        <v>7.454258870133629E-05</v>
+        <v>4.398445047040889</v>
       </c>
       <c r="T21">
-        <v>0.001474282543626031</v>
+        <v>6.165382236883776</v>
       </c>
       <c r="U21">
-        <v>0.1377</v>
+        <v>0.003491385357297774</v>
       </c>
       <c r="V21">
-        <v>7.923697270116227</v>
+        <v>1.675880586595506E-05</v>
       </c>
       <c r="W21">
-        <v>9.706277058531679</v>
+        <v>0.003505438473113935</v>
       </c>
       <c r="X21">
-        <v>8.444913891034599</v>
+        <v>0.005019136048183079</v>
       </c>
       <c r="Y21">
-        <v>0.003095667743863466</v>
+        <v>8.647686903085821E-05</v>
       </c>
       <c r="Z21">
-        <v>9.880768731827475E-05</v>
-      </c>
-      <c r="AA21">
-        <v>0.003147661200998222</v>
-      </c>
-      <c r="AB21">
-        <v>3.913532992195964E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.37535412670238E-06</v>
+        <v>5.388902422076321E-06</v>
       </c>
       <c r="C22">
-        <v>0.0190834386252946</v>
+        <v>0.01881568235210248</v>
       </c>
       <c r="D22">
-        <v>9.268443633752852E-05</v>
+        <v>9.117198553818906E-05</v>
       </c>
       <c r="E22">
-        <v>0.02051956706643257</v>
+        <v>0.02023536770887785</v>
       </c>
       <c r="F22">
-        <v>3.099698187671443</v>
+        <v>3.099698188576463</v>
+      </c>
+      <c r="R22">
+        <v>8.414726397033901</v>
       </c>
       <c r="S22">
-        <v>7.373643094541469E-05</v>
+        <v>11.53706934059035</v>
       </c>
       <c r="T22">
-        <v>0.001478880409930366</v>
+        <v>10.42196418886097</v>
       </c>
       <c r="U22">
-        <v>0.136</v>
+        <v>0.003534818189190672</v>
       </c>
       <c r="V22">
-        <v>7.919888150460081</v>
+        <v>0.003688517243959214</v>
       </c>
       <c r="W22">
-        <v>9.704938918143966</v>
+        <v>0.003486517253425571</v>
       </c>
       <c r="X22">
-        <v>8.445345121474285</v>
+        <v>1.570954850906567E-05</v>
       </c>
       <c r="Y22">
-        <v>0.003133128494570281</v>
+        <v>8.755782989374394E-05</v>
       </c>
       <c r="Z22">
-        <v>9.923341893945903E-05</v>
-      </c>
-      <c r="AA22">
-        <v>0.003186517774386676</v>
-      </c>
-      <c r="AB22">
-        <v>3.963867052731876E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>1.698373845495606E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.362669176543004E-06</v>
+        <v>5.376387951483928E-06</v>
       </c>
       <c r="C23">
-        <v>0.0193238279188257</v>
+        <v>0.01905270147066659</v>
       </c>
       <c r="D23">
-        <v>9.413216880553013E-05</v>
+        <v>9.259304170071609E-05</v>
       </c>
       <c r="E23">
-        <v>0.02079112602590103</v>
+        <v>0.02050325781377857</v>
       </c>
       <c r="F23">
-        <v>3.099682096240177</v>
+        <v>3.099682097205547</v>
+      </c>
+      <c r="R23">
+        <v>8.199618597560793</v>
       </c>
       <c r="S23">
-        <v>7.292901205418028E-05</v>
+        <v>4.4123300316611</v>
       </c>
       <c r="T23">
-        <v>0.00148355087917374</v>
+        <v>6.195570514456838</v>
       </c>
       <c r="U23">
-        <v>0.1343</v>
+        <v>0.003532872631535374</v>
       </c>
       <c r="V23">
-        <v>7.916098739202716</v>
+        <v>1.738161223778373E-05</v>
       </c>
       <c r="W23">
-        <v>9.70360579153116</v>
+        <v>0.00353045152817135</v>
       </c>
       <c r="X23">
-        <v>8.44584769931055</v>
+        <v>0.004807826256521384</v>
       </c>
       <c r="Y23">
-        <v>0.003171532229704849</v>
+        <v>8.866615470458392E-05</v>
       </c>
       <c r="Z23">
-        <v>9.967189136777981E-05</v>
-      </c>
-      <c r="AA23">
-        <v>0.003226351687093756</v>
-      </c>
-      <c r="AB23">
-        <v>4.015200192477867E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>5.082884897590118E-08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.349654668319457E-06</v>
+        <v>5.363548189727038E-06</v>
       </c>
       <c r="C24">
-        <v>0.01957036247972339</v>
+        <v>0.01929577978385846</v>
       </c>
       <c r="D24">
-        <v>9.562517402142733E-05</v>
+        <v>9.405844473048237E-05</v>
       </c>
       <c r="E24">
-        <v>0.02106986291951504</v>
+        <v>0.02077823232594079</v>
       </c>
       <c r="F24">
-        <v>3.099665892725394</v>
+        <v>3.099665893753009</v>
+      </c>
+      <c r="R24">
+        <v>8.475608089199646</v>
       </c>
       <c r="S24">
-        <v>7.212031404854805E-05</v>
+        <v>11.522417556293</v>
       </c>
       <c r="T24">
-        <v>0.001488296041428569</v>
+        <v>10.40511093601019</v>
       </c>
       <c r="U24">
-        <v>0.1326</v>
+        <v>0.003577943029218676</v>
       </c>
       <c r="V24">
-        <v>7.912325505557029</v>
+        <v>0.003565158283507734</v>
       </c>
       <c r="W24">
-        <v>9.702328077868463</v>
+        <v>0.003514074929089939</v>
       </c>
       <c r="X24">
-        <v>8.446509288454219</v>
+        <v>1.599309751497469E-05</v>
       </c>
       <c r="Y24">
-        <v>0.003210915054555324</v>
+        <v>8.980224862580966E-05</v>
       </c>
       <c r="Z24">
-        <v>0.0001001244312437936</v>
-      </c>
-      <c r="AA24">
-        <v>0.003267200401006179</v>
-      </c>
-      <c r="AB24">
-        <v>4.067078380129233E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>1.669856795156797E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.336297685542892E-06</v>
+        <v>5.35037037888271E-06</v>
       </c>
       <c r="C25">
-        <v>0.01982328114603121</v>
+        <v>0.01954515278826272</v>
       </c>
       <c r="D25">
-        <v>9.716558577815967E-05</v>
+        <v>9.557028054010372E-05</v>
       </c>
       <c r="E25">
-        <v>0.02135606228534408</v>
+        <v>0.02106057225279437</v>
       </c>
       <c r="F25">
-        <v>3.09964957432942</v>
+        <v>3.099649575421259</v>
+      </c>
+      <c r="R25">
+        <v>8.274474355960029</v>
       </c>
       <c r="S25">
-        <v>7.131031845271977E-05</v>
+        <v>4.410055789252194</v>
       </c>
       <c r="T25">
-        <v>0.00149311807464696</v>
+        <v>6.189027359755424</v>
       </c>
       <c r="U25">
-        <v>0.1309</v>
+        <v>0.00357810906487726</v>
       </c>
       <c r="V25">
-        <v>7.908561269144989</v>
+        <v>1.72772270317968E-05</v>
       </c>
       <c r="W25">
-        <v>9.701045329517818</v>
+        <v>0.003559504563266237</v>
       </c>
       <c r="X25">
-        <v>8.447219832733248</v>
+        <v>0.004841387294791224</v>
       </c>
       <c r="Y25">
-        <v>0.00325131493278015</v>
+        <v>9.096850942633083E-05</v>
       </c>
       <c r="Z25">
-        <v>0.0001005908133508341</v>
-      </c>
-      <c r="AA25">
-        <v>0.003309103383047801</v>
-      </c>
-      <c r="AB25">
-        <v>4.120167203751337E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.322584659829754E-06</v>
+        <v>5.336841116556313E-06</v>
       </c>
       <c r="C26">
-        <v>0.0200828352981398</v>
+        <v>0.01980106834757486</v>
       </c>
       <c r="D26">
-        <v>9.875567251337803E-05</v>
+        <v>9.713076640227546E-05</v>
       </c>
       <c r="E26">
-        <v>0.02165002371641977</v>
+        <v>0.02135057348137932</v>
       </c>
       <c r="F26">
-        <v>3.099633138142877</v>
+        <v>3.099633139301007</v>
+      </c>
+      <c r="R26">
+        <v>8.541281793785673</v>
       </c>
       <c r="S26">
-        <v>7.04990062882431E-05</v>
+        <v>11.504726151357</v>
       </c>
       <c r="T26">
-        <v>0.001498019249918767</v>
+        <v>10.38513014344664</v>
       </c>
       <c r="U26">
-        <v>0.1292</v>
+        <v>0.003624962115375227</v>
       </c>
       <c r="V26">
-        <v>7.904807906353436</v>
+        <v>0.003421746284810256</v>
       </c>
       <c r="W26">
-        <v>9.699786231039187</v>
+        <v>0.003542637685219856</v>
       </c>
       <c r="X26">
-        <v>8.448028755046789</v>
+        <v>1.629329013730241E-05</v>
       </c>
       <c r="Y26">
-        <v>0.00329277182908843</v>
+        <v>9.216546349772993E-05</v>
       </c>
       <c r="Z26">
-        <v>0.0001010721303889395</v>
-      </c>
-      <c r="AA26">
-        <v>0.00335210208977162</v>
-      </c>
-      <c r="AB26">
-        <v>4.174231747300572E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+        <v>1.636853310626267E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.30850127693763E-06</v>
+        <v>5.322946263020015E-06</v>
       </c>
       <c r="C27">
-        <v>0.02034928969314816</v>
+        <v>0.02006378751532382</v>
       </c>
       <c r="D27">
-        <v>0.000100397848917938</v>
+        <v>9.874226224728153E-05</v>
       </c>
       <c r="E27">
-        <v>0.02195206284205713</v>
+        <v>0.02164854774938585</v>
       </c>
       <c r="F27">
-        <v>3.099616581138693</v>
+        <v>3.099616582365273</v>
+      </c>
+      <c r="R27">
+        <v>8.359506560757206</v>
       </c>
       <c r="S27">
-        <v>6.968635803684431E-05</v>
+        <v>4.415468658105672</v>
       </c>
       <c r="T27">
-        <v>0.001503001936323818</v>
+        <v>6.200346094817839</v>
       </c>
       <c r="U27">
-        <v>0.1275</v>
+        <v>0.003627671659782759</v>
       </c>
       <c r="V27">
-        <v>7.901067438605805</v>
+        <v>1.756825358815679E-05</v>
       </c>
       <c r="W27">
-        <v>9.698547798700568</v>
+        <v>0.003589655610487623</v>
       </c>
       <c r="X27">
-        <v>8.448927318322658</v>
+        <v>0.004765521339355167</v>
       </c>
       <c r="Y27">
-        <v>0.00333532782507109</v>
+        <v>9.339433416189525E-05</v>
       </c>
       <c r="Z27">
-        <v>0.0001015690644881104</v>
-      </c>
-      <c r="AA27">
-        <v>0.003396240220068935</v>
-      </c>
-      <c r="AB27">
-        <v>4.229374902585174E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.294032464727022E-06</v>
+        <v>5.308670929208656E-06</v>
       </c>
       <c r="C28">
-        <v>0.02062292336671883</v>
+        <v>0.02033358542414918</v>
       </c>
       <c r="D28">
-        <v>0.000102094687165552</v>
+        <v>0.0001004072815971863</v>
       </c>
       <c r="E28">
-        <v>0.02226251241289665</v>
+        <v>0.02195482371849141</v>
       </c>
       <c r="F28">
-        <v>3.099599900165516</v>
+        <v>3.099599901462803</v>
+      </c>
+      <c r="R28">
+        <v>8.605786579145118</v>
       </c>
       <c r="S28">
-        <v>6.887235363181147E-05</v>
+        <v>11.48676744104523</v>
       </c>
       <c r="T28">
-        <v>0.001508068606899944</v>
+        <v>10.36475020817906</v>
       </c>
       <c r="U28">
-        <v>0.1258</v>
+        <v>0.003676456840947551</v>
       </c>
       <c r="V28">
-        <v>7.897334061509858</v>
+        <v>0.003282236942685785</v>
       </c>
       <c r="W28">
-        <v>9.697361216440898</v>
+        <v>0.003573765533070494</v>
       </c>
       <c r="X28">
-        <v>8.449967346093159</v>
+        <v>1.660402374377346E-05</v>
       </c>
       <c r="Y28">
-        <v>0.003379027267781671</v>
+        <v>9.465641975867761E-05</v>
       </c>
       <c r="Z28">
-        <v>0.0001020829245154549</v>
-      </c>
-      <c r="AA28">
-        <v>0.003441563821028977</v>
-      </c>
-      <c r="AB28">
-        <v>4.285341613217313E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>1.602155419791231E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.279162334982237E-06</v>
+        <v>5.293999419120394E-06</v>
       </c>
       <c r="C29">
-        <v>0.0209040306089045</v>
+        <v>0.02061075224801975</v>
       </c>
       <c r="D29">
-        <v>0.0001038489300030379</v>
+        <v>0.000102128504305822</v>
       </c>
       <c r="E29">
-        <v>0.02258172346055837</v>
+        <v>0.0222697481217989</v>
       </c>
       <c r="F29">
-        <v>3.099583091940804</v>
+        <v>3.099583093311158</v>
+      </c>
+      <c r="R29">
+        <v>8.444694324398725</v>
       </c>
       <c r="S29">
-        <v>6.805697242729541E-05</v>
+        <v>4.418646802551971</v>
       </c>
       <c r="T29">
-        <v>0.001513221844490239</v>
+        <v>6.207042643503914</v>
       </c>
       <c r="U29">
-        <v>0.1241</v>
+        <v>0.00368185711352648</v>
       </c>
       <c r="V29">
-        <v>7.893618466636161</v>
+        <v>1.781708769060814E-05</v>
       </c>
       <c r="W29">
-        <v>9.696191410528677</v>
+        <v>0.003622493772924285</v>
       </c>
       <c r="X29">
-        <v>8.451084467409721</v>
+        <v>0.00472826526913443</v>
       </c>
       <c r="Y29">
-        <v>0.003423916916319564</v>
+        <v>9.595308084830961E-05</v>
       </c>
       <c r="Z29">
-        <v>0.0001026139652078217</v>
-      </c>
-      <c r="AA29">
-        <v>0.003488121497808386</v>
-      </c>
-      <c r="AB29">
-        <v>4.342568423207029E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.263874122663222E-06</v>
+        <v>5.278915169739222E-06</v>
       </c>
       <c r="C30">
-        <v>0.02119292202111146</v>
+        <v>0.02089559424446022</v>
       </c>
       <c r="D30">
-        <v>0.0001056635051198375</v>
+        <v>0.0001039087905398696</v>
       </c>
       <c r="E30">
-        <v>0.02291006655186873</v>
+        <v>0.02259368700497911</v>
       </c>
       <c r="F30">
-        <v>3.099566153043341</v>
+        <v>3.099566154489233</v>
+      </c>
+      <c r="R30">
+        <v>8.669896951806503</v>
       </c>
       <c r="S30">
-        <v>6.724019317717205E-05</v>
+        <v>11.46903714757913</v>
       </c>
       <c r="T30">
-        <v>0.001518464348306861</v>
+        <v>10.34445276676789</v>
       </c>
       <c r="U30">
-        <v>0.1224</v>
+        <v>0.003732746558329756</v>
       </c>
       <c r="V30">
-        <v>7.889907680123552</v>
+        <v>0.003150259577507384</v>
       </c>
       <c r="W30">
-        <v>9.695059048400996</v>
+        <v>0.003607135835476922</v>
       </c>
       <c r="X30">
-        <v>8.45231305316649</v>
+        <v>1.692040381980036E-05</v>
       </c>
       <c r="Y30">
-        <v>0.003470046123973893</v>
+        <v>9.728576252675836E-05</v>
       </c>
       <c r="Z30">
-        <v>0.0001031634416429901</v>
-      </c>
-      <c r="AA30">
-        <v>0.003535964495219168</v>
-      </c>
-      <c r="AB30">
-        <v>4.400908113319674E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>1.565048248873145E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.248150125214224E-06</v>
+        <v>5.263400690957474E-06</v>
       </c>
       <c r="C31">
-        <v>0.02148992566218177</v>
+        <v>0.02118843488465628</v>
       </c>
       <c r="D31">
-        <v>0.0001075415408923807</v>
+        <v>0.0001057511960956437</v>
       </c>
       <c r="E31">
-        <v>0.02324793314811166</v>
+        <v>0.02292702707142941</v>
       </c>
       <c r="F31">
-        <v>3.099549079905254</v>
+        <v>3.099549081429272</v>
+      </c>
+      <c r="R31">
+        <v>8.529098018938479</v>
       </c>
       <c r="S31">
-        <v>6.642199400828049E-05</v>
+        <v>4.417373586690383</v>
       </c>
       <c r="T31">
-        <v>0.001523798940865333</v>
+        <v>6.206986346960474</v>
       </c>
       <c r="U31">
-        <v>0.1207</v>
+        <v>0.00374095060031317</v>
       </c>
       <c r="V31">
-        <v>7.886205251562667</v>
+        <v>1.811570467720965E-05</v>
       </c>
       <c r="W31">
-        <v>9.693971193891329</v>
+        <v>0.003657702250007304</v>
       </c>
       <c r="X31">
-        <v>8.453658576026424</v>
+        <v>0.004776570096752963</v>
       </c>
       <c r="Y31">
-        <v>0.003517467006823624</v>
+        <v>9.865598232988418E-05</v>
       </c>
       <c r="Z31">
-        <v>0.0001037324444850146</v>
-      </c>
-      <c r="AA31">
-        <v>0.003585146965840097</v>
-      </c>
-      <c r="AB31">
-        <v>4.46039389362617E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.231971638280324E-06</v>
+        <v>5.247437501872094E-06</v>
       </c>
       <c r="C32">
-        <v>0.0217953882924859</v>
+        <v>0.02148961608020715</v>
       </c>
       <c r="D32">
-        <v>0.0001094863837281626</v>
+        <v>0.0001076589892699126</v>
       </c>
       <c r="E32">
-        <v>0.02359573707842364</v>
+        <v>0.02327017714050339</v>
       </c>
       <c r="F32">
-        <v>3.099531868803477</v>
+        <v>3.099531870408332</v>
+      </c>
+      <c r="R32">
+        <v>8.735840864780343</v>
       </c>
       <c r="S32">
-        <v>6.56023523875945E-05</v>
+        <v>11.45177693116353</v>
       </c>
       <c r="T32">
-        <v>0.001529228575310335</v>
+        <v>10.32446959147084</v>
       </c>
       <c r="U32">
-        <v>0.119</v>
+        <v>0.003794133955965113</v>
       </c>
       <c r="V32">
-        <v>7.882514781140639</v>
+        <v>0.003027041723943172</v>
       </c>
       <c r="W32">
-        <v>9.692922016135361</v>
+        <v>0.003641718423625223</v>
       </c>
       <c r="X32">
-        <v>8.455107940380449</v>
+        <v>1.723309412219093E-05</v>
       </c>
       <c r="Y32">
-        <v>0.003566234643428462</v>
+        <v>0.0001000653535060254</v>
       </c>
       <c r="Z32">
-        <v>0.0001043218786548002</v>
-      </c>
-      <c r="AA32">
-        <v>0.003635726151938723</v>
-      </c>
-      <c r="AB32">
-        <v>4.521167867024885E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>1.523768951399225E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.215318886717777E-06</v>
+        <v>5.231006062533885E-06</v>
       </c>
       <c r="C33">
-        <v>0.02210967672594616</v>
+        <v>0.02179949951630769</v>
       </c>
       <c r="D33">
-        <v>0.0001115016172145441</v>
+        <v>0.0001096356694799598</v>
       </c>
       <c r="E33">
-        <v>0.02395391613786185</v>
+        <v>0.02362356972932544</v>
       </c>
       <c r="F33">
-        <v>3.099514515850502</v>
+        <v>3.099514517539038</v>
+      </c>
+      <c r="R33">
+        <v>8.614225308467114</v>
       </c>
       <c r="S33">
-        <v>6.478124509758994E-05</v>
+        <v>4.409673549173664</v>
       </c>
       <c r="T33">
-        <v>0.001534756343573897</v>
+        <v>6.194626866437247</v>
       </c>
       <c r="U33">
-        <v>0.1173</v>
+        <v>0.003805251234690069</v>
       </c>
       <c r="V33">
-        <v>7.878825405899334</v>
+        <v>1.831605438587832E-05</v>
       </c>
       <c r="W33">
-        <v>9.691896875239911</v>
+        <v>0.003694247196516572</v>
       </c>
       <c r="X33">
-        <v>8.456637297966004</v>
+        <v>0.004937308699757668</v>
       </c>
       <c r="Y33">
-        <v>0.003616407292193298</v>
+        <v>0.0001015155738122447</v>
       </c>
       <c r="Z33">
-        <v>0.0001049325827267916</v>
-      </c>
-      <c r="AA33">
-        <v>0.003687762593580295</v>
-      </c>
-      <c r="AB33">
-        <v>4.583453307123016E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.198170964823467E-06</v>
+        <v>5.214085714654394E-06</v>
       </c>
       <c r="C34">
-        <v>0.02243317930107457</v>
+        <v>0.02211846810229045</v>
       </c>
       <c r="D34">
-        <v>0.0001135910830077478</v>
+        <v>0.0001116849875750255</v>
       </c>
       <c r="E34">
-        <v>0.024322933828138</v>
+        <v>0.02398766277586097</v>
       </c>
       <c r="F34">
-        <v>3.099497016984409</v>
+        <v>3.099497018759609</v>
+      </c>
+      <c r="R34">
+        <v>8.805937899801911</v>
       </c>
       <c r="S34">
-        <v>6.395864821272627E-05</v>
+        <v>11.43573094016573</v>
       </c>
       <c r="T34">
-        <v>0.00154038548524776</v>
+        <v>10.30553046966659</v>
       </c>
       <c r="U34">
-        <v>0.1156</v>
+        <v>0.003860941457929836</v>
       </c>
       <c r="V34">
-        <v>7.875152627103527</v>
+        <v>0.002916958210406903</v>
       </c>
       <c r="W34">
-        <v>9.690938938529937</v>
+        <v>0.003675966880292438</v>
       </c>
       <c r="X34">
-        <v>8.458307930358743</v>
+        <v>1.752450375497709E-05</v>
       </c>
       <c r="Y34">
-        <v>0.003668046626156041</v>
+        <v>0.0001030084498977189</v>
       </c>
       <c r="Z34">
-        <v>0.0001055665533168713</v>
-      </c>
-      <c r="AA34">
-        <v>0.003741320359176017</v>
-      </c>
-      <c r="AB34">
-        <v>4.646946429418673E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>1.47619642545422E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.180505690443806E-06</v>
+        <v>5.196654537340356E-06</v>
       </c>
       <c r="C35">
-        <v>0.02276630748343377</v>
+        <v>0.02244692755176381</v>
       </c>
       <c r="D35">
-        <v>0.0001157589056121388</v>
+        <v>0.0001138109699158921</v>
       </c>
       <c r="E35">
-        <v>0.02470328121980781</v>
+        <v>0.02436294148293464</v>
       </c>
       <c r="F35">
-        <v>3.099479367958388</v>
+        <v>3.099479369823385</v>
+      </c>
+      <c r="R35">
+        <v>8.701957641853742</v>
       </c>
       <c r="S35">
-        <v>6.313453704501283E-05</v>
+        <v>4.394826018605459</v>
       </c>
       <c r="T35">
-        <v>0.001546119396301241</v>
+        <v>6.167391169727741</v>
       </c>
       <c r="U35">
-        <v>0.1139</v>
+        <v>0.003875030760131671</v>
       </c>
       <c r="V35">
-        <v>7.871479521385801</v>
+        <v>1.832865137343794E-05</v>
       </c>
       <c r="W35">
-        <v>9.690021409015177</v>
+        <v>0.003730570497852698</v>
       </c>
       <c r="X35">
-        <v>8.46007581445704</v>
+        <v>0.00522931043082912</v>
       </c>
       <c r="Y35">
-        <v>0.003721217970526774</v>
+        <v>0.0001045458872451528</v>
       </c>
       <c r="Z35">
-        <v>0.0001062245510817938</v>
-      </c>
-      <c r="AA35">
-        <v>0.003796467387457835</v>
-      </c>
-      <c r="AB35">
-        <v>4.712005182470911E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.162299625515887E-06</v>
+        <v>5.178689367043757E-06</v>
       </c>
       <c r="C36">
-        <v>0.02310949761340077</v>
+        <v>0.02278530810603424</v>
       </c>
       <c r="D36">
-        <v>0.0001180095162979009</v>
+        <v>0.0001160179416276782</v>
       </c>
       <c r="E36">
-        <v>0.02509547904446374</v>
+        <v>0.02474992038908813</v>
       </c>
       <c r="F36">
-        <v>3.099461564328982</v>
+        <v>3.099461566287066</v>
+      </c>
+      <c r="R36">
+        <v>8.881916388583353</v>
       </c>
       <c r="S36">
-        <v>6.230888613831465E-05</v>
+        <v>11.42246545587749</v>
       </c>
       <c r="T36">
-        <v>0.001551961639994187</v>
+        <v>10.28917899618051</v>
       </c>
       <c r="U36">
-        <v>0.1122</v>
+        <v>0.003933465640567402</v>
       </c>
       <c r="V36">
-        <v>7.867811679791834</v>
+        <v>0.002829095158859489</v>
       </c>
       <c r="W36">
-        <v>9.689160230690019</v>
+        <v>0.003707862317050025</v>
       </c>
       <c r="X36">
-        <v>8.461960588629335</v>
+        <v>1.776752707170534E-05</v>
       </c>
       <c r="Y36">
-        <v>0.003775990598094123</v>
+        <v>0.0001061299158397764</v>
       </c>
       <c r="Z36">
-        <v>0.0001069082563790357</v>
-      </c>
-      <c r="AA36">
-        <v>0.003853275680421973</v>
-      </c>
-      <c r="AB36">
-        <v>4.778595826623324E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>1.420542617306489E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.143527840895669E-06</v>
+        <v>5.160165565095484E-06</v>
       </c>
       <c r="C37">
-        <v>0.02346321281489466</v>
+        <v>0.02313406641625588</v>
       </c>
       <c r="D37">
-        <v>0.0001203476849548239</v>
+        <v>0.0001183105575348618</v>
       </c>
       <c r="E37">
-        <v>0.02550007987652832</v>
+        <v>0.0251491455300089</v>
       </c>
       <c r="F37">
-        <v>3.099443601443975</v>
+        <v>3.099443603498609</v>
+      </c>
+      <c r="R37">
+        <v>8.793529795740518</v>
       </c>
       <c r="S37">
-        <v>6.14816692006035E-05</v>
+        <v>4.377944215155522</v>
       </c>
       <c r="T37">
-        <v>0.001557915956868862</v>
+        <v>6.134200100235072</v>
       </c>
       <c r="U37">
-        <v>0.1105</v>
+        <v>0.0039504559556706</v>
       </c>
       <c r="V37">
-        <v>7.864147862634256</v>
+        <v>1.81949209391747E-05</v>
       </c>
       <c r="W37">
-        <v>9.688343291916674</v>
+        <v>0.003764633006126614</v>
       </c>
       <c r="X37">
-        <v>8.463940717656467</v>
+        <v>0.005570489399597005</v>
       </c>
       <c r="Y37">
-        <v>0.003832438018735894</v>
+        <v>0.0001077626815903228</v>
       </c>
       <c r="Z37">
-        <v>0.0001076188761366874</v>
-      </c>
-      <c r="AA37">
-        <v>0.003911821676147446</v>
-      </c>
-      <c r="AB37">
-        <v>4.84695519951168E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.12416391734697E-06</v>
+        <v>5.141057018262348E-06</v>
       </c>
       <c r="C38">
-        <v>0.02382794508254996</v>
+        <v>0.02349368760154839</v>
       </c>
       <c r="D38">
-        <v>0.0001227785503130217</v>
+        <v>0.0001206938315237828</v>
       </c>
       <c r="E38">
-        <v>0.02591767061009799</v>
+        <v>0.02556119689082336</v>
       </c>
       <c r="F38">
-        <v>3.099425474428826</v>
+        <v>3.09942547658365</v>
+      </c>
+      <c r="R38">
+        <v>8.962034598463076</v>
       </c>
       <c r="S38">
-        <v>6.065285908385421E-05</v>
+        <v>11.41454007330828</v>
       </c>
       <c r="T38">
-        <v>0.001563986277085435</v>
+        <v>10.277936785395</v>
       </c>
       <c r="U38">
-        <v>0.1088</v>
+        <v>0.004011897534338278</v>
       </c>
       <c r="V38">
-        <v>7.860487598011058</v>
+        <v>0.002778002262060169</v>
       </c>
       <c r="W38">
-        <v>9.687603028068864</v>
+        <v>0.003736416499978639</v>
       </c>
       <c r="X38">
-        <v>8.466057356323182</v>
+        <v>1.793821155226774E-05</v>
       </c>
       <c r="Y38">
-        <v>0.003890638317839006</v>
+        <v>0.0001094464734901715</v>
       </c>
       <c r="Z38">
-        <v>0.0001083586611851606</v>
-      </c>
-      <c r="AA38">
-        <v>0.003972186553087324</v>
-      </c>
-      <c r="AB38">
-        <v>4.916913742283937E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>1.358241680646436E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.104179800843949E-06</v>
+        <v>5.121335995436412E-06</v>
       </c>
       <c r="C39">
-        <v>0.02420421756718864</v>
+        <v>0.02386468750265989</v>
       </c>
       <c r="D39">
-        <v>0.0001253076566812487</v>
+        <v>0.00012317317221584</v>
       </c>
       <c r="E39">
-        <v>0.02634887510741998</v>
+        <v>0.02598669102957828</v>
       </c>
       <c r="F39">
-        <v>3.09940717817216</v>
+        <v>3.099407180431012</v>
+      </c>
+      <c r="R39">
+        <v>8.886387342259955</v>
       </c>
       <c r="S39">
-        <v>5.982242774234392E-05</v>
+        <v>4.359130063784665</v>
       </c>
       <c r="T39">
-        <v>0.001570176733196893</v>
+        <v>6.096523167013732</v>
       </c>
       <c r="U39">
-        <v>0.1071</v>
+        <v>0.004031483173580788</v>
       </c>
       <c r="V39">
-        <v>7.856834212260339</v>
+        <v>1.800507426853208E-05</v>
       </c>
       <c r="W39">
-        <v>9.686928299894271</v>
+        <v>0.003795439964874296</v>
       </c>
       <c r="X39">
-        <v>8.468291200747457</v>
+        <v>0.005976296356078625</v>
       </c>
       <c r="Y39">
-        <v>0.003950674502865257</v>
+        <v>0.0001111837169451875</v>
       </c>
       <c r="Z39">
-        <v>0.0001091291338848001</v>
-      </c>
-      <c r="AA39">
-        <v>0.004034456670796284</v>
-      </c>
-      <c r="AB39">
-        <v>4.988714170259637E-05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.08354563961732E-06</v>
+        <v>5.100972986363608E-06</v>
       </c>
       <c r="C40">
-        <v>0.02459258708187425</v>
+        <v>0.02424761515315092</v>
       </c>
       <c r="D40">
-        <v>0.0001279409952493149</v>
+        <v>0.0001257544230578445</v>
       </c>
       <c r="E40">
-        <v>0.02679435708905641</v>
+        <v>0.02642628394063905</v>
       </c>
       <c r="F40">
-        <v>3.09938870731019</v>
+        <v>3.099388709677111</v>
+      </c>
+      <c r="R40">
+        <v>9.045076910532337</v>
       </c>
       <c r="S40">
-        <v>5.899034617939873E-05</v>
+        <v>11.41330789911191</v>
       </c>
       <c r="T40">
-        <v>0.001576491673721552</v>
+        <v>10.27313131533955</v>
       </c>
       <c r="U40">
-        <v>0.1054</v>
+        <v>0.004096216691311631</v>
       </c>
       <c r="V40">
-        <v>7.853178554715837</v>
+        <v>0.002770332806873482</v>
       </c>
       <c r="W40">
-        <v>9.686319544598501</v>
+        <v>0.003760264861790355</v>
       </c>
       <c r="X40">
-        <v>8.470635359895791</v>
+        <v>1.801623032051317E-05</v>
       </c>
       <c r="Y40">
-        <v>0.004012634912042361</v>
+        <v>0.0001129770027023679</v>
       </c>
       <c r="Z40">
-        <v>0.0001099320518728529</v>
-      </c>
-      <c r="AA40">
-        <v>0.004098723921265538</v>
-      </c>
-      <c r="AB40">
-        <v>5.062516514972594E-05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>1.29064641990612E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.062229676412754E-06</v>
+        <v>5.07993659458417E-06</v>
       </c>
       <c r="C41">
-        <v>0.02499364685378613</v>
+        <v>0.02464305549298852</v>
       </c>
       <c r="D41">
-        <v>0.0001306850488538866</v>
+        <v>0.0001284439057724181</v>
       </c>
       <c r="E41">
-        <v>0.02725482332567206</v>
+        <v>0.02688067421674527</v>
       </c>
       <c r="F41">
-        <v>3.099370056209731</v>
+        <v>3.099370058688985</v>
+      </c>
+      <c r="R41">
+        <v>8.979329800343526</v>
       </c>
       <c r="S41">
-        <v>5.815658439847879E-05</v>
+        <v>4.33775584940612</v>
       </c>
       <c r="T41">
-        <v>0.001582935678113531</v>
+        <v>6.052919041908059</v>
       </c>
       <c r="U41">
-        <v>0.1037</v>
+        <v>0.004117952492695863</v>
       </c>
       <c r="V41">
-        <v>7.849525413109991</v>
+        <v>1.774140329523553E-05</v>
       </c>
       <c r="W41">
-        <v>9.685780123327966</v>
+        <v>0.003821613200011172</v>
       </c>
       <c r="X41">
-        <v>8.473092728224056</v>
+        <v>0.006473109973716101</v>
       </c>
       <c r="Y41">
-        <v>0.004076613647454977</v>
+        <v>0.0001148290825980683</v>
       </c>
       <c r="Z41">
-        <v>0.0001107695299323773</v>
-      </c>
-      <c r="AA41">
-        <v>0.004165086195955962</v>
-      </c>
-      <c r="AB41">
-        <v>5.138434913085859E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.04019810831765E-06</v>
+        <v>5.058193398509859E-06</v>
       </c>
       <c r="C42">
-        <v>0.025408029550535</v>
+        <v>0.02505163235277545</v>
       </c>
       <c r="D42">
-        <v>0.0001335468427308839</v>
+        <v>0.0001312484695978063</v>
       </c>
       <c r="E42">
-        <v>0.02773102712579755</v>
+        <v>0.02735060650502815</v>
       </c>
       <c r="F42">
-        <v>3.099351218949574</v>
+        <v>3.099351221545664</v>
+      </c>
+      <c r="R42">
+        <v>9.130774179338166</v>
       </c>
       <c r="S42">
-        <v>5.732111136624349E-05</v>
+        <v>11.41907893083475</v>
       </c>
       <c r="T42">
-        <v>0.001589513573545176</v>
+        <v>10.27506001568066</v>
       </c>
       <c r="U42">
-        <v>0.102</v>
+        <v>0.004186289344185873</v>
       </c>
       <c r="V42">
-        <v>7.845867591247396</v>
+        <v>0.002807687520923014</v>
       </c>
       <c r="W42">
-        <v>9.685324826290417</v>
+        <v>0.003777421587116091</v>
       </c>
       <c r="X42">
-        <v>8.475675433257972</v>
+        <v>1.798082584138446E-05</v>
       </c>
       <c r="Y42">
-        <v>0.004142711049413686</v>
+        <v>0.0001167429006413695</v>
       </c>
       <c r="Z42">
-        <v>0.0001116440225905826</v>
-      </c>
-      <c r="AA42">
-        <v>0.004233647893403047</v>
-      </c>
-      <c r="AB42">
-        <v>5.21652663967335E-05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>1.218173338120106E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.017414862422597E-06</v>
+        <v>5.035707729131578E-06</v>
       </c>
       <c r="C43">
-        <v>0.02583641061337914</v>
+        <v>0.02547401174062592</v>
       </c>
       <c r="D43">
-        <v>0.0001365340033957125</v>
+        <v>0.0001341755483944921</v>
       </c>
       <c r="E43">
-        <v>0.02822377212818887</v>
+        <v>0.02783687526592675</v>
       </c>
       <c r="F43">
-        <v>3.099332189300622</v>
+        <v>3.099332192018305</v>
+      </c>
+      <c r="R43">
+        <v>9.072515691717006</v>
       </c>
       <c r="S43">
-        <v>5.648389494206193E-05</v>
+        <v>4.312937546404357</v>
       </c>
       <c r="T43">
-        <v>0.001596230452172181</v>
+        <v>6.001081018399917</v>
       </c>
       <c r="U43">
-        <v>0.1003</v>
+        <v>0.004209655476783548</v>
       </c>
       <c r="V43">
-        <v>7.842211124017542</v>
+        <v>1.736393786560893E-05</v>
       </c>
       <c r="W43">
-        <v>9.684947550459073</v>
+        <v>0.00384114092205295</v>
       </c>
       <c r="X43">
-        <v>8.478370199877363</v>
+        <v>0.007101477985228033</v>
       </c>
       <c r="Y43">
-        <v>0.00421103421935984</v>
+        <v>0.0001187215918078785</v>
       </c>
       <c r="Z43">
-        <v>0.0001125576755532504</v>
-      </c>
-      <c r="AA43">
-        <v>0.004304520480301459</v>
-      </c>
-      <c r="AB43">
-        <v>5.29703430594022E-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.993841478792476E-06</v>
+        <v>5.012441553740722E-06</v>
       </c>
       <c r="C44">
-        <v>0.02627951193424092</v>
+        <v>0.02591090546807818</v>
       </c>
       <c r="D44">
-        <v>0.0001396548220323366</v>
+        <v>0.0001372332221105498</v>
       </c>
       <c r="E44">
-        <v>0.02873391652676641</v>
+        <v>0.02834032896055459</v>
       </c>
       <c r="F44">
-        <v>3.099312960704113</v>
+        <v>3.099312963548419</v>
+      </c>
+      <c r="R44">
+        <v>9.219921581191668</v>
       </c>
       <c r="S44">
-        <v>5.564490181701067E-05</v>
+        <v>11.43175159593356</v>
       </c>
       <c r="T44">
-        <v>0.001603091690403917</v>
+        <v>10.28361806813254</v>
       </c>
       <c r="U44">
-        <v>0.09860000000000002</v>
+        <v>0.00428193636538558</v>
       </c>
       <c r="V44">
-        <v>7.838550735214581</v>
+        <v>0.00289121028064768</v>
       </c>
       <c r="W44">
-        <v>9.684667302870212</v>
+        <v>0.003784928214067172</v>
       </c>
       <c r="X44">
-        <v>8.481197472804745</v>
+        <v>1.780362379337623E-05</v>
       </c>
       <c r="Y44">
-        <v>0.00428169760804616</v>
+        <v>0.0001207685158045661</v>
       </c>
       <c r="Z44">
-        <v>0.000113513543265052</v>
-      </c>
-      <c r="AA44">
-        <v>0.004377823068874597</v>
-      </c>
-      <c r="AB44">
-        <v>5.379982344721644E-05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>1.140118301325422E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.96943686783755E-06</v>
+        <v>4.98835423534643E-06</v>
       </c>
       <c r="C45">
-        <v>0.02673810591866563</v>
+        <v>0.02636307515660393</v>
       </c>
       <c r="D45">
-        <v>0.0001429183289770178</v>
+        <v>0.0001404302889774735</v>
       </c>
       <c r="E45">
-        <v>0.02926237766100359</v>
+        <v>0.02886187460188043</v>
       </c>
       <c r="F45">
-        <v>3.099293526247504</v>
+        <v>3.099293529223758</v>
+      </c>
+      <c r="R45">
+        <v>9.167228279223718</v>
       </c>
       <c r="S45">
-        <v>5.480409747325358E-05</v>
+        <v>4.28390722057659</v>
       </c>
       <c r="T45">
-        <v>0.001610102970806313</v>
+        <v>5.938400542912012</v>
       </c>
       <c r="U45">
-        <v>0.09690000000000001</v>
+        <v>0.004306335068626596</v>
       </c>
       <c r="V45">
-        <v>7.834885090019819</v>
+        <v>1.681162632712017E-05</v>
       </c>
       <c r="W45">
-        <v>9.684459741167059</v>
+        <v>0.003851018119159695</v>
       </c>
       <c r="X45">
-        <v>8.484118245324458</v>
+        <v>0.007912914035908577</v>
       </c>
       <c r="Y45">
-        <v>0.00435482364427039</v>
+        <v>0.0001228872596956667</v>
       </c>
       <c r="Z45">
-        <v>0.0001145135724444381</v>
-      </c>
-      <c r="AA45">
-        <v>0.00445368312581192</v>
-      </c>
-      <c r="AB45">
-        <v>5.465823109451447E-05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.944157087793722E-06</v>
+        <v>4.963402311974662E-06</v>
       </c>
       <c r="C46">
-        <v>0.02721301998276721</v>
+        <v>0.02683133667209726</v>
       </c>
       <c r="D46">
-        <v>0.0001463343771961492</v>
+        <v>0.0001437763463942479</v>
       </c>
       <c r="E46">
-        <v>0.02981013709151436</v>
+        <v>0.02940248278757833</v>
       </c>
       <c r="F46">
-        <v>3.099273878638676</v>
+        <v>3.099273881752522</v>
+      </c>
+      <c r="R46">
+        <v>9.314262597469884</v>
       </c>
       <c r="S46">
-        <v>5.396144610260477E-05</v>
+        <v>11.45137517572418</v>
       </c>
       <c r="T46">
-        <v>0.001617270304768212</v>
+        <v>10.29885905656144</v>
       </c>
       <c r="U46">
-        <v>0.09520000000000002</v>
+        <v>0.004382933701524801</v>
       </c>
       <c r="V46">
-        <v>7.831211143278574</v>
+        <v>0.003025378948739175</v>
       </c>
       <c r="W46">
-        <v>9.684371678576504</v>
+        <v>0.003778484263503465</v>
       </c>
       <c r="X46">
-        <v>8.4871866749705</v>
+        <v>1.744185890503632E-05</v>
       </c>
       <c r="Y46">
-        <v>0.004430543466981567</v>
+        <v>0.000125081675047375</v>
       </c>
       <c r="Z46">
-        <v>0.0001155620820992878</v>
-      </c>
-      <c r="AA46">
-        <v>0.004532237141789016</v>
-      </c>
-      <c r="AB46">
-        <v>5.554368245878013E-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>1.054839023658567E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.917955155373314E-06</v>
+        <v>4.937539308376142E-06</v>
       </c>
       <c r="C47">
-        <v>0.02770514153923214</v>
+        <v>0.0273165650416555</v>
       </c>
       <c r="D47">
-        <v>0.0001499137357253096</v>
+        <v>0.0001472818814395223</v>
       </c>
       <c r="E47">
-        <v>0.03037824622738414</v>
+        <v>0.02996319328034219</v>
       </c>
       <c r="F47">
-        <v>3.099254010177742</v>
+        <v>3.099254013435167</v>
+      </c>
+      <c r="R47">
+        <v>9.265579805296372</v>
       </c>
       <c r="S47">
-        <v>5.311691052147802E-05</v>
+        <v>4.250002620314064</v>
       </c>
       <c r="T47">
-        <v>0.00162460005736102</v>
+        <v>5.861709370518358</v>
       </c>
       <c r="U47">
-        <v>0.09350000000000001</v>
+        <v>0.004407616515211812</v>
       </c>
       <c r="V47">
-        <v>7.827532566991875</v>
+        <v>1.599522315637561E-05</v>
       </c>
       <c r="W47">
-        <v>9.684377106277701</v>
+        <v>0.003846866852677982</v>
       </c>
       <c r="X47">
-        <v>8.490363782425311</v>
+        <v>0.008975983538776038</v>
       </c>
       <c r="Y47">
-        <v>0.004508997673979428</v>
+        <v>0.0001273558854030746</v>
       </c>
       <c r="Z47">
-        <v>0.0001166615041363182</v>
-      </c>
-      <c r="AA47">
-        <v>0.004613631568322293</v>
-      </c>
-      <c r="AB47">
-        <v>5.646110469661829E-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.890780682117229E-06</v>
+        <v>4.910715375663759E-06</v>
       </c>
       <c r="C48">
-        <v>0.02821542353559338</v>
+        <v>0.02781969991499283</v>
       </c>
       <c r="D48">
-        <v>0.0001536682004224252</v>
+        <v>0.0001509583780989764</v>
       </c>
       <c r="E48">
-        <v>0.03096783245141529</v>
+        <v>0.03054512108477821</v>
       </c>
       <c r="F48">
-        <v>3.099233912725485</v>
+        <v>3.099233916132844</v>
+      </c>
+      <c r="R48">
+        <v>9.416561826727442</v>
       </c>
       <c r="S48">
-        <v>5.227045212167481E-05</v>
+        <v>11.47845969968291</v>
       </c>
       <c r="T48">
-        <v>0.001632098976140491</v>
+        <v>10.32131101822551</v>
       </c>
       <c r="U48">
-        <v>0.09180000000000001</v>
+        <v>0.004488942835435061</v>
       </c>
       <c r="V48">
-        <v>7.823842853784041</v>
+        <v>0.003220899412695596</v>
       </c>
       <c r="W48">
-        <v>9.684488379747497</v>
+        <v>0.003751883210342833</v>
       </c>
       <c r="X48">
-        <v>8.4936577702458</v>
+        <v>1.683137114459088E-05</v>
       </c>
       <c r="Y48">
-        <v>0.004590337232680226</v>
+        <v>0.0001297143277253537</v>
       </c>
       <c r="Z48">
-        <v>0.0001178156251539967</v>
-      </c>
-      <c r="AA48">
-        <v>0.00469802361394499</v>
-      </c>
-      <c r="AB48">
-        <v>5.741218447981383E-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>9.600309542915101E-11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.862579651056778E-06</v>
+        <v>4.882877069111131E-06</v>
       </c>
       <c r="C49">
-        <v>0.02874489061738906</v>
+        <v>0.02834175164210403</v>
       </c>
       <c r="D49">
-        <v>0.0001576107158648563</v>
+        <v>0.0001548184352493937</v>
       </c>
       <c r="E49">
-        <v>0.03158010599068824</v>
+        <v>0.03114946326324985</v>
       </c>
       <c r="F49">
-        <v>3.09921357766935</v>
+        <v>3.099213581233398</v>
+      </c>
+      <c r="R49">
+        <v>9.370529575924714</v>
       </c>
       <c r="S49">
-        <v>5.142203077690322E-05</v>
+        <v>4.210456185597164</v>
       </c>
       <c r="T49">
-        <v>0.001639774221355606</v>
+        <v>5.766347199718243</v>
       </c>
       <c r="U49">
-        <v>0.09010000000000001</v>
+        <v>0.004512868183033919</v>
       </c>
       <c r="V49">
-        <v>7.820145088894782</v>
+        <v>1.477852717743175E-05</v>
       </c>
       <c r="W49">
-        <v>9.684722231495471</v>
+        <v>0.003822355886554121</v>
       </c>
       <c r="X49">
-        <v>8.497081529564074</v>
+        <v>0.01039301400055131</v>
       </c>
       <c r="Y49">
-        <v>0.00467472443282223</v>
+        <v>0.000132161766059736</v>
       </c>
       <c r="Z49">
-        <v>0.0001190287933755238</v>
-      </c>
-      <c r="AA49">
-        <v>0.004785582320161314</v>
-      </c>
-      <c r="AB49">
-        <v>5.839857871591473E-05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.833294086850184E-06</v>
+        <v>4.853967020528526E-06</v>
       </c>
       <c r="C50">
-        <v>0.02929464600011068</v>
+        <v>0.02888380804992816</v>
       </c>
       <c r="D50">
-        <v>0.0001617555174024336</v>
+        <v>0.0001588759040912856</v>
       </c>
       <c r="E50">
-        <v>0.03221636748036162</v>
+        <v>0.03177750644184255</v>
       </c>
       <c r="F50">
-        <v>3.09919299588624</v>
+        <v>3.099192999614167</v>
+      </c>
+      <c r="R50">
+        <v>9.531131750401961</v>
       </c>
       <c r="S50">
-        <v>5.057160473611545E-05</v>
+        <v>11.51423153483159</v>
       </c>
       <c r="T50">
-        <v>0.001647633398927178</v>
+        <v>10.35224548860693</v>
       </c>
       <c r="U50">
-        <v>0.08840000000000001</v>
+        <v>0.004599369907185005</v>
       </c>
       <c r="V50">
-        <v>7.816433101493018</v>
+        <v>0.003498928482112488</v>
       </c>
       <c r="W50">
-        <v>9.685065879937115</v>
+        <v>0.00369599707666956</v>
       </c>
       <c r="X50">
-        <v>8.500613700424918</v>
+        <v>1.587627184352774E-05</v>
       </c>
       <c r="Y50">
-        <v>0.004762333964350052</v>
+        <v>0.0001347033384839617</v>
       </c>
       <c r="Z50">
-        <v>0.0001203046983947294</v>
-      </c>
-      <c r="AA50">
-        <v>0.004876489699804495</v>
-      </c>
-      <c r="AB50">
-        <v>5.942462494684076E-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>8.528659215300177E-11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.802861650381762E-06</v>
+        <v>4.823923535863085E-06</v>
       </c>
       <c r="C51">
-        <v>0.02986587914683046</v>
+        <v>0.02944704201357203</v>
       </c>
       <c r="D51">
-        <v>0.0001661182959096638</v>
+        <v>0.0001631460474677371</v>
       </c>
       <c r="E51">
-        <v>0.03287801632179296</v>
+        <v>0.03243063510702711</v>
       </c>
       <c r="F51">
-        <v>3.09917215770123</v>
+        <v>3.099172161600695</v>
+      </c>
+      <c r="R51">
+        <v>9.486375176938546</v>
       </c>
       <c r="S51">
-        <v>4.971913052844902E-05</v>
+        <v>4.164125024123722</v>
       </c>
       <c r="T51">
-        <v>0.00165568459754108</v>
+        <v>5.644282545024117</v>
       </c>
       <c r="U51">
-        <v>0.08670000000000001</v>
+        <v>0.004620947190029564</v>
       </c>
       <c r="V51">
-        <v>7.812707295239981</v>
+        <v>1.293166735665129E-05</v>
       </c>
       <c r="W51">
-        <v>9.685563813488978</v>
+        <v>0.003768156308136737</v>
       </c>
       <c r="X51">
-        <v>8.50429756459363</v>
+        <v>0.01233125871385036</v>
       </c>
       <c r="Y51">
-        <v>0.00485335414603545</v>
+        <v>0.0001373445787427336</v>
       </c>
       <c r="Z51">
-        <v>0.0001216494224702275</v>
-      </c>
-      <c r="AA51">
-        <v>0.004970941956174253</v>
-      </c>
-      <c r="AB51">
-        <v>6.049014775861548E-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.769111641194788E-06</v>
+        <v>4.790575634868646E-06</v>
       </c>
       <c r="C52">
-        <v>0.03045987436384887</v>
+        <v>0.03003271993289411</v>
       </c>
       <c r="D52">
-        <v>0.0001707839542487558</v>
+        <v>0.0001677117771134488</v>
       </c>
       <c r="E52">
-        <v>0.03356511541538116</v>
+        <v>0.03310891526707692</v>
       </c>
       <c r="F52">
-        <v>3.098089868892739</v>
+        <v>3.098089878070881</v>
+      </c>
+      <c r="R52">
+        <v>9.66524875164091</v>
       </c>
       <c r="S52">
-        <v>4.886456289918886E-05</v>
+        <v>11.5612241975618</v>
       </c>
       <c r="T52">
-        <v>0.003743856970232864</v>
+        <v>10.39414385885628</v>
       </c>
       <c r="U52">
-        <v>0.08500000000000001</v>
+        <v>0.004713107500483022</v>
       </c>
       <c r="V52">
-        <v>7.808965193360266</v>
+        <v>0.003901795507155121</v>
       </c>
       <c r="W52">
-        <v>9.686396033559705</v>
+        <v>0.003596894260022465</v>
       </c>
       <c r="X52">
-        <v>8.50811002844471</v>
+        <v>1.443666893153411E-05</v>
       </c>
       <c r="Y52">
-        <v>0.004947988240506754</v>
+        <v>0.0001400914703175883</v>
       </c>
       <c r="Z52">
-        <v>0.0001231057668724404</v>
-      </c>
-      <c r="AA52">
-        <v>0.005069150992342566</v>
-      </c>
-      <c r="AB52">
-        <v>6.161011802986168E-05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>7.303323799194077E-11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.698876063163296E-06</v>
+        <v>5.717956071235654E-06</v>
       </c>
       <c r="C53">
-        <v>0.03107801906608561</v>
+        <v>0.03064220989525698</v>
       </c>
       <c r="D53">
-        <v>0.000147991572843378</v>
+        <v>0.00014546216762023</v>
       </c>
       <c r="E53">
-        <v>0.03309274282389862</v>
+        <v>0.03263555140508868</v>
       </c>
       <c r="F53">
-        <v>3.897350417916627</v>
+        <v>3.897350430720623</v>
+      </c>
+      <c r="R53">
+        <v>9.619651745457514</v>
       </c>
       <c r="S53">
-        <v>9.030858370959505E-05</v>
+        <v>4.389333100691534</v>
       </c>
       <c r="T53">
-        <v>0.001420905797233235</v>
+        <v>6.044672625145366</v>
       </c>
       <c r="U53">
-        <v>0.1715</v>
+        <v>0.00472966488810196</v>
       </c>
       <c r="V53">
-        <v>7.804815301343567</v>
+        <v>1.117920378619162E-05</v>
       </c>
       <c r="W53">
-        <v>9.664734227302155</v>
+        <v>0.003670005639432484</v>
       </c>
       <c r="X53">
-        <v>8.572065650135258</v>
+        <v>0.004701274190945738</v>
       </c>
       <c r="Y53">
-        <v>0.005046455229764597</v>
+        <v>0.0001429504784254322</v>
       </c>
       <c r="Z53">
-        <v>0.0001084072592501631</v>
-      </c>
-      <c r="AA53">
-        <v>0.005171345704063234</v>
-      </c>
-      <c r="AB53">
-        <v>5.167285276715614E-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.669814875098694E-06</v>
+        <v>5.689282948180329E-06</v>
       </c>
       <c r="C54">
-        <v>0.03172239463886149</v>
+        <v>0.03127755880624942</v>
       </c>
       <c r="D54">
-        <v>0.0001519548579352895</v>
+        <v>0.0001493463100314137</v>
       </c>
       <c r="E54">
-        <v>0.03380648274328736</v>
+        <v>0.03333971408485073</v>
       </c>
       <c r="F54">
-        <v>3.897332005189638</v>
+        <v>3.897332018161659</v>
+      </c>
+      <c r="R54">
+        <v>9.685472461233651</v>
       </c>
       <c r="S54">
-        <v>8.869289238773768E-05</v>
+        <v>11.54203631386699</v>
       </c>
       <c r="T54">
-        <v>0.001428281594305982</v>
+        <v>10.44012265772211</v>
       </c>
       <c r="U54">
-        <v>0.168</v>
+        <v>0.004827966673191872</v>
       </c>
       <c r="V54">
-        <v>7.801289788357385</v>
+        <v>0.003724618644060847</v>
       </c>
       <c r="W54">
-        <v>9.665383301484406</v>
+        <v>0.003648520877942625</v>
       </c>
       <c r="X54">
-        <v>8.575636151616374</v>
+        <v>1.165582650754085E-05</v>
       </c>
       <c r="Y54">
-        <v>0.005149331229150314</v>
+        <v>0.0001459286133926287</v>
       </c>
       <c r="Z54">
-        <v>0.0001096310680170725</v>
-      </c>
-      <c r="AA54">
-        <v>0.005278005555131902</v>
-      </c>
-      <c r="AB54">
-        <v>5.263124079128459E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+        <v>5.169047077497689E-11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.639514939041173E-06</v>
+        <v>5.659386857628901E-06</v>
       </c>
       <c r="C55">
-        <v>0.03239410612356204</v>
+        <v>0.03193986119978597</v>
       </c>
       <c r="D55">
-        <v>0.0001561328149923154</v>
+        <v>0.0001534402321370906</v>
       </c>
       <c r="E55">
-        <v>0.03455118526123116</v>
+        <v>0.03407444152855029</v>
       </c>
       <c r="F55">
-        <v>3.897313336208772</v>
+        <v>3.897313349357311</v>
+      </c>
+      <c r="R55">
+        <v>9.642067050922289</v>
       </c>
       <c r="S55">
-        <v>8.70729848590562E-05</v>
+        <v>4.445176497737124</v>
       </c>
       <c r="T55">
-        <v>0.001435852887335487</v>
+        <v>6.144829225393316</v>
       </c>
       <c r="U55">
-        <v>0.1645</v>
+        <v>0.004851442163173382</v>
       </c>
       <c r="V55">
-        <v>7.797745320927437</v>
+        <v>1.156425770816493E-05</v>
       </c>
       <c r="W55">
-        <v>9.66614190664002</v>
+        <v>0.003725900985419967</v>
       </c>
       <c r="X55">
-        <v>8.579301277109922</v>
+        <v>0.003777555383353611</v>
       </c>
       <c r="Y55">
-        <v>0.00525655889215315</v>
+        <v>0.0001490334764075682</v>
       </c>
       <c r="Z55">
-        <v>0.0001109210694368427</v>
-      </c>
-      <c r="AA55">
-        <v>0.005389183732032767</v>
-      </c>
-      <c r="AB55">
-        <v>5.36328578531467E-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.607896138714091E-06</v>
+        <v>5.628188637473886E-06</v>
       </c>
       <c r="C56">
-        <v>0.03309493163027008</v>
+        <v>0.0326308703512566</v>
       </c>
       <c r="D56">
-        <v>0.000160543163181672</v>
+        <v>0.0001577611992208612</v>
       </c>
       <c r="E56">
-        <v>0.03532887851097249</v>
+        <v>0.03484173732770152</v>
       </c>
       <c r="F56">
-        <v>3.897294399738493</v>
+        <v>3.897294413072655</v>
+      </c>
+      <c r="R56">
+        <v>9.695124198897583</v>
       </c>
       <c r="S56">
-        <v>8.54487600000346E-05</v>
+        <v>11.55969270874299</v>
       </c>
       <c r="T56">
-        <v>0.001443629205852498</v>
+        <v>10.45247527191338</v>
       </c>
       <c r="U56">
-        <v>0.161</v>
+        <v>0.004956656900248714</v>
       </c>
       <c r="V56">
-        <v>7.794178327809257</v>
+        <v>0.003882428498880774</v>
       </c>
       <c r="W56">
-        <v>9.667030309511372</v>
+        <v>0.003724778063725757</v>
       </c>
       <c r="X56">
-        <v>8.58307616522811</v>
+        <v>1.189027756046729E-05</v>
       </c>
       <c r="Y56">
-        <v>0.00536842058395133</v>
+        <v>0.0001522733345903414</v>
       </c>
       <c r="Z56">
-        <v>0.0001122830573914803</v>
-      </c>
-      <c r="AA56">
-        <v>0.005505173968427976</v>
-      </c>
-      <c r="AB56">
-        <v>5.468017786783535E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+        <v>5.126761736247864E-11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.574871403834935E-06</v>
+        <v>5.595602247002855E-06</v>
       </c>
       <c r="C57">
-        <v>0.03382680692953871</v>
+        <v>0.03335249499907962</v>
       </c>
       <c r="D57">
-        <v>0.0001652056086824073</v>
+        <v>0.0001623284069824795</v>
       </c>
       <c r="E57">
-        <v>0.03614176903042839</v>
+        <v>0.03564378148759015</v>
       </c>
       <c r="F57">
-        <v>3.897275183769457</v>
+        <v>3.89727519729902</v>
+      </c>
+      <c r="R57">
+        <v>9.649384981445687</v>
       </c>
       <c r="S57">
-        <v>8.382011199910874E-05</v>
+        <v>4.405976736888872</v>
       </c>
       <c r="T57">
-        <v>0.001451620765119946</v>
+        <v>6.076332394645954</v>
       </c>
       <c r="U57">
-        <v>0.1575</v>
+        <v>0.004980528642501335</v>
       </c>
       <c r="V57">
-        <v>7.790585357387327</v>
+        <v>1.167247800366278E-05</v>
       </c>
       <c r="W57">
-        <v>9.668040736671822</v>
+        <v>0.003807286681196097</v>
       </c>
       <c r="X57">
-        <v>8.586947159577502</v>
+        <v>0.004435148212064279</v>
       </c>
       <c r="Y57">
-        <v>0.005485223640097105</v>
+        <v>0.0001556571853308464</v>
       </c>
       <c r="Z57">
-        <v>0.000113722108957559</v>
-      </c>
-      <c r="AA57">
-        <v>0.005626296052662646</v>
-      </c>
-      <c r="AB57">
-        <v>5.577798981817936E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.540345966552693E-06</v>
+        <v>5.561534030281395E-06</v>
       </c>
       <c r="C58">
-        <v>0.03459184332319454</v>
+        <v>0.03410681696708183</v>
       </c>
       <c r="D58">
-        <v>0.0001701421287328766</v>
+        <v>0.0001671632566643532</v>
       </c>
       <c r="E58">
-        <v>0.0369922615297439</v>
+        <v>0.03648294999695591</v>
       </c>
       <c r="F58">
-        <v>3.897255675446493</v>
+        <v>3.897255689181977</v>
+      </c>
+      <c r="R58">
+        <v>9.712919481591845</v>
       </c>
       <c r="S58">
-        <v>8.218692997434879E-05</v>
+        <v>11.58067485824246</v>
       </c>
       <c r="T58">
-        <v>0.001459838530929836</v>
+        <v>10.46776150794114</v>
       </c>
       <c r="U58">
-        <v>0.154</v>
+        <v>0.005093457191694464</v>
       </c>
       <c r="V58">
-        <v>7.786963273458984</v>
+        <v>0.00407847172621233</v>
       </c>
       <c r="W58">
-        <v>9.669163432963984</v>
+        <v>0.003793017100949093</v>
       </c>
       <c r="X58">
-        <v>8.590897753517003</v>
+        <v>1.20343941107416E-05</v>
       </c>
       <c r="Y58">
-        <v>0.005607303220350276</v>
+        <v>0.0001591948486338202</v>
       </c>
       <c r="Z58">
-        <v>0.000115243626178145</v>
-      </c>
-      <c r="AA58">
-        <v>0.005752898735909112</v>
-      </c>
-      <c r="AB58">
-        <v>5.693169574650381E-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+        <v>5.029541237436619E-11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.504216428842953E-06</v>
+        <v>5.52588179258541E-06</v>
       </c>
       <c r="C59">
-        <v>0.0353923480021355</v>
+        <v>0.03489611123941712</v>
       </c>
       <c r="D59">
-        <v>0.0001753773082073756</v>
+        <v>0.0001722896808941113</v>
       </c>
       <c r="E59">
-        <v>0.03788298125669529</v>
+        <v>0.03736183697398473</v>
       </c>
       <c r="F59">
-        <v>3.897235860985394</v>
+        <v>3.897235874938132</v>
+      </c>
+      <c r="R59">
+        <v>9.664514128468896</v>
       </c>
       <c r="S59">
-        <v>8.054909777073181E-05</v>
+        <v>4.363231726489418</v>
       </c>
       <c r="T59">
-        <v>0.001468294296838296</v>
+        <v>5.997038992196149</v>
       </c>
       <c r="U59">
-        <v>0.1505</v>
+        <v>0.005117061504845212</v>
       </c>
       <c r="V59">
-        <v>7.783315466730171</v>
+        <v>1.162554454442412E-05</v>
       </c>
       <c r="W59">
-        <v>9.670435363580099</v>
+        <v>0.003880946931340682</v>
       </c>
       <c r="X59">
-        <v>8.59495907003331</v>
+        <v>0.005275151694617152</v>
       </c>
       <c r="Y59">
-        <v>0.005735025536493814</v>
+        <v>0.0001628970532463413</v>
       </c>
       <c r="Z59">
-        <v>0.0001168560490197915</v>
-      </c>
-      <c r="AA59">
-        <v>0.005885363085680335</v>
-      </c>
-      <c r="AB59">
-        <v>5.814399589059615E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.46636986125468E-06</v>
+        <v>5.488533906957384E-06</v>
       </c>
       <c r="C60">
-        <v>0.03623084730437188</v>
+        <v>0.03572286889557242</v>
       </c>
       <c r="D60">
-        <v>0.0001809387327573259</v>
+        <v>0.0001777345241150378</v>
       </c>
       <c r="E60">
-        <v>0.03881679949362691</v>
+        <v>0.03828327991639316</v>
       </c>
       <c r="F60">
-        <v>3.897215725583572</v>
+        <v>3.897215739765795</v>
+      </c>
+      <c r="R60">
+        <v>9.74163254858386</v>
       </c>
       <c r="S60">
-        <v>7.890649339479497E-05</v>
+        <v>11.60607117980924</v>
       </c>
       <c r="T60">
-        <v>0.00147700076376358</v>
+        <v>10.48704506417216</v>
       </c>
       <c r="U60">
-        <v>0.147</v>
+        <v>0.005238619503899991</v>
       </c>
       <c r="V60">
-        <v>7.779631774473955</v>
+        <v>0.004328846315098097</v>
       </c>
       <c r="W60">
-        <v>9.671823951994721</v>
+        <v>0.003847751579834099</v>
       </c>
       <c r="X60">
-        <v>8.599092294301872</v>
+        <v>1.203733131337957E-05</v>
       </c>
       <c r="Y60">
-        <v>0.005868791476671766</v>
+        <v>0.0001667755545141113</v>
       </c>
       <c r="Z60">
-        <v>0.0001185650172571128</v>
-      </c>
-      <c r="AA60">
-        <v>0.006024106397341994</v>
-      </c>
-      <c r="AB60">
-        <v>5.942288883023057E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+        <v>4.858783069434204E-11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.426682603406659E-06</v>
+        <v>5.449368125729366E-06</v>
       </c>
       <c r="C61">
-        <v>0.03711011336709419</v>
+        <v>0.03658982339243724</v>
       </c>
       <c r="D61">
-        <v>0.0001868574603715628</v>
+        <v>0.000183527998649385</v>
       </c>
       <c r="E61">
-        <v>0.03979686251955551</v>
+        <v>0.03925038839001112</v>
       </c>
       <c r="F61">
-        <v>3.897195253315936</v>
+        <v>3.897195267740868</v>
+      </c>
+      <c r="R61">
+        <v>9.690057486030698</v>
       </c>
       <c r="S61">
-        <v>7.725898869015573E-05</v>
+        <v>4.315812762708014</v>
       </c>
       <c r="T61">
-        <v>0.001485971636046089</v>
+        <v>5.902523788493083</v>
       </c>
       <c r="U61">
-        <v>0.1435</v>
+        <v>0.005260809093870769</v>
       </c>
       <c r="V61">
-        <v>7.775915279946648</v>
+        <v>1.132756747188671E-05</v>
       </c>
       <c r="W61">
-        <v>9.673375672862809</v>
+        <v>0.003941305585895579</v>
       </c>
       <c r="X61">
-        <v>8.603336807231832</v>
+        <v>0.006382259773121124</v>
       </c>
       <c r="Y61">
-        <v>0.006009040902511148</v>
+        <v>0.000170843249780606</v>
       </c>
       <c r="Z61">
-        <v>0.0001203811478165412</v>
-      </c>
-      <c r="AA61">
-        <v>0.006169586482915451</v>
-      </c>
-      <c r="AB61">
-        <v>6.077160542027034E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.385019050751961E-06</v>
+        <v>5.40825037750684E-06</v>
       </c>
       <c r="C62">
-        <v>0.03803319476476225</v>
+        <v>0.03749998077728193</v>
       </c>
       <c r="D62">
-        <v>0.0001931685790871746</v>
+        <v>0.0001897042237900186</v>
       </c>
       <c r="E62">
-        <v>0.04082662476624038</v>
+        <v>0.04026657687718884</v>
       </c>
       <c r="F62">
-        <v>3.897174427018352</v>
+        <v>3.897174441700319</v>
+      </c>
+      <c r="R62">
+        <v>9.785528734970866</v>
       </c>
       <c r="S62">
-        <v>7.560644888586979E-05</v>
+        <v>11.63755427804556</v>
       </c>
       <c r="T62">
-        <v>0.001495221728164436</v>
+        <v>10.51199136484273</v>
       </c>
       <c r="U62">
-        <v>0.14</v>
+        <v>0.005392046132030742</v>
       </c>
       <c r="V62">
-        <v>7.772156842909232</v>
+        <v>0.00466052646534585</v>
       </c>
       <c r="W62">
-        <v>9.675064578999706</v>
+        <v>0.003880281731214941</v>
       </c>
       <c r="X62">
-        <v>8.607660316788836</v>
+        <v>1.181909538839805E-05</v>
       </c>
       <c r="Y62">
-        <v>0.006156257396378513</v>
+        <v>0.0001751143310251211</v>
       </c>
       <c r="Z62">
-        <v>0.0001223121972057405</v>
-      </c>
-      <c r="AA62">
-        <v>0.006322306854852831</v>
-      </c>
-      <c r="AB62">
-        <v>6.219918147030933E-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+        <v>4.589442060170672E-11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.341230210308361E-06</v>
+        <v>5.365033334891927E-06</v>
       </c>
       <c r="C63">
-        <v>0.03900345184644623</v>
+        <v>0.03845665453506377</v>
       </c>
       <c r="D63">
-        <v>0.0001999118770997577</v>
+        <v>0.000196301873160811</v>
       </c>
       <c r="E63">
-        <v>0.0419098867741575</v>
+        <v>0.04133560238915605</v>
       </c>
       <c r="F63">
-        <v>3.89715322815767</v>
+        <v>3.897153243112215</v>
+      </c>
+      <c r="R63">
+        <v>9.729947560634132</v>
       </c>
       <c r="S63">
-        <v>7.394873196436384E-05</v>
+        <v>4.262215046092251</v>
       </c>
       <c r="T63">
-        <v>0.001504767082570388</v>
+        <v>5.785675606481786</v>
       </c>
       <c r="U63">
-        <v>0.1365</v>
+        <v>0.005410803046561124</v>
       </c>
       <c r="V63">
-        <v>7.76836037053801</v>
+        <v>1.061090478188599E-05</v>
       </c>
       <c r="W63">
-        <v>9.676926450128972</v>
+        <v>0.00397947308085152</v>
       </c>
       <c r="X63">
-        <v>8.612089936126937</v>
+        <v>0.007897190766756695</v>
       </c>
       <c r="Y63">
-        <v>0.006310973939947047</v>
+        <v>0.0001796044409002673</v>
       </c>
       <c r="Z63">
-        <v>0.0001243703736814299</v>
-      </c>
-      <c r="AA63">
-        <v>0.006482822436221614</v>
-      </c>
-      <c r="AB63">
-        <v>6.371115526817705E-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.29515199963E-06</v>
+        <v>5.31955472741437E-06</v>
       </c>
       <c r="C64">
-        <v>0.04002459763511324</v>
+        <v>0.03946350592090332</v>
       </c>
       <c r="D64">
-        <v>0.000207132651944803</v>
+        <v>0.0002033649559343317</v>
       </c>
       <c r="E64">
-        <v>0.04305083875093653</v>
+        <v>0.04246160764073468</v>
       </c>
       <c r="F64">
-        <v>3.897131636681288</v>
+        <v>3.89713165192532</v>
+      </c>
+      <c r="R64">
+        <v>9.851698271748571</v>
       </c>
       <c r="S64">
-        <v>7.228568816448616E-05</v>
+        <v>11.6778623099193</v>
       </c>
       <c r="T64">
-        <v>0.001514625108421502</v>
+        <v>10.54537902601674</v>
       </c>
       <c r="U64">
-        <v>0.133</v>
+        <v>0.005552913366081631</v>
       </c>
       <c r="V64">
-        <v>7.764515604067108</v>
+        <v>0.005122608746027638</v>
       </c>
       <c r="W64">
-        <v>9.678939420109124</v>
+        <v>0.00387637524701191</v>
       </c>
       <c r="X64">
-        <v>8.616599148322591</v>
+        <v>1.12503630236286E-05</v>
       </c>
       <c r="Y64">
-        <v>0.006473779296954037</v>
+        <v>0.0001843308735555375</v>
       </c>
       <c r="Z64">
-        <v>0.0001265660995472538</v>
-      </c>
-      <c r="AA64">
-        <v>0.006651746417299336</v>
-      </c>
-      <c r="AB64">
-        <v>6.531807564327626E-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+        <v>4.187541540968592E-11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.246603337605134E-06</v>
+        <v>5.271635447095752E-06</v>
       </c>
       <c r="C65">
-        <v>0.04110074533736104</v>
+        <v>0.04052459081184843</v>
       </c>
       <c r="D65">
-        <v>0.0002148826900189627</v>
+        <v>0.000210943761877862</v>
       </c>
       <c r="E65">
-        <v>0.04425411076216972</v>
+        <v>0.04364917081105999</v>
       </c>
       <c r="F65">
-        <v>3.897109630846354</v>
+        <v>3.897109646398297</v>
+      </c>
+      <c r="R65">
+        <v>9.790553829666267</v>
       </c>
       <c r="S65">
-        <v>7.061715937647952E-05</v>
+        <v>4.200096614274623</v>
       </c>
       <c r="T65">
-        <v>0.001524814738821417</v>
+        <v>5.633277369549515</v>
       </c>
       <c r="U65">
-        <v>0.1295</v>
+        <v>0.005564543220677684</v>
       </c>
       <c r="V65">
-        <v>7.760622266950829</v>
+        <v>9.150029547177329E-06</v>
       </c>
       <c r="W65">
-        <v>9.681139682964515</v>
+        <v>0.003980838081714295</v>
       </c>
       <c r="X65">
-        <v>8.621212878810557</v>
+        <v>0.01007646052483904</v>
       </c>
       <c r="Y65">
-        <v>0.006645325599586653</v>
+        <v>0.0001893127879252705</v>
       </c>
       <c r="Z65">
-        <v>0.0001289144781579584</v>
-      </c>
-      <c r="AA65">
-        <v>0.006829757994100852</v>
-      </c>
-      <c r="AB65">
-        <v>6.702779282474834E-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.195383982894366E-06</v>
+        <v>5.221077402722699E-06</v>
       </c>
       <c r="C66">
-        <v>0.04223646374423166</v>
+        <v>0.04164441434101428</v>
       </c>
       <c r="D66">
-        <v>0.0002232214599377025</v>
+        <v>0.0002190960118930208</v>
       </c>
       <c r="E66">
-        <v>0.04552483074113441</v>
+        <v>0.04490336307131938</v>
       </c>
       <c r="F66">
-        <v>3.897087187027356</v>
+        <v>3.897087202907338</v>
+      </c>
+      <c r="R66">
+        <v>9.953473017068081</v>
       </c>
       <c r="S66">
-        <v>6.894297829454419E-05</v>
+        <v>11.73183550360096</v>
       </c>
       <c r="T66">
-        <v>0.001535356606367611</v>
+        <v>10.59221348530418</v>
       </c>
       <c r="U66">
-        <v>0.126</v>
+        <v>0.005718859698209087</v>
       </c>
       <c r="V66">
-        <v>7.756672967432989</v>
+        <v>0.005814628829265958</v>
       </c>
       <c r="W66">
-        <v>9.683509487619997</v>
+        <v>0.003811515236071941</v>
       </c>
       <c r="X66">
-        <v>8.62590890118503</v>
+        <v>1.0115600344979E-05</v>
       </c>
       <c r="Y66">
-        <v>0.006826337019626338</v>
+        <v>0.0001945714764787502</v>
       </c>
       <c r="Z66">
-        <v>0.0001314293527025958</v>
-      </c>
-      <c r="AA66">
-        <v>0.007017611610802965</v>
-      </c>
-      <c r="AB66">
-        <v>6.885300461490996E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+        <v>3.607643575454703E-11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.141271901161304E-06</v>
+        <v>5.167660906186402E-06</v>
       </c>
       <c r="C67">
-        <v>0.04343684209521148</v>
+        <v>0.04282799486470347</v>
       </c>
       <c r="D67">
-        <v>0.0002322175830759603</v>
+        <v>0.0002278882747176309</v>
       </c>
       <c r="E67">
-        <v>0.04686869159963947</v>
+        <v>0.04622981515895857</v>
       </c>
       <c r="F67">
-        <v>3.897064279490115</v>
+        <v>3.897064295720176</v>
+      </c>
+      <c r="R67">
+        <v>9.883471993475441</v>
       </c>
       <c r="S67">
-        <v>6.726296779300381E-05</v>
+        <v>4.125457421124201</v>
       </c>
       <c r="T67">
-        <v>0.001546273253185966</v>
+        <v>5.416137930350168</v>
       </c>
       <c r="U67">
-        <v>0.1225</v>
+        <v>0.005716123437321748</v>
       </c>
       <c r="V67">
-        <v>7.752665911182987</v>
+        <v>6.168474063196588E-06</v>
       </c>
       <c r="W67">
-        <v>9.686068475694196</v>
+        <v>0.003920126654235569</v>
       </c>
       <c r="X67">
-        <v>8.630698566775802</v>
+        <v>0.01342994286454685</v>
       </c>
       <c r="Y67">
-        <v>0.007017620095824159</v>
+        <v>0.000200130660490245</v>
       </c>
       <c r="Z67">
-        <v>0.0001341289066524496</v>
-      </c>
-      <c r="AA67">
-        <v>0.007216147570979768</v>
-      </c>
-      <c r="AB67">
-        <v>7.080558043525581E-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.084020406532391E-06</v>
+        <v>5.111141832301016E-06</v>
       </c>
       <c r="C68">
-        <v>0.0447075663455684</v>
+        <v>0.04408093917617364</v>
       </c>
       <c r="D68">
-        <v>0.0002419506447278077</v>
+        <v>0.0002373977103555629</v>
       </c>
       <c r="E68">
-        <v>0.04829202936229979</v>
+        <v>0.04763479490921486</v>
       </c>
       <c r="F68">
-        <v>3.897040880137185</v>
+        <v>3.897040896741518</v>
+      </c>
+      <c r="R68">
+        <v>10.12080586654562</v>
       </c>
       <c r="S68">
-        <v>6.557693988785649E-05</v>
+        <v>11.80959068895799</v>
       </c>
       <c r="T68">
-        <v>0.00155758936430767</v>
+        <v>10.66313155515044</v>
       </c>
       <c r="U68">
-        <v>0.119</v>
+        <v>0.005884063289182295</v>
       </c>
       <c r="V68">
-        <v>7.748595620932107</v>
+        <v>0.006982202774208092</v>
       </c>
       <c r="W68">
-        <v>9.688804072810365</v>
+        <v>0.003640426177461707</v>
       </c>
       <c r="X68">
-        <v>8.635564342841779</v>
+        <v>8.051306314192875E-06</v>
       </c>
       <c r="Y68">
-        <v>0.007220075719035092</v>
+        <v>0.0002060168563870169</v>
       </c>
       <c r="Z68">
-        <v>0.0001370316647853383</v>
-      </c>
-      <c r="AA68">
-        <v>0.007426304688348723</v>
-      </c>
-      <c r="AB68">
-        <v>7.290150281244028E-05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+        <v>2.786275551463355E-11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.023354680194713E-06</v>
+        <v>5.051248159409059E-06</v>
       </c>
       <c r="C69">
-        <v>0.04605500924559387</v>
+        <v>0.04540953134180449</v>
       </c>
       <c r="D69">
-        <v>0.0002525134573511909</v>
+        <v>0.0002477142467836774</v>
       </c>
       <c r="E69">
-        <v>0.04980191415255637</v>
+        <v>0.04912529757199664</v>
       </c>
       <c r="F69">
-        <v>3.897016958208714</v>
+        <v>3.89701697521395</v>
+      </c>
+      <c r="R69">
+        <v>10.03353536200498</v>
       </c>
       <c r="S69">
-        <v>6.388469484401596E-05</v>
+        <v>7</v>
       </c>
       <c r="T69">
-        <v>0.001569332045290062</v>
+        <v>5.039058900164486</v>
       </c>
       <c r="U69">
-        <v>0.1155</v>
+        <v>0.005850786335090604</v>
       </c>
       <c r="V69">
-        <v>7.744454325446186</v>
+        <v>-1.507999245347538E-06</v>
       </c>
       <c r="W69">
-        <v>9.691752010444826</v>
+        <v>0.003750498143254057</v>
       </c>
       <c r="X69">
-        <v>8.640531540743511</v>
+        <v>0.01916339973083864</v>
       </c>
       <c r="Y69">
-        <v>0.007434713417648721</v>
+        <v>0.0002122597905847218</v>
       </c>
       <c r="Z69">
-        <v>0.0001401622562994402</v>
-      </c>
-      <c r="AA69">
-        <v>0.007649135087910429</v>
-      </c>
-      <c r="AB69">
-        <v>7.515566537940555E-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.958967748557906E-06</v>
+        <v>4.987675970676268E-06</v>
       </c>
       <c r="C70">
-        <v>0.04748633723897645</v>
+        <v>0.04682083812602389</v>
       </c>
       <c r="D70">
-        <v>0.0002640149029286814</v>
+        <v>0.0002589433110542035</v>
       </c>
       <c r="E70">
-        <v>0.05140625665144342</v>
+        <v>0.05070915152638236</v>
       </c>
       <c r="F70">
-        <v>3.896992479938087</v>
+        <v>3.896992497373624</v>
+      </c>
+      <c r="R70">
+        <v>10.43900152252154</v>
       </c>
       <c r="S70">
-        <v>6.21860200012941E-05</v>
+        <v>11.9398471227151</v>
       </c>
       <c r="T70">
-        <v>0.001581531140528026</v>
+        <v>10.78859392485776</v>
       </c>
       <c r="U70">
-        <v>0.112</v>
+        <v>0.006033670533038602</v>
       </c>
       <c r="V70">
-        <v>7.740237528201996</v>
+        <v>0.009501339585701363</v>
       </c>
       <c r="W70">
-        <v>9.69490130003345</v>
+        <v>0.003268844968642038</v>
       </c>
       <c r="X70">
-        <v>8.645586436125402</v>
+        <v>4.532371741996669E-06</v>
       </c>
       <c r="Y70">
-        <v>0.007662668141440886</v>
+        <v>0.0002188929090404943</v>
       </c>
       <c r="Z70">
-        <v>0.0001435457666294374</v>
-      </c>
-      <c r="AA70">
-        <v>0.007885821944864525</v>
-      </c>
-      <c r="AB70">
-        <v>7.758879170823805E-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+        <v>1.618553944061407E-11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.890515853434196E-06</v>
+        <v>4.920084847791082E-06</v>
       </c>
       <c r="C71">
-        <v>0.04900963795949412</v>
+        <v>0.0483228347329584</v>
       </c>
       <c r="D71">
-        <v>0.0002765835322000852</v>
+        <v>0.0002712092841109778</v>
       </c>
       <c r="E71">
-        <v>0.05311393310342446</v>
+        <v>0.05239514246124725</v>
       </c>
       <c r="F71">
-        <v>3.896967408148419</v>
+        <v>3.896967426046805</v>
+      </c>
+      <c r="R71">
+        <v>10.30768484687278</v>
       </c>
       <c r="S71">
-        <v>6.048068854223027E-05</v>
+        <v>5.154547349519072</v>
       </c>
       <c r="T71">
-        <v>0.001594219607875075</v>
+        <v>6.998595266940455</v>
       </c>
       <c r="U71">
-        <v>0.1085</v>
+        <v>0.005921810241017224</v>
       </c>
       <c r="V71">
-        <v>7.735937638792601</v>
+        <v>8.237541434663447E-06</v>
       </c>
       <c r="W71">
-        <v>9.698237660840611</v>
+        <v>0.003374145374993653</v>
       </c>
       <c r="X71">
-        <v>8.650716156280154</v>
+        <v>0.0002484111105349588</v>
       </c>
       <c r="Y71">
-        <v>0.007905220476112224</v>
+        <v>0.0002259539701003316</v>
       </c>
       <c r="Z71">
-        <v>0.0001472112416389143</v>
-      </c>
-      <c r="AA71">
-        <v>0.008137700433676018</v>
-      </c>
-      <c r="AB71">
-        <v>8.022504996281301E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.81761294947499E-06</v>
+        <v>4.848092393625846E-06</v>
       </c>
       <c r="C72">
-        <v>0.0506340731070706</v>
+        <v>0.04992455558125331</v>
       </c>
       <c r="D72">
-        <v>0.000290372173724404</v>
+        <v>0.000284659920035967</v>
       </c>
       <c r="E72">
-        <v>0.05493493249801698</v>
+        <v>0.05419315965036851</v>
       </c>
       <c r="F72">
-        <v>3.896941701780587</v>
+        <v>3.896941720177976</v>
+      </c>
+      <c r="R72">
+        <v>10.31347818286023</v>
       </c>
       <c r="S72">
-        <v>5.87684580444129E-05</v>
+        <v>11.92379750073103</v>
       </c>
       <c r="T72">
-        <v>0.001607433957012184</v>
+        <v>10.75858509120773</v>
       </c>
       <c r="U72">
-        <v>0.105</v>
+        <v>0.006118929331003309</v>
       </c>
       <c r="V72">
-        <v>7.731547191511102</v>
+        <v>0.009149701725408558</v>
       </c>
       <c r="W72">
-        <v>9.701788202345124</v>
+        <v>0.003478336517142276</v>
       </c>
       <c r="X72">
-        <v>8.65594154293305</v>
+        <v>6.019943279194819E-06</v>
       </c>
       <c r="Y72">
-        <v>0.008163820783927999</v>
+        <v>0.000233485769103676</v>
       </c>
       <c r="Z72">
-        <v>0.000151195446010967</v>
-      </c>
-      <c r="AA72">
-        <v>0.008406282946466458</v>
-      </c>
-      <c r="AB72">
-        <v>8.308986600728822E-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+        <v>2.082095693396689E-11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.739824253224439E-06</v>
+        <v>4.771267806173908E-06</v>
       </c>
       <c r="C73">
-        <v>0.05237006279442734</v>
+        <v>0.05163627612129527</v>
       </c>
       <c r="D73">
-        <v>0.0003055638920429402</v>
+        <v>0.0002994720519654494</v>
       </c>
       <c r="E73">
-        <v>0.05688053054887039</v>
+        <v>0.05611436894226187</v>
       </c>
       <c r="F73">
-        <v>3.896915315337813</v>
+        <v>3.896915334274503</v>
+      </c>
+      <c r="R73">
+        <v>10.18193355300412</v>
       </c>
       <c r="S73">
-        <v>5.704906881183316E-05</v>
+        <v>7</v>
       </c>
       <c r="T73">
-        <v>0.001621214765954378</v>
+        <v>4.104670284343139</v>
       </c>
       <c r="U73">
-        <v>0.1015</v>
+        <v>0.006014419938092781</v>
       </c>
       <c r="V73">
-        <v>7.727056352846281</v>
+        <v>-6.614788832604285E-05</v>
       </c>
       <c r="W73">
-        <v>9.705521883251407</v>
+        <v>0.003598071571413415</v>
       </c>
       <c r="X73">
-        <v>8.661242867085418</v>
+        <v>0.03015309498211748</v>
       </c>
       <c r="Y73">
-        <v>0.008440118209373413</v>
+        <v>0.00024153700180308</v>
       </c>
       <c r="Z73">
-        <v>0.0001555372885039953</v>
-      </c>
-      <c r="AA73">
-        <v>0.008693289604413325</v>
-      </c>
-      <c r="AB73">
-        <v>8.621719162135074E-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.65665861854196E-06</v>
+        <v>4.689124277571183E-06</v>
       </c>
       <c r="C74">
-        <v>0.05422950918379821</v>
+        <v>0.05346973340948562</v>
       </c>
       <c r="D74">
-        <v>0.0003223797790139354</v>
+        <v>0.0003158590437705878</v>
       </c>
       <c r="E74">
-        <v>0.05896349604420514</v>
+        <v>0.05817141804514097</v>
       </c>
       <c r="F74">
-        <v>3.89688819822578</v>
+        <v>3.896888217746852</v>
+      </c>
+      <c r="R74">
+        <v>10.9502770139469</v>
       </c>
       <c r="S74">
-        <v>5.532224205447891E-05</v>
+        <v>12.19647640866113</v>
       </c>
       <c r="T74">
-        <v>0.001635607296693763</v>
+        <v>11.03231431047395</v>
       </c>
       <c r="U74">
-        <v>0.098</v>
+        <v>0.006231583074750597</v>
       </c>
       <c r="V74">
-        <v>7.722458704267134</v>
+        <v>0.0175354440300824</v>
       </c>
       <c r="W74">
-        <v>9.709419789803329</v>
+        <v>0.002649677878173985</v>
       </c>
       <c r="X74">
-        <v>8.66661707730759</v>
+        <v>6.771585781928072E-07</v>
       </c>
       <c r="Y74">
-        <v>0.008735996099404463</v>
+        <v>0.0002501633232960471</v>
       </c>
       <c r="Z74">
-        <v>0.0001602839091208914</v>
-      </c>
-      <c r="AA74">
-        <v>0.009000685047727323</v>
-      </c>
-      <c r="AB74">
-        <v>8.964597195730805E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+        <v>3.720985907660987E-12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.56755960638243E-06</v>
+        <v>4.601110082496382E-06</v>
       </c>
       <c r="C75">
-        <v>0.05622606953212356</v>
+        <v>0.05543839542303062</v>
       </c>
       <c r="D75">
-        <v>0.0003410892612537615</v>
+        <v>0.0003340806339436855</v>
       </c>
       <c r="E75">
-        <v>0.06119833660006254</v>
+        <v>0.06037868114976691</v>
       </c>
       <c r="F75">
-        <v>3.896860293967092</v>
+        <v>3.896860314123175</v>
+      </c>
+      <c r="R75">
+        <v>10.73205016713147</v>
       </c>
       <c r="S75">
-        <v>5.358767776463315E-05</v>
+        <v>5.311244703964531</v>
       </c>
       <c r="T75">
-        <v>0.001650662228950848</v>
+        <v>6.998598157046208</v>
       </c>
       <c r="U75">
-        <v>0.0945</v>
+        <v>0.005812921557886456</v>
       </c>
       <c r="V75">
-        <v>7.717741076236521</v>
+        <v>5.021456854008419E-06</v>
       </c>
       <c r="W75">
-        <v>9.713444824978975</v>
+        <v>0.002747789015936792</v>
       </c>
       <c r="X75">
-        <v>8.672055551303876</v>
+        <v>0.0001155697970665674</v>
       </c>
       <c r="Y75">
-        <v>0.009053615069414966</v>
+        <v>0.0002594286314284568</v>
       </c>
       <c r="Z75">
-        <v>0.0001654900420171257</v>
-      </c>
-      <c r="AA75">
-        <v>0.009330723532015103</v>
-      </c>
-      <c r="AB75">
-        <v>9.342374179854203E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.468981579957532E-06</v>
+        <v>4.50368257937339E-06</v>
       </c>
       <c r="C76">
-        <v>0.05837549185023394</v>
+        <v>0.05755779214568781</v>
       </c>
       <c r="D76">
-        <v>0.0003622382353339946</v>
+        <v>0.0003546643386916357</v>
       </c>
       <c r="E76">
-        <v>0.06359801953470678</v>
+        <v>0.06274902385785193</v>
       </c>
       <c r="F76">
-        <v>3.895141887146016</v>
+        <v>3.895141923664459</v>
+      </c>
+      <c r="R76">
+        <v>10.74325841369619</v>
       </c>
       <c r="S76">
-        <v>5.184505218594251E-05</v>
+        <v>12.13703974286888</v>
       </c>
       <c r="T76">
-        <v>0.00390408393484965</v>
+        <v>10.95212183655761</v>
       </c>
       <c r="U76">
-        <v>0.091</v>
+        <v>0.006036302331003089</v>
       </c>
       <c r="V76">
-        <v>7.712895512446482</v>
+        <v>0.01521012525813189</v>
       </c>
       <c r="W76">
-        <v>9.717957476338709</v>
+        <v>0.00284902821666257</v>
       </c>
       <c r="X76">
-        <v>8.677635188748267</v>
+        <v>2.224106132590366E-06</v>
       </c>
       <c r="Y76">
-        <v>0.00939546603200719</v>
+        <v>0.0002694066557141667</v>
       </c>
       <c r="Z76">
-        <v>0.0001713160352901309</v>
-      </c>
-      <c r="AA76">
-        <v>0.009686004293177277</v>
-      </c>
-      <c r="AB76">
-        <v>9.763205096256574E-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+        <v>8.562270300871143E-12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.07277633117441E-06</v>
+        <v>6.097094428049518E-06</v>
       </c>
       <c r="C77">
-        <v>0.06069602199482994</v>
+        <v>0.05984591725796766</v>
       </c>
       <c r="D77">
-        <v>0.0002571052046204573</v>
+        <v>0.0002525652728101308</v>
       </c>
       <c r="E77">
-        <v>0.06493574651534401</v>
+        <v>0.06404354777361605</v>
       </c>
       <c r="F77">
-        <v>6.4940699303624</v>
+        <v>6.494069977223235</v>
+      </c>
+      <c r="R77">
+        <v>10.48700224102433</v>
       </c>
       <c r="S77">
-        <v>8.957186174354999E-05</v>
+        <v>5.241562328827699</v>
       </c>
       <c r="T77">
-        <v>0.001400690197257249</v>
+        <v>6.997343000500946</v>
       </c>
       <c r="U77">
-        <v>0.17</v>
+        <v>0.005669349413917937</v>
       </c>
       <c r="V77">
-        <v>7.706650966015587</v>
+        <v>5.340252935811035E-06</v>
       </c>
       <c r="W77">
-        <v>9.593053782740636</v>
+        <v>0.002962900381083769</v>
       </c>
       <c r="X77">
-        <v>8.698424049314815</v>
+        <v>0.0001498528288157659</v>
       </c>
       <c r="Y77">
-        <v>0.009764432031875872</v>
+        <v>0.0002801829216002426</v>
       </c>
       <c r="Z77">
-        <v>0.0001355881029304602</v>
-      </c>
-      <c r="AA77">
-        <v>0.01006953918286587</v>
-      </c>
-      <c r="AB77">
-        <v>8.222679672713852E-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.998469170729033E-06</v>
+        <v>6.023764944706737E-06</v>
       </c>
       <c r="C78">
-        <v>0.06321431019442202</v>
+        <v>0.06232897359068256</v>
       </c>
       <c r="D78">
-        <v>0.0002715099582772812</v>
+        <v>0.0002666652746330378</v>
       </c>
       <c r="E78">
-        <v>0.06773812612531113</v>
+        <v>0.06680887460790097</v>
       </c>
       <c r="F78">
-        <v>6.494044397676545</v>
+        <v>6.494044445228545</v>
+      </c>
+      <c r="R78">
+        <v>10.49547224073773</v>
       </c>
       <c r="S78">
-        <v>8.642515509086922E-05</v>
+        <v>11.9979650511311</v>
       </c>
       <c r="T78">
-        <v>0.001415183789580926</v>
+        <v>10.91206318547777</v>
       </c>
       <c r="U78">
-        <v>0.1632</v>
+        <v>0.005905349795625526</v>
       </c>
       <c r="V78">
-        <v>7.702436767863498</v>
+        <v>0.01090774405609031</v>
       </c>
       <c r="W78">
-        <v>9.594442605282712</v>
+        <v>0.003080110695761603</v>
       </c>
       <c r="X78">
-        <v>8.704799257414665</v>
+        <v>2.869444379244322E-06</v>
       </c>
       <c r="Y78">
-        <v>0.0101656338622486</v>
+        <v>0.0002918572100002527</v>
       </c>
       <c r="Z78">
-        <v>0.0001396595633655424</v>
-      </c>
-      <c r="AA78">
-        <v>0.01048567719895498</v>
-      </c>
-      <c r="AB78">
-        <v>8.557182720058385E-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
+        <v>9.266207321962688E-12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.917717855662774E-06</v>
+        <v>5.944070706273149E-06</v>
       </c>
       <c r="C79">
-        <v>0.06595095368295005</v>
+        <v>0.06502733482181515</v>
       </c>
       <c r="D79">
-        <v>0.0002875894522868034</v>
+        <v>0.0002823986639037457</v>
       </c>
       <c r="E79">
-        <v>0.07078772354084911</v>
+        <v>0.06981834007239303</v>
       </c>
       <c r="F79">
-        <v>6.494017954557639</v>
+        <v>6.494018002870971</v>
+      </c>
+      <c r="R79">
+        <v>10.2832526455311</v>
       </c>
       <c r="S79">
-        <v>8.326198742245202E-05</v>
+        <v>5.172681107304758</v>
       </c>
       <c r="T79">
-        <v>0.001430459657934324</v>
+        <v>6.997344303176037</v>
       </c>
       <c r="U79">
-        <v>0.1564</v>
+        <v>0.005687854392996623</v>
       </c>
       <c r="V79">
-        <v>7.698096631422238</v>
+        <v>6.677175137200248E-06</v>
       </c>
       <c r="W79">
-        <v>9.59567774498351</v>
+        <v>0.003213903793647793</v>
       </c>
       <c r="X79">
-        <v>8.711315236849492</v>
+        <v>0.0002100511510384554</v>
       </c>
       <c r="Y79">
-        <v>0.01060154578828699</v>
+        <v>0.0003045466535104286</v>
       </c>
       <c r="Z79">
-        <v>0.0001441262966833578</v>
-      </c>
-      <c r="AA79">
-        <v>0.01093785569337909</v>
-      </c>
-      <c r="AB79">
-        <v>8.926734694672494E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.829660812643344E-06</v>
+        <v>5.8571597536443E-06</v>
       </c>
       <c r="C80">
-        <v>0.06893565205707111</v>
+        <v>0.06797028646535658</v>
       </c>
       <c r="D80">
-        <v>0.0003056491116811627</v>
+        <v>0.0003000622032460546</v>
       </c>
       <c r="E80">
-        <v>0.07411802064386523</v>
+        <v>0.07310504399457278</v>
       </c>
       <c r="F80">
-        <v>6.493990513834699</v>
+        <v>6.493990562990137</v>
+      </c>
+      <c r="R80">
+        <v>10.29002316969885</v>
       </c>
       <c r="S80">
-        <v>8.008154946601722E-05</v>
+        <v>11.96545903459461</v>
       </c>
       <c r="T80">
-        <v>0.001446597237294815</v>
+        <v>10.86471283347026</v>
       </c>
       <c r="U80">
-        <v>0.1496</v>
+        <v>0.005946089721081143</v>
       </c>
       <c r="V80">
-        <v>7.693597023271791</v>
+        <v>0.01009941100138404</v>
       </c>
       <c r="W80">
-        <v>9.596472577065803</v>
+        <v>0.003350442550130036</v>
       </c>
       <c r="X80">
-        <v>8.717897549607358</v>
+        <v>4.383527049495357E-06</v>
       </c>
       <c r="Y80">
-        <v>0.01107688303790534</v>
+        <v>0.0003183896832154481</v>
       </c>
       <c r="Z80">
-        <v>0.0001490317645493838</v>
-      </c>
-      <c r="AA80">
-        <v>0.01143097334548965</v>
-      </c>
-      <c r="AB80">
-        <v>9.33808909014176E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28">
+        <v>1.379239311934213E-11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.733279040488646E-06</v>
+        <v>5.762024210067273E-06</v>
       </c>
       <c r="C81">
-        <v>0.07220374743542302</v>
+        <v>0.07119267809688566</v>
       </c>
       <c r="D81">
-        <v>0.0003260725261029581</v>
+        <v>0.000320028300339975</v>
       </c>
       <c r="E81">
-        <v>0.07776868974173164</v>
+        <v>0.07670821448367122</v>
       </c>
       <c r="F81">
-        <v>6.49396197525752</v>
+        <v>6.493962025348637</v>
+      </c>
+      <c r="R81">
+        <v>10.08164903449695</v>
       </c>
       <c r="S81">
-        <v>7.688295333202069E-05</v>
+        <v>7</v>
       </c>
       <c r="T81">
-        <v>0.001463688165475891</v>
+        <v>4.581318432179255</v>
       </c>
       <c r="U81">
-        <v>0.1428</v>
+        <v>0.005748312517257196</v>
       </c>
       <c r="V81">
-        <v>7.688929773652757</v>
+        <v>-1.951688763596852E-05</v>
       </c>
       <c r="W81">
-        <v>9.59666924095789</v>
+        <v>0.003509778694086252</v>
       </c>
       <c r="X81">
-        <v>8.724595804768647</v>
+        <v>0.02398955122313468</v>
       </c>
       <c r="Y81">
-        <v>0.01159725690806515</v>
+        <v>0.0003335510960451174</v>
       </c>
       <c r="Z81">
-        <v>0.0001544370857034923</v>
-      </c>
-      <c r="AA81">
-        <v>0.01197085870047004</v>
-      </c>
-      <c r="AB81">
-        <v>9.798261138980289E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.627359489262043E-06</v>
+        <v>5.65746393348904E-06</v>
       </c>
       <c r="C82">
-        <v>0.07579763118088902</v>
+        <v>0.07473631058671294</v>
       </c>
       <c r="D82">
-        <v>0.0003493479151481895</v>
+        <v>0.0003427705108583003</v>
       </c>
       <c r="E82">
-        <v>0.0817870573336683</v>
+        <v>0.08067465960134905</v>
       </c>
       <c r="F82">
-        <v>6.493932222773239</v>
+        <v>6.493932273909182</v>
+      </c>
+      <c r="R82">
+        <v>10.95863861086308</v>
       </c>
       <c r="S82">
-        <v>7.36652207470856E-05</v>
+        <v>12.23161164077333</v>
       </c>
       <c r="T82">
-        <v>0.001481838856651103</v>
+        <v>11.13222062089112</v>
       </c>
       <c r="U82">
-        <v>0.136</v>
+        <v>0.006036703987501854</v>
       </c>
       <c r="V82">
-        <v>7.684076244149334</v>
+        <v>0.01908136966767835</v>
       </c>
       <c r="W82">
-        <v>9.595746009096262</v>
+        <v>0.002485790067633831</v>
       </c>
       <c r="X82">
-        <v>8.731330159203615</v>
+        <v>4.611512184043859E-07</v>
       </c>
       <c r="Y82">
-        <v>0.01216939789918323</v>
+        <v>0.0003502286508473733</v>
       </c>
       <c r="Z82">
-        <v>0.000160393997993732</v>
-      </c>
-      <c r="AA82">
-        <v>0.01256450250492405</v>
-      </c>
-      <c r="AB82">
-        <v>0.0001031750543340531</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28">
+        <v>2.360613359259074E-12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.510447824988881E-06</v>
+        <v>5.542039604372781E-06</v>
       </c>
       <c r="C83">
-        <v>0.07976859345803326</v>
+        <v>0.07865176006438951</v>
       </c>
       <c r="D83">
-        <v>0.0003761060559624167</v>
+        <v>0.0003689000359602528</v>
       </c>
       <c r="E83">
-        <v>0.08622999164184668</v>
+        <v>0.08506064027399937</v>
       </c>
       <c r="F83">
-        <v>6.493901121062464</v>
+        <v>6.493901173371508</v>
+      </c>
+      <c r="R83">
+        <v>10.59830659824818</v>
       </c>
       <c r="S83">
-        <v>7.042726882980028E-05</v>
+        <v>5.302249044551168</v>
       </c>
       <c r="T83">
-        <v>0.001501173780099354</v>
+        <v>6.997351746577377</v>
       </c>
       <c r="U83">
-        <v>0.1292</v>
+        <v>0.005350142635913617</v>
       </c>
       <c r="V83">
-        <v>7.679011399704861</v>
+        <v>4.66936422511612E-06</v>
       </c>
       <c r="W83">
-        <v>9.593305103947195</v>
+        <v>0.002616596852708327</v>
       </c>
       <c r="X83">
-        <v>8.738200318832423</v>
+        <v>0.0001148396451050298</v>
       </c>
       <c r="Y83">
-        <v>0.01280145073608794</v>
+        <v>0.0003686617376098344</v>
       </c>
       <c r="Z83">
-        <v>0.0001669755049072397</v>
-      </c>
-      <c r="AA83">
-        <v>0.01322036184442879</v>
-      </c>
-      <c r="AB83">
-        <v>0.0001090683291463257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.380787386850404E-06</v>
+        <v>5.414012052939546E-06</v>
       </c>
       <c r="C84">
-        <v>0.08417928720259277</v>
+        <v>0.08300080784374669</v>
       </c>
       <c r="D84">
-        <v>0.0004071758540501266</v>
+        <v>0.0003992191132549763</v>
       </c>
       <c r="E84">
-        <v>0.0911663597688373</v>
+        <v>0.08993430987242147</v>
       </c>
       <c r="F84">
-        <v>6.493868511083297</v>
+        <v>6.49386856471746</v>
+      </c>
+      <c r="R84">
+        <v>10.61218841707657</v>
       </c>
       <c r="S84">
-        <v>6.716789265884458E-05</v>
+        <v>12.13352458558334</v>
       </c>
       <c r="T84">
-        <v>0.00152183968471309</v>
+        <v>11.01389472487108</v>
       </c>
       <c r="U84">
-        <v>0.1224</v>
+        <v>0.005647113373229646</v>
       </c>
       <c r="V84">
-        <v>7.673721159400952</v>
+        <v>0.01508395207079645</v>
       </c>
       <c r="W84">
-        <v>9.588360826789515</v>
+        <v>0.002755583364241843</v>
       </c>
       <c r="X84">
-        <v>8.745170070185917</v>
+        <v>1.965023087138505E-06</v>
       </c>
       <c r="Y84">
-        <v>0.01350336602670909</v>
+        <v>0.0003891429452548252</v>
       </c>
       <c r="Z84">
-        <v>0.0001742352350763671</v>
-      </c>
-      <c r="AA84">
-        <v>0.01394876703972226</v>
-      </c>
-      <c r="AB84">
-        <v>0.0001158222624399045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28">
+        <v>7.952805392587754E-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.236239312456106E-06</v>
+        <v>5.271262796241358E-06</v>
       </c>
       <c r="C85">
-        <v>0.08910705845838941</v>
+        <v>0.08785972482789327</v>
       </c>
       <c r="D85">
-        <v>0.0004436678944917028</v>
+        <v>0.0004348011455274901</v>
       </c>
       <c r="E85">
-        <v>0.09668025740617697</v>
+        <v>0.09537892302548534</v>
       </c>
       <c r="F85">
-        <v>6.493834204255405</v>
+        <v>6.493834259396523</v>
+      </c>
+      <c r="R85">
+        <v>10.19143882844817</v>
       </c>
       <c r="S85">
-        <v>6.388574408902296E-05</v>
+        <v>5.182344723674898</v>
       </c>
       <c r="T85">
-        <v>0.001544011123853041</v>
+        <v>6.99735325019343</v>
       </c>
       <c r="U85">
-        <v>0.1156</v>
+        <v>0.005092005214549246</v>
       </c>
       <c r="V85">
-        <v>7.668177040234478</v>
+        <v>6.920228326693557E-06</v>
       </c>
       <c r="W85">
-        <v>9.579685443066657</v>
+        <v>0.002917560913721532</v>
       </c>
       <c r="X85">
-        <v>8.752342733391581</v>
+        <v>0.0002070444112497232</v>
       </c>
       <c r="Y85">
-        <v>0.01428743254386396</v>
+        <v>0.0004120337062725911</v>
       </c>
       <c r="Z85">
-        <v>0.0001822316715746833</v>
-      </c>
-      <c r="AA85">
-        <v>0.01476246967368005</v>
-      </c>
-      <c r="AB85">
-        <v>0.0001236311496750444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.074177269755548E-06</v>
+        <v>5.11118919584451E-06</v>
       </c>
       <c r="C86">
-        <v>0.09464852036863296</v>
+        <v>0.09332378255804107</v>
       </c>
       <c r="D86">
-        <v>0.0004871037931846942</v>
+        <v>0.0004771144942401385</v>
       </c>
       <c r="E86">
-        <v>0.1028752974712908</v>
+        <v>0.1014970999184743</v>
       </c>
       <c r="F86">
-        <v>6.493797974774995</v>
+        <v>6.493798031642816</v>
+      </c>
+      <c r="R86">
+        <v>10.19984893682584</v>
       </c>
       <c r="S86">
-        <v>6.057930500307297E-05</v>
+        <v>12.07158900497641</v>
       </c>
       <c r="T86">
-        <v>0.001567897766190788</v>
+        <v>10.93483142315802</v>
       </c>
       <c r="U86">
-        <v>0.1088</v>
+        <v>0.005409823026188152</v>
       </c>
       <c r="V86">
-        <v>7.662361964398682</v>
+        <v>0.01301545727633566</v>
       </c>
       <c r="W86">
-        <v>9.564946386642957</v>
+        <v>0.003086968195126018</v>
       </c>
       <c r="X86">
-        <v>8.759678887690598</v>
+        <v>4.669492972827202E-06</v>
       </c>
       <c r="Y86">
-        <v>0.01516900759838203</v>
+        <v>0.0004377858129146278</v>
       </c>
       <c r="Z86">
-        <v>0.0001909857297364524</v>
-      </c>
-      <c r="AA86">
-        <v>0.01567739708143035</v>
-      </c>
-      <c r="AB86">
-        <v>0.0001327771681399149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28">
+        <v>1.611656304564034E-11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.891347583193205E-06</v>
+        <v>4.930564955112075E-06</v>
       </c>
       <c r="C87">
-        <v>0.1009259481403295</v>
+        <v>0.09951356042896113</v>
       </c>
       <c r="D87">
-        <v>0.0005396233749215831</v>
+        <v>0.0005282202719014737</v>
       </c>
       <c r="E87">
-        <v>0.1098803644999111</v>
+        <v>0.1084165533794896</v>
       </c>
       <c r="F87">
-        <v>6.493759549277665</v>
+        <v>6.493759608140865</v>
+      </c>
+      <c r="R87">
+        <v>9.79319860021816</v>
       </c>
       <c r="S87">
-        <v>5.724685389931277E-05</v>
+        <v>7</v>
       </c>
       <c r="T87">
-        <v>0.001593754248215588</v>
+        <v>3.996901862446824</v>
       </c>
       <c r="U87">
-        <v>0.102</v>
+        <v>0.004902780742844985</v>
       </c>
       <c r="V87">
-        <v>7.656243150659663</v>
+        <v>-8.884115847442319E-05</v>
       </c>
       <c r="W87">
-        <v>9.540938563184175</v>
+        <v>0.003292454775269564</v>
       </c>
       <c r="X87">
-        <v>8.767264924584083</v>
+        <v>0.04102569074064501</v>
       </c>
       <c r="Y87">
-        <v>0.01616754238962507</v>
+        <v>0.0004669715327011654</v>
       </c>
       <c r="Z87">
-        <v>0.00020053144586382</v>
-      </c>
-      <c r="AA87">
-        <v>0.01671370507564971</v>
-      </c>
-      <c r="AB87">
-        <v>0.0001436347781833717</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.687612111588157E-06</v>
+        <v>4.729268699687893E-06</v>
       </c>
       <c r="C88">
-        <v>0.1080963999092872</v>
+        <v>0.1065839418687511</v>
       </c>
       <c r="D88">
-        <v>0.0006038699504200789</v>
+        <v>0.0005906570517767382</v>
       </c>
       <c r="E88">
-        <v>0.1178660113511368</v>
+        <v>0.1163063118660957</v>
       </c>
       <c r="F88">
-        <v>6.491678157763423</v>
+        <v>6.491678254325992</v>
+      </c>
+      <c r="R88">
+        <v>11.43657450486946</v>
       </c>
       <c r="S88">
-        <v>5.388642307866247E-05</v>
+        <v>7</v>
       </c>
       <c r="T88">
-        <v>0.003947040459233824</v>
+        <v>6.998872747483278</v>
       </c>
       <c r="U88">
-        <v>0.09520000000000002</v>
+        <v>0.0052593251643678</v>
       </c>
       <c r="V88">
-        <v>7.649813095313562</v>
+        <v>1.856654077891091E-06</v>
       </c>
       <c r="W88">
-        <v>9.502484993388245</v>
+        <v>0.0005972236348856032</v>
       </c>
       <c r="X88">
-        <v>8.775098828421894</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>0.0173080431713223</v>
+        <v>0.0005003266421798201</v>
       </c>
       <c r="Z88">
-        <v>0.0002108452153660636</v>
-      </c>
-      <c r="AA88">
-        <v>0.01789728152546874</v>
-      </c>
-      <c r="AB88">
-        <v>0.0001566822872024733</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28">
+        <v>4.217412592849868E-07</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.831444524404237E-06</v>
+        <v>5.876689317845353E-06</v>
       </c>
       <c r="C89">
-        <v>0.1163650560599693</v>
+        <v>0.1147372714700568</v>
       </c>
       <c r="D89">
-        <v>0.0005368247053993842</v>
+        <v>0.0005255216525903337</v>
       </c>
       <c r="E89">
-        <v>0.1241240133696772</v>
+        <v>0.1224492280116133</v>
       </c>
       <c r="F89">
-        <v>7.520430317109748</v>
+        <v>7.520430416319442</v>
+      </c>
+      <c r="R89">
+        <v>11.4628145352269</v>
       </c>
       <c r="S89">
-        <v>8.99379112340433E-05</v>
+        <v>12.57752155222454</v>
       </c>
       <c r="T89">
-        <v>0.001405613609887396</v>
+        <v>11.55086531164765</v>
       </c>
       <c r="U89">
-        <v>0.1703</v>
+        <v>0.005663745819005486</v>
       </c>
       <c r="V89">
-        <v>7.642552107461992</v>
+        <v>0.0441146019473345</v>
       </c>
       <c r="W89">
-        <v>9.336265031014243</v>
+        <v>0.0006431639144921881</v>
       </c>
       <c r="X89">
-        <v>8.787591165638931</v>
+        <v>5.644410454075209E-08</v>
       </c>
       <c r="Y89">
-        <v>0.01862321224485739</v>
+        <v>0.0005387808653275536</v>
       </c>
       <c r="Z89">
-        <v>0.0001783084636781431</v>
-      </c>
-      <c r="AA89">
-        <v>0.01926194300533537</v>
-      </c>
-      <c r="AB89">
-        <v>0.0001422805976548066</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
+        <v>2.096465378700761E-13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.788733363646857E-06</v>
+        <v>5.834413165871338E-06</v>
       </c>
       <c r="C90">
-        <v>0.1173992366970637</v>
+        <v>0.1157570192362842</v>
       </c>
       <c r="D90">
-        <v>0.0005478497498704208</v>
+        <v>0.0005362669917441834</v>
       </c>
       <c r="E90">
-        <v>0.1257494338533245</v>
+        <v>0.1240579091968164</v>
       </c>
       <c r="F90">
-        <v>7.520390208810703</v>
+        <v>7.52039030812992</v>
+      </c>
+      <c r="R90">
+        <v>10.85917621856479</v>
       </c>
       <c r="S90">
-        <v>8.386772625173944E-05</v>
+        <v>5.693600419271004</v>
       </c>
       <c r="T90">
-        <v>0.001434306788257016</v>
+        <v>6.996896910466592</v>
       </c>
       <c r="U90">
-        <v>0.1572</v>
+        <v>0.002459507808311402</v>
       </c>
       <c r="V90">
-        <v>7.63709385968995</v>
+        <v>1.878707894305666E-06</v>
       </c>
       <c r="W90">
-        <v>9.353019867516405</v>
+        <v>0.0006967562036911588</v>
       </c>
       <c r="X90">
-        <v>8.813618006704544</v>
+        <v>2.116946876638414E-05</v>
       </c>
       <c r="Y90">
-        <v>0.02016028755995567</v>
+        <v>0.0005836792707540458</v>
       </c>
       <c r="Z90">
-        <v>0.0001897944749277383</v>
-      </c>
-      <c r="AA90">
-        <v>0.02085524820597542</v>
-      </c>
-      <c r="AB90">
-        <v>0.0001514594242103218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.742973567119512E-06</v>
+        <v>5.789101666448666E-06</v>
       </c>
       <c r="C91">
-        <v>0.1184519518947861</v>
+        <v>0.1167950440312801</v>
       </c>
       <c r="D91">
-        <v>0.0005598460956001695</v>
+        <v>0.0005479604219742442</v>
       </c>
       <c r="E91">
-        <v>0.127491600090343</v>
+        <v>0.1257828041645329</v>
       </c>
       <c r="F91">
-        <v>7.520346618223992</v>
+        <v>7.520346717662229</v>
+      </c>
+      <c r="R91">
+        <v>10.88967512632867</v>
       </c>
       <c r="S91">
-        <v>7.773409680735491E-05</v>
+        <v>12.31393050012333</v>
       </c>
       <c r="T91">
-        <v>0.001466189605216202</v>
+        <v>11.2742403922129</v>
       </c>
       <c r="U91">
-        <v>0.1441</v>
+        <v>0.002682928635622048</v>
       </c>
       <c r="V91">
-        <v>7.631060819178243</v>
+        <v>0.02327653287817635</v>
       </c>
       <c r="W91">
-        <v>9.370214355208828</v>
+        <v>0.0007581731795934111</v>
       </c>
       <c r="X91">
-        <v>8.841197072682313</v>
+        <v>1.37419949565104E-07</v>
       </c>
       <c r="Y91">
-        <v>0.02197578693132185</v>
+        <v>0.0006367410226407774</v>
       </c>
       <c r="Z91">
-        <v>0.0002034497734076645</v>
-      </c>
-      <c r="AA91">
-        <v>0.02273741082249952</v>
-      </c>
-      <c r="AB91">
-        <v>0.0001624583144850945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28">
+        <v>2.09966160297434E-12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.693434129281428E-06</v>
+        <v>5.740025282678144E-06</v>
       </c>
       <c r="C92">
-        <v>0.1195236983111424</v>
+        <v>0.1178518357004556</v>
       </c>
       <c r="D92">
-        <v>0.0005730534659023269</v>
+        <v>0.0005608364457136576</v>
       </c>
       <c r="E92">
-        <v>0.1293785078943003</v>
+        <v>0.1276518501781946</v>
       </c>
       <c r="F92">
-        <v>7.520298804064201</v>
+        <v>7.520298903632831</v>
+      </c>
+      <c r="R92">
+        <v>6.732113570245112</v>
       </c>
       <c r="S92">
-        <v>7.153049417916009E-05</v>
+        <v>5.254760780289111</v>
       </c>
       <c r="T92">
-        <v>0.001501962916930672</v>
+        <v>6.996872661986287</v>
       </c>
       <c r="U92">
-        <v>0.131</v>
+        <v>0.000623568211366617</v>
       </c>
       <c r="V92">
-        <v>7.624323304429078</v>
+        <v>4.345140874009923E-06</v>
       </c>
       <c r="W92">
-        <v>9.387480114519441</v>
+        <v>0.0008339767555577957</v>
       </c>
       <c r="X92">
-        <v>8.870556945644841</v>
+        <v>0.0001303738621164389</v>
       </c>
       <c r="Y92">
-        <v>0.02415302064711327</v>
+        <v>0.000700415124694889</v>
       </c>
       <c r="Z92">
-        <v>0.0002199180710715328</v>
-      </c>
-      <c r="AA92">
-        <v>0.02499490607330097</v>
-      </c>
-      <c r="AB92">
-        <v>0.0001758589606255967</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.639083699122511E-06</v>
+        <v>5.686154248765466E-06</v>
       </c>
       <c r="C93">
-        <v>0.1206149886308235</v>
+        <v>0.1189278999138019</v>
       </c>
       <c r="D93">
-        <v>0.0005878137383078354</v>
+        <v>0.0005752295977818952</v>
       </c>
       <c r="E93">
-        <v>0.1314496720017101</v>
+        <v>0.1297044921893008</v>
       </c>
       <c r="F93">
-        <v>7.520245767402721</v>
+        <v>7.520245867115627</v>
+      </c>
+      <c r="R93">
+        <v>6.754860292726114</v>
       </c>
       <c r="S93">
-        <v>6.524899096966475E-05</v>
+        <v>13.31081546822563</v>
       </c>
       <c r="T93">
-        <v>0.001542574234602069</v>
+        <v>12.3291320824755</v>
       </c>
       <c r="U93">
-        <v>0.1179</v>
+        <v>0.0006923707747546845</v>
       </c>
       <c r="V93">
-        <v>7.61672377172687</v>
+        <v>0.2689294194116601</v>
       </c>
       <c r="W93">
-        <v>9.40413138195656</v>
+        <v>0.0009121548548290577</v>
       </c>
       <c r="X93">
-        <v>8.901943754585801</v>
+        <v>2.583328724896798E-07</v>
       </c>
       <c r="Y93">
-        <v>0.02681225426667346</v>
+        <v>0.0007782390274387657</v>
       </c>
       <c r="Z93">
-        <v>0.0002401258048589789</v>
-      </c>
-      <c r="AA93">
-        <v>0.02775257797470935</v>
-      </c>
-      <c r="AB93">
-        <v>0.000192524560183574</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28">
+        <v>1.271581313544032E-10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.578413880058717E-06</v>
+        <v>5.625982050637825E-06</v>
       </c>
       <c r="C94">
-        <v>0.1217263513613097</v>
+        <v>0.1200237579722835</v>
       </c>
       <c r="D94">
-        <v>0.0006046340507440909</v>
+        <v>0.0005916362445667513</v>
       </c>
       <c r="E94">
-        <v>0.1337629041268185</v>
+        <v>0.1319984618442238</v>
       </c>
       <c r="F94">
-        <v>7.520186119486621</v>
+        <v>7.520186219361155</v>
+      </c>
+      <c r="R94">
+        <v>6.996879283077587</v>
       </c>
       <c r="S94">
-        <v>5.887977032361643E-05</v>
+        <v>5.193657023622988</v>
       </c>
       <c r="T94">
-        <v>0.00158934512094116</v>
+        <v>6.996872899066521</v>
       </c>
       <c r="U94">
-        <v>0.1047999999999999</v>
+        <v>-0.03283726030485851</v>
       </c>
       <c r="V94">
-        <v>7.608036878882921</v>
+        <v>5.463949600577756E-06</v>
       </c>
       <c r="W94">
-        <v>9.419232442309793</v>
+        <v>0.001026141920073629</v>
       </c>
       <c r="X94">
-        <v>8.935696980777182</v>
+        <v>0.0001778615771066327</v>
       </c>
       <c r="Y94">
-        <v>0.03013377032440027</v>
+        <v>0.0008755188899738451</v>
       </c>
       <c r="Z94">
-        <v>0.0002654800537268218</v>
-      </c>
-      <c r="AA94">
-        <v>0.03119758465152508</v>
-      </c>
-      <c r="AB94">
-        <v>0.0002137792527029307</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.506688727222582E-06</v>
+        <v>5.554772223646679E-06</v>
       </c>
       <c r="C95">
-        <v>0.1228583300277636</v>
+        <v>0.1211399460258136</v>
       </c>
       <c r="D95">
-        <v>0.0006245491913663604</v>
+        <v>0.0006110672396619126</v>
       </c>
       <c r="E95">
-        <v>0.1364002298740792</v>
+        <v>0.1346157782406268</v>
       </c>
       <c r="F95">
-        <v>7.517985130804691</v>
+        <v>7.517985235641645</v>
+      </c>
+      <c r="R95">
+        <v>6.996883869571841</v>
       </c>
       <c r="S95">
-        <v>5.241037827537116E-05</v>
+        <v>13.0527305471001</v>
       </c>
       <c r="T95">
-        <v>0.003891576795223292</v>
+        <v>12.05286836061241</v>
       </c>
       <c r="U95">
-        <v>0.09169999999999993</v>
+        <v>-0.03752907805549553</v>
       </c>
       <c r="V95">
-        <v>7.597933632133468</v>
+        <v>0.1420014163987856</v>
       </c>
       <c r="W95">
-        <v>9.431290652886263</v>
+        <v>0.001147324826211771</v>
       </c>
       <c r="X95">
-        <v>8.972168834546581</v>
+        <v>6.730935185651706E-07</v>
       </c>
       <c r="Y95">
-        <v>0.03440066893449648</v>
+        <v>0.001000593017112966</v>
       </c>
       <c r="Z95">
-        <v>0.0002983105239915414</v>
-      </c>
-      <c r="AA95">
-        <v>0.03562384256564254</v>
-      </c>
-      <c r="AB95">
-        <v>0.0002418466949140026</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28">
+        <v>5.594440709104586E-11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.691344941422599E-06</v>
+        <v>5.739276858190543E-06</v>
       </c>
       <c r="C96">
-        <v>0.1240114789035787</v>
+        <v>0.1222770109200225</v>
       </c>
       <c r="D96">
-        <v>0.0005852204244459534</v>
+        <v>0.0005725422728828349</v>
       </c>
       <c r="E96">
-        <v>0.1320771786671488</v>
+        <v>0.1302992938359412</v>
       </c>
       <c r="F96">
-        <v>7.57664013086267</v>
+        <v>7.576640238741638</v>
+      </c>
+      <c r="R96">
+        <v>6.996860386239281</v>
       </c>
       <c r="S96">
-        <v>8.990808422171057E-05</v>
+        <v>5.147469526499168</v>
       </c>
       <c r="T96">
-        <v>0.001402233982106162</v>
+        <v>6.996844525020425</v>
       </c>
       <c r="U96">
-        <v>0.1697999999999998</v>
+        <v>-0.06745082713120908</v>
       </c>
       <c r="V96">
-        <v>7.585905107318367</v>
+        <v>6.526284986253357E-06</v>
       </c>
       <c r="W96">
-        <v>9.507430915093197</v>
+        <v>0.001338433448327306</v>
       </c>
       <c r="X96">
-        <v>9.018379027799829</v>
+        <v>0.0002258863251759336</v>
       </c>
       <c r="Y96">
-        <v>0.04008439533624732</v>
+        <v>0.00116735851064106</v>
       </c>
       <c r="Z96">
-        <v>0.0003241751131463835</v>
-      </c>
-      <c r="AA96">
-        <v>0.04152084187743063</v>
-      </c>
-      <c r="AB96">
-        <v>0.0002556908592564879</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.623526649968891E-06</v>
+        <v>5.672016772287381E-06</v>
       </c>
       <c r="C97">
-        <v>0.1251869670795704</v>
+        <v>0.1234361010976144</v>
       </c>
       <c r="D97">
-        <v>0.0006038393319073357</v>
+        <v>0.0005906995880483205</v>
       </c>
       <c r="E97">
-        <v>0.1346625276572257</v>
+        <v>0.1328630237409627</v>
       </c>
       <c r="F97">
-        <v>7.576560992306172</v>
+        <v>7.576561100394864</v>
+      </c>
+      <c r="R97">
+        <v>6.996866658182187</v>
       </c>
       <c r="S97">
-        <v>7.671462674206594E-05</v>
+        <v>13.15897632099784</v>
       </c>
       <c r="T97">
-        <v>0.001469111293208797</v>
+        <v>12.16675937533238</v>
       </c>
       <c r="U97">
-        <v>0.1414999999999998</v>
+        <v>-0.08094229781444817</v>
       </c>
       <c r="V97">
-        <v>7.571032995880621</v>
+        <v>0.1847297917203664</v>
       </c>
       <c r="W97">
-        <v>9.51223413382103</v>
+        <v>0.001560942872957581</v>
       </c>
       <c r="X97">
-        <v>9.062283612009978</v>
+        <v>6.84303842961134E-07</v>
       </c>
       <c r="Y97">
-        <v>0.04803643938086753</v>
+        <v>0.001400830212769272</v>
       </c>
       <c r="Z97">
-        <v>0.0003785483374845139</v>
-      </c>
-      <c r="AA97">
-        <v>0.04977387208106548</v>
-      </c>
-      <c r="AB97">
-        <v>0.0003026797630189386</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28">
+        <v>6.169898404710067E-11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.538520268166197E-06</v>
+        <v>5.587617138597953E-06</v>
       </c>
       <c r="C98">
-        <v>0.1263848817694518</v>
+        <v>0.1246173068813602</v>
       </c>
       <c r="D98">
-        <v>0.000627828536587008</v>
+        <v>0.0006141096783268865</v>
       </c>
       <c r="E98">
-        <v>0.1379054074872489</v>
+        <v>0.1360823198480145</v>
       </c>
       <c r="F98">
-        <v>7.576461133712056</v>
+        <v>7.576461242062279</v>
+      </c>
+      <c r="R98">
+        <v>6.99687553517442</v>
       </c>
       <c r="S98">
-        <v>6.318681345575886E-05</v>
+        <v>5.0802562075025</v>
       </c>
       <c r="T98">
-        <v>0.001555747032064459</v>
+        <v>6.996845727172786</v>
       </c>
       <c r="U98">
-        <v>0.1132000000000001</v>
+        <v>-0.1473603201981516</v>
       </c>
       <c r="V98">
-        <v>7.55212353700956</v>
+        <v>9.214157474900797E-06</v>
       </c>
       <c r="W98">
-        <v>9.498997524680082</v>
+        <v>0.001951007515236232</v>
       </c>
       <c r="X98">
-        <v>9.11038736910286</v>
+        <v>0.0003353635059489128</v>
       </c>
       <c r="Y98">
-        <v>0.05995091214171315</v>
+        <v>0.00175103775053684</v>
       </c>
       <c r="Z98">
-        <v>0.0004591750193011668</v>
-      </c>
-      <c r="AA98">
-        <v>0.06214167016057697</v>
-      </c>
-      <c r="AB98">
-        <v>0.0003753357811429216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.421227969735495E-06</v>
+        <v>5.470997606491386E-06</v>
       </c>
       <c r="C99">
-        <v>0.1276058240338485</v>
+        <v>0.1258212214173119</v>
       </c>
       <c r="D99">
-        <v>0.0006621786023425913</v>
+        <v>0.000647659517043152</v>
       </c>
       <c r="E99">
-        <v>0.1423842930903021</v>
+        <v>0.1405348947150081</v>
       </c>
       <c r="F99">
-        <v>7.576326266006575</v>
+        <v>7.576326374704908</v>
+      </c>
+      <c r="R99">
+        <v>6.996889573034774</v>
       </c>
       <c r="S99">
-        <v>4.922797264793615E-05</v>
+        <v>13.26631905631351</v>
       </c>
       <c r="T99">
-        <v>0.00167596649706495</v>
+        <v>12.27823153308738</v>
       </c>
       <c r="U99">
-        <v>0.08490000000000007</v>
+        <v>-0.1964834983166937</v>
       </c>
       <c r="V99">
-        <v>7.526480251898173</v>
+        <v>0.2409428847245065</v>
       </c>
       <c r="W99">
-        <v>9.443303308788593</v>
+        <v>0.002489555518332005</v>
       </c>
       <c r="X99">
-        <v>9.162030523852183</v>
+        <v>8.828060448909908E-07</v>
       </c>
       <c r="Y99">
-        <v>0.07978149118251714</v>
+        <v>0.002334717000715787</v>
       </c>
       <c r="Z99">
-        <v>0.0005926021109716349</v>
-      </c>
-      <c r="AA99">
-        <v>0.08273044828705499</v>
-      </c>
-      <c r="AB99">
-        <v>0.0005023218349870039</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28">
+        <v>2.048644813655401E-10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.228044200092014E-06</v>
+        <v>5.278549978121328E-06</v>
       </c>
       <c r="C100">
-        <v>0.1288503695772947</v>
+        <v>0.1270484132006479</v>
       </c>
       <c r="D100">
-        <v>0.0007218263037579244</v>
+        <v>0.0007059809576627976</v>
       </c>
       <c r="E100">
-        <v>0.1497048433126593</v>
+        <v>0.1478262244880629</v>
       </c>
       <c r="F100">
-        <v>7.57467121187284</v>
+        <v>7.574671324499456</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
       </c>
       <c r="S100">
-        <v>3.466911542856202E-05</v>
+        <v>0</v>
       </c>
       <c r="T100">
-        <v>0.003313918931850795</v>
+        <v>0</v>
       </c>
       <c r="U100">
-        <v>0.05660000000000005</v>
+        <v>-0.4151966898372936</v>
       </c>
       <c r="V100">
         <v>0</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>0.003733891874475562</v>
       </c>
       <c r="X100">
         <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.1193759357182899</v>
+        <v>0.00350207539864144</v>
       </c>
       <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0.123844511513089</v>
-      </c>
-      <c r="AB100">
         <v>0</v>
       </c>
     </row>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Recovery</t>
   </si>
@@ -46,27 +46,6 @@
     <t>fourth_stage_Avg_flux(LMH)</t>
   </si>
   <si>
-    <t>fifth_stage_Avg_flux(LMH)</t>
-  </si>
-  <si>
-    <t>SEC_1 (kWh/m3)</t>
-  </si>
-  <si>
-    <t>SEC_2 (kWh/m3)</t>
-  </si>
-  <si>
-    <t>SEC_3 (kWh/m3)</t>
-  </si>
-  <si>
-    <t>SEC_4 (kWh/m3)</t>
-  </si>
-  <si>
-    <t>SEC_5 (kWh/m3)</t>
-  </si>
-  <si>
-    <t>Total_SEC (kWh/m3)</t>
-  </si>
-  <si>
     <t>Brine pH</t>
   </si>
   <si>
@@ -92,6 +71,18 @@
   </si>
   <si>
     <t>Ptp</t>
+  </si>
+  <si>
+    <t>Ntb</t>
+  </si>
+  <si>
+    <t>Ntp</t>
+  </si>
+  <si>
+    <t>Ntp_Accum_mgl</t>
+  </si>
+  <si>
+    <t>SI_Armp_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -423,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,4699 +490,5680 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.582025511947677E-06</v>
+        <v>5.7012363672545E-06</v>
       </c>
       <c r="C2">
-        <v>0.01506833702091214</v>
+        <v>0.03694686318841234</v>
       </c>
       <c r="D2">
-        <v>6.974519208251868E-05</v>
+        <v>0.0001741051376761971</v>
       </c>
       <c r="E2">
-        <v>0.0160320019178025</v>
+        <v>0.0393614143617341</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="G2">
-        <v>19.00268504021262</v>
+        <v>19.13417991549236</v>
       </c>
       <c r="H2">
-        <v>18.8328562143467</v>
+        <v>19.10506665755927</v>
       </c>
       <c r="I2">
-        <v>19.90197458412845</v>
+        <v>18.99610741222899</v>
       </c>
       <c r="J2">
-        <v>20.62652809160235</v>
+        <v>18.61596953414158</v>
       </c>
       <c r="K2">
-        <v>19.97889001465579</v>
+        <v>7.131283102582726</v>
       </c>
       <c r="L2">
-        <v>0.2147187442801989</v>
+        <v>5.31997923383702</v>
       </c>
       <c r="M2">
-        <v>0.011112</v>
+        <v>7.20517457049348</v>
       </c>
       <c r="N2">
-        <v>0.01842551020408163</v>
+        <v>0.01385929047336624</v>
       </c>
       <c r="O2">
-        <v>0.003795655102040817</v>
+        <v>0.0001541157036923304</v>
       </c>
       <c r="P2">
-        <v>0.0001020489795918366</v>
+        <v>0.0153214278263131</v>
       </c>
       <c r="Q2">
-        <v>0.2481539585659132</v>
+        <v>0.00180541460254988</v>
       </c>
       <c r="R2">
-        <v>7.999000510921586</v>
+        <v>0.0003443183474015728</v>
       </c>
       <c r="S2">
-        <v>11.59271156246534</v>
+        <v>5.409193326669113E-07</v>
       </c>
       <c r="T2">
-        <v>10.49519669447878</v>
+        <v>0.01046677910478757</v>
       </c>
       <c r="U2">
-        <v>0.003242160161828556</v>
+        <v>0.001988732170605217</v>
       </c>
       <c r="V2">
-        <v>0.004196251792567682</v>
+        <v>27.8641264423497</v>
       </c>
       <c r="W2">
-        <v>0.003281516573938714</v>
-      </c>
-      <c r="X2">
-        <v>1.373530790367275E-05</v>
-      </c>
-      <c r="Y2">
-        <v>7.004931436832828E-05</v>
-      </c>
-      <c r="Z2">
-        <v>1.888065133664491E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>6.063200193860981E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.578066124211612E-06</v>
+        <v>5.689825280167949E-06</v>
       </c>
       <c r="C3">
-        <v>0.01521983794847608</v>
+        <v>0.03731830518892483</v>
       </c>
       <c r="D3">
-        <v>7.053168873583062E-05</v>
+        <v>0.0001762825340471672</v>
       </c>
       <c r="E3">
-        <v>0.01620134036527435</v>
+        <v>0.03977426195266695</v>
       </c>
       <c r="F3">
-        <v>3.099985694137483</v>
+        <v>5.599985244231278</v>
+      </c>
+      <c r="K3">
+        <v>7.133279212830862</v>
+      </c>
+      <c r="L3">
+        <v>5.36287526012572</v>
+      </c>
+      <c r="M3">
+        <v>7.230375139670566</v>
+      </c>
+      <c r="N3">
+        <v>0.01399772658215082</v>
+      </c>
+      <c r="O3">
+        <v>0.0001624982645415902</v>
+      </c>
+      <c r="P3">
+        <v>0.01545795321241172</v>
+      </c>
+      <c r="Q3">
+        <v>0.001731853172124206</v>
       </c>
       <c r="R3">
-        <v>7.81755789456609</v>
+        <v>0.0003477908466749961</v>
       </c>
       <c r="S3">
-        <v>4.413789150846131</v>
+        <v>3.393126802497532E-07</v>
       </c>
       <c r="T3">
-        <v>6.17343867596425</v>
+        <v>0.01055241594250658</v>
       </c>
       <c r="U3">
-        <v>0.003232522872629171</v>
+        <v>0.002035847293686342</v>
       </c>
       <c r="V3">
-        <v>1.500956014960333E-05</v>
+        <v>28.19419143709451</v>
       </c>
       <c r="W3">
-        <v>0.003314524465514825</v>
-      </c>
-      <c r="X3">
-        <v>0.004579806111553404</v>
-      </c>
-      <c r="Y3">
-        <v>7.07568812931951E-05</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>6.308901791523453E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.569962732377493E-06</v>
+        <v>5.67779503157281E-06</v>
       </c>
       <c r="C4">
-        <v>0.01537442270622853</v>
+        <v>0.03769730542009705</v>
       </c>
       <c r="D4">
-        <v>7.13845041801612E-05</v>
+        <v>0.00017852560502852</v>
       </c>
       <c r="E4">
-        <v>0.0163735176715743</v>
+        <v>0.04019557231799577</v>
       </c>
       <c r="F4">
-        <v>3.099971315406484</v>
+        <v>5.599970413340205</v>
+      </c>
+      <c r="K4">
+        <v>7.135136694464463</v>
+      </c>
+      <c r="L4">
+        <v>5.369649533984806</v>
+      </c>
+      <c r="M4">
+        <v>7.234584572475491</v>
+      </c>
+      <c r="N4">
+        <v>0.0141389023813101</v>
+      </c>
+      <c r="O4">
+        <v>0.0001650647541335026</v>
+      </c>
+      <c r="P4">
+        <v>0.01559801545772078</v>
+      </c>
+      <c r="Q4">
+        <v>0.001732824802447099</v>
       </c>
       <c r="R4">
-        <v>8.014384127855946</v>
+        <v>0.0003513362704912691</v>
       </c>
       <c r="S4">
-        <v>11.59550315126457</v>
+        <v>3.370594919951001E-07</v>
       </c>
       <c r="T4">
-        <v>10.49670514514617</v>
+        <v>0.01063931970422924</v>
       </c>
       <c r="U4">
-        <v>0.003265354641123861</v>
+        <v>0.002057618294567017</v>
       </c>
       <c r="V4">
-        <v>0.004224077110809174</v>
+        <v>28.4058909331225</v>
       </c>
       <c r="W4">
-        <v>0.00330161342831035</v>
-      </c>
-      <c r="X4">
-        <v>1.385989920057135E-05</v>
-      </c>
-      <c r="Y4">
-        <v>7.14788902859828E-05</v>
-      </c>
-      <c r="Z4">
-        <v>1.877504519760349E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>6.555178165599336E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.561689922830312E-06</v>
+        <v>5.66551396041969E-06</v>
       </c>
       <c r="C5">
-        <v>0.01553218598666202</v>
+        <v>0.03808409696458229</v>
       </c>
       <c r="D5">
-        <v>7.225797510354714E-05</v>
+        <v>0.0001808257305080687</v>
       </c>
       <c r="E5">
-        <v>0.01654935727717495</v>
+        <v>0.04062578035334864</v>
       </c>
       <c r="F5">
-        <v>3.09995686240081</v>
+        <v>5.599955505877826</v>
+      </c>
+      <c r="K5">
+        <v>7.137009279989326</v>
+      </c>
+      <c r="L5">
+        <v>5.376047098662178</v>
+      </c>
+      <c r="M5">
+        <v>7.238550784358756</v>
+      </c>
+      <c r="N5">
+        <v>0.01428296256303357</v>
+      </c>
+      <c r="O5">
+        <v>0.0001676292484588266</v>
+      </c>
+      <c r="P5">
+        <v>0.01574095556756896</v>
+      </c>
+      <c r="Q5">
+        <v>0.00173483948882763</v>
       </c>
       <c r="R5">
-        <v>7.826562748811816</v>
+        <v>0.0003549548190582719</v>
       </c>
       <c r="S5">
-        <v>4.406475827303459</v>
+        <v>3.373639769973896E-07</v>
       </c>
       <c r="T5">
-        <v>6.162202113990118</v>
+        <v>0.01072779085278246</v>
       </c>
       <c r="U5">
-        <v>0.003255470904322981</v>
+        <v>0.002079838693294507</v>
       </c>
       <c r="V5">
-        <v>1.512829648391789E-05</v>
+        <v>28.58957318277921</v>
       </c>
       <c r="W5">
-        <v>0.003335507794589832</v>
-      </c>
-      <c r="X5">
-        <v>0.00472396985472377</v>
-      </c>
-      <c r="Y5">
-        <v>7.22157841265553E-05</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>6.805677298561305E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.553242339147867E-06</v>
+        <v>5.652974228762259E-06</v>
       </c>
       <c r="C6">
-        <v>0.01569322690344908</v>
+        <v>0.03847892270660391</v>
       </c>
       <c r="D6">
-        <v>7.315285496135161E-05</v>
+        <v>0.0001831850929832339</v>
       </c>
       <c r="E6">
-        <v>0.01672897620063257</v>
+        <v>0.04106516731673529</v>
       </c>
       <c r="F6">
-        <v>3.099942333670407</v>
+        <v>5.599940520350005</v>
+      </c>
+      <c r="K6">
+        <v>7.138898730809396</v>
+      </c>
+      <c r="L6">
+        <v>5.38253541821145</v>
+      </c>
+      <c r="M6">
+        <v>7.242559392511234</v>
+      </c>
+      <c r="N6">
+        <v>0.01442999728506039</v>
+      </c>
+      <c r="O6">
+        <v>0.0001702631974658512</v>
+      </c>
+      <c r="P6">
+        <v>0.01588685261005585</v>
+      </c>
+      <c r="Q6">
+        <v>0.001736883494465886</v>
       </c>
       <c r="R6">
-        <v>8.036219245036387</v>
+        <v>0.0003586487508820352</v>
       </c>
       <c r="S6">
-        <v>11.59655189534119</v>
+        <v>3.376604595436427E-07</v>
       </c>
       <c r="T6">
-        <v>10.49616366216604</v>
+        <v>0.01081787368777712</v>
       </c>
       <c r="U6">
-        <v>0.003289224473154638</v>
+        <v>0.002102573387294992</v>
       </c>
       <c r="V6">
-        <v>0.004234811408432976</v>
+        <v>28.76348969210139</v>
       </c>
       <c r="W6">
-        <v>0.003321044648130104</v>
-      </c>
-      <c r="X6">
-        <v>1.400681870750019E-05</v>
-      </c>
-      <c r="Y6">
-        <v>7.296803187787357E-05</v>
-      </c>
-      <c r="Z6">
-        <v>1.865883979272285E-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>7.060573965534917E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.544614403490873E-06</v>
+        <v>5.640167652250942E-06</v>
       </c>
       <c r="C7">
-        <v>0.01585764873553843</v>
+        <v>0.0388820357341157</v>
       </c>
       <c r="D7">
-        <v>7.406993399647344E-05</v>
+        <v>0.0001856059874262541</v>
       </c>
       <c r="E7">
-        <v>0.01691249645726277</v>
+        <v>0.04151402629321597</v>
       </c>
       <c r="F7">
-        <v>3.099927727719471</v>
+        <v>5.599925455215496</v>
+      </c>
+      <c r="K7">
+        <v>7.140799585002886</v>
+      </c>
+      <c r="L7">
+        <v>5.389089554854877</v>
+      </c>
+      <c r="M7">
+        <v>7.246595592703</v>
+      </c>
+      <c r="N7">
+        <v>0.01458009974914034</v>
+      </c>
+      <c r="O7">
+        <v>0.0001729647303395209</v>
+      </c>
+      <c r="P7">
+        <v>0.01603579965337784</v>
+      </c>
+      <c r="Q7">
+        <v>0.001739011490327942</v>
       </c>
       <c r="R7">
-        <v>7.841256847128567</v>
+        <v>0.000362420446570693</v>
       </c>
       <c r="S7">
-        <v>4.41084392113383</v>
+        <v>3.379524263681671E-07</v>
       </c>
       <c r="T7">
-        <v>6.178355574543898</v>
+        <v>0.01090961369094009</v>
       </c>
       <c r="U7">
-        <v>0.003279270926467498</v>
+        <v>0.002125837517313607</v>
       </c>
       <c r="V7">
-        <v>1.574874972416164E-05</v>
+        <v>28.93375965259799</v>
       </c>
       <c r="W7">
-        <v>0.003355855572650342</v>
-      </c>
-      <c r="X7">
-        <v>0.004696336595635509</v>
-      </c>
-      <c r="Y7">
-        <v>7.373611445986806E-05</v>
-      </c>
-      <c r="Z7">
-        <v>6.214607549731868E-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>7.319848409777489E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.535800292867533E-06</v>
+        <v>5.627085711204886E-06</v>
       </c>
       <c r="C8">
-        <v>0.01602555914832079</v>
+        <v>0.03929369988035708</v>
       </c>
       <c r="D8">
-        <v>7.501004165175559E-05</v>
+        <v>0.0001880908276731047</v>
       </c>
       <c r="E8">
-        <v>0.01710004532430016</v>
+        <v>0.04197266282956921</v>
       </c>
       <c r="F8">
-        <v>3.099913043004485</v>
+        <v>5.599910308883918</v>
+      </c>
+      <c r="K8">
+        <v>7.142717478846142</v>
+      </c>
+      <c r="L8">
+        <v>5.395744351113986</v>
+      </c>
+      <c r="M8">
+        <v>7.250679554528368</v>
+      </c>
+      <c r="N8">
+        <v>0.01473336714295737</v>
+      </c>
+      <c r="O8">
+        <v>0.0001757419143189086</v>
+      </c>
+      <c r="P8">
+        <v>0.01618789314447412</v>
+      </c>
+      <c r="Q8">
+        <v>0.001741156504774615</v>
       </c>
       <c r="R8">
-        <v>8.05702413111667</v>
+        <v>0.0003662723879977603</v>
       </c>
       <c r="S8">
-        <v>11.59820214360147</v>
+        <v>3.382294108322167E-07</v>
       </c>
       <c r="T8">
-        <v>10.4961514738078</v>
+        <v>0.0110030581183191</v>
       </c>
       <c r="U8">
-        <v>0.003313989247496682</v>
+        <v>0.002149653840418875</v>
       </c>
       <c r="V8">
-        <v>0.004251567283333722</v>
+        <v>29.10305112481382</v>
       </c>
       <c r="W8">
-        <v>0.003341595136235606</v>
-      </c>
-      <c r="X8">
-        <v>1.415757625088784E-05</v>
-      </c>
-      <c r="Y8">
-        <v>7.45198800809784E-05</v>
-      </c>
-      <c r="Z8">
-        <v>1.854932224992682E-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>7.583769743493761E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.52679394632919E-06</v>
+        <v>5.613719507517609E-06</v>
       </c>
       <c r="C9">
-        <v>0.01619707042903766</v>
+        <v>0.03971419030027841</v>
       </c>
       <c r="D9">
-        <v>7.597404875728977E-05</v>
+        <v>0.000190642154974096</v>
       </c>
       <c r="E9">
-        <v>0.01729175562931932</v>
+        <v>0.04244139558305455</v>
       </c>
       <c r="F9">
-        <v>3.099898277932136</v>
+        <v>5.5998950797136</v>
+      </c>
+      <c r="K9">
+        <v>7.144648836033144</v>
+      </c>
+      <c r="L9">
+        <v>5.402475608887904</v>
+      </c>
+      <c r="M9">
+        <v>7.254796458288168</v>
+      </c>
+      <c r="N9">
+        <v>0.01488990074756638</v>
+      </c>
+      <c r="O9">
+        <v>0.0001785932369435667</v>
+      </c>
+      <c r="P9">
+        <v>0.01634323439866444</v>
+      </c>
+      <c r="Q9">
+        <v>0.001743375755513752</v>
       </c>
       <c r="R9">
-        <v>7.854832051577086</v>
+        <v>0.0003702071638965445</v>
       </c>
       <c r="S9">
-        <v>4.403493630707204</v>
+        <v>3.384993519247021E-07</v>
       </c>
       <c r="T9">
-        <v>6.167775122940649</v>
+        <v>0.01109825601378039</v>
       </c>
       <c r="U9">
-        <v>0.00330390776324037</v>
+        <v>0.002174039316245251</v>
       </c>
       <c r="V9">
-        <v>1.591769605241777E-05</v>
+        <v>29.27272784170112</v>
       </c>
       <c r="W9">
-        <v>0.003377374034730065</v>
-      </c>
-      <c r="X9">
-        <v>0.004848364991259409</v>
-      </c>
-      <c r="Y9">
-        <v>7.532116711955641E-05</v>
-      </c>
-      <c r="Z9">
-        <v>6.275863688228449E-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>7.852369374651424E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.517589030412981E-06</v>
+        <v>5.600059793973891E-06</v>
       </c>
       <c r="C10">
-        <v>0.01637229973751897</v>
+        <v>0.04014379408446649</v>
       </c>
       <c r="D10">
-        <v>7.696287041055369E-05</v>
+        <v>0.0001932626448752121</v>
       </c>
       <c r="E10">
-        <v>0.01748776604902338</v>
+        <v>0.0429205570484571</v>
       </c>
       <c r="F10">
-        <v>3.099883430857106</v>
+        <v>5.599879766009324</v>
+      </c>
+      <c r="K10">
+        <v>7.146595777545543</v>
+      </c>
+      <c r="L10">
+        <v>5.409292101264826</v>
+      </c>
+      <c r="M10">
+        <v>7.258951503254788</v>
+      </c>
+      <c r="N10">
+        <v>0.01504980626398619</v>
+      </c>
+      <c r="O10">
+        <v>0.0001815226947158355</v>
+      </c>
+      <c r="P10">
+        <v>0.01650192851435086</v>
+      </c>
+      <c r="Q10">
+        <v>0.001745655597309046</v>
       </c>
       <c r="R10">
-        <v>8.085954783184963</v>
+        <v>0.0003742274754676816</v>
       </c>
       <c r="S10">
-        <v>11.59731674252209</v>
+        <v>3.387595980065169E-07</v>
       </c>
       <c r="T10">
-        <v>10.49356388604331</v>
+        <v>0.01119525836918838</v>
       </c>
       <c r="U10">
-        <v>0.003339646785709804</v>
+        <v>0.00219901556787795</v>
       </c>
       <c r="V10">
-        <v>0.004243148850833053</v>
+        <v>29.44358109501632</v>
       </c>
       <c r="W10">
-        <v>0.003361385002593877</v>
-      </c>
-      <c r="X10">
-        <v>1.432469306354937E-05</v>
-      </c>
-      <c r="Y10">
-        <v>7.613919329871591E-05</v>
-      </c>
-      <c r="Z10">
-        <v>1.841025050518059E-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>8.125849053223193E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.508178919635133E-06</v>
+        <v>5.586096892153356E-06</v>
       </c>
       <c r="C11">
-        <v>0.01655136937342126</v>
+        <v>0.040582810913473</v>
       </c>
       <c r="D11">
-        <v>7.797746887036182E-05</v>
+        <v>0.0001959551182152876</v>
       </c>
       <c r="E11">
-        <v>0.01768822143107749</v>
+        <v>0.04341049427589241</v>
       </c>
       <c r="F11">
-        <v>3.09986850007977</v>
+        <v>5.599864366019943</v>
+      </c>
+      <c r="K11">
+        <v>7.148556213241379</v>
+      </c>
+      <c r="L11">
+        <v>5.416194598852066</v>
+      </c>
+      <c r="M11">
+        <v>7.263144641148191</v>
+      </c>
+      <c r="N11">
+        <v>0.01521319399551664</v>
+      </c>
+      <c r="O11">
+        <v>0.0001845331028476883</v>
+      </c>
+      <c r="P11">
+        <v>0.01666408535959307</v>
+      </c>
+      <c r="Q11">
+        <v>0.001748000248614697</v>
       </c>
       <c r="R11">
-        <v>7.876003335511717</v>
+        <v>0.0003783361426750407</v>
       </c>
       <c r="S11">
-        <v>4.398440207734482</v>
+        <v>3.390101559857626E-07</v>
       </c>
       <c r="T11">
-        <v>6.161086820624971</v>
+        <v>0.01129411818019179</v>
       </c>
       <c r="U11">
-        <v>0.00332971819158757</v>
+        <v>0.002224604395635947</v>
       </c>
       <c r="V11">
-        <v>1.609562294195928E-05</v>
+        <v>29.61611620424022</v>
       </c>
       <c r="W11">
-        <v>0.003398165885116188</v>
-      </c>
-      <c r="X11">
-        <v>0.00496109192424406</v>
-      </c>
-      <c r="Y11">
-        <v>7.697588570746549E-05</v>
-      </c>
-      <c r="Z11">
-        <v>6.285026246673611E-08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>8.404296346488974E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.498556720942558E-06</v>
+        <v>5.571820690497996E-06</v>
       </c>
       <c r="C12">
-        <v>0.0167344070612496</v>
+        <v>0.04103155375564253</v>
       </c>
       <c r="D12">
-        <v>7.90188560745163E-05</v>
+        <v>0.0001987225503483615</v>
       </c>
       <c r="E12">
-        <v>0.01789327314675612</v>
+        <v>0.04391156967626744</v>
       </c>
       <c r="F12">
-        <v>3.099853483843729</v>
+        <v>5.599848877935857</v>
+      </c>
+      <c r="K12">
+        <v>7.150536115640767</v>
+      </c>
+      <c r="L12">
+        <v>5.423204412465554</v>
+      </c>
+      <c r="M12">
+        <v>7.267388383729402</v>
+      </c>
+      <c r="N12">
+        <v>0.01538017911654629</v>
+      </c>
+      <c r="O12">
+        <v>0.0001876311382630416</v>
+      </c>
+      <c r="P12">
+        <v>0.01682981963860394</v>
+      </c>
+      <c r="Q12">
+        <v>0.001750370569768185</v>
       </c>
       <c r="R12">
-        <v>8.122905306777868</v>
+        <v>0.0003825361108141413</v>
       </c>
       <c r="S12">
-        <v>11.59392448309521</v>
+        <v>3.39244929540226E-07</v>
       </c>
       <c r="T12">
-        <v>10.48842414540361</v>
+        <v>0.01139489055557575</v>
       </c>
       <c r="U12">
-        <v>0.003366536220128077</v>
+        <v>0.002250831206210088</v>
       </c>
       <c r="V12">
-        <v>0.004210000607059969</v>
+        <v>29.79068709751015</v>
       </c>
       <c r="W12">
-        <v>0.00338080004023699</v>
-      </c>
-      <c r="X12">
-        <v>1.45089595624162E-05</v>
-      </c>
-      <c r="Y12">
-        <v>7.783047499018769E-05</v>
-      </c>
-      <c r="Z12">
-        <v>1.824298257744468E-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>8.687985143123492E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.488715215204079E-06</v>
+        <v>5.557220683814382E-06</v>
       </c>
       <c r="C13">
-        <v>0.01692154625456617</v>
+        <v>0.04149034961188178</v>
       </c>
       <c r="D13">
-        <v>8.008809745891929E-05</v>
+        <v>0.0002015680796731516</v>
       </c>
       <c r="E13">
-        <v>0.01810307944963266</v>
+        <v>0.04442416190345456</v>
       </c>
       <c r="F13">
-        <v>3.099838380333218</v>
+        <v>5.599833299886311</v>
+      </c>
+      <c r="K13">
+        <v>7.15252973062068</v>
+      </c>
+      <c r="L13">
+        <v>5.430306336599111</v>
+      </c>
+      <c r="M13">
+        <v>7.27167288259269</v>
+      </c>
+      <c r="N13">
+        <v>0.01555088190281914</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908170040810907</v>
+      </c>
+      <c r="P13">
+        <v>0.01699925165061333</v>
+      </c>
+      <c r="Q13">
+        <v>0.001752806191790887</v>
       </c>
       <c r="R13">
-        <v>7.90514638307593</v>
+        <v>0.0003868304576218334</v>
       </c>
       <c r="S13">
-        <v>4.386227334829488</v>
+        <v>3.394685388272973E-07</v>
       </c>
       <c r="T13">
-        <v>6.136356479067382</v>
+        <v>0.01149763279545626</v>
       </c>
       <c r="U13">
-        <v>0.003357059092185022</v>
+        <v>0.002277718016866864</v>
       </c>
       <c r="V13">
-        <v>1.586334212234484E-05</v>
+        <v>29.96755543391111</v>
       </c>
       <c r="W13">
-        <v>0.003418623535525468</v>
-      </c>
-      <c r="X13">
-        <v>0.005183990034428151</v>
-      </c>
-      <c r="Y13">
-        <v>7.870497265940525E-05</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>8.976965581433929E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.478646845933835E-06</v>
+        <v>5.542285827905475E-06</v>
       </c>
       <c r="C14">
-        <v>0.01711292646089694</v>
+        <v>0.04195954031111143</v>
       </c>
       <c r="D14">
-        <v>8.118631542108871E-05</v>
+        <v>0.0002044950231122126</v>
       </c>
       <c r="E14">
-        <v>0.01831780586912085</v>
+        <v>0.04494866669591199</v>
       </c>
       <c r="F14">
-        <v>3.099823187670374</v>
+        <v>5.599817629936645</v>
+      </c>
+      <c r="K14">
+        <v>7.154539410897133</v>
+      </c>
+      <c r="L14">
+        <v>5.437496009187422</v>
+      </c>
+      <c r="M14">
+        <v>7.275995793972415</v>
+      </c>
+      <c r="N14">
+        <v>0.01572542809485025</v>
+      </c>
+      <c r="O14">
+        <v>0.0001940932334137953</v>
+      </c>
+      <c r="P14">
+        <v>0.01717250671264541</v>
+      </c>
+      <c r="Q14">
+        <v>0.001755321190312387</v>
       </c>
       <c r="R14">
-        <v>8.176120857342987</v>
+        <v>0.0003912224006795949</v>
       </c>
       <c r="S14">
-        <v>11.5851186718469</v>
+        <v>3.396830122824806E-07</v>
       </c>
       <c r="T14">
-        <v>10.47785459837731</v>
+        <v>0.01160240455430387</v>
       </c>
       <c r="U14">
-        <v>0.003395027225708462</v>
+        <v>0.002305289567351312</v>
       </c>
       <c r="V14">
-        <v>0.004124584771317822</v>
+        <v>30.14692902577635</v>
       </c>
       <c r="W14">
-        <v>0.003398562552583392</v>
-      </c>
-      <c r="X14">
-        <v>1.472113774840183E-05</v>
-      </c>
-      <c r="Y14">
-        <v>7.959934734871667E-05</v>
-      </c>
-      <c r="Z14">
-        <v>1.801475878167588E-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>9.271425306400503E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.468343712118347E-06</v>
+        <v>5.527004620643991E-06</v>
       </c>
       <c r="C15">
-        <v>0.01730869358900586</v>
+        <v>0.04243948336039877</v>
       </c>
       <c r="D15">
-        <v>8.23146929864835E-05</v>
+        <v>0.0002075068850275084</v>
       </c>
       <c r="E15">
-        <v>0.01853762563220704</v>
+        <v>0.04548549789815345</v>
       </c>
       <c r="F15">
-        <v>3.09980790391233</v>
+        <v>5.599801866085219</v>
+      </c>
+      <c r="K15">
+        <v>7.15656490371611</v>
+      </c>
+      <c r="L15">
+        <v>5.444783219847299</v>
+      </c>
+      <c r="M15">
+        <v>7.280362103829487</v>
+      </c>
+      <c r="N15">
+        <v>0.01590394918521159</v>
+      </c>
+      <c r="O15">
+        <v>0.0001974648043771743</v>
+      </c>
+      <c r="P15">
+        <v>0.01734971574163774</v>
+      </c>
+      <c r="Q15">
+        <v>0.001757903402439242</v>
       </c>
       <c r="R15">
-        <v>7.951505956661169</v>
+        <v>0.0003957153054803686</v>
       </c>
       <c r="S15">
-        <v>4.388583205606119</v>
+        <v>3.398859171295531E-07</v>
       </c>
       <c r="T15">
-        <v>6.141690729768356</v>
+        <v>0.01170926794495849</v>
       </c>
       <c r="U15">
-        <v>0.003386641506793411</v>
+        <v>0.002333573486139081</v>
       </c>
       <c r="V15">
-        <v>1.603180983126943E-05</v>
+        <v>30.32898396067052</v>
       </c>
       <c r="W15">
-        <v>0.003437457281489541</v>
-      </c>
-      <c r="X15">
-        <v>0.005151187118505049</v>
-      </c>
-      <c r="Y15">
-        <v>8.051428030505148E-05</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>9.571539268291699E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.457797566068062E-06</v>
+        <v>5.511365036529408E-06</v>
       </c>
       <c r="C16">
-        <v>0.01750900032035492</v>
+        <v>0.04293055285429844</v>
       </c>
       <c r="D16">
-        <v>8.347447768146229E-05</v>
+        <v>0.0002106073719653068</v>
       </c>
       <c r="E16">
-        <v>0.01876272011600404</v>
+        <v>0.0460350884728313</v>
       </c>
       <c r="F16">
-        <v>3.099792527048122</v>
+        <v>5.599786006260305</v>
+      </c>
+      <c r="K16">
+        <v>7.158606339379174</v>
+      </c>
+      <c r="L16">
+        <v>5.452176486380262</v>
+      </c>
+      <c r="M16">
+        <v>7.284776466459457</v>
+      </c>
+      <c r="N16">
+        <v>0.01608658272452361</v>
+      </c>
+      <c r="O16">
+        <v>0.0002009366811477929</v>
+      </c>
+      <c r="P16">
+        <v>0.01753101588511679</v>
+      </c>
+      <c r="Q16">
+        <v>0.0017605404314197</v>
       </c>
       <c r="R16">
-        <v>8.234288389851576</v>
+        <v>0.0004003126940799411</v>
       </c>
       <c r="S16">
-        <v>11.57449063640393</v>
+        <v>3.400746620712165E-07</v>
       </c>
       <c r="T16">
-        <v>10.46539730483053</v>
+        <v>0.01181828764796802</v>
       </c>
       <c r="U16">
-        <v>0.003425834642804599</v>
+        <v>0.002362598699516367</v>
       </c>
       <c r="V16">
-        <v>0.004023795049183148</v>
+        <v>30.51387638855407</v>
       </c>
       <c r="W16">
-        <v>0.003417530190361454</v>
-      </c>
-      <c r="X16">
-        <v>1.49487886607065E-05</v>
-      </c>
-      <c r="Y16">
-        <v>8.145049286673812E-05</v>
-      </c>
-      <c r="Z16">
-        <v>1.776929142964073E-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>9.877498340730318E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.446999745041556E-06</v>
+        <v>5.495354462120313E-06</v>
       </c>
       <c r="C17">
-        <v>0.01771400650673931</v>
+        <v>0.04343314044820824</v>
       </c>
       <c r="D17">
-        <v>8.466698665629449E-05</v>
+        <v>0.0002138004085994383</v>
       </c>
       <c r="E17">
-        <v>0.01899327931672079</v>
+        <v>0.04659789158112489</v>
       </c>
       <c r="F17">
-        <v>3.099777054995454</v>
+        <v>5.599770048316739</v>
+      </c>
+      <c r="K17">
+        <v>7.160665746536331</v>
+      </c>
+      <c r="L17">
+        <v>5.45967710293228</v>
+      </c>
+      <c r="M17">
+        <v>7.289239170542372</v>
+      </c>
+      <c r="N17">
+        <v>0.01627347267797509</v>
+      </c>
+      <c r="O17">
+        <v>0.000204512964500925</v>
+      </c>
+      <c r="P17">
+        <v>0.01771655089045441</v>
+      </c>
+      <c r="Q17">
+        <v>0.001763238487626128</v>
       </c>
       <c r="R17">
-        <v>8.00559618569066</v>
+        <v>0.0004050182543083867</v>
       </c>
       <c r="S17">
-        <v>4.400655677748725</v>
+        <v>3.402493217167154E-07</v>
       </c>
       <c r="T17">
-        <v>6.170412843960284</v>
+        <v>0.01192953104736157</v>
       </c>
       <c r="U17">
-        <v>0.003418799814494263</v>
+        <v>0.002392394840614558</v>
       </c>
       <c r="V17">
-        <v>1.669329457050941E-05</v>
+        <v>30.70174937126011</v>
       </c>
       <c r="W17">
-        <v>0.003457560559793228</v>
-      </c>
-      <c r="X17">
-        <v>0.004970342894132934</v>
-      </c>
-      <c r="Y17">
-        <v>8.240873186878311E-05</v>
-      </c>
-      <c r="Z17">
-        <v>5.869671558940096E-08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.0001018951614293365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.435941181317177E-06</v>
+        <v>5.478959725442248E-06</v>
       </c>
       <c r="C18">
-        <v>0.01792387959626411</v>
+        <v>0.04394765640106073</v>
       </c>
       <c r="D18">
-        <v>8.589361107437398E-05</v>
+        <v>0.0002170901515822634</v>
       </c>
       <c r="E18">
-        <v>0.01922950237086243</v>
+        <v>0.0471743817942737</v>
       </c>
       <c r="F18">
-        <v>3.099761485597234</v>
+        <v>5.599753990032311</v>
+      </c>
+      <c r="K18">
+        <v>7.162741472764227</v>
+      </c>
+      <c r="L18">
+        <v>5.467276486155463</v>
+      </c>
+      <c r="M18">
+        <v>7.293745285389356</v>
+      </c>
+      <c r="N18">
+        <v>0.01646476981742121</v>
+      </c>
+      <c r="O18">
+        <v>0.0002081958428072564</v>
+      </c>
+      <c r="P18">
+        <v>0.01790647127620236</v>
+      </c>
+      <c r="Q18">
+        <v>0.001766020858166295</v>
       </c>
       <c r="R18">
-        <v>8.288788243360779</v>
+        <v>0.000409835849605847</v>
       </c>
       <c r="S18">
-        <v>11.56479227284268</v>
+        <v>3.404127480086349E-07</v>
       </c>
       <c r="T18">
-        <v>10.453764210795</v>
+        <v>0.01204306838315618</v>
       </c>
       <c r="U18">
-        <v>0.003459301082588594</v>
+        <v>0.002422991693260286</v>
       </c>
       <c r="V18">
-        <v>0.003934092635111853</v>
+        <v>30.89273685614303</v>
       </c>
       <c r="W18">
-        <v>0.003439551246289183</v>
-      </c>
-      <c r="X18">
-        <v>1.518412634951831E-05</v>
-      </c>
-      <c r="Y18">
-        <v>8.338908943013064E-05</v>
-      </c>
-      <c r="Z18">
-        <v>1.753897344997285E-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>0.0001050775371675061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.424612379025985E-06</v>
+        <v>5.462167011333578E-06</v>
       </c>
       <c r="C19">
-        <v>0.01813879509006158</v>
+        <v>0.04447453069322312</v>
       </c>
       <c r="D19">
-        <v>8.715582133667774E-05</v>
+        <v>0.0002204810087673195</v>
       </c>
       <c r="E19">
-        <v>0.01947159810617141</v>
+        <v>0.04776505632319297</v>
       </c>
       <c r="F19">
-        <v>3.099745816617879</v>
+        <v>5.599737829104027</v>
+      </c>
+      <c r="K19">
+        <v>7.164833425137733</v>
+      </c>
+      <c r="L19">
+        <v>5.474985011979187</v>
+      </c>
+      <c r="M19">
+        <v>7.298299619992831</v>
+      </c>
+      <c r="N19">
+        <v>0.01666063215446476</v>
+      </c>
+      <c r="O19">
+        <v>0.0002119913141177056</v>
+      </c>
+      <c r="P19">
+        <v>0.01810093453425099</v>
+      </c>
+      <c r="Q19">
+        <v>0.001768876798837633</v>
       </c>
       <c r="R19">
-        <v>8.059110176806008</v>
+        <v>0.0004147695295679897</v>
       </c>
       <c r="S19">
-        <v>4.402648914748339</v>
+        <v>3.405627231334784E-07</v>
       </c>
       <c r="T19">
-        <v>6.17571857999067</v>
+        <v>0.01215897292158866</v>
       </c>
       <c r="U19">
-        <v>0.003453580702437711</v>
+        <v>0.002454423263798652</v>
       </c>
       <c r="V19">
-        <v>1.691578810791253E-05</v>
+        <v>31.0869694946397</v>
       </c>
       <c r="W19">
-        <v>0.003480808681469179</v>
-      </c>
-      <c r="X19">
-        <v>0.004951168014984222</v>
-      </c>
-      <c r="Y19">
-        <v>8.439377514146072E-05</v>
-      </c>
-      <c r="Z19">
-        <v>5.677237549172463E-08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>0.0001083241627713924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.413003382640915E-06</v>
+        <v>5.444961851839921E-06</v>
       </c>
       <c r="C20">
-        <v>0.0183589370323631</v>
+        <v>0.04501421422596038</v>
       </c>
       <c r="D20">
-        <v>8.845517285421849E-05</v>
+        <v>0.0002239776572668331</v>
       </c>
       <c r="E20">
-        <v>0.01971978563090963</v>
+        <v>0.04837043638140352</v>
       </c>
       <c r="F20">
-        <v>3.099730045739422</v>
+        <v>5.599721563144092</v>
+      </c>
+      <c r="K20">
+        <v>7.16694206854284</v>
+      </c>
+      <c r="L20">
+        <v>5.482794371419075</v>
+      </c>
+      <c r="M20">
+        <v>7.302897272584127</v>
+      </c>
+      <c r="N20">
+        <v>0.01686122533544459</v>
+      </c>
+      <c r="O20">
+        <v>0.0002159020475885155</v>
+      </c>
+      <c r="P20">
+        <v>0.01830010597004871</v>
+      </c>
+      <c r="Q20">
+        <v>0.001771830419129819</v>
       </c>
       <c r="R20">
-        <v>8.347428064276569</v>
+        <v>0.0004198235413587806</v>
       </c>
       <c r="S20">
-        <v>11.55304006327301</v>
+        <v>3.407024707261128E-07</v>
       </c>
       <c r="T20">
-        <v>10.44000167664454</v>
+        <v>0.01227732108814707</v>
       </c>
       <c r="U20">
-        <v>0.00349549125017344</v>
+        <v>0.002486722891321825</v>
       </c>
       <c r="V20">
-        <v>0.003828068573102367</v>
+        <v>31.28457501756972</v>
       </c>
       <c r="W20">
-        <v>0.003462877470084849</v>
-      </c>
-      <c r="X20">
-        <v>1.543622472884817E-05</v>
-      </c>
-      <c r="Y20">
-        <v>8.542227517519204E-05</v>
-      </c>
-      <c r="Z20">
-        <v>1.728662320942769E-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>0.0001116371640717678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.401103717729121E-06</v>
+        <v>5.427329097101861E-06</v>
       </c>
       <c r="C21">
-        <v>0.01858449853680148</v>
+        <v>0.0455671801095245</v>
       </c>
       <c r="D21">
-        <v>8.979331272119777E-05</v>
+        <v>0.0002275850638051746</v>
       </c>
       <c r="E21">
-        <v>0.01997429495953034</v>
+        <v>0.04899106863489116</v>
       </c>
       <c r="F21">
-        <v>3.099714170557418</v>
+        <v>5.599705189675626</v>
+      </c>
+      <c r="K21">
+        <v>7.16906692076814</v>
+      </c>
+      <c r="L21">
+        <v>5.490722051340241</v>
+      </c>
+      <c r="M21">
+        <v>7.307548026701324</v>
+      </c>
+      <c r="N21">
+        <v>0.01706672315381319</v>
+      </c>
+      <c r="O21">
+        <v>0.0002199360349163006</v>
+      </c>
+      <c r="P21">
+        <v>0.01850415875462796</v>
+      </c>
+      <c r="Q21">
+        <v>0.001774853993994438</v>
       </c>
       <c r="R21">
-        <v>8.121391668868874</v>
+        <v>0.00042500234183888</v>
       </c>
       <c r="S21">
-        <v>4.398445047040889</v>
+        <v>3.408265195078756E-07</v>
       </c>
       <c r="T21">
-        <v>6.165382236883776</v>
+        <v>0.01239819267082392</v>
       </c>
       <c r="U21">
-        <v>0.003491385357297774</v>
+        <v>0.002519929343765394</v>
       </c>
       <c r="V21">
-        <v>1.675880586595506E-05</v>
+        <v>31.48568276846608</v>
       </c>
       <c r="W21">
-        <v>0.003505438473113935</v>
-      </c>
-      <c r="X21">
-        <v>0.005019136048183079</v>
-      </c>
-      <c r="Y21">
-        <v>8.647686903085821E-05</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>0.0001150188376644539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.388902422076321E-06</v>
+        <v>5.409252831860312E-06</v>
       </c>
       <c r="C22">
-        <v>0.01881568235210248</v>
+        <v>0.046133925047596</v>
       </c>
       <c r="D22">
-        <v>9.117198553818906E-05</v>
+        <v>0.0002313085090013597</v>
       </c>
       <c r="E22">
-        <v>0.02023536770887785</v>
+        <v>0.04962752672254229</v>
       </c>
       <c r="F22">
-        <v>3.099698188576463</v>
+        <v>5.599688706128156</v>
+      </c>
+      <c r="K22">
+        <v>7.17121037539717</v>
+      </c>
+      <c r="L22">
+        <v>5.4987648498071</v>
+      </c>
+      <c r="M22">
+        <v>7.312249137189543</v>
+      </c>
+      <c r="N22">
+        <v>0.0172773079927994</v>
+      </c>
+      <c r="O22">
+        <v>0.0002240973860274589</v>
+      </c>
+      <c r="P22">
+        <v>0.01871327506413588</v>
+      </c>
+      <c r="Q22">
+        <v>0.001777963703987246</v>
       </c>
       <c r="R22">
-        <v>8.414726397033901</v>
+        <v>0.0004303106107803721</v>
       </c>
       <c r="S22">
-        <v>11.53706934059035</v>
+        <v>3.40936844947199E-07</v>
       </c>
       <c r="T22">
-        <v>10.42196418886097</v>
+        <v>0.01252167096241216</v>
       </c>
       <c r="U22">
-        <v>0.003534818189190672</v>
+        <v>0.002554080684822009</v>
       </c>
       <c r="V22">
-        <v>0.003688517243959214</v>
+        <v>31.69042284973156</v>
       </c>
       <c r="W22">
-        <v>0.003486517253425571</v>
-      </c>
-      <c r="X22">
-        <v>1.570954850906567E-05</v>
-      </c>
-      <c r="Y22">
-        <v>8.755782989374394E-05</v>
-      </c>
-      <c r="Z22">
-        <v>1.698373845495606E-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>0.0001184719474167088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.376387951483928E-06</v>
+        <v>5.390716360621869E-06</v>
       </c>
       <c r="C23">
-        <v>0.01905270147066659</v>
+        <v>0.04671497082656555</v>
       </c>
       <c r="D23">
-        <v>9.259304170071609E-05</v>
+        <v>0.0002351536111039792</v>
       </c>
       <c r="E23">
-        <v>0.02050325781377857</v>
+        <v>0.05028041293354902</v>
       </c>
       <c r="F23">
-        <v>3.099682097205547</v>
+        <v>5.599672109832753</v>
+      </c>
+      <c r="K23">
+        <v>7.173370425252869</v>
+      </c>
+      <c r="L23">
+        <v>5.506918979117087</v>
+      </c>
+      <c r="M23">
+        <v>7.316998377774003</v>
+      </c>
+      <c r="N23">
+        <v>0.01749317141820157</v>
+      </c>
+      <c r="O23">
+        <v>0.0002283903305830751</v>
+      </c>
+      <c r="P23">
+        <v>0.01892764609401117</v>
+      </c>
+      <c r="Q23">
+        <v>0.001781176068298306</v>
       </c>
       <c r="R23">
-        <v>8.199618597560793</v>
+        <v>0.0004357532648808206</v>
       </c>
       <c r="S23">
-        <v>4.4123300316611</v>
+        <v>3.41035072171792E-07</v>
       </c>
       <c r="T23">
-        <v>6.195570514456838</v>
+        <v>0.01264784299124241</v>
       </c>
       <c r="U23">
-        <v>0.003532872631535374</v>
+        <v>0.002589217019490048</v>
       </c>
       <c r="V23">
-        <v>1.738161223778373E-05</v>
+        <v>31.89892725020172</v>
       </c>
       <c r="W23">
-        <v>0.00353045152817135</v>
-      </c>
-      <c r="X23">
-        <v>0.004807826256521384</v>
-      </c>
-      <c r="Y23">
-        <v>8.866615470458392E-05</v>
-      </c>
-      <c r="Z23">
-        <v>5.082884897590118E-08</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>0.0001219985119921895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.363548189727038E-06</v>
+        <v>5.371702156436648E-06</v>
       </c>
       <c r="C24">
-        <v>0.01929577978385846</v>
+        <v>0.04731086591907146</v>
       </c>
       <c r="D24">
-        <v>9.405844473048237E-05</v>
+        <v>0.0002391263533481385</v>
       </c>
       <c r="E24">
-        <v>0.02077823232594079</v>
+        <v>0.05095035998702471</v>
       </c>
       <c r="F24">
-        <v>3.099665893753009</v>
+        <v>5.599655398016912</v>
+      </c>
+      <c r="K24">
+        <v>7.175549022491239</v>
+      </c>
+      <c r="L24">
+        <v>5.515202237920009</v>
+      </c>
+      <c r="M24">
+        <v>7.321804947035811</v>
+      </c>
+      <c r="N24">
+        <v>0.01771451476547873</v>
+      </c>
+      <c r="O24">
+        <v>0.0002328239273024843</v>
+      </c>
+      <c r="P24">
+        <v>0.01914747263280236</v>
+      </c>
+      <c r="Q24">
+        <v>0.001784465131870759</v>
       </c>
       <c r="R24">
-        <v>8.475608089199646</v>
+        <v>0.0004413354729552904</v>
       </c>
       <c r="S24">
-        <v>11.522417556293</v>
+        <v>3.411166247055079E-07</v>
       </c>
       <c r="T24">
-        <v>10.40511093601019</v>
+        <v>0.01277679973447001</v>
       </c>
       <c r="U24">
-        <v>0.003577943029218676</v>
+        <v>0.002625384064274382</v>
       </c>
       <c r="V24">
-        <v>0.003565158283507734</v>
+        <v>32.11133285343418</v>
       </c>
       <c r="W24">
-        <v>0.003514074929089939</v>
-      </c>
-      <c r="X24">
-        <v>1.599309751497469E-05</v>
-      </c>
-      <c r="Y24">
-        <v>8.980224862580966E-05</v>
-      </c>
-      <c r="Z24">
-        <v>1.669856795156797E-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>0.0001256014805051961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.35037037888271E-06</v>
+        <v>5.352191804640292E-06</v>
       </c>
       <c r="C25">
-        <v>0.01954515278826272</v>
+        <v>0.0479221872121328</v>
       </c>
       <c r="D25">
-        <v>9.557028054010372E-05</v>
+        <v>0.0002432331140502086</v>
       </c>
       <c r="E25">
-        <v>0.02106057225279437</v>
+        <v>0.0516380329417906</v>
       </c>
       <c r="F25">
-        <v>3.099649575421259</v>
+        <v>5.599638567799045</v>
+      </c>
+      <c r="K25">
+        <v>7.177744772066014</v>
+      </c>
+      <c r="L25">
+        <v>5.523606595811446</v>
+      </c>
+      <c r="M25">
+        <v>7.32666390399059</v>
+      </c>
+      <c r="N25">
+        <v>0.01794154971142908</v>
+      </c>
+      <c r="O25">
+        <v>0.0002374021078292131</v>
+      </c>
+      <c r="P25">
+        <v>0.01937296623671057</v>
+      </c>
+      <c r="Q25">
+        <v>0.001787856701331103</v>
       </c>
       <c r="R25">
-        <v>8.274474355960029</v>
+        <v>0.0004470626723881552</v>
       </c>
       <c r="S25">
-        <v>4.410055789252194</v>
+        <v>3.411845622992342E-07</v>
       </c>
       <c r="T25">
-        <v>6.189027359755424</v>
+        <v>0.01290863630161541</v>
       </c>
       <c r="U25">
-        <v>0.00357810906487726</v>
+        <v>0.002662626327756433</v>
       </c>
       <c r="V25">
-        <v>1.72772270317968E-05</v>
+        <v>32.32777971279923</v>
       </c>
       <c r="W25">
-        <v>0.003559504563266237</v>
-      </c>
-      <c r="X25">
-        <v>0.004841387294791224</v>
-      </c>
-      <c r="Y25">
-        <v>9.096850942633083E-05</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>0.0001292832851993467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.336841116556313E-06</v>
+        <v>5.332165970331418E-06</v>
       </c>
       <c r="C26">
-        <v>0.01980106834757486</v>
+        <v>0.0485495418713181</v>
       </c>
       <c r="D26">
-        <v>9.713076640227546E-05</v>
+        <v>0.0002474806985226168</v>
       </c>
       <c r="E26">
-        <v>0.02135057348137932</v>
+        <v>0.05234413127002464</v>
       </c>
       <c r="F26">
-        <v>3.099633139301007</v>
+        <v>5.599621616182614</v>
+      </c>
+      <c r="K26">
+        <v>7.17995909495492</v>
+      </c>
+      <c r="L26">
+        <v>5.532133363550434</v>
+      </c>
+      <c r="M26">
+        <v>7.331575369710785</v>
+      </c>
+      <c r="N26">
+        <v>0.01817449902200276</v>
+      </c>
+      <c r="O26">
+        <v>0.000242131052205783</v>
+      </c>
+      <c r="P26">
+        <v>0.01960434925691293</v>
+      </c>
+      <c r="Q26">
+        <v>0.001791360358402336</v>
       </c>
       <c r="R26">
-        <v>8.541281793785673</v>
+        <v>0.0004529405867016533</v>
       </c>
       <c r="S26">
-        <v>11.504726151357</v>
+        <v>3.41239499405379E-07</v>
       </c>
       <c r="T26">
-        <v>10.38513014344664</v>
+        <v>0.01304345222232407</v>
       </c>
       <c r="U26">
-        <v>0.003624962115375227</v>
+        <v>0.002700992342989449</v>
       </c>
       <c r="V26">
-        <v>0.003421746284810256</v>
+        <v>32.54841267299226</v>
       </c>
       <c r="W26">
-        <v>0.003542637685219856</v>
-      </c>
-      <c r="X26">
-        <v>1.629329013730241E-05</v>
-      </c>
-      <c r="Y26">
-        <v>9.216546349772993E-05</v>
-      </c>
-      <c r="Z26">
-        <v>1.636853310626267E-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>0.0001330472099933407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.322946263020015E-06</v>
+        <v>5.31160427111193E-06</v>
       </c>
       <c r="C27">
-        <v>0.02006378751532382</v>
+        <v>0.04919356935362204</v>
       </c>
       <c r="D27">
-        <v>9.874226224728153E-05</v>
+        <v>0.0002518763781373114</v>
       </c>
       <c r="E27">
-        <v>0.02164854774938585</v>
+        <v>0.05306939102110402</v>
       </c>
       <c r="F27">
-        <v>3.099616582365273</v>
+        <v>5.599604540049922</v>
+      </c>
+      <c r="K27">
+        <v>7.182190646109172</v>
+      </c>
+      <c r="L27">
+        <v>5.540786694577733</v>
+      </c>
+      <c r="M27">
+        <v>7.33654113609781</v>
+      </c>
+      <c r="N27">
+        <v>0.01841359726160005</v>
+      </c>
+      <c r="O27">
+        <v>0.000247018053899457</v>
+      </c>
+      <c r="P27">
+        <v>0.01984185577555974</v>
+      </c>
+      <c r="Q27">
+        <v>0.001794977185628949</v>
       </c>
       <c r="R27">
-        <v>8.359506560757206</v>
+        <v>0.00045897524466435</v>
       </c>
       <c r="S27">
-        <v>4.415468658105672</v>
+        <v>3.412808786062871E-07</v>
       </c>
       <c r="T27">
-        <v>6.200346094817839</v>
+        <v>0.01318135168738187</v>
       </c>
       <c r="U27">
-        <v>0.003627671659782759</v>
+        <v>0.002740534295276542</v>
       </c>
       <c r="V27">
-        <v>1.756825358815679E-05</v>
+        <v>32.7733824167664</v>
       </c>
       <c r="W27">
-        <v>0.003589655610487623</v>
-      </c>
-      <c r="X27">
-        <v>0.004765521339355167</v>
-      </c>
-      <c r="Y27">
-        <v>9.339433416189525E-05</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>0.0001368957735399133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.308670929208656E-06</v>
+        <v>5.290485301447671E-06</v>
       </c>
       <c r="C28">
-        <v>0.02033358542414918</v>
+        <v>0.04985494358302048</v>
       </c>
       <c r="D28">
-        <v>0.0001004072815971863</v>
+        <v>0.0002564279265205407</v>
       </c>
       <c r="E28">
-        <v>0.02195482371849141</v>
+        <v>0.05381458726870861</v>
       </c>
       <c r="F28">
-        <v>3.099599901462803</v>
+        <v>5.599587336155377</v>
+      </c>
+      <c r="K28">
+        <v>7.184440901348102</v>
+      </c>
+      <c r="L28">
+        <v>5.549584116567105</v>
+      </c>
+      <c r="M28">
+        <v>7.34157038873522</v>
+      </c>
+      <c r="N28">
+        <v>0.01865909157521763</v>
+      </c>
+      <c r="O28">
+        <v>0.0002520735299959094</v>
+      </c>
+      <c r="P28">
+        <v>0.02008573251326151</v>
+      </c>
+      <c r="Q28">
+        <v>0.001798683383524187</v>
       </c>
       <c r="R28">
-        <v>8.605786579145118</v>
+        <v>0.0004651730009317249</v>
       </c>
       <c r="S28">
-        <v>11.48676744104523</v>
+        <v>3.413040942799446E-07</v>
       </c>
       <c r="T28">
-        <v>10.36475020817906</v>
+        <v>0.01332244381430221</v>
       </c>
       <c r="U28">
-        <v>0.003676456840947551</v>
+        <v>0.002781309346536276</v>
       </c>
       <c r="V28">
-        <v>0.003282236942685785</v>
+        <v>33.00284696630541</v>
       </c>
       <c r="W28">
-        <v>0.003573765533070494</v>
-      </c>
-      <c r="X28">
-        <v>1.660402374377346E-05</v>
-      </c>
-      <c r="Y28">
-        <v>9.465641975867761E-05</v>
-      </c>
-      <c r="Z28">
-        <v>1.602155419791231E-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>0.0001408326352660169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.293999419120394E-06</v>
+        <v>5.268786490585463E-06</v>
       </c>
       <c r="C29">
-        <v>0.02061075224801975</v>
+        <v>0.0505343753043424</v>
       </c>
       <c r="D29">
-        <v>0.000102128504305822</v>
+        <v>0.0002611436667759678</v>
       </c>
       <c r="E29">
-        <v>0.0222697481217989</v>
+        <v>0.05458053662418501</v>
       </c>
       <c r="F29">
-        <v>3.099583093311158</v>
+        <v>5.599570001118336</v>
+      </c>
+      <c r="K29">
+        <v>7.186708595538954</v>
+      </c>
+      <c r="L29">
+        <v>5.558505608591986</v>
+      </c>
+      <c r="M29">
+        <v>7.346651276513445</v>
+      </c>
+      <c r="N29">
+        <v>0.01891124250734396</v>
+      </c>
+      <c r="O29">
+        <v>0.000257300174592043</v>
+      </c>
+      <c r="P29">
+        <v>0.02033624003558668</v>
+      </c>
+      <c r="Q29">
+        <v>0.001802532825795419</v>
       </c>
       <c r="R29">
-        <v>8.444694324398725</v>
+        <v>0.0004715405584226488</v>
       </c>
       <c r="S29">
-        <v>4.418646802551971</v>
+        <v>3.413165760769111E-07</v>
       </c>
       <c r="T29">
-        <v>6.207042643503914</v>
+        <v>0.01346684291660038</v>
       </c>
       <c r="U29">
-        <v>0.00368185711352648</v>
+        <v>0.002823372565288417</v>
       </c>
       <c r="V29">
-        <v>1.781708769060814E-05</v>
+        <v>33.23696932508935</v>
       </c>
       <c r="W29">
-        <v>0.003622493772924285</v>
-      </c>
-      <c r="X29">
-        <v>0.00472826526913443</v>
-      </c>
-      <c r="Y29">
-        <v>9.595308084830961E-05</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>0.0001448607286251674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.278915169739222E-06</v>
+        <v>5.246484070246526E-06</v>
       </c>
       <c r="C30">
-        <v>0.02089559424446022</v>
+        <v>0.05123261463264194</v>
       </c>
       <c r="D30">
-        <v>0.0001039087905398696</v>
+        <v>0.0002660325184587165</v>
       </c>
       <c r="E30">
-        <v>0.02259368700497911</v>
+        <v>0.05536810003765417</v>
       </c>
       <c r="F30">
-        <v>3.099566154489233</v>
+        <v>5.599552531415467</v>
+      </c>
+      <c r="K30">
+        <v>7.188997127957735</v>
+      </c>
+      <c r="L30">
+        <v>5.567572379404057</v>
+      </c>
+      <c r="M30">
+        <v>7.351794929275351</v>
+      </c>
+      <c r="N30">
+        <v>0.01917032503974329</v>
+      </c>
+      <c r="O30">
+        <v>0.0002627102496839488</v>
+      </c>
+      <c r="P30">
+        <v>0.02059365263572267</v>
+      </c>
+      <c r="Q30">
+        <v>0.001806494607026743</v>
       </c>
       <c r="R30">
-        <v>8.669896951806503</v>
+        <v>0.0004780849923371845</v>
       </c>
       <c r="S30">
-        <v>11.46903714757913</v>
+        <v>3.413128551051469E-07</v>
       </c>
       <c r="T30">
-        <v>10.34445276676789</v>
+        <v>0.01361466889370193</v>
       </c>
       <c r="U30">
-        <v>0.003732746558329756</v>
+        <v>0.002866789070118418</v>
       </c>
       <c r="V30">
-        <v>0.003150259577507384</v>
+        <v>33.47592147461832</v>
       </c>
       <c r="W30">
-        <v>0.003607135835476922</v>
-      </c>
-      <c r="X30">
-        <v>1.692040381980036E-05</v>
-      </c>
-      <c r="Y30">
-        <v>9.728576252675836E-05</v>
-      </c>
-      <c r="Z30">
-        <v>1.565048248873145E-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>0.0001489842424583625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.263400690957474E-06</v>
+        <v>5.223553005875563E-06</v>
       </c>
       <c r="C31">
-        <v>0.02118843488465628</v>
+        <v>0.05195045381734874</v>
       </c>
       <c r="D31">
-        <v>0.0001057511960956437</v>
+        <v>0.0002711040510263383</v>
       </c>
       <c r="E31">
-        <v>0.02292702707142941</v>
+        <v>0.0561781857977169</v>
       </c>
       <c r="F31">
-        <v>3.099549081429272</v>
+        <v>5.599534923372488</v>
+      </c>
+      <c r="K31">
+        <v>7.191301288169951</v>
+      </c>
+      <c r="L31">
+        <v>5.576772812958086</v>
+      </c>
+      <c r="M31">
+        <v>7.356994137807066</v>
+      </c>
+      <c r="N31">
+        <v>0.0194366294734061</v>
+      </c>
+      <c r="O31">
+        <v>0.0002683089433886283</v>
+      </c>
+      <c r="P31">
+        <v>0.02085826049528177</v>
+      </c>
+      <c r="Q31">
+        <v>0.001810606725863656</v>
       </c>
       <c r="R31">
-        <v>8.529098018938479</v>
+        <v>0.000484813776555242</v>
       </c>
       <c r="S31">
-        <v>4.417373586690383</v>
+        <v>3.412980346066295E-07</v>
       </c>
       <c r="T31">
-        <v>6.206986346960474</v>
+        <v>0.01376604748276649</v>
       </c>
       <c r="U31">
-        <v>0.00374095060031317</v>
+        <v>0.002911622808794841</v>
       </c>
       <c r="V31">
-        <v>1.811570467720965E-05</v>
+        <v>33.71988233126519</v>
       </c>
       <c r="W31">
-        <v>0.003657702250007304</v>
-      </c>
-      <c r="X31">
-        <v>0.004776570096752963</v>
-      </c>
-      <c r="Y31">
-        <v>9.865598232988418E-05</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>0.0001532060435548011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.247437501872094E-06</v>
+        <v>5.199966823706265E-06</v>
       </c>
       <c r="C32">
-        <v>0.02148961608020715</v>
+        <v>0.05268873024258192</v>
       </c>
       <c r="D32">
-        <v>0.0001076589892699126</v>
+        <v>0.0002763685479200767</v>
       </c>
       <c r="E32">
-        <v>0.02327017714050339</v>
+        <v>0.05701175268926528</v>
       </c>
       <c r="F32">
-        <v>3.099531870408332</v>
+        <v>5.599517173155443</v>
+      </c>
+      <c r="K32">
+        <v>7.193624762080836</v>
+      </c>
+      <c r="L32">
+        <v>5.586124137347627</v>
+      </c>
+      <c r="M32">
+        <v>7.36225758561392</v>
+      </c>
+      <c r="N32">
+        <v>0.01971046262383493</v>
+      </c>
+      <c r="O32">
+        <v>0.0002741087428749328</v>
+      </c>
+      <c r="P32">
+        <v>0.02113036983484489</v>
+      </c>
+      <c r="Q32">
+        <v>0.001814848435177835</v>
       </c>
       <c r="R32">
-        <v>8.735840864780343</v>
+        <v>0.0004917348119626797</v>
       </c>
       <c r="S32">
-        <v>11.45177693116353</v>
+        <v>3.412678562350464E-07</v>
       </c>
       <c r="T32">
-        <v>10.32446959147084</v>
+        <v>0.01392111069239466</v>
       </c>
       <c r="U32">
-        <v>0.003794133955965113</v>
+        <v>0.002957946836982145</v>
       </c>
       <c r="V32">
-        <v>0.003027041723943172</v>
+        <v>33.96904074422298</v>
       </c>
       <c r="W32">
-        <v>0.003641718423625223</v>
-      </c>
-      <c r="X32">
-        <v>1.723309412219093E-05</v>
-      </c>
-      <c r="Y32">
-        <v>0.0001000653535060254</v>
-      </c>
-      <c r="Z32">
-        <v>1.523768951399225E-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>0.0001575305323619211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.231006062533885E-06</v>
+        <v>5.175697641897024E-06</v>
       </c>
       <c r="C33">
-        <v>0.02179949951630769</v>
+        <v>0.05344832968743209</v>
       </c>
       <c r="D33">
-        <v>0.0001096356694799598</v>
+        <v>0.0002818370674227132</v>
       </c>
       <c r="E33">
-        <v>0.02362356972932544</v>
+        <v>0.05786981358771127</v>
       </c>
       <c r="F33">
-        <v>3.099514517539038</v>
+        <v>5.599499276761065</v>
+      </c>
+      <c r="K33">
+        <v>7.19596913012406</v>
+      </c>
+      <c r="L33">
+        <v>5.595626236858555</v>
+      </c>
+      <c r="M33">
+        <v>7.36758476548281</v>
+      </c>
+      <c r="N33">
+        <v>0.01999214891196478</v>
+      </c>
+      <c r="O33">
+        <v>0.0002801186816523556</v>
+      </c>
+      <c r="P33">
+        <v>0.02141030492759369</v>
+      </c>
+      <c r="Q33">
+        <v>0.001819233890055896</v>
       </c>
       <c r="R33">
-        <v>8.614225308467114</v>
+        <v>0.0004988564575294397</v>
       </c>
       <c r="S33">
-        <v>4.409673549173664</v>
+        <v>3.412238537958104E-07</v>
       </c>
       <c r="T33">
-        <v>6.194626866437247</v>
+        <v>0.01407999712508179</v>
       </c>
       <c r="U33">
-        <v>0.003805251234690069</v>
+        <v>0.003005836156280676</v>
       </c>
       <c r="V33">
-        <v>1.831605438587832E-05</v>
+        <v>34.22359479551753</v>
       </c>
       <c r="W33">
-        <v>0.003694247196516572</v>
-      </c>
-      <c r="X33">
-        <v>0.004937308699757668</v>
-      </c>
-      <c r="Y33">
-        <v>0.0001015155738122447</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>0.0001619623933109536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.214085714654394E-06</v>
+        <v>5.150715959049087E-06</v>
       </c>
       <c r="C34">
-        <v>0.02211846810229045</v>
+        <v>0.05423018987302046</v>
       </c>
       <c r="D34">
-        <v>0.0001116849875750255</v>
+        <v>0.0002875215222809254</v>
       </c>
       <c r="E34">
-        <v>0.02398766277586097</v>
+        <v>0.05875343914495958</v>
       </c>
       <c r="F34">
-        <v>3.099497018759609</v>
+        <v>5.599481230006747</v>
+      </c>
+      <c r="K34">
+        <v>7.198329652921087</v>
+      </c>
+      <c r="L34">
+        <v>5.60527581659554</v>
+      </c>
+      <c r="M34">
+        <v>7.372972657945335</v>
+      </c>
+      <c r="N34">
+        <v>0.02028203170946937</v>
+      </c>
+      <c r="O34">
+        <v>0.00028634736092854</v>
+      </c>
+      <c r="P34">
+        <v>0.02169840891343984</v>
+      </c>
+      <c r="Q34">
+        <v>0.001823786288218716</v>
       </c>
       <c r="R34">
-        <v>8.805937899801911</v>
+        <v>0.0005061875639070227</v>
       </c>
       <c r="S34">
-        <v>11.43573094016573</v>
+        <v>3.41168857135283E-07</v>
       </c>
       <c r="T34">
-        <v>10.30553046966659</v>
+        <v>0.01424285243344652</v>
       </c>
       <c r="U34">
-        <v>0.003860941457929836</v>
+        <v>0.00305537034723961</v>
       </c>
       <c r="V34">
-        <v>0.002916958210406903</v>
+        <v>34.4837523452041</v>
       </c>
       <c r="W34">
-        <v>0.003675966880292438</v>
-      </c>
-      <c r="X34">
-        <v>1.752450375497709E-05</v>
-      </c>
-      <c r="Y34">
-        <v>0.0001030084498977189</v>
-      </c>
-      <c r="Z34">
-        <v>1.47619642545422E-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>0.0001665048876066101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.196654537340356E-06</v>
+        <v>5.124990635734297E-06</v>
       </c>
       <c r="C35">
-        <v>0.02244692755176381</v>
+        <v>0.05503530432601658</v>
       </c>
       <c r="D35">
-        <v>0.0001138109699158921</v>
+        <v>0.0002934347582170909</v>
       </c>
       <c r="E35">
-        <v>0.02436294148293464</v>
+        <v>0.05966376196159444</v>
       </c>
       <c r="F35">
-        <v>3.099479369823385</v>
+        <v>5.599463028519529</v>
+      </c>
+      <c r="K35">
+        <v>7.200709538868772</v>
+      </c>
+      <c r="L35">
+        <v>5.615081122420899</v>
+      </c>
+      <c r="M35">
+        <v>7.378425314798692</v>
+      </c>
+      <c r="N35">
+        <v>0.02058047475944759</v>
+      </c>
+      <c r="O35">
+        <v>0.000292807070089338</v>
+      </c>
+      <c r="P35">
+        <v>0.02199504507202523</v>
+      </c>
+      <c r="Q35">
+        <v>0.001828505033562183</v>
       </c>
       <c r="R35">
-        <v>8.701957641853742</v>
+        <v>0.0005137375101017972</v>
       </c>
       <c r="S35">
-        <v>4.394826018605459</v>
+        <v>3.411020979335358E-07</v>
       </c>
       <c r="T35">
-        <v>6.167391169727741</v>
+        <v>0.01440982977801677</v>
       </c>
       <c r="U35">
-        <v>0.003875030760131671</v>
+        <v>0.003106636578267887</v>
       </c>
       <c r="V35">
-        <v>1.832865137343794E-05</v>
+        <v>34.74973272028961</v>
       </c>
       <c r="W35">
-        <v>0.003730570497852698</v>
-      </c>
-      <c r="X35">
-        <v>0.00522931043082912</v>
-      </c>
-      <c r="Y35">
-        <v>0.0001045458872451528</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>0.0001711634673053845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.178689367043757E-06</v>
+        <v>5.098488678011529E-06</v>
       </c>
       <c r="C36">
-        <v>0.02278530810603424</v>
+        <v>0.05586472659219536</v>
       </c>
       <c r="D36">
-        <v>0.0001160179416276782</v>
+        <v>0.000299590651722124</v>
       </c>
       <c r="E36">
-        <v>0.02474992038908813</v>
+        <v>0.06060198093373336</v>
       </c>
       <c r="F36">
-        <v>3.099461566287066</v>
+        <v>5.599444667724195</v>
+      </c>
+      <c r="K36">
+        <v>7.203110539782188</v>
+      </c>
+      <c r="L36">
+        <v>5.625055233512628</v>
+      </c>
+      <c r="M36">
+        <v>7.38394891050585</v>
+      </c>
+      <c r="N36">
+        <v>0.02088786366383181</v>
+      </c>
+      <c r="O36">
+        <v>0.0002995119319574078</v>
+      </c>
+      <c r="P36">
+        <v>0.02230059870897164</v>
+      </c>
+      <c r="Q36">
+        <v>0.001833381981123999</v>
       </c>
       <c r="R36">
-        <v>8.881916388583353</v>
+        <v>0.0005215162435564011</v>
       </c>
       <c r="S36">
-        <v>11.42246545587749</v>
+        <v>3.410209636173127E-07</v>
       </c>
       <c r="T36">
-        <v>10.28917899618051</v>
+        <v>0.01458109028104327</v>
       </c>
       <c r="U36">
-        <v>0.003933465640567402</v>
+        <v>0.003159728963134155</v>
       </c>
       <c r="V36">
-        <v>0.002829095158859489</v>
+        <v>35.02176785692341</v>
       </c>
       <c r="W36">
-        <v>0.003707862317050025</v>
-      </c>
-      <c r="X36">
-        <v>1.776752707170534E-05</v>
-      </c>
-      <c r="Y36">
-        <v>0.0001061299158397764</v>
-      </c>
-      <c r="Z36">
-        <v>1.420542617306489E-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>0.0001759432643291153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.160165565095484E-06</v>
+        <v>5.071175219113567E-06</v>
       </c>
       <c r="C37">
-        <v>0.02313406641625588</v>
+        <v>0.05671957483743341</v>
       </c>
       <c r="D37">
-        <v>0.0001183105575348618</v>
+        <v>0.0003060042083883126</v>
       </c>
       <c r="E37">
-        <v>0.0251491455300089</v>
+        <v>0.06156936617140746</v>
       </c>
       <c r="F37">
-        <v>3.099443603498609</v>
+        <v>5.599426142830664</v>
+      </c>
+      <c r="K37">
+        <v>7.205531061439751</v>
+      </c>
+      <c r="L37">
+        <v>5.635198288327627</v>
+      </c>
+      <c r="M37">
+        <v>7.389542165634186</v>
+      </c>
+      <c r="N37">
+        <v>0.02120460753662988</v>
+      </c>
+      <c r="O37">
+        <v>0.0003064733586478763</v>
+      </c>
+      <c r="P37">
+        <v>0.02261547896632314</v>
+      </c>
+      <c r="Q37">
+        <v>0.00183843526350074</v>
       </c>
       <c r="R37">
-        <v>8.793529795740518</v>
+        <v>0.0005295343239039824</v>
       </c>
       <c r="S37">
-        <v>4.377944215155522</v>
+        <v>3.409281876614022E-07</v>
       </c>
       <c r="T37">
-        <v>6.134200100235072</v>
+        <v>0.01475680353208803</v>
       </c>
       <c r="U37">
-        <v>0.0039504559556706</v>
+        <v>0.003214746006713166</v>
       </c>
       <c r="V37">
-        <v>1.81949209391747E-05</v>
+        <v>35.3001022581216</v>
       </c>
       <c r="W37">
-        <v>0.003764633006126614</v>
-      </c>
-      <c r="X37">
-        <v>0.005570489399597005</v>
-      </c>
-      <c r="Y37">
-        <v>0.0001077626815903228</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>0.0001808493844484779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.141057018262348E-06</v>
+        <v>5.043013264984576E-06</v>
       </c>
       <c r="C38">
-        <v>0.02349368760154839</v>
+        <v>0.05760103687851223</v>
       </c>
       <c r="D38">
-        <v>0.0001206938315237828</v>
+        <v>0.0003126916858660185</v>
       </c>
       <c r="E38">
-        <v>0.02556119689082336</v>
+        <v>0.062567264116688</v>
       </c>
       <c r="F38">
-        <v>3.09942547658365</v>
+        <v>5.599407448820141</v>
+      </c>
+      <c r="K38">
+        <v>7.20796944663773</v>
+      </c>
+      <c r="L38">
+        <v>5.645501757660552</v>
+      </c>
+      <c r="M38">
+        <v>7.395199993291372</v>
+      </c>
+      <c r="N38">
+        <v>0.02153114088316085</v>
+      </c>
+      <c r="O38">
+        <v>0.0003137017095908644</v>
+      </c>
+      <c r="P38">
+        <v>0.02294012027417973</v>
+      </c>
+      <c r="Q38">
+        <v>0.001843701286247226</v>
       </c>
       <c r="R38">
-        <v>8.962034598463076</v>
+        <v>0.0005378029707120498</v>
       </c>
       <c r="S38">
-        <v>11.41454007330828</v>
+        <v>3.408285538009157E-07</v>
       </c>
       <c r="T38">
-        <v>10.277936785395</v>
+        <v>0.014937148180922</v>
       </c>
       <c r="U38">
-        <v>0.004011897534338278</v>
+        <v>0.003271792134473559</v>
       </c>
       <c r="V38">
-        <v>0.002778002262060169</v>
+        <v>35.58499353752666</v>
       </c>
       <c r="W38">
-        <v>0.003736416499978639</v>
-      </c>
-      <c r="X38">
-        <v>1.793821155226774E-05</v>
-      </c>
-      <c r="Y38">
-        <v>0.0001094464734901715</v>
-      </c>
-      <c r="Z38">
-        <v>1.358241680646436E-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>0.0001858869069205489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.121335995436412E-06</v>
+        <v>5.013963640898084E-06</v>
       </c>
       <c r="C39">
-        <v>0.02386468750265989</v>
+        <v>0.05851037569109392</v>
       </c>
       <c r="D39">
-        <v>0.00012317317221584</v>
+        <v>0.0003196707201421203</v>
       </c>
       <c r="E39">
-        <v>0.02598669102957828</v>
+        <v>0.06359710332386491</v>
       </c>
       <c r="F39">
-        <v>3.099407180431012</v>
+        <v>5.599388580430229</v>
+      </c>
+      <c r="K39">
+        <v>7.210429108360664</v>
+      </c>
+      <c r="L39">
+        <v>5.655990081311377</v>
+      </c>
+      <c r="M39">
+        <v>7.400934526938797</v>
+      </c>
+      <c r="N39">
+        <v>0.02186792563194767</v>
+      </c>
+      <c r="O39">
+        <v>0.0003212163442320318</v>
+      </c>
+      <c r="P39">
+        <v>0.02327498406763898</v>
+      </c>
+      <c r="Q39">
+        <v>0.001849150678394354</v>
       </c>
       <c r="R39">
-        <v>8.886387342259955</v>
+        <v>0.0005463341158256728</v>
       </c>
       <c r="S39">
-        <v>4.359130063784665</v>
+        <v>3.407169103100791E-07</v>
       </c>
       <c r="T39">
-        <v>6.096523167013732</v>
+        <v>0.01512231256261166</v>
       </c>
       <c r="U39">
-        <v>0.004031483173580788</v>
+        <v>0.003330985356607089</v>
       </c>
       <c r="V39">
-        <v>1.800507426853208E-05</v>
+        <v>35.87671570315548</v>
       </c>
       <c r="W39">
-        <v>0.003795439964874296</v>
-      </c>
-      <c r="X39">
-        <v>0.005976296356078625</v>
-      </c>
-      <c r="Y39">
-        <v>0.0001111837169451875</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>0.0001910624211870682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.100972986363608E-06</v>
+        <v>4.983984764685814E-06</v>
       </c>
       <c r="C40">
-        <v>0.02424761515315092</v>
+        <v>0.05944893544868992</v>
       </c>
       <c r="D40">
-        <v>0.0001257544230578445</v>
+        <v>0.0003269604773780513</v>
       </c>
       <c r="E40">
-        <v>0.02642628394063905</v>
+        <v>0.06466040058423191</v>
       </c>
       <c r="F40">
-        <v>3.099388709677111</v>
+        <v>5.599369532138875</v>
+      </c>
+      <c r="K40">
+        <v>7.2129051413567</v>
+      </c>
+      <c r="L40">
+        <v>5.666643217799844</v>
+      </c>
+      <c r="M40">
+        <v>7.406733568897727</v>
+      </c>
+      <c r="N40">
+        <v>0.02221545320110437</v>
+      </c>
+      <c r="O40">
+        <v>0.0003290258270320115</v>
+      </c>
+      <c r="P40">
+        <v>0.02362056202553002</v>
+      </c>
+      <c r="Q40">
+        <v>0.001854847417791167</v>
       </c>
       <c r="R40">
-        <v>9.045076910532337</v>
+        <v>0.000555140460969469</v>
       </c>
       <c r="S40">
-        <v>11.41330789911191</v>
+        <v>3.406029292538621E-07</v>
       </c>
       <c r="T40">
-        <v>10.27313131533955</v>
+        <v>0.0153124952594827</v>
       </c>
       <c r="U40">
-        <v>0.004096216691311631</v>
+        <v>0.00339244440751369</v>
       </c>
       <c r="V40">
-        <v>0.002770332806873482</v>
+        <v>36.17555731573289</v>
       </c>
       <c r="W40">
-        <v>0.003760264861790355</v>
-      </c>
-      <c r="X40">
-        <v>1.801623032051317E-05</v>
-      </c>
-      <c r="Y40">
-        <v>0.0001129770027023679</v>
-      </c>
-      <c r="Z40">
-        <v>1.29064641990612E-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>0.0001963813156339946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.07993659458417E-06</v>
+        <v>4.953032512361893E-06</v>
       </c>
       <c r="C41">
-        <v>0.02464305549298852</v>
+        <v>0.06041814815313766</v>
       </c>
       <c r="D41">
-        <v>0.0001284439057724181</v>
+        <v>0.0003345818192157119</v>
       </c>
       <c r="E41">
-        <v>0.02688067421674527</v>
+        <v>0.06575876771027811</v>
       </c>
       <c r="F41">
-        <v>3.099370058688985</v>
+        <v>5.599350298146768</v>
+      </c>
+      <c r="K41">
+        <v>7.215402576270221</v>
+      </c>
+      <c r="L41">
+        <v>5.67748459309586</v>
+      </c>
+      <c r="M41">
+        <v>7.412609013681798</v>
+      </c>
+      <c r="N41">
+        <v>0.02257424709248261</v>
+      </c>
+      <c r="O41">
+        <v>0.0003371516520995018</v>
+      </c>
+      <c r="P41">
+        <v>0.02397737701909951</v>
+      </c>
+      <c r="Q41">
+        <v>0.0018607660092195</v>
       </c>
       <c r="R41">
-        <v>8.979329800343526</v>
+        <v>0.0005642355406094725</v>
       </c>
       <c r="S41">
-        <v>4.33775584940612</v>
+        <v>3.404823520336377E-07</v>
       </c>
       <c r="T41">
-        <v>6.052919041908059</v>
+        <v>0.01550790592918711</v>
       </c>
       <c r="U41">
-        <v>0.004117952492695863</v>
+        <v>0.003456305703130526</v>
       </c>
       <c r="V41">
-        <v>1.774140329523553E-05</v>
+        <v>36.48182586300361</v>
       </c>
       <c r="W41">
-        <v>0.003821613200011172</v>
-      </c>
-      <c r="X41">
-        <v>0.006473109973716101</v>
-      </c>
-      <c r="Y41">
-        <v>0.0001148290825980683</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>0.0002018512236977191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.058193398509859E-06</v>
+        <v>4.921059966934171E-06</v>
       </c>
       <c r="C42">
-        <v>0.02505163235277545</v>
+        <v>0.06141954092536969</v>
       </c>
       <c r="D42">
-        <v>0.0001312484695978063</v>
+        <v>0.0003425574964957652</v>
       </c>
       <c r="E42">
-        <v>0.02735060650502815</v>
+        <v>0.06689391882213741</v>
       </c>
       <c r="F42">
-        <v>3.099351221545664</v>
+        <v>5.599330872358538</v>
+      </c>
+      <c r="K42">
+        <v>7.217919567305898</v>
+      </c>
+      <c r="L42">
+        <v>5.688518148429949</v>
+      </c>
+      <c r="M42">
+        <v>7.418561569139366</v>
+      </c>
+      <c r="N42">
+        <v>0.02294486534982233</v>
+      </c>
+      <c r="O42">
+        <v>0.0003456110544524194</v>
+      </c>
+      <c r="P42">
+        <v>0.02434598720259751</v>
+      </c>
+      <c r="Q42">
+        <v>0.001866923928877869</v>
       </c>
       <c r="R42">
-        <v>9.130774179338166</v>
+        <v>0.0005736337915804298</v>
       </c>
       <c r="S42">
-        <v>11.41907893083475</v>
+        <v>3.403572537590305E-07</v>
       </c>
       <c r="T42">
-        <v>10.27506001568066</v>
+        <v>0.01570876593295472</v>
       </c>
       <c r="U42">
-        <v>0.004186289344185873</v>
+        <v>0.003522712590408859</v>
       </c>
       <c r="V42">
-        <v>0.002807687520923014</v>
+        <v>36.79584782010641</v>
       </c>
       <c r="W42">
-        <v>0.003777421587116091</v>
-      </c>
-      <c r="X42">
-        <v>1.798082584138446E-05</v>
-      </c>
-      <c r="Y42">
-        <v>0.0001167429006413695</v>
-      </c>
-      <c r="Z42">
-        <v>1.218173338120106E-10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>0.0002074789874980138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.035707729131578E-06</v>
+        <v>4.888017274684333E-06</v>
       </c>
       <c r="C43">
-        <v>0.02547401174062592</v>
+        <v>0.06245474403433366</v>
       </c>
       <c r="D43">
-        <v>0.0001341755483944921</v>
+        <v>0.0003509123614789466</v>
       </c>
       <c r="E43">
-        <v>0.02783687526592675</v>
+        <v>0.06806767844159597</v>
       </c>
       <c r="F43">
-        <v>3.099332192018305</v>
+        <v>5.599311248361992</v>
+      </c>
+      <c r="K43">
+        <v>7.220454600113953</v>
+      </c>
+      <c r="L43">
+        <v>5.699734453757423</v>
+      </c>
+      <c r="M43">
+        <v>7.424585405183554</v>
+      </c>
+      <c r="N43">
+        <v>0.02332790355821843</v>
+      </c>
+      <c r="O43">
+        <v>0.0003544183435274297</v>
+      </c>
+      <c r="P43">
+        <v>0.02472698827503344</v>
+      </c>
+      <c r="Q43">
+        <v>0.001873365315435829</v>
       </c>
       <c r="R43">
-        <v>9.072515691717006</v>
+        <v>0.0005833506294503734</v>
       </c>
       <c r="S43">
-        <v>4.312937546404357</v>
+        <v>3.402347916791839E-07</v>
       </c>
       <c r="T43">
-        <v>6.001081018399917</v>
+        <v>0.01591530920994703</v>
       </c>
       <c r="U43">
-        <v>0.004209655476783548</v>
+        <v>0.003591817105174296</v>
       </c>
       <c r="V43">
-        <v>1.736393786560893E-05</v>
+        <v>37.11796928773714</v>
       </c>
       <c r="W43">
-        <v>0.00384114092205295</v>
-      </c>
-      <c r="X43">
-        <v>0.007101477985228033</v>
-      </c>
-      <c r="Y43">
-        <v>0.0001187215918078785</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>0.0002132719580292765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.012441553740722E-06</v>
+        <v>4.853851340267548E-06</v>
       </c>
       <c r="C44">
-        <v>0.02591090546807818</v>
+        <v>0.06352549975283114</v>
       </c>
       <c r="D44">
-        <v>0.0001372332221105498</v>
+        <v>0.0003596736191149991</v>
       </c>
       <c r="E44">
-        <v>0.02834032896055459</v>
+        <v>0.06928199016866959</v>
       </c>
       <c r="F44">
-        <v>3.099312963548419</v>
+        <v>5.599291419405773</v>
+      </c>
+      <c r="K44">
+        <v>7.223010980751419</v>
+      </c>
+      <c r="L44">
+        <v>5.711161072234779</v>
+      </c>
+      <c r="M44">
+        <v>7.430693427424035</v>
+      </c>
+      <c r="N44">
+        <v>0.02372399813088551</v>
+      </c>
+      <c r="O44">
+        <v>0.0003636000193614788</v>
+      </c>
+      <c r="P44">
+        <v>0.02512101625709546</v>
+      </c>
+      <c r="Q44">
+        <v>0.001880062989297305</v>
       </c>
       <c r="R44">
-        <v>9.219921581191668</v>
+        <v>0.0005934025328065577</v>
       </c>
       <c r="S44">
-        <v>11.43175159593356</v>
+        <v>3.401110216826615E-07</v>
       </c>
       <c r="T44">
-        <v>10.28361806813254</v>
+        <v>0.01612778321175345</v>
       </c>
       <c r="U44">
-        <v>0.00428193636538558</v>
+        <v>0.003663791687701971</v>
       </c>
       <c r="V44">
-        <v>0.00289121028064768</v>
+        <v>37.44856035863609</v>
       </c>
       <c r="W44">
-        <v>0.003784928214067172</v>
-      </c>
-      <c r="X44">
-        <v>1.780362379337623E-05</v>
-      </c>
-      <c r="Y44">
-        <v>0.0001207685158045661</v>
-      </c>
-      <c r="Z44">
-        <v>1.140118301325422E-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>0.0002192388416021811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.98835423534643E-06</v>
+        <v>4.818505652663963E-06</v>
       </c>
       <c r="C45">
-        <v>0.02636307515660393</v>
+        <v>0.06463367214114195</v>
       </c>
       <c r="D45">
-        <v>0.0001404302889774735</v>
+        <v>0.000368871103957947</v>
       </c>
       <c r="E45">
-        <v>0.02886187460188043</v>
+        <v>0.07053892635566596</v>
       </c>
       <c r="F45">
-        <v>3.099293529223758</v>
+        <v>5.599271378374898</v>
+      </c>
+      <c r="K45">
+        <v>7.225586841574335</v>
+      </c>
+      <c r="L45">
+        <v>5.722788800026581</v>
+      </c>
+      <c r="M45">
+        <v>7.436879730410104</v>
+      </c>
+      <c r="N45">
+        <v>0.02413382967670172</v>
+      </c>
+      <c r="O45">
+        <v>0.0003731734144338923</v>
+      </c>
+      <c r="P45">
+        <v>0.02552875227933753</v>
+      </c>
+      <c r="Q45">
+        <v>0.001887065850262785</v>
       </c>
       <c r="R45">
-        <v>9.167228279223718</v>
+        <v>0.0006038071366975204</v>
       </c>
       <c r="S45">
-        <v>4.28390722057659</v>
+        <v>3.399933851135352E-07</v>
       </c>
       <c r="T45">
-        <v>5.938400542912012</v>
+        <v>0.01634644972971927</v>
       </c>
       <c r="U45">
-        <v>0.004306335068626596</v>
+        <v>0.003738815489551346</v>
       </c>
       <c r="V45">
-        <v>1.681162632712017E-05</v>
+        <v>37.78801452830582</v>
       </c>
       <c r="W45">
-        <v>0.003851018119159695</v>
-      </c>
-      <c r="X45">
-        <v>0.007912914035908577</v>
-      </c>
-      <c r="Y45">
-        <v>0.0001228872596956667</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>0.0002253881087983322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.963402311974662E-06</v>
+        <v>4.781919937024841E-06</v>
       </c>
       <c r="C46">
-        <v>0.02683133667209726</v>
+        <v>0.06578125787394881</v>
       </c>
       <c r="D46">
-        <v>0.0001437763463942479</v>
+        <v>0.0003785376082037443</v>
       </c>
       <c r="E46">
-        <v>0.02940248278757833</v>
+        <v>0.07184069850765826</v>
       </c>
       <c r="F46">
-        <v>3.099273881752522</v>
+        <v>5.599251117763971</v>
+      </c>
+      <c r="K46">
+        <v>7.228180947631702</v>
+      </c>
+      <c r="L46">
+        <v>5.734619425482783</v>
+      </c>
+      <c r="M46">
+        <v>7.443143873062804</v>
+      </c>
+      <c r="N46">
+        <v>0.0245581271099565</v>
+      </c>
+      <c r="O46">
+        <v>0.0003831600523033418</v>
+      </c>
+      <c r="P46">
+        <v>0.0259509252512853</v>
+      </c>
+      <c r="Q46">
+        <v>0.001894400572534748</v>
       </c>
       <c r="R46">
-        <v>9.314262597469884</v>
+        <v>0.000614583335685242</v>
       </c>
       <c r="S46">
-        <v>11.45137517572418</v>
+        <v>3.398874745222094E-07</v>
       </c>
       <c r="T46">
-        <v>10.29885905656144</v>
+        <v>0.01657158605543655</v>
       </c>
       <c r="U46">
-        <v>0.004382933701524801</v>
+        <v>0.00381708532842862</v>
       </c>
       <c r="V46">
-        <v>0.003025378948739175</v>
+        <v>38.1367515951571</v>
       </c>
       <c r="W46">
-        <v>0.003778484263503465</v>
-      </c>
-      <c r="X46">
-        <v>1.744185890503632E-05</v>
-      </c>
-      <c r="Y46">
-        <v>0.000125081675047375</v>
-      </c>
-      <c r="Z46">
-        <v>1.054839023658567E-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>0.0002317288285026457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.937539308376142E-06</v>
+        <v>4.744029912498348E-06</v>
       </c>
       <c r="C47">
-        <v>0.0273165650416555</v>
+        <v>0.06697039824241691</v>
       </c>
       <c r="D47">
-        <v>0.0001472818814395223</v>
+        <v>0.0003887092494674901</v>
       </c>
       <c r="E47">
-        <v>0.02996319328034219</v>
+        <v>0.07318966885225293</v>
       </c>
       <c r="F47">
-        <v>3.099254013435167</v>
+        <v>5.599230629648046</v>
+      </c>
+      <c r="K47">
+        <v>7.230794474950049</v>
+      </c>
+      <c r="L47">
+        <v>5.746663113157259</v>
+      </c>
+      <c r="M47">
+        <v>7.449489980547983</v>
+      </c>
+      <c r="N47">
+        <v>0.0249976719655502</v>
+      </c>
+      <c r="O47">
+        <v>0.0003935860213205346</v>
+      </c>
+      <c r="P47">
+        <v>0.02638831660908076</v>
+      </c>
+      <c r="Q47">
+        <v>0.001902080938677915</v>
       </c>
       <c r="R47">
-        <v>9.265579805296372</v>
+        <v>0.0006257513983799823</v>
       </c>
       <c r="S47">
-        <v>4.250002620314064</v>
+        <v>3.397961629570479E-07</v>
       </c>
       <c r="T47">
-        <v>5.861709370518358</v>
+        <v>0.01680348606865488</v>
       </c>
       <c r="U47">
-        <v>0.004407616515211812</v>
+        <v>0.003898817230432087</v>
       </c>
       <c r="V47">
-        <v>1.599522315637561E-05</v>
+        <v>38.4952206521229</v>
       </c>
       <c r="W47">
-        <v>0.003846866852677982</v>
-      </c>
-      <c r="X47">
-        <v>0.008975983538776038</v>
-      </c>
-      <c r="Y47">
-        <v>0.0001273558854030746</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>0.0002382713524757244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.910715375663759E-06</v>
+        <v>5.976786243671908E-06</v>
       </c>
       <c r="C48">
-        <v>0.02781969991499283</v>
+        <v>0.06820339248302708</v>
       </c>
       <c r="D48">
-        <v>0.0001509583780989764</v>
+        <v>0.0002914807881211452</v>
       </c>
       <c r="E48">
-        <v>0.03054512108477821</v>
+        <v>0.07245877013100047</v>
       </c>
       <c r="F48">
-        <v>3.099233916132844</v>
+        <v>6.649230629648046</v>
+      </c>
+      <c r="K48">
+        <v>7.233428809354846</v>
+      </c>
+      <c r="L48">
+        <v>5.670072269766214</v>
+      </c>
+      <c r="M48">
+        <v>7.424222324147632</v>
+      </c>
+      <c r="N48">
+        <v>0.02545330318673964</v>
+      </c>
+      <c r="O48">
+        <v>0.0003493136659193092</v>
+      </c>
+      <c r="P48">
+        <v>0.02684176541779193</v>
+      </c>
+      <c r="Q48">
+        <v>0.001957879328654383</v>
       </c>
       <c r="R48">
-        <v>9.416561826727442</v>
+        <v>0.0006373330947173347</v>
       </c>
       <c r="S48">
-        <v>11.47845969968291</v>
+        <v>3.748330866413584E-07</v>
       </c>
       <c r="T48">
-        <v>10.32131101822551</v>
+        <v>0.01704246141751086</v>
       </c>
       <c r="U48">
-        <v>0.004488942835435061</v>
+        <v>0.003213704557981183</v>
       </c>
       <c r="V48">
-        <v>0.003220899412695596</v>
+        <v>38.63419924594739</v>
       </c>
       <c r="W48">
-        <v>0.003751883210342833</v>
-      </c>
-      <c r="X48">
-        <v>1.683137114459088E-05</v>
-      </c>
-      <c r="Y48">
-        <v>0.0001297143277253537</v>
-      </c>
-      <c r="Z48">
-        <v>9.600309542915101E-11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>0.0002450301562061344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.882877069111131E-06</v>
+        <v>5.937744693441852E-06</v>
       </c>
       <c r="C49">
-        <v>0.02834175164210403</v>
+        <v>0.06948474930745926</v>
       </c>
       <c r="D49">
-        <v>0.0001548184352493937</v>
+        <v>0.0002990793878698403</v>
       </c>
       <c r="E49">
-        <v>0.03114946326324985</v>
+        <v>0.07386399439375142</v>
       </c>
       <c r="F49">
-        <v>3.099213581233398</v>
+        <v>6.649230629648046</v>
+      </c>
+      <c r="K49">
+        <v>7.236344966005796</v>
+      </c>
+      <c r="L49">
+        <v>5.667066953847897</v>
+      </c>
+      <c r="M49">
+        <v>7.422941275893644</v>
+      </c>
+      <c r="N49">
+        <v>0.02592696336637776</v>
+      </c>
+      <c r="O49">
+        <v>0.0003544073822728229</v>
+      </c>
+      <c r="P49">
+        <v>0.02731127270249264</v>
+      </c>
+      <c r="Q49">
+        <v>0.001996909340222665</v>
       </c>
       <c r="R49">
-        <v>9.370529575924714</v>
+        <v>0.0006493511751254611</v>
       </c>
       <c r="S49">
-        <v>4.210456185597164</v>
+        <v>4.23671804799578E-07</v>
       </c>
       <c r="T49">
-        <v>5.766347199718243</v>
+        <v>0.0173033813582567</v>
       </c>
       <c r="U49">
-        <v>0.004512868183033919</v>
+        <v>0.003280696056190136</v>
       </c>
       <c r="V49">
-        <v>1.477852717743175E-05</v>
+        <v>38.78694160422516</v>
       </c>
       <c r="W49">
-        <v>0.003822355886554121</v>
-      </c>
-      <c r="X49">
-        <v>0.01039301400055131</v>
-      </c>
-      <c r="Y49">
-        <v>0.000132161766059736</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>0.0002520487534498839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.853967020528526E-06</v>
+        <v>5.897213252562146E-06</v>
       </c>
       <c r="C50">
-        <v>0.02888380804992816</v>
+        <v>0.07081524295975906</v>
       </c>
       <c r="D50">
-        <v>0.0001588759040912856</v>
+        <v>0.0003070772053996079</v>
       </c>
       <c r="E50">
-        <v>0.03177750644184255</v>
+        <v>0.07532363748884267</v>
       </c>
       <c r="F50">
-        <v>3.099192999614167</v>
+        <v>6.649230629648046</v>
+      </c>
+      <c r="K50">
+        <v>7.23938115103693</v>
+      </c>
+      <c r="L50">
+        <v>5.678926405868108</v>
+      </c>
+      <c r="M50">
+        <v>7.429281092782628</v>
+      </c>
+      <c r="N50">
+        <v>0.02641874328914901</v>
+      </c>
+      <c r="O50">
+        <v>0.0003643521223188886</v>
+      </c>
+      <c r="P50">
+        <v>0.02779808738253629</v>
+      </c>
+      <c r="Q50">
+        <v>0.002005867821834153</v>
       </c>
       <c r="R50">
-        <v>9.531131750401961</v>
+        <v>0.0006618305501893199</v>
       </c>
       <c r="S50">
-        <v>11.51423153483159</v>
+        <v>4.261259686398402E-07</v>
       </c>
       <c r="T50">
-        <v>10.35224548860693</v>
+        <v>0.01757304838329644</v>
       </c>
       <c r="U50">
-        <v>0.004599369907185005</v>
+        <v>0.003354026644762891</v>
       </c>
       <c r="V50">
-        <v>0.003498928482112488</v>
+        <v>38.95441763923635</v>
       </c>
       <c r="W50">
-        <v>0.00369599707666956</v>
-      </c>
-      <c r="X50">
-        <v>1.587627184352774E-05</v>
-      </c>
-      <c r="Y50">
-        <v>0.0001347033384839617</v>
-      </c>
-      <c r="Z50">
-        <v>8.528659215300177E-11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>0.0002593199226151697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.823923535863085E-06</v>
+        <v>5.855106536807557E-06</v>
       </c>
       <c r="C51">
-        <v>0.02944704201357203</v>
+        <v>0.0721977560137661</v>
       </c>
       <c r="D51">
-        <v>0.0001631460474677371</v>
+        <v>0.0003155061321218312</v>
       </c>
       <c r="E51">
-        <v>0.03243063510702711</v>
+        <v>0.07684085893201423</v>
       </c>
       <c r="F51">
-        <v>3.099172161600695</v>
+        <v>6.649230629648046</v>
+      </c>
+      <c r="K51">
+        <v>7.242448862857798</v>
+      </c>
+      <c r="L51">
+        <v>5.691063203210111</v>
+      </c>
+      <c r="M51">
+        <v>7.435740606482628</v>
+      </c>
+      <c r="N51">
+        <v>0.02692961370418489</v>
+      </c>
+      <c r="O51">
+        <v>0.000374771980595325</v>
+      </c>
+      <c r="P51">
+        <v>0.02830381717784418</v>
+      </c>
+      <c r="Q51">
+        <v>0.002015095914562995</v>
       </c>
       <c r="R51">
-        <v>9.486375176938546</v>
+        <v>0.0006747992643897254</v>
       </c>
       <c r="S51">
-        <v>4.164125024123722</v>
+        <v>4.28487155488161E-07</v>
       </c>
       <c r="T51">
-        <v>5.644282545024117</v>
+        <v>0.01785185273111083</v>
       </c>
       <c r="U51">
-        <v>0.004620947190029564</v>
+        <v>0.003430833827960437</v>
       </c>
       <c r="V51">
-        <v>1.293166735665129E-05</v>
+        <v>39.13671754172269</v>
       </c>
       <c r="W51">
-        <v>0.003768156308136737</v>
-      </c>
-      <c r="X51">
-        <v>0.01233125871385036</v>
-      </c>
-      <c r="Y51">
-        <v>0.0001373445787427336</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>0.0002668416604715781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.790575634868646E-06</v>
+        <v>5.811332636173845E-06</v>
       </c>
       <c r="C52">
-        <v>0.03003271993289411</v>
+        <v>0.073635401011399</v>
       </c>
       <c r="D52">
-        <v>0.0001677117771134488</v>
+        <v>0.0003244015168240299</v>
       </c>
       <c r="E52">
-        <v>0.03310891526707692</v>
+        <v>0.07841906274067589</v>
       </c>
       <c r="F52">
-        <v>3.098089878070881</v>
+        <v>6.649230629648046</v>
+      </c>
+      <c r="K52">
+        <v>7.245548412062763</v>
+      </c>
+      <c r="L52">
+        <v>5.70343612832668</v>
+      </c>
+      <c r="M52">
+        <v>7.442299423960342</v>
+      </c>
+      <c r="N52">
+        <v>0.02746071053865668</v>
+      </c>
+      <c r="O52">
+        <v>0.0003856834842147488</v>
+      </c>
+      <c r="P52">
+        <v>0.0288295916031098</v>
+      </c>
+      <c r="Q52">
+        <v>0.002024730166810367</v>
       </c>
       <c r="R52">
-        <v>9.66524875164091</v>
+        <v>0.0006882866799344101</v>
       </c>
       <c r="S52">
-        <v>11.5612241975618</v>
+        <v>4.309521750425034E-07</v>
       </c>
       <c r="T52">
-        <v>10.39414385885628</v>
+        <v>0.01814027310917384</v>
       </c>
       <c r="U52">
-        <v>0.004713107500483022</v>
+        <v>0.003511360268403536</v>
       </c>
       <c r="V52">
-        <v>0.003901795507155121</v>
+        <v>39.33399109424973</v>
       </c>
       <c r="W52">
-        <v>0.003596894260022465</v>
-      </c>
-      <c r="X52">
-        <v>1.443666893153411E-05</v>
-      </c>
-      <c r="Y52">
-        <v>0.0001400914703175883</v>
-      </c>
-      <c r="Z52">
-        <v>7.303323799194077E-11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>0.0002746285228338852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.717956071235654E-06</v>
+        <v>5.764895294780776E-06</v>
       </c>
       <c r="C53">
-        <v>0.03064220989525698</v>
+        <v>0.07513154385822705</v>
       </c>
       <c r="D53">
-        <v>0.00014546216762023</v>
+        <v>0.0003338510617659439</v>
       </c>
       <c r="E53">
-        <v>0.03263555140508868</v>
+        <v>0.08006112592224882</v>
       </c>
       <c r="F53">
-        <v>3.897350430720623</v>
+        <v>6.648468024397664</v>
+      </c>
+      <c r="K53">
+        <v>7.2486771958609</v>
+      </c>
+      <c r="L53">
+        <v>5.716027926233292</v>
+      </c>
+      <c r="M53">
+        <v>7.448940090959146</v>
+      </c>
+      <c r="N53">
+        <v>0.02801326211119632</v>
+      </c>
+      <c r="O53">
+        <v>0.0003971183760478783</v>
+      </c>
+      <c r="P53">
+        <v>0.02937662959160571</v>
+      </c>
+      <c r="Q53">
+        <v>0.002034886795324336</v>
       </c>
       <c r="R53">
-        <v>9.619651745457514</v>
+        <v>0.0007023245519294992</v>
       </c>
       <c r="S53">
-        <v>4.389333100691534</v>
+        <v>4.336421788557644E-07</v>
       </c>
       <c r="T53">
-        <v>6.044672625145366</v>
+        <v>0.01843882235082221</v>
       </c>
       <c r="U53">
-        <v>0.00472966488810196</v>
+        <v>0.003596268652157443</v>
       </c>
       <c r="V53">
-        <v>1.117920378619162E-05</v>
+        <v>39.5465551133099</v>
       </c>
       <c r="W53">
-        <v>0.003670005639432484</v>
-      </c>
-      <c r="X53">
-        <v>0.004701274190945738</v>
-      </c>
-      <c r="Y53">
-        <v>0.0001429504784254322</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>0.0002826957377076958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.689282948180329E-06</v>
+        <v>5.717460623262929E-06</v>
       </c>
       <c r="C54">
-        <v>0.03127755880624942</v>
+        <v>0.07668982912482</v>
       </c>
       <c r="D54">
-        <v>0.0001493463100314137</v>
+        <v>0.0003438047252400805</v>
       </c>
       <c r="E54">
-        <v>0.03333971408485073</v>
+        <v>0.08177255280526868</v>
       </c>
       <c r="F54">
-        <v>3.897332018161659</v>
+        <v>6.64844903928657</v>
+      </c>
+      <c r="K54">
+        <v>7.251838199244813</v>
+      </c>
+      <c r="L54">
+        <v>5.728876028459457</v>
+      </c>
+      <c r="M54">
+        <v>7.455696977375812</v>
+      </c>
+      <c r="N54">
+        <v>0.02858859843901191</v>
+      </c>
+      <c r="O54">
+        <v>0.0004091049774631444</v>
+      </c>
+      <c r="P54">
+        <v>0.02994624923319491</v>
+      </c>
+      <c r="Q54">
+        <v>0.00204546229097102</v>
       </c>
       <c r="R54">
-        <v>9.685472461233651</v>
+        <v>0.000716947279215971</v>
       </c>
       <c r="S54">
-        <v>11.54203631386699</v>
+        <v>4.363406810725221E-07</v>
       </c>
       <c r="T54">
-        <v>10.44012265772211</v>
+        <v>0.01874804221954439</v>
       </c>
       <c r="U54">
-        <v>0.004827966673191872</v>
+        <v>0.003685109185962918</v>
       </c>
       <c r="V54">
-        <v>0.003724618644060847</v>
+        <v>39.77458359804984</v>
       </c>
       <c r="W54">
-        <v>0.003648520877942625</v>
-      </c>
-      <c r="X54">
-        <v>1.165582650754085E-05</v>
-      </c>
-      <c r="Y54">
-        <v>0.0001459286133926287</v>
-      </c>
-      <c r="Z54">
-        <v>5.169047077497689E-11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>0.0002910605974296354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.659386857628901E-06</v>
+        <v>5.668037126661963E-06</v>
       </c>
       <c r="C55">
-        <v>0.03193986119978597</v>
+        <v>0.07831421262268341</v>
       </c>
       <c r="D55">
-        <v>0.0001534402321370906</v>
+        <v>0.0003543570799497758</v>
       </c>
       <c r="E55">
-        <v>0.03407444152855029</v>
+        <v>0.08355688753773151</v>
       </c>
       <c r="F55">
-        <v>3.897313349357311</v>
+        <v>6.648429790283442</v>
+      </c>
+      <c r="K55">
+        <v>7.255029759908393</v>
+      </c>
+      <c r="L55">
+        <v>5.741964865454387</v>
+      </c>
+      <c r="M55">
+        <v>7.462553557883692</v>
+      </c>
+      <c r="N55">
+        <v>0.02918816212968316</v>
+      </c>
+      <c r="O55">
+        <v>0.0004216804596238655</v>
+      </c>
+      <c r="P55">
+        <v>0.03053988299792308</v>
+      </c>
+      <c r="Q55">
+        <v>0.00205657499940703</v>
       </c>
       <c r="R55">
-        <v>9.642067050922289</v>
+        <v>0.00073219219280182</v>
       </c>
       <c r="S55">
-        <v>4.445176497737124</v>
+        <v>4.392090642062891E-07</v>
       </c>
       <c r="T55">
-        <v>6.144829225393316</v>
+        <v>0.0190685301564291</v>
       </c>
       <c r="U55">
-        <v>0.004851442163173382</v>
+        <v>0.003778586539920398</v>
       </c>
       <c r="V55">
-        <v>1.156425770816493E-05</v>
+        <v>40.0184204945827</v>
       </c>
       <c r="W55">
-        <v>0.003725900985419967</v>
-      </c>
-      <c r="X55">
-        <v>0.003777555383353611</v>
-      </c>
-      <c r="Y55">
-        <v>0.0001490334764075682</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>0.0002997414348933119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.628188637473886E-06</v>
+        <v>5.616499795905434E-06</v>
       </c>
       <c r="C56">
-        <v>0.0326308703512566</v>
+        <v>0.08000899209100371</v>
       </c>
       <c r="D56">
-        <v>0.0001577611992208612</v>
+        <v>0.0003655630136531259</v>
       </c>
       <c r="E56">
-        <v>0.03484173732770152</v>
+        <v>0.08541877724618656</v>
       </c>
       <c r="F56">
-        <v>3.897294413072655</v>
+        <v>6.648410265831224</v>
+      </c>
+      <c r="K56">
+        <v>7.258251914867538</v>
+      </c>
+      <c r="L56">
+        <v>5.75529371157255</v>
+      </c>
+      <c r="M56">
+        <v>7.46950868646592</v>
+      </c>
+      <c r="N56">
+        <v>0.02981352042685836</v>
+      </c>
+      <c r="O56">
+        <v>0.000434881708636741</v>
+      </c>
+      <c r="P56">
+        <v>0.0311590853457169</v>
+      </c>
+      <c r="Q56">
+        <v>0.002068281377693419</v>
       </c>
       <c r="R56">
-        <v>9.695124198897583</v>
+        <v>0.0007480998663613333</v>
       </c>
       <c r="S56">
-        <v>11.55969270874299</v>
+        <v>4.422467123346998E-07</v>
       </c>
       <c r="T56">
-        <v>10.45247527191338</v>
+        <v>0.01940092023504886</v>
       </c>
       <c r="U56">
-        <v>0.004956656900248714</v>
+        <v>0.003877072186755764</v>
       </c>
       <c r="V56">
-        <v>0.003882428498880774</v>
+        <v>40.27847936574728</v>
       </c>
       <c r="W56">
-        <v>0.003724778063725757</v>
-      </c>
-      <c r="X56">
-        <v>1.189027756046729E-05</v>
-      </c>
-      <c r="Y56">
-        <v>0.0001522733345903414</v>
-      </c>
-      <c r="Z56">
-        <v>5.126761736247864E-11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>0.0003087581455171672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.595602247002855E-06</v>
+        <v>5.562713258730863E-06</v>
       </c>
       <c r="C57">
-        <v>0.03335249499907962</v>
+        <v>0.08177884607050039</v>
       </c>
       <c r="D57">
-        <v>0.0001623284069824795</v>
+        <v>0.0003774842601604782</v>
       </c>
       <c r="E57">
-        <v>0.03564378148759015</v>
+        <v>0.08736326300733954</v>
       </c>
       <c r="F57">
-        <v>3.89727519729902</v>
+        <v>6.648390453577039</v>
+      </c>
+      <c r="K57">
+        <v>7.26150677097297</v>
+      </c>
+      <c r="L57">
+        <v>5.768889968970607</v>
+      </c>
+      <c r="M57">
+        <v>7.476575215400655</v>
+      </c>
+      <c r="N57">
+        <v>0.03046637906504107</v>
+      </c>
+      <c r="O57">
+        <v>0.0004487595631755245</v>
+      </c>
+      <c r="P57">
+        <v>0.03180554765611743</v>
+      </c>
+      <c r="Q57">
+        <v>0.002080583639623681</v>
       </c>
       <c r="R57">
-        <v>9.649384981445687</v>
+        <v>0.000764714480131311</v>
       </c>
       <c r="S57">
-        <v>4.405976736888872</v>
+        <v>4.45464799111563E-07</v>
       </c>
       <c r="T57">
-        <v>6.076332394645954</v>
+        <v>0.01974589463612204</v>
       </c>
       <c r="U57">
-        <v>0.004980528642501335</v>
+        <v>0.00398098612374838</v>
       </c>
       <c r="V57">
-        <v>1.167247800366278E-05</v>
+        <v>40.55524931599891</v>
       </c>
       <c r="W57">
-        <v>0.003807286681196097</v>
-      </c>
-      <c r="X57">
-        <v>0.004435148212064279</v>
-      </c>
-      <c r="Y57">
-        <v>0.0001556571853308464</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>0.0003181329548200655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.561534030281395E-06</v>
+        <v>5.506530587468785E-06</v>
       </c>
       <c r="C58">
-        <v>0.03410681696708183</v>
+        <v>0.08362887702073539</v>
       </c>
       <c r="D58">
-        <v>0.0001671632566643532</v>
+        <v>0.0003901905008296561</v>
       </c>
       <c r="E58">
-        <v>0.03648294999695591</v>
+        <v>0.08939582131103124</v>
       </c>
       <c r="F58">
-        <v>3.897255689181977</v>
+        <v>6.648370340298662</v>
+      </c>
+      <c r="K58">
+        <v>7.264792471683229</v>
+      </c>
+      <c r="L58">
+        <v>5.782742966844626</v>
+      </c>
+      <c r="M58">
+        <v>7.483746836320044</v>
+      </c>
+      <c r="N58">
+        <v>0.03114859769008347</v>
+      </c>
+      <c r="O58">
+        <v>0.0004633547556452316</v>
+      </c>
+      <c r="P58">
+        <v>0.03248111502012865</v>
+      </c>
+      <c r="Q58">
+        <v>0.002093570358150705</v>
       </c>
       <c r="R58">
-        <v>9.712919481591845</v>
+        <v>0.00078208423047977</v>
       </c>
       <c r="S58">
-        <v>11.58067485824246</v>
+        <v>4.488924909152159E-07</v>
       </c>
       <c r="T58">
-        <v>10.46776150794114</v>
+        <v>0.02010418801140326</v>
       </c>
       <c r="U58">
-        <v>0.005093457191694464</v>
+        <v>0.004090785367061076</v>
       </c>
       <c r="V58">
-        <v>0.00407847172621233</v>
+        <v>40.84929746445319</v>
       </c>
       <c r="W58">
-        <v>0.003793017100949093</v>
-      </c>
-      <c r="X58">
-        <v>1.20343941107416E-05</v>
-      </c>
-      <c r="Y58">
-        <v>0.0001591948486338202</v>
-      </c>
-      <c r="Z58">
-        <v>5.029541237436619E-11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>0.0003278893013150911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.52588179258541E-06</v>
+        <v>5.44779216857432E-06</v>
       </c>
       <c r="C59">
-        <v>0.03489611123941712</v>
+        <v>0.08556466042817505</v>
       </c>
       <c r="D59">
-        <v>0.0001722896808941113</v>
+        <v>0.0004037606702396261</v>
       </c>
       <c r="E59">
-        <v>0.03736183697398473</v>
+        <v>0.09152241093162129</v>
       </c>
       <c r="F59">
-        <v>3.897235874938132</v>
+        <v>6.648349911820254</v>
+      </c>
+      <c r="K59">
+        <v>7.268110725417085</v>
+      </c>
+      <c r="L59">
+        <v>5.796883587676244</v>
+      </c>
+      <c r="M59">
+        <v>7.49103764397457</v>
+      </c>
+      <c r="N59">
+        <v>0.03186220799088436</v>
+      </c>
+      <c r="O59">
+        <v>0.0004787285131837773</v>
+      </c>
+      <c r="P59">
+        <v>0.03318780210529092</v>
+      </c>
+      <c r="Q59">
+        <v>0.002107247777998038</v>
       </c>
       <c r="R59">
-        <v>9.664514128468896</v>
+        <v>0.0008002617964795108</v>
       </c>
       <c r="S59">
-        <v>4.363231726489418</v>
+        <v>4.52546001260359E-07</v>
       </c>
       <c r="T59">
-        <v>5.997038992196149</v>
+        <v>0.02047659272406238</v>
       </c>
       <c r="U59">
-        <v>0.005117061504845212</v>
+        <v>0.004206992162959985</v>
       </c>
       <c r="V59">
-        <v>1.162554454442412E-05</v>
+        <v>41.16127797705283</v>
       </c>
       <c r="W59">
-        <v>0.003880946931340682</v>
-      </c>
-      <c r="X59">
-        <v>0.005275151694617152</v>
-      </c>
-      <c r="Y59">
-        <v>0.0001628970532463413</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>0.0003380536305961217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.488533906957384E-06</v>
+        <v>5.386324280206018E-06</v>
       </c>
       <c r="C60">
-        <v>0.03572286889557242</v>
+        <v>0.08759230089860207</v>
       </c>
       <c r="D60">
-        <v>0.0001777345241150378</v>
+        <v>0.0004182845375124088</v>
       </c>
       <c r="E60">
-        <v>0.03828327991639316</v>
+        <v>0.09374952564927018</v>
       </c>
       <c r="F60">
-        <v>3.897215739765795</v>
+        <v>6.648329152919128</v>
+      </c>
+      <c r="K60">
+        <v>7.271458037297392</v>
+      </c>
+      <c r="L60">
+        <v>5.811291364274441</v>
+      </c>
+      <c r="M60">
+        <v>7.498435878220836</v>
+      </c>
+      <c r="N60">
+        <v>0.03260943369273436</v>
+      </c>
+      <c r="O60">
+        <v>0.0004949274437583818</v>
+      </c>
+      <c r="P60">
+        <v>0.03392781530355979</v>
+      </c>
+      <c r="Q60">
+        <v>0.002121741482047467</v>
       </c>
       <c r="R60">
-        <v>9.74163254858386</v>
+        <v>0.00081930487387185</v>
       </c>
       <c r="S60">
-        <v>11.60607117980924</v>
+        <v>4.564668631468242E-07</v>
       </c>
       <c r="T60">
-        <v>10.48704506417216</v>
+        <v>0.02086396416599338</v>
       </c>
       <c r="U60">
-        <v>0.005238619503899991</v>
+        <v>0.00433017646353456</v>
       </c>
       <c r="V60">
-        <v>0.004328846315098097</v>
+        <v>41.49193601863809</v>
       </c>
       <c r="W60">
-        <v>0.003847751579834099</v>
-      </c>
-      <c r="X60">
-        <v>1.203733131337957E-05</v>
-      </c>
-      <c r="Y60">
-        <v>0.0001667755545141113</v>
-      </c>
-      <c r="Z60">
-        <v>4.858783069434204E-11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>0.0003486538660447306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.449368125729366E-06</v>
+        <v>5.32193758885642E-06</v>
       </c>
       <c r="C61">
-        <v>0.03658982339243724</v>
+        <v>0.08971849641960426</v>
       </c>
       <c r="D61">
-        <v>0.000183527998649385</v>
+        <v>0.0004338646140643459</v>
       </c>
       <c r="E61">
-        <v>0.03925038839001112</v>
+        <v>0.09608425392904886</v>
       </c>
       <c r="F61">
-        <v>3.897195267740868</v>
+        <v>6.648308047219623</v>
+      </c>
+      <c r="K61">
+        <v>7.274839437786737</v>
+      </c>
+      <c r="L61">
+        <v>5.826008469490061</v>
+      </c>
+      <c r="M61">
+        <v>7.505960049399928</v>
+      </c>
+      <c r="N61">
+        <v>0.03339271433295329</v>
+      </c>
+      <c r="O61">
+        <v>0.0005120291429970315</v>
+      </c>
+      <c r="P61">
+        <v>0.03470357320164545</v>
+      </c>
+      <c r="Q61">
+        <v>0.00213705284055014</v>
       </c>
       <c r="R61">
-        <v>9.690057486030698</v>
+        <v>0.0008392767862379159</v>
       </c>
       <c r="S61">
-        <v>4.315812762708014</v>
+        <v>4.606763291772668E-07</v>
       </c>
       <c r="T61">
-        <v>5.902523788493083</v>
+        <v>0.0212672272806875</v>
       </c>
       <c r="U61">
-        <v>0.005260809093870769</v>
+        <v>0.00446099743071128</v>
       </c>
       <c r="V61">
-        <v>1.132756747188671E-05</v>
+        <v>41.84212100168904</v>
       </c>
       <c r="W61">
-        <v>0.003941305585895579</v>
-      </c>
-      <c r="X61">
-        <v>0.006382259773121124</v>
-      </c>
-      <c r="Y61">
-        <v>0.000170843249780606</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>0.0003597221165964095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.40825037750684E-06</v>
+        <v>5.254425412663707E-06</v>
       </c>
       <c r="C62">
-        <v>0.03749998077728193</v>
+        <v>0.09195061221474277</v>
       </c>
       <c r="D62">
-        <v>0.0001897042237900186</v>
+        <v>0.0004506184801607703</v>
       </c>
       <c r="E62">
-        <v>0.04026657687718884</v>
+        <v>0.09853434646577172</v>
       </c>
       <c r="F62">
-        <v>3.897174441700319</v>
+        <v>6.648286577074539</v>
+      </c>
+      <c r="K62">
+        <v>7.278250942699174</v>
+      </c>
+      <c r="L62">
+        <v>5.841011548813184</v>
+      </c>
+      <c r="M62">
+        <v>7.51359606827007</v>
+      </c>
+      <c r="N62">
+        <v>0.03421473146270219</v>
+      </c>
+      <c r="O62">
+        <v>0.0005300919194489988</v>
+      </c>
+      <c r="P62">
+        <v>0.03551773621067283</v>
+      </c>
+      <c r="Q62">
+        <v>0.002153334394180038</v>
       </c>
       <c r="R62">
-        <v>9.785528734970866</v>
+        <v>0.0008602471889856345</v>
       </c>
       <c r="S62">
-        <v>11.63755427804556</v>
+        <v>4.652286050444614E-07</v>
       </c>
       <c r="T62">
-        <v>10.51199136484273</v>
+        <v>0.02168738302693691</v>
       </c>
       <c r="U62">
-        <v>0.005392046132030742</v>
+        <v>0.00460017810588137</v>
       </c>
       <c r="V62">
-        <v>0.00466052646534585</v>
+        <v>42.21279271381716</v>
       </c>
       <c r="W62">
-        <v>0.003880281731214941</v>
-      </c>
-      <c r="X62">
-        <v>1.181909538839805E-05</v>
-      </c>
-      <c r="Y62">
-        <v>0.0001751143310251211</v>
-      </c>
-      <c r="Z62">
-        <v>4.589442060170672E-11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>0.0003712923215370967</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.365033334891927E-06</v>
+        <v>5.183561772764089E-06</v>
       </c>
       <c r="C63">
-        <v>0.03845665453506377</v>
+        <v>0.09429676590024488</v>
       </c>
       <c r="D63">
-        <v>0.000196301873160811</v>
+        <v>0.0004686816364458644</v>
       </c>
       <c r="E63">
-        <v>0.04133560238915605</v>
+        <v>0.1011082928326886</v>
       </c>
       <c r="F63">
-        <v>3.897153243112215</v>
+        <v>6.648264723429449</v>
+      </c>
+      <c r="K63">
+        <v>7.281695408882768</v>
+      </c>
+      <c r="L63">
+        <v>5.856343881024966</v>
+      </c>
+      <c r="M63">
+        <v>7.521360665119058</v>
+      </c>
+      <c r="N63">
+        <v>0.03507844016893946</v>
+      </c>
+      <c r="O63">
+        <v>0.0005492105706745562</v>
+      </c>
+      <c r="P63">
+        <v>0.03637323369314701</v>
+      </c>
+      <c r="Q63">
+        <v>0.002170613308273143</v>
       </c>
       <c r="R63">
-        <v>9.729947560634132</v>
+        <v>0.0008822928802774446</v>
       </c>
       <c r="S63">
-        <v>4.262215046092251</v>
+        <v>4.701591134066943E-07</v>
       </c>
       <c r="T63">
-        <v>5.785675606481786</v>
+        <v>0.02212551648645115</v>
       </c>
       <c r="U63">
-        <v>0.005410803046561124</v>
+        <v>0.004748558025061382</v>
       </c>
       <c r="V63">
-        <v>1.061090478188599E-05</v>
+        <v>42.60503874245132</v>
       </c>
       <c r="W63">
-        <v>0.00397947308085152</v>
-      </c>
-      <c r="X63">
-        <v>0.007897190766756695</v>
-      </c>
-      <c r="Y63">
-        <v>0.0001796044409002673</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>0.0003834029763487496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.31955472741437E-06</v>
+        <v>5.109099185657336E-06</v>
       </c>
       <c r="C64">
-        <v>0.03946350592090332</v>
+        <v>0.09676592601245011</v>
       </c>
       <c r="D64">
-        <v>0.0002033649559343317</v>
+        <v>0.0004882110250301331</v>
       </c>
       <c r="E64">
-        <v>0.04246160764073468</v>
+        <v>0.1038154086393792</v>
       </c>
       <c r="F64">
-        <v>3.89713165192532</v>
+        <v>6.648242465670467</v>
+      </c>
+      <c r="K64">
+        <v>7.285169480934605</v>
+      </c>
+      <c r="L64">
+        <v>5.872005178280763</v>
+      </c>
+      <c r="M64">
+        <v>7.5292482676888</v>
+      </c>
+      <c r="N64">
+        <v>0.03598710410573591</v>
+      </c>
+      <c r="O64">
+        <v>0.0005694722574756071</v>
+      </c>
+      <c r="P64">
+        <v>0.03727330265064369</v>
+      </c>
+      <c r="Q64">
+        <v>0.002189026339643351</v>
       </c>
       <c r="R64">
-        <v>9.851698271748571</v>
+        <v>0.0009054987413607087</v>
       </c>
       <c r="S64">
-        <v>11.6778623099193</v>
+        <v>4.75530257913862E-07</v>
       </c>
       <c r="T64">
-        <v>10.54537902601674</v>
+        <v>0.02258280486701404</v>
       </c>
       <c r="U64">
-        <v>0.005552913366081631</v>
+        <v>0.004907076744227377</v>
       </c>
       <c r="V64">
-        <v>0.005122608746027638</v>
+        <v>43.0200865761167</v>
       </c>
       <c r="W64">
-        <v>0.00387637524701191</v>
-      </c>
-      <c r="X64">
-        <v>1.12503630236286E-05</v>
-      </c>
-      <c r="Y64">
-        <v>0.0001843308735555375</v>
-      </c>
-      <c r="Z64">
-        <v>4.187541540968592E-11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>0.0003960957169634864</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.271635447095752E-06</v>
+        <v>5.030766104803956E-06</v>
       </c>
       <c r="C65">
-        <v>0.04052459081184843</v>
+        <v>0.09936802641751553</v>
       </c>
       <c r="D65">
-        <v>0.000210943761877862</v>
+        <v>0.0005093894151910388</v>
       </c>
       <c r="E65">
-        <v>0.04364917081105999</v>
+        <v>0.10666593473785</v>
       </c>
       <c r="F65">
-        <v>3.897109646398297</v>
+        <v>6.64821978144911</v>
+      </c>
+      <c r="K65">
+        <v>7.288675395202251</v>
+      </c>
+      <c r="L65">
+        <v>5.888016110320804</v>
+      </c>
+      <c r="M65">
+        <v>7.537261546965205</v>
+      </c>
+      <c r="N65">
+        <v>0.03694433739893213</v>
+      </c>
+      <c r="O65">
+        <v>0.0005909860233592278</v>
+      </c>
+      <c r="P65">
+        <v>0.03822152633472477</v>
+      </c>
+      <c r="Q65">
+        <v>0.002208689426172319</v>
       </c>
       <c r="R65">
-        <v>9.790553829666267</v>
+        <v>0.0009299588281472709</v>
       </c>
       <c r="S65">
-        <v>4.200096614274623</v>
+        <v>4.814083821132215E-07</v>
       </c>
       <c r="T65">
-        <v>5.633277369549515</v>
+        <v>0.02306052724871098</v>
       </c>
       <c r="U65">
-        <v>0.005564543220677684</v>
+        <v>0.005076813302292519</v>
       </c>
       <c r="V65">
-        <v>9.150029547177329E-06</v>
+        <v>43.45932321052769</v>
       </c>
       <c r="W65">
-        <v>0.003980838081714295</v>
-      </c>
-      <c r="X65">
-        <v>0.01007646052483904</v>
-      </c>
-      <c r="Y65">
-        <v>0.0001893127879252705</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>0.0004094175317024848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.221077402722699E-06</v>
+        <v>4.948264208771829E-06</v>
       </c>
       <c r="C66">
-        <v>0.04164441434101428</v>
+        <v>0.1021140996675801</v>
       </c>
       <c r="D66">
-        <v>0.0002190960118930208</v>
+        <v>0.0005324308861936114</v>
       </c>
       <c r="E66">
-        <v>0.04490336307131938</v>
+        <v>0.1096711507617742</v>
       </c>
       <c r="F66">
-        <v>3.897087202907338</v>
+        <v>6.648196646482337</v>
+      </c>
+      <c r="K66">
+        <v>7.292212198914275</v>
+      </c>
+      <c r="L66">
+        <v>5.904407923518255</v>
+      </c>
+      <c r="M66">
+        <v>7.545405479858419</v>
+      </c>
+      <c r="N66">
+        <v>0.03795415271492027</v>
+      </c>
+      <c r="O66">
+        <v>0.0006138813361102966</v>
+      </c>
+      <c r="P66">
+        <v>0.0392218829155179</v>
+      </c>
+      <c r="Q66">
+        <v>0.002229723155062501</v>
       </c>
       <c r="R66">
-        <v>9.953473017068081</v>
+        <v>0.0009557776453629698</v>
       </c>
       <c r="S66">
-        <v>11.73183550360096</v>
+        <v>4.878699926049711E-07</v>
       </c>
       <c r="T66">
-        <v>10.59221348530418</v>
+        <v>0.02356007485833372</v>
       </c>
       <c r="U66">
-        <v>0.005718859698209087</v>
+        <v>0.005259007836066693</v>
       </c>
       <c r="V66">
-        <v>0.005814628829265958</v>
+        <v>43.92431760407543</v>
       </c>
       <c r="W66">
-        <v>0.003811515236071941</v>
-      </c>
-      <c r="X66">
-        <v>1.0115600344979E-05</v>
-      </c>
-      <c r="Y66">
-        <v>0.0001945714764787502</v>
-      </c>
-      <c r="Z66">
-        <v>3.607643575454703E-11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>0.0004234202912177887</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.167660906186402E-06</v>
+        <v>4.861265001134721E-06</v>
       </c>
       <c r="C67">
-        <v>0.04282799486470347</v>
+        <v>0.105016433061334</v>
       </c>
       <c r="D67">
-        <v>0.0002278882747176309</v>
+        <v>0.000557587794559144</v>
       </c>
       <c r="E67">
-        <v>0.04622981515895857</v>
+        <v>0.1128435045613472</v>
       </c>
       <c r="F67">
-        <v>3.897064295720176</v>
+        <v>6.648173034325443</v>
+      </c>
+      <c r="K67">
+        <v>7.295780009984418</v>
+      </c>
+      <c r="L67">
+        <v>5.921205287884386</v>
+      </c>
+      <c r="M67">
+        <v>7.553678798231461</v>
+      </c>
+      <c r="N67">
+        <v>0.0390210176114577</v>
+      </c>
+      <c r="O67">
+        <v>0.0006383041210686904</v>
+      </c>
+      <c r="P67">
+        <v>0.04027880176581664</v>
+      </c>
+      <c r="Q67">
+        <v>0.002252295056338857</v>
       </c>
       <c r="R67">
-        <v>9.883471993475441</v>
+        <v>0.0009830716389449801</v>
       </c>
       <c r="S67">
-        <v>4.125457421124201</v>
+        <v>4.950132413083529E-07</v>
       </c>
       <c r="T67">
-        <v>5.416137930350168</v>
+        <v>0.02408296248754135</v>
       </c>
       <c r="U67">
-        <v>0.005716123437321748</v>
+        <v>0.005455086577067369</v>
       </c>
       <c r="V67">
-        <v>6.168474063196588E-06</v>
+        <v>44.41684639842717</v>
       </c>
       <c r="W67">
-        <v>0.003920126654235569</v>
-      </c>
-      <c r="X67">
-        <v>0.01342994286454685</v>
-      </c>
-      <c r="Y67">
-        <v>0.000200130660490245</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>0.0004381618060407801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.111141832301016E-06</v>
+        <v>4.76940632505737E-06</v>
       </c>
       <c r="C68">
-        <v>0.04408093917617364</v>
+        <v>0.1080887520397686</v>
       </c>
       <c r="D68">
-        <v>0.0002373977103555629</v>
+        <v>0.0005851596341390068</v>
       </c>
       <c r="E68">
-        <v>0.04763479490921486</v>
+        <v>0.1161967611350021</v>
       </c>
       <c r="F68">
-        <v>3.897040896741518</v>
+        <v>6.648148916106422</v>
+      </c>
+      <c r="K68">
+        <v>7.299376800477899</v>
+      </c>
+      <c r="L68">
+        <v>5.938439825471963</v>
+      </c>
+      <c r="M68">
+        <v>7.562080590466871</v>
+      </c>
+      <c r="N68">
+        <v>0.04014992094941032</v>
+      </c>
+      <c r="O68">
+        <v>0.0006644266635211488</v>
+      </c>
+      <c r="P68">
+        <v>0.04139722843374245</v>
+      </c>
+      <c r="Q68">
+        <v>0.002276595623429694</v>
       </c>
       <c r="R68">
-        <v>10.12080586654562</v>
+        <v>0.001011970951465676</v>
       </c>
       <c r="S68">
-        <v>11.80959068895799</v>
+        <v>5.029561315750284E-07</v>
       </c>
       <c r="T68">
-        <v>10.66313155515044</v>
+        <v>0.02463084119079058</v>
       </c>
       <c r="U68">
-        <v>0.005884063289182295</v>
+        <v>0.005666703504730858</v>
       </c>
       <c r="V68">
-        <v>0.006982202774208092</v>
+        <v>44.93892604628324</v>
       </c>
       <c r="W68">
-        <v>0.003640426177461707</v>
-      </c>
-      <c r="X68">
-        <v>8.051306314192875E-06</v>
-      </c>
-      <c r="Y68">
-        <v>0.0002060168563870169</v>
-      </c>
-      <c r="Z68">
-        <v>2.786275551463355E-11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>0.0004537066490611132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.051248159409059E-06</v>
+        <v>4.672288056768538E-06</v>
       </c>
       <c r="C69">
-        <v>0.04540953134180449</v>
+        <v>0.111346436658121</v>
       </c>
       <c r="D69">
-        <v>0.0002477142467836774</v>
+        <v>0.0006155045038332345</v>
       </c>
       <c r="E69">
-        <v>0.04912529757199664</v>
+        <v>0.1197461731926181</v>
       </c>
       <c r="F69">
-        <v>3.89701697521395</v>
+        <v>6.648124260222573</v>
+      </c>
+      <c r="K69">
+        <v>7.303004736571759</v>
+      </c>
+      <c r="L69">
+        <v>5.956160529987471</v>
+      </c>
+      <c r="M69">
+        <v>7.57061383284399</v>
+      </c>
+      <c r="N69">
+        <v>0.04134645107928574</v>
+      </c>
+      <c r="O69">
+        <v>0.0006924578079245064</v>
+      </c>
+      <c r="P69">
+        <v>0.04258270215526708</v>
+      </c>
+      <c r="Q69">
+        <v>0.002302825016858444</v>
       </c>
       <c r="R69">
-        <v>10.03353536200498</v>
+        <v>0.001042621496778831</v>
       </c>
       <c r="S69">
-        <v>7</v>
+        <v>5.118382365795494E-07</v>
       </c>
       <c r="T69">
-        <v>5.039058900164486</v>
+        <v>0.02520551202976209</v>
       </c>
       <c r="U69">
-        <v>0.005850786335090604</v>
+        <v>0.005895791875314086</v>
       </c>
       <c r="V69">
-        <v>-1.507999245347538E-06</v>
+        <v>45.49285272155887</v>
       </c>
       <c r="W69">
-        <v>0.003750498143254057</v>
-      </c>
-      <c r="X69">
-        <v>0.01916339973083864</v>
-      </c>
-      <c r="Y69">
-        <v>0.0002122597905847218</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
+        <v>0.000470127370868833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.987675970676268E-06</v>
+        <v>4.569467491269106E-06</v>
       </c>
       <c r="C70">
-        <v>0.04682083812602389</v>
+        <v>0.1148067782879425</v>
       </c>
       <c r="D70">
-        <v>0.0002589433110542035</v>
+        <v>0.000649054036706575</v>
       </c>
       <c r="E70">
-        <v>0.05070915152638236</v>
+        <v>0.1235086779309766</v>
       </c>
       <c r="F70">
-        <v>3.896992497373624</v>
+        <v>6.648099031986281</v>
+      </c>
+      <c r="K70">
+        <v>7.306661338248415</v>
+      </c>
+      <c r="L70">
+        <v>5.974411260526162</v>
+      </c>
+      <c r="M70">
+        <v>7.579275702046515</v>
+      </c>
+      <c r="N70">
+        <v>0.04261688836901579</v>
+      </c>
+      <c r="O70">
+        <v>0.0007226379491211182</v>
+      </c>
+      <c r="P70">
+        <v>0.04384144831584235</v>
+      </c>
+      <c r="Q70">
+        <v>0.002331244447837533</v>
       </c>
       <c r="R70">
-        <v>10.43900152252154</v>
+        <v>0.001075187423608276</v>
       </c>
       <c r="S70">
-        <v>11.9398471227151</v>
+        <v>5.218367314968235E-07</v>
       </c>
       <c r="T70">
-        <v>10.78859392485776</v>
+        <v>0.02580894078458859</v>
       </c>
       <c r="U70">
-        <v>0.006033670533038602</v>
+        <v>0.006144616536435469</v>
       </c>
       <c r="V70">
-        <v>0.009501339585701363</v>
+        <v>46.081249382</v>
       </c>
       <c r="W70">
-        <v>0.003268844968642038</v>
-      </c>
-      <c r="X70">
-        <v>4.532371741996669E-06</v>
-      </c>
-      <c r="Y70">
-        <v>0.0002188929090404943</v>
-      </c>
-      <c r="Z70">
-        <v>1.618553944061407E-11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>0.0004875059835846539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.920084847791082E-06</v>
+        <v>4.460453889047013E-06</v>
       </c>
       <c r="C71">
-        <v>0.0483228347329584</v>
+        <v>0.1184892855218533</v>
       </c>
       <c r="D71">
-        <v>0.0002712092841109778</v>
+        <v>0.0006863331396004057</v>
       </c>
       <c r="E71">
-        <v>0.05239514246124725</v>
+        <v>0.127503123599935</v>
       </c>
       <c r="F71">
-        <v>3.896967426046805</v>
+        <v>6.648073193212652</v>
+      </c>
+      <c r="K71">
+        <v>7.310346803460482</v>
+      </c>
+      <c r="L71">
+        <v>5.993248888662954</v>
+      </c>
+      <c r="M71">
+        <v>7.588065837448986</v>
+      </c>
+      <c r="N71">
+        <v>0.04396831580191562</v>
+      </c>
+      <c r="O71">
+        <v>0.0007552548213659538</v>
+      </c>
+      <c r="P71">
+        <v>0.04518048715029412</v>
+      </c>
+      <c r="Q71">
+        <v>0.002362146516149321</v>
       </c>
       <c r="R71">
-        <v>10.30768484687278</v>
+        <v>0.001109854055443011</v>
       </c>
       <c r="S71">
-        <v>5.154547349519072</v>
+        <v>5.331684396578702E-07</v>
       </c>
       <c r="T71">
-        <v>6.998595266940455</v>
+        <v>0.0264432738248516</v>
       </c>
       <c r="U71">
-        <v>0.005921810241017224</v>
+        <v>0.00641585753149701</v>
       </c>
       <c r="V71">
-        <v>8.237541434663447E-06</v>
+        <v>46.70712553188293</v>
       </c>
       <c r="W71">
-        <v>0.003374145374993653</v>
-      </c>
-      <c r="X71">
-        <v>0.0002484111105349588</v>
-      </c>
-      <c r="Y71">
-        <v>0.0002259539701003316</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
+        <v>0.0005059347013416188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.848092393625846E-06</v>
+        <v>4.344702475785814E-06</v>
       </c>
       <c r="C72">
-        <v>0.04992455558125331</v>
+        <v>0.1224160506012617</v>
       </c>
       <c r="D72">
-        <v>0.000284659920035967</v>
+        <v>0.0007279863833039794</v>
       </c>
       <c r="E72">
-        <v>0.05419315965036851</v>
+        <v>0.1317505316144208</v>
       </c>
       <c r="F72">
-        <v>3.896941720177976</v>
+        <v>6.648046701735183</v>
+      </c>
+      <c r="K72">
+        <v>7.314059297803693</v>
+      </c>
+      <c r="L72">
+        <v>6.012718150694003</v>
+      </c>
+      <c r="M72">
+        <v>7.596975217622168</v>
+      </c>
+      <c r="N72">
+        <v>0.04540875116793394</v>
+      </c>
+      <c r="O72">
+        <v>0.0007906376658282152</v>
+      </c>
+      <c r="P72">
+        <v>0.04660776517143229</v>
+      </c>
+      <c r="Q72">
+        <v>0.002395918491251891</v>
       </c>
       <c r="R72">
-        <v>10.31347818286023</v>
+        <v>0.001146831418343123</v>
       </c>
       <c r="S72">
-        <v>11.92379750073103</v>
+        <v>5.461142132346776E-07</v>
       </c>
       <c r="T72">
-        <v>10.75858509120773</v>
+        <v>0.02711085436796341</v>
       </c>
       <c r="U72">
-        <v>0.006118929331003309</v>
+        <v>0.006712699277061204</v>
       </c>
       <c r="V72">
-        <v>0.009149701725408558</v>
+        <v>47.37394953243253</v>
       </c>
       <c r="W72">
-        <v>0.003478336517142276</v>
-      </c>
-      <c r="X72">
-        <v>6.019943279194819E-06</v>
-      </c>
-      <c r="Y72">
-        <v>0.000233485769103676</v>
-      </c>
-      <c r="Z72">
-        <v>2.082095693396689E-11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>0.0005255175748630892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.771267806173908E-06</v>
+        <v>7.260538247925891E-06</v>
       </c>
       <c r="C73">
-        <v>0.05163627612129527</v>
+        <v>0.1266121907467085</v>
       </c>
       <c r="D73">
-        <v>0.0002994720519654494</v>
+        <v>0.0004775380992396074</v>
       </c>
       <c r="E73">
-        <v>0.05611436894226187</v>
+        <v>0.1359143988168568</v>
       </c>
       <c r="F73">
-        <v>3.896915334274503</v>
+        <v>7.148046701735183</v>
+      </c>
+      <c r="K73">
+        <v>7.317801757704086</v>
+      </c>
+      <c r="L73">
+        <v>5.968610651353741</v>
+      </c>
+      <c r="M73">
+        <v>7.602382699541555</v>
+      </c>
+      <c r="N73">
+        <v>0.04694730680593757</v>
+      </c>
+      <c r="O73">
+        <v>0.0007109025272037094</v>
+      </c>
+      <c r="P73">
+        <v>0.04813231160867987</v>
+      </c>
+      <c r="Q73">
+        <v>0.002328237809383678</v>
       </c>
       <c r="R73">
-        <v>10.18193355300412</v>
+        <v>0.001186358497795877</v>
       </c>
       <c r="S73">
-        <v>7</v>
+        <v>3.36929809333711E-07</v>
       </c>
       <c r="T73">
-        <v>4.104670284343139</v>
+        <v>0.02781423902627038</v>
       </c>
       <c r="U73">
-        <v>0.006014419938092781</v>
+        <v>0.004685087984331522</v>
       </c>
       <c r="V73">
-        <v>-6.614788832604285E-05</v>
+        <v>47.62768311876636</v>
       </c>
       <c r="W73">
-        <v>0.003598071571413415</v>
-      </c>
-      <c r="X73">
-        <v>0.03015309498211748</v>
-      </c>
-      <c r="Y73">
-        <v>0.00024153700180308</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>0.0005463760112718878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.689124277571183E-06</v>
+        <v>7.060854258942935E-06</v>
       </c>
       <c r="C74">
-        <v>0.05346973340948562</v>
+        <v>0.1311169997698324</v>
       </c>
       <c r="D74">
-        <v>0.0003158590437705878</v>
+        <v>0.0005085623979444887</v>
       </c>
       <c r="E74">
-        <v>0.05817141804514097</v>
+        <v>0.1407775066739045</v>
       </c>
       <c r="F74">
-        <v>3.896888217746852</v>
+        <v>7.148046701735183</v>
+      </c>
+      <c r="K74">
+        <v>7.321551081456661</v>
+      </c>
+      <c r="L74">
+        <v>5.939966432973073</v>
+      </c>
+      <c r="M74">
+        <v>7.590783591790071</v>
+      </c>
+      <c r="N74">
+        <v>0.04859860695874949</v>
+      </c>
+      <c r="O74">
+        <v>0.0007189509514626723</v>
+      </c>
+      <c r="P74">
+        <v>0.04976817138722617</v>
+      </c>
+      <c r="Q74">
+        <v>0.002464560811187206</v>
       </c>
       <c r="R74">
-        <v>10.9502770139469</v>
+        <v>0.001228716410938254</v>
       </c>
       <c r="S74">
-        <v>12.19647640866113</v>
+        <v>4.392904814003731E-07</v>
       </c>
       <c r="T74">
-        <v>11.03231431047395</v>
+        <v>0.02864028013491105</v>
       </c>
       <c r="U74">
-        <v>0.006231583074750597</v>
+        <v>0.004915523105337551</v>
       </c>
       <c r="V74">
-        <v>0.0175354440300824</v>
+        <v>47.91869286000086</v>
       </c>
       <c r="W74">
-        <v>0.002649677878173985</v>
-      </c>
-      <c r="X74">
-        <v>6.771585781928072E-07</v>
-      </c>
-      <c r="Y74">
-        <v>0.0002501633232960471</v>
-      </c>
-      <c r="Z74">
-        <v>3.720985907660987E-12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+        <v>0.0005686281460414863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.601110082496382E-06</v>
+        <v>6.847453746623171E-06</v>
       </c>
       <c r="C75">
-        <v>0.05543839542303062</v>
+        <v>0.1359543493021245</v>
       </c>
       <c r="D75">
-        <v>0.0003340806339436855</v>
+        <v>0.0005437379872479443</v>
       </c>
       <c r="E75">
-        <v>0.06037868114976691</v>
+        <v>0.1459820472826495</v>
       </c>
       <c r="F75">
-        <v>3.896860314123175</v>
+        <v>7.148046701735183</v>
+      </c>
+      <c r="K75">
+        <v>7.325776572544631</v>
+      </c>
+      <c r="L75">
+        <v>5.960844253115144</v>
+      </c>
+      <c r="M75">
+        <v>7.600057473150825</v>
+      </c>
+      <c r="N75">
+        <v>0.05037192755161197</v>
+      </c>
+      <c r="O75">
+        <v>0.0007560514245091142</v>
+      </c>
+      <c r="P75">
+        <v>0.0515201569641165</v>
+      </c>
+      <c r="Q75">
+        <v>0.002502028751754424</v>
       </c>
       <c r="R75">
-        <v>10.73205016713147</v>
+        <v>0.00127420815614036</v>
       </c>
       <c r="S75">
-        <v>5.311244703964531</v>
+        <v>4.543439814526849E-07</v>
       </c>
       <c r="T75">
-        <v>6.998598157046208</v>
+        <v>0.02951897483971007</v>
       </c>
       <c r="U75">
-        <v>0.005812921557886456</v>
+        <v>0.005194914101852104</v>
       </c>
       <c r="V75">
-        <v>5.021456854008419E-06</v>
+        <v>48.2547367602853</v>
       </c>
       <c r="W75">
-        <v>0.002747789015936792</v>
-      </c>
-      <c r="X75">
-        <v>0.0001155697970665674</v>
-      </c>
-      <c r="Y75">
-        <v>0.0002594286314284568</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+        <v>0.0005924968508399052</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.50368257937339E-06</v>
+        <v>6.618960810928491E-06</v>
       </c>
       <c r="C76">
-        <v>0.05755779214568781</v>
+        <v>0.1411624497373121</v>
       </c>
       <c r="D76">
-        <v>0.0003546643386916357</v>
+        <v>0.0005839391256982151</v>
       </c>
       <c r="E76">
-        <v>0.06274902385785193</v>
+        <v>0.1515632433821174</v>
       </c>
       <c r="F76">
-        <v>3.895141923664459</v>
+        <v>7.148046701735183</v>
+      </c>
+      <c r="K76">
+        <v>7.330038154672204</v>
+      </c>
+      <c r="L76">
+        <v>5.983037702916726</v>
+      </c>
+      <c r="M76">
+        <v>7.609648677522745</v>
+      </c>
+      <c r="N76">
+        <v>0.05228023047957746</v>
+      </c>
+      <c r="O76">
+        <v>0.0007970581113605432</v>
+      </c>
+      <c r="P76">
+        <v>0.05340546958766889</v>
+      </c>
+      <c r="Q76">
+        <v>0.002542185291810055</v>
       </c>
       <c r="R76">
-        <v>10.74325841369619</v>
+        <v>0.001323198687377241</v>
       </c>
       <c r="S76">
-        <v>12.13703974286888</v>
+        <v>4.707539982875594E-07</v>
       </c>
       <c r="T76">
-        <v>10.95212183655761</v>
+        <v>0.03045451563732</v>
       </c>
       <c r="U76">
-        <v>0.006036302331003089</v>
+        <v>0.005508023944532767</v>
       </c>
       <c r="V76">
-        <v>0.01521012525813189</v>
+        <v>48.64031258330615</v>
       </c>
       <c r="W76">
-        <v>0.00284902821666257</v>
-      </c>
-      <c r="X76">
-        <v>2.224106132590366E-06</v>
-      </c>
-      <c r="Y76">
-        <v>0.0002694066557141667</v>
-      </c>
-      <c r="Z76">
-        <v>8.562270300871143E-12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>0.0006181115042970723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.097094428049518E-06</v>
+        <v>6.371961921937002E-06</v>
       </c>
       <c r="C77">
-        <v>0.05984591725796766</v>
+        <v>0.1467855901617767</v>
       </c>
       <c r="D77">
-        <v>0.0002525652728101308</v>
+        <v>0.0006304711908281075</v>
       </c>
       <c r="E77">
-        <v>0.06404354777361605</v>
+        <v>0.1575577532546945</v>
       </c>
       <c r="F77">
-        <v>6.494069977223235</v>
+        <v>7.146941449696421</v>
+      </c>
+      <c r="K77">
+        <v>7.334329544223824</v>
+      </c>
+      <c r="L77">
+        <v>6.00614733835229</v>
+      </c>
+      <c r="M77">
+        <v>7.619353182740824</v>
+      </c>
+      <c r="N77">
+        <v>0.05433955737430615</v>
+      </c>
+      <c r="O77">
+        <v>0.0008423143600579065</v>
+      </c>
+      <c r="P77">
+        <v>0.05544000095950324</v>
+      </c>
+      <c r="Q77">
+        <v>0.002586768928143881</v>
       </c>
       <c r="R77">
-        <v>10.48700224102433</v>
+        <v>0.001376107804712399</v>
       </c>
       <c r="S77">
-        <v>5.241562328827699</v>
+        <v>4.901057250094154E-07</v>
       </c>
       <c r="T77">
-        <v>6.997343000500946</v>
+        <v>0.03145237530503149</v>
       </c>
       <c r="U77">
-        <v>0.005669349413917937</v>
+        <v>0.005862286355354215</v>
       </c>
       <c r="V77">
-        <v>5.340252935811035E-06</v>
+        <v>49.08105181411617</v>
       </c>
       <c r="W77">
-        <v>0.002962900381083769</v>
-      </c>
-      <c r="X77">
-        <v>0.0001498528288157659</v>
-      </c>
-      <c r="Y77">
-        <v>0.0002801829216002426</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+        <v>0.0006456806122797914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.023764944706737E-06</v>
+        <v>6.108399019716579E-06</v>
       </c>
       <c r="C78">
-        <v>0.06232897359068256</v>
+        <v>0.1528753867855662</v>
       </c>
       <c r="D78">
-        <v>0.0002666652746330378</v>
+        <v>0.0006845192189137927</v>
       </c>
       <c r="E78">
-        <v>0.06680887460790097</v>
+        <v>0.1640171960075923</v>
       </c>
       <c r="F78">
-        <v>6.494044445228545</v>
+        <v>7.14691514745113</v>
+      </c>
+      <c r="K78">
+        <v>7.338647458675988</v>
+      </c>
+      <c r="L78">
+        <v>6.030270696073114</v>
+      </c>
+      <c r="M78">
+        <v>7.629202620123123</v>
+      </c>
+      <c r="N78">
+        <v>0.05656860916656649</v>
+      </c>
+      <c r="O78">
+        <v>0.0008924616352228208</v>
+      </c>
+      <c r="P78">
+        <v>0.05764221896080989</v>
+      </c>
+      <c r="Q78">
+        <v>0.002636332474512926</v>
       </c>
       <c r="R78">
-        <v>10.49547224073773</v>
+        <v>0.001433425208836874</v>
       </c>
       <c r="S78">
-        <v>11.9979650511311</v>
+        <v>5.12701797794055E-07</v>
       </c>
       <c r="T78">
-        <v>10.91206318547777</v>
+        <v>0.03251862901126804</v>
       </c>
       <c r="U78">
-        <v>0.005905349795625526</v>
+        <v>0.006263807051620522</v>
       </c>
       <c r="V78">
-        <v>0.01090774405609031</v>
+        <v>49.58340439575434</v>
       </c>
       <c r="W78">
-        <v>0.003080110695761603</v>
-      </c>
-      <c r="X78">
-        <v>2.869444379244322E-06</v>
-      </c>
-      <c r="Y78">
-        <v>0.0002918572100002527</v>
-      </c>
-      <c r="Z78">
-        <v>9.266207321962688E-12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
+        <v>0.0006754486161562308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.944070706273149E-06</v>
+        <v>5.824465275865244E-06</v>
       </c>
       <c r="C79">
-        <v>0.06502733482181515</v>
+        <v>0.1594923810275946</v>
       </c>
       <c r="D79">
-        <v>0.0002823986639037457</v>
+        <v>0.0007482570454602085</v>
       </c>
       <c r="E79">
-        <v>0.06981834007239303</v>
+        <v>0.170990334338605</v>
       </c>
       <c r="F79">
-        <v>6.494018002870971</v>
+        <v>7.146887909706388</v>
+      </c>
+      <c r="K79">
+        <v>7.342989849991364</v>
+      </c>
+      <c r="L79">
+        <v>6.05539712311732</v>
+      </c>
+      <c r="M79">
+        <v>7.639145136789518</v>
+      </c>
+      <c r="N79">
+        <v>0.05898931123314665</v>
+      </c>
+      <c r="O79">
+        <v>0.0009483154539051986</v>
+      </c>
+      <c r="P79">
+        <v>0.0600337792428228</v>
+      </c>
+      <c r="Q79">
+        <v>0.002692116877881135</v>
       </c>
       <c r="R79">
-        <v>10.2832526455311</v>
+        <v>0.001495725752621182</v>
       </c>
       <c r="S79">
-        <v>5.172681107304758</v>
+        <v>5.398283074650292E-07</v>
       </c>
       <c r="T79">
-        <v>6.997344303176037</v>
+        <v>0.03366014300951359</v>
       </c>
       <c r="U79">
-        <v>0.005687854392996623</v>
+        <v>0.006724336264849523</v>
       </c>
       <c r="V79">
-        <v>6.677175137200248E-06</v>
+        <v>50.15560017794732</v>
       </c>
       <c r="W79">
-        <v>0.003213903793647793</v>
-      </c>
-      <c r="X79">
-        <v>0.0002100511510384554</v>
-      </c>
-      <c r="Y79">
-        <v>0.0003045466535104286</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26">
+        <v>0.000707703104327206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.8571597536443E-06</v>
+        <v>5.517926863619331E-06</v>
       </c>
       <c r="C80">
-        <v>0.06797028646535658</v>
+        <v>0.1667080230267825</v>
       </c>
       <c r="D80">
-        <v>0.0003000622032460546</v>
+        <v>0.0008244804911635864</v>
       </c>
       <c r="E80">
-        <v>0.07310504399457278</v>
+        <v>0.1785363184099766</v>
       </c>
       <c r="F80">
-        <v>6.493990562990137</v>
+        <v>7.146859647089223</v>
+      </c>
+      <c r="K80">
+        <v>7.34735545559038</v>
+      </c>
+      <c r="L80">
+        <v>6.081590149758996</v>
+      </c>
+      <c r="M80">
+        <v>7.649159709078361</v>
+      </c>
+      <c r="N80">
+        <v>0.06162753831402126</v>
+      </c>
+      <c r="O80">
+        <v>0.001010943998532647</v>
+      </c>
+      <c r="P80">
+        <v>0.06264021844122925</v>
+      </c>
+      <c r="Q80">
+        <v>0.002755491543631696</v>
       </c>
       <c r="R80">
-        <v>10.29002316969885</v>
+        <v>0.001563688749180896</v>
       </c>
       <c r="S80">
-        <v>11.96545903459461</v>
+        <v>5.728706982770524E-07</v>
       </c>
       <c r="T80">
-        <v>10.86471283347026</v>
+        <v>0.03488449786154377</v>
       </c>
       <c r="U80">
-        <v>0.005946089721081143</v>
+        <v>0.007258093498607826</v>
       </c>
       <c r="V80">
-        <v>0.01009941100138404</v>
+        <v>50.80797420112513</v>
       </c>
       <c r="W80">
-        <v>0.003350442550130036</v>
-      </c>
-      <c r="X80">
-        <v>4.383527049495357E-06</v>
-      </c>
-      <c r="Y80">
-        <v>0.0003183896832154481</v>
-      </c>
-      <c r="Z80">
-        <v>1.379239311934213E-11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
+        <v>0.0007427829246211394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.762024210067273E-06</v>
+        <v>5.186263530432084E-06</v>
       </c>
       <c r="C81">
-        <v>0.07119267809688566</v>
+        <v>0.1746072393380025</v>
       </c>
       <c r="D81">
-        <v>0.000320028300339975</v>
+        <v>0.0009171589737527223</v>
       </c>
       <c r="E81">
-        <v>0.07670821448367122</v>
+        <v>0.1867229455824348</v>
       </c>
       <c r="F81">
-        <v>6.493962025348637</v>
+        <v>7.14683025684644</v>
+      </c>
+      <c r="K81">
+        <v>7.351742649834654</v>
+      </c>
+      <c r="L81">
+        <v>6.108915973104426</v>
+      </c>
+      <c r="M81">
+        <v>7.659207622003788</v>
+      </c>
+      <c r="N81">
+        <v>0.064514042805235</v>
+      </c>
+      <c r="O81">
+        <v>0.001081763506267298</v>
+      </c>
+      <c r="P81">
+        <v>0.06549187210301961</v>
+      </c>
+      <c r="Q81">
+        <v>0.002828365118832631</v>
       </c>
       <c r="R81">
-        <v>10.08164903449695</v>
+        <v>0.001638122838632449</v>
       </c>
       <c r="S81">
-        <v>7</v>
+        <v>6.139014201374614E-07</v>
       </c>
       <c r="T81">
-        <v>4.581318432179255</v>
+        <v>0.03620004092644549</v>
       </c>
       <c r="U81">
-        <v>0.005748312517257196</v>
+        <v>0.0078843159935907</v>
       </c>
       <c r="V81">
-        <v>-1.951688763596852E-05</v>
+        <v>51.55371391593855</v>
       </c>
       <c r="W81">
-        <v>0.003509778694086252</v>
-      </c>
-      <c r="X81">
-        <v>0.02398955122313468</v>
-      </c>
-      <c r="Y81">
-        <v>0.0003335510960451174</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26">
+        <v>0.0007810924126733244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.65746393348904E-06</v>
+        <v>4.826642452547575E-06</v>
       </c>
       <c r="C82">
-        <v>0.07473631058671294</v>
+        <v>0.183291743356215</v>
       </c>
       <c r="D82">
-        <v>0.0003427705108583003</v>
+        <v>0.001032116669404456</v>
       </c>
       <c r="E82">
-        <v>0.08067465960134905</v>
+        <v>0.1956281374713403</v>
       </c>
       <c r="F82">
-        <v>6.493932273909182</v>
+        <v>7.146799620065717</v>
+      </c>
+      <c r="K82">
+        <v>7.356152549393618</v>
+      </c>
+      <c r="L82">
+        <v>6.137474402040668</v>
+      </c>
+      <c r="M82">
+        <v>7.669234597278185</v>
+      </c>
+      <c r="N82">
+        <v>0.06768565677018339</v>
+      </c>
+      <c r="O82">
+        <v>0.001162750523720451</v>
+      </c>
+      <c r="P82">
+        <v>0.06862504745222896</v>
+      </c>
+      <c r="Q82">
+        <v>0.002913420309217147</v>
       </c>
       <c r="R82">
-        <v>10.95863861086308</v>
+        <v>0.001719998285493065</v>
       </c>
       <c r="S82">
-        <v>12.23161164077333</v>
+        <v>6.660345630612582E-07</v>
       </c>
       <c r="T82">
-        <v>11.13222062089112</v>
+        <v>0.03761582717308823</v>
       </c>
       <c r="U82">
-        <v>0.006036703987501854</v>
+        <v>0.008629714969038631</v>
       </c>
       <c r="V82">
-        <v>0.01908136966767835</v>
+        <v>52.40997592229981</v>
       </c>
       <c r="W82">
-        <v>0.002485790067633831</v>
-      </c>
-      <c r="X82">
-        <v>4.611512184043859E-07</v>
-      </c>
-      <c r="Y82">
-        <v>0.0003502286508473733</v>
-      </c>
-      <c r="Z82">
-        <v>2.360613359259074E-12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26">
+        <v>0.0008231167954066151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.542039604372781E-06</v>
+        <v>4.435904857091761E-06</v>
       </c>
       <c r="C83">
-        <v>0.07865176006438951</v>
+        <v>0.1928843552870998</v>
       </c>
       <c r="D83">
-        <v>0.0003689000359602528</v>
+        <v>0.001178245445849912</v>
       </c>
       <c r="E83">
-        <v>0.08506064027399937</v>
+        <v>0.2053417101369386</v>
       </c>
       <c r="F83">
-        <v>6.493901173371508</v>
+        <v>7.146767598142974</v>
+      </c>
+      <c r="K83">
+        <v>7.360587773074324</v>
+      </c>
+      <c r="L83">
+        <v>6.167440360291109</v>
+      </c>
+      <c r="M83">
+        <v>7.679165782212594</v>
+      </c>
+      <c r="N83">
+        <v>0.07118686236210249</v>
+      </c>
+      <c r="O83">
+        <v>0.00125681024778698</v>
+      </c>
+      <c r="P83">
+        <v>0.07208355414396642</v>
+      </c>
+      <c r="Q83">
+        <v>0.003014568955183176</v>
       </c>
       <c r="R83">
-        <v>10.59830659824818</v>
+        <v>0.001810489456594644</v>
       </c>
       <c r="S83">
-        <v>5.302249044551168</v>
+        <v>7.34148105466744E-07</v>
       </c>
       <c r="T83">
-        <v>6.997351746577377</v>
+        <v>0.03914141202593295</v>
       </c>
       <c r="U83">
-        <v>0.005350142635913617</v>
+        <v>0.009532509079374547</v>
       </c>
       <c r="V83">
-        <v>4.66936422511612E-06</v>
+        <v>53.39961017582197</v>
       </c>
       <c r="W83">
-        <v>0.002616596852708327</v>
-      </c>
-      <c r="X83">
-        <v>0.0001148396451050298</v>
-      </c>
-      <c r="Y83">
-        <v>0.0003686617376098344</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26">
+        <v>0.0008694440572632682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.414012052939546E-06</v>
+        <v>4.010585500102643E-06</v>
       </c>
       <c r="C84">
-        <v>0.08300080784374669</v>
+        <v>0.2035346947227248</v>
       </c>
       <c r="D84">
-        <v>0.0003992191132549763</v>
+        <v>0.001369800527005569</v>
       </c>
       <c r="E84">
-        <v>0.08993430987242147</v>
+        <v>0.2159675400442514</v>
       </c>
       <c r="F84">
-        <v>6.49386856471746</v>
+        <v>7.146734028236001</v>
+      </c>
+      <c r="K84">
+        <v>7.365055610675378</v>
+      </c>
+      <c r="L84">
+        <v>6.199122169264388</v>
+      </c>
+      <c r="M84">
+        <v>7.688890646896406</v>
+      </c>
+      <c r="N84">
+        <v>0.07507186525734225</v>
+      </c>
+      <c r="O84">
+        <v>0.001368466430763703</v>
+      </c>
+      <c r="P84">
+        <v>0.07592071998778771</v>
+      </c>
+      <c r="Q84">
+        <v>0.003137836707822291</v>
       </c>
       <c r="R84">
-        <v>10.61218841707657</v>
+        <v>0.001911031418177377</v>
       </c>
       <c r="S84">
-        <v>12.13352458558334</v>
+        <v>8.262930680697387E-07</v>
       </c>
       <c r="T84">
-        <v>11.01389472487108</v>
+        <v>0.04078635107851953</v>
       </c>
       <c r="U84">
-        <v>0.005647113373229646</v>
+        <v>0.01064934477550128</v>
       </c>
       <c r="V84">
-        <v>0.01508395207079645</v>
+        <v>54.55392775984277</v>
       </c>
       <c r="W84">
-        <v>0.002755583364241843</v>
-      </c>
-      <c r="X84">
-        <v>1.965023087138505E-06</v>
-      </c>
-      <c r="Y84">
-        <v>0.0003891429452548252</v>
-      </c>
-      <c r="Z84">
-        <v>7.952805392587754E-12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26">
+        <v>0.000920792736255219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.271262796241358E-06</v>
+        <v>3.547014358842917E-06</v>
       </c>
       <c r="C85">
-        <v>0.08785972482789327</v>
+        <v>0.215426747322473</v>
       </c>
       <c r="D85">
-        <v>0.0004348011455274901</v>
+        <v>0.001631084164887552</v>
       </c>
       <c r="E85">
-        <v>0.09537892302548534</v>
+        <v>0.2276263557796319</v>
       </c>
       <c r="F85">
-        <v>6.493834259396523</v>
+        <v>7.146698717342671</v>
+      </c>
+      <c r="K85">
+        <v>7.369568536231212</v>
+      </c>
+      <c r="L85">
+        <v>6.233105938068817</v>
+      </c>
+      <c r="M85">
+        <v>7.698245139607506</v>
+      </c>
+      <c r="N85">
+        <v>0.07940735930596453</v>
+      </c>
+      <c r="O85">
+        <v>0.001505307134491324</v>
+      </c>
+      <c r="P85">
+        <v>0.08020206606307981</v>
+      </c>
+      <c r="Q85">
+        <v>0.003293090239473002</v>
       </c>
       <c r="R85">
-        <v>10.19143882844817</v>
+        <v>0.002023396425536748</v>
       </c>
       <c r="S85">
-        <v>5.182344723674898</v>
+        <v>9.566258400792499E-07</v>
       </c>
       <c r="T85">
-        <v>6.99735325019343</v>
+        <v>0.04255911615516766</v>
       </c>
       <c r="U85">
-        <v>0.005092005214549246</v>
+        <v>0.01206780455696277</v>
       </c>
       <c r="V85">
-        <v>6.920228326693557E-06</v>
+        <v>55.91735730612566</v>
       </c>
       <c r="W85">
-        <v>0.002917560913721532</v>
-      </c>
-      <c r="X85">
-        <v>0.0002070444112497232</v>
-      </c>
-      <c r="Y85">
-        <v>0.0004120337062725911</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26">
+        <v>0.0009780505609931242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.11118919584451E-06</v>
+        <v>3.041626331112074E-06</v>
       </c>
       <c r="C86">
-        <v>0.09332378255804107</v>
+        <v>0.228788976269822</v>
       </c>
       <c r="D86">
-        <v>0.0004771144942401385</v>
+        <v>0.002006950123564988</v>
       </c>
       <c r="E86">
-        <v>0.1014970999184743</v>
+        <v>0.2404597759463735</v>
       </c>
       <c r="F86">
-        <v>6.493798031642816</v>
+        <v>7.146661434471267</v>
+      </c>
+      <c r="K86">
+        <v>7.374152097705423</v>
+      </c>
+      <c r="L86">
+        <v>6.270608833145354</v>
+      </c>
+      <c r="M86">
+        <v>7.706986875103802</v>
+      </c>
+      <c r="N86">
+        <v>0.08427623756668155</v>
+      </c>
+      <c r="O86">
+        <v>0.00168130072718532</v>
+      </c>
+      <c r="P86">
+        <v>0.08500887705205518</v>
+      </c>
+      <c r="Q86">
+        <v>0.003497782507649483</v>
       </c>
       <c r="R86">
-        <v>10.19984893682584</v>
+        <v>0.002149798913017789</v>
       </c>
       <c r="S86">
-        <v>12.07158900497641</v>
+        <v>1.152147424241325E-06</v>
       </c>
       <c r="T86">
-        <v>10.93483142315802</v>
+        <v>0.04446482313005545</v>
       </c>
       <c r="U86">
-        <v>0.005409823026188152</v>
+        <v>0.01393030295259509</v>
       </c>
       <c r="V86">
-        <v>0.01301545727633566</v>
+        <v>57.55571162803958</v>
       </c>
       <c r="W86">
-        <v>0.003086968195126018</v>
-      </c>
-      <c r="X86">
-        <v>4.669492972827202E-06</v>
-      </c>
-      <c r="Y86">
-        <v>0.0004377858129146278</v>
-      </c>
-      <c r="Z86">
-        <v>1.611656304564034E-11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26">
+        <v>0.001042328108401973</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.930564955112075E-06</v>
+        <v>2.491850375266446E-06</v>
       </c>
       <c r="C87">
-        <v>0.09951356042896113</v>
+        <v>0.2439077780129058</v>
       </c>
       <c r="D87">
-        <v>0.0005282202719014737</v>
+        <v>0.002589414747475947</v>
       </c>
       <c r="E87">
-        <v>0.1084165533794896</v>
+        <v>0.2546376221778825</v>
       </c>
       <c r="F87">
-        <v>6.493759608140865</v>
+        <v>7.146621900124714</v>
+      </c>
+      <c r="K87">
+        <v>7.37884700396927</v>
+      </c>
+      <c r="L87">
+        <v>6.314327966540677</v>
+      </c>
+      <c r="M87">
+        <v>7.714748064940387</v>
+      </c>
+      <c r="N87">
+        <v>0.08978256668931466</v>
+      </c>
+      <c r="O87">
+        <v>0.001925334890899644</v>
+      </c>
+      <c r="P87">
+        <v>0.09044295002168222</v>
+      </c>
+      <c r="Q87">
+        <v>0.003786291189200678</v>
       </c>
       <c r="R87">
-        <v>9.79319860021816</v>
+        <v>0.002293042030724025</v>
       </c>
       <c r="S87">
-        <v>7</v>
+        <v>1.47020651697396E-06</v>
       </c>
       <c r="T87">
-        <v>3.996901862446824</v>
+        <v>0.04650045780855281</v>
       </c>
       <c r="U87">
-        <v>0.004902780742844985</v>
+        <v>0.01648234104812068</v>
       </c>
       <c r="V87">
-        <v>-8.884115847442319E-05</v>
+        <v>59.57173917219284</v>
       </c>
       <c r="W87">
-        <v>0.003292454775269564</v>
-      </c>
-      <c r="X87">
-        <v>0.04102569074064501</v>
-      </c>
-      <c r="Y87">
-        <v>0.0004669715327011654</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26">
+        <v>0.001115031164080514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.729268699687893E-06</v>
+        <v>1.090051065659251E-05</v>
       </c>
       <c r="C88">
-        <v>0.1065839418687511</v>
+        <v>0.2611448039604365</v>
       </c>
       <c r="D88">
-        <v>0.0005906570517767382</v>
+        <v>0.0006529956195065727</v>
       </c>
       <c r="E88">
-        <v>0.1163063118660957</v>
+        <v>0.2924933280975561</v>
       </c>
       <c r="F88">
-        <v>6.491678254325992</v>
+        <v>11.99662190012471</v>
+      </c>
+      <c r="K88">
+        <v>7.383736925300844</v>
+      </c>
+      <c r="L88">
+        <v>6.66311847244348</v>
+      </c>
+      <c r="M88">
+        <v>7.849619439287419</v>
+      </c>
+      <c r="N88">
+        <v>0.09605808324634431</v>
+      </c>
+      <c r="O88">
+        <v>0.00183602233764022</v>
+      </c>
+      <c r="P88">
+        <v>0.09663271136685948</v>
+      </c>
+      <c r="Q88">
+        <v>0.002646365094750035</v>
       </c>
       <c r="R88">
-        <v>11.43657450486946</v>
+        <v>0.002456725732453101</v>
       </c>
       <c r="S88">
-        <v>7</v>
+        <v>1.043777492670331E-07</v>
       </c>
       <c r="T88">
-        <v>6.998872747483278</v>
+        <v>0.04864460900572654</v>
       </c>
       <c r="U88">
-        <v>0.0052593251643678</v>
+        <v>0.006801250624619974</v>
       </c>
       <c r="V88">
-        <v>1.856654077891091E-06</v>
+        <v>59.98232058977165</v>
       </c>
       <c r="W88">
-        <v>0.0005972236348856032</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>0.0005003266421798201</v>
-      </c>
-      <c r="Z88">
-        <v>4.217412592849868E-07</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26">
+        <v>0.001197979360871792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.876689317845353E-06</v>
+        <v>9.92448771482675E-06</v>
       </c>
       <c r="C89">
-        <v>0.1147372714700568</v>
+        <v>0.2811826353712773</v>
       </c>
       <c r="D89">
-        <v>0.0005255216525903337</v>
+        <v>0.0007695543563583105</v>
       </c>
       <c r="E89">
-        <v>0.1224492280116133</v>
+        <v>0.3139074287134497</v>
       </c>
       <c r="F89">
-        <v>7.520430416319442</v>
+        <v>11.99533535257901</v>
+      </c>
+      <c r="K89">
+        <v>7.383542411978754</v>
+      </c>
+      <c r="L89">
+        <v>6.307558827702285</v>
+      </c>
+      <c r="M89">
+        <v>7.766072013889248</v>
+      </c>
+      <c r="N89">
+        <v>0.1033059340854754</v>
+      </c>
+      <c r="O89">
+        <v>0.001673695586265144</v>
+      </c>
+      <c r="P89">
+        <v>0.1038624303108679</v>
+      </c>
+      <c r="Q89">
+        <v>0.00338031303094034</v>
       </c>
       <c r="R89">
-        <v>11.4628145352269</v>
+        <v>0.002645696605891857</v>
       </c>
       <c r="S89">
-        <v>12.57752155222454</v>
+        <v>3.796087833252064E-07</v>
       </c>
       <c r="T89">
-        <v>11.55086531164765</v>
+        <v>0.05186332888119628</v>
       </c>
       <c r="U89">
-        <v>0.005663745819005486</v>
+        <v>0.00745676173168435</v>
       </c>
       <c r="V89">
-        <v>0.0441146019473345</v>
+        <v>60.48793840832685</v>
       </c>
       <c r="W89">
-        <v>0.0006431639144921881</v>
-      </c>
-      <c r="X89">
-        <v>5.644410454075209E-08</v>
-      </c>
-      <c r="Y89">
-        <v>0.0005387808653275536</v>
-      </c>
-      <c r="Z89">
-        <v>2.096465378700761E-13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26">
+        <v>0.001293114564970272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.834413165871338E-06</v>
+        <v>8.82240194458997E-06</v>
       </c>
       <c r="C90">
-        <v>0.1157570192362842</v>
+        <v>0.3045503921225206</v>
       </c>
       <c r="D90">
-        <v>0.0005362669917441834</v>
+        <v>0.0009325070205368418</v>
       </c>
       <c r="E90">
-        <v>0.1240579091968164</v>
+        <v>0.3382409019089351</v>
       </c>
       <c r="F90">
-        <v>7.52039030812992</v>
+        <v>11.99529405309104</v>
+      </c>
+      <c r="K90">
+        <v>7.386996397970718</v>
+      </c>
+      <c r="L90">
+        <v>6.341414036996548</v>
+      </c>
+      <c r="M90">
+        <v>7.776213769174688</v>
+      </c>
+      <c r="N90">
+        <v>0.1117752872937429</v>
+      </c>
+      <c r="O90">
+        <v>0.001844008288725899</v>
+      </c>
+      <c r="P90">
+        <v>0.1122359400841952</v>
+      </c>
+      <c r="Q90">
+        <v>0.003571446810062309</v>
       </c>
       <c r="R90">
-        <v>10.85917621856479</v>
+        <v>0.002866139688984235</v>
       </c>
       <c r="S90">
-        <v>5.693600419271004</v>
+        <v>4.444938379671479E-07</v>
       </c>
       <c r="T90">
-        <v>6.996896910466592</v>
+        <v>0.05556387614365561</v>
       </c>
       <c r="U90">
-        <v>0.002459507808311402</v>
+        <v>0.008681865372234679</v>
       </c>
       <c r="V90">
-        <v>1.878707894305666E-06</v>
+        <v>61.17505837823757</v>
       </c>
       <c r="W90">
-        <v>0.0006967562036911588</v>
-      </c>
-      <c r="X90">
-        <v>2.116946876638414E-05</v>
-      </c>
-      <c r="Y90">
-        <v>0.0005836792707540458</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26">
+        <v>0.001404265594865015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.789101666448666E-06</v>
+        <v>7.570356174297854E-06</v>
       </c>
       <c r="C91">
-        <v>0.1167950440312801</v>
+        <v>0.3321520180408827</v>
       </c>
       <c r="D91">
-        <v>0.0005479604219742442</v>
+        <v>0.001175446249364087</v>
       </c>
       <c r="E91">
-        <v>0.1257828041645329</v>
+        <v>0.3660195123186002</v>
       </c>
       <c r="F91">
-        <v>7.520346717662229</v>
+        <v>11.99524917646298</v>
+      </c>
+      <c r="K91">
+        <v>7.390313542716961</v>
+      </c>
+      <c r="L91">
+        <v>6.382827604650726</v>
+      </c>
+      <c r="M91">
+        <v>7.787753076774917</v>
+      </c>
+      <c r="N91">
+        <v>0.1217690399305627</v>
+      </c>
+      <c r="O91">
+        <v>0.002059116469129622</v>
+      </c>
+      <c r="P91">
+        <v>0.1221145303818437</v>
+      </c>
+      <c r="Q91">
+        <v>0.003796786128759134</v>
       </c>
       <c r="R91">
-        <v>10.88967512632867</v>
+        <v>0.003126657433997532</v>
       </c>
       <c r="S91">
-        <v>12.31393050012333</v>
+        <v>5.342030098804031E-07</v>
       </c>
       <c r="T91">
-        <v>11.2742403922129</v>
+        <v>0.0598258771228757</v>
       </c>
       <c r="U91">
-        <v>0.002682928635622048</v>
+        <v>0.01039950507776582</v>
       </c>
       <c r="V91">
-        <v>0.02327653287817635</v>
+        <v>62.11430734786356</v>
       </c>
       <c r="W91">
-        <v>0.0007581731795934111</v>
-      </c>
-      <c r="X91">
-        <v>1.37419949565104E-07</v>
-      </c>
-      <c r="Y91">
-        <v>0.0006367410226407774</v>
-      </c>
-      <c r="Z91">
-        <v>2.09966160297434E-12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26">
+        <v>0.001535444844192516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.740025282678144E-06</v>
+        <v>6.144245956140709E-06</v>
       </c>
       <c r="C92">
-        <v>0.1178518357004556</v>
+        <v>0.3652496752200346</v>
       </c>
       <c r="D92">
-        <v>0.0005608364457136576</v>
+        <v>0.001573178197799176</v>
       </c>
       <c r="E92">
-        <v>0.1276518501781946</v>
+        <v>0.3978828862796489</v>
       </c>
       <c r="F92">
-        <v>7.520298903632831</v>
+        <v>11.99519996287472</v>
+      </c>
+      <c r="K92">
+        <v>7.393401487509469</v>
+      </c>
+      <c r="L92">
+        <v>6.424083486021664</v>
+      </c>
+      <c r="M92">
+        <v>7.798027432970725</v>
+      </c>
+      <c r="N92">
+        <v>0.133740032276706</v>
+      </c>
+      <c r="O92">
+        <v>0.002335495987668143</v>
+      </c>
+      <c r="P92">
+        <v>0.1339463048071521</v>
+      </c>
+      <c r="Q92">
+        <v>0.004106003328793669</v>
       </c>
       <c r="R92">
-        <v>6.732113570245112</v>
+        <v>0.003439269757096298</v>
       </c>
       <c r="S92">
-        <v>5.254760780289111</v>
+        <v>6.884873411675884E-07</v>
       </c>
       <c r="T92">
-        <v>6.996872661986287</v>
+        <v>0.06476851432738669</v>
       </c>
       <c r="U92">
-        <v>0.000623568211366617</v>
+        <v>0.01298040792520266</v>
       </c>
       <c r="V92">
-        <v>4.345140874009923E-06</v>
+        <v>63.4302874367883</v>
       </c>
       <c r="W92">
-        <v>0.0008339767555577957</v>
-      </c>
-      <c r="X92">
-        <v>0.0001303738621164389</v>
-      </c>
-      <c r="Y92">
-        <v>0.000700415124694889</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26">
+        <v>0.001692660374067495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.686154248765466E-06</v>
+        <v>4.520812942784238E-06</v>
       </c>
       <c r="C93">
-        <v>0.1189278999138019</v>
+        <v>0.4056581748891719</v>
       </c>
       <c r="D93">
-        <v>0.0005752295977818952</v>
+        <v>0.002332145023947184</v>
       </c>
       <c r="E93">
-        <v>0.1297044921893008</v>
+        <v>0.4346073155327741</v>
       </c>
       <c r="F93">
-        <v>7.520245867115627</v>
+        <v>11.99514538901828</v>
+      </c>
+      <c r="K93">
+        <v>7.396294697533367</v>
+      </c>
+      <c r="L93">
+        <v>6.46610228748107</v>
+      </c>
+      <c r="M93">
+        <v>7.805869860989945</v>
+      </c>
+      <c r="N93">
+        <v>0.1483405363088213</v>
+      </c>
+      <c r="O93">
+        <v>0.002735847092338785</v>
+      </c>
+      <c r="P93">
+        <v>0.1483730049714142</v>
+      </c>
+      <c r="Q93">
+        <v>0.004585182756584276</v>
       </c>
       <c r="R93">
-        <v>6.754860292726114</v>
+        <v>0.003821334342624646</v>
       </c>
       <c r="S93">
-        <v>13.31081546822563</v>
+        <v>1.002812829943967E-06</v>
       </c>
       <c r="T93">
-        <v>12.3291320824755</v>
+        <v>0.07052274837207381</v>
       </c>
       <c r="U93">
-        <v>0.0006923707747546845</v>
+        <v>0.0173317119018232</v>
       </c>
       <c r="V93">
-        <v>0.2689294194116601</v>
+        <v>65.38033448048022</v>
       </c>
       <c r="W93">
-        <v>0.0009121548548290577</v>
-      </c>
-      <c r="X93">
-        <v>2.583328724896798E-07</v>
-      </c>
-      <c r="Y93">
-        <v>0.0007782390274387657</v>
-      </c>
-      <c r="Z93">
-        <v>1.271581313544032E-10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26">
+        <v>0.001884597359035748</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.625982050637825E-06</v>
+        <v>2.695564305699772E-06</v>
       </c>
       <c r="C94">
-        <v>0.1200237579722835</v>
+        <v>0.4560739286223251</v>
       </c>
       <c r="D94">
-        <v>0.0005916362445667513</v>
+        <v>0.00427952654719019</v>
       </c>
       <c r="E94">
-        <v>0.1319984618442238</v>
+        <v>0.4772495554893988</v>
       </c>
       <c r="F94">
-        <v>7.520186219361155</v>
+        <v>11.99508403324604</v>
+      </c>
+      <c r="K94">
+        <v>7.39913882883235</v>
+      </c>
+      <c r="L94">
+        <v>6.523125512979966</v>
+      </c>
+      <c r="M94">
+        <v>7.808989862714331</v>
+      </c>
+      <c r="N94">
+        <v>0.1665411224608817</v>
+      </c>
+      <c r="O94">
+        <v>0.003523588887284019</v>
+      </c>
+      <c r="P94">
+        <v>0.166346482748268</v>
+      </c>
+      <c r="Q94">
+        <v>0.005548622919270065</v>
       </c>
       <c r="R94">
-        <v>6.996879283077587</v>
+        <v>0.004298875783848985</v>
       </c>
       <c r="S94">
-        <v>5.193657023622988</v>
+        <v>1.881070206960492E-06</v>
       </c>
       <c r="T94">
-        <v>6.996872899066521</v>
+        <v>0.07717162793085515</v>
       </c>
       <c r="U94">
-        <v>-0.03283726030485851</v>
+        <v>0.02626507103143871</v>
       </c>
       <c r="V94">
-        <v>5.463949600577756E-06</v>
+        <v>68.63430841317923</v>
       </c>
       <c r="W94">
-        <v>0.001026141920073629</v>
-      </c>
-      <c r="X94">
-        <v>0.0001778615771066327</v>
-      </c>
-      <c r="Y94">
-        <v>0.0008755188899738451</v>
-      </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26">
+        <v>0.002124287149357614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.554772223646679E-06</v>
+        <v>8.681538864765613E-07</v>
       </c>
       <c r="C95">
-        <v>0.1211399460258136</v>
+        <v>0.5206159860616302</v>
       </c>
       <c r="D95">
-        <v>0.0006110672396619126</v>
+        <v>0.01445771678318976</v>
       </c>
       <c r="E95">
-        <v>0.1346157782406268</v>
+        <v>0.529075306570135</v>
       </c>
       <c r="F95">
-        <v>7.517985235641645</v>
+        <v>11.99281584860141</v>
+      </c>
+      <c r="K95">
+        <v>7.402371761084615</v>
+      </c>
+      <c r="L95">
+        <v>6.721221670065353</v>
+      </c>
+      <c r="M95">
+        <v>7.805602323651961</v>
+      </c>
+      <c r="N95">
+        <v>0.1898293415428242</v>
+      </c>
+      <c r="O95">
+        <v>0.007081251850095481</v>
+      </c>
+      <c r="P95">
+        <v>0.189317605580982</v>
+      </c>
+      <c r="Q95">
+        <v>0.009456614729552006</v>
       </c>
       <c r="R95">
-        <v>6.996883869571841</v>
+        <v>0.004912732171512132</v>
       </c>
       <c r="S95">
-        <v>13.0527305471001</v>
+        <v>6.897916495411662E-06</v>
       </c>
       <c r="T95">
-        <v>12.05286836061241</v>
+        <v>0.08444399320220038</v>
       </c>
       <c r="U95">
-        <v>-0.03752907805549553</v>
+        <v>0.05068866030828773</v>
       </c>
       <c r="V95">
-        <v>0.1420014163987856</v>
+        <v>75.45946278728816</v>
       </c>
       <c r="W95">
-        <v>0.001147324826211771</v>
-      </c>
-      <c r="X95">
-        <v>6.730935185651706E-07</v>
-      </c>
-      <c r="Y95">
-        <v>0.001000593017112966</v>
-      </c>
-      <c r="Z95">
-        <v>5.594440709104586E-11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
+        <v>0.002432192953350597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.739276858190543E-06</v>
+        <v>1.8330980295914E-07</v>
       </c>
       <c r="C96">
-        <v>0.1222770109200225</v>
+        <v>0.6049756976080372</v>
       </c>
       <c r="D96">
-        <v>0.0005725422728828349</v>
+        <v>0.07129312979710398</v>
       </c>
       <c r="E96">
-        <v>0.1302992938359412</v>
+        <v>0.6071164006231609</v>
       </c>
       <c r="F96">
-        <v>7.576640238741638</v>
+        <v>11.9926214492678</v>
+      </c>
+      <c r="K96">
+        <v>7.406833894697167</v>
+      </c>
+      <c r="L96">
+        <v>7.170077908249203</v>
+      </c>
+      <c r="M96">
+        <v>7.826136807217247</v>
+      </c>
+      <c r="N96">
+        <v>0.2202873564916124</v>
+      </c>
+      <c r="O96">
+        <v>0.0266325917036423</v>
+      </c>
+      <c r="P96">
+        <v>0.2192944373895537</v>
+      </c>
+      <c r="Q96">
+        <v>0.02917551470894284</v>
       </c>
       <c r="R96">
-        <v>6.996860386239281</v>
+        <v>0.00573037121401492</v>
       </c>
       <c r="S96">
-        <v>5.147469526499168</v>
+        <v>3.29510034233587E-05</v>
       </c>
       <c r="T96">
-        <v>6.996844525020425</v>
+        <v>0.0900698820178525</v>
       </c>
       <c r="U96">
-        <v>-0.06745082713120908</v>
+        <v>0.07874782028856331</v>
       </c>
       <c r="V96">
-        <v>6.526284986253357E-06</v>
+        <v>86.27921275861208</v>
       </c>
       <c r="W96">
-        <v>0.001338433448327306</v>
-      </c>
-      <c r="X96">
-        <v>0.0002258863251759336</v>
-      </c>
-      <c r="Y96">
-        <v>0.00116735851064106</v>
-      </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26">
+        <v>0.002842183590488624</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.672016772287381E-06</v>
+        <v>8.118309935909624E-08</v>
       </c>
       <c r="C97">
-        <v>0.1234361010976144</v>
+        <v>0.7117122111702225</v>
       </c>
       <c r="D97">
-        <v>0.0005906995880483205</v>
+        <v>0.1646860443051636</v>
       </c>
       <c r="E97">
-        <v>0.1328630237409627</v>
+        <v>0.7128501893598016</v>
       </c>
       <c r="F97">
-        <v>7.576561100394864</v>
+        <v>11.99238689605692</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0.259018309449206</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0.2573182219256754</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>6.996866658182187</v>
+        <v>0.00686985525613322</v>
       </c>
       <c r="S97">
-        <v>13.15897632099784</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>12.16675937533238</v>
+        <v>0.09233429436371016</v>
       </c>
       <c r="U97">
-        <v>-0.08094229781444817</v>
+        <v>0</v>
       </c>
       <c r="V97">
-        <v>0.1847297917203664</v>
+        <v>85.38047095904321</v>
       </c>
       <c r="W97">
-        <v>0.001560942872957581</v>
-      </c>
-      <c r="X97">
-        <v>6.84303842961134E-07</v>
-      </c>
-      <c r="Y97">
-        <v>0.001400830212769272</v>
-      </c>
-      <c r="Z97">
-        <v>6.169898404710067E-11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>5.587617138597953E-06</v>
-      </c>
-      <c r="C98">
-        <v>0.1246173068813602</v>
-      </c>
-      <c r="D98">
-        <v>0.0006141096783268865</v>
-      </c>
-      <c r="E98">
-        <v>0.1360823198480145</v>
-      </c>
-      <c r="F98">
-        <v>7.576461242062279</v>
-      </c>
-      <c r="R98">
-        <v>6.99687553517442</v>
-      </c>
-      <c r="S98">
-        <v>5.0802562075025</v>
-      </c>
-      <c r="T98">
-        <v>6.996845727172786</v>
-      </c>
-      <c r="U98">
-        <v>-0.1473603201981516</v>
-      </c>
-      <c r="V98">
-        <v>9.214157474900797E-06</v>
-      </c>
-      <c r="W98">
-        <v>0.001951007515236232</v>
-      </c>
-      <c r="X98">
-        <v>0.0003353635059489128</v>
-      </c>
-      <c r="Y98">
-        <v>0.00175103775053684</v>
-      </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>5.470997606491386E-06</v>
-      </c>
-      <c r="C99">
-        <v>0.1258212214173119</v>
-      </c>
-      <c r="D99">
-        <v>0.000647659517043152</v>
-      </c>
-      <c r="E99">
-        <v>0.1405348947150081</v>
-      </c>
-      <c r="F99">
-        <v>7.576326374704908</v>
-      </c>
-      <c r="R99">
-        <v>6.996889573034774</v>
-      </c>
-      <c r="S99">
-        <v>13.26631905631351</v>
-      </c>
-      <c r="T99">
-        <v>12.27823153308738</v>
-      </c>
-      <c r="U99">
-        <v>-0.1964834983166937</v>
-      </c>
-      <c r="V99">
-        <v>0.2409428847245065</v>
-      </c>
-      <c r="W99">
-        <v>0.002489555518332005</v>
-      </c>
-      <c r="X99">
-        <v>8.828060448909908E-07</v>
-      </c>
-      <c r="Y99">
-        <v>0.002334717000715787</v>
-      </c>
-      <c r="Z99">
-        <v>2.048644813655401E-10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>5.278549978121328E-06</v>
-      </c>
-      <c r="C100">
-        <v>0.1270484132006479</v>
-      </c>
-      <c r="D100">
-        <v>0.0007059809576627976</v>
-      </c>
-      <c r="E100">
-        <v>0.1478262244880629</v>
-      </c>
-      <c r="F100">
-        <v>7.574671324499456</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>-0.4151966898372936</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0.003733891874475562</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>0.00350207539864144</v>
-      </c>
-      <c r="Z100">
         <v>0</v>
       </c>
     </row>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AB905-0022-4460-8EC5-5E9385647034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Recovery</t>
   </si>
@@ -84,12 +90,15 @@
   <si>
     <t>SI_Armp_CaPhosphate</t>
   </si>
+  <si>
+    <t>NH4+ Permeability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +135,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -204,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,9 +256,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,14 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="22" max="22" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,5681 +515,5910 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.7012363672545E-06</v>
+        <v>3.3042254766891182E-6</v>
       </c>
       <c r="C2">
-        <v>0.03694686318841234</v>
+        <v>3.6946863188412338E-2</v>
       </c>
       <c r="D2">
-        <v>0.0001741051376761971</v>
+        <v>3.005494087663727E-3</v>
       </c>
       <c r="E2">
-        <v>0.0393614143617341</v>
+        <v>3.8221203784461623E-2</v>
       </c>
       <c r="F2">
         <v>5.6</v>
       </c>
       <c r="G2">
-        <v>19.13417991549236</v>
+        <v>11.28178118819104</v>
       </c>
       <c r="H2">
-        <v>19.10506665755927</v>
+        <v>11.912559366756669</v>
       </c>
       <c r="I2">
-        <v>18.99610741222899</v>
+        <v>9.7034664257782985</v>
       </c>
       <c r="J2">
-        <v>18.61596953414158</v>
+        <v>11.827642185247599</v>
       </c>
       <c r="K2">
-        <v>7.131283102582726</v>
+        <v>8.4326975330242959</v>
       </c>
       <c r="L2">
-        <v>5.31997923383702</v>
+        <v>9.0339973682560899</v>
       </c>
       <c r="M2">
-        <v>7.20517457049348</v>
+        <v>8.486452275016525</v>
       </c>
       <c r="N2">
-        <v>0.01385929047336624</v>
+        <v>1.7514101342140931E-2</v>
       </c>
       <c r="O2">
-        <v>0.0001541157036923304</v>
+        <v>2.6037498544845372E-3</v>
       </c>
       <c r="P2">
-        <v>0.0153214278263131</v>
+        <v>1.532142861191153E-2</v>
       </c>
       <c r="Q2">
-        <v>0.00180541460254988</v>
+        <v>1.303550312375916E-3</v>
       </c>
       <c r="R2">
-        <v>0.0003443183474015728</v>
+        <v>3.4431836505543248E-4</v>
       </c>
       <c r="S2">
-        <v>5.409193326669113E-07</v>
+        <v>7.1898319899154752E-7</v>
       </c>
       <c r="T2">
-        <v>0.01046677910478757</v>
+        <v>1.046677964146964E-2</v>
       </c>
       <c r="U2">
-        <v>0.001988732170605217</v>
+        <v>3.3133573797952771E-3</v>
       </c>
       <c r="V2">
-        <v>27.8641264423497</v>
+        <v>46.423450248311617</v>
       </c>
       <c r="W2">
-        <v>6.063200193860981E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>1.643030387034007E-4</v>
+      </c>
+      <c r="X2">
+        <v>9.6028882731170067E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.689825280167949E-06</v>
+        <v>3.2992965209355119E-6</v>
       </c>
       <c r="C3">
-        <v>0.03731830518892483</v>
+        <v>3.7289705300541119E-2</v>
       </c>
       <c r="D3">
-        <v>0.0001762825340471672</v>
+        <v>3.038299458490715E-3</v>
       </c>
       <c r="E3">
-        <v>0.03977426195266695</v>
+        <v>3.8585288227847681E-2</v>
       </c>
       <c r="F3">
-        <v>5.599985244231278</v>
+        <v>5.5999852442312781</v>
       </c>
       <c r="K3">
-        <v>7.133279212830862</v>
+        <v>8.4300775007549156</v>
       </c>
       <c r="L3">
-        <v>5.36287526012572</v>
+        <v>9.0521881979153633</v>
       </c>
       <c r="M3">
-        <v>7.230375139670566</v>
+        <v>8.5034273550738089</v>
       </c>
       <c r="N3">
-        <v>0.01399772658215082</v>
+        <v>1.7664710953127358E-2</v>
       </c>
       <c r="O3">
-        <v>0.0001624982645415902</v>
+        <v>2.6734299775193178E-3</v>
       </c>
       <c r="P3">
-        <v>0.01545795321241172</v>
+        <v>1.5463023342209869E-2</v>
       </c>
       <c r="Q3">
-        <v>0.001731853172124206</v>
+        <v>1.3128599877464901E-3</v>
       </c>
       <c r="R3">
-        <v>0.0003477908466749961</v>
+        <v>3.4778906588226518E-4</v>
       </c>
       <c r="S3">
-        <v>3.393126802497532E-07</v>
+        <v>5.4257009322944485E-7</v>
       </c>
       <c r="T3">
-        <v>0.01055241594250658</v>
+        <v>1.05390364319916E-2</v>
       </c>
       <c r="U3">
-        <v>0.002035847293686342</v>
+        <v>3.3773319118063009E-3</v>
       </c>
       <c r="V3">
-        <v>28.19419143709451</v>
+        <v>46.871623832314853</v>
       </c>
       <c r="W3">
-        <v>6.308901791523453E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>1.6604915648188399E-4</v>
+      </c>
+      <c r="X3">
+        <v>9.6010542505284407E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.67779503157281E-06</v>
+        <v>3.2938254840305752E-6</v>
       </c>
       <c r="C4">
-        <v>0.03769730542009705</v>
+        <v>3.7639209441786531E-2</v>
       </c>
       <c r="D4">
-        <v>0.00017852560502852</v>
+        <v>3.072214227853831E-3</v>
       </c>
       <c r="E4">
-        <v>0.04019557231799577</v>
+        <v>3.8956389816883152E-2</v>
       </c>
       <c r="F4">
-        <v>5.599970413340205</v>
+        <v>5.5999704133402046</v>
       </c>
       <c r="K4">
-        <v>7.135136694464463</v>
+        <v>8.4272825328148215</v>
       </c>
       <c r="L4">
-        <v>5.369649533984806</v>
+        <v>9.0490562414125115</v>
       </c>
       <c r="M4">
-        <v>7.234584572475491</v>
+        <v>8.5013027602638278</v>
       </c>
       <c r="N4">
-        <v>0.0141389023813101</v>
+        <v>1.7817683207980502E-2</v>
       </c>
       <c r="O4">
-        <v>0.0001650647541335026</v>
+        <v>2.6906024991153062E-3</v>
       </c>
       <c r="P4">
-        <v>0.01559801545772078</v>
+        <v>1.560741276419419E-2</v>
       </c>
       <c r="Q4">
-        <v>0.001732824802447099</v>
+        <v>1.327783724992495E-3</v>
       </c>
       <c r="R4">
-        <v>0.0003513362704912691</v>
+        <v>3.5133239747194922E-4</v>
       </c>
       <c r="S4">
-        <v>3.370594919951001E-07</v>
+        <v>5.5043138946303924E-7</v>
       </c>
       <c r="T4">
-        <v>0.01063931970422924</v>
+        <v>1.0612115049544509E-2</v>
       </c>
       <c r="U4">
-        <v>0.002057618294567017</v>
+        <v>3.398385598999193E-3</v>
       </c>
       <c r="V4">
-        <v>28.4058909331225</v>
+        <v>47.119342764069131</v>
       </c>
       <c r="W4">
-        <v>6.555178165599336E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>1.67829417948431E-4</v>
+      </c>
+      <c r="X4">
+        <v>9.5990977729703763E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.66551396041969E-06</v>
+        <v>3.2882484003150191E-6</v>
       </c>
       <c r="C5">
-        <v>0.03808409696458229</v>
+        <v>3.7995570217187899E-2</v>
       </c>
       <c r="D5">
-        <v>0.0001808257305080687</v>
+        <v>3.1069109742049E-3</v>
       </c>
       <c r="E5">
-        <v>0.04062578035334864</v>
+        <v>3.933490757296533E-2</v>
       </c>
       <c r="F5">
-        <v>5.599955505877826</v>
+        <v>5.5999555058778263</v>
       </c>
       <c r="K5">
-        <v>7.137009279989326</v>
+        <v>8.4244603260673738</v>
       </c>
       <c r="L5">
-        <v>5.376047098662178</v>
+        <v>9.0459112615997732</v>
       </c>
       <c r="M5">
-        <v>7.238550784358756</v>
+        <v>8.4992601344957794</v>
       </c>
       <c r="N5">
-        <v>0.01428296256303357</v>
+        <v>1.7973632493638911E-2</v>
       </c>
       <c r="O5">
-        <v>0.0001676292484588266</v>
+        <v>2.7082236259271262E-3</v>
       </c>
       <c r="P5">
-        <v>0.01574095556756896</v>
+        <v>1.5754625434701418E-2</v>
       </c>
       <c r="Q5">
-        <v>0.00173483948882763</v>
+        <v>1.342997184177066E-3</v>
       </c>
       <c r="R5">
-        <v>0.0003549548190582719</v>
+        <v>3.5494870640063471E-4</v>
       </c>
       <c r="S5">
-        <v>3.373639769973896E-07</v>
+        <v>5.5751381258893722E-7</v>
       </c>
       <c r="T5">
-        <v>0.01072779085278246</v>
+        <v>1.0686483394395501E-2</v>
       </c>
       <c r="U5">
-        <v>0.002079838693294507</v>
+        <v>3.4200981944248199E-3</v>
       </c>
       <c r="V5">
-        <v>28.58957318277921</v>
+        <v>47.319256023573388</v>
       </c>
       <c r="W5">
-        <v>6.805677298561305E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>1.69646164059592E-4</v>
+      </c>
+      <c r="X5">
+        <v>9.5971222282471614E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.652974228762259E-06</v>
+        <v>3.2825621417582278E-6</v>
       </c>
       <c r="C6">
-        <v>0.03847892270660391</v>
+        <v>3.8358993750968969E-2</v>
       </c>
       <c r="D6">
-        <v>0.0001831850929832339</v>
+        <v>3.1424170819799959E-3</v>
       </c>
       <c r="E6">
-        <v>0.04106516731673529</v>
+        <v>3.9721067248369699E-2</v>
       </c>
       <c r="F6">
         <v>5.599940520350005</v>
       </c>
       <c r="K6">
-        <v>7.138898730809396</v>
+        <v>8.4216141642628966</v>
       </c>
       <c r="L6">
-        <v>5.38253541821145</v>
+        <v>9.0427436419318834</v>
       </c>
       <c r="M6">
-        <v>7.242559392511234</v>
+        <v>8.4972165400789788</v>
       </c>
       <c r="N6">
-        <v>0.01442999728506039</v>
+        <v>1.8132647169344238E-2</v>
       </c>
       <c r="O6">
-        <v>0.0001702631974658512</v>
+        <v>2.726271551654013E-3</v>
       </c>
       <c r="P6">
-        <v>0.01588685261005585</v>
+        <v>1.5904746562311049E-2</v>
       </c>
       <c r="Q6">
-        <v>0.001736883494465886</v>
+        <v>1.3585585446925089E-3</v>
       </c>
       <c r="R6">
-        <v>0.0003586487508820352</v>
+        <v>3.5864028132342682E-4</v>
       </c>
       <c r="S6">
-        <v>3.376604595436427E-07</v>
+        <v>5.6472855038114321E-7</v>
       </c>
       <c r="T6">
-        <v>0.01081787368777712</v>
+        <v>1.076217490689519E-2</v>
       </c>
       <c r="U6">
-        <v>0.002102573387294992</v>
+        <v>3.4422926659727691E-3</v>
       </c>
       <c r="V6">
-        <v>28.76348969210139</v>
+        <v>47.501397327447613</v>
       </c>
       <c r="W6">
-        <v>7.060573965534917E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>1.7150061526958259E-4</v>
+      </c>
+      <c r="X6">
+        <v>9.5951299149840275E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.640167652250942E-06</v>
+        <v>3.2767634453285971E-6</v>
       </c>
       <c r="C7">
-        <v>0.0388820357341157</v>
+        <v>3.8729694558010959E-2</v>
       </c>
       <c r="D7">
-        <v>0.0001856059874262541</v>
+        <v>3.17876123506297E-3</v>
       </c>
       <c r="E7">
-        <v>0.04151402629321597</v>
+        <v>4.0115103846701E-2</v>
       </c>
       <c r="F7">
-        <v>5.599925455215496</v>
+        <v>5.5999254552154962</v>
       </c>
       <c r="K7">
-        <v>7.140799585002886</v>
+        <v>8.418739516756423</v>
       </c>
       <c r="L7">
-        <v>5.389089554854877</v>
+        <v>9.0395382408620932</v>
       </c>
       <c r="M7">
-        <v>7.246595592703</v>
+        <v>8.4951584108003573</v>
       </c>
       <c r="N7">
-        <v>0.01458009974914034</v>
+        <v>1.8294819544267302E-2</v>
       </c>
       <c r="O7">
-        <v>0.0001729647303395209</v>
+        <v>2.744720795157576E-3</v>
       </c>
       <c r="P7">
-        <v>0.01603579965337784</v>
+        <v>1.6057864330917559E-2</v>
       </c>
       <c r="Q7">
-        <v>0.001739011490327942</v>
+        <v>1.3744857355338881E-3</v>
       </c>
       <c r="R7">
-        <v>0.000362420446570693</v>
+        <v>3.6240949766840622E-4</v>
       </c>
       <c r="S7">
-        <v>3.379524263681671E-07</v>
+        <v>5.7210601234941199E-7</v>
       </c>
       <c r="T7">
-        <v>0.01090961369094009</v>
+        <v>1.08392262989049E-2</v>
       </c>
       <c r="U7">
-        <v>0.002125837517313607</v>
+        <v>3.464951284579707E-3</v>
       </c>
       <c r="V7">
-        <v>28.93375965259799</v>
+        <v>47.675736514247383</v>
       </c>
       <c r="W7">
-        <v>7.319848409777489E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>1.7339385765294301E-4</v>
+      </c>
+      <c r="X7">
+        <v>9.5931176617294971E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.627085711204886E-06</v>
+        <v>3.2708489222012511E-6</v>
       </c>
       <c r="C8">
-        <v>0.03929369988035708</v>
+        <v>3.91078959763402E-2</v>
       </c>
       <c r="D8">
-        <v>0.0001880908276731047</v>
+        <v>3.215973480611711E-3</v>
       </c>
       <c r="E8">
-        <v>0.04197266282956921</v>
+        <v>4.0517262107869233E-2</v>
       </c>
       <c r="F8">
-        <v>5.599910308883918</v>
+        <v>5.5999103088839179</v>
       </c>
       <c r="K8">
-        <v>7.142717478846142</v>
+        <v>8.4158350443358838</v>
       </c>
       <c r="L8">
-        <v>5.395744351113986</v>
+        <v>9.0362923226856164</v>
       </c>
       <c r="M8">
-        <v>7.250679554528368</v>
+        <v>8.4930844114616679</v>
       </c>
       <c r="N8">
-        <v>0.01473336714295737</v>
+        <v>1.8460246126704639E-2</v>
       </c>
       <c r="O8">
-        <v>0.0001757419143189086</v>
+        <v>2.763581681200662E-3</v>
       </c>
       <c r="P8">
-        <v>0.01618789314447412</v>
+        <v>1.6214070486187601E-2</v>
       </c>
       <c r="Q8">
-        <v>0.001741156504774615</v>
+        <v>1.3907919956504509E-3</v>
       </c>
       <c r="R8">
-        <v>0.0003662723879977603</v>
+        <v>3.6625883162219413E-4</v>
       </c>
       <c r="S8">
-        <v>3.382294108322167E-07</v>
+        <v>5.7965287936424385E-7</v>
       </c>
       <c r="T8">
-        <v>0.0110030581183191</v>
+        <v>1.091767603309985E-2</v>
       </c>
       <c r="U8">
-        <v>0.002149653840418875</v>
+        <v>3.4880865618061338E-3</v>
       </c>
       <c r="V8">
-        <v>29.10305112481382</v>
+        <v>47.846571414707149</v>
       </c>
       <c r="W8">
-        <v>7.583769743493761E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>1.7532712987136301E-4</v>
+      </c>
+      <c r="X8">
+        <v>9.59108453103512E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.613719507517609E-06</v>
+        <v>3.2648150374783329E-6</v>
       </c>
       <c r="C9">
-        <v>0.03971419030027841</v>
+        <v>3.9493830626831913E-2</v>
       </c>
       <c r="D9">
-        <v>0.000190642154974096</v>
+        <v>3.2540853229815628E-3</v>
       </c>
       <c r="E9">
-        <v>0.04244139558305455</v>
+        <v>4.092779700988846E-2</v>
       </c>
       <c r="F9">
-        <v>5.5998950797136</v>
+        <v>5.5998950797136002</v>
       </c>
       <c r="K9">
-        <v>7.144648836033144</v>
+        <v>8.412901596084124</v>
       </c>
       <c r="L9">
-        <v>5.402475608887904</v>
+        <v>9.0330088052664426</v>
       </c>
       <c r="M9">
-        <v>7.254796458288168</v>
+        <v>8.4909974891498692</v>
       </c>
       <c r="N9">
-        <v>0.01488990074756638</v>
+        <v>1.8629027464828331E-2</v>
       </c>
       <c r="O9">
-        <v>0.0001785932369435667</v>
+        <v>2.7828776756495749E-3</v>
       </c>
       <c r="P9">
-        <v>0.01634323439866444</v>
+        <v>1.6373460577483699E-2</v>
       </c>
       <c r="Q9">
-        <v>0.001743375755513752</v>
+        <v>1.407488793185512E-3</v>
       </c>
       <c r="R9">
-        <v>0.0003702071638965445</v>
+        <v>3.7019086580222452E-4</v>
       </c>
       <c r="S9">
-        <v>3.384993519247021E-07</v>
+        <v>5.8736981591041289E-7</v>
       </c>
       <c r="T9">
-        <v>0.01109825601378039</v>
+        <v>1.0997564091930969E-2</v>
       </c>
       <c r="U9">
-        <v>0.002174039316245251</v>
+        <v>3.5117228627675459E-3</v>
       </c>
       <c r="V9">
-        <v>29.27272784170112</v>
+        <v>48.016093616648263</v>
       </c>
       <c r="W9">
-        <v>7.852369374651424E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>1.7730178377986969E-4</v>
+      </c>
+      <c r="X9">
+        <v>9.5890311172588881E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.600059793973891E-06</v>
+        <v>3.2586581296275141E-6</v>
       </c>
       <c r="C10">
-        <v>0.04014379408446649</v>
+        <v>3.9887740901873747E-2</v>
       </c>
       <c r="D10">
-        <v>0.0001932626448752121</v>
+        <v>3.2931297888131269E-3</v>
       </c>
       <c r="E10">
-        <v>0.0429205570484571</v>
+        <v>4.134697432155935E-2</v>
       </c>
       <c r="F10">
         <v>5.599879766009324</v>
       </c>
       <c r="K10">
-        <v>7.146595777545543</v>
+        <v>8.4099393718554669</v>
       </c>
       <c r="L10">
-        <v>5.409292101264826</v>
+        <v>9.0296929057569209</v>
       </c>
       <c r="M10">
-        <v>7.258951503254788</v>
+        <v>8.4889025718407982</v>
       </c>
       <c r="N10">
-        <v>0.01504980626398619</v>
+        <v>1.8801268223406359E-2</v>
       </c>
       <c r="O10">
-        <v>0.0001815226947158355</v>
+        <v>2.8026397743812349E-3</v>
       </c>
       <c r="P10">
-        <v>0.01650192851435086</v>
+        <v>1.6536134183834761E-2</v>
       </c>
       <c r="Q10">
-        <v>0.001745655597309046</v>
+        <v>1.424588900025344E-3</v>
       </c>
       <c r="R10">
-        <v>0.0003742274754676816</v>
+        <v>3.7420829510642362E-4</v>
       </c>
       <c r="S10">
-        <v>3.387595980065169E-07</v>
+        <v>5.9525587750610364E-7</v>
       </c>
       <c r="T10">
-        <v>0.01119525836918838</v>
+        <v>1.107893193137839E-2</v>
       </c>
       <c r="U10">
-        <v>0.00219901556787795</v>
+        <v>3.5358897198402629E-3</v>
       </c>
       <c r="V10">
-        <v>29.44358109501632</v>
+        <v>48.185566644207562</v>
       </c>
       <c r="W10">
-        <v>8.125849053223193E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>1.7931910987679291E-4</v>
+      </c>
+      <c r="X10">
+        <v>9.5869575602988278E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.586096892153356E-06</v>
+        <v>3.2523743696156651E-6</v>
       </c>
       <c r="C11">
-        <v>0.040582810913473</v>
+        <v>4.028987948553376E-2</v>
       </c>
       <c r="D11">
-        <v>0.0001959551182152876</v>
+        <v>3.3331415508312829E-3</v>
       </c>
       <c r="E11">
-        <v>0.04341049427589241</v>
+        <v>4.1775071161557077E-2</v>
       </c>
       <c r="F11">
-        <v>5.599864366019943</v>
+        <v>5.5998643660199434</v>
       </c>
       <c r="K11">
-        <v>7.148556213241379</v>
+        <v>8.4069440099093864</v>
       </c>
       <c r="L11">
-        <v>5.416194598852066</v>
+        <v>9.0263294134995409</v>
       </c>
       <c r="M11">
-        <v>7.263144641148191</v>
+        <v>8.4867873767783166</v>
       </c>
       <c r="N11">
-        <v>0.01521319399551664</v>
+        <v>1.8977077327241802E-2</v>
       </c>
       <c r="O11">
-        <v>0.0001845331028476883</v>
+        <v>2.8228470778248432E-3</v>
       </c>
       <c r="P11">
-        <v>0.01666408535959307</v>
+        <v>1.6702195121019489E-2</v>
       </c>
       <c r="Q11">
-        <v>0.001748000248614697</v>
+        <v>1.44211124694417E-3</v>
       </c>
       <c r="R11">
-        <v>0.0003783361426750407</v>
+        <v>3.7831393290014789E-4</v>
       </c>
       <c r="S11">
-        <v>3.390101559857626E-07</v>
+        <v>6.0333386371409147E-7</v>
       </c>
       <c r="T11">
-        <v>0.01129411818019179</v>
+        <v>1.116182250513156E-2</v>
       </c>
       <c r="U11">
-        <v>0.002224604395635947</v>
+        <v>3.5605742589130251E-3</v>
       </c>
       <c r="V11">
-        <v>29.61611620424022</v>
+        <v>48.355730573949842</v>
       </c>
       <c r="W11">
-        <v>8.404296346488974E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>1.8138048474796139E-4</v>
+      </c>
+      <c r="X11">
+        <v>9.5848608069365701E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.571820690497996E-06</v>
+        <v>3.2459597637621041E-6</v>
       </c>
       <c r="C12">
-        <v>0.04103155375564253</v>
+        <v>4.0700509907030447E-2</v>
       </c>
       <c r="D12">
-        <v>0.0001987225503483615</v>
+        <v>3.374157020605232E-3</v>
       </c>
       <c r="E12">
-        <v>0.04391156967626744</v>
+        <v>4.2212376614576858E-2</v>
       </c>
       <c r="F12">
-        <v>5.599848877935857</v>
+        <v>5.5998488779358571</v>
       </c>
       <c r="K12">
-        <v>7.150536115640767</v>
+        <v>8.4039213658659104</v>
       </c>
       <c r="L12">
-        <v>5.423204412465554</v>
+        <v>9.0229350890898914</v>
       </c>
       <c r="M12">
-        <v>7.267388383729402</v>
+        <v>8.4846679408718053</v>
       </c>
       <c r="N12">
-        <v>0.01538017911654629</v>
+        <v>1.9156568774457549E-2</v>
       </c>
       <c r="O12">
-        <v>0.0001876311382630416</v>
+        <v>2.8435642471562588E-3</v>
       </c>
       <c r="P12">
-        <v>0.01682981963860394</v>
+        <v>1.6871751608509209E-2</v>
       </c>
       <c r="Q12">
-        <v>0.001750370569768185</v>
+        <v>1.460066793075743E-3</v>
       </c>
       <c r="R12">
-        <v>0.0003825361108141413</v>
+        <v>3.8251071733388611E-4</v>
       </c>
       <c r="S12">
-        <v>3.39244929540226E-07</v>
+        <v>6.1158684213579676E-7</v>
       </c>
       <c r="T12">
-        <v>0.01139489055557575</v>
+        <v>1.1246280818978429E-2</v>
       </c>
       <c r="U12">
-        <v>0.002250831206210088</v>
+        <v>3.5858342189574728E-3</v>
       </c>
       <c r="V12">
-        <v>29.79068709751015</v>
+        <v>48.527129907391974</v>
       </c>
       <c r="W12">
-        <v>8.687985143123492E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>1.8348748582838051E-4</v>
+      </c>
+      <c r="X12">
+        <v>9.5827449561061368E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.557220683814382E-06</v>
+        <v>3.2394101794292552E-6</v>
       </c>
       <c r="C13">
-        <v>0.04149034961188178</v>
+        <v>4.1119907130473428E-2</v>
       </c>
       <c r="D13">
-        <v>0.0002015680796731516</v>
+        <v>3.416214426567137E-3</v>
       </c>
       <c r="E13">
-        <v>0.04442416190345456</v>
+        <v>4.2659192400094303E-2</v>
       </c>
       <c r="F13">
-        <v>5.599833299886311</v>
+        <v>5.5998332998863107</v>
       </c>
       <c r="K13">
-        <v>7.15252973062068</v>
+        <v>8.4008640016720957</v>
       </c>
       <c r="L13">
-        <v>5.430306336599111</v>
+        <v>9.0194934370262541</v>
       </c>
       <c r="M13">
-        <v>7.27167288259269</v>
+        <v>8.4825287183186369</v>
       </c>
       <c r="N13">
-        <v>0.01555088190281914</v>
+        <v>1.9339860960157561E-2</v>
       </c>
       <c r="O13">
-        <v>0.0001908170040810907</v>
+        <v>2.8647661656139079E-3</v>
       </c>
       <c r="P13">
-        <v>0.01699925165061333</v>
+        <v>1.704491660643543E-2</v>
       </c>
       <c r="Q13">
-        <v>0.001752806191790887</v>
+        <v>1.4784761699584851E-3</v>
       </c>
       <c r="R13">
-        <v>0.0003868304576218334</v>
+        <v>3.8680171880008557E-4</v>
       </c>
       <c r="S13">
-        <v>3.394685388272973E-07</v>
+        <v>6.2004348612341967E-7</v>
       </c>
       <c r="T13">
-        <v>0.01149763279545626</v>
+        <v>1.133235325268653E-2</v>
       </c>
       <c r="U13">
-        <v>0.002277718016866864</v>
+        <v>3.611653909733266E-3</v>
       </c>
       <c r="V13">
-        <v>29.96755543391111</v>
+        <v>48.700109325882039</v>
       </c>
       <c r="W13">
-        <v>8.976965581433929E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>1.8564154941255959E-4</v>
+      </c>
+      <c r="X13">
+        <v>9.5806048011704681E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.542285827905475E-06</v>
+        <v>3.2327212706788959E-6</v>
       </c>
       <c r="C14">
-        <v>0.04195954031111143</v>
+        <v>4.1548358183926909E-2</v>
       </c>
       <c r="D14">
-        <v>0.0002044950231122126</v>
+        <v>3.459353991482826E-3</v>
       </c>
       <c r="E14">
-        <v>0.04494866669591199</v>
+        <v>4.3115833534300103E-2</v>
       </c>
       <c r="F14">
-        <v>5.599817629936645</v>
+        <v>5.5998176299366449</v>
       </c>
       <c r="K14">
-        <v>7.154539410897133</v>
+        <v>8.3977774131662724</v>
       </c>
       <c r="L14">
-        <v>5.437496009187422</v>
+        <v>9.0160103630779389</v>
       </c>
       <c r="M14">
-        <v>7.275995793972415</v>
+        <v>8.480377344832366</v>
       </c>
       <c r="N14">
-        <v>0.01572542809485025</v>
+        <v>1.9527077946459189E-2</v>
       </c>
       <c r="O14">
-        <v>0.0001940932334137953</v>
+        <v>2.886492317169189E-3</v>
       </c>
       <c r="P14">
-        <v>0.01717250671264541</v>
+        <v>1.7221807975031759E-2</v>
       </c>
       <c r="Q14">
-        <v>0.001755321190312387</v>
+        <v>1.497355184095608E-3</v>
       </c>
       <c r="R14">
-        <v>0.0003912224006795949</v>
+        <v>3.9119014692865341E-4</v>
       </c>
       <c r="S14">
-        <v>3.396830122824806E-07</v>
+        <v>6.286989847585318E-7</v>
       </c>
       <c r="T14">
-        <v>0.01160240455430387</v>
+        <v>1.1420088472492819E-2</v>
       </c>
       <c r="U14">
-        <v>0.002305289567351312</v>
+        <v>3.6380706847926329E-3</v>
       </c>
       <c r="V14">
-        <v>30.14692902577635</v>
+        <v>48.874947713478001</v>
       </c>
       <c r="W14">
-        <v>9.271425306400503E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1.878443335302456E-4</v>
+      </c>
+      <c r="X14">
+        <v>9.5784441892163912E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.527004620643991E-06</v>
+        <v>3.225888527016193E-6</v>
       </c>
       <c r="C15">
-        <v>0.04243948336039877</v>
+        <v>4.1986162829817077E-2</v>
       </c>
       <c r="D15">
-        <v>0.0002075068850275084</v>
+        <v>3.5036180059163521E-3</v>
       </c>
       <c r="E15">
-        <v>0.04548549789815345</v>
+        <v>4.3582629099295472E-2</v>
       </c>
       <c r="F15">
-        <v>5.599801866085219</v>
+        <v>5.5998018660852189</v>
       </c>
       <c r="K15">
-        <v>7.15656490371611</v>
+        <v>8.3946568133145441</v>
       </c>
       <c r="L15">
-        <v>5.444783219847299</v>
+        <v>9.0124858994245258</v>
       </c>
       <c r="M15">
-        <v>7.280362103829487</v>
+        <v>8.4782140516613129</v>
       </c>
       <c r="N15">
-        <v>0.01590394918521159</v>
+        <v>1.9718349045646431E-2</v>
       </c>
       <c r="O15">
-        <v>0.0001974648043771743</v>
+        <v>2.9087630994373819E-3</v>
       </c>
       <c r="P15">
-        <v>0.01734971574163774</v>
+        <v>1.740254881170919E-2</v>
       </c>
       <c r="Q15">
-        <v>0.001757903402439242</v>
+        <v>1.5167205451948711E-3</v>
       </c>
       <c r="R15">
-        <v>0.0003957153054803686</v>
+        <v>3.9567935897398548E-4</v>
       </c>
       <c r="S15">
-        <v>3.398859171295531E-07</v>
+        <v>6.3755989815882064E-7</v>
       </c>
       <c r="T15">
-        <v>0.01170926794495849</v>
+        <v>1.1509536952811209E-2</v>
       </c>
       <c r="U15">
-        <v>0.002333573486139081</v>
+        <v>3.6651070060844532E-3</v>
       </c>
       <c r="V15">
-        <v>30.32898396067052</v>
+        <v>49.051866752675949</v>
       </c>
       <c r="W15">
-        <v>9.571539268291699E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>1.9009753237289999E-4</v>
+      </c>
+      <c r="X15">
+        <v>9.5762597693201803E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.511365036529408E-06</v>
+        <v>3.2189072431406599E-6</v>
       </c>
       <c r="C16">
-        <v>0.04293055285429844</v>
+        <v>4.2433634281257779E-2</v>
       </c>
       <c r="D16">
-        <v>0.0002106073719653068</v>
+        <v>3.5490509830436042E-3</v>
       </c>
       <c r="E16">
-        <v>0.0460350884728313</v>
+        <v>4.4059923024158981E-2</v>
       </c>
       <c r="F16">
-        <v>5.599786006260305</v>
+        <v>5.5997860062603051</v>
       </c>
       <c r="K16">
-        <v>7.158606339379174</v>
+        <v>8.3915025456680752</v>
       </c>
       <c r="L16">
-        <v>5.452176486380262</v>
+        <v>9.0089198601974498</v>
       </c>
       <c r="M16">
-        <v>7.284776466459457</v>
+        <v>8.4760389526767845</v>
       </c>
       <c r="N16">
-        <v>0.01608658272452361</v>
+        <v>1.9913809347346541E-2</v>
       </c>
       <c r="O16">
-        <v>0.0002009366811477929</v>
+        <v>2.9316003052461529E-3</v>
       </c>
       <c r="P16">
-        <v>0.01753101588511679</v>
+        <v>1.7587267745040751E-2</v>
       </c>
       <c r="Q16">
-        <v>0.0017605404314197</v>
+        <v>1.536591084143987E-3</v>
       </c>
       <c r="R16">
-        <v>0.0004003126940799411</v>
+        <v>4.0027286826556488E-4</v>
       </c>
       <c r="S16">
-        <v>3.400746620712165E-07</v>
+        <v>6.4663325791597489E-7</v>
       </c>
       <c r="T16">
-        <v>0.01181828764796802</v>
+        <v>1.1600751254517341E-2</v>
       </c>
       <c r="U16">
-        <v>0.002362598699516367</v>
+        <v>3.6927864963363969E-3</v>
       </c>
       <c r="V16">
-        <v>30.51387638855407</v>
+        <v>49.231051075842167</v>
       </c>
       <c r="W16">
-        <v>9.877498340730318E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>1.9240283012340829E-4</v>
+      </c>
+      <c r="X16">
+        <v>9.5740517819676541E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.495354462120313E-06</v>
+        <v>3.2117724894701151E-6</v>
       </c>
       <c r="C17">
-        <v>0.04343314044820824</v>
+        <v>4.2891099967119123E-2</v>
       </c>
       <c r="D17">
-        <v>0.0002138004085994383</v>
+        <v>3.5956998244435819E-3</v>
       </c>
       <c r="E17">
-        <v>0.04659789158112489</v>
+        <v>4.4548074918558542E-2</v>
       </c>
       <c r="F17">
-        <v>5.599770048316739</v>
+        <v>5.5997700483167394</v>
       </c>
       <c r="K17">
-        <v>7.160665746536331</v>
+        <v>8.3883142990621327</v>
       </c>
       <c r="L17">
-        <v>5.45967710293228</v>
+        <v>9.0053085397576922</v>
       </c>
       <c r="M17">
-        <v>7.289239170542372</v>
+        <v>8.4738499466946173</v>
       </c>
       <c r="N17">
-        <v>0.01627347267797509</v>
+        <v>2.011360004195948E-2</v>
       </c>
       <c r="O17">
-        <v>0.000204512964500925</v>
+        <v>2.9550209149928649E-3</v>
       </c>
       <c r="P17">
-        <v>0.01771655089045441</v>
+        <v>1.777609923516895E-2</v>
       </c>
       <c r="Q17">
-        <v>0.001763238487626128</v>
+        <v>1.556988491170212E-3</v>
       </c>
       <c r="R17">
-        <v>0.0004050182543083867</v>
+        <v>4.0497435338330201E-4</v>
       </c>
       <c r="S17">
-        <v>3.402493217167154E-07</v>
+        <v>6.559297152708418E-7</v>
       </c>
       <c r="T17">
-        <v>0.01192953104736157</v>
+        <v>1.1693786134025349E-2</v>
       </c>
       <c r="U17">
-        <v>0.002392394840614558</v>
+        <v>3.721128250763654E-3</v>
       </c>
       <c r="V17">
-        <v>30.70174937126011</v>
+        <v>49.412655878692632</v>
       </c>
       <c r="W17">
-        <v>0.0001018951614293365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>1.947621054372483E-4</v>
+      </c>
+      <c r="X17">
+        <v>9.5718200093434939E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.478959725442248E-06</v>
+        <v>3.20447913401183E-6</v>
       </c>
       <c r="C18">
-        <v>0.04394765640106073</v>
+        <v>4.3358902349770023E-2</v>
       </c>
       <c r="D18">
-        <v>0.0002170901515822634</v>
+        <v>3.643613947376043E-3</v>
       </c>
       <c r="E18">
-        <v>0.0471743817942737</v>
+        <v>4.5047460992627852E-2</v>
       </c>
       <c r="F18">
         <v>5.599753990032311</v>
       </c>
       <c r="K18">
-        <v>7.162741472764227</v>
+        <v>8.3850925233003863</v>
       </c>
       <c r="L18">
-        <v>5.467276486155463</v>
+        <v>9.0016504054636339</v>
       </c>
       <c r="M18">
-        <v>7.293745285389356</v>
+        <v>8.4716472445852524</v>
       </c>
       <c r="N18">
-        <v>0.01646476981742121</v>
+        <v>2.0317868841090041E-2</v>
       </c>
       <c r="O18">
-        <v>0.0002081958428072564</v>
+        <v>2.9790483156277819E-3</v>
       </c>
       <c r="P18">
-        <v>0.01790647127620236</v>
+        <v>1.7969183886883219E-2</v>
       </c>
       <c r="Q18">
-        <v>0.001766020858166295</v>
+        <v>1.5779333898187451E-3</v>
       </c>
       <c r="R18">
-        <v>0.000409835849605847</v>
+        <v>4.0978766795077851E-4</v>
       </c>
       <c r="S18">
-        <v>3.404127480086349E-07</v>
+        <v>6.6545654430656657E-7</v>
       </c>
       <c r="T18">
-        <v>0.01204306838315618</v>
+        <v>1.1788698727873701E-2</v>
       </c>
       <c r="U18">
-        <v>0.002422991693260286</v>
+        <v>3.750157978552555E-3</v>
       </c>
       <c r="V18">
-        <v>30.89273685614303</v>
+        <v>49.596821029210709</v>
       </c>
       <c r="W18">
-        <v>0.0001050775371675061</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>1.971772913912418E-4</v>
+      </c>
+      <c r="X18">
+        <v>9.5695647663102704E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.462167011333578E-06</v>
+        <v>3.1970218028944191E-6</v>
       </c>
       <c r="C19">
-        <v>0.04447453069322312</v>
+        <v>4.3837399800401279E-2</v>
       </c>
       <c r="D19">
-        <v>0.0002204810087673195</v>
+        <v>3.6928454835521412E-3</v>
       </c>
       <c r="E19">
-        <v>0.04776505632319297</v>
+        <v>4.5558475007085403E-2</v>
       </c>
       <c r="F19">
-        <v>5.599737829104027</v>
+        <v>5.5997378291040274</v>
       </c>
       <c r="K19">
-        <v>7.164833425137733</v>
+        <v>8.381831602702956</v>
       </c>
       <c r="L19">
-        <v>5.474985011979187</v>
+        <v>8.9979425440165244</v>
       </c>
       <c r="M19">
-        <v>7.298299619992831</v>
+        <v>8.4694288189429692</v>
       </c>
       <c r="N19">
-        <v>0.01666063215446476</v>
+        <v>2.0526770293204041E-2</v>
       </c>
       <c r="O19">
-        <v>0.0002119913141177056</v>
+        <v>3.0037002604042279E-3</v>
       </c>
       <c r="P19">
-        <v>0.01810093453425099</v>
+        <v>1.8166668832630978E-2</v>
       </c>
       <c r="Q19">
-        <v>0.001768876798837633</v>
+        <v>1.5994485127725621E-3</v>
       </c>
       <c r="R19">
-        <v>0.0004147695295679897</v>
+        <v>4.1471685122073602E-4</v>
       </c>
       <c r="S19">
-        <v>3.405627231334784E-07</v>
+        <v>6.7522529574268428E-7</v>
       </c>
       <c r="T19">
-        <v>0.01215897292158866</v>
+        <v>1.1885548616419739E-2</v>
       </c>
       <c r="U19">
-        <v>0.002454423263798652</v>
+        <v>3.779896186553213E-3</v>
       </c>
       <c r="V19">
-        <v>31.0869694946397</v>
+        <v>49.783671275909953</v>
       </c>
       <c r="W19">
-        <v>0.0001083241627713924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>1.9965035317763991E-4</v>
+      </c>
+      <c r="X19">
+        <v>9.5672821218920698E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.444961851839921E-06</v>
+        <v>3.189394882016123E-6</v>
       </c>
       <c r="C20">
-        <v>0.04501421422596038</v>
+        <v>4.4326967535972608E-2</v>
       </c>
       <c r="D20">
-        <v>0.0002239776572668331</v>
+        <v>3.7434494513530572E-3</v>
       </c>
       <c r="E20">
-        <v>0.04837043638140352</v>
+        <v>4.6081529313876123E-2</v>
       </c>
       <c r="F20">
         <v>5.599721563144092</v>
       </c>
       <c r="K20">
-        <v>7.16694206854284</v>
+        <v>8.3785366372644958</v>
       </c>
       <c r="L20">
-        <v>5.482794371419075</v>
+        <v>8.994189137403156</v>
       </c>
       <c r="M20">
-        <v>7.302897272584127</v>
+        <v>8.4671987308688799</v>
       </c>
       <c r="N20">
-        <v>0.01686122533544459</v>
+        <v>2.0740466269213789E-2</v>
       </c>
       <c r="O20">
-        <v>0.0002159020475885155</v>
+        <v>3.029015244721552E-3</v>
       </c>
       <c r="P20">
-        <v>0.01830010597004871</v>
+        <v>1.8368708104824379E-2</v>
       </c>
       <c r="Q20">
-        <v>0.001771830419129819</v>
+        <v>1.621556005455679E-3</v>
       </c>
       <c r="R20">
-        <v>0.0004198235413587806</v>
+        <v>4.1976613934177251E-4</v>
       </c>
       <c r="S20">
-        <v>3.407024707261128E-07</v>
+        <v>6.8523816363966517E-7</v>
       </c>
       <c r="T20">
-        <v>0.01227732108814707</v>
+        <v>1.1984398036296161E-2</v>
       </c>
       <c r="U20">
-        <v>0.002486722891321825</v>
+        <v>3.810381607152765E-3</v>
       </c>
       <c r="V20">
-        <v>31.28457501756972</v>
+        <v>49.973333666536647</v>
       </c>
       <c r="W20">
-        <v>0.0001116371640717678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>2.021834263667945E-4</v>
+      </c>
+      <c r="X20">
+        <v>9.5649756460851474E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.427329097101861E-06</v>
+        <v>3.181592508541892E-6</v>
       </c>
       <c r="C21">
-        <v>0.0455671801095245</v>
+        <v>4.4827998623437053E-2</v>
       </c>
       <c r="D21">
-        <v>0.0002275850638051746</v>
+        <v>3.7954839519724229E-3</v>
       </c>
       <c r="E21">
-        <v>0.04899106863489116</v>
+        <v>4.6617055965754113E-2</v>
       </c>
       <c r="F21">
-        <v>5.599705189675626</v>
+        <v>5.5997051896756256</v>
       </c>
       <c r="K21">
-        <v>7.16906692076814</v>
+        <v>8.3752046634882724</v>
       </c>
       <c r="L21">
-        <v>5.490722051340241</v>
+        <v>8.9903882101837933</v>
       </c>
       <c r="M21">
-        <v>7.307548026701324</v>
+        <v>8.4649566819098503</v>
       </c>
       <c r="N21">
-        <v>0.01706672315381319</v>
+        <v>2.0959126158405051E-2</v>
       </c>
       <c r="O21">
-        <v>0.0002199360349163006</v>
+        <v>3.055019089188643E-3</v>
       </c>
       <c r="P21">
-        <v>0.01850415875462796</v>
+        <v>1.8575463069014111E-2</v>
       </c>
       <c r="Q21">
-        <v>0.001774853993994438</v>
+        <v>1.6442800227359879E-3</v>
       </c>
       <c r="R21">
-        <v>0.00042500234183888</v>
+        <v>4.2493997762792218E-4</v>
       </c>
       <c r="S21">
-        <v>3.408265195078756E-07</v>
+        <v>6.955048057452898E-7</v>
       </c>
       <c r="T21">
-        <v>0.01239819267082392</v>
+        <v>1.2085311819372011E-2</v>
       </c>
       <c r="U21">
-        <v>0.002519929343765394</v>
+        <v>3.8416425560237779E-3</v>
       </c>
       <c r="V21">
-        <v>31.48568276846608</v>
+        <v>50.165929675832267</v>
       </c>
       <c r="W21">
-        <v>0.0001150188376644539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>2.0477884016891119E-4</v>
+      </c>
+      <c r="X21">
+        <v>9.5626432644417903E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.409252831860312E-06</v>
+        <v>3.1736085338224439E-6</v>
       </c>
       <c r="C22">
-        <v>0.046133925047596</v>
+        <v>4.5340905056830347E-2</v>
       </c>
       <c r="D22">
-        <v>0.0002313085090013597</v>
+        <v>3.8490104114649181E-3</v>
       </c>
       <c r="E22">
-        <v>0.04962752672254229</v>
+        <v>4.7165507888757473E-2</v>
       </c>
       <c r="F22">
-        <v>5.599688706128156</v>
+        <v>5.5996887061281564</v>
       </c>
       <c r="K22">
-        <v>7.17121037539717</v>
+        <v>8.3718324430937461</v>
       </c>
       <c r="L22">
-        <v>5.4987648498071</v>
+        <v>8.9865336055530776</v>
       </c>
       <c r="M22">
-        <v>7.312249137189543</v>
+        <v>8.4626979885604978</v>
       </c>
       <c r="N22">
-        <v>0.0172773079927994</v>
+        <v>2.1182927496770261E-2</v>
       </c>
       <c r="O22">
-        <v>0.0002240973860274589</v>
+        <v>3.0817281640095799E-3</v>
       </c>
       <c r="P22">
-        <v>0.01871327506413588</v>
+        <v>1.8787102857092591E-2</v>
       </c>
       <c r="Q22">
-        <v>0.001777963703987246</v>
+        <v>1.6676494479607371E-3</v>
       </c>
       <c r="R22">
-        <v>0.0004303106107803721</v>
+        <v>4.3024303353819947E-4</v>
       </c>
       <c r="S22">
-        <v>3.40936844947199E-07</v>
+        <v>7.0604221947812865E-7</v>
       </c>
       <c r="T22">
-        <v>0.01252167096241216</v>
+        <v>1.218835768516386E-2</v>
       </c>
       <c r="U22">
-        <v>0.002554080684822009</v>
+        <v>3.8736987442260971E-3</v>
       </c>
       <c r="V22">
-        <v>31.69042284973156</v>
+        <v>50.361570791523683</v>
       </c>
       <c r="W22">
-        <v>0.0001184719474167088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>2.0743875306811311E-4</v>
+      </c>
+      <c r="X22">
+        <v>9.5602827101656224E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.390716360621869E-06</v>
+        <v>3.1654365237466589E-6</v>
       </c>
       <c r="C23">
-        <v>0.04671497082656555</v>
+        <v>4.5866118913100801E-2</v>
       </c>
       <c r="D23">
-        <v>0.0002351536111039792</v>
+        <v>3.9040938022625198E-3</v>
       </c>
       <c r="E23">
-        <v>0.05028041293354902</v>
+        <v>4.7727360163307732E-2</v>
       </c>
       <c r="F23">
-        <v>5.599672109832753</v>
+        <v>5.5996721098327527</v>
       </c>
       <c r="K23">
-        <v>7.173370425252869</v>
+        <v>8.3684221301498365</v>
       </c>
       <c r="L23">
-        <v>5.506918979117087</v>
+        <v>8.9826253343434352</v>
       </c>
       <c r="M23">
-        <v>7.316998377774003</v>
+        <v>8.4604248122463073</v>
       </c>
       <c r="N23">
-        <v>0.01749317141820157</v>
+        <v>2.141205660224824E-2</v>
       </c>
       <c r="O23">
-        <v>0.0002283903305830751</v>
+        <v>3.1091769132960611E-3</v>
       </c>
       <c r="P23">
-        <v>0.01892764609401117</v>
+        <v>1.9003804798980339E-2</v>
       </c>
       <c r="Q23">
-        <v>0.001781176068298306</v>
+        <v>1.6916907442933041E-3</v>
       </c>
       <c r="R23">
-        <v>0.0004357532648808206</v>
+        <v>4.3568021064349969E-4</v>
       </c>
       <c r="S23">
-        <v>3.41035072171792E-07</v>
+        <v>7.1685682288322808E-7</v>
       </c>
       <c r="T23">
-        <v>0.01264784299124241</v>
+        <v>1.2293606532517499E-2</v>
       </c>
       <c r="U23">
-        <v>0.002589217019490048</v>
+        <v>3.9065867570692789E-3</v>
       </c>
       <c r="V23">
-        <v>31.89892725020172</v>
+        <v>50.560371530695228</v>
       </c>
       <c r="W23">
-        <v>0.0001219985119921895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>2.1016575019109149E-4</v>
+      </c>
+      <c r="X23">
+        <v>9.5578954911048858E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.371702156436648E-06</v>
+        <v>3.1570697402124758E-6</v>
       </c>
       <c r="C24">
-        <v>0.04731086591907146</v>
+        <v>4.6404093594008988E-2</v>
       </c>
       <c r="D24">
-        <v>0.0002391263533481385</v>
+        <v>3.9608029033204751E-3</v>
       </c>
       <c r="E24">
-        <v>0.05095035998702471</v>
+        <v>4.8303111389202708E-2</v>
       </c>
       <c r="F24">
-        <v>5.599655398016912</v>
+        <v>5.5996553980169121</v>
       </c>
       <c r="K24">
-        <v>7.175549022491239</v>
+        <v>8.364970552277553</v>
       </c>
       <c r="L24">
-        <v>5.515202237920009</v>
+        <v>8.9786648264922224</v>
       </c>
       <c r="M24">
-        <v>7.321804947035811</v>
+        <v>8.4581384519114184</v>
       </c>
       <c r="N24">
-        <v>0.01771451476547873</v>
+        <v>2.1646708905952761E-2</v>
       </c>
       <c r="O24">
-        <v>0.0002328239273024843</v>
+        <v>3.1374014237534509E-3</v>
       </c>
       <c r="P24">
-        <v>0.01914747263280236</v>
+        <v>1.9225754979168629E-2</v>
       </c>
       <c r="Q24">
-        <v>0.001784465131870759</v>
+        <v>1.7164313910744821E-3</v>
       </c>
       <c r="R24">
-        <v>0.0004413354729552904</v>
+        <v>4.4125666389761018E-4</v>
       </c>
       <c r="S24">
-        <v>3.411166247055079E-07</v>
+        <v>7.2795735563934529E-7</v>
       </c>
       <c r="T24">
-        <v>0.01277679973447001</v>
+        <v>1.2401132427074531E-2</v>
       </c>
       <c r="U24">
-        <v>0.002625384064274382</v>
+        <v>3.9403447121068346E-3</v>
       </c>
       <c r="V24">
-        <v>32.11133285343418</v>
+        <v>50.762449714635821</v>
       </c>
       <c r="W24">
-        <v>0.0001256014805051961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>2.1296234660579531E-4</v>
+      </c>
+      <c r="X24">
+        <v>9.5554793865942874E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.352191804640292E-06</v>
+        <v>3.1485011206766801E-6</v>
       </c>
       <c r="C25">
-        <v>0.0479221872121328</v>
+        <v>4.6955305161420532E-2</v>
       </c>
       <c r="D25">
-        <v>0.0002432331140502086</v>
+        <v>4.0192105840117917E-3</v>
       </c>
       <c r="E25">
-        <v>0.0516380329417906</v>
+        <v>4.8893285151375983E-2</v>
       </c>
       <c r="F25">
-        <v>5.599638567799045</v>
+        <v>5.5996385677990448</v>
       </c>
       <c r="K25">
-        <v>7.177744772066014</v>
+        <v>8.3614765432383891</v>
       </c>
       <c r="L25">
-        <v>5.523606595811446</v>
+        <v>8.9746448872699514</v>
       </c>
       <c r="M25">
-        <v>7.32666390399059</v>
+        <v>8.4558338850305201</v>
       </c>
       <c r="N25">
-        <v>0.01794154971142908</v>
+        <v>2.1887089522604701E-2</v>
       </c>
       <c r="O25">
-        <v>0.0002374021078292131</v>
+        <v>3.1664226883652519E-3</v>
       </c>
       <c r="P25">
-        <v>0.01937296623671057</v>
+        <v>1.945314879200102E-2</v>
       </c>
       <c r="Q25">
-        <v>0.001787856701331103</v>
+        <v>1.7419062326262369E-3</v>
       </c>
       <c r="R25">
-        <v>0.0004470626723881552</v>
+        <v>4.4697781593062291E-4</v>
       </c>
       <c r="S25">
-        <v>3.411845622992342E-07</v>
+        <v>7.3936345267380852E-7</v>
       </c>
       <c r="T25">
-        <v>0.01290863630161541</v>
+        <v>1.251101278700918E-2</v>
       </c>
       <c r="U25">
-        <v>0.002662626327756433</v>
+        <v>3.9749968370450337E-3</v>
       </c>
       <c r="V25">
-        <v>32.32777971279923</v>
+        <v>50.96791767168591</v>
       </c>
       <c r="W25">
-        <v>0.0001292832851993467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>2.1583118964543831E-4</v>
+      </c>
+      <c r="X25">
+        <v>9.5530335802668735E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.332165970331418E-06</v>
+        <v>3.139723270947874E-6</v>
       </c>
       <c r="C26">
-        <v>0.0485495418713181</v>
+        <v>4.7520253774281172E-2</v>
       </c>
       <c r="D26">
-        <v>0.0002474806985226168</v>
+        <v>4.0793940969743826E-3</v>
       </c>
       <c r="E26">
-        <v>0.05234413127002464</v>
+        <v>4.9498431606328511E-2</v>
       </c>
       <c r="F26">
-        <v>5.599621616182614</v>
+        <v>5.5996216161826142</v>
       </c>
       <c r="K26">
-        <v>7.17995909495492</v>
+        <v>8.3579414907343139</v>
       </c>
       <c r="L26">
-        <v>5.532133363550434</v>
+        <v>8.9705748261932747</v>
       </c>
       <c r="M26">
-        <v>7.331575369710785</v>
+        <v>8.4535208078506816</v>
       </c>
       <c r="N26">
-        <v>0.01817449902200276</v>
+        <v>2.213341408621311E-2</v>
       </c>
       <c r="O26">
-        <v>0.000242131052205783</v>
+        <v>3.196303561467639E-3</v>
       </c>
       <c r="P26">
-        <v>0.01960434925691293</v>
+        <v>1.9686191457255951E-2</v>
       </c>
       <c r="Q26">
-        <v>0.001791360358402336</v>
+        <v>1.7681423095800689E-3</v>
       </c>
       <c r="R26">
-        <v>0.0004529405867016533</v>
+        <v>4.5284937451585899E-4</v>
       </c>
       <c r="S26">
-        <v>3.41239499405379E-07</v>
+        <v>7.5106994223197629E-7</v>
       </c>
       <c r="T26">
-        <v>0.01304345222232407</v>
+        <v>1.262332878635081E-2</v>
       </c>
       <c r="U26">
-        <v>0.002700992342989449</v>
+        <v>4.0106049283468821E-3</v>
       </c>
       <c r="V26">
-        <v>32.54841267299226</v>
+        <v>51.176904390861203</v>
       </c>
       <c r="W26">
-        <v>0.0001330472099933407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>2.1877527578716691E-4</v>
+      </c>
+      <c r="X26">
+        <v>9.550559043514021E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.31160427111193E-06</v>
+        <v>3.1307284084851581E-6</v>
       </c>
       <c r="C27">
-        <v>0.04919356935362204</v>
+        <v>4.8099465236645267E-2</v>
       </c>
       <c r="D27">
-        <v>0.0002518763781373114</v>
+        <v>4.141435452923844E-3</v>
       </c>
       <c r="E27">
-        <v>0.05306939102110402</v>
+        <v>5.0119129156385812E-2</v>
       </c>
       <c r="F27">
-        <v>5.599604540049922</v>
+        <v>5.5996045400499224</v>
       </c>
       <c r="K27">
-        <v>7.182190646109172</v>
+        <v>8.3543643428896761</v>
       </c>
       <c r="L27">
-        <v>5.540786694577733</v>
+        <v>8.9664418395779801</v>
       </c>
       <c r="M27">
-        <v>7.33654113609781</v>
+        <v>8.4511903700518332</v>
       </c>
       <c r="N27">
-        <v>0.01841359726160005</v>
+        <v>2.2385908893209721E-2</v>
       </c>
       <c r="O27">
-        <v>0.000247018053899457</v>
+        <v>3.2270541233353398E-3</v>
       </c>
       <c r="P27">
-        <v>0.01984185577555974</v>
+        <v>1.9925098779224971E-2</v>
       </c>
       <c r="Q27">
-        <v>0.001794977185628949</v>
+        <v>1.795178631083654E-3</v>
       </c>
       <c r="R27">
-        <v>0.00045897524466435</v>
+        <v>4.5887735191017407E-4</v>
       </c>
       <c r="S27">
-        <v>3.412808786062871E-07</v>
+        <v>7.6310543975131736E-7</v>
       </c>
       <c r="T27">
-        <v>0.01318135168738187</v>
+        <v>1.273816510445753E-2</v>
       </c>
       <c r="U27">
-        <v>0.002740534295276542</v>
+        <v>4.0471862673651816E-3</v>
       </c>
       <c r="V27">
-        <v>32.7733824167664</v>
+        <v>51.389528329368602</v>
       </c>
       <c r="W27">
-        <v>0.0001368957735399133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>2.2179752809995339E-4</v>
+      </c>
+      <c r="X27">
+        <v>9.5480550400227747E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.290485301447671E-06</v>
+        <v>3.121508387349887E-6</v>
       </c>
       <c r="C28">
-        <v>0.04985494358302048</v>
+        <v>4.8693492666155018E-2</v>
       </c>
       <c r="D28">
-        <v>0.0002564279265205407</v>
+        <v>4.2054217327654351E-3</v>
       </c>
       <c r="E28">
-        <v>0.05381458726870861</v>
+        <v>5.0755986311385289E-2</v>
       </c>
       <c r="F28">
         <v>5.599587336155377</v>
       </c>
       <c r="K28">
-        <v>7.184440901348102</v>
+        <v>8.3507414304396121</v>
       </c>
       <c r="L28">
-        <v>5.549584116567105</v>
+        <v>8.9622519963891474</v>
       </c>
       <c r="M28">
-        <v>7.34157038873522</v>
+        <v>8.4488472367522878</v>
       </c>
       <c r="N28">
-        <v>0.01865909157521763</v>
+        <v>2.2644812336045862E-2</v>
       </c>
       <c r="O28">
-        <v>0.0002520735299959094</v>
+        <v>3.2587306776768548E-3</v>
       </c>
       <c r="P28">
-        <v>0.02008573251326151</v>
+        <v>2.01700977001458E-2</v>
       </c>
       <c r="Q28">
-        <v>0.001798683383524187</v>
+        <v>1.823050348004074E-3</v>
       </c>
       <c r="R28">
-        <v>0.0004651730009317249</v>
+        <v>4.6506808497058521E-4</v>
       </c>
       <c r="S28">
-        <v>3.413040942799446E-07</v>
+        <v>7.7547365957854699E-7</v>
       </c>
       <c r="T28">
-        <v>0.01332244381430221</v>
+        <v>1.285561076441824E-2</v>
       </c>
       <c r="U28">
-        <v>0.002781309346536276</v>
+        <v>4.0847960121629182E-3</v>
       </c>
       <c r="V28">
-        <v>33.00284696630541</v>
+        <v>51.605919018148093</v>
       </c>
       <c r="W28">
-        <v>0.0001408326352660169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>2.249010760626613E-4</v>
+      </c>
+      <c r="X28">
+        <v>9.5455190013077293E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.268786490585463E-06</v>
+        <v>3.1120546354340888E-6</v>
       </c>
       <c r="C29">
-        <v>0.0505343753043424</v>
+        <v>4.9302918295379528E-2</v>
       </c>
       <c r="D29">
-        <v>0.0002611436667759678</v>
+        <v>4.2714455311664056E-3</v>
       </c>
       <c r="E29">
-        <v>0.05458053662418501</v>
+        <v>5.1409643634962997E-2</v>
       </c>
       <c r="F29">
-        <v>5.599570001118336</v>
+        <v>5.5995700011183356</v>
       </c>
       <c r="K29">
-        <v>7.186708595538954</v>
+        <v>8.3470756723858486</v>
       </c>
       <c r="L29">
-        <v>5.558505608591986</v>
+        <v>8.9579980097934762</v>
       </c>
       <c r="M29">
-        <v>7.346651276513445</v>
+        <v>8.4464881101519627</v>
       </c>
       <c r="N29">
-        <v>0.01891124250734396</v>
+        <v>2.2910375098489269E-2</v>
       </c>
       <c r="O29">
-        <v>0.000257300174592043</v>
+        <v>3.2913659449429599E-3</v>
       </c>
       <c r="P29">
-        <v>0.02033624003558668</v>
+        <v>2.0421427115928561E-2</v>
       </c>
       <c r="Q29">
-        <v>0.001802532825795419</v>
+        <v>1.851798465965748E-3</v>
       </c>
       <c r="R29">
-        <v>0.0004715405584226488</v>
+        <v>4.7142825772827028E-4</v>
       </c>
       <c r="S29">
-        <v>3.413165760769111E-07</v>
+        <v>7.8819567267775479E-7</v>
       </c>
       <c r="T29">
-        <v>0.01346684291660038</v>
+        <v>1.297575891170941E-2</v>
       </c>
       <c r="U29">
-        <v>0.002823372565288417</v>
+        <v>4.1234715453982813E-3</v>
       </c>
       <c r="V29">
-        <v>33.23696932508935</v>
+        <v>51.826206189734783</v>
       </c>
       <c r="W29">
-        <v>0.0001448607286251674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>2.280893596661513E-4</v>
+      </c>
+      <c r="X29">
+        <v>9.5429529706700952E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.246484070246526E-06</v>
+        <v>3.102358151232074E-6</v>
       </c>
       <c r="C30">
-        <v>0.05123261463264194</v>
+        <v>4.9928355417104719E-2</v>
       </c>
       <c r="D30">
-        <v>0.0002660325184587165</v>
+        <v>4.339605368165988E-3</v>
       </c>
       <c r="E30">
-        <v>0.05536810003765417</v>
+        <v>5.2080775889656122E-2</v>
       </c>
       <c r="F30">
-        <v>5.599552531415467</v>
+        <v>5.5995525314154673</v>
       </c>
       <c r="K30">
-        <v>7.188997127957735</v>
+        <v>8.3433606433703069</v>
       </c>
       <c r="L30">
-        <v>5.567572379404057</v>
+        <v>8.9536823956151927</v>
       </c>
       <c r="M30">
-        <v>7.351794929275351</v>
+        <v>8.4441156380755675</v>
       </c>
       <c r="N30">
-        <v>0.01917032503974329</v>
+        <v>2.318286133673297E-2</v>
       </c>
       <c r="O30">
-        <v>0.0002627102496839488</v>
+        <v>3.3250126014842101E-3</v>
       </c>
       <c r="P30">
-        <v>0.02059365263572267</v>
+        <v>2.0679338624955822E-2</v>
       </c>
       <c r="Q30">
-        <v>0.001806494607026743</v>
+        <v>1.881462128982217E-3</v>
       </c>
       <c r="R30">
-        <v>0.0004780849923371845</v>
+        <v>4.7796492525682021E-4</v>
       </c>
       <c r="S30">
-        <v>3.413128551051469E-07</v>
+        <v>8.0128034714017837E-7</v>
       </c>
       <c r="T30">
-        <v>0.01361466889370193</v>
+        <v>1.309870734735262E-2</v>
       </c>
       <c r="U30">
-        <v>0.002866789070118418</v>
+        <v>4.1632669489688381E-3</v>
       </c>
       <c r="V30">
-        <v>33.47592147461832</v>
+        <v>52.050527811537108</v>
       </c>
       <c r="W30">
-        <v>0.0001489842424583625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>2.3136575433007749E-4</v>
+      </c>
+      <c r="X30">
+        <v>9.5403524503592155E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.223553005875563E-06</v>
+        <v>3.092409482367136E-6</v>
       </c>
       <c r="C31">
-        <v>0.05195045381734874</v>
+        <v>5.0570450488216533E-2</v>
       </c>
       <c r="D31">
-        <v>0.0002711040510263383</v>
+        <v>4.4100061602987519E-3</v>
       </c>
       <c r="E31">
-        <v>0.0561781857977169</v>
+        <v>5.2770094342587212E-2</v>
       </c>
       <c r="F31">
         <v>5.599534923372488</v>
       </c>
       <c r="K31">
-        <v>7.191301288169951</v>
+        <v>8.3395991864078525</v>
       </c>
       <c r="L31">
-        <v>5.576772812958086</v>
+        <v>8.9493003551305819</v>
       </c>
       <c r="M31">
-        <v>7.356994137807066</v>
+        <v>8.4417286556896158</v>
       </c>
       <c r="N31">
-        <v>0.0194366294734061</v>
+        <v>2.346254934708859E-2</v>
       </c>
       <c r="O31">
-        <v>0.0002683089433886283</v>
+        <v>3.3597131939993182E-3</v>
       </c>
       <c r="P31">
-        <v>0.02085826049528177</v>
+        <v>2.094409744884277E-2</v>
       </c>
       <c r="Q31">
-        <v>0.001810606725863656</v>
+        <v>1.9120867706207149E-3</v>
       </c>
       <c r="R31">
-        <v>0.000484813776555242</v>
+        <v>4.8468553997385789E-4</v>
       </c>
       <c r="S31">
-        <v>3.412980346066295E-07</v>
+        <v>8.1474633317006902E-7</v>
       </c>
       <c r="T31">
-        <v>0.01376604748276649</v>
+        <v>1.322455862056929E-2</v>
       </c>
       <c r="U31">
-        <v>0.002911622808794841</v>
+        <v>4.2042286574026332E-3</v>
       </c>
       <c r="V31">
-        <v>33.71988233126519</v>
+        <v>52.279025141781482</v>
       </c>
       <c r="W31">
-        <v>0.0001532060435548011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>2.34734133580757E-4</v>
+      </c>
+      <c r="X31">
+        <v>9.5377194304854966E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.199966823706265E-06</v>
+        <v>3.0821986501451491E-6</v>
       </c>
       <c r="C32">
-        <v>0.05268873024258192</v>
+        <v>5.1229885407186787E-2</v>
       </c>
       <c r="D32">
-        <v>0.0002763685479200767</v>
+        <v>4.4827598033783016E-3</v>
       </c>
       <c r="E32">
-        <v>0.05701175268926528</v>
+        <v>5.3478349217908568E-2</v>
       </c>
       <c r="F32">
-        <v>5.599517173155443</v>
+        <v>5.5995171731554434</v>
       </c>
       <c r="K32">
-        <v>7.193624762080836</v>
+        <v>8.3357891465927185</v>
       </c>
       <c r="L32">
-        <v>5.586124137347627</v>
+        <v>8.9448540135404766</v>
       </c>
       <c r="M32">
-        <v>7.36225758561392</v>
+        <v>8.4393288114456197</v>
       </c>
       <c r="N32">
-        <v>0.01971046262383493</v>
+        <v>2.3749732720704152E-2</v>
       </c>
       <c r="O32">
-        <v>0.0002741087428749328</v>
+        <v>3.395526174392391E-3</v>
       </c>
       <c r="P32">
-        <v>0.02113036983484489</v>
+        <v>2.1215983315674519E-2</v>
       </c>
       <c r="Q32">
-        <v>0.001814848435177835</v>
+        <v>1.9437182186004831E-3</v>
       </c>
       <c r="R32">
-        <v>0.0004917348119626797</v>
+        <v>4.9159797988301065E-4</v>
       </c>
       <c r="S32">
-        <v>3.412678562350464E-07</v>
+        <v>8.2860604281844198E-7</v>
       </c>
       <c r="T32">
-        <v>0.01392111069239466</v>
+        <v>1.335342047718596E-2</v>
       </c>
       <c r="U32">
-        <v>0.002957946836982145</v>
+        <v>4.2464166849496172E-3</v>
       </c>
       <c r="V32">
-        <v>33.96904074422298</v>
+        <v>52.511848336331397</v>
       </c>
       <c r="W32">
-        <v>0.0001575305323619211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>2.3819839967493769E-4</v>
+      </c>
+      <c r="X32">
+        <v>9.535052402614903E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.175697641897024E-06</v>
+        <v>3.0717151837026781E-6</v>
       </c>
       <c r="C33">
-        <v>0.05344832968743209</v>
+        <v>5.1907379981155029E-2</v>
       </c>
       <c r="D33">
-        <v>0.0002818370674227132</v>
+        <v>4.5579856697940176E-3</v>
       </c>
       <c r="E33">
-        <v>0.05786981358771127</v>
+        <v>5.4206332439317099E-2</v>
       </c>
       <c r="F33">
-        <v>5.599499276761065</v>
+        <v>5.5994992767610654</v>
       </c>
       <c r="K33">
-        <v>7.19596913012406</v>
+        <v>8.3319279107744375</v>
       </c>
       <c r="L33">
-        <v>5.595626236858555</v>
+        <v>8.9403336450128741</v>
       </c>
       <c r="M33">
-        <v>7.36758476548281</v>
+        <v>8.4369108176966137</v>
       </c>
       <c r="N33">
-        <v>0.01999214891196478</v>
+        <v>2.404472122137534E-2</v>
       </c>
       <c r="O33">
-        <v>0.0002801186816523556</v>
+        <v>3.432487575897251E-3</v>
       </c>
       <c r="P33">
-        <v>0.02141030492759369</v>
+        <v>2.149529150548719E-2</v>
       </c>
       <c r="Q33">
-        <v>0.001819233890055896</v>
+        <v>1.9764102313784772E-3</v>
       </c>
       <c r="R33">
-        <v>0.0004988564575294397</v>
+        <v>4.98710579503883E-4</v>
       </c>
       <c r="S33">
-        <v>3.412238537958104E-07</v>
+        <v>8.4288830885883979E-7</v>
       </c>
       <c r="T33">
-        <v>0.01407999712508179</v>
+        <v>1.3485406039392279E-2</v>
       </c>
       <c r="U33">
-        <v>0.003005836156280676</v>
+        <v>4.2898724290300052E-3</v>
       </c>
       <c r="V33">
-        <v>34.22359479551753</v>
+        <v>52.749146907169148</v>
       </c>
       <c r="W33">
-        <v>0.0001619623933109536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>2.417626550682527E-4</v>
+      </c>
+      <c r="X33">
+        <v>9.5323495375421072E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.150715959049087E-06</v>
+        <v>3.060948027179588E-6</v>
       </c>
       <c r="C34">
-        <v>0.05423018987302046</v>
+        <v>5.2603694603380928E-2</v>
       </c>
       <c r="D34">
-        <v>0.0002875215222809254</v>
+        <v>4.6358113185233051E-3</v>
       </c>
       <c r="E34">
-        <v>0.05875343914495958</v>
+        <v>5.495488050224924E-2</v>
       </c>
       <c r="F34">
-        <v>5.599481230006747</v>
+        <v>5.5994812300067469</v>
       </c>
       <c r="K34">
-        <v>7.198329652921087</v>
+        <v>8.3280156964926668</v>
       </c>
       <c r="L34">
-        <v>5.60527581659554</v>
+        <v>8.9357455177119114</v>
       </c>
       <c r="M34">
-        <v>7.372972657945335</v>
+        <v>8.4344817755574937</v>
       </c>
       <c r="N34">
-        <v>0.02028203170946937</v>
+        <v>2.4347842304397078E-2</v>
       </c>
       <c r="O34">
-        <v>0.00028634736092854</v>
+        <v>3.4706794896408738E-3</v>
       </c>
       <c r="P34">
-        <v>0.02169840891343984</v>
+        <v>2.1782333877165251E-2</v>
       </c>
       <c r="Q34">
-        <v>0.001823786288218716</v>
+        <v>2.010212452017299E-3</v>
       </c>
       <c r="R34">
-        <v>0.0005061875639070227</v>
+        <v>5.0603216319792751E-4</v>
       </c>
       <c r="S34">
-        <v>3.41168857135283E-07</v>
+        <v>8.5759707675281285E-7</v>
       </c>
       <c r="T34">
-        <v>0.01424285243344652</v>
+        <v>1.3620634474838781E-2</v>
       </c>
       <c r="U34">
-        <v>0.00305537034723961</v>
+        <v>4.3346769752707947E-3</v>
       </c>
       <c r="V34">
-        <v>34.4837523452041</v>
+        <v>52.991086670603998</v>
       </c>
       <c r="W34">
-        <v>0.0001665048876066101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>2.4543135144529702E-4</v>
+      </c>
+      <c r="X34">
+        <v>9.529610987544867E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.124990635734297E-06</v>
+        <v>3.049885550609154E-6</v>
       </c>
       <c r="C35">
-        <v>0.05503530432601658</v>
+        <v>5.3319633159871337E-2</v>
       </c>
       <c r="D35">
-        <v>0.0002934347582170909</v>
+        <v>4.7163731364859183E-3</v>
       </c>
       <c r="E35">
-        <v>0.05966376196159444</v>
+        <v>5.5724877676378043E-2</v>
       </c>
       <c r="F35">
         <v>5.599463028519529</v>
       </c>
       <c r="K35">
-        <v>7.200709538868772</v>
+        <v>8.3240489939943139</v>
       </c>
       <c r="L35">
-        <v>5.615081122420899</v>
+        <v>8.9310788966050652</v>
       </c>
       <c r="M35">
-        <v>7.378425314798692</v>
+        <v>8.4320339388632615</v>
       </c>
       <c r="N35">
-        <v>0.02058047475944759</v>
+        <v>2.465944174939344E-2</v>
       </c>
       <c r="O35">
-        <v>0.000292807070089338</v>
+        <v>3.5101375208004579E-3</v>
       </c>
       <c r="P35">
-        <v>0.02199504507202523</v>
+        <v>2.207744016709284E-2</v>
       </c>
       <c r="Q35">
-        <v>0.001828505033562183</v>
+        <v>2.0451860923232871E-3</v>
       </c>
       <c r="R35">
-        <v>0.0005137375101017972</v>
+        <v>5.1357208209525844E-4</v>
       </c>
       <c r="S35">
-        <v>3.411020979335358E-07</v>
+        <v>8.727683428876941E-7</v>
       </c>
       <c r="T35">
-        <v>0.01440982977801677</v>
+        <v>1.375923085542935E-2</v>
       </c>
       <c r="U35">
-        <v>0.003106636578267887</v>
+        <v>4.3808733387933714E-3</v>
       </c>
       <c r="V35">
-        <v>34.74973272028961</v>
+        <v>53.237831661169572</v>
       </c>
       <c r="W35">
-        <v>0.0001711634673053845</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>2.4920912482020161E-4</v>
+      </c>
+      <c r="X35">
+        <v>9.5268342957960191E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.098488678011529E-06</v>
+        <v>3.0385154581933261E-6</v>
       </c>
       <c r="C36">
-        <v>0.05586472659219536</v>
+        <v>5.4056046190528687E-2</v>
       </c>
       <c r="D36">
-        <v>0.000299590651722124</v>
+        <v>4.7998171822117696E-3</v>
       </c>
       <c r="E36">
-        <v>0.06060198093373336</v>
+        <v>5.6517259397291172E-2</v>
       </c>
       <c r="F36">
-        <v>5.599444667724195</v>
+        <v>5.5994446677241951</v>
       </c>
       <c r="K36">
-        <v>7.203110539782188</v>
+        <v>8.3200296738372828</v>
       </c>
       <c r="L36">
-        <v>5.625055233512628</v>
+        <v>8.9263408707456033</v>
       </c>
       <c r="M36">
-        <v>7.38394891050585</v>
+        <v>8.4295760163750106</v>
       </c>
       <c r="N36">
-        <v>0.02088786366383181</v>
+        <v>2.4979885752856961E-2</v>
       </c>
       <c r="O36">
-        <v>0.0002995119319574078</v>
+        <v>3.55095562569086E-3</v>
       </c>
       <c r="P36">
-        <v>0.02230059870897164</v>
+        <v>2.238095916822571E-2</v>
       </c>
       <c r="Q36">
-        <v>0.001833381981123999</v>
+        <v>2.0813876304488698E-3</v>
       </c>
       <c r="R36">
-        <v>0.0005215162435564011</v>
+        <v>5.2134025351574889E-4</v>
       </c>
       <c r="S36">
-        <v>3.410209636173127E-07</v>
+        <v>8.8840462490074223E-7</v>
       </c>
       <c r="T36">
-        <v>0.01458109028104327</v>
+        <v>1.390132718143899E-2</v>
       </c>
       <c r="U36">
-        <v>0.003159728963134155</v>
+        <v>4.4285540936456237E-3</v>
       </c>
       <c r="V36">
-        <v>35.02176785692341</v>
+        <v>53.48956422530955</v>
       </c>
       <c r="W36">
-        <v>0.0001759432643291153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>2.5310099665509312E-4</v>
+      </c>
+      <c r="X36">
+        <v>9.5240207716860974E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.071175219113567E-06</v>
+        <v>3.0268248029896029E-6</v>
       </c>
       <c r="C37">
-        <v>0.05671957483743341</v>
+        <v>5.4813834329118183E-2</v>
       </c>
       <c r="D37">
-        <v>0.0003060042083883126</v>
+        <v>4.8862999671736062E-3</v>
       </c>
       <c r="E37">
-        <v>0.06156936617140746</v>
+        <v>5.7333016050465632E-2</v>
       </c>
       <c r="F37">
         <v>5.599426142830664</v>
       </c>
       <c r="K37">
-        <v>7.205531061439751</v>
+        <v>8.3159520909417548</v>
       </c>
       <c r="L37">
-        <v>5.635198288327627</v>
+        <v>8.9215194826732009</v>
       </c>
       <c r="M37">
-        <v>7.389542165634186</v>
+        <v>8.4270997823604272</v>
       </c>
       <c r="N37">
-        <v>0.02120460753662988</v>
+        <v>2.5309561600967211E-2</v>
       </c>
       <c r="O37">
-        <v>0.0003064733586478763</v>
+        <v>3.593177524103798E-3</v>
       </c>
       <c r="P37">
-        <v>0.02261547896632314</v>
+        <v>2.269326026880689E-2</v>
       </c>
       <c r="Q37">
-        <v>0.00183843526350074</v>
+        <v>2.1188875033899949E-3</v>
       </c>
       <c r="R37">
-        <v>0.0005295343239039824</v>
+        <v>5.2934720503714655E-4</v>
       </c>
       <c r="S37">
-        <v>3.409281876614022E-07</v>
+        <v>9.0454656113753888E-7</v>
       </c>
       <c r="T37">
-        <v>0.01475680353208803</v>
+        <v>1.404706215202042E-2</v>
       </c>
       <c r="U37">
-        <v>0.003214746006713166</v>
+        <v>4.4777698216633653E-3</v>
       </c>
       <c r="V37">
-        <v>35.3001022581216</v>
+        <v>53.746466134921107</v>
       </c>
       <c r="W37">
-        <v>0.0001808493844484779</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>2.5711213183026419E-4</v>
+      </c>
+      <c r="X37">
+        <v>9.5211664636592288E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.043013264984576E-06</v>
+        <v>3.014799879533178E-6</v>
       </c>
       <c r="C38">
-        <v>0.05760103687851223</v>
+        <v>5.5593952053523563E-2</v>
       </c>
       <c r="D38">
-        <v>0.0003126916858660185</v>
+        <v>4.9759894892143003E-3</v>
       </c>
       <c r="E38">
-        <v>0.062567264116688</v>
+        <v>5.8173196980851292E-2</v>
       </c>
       <c r="F38">
-        <v>5.599407448820141</v>
+        <v>5.5994074488201413</v>
       </c>
       <c r="K38">
-        <v>7.20796944663773</v>
+        <v>8.311819239462352</v>
       </c>
       <c r="L38">
-        <v>5.645501757660552</v>
+        <v>8.9166216949361417</v>
       </c>
       <c r="M38">
-        <v>7.395199993291372</v>
+        <v>8.4246131318251116</v>
       </c>
       <c r="N38">
-        <v>0.02153114088316085</v>
+        <v>2.56488801021682E-2</v>
       </c>
       <c r="O38">
-        <v>0.0003137017095908644</v>
+        <v>3.6369058539486069E-3</v>
       </c>
       <c r="P38">
-        <v>0.02294012027417973</v>
+        <v>2.3014734843266531E-2</v>
       </c>
       <c r="Q38">
-        <v>0.001843701286247226</v>
+        <v>2.1577526719830081E-3</v>
       </c>
       <c r="R38">
-        <v>0.0005378029707120498</v>
+        <v>5.3760412157583405E-4</v>
       </c>
       <c r="S38">
-        <v>3.408285538009157E-07</v>
+        <v>9.2120085045915367E-7</v>
       </c>
       <c r="T38">
-        <v>0.014937148180922</v>
+        <v>1.4196582344682251E-2</v>
       </c>
       <c r="U38">
-        <v>0.003271792134473559</v>
+        <v>4.5286212843999862E-3</v>
       </c>
       <c r="V38">
-        <v>35.58499353752666</v>
+        <v>54.008737666834811</v>
       </c>
       <c r="W38">
-        <v>0.0001858869069205489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>2.6124821719463018E-4</v>
+      </c>
+      <c r="X38">
+        <v>9.5182734676236462E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.013963640898084E-06</v>
+        <v>3.002426224621306E-6</v>
       </c>
       <c r="C39">
-        <v>0.05851037569109392</v>
+        <v>5.6397411776766562E-2</v>
       </c>
       <c r="D39">
-        <v>0.0003196707201421203</v>
+        <v>5.0690662177857448E-3</v>
       </c>
       <c r="E39">
-        <v>0.06359710332386491</v>
+        <v>5.9038914964671771E-2</v>
       </c>
       <c r="F39">
-        <v>5.599388580430229</v>
+        <v>5.5993885804302286</v>
       </c>
       <c r="K39">
-        <v>7.210429108360664</v>
+        <v>8.3076247196394171</v>
       </c>
       <c r="L39">
-        <v>5.655990081311377</v>
+        <v>8.9116318832887202</v>
       </c>
       <c r="M39">
-        <v>7.400934526938797</v>
+        <v>8.4221056178408968</v>
       </c>
       <c r="N39">
-        <v>0.02186792563194767</v>
+        <v>2.599827651880661E-2</v>
       </c>
       <c r="O39">
-        <v>0.0003212163442320318</v>
+        <v>3.6821857658423112E-3</v>
       </c>
       <c r="P39">
-        <v>0.02327498406763898</v>
+        <v>2.334579805233452E-2</v>
       </c>
       <c r="Q39">
-        <v>0.001849150678394354</v>
+        <v>2.1980628434153091E-3</v>
       </c>
       <c r="R39">
-        <v>0.0005463341158256728</v>
+        <v>5.4612289809528446E-4</v>
       </c>
       <c r="S39">
-        <v>3.407169103100791E-07</v>
+        <v>9.3841632215149238E-7</v>
       </c>
       <c r="T39">
-        <v>0.01512231256261166</v>
+        <v>1.4350042044051809E-2</v>
       </c>
       <c r="U39">
-        <v>0.003330985356607089</v>
+        <v>4.5811635823341731E-3</v>
       </c>
       <c r="V39">
-        <v>35.87671570315548</v>
+        <v>54.276578332236113</v>
       </c>
       <c r="W39">
-        <v>0.0001910624211870682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>2.6551513820999002E-4</v>
+      </c>
+      <c r="X39">
+        <v>9.5153373037475922E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.983984764685814E-06</v>
+        <v>2.9896885296922459E-6</v>
       </c>
       <c r="C40">
-        <v>0.05944893544868992</v>
+        <v>5.722528831804044E-2</v>
       </c>
       <c r="D40">
-        <v>0.0003269604773780513</v>
+        <v>5.1657243135340243E-3</v>
       </c>
       <c r="E40">
-        <v>0.06466040058423191</v>
+        <v>5.9931351007594377E-2</v>
       </c>
       <c r="F40">
-        <v>5.599369532138875</v>
+        <v>5.5993695321388746</v>
       </c>
       <c r="K40">
-        <v>7.2129051413567</v>
+        <v>8.30336891146883</v>
       </c>
       <c r="L40">
-        <v>5.666643217799844</v>
+        <v>8.9065602039786942</v>
       </c>
       <c r="M40">
-        <v>7.406733568897727</v>
+        <v>8.4195885010125942</v>
       </c>
       <c r="N40">
-        <v>0.02221545320110437</v>
+        <v>2.6358213466435059E-2</v>
       </c>
       <c r="O40">
-        <v>0.0003290258270320115</v>
+        <v>3.7291402604092E-3</v>
       </c>
       <c r="P40">
-        <v>0.02362056202553002</v>
+        <v>2.368689055570419E-2</v>
       </c>
       <c r="Q40">
-        <v>0.001854847417791167</v>
+        <v>2.2398938082889511E-3</v>
       </c>
       <c r="R40">
-        <v>0.000555140460969469</v>
+        <v>5.5491619618839954E-4</v>
       </c>
       <c r="S40">
-        <v>3.406029292538621E-07</v>
+        <v>9.5619520916250807E-7</v>
       </c>
       <c r="T40">
-        <v>0.0153124952594827</v>
+        <v>1.4507604599885969E-2</v>
       </c>
       <c r="U40">
-        <v>0.00339244440751369</v>
+        <v>4.6355158051759699E-3</v>
       </c>
       <c r="V40">
-        <v>36.17555731573289</v>
+        <v>54.550209963366477</v>
       </c>
       <c r="W40">
-        <v>0.0001963813156339946</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>2.6991921964556392E-4</v>
+      </c>
+      <c r="X40">
+        <v>9.5123582380281817E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.953032512361893E-06</v>
+        <v>2.976570604630996E-6</v>
       </c>
       <c r="C41">
-        <v>0.06041814815313766</v>
+        <v>5.8078723793524148E-2</v>
       </c>
       <c r="D41">
-        <v>0.0003345818192157119</v>
+        <v>5.2661729021758093E-3</v>
       </c>
       <c r="E41">
-        <v>0.06575876771027811</v>
+        <v>6.0851759638065231E-2</v>
       </c>
       <c r="F41">
         <v>5.599350298146768</v>
       </c>
       <c r="K41">
-        <v>7.215402576270221</v>
+        <v>8.2990513968674211</v>
       </c>
       <c r="L41">
-        <v>5.67748459309586</v>
+        <v>8.9013971009515007</v>
       </c>
       <c r="M41">
-        <v>7.412609013681798</v>
+        <v>8.417055698188161</v>
       </c>
       <c r="N41">
-        <v>0.02257424709248261</v>
+        <v>2.6729181879648609E-2</v>
       </c>
       <c r="O41">
-        <v>0.0003371516520995018</v>
+        <v>3.777844404760831E-3</v>
       </c>
       <c r="P41">
-        <v>0.02397737701909951</v>
+        <v>2.4038480666317551E-2</v>
       </c>
       <c r="Q41">
-        <v>0.0018607660092195</v>
+        <v>2.283336244218176E-3</v>
       </c>
       <c r="R41">
-        <v>0.0005642355406094725</v>
+        <v>5.6399750767986245E-4</v>
       </c>
       <c r="S41">
-        <v>3.404823520336377E-07</v>
+        <v>9.7458139156420685E-7</v>
       </c>
       <c r="T41">
-        <v>0.01550790592918711</v>
+        <v>1.466944212111072E-2</v>
       </c>
       <c r="U41">
-        <v>0.003456305703130526</v>
+        <v>4.6917594719140211E-3</v>
       </c>
       <c r="V41">
-        <v>36.48182586300361</v>
+        <v>54.829860763307011</v>
       </c>
       <c r="W41">
-        <v>0.0002018512236977191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>2.7446723403862992E-4</v>
+      </c>
+      <c r="X41">
+        <v>9.5093359778071946E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.921059966934171E-06</v>
+        <v>2.963055283736943E-6</v>
       </c>
       <c r="C42">
-        <v>0.06141954092536969</v>
+        <v>5.8958932975046632E-2</v>
       </c>
       <c r="D42">
-        <v>0.0003425574964957652</v>
+        <v>5.370637577865163E-3</v>
       </c>
       <c r="E42">
-        <v>0.06689391882213741</v>
+        <v>6.1801474642154332E-2</v>
       </c>
       <c r="F42">
-        <v>5.599330872358538</v>
+        <v>5.5993308723585384</v>
       </c>
       <c r="K42">
-        <v>7.217919567305898</v>
+        <v>8.2946670576228652</v>
       </c>
       <c r="L42">
-        <v>5.688518148429949</v>
+        <v>8.8961376683808258</v>
       </c>
       <c r="M42">
-        <v>7.418561569139366</v>
+        <v>8.4145070654453402</v>
       </c>
       <c r="N42">
-        <v>0.02294486534982233</v>
+        <v>2.7111704170896731E-2</v>
       </c>
       <c r="O42">
-        <v>0.0003456110544524194</v>
+        <v>3.8283963555123752E-3</v>
       </c>
       <c r="P42">
-        <v>0.02434598720259751</v>
+        <v>2.4401066406685878E-2</v>
       </c>
       <c r="Q42">
-        <v>0.001866923928877869</v>
+        <v>2.3284847582807642E-3</v>
       </c>
       <c r="R42">
-        <v>0.0005736337915804298</v>
+        <v>5.7338122311800072E-4</v>
       </c>
       <c r="S42">
-        <v>3.403572537590305E-07</v>
+        <v>9.9360653984709225E-7</v>
       </c>
       <c r="T42">
-        <v>0.01570876593295472</v>
+        <v>1.4835736831930671E-2</v>
       </c>
       <c r="U42">
-        <v>0.003522712590408859</v>
+        <v>4.7499952634055733E-3</v>
       </c>
       <c r="V42">
-        <v>36.79584782010641</v>
+        <v>55.115771077264782</v>
       </c>
       <c r="W42">
-        <v>0.0002074789874980138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>2.7916632024136621E-4</v>
+      </c>
+      <c r="X42">
+        <v>9.5062669403360064E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.888017274684333E-06</v>
+        <v>2.9491243913825052E-6</v>
       </c>
       <c r="C43">
-        <v>0.06245474403433366</v>
+        <v>5.9867209168219193E-2</v>
       </c>
       <c r="D43">
-        <v>0.0003509123614789466</v>
+        <v>5.4793619807599284E-3</v>
       </c>
       <c r="E43">
-        <v>0.06806767844159597</v>
+        <v>6.2781915408678571E-2</v>
       </c>
       <c r="F43">
-        <v>5.599311248361992</v>
+        <v>5.5993112483619916</v>
       </c>
       <c r="K43">
-        <v>7.220454600113953</v>
+        <v>8.2902195899207083</v>
       </c>
       <c r="L43">
-        <v>5.699734453757423</v>
+        <v>8.8907846951607823</v>
       </c>
       <c r="M43">
-        <v>7.424585405183554</v>
+        <v>8.411946775927861</v>
       </c>
       <c r="N43">
-        <v>0.02332790355821843</v>
+        <v>2.75063365067507E-2</v>
       </c>
       <c r="O43">
-        <v>0.0003544183435274297</v>
+        <v>3.8809185581207641E-3</v>
       </c>
       <c r="P43">
-        <v>0.02472698827503344</v>
+        <v>2.4775177960048671E-2</v>
       </c>
       <c r="Q43">
-        <v>0.001873365315435829</v>
+        <v>2.3754378867040619E-3</v>
       </c>
       <c r="R43">
-        <v>0.0005833506294503734</v>
+        <v>5.8308270814474907E-4</v>
       </c>
       <c r="S43">
-        <v>3.402347916791839E-07</v>
+        <v>1.0132945273341211E-6</v>
       </c>
       <c r="T43">
-        <v>0.01591530920994703</v>
+        <v>1.500668160427855E-2</v>
       </c>
       <c r="U43">
-        <v>0.003591817105174296</v>
+        <v>4.8103470950406849E-3</v>
       </c>
       <c r="V43">
-        <v>37.11796928773714</v>
+        <v>55.408199698011217</v>
       </c>
       <c r="W43">
-        <v>0.0002132719580292765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>2.8402426693644351E-4</v>
+      </c>
+      <c r="X43">
+        <v>9.5031537129444961E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.853851340267548E-06</v>
+        <v>2.9347586275987712E-6</v>
       </c>
       <c r="C44">
-        <v>0.06352549975283114</v>
+        <v>6.0804930671451242E-2</v>
       </c>
       <c r="D44">
-        <v>0.0003596736191149991</v>
+        <v>5.5926096844542876E-3</v>
       </c>
       <c r="E44">
-        <v>0.06928199016866959</v>
+        <v>6.3794593805889255E-2</v>
       </c>
       <c r="F44">
-        <v>5.599291419405773</v>
+        <v>5.5992914194057732</v>
       </c>
       <c r="K44">
-        <v>7.223010980751419</v>
+        <v>8.2857003902927353</v>
       </c>
       <c r="L44">
-        <v>5.711161072234779</v>
+        <v>8.8853292352119322</v>
       </c>
       <c r="M44">
-        <v>7.430693427424035</v>
+        <v>8.4093716102386722</v>
       </c>
       <c r="N44">
-        <v>0.02372399813088551</v>
+        <v>2.7913671298968459E-2</v>
       </c>
       <c r="O44">
-        <v>0.0003636000193614788</v>
+        <v>3.935517494889699E-3</v>
       </c>
       <c r="P44">
-        <v>0.02512101625709546</v>
+        <v>2.5161380375106339E-2</v>
       </c>
       <c r="Q44">
-        <v>0.001880062989297305</v>
+        <v>2.4243079328738959E-3</v>
       </c>
       <c r="R44">
-        <v>0.0005934025328065577</v>
+        <v>5.9311838768987685E-4</v>
       </c>
       <c r="S44">
-        <v>3.401110216826615E-07</v>
+        <v>1.033690711948591E-6</v>
       </c>
       <c r="T44">
-        <v>0.01612778321175345</v>
+        <v>1.5182480475127481E-2</v>
       </c>
       <c r="U44">
-        <v>0.003663791687701971</v>
+        <v>4.8729242118960066E-3</v>
       </c>
       <c r="V44">
-        <v>37.44856035863609</v>
+        <v>55.707416940682457</v>
       </c>
       <c r="W44">
-        <v>0.0002192388416021811</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>2.8904916106724541E-4</v>
+      </c>
+      <c r="X44">
+        <v>9.4999902732049162E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.818505652663963E-06</v>
+        <v>2.9199375261974571E-6</v>
       </c>
       <c r="C45">
-        <v>0.06463367214114195</v>
+        <v>6.1773567881749432E-2</v>
       </c>
       <c r="D45">
-        <v>0.000368871103957947</v>
+        <v>5.7106661834338381E-3</v>
       </c>
       <c r="E45">
-        <v>0.07053892635566596</v>
+        <v>6.4841121816750391E-2</v>
       </c>
       <c r="F45">
-        <v>5.599271378374898</v>
+        <v>5.5992713783748984</v>
       </c>
       <c r="K45">
-        <v>7.225586841574335</v>
+        <v>8.2811097956681703</v>
       </c>
       <c r="L45">
-        <v>5.722788800026581</v>
+        <v>8.8797704447526993</v>
       </c>
       <c r="M45">
-        <v>7.436879730410104</v>
+        <v>8.4067836559040714</v>
       </c>
       <c r="N45">
-        <v>0.02413382967670172</v>
+        <v>2.8334340663952289E-2</v>
       </c>
       <c r="O45">
-        <v>0.0003731734144338923</v>
+        <v>3.9923238741951892E-3</v>
       </c>
       <c r="P45">
-        <v>0.02552875227933753</v>
+        <v>2.5560276382864799E-2</v>
       </c>
       <c r="Q45">
-        <v>0.001887065850262785</v>
+        <v>2.4752117001632262E-3</v>
       </c>
       <c r="R45">
-        <v>0.0006038071366975204</v>
+        <v>6.03505838514051E-4</v>
       </c>
       <c r="S45">
-        <v>3.399933851135352E-07</v>
+        <v>1.054828574872133E-6</v>
       </c>
       <c r="T45">
-        <v>0.01634644972971927</v>
+        <v>1.536334988325434E-2</v>
       </c>
       <c r="U45">
-        <v>0.003738815489551346</v>
+        <v>4.9378598540938696E-3</v>
       </c>
       <c r="V45">
-        <v>37.78801452830582</v>
+        <v>56.013710974205793</v>
       </c>
       <c r="W45">
-        <v>0.0002253881087983322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>2.9424979491472769E-4</v>
+      </c>
+      <c r="X45">
+        <v>9.4967768569677188E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.781919937024841E-06</v>
+        <v>2.9046393271815629E-6</v>
       </c>
       <c r="C46">
-        <v>0.06578125787394881</v>
+        <v>6.2774691126362206E-2</v>
       </c>
       <c r="D46">
-        <v>0.0003785376082037443</v>
+        <v>5.8338412624202394E-3</v>
       </c>
       <c r="E46">
-        <v>0.07184069850765826</v>
+        <v>6.5923219841712288E-2</v>
       </c>
       <c r="F46">
-        <v>5.599251117763971</v>
+        <v>5.5992511177639708</v>
       </c>
       <c r="K46">
-        <v>7.228180947631702</v>
+        <v>8.2764473964668159</v>
       </c>
       <c r="L46">
-        <v>5.734619425482783</v>
+        <v>8.8741005759323777</v>
       </c>
       <c r="M46">
-        <v>7.443143873062804</v>
+        <v>8.4041803617428421</v>
       </c>
       <c r="N46">
-        <v>0.0245581271099565</v>
+        <v>2.8769019535197959E-2</v>
       </c>
       <c r="O46">
-        <v>0.0003831600523033418</v>
+        <v>4.0514677067598152E-3</v>
       </c>
       <c r="P46">
-        <v>0.0259509252512853</v>
+        <v>2.5972509680770191E-2</v>
       </c>
       <c r="Q46">
-        <v>0.001894400572534748</v>
+        <v>2.528280641960084E-3</v>
       </c>
       <c r="R46">
-        <v>0.000614583335685242</v>
+        <v>6.1426389226296499E-4</v>
       </c>
       <c r="S46">
-        <v>3.398874745222094E-07</v>
+        <v>1.0767578298416329E-6</v>
       </c>
       <c r="T46">
-        <v>0.01657158605543655</v>
+        <v>1.5549519348060779E-2</v>
       </c>
       <c r="U46">
-        <v>0.00381708532842862</v>
+        <v>5.0052867960692993E-3</v>
       </c>
       <c r="V46">
-        <v>38.1367515951571</v>
+        <v>56.327385692550713</v>
       </c>
       <c r="W46">
-        <v>0.0002317288285026457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>2.9963568095838471E-4</v>
+      </c>
+      <c r="X46">
+        <v>9.4935131775267716E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.744029912498348E-06</v>
+        <v>2.8888409096086349E-6</v>
       </c>
       <c r="C47">
-        <v>0.06697039824241691</v>
+        <v>6.3809979305706602E-2</v>
       </c>
       <c r="D47">
-        <v>0.0003887092494674901</v>
+        <v>5.9624715486769758E-3</v>
       </c>
       <c r="E47">
-        <v>0.07318966885225293</v>
+        <v>6.704272591816493E-2</v>
       </c>
       <c r="F47">
-        <v>5.599230629648046</v>
+        <v>5.5992306296480461</v>
       </c>
       <c r="K47">
-        <v>7.230794474950049</v>
+        <v>8.2717079001145066</v>
       </c>
       <c r="L47">
-        <v>5.746663113157259</v>
+        <v>8.8683183070274971</v>
       </c>
       <c r="M47">
-        <v>7.449489980547983</v>
+        <v>8.4015644768355919</v>
       </c>
       <c r="N47">
-        <v>0.0249976719655502</v>
+        <v>2.921842956844229E-2</v>
       </c>
       <c r="O47">
-        <v>0.0003935860213205346</v>
+        <v>4.1131036371086964E-3</v>
       </c>
       <c r="P47">
-        <v>0.02638831660908076</v>
+        <v>2.6398768390566731E-2</v>
       </c>
       <c r="Q47">
-        <v>0.001902080938677915</v>
+        <v>2.5836519087784238E-3</v>
       </c>
       <c r="R47">
-        <v>0.0006257513983799823</v>
+        <v>6.2541274925265807E-4</v>
       </c>
       <c r="S47">
-        <v>3.397961629570479E-07</v>
+        <v>1.0995170887181729E-6</v>
       </c>
       <c r="T47">
-        <v>0.01680348606865488</v>
+        <v>1.57412326671879E-2</v>
       </c>
       <c r="U47">
-        <v>0.003898817230432087</v>
+        <v>5.0753603314806937E-3</v>
       </c>
       <c r="V47">
-        <v>38.4952206521229</v>
+        <v>56.648765864546917</v>
       </c>
       <c r="W47">
-        <v>0.0002382713524757244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>3.0521678275785541E-4</v>
+      </c>
+      <c r="X47">
+        <v>9.490195530080155E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.976786243671908E-06</v>
+        <v>3.5984163069925001E-6</v>
       </c>
       <c r="C48">
-        <v>0.06820339248302708</v>
+        <v>6.4881229449355302E-2</v>
       </c>
       <c r="D48">
-        <v>0.0002914807881211452</v>
+        <v>4.8776022690960111E-3</v>
       </c>
       <c r="E48">
-        <v>0.07245877013100047</v>
+        <v>6.7117472992992117E-2</v>
       </c>
       <c r="F48">
-        <v>6.649230629648046</v>
+        <v>6.6492306296480459</v>
       </c>
       <c r="K48">
-        <v>7.233428809354846</v>
+        <v>8.2668868378870393</v>
       </c>
       <c r="L48">
-        <v>5.670072269766214</v>
+        <v>8.9283450556446233</v>
       </c>
       <c r="M48">
-        <v>7.424222324147632</v>
+        <v>8.3885840621633676</v>
       </c>
       <c r="N48">
-        <v>0.02545330318673964</v>
+        <v>2.968334301161513E-2</v>
       </c>
       <c r="O48">
-        <v>0.0003493136659193092</v>
+        <v>3.6368205137274259E-3</v>
       </c>
       <c r="P48">
-        <v>0.02684176541779193</v>
+        <v>2.683978906615541E-2</v>
       </c>
       <c r="Q48">
-        <v>0.001957879328654383</v>
+        <v>2.1553646938810302E-3</v>
       </c>
       <c r="R48">
-        <v>0.0006373330947173347</v>
+        <v>6.3697410540384213E-4</v>
       </c>
       <c r="S48">
-        <v>3.748330866413584E-07</v>
+        <v>1.058130117732848E-6</v>
       </c>
       <c r="T48">
-        <v>0.01704246141751086</v>
+        <v>1.5938748821552849E-2</v>
       </c>
       <c r="U48">
-        <v>0.003213704557981183</v>
+        <v>4.4407000350990544E-3</v>
       </c>
       <c r="V48">
-        <v>38.63419924594739</v>
+        <v>56.767273999168737</v>
       </c>
       <c r="W48">
-        <v>0.0002450301562061344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>3.1100442724636728E-4</v>
+      </c>
+      <c r="X48">
+        <v>9.4868207865209288E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.937744693441852E-06</v>
+        <v>3.5810737338068211E-6</v>
       </c>
       <c r="C49">
-        <v>0.06948474930745926</v>
+        <v>6.6013373358416796E-2</v>
       </c>
       <c r="D49">
-        <v>0.0002990793878698403</v>
+        <v>4.9868886385447944E-3</v>
       </c>
       <c r="E49">
-        <v>0.07386399439375142</v>
+        <v>6.8314604655964728E-2</v>
       </c>
       <c r="F49">
-        <v>6.649230629648046</v>
+        <v>6.6492306296480459</v>
       </c>
       <c r="K49">
-        <v>7.236344966005796</v>
+        <v>8.2619662505544618</v>
       </c>
       <c r="L49">
-        <v>5.667066953847897</v>
+        <v>8.9166223321758036</v>
       </c>
       <c r="M49">
-        <v>7.422941275893644</v>
+        <v>8.3813490270122806</v>
       </c>
       <c r="N49">
-        <v>0.02592696336637776</v>
+        <v>3.0174786832329999E-2</v>
       </c>
       <c r="O49">
-        <v>0.0003544073822728229</v>
+        <v>3.677601887734065E-3</v>
       </c>
       <c r="P49">
-        <v>0.02731127270249264</v>
+        <v>2.7305532922236059E-2</v>
       </c>
       <c r="Q49">
-        <v>0.001996909340222665</v>
+        <v>2.207265843478533E-3</v>
       </c>
       <c r="R49">
-        <v>0.0006493511751254611</v>
+        <v>6.4897252003188197E-4</v>
       </c>
       <c r="S49">
-        <v>4.23671804799578E-07</v>
+        <v>1.145026543921451E-6</v>
       </c>
       <c r="T49">
-        <v>0.0173033813582567</v>
+        <v>1.6155693138278391E-2</v>
       </c>
       <c r="U49">
-        <v>0.003280696056190136</v>
+        <v>4.4916065945769931E-3</v>
       </c>
       <c r="V49">
-        <v>38.78694160422516</v>
+        <v>56.895703707448938</v>
       </c>
       <c r="W49">
-        <v>0.0002520487534498839</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+        <v>3.1700732694976122E-4</v>
+      </c>
+      <c r="X49">
+        <v>9.4833763753881241E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.897213252562146E-06</v>
+        <v>3.5631152532888391E-6</v>
       </c>
       <c r="C50">
-        <v>0.07081524295975906</v>
+        <v>6.7186959603029728E-2</v>
       </c>
       <c r="D50">
-        <v>0.0003070772053996079</v>
+        <v>5.1012289268856223E-3</v>
       </c>
       <c r="E50">
-        <v>0.07532363748884267</v>
+        <v>6.9556075025837438E-2</v>
       </c>
       <c r="F50">
-        <v>6.649230629648046</v>
+        <v>6.6492306296480459</v>
       </c>
       <c r="K50">
-        <v>7.23938115103693</v>
+        <v>8.257029694168839</v>
       </c>
       <c r="L50">
-        <v>5.678926405868108</v>
+        <v>8.9103365198045328</v>
       </c>
       <c r="M50">
-        <v>7.429281092782628</v>
+        <v>8.3783779463409207</v>
       </c>
       <c r="N50">
-        <v>0.02641874328914901</v>
+        <v>3.068434808126454E-2</v>
       </c>
       <c r="O50">
-        <v>0.0003643521223188886</v>
+        <v>3.7342166289047749E-3</v>
       </c>
       <c r="P50">
-        <v>0.02779808738253629</v>
+        <v>2.7788191904519852E-2</v>
       </c>
       <c r="Q50">
-        <v>0.002005867821834153</v>
+        <v>2.2576942613351499E-3</v>
       </c>
       <c r="R50">
-        <v>0.0006618305501893199</v>
+        <v>6.6143074106049657E-4</v>
       </c>
       <c r="S50">
-        <v>4.261259686398402E-07</v>
+        <v>1.1723326139774511E-6</v>
       </c>
       <c r="T50">
-        <v>0.01757304838329644</v>
+        <v>1.6380002494888041E-2</v>
       </c>
       <c r="U50">
-        <v>0.003354026644762891</v>
+        <v>4.5573834316813017E-3</v>
       </c>
       <c r="V50">
-        <v>38.95441763923635</v>
+        <v>57.037699535078289</v>
       </c>
       <c r="W50">
-        <v>0.0002593199226151697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>3.2324088273984468E-4</v>
+      </c>
+      <c r="X50">
+        <v>9.4799207859181888E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.855106536807557E-06</v>
+        <v>3.5445076007451939E-6</v>
       </c>
       <c r="C51">
-        <v>0.0721977560137661</v>
+        <v>6.8404326871189414E-2</v>
       </c>
       <c r="D51">
-        <v>0.0003155061321218312</v>
+        <v>5.2209798395079342E-3</v>
       </c>
       <c r="E51">
-        <v>0.07684085893201423</v>
+        <v>7.0844393756079913E-2</v>
       </c>
       <c r="F51">
-        <v>6.649230629648046</v>
+        <v>6.6492306296480459</v>
       </c>
       <c r="K51">
-        <v>7.242448862857798</v>
+        <v>8.2520110616002107</v>
       </c>
       <c r="L51">
-        <v>5.691063203210111</v>
+        <v>8.9039041707396169</v>
       </c>
       <c r="M51">
-        <v>7.435740606482628</v>
+        <v>8.3753617488657657</v>
       </c>
       <c r="N51">
-        <v>0.02692961370418489</v>
+        <v>3.121278203131081E-2</v>
       </c>
       <c r="O51">
-        <v>0.000374771980595325</v>
+        <v>3.7933521273203312E-3</v>
       </c>
       <c r="P51">
-        <v>0.02830381717784418</v>
+        <v>2.828878989752347E-2</v>
       </c>
       <c r="Q51">
-        <v>0.002015095914562995</v>
+        <v>2.310484998545137E-3</v>
       </c>
       <c r="R51">
-        <v>0.0006747992643897254</v>
+        <v>6.7437698436336954E-4</v>
       </c>
       <c r="S51">
-        <v>4.28487155488161E-07</v>
+        <v>1.201188454181972E-6</v>
       </c>
       <c r="T51">
-        <v>0.01785185273111083</v>
+        <v>1.6611818554950909E-2</v>
       </c>
       <c r="U51">
-        <v>0.003430833827960437</v>
+        <v>4.6258817196792252E-3</v>
       </c>
       <c r="V51">
-        <v>39.13671754172269</v>
+        <v>57.193210119865228</v>
       </c>
       <c r="W51">
-        <v>0.0002668416604715781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>3.2971831532325921E-4</v>
+      </c>
+      <c r="X51">
+        <v>9.4764077431201489E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.811332636173845E-06</v>
+        <v>3.5252151018922452E-6</v>
       </c>
       <c r="C52">
-        <v>0.073635401011399</v>
+        <v>6.9667993811823051E-2</v>
       </c>
       <c r="D52">
-        <v>0.0003244015168240299</v>
+        <v>5.346532182031548E-3</v>
       </c>
       <c r="E52">
-        <v>0.07841906274067589</v>
+        <v>7.2182262646040454E-2</v>
       </c>
       <c r="F52">
-        <v>6.649230629648046</v>
+        <v>6.6492306296480459</v>
       </c>
       <c r="K52">
-        <v>7.245548412062763</v>
+        <v>8.2469094038412827</v>
       </c>
       <c r="L52">
-        <v>5.70343612832668</v>
+        <v>8.8973325943088675</v>
       </c>
       <c r="M52">
-        <v>7.442299423960342</v>
+        <v>8.3723272536039204</v>
       </c>
       <c r="N52">
-        <v>0.02746071053865668</v>
+        <v>3.1761170629390621E-2</v>
       </c>
       <c r="O52">
-        <v>0.0003856834842147488</v>
+        <v>3.855206528000229E-3</v>
       </c>
       <c r="P52">
-        <v>0.0288295916031098</v>
+        <v>2.8808355995503038E-2</v>
       </c>
       <c r="Q52">
-        <v>0.002024730166810367</v>
+        <v>2.3657738003314581E-3</v>
       </c>
       <c r="R52">
-        <v>0.0006882866799344101</v>
+        <v>6.8784050028155327E-4</v>
       </c>
       <c r="S52">
-        <v>4.309521750425034E-07</v>
+        <v>1.2313194433480311E-6</v>
       </c>
       <c r="T52">
-        <v>0.01814027310917384</v>
+        <v>1.6851537291656352E-2</v>
       </c>
       <c r="U52">
-        <v>0.003511360268403536</v>
+        <v>4.6973659304951334E-3</v>
       </c>
       <c r="V52">
-        <v>39.33399109424973</v>
+        <v>57.362260785204491</v>
       </c>
       <c r="W52">
-        <v>0.0002746285228338852</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>3.364542008205449E-4</v>
+      </c>
+      <c r="X52">
+        <v>9.4728365826888979E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.764895294780776E-06</v>
+        <v>3.5046888875616999E-6</v>
       </c>
       <c r="C53">
-        <v>0.07513154385822705</v>
+        <v>7.0980676702226964E-2</v>
       </c>
       <c r="D53">
-        <v>0.0003338510617659439</v>
+        <v>5.4790229026103962E-3</v>
       </c>
       <c r="E53">
-        <v>0.08006112592224882</v>
+        <v>7.3572181347556137E-2</v>
       </c>
       <c r="F53">
-        <v>6.648468024397664</v>
+        <v>6.6484680243976637</v>
       </c>
       <c r="K53">
-        <v>7.2486771958609</v>
+        <v>8.2417226506166212</v>
       </c>
       <c r="L53">
-        <v>5.716027926233292</v>
+        <v>8.890559583695401</v>
       </c>
       <c r="M53">
-        <v>7.448940090959146</v>
+        <v>8.3692713372459853</v>
       </c>
       <c r="N53">
-        <v>0.02801326211119632</v>
+        <v>3.2330680100847567E-2</v>
       </c>
       <c r="O53">
-        <v>0.0003971183760478783</v>
+        <v>3.9202392178154903E-3</v>
       </c>
       <c r="P53">
-        <v>0.02937662959160571</v>
+        <v>2.9348000530098381E-2</v>
       </c>
       <c r="Q53">
-        <v>0.002034886795324336</v>
+        <v>2.4240260764228721E-3</v>
       </c>
       <c r="R53">
-        <v>0.0007023245519294992</v>
+        <v>7.0185293254355755E-4</v>
       </c>
       <c r="S53">
-        <v>4.336421788557644E-07</v>
+        <v>1.2630246115704909E-6</v>
       </c>
       <c r="T53">
-        <v>0.01843882235082221</v>
+        <v>1.709958160514943E-2</v>
       </c>
       <c r="U53">
-        <v>0.003596268652157443</v>
+        <v>4.7724245238181216E-3</v>
       </c>
       <c r="V53">
-        <v>39.5465551133099</v>
+        <v>57.545033462473931</v>
       </c>
       <c r="W53">
-        <v>0.0002826957377076958</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>3.4346439503782057E-4</v>
+      </c>
+      <c r="X53">
+        <v>9.4692058554316349E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.717460623262929E-06</v>
+        <v>3.4838970298474009E-6</v>
       </c>
       <c r="C54">
-        <v>0.07668982912482</v>
+        <v>7.2345294489718978E-2</v>
       </c>
       <c r="D54">
-        <v>0.0003438047252400805</v>
+        <v>5.6175455844043017E-3</v>
       </c>
       <c r="E54">
-        <v>0.08177255280526868</v>
+        <v>7.5018078834540938E-2</v>
       </c>
       <c r="F54">
-        <v>6.64844903928657</v>
+        <v>6.6484490392865698</v>
       </c>
       <c r="K54">
-        <v>7.251838199244813</v>
+        <v>8.2364433817610045</v>
       </c>
       <c r="L54">
-        <v>5.728876028459457</v>
+        <v>8.8836810128007144</v>
       </c>
       <c r="M54">
-        <v>7.455696977375812</v>
+        <v>8.3661963585663859</v>
       </c>
       <c r="N54">
-        <v>0.02858859843901191</v>
+        <v>3.2922564285910727E-2</v>
       </c>
       <c r="O54">
-        <v>0.0004091049774631444</v>
+        <v>3.9881253146880303E-3</v>
       </c>
       <c r="P54">
-        <v>0.02994624923319491</v>
+        <v>2.9908916664549961E-2</v>
       </c>
       <c r="Q54">
-        <v>0.00204546229097102</v>
+        <v>2.484887526562468E-3</v>
       </c>
       <c r="R54">
-        <v>0.000716947279215971</v>
+        <v>7.1644855562547397E-4</v>
       </c>
       <c r="S54">
-        <v>4.363406810725221E-07</v>
+        <v>1.2959599063945501E-6</v>
       </c>
       <c r="T54">
-        <v>0.01874804221954439</v>
+        <v>1.735639737767717E-2</v>
       </c>
       <c r="U54">
-        <v>0.003685109185962918</v>
+        <v>4.8505146446200182E-3</v>
       </c>
       <c r="V54">
-        <v>39.77458359804984</v>
+        <v>57.741552844045579</v>
       </c>
       <c r="W54">
-        <v>0.0002910605974296354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>3.5076600664011892E-4</v>
+      </c>
+      <c r="X54">
+        <v>9.4655103672327044E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.668037126661963E-06</v>
+        <v>3.4622964739448891E-6</v>
       </c>
       <c r="C55">
-        <v>0.07831421262268341</v>
+        <v>7.3765033828129933E-2</v>
       </c>
       <c r="D55">
-        <v>0.0003543570799497758</v>
+        <v>5.7632936462292611E-3</v>
       </c>
       <c r="E55">
-        <v>0.08355688753773151</v>
+        <v>7.6522978999592914E-2</v>
       </c>
       <c r="F55">
-        <v>6.648429790283442</v>
+        <v>6.6484297902834424</v>
       </c>
       <c r="K55">
-        <v>7.255029759908393</v>
+        <v>8.2310735821380412</v>
       </c>
       <c r="L55">
-        <v>5.741964865454387</v>
+        <v>8.8766396786867379</v>
       </c>
       <c r="M55">
-        <v>7.462553557883692</v>
+        <v>8.3631013061975068</v>
       </c>
       <c r="N55">
-        <v>0.02918816212968316</v>
+        <v>3.3538190647000581E-2</v>
       </c>
       <c r="O55">
-        <v>0.0004216804596238655</v>
+        <v>4.0593607106307944E-3</v>
       </c>
       <c r="P55">
-        <v>0.03053988299792308</v>
+        <v>3.049240664620927E-2</v>
       </c>
       <c r="Q55">
-        <v>0.00205657499940703</v>
+        <v>2.5488484341563678E-3</v>
       </c>
       <c r="R55">
-        <v>0.00073219219280182</v>
+        <v>7.31664568300348E-4</v>
       </c>
       <c r="S55">
-        <v>4.392090642062891E-07</v>
+        <v>1.330493304608783E-6</v>
       </c>
       <c r="T55">
-        <v>0.0190685301564291</v>
+        <v>1.7622479989018811E-2</v>
       </c>
       <c r="U55">
-        <v>0.003778586539920398</v>
+        <v>4.9322560302018119E-3</v>
       </c>
       <c r="V55">
-        <v>40.0184204945827</v>
+        <v>57.952002592103213</v>
       </c>
       <c r="W55">
-        <v>0.0002997414348933119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <v>3.5837763007051589E-4</v>
+      </c>
+      <c r="X55">
+        <v>9.4617515074966291E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.616499795905434E-06</v>
+        <v>3.439839472451348E-6</v>
       </c>
       <c r="C56">
-        <v>0.08000899209100371</v>
+        <v>7.5243332527736476E-2</v>
       </c>
       <c r="D56">
-        <v>0.0003655630136531259</v>
+        <v>5.9168426130701461E-3</v>
       </c>
       <c r="E56">
-        <v>0.08541877724618656</v>
+        <v>7.8090561665271799E-2</v>
       </c>
       <c r="F56">
-        <v>6.648410265831224</v>
+        <v>6.6484102658312239</v>
       </c>
       <c r="K56">
-        <v>7.258251914867538</v>
+        <v>8.2256055341799748</v>
       </c>
       <c r="L56">
-        <v>5.75529371157255</v>
+        <v>8.8694251237715847</v>
       </c>
       <c r="M56">
-        <v>7.46950868646592</v>
+        <v>8.3599862982534976</v>
       </c>
       <c r="N56">
-        <v>0.02981352042685836</v>
+        <v>3.4179034776052102E-2</v>
       </c>
       <c r="O56">
-        <v>0.000434881708636741</v>
+        <v>4.1341974563186947E-3</v>
       </c>
       <c r="P56">
-        <v>0.0311590853457169</v>
+        <v>3.1099875302993019E-2</v>
       </c>
       <c r="Q56">
-        <v>0.002068281377693419</v>
+        <v>2.616148179978304E-3</v>
       </c>
       <c r="R56">
-        <v>0.0007480998663613333</v>
+        <v>7.4754139601764674E-4</v>
       </c>
       <c r="S56">
-        <v>4.422467123346998E-07</v>
+        <v>1.366707847141666E-6</v>
       </c>
       <c r="T56">
-        <v>0.01940092023504886</v>
+        <v>1.7898354422906139E-2</v>
       </c>
       <c r="U56">
-        <v>0.003877072186755764</v>
+        <v>5.017914739193394E-3</v>
       </c>
       <c r="V56">
-        <v>40.27847936574728</v>
+        <v>58.17662078880749</v>
       </c>
       <c r="W56">
-        <v>0.0003087581455171672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>3.6631942255542499E-4</v>
+      </c>
+      <c r="X56">
+        <v>9.4579238739259821E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.562713258730863E-06</v>
+        <v>3.4164745568997911E-6</v>
       </c>
       <c r="C57">
-        <v>0.08177884607050039</v>
+        <v>7.6783921192506835E-2</v>
       </c>
       <c r="D57">
-        <v>0.0003774842601604782</v>
+        <v>6.0788300939739002E-3</v>
       </c>
       <c r="E57">
-        <v>0.08736326300733954</v>
+        <v>7.9724817157018554E-2</v>
       </c>
       <c r="F57">
-        <v>6.648390453577039</v>
+        <v>6.6483904535770391</v>
       </c>
       <c r="K57">
-        <v>7.26150677097297</v>
+        <v>8.220040050441078</v>
       </c>
       <c r="L57">
-        <v>5.768889968970607</v>
+        <v>8.862034940197054</v>
       </c>
       <c r="M57">
-        <v>7.476575215400655</v>
+        <v>8.3568552838672936</v>
       </c>
       <c r="N57">
-        <v>0.03046637906504107</v>
+        <v>3.4846697827601733E-2</v>
       </c>
       <c r="O57">
-        <v>0.0004487595631755245</v>
+        <v>4.2129323828059249E-3</v>
       </c>
       <c r="P57">
-        <v>0.03180554765611743</v>
+        <v>3.1732847016837797E-2</v>
       </c>
       <c r="Q57">
-        <v>0.002080583639623681</v>
+        <v>2.6870518732638308E-3</v>
       </c>
       <c r="R57">
-        <v>0.000764714480131311</v>
+        <v>7.6412305575476909E-4</v>
       </c>
       <c r="S57">
-        <v>4.45464799111563E-07</v>
+        <v>1.404717134065695E-6</v>
       </c>
       <c r="T57">
-        <v>0.01974589463612204</v>
+        <v>1.8184586415877529E-2</v>
       </c>
       <c r="U57">
-        <v>0.00398098612374838</v>
+        <v>5.1077981894390532E-3</v>
       </c>
       <c r="V57">
-        <v>40.55524931599891</v>
+        <v>58.41570542529719</v>
       </c>
       <c r="W57">
-        <v>0.0003181329548200655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>3.7461350097334802E-4</v>
+      </c>
+      <c r="X57">
+        <v>9.4540280353087556E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.506530587468785E-06</v>
+        <v>3.392146113817765E-6</v>
       </c>
       <c r="C58">
-        <v>0.08362887702073539</v>
+        <v>7.8390855081109864E-2</v>
       </c>
       <c r="D58">
-        <v>0.0003901905008296561</v>
+        <v>6.24996439643537E-3</v>
       </c>
       <c r="E58">
-        <v>0.08939582131103124</v>
+        <v>8.1430079427880858E-2</v>
       </c>
       <c r="F58">
         <v>6.648370340298662</v>
       </c>
       <c r="K58">
-        <v>7.264792471683229</v>
+        <v>8.2143689880481787</v>
       </c>
       <c r="L58">
-        <v>5.782742966844626</v>
+        <v>8.8544526157492616</v>
       </c>
       <c r="M58">
-        <v>7.483746836320044</v>
+        <v>8.3537029975934303</v>
       </c>
       <c r="N58">
-        <v>0.03114859769008347</v>
+        <v>3.5542919769528912E-2</v>
       </c>
       <c r="O58">
-        <v>0.0004633547556452316</v>
+        <v>4.2958576453139222E-3</v>
       </c>
       <c r="P58">
-        <v>0.03248111502012865</v>
+        <v>3.2392978724646297E-2</v>
       </c>
       <c r="Q58">
-        <v>0.002093570358150705</v>
+        <v>2.7618580743782851E-3</v>
       </c>
       <c r="R58">
-        <v>0.00078208423047977</v>
+        <v>7.8145756345069414E-4</v>
       </c>
       <c r="S58">
-        <v>4.488924909152159E-07</v>
+        <v>1.4446801925012229E-6</v>
       </c>
       <c r="T58">
-        <v>0.02010418801140326</v>
+        <v>1.848178614829659E-2</v>
       </c>
       <c r="U58">
-        <v>0.004090785367061076</v>
+        <v>5.2022152983194946E-3</v>
       </c>
       <c r="V58">
-        <v>40.84929746445319</v>
+        <v>58.669609515112207</v>
       </c>
       <c r="W58">
-        <v>0.0003278893013150911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>3.8328373685533347E-4</v>
+      </c>
+      <c r="X58">
+        <v>9.4500582916337246E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.44779216857432E-06</v>
+        <v>3.3667940199996108E-6</v>
       </c>
       <c r="C59">
-        <v>0.08556466042817505</v>
+        <v>8.0068550213311593E-2</v>
       </c>
       <c r="D59">
-        <v>0.0004037606702396261</v>
+        <v>6.4310344180687276E-3</v>
       </c>
       <c r="E59">
-        <v>0.09152241093162129</v>
+        <v>8.3211063571137778E-2</v>
       </c>
       <c r="F59">
-        <v>6.648349911820254</v>
+        <v>6.6483499118202536</v>
       </c>
       <c r="K59">
-        <v>7.268110725417085</v>
+        <v>8.2085920629658382</v>
       </c>
       <c r="L59">
-        <v>5.796883587676244</v>
+        <v>8.8466755889821709</v>
       </c>
       <c r="M59">
-        <v>7.49103764397457</v>
+        <v>8.3505366126640563</v>
       </c>
       <c r="N59">
-        <v>0.03186220799088436</v>
+        <v>3.6269595632882741E-2</v>
       </c>
       <c r="O59">
-        <v>0.0004787285131837773</v>
+        <v>4.3833441668816734E-3</v>
       </c>
       <c r="P59">
-        <v>0.03318780210529092</v>
+        <v>3.30820745537223E-2</v>
       </c>
       <c r="Q59">
-        <v>0.002107247777998038</v>
+        <v>2.8408912929828011E-3</v>
       </c>
       <c r="R59">
-        <v>0.0008002617964795108</v>
+        <v>7.9959739794507076E-4</v>
       </c>
       <c r="S59">
-        <v>4.52546001260359E-07</v>
+        <v>1.486728057353514E-6</v>
       </c>
       <c r="T59">
-        <v>0.02047659272406238</v>
+        <v>1.8790613377365831E-2</v>
       </c>
       <c r="U59">
-        <v>0.004206992162959985</v>
+        <v>5.3015467366391983E-3</v>
       </c>
       <c r="V59">
-        <v>41.16127797705283</v>
+        <v>58.938753684283597</v>
       </c>
       <c r="W59">
-        <v>0.0003380536305961217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>3.9235643293143529E-4</v>
+      </c>
+      <c r="X59">
+        <v>9.4460144440760874E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.386324280206018E-06</v>
+        <v>3.3403531576692171E-6</v>
       </c>
       <c r="C60">
-        <v>0.08759230089860207</v>
+        <v>8.1821824398912599E-2</v>
       </c>
       <c r="D60">
-        <v>0.0004182845375124088</v>
+        <v>6.6229213657737459E-3</v>
       </c>
       <c r="E60">
-        <v>0.09374952564927018</v>
+        <v>8.5072908235125713E-2</v>
       </c>
       <c r="F60">
-        <v>6.648329152919128</v>
+        <v>6.6483291529191284</v>
       </c>
       <c r="K60">
-        <v>7.271458037297392</v>
+        <v>8.202699140724441</v>
       </c>
       <c r="L60">
-        <v>5.811291364274441</v>
+        <v>8.8386822916620051</v>
       </c>
       <c r="M60">
-        <v>7.498435878220836</v>
+        <v>8.347347859594187</v>
       </c>
       <c r="N60">
-        <v>0.03260943369273436</v>
+        <v>3.7028792096358953E-2</v>
       </c>
       <c r="O60">
-        <v>0.0004949274437583818</v>
+        <v>4.4757467256770324E-3</v>
       </c>
       <c r="P60">
-        <v>0.03392781530355979</v>
+        <v>3.380210272659704E-2</v>
       </c>
       <c r="Q60">
-        <v>0.002121741482047467</v>
+        <v>2.924524222860732E-3</v>
       </c>
       <c r="R60">
-        <v>0.00081930487387185</v>
+        <v>8.1860003294239713E-4</v>
       </c>
       <c r="S60">
-        <v>4.564668631468242E-07</v>
+        <v>1.531063460608788E-6</v>
       </c>
       <c r="T60">
-        <v>0.02086396416599338</v>
+        <v>1.911178163071646E-2</v>
       </c>
       <c r="U60">
-        <v>0.00433017646353456</v>
+        <v>5.4061654229845199E-3</v>
       </c>
       <c r="V60">
-        <v>41.49193601863809</v>
+        <v>59.223618600506533</v>
       </c>
       <c r="W60">
-        <v>0.0003486538660447306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>4.0186023860668658E-4</v>
+      </c>
+      <c r="X60">
+        <v>9.4418893985071098E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.32193758885642E-06</v>
+        <v>3.312752924300032E-6</v>
       </c>
       <c r="C61">
-        <v>0.08971849641960426</v>
+        <v>8.3655943985086717E-2</v>
       </c>
       <c r="D61">
-        <v>0.0004338646140643459</v>
+        <v>6.8266124637725439E-3</v>
       </c>
       <c r="E61">
-        <v>0.09608425392904886</v>
+        <v>8.7021223819891469E-2</v>
       </c>
       <c r="F61">
         <v>6.648308047219623</v>
       </c>
       <c r="K61">
-        <v>7.274839437786737</v>
+        <v>8.1966920191069725</v>
       </c>
       <c r="L61">
-        <v>5.826008469490061</v>
+        <v>8.8304692484885301</v>
       </c>
       <c r="M61">
-        <v>7.505960049399928</v>
+        <v>8.3441444671192677</v>
       </c>
       <c r="N61">
-        <v>0.03339271433295329</v>
+        <v>3.7822768812717053E-2</v>
       </c>
       <c r="O61">
-        <v>0.0005120291429970315</v>
+        <v>4.5735228545937361E-3</v>
       </c>
       <c r="P61">
-        <v>0.03470357320164545</v>
+        <v>3.4555214397419882E-2</v>
       </c>
       <c r="Q61">
-        <v>0.00213705284055014</v>
+        <v>3.0131615551421049E-3</v>
       </c>
       <c r="R61">
-        <v>0.0008392767862379159</v>
+        <v>8.3852854439317242E-4</v>
       </c>
       <c r="S61">
-        <v>4.606763291772668E-07</v>
+        <v>1.577853093308181E-6</v>
       </c>
       <c r="T61">
-        <v>0.0212672272806875</v>
+        <v>1.9446064952856262E-2</v>
       </c>
       <c r="U61">
-        <v>0.00446099743071128</v>
+        <v>5.5165392289107029E-3</v>
       </c>
       <c r="V61">
-        <v>41.84212100168904</v>
+        <v>59.524762142769212</v>
       </c>
       <c r="W61">
-        <v>0.0003597221165964095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>4.1182678578054752E-4</v>
+      </c>
+      <c r="X61">
+        <v>9.4376844133748815E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.254425412663707E-06</v>
+        <v>3.283916663964898E-6</v>
       </c>
       <c r="C62">
-        <v>0.09195061221474277</v>
+        <v>8.5576677273119559E-2</v>
       </c>
       <c r="D62">
-        <v>0.0004506184801607703</v>
+        <v>7.0432171894641432E-3</v>
       </c>
       <c r="E62">
-        <v>0.09853434646577172</v>
+        <v>8.9062147318560991E-2</v>
       </c>
       <c r="F62">
         <v>6.648286577074539</v>
       </c>
       <c r="K62">
-        <v>7.278250942699174</v>
+        <v>8.1905602999975322</v>
       </c>
       <c r="L62">
-        <v>5.841011548813184</v>
+        <v>8.8220191375911678</v>
       </c>
       <c r="M62">
-        <v>7.51359606827007</v>
+        <v>8.3409234333382187</v>
       </c>
       <c r="N62">
-        <v>0.03421473146270219</v>
+        <v>3.8653999961670127E-2</v>
       </c>
       <c r="O62">
-        <v>0.0005300919194489988</v>
+        <v>4.6771402539822239E-3</v>
       </c>
       <c r="P62">
-        <v>0.03551773621067283</v>
+        <v>3.5343765718476819E-2</v>
       </c>
       <c r="Q62">
-        <v>0.002153334394180038</v>
+        <v>3.1072651134465938E-3</v>
       </c>
       <c r="R62">
-        <v>0.0008602471889856345</v>
+        <v>8.5945231167566902E-4</v>
       </c>
       <c r="S62">
-        <v>4.652286050444614E-07</v>
+        <v>1.627325380288192E-6</v>
       </c>
       <c r="T62">
-        <v>0.02168738302693691</v>
+        <v>1.9794303095954899E-2</v>
       </c>
       <c r="U62">
-        <v>0.00460017810588137</v>
+        <v>5.6331511656971499E-3</v>
       </c>
       <c r="V62">
-        <v>42.21279271381716</v>
+        <v>59.842816549979247</v>
       </c>
       <c r="W62">
-        <v>0.0003712923215370967</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>4.2229068349223739E-4</v>
+      </c>
+      <c r="X62">
+        <v>9.4333922099982721E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.183561772764089E-06</v>
+        <v>3.253761038528823E-6</v>
       </c>
       <c r="C63">
-        <v>0.09429676590024488</v>
+        <v>8.7590355736803044E-2</v>
       </c>
       <c r="D63">
-        <v>0.0004686816364458644</v>
+        <v>7.2739865345576834E-3</v>
       </c>
       <c r="E63">
-        <v>0.1011082928326886</v>
+        <v>9.1202404906639528E-2</v>
       </c>
       <c r="F63">
         <v>6.648264723429449</v>
       </c>
       <c r="K63">
-        <v>7.281695408882768</v>
+        <v>8.1843045750059904</v>
       </c>
       <c r="L63">
-        <v>5.856343881024966</v>
+        <v>8.8133237906656241</v>
       </c>
       <c r="M63">
-        <v>7.521360665119058</v>
+        <v>8.3376904345801091</v>
       </c>
       <c r="N63">
-        <v>0.03507844016893946</v>
+        <v>3.952520149263649E-2</v>
       </c>
       <c r="O63">
-        <v>0.0005492105706745562</v>
+        <v>4.787162494817046E-3</v>
       </c>
       <c r="P63">
-        <v>0.03637323369314701</v>
+        <v>3.6170342657067339E-2</v>
       </c>
       <c r="Q63">
-        <v>0.002170613308273143</v>
+        <v>3.2073495364920161E-3</v>
       </c>
       <c r="R63">
-        <v>0.0008822928802774446</v>
+        <v>8.8144782414478144E-4</v>
       </c>
       <c r="S63">
-        <v>4.701591134066943E-07</v>
+        <v>1.679702690985907E-6</v>
       </c>
       <c r="T63">
-        <v>0.02212551648645115</v>
+        <v>2.0157409555705101E-2</v>
       </c>
       <c r="U63">
-        <v>0.004748558025061382</v>
+        <v>5.7565740968093457E-3</v>
       </c>
       <c r="V63">
-        <v>42.60503874245132</v>
+        <v>60.178502729340821</v>
       </c>
       <c r="W63">
-        <v>0.0003834029763487496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>4.3329020895666872E-4</v>
+      </c>
+      <c r="X63">
+        <v>9.4290132025041939E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.109099185657336E-06</v>
+        <v>3.2221953231907382E-6</v>
       </c>
       <c r="C64">
-        <v>0.09676592601245011</v>
+        <v>8.9703944400020039E-2</v>
       </c>
       <c r="D64">
-        <v>0.0004882110250301331</v>
+        <v>7.5203359794102902E-3</v>
       </c>
       <c r="E64">
-        <v>0.1038154086393792</v>
+        <v>9.3449383574016234E-2</v>
       </c>
       <c r="F64">
-        <v>6.648242465670467</v>
+        <v>6.6482424656704673</v>
       </c>
       <c r="K64">
-        <v>7.285169480934605</v>
+        <v>8.177915050176491</v>
       </c>
       <c r="L64">
-        <v>5.872005178280763</v>
+        <v>8.8043622705486104</v>
       </c>
       <c r="M64">
-        <v>7.5292482676888</v>
+        <v>8.3344418349952551</v>
       </c>
       <c r="N64">
-        <v>0.03598710410573591</v>
+        <v>4.0439360413631727E-2</v>
       </c>
       <c r="O64">
-        <v>0.0005694722574756071</v>
+        <v>4.9041824399372351E-3</v>
       </c>
       <c r="P64">
-        <v>0.03727330265064369</v>
+        <v>3.70377898444509E-2</v>
       </c>
       <c r="Q64">
-        <v>0.002189026339643351</v>
+        <v>3.3140008912133242E-3</v>
       </c>
       <c r="R64">
-        <v>0.0009054987413607087</v>
+        <v>9.0459961681461822E-4</v>
       </c>
       <c r="S64">
-        <v>4.75530257913862E-07</v>
+        <v>1.7352740497740051E-6</v>
       </c>
       <c r="T64">
-        <v>0.02258280486701404</v>
+        <v>2.053637890988657E-2</v>
       </c>
       <c r="U64">
-        <v>0.004907076744227377</v>
+        <v>5.887416131821404E-3</v>
       </c>
       <c r="V64">
-        <v>43.0200865761167</v>
+        <v>60.532631057810796</v>
       </c>
       <c r="W64">
-        <v>0.0003960957169634864</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>4.4486759182198459E-4</v>
+      </c>
+      <c r="X64">
+        <v>9.4245405351235452E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.030766104803956E-06</v>
+        <v>3.1891205891796042E-6</v>
       </c>
       <c r="C65">
-        <v>0.09936802641751553</v>
+        <v>9.1925123005982462E-2</v>
       </c>
       <c r="D65">
-        <v>0.0005093894151910388</v>
+        <v>7.783873090632578E-3</v>
       </c>
       <c r="E65">
-        <v>0.10666593473785</v>
+        <v>9.581121329239653E-2</v>
       </c>
       <c r="F65">
         <v>6.64821978144911</v>
       </c>
       <c r="K65">
-        <v>7.288675395202251</v>
+        <v>8.1713881031323385</v>
       </c>
       <c r="L65">
-        <v>5.888016110320804</v>
+        <v>8.7951215434455996</v>
       </c>
       <c r="M65">
-        <v>7.537261546965205</v>
+        <v>8.331182334964403</v>
       </c>
       <c r="N65">
-        <v>0.03694433739893213</v>
+        <v>4.1399770629136988E-2</v>
       </c>
       <c r="O65">
-        <v>0.0005909860233592278</v>
+        <v>5.0289060684087566E-3</v>
       </c>
       <c r="P65">
-        <v>0.03822152633472477</v>
+        <v>3.794924359994381E-2</v>
       </c>
       <c r="Q65">
-        <v>0.002208689426172319</v>
+        <v>3.4278791064742639E-3</v>
       </c>
       <c r="R65">
-        <v>0.0009299588281472709</v>
+        <v>9.2900135580826267E-4</v>
       </c>
       <c r="S65">
-        <v>4.814083821132215E-07</v>
+        <v>1.79433250940712E-6</v>
       </c>
       <c r="T65">
-        <v>0.02306052724871098</v>
+        <v>2.0932296822807249E-2</v>
       </c>
       <c r="U65">
-        <v>0.005076813302292519</v>
+        <v>6.026390527171346E-3</v>
       </c>
       <c r="V65">
-        <v>43.45932321052769</v>
+        <v>60.9061174112231</v>
       </c>
       <c r="W65">
-        <v>0.0004094175317024848</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+        <v>4.5706969470346039E-4</v>
+      </c>
+      <c r="X65">
+        <v>9.4199716721926383E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.948264208771829E-06</v>
+        <v>3.154428886825657E-6</v>
       </c>
       <c r="C66">
-        <v>0.1021140996675801</v>
+        <v>9.4262379948075528E-2</v>
       </c>
       <c r="D66">
-        <v>0.0005324308861936114</v>
+        <v>8.0664305649723964E-3</v>
       </c>
       <c r="E66">
-        <v>0.1096711507617742</v>
+        <v>9.8296861727108331E-2</v>
       </c>
       <c r="F66">
-        <v>6.648196646482337</v>
+        <v>6.6481966464823374</v>
       </c>
       <c r="K66">
-        <v>7.292212198914275</v>
+        <v>8.1647149254262938</v>
       </c>
       <c r="L66">
-        <v>5.904407923518255</v>
+        <v>8.7855793941988125</v>
       </c>
       <c r="M66">
-        <v>7.545405479858419</v>
+        <v>8.3279104097005128</v>
       </c>
       <c r="N66">
-        <v>0.03795415271492027</v>
+        <v>4.241007242249055E-2</v>
       </c>
       <c r="O66">
-        <v>0.0006138813361102966</v>
+        <v>5.1621096367422004E-3</v>
       </c>
       <c r="P66">
-        <v>0.0392218829155179</v>
+        <v>3.8908170391429082E-2</v>
       </c>
       <c r="Q66">
-        <v>0.002229723155062501</v>
+        <v>3.549739251072514E-3</v>
       </c>
       <c r="R66">
-        <v>0.0009557776453629698</v>
+        <v>9.5475710645545305E-4</v>
       </c>
       <c r="S66">
-        <v>4.878699926049711E-07</v>
+        <v>1.857238601767516E-6</v>
       </c>
       <c r="T66">
-        <v>0.02356007485833372</v>
+        <v>2.1346349775463801E-2</v>
       </c>
       <c r="U66">
-        <v>0.005259007836066693</v>
+        <v>6.1742823802782287E-3</v>
       </c>
       <c r="V66">
-        <v>43.92431760407543</v>
+        <v>61.299990534590108</v>
       </c>
       <c r="W66">
-        <v>0.0004234202912177887</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+        <v>4.6994843952182489E-4</v>
+      </c>
+      <c r="X66">
+        <v>9.4153004477984051E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.861265001134721E-06</v>
+        <v>3.1180021700654228E-6</v>
       </c>
       <c r="C67">
-        <v>0.105016433061334</v>
+        <v>9.6725121359021338E-2</v>
       </c>
       <c r="D67">
-        <v>0.000557587794559144</v>
+        <v>8.370106610312315E-3</v>
       </c>
       <c r="E67">
-        <v>0.1128435045613472</v>
+        <v>0.10091624339979011</v>
       </c>
       <c r="F67">
-        <v>6.648173034325443</v>
+        <v>6.6481730343254428</v>
       </c>
       <c r="K67">
-        <v>7.295780009984418</v>
+        <v>8.1578916397962864</v>
       </c>
       <c r="L67">
-        <v>5.921205287884386</v>
+        <v>8.7757183273169144</v>
       </c>
       <c r="M67">
-        <v>7.553678798231461</v>
+        <v>8.3246304086180754</v>
       </c>
       <c r="N67">
-        <v>0.0390210176114577</v>
+        <v>4.347429993065479E-2</v>
       </c>
       <c r="O67">
-        <v>0.0006383041210686904</v>
+        <v>5.3047013001507257E-3</v>
       </c>
       <c r="P67">
-        <v>0.04027880176581664</v>
+        <v>3.9918411281153553E-2</v>
       </c>
       <c r="Q67">
-        <v>0.002252295056338857</v>
+        <v>3.6804392283389209E-3</v>
       </c>
       <c r="R67">
-        <v>0.0009830716389449801</v>
+        <v>9.8198281696555852E-4</v>
       </c>
       <c r="S67">
-        <v>4.950132413083529E-07</v>
+        <v>1.9243786537726009E-6</v>
       </c>
       <c r="T67">
-        <v>0.02408296248754135</v>
+        <v>2.1779837415326238E-2</v>
       </c>
       <c r="U67">
-        <v>0.005455086577067369</v>
+        <v>6.3320021413009863E-3</v>
       </c>
       <c r="V67">
-        <v>44.41684639842717</v>
+        <v>61.715410102274618</v>
       </c>
       <c r="W67">
-        <v>0.0004381618060407801</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+        <v>4.835618921732948E-4</v>
+      </c>
+      <c r="X67">
+        <v>9.410524147857401E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.76940632505737E-06</v>
+        <v>3.0797112875037329E-6</v>
       </c>
       <c r="C68">
-        <v>0.1080887520397686</v>
+        <v>9.9323798263395144E-2</v>
       </c>
       <c r="D68">
-        <v>0.0005851596341390068</v>
+        <v>8.6973137142415773E-3</v>
       </c>
       <c r="E68">
-        <v>0.1161967611350021</v>
+        <v>0.1036803463976132</v>
       </c>
       <c r="F68">
-        <v>6.648148916106422</v>
+        <v>6.6481489161064218</v>
       </c>
       <c r="K68">
-        <v>7.299376800477899</v>
+        <v>8.1509101261660337</v>
       </c>
       <c r="L68">
-        <v>5.938439825471963</v>
+        <v>8.7655164315170602</v>
       </c>
       <c r="M68">
-        <v>7.562080590466871</v>
+        <v>8.3213439972777863</v>
       </c>
       <c r="N68">
-        <v>0.04014992094941032</v>
+        <v>4.4596935184493147E-2</v>
       </c>
       <c r="O68">
-        <v>0.0006644266635211488</v>
+        <v>5.4577076303831389E-3</v>
       </c>
       <c r="P68">
-        <v>0.04139722843374245</v>
+        <v>4.0984233988589268E-2</v>
       </c>
       <c r="Q68">
-        <v>0.002276595623429694</v>
+        <v>3.8209652751406481E-3</v>
       </c>
       <c r="R68">
-        <v>0.001011970951465676</v>
+        <v>1.0108080651511991E-3</v>
       </c>
       <c r="S68">
-        <v>5.029561315750284E-07</v>
+        <v>1.9962082898036199E-6</v>
       </c>
       <c r="T68">
-        <v>0.02463084119079058</v>
+        <v>2.22341855116211E-2</v>
       </c>
       <c r="U68">
-        <v>0.005666703504730858</v>
+        <v>6.5005753775521664E-3</v>
       </c>
       <c r="V68">
-        <v>44.93892604628324</v>
+        <v>62.153681020373263</v>
       </c>
       <c r="W68">
-        <v>0.0004537066490611132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+        <v>4.979747938539306E-4</v>
+      </c>
+      <c r="X68">
+        <v>9.4056370883162246E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.672288056768538E-06</v>
+        <v>3.0394146858881529E-6</v>
       </c>
       <c r="C69">
-        <v>0.111346436658121</v>
+        <v>0.1020700553709453</v>
       </c>
       <c r="D69">
-        <v>0.0006155045038332345</v>
+        <v>9.0508388276611951E-3</v>
       </c>
       <c r="E69">
-        <v>0.1197461731926181</v>
+        <v>0.1066013794390092</v>
       </c>
       <c r="F69">
-        <v>6.648124260222573</v>
+        <v>6.6481242602225734</v>
       </c>
       <c r="K69">
-        <v>7.303004736571759</v>
+        <v>8.1437593231783154</v>
       </c>
       <c r="L69">
-        <v>5.956160529987471</v>
+        <v>8.754942007661505</v>
       </c>
       <c r="M69">
-        <v>7.57061383284399</v>
+        <v>8.3180497647511178</v>
       </c>
       <c r="N69">
-        <v>0.04134645107928574</v>
+        <v>4.5782972383102541E-2</v>
       </c>
       <c r="O69">
-        <v>0.0006924578079245064</v>
+        <v>5.6222964977650294E-3</v>
       </c>
       <c r="P69">
-        <v>0.04258270215526708</v>
+        <v>4.2110393646572562E-2</v>
       </c>
       <c r="Q69">
-        <v>0.002302825016858444</v>
+        <v>3.9724593440714677E-3</v>
       </c>
       <c r="R69">
-        <v>0.001042621496778831</v>
+        <v>1.041378121419726E-3</v>
       </c>
       <c r="S69">
-        <v>5.118382365795494E-07</v>
+        <v>2.0732710300252588E-6</v>
       </c>
       <c r="T69">
-        <v>0.02520551202976209</v>
+        <v>2.2710961576289861E-2</v>
       </c>
       <c r="U69">
-        <v>0.005895791875314086</v>
+        <v>6.6811625227880516E-3</v>
       </c>
       <c r="V69">
-        <v>45.49285272155887</v>
+        <v>62.61627053634988</v>
       </c>
       <c r="W69">
-        <v>0.000470127370868833</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+        <v>5.1325973310013969E-4</v>
+      </c>
+      <c r="X69">
+        <v>9.4006315262248204E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.569467491269106E-06</v>
+        <v>2.9969571123330001E-6</v>
       </c>
       <c r="C70">
-        <v>0.1148067782879425</v>
+        <v>0.1049769058879229</v>
       </c>
       <c r="D70">
-        <v>0.000649054036706575</v>
+        <v>9.4339172631199043E-3</v>
       </c>
       <c r="E70">
-        <v>0.1235086779309766</v>
+        <v>0.1096929436420854</v>
       </c>
       <c r="F70">
-        <v>6.648099031986281</v>
+        <v>6.6480990319862814</v>
       </c>
       <c r="K70">
-        <v>7.306661338248415</v>
+        <v>8.1364344324119724</v>
       </c>
       <c r="L70">
-        <v>5.974411260526162</v>
+        <v>8.7439728752991925</v>
       </c>
       <c r="M70">
-        <v>7.579275702046515</v>
+        <v>8.3147534392907527</v>
       </c>
       <c r="N70">
-        <v>0.04261688836901579</v>
+        <v>4.7037993504519343E-2</v>
       </c>
       <c r="O70">
-        <v>0.0007226379491211182</v>
+        <v>5.7998504605813852E-3</v>
       </c>
       <c r="P70">
-        <v>0.04384144831584235</v>
+        <v>4.3302204093525733E-2</v>
       </c>
       <c r="Q70">
-        <v>0.002331244447837533</v>
+        <v>4.1362356019493118E-3</v>
       </c>
       <c r="R70">
-        <v>0.001075187423608276</v>
+        <v>1.0738563979944039E-3</v>
       </c>
       <c r="S70">
-        <v>5.218367314968235E-07</v>
+        <v>2.1561595530892891E-6</v>
       </c>
       <c r="T70">
-        <v>0.02580894078458859</v>
+        <v>2.3211892796711799E-2</v>
       </c>
       <c r="U70">
-        <v>0.006144616536435469</v>
+        <v>6.8751259151901591E-3</v>
       </c>
       <c r="V70">
-        <v>46.081249382</v>
+        <v>63.104837473471321</v>
       </c>
       <c r="W70">
-        <v>0.0004875059835846539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+        <v>5.2949836409919664E-4</v>
+      </c>
+      <c r="X70">
+        <v>9.3955041026883806E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.460453889047013E-06</v>
+        <v>2.952168075233055E-6</v>
       </c>
       <c r="C71">
-        <v>0.1184892855218533</v>
+        <v>0.1080589377790456</v>
       </c>
       <c r="D71">
-        <v>0.0006863331396004057</v>
+        <v>9.8503247529877786E-3</v>
       </c>
       <c r="E71">
-        <v>0.127503123599935</v>
+        <v>0.1129702334992589</v>
       </c>
       <c r="F71">
-        <v>6.648073193212652</v>
+        <v>6.6480731932126522</v>
       </c>
       <c r="K71">
-        <v>7.310346803460482</v>
+        <v>8.1289259186465426</v>
       </c>
       <c r="L71">
-        <v>5.993248888662954</v>
+        <v>8.7325789599469559</v>
       </c>
       <c r="M71">
-        <v>7.588065837448986</v>
+        <v>8.3114588187136835</v>
       </c>
       <c r="N71">
-        <v>0.04396831580191562</v>
+        <v>4.8368256183356051E-2</v>
       </c>
       <c r="O71">
-        <v>0.0007552548213659538</v>
+        <v>5.9919622397246134E-3</v>
       </c>
       <c r="P71">
-        <v>0.04518048715029412</v>
+        <v>4.4565622431963672E-2</v>
       </c>
       <c r="Q71">
-        <v>0.002362146516149321</v>
+        <v>4.3138275973944968E-3</v>
       </c>
       <c r="R71">
-        <v>0.001109854055443011</v>
+        <v>1.1084273734279951E-3</v>
       </c>
       <c r="S71">
-        <v>5.331684396578702E-07</v>
+        <v>2.245579590134173E-6</v>
       </c>
       <c r="T71">
-        <v>0.0264432738248516</v>
+        <v>2.3738885276760879E-2</v>
       </c>
       <c r="U71">
-        <v>0.00641585753149701</v>
+        <v>7.0840249052643647E-3</v>
       </c>
       <c r="V71">
-        <v>46.70712553188293</v>
+        <v>63.621257980245439</v>
       </c>
       <c r="W71">
-        <v>0.0005059347013416188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+        <v>5.4678316813119669E-4</v>
+      </c>
+      <c r="X71">
+        <v>9.3902481430525801E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.344702475785814E-06</v>
+        <v>2.9048602476575011E-6</v>
       </c>
       <c r="C72">
-        <v>0.1224160506012617</v>
+        <v>0.1113325582132475</v>
       </c>
       <c r="D72">
-        <v>0.0007279863833039794</v>
+        <v>1.0304492357437731E-2</v>
       </c>
       <c r="E72">
-        <v>0.1317505316144208</v>
+        <v>0.1164502732844284</v>
       </c>
       <c r="F72">
-        <v>6.648046701735183</v>
+        <v>6.6480467017351828</v>
       </c>
       <c r="K72">
-        <v>7.314059297803693</v>
+        <v>8.1212209034102472</v>
       </c>
       <c r="L72">
-        <v>6.012718150694003</v>
+        <v>8.7207196699513343</v>
       </c>
       <c r="M72">
-        <v>7.596975217622168</v>
+        <v>8.3081654626012291</v>
       </c>
       <c r="N72">
-        <v>0.04540875116793394</v>
+        <v>4.9780799314810428E-2</v>
       </c>
       <c r="O72">
-        <v>0.0007906376658282152</v>
+        <v>6.2004743699448318E-3</v>
       </c>
       <c r="P72">
-        <v>0.04660776517143229</v>
+        <v>4.5907348926449307E-2</v>
       </c>
       <c r="Q72">
-        <v>0.002395918491251891</v>
+        <v>4.5070360135276034E-3</v>
       </c>
       <c r="R72">
-        <v>0.001146831418343123</v>
+        <v>1.1453000998892569E-3</v>
       </c>
       <c r="S72">
-        <v>5.461142132346776E-07</v>
+        <v>2.3423827239306371E-6</v>
       </c>
       <c r="T72">
-        <v>0.02711085436796341</v>
+        <v>2.42940472891441E-2</v>
       </c>
       <c r="U72">
-        <v>0.006712699277061204</v>
+        <v>7.3096525907861724E-3</v>
       </c>
       <c r="V72">
-        <v>47.37394953243253</v>
+        <v>64.16765635305191</v>
       </c>
       <c r="W72">
-        <v>0.0005255175748630892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+        <v>5.6521860812501761E-4</v>
+      </c>
+      <c r="X72">
+        <v>9.3848546323871727E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.260538247925891E-06</v>
+        <v>3.2123405306087372E-6</v>
       </c>
       <c r="C73">
-        <v>0.1266121907467085</v>
+        <v>0.1148162846220685</v>
       </c>
       <c r="D73">
-        <v>0.0004775380992396074</v>
+        <v>9.5376264060567893E-3</v>
       </c>
       <c r="E73">
-        <v>0.1359143988168568</v>
+        <v>0.1181833848102425</v>
       </c>
       <c r="F73">
-        <v>7.148046701735183</v>
+        <v>7.1480467017351828</v>
       </c>
       <c r="K73">
-        <v>7.317801757704086</v>
+        <v>8.1133102453215802</v>
       </c>
       <c r="L73">
-        <v>5.968610651353741</v>
+        <v>8.7312176742413907</v>
       </c>
       <c r="M73">
-        <v>7.602382699541555</v>
+        <v>8.2927570401838544</v>
       </c>
       <c r="N73">
-        <v>0.04694730680593757</v>
+        <v>5.1283569140495429E-2</v>
       </c>
       <c r="O73">
-        <v>0.0007109025272037094</v>
+        <v>5.8523737268285888E-3</v>
       </c>
       <c r="P73">
-        <v>0.04813231160867987</v>
+        <v>4.73349459234466E-2</v>
       </c>
       <c r="Q73">
-        <v>0.002328237809383678</v>
+        <v>4.2220813000132442E-3</v>
       </c>
       <c r="R73">
-        <v>0.001186358497795877</v>
+        <v>1.184712434963923E-3</v>
       </c>
       <c r="S73">
-        <v>3.36929809333711E-07</v>
+        <v>2.4854524208765249E-6</v>
       </c>
       <c r="T73">
-        <v>0.02781423902627038</v>
+        <v>2.4879716071846081E-2</v>
       </c>
       <c r="U73">
-        <v>0.004685087984331522</v>
+        <v>6.890660982950176E-3</v>
       </c>
       <c r="V73">
-        <v>47.62768311876636</v>
+        <v>64.617342390261101</v>
       </c>
       <c r="W73">
-        <v>0.0005463760112718878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+        <v>5.8492344387870104E-4</v>
+      </c>
+      <c r="X73">
+        <v>9.3793171717251066E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.060854258942935E-06</v>
+        <v>3.1585630864599769E-6</v>
       </c>
       <c r="C74">
-        <v>0.1311169997698324</v>
+        <v>0.1185762367012117</v>
       </c>
       <c r="D74">
-        <v>0.0005085623979444887</v>
+        <v>1.000753721198107E-2</v>
       </c>
       <c r="E74">
-        <v>0.1407775066739045</v>
+        <v>0.122097741552896</v>
       </c>
       <c r="F74">
-        <v>7.148046701735183</v>
+        <v>7.1480467017351828</v>
       </c>
       <c r="K74">
-        <v>7.321551081456661</v>
+        <v>8.1054144140519586</v>
       </c>
       <c r="L74">
-        <v>5.939966432973073</v>
+        <v>8.7148212807352134</v>
       </c>
       <c r="M74">
-        <v>7.590783591790071</v>
+        <v>8.2869785336038255</v>
       </c>
       <c r="N74">
-        <v>0.04859860695874949</v>
+        <v>5.2906111833840683E-2</v>
       </c>
       <c r="O74">
-        <v>0.0007189509514626723</v>
+        <v>6.0611024313968476E-3</v>
       </c>
       <c r="P74">
-        <v>0.04976817138722617</v>
+        <v>4.8874691088569219E-2</v>
       </c>
       <c r="Q74">
-        <v>0.002464560811187206</v>
+        <v>4.4275131538241766E-3</v>
       </c>
       <c r="R74">
-        <v>0.001228716410938254</v>
+        <v>1.2269348271976041E-3</v>
       </c>
       <c r="S74">
-        <v>4.392904814003731E-07</v>
+        <v>2.6648946324602541E-6</v>
       </c>
       <c r="T74">
-        <v>0.02864028013491105</v>
+        <v>2.5522182325020942E-2</v>
       </c>
       <c r="U74">
-        <v>0.004915523105337551</v>
+        <v>7.1200392972460306E-3</v>
       </c>
       <c r="V74">
-        <v>47.91869286000086</v>
+        <v>65.098733187568683</v>
       </c>
       <c r="W74">
-        <v>0.0005686281460414863</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+        <v>6.0603373659582737E-4</v>
+      </c>
+      <c r="X74">
+        <v>9.3737900898363712E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.847453746623171E-06</v>
+        <v>3.1013909420714549E-6</v>
       </c>
       <c r="C75">
-        <v>0.1359543493021245</v>
+        <v>0.1225972996452573</v>
       </c>
       <c r="D75">
-        <v>0.0005437379872479443</v>
+        <v>1.052547220077649E-2</v>
       </c>
       <c r="E75">
-        <v>0.1459820472826495</v>
+        <v>0.1262829337061421</v>
       </c>
       <c r="F75">
-        <v>7.148046701735183</v>
+        <v>7.1480467017351828</v>
       </c>
       <c r="K75">
-        <v>7.325776572544631</v>
+        <v>8.0973708967332136</v>
       </c>
       <c r="L75">
-        <v>5.960844253115144</v>
+        <v>8.7012530007691282</v>
       </c>
       <c r="M75">
-        <v>7.600057473150825</v>
+        <v>8.2833928004366193</v>
       </c>
       <c r="N75">
-        <v>0.05037192755161197</v>
+        <v>5.4641112182079343E-2</v>
       </c>
       <c r="O75">
-        <v>0.0007560514245091142</v>
+        <v>6.2989986762708424E-3</v>
       </c>
       <c r="P75">
-        <v>0.0515201569641165</v>
+        <v>5.0520882863930153E-2</v>
       </c>
       <c r="Q75">
-        <v>0.002502028751754424</v>
+        <v>4.649213124054123E-3</v>
       </c>
       <c r="R75">
-        <v>0.00127420815614036</v>
+        <v>1.27227815803335E-3</v>
       </c>
       <c r="S75">
-        <v>4.543439814526849E-07</v>
+        <v>2.7986621809905779E-6</v>
       </c>
       <c r="T75">
-        <v>0.02951897483971007</v>
+        <v>2.620374317790149E-2</v>
       </c>
       <c r="U75">
-        <v>0.005194914101852104</v>
+        <v>7.3786734526153164E-3</v>
       </c>
       <c r="V75">
-        <v>48.2547367602853</v>
+        <v>65.616082654555512</v>
       </c>
       <c r="W75">
-        <v>0.0005924968508399052</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+        <v>6.2870475483184742E-4</v>
+      </c>
+      <c r="X75">
+        <v>9.368159627713251E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.618960810928491E-06</v>
+        <v>3.040509011937237E-6</v>
       </c>
       <c r="C76">
-        <v>0.1411624497373121</v>
+        <v>0.12690775454696809</v>
       </c>
       <c r="D76">
-        <v>0.0005839391256982151</v>
+        <v>1.1098998232288951E-2</v>
       </c>
       <c r="E76">
-        <v>0.1515632433821174</v>
+        <v>0.1307678072704096</v>
       </c>
       <c r="F76">
-        <v>7.148046701735183</v>
+        <v>7.1480467017351828</v>
       </c>
       <c r="K76">
-        <v>7.330038154672204</v>
+        <v>8.0891029571720203</v>
       </c>
       <c r="L76">
-        <v>5.983037702916726</v>
+        <v>8.6870268520045251</v>
       </c>
       <c r="M76">
-        <v>7.609648677522745</v>
+        <v>8.2798002920662288</v>
       </c>
       <c r="N76">
-        <v>0.05228023047957746</v>
+        <v>5.6500424239995052E-2</v>
       </c>
       <c r="O76">
-        <v>0.0007970581113605432</v>
+        <v>6.5609095895390506E-3</v>
       </c>
       <c r="P76">
-        <v>0.05340546958766889</v>
+        <v>5.2285177853925377E-2</v>
       </c>
       <c r="Q76">
-        <v>0.002542185291810055</v>
+        <v>4.8939366949411651E-3</v>
       </c>
       <c r="R76">
-        <v>0.001323198687377241</v>
+        <v>1.32110429248921E-3</v>
       </c>
       <c r="S76">
-        <v>4.707539982875594E-07</v>
+        <v>2.9461655217223391E-6</v>
       </c>
       <c r="T76">
-        <v>0.03045451563732</v>
+        <v>2.692778432118173E-2</v>
       </c>
       <c r="U76">
-        <v>0.005508023944532767</v>
+        <v>7.6618926093959139E-3</v>
       </c>
       <c r="V76">
-        <v>48.64031258330615</v>
+        <v>66.172545250498047</v>
       </c>
       <c r="W76">
-        <v>0.0006181115042970723</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+        <v>6.5311704650609546E-4</v>
+      </c>
+      <c r="X76">
+        <v>9.3623720700204157E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.371961921937002E-06</v>
+        <v>2.974857664807204E-6</v>
       </c>
       <c r="C77">
-        <v>0.1467855901617767</v>
+        <v>0.1315401047995553</v>
       </c>
       <c r="D77">
-        <v>0.0006304711908281075</v>
+        <v>1.1739776710314891E-2</v>
       </c>
       <c r="E77">
-        <v>0.1575577532546945</v>
+        <v>0.13558433248976651</v>
       </c>
       <c r="F77">
-        <v>7.146941449696421</v>
+        <v>7.1469414496964214</v>
       </c>
       <c r="K77">
-        <v>7.334329544223824</v>
+        <v>8.0805988437326537</v>
       </c>
       <c r="L77">
-        <v>6.00614733835229</v>
+        <v>8.6720000383146676</v>
       </c>
       <c r="M77">
-        <v>7.619353182740824</v>
+        <v>8.276218520944596</v>
       </c>
       <c r="N77">
-        <v>0.05433955737430615</v>
+        <v>5.8498004826013292E-2</v>
       </c>
       <c r="O77">
-        <v>0.0008423143600579065</v>
+        <v>6.8516123144887796E-3</v>
       </c>
       <c r="P77">
-        <v>0.05544000095950324</v>
+        <v>5.4180827500284759E-2</v>
       </c>
       <c r="Q77">
-        <v>0.002586768928143881</v>
+        <v>5.1663532384581467E-3</v>
       </c>
       <c r="R77">
-        <v>0.001376107804712399</v>
+        <v>1.3738306175679091E-3</v>
       </c>
       <c r="S77">
-        <v>4.901057250094154E-07</v>
+        <v>3.1100126254664058E-6</v>
       </c>
       <c r="T77">
-        <v>0.03145237530503149</v>
+        <v>2.769841998965317E-2</v>
       </c>
       <c r="U77">
-        <v>0.005862286355354215</v>
+        <v>7.9746669210198576E-3</v>
       </c>
       <c r="V77">
-        <v>49.08105181411617</v>
+        <v>66.772025684444245</v>
       </c>
       <c r="W77">
-        <v>0.0006456806122797914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+        <v>6.7947966580029974E-4</v>
+      </c>
+      <c r="X77">
+        <v>9.356419190612857E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.108399019716579E-06</v>
+        <v>2.9054514908914928E-6</v>
       </c>
       <c r="C78">
-        <v>0.1528753867855662</v>
+        <v>0.13653178513660699</v>
       </c>
       <c r="D78">
-        <v>0.0006845192189137927</v>
+        <v>1.245440873936879E-2</v>
       </c>
       <c r="E78">
-        <v>0.1640171960075923</v>
+        <v>0.14077242448394711</v>
       </c>
       <c r="F78">
-        <v>7.14691514745113</v>
+        <v>7.1469151474511303</v>
       </c>
       <c r="K78">
-        <v>7.338647458675988</v>
+        <v>8.0718444605418824</v>
       </c>
       <c r="L78">
-        <v>6.030270696073114</v>
+        <v>8.6562718821734101</v>
       </c>
       <c r="M78">
-        <v>7.629202620123123</v>
+        <v>8.2726671938231036</v>
       </c>
       <c r="N78">
-        <v>0.05656860916656649</v>
+        <v>6.0649937847326807E-2</v>
       </c>
       <c r="O78">
-        <v>0.0008924616352228208</v>
+        <v>7.1739715484619984E-3</v>
       </c>
       <c r="P78">
-        <v>0.05764221896080989</v>
+        <v>5.6223097261194198E-2</v>
       </c>
       <c r="Q78">
-        <v>0.002636332474512926</v>
+        <v>5.4691295418383802E-3</v>
       </c>
       <c r="R78">
-        <v>0.001433425208836874</v>
+        <v>1.430943976107178E-3</v>
       </c>
       <c r="S78">
-        <v>5.12701797794055E-07</v>
+        <v>3.2911356802919451E-6</v>
       </c>
       <c r="T78">
-        <v>0.03251862901126804</v>
+        <v>2.8520243034179559E-2</v>
       </c>
       <c r="U78">
-        <v>0.006263807051620522</v>
+        <v>8.3192196619692529E-3</v>
       </c>
       <c r="V78">
-        <v>49.58340439575434</v>
+        <v>67.41863037274824</v>
       </c>
       <c r="W78">
-        <v>0.0006754486161562308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+        <v>7.0803519566890033E-4</v>
+      </c>
+      <c r="X78">
+        <v>9.3502911223793186E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.824465275865244E-06</v>
+        <v>2.8311580034906772E-6</v>
       </c>
       <c r="C79">
-        <v>0.1594923810275946</v>
+        <v>0.14192645367561729</v>
       </c>
       <c r="D79">
-        <v>0.0007482570454602085</v>
+        <v>1.325913374825655E-2</v>
       </c>
       <c r="E79">
-        <v>0.170990334338605</v>
+        <v>0.14637510052389441</v>
       </c>
       <c r="F79">
         <v>7.146887909706388</v>
       </c>
       <c r="K79">
-        <v>7.342989849991364</v>
+        <v>8.0628199407470262</v>
       </c>
       <c r="L79">
-        <v>6.05539712311732</v>
+        <v>8.6396617094895625</v>
       </c>
       <c r="M79">
-        <v>7.639145136789518</v>
+        <v>8.269143802170591</v>
       </c>
       <c r="N79">
-        <v>0.05898931123314665</v>
+        <v>6.297497986032094E-2</v>
       </c>
       <c r="O79">
-        <v>0.0009483154539051986</v>
+        <v>7.5345880364489594E-3</v>
       </c>
       <c r="P79">
-        <v>0.0600337792428228</v>
+        <v>5.8429791509861863E-2</v>
       </c>
       <c r="Q79">
-        <v>0.002692116877881135</v>
+        <v>5.808799885104487E-3</v>
       </c>
       <c r="R79">
-        <v>0.001495725752621182</v>
+        <v>1.493015838734434E-3</v>
       </c>
       <c r="S79">
-        <v>5.398283074650292E-07</v>
+        <v>3.493787194068507E-6</v>
       </c>
       <c r="T79">
-        <v>0.03366014300951359</v>
+        <v>2.9398548398188701E-2</v>
       </c>
       <c r="U79">
-        <v>0.006724336264849523</v>
+        <v>8.7021183006185786E-3</v>
       </c>
       <c r="V79">
-        <v>50.15560017794732</v>
+        <v>68.117434848866409</v>
       </c>
       <c r="W79">
-        <v>0.000707703104327206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+        <v>7.3907013690186938E-4</v>
+      </c>
+      <c r="X79">
+        <v>9.3439739585229183E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.517926863619331E-06</v>
+        <v>2.7514939196350861E-6</v>
       </c>
       <c r="C80">
-        <v>0.1667080230267825</v>
+        <v>0.14777496821777009</v>
       </c>
       <c r="D80">
-        <v>0.0008244804911635864</v>
+        <v>1.4171455679875541E-2</v>
       </c>
       <c r="E80">
-        <v>0.1785363184099766</v>
+        <v>0.15244334977759061</v>
       </c>
       <c r="F80">
-        <v>7.146859647089223</v>
+        <v>7.1468596470892232</v>
       </c>
       <c r="K80">
-        <v>7.34735545559038</v>
+        <v>8.0535078797968467</v>
       </c>
       <c r="L80">
-        <v>6.081590149758996</v>
+        <v>8.6220700089583495</v>
       </c>
       <c r="M80">
-        <v>7.649159709078361</v>
+        <v>8.2656595487813309</v>
       </c>
       <c r="N80">
-        <v>0.06162753831402126</v>
+        <v>6.5494997670496949E-2</v>
       </c>
       <c r="O80">
-        <v>0.001010943998532647</v>
+        <v>7.9406303471539885E-3</v>
       </c>
       <c r="P80">
-        <v>0.06264021844122925</v>
+        <v>6.082165476553264E-2</v>
       </c>
       <c r="Q80">
-        <v>0.002755491543631696</v>
+        <v>6.1923757233040633E-3</v>
       </c>
       <c r="R80">
-        <v>0.001563688749180896</v>
+        <v>1.560721386531723E-3</v>
       </c>
       <c r="S80">
-        <v>5.728706982770524E-07</v>
+        <v>3.7219286577619548E-6</v>
       </c>
       <c r="T80">
-        <v>0.03488449786154377</v>
+        <v>3.0339295220805518E-2</v>
       </c>
       <c r="U80">
-        <v>0.007258093498607826</v>
+        <v>9.130114968486789E-3</v>
       </c>
       <c r="V80">
-        <v>50.80797420112513</v>
+        <v>68.874455177658859</v>
       </c>
       <c r="W80">
-        <v>0.0007427829246211394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+        <v>7.7292160501871035E-4</v>
+      </c>
+      <c r="X80">
+        <v>9.3374555158577941E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.186263530432084E-06</v>
+        <v>2.665925244477878E-6</v>
       </c>
       <c r="C81">
-        <v>0.1746072393380025</v>
+        <v>0.1541370402433842</v>
       </c>
       <c r="D81">
-        <v>0.0009171589737527223</v>
+        <v>1.5213531008261489E-2</v>
       </c>
       <c r="E81">
-        <v>0.1867229455824348</v>
+        <v>0.15903670963440081</v>
       </c>
       <c r="F81">
-        <v>7.14683025684644</v>
+        <v>7.1468302568464397</v>
       </c>
       <c r="K81">
-        <v>7.351742649834654</v>
+        <v>8.0438845326816306</v>
       </c>
       <c r="L81">
-        <v>6.108915973104426</v>
+        <v>8.6033775910333983</v>
       </c>
       <c r="M81">
-        <v>7.659207622003788</v>
+        <v>8.2622253920934057</v>
       </c>
       <c r="N81">
-        <v>0.064514042805235</v>
+        <v>6.8235681828751379E-2</v>
       </c>
       <c r="O81">
-        <v>0.001081763506267298</v>
+        <v>8.4011188380850969E-3</v>
       </c>
       <c r="P81">
-        <v>0.06549187210301961</v>
+        <v>6.3423049005638776E-2</v>
       </c>
       <c r="Q81">
-        <v>0.002828365118832631</v>
+        <v>6.6287136811254404E-3</v>
       </c>
       <c r="R81">
-        <v>0.001638122838632449</v>
+        <v>1.634864217859055E-3</v>
       </c>
       <c r="S81">
-        <v>6.139014201374614E-07</v>
+        <v>3.9807316888909834E-6</v>
       </c>
       <c r="T81">
-        <v>0.03620004092644549</v>
+        <v>3.1349256185201652E-2</v>
       </c>
       <c r="U81">
-        <v>0.0078843159935907</v>
+        <v>9.6115812744628753E-3</v>
       </c>
       <c r="V81">
-        <v>51.55371391593855</v>
+        <v>69.696872803394356</v>
       </c>
       <c r="W81">
-        <v>0.0007810924126733244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+        <v>8.0999216378794332E-4</v>
+      </c>
+      <c r="X81">
+        <v>9.3307191728771411E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.826642452547575E-06</v>
+        <v>2.5738665151258249E-6</v>
       </c>
       <c r="C82">
-        <v>0.183291743356215</v>
+        <v>0.16108321570514031</v>
       </c>
       <c r="D82">
-        <v>0.001032116669404456</v>
+        <v>1.641374955611169E-2</v>
       </c>
       <c r="E82">
-        <v>0.1956281374713403</v>
+        <v>0.16622509838638561</v>
       </c>
       <c r="F82">
-        <v>7.146799620065717</v>
+        <v>7.1467996200657167</v>
       </c>
       <c r="K82">
-        <v>7.356152549393618</v>
+        <v>8.0339297102026919</v>
       </c>
       <c r="L82">
-        <v>6.137474402040668</v>
+        <v>8.5834504711267972</v>
       </c>
       <c r="M82">
-        <v>7.669234597278185</v>
+        <v>8.2588583593785536</v>
       </c>
       <c r="N82">
-        <v>0.06768565677018339</v>
+        <v>7.1227409978284695E-2</v>
       </c>
       <c r="O82">
-        <v>0.001162750523720451</v>
+        <v>8.9275790318284233E-3</v>
       </c>
       <c r="P82">
-        <v>0.06862504745222896</v>
+        <v>6.6262765771864449E-2</v>
       </c>
       <c r="Q82">
-        <v>0.002913420309217147</v>
+        <v>7.1291291727795829E-3</v>
       </c>
       <c r="R82">
-        <v>0.001719998285493065</v>
+        <v>1.716408392167563E-3</v>
       </c>
       <c r="S82">
-        <v>6.660345630612582E-07</v>
+        <v>4.276796306106241E-6</v>
       </c>
       <c r="T82">
-        <v>0.03761582717308823</v>
+        <v>3.2436139930738593E-2</v>
       </c>
       <c r="U82">
-        <v>0.008629714969038631</v>
+        <v>1.01570338954268E-2</v>
       </c>
       <c r="V82">
-        <v>52.40997592229981</v>
+        <v>70.593333656547813</v>
       </c>
       <c r="W82">
-        <v>0.0008231167954066151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+        <v>8.5076352917632183E-4</v>
+      </c>
+      <c r="X82">
+        <v>9.3237507971418841E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.435904857091761E-06</v>
+        <v>2.4746838964429299E-6</v>
       </c>
       <c r="C83">
-        <v>0.1928843552870998</v>
+        <v>0.16869739813403661</v>
       </c>
       <c r="D83">
-        <v>0.001178245445849912</v>
+        <v>1.7808969571860019E-2</v>
       </c>
       <c r="E83">
-        <v>0.2053417101369386</v>
+        <v>0.17409113344322219</v>
       </c>
       <c r="F83">
-        <v>7.146767598142974</v>
+        <v>7.1467675981429739</v>
       </c>
       <c r="K83">
-        <v>7.360587773074324</v>
+        <v>8.0236164612507839</v>
       </c>
       <c r="L83">
-        <v>6.167440360291109</v>
+        <v>8.562129049953688</v>
       </c>
       <c r="M83">
-        <v>7.679165782212594</v>
+        <v>8.2555770257110108</v>
       </c>
       <c r="N83">
-        <v>0.07118686236210249</v>
+        <v>7.4506348449150814E-2</v>
       </c>
       <c r="O83">
-        <v>0.00125681024778698</v>
+        <v>9.5348952730351169E-3</v>
       </c>
       <c r="P83">
-        <v>0.07208355414396642</v>
+        <v>6.9375062434974183E-2</v>
       </c>
       <c r="Q83">
-        <v>0.003014568955183176</v>
+        <v>7.7082774987151303E-3</v>
       </c>
       <c r="R83">
-        <v>0.001810489456594644</v>
+        <v>1.806520581423429E-3</v>
       </c>
       <c r="S83">
-        <v>7.34148105466744E-07</v>
+        <v>4.6187295718292522E-6</v>
       </c>
       <c r="T83">
-        <v>0.03914141202593295</v>
+        <v>3.36087244589129E-2</v>
       </c>
       <c r="U83">
-        <v>0.009532509079374547</v>
+        <v>1.0779789227242639E-2</v>
       </c>
       <c r="V83">
-        <v>53.39961017582197</v>
+        <v>71.574337232234996</v>
       </c>
       <c r="W83">
-        <v>0.0008694440572632682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+        <v>8.9581990466061829E-4</v>
+      </c>
+      <c r="X83">
+        <v>9.3165315228755499E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.010585500102643E-06</v>
+        <v>2.367705033564789E-6</v>
       </c>
       <c r="C84">
-        <v>0.2035346947227248</v>
+        <v>0.17708008860971311</v>
       </c>
       <c r="D84">
-        <v>0.001369800527005569</v>
+        <v>1.9447723914973791E-2</v>
       </c>
       <c r="E84">
-        <v>0.2159675400442514</v>
+        <v>0.18273309201732049</v>
       </c>
       <c r="F84">
-        <v>7.146734028236001</v>
+        <v>7.1467340282360006</v>
       </c>
       <c r="K84">
-        <v>7.365055610675378</v>
+        <v>8.0129126207585593</v>
       </c>
       <c r="L84">
-        <v>6.199122169264388</v>
+        <v>8.539219420582203</v>
       </c>
       <c r="M84">
-        <v>7.688890646896406</v>
+        <v>8.2523982708396364</v>
       </c>
       <c r="N84">
-        <v>0.07507186525734225</v>
+        <v>7.8115873625601684E-2</v>
       </c>
       <c r="O84">
-        <v>0.001368466430763703</v>
+        <v>1.024254678411919E-2</v>
       </c>
       <c r="P84">
-        <v>0.07592071998778771</v>
+        <v>7.2800994931433022E-2</v>
       </c>
       <c r="Q84">
-        <v>0.003137836707822291</v>
+        <v>8.3854186733309452E-3</v>
       </c>
       <c r="R84">
-        <v>0.001911031418177377</v>
+        <v>1.9066262398596289E-3</v>
       </c>
       <c r="S84">
-        <v>8.262930680697387E-07</v>
+        <v>5.0179733305207894E-6</v>
       </c>
       <c r="T84">
-        <v>0.04078635107851953</v>
+        <v>3.4876998638450139E-2</v>
       </c>
       <c r="U84">
-        <v>0.01064934477550128</v>
+        <v>1.149687420213023E-2</v>
       </c>
       <c r="V84">
-        <v>54.55392775984277</v>
+        <v>72.652751295052013</v>
       </c>
       <c r="W84">
-        <v>0.000920792736255219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+        <v>9.4587306115918879E-4</v>
+      </c>
+      <c r="X84">
+        <v>9.3090388345309916E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.547014358842917E-06</v>
+        <v>2.252240820239361E-6</v>
       </c>
       <c r="C85">
-        <v>0.215426747322473</v>
+        <v>0.18635258065058011</v>
       </c>
       <c r="D85">
-        <v>0.001631084164887552</v>
+        <v>2.1394881980583941E-2</v>
       </c>
       <c r="E85">
-        <v>0.2276263557796319</v>
+        <v>0.19226873496240909</v>
       </c>
       <c r="F85">
-        <v>7.146698717342671</v>
+        <v>7.1466987173426713</v>
       </c>
       <c r="K85">
-        <v>7.369568536231212</v>
+        <v>8.0017842522266704</v>
       </c>
       <c r="L85">
-        <v>6.233105938068817</v>
+        <v>8.5145043738524855</v>
       </c>
       <c r="M85">
-        <v>7.698245139607506</v>
+        <v>8.2493497355423742</v>
       </c>
       <c r="N85">
-        <v>0.07940735930596453</v>
+        <v>8.2108422263335951E-2</v>
       </c>
       <c r="O85">
-        <v>0.001505307134491324</v>
+        <v>1.1076495790463331E-2</v>
       </c>
       <c r="P85">
-        <v>0.08020206606307981</v>
+        <v>7.6590146476027271E-2</v>
       </c>
       <c r="Q85">
-        <v>0.003293090239473002</v>
+        <v>9.1862239168637085E-3</v>
       </c>
       <c r="R85">
-        <v>0.002023396425536748</v>
+        <v>2.01848554965546E-3</v>
       </c>
       <c r="S85">
-        <v>9.566258400792499E-07</v>
+        <v>5.4898219914103766E-6</v>
       </c>
       <c r="T85">
-        <v>0.04255911615516766</v>
+        <v>3.6252300075880733E-2</v>
       </c>
       <c r="U85">
-        <v>0.01206780455696277</v>
+        <v>1.233034749466669E-2</v>
       </c>
       <c r="V85">
-        <v>55.91735730612566</v>
+        <v>73.844510193298703</v>
       </c>
       <c r="W85">
-        <v>0.0009780505609931242</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+        <v>1.001804895722326E-3</v>
+      </c>
+      <c r="X85">
+        <v>9.3012489765586692E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.041626331112074E-06</v>
+        <v>2.1276268426294809E-6</v>
       </c>
       <c r="C86">
-        <v>0.228788976269822</v>
+        <v>0.19666243681745471</v>
       </c>
       <c r="D86">
-        <v>0.002006950123564988</v>
+        <v>2.3738516698375439E-2</v>
       </c>
       <c r="E86">
-        <v>0.2404597759463735</v>
+        <v>0.20284030865465821</v>
       </c>
       <c r="F86">
-        <v>7.146661434471267</v>
+        <v>7.1466614344712669</v>
       </c>
       <c r="K86">
-        <v>7.374152097705423</v>
+        <v>7.9901946767237817</v>
       </c>
       <c r="L86">
-        <v>6.270608833145354</v>
+        <v>8.4877386321509984</v>
       </c>
       <c r="M86">
-        <v>7.706986875103802</v>
+        <v>8.2464668373083061</v>
       </c>
       <c r="N86">
-        <v>0.08427623756668155</v>
+        <v>8.6547917667890439E-2</v>
       </c>
       <c r="O86">
-        <v>0.00168130072718532</v>
+        <v>1.2071851533317459E-2</v>
       </c>
       <c r="P86">
-        <v>0.08500887705205518</v>
+        <v>8.0802891635974927E-2</v>
       </c>
       <c r="Q86">
-        <v>0.003497782507649483</v>
+        <v>1.014546593658913E-2</v>
       </c>
       <c r="R86">
-        <v>0.002149798913017789</v>
+        <v>2.144297782634461E-3</v>
       </c>
       <c r="S86">
-        <v>1.152147424241325E-06</v>
+        <v>6.0551274201105274E-6</v>
       </c>
       <c r="T86">
-        <v>0.04446482313005545</v>
+        <v>3.774742211220658E-2</v>
       </c>
       <c r="U86">
-        <v>0.01393030295259509</v>
+        <v>1.3309020934651059E-2</v>
       </c>
       <c r="V86">
-        <v>57.55571162803958</v>
+        <v>75.169547630029257</v>
       </c>
       <c r="W86">
-        <v>0.001042328108401973</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+        <v>1.064714520744201E-3</v>
+      </c>
+      <c r="X86">
+        <v>9.2931362737066472E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.491850375266446E-06</v>
+        <v>1.993297105027446E-6</v>
       </c>
       <c r="C87">
-        <v>0.2439077780129058</v>
+        <v>0.20819069815872671</v>
       </c>
       <c r="D87">
-        <v>0.002589414747475947</v>
+        <v>2.6600119596575711E-2</v>
       </c>
       <c r="E87">
-        <v>0.2546376221778825</v>
+        <v>0.21462118833855509</v>
       </c>
       <c r="F87">
         <v>7.146621900124714</v>
       </c>
       <c r="K87">
-        <v>7.37884700396927</v>
+        <v>7.9780943945437244</v>
       </c>
       <c r="L87">
-        <v>6.314327966540677</v>
+        <v>8.4586415858969932</v>
       </c>
       <c r="M87">
-        <v>7.714748064940387</v>
+        <v>8.2437851213246205</v>
       </c>
       <c r="N87">
-        <v>0.08978256668931466</v>
+        <v>9.1512988743528645E-2</v>
       </c>
       <c r="O87">
-        <v>0.001925334890899644</v>
+        <v>1.327680487859802E-2</v>
       </c>
       <c r="P87">
-        <v>0.09044295002168222</v>
+        <v>8.5513386682600653E-2</v>
       </c>
       <c r="Q87">
-        <v>0.003786291189200678</v>
+        <v>1.1311030190997381E-2</v>
       </c>
       <c r="R87">
-        <v>0.002293042030724025</v>
+        <v>2.2868472929820842E-3</v>
       </c>
       <c r="S87">
-        <v>1.47020651697396E-06</v>
+        <v>6.7429939975428793E-6</v>
       </c>
       <c r="T87">
-        <v>0.04650045780855281</v>
+        <v>3.9376648857376947E-2</v>
       </c>
       <c r="U87">
-        <v>0.01648234104812068</v>
+        <v>1.4470748152622981E-2</v>
       </c>
       <c r="V87">
-        <v>59.57173917219284</v>
+        <v>76.65303721998707</v>
       </c>
       <c r="W87">
-        <v>0.001115031164080514</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+        <v>1.135995151165527E-3</v>
+      </c>
+      <c r="X87">
+        <v>9.2846660761806065E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.090051065659251E-05</v>
+        <v>4.8551702713214439E-6</v>
       </c>
       <c r="C88">
-        <v>0.2611448039604365</v>
+        <v>0.22116145377030891</v>
       </c>
       <c r="D88">
-        <v>0.0006529956195065727</v>
+        <v>1.2734445952344719E-2</v>
       </c>
       <c r="E88">
-        <v>0.2924933280975561</v>
+        <v>0.23198233038345739</v>
       </c>
       <c r="F88">
         <v>11.99662190012471</v>
       </c>
       <c r="K88">
-        <v>7.383736925300844</v>
+        <v>7.9654245972391688</v>
       </c>
       <c r="L88">
-        <v>6.66311847244348</v>
+        <v>8.7623998388039919</v>
       </c>
       <c r="M88">
-        <v>7.849619439287419</v>
+        <v>8.255481381771979</v>
       </c>
       <c r="N88">
-        <v>0.09605808324634431</v>
+        <v>9.7101287591023683E-2</v>
       </c>
       <c r="O88">
-        <v>0.00183602233764022</v>
+        <v>7.9906565161184488E-3</v>
       </c>
       <c r="P88">
-        <v>0.09663271136685948</v>
+        <v>9.0813555003429455E-2</v>
       </c>
       <c r="Q88">
-        <v>0.002646365094750035</v>
+        <v>5.8502599448763603E-3</v>
       </c>
       <c r="R88">
-        <v>0.002456725732453101</v>
+        <v>2.449711885766695E-3</v>
       </c>
       <c r="S88">
-        <v>1.043777492670331E-07</v>
+        <v>2.7740799396378501E-6</v>
       </c>
       <c r="T88">
-        <v>0.04864460900572654</v>
+        <v>4.1155641764859377E-2</v>
       </c>
       <c r="U88">
-        <v>0.006801250624619974</v>
+        <v>8.4930271503846806E-3</v>
       </c>
       <c r="V88">
-        <v>59.98232058977165</v>
+        <v>77.139735681872736</v>
       </c>
       <c r="W88">
-        <v>0.001197979360871792</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+        <v>1.217439705108265E-3</v>
+      </c>
+      <c r="X88">
+        <v>9.2757972180674196E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.92448771482675E-06</v>
+        <v>4.6185741623792042E-6</v>
       </c>
       <c r="C89">
-        <v>0.2811826353712773</v>
+        <v>0.23719430052553689</v>
       </c>
       <c r="D89">
-        <v>0.0007695543563583105</v>
+        <v>1.4325169693198339E-2</v>
       </c>
       <c r="E89">
-        <v>0.3139074287134497</v>
+        <v>0.24894168961058649</v>
       </c>
       <c r="F89">
         <v>11.99533535257901</v>
       </c>
       <c r="K89">
-        <v>7.383542411978754</v>
+        <v>7.9494753602873338</v>
       </c>
       <c r="L89">
-        <v>6.307558827702285</v>
+        <v>8.6880073925164645</v>
       </c>
       <c r="M89">
-        <v>7.766072013889248</v>
+        <v>8.2275504498150109</v>
       </c>
       <c r="N89">
-        <v>0.1033059340854754</v>
+        <v>0.1039559515198626</v>
       </c>
       <c r="O89">
-        <v>0.001673695586265144</v>
+        <v>8.608595124993396E-3</v>
       </c>
       <c r="P89">
-        <v>0.1038624303108679</v>
+        <v>9.7349193084856622E-2</v>
       </c>
       <c r="Q89">
-        <v>0.00338031303094034</v>
+        <v>6.6080095543649122E-3</v>
       </c>
       <c r="R89">
-        <v>0.002645696605891857</v>
+        <v>2.637937870830314E-3</v>
       </c>
       <c r="S89">
-        <v>3.796087833252064E-07</v>
+        <v>3.8560209462903506E-6</v>
       </c>
       <c r="T89">
-        <v>0.05186332888119628</v>
+        <v>4.3668150581357437E-2</v>
       </c>
       <c r="U89">
-        <v>0.00745676173168435</v>
+        <v>9.1174270160890546E-3</v>
       </c>
       <c r="V89">
-        <v>60.48793840832685</v>
+        <v>77.714787207333529</v>
       </c>
       <c r="W89">
-        <v>0.001293114564970272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+        <v>1.311478272877158E-3</v>
+      </c>
+      <c r="X89">
+        <v>9.2646327522011339E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8.82240194458997E-06</v>
+        <v>4.350192682126123E-6</v>
       </c>
       <c r="C90">
-        <v>0.3045503921225206</v>
+        <v>0.25576672809489848</v>
       </c>
       <c r="D90">
-        <v>0.0009325070205368418</v>
+        <v>1.634687187978209E-2</v>
       </c>
       <c r="E90">
-        <v>0.3382409019089351</v>
+        <v>0.26851723509638248</v>
       </c>
       <c r="F90">
         <v>11.99529405309104</v>
       </c>
       <c r="K90">
-        <v>7.386996397970718</v>
+        <v>7.9339961159700776</v>
       </c>
       <c r="L90">
-        <v>6.341414036996548</v>
+        <v>8.655547913360758</v>
       </c>
       <c r="M90">
-        <v>7.776213769174688</v>
+        <v>8.2237837952274084</v>
       </c>
       <c r="N90">
-        <v>0.1117752872937429</v>
+        <v>0.1119015645527683</v>
       </c>
       <c r="O90">
-        <v>0.001844008288725899</v>
+        <v>9.5406895912508258E-3</v>
       </c>
       <c r="P90">
-        <v>0.1122359400841952</v>
+        <v>0.10491095837906431</v>
       </c>
       <c r="Q90">
-        <v>0.003571446810062309</v>
+        <v>7.4700562808128227E-3</v>
       </c>
       <c r="R90">
-        <v>0.002866139688984235</v>
+        <v>2.857444691653983E-3</v>
       </c>
       <c r="S90">
-        <v>4.444938379671479E-07</v>
+        <v>4.3291421961116668E-6</v>
       </c>
       <c r="T90">
-        <v>0.05556387614365561</v>
+        <v>4.654737754512981E-2</v>
       </c>
       <c r="U90">
-        <v>0.008681865372234679</v>
+        <v>1.005697010257736E-2</v>
       </c>
       <c r="V90">
-        <v>61.17505837823757</v>
+        <v>78.424825644410802</v>
       </c>
       <c r="W90">
-        <v>0.001404265594865015</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+        <v>1.4211727572567849E-3</v>
+      </c>
+      <c r="X90">
+        <v>9.2537972811790552E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.570356174297854E-06</v>
+        <v>4.0429526730926762E-6</v>
       </c>
       <c r="C91">
-        <v>0.3321520180408827</v>
+        <v>0.27753216956900001</v>
       </c>
       <c r="D91">
-        <v>0.001175446249364087</v>
+        <v>1.89962157800686E-2</v>
       </c>
       <c r="E91">
-        <v>0.3660195123186002</v>
+        <v>0.2913394830377764</v>
       </c>
       <c r="F91">
-        <v>11.99524917646298</v>
+        <v>11.995249176462981</v>
       </c>
       <c r="K91">
-        <v>7.390313542716961</v>
+        <v>7.9175366158619092</v>
       </c>
       <c r="L91">
-        <v>6.382827604650726</v>
+        <v>8.6184380221372301</v>
       </c>
       <c r="M91">
-        <v>7.787753076774917</v>
+        <v>8.2201497611264323</v>
       </c>
       <c r="N91">
-        <v>0.1217690399305627</v>
+        <v>0.12120709864017901</v>
       </c>
       <c r="O91">
-        <v>0.002059116469129622</v>
+        <v>1.073800371308985E-2</v>
       </c>
       <c r="P91">
-        <v>0.1221145303818437</v>
+        <v>0.11376922220617811</v>
       </c>
       <c r="Q91">
-        <v>0.003796786128759134</v>
+        <v>8.5867051267042652E-3</v>
       </c>
       <c r="R91">
-        <v>0.003126657433997532</v>
+        <v>3.11681883251379E-3</v>
       </c>
       <c r="S91">
-        <v>5.342030098804031E-07</v>
+        <v>4.9466507239057396E-6</v>
       </c>
       <c r="T91">
-        <v>0.0598258771228757</v>
+        <v>4.9864687312634583E-2</v>
       </c>
       <c r="U91">
-        <v>0.01039950507776582</v>
+        <v>1.1254456799768759E-2</v>
       </c>
       <c r="V91">
-        <v>62.11430734786356</v>
+        <v>79.305507517490241</v>
       </c>
       <c r="W91">
-        <v>0.001535444844192516</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+        <v>1.5507954185749379E-3</v>
+      </c>
+      <c r="X91">
+        <v>9.2422756311033378E-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.144245956140709E-06</v>
+        <v>3.689560220923769E-6</v>
       </c>
       <c r="C92">
-        <v>0.3652496752200346</v>
+        <v>0.30338576494789321</v>
       </c>
       <c r="D92">
-        <v>0.001573178197799176</v>
+        <v>2.259764674485263E-2</v>
       </c>
       <c r="E92">
-        <v>0.3978828862796489</v>
+        <v>0.31825501737001483</v>
       </c>
       <c r="F92">
         <v>11.99519996287472</v>
       </c>
       <c r="K92">
-        <v>7.393401487509469</v>
+        <v>7.8999217562352113</v>
       </c>
       <c r="L92">
-        <v>6.424083486021664</v>
+        <v>8.5753390843650585</v>
       </c>
       <c r="M92">
-        <v>7.798027432970725</v>
+        <v>8.2168606107231454</v>
       </c>
       <c r="N92">
-        <v>0.133740032276706</v>
+        <v>0.13225400813288801</v>
       </c>
       <c r="O92">
-        <v>0.002335495987668143</v>
+        <v>1.233096685246241E-2</v>
       </c>
       <c r="P92">
-        <v>0.1339463048071521</v>
+        <v>0.1242874739141254</v>
       </c>
       <c r="Q92">
-        <v>0.004106003328793669</v>
+        <v>1.008511677339252E-2</v>
       </c>
       <c r="R92">
-        <v>0.003439269757096298</v>
+        <v>3.4280060506927789E-3</v>
       </c>
       <c r="S92">
-        <v>6.884873411675884E-07</v>
+        <v>5.7749500312017009E-6</v>
       </c>
       <c r="T92">
-        <v>0.06476851432738669</v>
+        <v>5.3725710363921167E-2</v>
       </c>
       <c r="U92">
-        <v>0.01298040792520266</v>
+        <v>1.2833471698520921E-2</v>
       </c>
       <c r="V92">
-        <v>63.4302874367883</v>
+        <v>80.409949983979104</v>
       </c>
       <c r="W92">
-        <v>0.001692660374067495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+        <v>1.7063188257679951E-3</v>
+      </c>
+      <c r="X92">
+        <v>9.2299452293646494E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.520812942784238E-06</v>
+        <v>3.2822496034922051E-6</v>
       </c>
       <c r="C93">
-        <v>0.4056581748891719</v>
+        <v>0.33458444474823101</v>
       </c>
       <c r="D93">
-        <v>0.002332145023947184</v>
+        <v>2.7725111519258511E-2</v>
       </c>
       <c r="E93">
-        <v>0.4346073155327741</v>
+        <v>0.35042275794075989</v>
       </c>
       <c r="F93">
         <v>11.99514538901828</v>
       </c>
       <c r="K93">
-        <v>7.396294697533367</v>
+        <v>7.8809556722606224</v>
       </c>
       <c r="L93">
-        <v>6.46610228748107</v>
+        <v>8.5242517307698442</v>
       </c>
       <c r="M93">
-        <v>7.805869860989945</v>
+        <v>8.2140749474311701</v>
       </c>
       <c r="N93">
-        <v>0.1483405363088213</v>
+        <v>0.14557879049737971</v>
       </c>
       <c r="O93">
-        <v>0.002735847092338785</v>
+        <v>1.454827913146948E-2</v>
       </c>
       <c r="P93">
-        <v>0.1483730049714142</v>
+        <v>0.13697662470754021</v>
       </c>
       <c r="Q93">
-        <v>0.004585182756584276</v>
+        <v>1.218992702993559E-2</v>
       </c>
       <c r="R93">
-        <v>0.003821334342624646</v>
+        <v>3.8082539507662879E-3</v>
       </c>
       <c r="S93">
-        <v>1.002812829943967E-06</v>
+        <v>6.9403668094011547E-6</v>
       </c>
       <c r="T93">
-        <v>0.07052274837207381</v>
+        <v>5.8269292437854538E-2</v>
       </c>
       <c r="U93">
-        <v>0.0173317119018232</v>
+        <v>1.5004424200924999E-2</v>
       </c>
       <c r="V93">
-        <v>65.38033448048022</v>
+        <v>81.821004739361484</v>
       </c>
       <c r="W93">
-        <v>0.001884597359035748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+        <v>1.896367384064268E-3</v>
+      </c>
+      <c r="X93">
+        <v>9.2166689705824356E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.695564305699772E-06</v>
+        <v>2.8148124541198592E-6</v>
       </c>
       <c r="C94">
-        <v>0.4560739286223251</v>
+        <v>0.37294186140185259</v>
       </c>
       <c r="D94">
-        <v>0.00427952654719019</v>
+        <v>3.5466218350081111E-2</v>
       </c>
       <c r="E94">
-        <v>0.4772495554893988</v>
+        <v>0.38947598115980647</v>
       </c>
       <c r="F94">
-        <v>11.99508403324604</v>
+        <v>11.995084033246039</v>
       </c>
       <c r="K94">
-        <v>7.39913882883235</v>
+        <v>7.8603380676640002</v>
       </c>
       <c r="L94">
-        <v>6.523125512979966</v>
+        <v>8.4621818865221883</v>
       </c>
       <c r="M94">
-        <v>7.808989862714331</v>
+        <v>8.2119366652793531</v>
       </c>
       <c r="N94">
-        <v>0.1665411224608817</v>
+        <v>0.16195760441811849</v>
       </c>
       <c r="O94">
-        <v>0.003523588887284019</v>
+        <v>1.781830898441859E-2</v>
       </c>
       <c r="P94">
-        <v>0.166346482748268</v>
+        <v>0.15257496191724079</v>
       </c>
       <c r="Q94">
-        <v>0.005548622919270065</v>
+        <v>1.532507141564046E-2</v>
       </c>
       <c r="R94">
-        <v>0.004298875783848985</v>
+        <v>4.2834181487609001E-3</v>
       </c>
       <c r="S94">
-        <v>1.881070206960492E-06</v>
+        <v>8.6847694648579432E-6</v>
       </c>
       <c r="T94">
-        <v>0.07717162793085515</v>
+        <v>6.3677400967470738E-2</v>
       </c>
       <c r="U94">
-        <v>0.02626507103143871</v>
+        <v>1.8147334271037142E-2</v>
       </c>
       <c r="V94">
-        <v>68.63430841317923</v>
+        <v>83.675212220352236</v>
       </c>
       <c r="W94">
-        <v>0.002124287149357614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+        <v>2.13386948937199E-3</v>
+      </c>
+      <c r="X94">
+        <v>9.2022366473648008E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.681538864765613E-07</v>
+        <v>2.2873919165835911E-6</v>
       </c>
       <c r="C95">
-        <v>0.5206159860616302</v>
+        <v>0.42115266755210579</v>
       </c>
       <c r="D95">
-        <v>0.01445771678318976</v>
+        <v>4.805091915438188E-2</v>
       </c>
       <c r="E95">
-        <v>0.529075306570135</v>
+        <v>0.4378072456017037</v>
       </c>
       <c r="F95">
         <v>11.99281584860141</v>
       </c>
       <c r="K95">
-        <v>7.402371761084615</v>
+        <v>7.8377024026501498</v>
       </c>
       <c r="L95">
-        <v>6.721221670065353</v>
+        <v>8.3854290634299176</v>
       </c>
       <c r="M95">
-        <v>7.805602323651961</v>
+        <v>8.2107764255732203</v>
       </c>
       <c r="N95">
-        <v>0.1898293415428242</v>
+        <v>0.1825489323372185</v>
       </c>
       <c r="O95">
-        <v>0.007081251850095481</v>
+        <v>2.3012906187439171E-2</v>
       </c>
       <c r="P95">
-        <v>0.189317605580982</v>
+        <v>0.1721820891317552</v>
       </c>
       <c r="Q95">
-        <v>0.009456614729552006</v>
+        <v>2.0355671403217299E-2</v>
       </c>
       <c r="R95">
-        <v>0.004912732171512132</v>
+        <v>4.8940943458031932E-3</v>
       </c>
       <c r="S95">
-        <v>6.897916495411662E-06</v>
+        <v>1.150408045198494E-5</v>
       </c>
       <c r="T95">
-        <v>0.08444399320220038</v>
+        <v>7.0181696209818414E-2</v>
       </c>
       <c r="U95">
-        <v>0.05068866030828773</v>
+        <v>2.2988539820851441E-2</v>
       </c>
       <c r="V95">
-        <v>75.45946278728816</v>
+        <v>86.211565616199024</v>
       </c>
       <c r="W95">
-        <v>0.002432192953350597</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+        <v>2.439126986664761E-3</v>
+      </c>
+      <c r="X95">
+        <v>9.1863916818551056E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.8330980295914E-07</v>
+        <v>1.7248272451664259E-6</v>
       </c>
       <c r="C96">
-        <v>0.6049756976080372</v>
+        <v>0.48333629228505992</v>
       </c>
       <c r="D96">
-        <v>0.07129312979710398</v>
+        <v>7.0147294590363396E-2</v>
       </c>
       <c r="E96">
-        <v>0.6071164006231609</v>
+        <v>0.49919681545622929</v>
       </c>
       <c r="F96">
         <v>11.9926214492678</v>
       </c>
       <c r="K96">
-        <v>7.406833894697167</v>
+        <v>7.8124939191757976</v>
       </c>
       <c r="L96">
-        <v>7.170077908249203</v>
+        <v>8.2922664225619425</v>
       </c>
       <c r="M96">
-        <v>7.826136807217247</v>
+        <v>8.2113472223787909</v>
       </c>
       <c r="N96">
-        <v>0.2202873564916124</v>
+        <v>0.20913827002884841</v>
       </c>
       <c r="O96">
-        <v>0.0266325917036423</v>
+        <v>3.1946161763562977E-2</v>
       </c>
       <c r="P96">
-        <v>0.2192944373895537</v>
+        <v>0.19748649208651159</v>
       </c>
       <c r="Q96">
-        <v>0.02917551470894284</v>
+        <v>2.9084418860980371E-2</v>
       </c>
       <c r="R96">
-        <v>0.00573037121401492</v>
+        <v>5.7078593900283959E-3</v>
       </c>
       <c r="S96">
-        <v>3.29510034233587E-05</v>
+        <v>1.641444562062081E-5</v>
       </c>
       <c r="T96">
-        <v>0.0900698820178525</v>
+        <v>7.8047222274646263E-2</v>
       </c>
       <c r="U96">
-        <v>0.07874782028856331</v>
+        <v>3.0849163619598371E-2</v>
       </c>
       <c r="V96">
-        <v>86.27921275861208</v>
+        <v>89.85383999365159</v>
       </c>
       <c r="W96">
-        <v>0.002842183590488624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>8.118309935909624E-08</v>
-      </c>
-      <c r="C97">
-        <v>0.7117122111702225</v>
-      </c>
-      <c r="D97">
-        <v>0.1646860443051636</v>
-      </c>
-      <c r="E97">
-        <v>0.7128501893598016</v>
-      </c>
-      <c r="F97">
-        <v>11.99238689605692</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0.259018309449206</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0.2573182219256754</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0.00686985525613322</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0.09233429436371016</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>85.38047095904321</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
+        <v>2.84593775248701E-3</v>
+      </c>
+      <c r="X96">
+        <v>9.1687457434230587E-7</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AB905-0022-4460-8EC5-5E9385647034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA9508-9F6A-47BB-B692-152EB7906D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Recovery</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Jw(m/s)</t>
   </si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>SI_Armp_CaPhosphate</t>
-  </si>
-  <si>
-    <t>NH4+ Permeability</t>
   </si>
 </sst>
 </file>
@@ -433,5992 +427,5415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X96"/>
+  <dimension ref="B1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="22" max="22" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2">
-        <v>3.3042254766891182E-6</v>
+        <v>5.6313620813494349E-6</v>
       </c>
       <c r="C2">
-        <v>3.6946863188412338E-2</v>
+        <v>3.662643346750398E-2</v>
       </c>
       <c r="D2">
-        <v>3.005494087663727E-3</v>
+        <v>1.4308672927148499E-3</v>
       </c>
       <c r="E2">
-        <v>3.8221203784461623E-2</v>
+        <v>3.8908689691028918E-2</v>
       </c>
       <c r="F2">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>11.28178118819104</v>
+        <v>19.30506014088952</v>
       </c>
       <c r="H2">
-        <v>11.912559366756669</v>
+        <v>19.30692144393549</v>
       </c>
       <c r="I2">
-        <v>9.7034664257782985</v>
+        <v>18.51134416419336</v>
       </c>
       <c r="J2">
-        <v>11.827642185247599</v>
+        <v>19.290384977595028</v>
       </c>
       <c r="K2">
-        <v>8.4326975330242959</v>
+        <v>4.5000240670389591</v>
       </c>
       <c r="L2">
-        <v>9.0339973682560899</v>
+        <v>4.2285022591742143</v>
       </c>
       <c r="M2">
-        <v>8.486452275016525</v>
+        <v>4.5186587869141874</v>
       </c>
       <c r="N2">
-        <v>1.7514101342140931E-2</v>
+        <v>1.0367041269620349E-4</v>
       </c>
       <c r="O2">
-        <v>2.6037498544845372E-3</v>
+        <v>5.3040619630714133E-6</v>
       </c>
       <c r="P2">
-        <v>1.532142861191153E-2</v>
+        <v>8.7613830498639526E-3</v>
       </c>
       <c r="Q2">
-        <v>1.303550312375916E-3</v>
+        <v>8.6287323192431979E-3</v>
       </c>
       <c r="R2">
-        <v>3.4431836505543248E-4</v>
+        <v>8.7283281038934421E-4</v>
       </c>
       <c r="S2">
-        <v>7.1898319899154752E-7</v>
+        <v>3.3952139694372148E-5</v>
       </c>
       <c r="T2">
-        <v>1.046677964146964E-2</v>
+        <v>2.5449472574872408E-3</v>
       </c>
       <c r="U2">
-        <v>3.3133573797952771E-3</v>
+        <v>4.6559273112673502E-4</v>
       </c>
       <c r="V2">
-        <v>46.423450248311617</v>
+        <v>6.5234197558166844</v>
       </c>
       <c r="W2">
-        <v>1.643030387034007E-4</v>
-      </c>
-      <c r="X2">
-        <v>9.6028882731170067E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
+        <v>-8.0768673798216213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>3.2992965209355119E-6</v>
+        <v>5.6232195823916527E-6</v>
       </c>
       <c r="C3">
-        <v>3.7289705300541119E-2</v>
+        <v>3.6981944236946292E-2</v>
       </c>
       <c r="D3">
-        <v>3.038299458490715E-3</v>
+        <v>1.4474106004070701E-3</v>
       </c>
       <c r="E3">
-        <v>3.8585288227847681E-2</v>
+        <v>3.9303725167710767E-2</v>
       </c>
       <c r="F3">
-        <v>5.5999852442312781</v>
+        <v>6.8999852369288757</v>
       </c>
       <c r="K3">
-        <v>8.4300775007549156</v>
+        <v>4.5021672696035582</v>
       </c>
       <c r="L3">
-        <v>9.0521881979153633</v>
+        <v>4.2281077679518333</v>
       </c>
       <c r="M3">
-        <v>8.5034273550738089</v>
+        <v>4.5117825810326062</v>
       </c>
       <c r="N3">
-        <v>1.7664710953127358E-2</v>
+        <v>1.0466401219855841E-4</v>
       </c>
       <c r="O3">
-        <v>2.6734299775193178E-3</v>
+        <v>5.19002084476966E-6</v>
       </c>
       <c r="P3">
-        <v>1.5463023342209869E-2</v>
+        <v>8.76272295623386E-3</v>
       </c>
       <c r="Q3">
-        <v>1.3128599877464901E-3</v>
+        <v>8.6283221796349206E-3</v>
       </c>
       <c r="R3">
-        <v>3.4778906588226518E-4</v>
+        <v>8.8130635251757621E-4</v>
       </c>
       <c r="S3">
-        <v>5.4257009322944485E-7</v>
+        <v>3.3312762935348709E-5</v>
       </c>
       <c r="T3">
-        <v>1.05390364319916E-2</v>
+        <v>2.56595083856159E-3</v>
       </c>
       <c r="U3">
-        <v>3.3773319118063009E-3</v>
+        <v>4.7045897603961761E-4</v>
       </c>
       <c r="V3">
-        <v>46.871623832314853</v>
+        <v>6.5575102345538836</v>
       </c>
       <c r="W3">
-        <v>1.6604915648188399E-4</v>
-      </c>
-      <c r="X3">
-        <v>9.6010542505284407E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
+        <v>-8.0502236157690632</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>3.2938254840305752E-6</v>
+        <v>5.6147857946142174E-6</v>
       </c>
       <c r="C4">
-        <v>3.7639209441786531E-2</v>
+        <v>3.7344541518951793E-2</v>
       </c>
       <c r="D4">
-        <v>3.072214227853831E-3</v>
+        <v>1.4643714593432109E-3</v>
       </c>
       <c r="E4">
-        <v>3.8956389816883152E-2</v>
+        <v>3.9706846194035077E-2</v>
       </c>
       <c r="F4">
-        <v>5.5999704133402046</v>
+        <v>6.8999703985485823</v>
       </c>
       <c r="K4">
-        <v>8.4272825328148215</v>
+        <v>4.5043466308534263</v>
       </c>
       <c r="L4">
-        <v>9.0490562414125115</v>
+        <v>4.2282367150980296</v>
       </c>
       <c r="M4">
-        <v>8.5013027602638278</v>
+        <v>4.5141268266015802</v>
       </c>
       <c r="N4">
-        <v>1.7817683207980502E-2</v>
+        <v>1.056790529266582E-4</v>
       </c>
       <c r="O4">
-        <v>2.6906024991153062E-3</v>
+        <v>5.2311759526324261E-6</v>
       </c>
       <c r="P4">
-        <v>1.560741276419419E-2</v>
+        <v>8.7640943927297654E-3</v>
       </c>
       <c r="Q4">
-        <v>1.327783724992495E-3</v>
+        <v>8.6289393665544955E-3</v>
       </c>
       <c r="R4">
-        <v>3.5133239747194922E-4</v>
+        <v>8.8995934832963972E-4</v>
       </c>
       <c r="S4">
-        <v>5.5043138946303924E-7</v>
+        <v>3.3694321733871491E-5</v>
       </c>
       <c r="T4">
-        <v>1.0612115049544509E-2</v>
+        <v>2.587333408587324E-3</v>
       </c>
       <c r="U4">
-        <v>3.398385598999193E-3</v>
+        <v>4.7543886699250211E-4</v>
       </c>
       <c r="V4">
-        <v>47.119342764069131</v>
+        <v>6.5921314781799039</v>
       </c>
       <c r="W4">
-        <v>1.67829417948431E-4</v>
-      </c>
-      <c r="X4">
-        <v>9.5990977729703763E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
+        <v>-8.0232534071876955</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>3.2882484003150191E-6</v>
+        <v>5.6061796852952288E-6</v>
       </c>
       <c r="C5">
-        <v>3.7995570217187899E-2</v>
+        <v>3.7714440179360133E-2</v>
       </c>
       <c r="D5">
-        <v>3.1069109742049E-3</v>
+        <v>1.4817352666881729E-3</v>
       </c>
       <c r="E5">
-        <v>3.933490757296533E-2</v>
+        <v>4.0118359225259068E-2</v>
       </c>
       <c r="F5">
-        <v>5.5999555058778263</v>
+        <v>6.8999554834036489</v>
       </c>
       <c r="K5">
-        <v>8.4244603260673738</v>
+        <v>4.5065591253427328</v>
       </c>
       <c r="L5">
-        <v>9.0459112615997732</v>
+        <v>4.2283638130908594</v>
       </c>
       <c r="M5">
-        <v>8.4992601344957794</v>
+        <v>4.5164881698715353</v>
       </c>
       <c r="N5">
-        <v>1.7973632493638911E-2</v>
+        <v>1.067145980501018E-4</v>
       </c>
       <c r="O5">
-        <v>2.7082236259271262E-3</v>
+        <v>5.2718205310291126E-6</v>
       </c>
       <c r="P5">
-        <v>1.5754625434701418E-2</v>
+        <v>8.7654877435150783E-3</v>
       </c>
       <c r="Q5">
-        <v>1.342997184177066E-3</v>
+        <v>8.6295625484395719E-3</v>
       </c>
       <c r="R5">
-        <v>3.5494870640063471E-4</v>
+        <v>8.9878682283062704E-4</v>
       </c>
       <c r="S5">
-        <v>5.5751381258893722E-7</v>
+        <v>3.4084780966322489E-5</v>
       </c>
       <c r="T5">
-        <v>1.0686483394395501E-2</v>
+        <v>2.6091055172635601E-3</v>
       </c>
       <c r="U5">
-        <v>3.4200981944248199E-3</v>
+        <v>4.8052841684333299E-4</v>
       </c>
       <c r="V5">
-        <v>47.319256023573388</v>
+        <v>6.6272695207329129</v>
       </c>
       <c r="W5">
-        <v>1.69646164059592E-4</v>
-      </c>
-      <c r="X5">
-        <v>9.5971222282471614E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
+        <v>-7.9959759228439111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>3.2825621417582278E-6</v>
+        <v>5.5973959193152683E-6</v>
       </c>
       <c r="C6">
-        <v>3.8358993750968969E-2</v>
+        <v>3.8091864188867133E-2</v>
       </c>
       <c r="D6">
-        <v>3.1424170819799959E-3</v>
+        <v>1.499516482051711E-3</v>
       </c>
       <c r="E6">
-        <v>3.9721067248369699E-2</v>
+        <v>4.0538527819643483E-2</v>
       </c>
       <c r="F6">
-        <v>5.599940520350005</v>
+        <v>6.8999404899931349</v>
       </c>
       <c r="K6">
-        <v>8.4216141642628966</v>
+        <v>4.5088059977477792</v>
       </c>
       <c r="L6">
-        <v>9.0427436419318834</v>
+        <v>4.2284944307675936</v>
       </c>
       <c r="M6">
-        <v>8.4972165400789788</v>
+        <v>4.5188899254883079</v>
       </c>
       <c r="N6">
-        <v>1.8132647169344238E-2</v>
+        <v>1.0777129364925879E-4</v>
       </c>
       <c r="O6">
-        <v>2.726271551654013E-3</v>
+        <v>5.3135211588678326E-6</v>
       </c>
       <c r="P6">
-        <v>1.5904746562311049E-2</v>
+        <v>8.7669036309637825E-3</v>
       </c>
       <c r="Q6">
-        <v>1.3585585446925089E-3</v>
+        <v>8.6301919416510893E-3</v>
       </c>
       <c r="R6">
-        <v>3.5864028132342682E-4</v>
+        <v>9.0779413576671348E-4</v>
       </c>
       <c r="S6">
-        <v>5.6472855038114321E-7</v>
+        <v>3.448446169693515E-5</v>
       </c>
       <c r="T6">
-        <v>1.076217490689519E-2</v>
+        <v>2.631278195392937E-3</v>
       </c>
       <c r="U6">
-        <v>3.4422926659727691E-3</v>
+        <v>4.8573139175200821E-4</v>
       </c>
       <c r="V6">
-        <v>47.501397327447613</v>
+        <v>6.6629321225538094</v>
       </c>
       <c r="W6">
-        <v>1.7150061526958259E-4</v>
-      </c>
-      <c r="X6">
-        <v>9.5951299149840275E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
+        <v>-7.9683840156784527</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>3.2767634453285971E-6</v>
+        <v>5.5884289684430293E-6</v>
       </c>
       <c r="C7">
-        <v>3.8729694558010959E-2</v>
+        <v>3.8477046796307292E-2</v>
       </c>
       <c r="D7">
-        <v>3.17876123506297E-3</v>
+        <v>1.517730254470485E-3</v>
       </c>
       <c r="E7">
-        <v>4.0115103846701E-2</v>
+        <v>4.0967626628262442E-2</v>
       </c>
       <c r="F7">
-        <v>5.5999254552154962</v>
+        <v>6.8999254167686486</v>
       </c>
       <c r="K7">
-        <v>8.418739516756423</v>
+        <v>4.5110878578163556</v>
       </c>
       <c r="L7">
-        <v>9.0395382408620932</v>
+        <v>4.2286285663346632</v>
       </c>
       <c r="M7">
-        <v>8.4951584108003573</v>
+        <v>4.5213305380497859</v>
       </c>
       <c r="N7">
-        <v>1.8294819544267302E-2</v>
+        <v>1.088497965175787E-4</v>
       </c>
       <c r="O7">
-        <v>2.744720795157576E-3</v>
+        <v>5.3562832809971503E-6</v>
       </c>
       <c r="P7">
-        <v>1.6057864330917559E-2</v>
+        <v>8.7683427013776002E-3</v>
       </c>
       <c r="Q7">
-        <v>1.3744857355338881E-3</v>
+        <v>8.6308267419458688E-3</v>
       </c>
       <c r="R7">
-        <v>3.6240949766840622E-4</v>
+        <v>9.1698686917797434E-4</v>
       </c>
       <c r="S7">
-        <v>5.7210601234941199E-7</v>
+        <v>3.4893695221821653E-5</v>
       </c>
       <c r="T7">
-        <v>1.08392262989049E-2</v>
+        <v>2.653862898589157E-3</v>
       </c>
       <c r="U7">
-        <v>3.464951284579707E-3</v>
+        <v>4.9105157062553223E-4</v>
       </c>
       <c r="V7">
-        <v>47.675736514247383</v>
+        <v>6.6991306948005622</v>
       </c>
       <c r="W7">
-        <v>1.7339385765294301E-4</v>
-      </c>
-      <c r="X7">
-        <v>9.5931176617294971E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
+        <v>-7.940468856352247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>3.2708489222012511E-6</v>
+        <v>5.5792730330129189E-6</v>
       </c>
       <c r="C8">
-        <v>3.91078959763402E-2</v>
+        <v>3.887023101483747E-2</v>
       </c>
       <c r="D8">
-        <v>3.215973480611711E-3</v>
+        <v>1.5363924807714989E-3</v>
       </c>
       <c r="E8">
-        <v>4.0517262107869233E-2</v>
+        <v>4.140594195096798E-2</v>
       </c>
       <c r="F8">
-        <v>5.5999103088839179</v>
+        <v>6.899910262132372</v>
       </c>
       <c r="K8">
-        <v>8.4158350443358838</v>
+        <v>4.5134055652755833</v>
       </c>
       <c r="L8">
-        <v>9.0362923226856164</v>
+        <v>4.2287663353388192</v>
       </c>
       <c r="M8">
-        <v>8.4930844114616679</v>
+        <v>4.5238103864511388</v>
       </c>
       <c r="N8">
-        <v>1.8460246126704639E-2</v>
+        <v>1.099507913392445E-4</v>
       </c>
       <c r="O8">
-        <v>2.763581681200662E-3</v>
+        <v>5.4001405139431086E-6</v>
       </c>
       <c r="P8">
-        <v>1.6214070486187601E-2</v>
+        <v>8.7698056371162368E-3</v>
       </c>
       <c r="Q8">
-        <v>1.3907919956504509E-3</v>
+        <v>8.6314684617128396E-3</v>
       </c>
       <c r="R8">
-        <v>3.6625883162219413E-4</v>
+        <v>9.263708391136781E-4</v>
       </c>
       <c r="S8">
-        <v>5.7965287936424385E-7</v>
+        <v>3.53128301913338E-5</v>
       </c>
       <c r="T8">
-        <v>1.091767603309985E-2</v>
+        <v>2.6768715297377072E-3</v>
       </c>
       <c r="U8">
-        <v>3.4880865618061338E-3</v>
+        <v>4.964929582171061E-4</v>
       </c>
       <c r="V8">
-        <v>47.846571414707149</v>
+        <v>6.7358781437690354</v>
       </c>
       <c r="W8">
-        <v>1.7532712987136301E-4</v>
-      </c>
-      <c r="X8">
-        <v>9.59108453103512E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
+        <v>-7.9122263674681363</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>3.2648150374783329E-6</v>
+        <v>5.5699221003201479E-6</v>
       </c>
       <c r="C9">
-        <v>3.9493830626831913E-2</v>
+        <v>3.9271670138859689E-2</v>
       </c>
       <c r="D9">
-        <v>3.2540853229815628E-3</v>
+        <v>1.555519833703058E-3</v>
       </c>
       <c r="E9">
-        <v>4.092779700988846E-2</v>
+        <v>4.1853772388256473E-2</v>
       </c>
       <c r="F9">
-        <v>5.5998950797136002</v>
+        <v>6.8998950244348229</v>
       </c>
       <c r="K9">
-        <v>8.412901596084124</v>
+        <v>4.5157599296552711</v>
       </c>
       <c r="L9">
-        <v>9.0330088052664426</v>
+        <v>4.228907943008644</v>
       </c>
       <c r="M9">
-        <v>8.4909974891498692</v>
+        <v>4.5263326441271117</v>
       </c>
       <c r="N9">
-        <v>1.8629027464828331E-2</v>
+        <v>1.110749918857531E-4</v>
       </c>
       <c r="O9">
-        <v>2.7828776756495749E-3</v>
+        <v>5.4451628269744009E-6</v>
       </c>
       <c r="P9">
-        <v>1.6373460577483699E-2</v>
+        <v>8.77129313362595E-3</v>
       </c>
       <c r="Q9">
-        <v>1.407488793185512E-3</v>
+        <v>8.6321157233774145E-3</v>
       </c>
       <c r="R9">
-        <v>3.7019086580222452E-4</v>
+        <v>9.3595210802682163E-4</v>
       </c>
       <c r="S9">
-        <v>5.8736981591041289E-7</v>
+        <v>3.5742228619481037E-5</v>
       </c>
       <c r="T9">
-        <v>1.0997564091930969E-2</v>
+        <v>2.7003164606142719E-3</v>
       </c>
       <c r="U9">
-        <v>3.5117228627675459E-3</v>
+        <v>5.0205972346580008E-4</v>
       </c>
       <c r="V9">
-        <v>48.016093616648263</v>
+        <v>6.7731882239828209</v>
       </c>
       <c r="W9">
-        <v>1.7730178377986969E-4</v>
-      </c>
-      <c r="X9">
-        <v>9.5890311172588881E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
+        <v>-7.8836473148921726</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>3.2586581296275141E-6</v>
+        <v>5.5603698851457262E-6</v>
       </c>
       <c r="C10">
-        <v>3.9887740901873747E-2</v>
+        <v>3.968162829435052E-2</v>
       </c>
       <c r="D10">
-        <v>3.2931297888131269E-3</v>
+        <v>1.575129821936954E-3</v>
       </c>
       <c r="E10">
-        <v>4.134697432155935E-2</v>
+        <v>4.2311429482835512E-2</v>
       </c>
       <c r="F10">
-        <v>5.599879766009324</v>
+        <v>6.8998797019726519</v>
       </c>
       <c r="K10">
-        <v>8.4099393718554669</v>
+        <v>4.5181516663000476</v>
       </c>
       <c r="L10">
-        <v>9.0296929057569209</v>
+        <v>4.2290532651279458</v>
       </c>
       <c r="M10">
-        <v>8.4889025718407982</v>
+        <v>4.5288925578503667</v>
       </c>
       <c r="N10">
-        <v>1.8801268223406359E-2</v>
+        <v>1.122231422016094E-4</v>
       </c>
       <c r="O10">
-        <v>2.8026397743812349E-3</v>
+        <v>5.491319821565353E-6</v>
       </c>
       <c r="P10">
-        <v>1.6536134183834761E-2</v>
+        <v>8.7728059315634321E-3</v>
       </c>
       <c r="Q10">
-        <v>1.424588900025344E-3</v>
+        <v>8.6327716911663768E-3</v>
       </c>
       <c r="R10">
-        <v>3.7420829510642362E-4</v>
+        <v>9.4573699802037964E-4</v>
       </c>
       <c r="S10">
-        <v>5.9525587750610364E-7</v>
+        <v>3.6182277888992118E-5</v>
       </c>
       <c r="T10">
-        <v>1.107893193137839E-2</v>
+        <v>2.7242105555832772E-3</v>
       </c>
       <c r="U10">
-        <v>3.5358897198402629E-3</v>
+        <v>5.077562001476922E-4</v>
       </c>
       <c r="V10">
-        <v>48.185566644207562</v>
+        <v>6.8110753235702104</v>
       </c>
       <c r="W10">
-        <v>1.7931910987679291E-4</v>
-      </c>
-      <c r="X10">
-        <v>9.5869575602988278E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
+        <v>-7.8547254442182606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>3.2523743696156651E-6</v>
+        <v>5.5506098419197324E-6</v>
       </c>
       <c r="C11">
-        <v>4.028987948553376E-2</v>
+        <v>4.0100381024816598E-2</v>
       </c>
       <c r="D11">
-        <v>3.3331415508312829E-3</v>
+        <v>1.595240835802772E-3</v>
       </c>
       <c r="E11">
-        <v>4.1775071161557077E-2</v>
+        <v>4.2779238433194033E-2</v>
       </c>
       <c r="F11">
-        <v>5.5998643660199434</v>
+        <v>6.8998642929860754</v>
       </c>
       <c r="K11">
-        <v>8.4069440099093864</v>
+        <v>4.5205819822697757</v>
       </c>
       <c r="L11">
-        <v>9.0263294134995409</v>
+        <v>4.2292026665317071</v>
       </c>
       <c r="M11">
-        <v>8.4867873767783166</v>
+        <v>4.5314948038891663</v>
       </c>
       <c r="N11">
-        <v>1.8977077327241802E-2</v>
+        <v>1.1339601937062089E-4</v>
       </c>
       <c r="O11">
-        <v>2.8228470778248432E-3</v>
+        <v>5.5387042993870166E-6</v>
       </c>
       <c r="P11">
-        <v>1.6702195121019489E-2</v>
+        <v>8.774344769369993E-3</v>
       </c>
       <c r="Q11">
-        <v>1.44211124694417E-3</v>
+        <v>8.6334344617722755E-3</v>
       </c>
       <c r="R11">
-        <v>3.7831393290014789E-4</v>
+        <v>9.5573210483501029E-4</v>
       </c>
       <c r="S11">
-        <v>6.0333386371409147E-7</v>
+        <v>3.6633370156063678E-5</v>
       </c>
       <c r="T11">
-        <v>1.116182250513156E-2</v>
+        <v>2.7485671968518E-3</v>
       </c>
       <c r="U11">
-        <v>3.5605742589130251E-3</v>
+        <v>5.1358703591384332E-4</v>
       </c>
       <c r="V11">
-        <v>48.355730573949842</v>
+        <v>6.849554587232074</v>
       </c>
       <c r="W11">
-        <v>1.8138048474796139E-4</v>
-      </c>
-      <c r="X11">
-        <v>9.5848608069365701E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
+        <v>-7.8254515811414223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>3.2459597637621041E-6</v>
+        <v>5.5406351205811428E-6</v>
       </c>
       <c r="C12">
-        <v>4.0700509907030447E-2</v>
+        <v>4.0528215915805653E-2</v>
       </c>
       <c r="D12">
-        <v>3.374157020605232E-3</v>
+        <v>1.6158722112187491E-3</v>
       </c>
       <c r="E12">
-        <v>4.2212376614576858E-2</v>
+        <v>4.3257538833775547E-2</v>
       </c>
       <c r="F12">
-        <v>5.5998488779358571</v>
+        <v>6.8998487956565739</v>
       </c>
       <c r="K12">
-        <v>8.4039213658659104</v>
+        <v>4.5230515610908819</v>
       </c>
       <c r="L12">
-        <v>9.0229350890898914</v>
+        <v>4.2293564833170736</v>
       </c>
       <c r="M12">
-        <v>8.4846679408718053</v>
+        <v>4.5341441861094394</v>
       </c>
       <c r="N12">
-        <v>1.9156568774457549E-2</v>
+        <v>1.145944339825235E-4</v>
       </c>
       <c r="O12">
-        <v>2.8435642471562588E-3</v>
+        <v>5.5874136880574193E-6</v>
       </c>
       <c r="P12">
-        <v>1.6871751608509209E-2</v>
+        <v>8.7759104394544134E-3</v>
       </c>
       <c r="Q12">
-        <v>1.460066793075743E-3</v>
+        <v>8.6341020502155742E-3</v>
       </c>
       <c r="R12">
-        <v>3.8251071733388611E-4</v>
+        <v>9.6594431299810968E-4</v>
       </c>
       <c r="S12">
-        <v>6.1158684213579676E-7</v>
+        <v>3.7095928631292478E-5</v>
       </c>
       <c r="T12">
-        <v>1.1246280818978429E-2</v>
+        <v>2.7734003097511111E-3</v>
       </c>
       <c r="U12">
-        <v>3.5858342189574728E-3</v>
+        <v>5.195569664816006E-4</v>
       </c>
       <c r="V12">
-        <v>48.527129907391974</v>
+        <v>6.8886416845176779</v>
       </c>
       <c r="W12">
-        <v>1.8348748582838051E-4</v>
-      </c>
-      <c r="X12">
-        <v>9.5827449561061368E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
+        <v>-7.7958202763188069</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>3.2394101794292552E-6</v>
+        <v>5.5304385922229973E-6</v>
       </c>
       <c r="C13">
-        <v>4.1119907130473428E-2</v>
+        <v>4.0965433260801008E-2</v>
       </c>
       <c r="D13">
-        <v>3.416214426567137E-3</v>
+        <v>1.637044279487567E-3</v>
       </c>
       <c r="E13">
-        <v>4.2659192400094303E-2</v>
+        <v>4.3746685490910493E-2</v>
       </c>
       <c r="F13">
-        <v>5.5998332998863107</v>
+        <v>6.89983320810392</v>
       </c>
       <c r="K13">
-        <v>8.4008640016720957</v>
+        <v>4.5255613971441839</v>
       </c>
       <c r="L13">
-        <v>9.0194934370262541</v>
+        <v>4.2295142949529652</v>
       </c>
       <c r="M13">
-        <v>8.4825287183186369</v>
+        <v>4.5368310335684523</v>
       </c>
       <c r="N13">
-        <v>1.9339860960157561E-2</v>
+        <v>1.1581923196336021E-4</v>
       </c>
       <c r="O13">
-        <v>2.8647661656139079E-3</v>
+        <v>5.6373569028400603E-6</v>
       </c>
       <c r="P13">
-        <v>1.704491660643543E-2</v>
+        <v>8.7775037921424895E-3</v>
       </c>
       <c r="Q13">
-        <v>1.4784761699584851E-3</v>
+        <v>8.6347802072646203E-3</v>
       </c>
       <c r="R13">
-        <v>3.8680171880008557E-4</v>
+        <v>9.7638081169886047E-4</v>
       </c>
       <c r="S13">
-        <v>6.2004348612341967E-7</v>
+        <v>3.7570379996209847E-5</v>
       </c>
       <c r="T13">
-        <v>1.133235325268653E-2</v>
+        <v>2.7987243922597571E-3</v>
       </c>
       <c r="U13">
-        <v>3.611653909733266E-3</v>
+        <v>5.2567102070985648E-4</v>
       </c>
       <c r="V13">
-        <v>48.700109325882039</v>
+        <v>6.928352933405022</v>
       </c>
       <c r="W13">
-        <v>1.8564154941255959E-4</v>
-      </c>
-      <c r="X13">
-        <v>9.5806048011704681E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
+        <v>-7.7658225606902533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>3.2327212706788959E-6</v>
+        <v>5.5200127956081117E-6</v>
       </c>
       <c r="C14">
-        <v>4.1548358183926909E-2</v>
+        <v>4.1412346771952303E-2</v>
       </c>
       <c r="D14">
-        <v>3.459353991482826E-3</v>
+        <v>1.6587784422815719E-3</v>
       </c>
       <c r="E14">
-        <v>4.3115833534300103E-2</v>
+        <v>4.4247049263087007E-2</v>
       </c>
       <c r="F14">
-        <v>5.5998176299366449</v>
+        <v>6.899817528383692</v>
       </c>
       <c r="K14">
-        <v>8.3977774131662724</v>
+        <v>4.528112569364187</v>
       </c>
       <c r="L14">
-        <v>9.0160103630779389</v>
+        <v>4.2296767883556292</v>
       </c>
       <c r="M14">
-        <v>8.480377344832366</v>
+        <v>4.5395658957235394</v>
       </c>
       <c r="N14">
-        <v>1.9527077946459189E-2</v>
+        <v>1.170712987254115E-4</v>
       </c>
       <c r="O14">
-        <v>2.886492317169189E-3</v>
+        <v>5.6887121193934187E-6</v>
       </c>
       <c r="P14">
-        <v>1.7221807975031759E-2</v>
+        <v>8.7791256510615558E-3</v>
       </c>
       <c r="Q14">
-        <v>1.497355184095608E-3</v>
+        <v>8.6354649886342776E-3</v>
       </c>
       <c r="R14">
-        <v>3.9119014692865341E-4</v>
+        <v>9.8704911205911789E-4</v>
       </c>
       <c r="S14">
-        <v>6.286989847585318E-7</v>
+        <v>3.8057235534073478E-5</v>
       </c>
       <c r="T14">
-        <v>1.1420088472492819E-2</v>
+        <v>2.8245545442091881E-3</v>
       </c>
       <c r="U14">
-        <v>3.6380706847926329E-3</v>
+        <v>5.3193448715567839E-4</v>
       </c>
       <c r="V14">
-        <v>48.874947713478001</v>
+        <v>6.9687053307998834</v>
       </c>
       <c r="W14">
-        <v>1.878443335302456E-4</v>
-      </c>
-      <c r="X14">
-        <v>9.5784441892163912E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
+        <v>-7.7354486427505051</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>3.225888527016193E-6</v>
+        <v>5.5093499461153223E-6</v>
       </c>
       <c r="C15">
-        <v>4.1986162829817077E-2</v>
+        <v>4.1869284338960013E-2</v>
       </c>
       <c r="D15">
-        <v>3.5036180059163521E-3</v>
+        <v>1.6810972347929391E-3</v>
       </c>
       <c r="E15">
-        <v>4.3582629099295472E-2</v>
+        <v>4.4759017978611981E-2</v>
       </c>
       <c r="F15">
-        <v>5.5998018660852189</v>
+        <v>6.8998017544837422</v>
       </c>
       <c r="K15">
-        <v>8.3946568133145441</v>
+        <v>4.5307060117759868</v>
       </c>
       <c r="L15">
-        <v>9.0124858994245258</v>
+        <v>4.2298441176302113</v>
       </c>
       <c r="M15">
-        <v>8.4782140516613129</v>
+        <v>4.5423485923604838</v>
       </c>
       <c r="N15">
-        <v>1.9718349045646431E-2</v>
+        <v>1.183515583415727E-4</v>
       </c>
       <c r="O15">
-        <v>2.9087630994373819E-3</v>
+        <v>5.7415173502064944E-6</v>
       </c>
       <c r="P15">
-        <v>1.740254881170919E-2</v>
+        <v>8.780776923043479E-3</v>
       </c>
       <c r="Q15">
-        <v>1.5167205451948711E-3</v>
+        <v>8.6361559875715518E-3</v>
       </c>
       <c r="R15">
-        <v>3.9567935897398548E-4</v>
+        <v>9.9795706466285412E-4</v>
       </c>
       <c r="S15">
-        <v>6.3755989815882064E-7</v>
+        <v>3.8556950628211073E-5</v>
       </c>
       <c r="T15">
-        <v>1.1509536952811209E-2</v>
+        <v>2.8509064988879642E-3</v>
       </c>
       <c r="U15">
-        <v>3.6651070060844532E-3</v>
+        <v>5.3835286839503977E-4</v>
       </c>
       <c r="V15">
-        <v>49.051866752675949</v>
+        <v>7.0097165242486694</v>
       </c>
       <c r="W15">
-        <v>1.9009753237289999E-4</v>
-      </c>
-      <c r="X15">
-        <v>9.5762597693201803E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
+        <v>-7.7046908811865933</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>3.2189072431406599E-6</v>
+        <v>5.498441889655454E-6</v>
       </c>
       <c r="C16">
-        <v>4.2433634281257779E-2</v>
+        <v>4.2336588840171253E-2</v>
       </c>
       <c r="D16">
-        <v>3.5490509830436042E-3</v>
+        <v>1.70402440937543E-3</v>
       </c>
       <c r="E16">
-        <v>4.4059923024158981E-2</v>
+        <v>4.5282997402423121E-2</v>
       </c>
       <c r="F16">
-        <v>5.5997860062603051</v>
+        <v>6.8997858843216031</v>
       </c>
       <c r="K16">
-        <v>8.3915025456680752</v>
+        <v>4.5333425761030792</v>
       </c>
       <c r="L16">
-        <v>9.0089198601974498</v>
+        <v>4.2300161578000379</v>
       </c>
       <c r="M16">
-        <v>8.4760389526767845</v>
+        <v>4.5451754418523906</v>
       </c>
       <c r="N16">
-        <v>1.9913809347346541E-2</v>
+        <v>1.1966097742286759E-4</v>
       </c>
       <c r="O16">
-        <v>2.9316003052461529E-3</v>
+        <v>5.7957661750033808E-6</v>
       </c>
       <c r="P16">
-        <v>1.7587267745040751E-2</v>
+        <v>8.7824585618280371E-3</v>
       </c>
       <c r="Q16">
-        <v>1.536591084143987E-3</v>
+        <v>8.6368569318973441E-3</v>
       </c>
       <c r="R16">
-        <v>4.0027286826556488E-4</v>
+        <v>1.0091128799423271E-3</v>
       </c>
       <c r="S16">
-        <v>6.4663325791597489E-7</v>
+        <v>3.9070049816743548E-5</v>
       </c>
       <c r="T16">
-        <v>1.1600751254517341E-2</v>
+        <v>2.8777966573820678E-3</v>
       </c>
       <c r="U16">
-        <v>3.6927864963363969E-3</v>
+        <v>5.4493191266408983E-4</v>
       </c>
       <c r="V16">
-        <v>49.231051075842167</v>
+        <v>7.0514048245211951</v>
       </c>
       <c r="W16">
-        <v>1.9240283012340829E-4</v>
-      </c>
-      <c r="X16">
-        <v>9.5740517819676541E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>15</v>
-      </c>
+        <v>-7.6735410205335839</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>3.2117724894701151E-6</v>
+        <v>5.4872801166761452E-6</v>
       </c>
       <c r="C17">
-        <v>4.2891099967119123E-2</v>
+        <v>4.2814619009945321E-2</v>
       </c>
       <c r="D17">
-        <v>3.5956998244435819E-3</v>
+        <v>1.727585008160623E-3</v>
       </c>
       <c r="E17">
-        <v>4.4548074918558542E-2</v>
+        <v>4.5819412287916791E-2</v>
       </c>
       <c r="F17">
-        <v>5.5997700483167394</v>
+        <v>6.8997699157405084</v>
       </c>
       <c r="K17">
-        <v>8.3883142990621327</v>
+        <v>4.5360235797837696</v>
       </c>
       <c r="L17">
-        <v>9.0053085397576922</v>
+        <v>4.2301934944366533</v>
       </c>
       <c r="M17">
-        <v>8.4738499466946173</v>
+        <v>4.5480541501338587</v>
       </c>
       <c r="N17">
-        <v>2.011360004195948E-2</v>
+        <v>1.210005681434307E-4</v>
       </c>
       <c r="O17">
-        <v>2.9550209149928649E-3</v>
+        <v>5.8516094048963563E-6</v>
       </c>
       <c r="P17">
-        <v>1.777609923516895E-2</v>
+        <v>8.7841715221801623E-3</v>
       </c>
       <c r="Q17">
-        <v>1.556988491170212E-3</v>
+        <v>8.6375646878111192E-3</v>
       </c>
       <c r="R17">
-        <v>4.0497435338330201E-4</v>
+        <v>1.0205251485320391E-3</v>
       </c>
       <c r="S17">
-        <v>6.559297152708418E-7</v>
+        <v>3.9597028013364442E-5</v>
       </c>
       <c r="T17">
-        <v>1.1693786134025349E-2</v>
+        <v>2.9052421249669848E-3</v>
       </c>
       <c r="U17">
-        <v>3.721128250763654E-3</v>
+        <v>5.5167776614583849E-4</v>
       </c>
       <c r="V17">
-        <v>49.412655878692632</v>
+        <v>7.0937893468304543</v>
       </c>
       <c r="W17">
-        <v>1.947621054372483E-4</v>
-      </c>
-      <c r="X17">
-        <v>9.5718200093434939E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
+        <v>-7.6419885937947427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>3.20447913401183E-6</v>
+        <v>5.4758556943089544E-6</v>
       </c>
       <c r="C18">
-        <v>4.3358902349770023E-2</v>
+        <v>4.3303750367109421E-2</v>
       </c>
       <c r="D18">
-        <v>3.643613947376043E-3</v>
+        <v>1.751805465031129E-3</v>
       </c>
       <c r="E18">
-        <v>4.5047460992627852E-2</v>
+        <v>4.6368707469739277E-2</v>
       </c>
       <c r="F18">
-        <v>5.599753990032311</v>
+        <v>6.8997538465062966</v>
       </c>
       <c r="K18">
-        <v>8.3850925233003863</v>
+        <v>4.5387500019705431</v>
       </c>
       <c r="L18">
-        <v>9.0016504054636339</v>
+        <v>4.2303761233910926</v>
       </c>
       <c r="M18">
-        <v>8.4716472445852524</v>
+        <v>4.5509816299627017</v>
       </c>
       <c r="N18">
-        <v>2.0317868841090041E-2</v>
+        <v>1.2237138908079419E-4</v>
       </c>
       <c r="O18">
-        <v>2.9790483156277819E-3</v>
+        <v>5.9090521140220767E-6</v>
       </c>
       <c r="P18">
-        <v>1.7969183886883219E-2</v>
+        <v>8.7859168416369367E-3</v>
       </c>
       <c r="Q18">
-        <v>1.5779333898187451E-3</v>
+        <v>8.6382807684480985E-3</v>
       </c>
       <c r="R18">
-        <v>4.0978766795077851E-4</v>
+        <v>1.0322028642524999E-3</v>
       </c>
       <c r="S18">
-        <v>6.6545654430656657E-7</v>
+        <v>4.0138548308149468E-5</v>
       </c>
       <c r="T18">
-        <v>1.1788698727873701E-2</v>
+        <v>2.933260748286285E-3</v>
       </c>
       <c r="U18">
-        <v>3.750157978552555E-3</v>
+        <v>5.5859679315255174E-4</v>
       </c>
       <c r="V18">
-        <v>49.596821029210709</v>
+        <v>7.1368899540086863</v>
       </c>
       <c r="W18">
-        <v>1.971772913912418E-4</v>
-      </c>
-      <c r="X18">
-        <v>9.5695647663102704E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>17</v>
-      </c>
+        <v>-7.6100259283316296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>3.1970218028944191E-6</v>
+        <v>5.4641593013700346E-6</v>
       </c>
       <c r="C19">
-        <v>4.3837399800401279E-2</v>
+        <v>4.3804376209303143E-2</v>
       </c>
       <c r="D19">
-        <v>3.6928454835521412E-3</v>
+        <v>1.776713685607762E-3</v>
       </c>
       <c r="E19">
-        <v>4.5558475007085403E-2</v>
+        <v>4.6931349086003507E-2</v>
       </c>
       <c r="F19">
-        <v>5.5997378291040274</v>
+        <v>6.8997376743033403</v>
       </c>
       <c r="K19">
-        <v>8.381831602702956</v>
+        <v>4.5415229192674804</v>
       </c>
       <c r="L19">
-        <v>8.9979425440165244</v>
+        <v>4.2305643884770303</v>
       </c>
       <c r="M19">
-        <v>8.4694288189429692</v>
+        <v>4.5539615388417163</v>
       </c>
       <c r="N19">
-        <v>2.0526770293204041E-2</v>
+        <v>1.2377454976714091E-4</v>
       </c>
       <c r="O19">
-        <v>3.0037002604042279E-3</v>
+        <v>5.9681969058154386E-6</v>
       </c>
       <c r="P19">
-        <v>1.8166668832630978E-2</v>
+        <v>8.7876955895066812E-3</v>
       </c>
       <c r="Q19">
-        <v>1.5994485127725621E-3</v>
+        <v>8.6390053224942136E-3</v>
       </c>
       <c r="R19">
-        <v>4.1471685122073602E-4</v>
+        <v>1.044155446372311E-3</v>
       </c>
       <c r="S19">
-        <v>6.7522529574268428E-7</v>
+        <v>4.06951730949877E-5</v>
       </c>
       <c r="T19">
-        <v>1.1885548616419739E-2</v>
+        <v>2.961871157384281E-3</v>
       </c>
       <c r="U19">
-        <v>3.779896186553213E-3</v>
+        <v>5.6569570109421942E-4</v>
       </c>
       <c r="V19">
-        <v>49.783671275909953</v>
+        <v>7.180727315898821</v>
       </c>
       <c r="W19">
-        <v>1.9965035317763991E-4</v>
-      </c>
-      <c r="X19">
-        <v>9.5672821218920698E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
+        <v>-7.5776423396006081</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>3.189394882016123E-6</v>
+        <v>5.4521811533002264E-6</v>
       </c>
       <c r="C20">
-        <v>4.4326967535972608E-2</v>
+        <v>4.4316908679104303E-2</v>
       </c>
       <c r="D20">
-        <v>3.7434494513530572E-3</v>
+        <v>1.802339165816107E-3</v>
       </c>
       <c r="E20">
-        <v>4.6081529313876123E-2</v>
+        <v>4.7507825824966918E-2</v>
       </c>
       <c r="F20">
-        <v>5.599721563144092</v>
+        <v>6.8997213967304383</v>
       </c>
       <c r="K20">
-        <v>8.3785366372644958</v>
+        <v>4.5443438748538902</v>
       </c>
       <c r="L20">
-        <v>8.994189137403156</v>
+        <v>4.2307582371142702</v>
       </c>
       <c r="M20">
-        <v>8.4671987308688799</v>
+        <v>4.5569906776499014</v>
       </c>
       <c r="N20">
-        <v>2.0740466269213789E-2</v>
+        <v>1.2521121260691321E-4</v>
       </c>
       <c r="O20">
-        <v>3.029015244721552E-3</v>
+        <v>6.0290522074685756E-6</v>
       </c>
       <c r="P20">
-        <v>1.8368708104824379E-2</v>
+        <v>8.789508885445857E-3</v>
       </c>
       <c r="Q20">
-        <v>1.621556005455679E-3</v>
+        <v>8.6397398703368083E-3</v>
       </c>
       <c r="R20">
-        <v>4.1976613934177251E-4</v>
+        <v>1.0563927667781321E-3</v>
       </c>
       <c r="S20">
-        <v>6.8523816363966517E-7</v>
+        <v>4.1267521048325711E-5</v>
       </c>
       <c r="T20">
-        <v>1.1984398036296161E-2</v>
+        <v>2.991092809290258E-3</v>
       </c>
       <c r="U20">
-        <v>3.810381607152765E-3</v>
+        <v>5.7298165895145327E-4</v>
       </c>
       <c r="V20">
-        <v>49.973333666536647</v>
+        <v>7.2253230373551363</v>
       </c>
       <c r="W20">
-        <v>2.021834263667945E-4</v>
-      </c>
-      <c r="X20">
-        <v>9.5649756460851474E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
+        <v>-7.5448255686210643</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>3.181592508541892E-6</v>
+        <v>5.4399110075419029E-6</v>
       </c>
       <c r="C21">
-        <v>4.4827998623437053E-2</v>
+        <v>4.4841779907663401E-2</v>
       </c>
       <c r="D21">
-        <v>3.7954839519724229E-3</v>
+        <v>1.8287130962541991E-3</v>
       </c>
       <c r="E21">
-        <v>4.6617055965754113E-2</v>
+        <v>4.8098650314622793E-2</v>
       </c>
       <c r="F21">
-        <v>5.5997051896756256</v>
+        <v>6.899705011296672</v>
       </c>
       <c r="K21">
-        <v>8.3752046634882724</v>
+        <v>4.5472137877847656</v>
       </c>
       <c r="L21">
-        <v>8.9903882101837933</v>
+        <v>4.2309583690708656</v>
       </c>
       <c r="M21">
-        <v>8.4649566819098503</v>
+        <v>4.5600772879372009</v>
       </c>
       <c r="N21">
-        <v>2.0959126158405051E-2</v>
+        <v>1.2668259730320259E-4</v>
       </c>
       <c r="O21">
-        <v>3.055019089188643E-3</v>
+        <v>6.0917930088217006E-6</v>
       </c>
       <c r="P21">
-        <v>1.8575463069014111E-2</v>
+        <v>8.7913578856323882E-3</v>
       </c>
       <c r="Q21">
-        <v>1.6442800227359879E-3</v>
+        <v>8.6404818825374478E-3</v>
       </c>
       <c r="R21">
-        <v>4.2493997762792218E-4</v>
+        <v>1.0689251772192411E-3</v>
       </c>
       <c r="S21">
-        <v>6.955048057452898E-7</v>
+        <v>4.1856260401764578E-5</v>
       </c>
       <c r="T21">
-        <v>1.2085311819372011E-2</v>
+        <v>3.020946033368515E-3</v>
       </c>
       <c r="U21">
-        <v>3.8416425560237779E-3</v>
+        <v>5.8046204122816434E-4</v>
       </c>
       <c r="V21">
-        <v>50.165929675832267</v>
+        <v>7.2706995684697704</v>
       </c>
       <c r="W21">
-        <v>2.0477884016891119E-4</v>
-      </c>
-      <c r="X21">
-        <v>9.5626432644417903E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
+        <v>-7.5115672329810081</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>3.1736085338224439E-6</v>
+        <v>5.427338106269279E-6</v>
       </c>
       <c r="C22">
-        <v>4.5340905056830347E-2</v>
+        <v>4.5379443242806017E-2</v>
       </c>
       <c r="D22">
-        <v>3.8490104114649181E-3</v>
+        <v>1.8558684938710249E-3</v>
       </c>
       <c r="E22">
-        <v>4.7165507888757473E-2</v>
+        <v>4.8704360572990962E-2</v>
       </c>
       <c r="F22">
-        <v>5.5996887061281564</v>
+        <v>6.8996885154168242</v>
       </c>
       <c r="K22">
-        <v>8.3718324430937461</v>
+        <v>4.5501339845923177</v>
       </c>
       <c r="L22">
-        <v>8.9865336055530776</v>
+        <v>4.2311645171775174</v>
       </c>
       <c r="M22">
-        <v>8.4626979885604978</v>
+        <v>4.5632138925583678</v>
       </c>
       <c r="N22">
-        <v>2.1182927496770261E-2</v>
+        <v>1.2818998235688241E-4</v>
       </c>
       <c r="O22">
-        <v>3.0817281640095799E-3</v>
+        <v>6.1563718034866623E-6</v>
       </c>
       <c r="P22">
-        <v>1.8787102857092591E-2</v>
+        <v>8.7932438356710749E-3</v>
       </c>
       <c r="Q22">
-        <v>1.6676494479607371E-3</v>
+        <v>8.641235344196762E-3</v>
       </c>
       <c r="R22">
-        <v>4.3024303353819947E-4</v>
+        <v>1.081763538679459E-3</v>
       </c>
       <c r="S22">
-        <v>7.0604221947812865E-7</v>
+        <v>4.246216099861599E-5</v>
       </c>
       <c r="T22">
-        <v>1.218835768516386E-2</v>
+        <v>3.0514520832702688E-3</v>
       </c>
       <c r="U22">
-        <v>3.8736987442260971E-3</v>
+        <v>5.8814471473983185E-4</v>
       </c>
       <c r="V22">
-        <v>50.361570791523683</v>
+        <v>7.3168803317911983</v>
       </c>
       <c r="W22">
-        <v>2.0743875306811311E-4</v>
-      </c>
-      <c r="X22">
-        <v>9.5602827101656224E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
+        <v>-7.4778559018996091</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>3.1654365237466589E-6</v>
+        <v>5.414451181662934E-6</v>
       </c>
       <c r="C23">
-        <v>4.5866118913100801E-2</v>
+        <v>4.5930374568741897E-2</v>
       </c>
       <c r="D23">
-        <v>3.9040938022625198E-3</v>
+        <v>1.883840325260002E-3</v>
       </c>
       <c r="E23">
-        <v>4.7727360163307732E-2</v>
+        <v>4.9325521605112582E-2</v>
       </c>
       <c r="F23">
-        <v>5.5996721098327527</v>
+        <v>6.8996719064062084</v>
       </c>
       <c r="K23">
-        <v>8.3684221301498365</v>
+        <v>4.5531056953808093</v>
       </c>
       <c r="L23">
-        <v>8.9826253343434352</v>
+        <v>4.2313776412845012</v>
       </c>
       <c r="M23">
-        <v>8.4604248122463073</v>
+        <v>4.566413996066025</v>
       </c>
       <c r="N23">
-        <v>2.141205660224824E-2</v>
+        <v>1.2973471160439371E-4</v>
       </c>
       <c r="O23">
-        <v>3.1091769132960611E-3</v>
+        <v>6.2230504448032888E-6</v>
       </c>
       <c r="P23">
-        <v>1.9003804798980339E-2</v>
+        <v>8.7951679937910039E-3</v>
       </c>
       <c r="Q23">
-        <v>1.6916907442933041E-3</v>
+        <v>8.6419957250501705E-3</v>
       </c>
       <c r="R23">
-        <v>4.3568021064349969E-4</v>
+        <v>1.0949192523209889E-3</v>
       </c>
       <c r="S23">
-        <v>7.1685682288322808E-7</v>
+        <v>4.3085965094632572E-5</v>
       </c>
       <c r="T23">
-        <v>1.2293606532517499E-2</v>
+        <v>3.0826331892010342E-3</v>
       </c>
       <c r="U23">
-        <v>3.9065867570692789E-3</v>
+        <v>5.9603793760510835E-4</v>
       </c>
       <c r="V23">
-        <v>50.560371530695228</v>
+        <v>7.3638897505181982</v>
       </c>
       <c r="W23">
-        <v>2.1016575019109149E-4</v>
-      </c>
-      <c r="X23">
-        <v>9.5578954911048858E-7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
+        <v>-7.4436818592943146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>3.1570697402124758E-6</v>
+        <v>5.4012384005953511E-6</v>
       </c>
       <c r="C24">
-        <v>4.6404093594008988E-2</v>
+        <v>4.6495073725709622E-2</v>
       </c>
       <c r="D24">
-        <v>3.9608029033204751E-3</v>
+        <v>1.9126656594001729E-3</v>
       </c>
       <c r="E24">
-        <v>4.8303111389202708E-2</v>
+        <v>4.9962727087550132E-2</v>
       </c>
       <c r="F24">
-        <v>5.5996553980169121</v>
+        <v>6.8996551814758922</v>
       </c>
       <c r="K24">
-        <v>8.364970552277553</v>
+        <v>4.5561304370884548</v>
       </c>
       <c r="L24">
-        <v>8.9786648264922224</v>
+        <v>4.231597393523943</v>
       </c>
       <c r="M24">
-        <v>8.4581384519114184</v>
+        <v>4.5696673981368203</v>
       </c>
       <c r="N24">
-        <v>2.1646708905952761E-2</v>
+        <v>1.313181944397731E-4</v>
       </c>
       <c r="O24">
-        <v>3.1374014237534509E-3</v>
+        <v>6.2917481370642592E-6</v>
       </c>
       <c r="P24">
-        <v>1.9225754979168629E-2</v>
+        <v>8.7971317408261432E-3</v>
       </c>
       <c r="Q24">
-        <v>1.7164313910744821E-3</v>
+        <v>8.6427679431398813E-3</v>
       </c>
       <c r="R24">
-        <v>4.4125666389761018E-4</v>
+        <v>1.108404294464917E-3</v>
       </c>
       <c r="S24">
-        <v>7.2795735563934529E-7</v>
+        <v>4.3728447942066678E-5</v>
       </c>
       <c r="T24">
-        <v>1.2401132427074531E-2</v>
+        <v>3.114512615503546E-3</v>
       </c>
       <c r="U24">
-        <v>3.9403447121068346E-3</v>
+        <v>6.0415048568236316E-4</v>
       </c>
       <c r="V24">
-        <v>50.762449714635821</v>
+        <v>7.4117533463606922</v>
       </c>
       <c r="W24">
-        <v>2.1296234660579531E-4</v>
-      </c>
-      <c r="X24">
-        <v>9.5554793865942874E-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
+        <v>-7.4090303013218772</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>3.1485011206766801E-6</v>
+        <v>5.3876873229688376E-6</v>
       </c>
       <c r="C25">
-        <v>4.6955305161420532E-2</v>
+        <v>4.7074066038259102E-2</v>
       </c>
       <c r="D25">
-        <v>4.0192105840117917E-3</v>
+        <v>1.9423838289034539E-3</v>
       </c>
       <c r="E25">
-        <v>4.8893285151375983E-2</v>
+        <v>5.0616601183893252E-2</v>
       </c>
       <c r="F25">
-        <v>5.5996385677990448</v>
+        <v>6.8996383377269241</v>
       </c>
       <c r="K25">
-        <v>8.3614765432383891</v>
+        <v>4.5592094882875518</v>
       </c>
       <c r="L25">
-        <v>8.9746448872699514</v>
+        <v>4.2318246151965608</v>
       </c>
       <c r="M25">
-        <v>8.4558338850305201</v>
+        <v>4.5729844581917911</v>
       </c>
       <c r="N25">
-        <v>2.1887089522604701E-2</v>
+        <v>1.329419145216264E-4</v>
       </c>
       <c r="O25">
-        <v>3.1664226883652519E-3</v>
+        <v>6.3626921688947824E-6</v>
       </c>
       <c r="P25">
-        <v>1.945314879200102E-2</v>
+        <v>8.7991364654714192E-3</v>
       </c>
       <c r="Q25">
-        <v>1.7419062326262369E-3</v>
+        <v>8.6435484634030321E-3</v>
       </c>
       <c r="R25">
-        <v>4.4697781593062291E-4</v>
+        <v>1.122231253510668E-3</v>
       </c>
       <c r="S25">
-        <v>7.3936345267380852E-7</v>
+        <v>4.4390474430120827E-5</v>
       </c>
       <c r="T25">
-        <v>1.251101278700918E-2</v>
+        <v>3.147114721085639E-3</v>
       </c>
       <c r="U25">
-        <v>3.9749968370450337E-3</v>
+        <v>6.1249154984000561E-4</v>
       </c>
       <c r="V25">
-        <v>50.96791767168591</v>
+        <v>7.460497752962679</v>
       </c>
       <c r="W25">
-        <v>2.1583118964543831E-4</v>
-      </c>
-      <c r="X25">
-        <v>9.5530335802668735E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>24</v>
-      </c>
+        <v>-7.3738910185018156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>3.139723270947874E-6</v>
+        <v>5.3737848864034517E-6</v>
       </c>
       <c r="C26">
-        <v>4.7520253774281172E-2</v>
+        <v>4.7667903962066403E-2</v>
       </c>
       <c r="D26">
-        <v>4.0793940969743826E-3</v>
+        <v>1.9730365967327978E-3</v>
       </c>
       <c r="E26">
-        <v>4.9498431606328511E-2</v>
+        <v>5.1287800521586789E-2</v>
       </c>
       <c r="F26">
-        <v>5.5996216161826142</v>
+        <v>6.8996213721443667</v>
       </c>
       <c r="K26">
-        <v>8.3579414907343139</v>
+        <v>4.5623443032479836</v>
       </c>
       <c r="L26">
-        <v>8.9705748261932747</v>
+        <v>4.2320589642486404</v>
       </c>
       <c r="M26">
-        <v>8.4535208078506816</v>
+        <v>4.5763563867462071</v>
       </c>
       <c r="N26">
-        <v>2.213341408621311E-2</v>
+        <v>1.34607430605215E-4</v>
       </c>
       <c r="O26">
-        <v>3.196303561467639E-3</v>
+        <v>6.435827569994951E-6</v>
       </c>
       <c r="P26">
-        <v>1.9686191457255951E-2</v>
+        <v>8.8011836760249502E-3</v>
       </c>
       <c r="Q26">
-        <v>1.7681423095800689E-3</v>
+        <v>8.6443416935016917E-3</v>
       </c>
       <c r="R26">
-        <v>4.5284937451585899E-4</v>
+        <v>1.1364133690248859E-3</v>
       </c>
       <c r="S26">
-        <v>7.5106994223197629E-7</v>
+        <v>4.5072944915001731E-5</v>
       </c>
       <c r="T26">
-        <v>1.262332878635081E-2</v>
+        <v>3.180465025970451E-3</v>
       </c>
       <c r="U26">
-        <v>4.0106049283468821E-3</v>
+        <v>6.2107087374654543E-4</v>
       </c>
       <c r="V26">
-        <v>51.176904390861203</v>
+        <v>7.5101508033266837</v>
       </c>
       <c r="W26">
-        <v>2.1877527578716691E-4</v>
-      </c>
-      <c r="X26">
-        <v>9.550559043514021E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>25</v>
-      </c>
+        <v>-7.338251222376023</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>3.1307284084851581E-6</v>
+        <v>5.3595173521274746E-6</v>
       </c>
       <c r="C27">
-        <v>4.8099465236645267E-2</v>
+        <v>4.8277168860270857E-2</v>
       </c>
       <c r="D27">
-        <v>4.141435452923844E-3</v>
+        <v>2.004668350253697E-3</v>
       </c>
       <c r="E27">
-        <v>5.0119129156385812E-2</v>
+        <v>5.1977016296511573E-2</v>
       </c>
       <c r="F27">
-        <v>5.5996045400499224</v>
+        <v>6.899604281590956</v>
       </c>
       <c r="K27">
-        <v>8.3543643428896761</v>
+        <v>4.5655365907749941</v>
       </c>
       <c r="L27">
-        <v>8.9664418395779801</v>
+        <v>4.2323012393561763</v>
       </c>
       <c r="M27">
-        <v>8.4511903700518332</v>
+        <v>4.5797918710766838</v>
       </c>
       <c r="N27">
-        <v>2.2385908893209721E-2</v>
+        <v>1.3631638531235129E-4</v>
       </c>
       <c r="O27">
-        <v>3.2270541233353398E-3</v>
+        <v>6.5113696978076117E-6</v>
       </c>
       <c r="P27">
-        <v>1.9925098779224971E-2</v>
+        <v>8.8032749024585938E-3</v>
       </c>
       <c r="Q27">
-        <v>1.795178631083654E-3</v>
+        <v>8.6451465553253753E-3</v>
       </c>
       <c r="R27">
-        <v>4.5887735191017407E-4</v>
+        <v>1.150964574679684E-3</v>
       </c>
       <c r="S27">
-        <v>7.6310543975131736E-7</v>
+        <v>4.5776778543725579E-5</v>
       </c>
       <c r="T27">
-        <v>1.273816510445753E-2</v>
+        <v>3.214590281333436E-3</v>
       </c>
       <c r="U27">
-        <v>4.0471862673651816E-3</v>
+        <v>6.2989881915800688E-4</v>
       </c>
       <c r="V27">
-        <v>51.389528329368602</v>
+        <v>7.560741632245767</v>
       </c>
       <c r="W27">
-        <v>2.2179752809995339E-4</v>
-      </c>
-      <c r="X27">
-        <v>9.5480550400227747E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
+        <v>-7.302096373011139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>3.121508387349887E-6</v>
+        <v>5.3448702621331317E-6</v>
       </c>
       <c r="C28">
-        <v>4.8693492666155018E-2</v>
+        <v>4.8902472921217043E-2</v>
       </c>
       <c r="D28">
-        <v>4.2054217327654351E-3</v>
+        <v>2.0373263088658469E-3</v>
       </c>
       <c r="E28">
-        <v>5.0755986311385289E-2</v>
+        <v>5.2684976553138037E-2</v>
       </c>
       <c r="F28">
-        <v>5.599587336155377</v>
+        <v>6.8995870628004159</v>
       </c>
       <c r="K28">
-        <v>8.3507414304396121</v>
+        <v>4.5687876000489096</v>
       </c>
       <c r="L28">
-        <v>8.9622519963891474</v>
+        <v>4.2325519209005646</v>
       </c>
       <c r="M28">
-        <v>8.4488472367522878</v>
+        <v>4.5832934237120657</v>
       </c>
       <c r="N28">
-        <v>2.2644812336045862E-2</v>
+        <v>1.3807050714498021E-4</v>
       </c>
       <c r="O28">
-        <v>3.2587306776768548E-3</v>
+        <v>6.5894447008722312E-6</v>
       </c>
       <c r="P28">
-        <v>2.01700977001458E-2</v>
+        <v>8.805411772014448E-3</v>
       </c>
       <c r="Q28">
-        <v>1.823050348004074E-3</v>
+        <v>8.645961227633496E-3</v>
       </c>
       <c r="R28">
-        <v>4.6506808497058521E-4</v>
+        <v>1.165899544897738E-3</v>
       </c>
       <c r="S28">
-        <v>7.7547365957854699E-7</v>
+        <v>4.650308147241431E-5</v>
       </c>
       <c r="T28">
-        <v>1.285561076441824E-2</v>
+        <v>3.2495185443358059E-3</v>
       </c>
       <c r="U28">
-        <v>4.0847960121629182E-3</v>
+        <v>6.3898620630018009E-4</v>
       </c>
       <c r="V28">
-        <v>51.605919018148093</v>
+        <v>7.6123006731430287</v>
       </c>
       <c r="W28">
-        <v>2.249010760626613E-4</v>
-      </c>
-      <c r="X28">
-        <v>9.5455190013077293E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27</v>
-      </c>
+        <v>-7.2654158715064909</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>3.1120546354340888E-6</v>
+        <v>5.3298284036302662E-6</v>
       </c>
       <c r="C29">
-        <v>4.9302918295379528E-2</v>
+        <v>4.9544461230975272E-2</v>
       </c>
       <c r="D29">
-        <v>4.2714455311664056E-3</v>
+        <v>2.0710607479489948E-3</v>
       </c>
       <c r="E29">
-        <v>5.1409643634962997E-2</v>
+        <v>5.3412448655215473E-2</v>
       </c>
       <c r="F29">
-        <v>5.5995700011183356</v>
+        <v>6.8995697123705106</v>
       </c>
       <c r="K29">
-        <v>8.3470756723858486</v>
+        <v>4.5720991335216956</v>
       </c>
       <c r="L29">
-        <v>8.9579980097934762</v>
+        <v>4.2328114113197248</v>
       </c>
       <c r="M29">
-        <v>8.4464881101519627</v>
+        <v>4.5868640542385908</v>
       </c>
       <c r="N29">
-        <v>2.2910375098489269E-2</v>
+        <v>1.398716175894201E-4</v>
       </c>
       <c r="O29">
-        <v>3.2913659449429599E-3</v>
+        <v>6.6701966451108814E-6</v>
       </c>
       <c r="P29">
-        <v>2.0421427115928561E-2</v>
+        <v>8.8075960260470647E-3</v>
       </c>
       <c r="Q29">
-        <v>1.851798465965748E-3</v>
+        <v>8.6467865647667317E-3</v>
       </c>
       <c r="R29">
-        <v>4.7142825772827028E-4</v>
+        <v>1.1812337430268519E-3</v>
       </c>
       <c r="S29">
-        <v>7.8819567267775479E-7</v>
+        <v>4.7252877630298033E-5</v>
       </c>
       <c r="T29">
-        <v>1.297575891170941E-2</v>
+        <v>3.2852792612951989E-3</v>
       </c>
       <c r="U29">
-        <v>4.1234715453982813E-3</v>
+        <v>6.4834463676950596E-4</v>
       </c>
       <c r="V29">
-        <v>51.826206189734783</v>
+        <v>7.6648598171656896</v>
       </c>
       <c r="W29">
-        <v>2.280893596661513E-4</v>
-      </c>
-      <c r="X29">
-        <v>9.5429529706700952E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>28</v>
-      </c>
+        <v>-7.2281927017526471</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>3.102358151232074E-6</v>
+        <v>5.3143757337249724E-6</v>
       </c>
       <c r="C30">
-        <v>4.9928355417104719E-2</v>
+        <v>5.0203814015461749E-2</v>
       </c>
       <c r="D30">
-        <v>4.339605368165988E-3</v>
+        <v>2.1059252568567692E-3</v>
       </c>
       <c r="E30">
-        <v>5.2080775889656122E-2</v>
+        <v>5.4160241917685301E-2</v>
       </c>
       <c r="F30">
-        <v>5.5995525314154673</v>
+        <v>6.8995522267545004</v>
       </c>
       <c r="K30">
-        <v>8.3433606433703069</v>
+        <v>4.5754728203098853</v>
       </c>
       <c r="L30">
-        <v>8.9536823956151927</v>
+        <v>4.2330802515467969</v>
       </c>
       <c r="M30">
-        <v>8.4441156380755675</v>
+        <v>4.5905060377430464</v>
       </c>
       <c r="N30">
-        <v>2.318286133673297E-2</v>
+        <v>1.417216373247577E-4</v>
       </c>
       <c r="O30">
-        <v>3.3250126014842101E-3</v>
+        <v>6.7537637957450456E-6</v>
       </c>
       <c r="P30">
-        <v>2.0679338624955822E-2</v>
+        <v>8.8098294907870689E-3</v>
       </c>
       <c r="Q30">
-        <v>1.881462128982217E-3</v>
+        <v>8.6476216699415166E-3</v>
       </c>
       <c r="R30">
-        <v>4.7796492525682021E-4</v>
+        <v>1.196983477268471E-3</v>
       </c>
       <c r="S30">
-        <v>8.0128034714017837E-7</v>
+        <v>4.8027343034937471E-5</v>
       </c>
       <c r="T30">
-        <v>1.309870734735262E-2</v>
+        <v>3.3219033533024999E-3</v>
       </c>
       <c r="U30">
-        <v>4.1632669489688381E-3</v>
+        <v>6.5798634183600281E-4</v>
       </c>
       <c r="V30">
-        <v>52.050527811537108</v>
+        <v>7.7184524660725362</v>
       </c>
       <c r="W30">
-        <v>2.3136575433007749E-4</v>
-      </c>
-      <c r="X30">
-        <v>9.5403524503592155E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>29</v>
-      </c>
+        <v>-7.190414468783203</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>3.092409482367136E-6</v>
+        <v>5.2984953533310829E-6</v>
       </c>
       <c r="C31">
-        <v>5.0570450488216533E-2</v>
+        <v>5.0881249068399838E-2</v>
       </c>
       <c r="D31">
-        <v>4.4100061602987519E-3</v>
+        <v>2.141977004144458E-3</v>
       </c>
       <c r="E31">
-        <v>5.2770094342587212E-2</v>
+        <v>5.4929210508337219E-2</v>
       </c>
       <c r="F31">
-        <v>5.599534923372488</v>
+        <v>6.8995346022537269</v>
       </c>
       <c r="K31">
-        <v>8.3395991864078525</v>
+        <v>4.5789104942839769</v>
       </c>
       <c r="L31">
-        <v>8.9493003551305819</v>
+        <v>4.2333580276417191</v>
       </c>
       <c r="M31">
-        <v>8.4417286556896158</v>
+        <v>4.5942088058485853</v>
       </c>
       <c r="N31">
-        <v>2.346254934708859E-2</v>
+        <v>1.436225932899551E-4</v>
       </c>
       <c r="O31">
-        <v>3.3597131939993182E-3</v>
+        <v>6.8400871038878069E-6</v>
       </c>
       <c r="P31">
-        <v>2.094409744884277E-2</v>
+        <v>8.8121141079820775E-3</v>
       </c>
       <c r="Q31">
-        <v>1.9120867706207149E-3</v>
+        <v>8.6484744805664926E-3</v>
       </c>
       <c r="R31">
-        <v>4.8468553997385789E-4</v>
+        <v>1.213165958032323E-3</v>
       </c>
       <c r="S31">
-        <v>8.1474633317006902E-7</v>
+        <v>4.8827662325671513E-5</v>
       </c>
       <c r="T31">
-        <v>1.322455862056929E-2</v>
+        <v>3.3594233112104791E-3</v>
       </c>
       <c r="U31">
-        <v>4.2042286574026332E-3</v>
+        <v>6.6792433698133278E-4</v>
       </c>
       <c r="V31">
-        <v>52.279025141781482</v>
+        <v>7.7731136467183006</v>
       </c>
       <c r="W31">
-        <v>2.34734133580757E-4</v>
-      </c>
-      <c r="X31">
-        <v>9.5377194304854966E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>30</v>
-      </c>
+        <v>-7.1520637303261196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>3.0821986501451491E-6</v>
+        <v>5.2821694292115312E-6</v>
       </c>
       <c r="C32">
-        <v>5.1229885407186787E-2</v>
+        <v>5.1577524383603503E-2</v>
       </c>
       <c r="D32">
-        <v>4.4827598033783016E-3</v>
+        <v>2.1792770460884962E-3</v>
       </c>
       <c r="E32">
-        <v>5.3478349217908568E-2</v>
+        <v>5.5720256537395763E-2</v>
       </c>
       <c r="F32">
-        <v>5.5995171731554434</v>
+        <v>6.899516835008102</v>
       </c>
       <c r="K32">
-        <v>8.3357891465927185</v>
+        <v>4.5824137202136956</v>
       </c>
       <c r="L32">
-        <v>8.9448540135404766</v>
+        <v>4.2336461249671604</v>
       </c>
       <c r="M32">
-        <v>8.4393288114456197</v>
+        <v>4.5979879771150332</v>
       </c>
       <c r="N32">
-        <v>2.3749732720704152E-2</v>
+        <v>1.455766290926132E-4</v>
       </c>
       <c r="O32">
-        <v>3.395526174392391E-3</v>
+        <v>6.9295308356224519E-6</v>
       </c>
       <c r="P32">
-        <v>2.1215983315674519E-2</v>
+        <v>8.8144518169451583E-3</v>
       </c>
       <c r="Q32">
-        <v>1.9437182186004831E-3</v>
+        <v>8.6493369129568808E-3</v>
       </c>
       <c r="R32">
-        <v>4.9159797988301065E-4</v>
+        <v>1.229799362256704E-3</v>
       </c>
       <c r="S32">
-        <v>8.2860604281844198E-7</v>
+        <v>4.9655241826441248E-5</v>
       </c>
       <c r="T32">
-        <v>1.335342047718596E-2</v>
+        <v>3.39787329655661E-3</v>
       </c>
       <c r="U32">
-        <v>4.2464166849496172E-3</v>
+        <v>6.7817234818647347E-4</v>
       </c>
       <c r="V32">
-        <v>52.511848336331397</v>
+        <v>7.8288800700641827</v>
       </c>
       <c r="W32">
-        <v>2.3819839967493769E-4</v>
-      </c>
-      <c r="X32">
-        <v>9.535052402614903E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>31</v>
-      </c>
+        <v>-7.1131276069532126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>3.0717151837026781E-6</v>
+        <v>5.2653791522253457E-6</v>
       </c>
       <c r="C33">
-        <v>5.1907379981155029E-2</v>
+        <v>5.2293441011683428E-2</v>
       </c>
       <c r="D33">
-        <v>4.5579856697940176E-3</v>
+        <v>2.2178906518967581E-3</v>
       </c>
       <c r="E33">
-        <v>5.4206332439317099E-2</v>
+        <v>5.65343334445138E-2</v>
       </c>
       <c r="F33">
-        <v>5.5994992767610654</v>
+        <v>6.8994989209866153</v>
       </c>
       <c r="K33">
-        <v>8.3319279107744375</v>
+        <v>4.5859846320850153</v>
       </c>
       <c r="L33">
-        <v>8.9403336450128741</v>
+        <v>4.2339445798773756</v>
       </c>
       <c r="M33">
-        <v>8.4369108176966137</v>
+        <v>4.6018384795785581</v>
       </c>
       <c r="N33">
-        <v>2.404472122137534E-2</v>
+        <v>1.4758600732822169E-4</v>
       </c>
       <c r="O33">
-        <v>3.432487575897251E-3</v>
+        <v>7.0221397804738937E-6</v>
       </c>
       <c r="P33">
-        <v>2.149529150548719E-2</v>
+        <v>8.8168447865681759E-3</v>
       </c>
       <c r="Q33">
-        <v>1.9764102313784772E-3</v>
+        <v>8.6502146679941667E-3</v>
       </c>
       <c r="R33">
-        <v>4.98710579503883E-4</v>
+        <v>1.246902900233954E-3</v>
       </c>
       <c r="S33">
-        <v>8.4288830885883979E-7</v>
+        <v>5.0511431634163827E-5</v>
       </c>
       <c r="T33">
-        <v>1.3485406039392279E-2</v>
+        <v>3.43728925233009E-3</v>
       </c>
       <c r="U33">
-        <v>4.2898724290300052E-3</v>
+        <v>6.8874510955783388E-4</v>
       </c>
       <c r="V33">
-        <v>52.749146907169148</v>
+        <v>7.88579030943764</v>
       </c>
       <c r="W33">
-        <v>2.417626550682527E-4</v>
-      </c>
-      <c r="X33">
-        <v>9.5323495375421072E-7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>32</v>
-      </c>
+        <v>-7.0735859097945726</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>3.060948027179588E-6</v>
+        <v>5.2481046378729814E-6</v>
       </c>
       <c r="C34">
-        <v>5.2603694603380928E-2</v>
+        <v>5.3029846164033237E-2</v>
       </c>
       <c r="D34">
-        <v>4.6358113185233051E-3</v>
+        <v>2.2578876824066339E-3</v>
       </c>
       <c r="E34">
-        <v>5.495488050224924E-2</v>
+        <v>5.7372449625823038E-2</v>
       </c>
       <c r="F34">
-        <v>5.5994812300067469</v>
+        <v>6.8994808559771146</v>
       </c>
       <c r="K34">
-        <v>8.3280156964926668</v>
+        <v>4.5896250116917434</v>
       </c>
       <c r="L34">
-        <v>8.9357455177119114</v>
+        <v>4.2342544232107366</v>
       </c>
       <c r="M34">
-        <v>8.4344817755574937</v>
+        <v>4.6057689702342044</v>
       </c>
       <c r="N34">
-        <v>2.4347842304397078E-2</v>
+        <v>1.4965312302745329E-4</v>
       </c>
       <c r="O34">
-        <v>3.4706794896408738E-3</v>
+        <v>7.1181908595684386E-6</v>
       </c>
       <c r="P34">
-        <v>2.1782333877165251E-2</v>
+        <v>8.819295229488381E-3</v>
       </c>
       <c r="Q34">
-        <v>2.010212452017299E-3</v>
+        <v>8.651104076835359E-3</v>
       </c>
       <c r="R34">
-        <v>5.0603216319792751E-4</v>
+        <v>1.264496892419245E-3</v>
       </c>
       <c r="S34">
-        <v>8.5759707675281285E-7</v>
+        <v>5.1397703069791563E-5</v>
       </c>
       <c r="T34">
-        <v>1.3620634474838781E-2</v>
+        <v>3.4777090191355641E-3</v>
       </c>
       <c r="U34">
-        <v>4.3346769752707947E-3</v>
+        <v>6.9965817000235998E-4</v>
       </c>
       <c r="V34">
-        <v>52.991086670603998</v>
+        <v>7.9438848643002284</v>
       </c>
       <c r="W34">
-        <v>2.4543135144529702E-4</v>
-      </c>
-      <c r="X34">
-        <v>9.529610987544867E-7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>33</v>
-      </c>
+        <v>-7.0334242341664606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>3.049885550609154E-6</v>
+        <v>5.2303248704134744E-6</v>
       </c>
       <c r="C35">
-        <v>5.3319633159871337E-2</v>
+        <v>5.3787636589132139E-2</v>
       </c>
       <c r="D35">
-        <v>4.7163731364859183E-3</v>
+        <v>2.2993429899819491E-3</v>
       </c>
       <c r="E35">
-        <v>5.5724877676378043E-2</v>
+        <v>5.8235672413765503E-2</v>
       </c>
       <c r="F35">
-        <v>5.599463028519529</v>
+        <v>6.8994626355753201</v>
       </c>
       <c r="K35">
-        <v>8.3240489939943139</v>
+        <v>4.5933369344313144</v>
       </c>
       <c r="L35">
-        <v>8.9310788966050652</v>
+        <v>4.2345756101899772</v>
       </c>
       <c r="M35">
-        <v>8.4320339388632615</v>
+        <v>4.6097728885478588</v>
       </c>
       <c r="N35">
-        <v>2.465944174939344E-2</v>
+        <v>1.517805100747352E-4</v>
       </c>
       <c r="O35">
-        <v>3.5101375208004579E-3</v>
+        <v>7.2177189010027522E-6</v>
       </c>
       <c r="P35">
-        <v>2.207744016709284E-2</v>
+        <v>8.8218055451996201E-3</v>
       </c>
       <c r="Q35">
-        <v>2.0451860923232871E-3</v>
+        <v>8.6520103642818546E-3</v>
       </c>
       <c r="R35">
-        <v>5.1357208209525844E-4</v>
+        <v>1.282602850469237E-3</v>
       </c>
       <c r="S35">
-        <v>8.727683428876941E-7</v>
+        <v>5.2315751346538157E-5</v>
       </c>
       <c r="T35">
-        <v>1.375923085542935E-2</v>
+        <v>3.5191724646450148E-3</v>
       </c>
       <c r="U35">
-        <v>4.3808733387933714E-3</v>
+        <v>7.1092815147168827E-4</v>
       </c>
       <c r="V35">
-        <v>53.237831661169572</v>
+        <v>8.0032063191816878</v>
       </c>
       <c r="W35">
-        <v>2.4920912482020161E-4</v>
-      </c>
-      <c r="X35">
-        <v>9.5268342957960191E-7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>34</v>
-      </c>
+        <v>-6.9926245641834797</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>3.0385154581933261E-6</v>
+        <v>5.2120176297256198E-6</v>
       </c>
       <c r="C36">
-        <v>5.4056046190528687E-2</v>
+        <v>5.456776224972533E-2</v>
       </c>
       <c r="D36">
-        <v>4.7998171822117696E-3</v>
+        <v>2.3423368654890021E-3</v>
       </c>
       <c r="E36">
-        <v>5.6517259397291172E-2</v>
+        <v>5.9125132389604922E-2</v>
       </c>
       <c r="F36">
-        <v>5.5994446677241951</v>
+        <v>6.8994442551726003</v>
       </c>
       <c r="K36">
-        <v>8.3200296738372828</v>
+        <v>4.5971226290651153</v>
       </c>
       <c r="L36">
-        <v>8.9263408707456033</v>
+        <v>4.2349094265306571</v>
       </c>
       <c r="M36">
-        <v>8.4295760163750106</v>
+        <v>4.6138619832136953</v>
       </c>
       <c r="N36">
-        <v>2.4979885752856961E-2</v>
+        <v>1.5397085539554931E-4</v>
       </c>
       <c r="O36">
-        <v>3.55095562569086E-3</v>
+        <v>7.3210783090006447E-6</v>
       </c>
       <c r="P36">
-        <v>2.238095916822571E-2</v>
+        <v>8.8243781994559508E-3</v>
       </c>
       <c r="Q36">
-        <v>2.0813876304488698E-3</v>
+        <v>8.6529293878450427E-3</v>
       </c>
       <c r="R36">
-        <v>5.2134025351574889E-4</v>
+        <v>1.3012435640923079E-3</v>
       </c>
       <c r="S36">
-        <v>8.8840462490074223E-7</v>
+        <v>5.3267205259191429E-5</v>
       </c>
       <c r="T36">
-        <v>1.390132718143899E-2</v>
+        <v>3.5617216209052169E-3</v>
       </c>
       <c r="U36">
-        <v>4.4285540936456237E-3</v>
+        <v>7.2257279558628836E-4</v>
       </c>
       <c r="V36">
-        <v>53.48956422530955</v>
+        <v>8.063799494032482</v>
       </c>
       <c r="W36">
-        <v>2.5310099665509312E-4</v>
-      </c>
-      <c r="X36">
-        <v>9.5240207716860974E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>35</v>
-      </c>
+        <v>-6.9511667340583054</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>3.0268248029896029E-6</v>
+        <v>5.1931593841575004E-6</v>
       </c>
       <c r="C37">
-        <v>5.4813834329118183E-2</v>
+        <v>5.537123033255973E-2</v>
       </c>
       <c r="D37">
-        <v>4.8862999671736062E-3</v>
+        <v>2.386955545166991E-3</v>
       </c>
       <c r="E37">
-        <v>5.7333016050465632E-2</v>
+        <v>6.0042028051914588E-2</v>
       </c>
       <c r="F37">
-        <v>5.599426142830664</v>
+        <v>6.8994257099432916</v>
       </c>
       <c r="K37">
-        <v>8.3159520909417548</v>
+        <v>4.6009838923964139</v>
       </c>
       <c r="L37">
-        <v>8.9215194826732009</v>
+        <v>4.2352561991280062</v>
       </c>
       <c r="M37">
-        <v>8.4270997823604272</v>
+        <v>4.6180335343551873</v>
       </c>
       <c r="N37">
-        <v>2.5309561600967211E-2</v>
+        <v>1.5622700581226551E-4</v>
       </c>
       <c r="O37">
-        <v>3.593177524103798E-3</v>
+        <v>7.4283909960762006E-6</v>
       </c>
       <c r="P37">
-        <v>2.269326026880689E-2</v>
+        <v>8.8270158734807345E-3</v>
       </c>
       <c r="Q37">
-        <v>2.1188875033899949E-3</v>
+        <v>8.6538636890795516E-3</v>
       </c>
       <c r="R37">
-        <v>5.2934720503714655E-4</v>
+        <v>1.3204432003820479E-3</v>
       </c>
       <c r="S37">
-        <v>9.0454656113753888E-7</v>
+        <v>5.425400900591266E-5</v>
       </c>
       <c r="T37">
-        <v>1.404706215202042E-2</v>
+        <v>3.6054008336024318E-3</v>
       </c>
       <c r="U37">
-        <v>4.4777698216633653E-3</v>
+        <v>7.3461087047628233E-4</v>
       </c>
       <c r="V37">
-        <v>53.746466134921107</v>
+        <v>8.1257115332605565</v>
       </c>
       <c r="W37">
-        <v>2.5711213183026419E-4</v>
-      </c>
-      <c r="X37">
-        <v>9.5211664636592288E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>36</v>
-      </c>
+        <v>-6.9090344402831221</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>3.014799879533178E-6</v>
+        <v>5.1737252188086148E-6</v>
       </c>
       <c r="C38">
-        <v>5.5593952053523563E-2</v>
+        <v>5.6199109626112742E-2</v>
       </c>
       <c r="D38">
-        <v>4.9759894892143003E-3</v>
+        <v>2.4332917562358298E-3</v>
       </c>
       <c r="E38">
-        <v>5.8173196980851292E-2</v>
+        <v>6.0987630937428462E-2</v>
       </c>
       <c r="F38">
-        <v>5.5994074488201413</v>
+        <v>6.899406994830473</v>
       </c>
       <c r="K38">
-        <v>8.311819239462352</v>
+        <v>4.6049233982407554</v>
       </c>
       <c r="L38">
-        <v>8.9166216949361417</v>
+        <v>4.2356168175353384</v>
       </c>
       <c r="M38">
-        <v>8.4246131318251116</v>
+        <v>4.622292082501688</v>
       </c>
       <c r="N38">
-        <v>2.56488801021682E-2</v>
+        <v>1.5855198416876839E-4</v>
       </c>
       <c r="O38">
-        <v>3.6369058539486069E-3</v>
+        <v>7.5399182288392776E-6</v>
       </c>
       <c r="P38">
-        <v>2.3014734843266531E-2</v>
+        <v>8.829721376362001E-3</v>
       </c>
       <c r="Q38">
-        <v>2.1577526719830081E-3</v>
+        <v>8.654813751248016E-3</v>
       </c>
       <c r="R38">
-        <v>5.3760412157583405E-4</v>
+        <v>1.3402274064973001E-3</v>
       </c>
       <c r="S38">
-        <v>9.2120085045915367E-7</v>
+        <v>5.5278100362519559E-5</v>
       </c>
       <c r="T38">
-        <v>1.4196582344682251E-2</v>
+        <v>3.650256926776277E-3</v>
       </c>
       <c r="U38">
-        <v>4.5286212843999862E-3</v>
+        <v>7.4706267376351096E-4</v>
       </c>
       <c r="V38">
-        <v>54.008737666834811</v>
+        <v>8.1889921707967712</v>
       </c>
       <c r="W38">
-        <v>2.6124821719463018E-4</v>
-      </c>
-      <c r="X38">
-        <v>9.5182734676236462E-7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>37</v>
-      </c>
+        <v>-6.866204382762902</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>3.002426224621306E-6</v>
+        <v>5.1536887167731264E-6</v>
       </c>
       <c r="C39">
-        <v>5.6397411776766562E-2</v>
+        <v>5.7052535306586973E-2</v>
       </c>
       <c r="D39">
-        <v>5.0690662177857448E-3</v>
+        <v>2.4814453405088851E-3</v>
       </c>
       <c r="E39">
-        <v>5.9038914964671771E-2</v>
+        <v>6.1963291166880437E-2</v>
       </c>
       <c r="F39">
-        <v>5.5993885804302286</v>
+        <v>6.8993881045308392</v>
       </c>
       <c r="K39">
-        <v>8.3076247196394171</v>
+        <v>4.6089432162848221</v>
       </c>
       <c r="L39">
-        <v>8.9116318832887202</v>
+        <v>4.2359915170651092</v>
       </c>
       <c r="M39">
-        <v>8.4221056178408968</v>
+        <v>4.6266325958447254</v>
       </c>
       <c r="N39">
-        <v>2.599827651880661E-2</v>
+        <v>1.609490010884498E-4</v>
       </c>
       <c r="O39">
-        <v>3.6821857658423112E-3</v>
+        <v>7.6557639210023653E-6</v>
       </c>
       <c r="P39">
-        <v>2.334579805233452E-2</v>
+        <v>8.8324976878717473E-3</v>
       </c>
       <c r="Q39">
-        <v>2.1980628434153091E-3</v>
+        <v>8.6557829680632258E-3</v>
       </c>
       <c r="R39">
-        <v>5.4612289809528446E-4</v>
+        <v>1.360623427229599E-3</v>
       </c>
       <c r="S39">
-        <v>9.3841632215149238E-7</v>
+        <v>5.6341628256886458E-5</v>
       </c>
       <c r="T39">
-        <v>1.4350042044051809E-2</v>
+        <v>3.6963393752367968E-3</v>
       </c>
       <c r="U39">
-        <v>4.5811635823341731E-3</v>
+        <v>7.599496840111021E-4</v>
       </c>
       <c r="V39">
-        <v>54.276578332236113</v>
+        <v>8.2536938247936877</v>
       </c>
       <c r="W39">
-        <v>2.6551513820999002E-4</v>
-      </c>
-      <c r="X39">
-        <v>9.5153373037475922E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>38</v>
-      </c>
+        <v>-6.8226567695541434</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>2.9896885296922459E-6</v>
+        <v>5.1330218412924963E-6</v>
       </c>
       <c r="C40">
-        <v>5.722528831804044E-2</v>
+        <v>5.7932714177007592E-2</v>
       </c>
       <c r="D40">
-        <v>5.1657243135340243E-3</v>
+        <v>2.5315239460176218E-3</v>
       </c>
       <c r="E40">
-        <v>5.9931351007594377E-2</v>
+        <v>6.2970443511893986E-2</v>
       </c>
       <c r="F40">
-        <v>5.5993695321388746</v>
+        <v>6.8993690334791404</v>
       </c>
       <c r="K40">
-        <v>8.30336891146883</v>
+        <v>4.6130460505375979</v>
       </c>
       <c r="L40">
-        <v>8.9065602039786942</v>
+        <v>4.2363817312305239</v>
       </c>
       <c r="M40">
-        <v>8.4195885010125942</v>
+        <v>4.6310664885215518</v>
       </c>
       <c r="N40">
-        <v>2.6358213466435059E-2</v>
+        <v>1.6342147265566669E-4</v>
       </c>
       <c r="O40">
-        <v>3.7291402604092E-3</v>
+        <v>7.776343795501785E-6</v>
       </c>
       <c r="P40">
-        <v>2.368689055570419E-2</v>
+        <v>8.8353479252880132E-3</v>
       </c>
       <c r="Q40">
-        <v>2.2398938082889511E-3</v>
+        <v>8.6567687203835484E-3</v>
       </c>
       <c r="R40">
-        <v>5.5491619618839954E-4</v>
+        <v>1.381660230438836E-3</v>
       </c>
       <c r="S40">
-        <v>9.5619520916250807E-7</v>
+        <v>5.7446943163672168E-5</v>
       </c>
       <c r="T40">
-        <v>1.4507604599885969E-2</v>
+        <v>3.7437004992888251E-3</v>
       </c>
       <c r="U40">
-        <v>4.6355158051759699E-3</v>
+        <v>7.7329507283606662E-4</v>
       </c>
       <c r="V40">
-        <v>54.550209963366477</v>
+        <v>8.3198718617350309</v>
       </c>
       <c r="W40">
-        <v>2.6991921964556392E-4</v>
-      </c>
-      <c r="X40">
-        <v>9.5123582380281817E-7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>39</v>
-      </c>
+        <v>-6.7783692481345952</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>2.976570604630996E-6</v>
+        <v>5.1116948402112539E-6</v>
       </c>
       <c r="C41">
-        <v>5.8078723793524148E-2</v>
+        <v>5.88409304103025E-2</v>
       </c>
       <c r="D41">
-        <v>5.2661729021758093E-3</v>
+        <v>2.5836437851526942E-3</v>
       </c>
       <c r="E41">
-        <v>6.0851759638065231E-2</v>
+        <v>6.4010614043333594E-2</v>
       </c>
       <c r="F41">
-        <v>5.599350298146768</v>
+        <v>6.8993497758292248</v>
       </c>
       <c r="K41">
-        <v>8.2990513968674211</v>
+        <v>4.6172341762335876</v>
       </c>
       <c r="L41">
-        <v>8.9013971009515007</v>
+        <v>4.2367881452974254</v>
       </c>
       <c r="M41">
-        <v>8.417055698188161</v>
+        <v>4.6355930799568856</v>
       </c>
       <c r="N41">
-        <v>2.6729181879648609E-2</v>
+        <v>1.6597303214517761E-4</v>
       </c>
       <c r="O41">
-        <v>3.777844404760831E-3</v>
+        <v>7.9018750086611029E-6</v>
       </c>
       <c r="P41">
-        <v>2.4038480666317551E-2</v>
+        <v>8.8382754532372668E-3</v>
       </c>
       <c r="Q41">
-        <v>2.283336244218176E-3</v>
+        <v>8.6577733210197166E-3</v>
       </c>
       <c r="R41">
-        <v>5.6399750767986245E-4</v>
+        <v>1.4033686449843299E-3</v>
       </c>
       <c r="S41">
-        <v>9.7458139156420685E-7</v>
+        <v>5.8596470059967139E-5</v>
       </c>
       <c r="T41">
-        <v>1.466944212111072E-2</v>
+        <v>3.79239567021428E-3</v>
       </c>
       <c r="U41">
-        <v>4.6917594719140211E-3</v>
+        <v>7.8712349601110494E-4</v>
       </c>
       <c r="V41">
-        <v>54.829860763307011</v>
+        <v>8.3875847477569465</v>
       </c>
       <c r="W41">
-        <v>2.7446723403862992E-4</v>
-      </c>
-      <c r="X41">
-        <v>9.5093359778071946E-7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>40</v>
-      </c>
+        <v>-6.7333191296507948</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>2.963055283736943E-6</v>
+        <v>5.0896760872633137E-6</v>
       </c>
       <c r="C42">
-        <v>5.8958932975046632E-2</v>
+        <v>5.9778551854055E-2</v>
       </c>
       <c r="D42">
-        <v>5.370637577865163E-3</v>
+        <v>2.637930507572361E-3</v>
       </c>
       <c r="E42">
-        <v>6.1801474642154332E-2</v>
+        <v>6.5085427364565004E-2</v>
       </c>
       <c r="F42">
-        <v>5.5993308723585384</v>
+        <v>6.8993303254359502</v>
       </c>
       <c r="K42">
-        <v>8.2946670576228652</v>
+        <v>4.6215106319862684</v>
       </c>
       <c r="L42">
-        <v>8.8961376683808258</v>
+        <v>4.2372115597122821</v>
       </c>
       <c r="M42">
-        <v>8.4145070654453402</v>
+        <v>4.6402130677231028</v>
       </c>
       <c r="N42">
-        <v>2.7111704170896731E-2</v>
+        <v>1.6860755143078621E-4</v>
       </c>
       <c r="O42">
-        <v>3.8283963555123752E-3</v>
+        <v>8.0326159903763831E-6</v>
       </c>
       <c r="P42">
-        <v>2.4401066406685878E-2</v>
+        <v>8.8412838221075592E-3</v>
       </c>
       <c r="Q42">
-        <v>2.3284847582807642E-3</v>
+        <v>8.6587974290058892E-3</v>
       </c>
       <c r="R42">
-        <v>5.7338122311800072E-4</v>
+        <v>1.425781514566403E-3</v>
       </c>
       <c r="S42">
-        <v>9.9360653984709225E-7</v>
+        <v>5.9792990173469089E-5</v>
       </c>
       <c r="T42">
-        <v>1.4835736831930671E-2</v>
+        <v>3.842483539784333E-3</v>
       </c>
       <c r="U42">
-        <v>4.7499952634055733E-3</v>
+        <v>8.0146163104424057E-4</v>
       </c>
       <c r="V42">
-        <v>55.115771077264782</v>
+        <v>8.4568943615326511</v>
       </c>
       <c r="W42">
-        <v>2.7916632024136621E-4</v>
-      </c>
-      <c r="X42">
-        <v>9.5062669403360064E-7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>41</v>
-      </c>
+        <v>-6.6874815692939649</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>2.9491243913825052E-6</v>
+        <v>5.0669319443200306E-6</v>
       </c>
       <c r="C43">
-        <v>5.9867209168219193E-2</v>
+        <v>6.0747036961622501E-2</v>
       </c>
       <c r="D43">
-        <v>5.4793619807599284E-3</v>
+        <v>2.6945201640219052E-3</v>
       </c>
       <c r="E43">
-        <v>6.2781915408678571E-2</v>
+        <v>6.619661455331044E-2</v>
       </c>
       <c r="F43">
-        <v>5.5993112483619916</v>
+        <v>6.8993106758333207</v>
       </c>
       <c r="K43">
-        <v>8.2902195899207083</v>
+        <v>4.6258778425602136</v>
       </c>
       <c r="L43">
-        <v>8.8907846951607823</v>
+        <v>4.2376534836007886</v>
       </c>
       <c r="M43">
-        <v>8.411946775927861</v>
+        <v>4.6449362939761576</v>
       </c>
       <c r="N43">
-        <v>2.75063365067507E-2</v>
+        <v>1.7132916050604751E-4</v>
       </c>
       <c r="O43">
-        <v>3.8809185581207641E-3</v>
+        <v>8.1690238218286929E-6</v>
       </c>
       <c r="P43">
-        <v>2.4775177960048671E-2</v>
+        <v>8.844376811821146E-3</v>
       </c>
       <c r="Q43">
-        <v>2.3754378867040619E-3</v>
+        <v>8.6598405049617688E-3</v>
       </c>
       <c r="R43">
-        <v>5.8308270814474907E-4</v>
+        <v>1.4489338624374701E-3</v>
       </c>
       <c r="S43">
-        <v>1.0132945273341211E-6</v>
+        <v>6.1039327040212453E-5</v>
       </c>
       <c r="T43">
-        <v>1.500668160427855E-2</v>
+        <v>3.894026284000267E-3</v>
       </c>
       <c r="U43">
-        <v>4.8103470950406849E-3</v>
+        <v>8.1633789476637079E-4</v>
       </c>
       <c r="V43">
-        <v>55.408199698011217</v>
+        <v>8.5278661682478667</v>
       </c>
       <c r="W43">
-        <v>2.8402426693644351E-4</v>
-      </c>
-      <c r="X43">
-        <v>9.5031537129444961E-7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>42</v>
-      </c>
+        <v>-6.6408334843427781</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>2.9347586275987712E-6</v>
+        <v>5.0434266143282584E-6</v>
       </c>
       <c r="C44">
-        <v>6.0804930671451242E-2</v>
+        <v>6.1747942423650087E-2</v>
       </c>
       <c r="D44">
-        <v>5.5926096844542876E-3</v>
+        <v>2.753560288643851E-3</v>
       </c>
       <c r="E44">
-        <v>6.3794593805889255E-2</v>
+        <v>6.7346021888196383E-2</v>
       </c>
       <c r="F44">
-        <v>5.5992914194057732</v>
+        <v>6.899290820212558</v>
       </c>
       <c r="K44">
-        <v>8.2857003902927353</v>
+        <v>4.6303388673910364</v>
       </c>
       <c r="L44">
-        <v>8.8853292352119322</v>
+        <v>4.2381149444451713</v>
       </c>
       <c r="M44">
-        <v>8.4093716102386722</v>
+        <v>4.6497633285908311</v>
       </c>
       <c r="N44">
-        <v>2.7913671298968459E-2</v>
+        <v>1.7414226631094781E-4</v>
       </c>
       <c r="O44">
-        <v>3.935517494889699E-3</v>
+        <v>8.3114044648124527E-6</v>
       </c>
       <c r="P44">
-        <v>2.5161380375106339E-2</v>
+        <v>8.8475584722842379E-3</v>
       </c>
       <c r="Q44">
-        <v>2.4243079328738959E-3</v>
+        <v>8.6609038924429279E-3</v>
       </c>
       <c r="R44">
-        <v>5.9311838768987685E-4</v>
+        <v>1.4728630785650089E-3</v>
       </c>
       <c r="S44">
-        <v>1.033690711948591E-6</v>
+        <v>6.2338699208823407E-5</v>
       </c>
       <c r="T44">
-        <v>1.5182480475127481E-2</v>
+        <v>3.9470898769180919E-3</v>
       </c>
       <c r="U44">
-        <v>4.8729242118960066E-3</v>
+        <v>8.317830337654259E-4</v>
       </c>
       <c r="V44">
-        <v>55.707416940682457</v>
+        <v>8.6005695616859938</v>
       </c>
       <c r="W44">
-        <v>2.8904916106724541E-4</v>
-      </c>
-      <c r="X44">
-        <v>9.4999902732049162E-7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>43</v>
-      </c>
+        <v>-6.593347216182039</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>2.9199375261974571E-6</v>
+        <v>5.0191219614530096E-6</v>
       </c>
       <c r="C45">
-        <v>6.1773567881749432E-2</v>
+        <v>6.2782931583913362E-2</v>
       </c>
       <c r="D45">
-        <v>5.7106661834338381E-3</v>
+        <v>2.8152111268463522E-3</v>
       </c>
       <c r="E45">
-        <v>6.4841121816750391E-2</v>
+        <v>6.8535620396062147E-2</v>
       </c>
       <c r="F45">
-        <v>5.5992713783748984</v>
+        <v>6.8992707513964264</v>
       </c>
       <c r="K45">
-        <v>8.2811097956681703</v>
+        <v>4.6348966379393621</v>
       </c>
       <c r="L45">
-        <v>8.8797704447526993</v>
+        <v>4.2385966173298497</v>
       </c>
       <c r="M45">
-        <v>8.4067836559040714</v>
+        <v>4.6546909408084511</v>
       </c>
       <c r="N45">
-        <v>2.8334340663952289E-2</v>
+        <v>1.7705157967666939E-4</v>
       </c>
       <c r="O45">
-        <v>3.9923238741951892E-3</v>
+        <v>8.4600130911063361E-6</v>
       </c>
       <c r="P45">
-        <v>2.5560276382864799E-2</v>
+        <v>8.8508331140358405E-3</v>
       </c>
       <c r="Q45">
-        <v>2.4752117001632262E-3</v>
+        <v>8.6619915106642565E-3</v>
       </c>
       <c r="R45">
-        <v>6.03505838514051E-4</v>
+        <v>1.4976091203081001E-3</v>
       </c>
       <c r="S45">
-        <v>1.054828574872133E-6</v>
+        <v>6.3694533244608236E-5</v>
       </c>
       <c r="T45">
-        <v>1.536334988325434E-2</v>
+        <v>4.0017443829383137E-3</v>
       </c>
       <c r="U45">
-        <v>4.9378598540938696E-3</v>
+        <v>8.4783007960964141E-4</v>
       </c>
       <c r="V45">
-        <v>56.013710974205793</v>
+        <v>8.6750781454070118</v>
       </c>
       <c r="W45">
-        <v>2.9424979491472769E-4</v>
-      </c>
-      <c r="X45">
-        <v>9.4967768569677188E-7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>44</v>
-      </c>
+        <v>-6.5449954671006338</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>2.9046393271815629E-6</v>
+        <v>4.9939773258546526E-6</v>
       </c>
       <c r="C46">
-        <v>6.2774691126362206E-2</v>
+        <v>6.3853783734932418E-2</v>
       </c>
       <c r="D46">
-        <v>5.8338412624202394E-3</v>
+        <v>2.879647017402264E-3</v>
       </c>
       <c r="E46">
-        <v>6.5923219841712288E-2</v>
+        <v>6.9767516372620311E-2</v>
       </c>
       <c r="F46">
-        <v>5.5992511177639708</v>
+        <v>6.8992504618130042</v>
       </c>
       <c r="K46">
-        <v>8.2764473964668159</v>
+        <v>4.6395542876313502</v>
       </c>
       <c r="L46">
-        <v>8.8741005759323777</v>
+        <v>4.239100239842557</v>
       </c>
       <c r="M46">
-        <v>8.4041803617428421</v>
+        <v>4.6597271897333004</v>
       </c>
       <c r="N46">
-        <v>2.8769019535197959E-2</v>
+        <v>1.8006214336569731E-4</v>
       </c>
       <c r="O46">
-        <v>4.0514677067598152E-3</v>
+        <v>8.6153550311297508E-6</v>
       </c>
       <c r="P46">
-        <v>2.5972509680770191E-2</v>
+        <v>8.8542052855246182E-3</v>
       </c>
       <c r="Q46">
-        <v>2.528280641960084E-3</v>
+        <v>8.6631020757819647E-3</v>
       </c>
       <c r="R46">
-        <v>6.1426389226296499E-4</v>
+        <v>1.523214737934233E-3</v>
       </c>
       <c r="S46">
-        <v>1.0767578298416329E-6</v>
+        <v>6.5110549789027704E-5</v>
       </c>
       <c r="T46">
-        <v>1.5549519348060779E-2</v>
+        <v>4.0580642812120399E-3</v>
       </c>
       <c r="U46">
-        <v>5.0052867960692993E-3</v>
+        <v>8.6451469112698923E-4</v>
       </c>
       <c r="V46">
-        <v>56.327385692550713</v>
+        <v>8.7514700830064172</v>
       </c>
       <c r="W46">
-        <v>2.9963568095838471E-4</v>
-      </c>
-      <c r="X46">
-        <v>9.4935131775267716E-7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>45</v>
-      </c>
+        <v>-6.4957486325900859</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>2.8888409096086349E-6</v>
+        <v>4.967949300975937E-6</v>
       </c>
       <c r="C47">
-        <v>6.3809979305706602E-2</v>
+        <v>6.4962404402523877E-2</v>
       </c>
       <c r="D47">
-        <v>5.9624715486769758E-3</v>
+        <v>2.9470579667959288E-3</v>
       </c>
       <c r="E47">
-        <v>6.704272591816493E-2</v>
+        <v>7.1043962925304752E-2</v>
       </c>
       <c r="F47">
-        <v>5.5992306296480461</v>
+        <v>6.8992299434652677</v>
       </c>
       <c r="K47">
-        <v>8.2717079001145066</v>
+        <v>4.6443154425205311</v>
       </c>
       <c r="L47">
-        <v>8.8683183070274971</v>
+        <v>4.2396271558393304</v>
       </c>
       <c r="M47">
-        <v>8.4015644768355919</v>
+        <v>4.6648748092802874</v>
       </c>
       <c r="N47">
-        <v>2.921842956844229E-2</v>
+        <v>1.8317935769905311E-4</v>
       </c>
       <c r="O47">
-        <v>4.1131036371086964E-3</v>
+        <v>8.7778660075248084E-6</v>
       </c>
       <c r="P47">
-        <v>2.6398768390566731E-2</v>
+        <v>8.8576798893381225E-3</v>
       </c>
       <c r="Q47">
-        <v>2.5836519087784238E-3</v>
+        <v>8.6642374492753478E-3</v>
       </c>
       <c r="R47">
-        <v>6.2541274925265807E-4</v>
+        <v>1.5497257231732371E-3</v>
       </c>
       <c r="S47">
-        <v>1.0995170887181729E-6</v>
+        <v>6.6590802420825218E-5</v>
       </c>
       <c r="T47">
-        <v>1.57412326671879E-2</v>
+        <v>4.116128819213586E-3</v>
       </c>
       <c r="U47">
-        <v>5.0753603314806937E-3</v>
+        <v>8.8187551610962841E-4</v>
       </c>
       <c r="V47">
-        <v>56.648765864546917</v>
+        <v>8.8298285128587111</v>
       </c>
       <c r="W47">
-        <v>3.0521678275785541E-4</v>
-      </c>
-      <c r="X47">
-        <v>9.490195530080155E-7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>46</v>
-      </c>
+        <v>-6.4455762595767254</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>3.5984163069925001E-6</v>
+        <v>5.8242818559261969E-6</v>
       </c>
       <c r="C48">
-        <v>6.4881229449355302E-2</v>
+        <v>6.6110836743926246E-2</v>
       </c>
       <c r="D48">
-        <v>4.8776022690960111E-3</v>
+        <v>2.4918047108077892E-3</v>
       </c>
       <c r="E48">
-        <v>6.7117472992992117E-2</v>
+        <v>6.9994004551129765E-2</v>
       </c>
       <c r="F48">
-        <v>6.6492306296480459</v>
+        <v>7.7992299434652681</v>
       </c>
       <c r="K48">
-        <v>8.2668868378870393</v>
+        <v>4.6491830630381532</v>
       </c>
       <c r="L48">
-        <v>8.9283450556446233</v>
+        <v>4.2352099530184848</v>
       </c>
       <c r="M48">
-        <v>8.3885840621633676</v>
+        <v>4.6623432237939237</v>
       </c>
       <c r="N48">
-        <v>2.968334301161513E-2</v>
+        <v>1.8640901495259991E-4</v>
       </c>
       <c r="O48">
-        <v>3.6368205137274259E-3</v>
+        <v>7.4771702248040051E-6</v>
       </c>
       <c r="P48">
-        <v>2.683978906615541E-2</v>
+        <v>8.861262156746692E-3</v>
       </c>
       <c r="Q48">
-        <v>2.1553646938810302E-3</v>
+        <v>8.6631337006971322E-3</v>
       </c>
       <c r="R48">
-        <v>6.3697410540384213E-4</v>
+        <v>1.577191184668652E-3</v>
       </c>
       <c r="S48">
-        <v>1.058130117732848E-6</v>
+        <v>5.7254121363548542E-5</v>
       </c>
       <c r="T48">
-        <v>1.5938748821552849E-2</v>
+        <v>4.1760223989006969E-3</v>
       </c>
       <c r="U48">
-        <v>4.4407000350990544E-3</v>
+        <v>7.9640927742433078E-4</v>
       </c>
       <c r="V48">
-        <v>56.767273999168737</v>
+        <v>8.8793745101594261</v>
       </c>
       <c r="W48">
-        <v>3.1100442724636728E-4</v>
-      </c>
-      <c r="X48">
-        <v>9.4868207865209288E-7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>47</v>
-      </c>
+        <v>-6.3944491563002401</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>3.5810737338068211E-6</v>
+        <v>5.7971969033637791E-6</v>
       </c>
       <c r="C49">
-        <v>6.6013373358416796E-2</v>
+        <v>6.7311195838890753E-2</v>
       </c>
       <c r="D49">
-        <v>4.9868886385447944E-3</v>
+        <v>2.550163704509994E-3</v>
       </c>
       <c r="E49">
-        <v>6.8314604655964728E-2</v>
+        <v>7.1312029429421789E-2</v>
       </c>
       <c r="F49">
-        <v>6.6492306296480459</v>
+        <v>7.7992299434652681</v>
       </c>
       <c r="K49">
-        <v>8.2619662505544618</v>
+        <v>4.65420362003767</v>
       </c>
       <c r="L49">
-        <v>8.9166223321758036</v>
+        <v>4.2357211304234719</v>
       </c>
       <c r="M49">
-        <v>8.3813490270122806</v>
+        <v>4.6676967673311234</v>
       </c>
       <c r="N49">
-        <v>3.0174786832329999E-2</v>
+        <v>1.8978508749463381E-4</v>
       </c>
       <c r="O49">
-        <v>3.677601887734065E-3</v>
+        <v>7.6333168761449418E-6</v>
       </c>
       <c r="P49">
-        <v>2.7305532922236059E-2</v>
+        <v>8.8650004295023448E-3</v>
       </c>
       <c r="Q49">
-        <v>2.207265843478533E-3</v>
+        <v>8.664327431205961E-3</v>
       </c>
       <c r="R49">
-        <v>6.4897252003188197E-4</v>
+        <v>1.6058692424668619E-3</v>
       </c>
       <c r="S49">
-        <v>1.145026543921451E-6</v>
+        <v>5.8791400173147149E-5</v>
       </c>
       <c r="T49">
-        <v>1.6155693138278391E-2</v>
+        <v>4.2397886842115706E-3</v>
       </c>
       <c r="U49">
-        <v>4.4916065945769931E-3</v>
+        <v>8.1286431147396495E-4</v>
       </c>
       <c r="V49">
-        <v>56.895703707448938</v>
+        <v>8.9316592467823916</v>
       </c>
       <c r="W49">
-        <v>3.1700732694976122E-4</v>
-      </c>
-      <c r="X49">
-        <v>9.4833763753881241E-7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>48</v>
-      </c>
+        <v>-6.3421036439378753</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>3.5631152532888391E-6</v>
+        <v>5.7690992534355656E-6</v>
       </c>
       <c r="C50">
-        <v>6.7186959603029728E-2</v>
+        <v>6.8556600303013457E-2</v>
       </c>
       <c r="D50">
-        <v>5.1012289268856223E-3</v>
+        <v>2.6113059701502002E-3</v>
       </c>
       <c r="E50">
-        <v>6.9556075025837438E-2</v>
+        <v>7.2680530727756487E-2</v>
       </c>
       <c r="F50">
-        <v>6.6492306296480459</v>
+        <v>7.7992299434652681</v>
       </c>
       <c r="K50">
-        <v>8.257029694168839</v>
+        <v>4.659339181442518</v>
       </c>
       <c r="L50">
-        <v>8.9103365198045328</v>
+        <v>4.236196649103694</v>
       </c>
       <c r="M50">
-        <v>8.3783779463409207</v>
+        <v>4.6731045499864212</v>
       </c>
       <c r="N50">
-        <v>3.068434808126454E-2</v>
+        <v>1.9328800616037401E-4</v>
       </c>
       <c r="O50">
-        <v>3.7342166289047749E-3</v>
+        <v>7.7801538974114297E-6</v>
       </c>
       <c r="P50">
-        <v>2.7788191904519852E-2</v>
+        <v>8.8688595256234282E-3</v>
       </c>
       <c r="Q50">
-        <v>2.2576942613351499E-3</v>
+        <v>8.6655174062598879E-3</v>
       </c>
       <c r="R50">
-        <v>6.6143074106049657E-4</v>
+        <v>1.6356207394340491E-3</v>
       </c>
       <c r="S50">
-        <v>1.1723326139774511E-6</v>
+        <v>6.0172118636977127E-5</v>
       </c>
       <c r="T50">
-        <v>1.6380002494888041E-2</v>
+        <v>4.3056910759949876E-3</v>
       </c>
       <c r="U50">
-        <v>4.5573834316813017E-3</v>
+        <v>8.3001964367431468E-4</v>
       </c>
       <c r="V50">
-        <v>57.037699535078289</v>
+        <v>8.9867152872056231</v>
       </c>
       <c r="W50">
-        <v>3.2324088273984468E-4</v>
-      </c>
-      <c r="X50">
-        <v>9.4799207859181888E-7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>49</v>
-      </c>
+        <v>-6.2887296324984803</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>3.5445076007451939E-6</v>
+        <v>5.7399316157399501E-6</v>
       </c>
       <c r="C51">
-        <v>6.8404326871189414E-2</v>
+        <v>6.9849645289932344E-2</v>
       </c>
       <c r="D51">
-        <v>5.2209798395079342E-3</v>
+        <v>2.67543347838881E-3</v>
       </c>
       <c r="E51">
-        <v>7.0844393756079913E-2</v>
+        <v>7.4102434447751733E-2</v>
       </c>
       <c r="F51">
-        <v>6.6492306296480459</v>
+        <v>7.7992299434652681</v>
       </c>
       <c r="K51">
-        <v>8.2520110616002107</v>
+        <v>4.6645944407890507</v>
       </c>
       <c r="L51">
-        <v>8.9039041707396169</v>
+        <v>4.236696901645991</v>
       </c>
       <c r="M51">
-        <v>8.3753617488657657</v>
+        <v>4.6786461384175428</v>
       </c>
       <c r="N51">
-        <v>3.121278203131081E-2</v>
+        <v>1.969254150282752E-4</v>
       </c>
       <c r="O51">
-        <v>3.7933521273203312E-3</v>
+        <v>7.9345448930702369E-6</v>
       </c>
       <c r="P51">
-        <v>2.828878989752347E-2</v>
+        <v>8.8728466260031055E-3</v>
       </c>
       <c r="Q51">
-        <v>2.310484998545137E-3</v>
+        <v>8.6667327604436229E-3</v>
       </c>
       <c r="R51">
-        <v>6.7437698436336954E-4</v>
+        <v>1.666511888861442E-3</v>
       </c>
       <c r="S51">
-        <v>1.201188454181972E-6</v>
+        <v>6.1619302134162626E-5</v>
       </c>
       <c r="T51">
-        <v>1.6611818554950909E-2</v>
+        <v>4.373841496236569E-3</v>
       </c>
       <c r="U51">
-        <v>4.6258817196792252E-3</v>
+        <v>8.4792110319555937E-4</v>
       </c>
       <c r="V51">
-        <v>57.193210119865228</v>
+        <v>9.0445854329989714</v>
       </c>
       <c r="W51">
-        <v>3.2971831532325921E-4</v>
-      </c>
-      <c r="X51">
-        <v>9.4764077431201489E-7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>50</v>
-      </c>
+        <v>-6.2342853306918764</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>3.5252151018922452E-6</v>
+        <v>5.709632345843413E-6</v>
       </c>
       <c r="C52">
-        <v>6.9667993811823051E-2</v>
+        <v>7.1193129526163218E-2</v>
       </c>
       <c r="D52">
-        <v>5.346532182031548E-3</v>
+        <v>2.7427680495020449E-3</v>
       </c>
       <c r="E52">
-        <v>7.2182262646040454E-2</v>
+        <v>7.5580894433607715E-2</v>
       </c>
       <c r="F52">
-        <v>6.6492306296480459</v>
+        <v>7.7992299434652681</v>
       </c>
       <c r="K52">
-        <v>8.2469094038412827</v>
+        <v>4.6699735068906207</v>
       </c>
       <c r="L52">
-        <v>8.8973325943088675</v>
+        <v>4.2372220706555872</v>
       </c>
       <c r="M52">
-        <v>8.3723272536039204</v>
+        <v>4.684318099449114</v>
       </c>
       <c r="N52">
-        <v>3.1761170629390621E-2</v>
+        <v>2.007052324309793E-4</v>
       </c>
       <c r="O52">
-        <v>3.855206528000229E-3</v>
+        <v>8.0965841454215277E-6</v>
       </c>
       <c r="P52">
-        <v>2.8808355995503038E-2</v>
+        <v>8.8769689033142956E-3</v>
       </c>
       <c r="Q52">
-        <v>2.3657738003314581E-3</v>
+        <v>8.6679789981022604E-3</v>
       </c>
       <c r="R52">
-        <v>6.8784050028155327E-4</v>
+        <v>1.698609740595988E-3</v>
       </c>
       <c r="S52">
-        <v>1.2313194433480311E-6</v>
+        <v>6.313791265476005E-5</v>
       </c>
       <c r="T52">
-        <v>1.6851537291656352E-2</v>
+        <v>4.44435990409739E-3</v>
       </c>
       <c r="U52">
-        <v>4.6973659304951334E-3</v>
+        <v>8.6661830940604797E-4</v>
       </c>
       <c r="V52">
-        <v>57.362260785204491</v>
+        <v>9.1053227604516991</v>
       </c>
       <c r="W52">
-        <v>3.364542008205449E-4</v>
-      </c>
-      <c r="X52">
-        <v>9.4728365826888979E-7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>51</v>
-      </c>
+        <v>-6.1787317435060203</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>3.5046888875616999E-6</v>
+        <v>5.6774400219348824E-6</v>
       </c>
       <c r="C53">
-        <v>7.0980676702226964E-2</v>
+        <v>7.2590075678748145E-2</v>
       </c>
       <c r="D53">
-        <v>5.4790229026103962E-3</v>
+        <v>2.813864084915759E-3</v>
       </c>
       <c r="E53">
-        <v>7.3572181347556137E-2</v>
+        <v>7.7118722559268785E-2</v>
       </c>
       <c r="F53">
-        <v>6.6484680243976637</v>
+        <v>7.7984665745268531</v>
       </c>
       <c r="K53">
-        <v>8.2417226506166212</v>
+        <v>4.6754808545578141</v>
       </c>
       <c r="L53">
-        <v>8.890559583695401</v>
+        <v>4.2377771364227499</v>
       </c>
       <c r="M53">
-        <v>8.3692713372459853</v>
+        <v>4.6901236897113527</v>
       </c>
       <c r="N53">
-        <v>3.2330680100847567E-2</v>
+        <v>2.046360211715009E-4</v>
       </c>
       <c r="O53">
-        <v>3.9202392178154903E-3</v>
+        <v>8.2677776705726497E-6</v>
       </c>
       <c r="P53">
-        <v>2.9348000530098381E-2</v>
+        <v>8.8812340034206648E-3</v>
       </c>
       <c r="Q53">
-        <v>2.4240260764228721E-3</v>
+        <v>8.6692593651944011E-3</v>
       </c>
       <c r="R53">
-        <v>7.0185293254355755E-4</v>
+        <v>1.7319867166764209E-3</v>
       </c>
       <c r="S53">
-        <v>1.2630246115704909E-6</v>
+        <v>6.4740651886264025E-5</v>
       </c>
       <c r="T53">
-        <v>1.709958160514943E-2</v>
+        <v>4.5173750386829281E-3</v>
       </c>
       <c r="U53">
-        <v>4.7724245238181216E-3</v>
+        <v>8.8622876272114359E-4</v>
       </c>
       <c r="V53">
-        <v>57.545033462473931</v>
+        <v>9.1690079226446652</v>
       </c>
       <c r="W53">
-        <v>3.4346439503782057E-4</v>
-      </c>
-      <c r="X53">
-        <v>9.4692058554316349E-7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>52</v>
-      </c>
+        <v>-6.1220271272193827</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>3.4838970298474009E-6</v>
+        <v>5.6446566724922514E-6</v>
       </c>
       <c r="C54">
-        <v>7.2345294489718978E-2</v>
+        <v>7.404374675361966E-2</v>
       </c>
       <c r="D54">
-        <v>5.6175455844043017E-3</v>
+        <v>2.8883874135538202E-3</v>
       </c>
       <c r="E54">
-        <v>7.5018078834540938E-2</v>
+        <v>7.8720737584061728E-2</v>
       </c>
       <c r="F54">
-        <v>6.6484490392865698</v>
+        <v>7.7984475540463514</v>
       </c>
       <c r="K54">
-        <v>8.2364433817610045</v>
+        <v>4.6811210101398499</v>
       </c>
       <c r="L54">
-        <v>8.8836810128007144</v>
+        <v>4.2383579813570398</v>
       </c>
       <c r="M54">
-        <v>8.3661963585663859</v>
+        <v>4.696072499321704</v>
       </c>
       <c r="N54">
-        <v>3.2922564285910727E-2</v>
+        <v>2.087270262444369E-4</v>
       </c>
       <c r="O54">
-        <v>3.9881253146880303E-3</v>
+        <v>8.4469490570494235E-6</v>
       </c>
       <c r="P54">
-        <v>2.9908916664549961E-2</v>
+        <v>8.8856501417170445E-3</v>
       </c>
       <c r="Q54">
-        <v>2.484887526562468E-3</v>
+        <v>8.6705720948731975E-3</v>
       </c>
       <c r="R54">
-        <v>7.1644855562547397E-4</v>
+        <v>1.766721009692883E-3</v>
       </c>
       <c r="S54">
-        <v>1.2959599063945501E-6</v>
+        <v>6.6419001501376513E-5</v>
       </c>
       <c r="T54">
-        <v>1.735639737767717E-2</v>
+        <v>4.593023919432131E-3</v>
       </c>
       <c r="U54">
-        <v>4.8505146446200182E-3</v>
+        <v>9.0668800790055977E-4</v>
       </c>
       <c r="V54">
-        <v>57.741552844045579</v>
+        <v>9.2356984463437239</v>
       </c>
       <c r="W54">
-        <v>3.5076600664011892E-4</v>
-      </c>
-      <c r="X54">
-        <v>9.4655103672327044E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>53</v>
-      </c>
+        <v>-6.0641277534156188</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>3.4622964739448891E-6</v>
+        <v>5.6105262548731178E-6</v>
       </c>
       <c r="C55">
-        <v>7.3765033828129933E-2</v>
+        <v>7.5557690569365746E-2</v>
       </c>
       <c r="D55">
-        <v>5.7632936462292611E-3</v>
+        <v>2.966930196916409E-3</v>
       </c>
       <c r="E55">
-        <v>7.6522978999592914E-2</v>
+        <v>8.0390370969825112E-2</v>
       </c>
       <c r="F55">
-        <v>6.6484297902834424</v>
+        <v>7.7984282678884309</v>
       </c>
       <c r="K55">
-        <v>8.2310735821380412</v>
+        <v>4.6868989029447556</v>
       </c>
       <c r="L55">
-        <v>8.8766396786867379</v>
+        <v>4.2389696043074121</v>
       </c>
       <c r="M55">
-        <v>8.3631013061975068</v>
+        <v>4.7021642265011634</v>
       </c>
       <c r="N55">
-        <v>3.3538190647000581E-2</v>
+        <v>2.1298830448246639E-4</v>
       </c>
       <c r="O55">
-        <v>4.0593607106307944E-3</v>
+        <v>8.6356202701362427E-6</v>
       </c>
       <c r="P55">
-        <v>3.049240664620927E-2</v>
+        <v>8.8902262703732977E-3</v>
       </c>
       <c r="Q55">
-        <v>2.5488484341563678E-3</v>
+        <v>8.6719233442847151E-3</v>
       </c>
       <c r="R55">
-        <v>7.31664568300348E-4</v>
+        <v>1.802897648165043E-3</v>
       </c>
       <c r="S55">
-        <v>1.330493304608783E-6</v>
+        <v>6.8186814561202534E-5</v>
       </c>
       <c r="T55">
-        <v>1.7622479989018811E-2</v>
+        <v>4.6714565984008879E-3</v>
       </c>
       <c r="U55">
-        <v>4.9322560302018119E-3</v>
+        <v>9.2812136474189962E-4</v>
       </c>
       <c r="V55">
-        <v>57.952002592103213</v>
+        <v>9.3054801129188167</v>
       </c>
       <c r="W55">
-        <v>3.5837763007051589E-4</v>
-      </c>
-      <c r="X55">
-        <v>9.4617515074966291E-7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>54</v>
-      </c>
+        <v>-6.0049869445005584</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>3.439839472451348E-6</v>
+        <v>5.574965163418635E-6</v>
       </c>
       <c r="C56">
-        <v>7.5243332527736476E-2</v>
+        <v>7.7135750577462484E-2</v>
       </c>
       <c r="D56">
-        <v>5.9168426130701461E-3</v>
+        <v>3.0498226569302929E-3</v>
       </c>
       <c r="E56">
-        <v>7.8090561665271799E-2</v>
+        <v>8.213193924758723E-2</v>
       </c>
       <c r="F56">
-        <v>6.6484102658312239</v>
+        <v>7.7984087043666728</v>
       </c>
       <c r="K56">
-        <v>8.2256055341799748</v>
+        <v>4.6928196528273487</v>
       </c>
       <c r="L56">
-        <v>8.8694251237715847</v>
+        <v>4.2396145417748157</v>
       </c>
       <c r="M56">
-        <v>8.3599862982534976</v>
+        <v>4.7084067440085207</v>
       </c>
       <c r="N56">
-        <v>3.4179034776052102E-2</v>
+        <v>2.1743075413925621E-4</v>
       </c>
       <c r="O56">
-        <v>4.1341974563186947E-3</v>
+        <v>8.83459202099661E-6</v>
       </c>
       <c r="P56">
-        <v>3.1099875302993019E-2</v>
+        <v>8.8949719861578323E-3</v>
       </c>
       <c r="Q56">
-        <v>2.616148179978304E-3</v>
+        <v>8.6733146175910075E-3</v>
       </c>
       <c r="R56">
-        <v>7.4754139601764674E-4</v>
+        <v>1.840608753243387E-3</v>
       </c>
       <c r="S56">
-        <v>1.366707847141666E-6</v>
+        <v>7.0051246372943379E-5</v>
       </c>
       <c r="T56">
-        <v>1.7898354422906139E-2</v>
+        <v>4.7528334513065188E-3</v>
       </c>
       <c r="U56">
-        <v>5.017914739193394E-3</v>
+        <v>9.5060000130380332E-4</v>
       </c>
       <c r="V56">
-        <v>58.17662078880749</v>
+        <v>9.3784505948342485</v>
       </c>
       <c r="W56">
-        <v>3.6631942255542499E-4</v>
-      </c>
-      <c r="X56">
-        <v>9.4579238739259821E-7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>55</v>
-      </c>
+        <v>-5.9445561011517754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>3.4164745568997911E-6</v>
+        <v>5.5378828887427519E-6</v>
       </c>
       <c r="C57">
-        <v>7.6783921192506835E-2</v>
+        <v>7.878210453125209E-2</v>
       </c>
       <c r="D57">
-        <v>6.0788300939739002E-3</v>
+        <v>3.1374317963093761E-3</v>
       </c>
       <c r="E57">
-        <v>7.9724817157018554E-2</v>
+        <v>8.3950128816677405E-2</v>
       </c>
       <c r="F57">
-        <v>6.6483904535770391</v>
+        <v>7.7983888509869983</v>
       </c>
       <c r="K57">
-        <v>8.220040050441078</v>
+        <v>4.698888371200999</v>
       </c>
       <c r="L57">
-        <v>8.862034940197054</v>
+        <v>4.2402956738614233</v>
       </c>
       <c r="M57">
-        <v>8.3568552838672936</v>
+        <v>4.7148069183630854</v>
       </c>
       <c r="N57">
-        <v>3.4846697827601733E-2</v>
+        <v>2.2206622440855089E-4</v>
       </c>
       <c r="O57">
-        <v>4.2129323828059249E-3</v>
+        <v>9.0447324590353476E-6</v>
       </c>
       <c r="P57">
-        <v>3.1732847016837797E-2</v>
+        <v>8.8998977054593181E-3</v>
       </c>
       <c r="Q57">
-        <v>2.6870518732638308E-3</v>
+        <v>8.6747464383659777E-3</v>
       </c>
       <c r="R57">
-        <v>7.6412305575476909E-4</v>
+        <v>1.8799544756182859E-3</v>
       </c>
       <c r="S57">
-        <v>1.404717134065695E-6</v>
+        <v>7.2020359818735955E-5</v>
       </c>
       <c r="T57">
-        <v>1.8184586415877529E-2</v>
+        <v>4.8373275279732456E-3</v>
       </c>
       <c r="U57">
-        <v>5.1077981894390532E-3</v>
+        <v>9.7420209672180284E-4</v>
       </c>
       <c r="V57">
-        <v>58.41570542529719</v>
+        <v>9.4547201480902299</v>
       </c>
       <c r="W57">
-        <v>3.7461350097334802E-4</v>
-      </c>
-      <c r="X57">
-        <v>9.4540280353087556E-7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>56</v>
-      </c>
+        <v>-5.8827833852832612</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>3.392146113817765E-6</v>
+        <v>5.4991812566408257E-6</v>
       </c>
       <c r="C58">
-        <v>7.8390855081109864E-2</v>
+        <v>8.0501301638864431E-2</v>
       </c>
       <c r="D58">
-        <v>6.24996439643537E-3</v>
+        <v>3.2301666424539781E-3</v>
       </c>
       <c r="E58">
-        <v>8.1430079427880858E-2</v>
+        <v>8.5850035740171832E-2</v>
       </c>
       <c r="F58">
-        <v>6.648370340298662</v>
+        <v>7.7983686943717396</v>
       </c>
       <c r="K58">
-        <v>8.2143689880481787</v>
+        <v>4.7051110248553174</v>
       </c>
       <c r="L58">
-        <v>8.8544526157492616</v>
+        <v>4.2410154711474419</v>
       </c>
       <c r="M58">
-        <v>8.3537029975934303</v>
+        <v>4.7213658053375092</v>
       </c>
       <c r="N58">
-        <v>3.5542919769528912E-2</v>
+        <v>2.269076219528581E-4</v>
       </c>
       <c r="O58">
-        <v>4.2958576453139222E-3</v>
+        <v>9.2668761798366011E-6</v>
       </c>
       <c r="P58">
-        <v>3.2392978724646297E-2</v>
+        <v>8.9050147797114388E-3</v>
       </c>
       <c r="Q58">
-        <v>2.7618580743782851E-3</v>
+        <v>8.6762248112114571E-3</v>
       </c>
       <c r="R58">
-        <v>7.8145756345069414E-4</v>
+        <v>1.9210438873410031E-3</v>
       </c>
       <c r="S58">
-        <v>1.4446801925012229E-6</v>
+        <v>7.4103142325157212E-5</v>
       </c>
       <c r="T58">
-        <v>1.848178614829659E-2</v>
+        <v>4.9251258332289596E-3</v>
       </c>
       <c r="U58">
-        <v>5.2022152983194946E-3</v>
+        <v>9.9901405959326207E-4</v>
       </c>
       <c r="V58">
-        <v>58.669609515112207</v>
+        <v>9.5344125312634045</v>
       </c>
       <c r="W58">
-        <v>3.8328373685533347E-4</v>
-      </c>
-      <c r="X58">
-        <v>9.4500582916337246E-7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>57</v>
-      </c>
+        <v>-5.8196126770155416</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>3.3667940199996108E-6</v>
+        <v>5.4587536838904323E-6</v>
       </c>
       <c r="C59">
-        <v>8.0068550213311593E-2</v>
+        <v>8.2298304778315831E-2</v>
       </c>
       <c r="D59">
-        <v>6.4310344180687276E-3</v>
+        <v>3.3284843468034432E-3</v>
       </c>
       <c r="E59">
-        <v>8.3211063571137778E-2</v>
+        <v>8.7837210811384514E-2</v>
       </c>
       <c r="F59">
-        <v>6.6483499118202536</v>
+        <v>7.7983482201738568</v>
       </c>
       <c r="K59">
-        <v>8.2085920629658382</v>
+        <v>4.7114934281827736</v>
       </c>
       <c r="L59">
-        <v>8.8466755889821709</v>
+        <v>4.2417778504992576</v>
       </c>
       <c r="M59">
-        <v>8.3505366126640563</v>
+        <v>4.728096336453131</v>
       </c>
       <c r="N59">
-        <v>3.6269595632882741E-2</v>
+        <v>2.3196903464525401E-4</v>
       </c>
       <c r="O59">
-        <v>4.3833441668816734E-3</v>
+        <v>9.5022111599356535E-6</v>
       </c>
       <c r="P59">
-        <v>3.30820745537223E-2</v>
+        <v>8.9103354766532986E-3</v>
       </c>
       <c r="Q59">
-        <v>2.8408912929828011E-3</v>
+        <v>8.6777498417617283E-3</v>
       </c>
       <c r="R59">
-        <v>7.9959739794507076E-4</v>
+        <v>1.9639959976902092E-3</v>
       </c>
       <c r="S59">
-        <v>1.486728057353514E-6</v>
+        <v>7.6309727090555397E-5</v>
       </c>
       <c r="T59">
-        <v>1.8790613377365831E-2</v>
+        <v>5.0164307581972321E-3</v>
       </c>
       <c r="U59">
-        <v>5.3015467366391983E-3</v>
+        <v>1.0251312138181759E-3</v>
       </c>
       <c r="V59">
-        <v>58.938753684283597</v>
+        <v>9.6176659951520787</v>
       </c>
       <c r="W59">
-        <v>3.9235643293143529E-4</v>
-      </c>
-      <c r="X59">
-        <v>9.4460144440760874E-7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>58</v>
-      </c>
+        <v>-5.7549866308295989</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>3.3403531576692171E-6</v>
+        <v>5.416484247863129E-6</v>
       </c>
       <c r="C60">
-        <v>8.1821824398912599E-2</v>
+        <v>8.4178538598113736E-2</v>
       </c>
       <c r="D60">
-        <v>6.6229213657737459E-3</v>
+        <v>3.432897422373763E-3</v>
       </c>
       <c r="E60">
-        <v>8.5072908235125713E-2</v>
+        <v>8.9917710505245468E-2</v>
       </c>
       <c r="F60">
-        <v>6.6483291529191284</v>
+        <v>7.7983274129818607</v>
       </c>
       <c r="K60">
-        <v>8.202699140724441</v>
+        <v>4.7180419000741161</v>
       </c>
       <c r="L60">
-        <v>8.8386822916620051</v>
+        <v>4.2425857670107341</v>
       </c>
       <c r="M60">
-        <v>8.347347859594187</v>
+        <v>4.7349971491049407</v>
       </c>
       <c r="N60">
-        <v>3.7028792096358953E-2</v>
+        <v>2.3726586377585671E-4</v>
       </c>
       <c r="O60">
-        <v>4.4757467256770324E-3</v>
+        <v>9.7517298347469236E-6</v>
       </c>
       <c r="P60">
-        <v>3.380210272659704E-2</v>
+        <v>8.9158732298649998E-3</v>
       </c>
       <c r="Q60">
-        <v>2.924524222860732E-3</v>
+        <v>8.6793296860840016E-3</v>
       </c>
       <c r="R60">
-        <v>8.1860003294239713E-4</v>
+        <v>2.0089409088949631E-3</v>
       </c>
       <c r="S60">
-        <v>1.531063460608788E-6</v>
+        <v>7.8651322327599117E-5</v>
       </c>
       <c r="T60">
-        <v>1.911178163071646E-2</v>
+        <v>5.1114616997300659E-3</v>
       </c>
       <c r="U60">
-        <v>5.4061654229845199E-3</v>
+        <v>1.0526592499675151E-3</v>
       </c>
       <c r="V60">
-        <v>59.223618600506533</v>
+        <v>9.7046345164426349</v>
       </c>
       <c r="W60">
-        <v>4.0186023860668658E-4</v>
-      </c>
-      <c r="X60">
-        <v>9.4418893985071098E-7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>59</v>
-      </c>
+        <v>-5.6888418910642429</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>3.312752924300032E-6</v>
+        <v>5.3722466677762582E-6</v>
       </c>
       <c r="C61">
-        <v>8.3655943985086717E-2</v>
+        <v>8.6147944480448865E-2</v>
       </c>
       <c r="D61">
-        <v>6.8266124637725439E-3</v>
+        <v>3.5439822987435579E-3</v>
       </c>
       <c r="E61">
-        <v>8.7021223819891469E-2</v>
+        <v>9.2098154834013873E-2</v>
       </c>
       <c r="F61">
-        <v>6.648308047219623</v>
+        <v>7.7983062562122942</v>
       </c>
       <c r="K61">
-        <v>8.1966920191069725</v>
+        <v>4.724762789579021</v>
       </c>
       <c r="L61">
-        <v>8.8304692484885301</v>
+        <v>4.2434436130215412</v>
       </c>
       <c r="M61">
-        <v>8.3441444671192677</v>
+        <v>4.74207788835007</v>
       </c>
       <c r="N61">
-        <v>3.7822768812717053E-2</v>
+        <v>2.4281498899393259E-4</v>
       </c>
       <c r="O61">
-        <v>4.5735228545937361E-3</v>
+        <v>1.001679586045714E-5</v>
       </c>
       <c r="P61">
-        <v>3.4555214397419882E-2</v>
+        <v>8.9216425845913654E-3</v>
       </c>
       <c r="Q61">
-        <v>3.0131615551421049E-3</v>
+        <v>8.6809658894425566E-3</v>
       </c>
       <c r="R61">
-        <v>8.3852854439317242E-4</v>
+        <v>2.0560211427136789E-3</v>
       </c>
       <c r="S61">
-        <v>1.577853093308181E-6</v>
+        <v>8.1140649487897558E-5</v>
       </c>
       <c r="T61">
-        <v>1.9446064952856262E-2</v>
+        <v>5.2104568814315922E-3</v>
       </c>
       <c r="U61">
-        <v>5.5165392289107029E-3</v>
+        <v>1.081715473479596E-3</v>
       </c>
       <c r="V61">
-        <v>59.524762142769212</v>
+        <v>9.7954891994839652</v>
       </c>
       <c r="W61">
-        <v>4.1182678578054752E-4</v>
-      </c>
-      <c r="X61">
-        <v>9.4376844133748815E-7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>60</v>
-      </c>
+        <v>-5.6211137316440158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>3.283916663964898E-6</v>
+        <v>5.3259031978349193E-6</v>
       </c>
       <c r="C62">
-        <v>8.5576677273119559E-2</v>
+        <v>8.82130435349915E-2</v>
       </c>
       <c r="D62">
-        <v>7.0432171894641432E-3</v>
+        <v>3.66238947269556E-3</v>
       </c>
       <c r="E62">
-        <v>8.9062147318560991E-2</v>
+        <v>9.4385793213840788E-2</v>
       </c>
       <c r="F62">
-        <v>6.648286577074539</v>
+        <v>7.7982847319862314</v>
       </c>
       <c r="K62">
-        <v>8.1905602999975322</v>
+        <v>4.731663182387277</v>
       </c>
       <c r="L62">
-        <v>8.8220191375911678</v>
+        <v>4.2443559869686522</v>
       </c>
       <c r="M62">
-        <v>8.3409234333382187</v>
+        <v>4.7493469362424339</v>
       </c>
       <c r="N62">
-        <v>3.8653999961670127E-2</v>
+        <v>2.4863494382226949E-4</v>
       </c>
       <c r="O62">
-        <v>4.6771402539822239E-3</v>
+        <v>1.029890459975928E-5</v>
       </c>
       <c r="P62">
-        <v>3.5343765718476819E-2</v>
+        <v>8.9276595019700845E-3</v>
       </c>
       <c r="Q62">
-        <v>3.1072651134465938E-3</v>
+        <v>8.6826637789402857E-3</v>
       </c>
       <c r="R62">
-        <v>8.5945231167566902E-4</v>
+        <v>2.105393155044323E-3</v>
       </c>
       <c r="S62">
-        <v>1.627325380288192E-6</v>
+        <v>8.3792054139257625E-5</v>
       </c>
       <c r="T62">
-        <v>1.9794303095954899E-2</v>
+        <v>5.313675416630392E-3</v>
       </c>
       <c r="U62">
-        <v>5.6331511656971499E-3</v>
+        <v>1.112430731214946E-3</v>
       </c>
       <c r="V62">
-        <v>59.842816549979247</v>
+        <v>9.890419982690009</v>
       </c>
       <c r="W62">
-        <v>4.2229068349223739E-4</v>
-      </c>
-      <c r="X62">
-        <v>9.4333922099982721E-7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>61</v>
-      </c>
+        <v>-5.5517306184941901</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>3.253761038528823E-6</v>
+        <v>5.2773032907267298E-6</v>
       </c>
       <c r="C63">
-        <v>8.7590355736803044E-2</v>
+        <v>9.0381009023768305E-2</v>
       </c>
       <c r="D63">
-        <v>7.2739865345576834E-3</v>
+        <v>3.7888556939758662E-3</v>
       </c>
       <c r="E63">
-        <v>9.1202404906639528E-2</v>
+        <v>9.6788579516801643E-2</v>
       </c>
       <c r="F63">
-        <v>6.648264723429449</v>
+        <v>7.798262820993684</v>
       </c>
       <c r="K63">
-        <v>8.1843045750059904</v>
+        <v>4.7387505915909074</v>
       </c>
       <c r="L63">
-        <v>8.8133237906656241</v>
+        <v>4.2453282984367791</v>
       </c>
       <c r="M63">
-        <v>8.3376904345801091</v>
+        <v>4.756813082676187</v>
       </c>
       <c r="N63">
-        <v>3.952520149263649E-2</v>
+        <v>2.5474612431515439E-4</v>
       </c>
       <c r="O63">
-        <v>4.787162494817046E-3</v>
+        <v>1.0599742147086769E-5</v>
       </c>
       <c r="P63">
-        <v>3.6170342657067339E-2</v>
+        <v>8.9339414435862345E-3</v>
       </c>
       <c r="Q63">
-        <v>3.2073495364920161E-3</v>
+        <v>8.6844265786506138E-3</v>
       </c>
       <c r="R63">
-        <v>8.8144782414478144E-4</v>
+        <v>2.1572290807085558E-3</v>
       </c>
       <c r="S63">
-        <v>1.679702690985907E-6</v>
+        <v>8.6621626748690649E-5</v>
       </c>
       <c r="T63">
-        <v>2.0157409555705101E-2</v>
+        <v>5.4213996393333514E-3</v>
       </c>
       <c r="U63">
-        <v>5.7565740968093457E-3</v>
+        <v>1.144951261947365E-3</v>
       </c>
       <c r="V63">
-        <v>60.178502729340821</v>
+        <v>9.989637597987663</v>
       </c>
       <c r="W63">
-        <v>4.3329020895666872E-4</v>
-      </c>
-      <c r="X63">
-        <v>9.4290132025041939E-7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>62</v>
-      </c>
+        <v>-5.4806174373567629</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>3.2221953231907382E-6</v>
+        <v>5.2262821970150161E-6</v>
       </c>
       <c r="C64">
-        <v>8.9703944400020039E-2</v>
+        <v>9.2659749900868116E-2</v>
       </c>
       <c r="D64">
-        <v>7.5203359794102902E-3</v>
+        <v>3.9242185384482141E-3</v>
       </c>
       <c r="E64">
-        <v>9.3449383574016234E-2</v>
+        <v>9.9315258002114173E-2</v>
       </c>
       <c r="F64">
-        <v>6.6482424656704673</v>
+        <v>7.7982405023346546</v>
       </c>
       <c r="K64">
-        <v>8.177915050176491</v>
+        <v>4.7460324943346288</v>
       </c>
       <c r="L64">
-        <v>8.8043622705486104</v>
+        <v>4.2463654389067793</v>
       </c>
       <c r="M64">
-        <v>8.3344418349952551</v>
+        <v>4.7644750651231673</v>
       </c>
       <c r="N64">
-        <v>4.0439360413631727E-2</v>
+        <v>2.6117102910905087E-4</v>
       </c>
       <c r="O64">
-        <v>4.9041824399372351E-3</v>
+        <v>1.0920952232905951E-5</v>
       </c>
       <c r="P64">
-        <v>3.70377898444509E-2</v>
+        <v>8.9405076242424358E-3</v>
       </c>
       <c r="Q64">
-        <v>3.3140008912133242E-3</v>
+        <v>8.6862655123229708E-3</v>
       </c>
       <c r="R64">
-        <v>9.0459961681461822E-4</v>
+        <v>2.2117187505496052E-3</v>
       </c>
       <c r="S64">
-        <v>1.7352740497740051E-6</v>
+        <v>8.9647891358328677E-5</v>
       </c>
       <c r="T64">
-        <v>2.053637890988657E-2</v>
+        <v>5.5339377545277199E-3</v>
       </c>
       <c r="U64">
-        <v>5.887416131821404E-3</v>
+        <v>1.1794408062011849E-3</v>
       </c>
       <c r="V64">
-        <v>60.532631057810796</v>
+        <v>10.09337581287175</v>
       </c>
       <c r="W64">
-        <v>4.4486759182198459E-4</v>
-      </c>
-      <c r="X64">
-        <v>9.4245405351235452E-7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>63</v>
-      </c>
+        <v>-5.4076941759107271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>3.1891205891796042E-6</v>
+        <v>5.1726592845379266E-6</v>
       </c>
       <c r="C65">
-        <v>9.1925123005982462E-2</v>
+        <v>9.5058007505257849E-2</v>
       </c>
       <c r="D65">
-        <v>7.783873090632578E-3</v>
+        <v>4.0694340748124698E-3</v>
       </c>
       <c r="E65">
-        <v>9.581121329239653E-2</v>
+        <v>0.1019754617487368</v>
       </c>
       <c r="F65">
-        <v>6.64821978144911</v>
+        <v>7.7982177533415573</v>
       </c>
       <c r="K65">
-        <v>8.1713881031323385</v>
+        <v>4.7535172520053832</v>
       </c>
       <c r="L65">
-        <v>8.7951215434455996</v>
+        <v>4.2474750883742409</v>
       </c>
       <c r="M65">
-        <v>8.331182334964403</v>
+        <v>4.7723520486570594</v>
       </c>
       <c r="N65">
-        <v>4.1399770629136988E-2</v>
+        <v>2.679345447002981E-4</v>
       </c>
       <c r="O65">
-        <v>5.0289060684087566E-3</v>
+        <v>1.126493229285852E-5</v>
       </c>
       <c r="P65">
-        <v>3.794924359994381E-2</v>
+        <v>8.9473790326726928E-3</v>
       </c>
       <c r="Q65">
-        <v>3.4278791064742639E-3</v>
+        <v>8.6881806860256844E-3</v>
       </c>
       <c r="R65">
-        <v>9.2900135580826267E-4</v>
+        <v>2.2690720170142351E-3</v>
       </c>
       <c r="S65">
-        <v>1.79433250940712E-6</v>
+        <v>9.2891817018356834E-5</v>
       </c>
       <c r="T65">
-        <v>2.0932296822807249E-2</v>
+        <v>5.6516268612392482E-3</v>
       </c>
       <c r="U65">
-        <v>6.026390527171346E-3</v>
+        <v>1.216083732434392E-3</v>
       </c>
       <c r="V65">
-        <v>60.9061174112231</v>
+        <v>10.20189414665716</v>
       </c>
       <c r="W65">
-        <v>4.5706969470346039E-4</v>
-      </c>
-      <c r="X65">
-        <v>9.4199716721926383E-7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>64</v>
-      </c>
+        <v>-5.3328745758459632</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>3.154428886825657E-6</v>
+        <v>5.1162361929667918E-6</v>
       </c>
       <c r="C66">
-        <v>9.4262379948075528E-2</v>
+        <v>9.7585467878325782E-2</v>
       </c>
       <c r="D66">
-        <v>8.0664305649723964E-3</v>
+        <v>4.2255982949930999E-3</v>
       </c>
       <c r="E66">
-        <v>9.8296861727108331E-2</v>
+        <v>0.1047798258939813</v>
       </c>
       <c r="F66">
-        <v>6.6481966464823374</v>
+        <v>7.7981945493751432</v>
       </c>
       <c r="K66">
-        <v>8.1647149254262938</v>
+        <v>4.7612135905139397</v>
       </c>
       <c r="L66">
-        <v>8.7855793941988125</v>
+        <v>4.2486641391595414</v>
       </c>
       <c r="M66">
-        <v>8.3279104097005128</v>
+        <v>4.7804463203253968</v>
       </c>
       <c r="N66">
-        <v>4.241007242249055E-2</v>
+        <v>2.7506425615606028E-4</v>
       </c>
       <c r="O66">
-        <v>5.1621096367422004E-3</v>
+        <v>1.1633946285165961E-5</v>
       </c>
       <c r="P66">
-        <v>3.8908170391429082E-2</v>
+        <v>8.9545789867462207E-3</v>
       </c>
       <c r="Q66">
-        <v>3.549739251072514E-3</v>
+        <v>8.6901830649245213E-3</v>
       </c>
       <c r="R66">
-        <v>9.5475710645545305E-4</v>
+        <v>2.3295214670141198E-3</v>
       </c>
       <c r="S66">
-        <v>1.857238601767516E-6</v>
+        <v>9.6377531687245557E-5</v>
       </c>
       <c r="T66">
-        <v>2.1346349775463801E-2</v>
+        <v>5.7748363925949394E-3</v>
       </c>
       <c r="U66">
-        <v>6.1742823802782287E-3</v>
+        <v>1.255088085372848E-3</v>
       </c>
       <c r="V66">
-        <v>61.299990534590108</v>
+        <v>10.315480993080261</v>
       </c>
       <c r="W66">
-        <v>4.6994843952182489E-4</v>
-      </c>
-      <c r="X66">
-        <v>9.4153004477984051E-7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>65</v>
-      </c>
+        <v>-5.2560655887600447</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B67">
-        <v>3.1180021700654228E-6</v>
+        <v>5.0567946843166533E-6</v>
       </c>
       <c r="C67">
-        <v>9.6725121359021338E-2</v>
+        <v>0.1002528927235639</v>
       </c>
       <c r="D67">
-        <v>8.370106610312315E-3</v>
+        <v>4.3939733581209121E-3</v>
       </c>
       <c r="E67">
-        <v>0.10091624339979011</v>
+        <v>0.10774011810405031</v>
       </c>
       <c r="F67">
-        <v>6.6481730343254428</v>
+        <v>7.7981708635889442</v>
       </c>
       <c r="K67">
-        <v>8.1578916397962864</v>
+        <v>4.7691303305103183</v>
       </c>
       <c r="L67">
-        <v>8.7757183273169144</v>
+        <v>4.2499407243450884</v>
       </c>
       <c r="M67">
-        <v>8.3246304086180754</v>
+        <v>4.7887635870396066</v>
       </c>
       <c r="N67">
-        <v>4.347429993065479E-2</v>
+        <v>2.8259083643808588E-4</v>
       </c>
       <c r="O67">
-        <v>5.3047013001507257E-3</v>
+        <v>1.20306770309054E-5</v>
       </c>
       <c r="P67">
-        <v>3.9918411281153553E-2</v>
+        <v>8.9621331559411269E-3</v>
       </c>
       <c r="Q67">
-        <v>3.6804392283389209E-3</v>
+        <v>8.6922834644296166E-3</v>
       </c>
       <c r="R67">
-        <v>9.8198281696555852E-4</v>
+        <v>2.393325579452031E-3</v>
       </c>
       <c r="S67">
-        <v>1.9243786537726009E-6</v>
+        <v>1.0013270208601799E-4</v>
       </c>
       <c r="T67">
-        <v>2.1779837415326238E-2</v>
+        <v>5.9039720585155704E-3</v>
       </c>
       <c r="U67">
-        <v>6.3320021413009863E-3</v>
+        <v>1.2966893874591259E-3</v>
       </c>
       <c r="V67">
-        <v>61.715410102274618</v>
+        <v>10.43445726602889</v>
       </c>
       <c r="W67">
-        <v>4.835618921732948E-4</v>
-      </c>
-      <c r="X67">
-        <v>9.410524147857401E-7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>66</v>
-      </c>
+        <v>-5.1771694847299159</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B68">
-        <v>3.0797112875037329E-6</v>
+        <v>4.9940943095867632E-6</v>
       </c>
       <c r="C68">
-        <v>9.9323798263395144E-2</v>
+        <v>0.10307227270490039</v>
       </c>
       <c r="D68">
-        <v>8.6973137142415773E-3</v>
+        <v>4.5760198123475484E-3</v>
       </c>
       <c r="E68">
-        <v>0.1036803463976132</v>
+        <v>0.11086938960491111</v>
       </c>
       <c r="F68">
-        <v>6.6481489161064218</v>
+        <v>7.7981466666588961</v>
       </c>
       <c r="K68">
-        <v>8.1509101261660337</v>
+        <v>4.7772776041776286</v>
       </c>
       <c r="L68">
-        <v>8.7655164315170602</v>
+        <v>4.2513153889265229</v>
       </c>
       <c r="M68">
-        <v>8.3213439972777863</v>
+        <v>4.7973203923033942</v>
       </c>
       <c r="N68">
-        <v>4.4596935184493147E-2</v>
+        <v>2.9054848818535592E-4</v>
       </c>
       <c r="O68">
-        <v>5.4577076303831389E-3</v>
+        <v>1.2458514977724909E-5</v>
       </c>
       <c r="P68">
-        <v>4.0984233988589268E-2</v>
+        <v>8.9700699115738188E-3</v>
       </c>
       <c r="Q68">
-        <v>3.8209652751406481E-3</v>
+        <v>8.6944874446331262E-3</v>
       </c>
       <c r="R68">
-        <v>1.0108080651511991E-3</v>
+        <v>2.460772428786325E-3</v>
       </c>
       <c r="S68">
-        <v>1.9962082898036199E-6</v>
+        <v>1.0418948030710891E-4</v>
       </c>
       <c r="T68">
-        <v>2.22341855116211E-2</v>
+        <v>6.0394803723701719E-3</v>
       </c>
       <c r="U68">
-        <v>6.5005753775521664E-3</v>
+        <v>1.3411558866798241E-3</v>
       </c>
       <c r="V68">
-        <v>62.153681020373263</v>
+        <v>10.55918081621161</v>
       </c>
       <c r="W68">
-        <v>4.979747938539306E-4</v>
-      </c>
-      <c r="X68">
-        <v>9.4056370883162246E-7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>67</v>
-      </c>
+        <v>-5.0960785122329364</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B69">
-        <v>3.0394146858881529E-6</v>
+        <v>4.9278696154701222E-6</v>
       </c>
       <c r="C69">
-        <v>0.1020700553709453</v>
+        <v>0.1060570076410384</v>
       </c>
       <c r="D69">
-        <v>9.0508388276611951E-3</v>
+        <v>4.7734366440524848E-3</v>
       </c>
       <c r="E69">
-        <v>0.1066013794390092</v>
+        <v>0.1141821501305543</v>
       </c>
       <c r="F69">
-        <v>6.6481242602225734</v>
+        <v>7.7981219264715662</v>
       </c>
       <c r="K69">
-        <v>8.1437593231783154</v>
+        <v>4.7856654975043282</v>
       </c>
       <c r="L69">
-        <v>8.754942007661505</v>
+        <v>4.2527987319163314</v>
       </c>
       <c r="M69">
-        <v>8.3180497647511178</v>
+        <v>4.8061192092771936</v>
       </c>
       <c r="N69">
-        <v>4.5782972383102541E-2</v>
+        <v>2.9897545707043569E-4</v>
       </c>
       <c r="O69">
-        <v>5.6222964977650294E-3</v>
+        <v>1.292094534185265E-5</v>
       </c>
       <c r="P69">
-        <v>4.2110393646572562E-2</v>
+        <v>8.9784208954205059E-3</v>
       </c>
       <c r="Q69">
-        <v>3.9724593440714677E-3</v>
+        <v>8.6968090403982349E-3</v>
       </c>
       <c r="R69">
-        <v>1.041378121419726E-3</v>
+        <v>2.5321840332856961E-3</v>
       </c>
       <c r="S69">
-        <v>2.0732710300252588E-6</v>
+        <v>1.08585162606747E-4</v>
       </c>
       <c r="T69">
-        <v>2.2710961576289861E-2</v>
+        <v>6.1818538416335157E-3</v>
       </c>
       <c r="U69">
-        <v>6.6811625227880516E-3</v>
+        <v>1.3887936795187719E-3</v>
       </c>
       <c r="V69">
-        <v>62.61627053634988</v>
+        <v>10.690051513675231</v>
       </c>
       <c r="W69">
-        <v>5.1325973310013969E-4</v>
-      </c>
-      <c r="X69">
-        <v>9.4006315262248204E-7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>68</v>
-      </c>
+        <v>-5.0126771937361667</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B70">
-        <v>2.9969571123330001E-6</v>
+        <v>4.8578270984988492E-6</v>
       </c>
       <c r="C70">
-        <v>0.1049769058879229</v>
+        <v>0.1092221192346942</v>
       </c>
       <c r="D70">
-        <v>9.4339172631199043E-3</v>
+        <v>4.9882111904043661E-3</v>
       </c>
       <c r="E70">
-        <v>0.1096929436420854</v>
+        <v>0.11769457162659749</v>
       </c>
       <c r="F70">
-        <v>6.6480990319862814</v>
+        <v>7.7980966077587643</v>
       </c>
       <c r="K70">
-        <v>8.1364344324119724</v>
+        <v>4.794304959893962</v>
       </c>
       <c r="L70">
-        <v>8.7439728752991925</v>
+        <v>4.2544043617878069</v>
       </c>
       <c r="M70">
-        <v>8.3147534392907527</v>
+        <v>4.8151760978261366</v>
       </c>
       <c r="N70">
-        <v>4.7037993504519343E-2</v>
+        <v>3.0791466056195388E-4</v>
       </c>
       <c r="O70">
-        <v>5.7998504605813852E-3</v>
+        <v>1.342243882410225E-5</v>
       </c>
       <c r="P70">
-        <v>4.3302204093525733E-2</v>
+        <v>8.9872212658899525E-3</v>
       </c>
       <c r="Q70">
-        <v>4.1362356019493118E-3</v>
+        <v>8.6992586958861765E-3</v>
       </c>
       <c r="R70">
-        <v>1.0738563979944039E-3</v>
+        <v>2.607921497994414E-3</v>
       </c>
       <c r="S70">
-        <v>2.1561595530892891E-6</v>
+        <v>1.133634708612478E-4</v>
       </c>
       <c r="T70">
-        <v>2.3211892796711799E-2</v>
+        <v>6.3316369716996017E-3</v>
       </c>
       <c r="U70">
-        <v>6.8751259151901591E-3</v>
+        <v>1.4399540876358231E-3</v>
       </c>
       <c r="V70">
-        <v>63.104837473471321</v>
+        <v>10.8275173862577</v>
       </c>
       <c r="W70">
-        <v>5.2949836409919664E-4</v>
-      </c>
-      <c r="X70">
-        <v>9.3955041026883806E-7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>69</v>
-      </c>
+        <v>-4.9268422373639211</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B71">
-        <v>2.952168075233055E-6</v>
+        <v>4.7836417196861056E-6</v>
       </c>
       <c r="C71">
-        <v>0.1080589377790456</v>
+        <v>0.1125845033651552</v>
       </c>
       <c r="D71">
-        <v>9.8503247529877786E-3</v>
+        <v>5.2226819904711156E-3</v>
       </c>
       <c r="E71">
-        <v>0.1129702334992589</v>
+        <v>0.1214247259824288</v>
       </c>
       <c r="F71">
-        <v>6.6480731932126522</v>
+        <v>7.7980706716753776</v>
       </c>
       <c r="K71">
-        <v>8.1289259186465426</v>
+        <v>4.8032075042819979</v>
       </c>
       <c r="L71">
-        <v>8.7325789599469559</v>
+        <v>4.2561467868286726</v>
       </c>
       <c r="M71">
-        <v>8.3114588187136835</v>
+        <v>4.8244949422412891</v>
       </c>
       <c r="N71">
-        <v>4.8368256183356051E-2</v>
+        <v>3.1741440965027168E-4</v>
       </c>
       <c r="O71">
-        <v>5.9919622397246134E-3</v>
+        <v>1.396781526053822E-5</v>
       </c>
       <c r="P71">
-        <v>4.4565622431963672E-2</v>
+        <v>8.9965103810513633E-3</v>
       </c>
       <c r="Q71">
-        <v>4.3138275973944968E-3</v>
+        <v>8.7018551917597536E-3</v>
       </c>
       <c r="R71">
-        <v>1.1084273734279951E-3</v>
+        <v>2.688391111772903E-3</v>
       </c>
       <c r="S71">
-        <v>2.245579590134173E-6</v>
+        <v>1.1857577791488931E-4</v>
       </c>
       <c r="T71">
-        <v>2.3738885276760879E-2</v>
+        <v>6.489433193766176E-3</v>
       </c>
       <c r="U71">
-        <v>7.0840249052643647E-3</v>
+        <v>1.4950420621575821E-3</v>
       </c>
       <c r="V71">
-        <v>63.621257980245439</v>
+        <v>10.972081914066729</v>
       </c>
       <c r="W71">
-        <v>5.4678316813119669E-4</v>
-      </c>
-      <c r="X71">
-        <v>9.3902481430525801E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>70</v>
-      </c>
+        <v>-4.8384385999697699</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B72">
-        <v>2.9048602476575011E-6</v>
+        <v>4.7049529380820453E-6</v>
       </c>
       <c r="C72">
-        <v>0.1113325582132475</v>
+        <v>0.1161632307443113</v>
       </c>
       <c r="D72">
-        <v>1.0304492357437731E-2</v>
+        <v>5.4796185973081347E-3</v>
       </c>
       <c r="E72">
-        <v>0.1164502732844284</v>
+        <v>0.1253928633367217</v>
       </c>
       <c r="F72">
-        <v>6.6480467017351828</v>
+        <v>7.7980440752989457</v>
       </c>
       <c r="K72">
-        <v>8.1212209034102472</v>
+        <v>4.8123855781441369</v>
       </c>
       <c r="L72">
-        <v>8.7207196699513343</v>
+        <v>4.2580439503523504</v>
       </c>
       <c r="M72">
-        <v>8.3081654626012291</v>
+        <v>4.8340885865099921</v>
       </c>
       <c r="N72">
-        <v>4.9780799314810428E-2</v>
+        <v>3.2752929612992951E-4</v>
       </c>
       <c r="O72">
-        <v>6.2004743699448318E-3</v>
+        <v>1.4563038847895361E-5</v>
       </c>
       <c r="P72">
-        <v>4.5907348926449307E-2</v>
+        <v>9.0063322206944182E-3</v>
       </c>
       <c r="Q72">
-        <v>4.5070360135276034E-3</v>
+        <v>8.7046133716967601E-3</v>
       </c>
       <c r="R72">
-        <v>1.1453000998892569E-3</v>
+        <v>2.7740516229015038E-3</v>
       </c>
       <c r="S72">
-        <v>2.3423827239306371E-6</v>
+        <v>1.2428298868551619E-4</v>
       </c>
       <c r="T72">
-        <v>2.42940472891441E-2</v>
+        <v>6.6559128981531291E-3</v>
       </c>
       <c r="U72">
-        <v>7.3096525907861724E-3</v>
+        <v>1.554526935630817E-3</v>
       </c>
       <c r="V72">
-        <v>64.16765635305191</v>
+        <v>11.124312829292879</v>
       </c>
       <c r="W72">
-        <v>5.6521860812501761E-4</v>
-      </c>
-      <c r="X72">
-        <v>9.3848546323871727E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>71</v>
-      </c>
+        <v>-4.747320083472772</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B73">
-        <v>3.2123405306087372E-6</v>
+        <v>6.0504673542617686E-6</v>
       </c>
       <c r="C73">
-        <v>0.1148162846220685</v>
+        <v>0.1199799070252424</v>
       </c>
       <c r="D73">
-        <v>9.5376264060567893E-3</v>
+        <v>4.3596752726017098E-3</v>
       </c>
       <c r="E73">
-        <v>0.1181833848102425</v>
+        <v>0.1270483864914804</v>
       </c>
       <c r="F73">
-        <v>7.1480467017351828</v>
+        <v>9.2980440752989466</v>
       </c>
       <c r="K73">
-        <v>8.1133102453215802</v>
+        <v>4.8218521468574833</v>
       </c>
       <c r="L73">
-        <v>8.7312176742413907</v>
+        <v>4.2481329170487427</v>
       </c>
       <c r="M73">
-        <v>8.2927570401838544</v>
+        <v>4.8383341444330297</v>
       </c>
       <c r="N73">
-        <v>5.1283569140495429E-2</v>
+        <v>3.3832123603620641E-4</v>
       </c>
       <c r="O73">
-        <v>5.8523737268285888E-3</v>
+        <v>1.1572754830196751E-5</v>
       </c>
       <c r="P73">
-        <v>4.73349459234466E-2</v>
+        <v>9.0167363189357138E-3</v>
       </c>
       <c r="Q73">
-        <v>4.2220813000132442E-3</v>
+        <v>8.7031132918968315E-3</v>
       </c>
       <c r="R73">
-        <v>1.184712434963923E-3</v>
+        <v>2.8654229551158469E-3</v>
       </c>
       <c r="S73">
-        <v>2.4854524208765249E-6</v>
+        <v>9.9775398035275732E-5</v>
       </c>
       <c r="T73">
-        <v>2.4879716071846081E-2</v>
+        <v>6.831822758929758E-3</v>
       </c>
       <c r="U73">
-        <v>6.890660982950176E-3</v>
+        <v>1.351132793271876E-3</v>
       </c>
       <c r="V73">
-        <v>64.617342390261101</v>
+        <v>11.232735172865651</v>
       </c>
       <c r="W73">
-        <v>5.8492344387870104E-4</v>
-      </c>
-      <c r="X73">
-        <v>9.3793171717251066E-7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>72</v>
-      </c>
+        <v>-4.653327864120719</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B74">
-        <v>3.1585630864599769E-6</v>
+        <v>5.9600169414353191E-6</v>
       </c>
       <c r="C74">
-        <v>0.1185762367012117</v>
+        <v>0.1241092010164082</v>
       </c>
       <c r="D74">
-        <v>1.000753721198107E-2</v>
+        <v>4.5797746350737679E-3</v>
       </c>
       <c r="E74">
-        <v>0.122097741552896</v>
+        <v>0.13153574864900591</v>
       </c>
       <c r="F74">
-        <v>7.1480467017351828</v>
+        <v>9.2980440752989466</v>
       </c>
       <c r="K74">
-        <v>8.1054144140519586</v>
+        <v>4.831735335638581</v>
       </c>
       <c r="L74">
-        <v>8.7148212807352134</v>
+        <v>4.2498937213064876</v>
       </c>
       <c r="M74">
-        <v>8.2869785336038255</v>
+        <v>4.8485529643087064</v>
       </c>
       <c r="N74">
-        <v>5.2906111833840683E-2</v>
+        <v>3.4999082465070683E-4</v>
       </c>
       <c r="O74">
-        <v>6.0611024313968476E-3</v>
+        <v>1.2120370864922881E-5</v>
       </c>
       <c r="P74">
-        <v>4.8874691088569219E-2</v>
+        <v>9.0279371413299597E-3</v>
       </c>
       <c r="Q74">
-        <v>4.4275131538241766E-3</v>
+        <v>8.7062644188264683E-3</v>
       </c>
       <c r="R74">
-        <v>1.2269348271976041E-3</v>
+        <v>2.9641960821544392E-3</v>
       </c>
       <c r="S74">
-        <v>2.6648946324602541E-6</v>
+        <v>1.052711811965954E-4</v>
       </c>
       <c r="T74">
-        <v>2.5522182325020942E-2</v>
+        <v>7.0275616862746837E-3</v>
       </c>
       <c r="U74">
-        <v>7.1200392972460306E-3</v>
+        <v>1.4083729302308411E-3</v>
       </c>
       <c r="V74">
-        <v>65.098733187568683</v>
+        <v>11.34917322701083</v>
       </c>
       <c r="W74">
-        <v>6.0603373659582737E-4</v>
-      </c>
-      <c r="X74">
-        <v>9.3737900898363712E-7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>73</v>
-      </c>
+        <v>-4.5556784563171817</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B75">
-        <v>3.1013909420714549E-6</v>
+        <v>5.8632810874277694E-6</v>
       </c>
       <c r="C75">
-        <v>0.1225972996452573</v>
+        <v>0.12853621680830951</v>
       </c>
       <c r="D75">
-        <v>1.052547220077649E-2</v>
+        <v>4.8228294911025352E-3</v>
       </c>
       <c r="E75">
-        <v>0.1262829337061421</v>
+        <v>0.13634657341236009</v>
       </c>
       <c r="F75">
-        <v>7.1480467017351828</v>
+        <v>9.2980440752989466</v>
       </c>
       <c r="K75">
-        <v>8.0973708967332136</v>
+        <v>4.8419408965625452</v>
       </c>
       <c r="L75">
-        <v>8.7012530007691282</v>
+        <v>4.2516532173984993</v>
       </c>
       <c r="M75">
-        <v>8.2833928004366193</v>
+        <v>4.8591286115599424</v>
       </c>
       <c r="N75">
-        <v>5.4641112182079343E-2</v>
+        <v>3.6250454516129142E-4</v>
       </c>
       <c r="O75">
-        <v>6.2989986762708424E-3</v>
+        <v>1.267182387013484E-5</v>
       </c>
       <c r="P75">
-        <v>5.0520882863930153E-2</v>
+        <v>9.0398509458671263E-3</v>
       </c>
       <c r="Q75">
-        <v>4.649213124054123E-3</v>
+        <v>8.7094572653146889E-3</v>
       </c>
       <c r="R75">
-        <v>1.27227815803335E-3</v>
+        <v>3.0700821895973218E-3</v>
       </c>
       <c r="S75">
-        <v>2.7986621809905779E-6</v>
+        <v>1.107481075963438E-4</v>
       </c>
       <c r="T75">
-        <v>2.620374317790149E-2</v>
+        <v>7.2356797883503816E-3</v>
       </c>
       <c r="U75">
-        <v>7.3786734526153164E-3</v>
+        <v>1.470708395135414E-3</v>
       </c>
       <c r="V75">
-        <v>65.616082654555512</v>
+        <v>11.474266768865309</v>
       </c>
       <c r="W75">
-        <v>6.2870475483184742E-4</v>
-      </c>
-      <c r="X75">
-        <v>9.368159627713251E-7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>74</v>
-      </c>
+        <v>-4.4547682198821477</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B76">
-        <v>3.040509011937237E-6</v>
+        <v>5.7596030855873902E-6</v>
       </c>
       <c r="C76">
-        <v>0.12690775454696809</v>
+        <v>0.13329442401281741</v>
       </c>
       <c r="D76">
-        <v>1.1098998232288951E-2</v>
+        <v>5.0925574080148252E-3</v>
       </c>
       <c r="E76">
-        <v>0.1307678072704096</v>
+        <v>0.1415163218765409</v>
       </c>
       <c r="F76">
-        <v>7.1480467017351828</v>
+        <v>9.2980440752989466</v>
       </c>
       <c r="K76">
-        <v>8.0891029571720203</v>
+        <v>4.8524864366334004</v>
       </c>
       <c r="L76">
-        <v>8.6870268520045251</v>
+        <v>4.2535919490959042</v>
       </c>
       <c r="M76">
-        <v>8.2798002920662288</v>
+        <v>4.8700467208976841</v>
       </c>
       <c r="N76">
-        <v>5.6500424239995052E-2</v>
+        <v>3.759596498263359E-4</v>
       </c>
       <c r="O76">
-        <v>6.5609095895390506E-3</v>
+        <v>1.328097158371266E-5</v>
       </c>
       <c r="P76">
-        <v>5.2285177853925377E-2</v>
+        <v>9.0525583951191445E-3</v>
       </c>
       <c r="Q76">
-        <v>4.8939366949411651E-3</v>
+        <v>8.7128938220320407E-3</v>
       </c>
       <c r="R76">
-        <v>1.32110429248921E-3</v>
+        <v>3.183902731212745E-3</v>
       </c>
       <c r="S76">
-        <v>2.9461655217223391E-6</v>
+        <v>1.1682001287936849E-4</v>
       </c>
       <c r="T76">
-        <v>2.692778432118173E-2</v>
+        <v>7.4574094573201877E-3</v>
       </c>
       <c r="U76">
-        <v>7.6618926093959139E-3</v>
+        <v>1.538854837605739E-3</v>
       </c>
       <c r="V76">
-        <v>66.172545250498047</v>
+        <v>11.608755147009701</v>
       </c>
       <c r="W76">
-        <v>6.5311704650609546E-4</v>
-      </c>
-      <c r="X76">
-        <v>9.3623720700204157E-7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>75</v>
-      </c>
+        <v>-4.3503745852410276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B77">
-        <v>2.974857664807204E-6</v>
+        <v>5.647252840791084E-6</v>
       </c>
       <c r="C77">
-        <v>0.1315401047995553</v>
+        <v>0.13842249867700951</v>
       </c>
       <c r="D77">
-        <v>1.1739776710314891E-2</v>
+        <v>5.3943560418882354E-3</v>
       </c>
       <c r="E77">
-        <v>0.13558433248976651</v>
+        <v>0.1470840885153388</v>
       </c>
       <c r="F77">
-        <v>7.1469414496964214</v>
+        <v>9.2969366475099218</v>
       </c>
       <c r="K77">
-        <v>8.0805988437326537</v>
+        <v>4.8633891041562398</v>
       </c>
       <c r="L77">
-        <v>8.6720000383146676</v>
+        <v>4.2557419047323943</v>
       </c>
       <c r="M77">
-        <v>8.276218520944596</v>
+        <v>4.881317264427131</v>
       </c>
       <c r="N77">
-        <v>5.8498004826013292E-2</v>
+        <v>3.9046679695604078E-4</v>
       </c>
       <c r="O77">
-        <v>6.8516123144887796E-3</v>
+        <v>1.395836316674722E-5</v>
       </c>
       <c r="P77">
-        <v>5.4180827500284759E-2</v>
+        <v>9.0661449780426277E-3</v>
       </c>
       <c r="Q77">
-        <v>5.1663532384581467E-3</v>
+        <v>8.716613088181252E-3</v>
       </c>
       <c r="R77">
-        <v>1.3738306175679091E-3</v>
+        <v>3.3065860399460801E-3</v>
       </c>
       <c r="S77">
-        <v>3.1100126254664058E-6</v>
+        <v>1.23608039863166E-4</v>
       </c>
       <c r="T77">
-        <v>2.769841998965317E-2</v>
+        <v>7.6941516421087661E-3</v>
       </c>
       <c r="U77">
-        <v>7.9746669210198576E-3</v>
+        <v>1.6138353513489489E-3</v>
       </c>
       <c r="V77">
-        <v>66.772025684444245</v>
+        <v>11.753527409651021</v>
       </c>
       <c r="W77">
-        <v>6.7947966580029974E-4</v>
-      </c>
-      <c r="X77">
-        <v>9.356419190612857E-7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>76</v>
-      </c>
+        <v>-4.2422657400894224</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B78">
-        <v>2.9054514908914928E-6</v>
+        <v>5.5273265805375041E-6</v>
       </c>
       <c r="C78">
-        <v>0.13653178513660699</v>
+        <v>0.14396533795347291</v>
       </c>
       <c r="D78">
-        <v>1.245440873936879E-2</v>
+        <v>5.732252002480568E-3</v>
       </c>
       <c r="E78">
-        <v>0.14077242448394711</v>
+        <v>0.15309982809387671</v>
       </c>
       <c r="F78">
-        <v>7.1469151474511303</v>
+        <v>9.2969102000953718</v>
       </c>
       <c r="K78">
-        <v>8.0718444605418824</v>
+        <v>4.8746669184836868</v>
       </c>
       <c r="L78">
-        <v>8.6562718821734101</v>
+        <v>4.2581224833438176</v>
       </c>
       <c r="M78">
-        <v>8.2726671938231036</v>
+        <v>4.8929610618431667</v>
       </c>
       <c r="N78">
-        <v>6.0649937847326807E-2</v>
+        <v>4.0615464836392813E-4</v>
       </c>
       <c r="O78">
-        <v>7.1739715484619984E-3</v>
+        <v>1.4710983049925789E-5</v>
       </c>
       <c r="P78">
-        <v>5.6223097261194198E-2</v>
+        <v>9.0807088067868524E-3</v>
       </c>
       <c r="Q78">
-        <v>5.4691295418383802E-3</v>
+        <v>8.7206529481503262E-3</v>
       </c>
       <c r="R78">
-        <v>1.430943976107178E-3</v>
+        <v>3.4392101232828681E-3</v>
       </c>
       <c r="S78">
-        <v>3.2911356802919451E-6</v>
+        <v>1.3119900570157E-4</v>
       </c>
       <c r="T78">
-        <v>2.8520243034179559E-2</v>
+        <v>7.9474981542237595E-3</v>
       </c>
       <c r="U78">
-        <v>8.3192196619692529E-3</v>
+        <v>1.696359580309046E-3</v>
       </c>
       <c r="V78">
-        <v>67.41863037274824</v>
+        <v>11.90955554822321</v>
       </c>
       <c r="W78">
-        <v>7.0803519566890033E-4</v>
-      </c>
-      <c r="X78">
-        <v>9.3502911223793186E-7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>77</v>
-      </c>
+        <v>-4.1301849267237287</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B79">
-        <v>2.8311580034906772E-6</v>
+        <v>5.3978858155481459E-6</v>
       </c>
       <c r="C79">
-        <v>0.14192645367561729</v>
+        <v>0.14997547212525519</v>
       </c>
       <c r="D79">
-        <v>1.325913374825655E-2</v>
+        <v>6.1140629242392086E-3</v>
       </c>
       <c r="E79">
-        <v>0.14637510052389441</v>
+        <v>0.1596164514550282</v>
       </c>
       <c r="F79">
-        <v>7.146887909706388</v>
+        <v>9.2968828024737</v>
       </c>
       <c r="K79">
-        <v>8.0628199407470262</v>
+        <v>4.886339423025869</v>
       </c>
       <c r="L79">
-        <v>8.6396617094895625</v>
+        <v>4.2607818309737411</v>
       </c>
       <c r="M79">
-        <v>8.269143802170591</v>
+        <v>4.9049917644131531</v>
       </c>
       <c r="N79">
-        <v>6.297497986032094E-2</v>
+        <v>4.2317393816018912E-4</v>
       </c>
       <c r="O79">
-        <v>7.5345880364489594E-3</v>
+        <v>1.5554872751532089E-5</v>
       </c>
       <c r="P79">
-        <v>5.8429791509861863E-2</v>
+        <v>9.0963634093362677E-3</v>
       </c>
       <c r="Q79">
-        <v>5.808799885104487E-3</v>
+        <v>8.7250667086499444E-3</v>
       </c>
       <c r="R79">
-        <v>1.493015838734434E-3</v>
+        <v>3.583036693612489E-3</v>
       </c>
       <c r="S79">
-        <v>3.493787194068507E-6</v>
+        <v>1.3976847169964101E-4</v>
       </c>
       <c r="T79">
-        <v>2.9398548398188701E-2</v>
+        <v>8.2192867878722251E-3</v>
       </c>
       <c r="U79">
-        <v>8.7021183006185786E-3</v>
+        <v>1.787839300754316E-3</v>
       </c>
       <c r="V79">
-        <v>68.117434848866409</v>
+        <v>12.07801530328277</v>
       </c>
       <c r="W79">
-        <v>7.3907013690186938E-4</v>
-      </c>
-      <c r="X79">
-        <v>9.3439739585229183E-7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>78</v>
-      </c>
+        <v>-4.0138462112586879</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>2.7514939196350861E-6</v>
+        <v>5.2578145284596416E-6</v>
       </c>
       <c r="C80">
-        <v>0.14777496821777009</v>
+        <v>0.15651462708893771</v>
       </c>
       <c r="D80">
-        <v>1.4171455679875541E-2</v>
+        <v>6.5487145783316358E-3</v>
       </c>
       <c r="E80">
-        <v>0.15244334977759061</v>
+        <v>0.16669721063734341</v>
       </c>
       <c r="F80">
-        <v>7.1468596470892232</v>
+        <v>9.2968543630524838</v>
       </c>
       <c r="K80">
-        <v>8.0535078797968467</v>
+        <v>4.8984268879272044</v>
       </c>
       <c r="L80">
-        <v>8.6220700089583495</v>
+        <v>4.2637708850613114</v>
       </c>
       <c r="M80">
-        <v>8.2656595487813309</v>
+        <v>4.9174231777242676</v>
       </c>
       <c r="N80">
-        <v>6.5494997670496949E-2</v>
+        <v>4.4170207749694629E-4</v>
       </c>
       <c r="O80">
-        <v>7.9406303471539885E-3</v>
+        <v>1.6507413806780159E-5</v>
       </c>
       <c r="P80">
-        <v>6.082165476553264E-2</v>
+        <v>9.1132405320947379E-3</v>
       </c>
       <c r="Q80">
-        <v>6.1923757233040633E-3</v>
+        <v>8.7299162424308279E-3</v>
       </c>
       <c r="R80">
-        <v>1.560721386531723E-3</v>
+        <v>3.739548885517619E-3</v>
       </c>
       <c r="S80">
-        <v>3.7219286577619548E-6</v>
+        <v>1.495145163141427E-4</v>
       </c>
       <c r="T80">
-        <v>3.0339295220805518E-2</v>
+        <v>8.5116253100139486E-3</v>
       </c>
       <c r="U80">
-        <v>9.130114968486789E-3</v>
+        <v>1.8898180234926459E-3</v>
       </c>
       <c r="V80">
-        <v>68.874455177658859</v>
+        <v>12.26029663269888</v>
       </c>
       <c r="W80">
-        <v>7.7292160501871035E-4</v>
-      </c>
-      <c r="X80">
-        <v>9.3374555158577941E-7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>79</v>
-      </c>
+        <v>-3.892933499424089</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B81">
-        <v>2.665925244477878E-6</v>
+        <v>5.1058314802185829E-6</v>
       </c>
       <c r="C81">
-        <v>0.1541370402433842</v>
+        <v>0.16365586101801419</v>
       </c>
       <c r="D81">
-        <v>1.5213531008261489E-2</v>
+        <v>7.0476693361077704E-3</v>
       </c>
       <c r="E81">
-        <v>0.15903670963440081</v>
+        <v>0.17441609704992281</v>
       </c>
       <c r="F81">
-        <v>7.1468302568464397</v>
+        <v>9.296824776402616</v>
       </c>
       <c r="K81">
-        <v>8.0438845326816306</v>
+        <v>4.9109506222021793</v>
       </c>
       <c r="L81">
-        <v>8.6033775910333983</v>
+        <v>4.2671547829492837</v>
       </c>
       <c r="M81">
-        <v>8.2622253920934057</v>
+        <v>4.9302749203650311</v>
       </c>
       <c r="N81">
-        <v>6.8235681828751379E-2</v>
+        <v>4.6194944243457321E-4</v>
       </c>
       <c r="O81">
-        <v>8.4011188380850969E-3</v>
+        <v>1.7591009701531731E-5</v>
       </c>
       <c r="P81">
-        <v>6.3423049005638776E-2</v>
+        <v>9.1314940696977809E-3</v>
       </c>
       <c r="Q81">
-        <v>6.6287136811254404E-3</v>
+        <v>8.7352768372553902E-3</v>
       </c>
       <c r="R81">
-        <v>1.634864217859055E-3</v>
+        <v>3.910502903098737E-3</v>
       </c>
       <c r="S81">
-        <v>3.9807316888909834E-6</v>
+        <v>1.6069196841969141E-4</v>
       </c>
       <c r="T81">
-        <v>3.1349256185201652E-2</v>
+        <v>8.8269494665149644E-3</v>
       </c>
       <c r="U81">
-        <v>9.6115812744628753E-3</v>
+        <v>2.0042133306613459E-3</v>
       </c>
       <c r="V81">
-        <v>69.696872803394356</v>
+        <v>12.45805583698885</v>
       </c>
       <c r="W81">
-        <v>8.0999216378794332E-4</v>
-      </c>
-      <c r="X81">
-        <v>9.3307191728771411E-7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>80</v>
-      </c>
+        <v>-3.7670924630678608</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B82">
-        <v>2.5738665151258249E-6</v>
+        <v>4.9404642211865472E-6</v>
       </c>
       <c r="C82">
-        <v>0.16108321570514031</v>
+        <v>0.17148627060210961</v>
       </c>
       <c r="D82">
-        <v>1.641374955611169E-2</v>
+        <v>7.6258756517412693E-3</v>
       </c>
       <c r="E82">
-        <v>0.16622509838638561</v>
+        <v>0.18286013524544059</v>
       </c>
       <c r="F82">
-        <v>7.1467996200657167</v>
+        <v>9.2967939203564942</v>
       </c>
       <c r="K82">
-        <v>8.0339297102026919</v>
+        <v>4.923933107556107</v>
       </c>
       <c r="L82">
-        <v>8.5834504711267972</v>
+        <v>4.2710158968129548</v>
       </c>
       <c r="M82">
-        <v>8.2588583593785536</v>
+        <v>4.9435597628682606</v>
       </c>
       <c r="N82">
-        <v>7.1227409978284695E-2</v>
+        <v>4.8416736407122529E-4</v>
       </c>
       <c r="O82">
-        <v>8.9275790318284233E-3</v>
+        <v>1.8834321617651208E-5</v>
       </c>
       <c r="P82">
-        <v>6.6262765771864449E-2</v>
+        <v>9.1513049313199004E-3</v>
       </c>
       <c r="Q82">
-        <v>7.1291291727795829E-3</v>
+        <v>8.7412435782543135E-3</v>
       </c>
       <c r="R82">
-        <v>1.716408392167563E-3</v>
+        <v>4.0979934498326896E-3</v>
       </c>
       <c r="S82">
-        <v>4.276796306106241E-6</v>
+        <v>1.736334931070094E-4</v>
       </c>
       <c r="T82">
-        <v>3.2436139930738593E-2</v>
+        <v>9.1680862733076463E-3</v>
       </c>
       <c r="U82">
-        <v>1.01570338954268E-2</v>
+        <v>2.1334360579661339E-3</v>
       </c>
       <c r="V82">
-        <v>70.593333656547813</v>
+        <v>12.67328443910211</v>
       </c>
       <c r="W82">
-        <v>8.5076352917632183E-4</v>
-      </c>
-      <c r="X82">
-        <v>9.3237507971418841E-7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>81</v>
-      </c>
+        <v>-3.6359247502575158</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B83">
-        <v>2.4746838964429299E-6</v>
+        <v>4.7600212347276969E-6</v>
       </c>
       <c r="C83">
-        <v>0.16869739813403661</v>
+        <v>0.1801105019152868</v>
       </c>
       <c r="D83">
-        <v>1.7808969571860019E-2</v>
+        <v>8.3031681808112354E-3</v>
       </c>
       <c r="E83">
-        <v>0.17409113344322219</v>
+        <v>0.19213226983744761</v>
       </c>
       <c r="F83">
-        <v>7.1467675981429739</v>
+        <v>9.2967616523134602</v>
       </c>
       <c r="K83">
-        <v>8.0236164612507839</v>
+        <v>4.9373971860419106</v>
       </c>
       <c r="L83">
-        <v>8.562129049953688</v>
+        <v>4.2754614778733533</v>
       </c>
       <c r="M83">
-        <v>8.2555770257110108</v>
+        <v>4.9572907227293008</v>
       </c>
       <c r="N83">
-        <v>7.4506348449150814E-2</v>
+        <v>5.0865857683193979E-4</v>
       </c>
       <c r="O83">
-        <v>9.5348952730351169E-3</v>
+        <v>2.0275078246296501E-5</v>
       </c>
       <c r="P83">
-        <v>6.9375062434974183E-2</v>
+        <v>9.172887107797038E-3</v>
       </c>
       <c r="Q83">
-        <v>7.7082774987151303E-3</v>
+        <v>8.7479355207316558E-3</v>
       </c>
       <c r="R83">
-        <v>1.806520581423429E-3</v>
+        <v>4.3045387107129886E-3</v>
       </c>
       <c r="S83">
-        <v>4.6187295718292522E-6</v>
+        <v>1.887806847473131E-4</v>
       </c>
       <c r="T83">
-        <v>3.36087244589129E-2</v>
+        <v>9.5383310214835152E-3</v>
       </c>
       <c r="U83">
-        <v>1.0779789227242639E-2</v>
+        <v>2.2805565196179849E-3</v>
       </c>
       <c r="V83">
-        <v>71.574337232234996</v>
+        <v>12.90840142638584</v>
       </c>
       <c r="W83">
-        <v>8.9581990466061829E-4</v>
-      </c>
-      <c r="X83">
-        <v>9.3165315228755499E-7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>82</v>
-      </c>
+        <v>-3.4989820584880529</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B84">
-        <v>2.367705033564789E-6</v>
+        <v>4.5625642000533071E-6</v>
       </c>
       <c r="C84">
-        <v>0.17708008860971311</v>
+        <v>0.18965535378942441</v>
       </c>
       <c r="D84">
-        <v>1.9447723914973791E-2</v>
+        <v>9.1063833501348404E-3</v>
       </c>
       <c r="E84">
-        <v>0.18273309201732049</v>
+        <v>0.2023550283049568</v>
       </c>
       <c r="F84">
-        <v>7.1467340282360006</v>
+        <v>9.2967278044727699</v>
       </c>
       <c r="K84">
-        <v>8.0129126207585593</v>
+        <v>4.9513664026011446</v>
       </c>
       <c r="L84">
-        <v>8.539219420582203</v>
+        <v>4.2806338672549513</v>
       </c>
       <c r="M84">
-        <v>8.2523982708396364</v>
+        <v>4.9714827693204997</v>
       </c>
       <c r="N84">
-        <v>7.8115873625601684E-2</v>
+        <v>5.357909934200311E-4</v>
       </c>
       <c r="O84">
-        <v>1.024254678411919E-2</v>
+        <v>2.1964011735306E-5</v>
       </c>
       <c r="P84">
-        <v>7.2800994931433022E-2</v>
+        <v>9.19649552930067E-3</v>
       </c>
       <c r="Q84">
-        <v>8.3854186733309452E-3</v>
+        <v>8.7555010084844325E-3</v>
       </c>
       <c r="R84">
-        <v>1.9066262398596289E-3</v>
+        <v>4.5331919343777486E-3</v>
       </c>
       <c r="S84">
-        <v>5.0179733305207894E-6</v>
+        <v>2.0673173597722779E-4</v>
       </c>
       <c r="T84">
-        <v>3.4876998638450139E-2</v>
+        <v>9.9415407160316008E-3</v>
       </c>
       <c r="U84">
-        <v>1.149687420213023E-2</v>
+        <v>2.4495420897272949E-3</v>
       </c>
       <c r="V84">
-        <v>72.652751295052013</v>
+        <v>13.16637892991335</v>
       </c>
       <c r="W84">
-        <v>9.4587306115918879E-4</v>
-      </c>
-      <c r="X84">
-        <v>9.3090388345309916E-7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>83</v>
-      </c>
+        <v>-3.3557553777627258</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B85">
-        <v>2.252240820239361E-6</v>
+        <v>4.345885516683164E-6</v>
       </c>
       <c r="C85">
-        <v>0.18635258065058011</v>
+        <v>0.20027588146232381</v>
       </c>
       <c r="D85">
-        <v>2.1394881980583941E-2</v>
+        <v>1.007264286572007E-2</v>
       </c>
       <c r="E85">
-        <v>0.19226873496240909</v>
+        <v>0.21367521377202159</v>
       </c>
       <c r="F85">
-        <v>7.1466987173426713</v>
+        <v>9.2966921776083105</v>
       </c>
       <c r="K85">
-        <v>8.0017842522266704</v>
+        <v>4.9658642020085617</v>
       </c>
       <c r="L85">
-        <v>8.5145043738524855</v>
+        <v>4.286724792204514</v>
       </c>
       <c r="M85">
-        <v>8.2493497355423742</v>
+        <v>4.9861471926511731</v>
       </c>
       <c r="N85">
-        <v>8.2108422263335951E-2</v>
+        <v>5.6601610998972081E-4</v>
       </c>
       <c r="O85">
-        <v>1.1076495790463331E-2</v>
+        <v>2.3970526056492569E-5</v>
       </c>
       <c r="P85">
-        <v>7.6590146476027271E-2</v>
+        <v>9.2224363834663304E-3</v>
       </c>
       <c r="Q85">
-        <v>9.1862239168637085E-3</v>
+        <v>8.7641290693087365E-3</v>
       </c>
       <c r="R85">
-        <v>2.01848554965546E-3</v>
+        <v>4.7876895931071913E-3</v>
       </c>
       <c r="S85">
-        <v>5.4898219914103766E-6</v>
+        <v>2.2831492237603931E-4</v>
       </c>
       <c r="T85">
-        <v>3.6252300075880733E-2</v>
+        <v>1.038224651757891E-2</v>
       </c>
       <c r="U85">
-        <v>1.233034749466669E-2</v>
+        <v>2.6456009665378139E-3</v>
       </c>
       <c r="V85">
-        <v>73.844510193298703</v>
+        <v>13.450916265773451</v>
       </c>
       <c r="W85">
-        <v>1.001804895722326E-3</v>
-      </c>
-      <c r="X85">
-        <v>9.3012489765586692E-7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>84</v>
-      </c>
+        <v>-3.2056633814532058</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B86">
-        <v>2.1276268426294809E-6</v>
+        <v>4.1075016415511766E-6</v>
       </c>
       <c r="C86">
-        <v>0.19666243681745471</v>
+        <v>0.21216358387461129</v>
       </c>
       <c r="D86">
-        <v>2.3738516698375439E-2</v>
+        <v>1.125460484503873E-2</v>
       </c>
       <c r="E86">
-        <v>0.20284030865465821</v>
+        <v>0.22626999031483591</v>
       </c>
       <c r="F86">
-        <v>7.1466614344712669</v>
+        <v>9.2966545328199359</v>
       </c>
       <c r="K86">
-        <v>7.9901946767237817</v>
+        <v>4.9809129969493036</v>
       </c>
       <c r="L86">
-        <v>8.4877386321509984</v>
+        <v>4.2939972177995838</v>
       </c>
       <c r="M86">
-        <v>8.2464668373083061</v>
+        <v>5.0012871706861866</v>
       </c>
       <c r="N86">
-        <v>8.6547917667890439E-2</v>
+        <v>5.9989395898554722E-4</v>
       </c>
       <c r="O86">
-        <v>1.2071851533317459E-2</v>
+        <v>2.6391795395617688E-5</v>
       </c>
       <c r="P86">
-        <v>8.0802891635974927E-2</v>
+        <v>9.2510805906011739E-3</v>
       </c>
       <c r="Q86">
-        <v>1.014546593658913E-2</v>
+        <v>8.7740730962336238E-3</v>
       </c>
       <c r="R86">
-        <v>2.144297782634461E-3</v>
+        <v>5.0726505100278851E-3</v>
       </c>
       <c r="S86">
-        <v>6.0551274201105274E-6</v>
+        <v>2.5470712532936181E-4</v>
       </c>
       <c r="T86">
-        <v>3.774742211220658E-2</v>
+        <v>1.086578686451898E-2</v>
       </c>
       <c r="U86">
-        <v>1.3309020934651059E-2</v>
+        <v>2.8756902447626769E-3</v>
       </c>
       <c r="V86">
-        <v>75.169547630029257</v>
+        <v>13.766685439345171</v>
       </c>
       <c r="W86">
-        <v>1.064714520744201E-3</v>
-      </c>
-      <c r="X86">
-        <v>9.2931362737066472E-7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>85</v>
-      </c>
+        <v>-3.0480395592518619</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B87">
-        <v>1.993297105027446E-6</v>
+        <v>3.8446841556698879E-6</v>
       </c>
       <c r="C87">
-        <v>0.20819069815872671</v>
+        <v>0.2255575158099162</v>
       </c>
       <c r="D87">
-        <v>2.6600119596575711E-2</v>
+        <v>1.272914403382938E-2</v>
       </c>
       <c r="E87">
-        <v>0.21462118833855509</v>
+        <v>0.24035490395059081</v>
       </c>
       <c r="F87">
-        <v>7.146621900124714</v>
+        <v>9.2966145804101625</v>
       </c>
       <c r="K87">
-        <v>7.9780943945437244</v>
+        <v>4.9965330892682287</v>
       </c>
       <c r="L87">
-        <v>8.4586415858969932</v>
+        <v>4.3028237420345308</v>
       </c>
       <c r="M87">
-        <v>8.2437851213246205</v>
+        <v>5.0169081413589058</v>
       </c>
       <c r="N87">
-        <v>9.1512988743528645E-2</v>
+        <v>6.3812743655820923E-4</v>
       </c>
       <c r="O87">
-        <v>1.327680487859802E-2</v>
+        <v>2.9368653330675039E-5</v>
       </c>
       <c r="P87">
-        <v>8.5513386682600653E-2</v>
+        <v>9.2828810902256774E-3</v>
       </c>
       <c r="Q87">
-        <v>1.1311030190997381E-2</v>
+        <v>8.7856649322461677E-3</v>
       </c>
       <c r="R87">
-        <v>2.2868472929820842E-3</v>
+        <v>5.3938467356744544E-3</v>
       </c>
       <c r="S87">
-        <v>6.7429939975428793E-6</v>
+        <v>2.876292215465429E-4</v>
       </c>
       <c r="T87">
-        <v>3.9376648857376947E-2</v>
+        <v>1.1398459972502731E-2</v>
       </c>
       <c r="U87">
-        <v>1.4470748152622981E-2</v>
+        <v>3.1492808964525441E-3</v>
       </c>
       <c r="V87">
-        <v>76.65303721998707</v>
+        <v>14.11968415098298</v>
       </c>
       <c r="W87">
-        <v>1.135995151165527E-3</v>
-      </c>
-      <c r="X87">
-        <v>9.2846660761806065E-7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>86</v>
-      </c>
+        <v>-2.8821118341686289</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B88">
-        <v>4.8551702713214439E-6</v>
+        <v>8.1340468108982536E-6</v>
       </c>
       <c r="C88">
-        <v>0.22116145377030891</v>
+        <v>0.24075954236535099</v>
       </c>
       <c r="D88">
-        <v>1.2734445952344719E-2</v>
+        <v>6.7324739641242796E-3</v>
       </c>
       <c r="E88">
-        <v>0.23198233038345739</v>
+        <v>0.26144065246338299</v>
       </c>
       <c r="F88">
-        <v>11.99662190012471</v>
+        <v>14.49661458041016</v>
       </c>
       <c r="K88">
-        <v>7.9654245972391688</v>
+        <v>5.0127407617754978</v>
       </c>
       <c r="L88">
-        <v>8.7623998388039919</v>
+        <v>4.2580860060833192</v>
       </c>
       <c r="M88">
-        <v>8.255481381771979</v>
+        <v>5.0375142589687876</v>
       </c>
       <c r="N88">
-        <v>9.7101287591023683E-2</v>
+        <v>6.816102067887474E-4</v>
       </c>
       <c r="O88">
-        <v>7.9906565161184488E-3</v>
+        <v>1.5214035903635131E-5</v>
       </c>
       <c r="P88">
-        <v>9.0813555003429455E-2</v>
+        <v>9.3183965300813569E-3</v>
       </c>
       <c r="Q88">
-        <v>5.8502599448763603E-3</v>
+        <v>8.7826628050571946E-3</v>
       </c>
       <c r="R88">
-        <v>2.449711885766695E-3</v>
+        <v>5.7585765581121611E-3</v>
       </c>
       <c r="S88">
-        <v>2.7740799396378501E-6</v>
+        <v>1.500879531039132E-4</v>
       </c>
       <c r="T88">
-        <v>4.1155641764859377E-2</v>
+        <v>1.198768704936346E-2</v>
       </c>
       <c r="U88">
-        <v>8.4930271503846806E-3</v>
+        <v>2.0696627067688629E-3</v>
       </c>
       <c r="V88">
-        <v>77.139735681872736</v>
+        <v>14.290699783552579</v>
       </c>
       <c r="W88">
-        <v>1.217439705108265E-3</v>
-      </c>
-      <c r="X88">
-        <v>9.2757972180674196E-7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>87</v>
-      </c>
+        <v>-2.7069800709994141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B89">
-        <v>4.6185741623792042E-6</v>
+        <v>7.7353286538744158E-6</v>
       </c>
       <c r="C89">
-        <v>0.23719430052553689</v>
+        <v>0.25876162455006069</v>
       </c>
       <c r="D89">
-        <v>1.4325169693198339E-2</v>
+        <v>7.6069252295720346E-3</v>
       </c>
       <c r="E89">
-        <v>0.24894168961058649</v>
+        <v>0.28129095637463603</v>
       </c>
       <c r="F89">
-        <v>11.99533535257901</v>
+        <v>14.49532491053986</v>
       </c>
       <c r="K89">
-        <v>7.9494753602873338</v>
+        <v>5.0299977650416414</v>
       </c>
       <c r="L89">
-        <v>8.6880073925164645</v>
+        <v>4.2637992407769456</v>
       </c>
       <c r="M89">
-        <v>8.2275504498150109</v>
+        <v>5.0537777281910348</v>
       </c>
       <c r="N89">
-        <v>0.1039559515198626</v>
+        <v>7.3287145070298693E-4</v>
       </c>
       <c r="O89">
-        <v>8.608595124993396E-3</v>
+        <v>1.7099502420621281E-5</v>
       </c>
       <c r="P89">
-        <v>9.7349193084856622E-2</v>
+        <v>9.3596068166216777E-3</v>
       </c>
       <c r="Q89">
-        <v>6.6080095543649122E-3</v>
+        <v>8.7996794616295951E-3</v>
       </c>
       <c r="R89">
-        <v>2.637937870830314E-3</v>
+        <v>6.189998758497412E-3</v>
       </c>
       <c r="S89">
-        <v>3.8560209462903506E-6</v>
+        <v>1.7229986434428779E-4</v>
       </c>
       <c r="T89">
-        <v>4.3668150581357437E-2</v>
+        <v>1.275061199879381E-2</v>
       </c>
       <c r="U89">
-        <v>9.1174270160890546E-3</v>
+        <v>2.2897533114361632E-3</v>
       </c>
       <c r="V89">
-        <v>77.714787207333529</v>
+        <v>14.49287062290462</v>
       </c>
       <c r="W89">
-        <v>1.311478272877158E-3</v>
-      </c>
-      <c r="X89">
-        <v>9.2646327522011339E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>88</v>
-      </c>
+        <v>-2.518847291958636</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B90">
-        <v>4.350192682126123E-6</v>
+        <v>7.2789636250719493E-6</v>
       </c>
       <c r="C90">
-        <v>0.25576672809489848</v>
+        <v>0.27969118282676819</v>
       </c>
       <c r="D90">
-        <v>1.634687187978209E-2</v>
+        <v>8.7281543484694479E-3</v>
       </c>
       <c r="E90">
-        <v>0.26851723509638248</v>
+        <v>0.30422544744857483</v>
       </c>
       <c r="F90">
-        <v>11.99529405309104</v>
+        <v>14.49528325823707</v>
       </c>
       <c r="K90">
-        <v>7.9339961159700776</v>
+        <v>5.047883850629324</v>
       </c>
       <c r="L90">
-        <v>8.655547913360758</v>
+        <v>4.2698693150293403</v>
       </c>
       <c r="M90">
-        <v>8.2237837952274084</v>
+        <v>5.0716555043228686</v>
       </c>
       <c r="N90">
-        <v>0.1119015645527683</v>
+        <v>7.9251911305985075E-4</v>
       </c>
       <c r="O90">
-        <v>9.5406895912508258E-3</v>
+        <v>1.9132774111120199E-5</v>
       </c>
       <c r="P90">
-        <v>0.10491095837906431</v>
+        <v>9.4062674295376861E-3</v>
       </c>
       <c r="Q90">
-        <v>7.4700562808128227E-3</v>
+        <v>8.8170471458502171E-3</v>
       </c>
       <c r="R90">
-        <v>2.857444691653983E-3</v>
+        <v>6.6914736663435054E-3</v>
       </c>
       <c r="S90">
-        <v>4.3291421961116668E-6</v>
+        <v>1.9713324455113721E-4</v>
       </c>
       <c r="T90">
-        <v>4.654737754512981E-2</v>
+        <v>1.3622350222740279E-2</v>
       </c>
       <c r="U90">
-        <v>1.005697010257736E-2</v>
+        <v>2.5620580977331301E-3</v>
       </c>
       <c r="V90">
-        <v>78.424825644410802</v>
+        <v>14.73336641374096</v>
       </c>
       <c r="W90">
-        <v>1.4211727572567849E-3</v>
-      </c>
-      <c r="X90">
-        <v>9.2537972811790552E-7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>89</v>
-      </c>
+        <v>-2.318864751101458</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B91">
-        <v>4.0429526730926762E-6</v>
+        <v>6.7513380691665766E-6</v>
       </c>
       <c r="C91">
-        <v>0.27753216956900001</v>
+        <v>0.30432418541570438</v>
       </c>
       <c r="D91">
-        <v>1.89962157800686E-2</v>
+        <v>1.021461769862028E-2</v>
       </c>
       <c r="E91">
-        <v>0.2913394830377764</v>
+        <v>0.33096967505060992</v>
       </c>
       <c r="F91">
-        <v>11.995249176462981</v>
+        <v>14.495237955633611</v>
       </c>
       <c r="K91">
-        <v>7.9175366158619092</v>
+        <v>5.0663811439686857</v>
       </c>
       <c r="L91">
-        <v>8.6184380221372301</v>
+        <v>4.2776178282672568</v>
       </c>
       <c r="M91">
-        <v>8.2201497611264323</v>
+        <v>5.0899489580546806</v>
       </c>
       <c r="N91">
-        <v>0.12120709864017901</v>
+        <v>8.6282696205518998E-4</v>
       </c>
       <c r="O91">
-        <v>1.073800371308985E-2</v>
+        <v>2.175773397244819E-5</v>
       </c>
       <c r="P91">
-        <v>0.11376922220617811</v>
+        <v>9.4598329098729093E-3</v>
       </c>
       <c r="Q91">
-        <v>8.5867051267042652E-3</v>
+        <v>8.8381618596615179E-3</v>
       </c>
       <c r="R91">
-        <v>3.11681883251379E-3</v>
+        <v>7.2818682501428122E-3</v>
       </c>
       <c r="S91">
-        <v>4.9466507239057396E-6</v>
+        <v>2.3000942309858461E-4</v>
       </c>
       <c r="T91">
-        <v>4.9864687312634583E-2</v>
+        <v>1.4627831325013659E-2</v>
       </c>
       <c r="U91">
-        <v>1.1254456799768759E-2</v>
+        <v>2.9077787820058782E-3</v>
       </c>
       <c r="V91">
-        <v>79.305507517490241</v>
+        <v>15.022338881529221</v>
       </c>
       <c r="W91">
-        <v>1.5507954185749379E-3</v>
-      </c>
-      <c r="X91">
-        <v>9.2422756311033378E-7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>90</v>
-      </c>
+        <v>-2.105374590478323</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B92">
-        <v>3.689560220923769E-6</v>
+        <v>6.1370056407923443E-6</v>
       </c>
       <c r="C92">
-        <v>0.30338576494789321</v>
+        <v>0.3337351421874129</v>
       </c>
       <c r="D92">
-        <v>2.259764674485263E-2</v>
+        <v>1.226921578227178E-2</v>
       </c>
       <c r="E92">
-        <v>0.31825501737001483</v>
+        <v>0.3624843156143665</v>
       </c>
       <c r="F92">
-        <v>11.99519996287472</v>
+        <v>14.495188218664991</v>
       </c>
       <c r="K92">
-        <v>7.8999217562352113</v>
+        <v>5.0854367540573122</v>
       </c>
       <c r="L92">
-        <v>8.5753390843650585</v>
+        <v>4.2878484603504816</v>
       </c>
       <c r="M92">
-        <v>8.2168606107231454</v>
+        <v>5.1085349420838488</v>
       </c>
       <c r="N92">
-        <v>0.13225400813288801</v>
+        <v>9.4693388486346436E-4</v>
       </c>
       <c r="O92">
-        <v>1.233096685246241E-2</v>
+        <v>2.527443822219246E-5</v>
       </c>
       <c r="P92">
-        <v>0.1242874739141254</v>
+        <v>9.5220000148940505E-3</v>
       </c>
       <c r="Q92">
-        <v>1.008511677339252E-2</v>
+        <v>8.8642635821106555E-3</v>
       </c>
       <c r="R92">
-        <v>3.4280060506927789E-3</v>
+        <v>7.9870541328472353E-3</v>
       </c>
       <c r="S92">
-        <v>5.7749500312017009E-6</v>
+        <v>2.7540733393811368E-4</v>
       </c>
       <c r="T92">
-        <v>5.3725710363921167E-2</v>
+        <v>1.5799836579314441E-2</v>
       </c>
       <c r="U92">
-        <v>1.2833471698520921E-2</v>
+        <v>3.3605933977517029E-3</v>
       </c>
       <c r="V92">
-        <v>80.409949983979104</v>
+        <v>15.37467882893988</v>
       </c>
       <c r="W92">
-        <v>1.7063188257679951E-3</v>
-      </c>
-      <c r="X92">
-        <v>9.2299452293646494E-7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>91</v>
-      </c>
+        <v>-1.8763704744815719</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B93">
-        <v>3.2822496034922051E-6</v>
+        <v>5.4176221796970934E-6</v>
       </c>
       <c r="C93">
-        <v>0.33458444474823101</v>
+        <v>0.36945357845465082</v>
       </c>
       <c r="D93">
-        <v>2.7725111519258511E-2</v>
+        <v>1.527041089893607E-2</v>
       </c>
       <c r="E93">
-        <v>0.35042275794075989</v>
+        <v>0.40005793080202551</v>
       </c>
       <c r="F93">
-        <v>11.99514538901828</v>
+        <v>14.495132988100959</v>
       </c>
       <c r="K93">
-        <v>7.8809556722606224</v>
+        <v>5.104944378179896</v>
       </c>
       <c r="L93">
-        <v>8.5242517307698442</v>
+        <v>4.3020163900999568</v>
       </c>
       <c r="M93">
-        <v>8.2140749474311701</v>
+        <v>5.1272303472339829</v>
       </c>
       <c r="N93">
-        <v>0.14557879049737971</v>
+        <v>1.0493404900458281E-3</v>
       </c>
       <c r="O93">
-        <v>1.454827913146948E-2</v>
+        <v>3.0242099638855641E-5</v>
       </c>
       <c r="P93">
-        <v>0.13697662470754021</v>
+        <v>9.5950818407588723E-3</v>
       </c>
       <c r="Q93">
-        <v>1.218992702993559E-2</v>
+        <v>8.8972129078557713E-3</v>
       </c>
       <c r="R93">
-        <v>3.8082539507662879E-3</v>
+        <v>8.8439037771704723E-3</v>
       </c>
       <c r="S93">
-        <v>6.9403668094011547E-6</v>
+        <v>3.4170487910475321E-4</v>
       </c>
       <c r="T93">
-        <v>5.8269292437854538E-2</v>
+        <v>1.71819747105992E-2</v>
       </c>
       <c r="U93">
-        <v>1.5004424200924999E-2</v>
+        <v>3.9776236271817367E-3</v>
       </c>
       <c r="V93">
-        <v>81.821004739361484</v>
+        <v>15.813328892108389</v>
       </c>
       <c r="W93">
-        <v>1.896367384064268E-3</v>
-      </c>
-      <c r="X93">
-        <v>9.2166689705824356E-7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>92</v>
-      </c>
+        <v>-1.629315187644387</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B94">
-        <v>2.8148124541198592E-6</v>
+        <v>4.573821655459609E-6</v>
       </c>
       <c r="C94">
-        <v>0.37294186140185259</v>
+        <v>0.4137264743991152</v>
       </c>
       <c r="D94">
-        <v>3.5466218350081111E-2</v>
+        <v>1.9999517207367729E-2</v>
       </c>
       <c r="E94">
-        <v>0.38947598115980647</v>
+        <v>0.44546102837850998</v>
       </c>
       <c r="F94">
-        <v>11.995084033246039</v>
+        <v>14.49507078680208</v>
       </c>
       <c r="K94">
-        <v>7.8603380676640002</v>
+        <v>5.1247111766086659</v>
       </c>
       <c r="L94">
-        <v>8.4621818865221883</v>
+        <v>4.3229323554366843</v>
       </c>
       <c r="M94">
-        <v>8.2119366652793531</v>
+        <v>5.1457610592645624</v>
       </c>
       <c r="N94">
-        <v>0.16195760441811849</v>
+        <v>1.1767277888467E-3</v>
       </c>
       <c r="O94">
-        <v>1.781830898441859E-2</v>
+        <v>3.7795277150992518E-5</v>
       </c>
       <c r="P94">
-        <v>0.15257496191724079</v>
+        <v>9.6823154573717606E-3</v>
       </c>
       <c r="Q94">
-        <v>1.532507141564046E-2</v>
+        <v>8.939993731545191E-3</v>
       </c>
       <c r="R94">
-        <v>4.2834181487609001E-3</v>
+        <v>9.9066786394286892E-3</v>
       </c>
       <c r="S94">
-        <v>8.6847694648579432E-6</v>
+        <v>4.4625621858013638E-4</v>
       </c>
       <c r="T94">
-        <v>6.3677400967470738E-2</v>
+        <v>1.8832518596026381E-2</v>
       </c>
       <c r="U94">
-        <v>1.8147334271037142E-2</v>
+        <v>4.8625671405706037E-3</v>
       </c>
       <c r="V94">
-        <v>83.675212220352236</v>
+        <v>16.37586759441405</v>
       </c>
       <c r="W94">
-        <v>2.13386948937199E-3</v>
-      </c>
-      <c r="X94">
-        <v>9.2022366473648008E-7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>93</v>
-      </c>
+        <v>-1.360904582377394</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B95">
-        <v>2.2873919165835911E-6</v>
+        <v>3.592200389557754E-6</v>
       </c>
       <c r="C95">
-        <v>0.42115266755210579</v>
+        <v>0.46997318256936488</v>
       </c>
       <c r="D95">
-        <v>4.805091915438188E-2</v>
+        <v>2.8305258860968539E-2</v>
       </c>
       <c r="E95">
-        <v>0.4378072456017037</v>
+        <v>0.50122694214889518</v>
       </c>
       <c r="F95">
-        <v>11.99281584860141</v>
+        <v>14.49279183972963</v>
       </c>
       <c r="K95">
-        <v>7.8377024026501498</v>
+        <v>5.1443993950976594</v>
       </c>
       <c r="L95">
-        <v>8.3854290634299176</v>
+        <v>4.3565872796511673</v>
       </c>
       <c r="M95">
-        <v>8.2107764255732203</v>
+        <v>5.1637215161977714</v>
       </c>
       <c r="N95">
-        <v>0.1825489323372185</v>
+        <v>1.339432433374658E-3</v>
       </c>
       <c r="O95">
-        <v>2.3012906187439171E-2</v>
+        <v>5.0563156789038672E-5</v>
       </c>
       <c r="P95">
-        <v>0.1721820891317552</v>
+        <v>9.7883614182041299E-3</v>
       </c>
       <c r="Q95">
-        <v>2.0355671403217299E-2</v>
+        <v>8.9979982782286867E-3</v>
       </c>
       <c r="R95">
-        <v>4.8940943458031932E-3</v>
+        <v>1.1258167556692769E-2</v>
       </c>
       <c r="S95">
-        <v>1.150408045198494E-5</v>
+        <v>6.3028848452777501E-4</v>
       </c>
       <c r="T95">
-        <v>7.0181696209818414E-2</v>
+        <v>2.0828225946805789E-2</v>
       </c>
       <c r="U95">
-        <v>2.2988539820851441E-2</v>
+        <v>6.2195580518065599E-3</v>
       </c>
       <c r="V95">
-        <v>86.211565616199024</v>
+        <v>17.128701214301788</v>
       </c>
       <c r="W95">
-        <v>2.439126986664761E-3</v>
-      </c>
-      <c r="X95">
-        <v>9.1863916818551056E-7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>94</v>
-      </c>
+        <v>-1.066692149442076</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B96">
-        <v>1.7248272451664259E-6</v>
+        <v>2.503248828677352E-6</v>
       </c>
       <c r="C96">
-        <v>0.48333629228505992</v>
+        <v>0.54358450318743112</v>
       </c>
       <c r="D96">
-        <v>7.0147294590363396E-2</v>
+        <v>4.5201464570123327E-2</v>
       </c>
       <c r="E96">
-        <v>0.49919681545622929</v>
+        <v>0.57148292149878388</v>
       </c>
       <c r="F96">
-        <v>11.9926214492678</v>
+        <v>14.4925937497335</v>
       </c>
       <c r="K96">
-        <v>7.8124939191757976</v>
+        <v>5.1634477683037279</v>
       </c>
       <c r="L96">
-        <v>8.2922664225619425</v>
+        <v>4.416098588425668</v>
       </c>
       <c r="M96">
-        <v>8.2113472223787909</v>
+        <v>5.1806440809363767</v>
       </c>
       <c r="N96">
-        <v>0.20913827002884841</v>
+        <v>1.5542439794722621E-3</v>
       </c>
       <c r="O96">
-        <v>3.1946161763562977E-2</v>
+        <v>7.5403982799789586E-5</v>
       </c>
       <c r="P96">
-        <v>0.19748649208651159</v>
+        <v>9.9200886082000395E-3</v>
       </c>
       <c r="Q96">
-        <v>2.9084418860980371E-2</v>
+        <v>9.0825494770651518E-3</v>
       </c>
       <c r="R96">
-        <v>5.7078593900283959E-3</v>
+        <v>1.302948073538694E-2</v>
       </c>
       <c r="S96">
-        <v>1.641444562062081E-5</v>
+        <v>1.00594585448055E-3</v>
       </c>
       <c r="T96">
-        <v>7.8047222274646263E-2</v>
+        <v>2.3263003929305661E-2</v>
       </c>
       <c r="U96">
-        <v>3.0849163619598371E-2</v>
+        <v>8.4591678317232077E-3</v>
       </c>
       <c r="V96">
-        <v>89.85383999365159</v>
+        <v>18.195992785627819</v>
       </c>
       <c r="W96">
-        <v>2.84593775248701E-3</v>
-      </c>
-      <c r="X96">
-        <v>9.1687457434230587E-7</v>
+        <v>-0.74035935661910557</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA9508-9F6A-47BB-B692-152EB7906D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A917930-9385-4608-AB7D-AC5E3123235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Recovery</t>
+  </si>
   <si>
     <t>Jw(m/s)</t>
   </si>
@@ -86,6 +89,27 @@
   </si>
   <si>
     <t>SI_Armp_CaPhosphate</t>
+  </si>
+  <si>
+    <t>d_CaPhosphate</t>
+  </si>
+  <si>
+    <t>cp_nh4</t>
+  </si>
+  <si>
+    <t>NH4_Cpsd</t>
+  </si>
+  <si>
+    <t>NH4_p</t>
+  </si>
+  <si>
+    <t>NH3_p</t>
+  </si>
+  <si>
+    <t>NH4_Psd</t>
+  </si>
+  <si>
+    <t>Pnh4</t>
   </si>
 </sst>
 </file>
@@ -427,5415 +451,7716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:W96"/>
+  <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
-        <v>5.6313620813494349E-6</v>
+        <v>5.9772724984707347E-6</v>
       </c>
       <c r="C2">
-        <v>3.662643346750398E-2</v>
+        <v>2.4777646881183151E-2</v>
       </c>
       <c r="D2">
-        <v>1.4308672927148499E-3</v>
+        <v>1.459540802308237E-3</v>
       </c>
       <c r="E2">
-        <v>3.8908689691028918E-2</v>
+        <v>2.6385463939545221E-2</v>
       </c>
       <c r="F2">
         <v>6.9</v>
       </c>
       <c r="G2">
-        <v>19.30506014088952</v>
+        <v>20.867153894849071</v>
       </c>
       <c r="H2">
-        <v>19.30692144393549</v>
+        <v>21.905065965499031</v>
       </c>
       <c r="I2">
-        <v>18.51134416419336</v>
+        <v>23.05161109589497</v>
       </c>
       <c r="J2">
-        <v>19.290384977595028</v>
+        <v>28.578761146883231</v>
       </c>
       <c r="K2">
-        <v>4.5000240670389591</v>
+        <v>6.000020255884988</v>
       </c>
       <c r="L2">
-        <v>4.2285022591742143</v>
+        <v>4.8457468542504527</v>
       </c>
       <c r="M2">
-        <v>4.5186587869141874</v>
+        <v>6.0258184078814869</v>
       </c>
       <c r="N2">
-        <v>1.0367041269620349E-4</v>
+        <v>2.72202212431325E-3</v>
       </c>
       <c r="O2">
-        <v>5.3040619630714133E-6</v>
+        <v>1.6034912524330309E-4</v>
       </c>
       <c r="P2">
-        <v>8.7613830498639526E-3</v>
+        <v>8.174774312996895E-3</v>
       </c>
       <c r="Q2">
-        <v>8.6287323192431979E-3</v>
+        <v>5.612479663671328E-3</v>
       </c>
       <c r="R2">
-        <v>8.7283281038934421E-4</v>
+        <v>3.2315872800723482E-6</v>
       </c>
       <c r="S2">
-        <v>3.3952139694372148E-5</v>
+        <v>1.70813208742179E-7</v>
       </c>
       <c r="T2">
-        <v>2.5449472574872408E-3</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.6559273112673502E-4</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>6.5234197558166844</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-8.0768673798216213</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.7894026896276642</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1.2559988656704409E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
-        <v>5.6232195823916527E-6</v>
+        <v>5.9712804656225172E-6</v>
       </c>
       <c r="C3">
-        <v>3.6981944236946292E-2</v>
+        <v>2.5013183306222288E-2</v>
       </c>
       <c r="D3">
-        <v>1.4474106004070701E-3</v>
+        <v>1.475530736854387E-3</v>
       </c>
       <c r="E3">
-        <v>3.9303725167710767E-2</v>
+        <v>2.6649267495152111E-2</v>
       </c>
       <c r="F3">
-        <v>6.8999852369288757</v>
+        <v>6.8999852417891736</v>
       </c>
       <c r="K3">
-        <v>4.5021672696035582</v>
+        <v>6.0038972718895831</v>
       </c>
       <c r="L3">
-        <v>4.2281077679518333</v>
+        <v>4.849558818718366</v>
       </c>
       <c r="M3">
-        <v>4.5117825810326062</v>
+        <v>6.0297596316390871</v>
       </c>
       <c r="N3">
-        <v>1.0466401219855841E-4</v>
+        <v>2.747897609152341E-3</v>
       </c>
       <c r="O3">
-        <v>5.19002084476966E-6</v>
+        <v>1.620532700137366E-4</v>
       </c>
       <c r="P3">
-        <v>8.76272295623386E-3</v>
+        <v>8.200656077131498E-3</v>
       </c>
       <c r="Q3">
-        <v>8.6283221796349206E-3</v>
+        <v>5.6142147190015547E-3</v>
       </c>
       <c r="R3">
-        <v>8.8130635251757621E-4</v>
+        <v>3.2625041898837641E-6</v>
       </c>
       <c r="S3">
-        <v>3.3312762935348709E-5</v>
+        <v>1.7308620480756229E-7</v>
       </c>
       <c r="T3">
-        <v>2.56595083856159E-3</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4.7045897603961761E-4</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.5575102345538836</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-8.0502236157690632</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.756623542011674</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1.255781752774183E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
-        <v>5.6147857946142174E-6</v>
+        <v>5.9656277349177959E-6</v>
       </c>
       <c r="C4">
-        <v>3.7344541518951793E-2</v>
+        <v>2.5253363434481139E-2</v>
       </c>
       <c r="D4">
-        <v>1.4643714593432109E-3</v>
+        <v>1.4917788211993291E-3</v>
       </c>
       <c r="E4">
-        <v>3.9706846194035077E-2</v>
+        <v>2.6918627707227041E-2</v>
       </c>
       <c r="F4">
-        <v>6.8999703985485823</v>
+        <v>6.8999704083935436</v>
       </c>
       <c r="K4">
-        <v>4.5043466308534263</v>
+        <v>6.0078123753332626</v>
       </c>
       <c r="L4">
-        <v>4.2282367150980296</v>
+        <v>4.8535189443870363</v>
       </c>
       <c r="M4">
-        <v>4.5141268266015802</v>
+        <v>6.0338799407791273</v>
       </c>
       <c r="N4">
-        <v>1.056790529266582E-4</v>
+        <v>2.7742837758782451E-3</v>
       </c>
       <c r="O4">
-        <v>5.2311759526324261E-6</v>
+        <v>1.638368234567436E-4</v>
       </c>
       <c r="P4">
-        <v>8.7640943927297654E-3</v>
+        <v>8.2270483358879258E-3</v>
       </c>
       <c r="Q4">
-        <v>8.6289393665544955E-3</v>
+        <v>5.6160272773833836E-3</v>
       </c>
       <c r="R4">
-        <v>8.8995934832963972E-4</v>
+        <v>3.2940288632008678E-6</v>
       </c>
       <c r="S4">
-        <v>3.3694321733871491E-5</v>
+        <v>1.7478644377140901E-7</v>
       </c>
       <c r="T4">
-        <v>2.587333408587324E-3</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.7543886699250211E-4</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>6.5921314781799039</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-8.0232534071876955</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.7235406332313659</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1.255562506981337E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
-        <v>5.6061796852952288E-6</v>
+        <v>5.9598596645465367E-6</v>
       </c>
       <c r="C5">
-        <v>3.7714440179360133E-2</v>
+        <v>2.5498328224308791E-2</v>
       </c>
       <c r="D5">
-        <v>1.4817352666881729E-3</v>
+        <v>1.5083939178349799E-3</v>
       </c>
       <c r="E5">
-        <v>4.0118359225259068E-2</v>
+        <v>2.7193582686840769E-2</v>
       </c>
       <c r="F5">
-        <v>6.8999554834036489</v>
+        <v>6.8999554983619813</v>
       </c>
       <c r="K5">
-        <v>4.5065591253427328</v>
+        <v>6.0117664232616006</v>
       </c>
       <c r="L5">
-        <v>4.2283638130908594</v>
+        <v>4.857535683398857</v>
       </c>
       <c r="M5">
-        <v>4.5164881698715353</v>
+        <v>6.0380419878637701</v>
       </c>
       <c r="N5">
-        <v>1.067145980501018E-4</v>
+        <v>2.8011956001300132E-3</v>
       </c>
       <c r="O5">
-        <v>5.2718205310291126E-6</v>
+        <v>1.656605058701837E-4</v>
       </c>
       <c r="P5">
-        <v>8.7654877435150783E-3</v>
+        <v>8.2539660787591066E-3</v>
       </c>
       <c r="Q5">
-        <v>8.6295625484395719E-3</v>
+        <v>5.6178814842928341E-3</v>
       </c>
       <c r="R5">
-        <v>8.9878682283062704E-4</v>
+        <v>3.326186001545501E-6</v>
       </c>
       <c r="S5">
-        <v>3.4084780966322489E-5</v>
+        <v>1.7652080849204741E-7</v>
       </c>
       <c r="T5">
-        <v>2.6091055172635601E-3</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.8052841684333299E-4</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.6272695207329129</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-7.9959759228439111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.6901463758956368</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>1.2553410802973509E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
-        <v>5.5973959193152683E-6</v>
+        <v>5.9539726752206167E-6</v>
       </c>
       <c r="C6">
-        <v>3.8091864188867133E-2</v>
+        <v>2.5748223373334558E-2</v>
       </c>
       <c r="D6">
-        <v>1.499516482051711E-3</v>
+        <v>1.525388600807484E-3</v>
       </c>
       <c r="E6">
-        <v>4.0538527819643483E-2</v>
+        <v>2.747430873880969E-2</v>
       </c>
       <c r="F6">
-        <v>6.8999404899931349</v>
+        <v>6.8999405101980678</v>
       </c>
       <c r="K6">
-        <v>4.5088059977477792</v>
+        <v>6.0157600404497886</v>
       </c>
       <c r="L6">
-        <v>4.2284944307675936</v>
+        <v>4.8616103871255172</v>
       </c>
       <c r="M6">
-        <v>4.5188899254883079</v>
+        <v>6.0422471350402809</v>
       </c>
       <c r="N6">
-        <v>1.0777129364925879E-4</v>
+        <v>2.8286490906952191E-3</v>
       </c>
       <c r="O6">
-        <v>5.3135211588678326E-6</v>
+        <v>1.6752583920867119E-4</v>
       </c>
       <c r="P6">
-        <v>8.7669036309637825E-3</v>
+        <v>8.281425293284796E-3</v>
       </c>
       <c r="Q6">
-        <v>8.6301919416510893E-3</v>
+        <v>5.6197778893025746E-3</v>
       </c>
       <c r="R6">
-        <v>9.0779413576671348E-4</v>
+        <v>3.3589950139731421E-6</v>
       </c>
       <c r="S6">
-        <v>3.448446169693515E-5</v>
+        <v>1.782902793799628E-7</v>
       </c>
       <c r="T6">
-        <v>2.631278195392937E-3</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>4.8573139175200821E-4</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>6.6629321225538094</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-7.9683840156784527</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.6564353555794042</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1.255117437734812E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
-        <v>5.5884289684430293E-6</v>
+        <v>5.9479630321097613E-6</v>
       </c>
       <c r="C7">
-        <v>3.8477046796307292E-2</v>
+        <v>2.6003200581466421E-2</v>
       </c>
       <c r="D7">
-        <v>1.517730254470485E-3</v>
+        <v>1.542776024957265E-3</v>
       </c>
       <c r="E7">
-        <v>4.0967626628262442E-2</v>
+        <v>2.7760989634303151E-2</v>
       </c>
       <c r="F7">
-        <v>6.8999254167686486</v>
+        <v>6.8999254423581791</v>
       </c>
       <c r="K7">
-        <v>4.5110878578163556</v>
+        <v>6.0197942570155334</v>
       </c>
       <c r="L7">
-        <v>4.2286285663346632</v>
+        <v>4.8657448323537524</v>
       </c>
       <c r="M7">
-        <v>4.5213305380497859</v>
+        <v>6.0464962300245029</v>
       </c>
       <c r="N7">
-        <v>1.088497965175787E-4</v>
+        <v>2.8566609143950779E-3</v>
       </c>
       <c r="O7">
-        <v>5.3562832809971503E-6</v>
+        <v>1.6943425582811549E-4</v>
       </c>
       <c r="P7">
-        <v>8.7683427013776002E-3</v>
+        <v>8.3094426343793461E-3</v>
       </c>
       <c r="Q7">
-        <v>8.6308267419458688E-3</v>
+        <v>5.6217179488038541E-3</v>
       </c>
       <c r="R7">
-        <v>9.1698686917797434E-4</v>
+        <v>3.3924761164425441E-6</v>
       </c>
       <c r="S7">
-        <v>3.4893695221821653E-5</v>
+        <v>1.800959924342204E-7</v>
       </c>
       <c r="T7">
-        <v>2.653862898589157E-3</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>4.9105157062553223E-4</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>6.6991306948005622</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-7.940468856352247</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.6224006760979961</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1.25489152160713E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
-        <v>5.5792730330129189E-6</v>
+        <v>5.9418268427158277E-6</v>
       </c>
       <c r="C8">
-        <v>3.887023101483747E-2</v>
+        <v>2.626341786398248E-2</v>
       </c>
       <c r="D8">
-        <v>1.5363924807714989E-3</v>
+        <v>1.560569958303005E-3</v>
       </c>
       <c r="E8">
-        <v>4.140594195096798E-2</v>
+        <v>2.8053817010247919E-2</v>
       </c>
       <c r="F8">
-        <v>6.899910262132372</v>
+        <v>6.8999102932494489</v>
       </c>
       <c r="K8">
-        <v>4.5134055652755833</v>
+        <v>6.0238697569426618</v>
       </c>
       <c r="L8">
-        <v>4.2287663353388192</v>
+        <v>4.8699403078160506</v>
       </c>
       <c r="M8">
-        <v>4.5238103864511388</v>
+        <v>6.0507908518923639</v>
       </c>
       <c r="N8">
-        <v>1.099507913392445E-4</v>
+        <v>2.8852484320394068E-3</v>
       </c>
       <c r="O8">
-        <v>5.4001405139431086E-6</v>
+        <v>1.7138742950578909E-4</v>
       </c>
       <c r="P8">
-        <v>8.7698056371162368E-3</v>
+        <v>8.3380354501833408E-3</v>
       </c>
       <c r="Q8">
-        <v>8.6314684617128396E-3</v>
+        <v>5.6237003648776434E-3</v>
       </c>
       <c r="R8">
-        <v>9.263708391136781E-4</v>
+        <v>3.4266503730809302E-6</v>
       </c>
       <c r="S8">
-        <v>3.53128301913338E-5</v>
+        <v>1.8193899726598951E-7</v>
       </c>
       <c r="T8">
-        <v>2.6768715297377072E-3</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>4.964929582171061E-4</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>6.7358781437690354</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-7.9122263674681363</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.5880364959289039</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1.2546632936112109E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
-        <v>5.5699221003201479E-6</v>
+        <v>5.935560055292705E-6</v>
       </c>
       <c r="C9">
-        <v>3.9271670138859689E-2</v>
+        <v>2.6529039884473658E-2</v>
       </c>
       <c r="D9">
-        <v>1.555519833703058E-3</v>
+        <v>1.578784816443551E-3</v>
       </c>
       <c r="E9">
-        <v>4.1853772388256473E-2</v>
+        <v>2.8352990794686318E-2</v>
       </c>
       <c r="F9">
-        <v>6.8998950244348229</v>
+        <v>6.8998950612275758</v>
       </c>
       <c r="K9">
-        <v>4.5157599296552711</v>
+        <v>6.0279876289176331</v>
       </c>
       <c r="L9">
-        <v>4.228907943008644</v>
+        <v>4.8741977814608601</v>
       </c>
       <c r="M9">
-        <v>4.5263326441271117</v>
+        <v>6.0551307825431202</v>
       </c>
       <c r="N9">
-        <v>1.110749918857531E-4</v>
+        <v>2.9144297331419192E-3</v>
       </c>
       <c r="O9">
-        <v>5.4451628269744009E-6</v>
+        <v>1.7338666575142069E-4</v>
       </c>
       <c r="P9">
-        <v>8.77129313362595E-3</v>
+        <v>8.3672218489500693E-3</v>
       </c>
       <c r="Q9">
-        <v>8.6321157233774145E-3</v>
+        <v>5.6257324643232184E-3</v>
       </c>
       <c r="R9">
-        <v>9.3595210802682163E-4</v>
+        <v>3.4615397427133489E-6</v>
       </c>
       <c r="S9">
-        <v>3.5742228619481037E-5</v>
+        <v>1.8382051708737011E-7</v>
       </c>
       <c r="T9">
-        <v>2.7003164606142719E-3</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>5.0205972346580008E-4</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>6.7731882239828209</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-7.8836473148921726</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.5533347556575174</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1.2544326927806131E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
-        <v>5.5603698851457262E-6</v>
+        <v>5.9291584293930002E-6</v>
       </c>
       <c r="C10">
-        <v>3.968162829435052E-2</v>
+        <v>2.6800238309126159E-2</v>
       </c>
       <c r="D10">
-        <v>1.575129821936954E-3</v>
+        <v>1.597435705974293E-3</v>
       </c>
       <c r="E10">
-        <v>4.2311429482835512E-2</v>
+        <v>2.865871965309099E-2</v>
       </c>
       <c r="F10">
-        <v>6.8998797019726519</v>
+        <v>6.8998797445946591</v>
       </c>
       <c r="K10">
-        <v>4.5181516663000476</v>
+        <v>6.0321484575362971</v>
       </c>
       <c r="L10">
-        <v>4.2290532651279458</v>
+        <v>4.8785189190311087</v>
       </c>
       <c r="M10">
-        <v>4.5288925578503667</v>
+        <v>6.0595178266638472</v>
       </c>
       <c r="N10">
-        <v>1.122231422016094E-4</v>
+        <v>2.9442236795265979E-3</v>
       </c>
       <c r="O10">
-        <v>5.491319821565353E-6</v>
+        <v>1.754337922450476E-4</v>
       </c>
       <c r="P10">
-        <v>8.7728059315634321E-3</v>
+        <v>8.3970206466090561E-3</v>
       </c>
       <c r="Q10">
-        <v>8.6327716911663768E-3</v>
+        <v>5.62781110690962E-3</v>
       </c>
       <c r="R10">
-        <v>9.4573699802037964E-4</v>
+        <v>3.4971671256005868E-6</v>
       </c>
       <c r="S10">
-        <v>3.6182277888992118E-5</v>
+        <v>1.8574172205687029E-7</v>
       </c>
       <c r="T10">
-        <v>2.7242105555832772E-3</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>5.077562001476922E-4</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>6.8110753235702104</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-7.8547254442182606</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.5182910645014829</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1.254199686377967E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11">
-        <v>5.5506098419197324E-6</v>
+        <v>5.9226175557157887E-6</v>
       </c>
       <c r="C11">
-        <v>4.0100381024816598E-2</v>
+        <v>2.7077192183886069E-2</v>
       </c>
       <c r="D11">
-        <v>1.595240835802772E-3</v>
+        <v>1.6165384589097321E-3</v>
       </c>
       <c r="E11">
-        <v>4.2779238433194033E-2</v>
+        <v>2.8971221476705531E-2</v>
       </c>
       <c r="F11">
-        <v>6.8998642929860754</v>
+        <v>6.8998643415966487</v>
       </c>
       <c r="K11">
-        <v>4.5205819822697757</v>
+        <v>6.0363532268513129</v>
       </c>
       <c r="L11">
-        <v>4.2292026665317071</v>
+        <v>4.8829051920276241</v>
       </c>
       <c r="M11">
-        <v>4.5314948038891663</v>
+        <v>6.0639526314345451</v>
       </c>
       <c r="N11">
-        <v>1.1339601937062089E-4</v>
+        <v>2.974649942024198E-3</v>
       </c>
       <c r="O11">
-        <v>5.5387042993870166E-6</v>
+        <v>1.7753049330944081E-4</v>
       </c>
       <c r="P11">
-        <v>8.774344769369993E-3</v>
+        <v>8.4274515206716871E-3</v>
       </c>
       <c r="Q11">
-        <v>8.6334344617722755E-3</v>
+        <v>5.6299410052303139E-3</v>
       </c>
       <c r="R11">
-        <v>9.5573210483501029E-4</v>
+        <v>3.5335564157494199E-6</v>
       </c>
       <c r="S11">
-        <v>3.6633370156063678E-5</v>
+        <v>1.8770392656039421E-7</v>
       </c>
       <c r="T11">
-        <v>2.7485671968518E-3</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>5.1358703591384332E-4</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>6.849554587232074</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>-7.8254515811414223</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.4828975062306284</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1.253964219296327E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12">
-        <v>5.5406351205811428E-6</v>
+        <v>5.9159328225382287E-6</v>
       </c>
       <c r="C12">
-        <v>4.0528215915805653E-2</v>
+        <v>2.7360088336385809E-2</v>
       </c>
       <c r="D12">
-        <v>1.6158722112187491E-3</v>
+        <v>1.63610968259484E-3</v>
       </c>
       <c r="E12">
-        <v>4.3257538833775547E-2</v>
+        <v>2.9290723889838909E-2</v>
       </c>
       <c r="F12">
-        <v>6.8998487956565739</v>
+        <v>6.8998488504209456</v>
       </c>
       <c r="K12">
-        <v>4.5230515610908819</v>
+        <v>6.0406030309429601</v>
       </c>
       <c r="L12">
-        <v>4.2293564833170736</v>
+        <v>4.8873585267638058</v>
       </c>
       <c r="M12">
-        <v>4.5341441861094394</v>
+        <v>6.0684367503559438</v>
       </c>
       <c r="N12">
-        <v>1.145944339825235E-4</v>
+        <v>3.0057290470099172E-3</v>
       </c>
       <c r="O12">
-        <v>5.5874136880574193E-6</v>
+        <v>1.7967870147543401E-4</v>
       </c>
       <c r="P12">
-        <v>8.7759104394544134E-3</v>
+        <v>8.4585349708432584E-3</v>
       </c>
       <c r="Q12">
-        <v>8.6341020502155742E-3</v>
+        <v>5.6321211259007962E-3</v>
       </c>
       <c r="R12">
-        <v>9.6594431299810968E-4</v>
+        <v>3.5707325545181861E-6</v>
       </c>
       <c r="S12">
-        <v>3.7095928631292478E-5</v>
+        <v>1.8970844085242871E-7</v>
       </c>
       <c r="T12">
-        <v>2.7734003097511111E-3</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>5.195569664816006E-4</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>6.8886416845176779</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-7.7958202763188069</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.4471458752447148</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1.253726230267194E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
-        <v>5.5304385922229973E-6</v>
+        <v>5.9090994099863298E-6</v>
       </c>
       <c r="C13">
-        <v>4.0965433260801008E-2</v>
+        <v>2.7649121804405929E-2</v>
       </c>
       <c r="D13">
-        <v>1.637044279487567E-3</v>
+        <v>1.6561668061715819E-3</v>
       </c>
       <c r="E13">
-        <v>4.3746685490910493E-2</v>
+        <v>2.961746479813571E-2</v>
       </c>
       <c r="F13">
-        <v>6.89983320810392</v>
+        <v>6.8998332691936817</v>
       </c>
       <c r="K13">
-        <v>4.5255613971441839</v>
+        <v>6.0448986929512669</v>
       </c>
       <c r="L13">
-        <v>4.2295142949529652</v>
+        <v>4.8918801250036736</v>
       </c>
       <c r="M13">
-        <v>4.5368310335684523</v>
+        <v>6.0729708074203783</v>
       </c>
       <c r="N13">
-        <v>1.1581923196336021E-4</v>
+        <v>3.037482421678844E-3</v>
       </c>
       <c r="O13">
-        <v>5.6373569028400603E-6</v>
+        <v>1.8188020926020369E-4</v>
       </c>
       <c r="P13">
-        <v>8.7775037921424895E-3</v>
+        <v>8.4902924297751963E-3</v>
       </c>
       <c r="Q13">
-        <v>8.6347802072646203E-3</v>
+        <v>5.6343552926449124E-3</v>
       </c>
       <c r="R13">
-        <v>9.7638081169886047E-4</v>
+        <v>3.6087215895031949E-6</v>
       </c>
       <c r="S13">
-        <v>3.7570379996209847E-5</v>
+        <v>1.9175660943420431E-7</v>
       </c>
       <c r="T13">
-        <v>2.7987243922597571E-3</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>5.2567102070985648E-4</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>6.928352933405022</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-7.7658225606902533</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.4110304697712408</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1.253485673194729E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14">
-        <v>5.5200127956081117E-6</v>
+        <v>5.9021122863518682E-6</v>
       </c>
       <c r="C14">
-        <v>4.1412346771952303E-2</v>
+        <v>2.7944496293022231E-2</v>
       </c>
       <c r="D14">
-        <v>1.6587784422815719E-3</v>
+        <v>1.6767281298675329E-3</v>
       </c>
       <c r="E14">
-        <v>4.4247049263087007E-2</v>
+        <v>2.9951692976047429E-2</v>
       </c>
       <c r="F14">
-        <v>6.899817528383692</v>
+        <v>6.8998175959768844</v>
       </c>
       <c r="K14">
-        <v>4.528112569364187</v>
+        <v>6.0492413060558103</v>
       </c>
       <c r="L14">
-        <v>4.2296767883556292</v>
+        <v>4.8964718450895264</v>
       </c>
       <c r="M14">
-        <v>4.5395658957235394</v>
+        <v>6.0775560973975109</v>
       </c>
       <c r="N14">
-        <v>1.170712987254115E-4</v>
+        <v>3.0699324468199652E-3</v>
       </c>
       <c r="O14">
-        <v>5.6887121193934187E-6</v>
+        <v>1.8413706101503069E-4</v>
       </c>
       <c r="P14">
-        <v>8.7791256510615558E-3</v>
+        <v>8.5227462608789498E-3</v>
       </c>
       <c r="Q14">
-        <v>8.6354649886342776E-3</v>
+        <v>5.6366445862351868E-3</v>
       </c>
       <c r="R14">
-        <v>9.8704911205911789E-4</v>
+        <v>3.6475507370039789E-6</v>
       </c>
       <c r="S14">
-        <v>3.8057235534073478E-5</v>
+        <v>1.938499336247184E-7</v>
       </c>
       <c r="T14">
-        <v>2.8245545442091881E-3</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>5.3193448715567839E-4</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>6.9687053307998834</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-7.7354486427505051</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.3745428611983641</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1.253242486860875E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15">
-        <v>5.5093499461153223E-6</v>
+        <v>5.8949661914048192E-6</v>
       </c>
       <c r="C15">
-        <v>4.1869284338960013E-2</v>
+        <v>2.8246424662713661E-2</v>
       </c>
       <c r="D15">
-        <v>1.6810972347929391E-3</v>
+        <v>1.697812881035697E-3</v>
       </c>
       <c r="E15">
-        <v>4.4759017978611981E-2</v>
+        <v>3.0293668689712991E-2</v>
       </c>
       <c r="F15">
-        <v>6.8998017544837422</v>
+        <v>6.8998018287654279</v>
       </c>
       <c r="K15">
-        <v>4.5307060117759868</v>
+        <v>6.0536320894055002</v>
       </c>
       <c r="L15">
-        <v>4.2298441176302113</v>
+        <v>4.9011349683817622</v>
       </c>
       <c r="M15">
-        <v>4.5423485923604838</v>
+        <v>6.0821935200060153</v>
       </c>
       <c r="N15">
-        <v>1.183515583415727E-4</v>
+        <v>3.1031025087257689E-3</v>
       </c>
       <c r="O15">
-        <v>5.7415173502064944E-6</v>
+        <v>1.8645133227302501E-4</v>
       </c>
       <c r="P15">
-        <v>8.780776923043479E-3</v>
+        <v>8.555919843346119E-3</v>
       </c>
       <c r="Q15">
-        <v>8.6361559875715518E-3</v>
+        <v>5.6389931186623197E-3</v>
       </c>
       <c r="R15">
-        <v>9.9795706466285412E-4</v>
+        <v>3.687248447387649E-6</v>
       </c>
       <c r="S15">
-        <v>3.8556950628211073E-5</v>
+        <v>1.9598991778131451E-7</v>
       </c>
       <c r="T15">
-        <v>2.8509064988879642E-3</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>5.3835286839503977E-4</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>7.0097165242486694</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-7.7046908811865933</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.3376746029769464</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>1.2529966029932921E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16">
-        <v>5.498441889655454E-6</v>
+        <v>5.8876556185349497E-6</v>
       </c>
       <c r="C16">
-        <v>4.2336588840171253E-2</v>
+        <v>2.8555129450872709E-2</v>
       </c>
       <c r="D16">
-        <v>1.70402440937543E-3</v>
+        <v>1.719441274654917E-3</v>
       </c>
       <c r="E16">
-        <v>4.5282997402423121E-2</v>
+        <v>3.0643664364548979E-2</v>
       </c>
       <c r="F16">
-        <v>6.8997858843216031</v>
+        <v>6.8997859654839768</v>
       </c>
       <c r="K16">
-        <v>4.5333425761030792</v>
+        <v>6.0580716156110173</v>
       </c>
       <c r="L16">
-        <v>4.2300161578000379</v>
+        <v>4.9058715307653999</v>
       </c>
       <c r="M16">
-        <v>4.5451754418523906</v>
+        <v>6.0868841603771164</v>
       </c>
       <c r="N16">
-        <v>1.1966097742286759E-4</v>
+        <v>3.1370170572891732E-3</v>
       </c>
       <c r="O16">
-        <v>5.7957661750033808E-6</v>
+        <v>1.88825187816855E-4</v>
       </c>
       <c r="P16">
-        <v>8.7824585618280371E-3</v>
+        <v>8.5898375959587211E-3</v>
       </c>
       <c r="Q16">
-        <v>8.6368569318973441E-3</v>
+        <v>5.6414030938439748E-3</v>
       </c>
       <c r="R16">
-        <v>1.0091128799423271E-3</v>
+        <v>3.727844476801677E-6</v>
       </c>
       <c r="S16">
-        <v>3.9070049816743548E-5</v>
+        <v>1.981781003100736E-7</v>
       </c>
       <c r="T16">
-        <v>2.8777966573820678E-3</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>5.4493191266408983E-4</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>7.0514048245211951</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-7.6735410205335839</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.3004190194175038</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1.252747989525783E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17">
-        <v>5.4872801166761452E-6</v>
+        <v>5.8801748066467566E-6</v>
       </c>
       <c r="C17">
-        <v>4.2814619009945321E-2</v>
+        <v>2.8870843429416451E-2</v>
       </c>
       <c r="D17">
-        <v>1.727585008160623E-3</v>
+        <v>1.741634575648102E-3</v>
       </c>
       <c r="E17">
-        <v>4.5819412287916791E-2</v>
+        <v>3.1001965301679209E-2</v>
       </c>
       <c r="F17">
-        <v>6.8997699157405084</v>
+        <v>6.8997700039835248</v>
       </c>
       <c r="K17">
-        <v>4.5360235797837696</v>
+        <v>6.0625615675481974</v>
       </c>
       <c r="L17">
-        <v>4.2301934944366533</v>
+        <v>4.9106839147130348</v>
       </c>
       <c r="M17">
-        <v>4.5480541501338587</v>
+        <v>6.0916302504443021</v>
       </c>
       <c r="N17">
-        <v>1.210005681434307E-4</v>
+        <v>3.1717016675182588E-3</v>
       </c>
       <c r="O17">
-        <v>5.8516094048963563E-6</v>
+        <v>1.912612206348006E-4</v>
       </c>
       <c r="P17">
-        <v>8.7841715221801623E-3</v>
+        <v>8.6245250606894822E-3</v>
       </c>
       <c r="Q17">
-        <v>8.6375646878111192E-3</v>
+        <v>5.6438721520289097E-3</v>
       </c>
       <c r="R17">
-        <v>1.0205251485320391E-3</v>
+        <v>3.7693699635839308E-6</v>
       </c>
       <c r="S17">
-        <v>3.9597028013364442E-5</v>
+        <v>2.0041608965394061E-7</v>
       </c>
       <c r="T17">
-        <v>2.9052421249669848E-3</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>5.5167776614583849E-4</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>7.0937893468304543</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-7.6419885937947427</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.2627659393717821</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1.2524965522173011E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18">
-        <v>5.4758556943089544E-6</v>
+        <v>5.8725177265297702E-6</v>
       </c>
       <c r="C18">
-        <v>4.3303750367109421E-2</v>
+        <v>2.9193810201485121E-2</v>
       </c>
       <c r="D18">
-        <v>1.751805465031129E-3</v>
+        <v>1.7644151673127031E-3</v>
       </c>
       <c r="E18">
-        <v>4.6368707469739277E-2</v>
+        <v>3.1368870444460822E-2</v>
       </c>
       <c r="F18">
-        <v>6.8997538465062966</v>
+        <v>6.8997539420378073</v>
       </c>
       <c r="K18">
-        <v>4.5387500019705431</v>
+        <v>6.0671026134783803</v>
       </c>
       <c r="L18">
-        <v>4.2303761233910926</v>
+        <v>4.915573294454167</v>
       </c>
       <c r="M18">
-        <v>4.5509816299627017</v>
+        <v>6.0964320374702714</v>
       </c>
       <c r="N18">
-        <v>1.2237138908079419E-4</v>
+        <v>3.2071831014097289E-3</v>
       </c>
       <c r="O18">
-        <v>5.9090521140220767E-6</v>
+        <v>1.9376161401316581E-4</v>
       </c>
       <c r="P18">
-        <v>8.7859168416369367E-3</v>
+        <v>8.660009023887822E-3</v>
       </c>
       <c r="Q18">
-        <v>8.6382807684480985E-3</v>
+        <v>5.6464075164881413E-3</v>
       </c>
       <c r="R18">
-        <v>1.0322028642524999E-3</v>
+        <v>3.8118575097021448E-6</v>
       </c>
       <c r="S18">
-        <v>4.0138548308149468E-5</v>
+        <v>2.027056841136019E-7</v>
       </c>
       <c r="T18">
-        <v>2.933260748286285E-3</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>5.5859679315255174E-4</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>7.1368899540086863</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-7.6100259283316296</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.2247086009753048</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1.252242253645211E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19">
-        <v>5.4641593013700346E-6</v>
+        <v>5.8646780508596094E-6</v>
       </c>
       <c r="C19">
-        <v>4.3804376209303143E-2</v>
+        <v>2.952428484045105E-2</v>
       </c>
       <c r="D19">
-        <v>1.776713685607762E-3</v>
+        <v>1.787806629308081E-3</v>
       </c>
       <c r="E19">
-        <v>4.6931349086003507E-2</v>
+        <v>3.1744693195263532E-2</v>
       </c>
       <c r="F19">
-        <v>6.8997376743033403</v>
+        <v>6.8997377773396886</v>
       </c>
       <c r="K19">
-        <v>4.5415229192674804</v>
+        <v>6.0716962590320911</v>
       </c>
       <c r="L19">
-        <v>4.2305643884770303</v>
+        <v>4.9205421591194067</v>
       </c>
       <c r="M19">
-        <v>4.5539615388417163</v>
+        <v>6.1012913322260083</v>
       </c>
       <c r="N19">
-        <v>1.2377454976714091E-4</v>
+        <v>3.243489384390411E-3</v>
       </c>
       <c r="O19">
-        <v>5.9681969058154386E-6</v>
+        <v>1.9632909790988809E-4</v>
       </c>
       <c r="P19">
-        <v>8.7876955895066812E-3</v>
+        <v>8.696317475784204E-3</v>
       </c>
       <c r="Q19">
-        <v>8.6390053224942136E-3</v>
+        <v>5.6490099672890093E-3</v>
       </c>
       <c r="R19">
-        <v>1.044155446372311E-3</v>
+        <v>3.8553412666369456E-6</v>
       </c>
       <c r="S19">
-        <v>4.06951730949877E-5</v>
+        <v>2.050486340629531E-7</v>
       </c>
       <c r="T19">
-        <v>2.961871157384281E-3</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>5.6569570109421942E-4</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>7.180727315898821</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>-7.5776423396006081</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.1862370344241882</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1.251985009494203E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20">
-        <v>5.4521811533002264E-6</v>
+        <v>5.8566491620302054E-6</v>
       </c>
       <c r="C20">
-        <v>4.4316908679104303E-2</v>
+        <v>2.9862534574733281E-2</v>
       </c>
       <c r="D20">
-        <v>1.802339165816107E-3</v>
+        <v>1.811833811255794E-3</v>
       </c>
       <c r="E20">
-        <v>4.7507825824966918E-2</v>
+        <v>3.2129762303910778E-2</v>
       </c>
       <c r="F20">
-        <v>6.8997213967304383</v>
+        <v>6.8997215074968246</v>
       </c>
       <c r="K20">
-        <v>4.5443438748538902</v>
+        <v>6.0763437120010586</v>
       </c>
       <c r="L20">
-        <v>4.2307582371142702</v>
+        <v>4.9255917904716666</v>
       </c>
       <c r="M20">
-        <v>4.5569906776499014</v>
+        <v>6.1062088834045163</v>
       </c>
       <c r="N20">
-        <v>1.2521121260691321E-4</v>
+        <v>3.2806498756889528E-3</v>
       </c>
       <c r="O20">
-        <v>6.0290522074685756E-6</v>
+        <v>1.9896622197601571E-4</v>
       </c>
       <c r="P20">
-        <v>8.789508885445857E-3</v>
+        <v>8.7334797624731685E-3</v>
       </c>
       <c r="Q20">
-        <v>8.6397398703368083E-3</v>
+        <v>5.651685101702256E-3</v>
       </c>
       <c r="R20">
-        <v>1.0563927667781321E-3</v>
+        <v>3.899857030448824E-6</v>
       </c>
       <c r="S20">
-        <v>4.1267521048325711E-5</v>
+        <v>2.0744688230238249E-7</v>
       </c>
       <c r="T20">
-        <v>2.991092809290258E-3</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>5.7298165895145327E-4</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>7.2253230373551363</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-7.5448255686210643</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.1473417561462611</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>1.251724752127941E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21">
-        <v>5.4399110075419029E-6</v>
+        <v>5.8484241082637224E-6</v>
       </c>
       <c r="C21">
-        <v>4.4841779907663401E-2</v>
+        <v>3.0208839522430531E-2</v>
       </c>
       <c r="D21">
-        <v>1.8287130962541991E-3</v>
+        <v>1.836522926318727E-3</v>
       </c>
       <c r="E21">
-        <v>4.8098650314622793E-2</v>
+        <v>3.2524422805351547E-2</v>
       </c>
       <c r="F21">
-        <v>6.899705011296672</v>
+        <v>6.8997051300277166</v>
       </c>
       <c r="K21">
-        <v>4.5472137877847656</v>
+        <v>6.0810460466192637</v>
       </c>
       <c r="L21">
-        <v>4.2309583690708656</v>
+        <v>4.9307250035631096</v>
       </c>
       <c r="M21">
-        <v>4.5600772879372009</v>
+        <v>6.1111867112659208</v>
       </c>
       <c r="N21">
-        <v>1.2668259730320259E-4</v>
+        <v>3.318695352895285E-3</v>
       </c>
       <c r="O21">
-        <v>6.0917930088217006E-6</v>
+        <v>2.0167603462339901E-4</v>
       </c>
       <c r="P21">
-        <v>8.7913578856323882E-3</v>
+        <v>8.7715266101370069E-3</v>
       </c>
       <c r="Q21">
-        <v>8.6404818825374478E-3</v>
+        <v>5.6544330254295321E-3</v>
       </c>
       <c r="R21">
-        <v>1.0689251772192411E-3</v>
+        <v>3.9454423409197679E-6</v>
       </c>
       <c r="S21">
-        <v>4.1856260401764578E-5</v>
+        <v>2.0990237213788881E-7</v>
       </c>
       <c r="T21">
-        <v>3.020946033368515E-3</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>5.8046204122816434E-4</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>7.2706995684697704</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>-7.5115672329810081</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.1080141411423634</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>1.251461421389321E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22">
-        <v>5.427338106269279E-6</v>
+        <v>5.8399955979608742E-6</v>
       </c>
       <c r="C22">
-        <v>4.5379443242806017E-2</v>
+        <v>3.056349347988193E-2</v>
       </c>
       <c r="D22">
-        <v>1.8558684938710249E-3</v>
+        <v>1.861901641361768E-3</v>
       </c>
       <c r="E22">
-        <v>4.8704360572990962E-2</v>
+        <v>3.2929037039615638E-2</v>
       </c>
       <c r="F22">
-        <v>6.8996885154168242</v>
+        <v>6.899688642356935</v>
       </c>
       <c r="K22">
-        <v>4.5501339845923177</v>
+        <v>6.0858049546883137</v>
       </c>
       <c r="L22">
-        <v>4.2311645171775174</v>
+        <v>4.935944575594772</v>
       </c>
       <c r="M22">
-        <v>4.5632138925583678</v>
+        <v>6.1162267868369238</v>
       </c>
       <c r="N22">
-        <v>1.2818998235688241E-4</v>
+        <v>3.3576580943736841E-3</v>
       </c>
       <c r="O22">
-        <v>6.1563718034866623E-6</v>
+        <v>2.044616936131068E-4</v>
       </c>
       <c r="P22">
-        <v>8.7932438356710749E-3</v>
+        <v>8.8104902799458502E-3</v>
       </c>
       <c r="Q22">
-        <v>8.641235344196762E-3</v>
+        <v>5.6572539563810196E-3</v>
       </c>
       <c r="R22">
-        <v>1.081763538679459E-3</v>
+        <v>3.9921365905295424E-6</v>
       </c>
       <c r="S22">
-        <v>4.246216099861599E-5</v>
+        <v>2.1241713212243781E-7</v>
       </c>
       <c r="T22">
-        <v>3.0514520832702688E-3</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>5.8814471473983185E-4</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>7.3168803317911983</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-7.4778559018996091</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.0682425551744927</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1.251194922537454E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23">
-        <v>5.414451181662934E-6</v>
+        <v>5.8313559823085821E-6</v>
       </c>
       <c r="C23">
-        <v>4.5930374568741897E-2</v>
+        <v>3.092680476897712E-2</v>
       </c>
       <c r="D23">
-        <v>1.883840325260002E-3</v>
+        <v>1.887999177607009E-3</v>
       </c>
       <c r="E23">
-        <v>4.9325521605112582E-2</v>
+        <v>3.3343985745985058E-2</v>
       </c>
       <c r="F23">
-        <v>6.8996719064062084</v>
+        <v>6.8996720418102289</v>
       </c>
       <c r="K23">
-        <v>4.5531056953808093</v>
+        <v>6.0906214602387072</v>
       </c>
       <c r="L23">
-        <v>4.2313776412845012</v>
+        <v>4.9412513078230687</v>
       </c>
       <c r="M23">
-        <v>4.566413996066025</v>
+        <v>6.1213292630760394</v>
       </c>
       <c r="N23">
-        <v>1.2973471160439371E-4</v>
+        <v>3.397571972864325E-3</v>
       </c>
       <c r="O23">
-        <v>6.2230504448032888E-6</v>
+        <v>2.0732601769360261E-4</v>
       </c>
       <c r="P23">
-        <v>8.7951679937910039E-3</v>
+        <v>8.8504046637884436E-3</v>
       </c>
       <c r="Q23">
-        <v>8.6419957250501705E-3</v>
+        <v>5.6601577674457544E-3</v>
       </c>
       <c r="R23">
-        <v>1.0949192523209889E-3</v>
+        <v>4.0399811406359609E-6</v>
       </c>
       <c r="S23">
-        <v>4.3085965094632572E-5</v>
+        <v>2.1499343509656619E-7</v>
       </c>
       <c r="T23">
-        <v>3.0826331892010342E-3</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>5.9603793760510835E-4</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>7.3638897505181982</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>-7.4436818592943146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-7.0280188380750488</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1.250925198226632E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24">
-        <v>5.4012384005953511E-6</v>
+        <v>5.8224972100485049E-6</v>
       </c>
       <c r="C24">
-        <v>4.6495073725709622E-2</v>
+        <v>3.1299097148353661E-2</v>
       </c>
       <c r="D24">
-        <v>1.9126656594001729E-3</v>
+        <v>1.9148464274117501E-3</v>
       </c>
       <c r="E24">
-        <v>4.9962727087550132E-2</v>
+        <v>3.376966923105823E-2</v>
       </c>
       <c r="F24">
-        <v>6.8996551814758922</v>
+        <v>6.8996553256097348</v>
       </c>
       <c r="K24">
-        <v>4.5561304370884548</v>
+        <v>6.0954972844018176</v>
       </c>
       <c r="L24">
-        <v>4.231597393523943</v>
+        <v>4.9466491704213276</v>
       </c>
       <c r="M24">
-        <v>4.5696673981368203</v>
+        <v>6.1264972107266233</v>
       </c>
       <c r="N24">
-        <v>1.313181944397731E-4</v>
+        <v>3.4384725620331801E-3</v>
       </c>
       <c r="O24">
-        <v>6.2917481370642592E-6</v>
+        <v>2.102728474888234E-4</v>
       </c>
       <c r="P24">
-        <v>8.7971317408261432E-3</v>
+        <v>8.8913052650236059E-3</v>
       </c>
       <c r="Q24">
-        <v>8.6427679431398813E-3</v>
+        <v>5.6631413728730371E-3</v>
       </c>
       <c r="R24">
-        <v>1.108404294464917E-3</v>
+        <v>4.0890194445531328E-6</v>
       </c>
       <c r="S24">
-        <v>4.3728447942066678E-5</v>
+        <v>2.176334867439512E-7</v>
       </c>
       <c r="T24">
-        <v>3.114512615503546E-3</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>6.0415048568236316E-4</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>7.4117533463606922</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-7.4090303013218772</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.9873308050063088</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>1.2506521520734979E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25">
-        <v>5.3876873229688376E-6</v>
+        <v>5.8134108327743088E-6</v>
       </c>
       <c r="C25">
-        <v>4.7074066038259102E-2</v>
+        <v>3.1680710794080177E-2</v>
       </c>
       <c r="D25">
-        <v>1.9423838289034539E-3</v>
+        <v>1.9424760657130861E-3</v>
       </c>
       <c r="E25">
-        <v>5.0616601183893252E-2</v>
+        <v>3.4206508645202451E-2</v>
       </c>
       <c r="F25">
-        <v>6.8996383377269241</v>
+        <v>6.8996384908679369</v>
       </c>
       <c r="K25">
-        <v>4.5592094882875518</v>
+        <v>6.1004334849030393</v>
       </c>
       <c r="L25">
-        <v>4.2318246151965608</v>
+        <v>4.9521395515808759</v>
       </c>
       <c r="M25">
-        <v>4.5729844581917911</v>
+        <v>6.1317309503605184</v>
       </c>
       <c r="N25">
-        <v>1.329419145216264E-4</v>
+        <v>3.4803972336506389E-3</v>
       </c>
       <c r="O25">
-        <v>6.3626921688947824E-6</v>
+        <v>2.1330535452400979E-4</v>
       </c>
       <c r="P25">
-        <v>8.7991364654714192E-3</v>
+        <v>8.9332294714151717E-3</v>
       </c>
       <c r="Q25">
-        <v>8.6435484634030321E-3</v>
+        <v>5.6662140066517774E-3</v>
       </c>
       <c r="R25">
-        <v>1.122231253510668E-3</v>
+        <v>4.1392971842649412E-6</v>
       </c>
       <c r="S25">
-        <v>4.4390474430120827E-5</v>
+        <v>2.2033970708755861E-7</v>
       </c>
       <c r="T25">
-        <v>3.147114721085639E-3</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>6.1249154984000561E-4</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>7.460497752962679</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>-7.3738910185018156</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.9461690458782934</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>1.2503757248454301E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26">
-        <v>5.3737848864034517E-6</v>
+        <v>5.804087954084645E-6</v>
       </c>
       <c r="C26">
-        <v>4.7667903962066403E-2</v>
+        <v>3.2072003356295543E-2</v>
       </c>
       <c r="D26">
-        <v>1.9730365967327978E-3</v>
+        <v>1.9709226873938358E-3</v>
       </c>
       <c r="E26">
-        <v>5.1287800521586789E-2</v>
+        <v>3.4654947339778717E-2</v>
       </c>
       <c r="F26">
-        <v>6.8996213721443667</v>
+        <v>6.8996215345822307</v>
       </c>
       <c r="K26">
-        <v>4.5623443032479836</v>
+        <v>6.1054319049577277</v>
       </c>
       <c r="L26">
-        <v>4.2320589642486404</v>
+        <v>4.9577250214653796</v>
       </c>
       <c r="M26">
-        <v>4.5763563867462071</v>
+        <v>6.1370325268334192</v>
       </c>
       <c r="N26">
-        <v>1.34607430605215E-4</v>
+        <v>3.5233852846917788E-3</v>
       </c>
       <c r="O26">
-        <v>6.435827569994951E-6</v>
+        <v>2.164274613397133E-4</v>
       </c>
       <c r="P26">
-        <v>8.8011836760249502E-3</v>
+        <v>8.9762165170041621E-3</v>
       </c>
       <c r="Q26">
-        <v>8.6443416935016917E-3</v>
+        <v>5.66937866798513E-3</v>
       </c>
       <c r="R26">
-        <v>1.1364133690248859E-3</v>
+        <v>4.1908624142278013E-6</v>
       </c>
       <c r="S26">
-        <v>4.5072944915001731E-5</v>
+        <v>2.2311461832434431E-7</v>
       </c>
       <c r="T26">
-        <v>3.180465025970451E-3</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>6.2107087374654543E-4</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>7.5101508033266837</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-7.338251222376023</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.9045211600842444</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>1.250095813322367E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27">
-        <v>5.3595173521274746E-6</v>
+        <v>5.7945192172834493E-6</v>
       </c>
       <c r="C27">
-        <v>4.8277168860270857E-2</v>
+        <v>3.2473351098547563E-2</v>
       </c>
       <c r="D27">
-        <v>2.004668350253697E-3</v>
+        <v>2.0002229444788669E-3</v>
       </c>
       <c r="E27">
-        <v>5.1977016296511573E-2</v>
+        <v>3.5115452346290543E-2</v>
       </c>
       <c r="F27">
-        <v>6.899604281590956</v>
+        <v>6.899604453628335</v>
       </c>
       <c r="K27">
-        <v>4.5655365907749941</v>
+        <v>6.1104942492731444</v>
       </c>
       <c r="L27">
-        <v>4.2323012393561763</v>
+        <v>4.9634092136795642</v>
       </c>
       <c r="M27">
-        <v>4.5797918710766838</v>
+        <v>6.1424045224494259</v>
       </c>
       <c r="N27">
-        <v>1.3631638531235129E-4</v>
+        <v>3.5674780556698071E-3</v>
       </c>
       <c r="O27">
-        <v>6.5113696978076117E-6</v>
+        <v>2.1964339614544511E-4</v>
       </c>
       <c r="P27">
-        <v>8.8032749024585938E-3</v>
+        <v>9.0203076883244148E-3</v>
       </c>
       <c r="Q27">
-        <v>8.6451465553253753E-3</v>
+        <v>5.6726346694408701E-3</v>
       </c>
       <c r="R27">
-        <v>1.150964574679684E-3</v>
+        <v>4.2437657181731804E-6</v>
       </c>
       <c r="S27">
-        <v>4.5776778543725579E-5</v>
+        <v>2.2596082464406129E-7</v>
       </c>
       <c r="T27">
-        <v>3.214590281333436E-3</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>6.2989881915800688E-4</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>7.560741632245767</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>-7.302096373011139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.8623747552865382</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1.2498123220407041E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28">
-        <v>5.3448702621331317E-6</v>
+        <v>5.7846947643999452E-6</v>
       </c>
       <c r="C28">
-        <v>4.8902472921217043E-2</v>
+        <v>3.2885150127656602E-2</v>
       </c>
       <c r="D28">
-        <v>2.0373263088658469E-3</v>
+        <v>2.0304157037800631E-3</v>
       </c>
       <c r="E28">
-        <v>5.2684976553138037E-2</v>
+        <v>3.5588515964385677E-2</v>
       </c>
       <c r="F28">
-        <v>6.8995870628004159</v>
+        <v>6.8995872447537678</v>
       </c>
       <c r="K28">
-        <v>4.5687876000489096</v>
+        <v>6.1156219467330981</v>
       </c>
       <c r="L28">
-        <v>4.2325519209005646</v>
+        <v>4.9691942866938303</v>
       </c>
       <c r="M28">
-        <v>4.5832934237120657</v>
+        <v>6.1478478974070958</v>
       </c>
       <c r="N28">
-        <v>1.3807050714498021E-4</v>
+        <v>3.6127190645822982E-3</v>
       </c>
       <c r="O28">
-        <v>6.5894447008722312E-6</v>
+        <v>2.2295718824835121E-4</v>
       </c>
       <c r="P28">
-        <v>8.805411772014448E-3</v>
+        <v>9.0655465129039214E-3</v>
       </c>
       <c r="Q28">
-        <v>8.645961227633496E-3</v>
+        <v>5.675991121024208E-3</v>
       </c>
       <c r="R28">
-        <v>1.165899544897738E-3</v>
+        <v>4.2980603788965467E-6</v>
       </c>
       <c r="S28">
-        <v>4.650308147241431E-5</v>
+        <v>2.288811604787072E-7</v>
       </c>
       <c r="T28">
-        <v>3.2495185443358059E-3</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>6.3898620630018009E-4</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>7.6123006731430287</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-7.2654158715064909</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.8197188533176387</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1.2495251709829469E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29">
-        <v>5.3298284036302662E-6</v>
+        <v>5.774604202893095E-6</v>
       </c>
       <c r="C29">
-        <v>4.9544461230975272E-2</v>
+        <v>3.330781772250422E-2</v>
       </c>
       <c r="D29">
-        <v>2.0710607479489948E-3</v>
+        <v>2.061542215728426E-3</v>
       </c>
       <c r="E29">
-        <v>5.3412448655215473E-2</v>
+        <v>3.6074657482548213E-2</v>
       </c>
       <c r="F29">
-        <v>6.8995697123705106</v>
+        <v>6.89956990457069</v>
       </c>
       <c r="K29">
-        <v>4.5720991335216956</v>
+        <v>6.1208168202950386</v>
       </c>
       <c r="L29">
-        <v>4.2328114113197248</v>
+        <v>4.9750834667302843</v>
       </c>
       <c r="M29">
-        <v>4.5868640542385908</v>
+        <v>6.1533651286252304</v>
       </c>
       <c r="N29">
-        <v>1.398716175894201E-4</v>
+        <v>3.6591541587786538E-3</v>
       </c>
       <c r="O29">
-        <v>6.6701966451108814E-6</v>
+        <v>2.263735280808094E-4</v>
       </c>
       <c r="P29">
-        <v>8.8075960260470647E-3</v>
+        <v>9.1119787785461093E-3</v>
       </c>
       <c r="Q29">
-        <v>8.6467865647667317E-3</v>
+        <v>5.6794498079182224E-3</v>
       </c>
       <c r="R29">
-        <v>1.1812337430268519E-3</v>
+        <v>4.3538025599707627E-6</v>
       </c>
       <c r="S29">
-        <v>4.7252877630298033E-5</v>
+        <v>2.318785210803624E-7</v>
       </c>
       <c r="T29">
-        <v>3.2852792612951989E-3</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>6.4834463676950596E-4</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>7.6648598171656896</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>-7.2281927017526471</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.7765397733873414</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>1.2492342580634779E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
       <c r="B30">
-        <v>5.3143757337249724E-6</v>
+        <v>5.7642365813250466E-6</v>
       </c>
       <c r="C30">
-        <v>5.0203814015461749E-2</v>
+        <v>3.3741793771209443E-2</v>
       </c>
       <c r="D30">
-        <v>2.1059252568567692E-3</v>
+        <v>2.0936462950768651E-3</v>
       </c>
       <c r="E30">
-        <v>5.4160241917685301E-2</v>
+        <v>3.6574425044898939E-2</v>
       </c>
       <c r="F30">
-        <v>6.8995522267545004</v>
+        <v>6.8995524295479216</v>
       </c>
       <c r="K30">
-        <v>4.5754728203098853</v>
+        <v>6.1260807416204184</v>
       </c>
       <c r="L30">
-        <v>4.2330802515467969</v>
+        <v>4.9810798077749023</v>
       </c>
       <c r="M30">
-        <v>4.5905060377430464</v>
+        <v>6.15895797860939</v>
       </c>
       <c r="N30">
-        <v>1.417216373247577E-4</v>
+        <v>3.7068316675383461E-3</v>
       </c>
       <c r="O30">
-        <v>6.7537637957450456E-6</v>
+        <v>2.298971498124523E-4</v>
       </c>
       <c r="P30">
-        <v>8.8098294907870689E-3</v>
+        <v>9.1596527920270523E-3</v>
       </c>
       <c r="Q30">
-        <v>8.6476216699415166E-3</v>
+        <v>5.6830165612368616E-3</v>
       </c>
       <c r="R30">
-        <v>1.196983477268471E-3</v>
+        <v>4.4110515049553526E-6</v>
       </c>
       <c r="S30">
-        <v>4.8027343034937471E-5</v>
+        <v>2.349560139957178E-7</v>
       </c>
       <c r="T30">
-        <v>3.3219033533024999E-3</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>6.5798634183600281E-4</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>7.7184524660725362</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-7.190414468783203</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.7328244702612352</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1.248939478469257E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
       <c r="B31">
-        <v>5.2984953533310829E-6</v>
+        <v>5.7535803332850342E-6</v>
       </c>
       <c r="C31">
-        <v>5.0881249068399838E-2</v>
+        <v>3.4187542327211301E-2</v>
       </c>
       <c r="D31">
-        <v>2.141977004144458E-3</v>
+        <v>2.1267745278861021E-3</v>
       </c>
       <c r="E31">
-        <v>5.4929210508337219E-2</v>
+        <v>3.7088397662106233E-2</v>
       </c>
       <c r="F31">
-        <v>6.8995346022537269</v>
+        <v>6.899534816003106</v>
       </c>
       <c r="K31">
-        <v>4.5789104942839769</v>
+        <v>6.1314154536310159</v>
       </c>
       <c r="L31">
-        <v>4.2333580276417191</v>
+        <v>4.987186781595808</v>
       </c>
       <c r="M31">
-        <v>4.5942088058485853</v>
+        <v>6.1646286299417268</v>
       </c>
       <c r="N31">
-        <v>1.436225932899551E-4</v>
+        <v>3.7558025762387112E-3</v>
       </c>
       <c r="O31">
-        <v>6.8400871038878069E-6</v>
+        <v>2.335331829404868E-4</v>
       </c>
       <c r="P31">
-        <v>8.8121141079820775E-3</v>
+        <v>9.2086194995029715E-3</v>
       </c>
       <c r="Q31">
-        <v>8.6484744805664926E-3</v>
+        <v>5.6866956164213847E-3</v>
       </c>
       <c r="R31">
-        <v>1.213165958032323E-3</v>
+        <v>4.4698697513068972E-6</v>
       </c>
       <c r="S31">
-        <v>4.8827662325671513E-5</v>
+        <v>2.3811687780798739E-7</v>
       </c>
       <c r="T31">
-        <v>3.3594233112104791E-3</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>6.6792433698133278E-4</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>7.7731136467183006</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>-7.1520637303261196</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.6885597149259723</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>1.2486407345966631E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
       <c r="B32">
-        <v>5.2821694292115312E-6</v>
+        <v>5.7426232499594781E-6</v>
       </c>
       <c r="C32">
-        <v>5.1577524383603503E-2</v>
+        <v>3.4645553295773089E-2</v>
       </c>
       <c r="D32">
-        <v>2.1792770460884962E-3</v>
+        <v>2.1609764877261648E-3</v>
       </c>
       <c r="E32">
-        <v>5.5720256537395763E-2</v>
+        <v>3.7617187404960603E-2</v>
       </c>
       <c r="F32">
-        <v>6.899516835008102</v>
+        <v>6.8995170600934719</v>
       </c>
       <c r="K32">
-        <v>4.5824137202136956</v>
+        <v>6.1368227655244487</v>
       </c>
       <c r="L32">
-        <v>4.2336461249671604</v>
+        <v>4.9934068894450494</v>
       </c>
       <c r="M32">
-        <v>4.5979879771150332</v>
+        <v>6.1703785653012089</v>
       </c>
       <c r="N32">
-        <v>1.455766290926132E-4</v>
+        <v>3.806120710428686E-3</v>
       </c>
       <c r="O32">
-        <v>6.9295308356224519E-6</v>
+        <v>2.372868761513117E-4</v>
       </c>
       <c r="P32">
-        <v>8.8144518169451583E-3</v>
+        <v>9.2589326978327093E-3</v>
       </c>
       <c r="Q32">
-        <v>8.6493369129568808E-3</v>
+        <v>5.6904963315827541E-3</v>
       </c>
       <c r="R32">
-        <v>1.229799362256704E-3</v>
+        <v>4.5303233637854526E-6</v>
       </c>
       <c r="S32">
-        <v>4.9655241826441248E-5</v>
+        <v>2.4136466049277571E-7</v>
       </c>
       <c r="T32">
-        <v>3.39787329655661E-3</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>6.7817234818647347E-4</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>7.8288800700641827</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>-7.1131276069532126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.6437319062327376</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>1.2483379251306309E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33">
-        <v>5.2653791522253457E-6</v>
+        <v>5.7313524263521191E-6</v>
       </c>
       <c r="C33">
-        <v>5.2293441011683428E-2</v>
+        <v>3.5116344264005651E-2</v>
       </c>
       <c r="D33">
-        <v>2.2178906518967581E-3</v>
+        <v>2.1963049804412001E-3</v>
       </c>
       <c r="E33">
-        <v>5.65343334445138E-2</v>
+        <v>3.8161441776615262E-2</v>
       </c>
       <c r="F33">
-        <v>6.8994989209866153</v>
+        <v>6.8994991578065754</v>
       </c>
       <c r="K33">
-        <v>4.5859846320850153</v>
+        <v>6.1423049498004314</v>
       </c>
       <c r="L33">
-        <v>4.2339445798773756</v>
+        <v>4.9997444234206654</v>
       </c>
       <c r="M33">
-        <v>4.6018384795785581</v>
+        <v>6.1762109158099117</v>
       </c>
       <c r="N33">
-        <v>1.4758600732822169E-4</v>
+        <v>3.8578429399109661E-3</v>
       </c>
       <c r="O33">
-        <v>7.0221397804738937E-6</v>
+        <v>2.4116429680799711E-4</v>
       </c>
       <c r="P33">
-        <v>8.8168447865681759E-3</v>
+        <v>9.3106491669087965E-3</v>
       </c>
       <c r="Q33">
-        <v>8.6502146679941667E-3</v>
+        <v>5.6944199009758183E-3</v>
       </c>
       <c r="R33">
-        <v>1.246902900233954E-3</v>
+        <v>4.5924821855723026E-6</v>
       </c>
       <c r="S33">
-        <v>5.0511431634163827E-5</v>
+        <v>2.447028288935836E-7</v>
       </c>
       <c r="T33">
-        <v>3.43728925233009E-3</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>6.8874510955783388E-4</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>7.88579030943764</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>-7.0735859097945726</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.5983248693945464</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1.248030922811176E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
       <c r="B34">
-        <v>5.2481046378729814E-6</v>
+        <v>5.7197542181100876E-6</v>
       </c>
       <c r="C34">
-        <v>5.3029846164033237E-2</v>
+        <v>3.5600462488763959E-2</v>
       </c>
       <c r="D34">
-        <v>2.2578876824066339E-3</v>
+        <v>2.2328163079966211E-3</v>
       </c>
       <c r="E34">
-        <v>5.7372449625823038E-2</v>
+        <v>3.8721846296364257E-2</v>
       </c>
       <c r="F34">
-        <v>6.8994808559771146</v>
+        <v>6.899481104949845</v>
       </c>
       <c r="K34">
-        <v>4.5896250116917434</v>
+        <v>6.1478639421931156</v>
       </c>
       <c r="L34">
-        <v>4.2342544232107366</v>
+        <v>5.0062027048032647</v>
       </c>
       <c r="M34">
-        <v>4.6057689702342044</v>
+        <v>6.1821274394027679</v>
       </c>
       <c r="N34">
-        <v>1.4965312302745329E-4</v>
+        <v>3.9110293905448333E-3</v>
       </c>
       <c r="O34">
-        <v>7.1181908595684386E-6</v>
+        <v>2.4517142661786948E-4</v>
       </c>
       <c r="P34">
-        <v>8.819295229488381E-3</v>
+        <v>9.3638290090548703E-3</v>
       </c>
       <c r="Q34">
-        <v>8.651104076835359E-3</v>
+        <v>5.6984754336227269E-3</v>
       </c>
       <c r="R34">
-        <v>1.264496892419245E-3</v>
+        <v>4.6564201172881674E-6</v>
       </c>
       <c r="S34">
-        <v>5.1397703069791563E-5</v>
+        <v>2.4813526905170452E-7</v>
       </c>
       <c r="T34">
-        <v>3.4777090191355641E-3</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>6.9965817000235998E-4</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>7.9438848643002284</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-7.0334242341664606</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.5523240895499413</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>1.247719619237186E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
       <c r="B35">
-        <v>5.2303248704134744E-6</v>
+        <v>5.7078141749100664E-6</v>
       </c>
       <c r="C35">
-        <v>5.3787636589132139E-2</v>
+        <v>3.6098487058626158E-2</v>
       </c>
       <c r="D35">
-        <v>2.2993429899819491E-3</v>
+        <v>2.270570565345598E-3</v>
       </c>
       <c r="E35">
-        <v>5.8235672413765503E-2</v>
+        <v>3.9299127302526098E-2</v>
       </c>
       <c r="F35">
-        <v>6.8994626355753201</v>
+        <v>6.8994628971399763</v>
       </c>
       <c r="K35">
-        <v>4.5933369344313144</v>
+        <v>6.1535022463518194</v>
       </c>
       <c r="L35">
-        <v>4.2345756101899772</v>
+        <v>5.0127859369881049</v>
       </c>
       <c r="M35">
-        <v>4.6097728885478588</v>
+        <v>6.1881310452710903</v>
       </c>
       <c r="N35">
-        <v>1.517805100747352E-4</v>
+        <v>3.9657436885138916E-3</v>
       </c>
       <c r="O35">
-        <v>7.2177189010027522E-6</v>
+        <v>2.4931503726352279E-4</v>
       </c>
       <c r="P35">
-        <v>8.8218055451996201E-3</v>
+        <v>9.4185357788374394E-3</v>
       </c>
       <c r="Q35">
-        <v>8.6520103642818546E-3</v>
+        <v>5.7026678456867297E-3</v>
       </c>
       <c r="R35">
-        <v>1.282602850469237E-3</v>
+        <v>4.7222154135305029E-6</v>
       </c>
       <c r="S35">
-        <v>5.2315751346538157E-5</v>
+        <v>2.5166610651032961E-7</v>
       </c>
       <c r="T35">
-        <v>3.5191724646450148E-3</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>7.1092815147168827E-4</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>8.0032063191816878</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>-6.9926245641834797</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.5057126675236248</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1.247403874204298E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36">
-        <v>5.2120176297256198E-6</v>
+        <v>5.6955169989326468E-6</v>
       </c>
       <c r="C36">
-        <v>5.456776224972533E-2</v>
+        <v>3.6611031247918292E-2</v>
       </c>
       <c r="D36">
-        <v>2.3423368654890021E-3</v>
+        <v>2.3096319568556632E-3</v>
       </c>
       <c r="E36">
-        <v>5.9125132389604922E-2</v>
+        <v>3.9894055018425682E-2</v>
       </c>
       <c r="F36">
-        <v>6.8994442551726003</v>
+        <v>6.8994445297904923</v>
       </c>
       <c r="K36">
-        <v>4.5971226290651153</v>
+        <v>6.1592217536340339</v>
       </c>
       <c r="L36">
-        <v>4.2349094265306571</v>
+        <v>5.0194979319977948</v>
       </c>
       <c r="M36">
-        <v>4.6138619832136953</v>
+        <v>6.1942237291084439</v>
       </c>
       <c r="N36">
-        <v>1.5397085539554931E-4</v>
+        <v>4.0220532135328384E-3</v>
       </c>
       <c r="O36">
-        <v>7.3210783090006447E-6</v>
+        <v>2.536019577648415E-4</v>
       </c>
       <c r="P36">
-        <v>8.8243781994559508E-3</v>
+        <v>9.4748368081276017E-3</v>
       </c>
       <c r="Q36">
-        <v>8.6529293878450427E-3</v>
+        <v>5.7070061145718734E-3</v>
       </c>
       <c r="R36">
-        <v>1.3012435640923079E-3</v>
+        <v>4.7899510090914147E-6</v>
       </c>
       <c r="S36">
-        <v>5.3267205259191429E-5</v>
+        <v>2.5529953968458869E-7</v>
       </c>
       <c r="T36">
-        <v>3.5617216209052169E-3</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>7.2257279558628836E-4</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>8.063799494032482</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>-6.9511667340583054</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.4584749225501952</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>1.247083581796494E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
       <c r="B37">
-        <v>5.1931593841575004E-6</v>
+        <v>5.6828464673356598E-6</v>
       </c>
       <c r="C37">
-        <v>5.537123033255973E-2</v>
+        <v>3.7138745083165413E-2</v>
       </c>
       <c r="D37">
-        <v>2.386955545166991E-3</v>
+        <v>2.3500691565243969E-3</v>
       </c>
       <c r="E37">
-        <v>6.0042028051914588E-2</v>
+        <v>4.0507446882664881E-2</v>
       </c>
       <c r="F37">
-        <v>6.8994257099432916</v>
+        <v>6.8994259980995158</v>
       </c>
       <c r="K37">
-        <v>4.6009838923964139</v>
+        <v>6.1650251781911898</v>
       </c>
       <c r="L37">
-        <v>4.2352561991280062</v>
+        <v>5.0263432575309031</v>
       </c>
       <c r="M37">
-        <v>4.6180335343551873</v>
+        <v>6.2004089594685139</v>
       </c>
       <c r="N37">
-        <v>1.5622700581226551E-4</v>
+        <v>4.0800293866984994E-3</v>
       </c>
       <c r="O37">
-        <v>7.4283909960762006E-6</v>
+        <v>2.5804001557567082E-4</v>
       </c>
       <c r="P37">
-        <v>8.8270158734807345E-3</v>
+        <v>9.5328034341823058E-3</v>
       </c>
       <c r="Q37">
-        <v>8.6538636890795516E-3</v>
+        <v>5.7114942378961369E-3</v>
       </c>
       <c r="R37">
-        <v>1.3204432003820479E-3</v>
+        <v>4.8597148778515204E-6</v>
       </c>
       <c r="S37">
-        <v>5.425400900591266E-5</v>
+        <v>2.5904016246605751E-7</v>
       </c>
       <c r="T37">
-        <v>3.6054008336024318E-3</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>7.3461087047628233E-4</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>8.1257115332605565</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>-6.9090344402831221</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.4105926300888143</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>1.246758590021294E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="B38">
-        <v>5.1737252188086148E-6</v>
+        <v>5.669785370357882E-6</v>
       </c>
       <c r="C38">
-        <v>5.6199109626112742E-2</v>
+        <v>3.7682318144519167E-2</v>
       </c>
       <c r="D38">
-        <v>2.4332917562358298E-3</v>
+        <v>2.391955698034646E-3</v>
       </c>
       <c r="E38">
-        <v>6.0987630937428462E-2</v>
+        <v>4.1140171193066122E-2</v>
       </c>
       <c r="F38">
-        <v>6.899406994830473</v>
+        <v>6.8994072970354763</v>
       </c>
       <c r="K38">
-        <v>4.6049233982407554</v>
+        <v>6.1709149646088663</v>
       </c>
       <c r="L38">
-        <v>4.2356168175353384</v>
+        <v>5.0333259798794323</v>
       </c>
       <c r="M38">
-        <v>4.622292082501688</v>
+        <v>6.20668874876419</v>
       </c>
       <c r="N38">
-        <v>1.5855198416876839E-4</v>
+        <v>4.1397479706222918E-3</v>
       </c>
       <c r="O38">
-        <v>7.5399182288392776E-6</v>
+        <v>2.6263701654859878E-4</v>
       </c>
       <c r="P38">
-        <v>8.829721376362001E-3</v>
+        <v>9.5925113903742743E-3</v>
       </c>
       <c r="Q38">
-        <v>8.654813751248016E-3</v>
+        <v>5.7161441936947853E-3</v>
       </c>
       <c r="R38">
-        <v>1.3402274064973001E-3</v>
+        <v>4.9316004202794173E-6</v>
       </c>
       <c r="S38">
-        <v>5.5278100362519559E-5</v>
+        <v>2.6289274702314841E-7</v>
       </c>
       <c r="T38">
-        <v>3.650256926776277E-3</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>7.4706267376351096E-4</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>8.1889921707967712</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-6.866204382762902</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.3620481736144257</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>1.246428761981904E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="B39">
-        <v>5.1536887167731264E-6</v>
+        <v>5.6563154381916038E-6</v>
       </c>
       <c r="C39">
-        <v>5.7052535306586973E-2</v>
+        <v>3.8242482627796698E-2</v>
       </c>
       <c r="D39">
-        <v>2.4814453405088851E-3</v>
+        <v>2.4353704083793408E-3</v>
       </c>
       <c r="E39">
-        <v>6.1963291166880437E-2</v>
+        <v>4.1793151090182383E-2</v>
       </c>
       <c r="F39">
-        <v>6.8993881045308392</v>
+        <v>6.8993884213222856</v>
       </c>
       <c r="K39">
-        <v>4.6089432162848221</v>
+        <v>6.176893515715622</v>
       </c>
       <c r="L39">
-        <v>4.2359915170651092</v>
+        <v>5.0404506196091754</v>
       </c>
       <c r="M39">
-        <v>4.6266325958447254</v>
+        <v>6.2130658589580161</v>
       </c>
       <c r="N39">
-        <v>1.609490010884498E-4</v>
+        <v>4.2012894143377468E-3</v>
       </c>
       <c r="O39">
-        <v>7.6557639210023653E-6</v>
+        <v>2.674015753912434E-4</v>
       </c>
       <c r="P39">
-        <v>8.8324976878717473E-3</v>
+        <v>9.6540410284168057E-3</v>
       </c>
       <c r="Q39">
-        <v>8.6557829680632258E-3</v>
+        <v>5.720965788557424E-3</v>
       </c>
       <c r="R39">
-        <v>1.360623427229599E-3</v>
+        <v>5.0057068912834849E-6</v>
       </c>
       <c r="S39">
-        <v>5.6341628256886458E-5</v>
+        <v>2.6686255658214791E-7</v>
       </c>
       <c r="T39">
-        <v>3.6963393752367968E-3</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>7.599496840111021E-4</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>8.2536938247936877</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>-6.8226567695541434</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.3128228123502979</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>1.2460939631199251E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40">
-        <v>5.1330218412924963E-6</v>
+        <v>5.6424172427215569E-6</v>
       </c>
       <c r="C40">
-        <v>5.7932714177007592E-2</v>
+        <v>3.8820016695851819E-2</v>
       </c>
       <c r="D40">
-        <v>2.5315239460176218E-3</v>
+        <v>2.4803978953637971E-3</v>
       </c>
       <c r="E40">
-        <v>6.2970443511893986E-2</v>
+        <v>4.246736890568082E-2</v>
       </c>
       <c r="F40">
-        <v>6.8993690334791404</v>
+        <v>6.899369365423536</v>
       </c>
       <c r="K40">
-        <v>4.6130460505375979</v>
+        <v>6.1829638719010811</v>
       </c>
       <c r="L40">
-        <v>4.2363817312305239</v>
+        <v>5.0477224829901424</v>
       </c>
       <c r="M40">
-        <v>4.6310664885215518</v>
+        <v>6.2195439116137763</v>
       </c>
       <c r="N40">
-        <v>1.6342147265566669E-4</v>
+        <v>4.2647392181917234E-3</v>
       </c>
       <c r="O40">
-        <v>7.776343795501785E-6</v>
+        <v>2.7234314367195788E-4</v>
       </c>
       <c r="P40">
-        <v>8.8353479252880132E-3</v>
+        <v>9.7174777258338934E-3</v>
       </c>
       <c r="Q40">
-        <v>8.6567687203835484E-3</v>
+        <v>5.7259646858319104E-3</v>
       </c>
       <c r="R40">
-        <v>1.381660230438836E-3</v>
+        <v>5.0821398644238297E-6</v>
       </c>
       <c r="S40">
-        <v>5.7446943163672168E-5</v>
+        <v>2.7095484544010839E-7</v>
       </c>
       <c r="T40">
-        <v>3.7437004992888251E-3</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>7.7329507283606662E-4</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>8.3198718617350309</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-6.7783692481345952</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.262896176311358</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>1.245754023173539E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41">
-        <v>5.1116948402112539E-6</v>
+        <v>5.6280701288535657E-6</v>
       </c>
       <c r="C41">
-        <v>5.88409304103025E-2</v>
+        <v>3.9415748151597527E-2</v>
       </c>
       <c r="D41">
-        <v>2.5836437851526942E-3</v>
+        <v>2.5271290744997448E-3</v>
       </c>
       <c r="E41">
-        <v>6.4010614043333594E-2</v>
+        <v>4.3163870948640833E-2</v>
       </c>
       <c r="F41">
-        <v>6.8993497758292248</v>
+        <v>6.899350123524278</v>
       </c>
       <c r="K41">
-        <v>4.6172341762335876</v>
+        <v>6.1891288154630528</v>
       </c>
       <c r="L41">
-        <v>4.2367881452974254</v>
+        <v>5.0551470542678034</v>
       </c>
       <c r="M41">
-        <v>4.6355930799568856</v>
+        <v>6.2261260658690967</v>
       </c>
       <c r="N41">
-        <v>1.6597303214517761E-4</v>
+        <v>4.3301883341674563E-3</v>
       </c>
       <c r="O41">
-        <v>7.9018750086611029E-6</v>
+        <v>2.774717469974138E-4</v>
       </c>
       <c r="P41">
-        <v>8.8382754532372668E-3</v>
+        <v>9.7829123658339252E-3</v>
       </c>
       <c r="Q41">
-        <v>8.6577733210197166E-3</v>
+        <v>5.7311521375861818E-3</v>
       </c>
       <c r="R41">
-        <v>1.4033686449843299E-3</v>
+        <v>5.1610117499809408E-6</v>
       </c>
       <c r="S41">
-        <v>5.8596470059967139E-5</v>
+        <v>2.751754617730378E-7</v>
       </c>
       <c r="T41">
-        <v>3.79239567021428E-3</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>7.8712349601110494E-4</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>8.3875847477569465</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-6.7333191296507948</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.212247714358341</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>1.245408786334069E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
       <c r="B42">
-        <v>5.0896760872633137E-6</v>
+        <v>5.613252096792224E-6</v>
       </c>
       <c r="C42">
-        <v>5.9778551854055E-2</v>
+        <v>4.0030558469549157E-2</v>
       </c>
       <c r="D42">
-        <v>2.637930507572361E-3</v>
+        <v>2.5756617711274639E-3</v>
       </c>
       <c r="E42">
-        <v>6.5085427364565004E-2</v>
+        <v>4.3883772735152662E-2</v>
       </c>
       <c r="F42">
-        <v>6.8993303254359502</v>
+        <v>6.8993306895125208</v>
       </c>
       <c r="K42">
-        <v>4.6215106319862684</v>
+        <v>6.1953913772531113</v>
       </c>
       <c r="L42">
-        <v>4.2372115597122821</v>
+        <v>5.062730060865599</v>
       </c>
       <c r="M42">
-        <v>4.6402130677231028</v>
+        <v>6.2328160034348068</v>
       </c>
       <c r="N42">
-        <v>1.6860755143078621E-4</v>
+        <v>4.3977336106202896E-3</v>
       </c>
       <c r="O42">
-        <v>8.0326159903763831E-6</v>
+        <v>2.8279789818838852E-4</v>
       </c>
       <c r="P42">
-        <v>8.8412838221075592E-3</v>
+        <v>9.8504417029713874E-3</v>
       </c>
       <c r="Q42">
-        <v>8.6587974290058892E-3</v>
+        <v>5.73652990394149E-3</v>
       </c>
       <c r="R42">
-        <v>1.425781514566403E-3</v>
+        <v>5.242442354784406E-6</v>
       </c>
       <c r="S42">
-        <v>5.9792990173469089E-5</v>
+        <v>2.7953050004685779E-7</v>
       </c>
       <c r="T42">
-        <v>3.842483539784333E-3</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>8.0146163104424057E-4</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>8.4568943615326511</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>-6.6874815692939649</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.1608562727123939</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>1.245058082873826E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
       <c r="B43">
-        <v>5.0669319443200306E-6</v>
+        <v>5.5979397102593298E-6</v>
       </c>
       <c r="C43">
-        <v>6.0747036961622501E-2</v>
+        <v>4.0665387227149519E-2</v>
       </c>
       <c r="D43">
-        <v>2.6945201640219052E-3</v>
+        <v>2.6261013771859952E-3</v>
       </c>
       <c r="E43">
-        <v>6.619661455331044E-2</v>
+        <v>4.4628264755803712E-2</v>
       </c>
       <c r="F43">
-        <v>6.8993106758333207</v>
+        <v>6.8993110569580436</v>
       </c>
       <c r="K43">
-        <v>4.6258778425602136</v>
+        <v>6.2017544920875514</v>
       </c>
       <c r="L43">
-        <v>4.2376534836007886</v>
+        <v>5.070475302592433</v>
       </c>
       <c r="M43">
-        <v>4.6449362939761576</v>
+        <v>6.2396152331271191</v>
       </c>
       <c r="N43">
-        <v>1.7132916050604751E-4</v>
+        <v>4.467478283712357E-3</v>
       </c>
       <c r="O43">
-        <v>8.1690238218286929E-6</v>
+        <v>2.8833327683688398E-4</v>
       </c>
       <c r="P43">
-        <v>8.844376811821146E-3</v>
+        <v>9.920169021599012E-3</v>
       </c>
       <c r="Q43">
-        <v>8.6598405049617688E-3</v>
+        <v>5.742136919155932E-3</v>
       </c>
       <c r="R43">
-        <v>1.4489338624374701E-3</v>
+        <v>5.3265595048647042E-6</v>
       </c>
       <c r="S43">
-        <v>6.1039327040212453E-5</v>
+        <v>2.8402674898079448E-7</v>
       </c>
       <c r="T43">
-        <v>3.894026284000267E-3</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>8.1633789476637079E-4</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>8.5278661682478667</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>-6.6408334843427781</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.1086994020011431</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>1.244701748443097E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
       <c r="B44">
-        <v>5.0434266143282584E-6</v>
+        <v>5.5821079594126322E-6</v>
       </c>
       <c r="C44">
-        <v>6.1747942423650087E-2</v>
+        <v>4.1321236983183372E-2</v>
       </c>
       <c r="D44">
-        <v>2.753560288643851E-3</v>
+        <v>2.6785615988411432E-3</v>
       </c>
       <c r="E44">
-        <v>6.7346021888196383E-2</v>
+        <v>4.5398618800750218E-2</v>
       </c>
       <c r="F44">
-        <v>6.899290820212558</v>
+        <v>6.8992912190903954</v>
       </c>
       <c r="K44">
-        <v>4.6303388673910364</v>
+        <v>6.208221919913413</v>
       </c>
       <c r="L44">
-        <v>4.2381149444451713</v>
+        <v>5.0783912911008553</v>
       </c>
       <c r="M44">
-        <v>4.6497633285908311</v>
+        <v>6.2465299460907504</v>
       </c>
       <c r="N44">
-        <v>1.7414226631094781E-4</v>
+        <v>4.53953250796883E-3</v>
       </c>
       <c r="O44">
-        <v>8.3114044648124527E-6</v>
+        <v>2.9409041726518611E-4</v>
       </c>
       <c r="P44">
-        <v>8.8475584722842379E-3</v>
+        <v>9.9922040578480295E-3</v>
       </c>
       <c r="Q44">
-        <v>8.6609038924429279E-3</v>
+        <v>5.7479550246799004E-3</v>
       </c>
       <c r="R44">
-        <v>1.4728630785650089E-3</v>
+        <v>5.4134997247937361E-6</v>
       </c>
       <c r="S44">
-        <v>6.2338699208823407E-5</v>
+        <v>2.8867089444847919E-7</v>
       </c>
       <c r="T44">
-        <v>3.9470898769180919E-3</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>8.317830337654259E-4</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>8.6005695616859938</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>-6.593347216182039</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.0557522971331679</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>1.2443395724848489E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
       <c r="B45">
-        <v>5.0191219614530096E-6</v>
+        <v>5.5657301447490761E-6</v>
       </c>
       <c r="C45">
-        <v>6.2782931583913362E-2</v>
+        <v>4.1999178656592882E-2</v>
       </c>
       <c r="D45">
-        <v>2.8152111268463522E-3</v>
+        <v>2.733165279167617E-3</v>
       </c>
       <c r="E45">
-        <v>6.8535620396062147E-2</v>
+        <v>4.6196194950152578E-2</v>
       </c>
       <c r="F45">
-        <v>6.8992707513964264</v>
+        <v>6.8992711687737982</v>
       </c>
       <c r="K45">
-        <v>4.6348966379393621</v>
+        <v>6.2147970148032936</v>
       </c>
       <c r="L45">
-        <v>4.2385966173298497</v>
+        <v>5.0864849672290697</v>
       </c>
       <c r="M45">
-        <v>4.6546909408084511</v>
+        <v>6.2535643254960087</v>
       </c>
       <c r="N45">
-        <v>1.7705157967666939E-4</v>
+        <v>4.6140139481566124E-3</v>
       </c>
       <c r="O45">
-        <v>8.4600130911063361E-6</v>
+        <v>3.0008322873653208E-4</v>
       </c>
       <c r="P45">
-        <v>8.8508331140358405E-3</v>
+        <v>1.006666456720186E-2</v>
       </c>
       <c r="Q45">
-        <v>8.6619915106642565E-3</v>
+        <v>5.7540014515806348E-3</v>
       </c>
       <c r="R45">
-        <v>1.4976091203081001E-3</v>
+        <v>5.5034090025190914E-6</v>
       </c>
       <c r="S45">
-        <v>6.3694533244608236E-5</v>
+        <v>2.9347034722276409E-7</v>
       </c>
       <c r="T45">
-        <v>4.0017443829383137E-3</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>8.4783007960964141E-4</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>8.6750781454070118</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>-6.5449954671006338</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-6.0019906668234597</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>1.243971367171016E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
       <c r="B46">
-        <v>4.9939773258546526E-6</v>
+        <v>5.5487777219264187E-6</v>
       </c>
       <c r="C46">
-        <v>6.3853783734932418E-2</v>
+        <v>4.2700357466904038E-2</v>
       </c>
       <c r="D46">
-        <v>2.879647017402264E-3</v>
+        <v>2.7900453316352099E-3</v>
       </c>
       <c r="E46">
-        <v>6.9767516372620311E-2</v>
+        <v>4.7022449272613107E-2</v>
       </c>
       <c r="F46">
-        <v>6.8992504618130042</v>
+        <v>6.8992508984807506</v>
       </c>
       <c r="K46">
-        <v>4.6395542876313502</v>
+        <v>6.2214822896097282</v>
       </c>
       <c r="L46">
-        <v>4.239100239842557</v>
+        <v>5.0947572145835052</v>
       </c>
       <c r="M46">
-        <v>4.6597271897333004</v>
+        <v>6.260716287972226</v>
       </c>
       <c r="N46">
-        <v>1.8006214336569731E-4</v>
+        <v>4.6910484252891136E-3</v>
       </c>
       <c r="O46">
-        <v>8.6153550311297508E-6</v>
+        <v>3.0632409022394958E-4</v>
       </c>
       <c r="P46">
-        <v>8.8542052855246182E-3</v>
+        <v>1.014367640855224E-2</v>
       </c>
       <c r="Q46">
-        <v>8.6631020757819647E-3</v>
+        <v>5.7603258761944626E-3</v>
       </c>
       <c r="R46">
-        <v>1.523214737934233E-3</v>
+        <v>5.5964436213636694E-6</v>
       </c>
       <c r="S46">
-        <v>6.5110549789027704E-5</v>
+        <v>2.984339002184523E-7</v>
       </c>
       <c r="T46">
-        <v>4.0580642812120399E-3</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>8.6451469112698923E-4</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>8.7514700830064172</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>-6.4957486325900859</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.947392655287004</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>1.2435969917818551E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
       <c r="B47">
-        <v>4.967949300975937E-6</v>
+        <v>5.531220160691975E-6</v>
       </c>
       <c r="C47">
-        <v>6.4962404402523877E-2</v>
+        <v>4.342599950572712E-2</v>
       </c>
       <c r="D47">
-        <v>2.9470579667959288E-3</v>
+        <v>2.8493457761741151E-3</v>
       </c>
       <c r="E47">
-        <v>7.1043962925304752E-2</v>
+        <v>4.7878942353193538E-2</v>
       </c>
       <c r="F47">
-        <v>6.8992299434652677</v>
+        <v>6.8992304002620122</v>
       </c>
       <c r="K47">
-        <v>4.6443154425205311</v>
+        <v>6.2282840778751778</v>
       </c>
       <c r="L47">
-        <v>4.2396271558393304</v>
+        <v>5.1032247162946867</v>
       </c>
       <c r="M47">
-        <v>4.6648748092802874</v>
+        <v>6.2679998887313113</v>
       </c>
       <c r="N47">
-        <v>1.8317935769905311E-4</v>
+        <v>4.7707706859266633E-3</v>
       </c>
       <c r="O47">
-        <v>8.7778660075248084E-6</v>
+        <v>3.1283260115353632E-4</v>
       </c>
       <c r="P47">
-        <v>8.8576798893381225E-3</v>
+        <v>1.0223373690958741E-2</v>
       </c>
       <c r="Q47">
-        <v>8.6642374492753478E-3</v>
+        <v>5.7668923563671563E-3</v>
       </c>
       <c r="R47">
-        <v>1.5497257231732371E-3</v>
+        <v>5.6927710708390372E-6</v>
       </c>
       <c r="S47">
-        <v>6.6590802420825218E-5</v>
+        <v>3.0356877811123922E-7</v>
       </c>
       <c r="T47">
-        <v>4.116128819213586E-3</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>8.8187551610962841E-4</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>8.8298285128587111</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>-6.4455762595767254</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.8919221670416144</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>1.2432160916389901E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
       <c r="B48">
-        <v>5.8242818559261969E-6</v>
+        <v>6.3954016057549804E-6</v>
       </c>
       <c r="C48">
-        <v>6.6110836743926246E-2</v>
+        <v>4.4177419019237357E-2</v>
       </c>
       <c r="D48">
-        <v>2.4918047108077892E-3</v>
+        <v>2.437781227561147E-3</v>
       </c>
       <c r="E48">
-        <v>6.9994004551129765E-2</v>
+        <v>4.6982324019629478E-2</v>
       </c>
       <c r="F48">
-        <v>7.7992299434652681</v>
+        <v>7.7992304002620134</v>
       </c>
       <c r="K48">
-        <v>4.6491830630381532</v>
+        <v>6.2352039867811726</v>
       </c>
       <c r="L48">
-        <v>4.2352099530184848</v>
+        <v>5.0405228953967347</v>
       </c>
       <c r="M48">
-        <v>4.6623432237939237</v>
+        <v>6.2600942883434643</v>
       </c>
       <c r="N48">
-        <v>1.8640901495259991E-4</v>
+        <v>4.8533250949039444E-3</v>
       </c>
       <c r="O48">
-        <v>7.4771702248040051E-6</v>
+        <v>2.6747439032054289E-4</v>
       </c>
       <c r="P48">
-        <v>8.861262156746692E-3</v>
+        <v>1.030590112308081E-2</v>
       </c>
       <c r="Q48">
-        <v>8.6631337006971322E-3</v>
+        <v>5.7214382132916323E-3</v>
       </c>
       <c r="R48">
-        <v>1.577191184668652E-3</v>
+        <v>5.7925711132969604E-6</v>
       </c>
       <c r="S48">
-        <v>5.7254121363548542E-5</v>
+        <v>2.6019174344590077E-7</v>
       </c>
       <c r="T48">
-        <v>4.1760223989006969E-3</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>7.9640927742433078E-4</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>8.8793745101594261</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>-6.3944491563002401</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.8355596844137656</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>1.242828576740254E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
       <c r="B49">
-        <v>5.7971969033637791E-6</v>
+        <v>6.3772640377201616E-6</v>
       </c>
       <c r="C49">
-        <v>6.7311195838890753E-2</v>
+        <v>4.4964959354929362E-2</v>
       </c>
       <c r="D49">
-        <v>2.550163704509994E-3</v>
+        <v>2.4899874013832651E-3</v>
       </c>
       <c r="E49">
-        <v>7.1312029429421789E-2</v>
+        <v>4.7859436284862653E-2</v>
       </c>
       <c r="F49">
-        <v>7.7992299434652681</v>
+        <v>7.7992304002620134</v>
       </c>
       <c r="K49">
-        <v>4.65420362003767</v>
+        <v>6.2423294498448403</v>
       </c>
       <c r="L49">
-        <v>4.2357211304234719</v>
+        <v>5.049194650093126</v>
       </c>
       <c r="M49">
-        <v>4.6676967673311234</v>
+        <v>6.2678313836215276</v>
       </c>
       <c r="N49">
-        <v>1.8978508749463381E-4</v>
+        <v>4.9398505798960834E-3</v>
       </c>
       <c r="O49">
-        <v>7.6333168761449418E-6</v>
+        <v>2.7337531035500202E-4</v>
       </c>
       <c r="P49">
-        <v>8.8650004295023448E-3</v>
+        <v>1.0392400423265511E-2</v>
       </c>
       <c r="Q49">
-        <v>8.664327431205961E-3</v>
+        <v>5.7274191129150264E-3</v>
       </c>
       <c r="R49">
-        <v>1.6058692424668619E-3</v>
+        <v>5.8969556297092439E-6</v>
       </c>
       <c r="S49">
-        <v>5.8791400173147149E-5</v>
+        <v>2.6463280415059141E-7</v>
       </c>
       <c r="T49">
-        <v>4.2397886842115706E-3</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>8.1286431147396495E-4</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>8.9316592467823916</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>-6.3421036439378753</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.7779067299091338</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>1.242429550808689E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
       <c r="B50">
-        <v>5.7690992534355656E-6</v>
+        <v>6.3584434031246536E-6</v>
       </c>
       <c r="C50">
-        <v>6.8556600303013457E-2</v>
+        <v>4.5781785738651402E-2</v>
       </c>
       <c r="D50">
-        <v>2.6113059701502002E-3</v>
+        <v>2.54449509245422E-3</v>
       </c>
       <c r="E50">
-        <v>7.2680530727756487E-2</v>
+        <v>4.877028947787878E-2</v>
       </c>
       <c r="F50">
-        <v>7.7992299434652681</v>
+        <v>7.7992304002620134</v>
       </c>
       <c r="K50">
-        <v>4.659339181442518</v>
+        <v>6.2495847238507292</v>
       </c>
       <c r="L50">
-        <v>4.236196649103694</v>
+        <v>5.0578100536872013</v>
       </c>
       <c r="M50">
-        <v>4.6731045499864212</v>
+        <v>6.2754293576049696</v>
       </c>
       <c r="N50">
-        <v>1.9328800616037401E-4</v>
+        <v>5.0295904889257198E-3</v>
       </c>
       <c r="O50">
-        <v>7.7801538974114297E-6</v>
+        <v>2.793550994066497E-4</v>
       </c>
       <c r="P50">
-        <v>8.8688595256234282E-3</v>
+        <v>1.0482111602310711E-2</v>
       </c>
       <c r="Q50">
-        <v>8.6655174062598879E-3</v>
+        <v>5.7334771889496544E-3</v>
       </c>
       <c r="R50">
-        <v>1.6356207394340491E-3</v>
+        <v>6.0052695302007563E-6</v>
       </c>
       <c r="S50">
-        <v>6.0172118636977127E-5</v>
+        <v>2.6926363605006068E-7</v>
       </c>
       <c r="T50">
-        <v>4.3056910759949876E-3</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>8.3001964367431468E-4</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>8.9867152872056231</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>-6.2887296324984803</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.7192898147347506</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>1.242023255464359E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
       <c r="B51">
-        <v>5.7399316157399501E-6</v>
+        <v>6.3389004286512513E-6</v>
       </c>
       <c r="C51">
-        <v>6.9849645289932344E-2</v>
+        <v>4.6629575751321928E-2</v>
       </c>
       <c r="D51">
-        <v>2.67543347838881E-3</v>
+        <v>2.6014592494975411E-3</v>
       </c>
       <c r="E51">
-        <v>7.4102434447751733E-2</v>
+        <v>4.9716862540236773E-2</v>
       </c>
       <c r="F51">
-        <v>7.7992299434652681</v>
+        <v>7.7992304002620134</v>
       </c>
       <c r="K51">
-        <v>4.6645944407890507</v>
+        <v>6.2569751761912844</v>
       </c>
       <c r="L51">
-        <v>4.236696901645991</v>
+        <v>5.0666404602546562</v>
       </c>
       <c r="M51">
-        <v>4.6786461384175428</v>
+        <v>6.2831729857226879</v>
       </c>
       <c r="N51">
-        <v>1.969254150282752E-4</v>
+        <v>5.1227323593084463E-3</v>
       </c>
       <c r="O51">
-        <v>7.9345448930702369E-6</v>
+        <v>2.8560481443015701E-4</v>
       </c>
       <c r="P51">
-        <v>8.8728466260031055E-3</v>
+        <v>1.057522208100407E-2</v>
       </c>
       <c r="Q51">
-        <v>8.6667327604436229E-3</v>
+        <v>5.7398047682280266E-3</v>
       </c>
       <c r="R51">
-        <v>1.666511888861442E-3</v>
+        <v>6.1177402340076334E-6</v>
       </c>
       <c r="S51">
-        <v>6.1619302134162626E-5</v>
+        <v>2.7406108255353282E-7</v>
       </c>
       <c r="T51">
-        <v>4.373841496236569E-3</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>8.4792110319555937E-4</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>9.0445854329989714</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>-6.2342853306918764</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.6596743897014079</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>1.2416093901332879E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>50</v>
+      </c>
       <c r="B52">
-        <v>5.709632345843413E-6</v>
+        <v>6.3185927776448541E-6</v>
       </c>
       <c r="C52">
-        <v>7.1193129526163218E-2</v>
+        <v>4.7510138081358427E-2</v>
       </c>
       <c r="D52">
-        <v>2.7427680495020449E-3</v>
+        <v>2.66104897082633E-3</v>
       </c>
       <c r="E52">
-        <v>7.5580894433607715E-2</v>
+        <v>5.0701291279462143E-2</v>
       </c>
       <c r="F52">
-        <v>7.7992299434652681</v>
+        <v>7.7992304002620134</v>
       </c>
       <c r="K52">
-        <v>4.6699735068906207</v>
+        <v>6.2645057397799153</v>
       </c>
       <c r="L52">
-        <v>4.2372220706555872</v>
+        <v>5.0756935923720619</v>
       </c>
       <c r="M52">
-        <v>4.684318099449114</v>
+        <v>6.2910659510426958</v>
       </c>
       <c r="N52">
-        <v>2.007052324309793E-4</v>
+        <v>5.2194749102060121E-3</v>
       </c>
       <c r="O52">
-        <v>8.0965841454215277E-6</v>
+        <v>2.9214226725446981E-4</v>
       </c>
       <c r="P52">
-        <v>8.8769689033142956E-3</v>
+        <v>1.067193042725959E-2</v>
       </c>
       <c r="Q52">
-        <v>8.6679789981022604E-3</v>
+        <v>5.7464291920820776E-3</v>
       </c>
       <c r="R52">
-        <v>1.698609740595988E-3</v>
+        <v>6.2346138170367147E-6</v>
       </c>
       <c r="S52">
-        <v>6.313791265476005E-5</v>
+        <v>2.7903467255688698E-7</v>
       </c>
       <c r="T52">
-        <v>4.44435990409739E-3</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>8.6661830940604797E-4</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>9.1053227604516991</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>-6.1787317435060203</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.5990265599375846</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>1.241187678572325E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>51</v>
+      </c>
       <c r="B53">
-        <v>5.6774400219348824E-6</v>
+        <v>6.2967668350481653E-6</v>
       </c>
       <c r="C53">
-        <v>7.2590075678748145E-2</v>
+        <v>4.8425425614226428E-2</v>
       </c>
       <c r="D53">
-        <v>2.813864084915759E-3</v>
+        <v>2.72371796073906E-3</v>
       </c>
       <c r="E53">
-        <v>7.7118722559268785E-2</v>
+        <v>5.1725480598472623E-2</v>
       </c>
       <c r="F53">
-        <v>7.7984665745268531</v>
+        <v>7.798467539744335</v>
       </c>
       <c r="K53">
-        <v>4.6754808545578141</v>
+        <v>6.2721821221463836</v>
       </c>
       <c r="L53">
-        <v>4.2377771364227499</v>
+        <v>5.0850199791841613</v>
       </c>
       <c r="M53">
-        <v>4.6901236897113527</v>
+        <v>6.299112404064152</v>
       </c>
       <c r="N53">
-        <v>2.046360211715009E-4</v>
+        <v>5.3200327192458388E-3</v>
       </c>
       <c r="O53">
-        <v>8.2677776705726497E-6</v>
+        <v>2.9901773265061222E-4</v>
       </c>
       <c r="P53">
-        <v>8.8812340034206648E-3</v>
+        <v>1.0772450860630559E-2</v>
       </c>
       <c r="Q53">
-        <v>8.6692593651944011E-3</v>
+        <v>5.7533923227213466E-3</v>
       </c>
       <c r="R53">
-        <v>1.7319867166764209E-3</v>
+        <v>6.3561562485567106E-6</v>
       </c>
       <c r="S53">
-        <v>6.4740651886264025E-5</v>
+        <v>2.8422282330871668E-7</v>
       </c>
       <c r="T53">
-        <v>4.5173750386829281E-3</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>8.8622876272114359E-4</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>9.1690079226446652</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>-6.1220271272193827</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.5373069562531043</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>1.2407578011598029E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
       <c r="B54">
-        <v>5.6446566724922514E-6</v>
+        <v>6.2747721609403839E-6</v>
       </c>
       <c r="C54">
-        <v>7.404374675361966E-2</v>
+        <v>4.9377544523674093E-2</v>
       </c>
       <c r="D54">
-        <v>2.8883874135538202E-3</v>
+        <v>2.789144455580911E-3</v>
       </c>
       <c r="E54">
-        <v>7.8720737584061728E-2</v>
+        <v>5.2792704406210443E-2</v>
       </c>
       <c r="F54">
-        <v>7.7984475540463514</v>
+        <v>7.7984485428164687</v>
       </c>
       <c r="K54">
-        <v>4.6811210101398499</v>
+        <v>6.2800101012459519</v>
       </c>
       <c r="L54">
-        <v>4.2383579813570398</v>
+        <v>5.0945515772132524</v>
       </c>
       <c r="M54">
-        <v>4.696072499321704</v>
+        <v>6.3073239565196726</v>
       </c>
       <c r="N54">
-        <v>2.087270262444369E-4</v>
+        <v>5.4246371981332402E-3</v>
       </c>
       <c r="O54">
-        <v>8.4469490570494235E-6</v>
+        <v>3.061956372871002E-4</v>
       </c>
       <c r="P54">
-        <v>8.8856501417170445E-3</v>
+        <v>1.0877014580170329E-2</v>
       </c>
       <c r="Q54">
-        <v>8.6705720948731975E-3</v>
+        <v>5.7606633002542408E-3</v>
       </c>
       <c r="R54">
-        <v>1.766721009692883E-3</v>
+        <v>6.4826548615827106E-6</v>
       </c>
       <c r="S54">
-        <v>6.6419001501376513E-5</v>
+        <v>2.8958046237728029E-7</v>
       </c>
       <c r="T54">
-        <v>4.593023919432131E-3</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>9.0668800790055977E-4</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>9.2356984463437239</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>-6.0641277534156188</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.4744759152071083</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>1.240319434330227E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>53</v>
+      </c>
       <c r="B55">
-        <v>5.6105262548731178E-6</v>
+        <v>6.2518641988690966E-6</v>
       </c>
       <c r="C55">
-        <v>7.5557690569365746E-2</v>
+        <v>5.0368787078314367E-2</v>
       </c>
       <c r="D55">
-        <v>2.966930196916409E-3</v>
+        <v>2.8578070564834932E-3</v>
       </c>
       <c r="E55">
-        <v>8.0390370969825112E-2</v>
+        <v>5.3905297409925293E-2</v>
       </c>
       <c r="F55">
-        <v>7.7984282678884309</v>
+        <v>7.7984292814005922</v>
       </c>
       <c r="K55">
-        <v>4.6868989029447556</v>
+        <v>6.287995375171608</v>
       </c>
       <c r="L55">
-        <v>4.2389696043074121</v>
+        <v>5.104337839721949</v>
       </c>
       <c r="M55">
-        <v>4.7021642265011634</v>
+        <v>6.3157038880781338</v>
       </c>
       <c r="N55">
-        <v>2.1298830448246639E-4</v>
+        <v>5.5335402100661372E-3</v>
       </c>
       <c r="O55">
-        <v>8.6356202701362427E-6</v>
+        <v>3.1372791429512168E-4</v>
       </c>
       <c r="P55">
-        <v>8.8902262703732977E-3</v>
+        <v>1.098587311804089E-2</v>
       </c>
       <c r="Q55">
-        <v>8.6719233442847151E-3</v>
+        <v>5.7682887660091301E-3</v>
       </c>
       <c r="R55">
-        <v>1.802897648165043E-3</v>
+        <v>6.6144224019913377E-6</v>
       </c>
       <c r="S55">
-        <v>6.8186814561202534E-5</v>
+        <v>2.9514668184254311E-7</v>
       </c>
       <c r="T55">
-        <v>4.6714565984008879E-3</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>9.2812136474189962E-4</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>9.3054801129188167</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>-6.0049869445005584</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.4104944283230756</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>1.23987225899039E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>54</v>
+      </c>
       <c r="B56">
-        <v>5.574965163418635E-6</v>
+        <v>6.2279850369689081E-6</v>
       </c>
       <c r="C56">
-        <v>7.7135750577462484E-2</v>
+        <v>5.1401634470093299E-2</v>
       </c>
       <c r="D56">
-        <v>3.0498226569302929E-3</v>
+        <v>2.9299504551863541E-3</v>
       </c>
       <c r="E56">
-        <v>8.213193924758723E-2</v>
+        <v>5.5066200723645972E-2</v>
       </c>
       <c r="F56">
-        <v>7.7984087043666728</v>
+        <v>7.7984097438965803</v>
       </c>
       <c r="K56">
-        <v>4.6928196528273487</v>
+        <v>6.296144564362586</v>
       </c>
       <c r="L56">
-        <v>4.2396145417748157</v>
+        <v>5.1143892396259911</v>
       </c>
       <c r="M56">
-        <v>4.7084067440085207</v>
+        <v>6.3242574228286559</v>
       </c>
       <c r="N56">
-        <v>2.1743075413925621E-4</v>
+        <v>5.6470143904089852E-3</v>
       </c>
       <c r="O56">
-        <v>8.83459202099661E-6</v>
+        <v>3.2164150975194872E-4</v>
       </c>
       <c r="P56">
-        <v>8.8949719861578323E-3</v>
+        <v>1.109929886482418E-2</v>
       </c>
       <c r="Q56">
-        <v>8.6733146175910075E-3</v>
+        <v>5.7763204744198694E-3</v>
       </c>
       <c r="R56">
-        <v>1.840608753243387E-3</v>
+        <v>6.7517979611250068E-6</v>
       </c>
       <c r="S56">
-        <v>7.0051246372943379E-5</v>
+        <v>3.0093438498955493E-7</v>
       </c>
       <c r="T56">
-        <v>4.7528334513065188E-3</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>9.5060000130380332E-4</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>9.3784505948342485</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>-5.9445561011517754</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.3453174968587547</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>1.2394159043956951E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>55</v>
+      </c>
       <c r="B57">
-        <v>5.5378828887427519E-6</v>
+        <v>6.2030718299954824E-6</v>
       </c>
       <c r="C57">
-        <v>7.878210453125209E-2</v>
+        <v>5.2478783003757898E-2</v>
       </c>
       <c r="D57">
-        <v>3.1374317963093761E-3</v>
+        <v>3.0058444559157948E-3</v>
       </c>
       <c r="E57">
-        <v>8.3950128816677405E-2</v>
+        <v>5.6278613226885453E-2</v>
       </c>
       <c r="F57">
-        <v>7.7983888509869983</v>
+        <v>7.7983899179041432</v>
       </c>
       <c r="K57">
-        <v>4.698888371200999</v>
+        <v>6.3044652066008542</v>
       </c>
       <c r="L57">
-        <v>4.2402956738614233</v>
+        <v>5.1247221378120562</v>
       </c>
       <c r="M57">
-        <v>4.7148069183630854</v>
+        <v>6.3329956752691388</v>
       </c>
       <c r="N57">
-        <v>2.2206622440855089E-4</v>
+        <v>5.7653560099791418E-3</v>
       </c>
       <c r="O57">
-        <v>9.0447324590353476E-6</v>
+        <v>3.2996668693663421E-4</v>
       </c>
       <c r="P57">
-        <v>8.8998977054593181E-3</v>
+        <v>1.121758727349984E-2</v>
       </c>
       <c r="Q57">
-        <v>8.6747464383659777E-3</v>
+        <v>5.7847546381972776E-3</v>
       </c>
       <c r="R57">
-        <v>1.8799544756182859E-3</v>
+        <v>6.895150485039129E-6</v>
       </c>
       <c r="S57">
-        <v>7.2020359818735955E-5</v>
+        <v>3.0695673871572692E-7</v>
       </c>
       <c r="T57">
-        <v>4.8373275279732456E-3</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>9.7420209672180284E-4</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>9.4547201480902299</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>-5.8827833852832612</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.2788959638313528</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>1.2389499484303521E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>56</v>
+      </c>
       <c r="B58">
-        <v>5.4991812566408257E-6</v>
+        <v>6.1770562101001039E-6</v>
       </c>
       <c r="C58">
-        <v>8.0501301638864431E-2</v>
+        <v>5.3603167970754317E-2</v>
       </c>
       <c r="D58">
-        <v>3.2301666424539781E-3</v>
+        <v>3.0857872831873412E-3</v>
       </c>
       <c r="E58">
-        <v>8.5850035740171832E-2</v>
+        <v>5.7546020142216783E-2</v>
       </c>
       <c r="F58">
-        <v>7.7983686943717396</v>
+        <v>7.7983697901495113</v>
       </c>
       <c r="K58">
-        <v>4.7051110248553174</v>
+        <v>6.312964783980064</v>
       </c>
       <c r="L58">
-        <v>4.2410154711474419</v>
+        <v>5.1353505250893043</v>
       </c>
       <c r="M58">
-        <v>4.7213658053375092</v>
+        <v>6.3419264424702648</v>
       </c>
       <c r="N58">
-        <v>2.269076219528581E-4</v>
+        <v>5.8888875855028352E-3</v>
       </c>
       <c r="O58">
-        <v>9.2668761798366011E-6</v>
+        <v>3.3873632531000801E-4</v>
       </c>
       <c r="P58">
-        <v>8.9050147797114388E-3</v>
+        <v>1.1341060742483989E-2</v>
       </c>
       <c r="Q58">
-        <v>8.6762248112114571E-3</v>
+        <v>5.7936281607665202E-3</v>
       </c>
       <c r="R58">
-        <v>1.9210438873410031E-3</v>
+        <v>7.0448821610919328E-6</v>
       </c>
       <c r="S58">
-        <v>7.4103142325157212E-5</v>
+        <v>3.1322859672298412E-7</v>
       </c>
       <c r="T58">
-        <v>4.9251258332289596E-3</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>9.9901405959326207E-4</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>9.5344125312634045</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>-5.8196126770155416</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.2111819174294283</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>1.238473972097116E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>57</v>
+      </c>
       <c r="B59">
-        <v>5.4587536838904323E-6</v>
+        <v>6.1498637457912968E-6</v>
       </c>
       <c r="C59">
-        <v>8.2298304778315831E-2</v>
+        <v>5.4777990777441922E-2</v>
       </c>
       <c r="D59">
-        <v>3.3284843468034432E-3</v>
+        <v>3.1701093657742741E-3</v>
       </c>
       <c r="E59">
-        <v>8.7837210811384514E-2</v>
+        <v>5.8872225533684729E-2</v>
       </c>
       <c r="F59">
-        <v>7.7983482201738568</v>
+        <v>7.7983493463997942</v>
       </c>
       <c r="K59">
-        <v>4.7114934281827736</v>
+        <v>6.3216503723265447</v>
       </c>
       <c r="L59">
-        <v>4.2417778504992576</v>
+        <v>5.1462865517146064</v>
       </c>
       <c r="M59">
-        <v>4.728096336453131</v>
+        <v>6.351055206258815</v>
       </c>
       <c r="N59">
-        <v>2.3196903464525401E-4</v>
+        <v>6.0179608706235994E-3</v>
       </c>
       <c r="O59">
-        <v>9.5022111599356535E-6</v>
+        <v>3.479856488875215E-4</v>
       </c>
       <c r="P59">
-        <v>8.9103354766532986E-3</v>
+        <v>1.147007080252393E-2</v>
       </c>
       <c r="Q59">
-        <v>8.6777498417617283E-3</v>
+        <v>5.8029973764921654E-3</v>
       </c>
       <c r="R59">
-        <v>1.9639959976902092E-3</v>
+        <v>7.201432243984234E-6</v>
       </c>
       <c r="S59">
-        <v>7.6309727090555397E-5</v>
+        <v>3.1976665104525171E-7</v>
       </c>
       <c r="T59">
-        <v>5.0164307581972321E-3</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>1.0251312138181759E-3</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>9.6176659951520787</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>-5.7549866308295989</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.1421238031434768</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>1.2379875791497139E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>58</v>
+      </c>
       <c r="B60">
-        <v>5.416484247863129E-6</v>
+        <v>6.1214132081596649E-6</v>
       </c>
       <c r="C60">
-        <v>8.4178538598113736E-2</v>
+        <v>5.6006749858672093E-2</v>
       </c>
       <c r="D60">
-        <v>3.432897422373763E-3</v>
+        <v>3.2591777940817919E-3</v>
       </c>
       <c r="E60">
-        <v>8.9917710505245468E-2</v>
+        <v>6.0261389212461713E-2</v>
       </c>
       <c r="F60">
-        <v>7.7983274129818607</v>
+        <v>7.7983285713691934</v>
       </c>
       <c r="K60">
-        <v>4.7180419000741161</v>
+        <v>6.3305308126793278</v>
       </c>
       <c r="L60">
-        <v>4.2425857670107341</v>
+        <v>5.1575473945924291</v>
       </c>
       <c r="M60">
-        <v>4.7349971491049407</v>
+        <v>6.3603918957535388</v>
       </c>
       <c r="N60">
-        <v>2.3726586377585671E-4</v>
+        <v>6.1529602806649321E-3</v>
       </c>
       <c r="O60">
-        <v>9.7517298347469236E-6</v>
+        <v>3.5775532872976641E-4</v>
       </c>
       <c r="P60">
-        <v>8.9158732298649998E-3</v>
+        <v>1.1605001122191349E-2</v>
       </c>
       <c r="Q60">
-        <v>8.6793296860840016E-3</v>
+        <v>5.8128982485678906E-3</v>
       </c>
       <c r="R60">
-        <v>2.0089409088949631E-3</v>
+        <v>7.3652814247684926E-6</v>
       </c>
       <c r="S60">
-        <v>7.8651322327599117E-5</v>
+        <v>3.2658842491571781E-7</v>
       </c>
       <c r="T60">
-        <v>5.1114616997300659E-3</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1.0526592499675151E-3</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>9.7046345164426349</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>-5.6888418910642429</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-5.071664133983667</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>1.237490274489958E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>59</v>
+      </c>
       <c r="B61">
-        <v>5.3722466677762582E-6</v>
+        <v>6.0916158083314787E-6</v>
       </c>
       <c r="C61">
-        <v>8.6147944480448865E-2</v>
+        <v>5.7293276006588928E-2</v>
       </c>
       <c r="D61">
-        <v>3.5439822987435579E-3</v>
+        <v>3.3534014991760102E-3</v>
       </c>
       <c r="E61">
-        <v>9.2098154834013873E-2</v>
+        <v>6.1718068882213359E-2</v>
       </c>
       <c r="F61">
-        <v>7.7983062562122942</v>
+        <v>7.7983074486129507</v>
       </c>
       <c r="K61">
-        <v>4.724762789579021</v>
+        <v>6.3396153011230263</v>
       </c>
       <c r="L61">
-        <v>4.2434436130215412</v>
+        <v>5.1691516166064586</v>
       </c>
       <c r="M61">
-        <v>4.74207788835007</v>
+        <v>6.3699471186700114</v>
       </c>
       <c r="N61">
-        <v>2.4281498899393259E-4</v>
+        <v>6.2943067429072526E-3</v>
       </c>
       <c r="O61">
-        <v>1.001679586045714E-5</v>
+        <v>3.6809025666733041E-4</v>
       </c>
       <c r="P61">
-        <v>8.9216425845913654E-3</v>
+        <v>1.174627192398704E-2</v>
       </c>
       <c r="Q61">
-        <v>8.6809658894425566E-3</v>
+        <v>5.8233641220525488E-3</v>
       </c>
       <c r="R61">
-        <v>2.0560211427136789E-3</v>
+        <v>7.5369568637892932E-6</v>
       </c>
       <c r="S61">
-        <v>8.1140649487897558E-5</v>
+        <v>3.3371312481052021E-7</v>
       </c>
       <c r="T61">
-        <v>5.2104568814315922E-3</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>1.081715473479596E-3</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>9.7954891994839652</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>-5.6211137316440158</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.9997427718489149</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>1.236981543137111E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>60</v>
+      </c>
       <c r="B62">
-        <v>5.3259031978349193E-6</v>
+        <v>6.0603743021493097E-6</v>
       </c>
       <c r="C62">
-        <v>8.82130435349915E-2</v>
+        <v>5.8641772869274252E-2</v>
       </c>
       <c r="D62">
-        <v>3.66238947269556E-3</v>
+        <v>3.4532373416866859E-3</v>
       </c>
       <c r="E62">
-        <v>9.4385793213840788E-2</v>
+        <v>6.3247268326773534E-2</v>
       </c>
       <c r="F62">
-        <v>7.7982847319862314</v>
+        <v>7.7982859604065951</v>
       </c>
       <c r="K62">
-        <v>4.731663182387277</v>
+        <v>6.3489133238269346</v>
       </c>
       <c r="L62">
-        <v>4.2443559869686522</v>
+        <v>5.1811173583546486</v>
       </c>
       <c r="M62">
-        <v>4.7493469362424339</v>
+        <v>6.3797304614994834</v>
       </c>
       <c r="N62">
-        <v>2.4863494382226949E-4</v>
+        <v>6.4424621550632534E-3</v>
       </c>
       <c r="O62">
-        <v>1.029890459975928E-5</v>
+        <v>3.7904057105929678E-4</v>
       </c>
       <c r="P62">
-        <v>8.9276595019700845E-3</v>
+        <v>1.1894344619035409E-2</v>
       </c>
       <c r="Q62">
-        <v>8.6826637789402857E-3</v>
+        <v>5.8344547525457846E-3</v>
       </c>
       <c r="R62">
-        <v>2.105393155044323E-3</v>
+        <v>7.7170379572637622E-6</v>
       </c>
       <c r="S62">
-        <v>8.3792054139257625E-5</v>
+        <v>3.411620999112353E-7</v>
       </c>
       <c r="T62">
-        <v>5.313675416630392E-3</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>1.112430731214946E-3</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>9.890419982690009</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>-5.5517306184941901</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.9262978729189157</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>1.2364608538656919E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>61</v>
+      </c>
       <c r="B63">
-        <v>5.2773032907267298E-6</v>
+        <v>6.0275820067769264E-6</v>
       </c>
       <c r="C63">
-        <v>9.0381009023768305E-2</v>
+        <v>6.0056863523827768E-2</v>
       </c>
       <c r="D63">
-        <v>3.7888556939758662E-3</v>
+        <v>3.5591972678318418E-3</v>
       </c>
       <c r="E63">
-        <v>9.6788579516801643E-2</v>
+        <v>6.4854492725411328E-2</v>
       </c>
       <c r="F63">
-        <v>7.798262820993684</v>
+        <v>7.7982640876100211</v>
       </c>
       <c r="K63">
-        <v>4.7387505915909074</v>
+        <v>6.3584345103011932</v>
       </c>
       <c r="L63">
-        <v>4.2453282984367791</v>
+        <v>5.1934629686849982</v>
       </c>
       <c r="M63">
-        <v>4.756813082676187</v>
+        <v>6.3897503694073077</v>
       </c>
       <c r="N63">
-        <v>2.5474612431515439E-4</v>
+        <v>6.5979345033710468E-3</v>
       </c>
       <c r="O63">
-        <v>1.0599742147086769E-5</v>
+        <v>3.9066095449036839E-4</v>
       </c>
       <c r="P63">
-        <v>8.9339414435862345E-3</v>
+        <v>1.2049726410483861E-2</v>
       </c>
       <c r="Q63">
-        <v>8.6844265786506138E-3</v>
+        <v>5.8462366232985164E-3</v>
       </c>
       <c r="R63">
-        <v>2.1572290807085558E-3</v>
+        <v>7.9061629792471603E-6</v>
       </c>
       <c r="S63">
-        <v>8.6621626748690649E-5</v>
+        <v>3.4895925556588791E-7</v>
       </c>
       <c r="T63">
-        <v>5.4213996393333514E-3</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1.144951261947365E-3</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>9.989637597987663</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>-5.4806174373567629</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.8512627885897217</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>1.235927667423133E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>62</v>
+      </c>
       <c r="B64">
-        <v>5.2262821970150161E-6</v>
+        <v>5.9931215964099913E-6</v>
       </c>
       <c r="C64">
-        <v>9.2659749900868116E-2</v>
+        <v>6.154364421477504E-2</v>
       </c>
       <c r="D64">
-        <v>3.9242185384482141E-3</v>
+        <v>3.671856818475362E-3</v>
       </c>
       <c r="E64">
-        <v>9.9315258002114173E-2</v>
+        <v>6.6545812240561025E-2</v>
       </c>
       <c r="F64">
-        <v>7.7982405023346546</v>
+        <v>7.7982418095144981</v>
       </c>
       <c r="K64">
-        <v>4.7460324943346288</v>
+        <v>6.3681912336530049</v>
       </c>
       <c r="L64">
-        <v>4.2463654389067793</v>
+        <v>5.206214109318597</v>
       </c>
       <c r="M64">
-        <v>4.7644750651231673</v>
+        <v>6.4000220716816703</v>
       </c>
       <c r="N64">
-        <v>2.6117102910905087E-4</v>
+        <v>6.7612838072889586E-3</v>
       </c>
       <c r="O64">
-        <v>1.0920952232905951E-5</v>
+        <v>4.0301653562787768E-4</v>
       </c>
       <c r="P64">
-        <v>8.9405076242424358E-3</v>
+        <v>1.221297614172558E-2</v>
       </c>
       <c r="Q64">
-        <v>8.6862655123229708E-3</v>
+        <v>5.8587609929059434E-3</v>
       </c>
       <c r="R64">
-        <v>2.2117187505496052E-3</v>
+        <v>8.1050367614493003E-6</v>
       </c>
       <c r="S64">
-        <v>8.9647891358328677E-5</v>
+        <v>3.5712961133022319E-7</v>
       </c>
       <c r="T64">
-        <v>5.5339377545277199E-3</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>1.1794408062011849E-3</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>10.09337581287175</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>-5.4076941759107271</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.7745608601851606</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>1.2353812909154321E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>63</v>
+      </c>
       <c r="B65">
-        <v>5.1726592845379266E-6</v>
+        <v>5.9568637972248588E-6</v>
       </c>
       <c r="C65">
-        <v>9.5058007505257849E-2</v>
+        <v>6.3107746576837195E-2</v>
       </c>
       <c r="D65">
-        <v>4.0694340748124698E-3</v>
+        <v>3.791865208886237E-3</v>
       </c>
       <c r="E65">
-        <v>0.1019754617487368</v>
+        <v>6.8327935456803129E-2</v>
       </c>
       <c r="F65">
-        <v>7.7982177533415573</v>
+        <v>7.798219103665315</v>
       </c>
       <c r="K65">
-        <v>4.7535172520053832</v>
+        <v>6.3781954976675834</v>
       </c>
       <c r="L65">
-        <v>4.2474750883742409</v>
+        <v>5.2193964582075374</v>
       </c>
       <c r="M65">
-        <v>4.7723520486570594</v>
+        <v>6.4105592066194976</v>
       </c>
       <c r="N65">
-        <v>2.679345447002981E-4</v>
+        <v>6.9331288686852038E-3</v>
       </c>
       <c r="O65">
-        <v>1.126493229285852E-5</v>
+        <v>4.1617837827799461E-4</v>
       </c>
       <c r="P65">
-        <v>8.9473790326726928E-3</v>
+        <v>1.2384711686288271E-2</v>
       </c>
       <c r="Q65">
-        <v>8.6881806860256844E-3</v>
+        <v>5.8720843070315751E-3</v>
       </c>
       <c r="R65">
-        <v>2.2690720170142351E-3</v>
+        <v>8.3144396573984635E-6</v>
       </c>
       <c r="S65">
-        <v>9.2891817018356834E-5</v>
+        <v>3.6570142530180872E-7</v>
       </c>
       <c r="T65">
-        <v>5.6516268612392482E-3</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1.216083732434392E-3</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>10.20189414665716</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>-5.3328745758459632</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.6961150598581511</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>1.234821052130615E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>64</v>
+      </c>
       <c r="B66">
-        <v>5.1162361929667918E-6</v>
+        <v>5.9186658807238884E-6</v>
       </c>
       <c r="C66">
-        <v>9.7585467878325782E-2</v>
+        <v>6.4755409948169168E-2</v>
       </c>
       <c r="D66">
-        <v>4.2255982949930999E-3</v>
+        <v>3.9199573746654332E-3</v>
       </c>
       <c r="E66">
-        <v>0.1047798258939813</v>
+        <v>7.0208294424163445E-2</v>
       </c>
       <c r="F66">
-        <v>7.7981945493751432</v>
+        <v>7.7981959456607193</v>
       </c>
       <c r="K66">
-        <v>4.7612135905139397</v>
+        <v>6.3884589075816871</v>
       </c>
       <c r="L66">
-        <v>4.2486641391595414</v>
+        <v>5.233031244902131</v>
       </c>
       <c r="M66">
-        <v>4.7804463203253968</v>
+        <v>6.4213700580822151</v>
       </c>
       <c r="N66">
-        <v>2.7506425615606028E-4</v>
+        <v>7.1141552711965154E-3</v>
       </c>
       <c r="O66">
-        <v>1.1633946285165961E-5</v>
+        <v>4.3022500461616732E-4</v>
       </c>
       <c r="P66">
-        <v>8.9545789867462207E-3</v>
+        <v>1.256561800237873E-2</v>
       </c>
       <c r="Q66">
-        <v>8.6901830649245213E-3</v>
+        <v>5.8863257085528444E-3</v>
       </c>
       <c r="R66">
-        <v>2.3295214670141198E-3</v>
+        <v>8.53523794162337E-6</v>
       </c>
       <c r="S66">
-        <v>9.6377531687245557E-5</v>
+        <v>3.7470761971863079E-7</v>
       </c>
       <c r="T66">
-        <v>5.7748363925949394E-3</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1.255088085372848E-3</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>10.315480993080261</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>-5.2560655887600447</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.6158445171229374</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>1.2342463011754259E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>65</v>
+      </c>
       <c r="B67">
-        <v>5.0567946843166533E-6</v>
+        <v>5.8783698600695294E-6</v>
       </c>
       <c r="C67">
-        <v>0.1002528927235639</v>
+        <v>6.6493565735983556E-2</v>
       </c>
       <c r="D67">
-        <v>4.3939733581209121E-3</v>
+        <v>4.0569684777068274E-3</v>
       </c>
       <c r="E67">
-        <v>0.10774011810405031</v>
+        <v>7.2195143399432463E-2</v>
       </c>
       <c r="F67">
-        <v>7.7981708635889442</v>
+        <v>7.7981723089216768</v>
       </c>
       <c r="K67">
-        <v>4.7691303305103183</v>
+        <v>6.3989972545909959</v>
       </c>
       <c r="L67">
-        <v>4.2499407243450884</v>
+        <v>5.2471539293090181</v>
       </c>
       <c r="M67">
-        <v>4.7887635870396066</v>
+        <v>6.4324751842636756</v>
       </c>
       <c r="N67">
-        <v>2.8259083643808588E-4</v>
+        <v>7.3051247073845256E-3</v>
       </c>
       <c r="O67">
-        <v>1.20306770309054E-5</v>
+        <v>4.4525047768065838E-4</v>
       </c>
       <c r="P67">
-        <v>8.9621331559411269E-3</v>
+        <v>1.275645492505947E-2</v>
       </c>
       <c r="Q67">
-        <v>8.6922834644296166E-3</v>
+        <v>5.9015374436157302E-3</v>
       </c>
       <c r="R67">
-        <v>2.393325579452031E-3</v>
+        <v>8.7683959508206467E-6</v>
       </c>
       <c r="S67">
-        <v>1.0013270208601799E-4</v>
+        <v>3.8418194142347972E-7</v>
       </c>
       <c r="T67">
-        <v>5.9039720585155704E-3</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>1.2966893874591259E-3</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>10.43445726602889</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>-5.1771694847299159</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.5336536168672268</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>1.233656153742904E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>66</v>
+      </c>
       <c r="B68">
-        <v>4.9940943095867632E-6</v>
+        <v>5.8358004665245471E-6</v>
       </c>
       <c r="C68">
-        <v>0.10307227270490039</v>
+        <v>6.8329936243579928E-2</v>
       </c>
       <c r="D68">
-        <v>4.5760198123475484E-3</v>
+        <v>4.2038513925595376E-3</v>
       </c>
       <c r="E68">
-        <v>0.11086938960491111</v>
+        <v>7.4297674015127615E-2</v>
       </c>
       <c r="F68">
-        <v>7.7981466666588961</v>
+        <v>7.7981481644257498</v>
       </c>
       <c r="K68">
-        <v>4.7772776041776286</v>
+        <v>6.4098236340124028</v>
       </c>
       <c r="L68">
-        <v>4.2513153889265229</v>
+        <v>5.2617903516940308</v>
       </c>
       <c r="M68">
-        <v>4.7973203923033942</v>
+        <v>6.4438842022532263</v>
       </c>
       <c r="N68">
-        <v>2.9054848818535592E-4</v>
+        <v>7.5068857141405224E-3</v>
       </c>
       <c r="O68">
-        <v>1.2458514977724909E-5</v>
+        <v>4.6135633168180909E-4</v>
       </c>
       <c r="P68">
-        <v>8.9700699115738188E-3</v>
+        <v>1.2958070145101939E-2</v>
       </c>
       <c r="Q68">
-        <v>8.6944874446331262E-3</v>
+        <v>5.9178634898868323E-3</v>
       </c>
       <c r="R68">
-        <v>2.460772428786325E-3</v>
+        <v>9.0149904805087994E-6</v>
       </c>
       <c r="S68">
-        <v>1.0418948030710891E-4</v>
+        <v>3.9416540390821979E-7</v>
       </c>
       <c r="T68">
-        <v>6.0394803723701719E-3</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>1.3411558866798241E-3</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>10.55918081621161</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>-5.0960785122329364</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.4494523398560233</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>1.233049876495305E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67</v>
+      </c>
       <c r="B69">
-        <v>4.9278696154701222E-6</v>
+        <v>5.7907627659502736E-6</v>
       </c>
       <c r="C69">
-        <v>0.1060570076410384</v>
+        <v>7.0273150936035103E-2</v>
       </c>
       <c r="D69">
-        <v>4.7734366440524848E-3</v>
+        <v>4.3616979719036681E-3</v>
       </c>
       <c r="E69">
-        <v>0.1141821501305543</v>
+        <v>7.6526150006248239E-2</v>
       </c>
       <c r="F69">
-        <v>7.7981219264715662</v>
+        <v>7.7981234804005242</v>
       </c>
       <c r="K69">
-        <v>4.7856654975043282</v>
+        <v>6.4209559119020891</v>
       </c>
       <c r="L69">
-        <v>4.2527987319163314</v>
+        <v>5.2769791247807651</v>
       </c>
       <c r="M69">
-        <v>4.8061192092771936</v>
+        <v>6.4556171892925542</v>
       </c>
       <c r="N69">
-        <v>2.9897545707043569E-4</v>
+        <v>7.720386604518059E-3</v>
       </c>
       <c r="O69">
-        <v>1.292094534185265E-5</v>
+        <v>4.7866422983084599E-4</v>
       </c>
       <c r="P69">
-        <v>8.9784208954205059E-3</v>
+        <v>1.3171409740714519E-2</v>
       </c>
       <c r="Q69">
-        <v>8.6968090403982349E-3</v>
+        <v>5.9354126538184648E-3</v>
       </c>
       <c r="R69">
-        <v>2.5321840332856961E-3</v>
+        <v>9.2762276040421509E-6</v>
       </c>
       <c r="S69">
-        <v>1.08585162606747E-4</v>
+        <v>4.0470141111989111E-7</v>
       </c>
       <c r="T69">
-        <v>6.1818538416335157E-3</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>1.3887936795187719E-3</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>10.690051513675231</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>-5.0126771937361667</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.3631312742343411</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>1.232426468933483E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>68</v>
+      </c>
       <c r="B70">
-        <v>4.8578270984988492E-6</v>
+        <v>5.7430394417696304E-6</v>
       </c>
       <c r="C70">
-        <v>0.1092221192346942</v>
+        <v>7.2332883841164208E-2</v>
       </c>
       <c r="D70">
-        <v>4.9882111904043661E-3</v>
+        <v>4.5317650064574501E-3</v>
       </c>
       <c r="E70">
-        <v>0.11769457162659749</v>
+        <v>7.8892065500504746E-2</v>
       </c>
       <c r="F70">
-        <v>7.7980966077587643</v>
+        <v>7.7980982219647226</v>
       </c>
       <c r="K70">
-        <v>4.794304959893962</v>
+        <v>6.4324119069800956</v>
       </c>
       <c r="L70">
-        <v>4.2544043617878069</v>
+        <v>5.2927611696572594</v>
       </c>
       <c r="M70">
-        <v>4.8151760978261366</v>
+        <v>6.4676941330506246</v>
       </c>
       <c r="N70">
-        <v>3.0791466056195388E-4</v>
+        <v>7.9466904287270341E-3</v>
       </c>
       <c r="O70">
-        <v>1.342243882410225E-5</v>
+        <v>4.9731179702521542E-4</v>
       </c>
       <c r="P70">
-        <v>8.9872212658899525E-3</v>
+        <v>1.3397534649680021E-2</v>
       </c>
       <c r="Q70">
-        <v>8.6992586958861765E-3</v>
+        <v>5.9543023156600084E-3</v>
       </c>
       <c r="R70">
-        <v>2.607921497994414E-3</v>
+        <v>9.5534627975709719E-6</v>
       </c>
       <c r="S70">
-        <v>1.133634708612478E-4</v>
+        <v>4.1583970383114629E-7</v>
       </c>
       <c r="T70">
-        <v>6.3316369716996017E-3</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>1.4399540876358231E-3</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>10.8275173862577</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>-4.9268422373639211</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.274576552000525</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>1.2317849332091149E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>69</v>
+      </c>
       <c r="B71">
-        <v>4.7836417196861056E-6</v>
+        <v>5.6923875380626553E-6</v>
       </c>
       <c r="C71">
-        <v>0.1125845033651552</v>
+        <v>7.4520016706799905E-2</v>
       </c>
       <c r="D71">
-        <v>5.2226819904711156E-3</v>
+        <v>4.7155062262167601E-3</v>
       </c>
       <c r="E71">
-        <v>0.1214247259824288</v>
+        <v>8.140833159128294E-2</v>
       </c>
       <c r="F71">
-        <v>7.7980706716753776</v>
+        <v>7.7980723507134213</v>
       </c>
       <c r="K71">
-        <v>4.8032075042819979</v>
+        <v>6.4442100897917713</v>
       </c>
       <c r="L71">
-        <v>4.2561467868286726</v>
+        <v>5.3091748328011459</v>
       </c>
       <c r="M71">
-        <v>4.8244949422412891</v>
+        <v>6.4801299628970117</v>
       </c>
       <c r="N71">
-        <v>3.1741440965027168E-4</v>
+        <v>8.1869929652335447E-3</v>
       </c>
       <c r="O71">
-        <v>1.396781526053822E-5</v>
+        <v>5.1745648095008435E-4</v>
       </c>
       <c r="P71">
-        <v>8.9965103810513633E-3</v>
+        <v>1.363763891851937E-2</v>
       </c>
       <c r="Q71">
-        <v>8.7018551917597536E-3</v>
+        <v>5.9747343221879922E-3</v>
       </c>
       <c r="R71">
-        <v>2.688391111772903E-3</v>
+        <v>9.8482248328529032E-6</v>
       </c>
       <c r="S71">
-        <v>1.1857577791488931E-4</v>
+        <v>4.2763813793430821E-7</v>
       </c>
       <c r="T71">
-        <v>6.489433193766176E-3</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>1.4950420621575821E-3</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>10.972081914066729</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>-4.8384385999697699</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.1836683756032897</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>1.2311242349716609E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>70</v>
+      </c>
       <c r="B72">
-        <v>4.7049529380820453E-6</v>
+        <v>5.6385347065367663E-6</v>
       </c>
       <c r="C72">
-        <v>0.1161632307443113</v>
+        <v>7.6846833722819349E-2</v>
       </c>
       <c r="D72">
-        <v>5.4796185973081347E-3</v>
+        <v>4.9146119203715621E-3</v>
       </c>
       <c r="E72">
-        <v>0.1253928633367217</v>
+        <v>8.4089497298012628E-2</v>
       </c>
       <c r="F72">
-        <v>7.7980440752989457</v>
+        <v>7.7980458242291242</v>
       </c>
       <c r="K72">
-        <v>4.8123855781441369</v>
+        <v>6.456372900368498</v>
       </c>
       <c r="L72">
-        <v>4.2580439503523504</v>
+        <v>5.3262727238112682</v>
       </c>
       <c r="M72">
-        <v>4.8340885865099921</v>
+        <v>6.4929505595952781</v>
       </c>
       <c r="N72">
-        <v>3.2752929612992951E-4</v>
+        <v>8.442644181376328E-3</v>
       </c>
       <c r="O72">
-        <v>1.4563038847895361E-5</v>
+        <v>5.3928536985478246E-4</v>
       </c>
       <c r="P72">
-        <v>9.0063322206944182E-3</v>
+        <v>1.3893069071730419E-2</v>
       </c>
       <c r="Q72">
-        <v>8.7046133716967601E-3</v>
+        <v>5.9968652501106619E-3</v>
       </c>
       <c r="R72">
-        <v>2.7740516229015038E-3</v>
+        <v>1.016224438935019E-5</v>
       </c>
       <c r="S72">
-        <v>1.2428298868551619E-4</v>
+        <v>4.4015974422495418E-7</v>
       </c>
       <c r="T72">
-        <v>6.6559128981531291E-3</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>1.554526935630817E-3</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>11.124312829292879</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>-4.747320083472772</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-4.0902699059895582</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>1.2304431175793639E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>71</v>
+      </c>
       <c r="B73">
-        <v>6.0504673542617686E-6</v>
+        <v>7.0275923686733367E-6</v>
       </c>
       <c r="C73">
-        <v>0.1199799070252424</v>
+        <v>7.9327255164283031E-2</v>
       </c>
       <c r="D73">
-        <v>4.3596752726017098E-3</v>
+        <v>4.0181431482046136E-3</v>
       </c>
       <c r="E73">
-        <v>0.1270483864914804</v>
+        <v>8.4697777789804085E-2</v>
       </c>
       <c r="F73">
-        <v>9.2980440752989466</v>
+        <v>9.2980458242291242</v>
       </c>
       <c r="K73">
-        <v>4.8218521468574833</v>
+        <v>6.4689235803315688</v>
       </c>
       <c r="L73">
-        <v>4.2481329170487427</v>
+        <v>5.2426037290827514</v>
       </c>
       <c r="M73">
-        <v>4.8383341444330297</v>
+        <v>6.4953853625867186</v>
       </c>
       <c r="N73">
-        <v>3.3832123603620641E-4</v>
+        <v>8.7151737955667233E-3</v>
       </c>
       <c r="O73">
-        <v>1.1572754830196751E-5</v>
+        <v>4.4047866245037473E-4</v>
       </c>
       <c r="P73">
-        <v>9.0167363189357138E-3</v>
+        <v>1.416535196213109E-2</v>
       </c>
       <c r="Q73">
-        <v>8.7031132918968315E-3</v>
+        <v>5.8980400439270541E-3</v>
       </c>
       <c r="R73">
-        <v>2.8654229551158469E-3</v>
+        <v>1.049748868745795E-5</v>
       </c>
       <c r="S73">
-        <v>9.9775398035275732E-5</v>
+        <v>3.582569644370621E-7</v>
       </c>
       <c r="T73">
-        <v>6.831822758929758E-3</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>1.351132793271876E-3</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>11.232735172865651</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>-4.653327864120719</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.9942323356667089</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>1.229740279501432E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>72</v>
+      </c>
       <c r="B74">
-        <v>5.9600169414353191E-6</v>
+        <v>6.966471473207858E-6</v>
       </c>
       <c r="C74">
-        <v>0.1241092010164082</v>
+        <v>8.2016866307714403E-2</v>
       </c>
       <c r="D74">
-        <v>4.5797746350737679E-3</v>
+        <v>4.1950607350581893E-3</v>
       </c>
       <c r="E74">
-        <v>0.13153574864900591</v>
+        <v>8.7694406275507564E-2</v>
       </c>
       <c r="F74">
-        <v>9.2980440752989466</v>
+        <v>9.2980458242291242</v>
       </c>
       <c r="K74">
-        <v>4.831735335638581</v>
+        <v>6.4820840393515873</v>
       </c>
       <c r="L74">
-        <v>4.2498937213064876</v>
+        <v>5.2606948172708208</v>
       </c>
       <c r="M74">
-        <v>4.8485529643087064</v>
+        <v>6.5094971187174124</v>
       </c>
       <c r="N74">
-        <v>3.4999082465070683E-4</v>
+        <v>9.0106986217494498E-3</v>
       </c>
       <c r="O74">
-        <v>1.2120370864922881E-5</v>
+        <v>4.602598521926008E-4</v>
       </c>
       <c r="P74">
-        <v>9.0279371413299597E-3</v>
+        <v>1.4460613102066949E-2</v>
       </c>
       <c r="Q74">
-        <v>8.7062644188264683E-3</v>
+        <v>5.9181826548980179E-3</v>
       </c>
       <c r="R74">
-        <v>2.9641960821544392E-3</v>
+        <v>1.085960410613727E-5</v>
       </c>
       <c r="S74">
-        <v>1.052711811965954E-4</v>
+        <v>3.686789500444761E-7</v>
       </c>
       <c r="T74">
-        <v>7.0275616862746837E-3</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>1.4083729302308411E-3</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>11.34917322701083</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>-4.5556784563171817</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.894682808978907</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>1.2290032937963109E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>73</v>
+      </c>
       <c r="B75">
-        <v>5.8632810874277694E-6</v>
+        <v>6.9009951918929774E-6</v>
       </c>
       <c r="C75">
-        <v>0.12853621680830951</v>
+        <v>8.4899155402997972E-2</v>
       </c>
       <c r="D75">
-        <v>4.8228294911025352E-3</v>
+        <v>4.3881969011094176E-3</v>
       </c>
       <c r="E75">
-        <v>0.13634657341236009</v>
+        <v>9.0910841802925899E-2</v>
       </c>
       <c r="F75">
-        <v>9.2980440752989466</v>
+        <v>9.2980458242291242</v>
       </c>
       <c r="K75">
-        <v>4.8419408965625452</v>
+        <v>6.4956958978976349</v>
       </c>
       <c r="L75">
-        <v>4.2516532173984993</v>
+        <v>5.279227138578281</v>
       </c>
       <c r="M75">
-        <v>4.8591286115599424</v>
+        <v>6.5236995107880391</v>
       </c>
       <c r="N75">
-        <v>3.6250454516129142E-4</v>
+        <v>9.327381539140445E-3</v>
       </c>
       <c r="O75">
-        <v>1.267182387013484E-5</v>
+        <v>4.8142212077135381E-4</v>
       </c>
       <c r="P75">
-        <v>9.0398509458671263E-3</v>
+        <v>1.477699941492506E-2</v>
       </c>
       <c r="Q75">
-        <v>8.7094572653146889E-3</v>
+        <v>5.9397401358465569E-3</v>
       </c>
       <c r="R75">
-        <v>3.0700821895973218E-3</v>
+        <v>1.124815688969626E-5</v>
       </c>
       <c r="S75">
-        <v>1.107481075963438E-4</v>
+        <v>3.798781773547385E-7</v>
       </c>
       <c r="T75">
-        <v>7.2356797883503816E-3</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>1.470708395135414E-3</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>11.474266768865309</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>-4.4547682198821477</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.7921403832438192</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>1.228241029717733E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>74</v>
+      </c>
       <c r="B76">
-        <v>5.7596030855873902E-6</v>
+        <v>6.8306870757463388E-6</v>
       </c>
       <c r="C76">
-        <v>0.13329442401281741</v>
+        <v>8.7995730729993699E-2</v>
       </c>
       <c r="D76">
-        <v>5.0925574080148252E-3</v>
+        <v>4.5998610036333569E-3</v>
       </c>
       <c r="E76">
-        <v>0.1415163218765409</v>
+        <v>9.4371892740056126E-2</v>
       </c>
       <c r="F76">
-        <v>9.2980440752989466</v>
+        <v>9.2980458242291242</v>
       </c>
       <c r="K76">
-        <v>4.8524864366334004</v>
+        <v>6.5097933293409547</v>
       </c>
       <c r="L76">
-        <v>4.2535919490959042</v>
+        <v>5.2986518203454214</v>
       </c>
       <c r="M76">
-        <v>4.8700467208976841</v>
+        <v>6.538411617656922</v>
       </c>
       <c r="N76">
-        <v>3.759596498263359E-4</v>
+        <v>9.6676107475392563E-3</v>
       </c>
       <c r="O76">
-        <v>1.328097158371266E-5</v>
+        <v>5.0461481770724167E-4</v>
       </c>
       <c r="P76">
-        <v>9.0525583951191445E-3</v>
+        <v>1.511689400258193E-2</v>
       </c>
       <c r="Q76">
-        <v>8.7128938220320407E-3</v>
+        <v>5.9633663928174083E-3</v>
       </c>
       <c r="R76">
-        <v>3.183902731212745E-3</v>
+        <v>1.166616760940171E-5</v>
       </c>
       <c r="S76">
-        <v>1.1682001287936849E-4</v>
+        <v>3.9182240134938452E-7</v>
       </c>
       <c r="T76">
-        <v>7.4574094573201877E-3</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>1.538854837605739E-3</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>11.608755147009701</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>-4.3503745852410276</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.6864068379348178</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>1.2274515735569071E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>75</v>
+      </c>
       <c r="B77">
-        <v>5.647252840791084E-6</v>
+        <v>6.7539904918401546E-6</v>
       </c>
       <c r="C77">
-        <v>0.13842249867700951</v>
+        <v>9.1331565519048113E-2</v>
       </c>
       <c r="D77">
-        <v>5.3943560418882354E-3</v>
+        <v>4.8334497469034367E-3</v>
       </c>
       <c r="E77">
-        <v>0.1470840885153388</v>
+        <v>9.8105088699397797E-2</v>
       </c>
       <c r="F77">
-        <v>9.2969366475099218</v>
+        <v>9.2969398456507584</v>
       </c>
       <c r="K77">
-        <v>4.8633891041562398</v>
+        <v>6.5244106705471347</v>
       </c>
       <c r="L77">
-        <v>4.2557419047323943</v>
+        <v>5.3191001676401797</v>
       </c>
       <c r="M77">
-        <v>4.881317264427131</v>
+        <v>6.5536608626426336</v>
       </c>
       <c r="N77">
-        <v>3.9046679695604078E-4</v>
+        <v>1.0034130584732541E-2</v>
       </c>
       <c r="O77">
-        <v>1.395836316674722E-5</v>
+        <v>5.3020681254623307E-4</v>
       </c>
       <c r="P77">
-        <v>9.0661449780426277E-3</v>
+        <v>1.548303510697251E-2</v>
       </c>
       <c r="Q77">
-        <v>8.716613088181252E-3</v>
+        <v>5.9894635181707854E-3</v>
       </c>
       <c r="R77">
-        <v>3.3065860399460801E-3</v>
+        <v>1.21171414177238E-5</v>
       </c>
       <c r="S77">
-        <v>1.23608039863166E-4</v>
+        <v>4.0465409395136452E-7</v>
       </c>
       <c r="T77">
-        <v>7.6941516421087661E-3</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>1.6138353513489489E-3</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>11.753527409651021</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>-4.2422657400894224</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.5772718727180859</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>1.226633002449361E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>76</v>
+      </c>
       <c r="B78">
-        <v>5.5273265805375041E-6</v>
+        <v>6.6722728917721066E-6</v>
       </c>
       <c r="C78">
-        <v>0.14396533795347291</v>
+        <v>9.493565367622081E-2</v>
       </c>
       <c r="D78">
-        <v>5.732252002480568E-3</v>
+        <v>5.0910857928296721E-3</v>
       </c>
       <c r="E78">
-        <v>0.15309982809387671</v>
+        <v>0.1021456964362112</v>
       </c>
       <c r="F78">
-        <v>9.2969102000953718</v>
+        <v>9.2969134949955237</v>
       </c>
       <c r="K78">
-        <v>4.8746669184836868</v>
+        <v>6.5395909441318176</v>
       </c>
       <c r="L78">
-        <v>4.2581224833438176</v>
+        <v>5.3405650731621828</v>
       </c>
       <c r="M78">
-        <v>4.8929610618431667</v>
+        <v>6.5695022416518531</v>
       </c>
       <c r="N78">
-        <v>4.0615464836392813E-4</v>
+        <v>1.0430127408573631E-2</v>
       </c>
       <c r="O78">
-        <v>1.4710983049925789E-5</v>
+        <v>5.5843155618848662E-4</v>
       </c>
       <c r="P78">
-        <v>9.0807088067868524E-3</v>
+        <v>1.587860058983925E-2</v>
       </c>
       <c r="Q78">
-        <v>8.7206529481503262E-3</v>
+        <v>6.0182152320492413E-3</v>
       </c>
       <c r="R78">
-        <v>3.4392101232828681E-3</v>
+        <v>1.2605161722880979E-5</v>
       </c>
       <c r="S78">
-        <v>1.3119900570157E-4</v>
+        <v>4.1836541847229912E-7</v>
       </c>
       <c r="T78">
-        <v>7.9474981542237595E-3</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>1.696359580309046E-3</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>11.90955554822321</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>-4.1301849267237287</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.4644854904358908</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>1.2257829071286181E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>77</v>
+      </c>
       <c r="B79">
-        <v>5.3978858155481459E-6</v>
+        <v>6.5838141498031972E-6</v>
       </c>
       <c r="C79">
-        <v>0.14997547212525519</v>
+        <v>9.8841939236368262E-2</v>
       </c>
       <c r="D79">
-        <v>6.1140629242392086E-3</v>
+        <v>5.3774165819265984E-3</v>
       </c>
       <c r="E79">
-        <v>0.1596164514550282</v>
+        <v>0.1065314491004257</v>
       </c>
       <c r="F79">
-        <v>9.2968828024737</v>
+        <v>9.2968862039445419</v>
       </c>
       <c r="K79">
-        <v>4.886339423025869</v>
+        <v>6.5553765558682446</v>
       </c>
       <c r="L79">
-        <v>4.2607818309737411</v>
+        <v>5.3632015550891241</v>
       </c>
       <c r="M79">
-        <v>4.9049917644131531</v>
+        <v>6.5859715676921056</v>
       </c>
       <c r="N79">
-        <v>4.2317393816018912E-4</v>
+        <v>1.0859331576068641E-2</v>
       </c>
       <c r="O79">
-        <v>1.5554872751532089E-5</v>
+        <v>5.8979624639044523E-4</v>
       </c>
       <c r="P79">
-        <v>9.0963634093362677E-3</v>
+        <v>1.6307312996699679E-2</v>
       </c>
       <c r="Q79">
-        <v>8.7250667086499444E-3</v>
+        <v>6.0501898899215471E-3</v>
       </c>
       <c r="R79">
-        <v>3.583036693612489E-3</v>
+        <v>1.313502243176832E-5</v>
       </c>
       <c r="S79">
-        <v>1.3976847169964101E-4</v>
+        <v>4.3312915750637819E-7</v>
       </c>
       <c r="T79">
-        <v>8.2192867878722251E-3</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>1.787839300754316E-3</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>12.07801530328277</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>-4.0138462112586879</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.3477912564746148</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>1.2248989128713779E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>78</v>
+      </c>
       <c r="B80">
-        <v>5.2578145284596416E-6</v>
+        <v>6.487763367091442E-6</v>
       </c>
       <c r="C80">
-        <v>0.15651462708893771</v>
+        <v>0.103090326629752</v>
       </c>
       <c r="D80">
-        <v>6.5487145783316358E-3</v>
+        <v>5.6974343126627554E-3</v>
       </c>
       <c r="E80">
-        <v>0.16669721063734341</v>
+        <v>0.11130773608438629</v>
       </c>
       <c r="F80">
-        <v>9.2968543630524838</v>
+        <v>9.2968578823873944</v>
       </c>
       <c r="K80">
-        <v>4.8984268879272044</v>
+        <v>6.5718195926206588</v>
       </c>
       <c r="L80">
-        <v>4.2637708850613114</v>
+        <v>5.3871340447202494</v>
       </c>
       <c r="M80">
-        <v>4.9174231777242676</v>
+        <v>6.6031183308033334</v>
       </c>
       <c r="N80">
-        <v>4.4170207749694629E-4</v>
+        <v>1.1326128636508561E-2</v>
       </c>
       <c r="O80">
-        <v>1.6507413806780159E-5</v>
+        <v>6.2484624666171858E-4</v>
       </c>
       <c r="P80">
-        <v>9.1132405320947379E-3</v>
+        <v>1.6773545865189601E-2</v>
       </c>
       <c r="Q80">
-        <v>8.7299162424308279E-3</v>
+        <v>6.0859492277061961E-3</v>
       </c>
       <c r="R80">
-        <v>3.739548885517619E-3</v>
+        <v>1.371238121696204E-5</v>
       </c>
       <c r="S80">
-        <v>1.495145163141427E-4</v>
+        <v>4.4908955009187239E-7</v>
       </c>
       <c r="T80">
-        <v>8.5116253100139486E-3</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>1.8898180234926459E-3</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>12.26029663269888</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>-3.892933499424089</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.2268845453389758</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>1.2239781028132429E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>79</v>
+      </c>
       <c r="B81">
-        <v>5.1058314802185829E-6</v>
+        <v>6.3831250765506941E-6</v>
       </c>
       <c r="C81">
-        <v>0.16365586101801419</v>
+        <v>0.1077280834067562</v>
       </c>
       <c r="D81">
-        <v>7.0476693361077704E-3</v>
+        <v>6.0573409512305774E-3</v>
       </c>
       <c r="E81">
-        <v>0.17441609704992281</v>
+        <v>0.1165280978741373</v>
       </c>
       <c r="F81">
-        <v>9.296824776402616</v>
+        <v>9.2968284266822163</v>
       </c>
       <c r="K81">
-        <v>4.9109506222021793</v>
+        <v>6.5889774029337467</v>
       </c>
       <c r="L81">
-        <v>4.2671547829492837</v>
+        <v>5.4125127074187978</v>
       </c>
       <c r="M81">
-        <v>4.9302749203650311</v>
+        <v>6.6210034277399687</v>
       </c>
       <c r="N81">
-        <v>4.6194944243457321E-4</v>
+        <v>1.1835713512215551E-2</v>
       </c>
       <c r="O81">
-        <v>1.7591009701531731E-5</v>
+        <v>6.6426170476881511E-4</v>
       </c>
       <c r="P81">
-        <v>9.1314940696977809E-3</v>
+        <v>1.728247903840309E-2</v>
       </c>
       <c r="Q81">
-        <v>8.7352768372553902E-3</v>
+        <v>6.1261462447021794E-3</v>
       </c>
       <c r="R81">
-        <v>3.910502903098737E-3</v>
+        <v>1.434396653443205E-5</v>
       </c>
       <c r="S81">
-        <v>1.6069196841969141E-4</v>
+        <v>4.6641931084987257E-7</v>
       </c>
       <c r="T81">
-        <v>8.8269494665149644E-3</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>2.0042133306613459E-3</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>12.45805583698885</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>-3.7670924630678608</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-3.1014288204600429</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>1.22301726543571E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>80</v>
+      </c>
       <c r="B82">
-        <v>4.9404642211865472E-6</v>
+        <v>6.2687287193389016E-6</v>
       </c>
       <c r="C82">
-        <v>0.17148627060210961</v>
+        <v>0.1128116205295325</v>
       </c>
       <c r="D82">
-        <v>7.6258756517412693E-3</v>
+        <v>6.4649324764629529E-3</v>
       </c>
       <c r="E82">
-        <v>0.18286013524544059</v>
+        <v>0.12225609785872039</v>
       </c>
       <c r="F82">
-        <v>9.2967939203564942</v>
+        <v>9.2967977168360179</v>
       </c>
       <c r="K82">
-        <v>4.923933107556107</v>
+        <v>6.6069162225164781</v>
       </c>
       <c r="L82">
-        <v>4.2710158968129548</v>
+        <v>5.4395051084750472</v>
       </c>
       <c r="M82">
-        <v>4.9435597628682606</v>
+        <v>6.6396863020559218</v>
       </c>
       <c r="N82">
-        <v>4.8416736407122529E-4</v>
+        <v>1.239428610258789E-2</v>
       </c>
       <c r="O82">
-        <v>1.8834321617651208E-5</v>
+        <v>7.0889359547712458E-4</v>
       </c>
       <c r="P82">
-        <v>9.1513049313199004E-3</v>
+        <v>1.784029567808814E-2</v>
       </c>
       <c r="Q82">
-        <v>8.7412435782543135E-3</v>
+        <v>6.1716826120246744E-3</v>
       </c>
       <c r="R82">
-        <v>4.0979934498326896E-3</v>
+        <v>1.503784389561116E-5</v>
       </c>
       <c r="S82">
-        <v>1.736334931070094E-4</v>
+        <v>4.8533585123162779E-7</v>
       </c>
       <c r="T82">
-        <v>9.1680862733076463E-3</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>2.1334360579661339E-3</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>12.67328443910211</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>-3.6359247502575158</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.9710403665167888</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>1.2220126915390771E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>81</v>
+      </c>
       <c r="B83">
-        <v>4.7600212347276969E-6</v>
+        <v>6.1431905981901893E-6</v>
       </c>
       <c r="C83">
-        <v>0.1801105019152868</v>
+        <v>0.1184088146375888</v>
       </c>
       <c r="D83">
-        <v>8.3031681808112354E-3</v>
+        <v>6.9301373081069274E-3</v>
       </c>
       <c r="E83">
-        <v>0.19213226983744761</v>
+        <v>0.1285677211804771</v>
       </c>
       <c r="F83">
-        <v>9.2967616523134602</v>
+        <v>9.2967656129177243</v>
       </c>
       <c r="K83">
-        <v>4.9373971860419106</v>
+        <v>6.6257097584170346</v>
       </c>
       <c r="L83">
-        <v>4.2754614778733533</v>
+        <v>5.4683178027087349</v>
       </c>
       <c r="M83">
-        <v>4.9572907227293008</v>
+        <v>6.6592413293798343</v>
       </c>
       <c r="N83">
-        <v>5.0865857683193979E-4</v>
+        <v>1.3009306760856879E-2</v>
       </c>
       <c r="O83">
-        <v>2.0275078246296501E-5</v>
+        <v>7.5982889816616649E-4</v>
       </c>
       <c r="P83">
-        <v>9.172887107797038E-3</v>
+        <v>1.8454433207880951E-2</v>
       </c>
       <c r="Q83">
-        <v>8.7479355207316558E-3</v>
+        <v>6.2236369123269781E-3</v>
       </c>
       <c r="R83">
-        <v>4.3045387107129886E-3</v>
+        <v>1.5803765371631139E-5</v>
       </c>
       <c r="S83">
-        <v>1.887806847473131E-4</v>
+        <v>5.0610603146651936E-7</v>
       </c>
       <c r="T83">
-        <v>9.5383310214835152E-3</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>2.2805565196179849E-3</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>12.90840142638584</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>-3.4989820584880529</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.835285681318517</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>1.2209602535286459E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>82</v>
+      </c>
       <c r="B84">
-        <v>4.5625642000533071E-6</v>
+        <v>6.0048664250794284E-6</v>
       </c>
       <c r="C84">
-        <v>0.18965535378942441</v>
+        <v>0.12460207448922669</v>
       </c>
       <c r="D84">
-        <v>9.1063833501348404E-3</v>
+        <v>7.4657851089208636E-3</v>
       </c>
       <c r="E84">
-        <v>0.2023550283049568</v>
+        <v>0.13555447750154059</v>
       </c>
       <c r="F84">
-        <v>9.2967278044727699</v>
+        <v>9.2967319504398169</v>
       </c>
       <c r="K84">
-        <v>4.9513664026011446</v>
+        <v>6.6454424265809449</v>
       </c>
       <c r="L84">
-        <v>4.2806338672549513</v>
+        <v>5.4991875575676943</v>
       </c>
       <c r="M84">
-        <v>4.9714827693204997</v>
+        <v>6.6797424434595136</v>
       </c>
       <c r="N84">
-        <v>5.357909934200311E-4</v>
+        <v>1.3689833308784141E-2</v>
       </c>
       <c r="O84">
-        <v>2.1964011735306E-5</v>
+        <v>8.1846702215799866E-4</v>
       </c>
       <c r="P84">
-        <v>9.19649552930067E-3</v>
+        <v>1.9133921890967291E-2</v>
       </c>
       <c r="Q84">
-        <v>8.7555010084844325E-3</v>
+        <v>6.2834938063401494E-3</v>
       </c>
       <c r="R84">
-        <v>4.5331919343777486E-3</v>
+        <v>1.6653635334973621E-5</v>
       </c>
       <c r="S84">
-        <v>2.0673173597722779E-4</v>
+        <v>5.2907509997032254E-7</v>
       </c>
       <c r="T84">
-        <v>9.9415407160316008E-3</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>2.4495420897272949E-3</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>13.16637892991335</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>-3.3557553777627258</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.6936705072479299</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>1.2198552241114669E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>83</v>
+      </c>
       <c r="B85">
-        <v>4.345885516683164E-6</v>
+        <v>5.8517921224937072E-6</v>
       </c>
       <c r="C85">
-        <v>0.20027588146232381</v>
+        <v>0.13149244445277411</v>
       </c>
       <c r="D85">
-        <v>1.007264286572007E-2</v>
+        <v>8.0887278763694184E-3</v>
       </c>
       <c r="E85">
-        <v>0.21367521377202159</v>
+        <v>0.14332745378475181</v>
       </c>
       <c r="F85">
-        <v>9.2966921776083105</v>
+        <v>9.2966965343362133</v>
       </c>
       <c r="K85">
-        <v>4.9658642020085617</v>
+        <v>6.6662157035681053</v>
       </c>
       <c r="L85">
-        <v>4.286724792204514</v>
+        <v>5.5324122445365651</v>
       </c>
       <c r="M85">
-        <v>4.9861471926511731</v>
+        <v>6.7012842872138663</v>
       </c>
       <c r="N85">
-        <v>5.6601610998972081E-4</v>
+        <v>1.444697250211509E-2</v>
       </c>
       <c r="O85">
-        <v>2.3970526056492569E-5</v>
+        <v>8.8665182393549559E-4</v>
       </c>
       <c r="P85">
-        <v>9.2224363834663304E-3</v>
+        <v>1.9889829425357119E-2</v>
       </c>
       <c r="Q85">
-        <v>8.7641290693087365E-3</v>
+        <v>6.3531017492101296E-3</v>
       </c>
       <c r="R85">
-        <v>4.7876895931071913E-3</v>
+        <v>1.7602138878209109E-5</v>
       </c>
       <c r="S85">
-        <v>2.2831492237603931E-4</v>
+        <v>5.5468344224599333E-7</v>
       </c>
       <c r="T85">
-        <v>1.038224651757891E-2</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>2.6456009665378139E-3</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>13.450916265773451</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>-3.2056633814532058</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.545610290930675</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>1.2186919206001859E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>84</v>
+      </c>
       <c r="B86">
-        <v>4.1075016415511766E-6</v>
+        <v>5.6816102046408898E-6</v>
       </c>
       <c r="C86">
-        <v>0.21216358387461129</v>
+        <v>0.13920517673879931</v>
       </c>
       <c r="D86">
-        <v>1.125460484503873E-2</v>
+        <v>8.8215137445974943E-3</v>
       </c>
       <c r="E86">
-        <v>0.22626999031483591</v>
+        <v>0.15202266377798329</v>
       </c>
       <c r="F86">
-        <v>9.2966545328199359</v>
+        <v>9.2966591309939375</v>
       </c>
       <c r="K86">
-        <v>4.9809129969493036</v>
+        <v>6.6881450297057139</v>
       </c>
       <c r="L86">
-        <v>4.2939972177995838</v>
+        <v>5.5683547222551706</v>
       </c>
       <c r="M86">
-        <v>5.0012871706861866</v>
+        <v>6.7239731043987971</v>
       </c>
       <c r="N86">
-        <v>5.9989395898554722E-4</v>
+        <v>1.529449254450131E-2</v>
       </c>
       <c r="O86">
-        <v>2.6391795395617688E-5</v>
+        <v>9.6684904188003914E-4</v>
       </c>
       <c r="P86">
-        <v>9.2510805906011739E-3</v>
+        <v>2.0735874905116289E-2</v>
       </c>
       <c r="Q86">
-        <v>8.7740730962336238E-3</v>
+        <v>6.4349467668750066E-3</v>
       </c>
       <c r="R86">
-        <v>5.0726505100278851E-3</v>
+        <v>1.8667604842956799E-5</v>
       </c>
       <c r="S86">
-        <v>2.5470712532936181E-4</v>
+        <v>5.835120333024125E-7</v>
       </c>
       <c r="T86">
-        <v>1.086578686451898E-2</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>2.8756902447626769E-3</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>13.766685439345171</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>-3.0480395592518619</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.3904313733225919</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>1.2174638783364801E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>85</v>
+      </c>
       <c r="B87">
-        <v>3.8446841556698879E-6</v>
+        <v>5.491479409907805E-6</v>
       </c>
       <c r="C87">
-        <v>0.2255575158099162</v>
+        <v>0.14789742093841271</v>
       </c>
       <c r="D87">
-        <v>1.272914403382938E-2</v>
+        <v>9.6949527065228799E-3</v>
       </c>
       <c r="E87">
-        <v>0.24035490395059081</v>
+        <v>0.16180819032909541</v>
       </c>
       <c r="F87">
-        <v>9.2966145804101625</v>
+        <v>9.2966194575374672</v>
       </c>
       <c r="K87">
-        <v>4.9965330892682287</v>
+        <v>6.7113649987995787</v>
       </c>
       <c r="L87">
-        <v>4.3028237420345308</v>
+        <v>5.6074547435630819</v>
       </c>
       <c r="M87">
-        <v>5.0169081413589058</v>
+        <v>6.7479198406423109</v>
       </c>
       <c r="N87">
-        <v>6.3812743655820923E-4</v>
+        <v>1.6249668778009391E-2</v>
       </c>
       <c r="O87">
-        <v>2.9368653330675039E-5</v>
+        <v>1.062422709524494E-3</v>
       </c>
       <c r="P87">
-        <v>9.2828810902256774E-3</v>
+        <v>2.168927011433238E-2</v>
       </c>
       <c r="Q87">
-        <v>8.7856649322461677E-3</v>
+        <v>6.5325279717204417E-3</v>
       </c>
       <c r="R87">
-        <v>5.3938467356744544E-3</v>
+        <v>1.9873211030267091E-5</v>
       </c>
       <c r="S87">
-        <v>2.876292215465429E-4</v>
+        <v>6.1635305673255084E-7</v>
       </c>
       <c r="T87">
-        <v>1.1398459972502731E-2</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>3.1492808964525441E-3</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>14.11968415098298</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>-2.8821118341686289</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.227341686352112</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>1.216163560067224E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>86</v>
+      </c>
       <c r="B88">
-        <v>8.1340468108982536E-6</v>
+        <v>1.0058835427123609E-5</v>
       </c>
       <c r="C88">
-        <v>0.24075954236535099</v>
+        <v>0.15776902581211921</v>
       </c>
       <c r="D88">
-        <v>6.7324739641242796E-3</v>
+        <v>5.8694188763315728E-3</v>
       </c>
       <c r="E88">
-        <v>0.26144065246338299</v>
+        <v>0.17455375753310901</v>
       </c>
       <c r="F88">
-        <v>14.49661458041016</v>
+        <v>14.49661945753747</v>
       </c>
       <c r="K88">
-        <v>5.0127407617754978</v>
+        <v>6.7360367442475644</v>
       </c>
       <c r="L88">
-        <v>4.2580860060833192</v>
+        <v>5.3968630950774834</v>
       </c>
       <c r="M88">
-        <v>5.0375142589687876</v>
+        <v>6.775611447657826</v>
       </c>
       <c r="N88">
-        <v>6.816102067887474E-4</v>
+        <v>1.7334472068615461E-2</v>
       </c>
       <c r="O88">
-        <v>1.5214035903635131E-5</v>
+        <v>6.4110819014907383E-4</v>
       </c>
       <c r="P88">
-        <v>9.3183965300813569E-3</v>
+        <v>2.277189455309038E-2</v>
       </c>
       <c r="Q88">
-        <v>8.7826628050571946E-3</v>
+        <v>6.1137483218386733E-3</v>
       </c>
       <c r="R88">
-        <v>5.7585765581121611E-3</v>
+        <v>2.1248700885519562E-5</v>
       </c>
       <c r="S88">
-        <v>1.500879531039132E-4</v>
+        <v>3.543699795918721E-7</v>
       </c>
       <c r="T88">
-        <v>1.198768704936346E-2</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>2.0696627067688629E-3</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>14.290699783552579</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>-2.7069800709994141</v>
-      </c>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-2.05539361691276</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>1.2147819423221369E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>87</v>
+      </c>
       <c r="B89">
-        <v>7.7353286538744158E-6</v>
+        <v>9.7801513639377271E-6</v>
       </c>
       <c r="C89">
-        <v>0.25876162455006069</v>
+        <v>0.1694536109610259</v>
       </c>
       <c r="D89">
-        <v>7.6069252295720346E-3</v>
+        <v>6.501262619889034E-3</v>
       </c>
       <c r="E89">
-        <v>0.28129095637463603</v>
+        <v>0.18816792684624661</v>
       </c>
       <c r="F89">
-        <v>14.49532491053986</v>
+        <v>14.495331817445869</v>
       </c>
       <c r="K89">
-        <v>5.0299977650416414</v>
+        <v>6.7632337136159988</v>
       </c>
       <c r="L89">
-        <v>4.2637992407769456</v>
+        <v>5.4402092125941213</v>
       </c>
       <c r="M89">
-        <v>5.0537777281910348</v>
+        <v>6.8053352012753168</v>
       </c>
       <c r="N89">
-        <v>7.3287145070298693E-4</v>
+        <v>1.8618576982343649E-2</v>
       </c>
       <c r="O89">
-        <v>1.7099502420621281E-5</v>
+        <v>7.1191021210815185E-4</v>
       </c>
       <c r="P89">
-        <v>9.3596068166216777E-3</v>
+        <v>2.4053290417032819E-2</v>
       </c>
       <c r="Q89">
-        <v>8.7996794616295951E-3</v>
+        <v>6.1879895575545551E-3</v>
       </c>
       <c r="R89">
-        <v>6.189998758497412E-3</v>
+        <v>2.2855957109052461E-5</v>
       </c>
       <c r="S89">
-        <v>1.7229986434428779E-4</v>
+        <v>3.7154566091915017E-7</v>
       </c>
       <c r="T89">
-        <v>1.275061199879381E-2</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>2.2897533114361632E-3</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>14.49287062290462</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>-2.518847291958636</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-1.8712518089512891</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>1.213258912037504E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>88</v>
+      </c>
       <c r="B90">
-        <v>7.2789636250719493E-6</v>
+        <v>9.4587063657807779E-6</v>
       </c>
       <c r="C90">
-        <v>0.27969118282676819</v>
+        <v>0.18303297332278731</v>
       </c>
       <c r="D90">
-        <v>8.7281543484694479E-3</v>
+        <v>7.2795862622317808E-3</v>
       </c>
       <c r="E90">
-        <v>0.30422544744857483</v>
+        <v>0.20400949745886629</v>
       </c>
       <c r="F90">
-        <v>14.49528325823707</v>
+        <v>14.495290393890381</v>
       </c>
       <c r="K90">
-        <v>5.047883850629324</v>
+        <v>6.7924248950305168</v>
       </c>
       <c r="L90">
-        <v>4.2698693150293403</v>
+        <v>5.4868430955148586</v>
       </c>
       <c r="M90">
-        <v>5.0716555043228686</v>
+        <v>6.8358910682941412</v>
       </c>
       <c r="N90">
-        <v>7.9251911305985075E-4</v>
+        <v>2.0110799213196601E-2</v>
       </c>
       <c r="O90">
-        <v>1.9132774111120199E-5</v>
+        <v>7.9689327157091844E-4</v>
       </c>
       <c r="P90">
-        <v>9.4062674295376861E-3</v>
+        <v>2.5542065488656011E-2</v>
       </c>
       <c r="Q90">
-        <v>8.8170471458502171E-3</v>
+        <v>6.2771104239528726E-3</v>
       </c>
       <c r="R90">
-        <v>6.6914736663435054E-3</v>
+        <v>2.4729658063063571E-5</v>
       </c>
       <c r="S90">
-        <v>1.9713324455113721E-4</v>
+        <v>3.9180571152015009E-7</v>
       </c>
       <c r="T90">
-        <v>1.3622350222740279E-2</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>2.5620580977331301E-3</v>
+        <v>0</v>
       </c>
       <c r="V90">
-        <v>14.73336641374096</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>-2.318864751101458</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-1.675606803585417</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>1.211624205878291E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>89</v>
+      </c>
       <c r="B91">
-        <v>6.7513380691665766E-6</v>
+        <v>9.082664442384253E-6</v>
       </c>
       <c r="C91">
-        <v>0.30432418541570438</v>
+        <v>0.19901055396465611</v>
       </c>
       <c r="D91">
-        <v>1.021461769862028E-2</v>
+        <v>8.261262680351017E-3</v>
       </c>
       <c r="E91">
-        <v>0.33096967505060992</v>
+        <v>0.22264491066898029</v>
       </c>
       <c r="F91">
-        <v>14.495237955633611</v>
+        <v>14.495245367453069</v>
       </c>
       <c r="K91">
-        <v>5.0663811439686857</v>
+        <v>6.8239295715974881</v>
       </c>
       <c r="L91">
-        <v>4.2776178282672568</v>
+        <v>5.5389791388148808</v>
       </c>
       <c r="M91">
-        <v>5.0899489580546806</v>
+        <v>6.8687340890070558</v>
       </c>
       <c r="N91">
-        <v>8.6282696205518998E-4</v>
+        <v>2.1866608844253489E-2</v>
       </c>
       <c r="O91">
-        <v>2.175773397244819E-5</v>
+        <v>9.0404250158624159E-4</v>
       </c>
       <c r="P91">
-        <v>9.4598329098729093E-3</v>
+        <v>2.7293425039992662E-2</v>
       </c>
       <c r="Q91">
-        <v>8.8381618596615179E-3</v>
+        <v>6.389550964698126E-3</v>
       </c>
       <c r="R91">
-        <v>7.2818682501428122E-3</v>
+        <v>2.6942190095022071E-5</v>
       </c>
       <c r="S91">
-        <v>2.3000942309858461E-4</v>
+        <v>4.1554016322444931E-7</v>
       </c>
       <c r="T91">
-        <v>1.4627831325013659E-2</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>2.9077787820058782E-3</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>15.022338881529221</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>-2.105374590478323</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-1.466692008433981</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>1.209859943990541E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92">
-        <v>6.1370056407923443E-6</v>
+        <v>8.6378241818552458E-6</v>
       </c>
       <c r="C92">
-        <v>0.3337351421874129</v>
+        <v>0.21808548309308659</v>
       </c>
       <c r="D92">
-        <v>1.226921578227178E-2</v>
+        <v>9.5345954667871539E-3</v>
       </c>
       <c r="E92">
-        <v>0.3624843156143665</v>
+        <v>0.24484362200170581</v>
       </c>
       <c r="F92">
-        <v>14.495188218664991</v>
+        <v>14.495195969796169</v>
       </c>
       <c r="K92">
-        <v>5.0854367540573122</v>
+        <v>6.8581423540971223</v>
       </c>
       <c r="L92">
-        <v>4.2878484603504816</v>
+        <v>5.5979696902853391</v>
       </c>
       <c r="M92">
-        <v>5.1085349420838488</v>
+        <v>6.9041819160955296</v>
       </c>
       <c r="N92">
-        <v>9.4693388486346436E-4</v>
+        <v>2.396286547852022E-2</v>
       </c>
       <c r="O92">
-        <v>2.527443822219246E-5</v>
+        <v>1.0429581319801929E-3</v>
       </c>
       <c r="P92">
-        <v>9.5220000148940505E-3</v>
+        <v>2.9383812447522119E-2</v>
       </c>
       <c r="Q92">
-        <v>8.8642635821106555E-3</v>
+        <v>6.5353656793913136E-3</v>
       </c>
       <c r="R92">
-        <v>7.9870541328472353E-3</v>
+        <v>2.9594855088201829E-5</v>
       </c>
       <c r="S92">
-        <v>2.7540733393811368E-4</v>
+        <v>4.4414341385607417E-7</v>
       </c>
       <c r="T92">
-        <v>1.5799836579314441E-2</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>3.3605933977517029E-3</v>
+        <v>0</v>
       </c>
       <c r="V92">
-        <v>15.37467882893988</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>-1.8763704744815719</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-1.242272048283027</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>1.207944028170561E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93">
-        <v>5.4176221796970934E-6</v>
+        <v>8.1051569694943801E-6</v>
       </c>
       <c r="C93">
-        <v>0.36945357845465082</v>
+        <v>0.24125780394045321</v>
       </c>
       <c r="D93">
-        <v>1.527041089893607E-2</v>
+        <v>1.124565223074594E-2</v>
       </c>
       <c r="E93">
-        <v>0.40005793080202551</v>
+        <v>0.27166787095800438</v>
       </c>
       <c r="F93">
-        <v>14.495132988100959</v>
+        <v>14.49514116498967</v>
       </c>
       <c r="K93">
-        <v>5.104944378179896</v>
+        <v>6.8955608004642936</v>
       </c>
       <c r="L93">
-        <v>4.3020163900999568</v>
+        <v>5.6657236675454863</v>
       </c>
       <c r="M93">
-        <v>5.1272303472339829</v>
+        <v>6.9426050724516708</v>
       </c>
       <c r="N93">
-        <v>1.0493404900458281E-3</v>
+        <v>2.6509521850358E-2</v>
       </c>
       <c r="O93">
-        <v>3.0242099638855641E-5</v>
+        <v>1.229524778765744E-3</v>
       </c>
       <c r="P93">
-        <v>9.5950818407588723E-3</v>
+        <v>3.192252875509221E-2</v>
       </c>
       <c r="Q93">
-        <v>8.8972129078557713E-3</v>
+        <v>6.7312271398966353E-3</v>
       </c>
       <c r="R93">
-        <v>8.8439037771704723E-3</v>
+        <v>3.2833823052018028E-5</v>
       </c>
       <c r="S93">
-        <v>3.4170487910475321E-4</v>
+        <v>4.7993790930244681E-7</v>
       </c>
       <c r="T93">
-        <v>1.71819747105992E-2</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>3.9776236271817367E-3</v>
+        <v>0</v>
       </c>
       <c r="V93">
-        <v>15.813328892108389</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>-1.629315187644387</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-0.99944867358824041</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>1.205848595174E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94">
-        <v>4.573821655459609E-6</v>
+        <v>7.4590460336250659E-6</v>
       </c>
       <c r="C94">
-        <v>0.4137264743991152</v>
+        <v>0.27000932290416663</v>
       </c>
       <c r="D94">
-        <v>1.9999517207367729E-2</v>
+        <v>1.3652843814574401E-2</v>
       </c>
       <c r="E94">
-        <v>0.44546102837850998</v>
+        <v>0.3046162452511566</v>
       </c>
       <c r="F94">
-        <v>14.49507078680208</v>
+        <v>14.495079511914319</v>
       </c>
       <c r="K94">
-        <v>5.1247111766086659</v>
+        <v>6.9368330316793729</v>
       </c>
       <c r="L94">
-        <v>4.3229323554366843</v>
+        <v>5.7450682696176756</v>
       </c>
       <c r="M94">
-        <v>5.1457610592645624</v>
+        <v>6.9844467747071208</v>
       </c>
       <c r="N94">
-        <v>1.1767277888467E-3</v>
+        <v>2.966952148430704E-2</v>
       </c>
       <c r="O94">
-        <v>3.7795277150992518E-5</v>
+        <v>1.4918431128534799E-3</v>
       </c>
       <c r="P94">
-        <v>9.6823154573717606E-3</v>
+        <v>3.5071441456991662E-2</v>
       </c>
       <c r="Q94">
-        <v>8.939993731545191E-3</v>
+        <v>7.0063154990477224E-3</v>
       </c>
       <c r="R94">
-        <v>9.9066786394286892E-3</v>
+        <v>3.6878058694857502E-5</v>
       </c>
       <c r="S94">
-        <v>4.4625621858013638E-4</v>
+        <v>5.2704020138790882E-7</v>
       </c>
       <c r="T94">
-        <v>1.8832518596026381E-2</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>4.8625671405706037E-3</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>16.37586759441405</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>-1.360904582377394</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-0.7343253365151341</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>1.2035373502259551E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95">
-        <v>3.592200389557754E-6</v>
+        <v>6.6635992105600416E-6</v>
       </c>
       <c r="C95">
-        <v>0.46997318256936488</v>
+        <v>0.30663167705982269</v>
       </c>
       <c r="D95">
-        <v>2.8305258860968539E-2</v>
+        <v>1.7258670610797999E-2</v>
       </c>
       <c r="E95">
-        <v>0.50122694214889518</v>
+        <v>0.34584399591773912</v>
       </c>
       <c r="F95">
-        <v>14.49279183972963</v>
+        <v>14.492807550388569</v>
       </c>
       <c r="K95">
-        <v>5.1443993950976594</v>
+        <v>6.98279936077593</v>
       </c>
       <c r="L95">
-        <v>4.3565872796511673</v>
+        <v>5.8404697533323144</v>
       </c>
       <c r="M95">
-        <v>5.1637215161977714</v>
+        <v>7.0301831678873974</v>
       </c>
       <c r="N95">
-        <v>1.339432433374658E-3</v>
+        <v>3.3694904108800411E-2</v>
       </c>
       <c r="O95">
-        <v>5.0563156789038672E-5</v>
+        <v>1.8845418312135229E-3</v>
       </c>
       <c r="P95">
-        <v>9.7883614182041299E-3</v>
+        <v>3.9080745165269368E-2</v>
       </c>
       <c r="Q95">
-        <v>8.9979982782286867E-3</v>
+        <v>7.4172283834320167E-3</v>
       </c>
       <c r="R95">
-        <v>1.1258167556692769E-2</v>
+        <v>4.2071061336781727E-5</v>
       </c>
       <c r="S95">
-        <v>6.3028848452777501E-4</v>
+        <v>5.9356036839575236E-7</v>
       </c>
       <c r="T95">
-        <v>2.0828225946805789E-2</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>6.2195580518065599E-3</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>17.128701214301788</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>-1.066692149442076</v>
-      </c>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.35">
+        <v>-0.44153226949228852</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>1.200963235796548E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96">
-        <v>2.503248828677352E-6</v>
+        <v>5.6791876918197688E-6</v>
       </c>
       <c r="C96">
-        <v>0.54358450318743112</v>
+        <v>0.35486051146799352</v>
       </c>
       <c r="D96">
-        <v>4.5201464570123327E-2</v>
+        <v>2.313915335832413E-2</v>
       </c>
       <c r="E96">
-        <v>0.57148292149878388</v>
+        <v>0.39860085322039418</v>
       </c>
       <c r="F96">
-        <v>14.4925937497335</v>
+        <v>14.49261185440518</v>
       </c>
       <c r="K96">
-        <v>5.1634477683037279</v>
+        <v>7.0345715927123971</v>
       </c>
       <c r="L96">
-        <v>4.416098588425668</v>
+        <v>5.9590298104812831</v>
       </c>
       <c r="M96">
-        <v>5.1806440809363767</v>
+        <v>7.0803820269338136</v>
       </c>
       <c r="N96">
-        <v>1.5542439794722621E-3</v>
+        <v>3.8996631155064902E-2</v>
       </c>
       <c r="O96">
-        <v>7.5403982799789586E-5</v>
+        <v>2.5245777078329009E-3</v>
       </c>
       <c r="P96">
-        <v>9.9200886082000395E-3</v>
+        <v>4.4357997962242282E-2</v>
       </c>
       <c r="Q96">
-        <v>9.0825494770651518E-3</v>
+        <v>8.0841489953087115E-3</v>
       </c>
       <c r="R96">
-        <v>1.302948073538694E-2</v>
+        <v>4.8983978164846073E-5</v>
       </c>
       <c r="S96">
-        <v>1.00594585448055E-3</v>
+        <v>6.9635832476118492E-7</v>
       </c>
       <c r="T96">
-        <v>2.3263003929305661E-2</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>8.4591678317232077E-3</v>
+        <v>0</v>
       </c>
       <c r="V96">
-        <v>18.195992785627819</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>-0.74035935661910557</v>
+        <v>-0.113315333028531</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -423,1047 +423,1122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW97"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
-      <c r="CW1" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.506080679685028E-06</v>
+        <v>5.534732375732904E-06</v>
       </c>
       <c r="C2">
-        <v>0.02738274287718629</v>
+        <v>0.03668171535821034</v>
       </c>
       <c r="D2">
-        <v>0.001518895516756522</v>
+        <v>0.002535704496452969</v>
       </c>
       <c r="E2">
-        <v>0.02902115228045574</v>
+        <v>0.03885673392660242</v>
       </c>
       <c r="F2">
         <v>6.7</v>
       </c>
       <c r="G2">
-        <v>19.13401437203816</v>
+        <v>19.0209619183396</v>
       </c>
       <c r="H2">
-        <v>19.60984547610285</v>
+        <v>19.10798355231376</v>
       </c>
       <c r="I2">
-        <v>15.03267306265547</v>
+        <v>18.90747234554232</v>
       </c>
       <c r="J2">
-        <v>18.27180783312598</v>
+        <v>19.27894384402313</v>
       </c>
       <c r="K2">
-        <v>8.300046047221272</v>
+        <v>6.50004121086048</v>
       </c>
       <c r="L2">
-        <v>8.69099207178942</v>
+        <v>5.186890122178355</v>
       </c>
       <c r="M2">
-        <v>8.294894010315501</v>
+        <v>6.521565897723999</v>
       </c>
       <c r="N2">
-        <v>0.00849479873091815</v>
+        <v>0.005680021619262197</v>
       </c>
       <c r="O2">
-        <v>0.0006142680571793615</v>
+        <v>0.0002318283604299532</v>
       </c>
       <c r="P2">
-        <v>0.008175073255304447</v>
+        <v>0.008761386286703468</v>
       </c>
       <c r="Q2">
-        <v>0.0004565357932257077</v>
+        <v>0.003569905484230828</v>
       </c>
       <c r="R2">
-        <v>3.231705455593377E-06</v>
+        <v>0.0008728331328645815</v>
       </c>
       <c r="S2">
-        <v>6.457801115020205E-09</v>
+        <v>2.598159485517872E-05</v>
       </c>
       <c r="T2">
-        <v>0.002608471733934381</v>
+        <v>0.002609286775726215</v>
       </c>
       <c r="U2">
-        <v>0.0006746492906934446</v>
+        <v>0.0004957180068267278</v>
       </c>
       <c r="V2">
-        <v>9.452511211905852</v>
+        <v>6.945504993649283</v>
       </c>
       <c r="W2">
-        <v>-1.473197661766434</v>
+        <v>-0.4995814423797675</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0003277142287671346</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.7575879943758288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:101">
+        <v>-0.9254070582685241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.499739087778478E-06</v>
+        <v>5.527008932763763E-06</v>
       </c>
       <c r="C3">
-        <v>0.02764399386062497</v>
+        <v>0.03702662455883415</v>
       </c>
       <c r="D3">
-        <v>0.001535740234005758</v>
+        <v>0.002563970787480316</v>
       </c>
       <c r="E3">
-        <v>0.02931097320330937</v>
+        <v>0.03923863291416005</v>
       </c>
       <c r="F3">
-        <v>6.699985241789174</v>
+        <v>6.699985236939199</v>
       </c>
       <c r="K3">
-        <v>8.298763203586043</v>
+        <v>6.503557242763681</v>
       </c>
       <c r="L3">
-        <v>8.694034869790499</v>
+        <v>5.192152458437484</v>
       </c>
       <c r="M3">
-        <v>8.296795653592474</v>
+        <v>6.526845936127727</v>
       </c>
       <c r="N3">
-        <v>0.008574400050854905</v>
+        <v>0.005735053874401918</v>
       </c>
       <c r="O3">
-        <v>0.00062090090217605</v>
+        <v>0.0002344520005062068</v>
       </c>
       <c r="P3">
-        <v>0.00825303828017393</v>
+        <v>0.008813825486728445</v>
       </c>
       <c r="Q3">
-        <v>0.0004608205576701259</v>
+        <v>0.003566727159543499</v>
       </c>
       <c r="R3">
-        <v>3.264283714729522E-06</v>
+        <v>0.0008813871888040704</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.532571592081948E-05</v>
       </c>
       <c r="T3">
-        <v>0.002628005293967118</v>
+        <v>0.002630635955210048</v>
       </c>
       <c r="U3">
-        <v>0.0006810114323453759</v>
+        <v>0.0005004057309471415</v>
       </c>
       <c r="V3">
-        <v>9.497081195248457</v>
+        <v>6.97834484497484</v>
       </c>
       <c r="W3">
-        <v>-1.460179285993917</v>
+        <v>-0.470860736205907</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003326015227366563</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.7633495904472936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:101">
+        <v>-0.9150087638804205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.493756008408065E-06</v>
+        <v>5.519055081225148E-06</v>
       </c>
       <c r="C4">
-        <v>0.027910404611917</v>
+        <v>0.03737828429119491</v>
       </c>
       <c r="D4">
-        <v>0.001552845518693075</v>
+        <v>0.002592915470160422</v>
       </c>
       <c r="E4">
-        <v>0.02960689003988621</v>
+        <v>0.03962822421958115</v>
       </c>
       <c r="F4">
-        <v>6.699970408393543</v>
+        <v>6.699970398569491</v>
       </c>
       <c r="K4">
-        <v>8.29745212631582</v>
+        <v>6.507093570485576</v>
       </c>
       <c r="L4">
-        <v>8.690418319397406</v>
+        <v>5.196443627888327</v>
       </c>
       <c r="M4">
-        <v>8.295501818575225</v>
+        <v>6.530552261379247</v>
       </c>
       <c r="N4">
-        <v>0.008655558205433261</v>
+        <v>0.005791182464951874</v>
       </c>
       <c r="O4">
-        <v>0.0006262081112028833</v>
+        <v>0.000237119253566663</v>
       </c>
       <c r="P4">
-        <v>0.008332550705913766</v>
+        <v>0.008867367306393597</v>
       </c>
       <c r="Q4">
-        <v>0.0004660586524383827</v>
+        <v>0.003571341747953955</v>
       </c>
       <c r="R4">
-        <v>3.297592732226762E-06</v>
+        <v>0.0008901225099559403</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.553169525023216E-05</v>
       </c>
       <c r="T4">
-        <v>0.002647872578269381</v>
+        <v>0.002652372998314772</v>
       </c>
       <c r="U4">
-        <v>0.0006860982064117248</v>
+        <v>0.0005051838664071579</v>
       </c>
       <c r="V4">
-        <v>9.535694786843864</v>
+        <v>7.011606947393457</v>
       </c>
       <c r="W4">
-        <v>-1.447059551791988</v>
+        <v>-0.441929290983218</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0003375898769016709</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.7691504949264996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:101">
+        <v>-0.9045263437675821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.487651267741871E-06</v>
+        <v>5.510942580621164E-06</v>
       </c>
       <c r="C5">
-        <v>0.02818213202524921</v>
+        <v>0.0377368963408963</v>
       </c>
       <c r="D5">
-        <v>0.001570340881394351</v>
+        <v>0.002622530427806336</v>
       </c>
       <c r="E5">
-        <v>0.02990893514154956</v>
+        <v>0.04002577733146206</v>
       </c>
       <c r="F5">
-        <v>6.699955498361981</v>
+        <v>6.699955483435412</v>
       </c>
       <c r="K5">
-        <v>8.296134995092279</v>
+        <v>6.510660700637119</v>
       </c>
       <c r="L5">
-        <v>8.686738249759427</v>
+        <v>5.200769813644659</v>
       </c>
       <c r="M5">
-        <v>8.294203290792627</v>
+        <v>6.534292310153373</v>
       </c>
       <c r="N5">
-        <v>0.00873833501052842</v>
+        <v>0.005848440848574402</v>
       </c>
       <c r="O5">
-        <v>0.0006316224508693552</v>
+        <v>0.0002398392588337943</v>
       </c>
       <c r="P5">
-        <v>0.008413648562135162</v>
+        <v>0.008921965508026994</v>
       </c>
       <c r="Q5">
-        <v>0.0004714110412216732</v>
+        <v>0.003576063375395933</v>
       </c>
       <c r="R5">
-        <v>3.331588533589924E-06</v>
+        <v>0.0008990358173240404</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.574125328035545E-05</v>
       </c>
       <c r="T5">
-        <v>0.002668097056329769</v>
+        <v>0.002674508968746809</v>
       </c>
       <c r="U5">
-        <v>0.0006912875814874617</v>
+        <v>0.0005100636249275476</v>
       </c>
       <c r="V5">
-        <v>9.573178666188104</v>
+        <v>7.04533057276006</v>
       </c>
       <c r="W5">
-        <v>-1.433811562070147</v>
+        <v>-0.4127581163051275</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0003426919302309782</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.7750123253075145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:101">
+        <v>-0.8939484036597136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.481421107168721E-06</v>
+        <v>5.502666613646892E-06</v>
       </c>
       <c r="C6">
-        <v>0.0284593381829977</v>
+        <v>0.03810267098582431</v>
       </c>
       <c r="D6">
-        <v>0.001588239805952292</v>
+        <v>0.002652839178173546</v>
       </c>
       <c r="E6">
-        <v>0.03021730092467521</v>
+        <v>0.04043153891189515</v>
       </c>
       <c r="F6">
-        <v>6.699940510198068</v>
+        <v>6.699940490036032</v>
       </c>
       <c r="K6">
-        <v>8.294811482005125</v>
+        <v>6.514259090890265</v>
       </c>
       <c r="L6">
-        <v>8.68300865816261</v>
+        <v>5.20514866325811</v>
       </c>
       <c r="M6">
-        <v>8.292899325693972</v>
+        <v>6.538066873674818</v>
       </c>
       <c r="N6">
-        <v>0.008822779933024869</v>
+        <v>0.005906863781800867</v>
       </c>
       <c r="O6">
-        <v>0.0006371560774251525</v>
+        <v>0.0002426230546510673</v>
       </c>
       <c r="P6">
-        <v>0.008496380202978011</v>
+        <v>0.008977651988575234</v>
       </c>
       <c r="Q6">
-        <v>0.0004768849881350103</v>
+        <v>0.00358089509199625</v>
       </c>
       <c r="R6">
-        <v>3.366292580814819E-06</v>
+        <v>0.0009081326356994955</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.595446703371466E-05</v>
       </c>
       <c r="T6">
-        <v>0.00268868882169271</v>
+        <v>0.002697055274411593</v>
       </c>
       <c r="U6">
-        <v>0.000696582353876018</v>
+        <v>0.0005150483759052654</v>
       </c>
       <c r="V6">
-        <v>9.610506004981861</v>
+        <v>7.079533017169783</v>
       </c>
       <c r="W6">
-        <v>-1.420433545748708</v>
+        <v>-0.3833445964106126</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003479113365060234</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.7809360231811429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:101">
+        <v>-0.8832737638244694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.475061605578347E-06</v>
+        <v>5.494222194916854E-06</v>
       </c>
       <c r="C7">
-        <v>0.02874219185012449</v>
+        <v>0.03847582711011537</v>
       </c>
       <c r="D7">
-        <v>0.001606556404559269</v>
+        <v>0.002683866335516014</v>
       </c>
       <c r="E7">
-        <v>0.03053218792088157</v>
+        <v>0.04084576589240589</v>
       </c>
       <c r="F7">
-        <v>6.699925442358179</v>
+        <v>6.699925416822969</v>
       </c>
       <c r="K7">
-        <v>8.293479658336187</v>
+        <v>6.517889054840977</v>
       </c>
       <c r="L7">
-        <v>8.679225184725436</v>
+        <v>5.209580191940089</v>
       </c>
       <c r="M7">
-        <v>8.29158766592807</v>
+        <v>6.541875421677537</v>
       </c>
       <c r="N7">
-        <v>0.008908944394662759</v>
+        <v>0.005966487368402444</v>
       </c>
       <c r="O7">
-        <v>0.0006428120047319614</v>
+        <v>0.0002454726792200657</v>
       </c>
       <c r="P7">
-        <v>0.008580795942081621</v>
+        <v>0.009034459955907645</v>
       </c>
       <c r="Q7">
-        <v>0.0004824851476747549</v>
+        <v>0.003585846629842557</v>
       </c>
       <c r="R7">
-        <v>3.401727239560238E-06</v>
+        <v>0.0009174187216854512</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.617146575533978E-05</v>
       </c>
       <c r="T7">
-        <v>0.002709658363459201</v>
+        <v>0.00272002376808008</v>
       </c>
       <c r="U7">
-        <v>0.000701985016292174</v>
+        <v>0.0005201416339982838</v>
       </c>
       <c r="V7">
-        <v>9.648007014696491</v>
+        <v>7.114228253299812</v>
       </c>
       <c r="W7">
-        <v>-1.40692641870087</v>
+        <v>-0.3536821699634203</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.0003532512159168196</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.7869211886371001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:101">
+        <v>-0.8724997678648752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.468568677110636E-06</v>
+        <v>5.485604093790756E-06</v>
       </c>
       <c r="C8">
-        <v>0.02903086882294965</v>
+        <v>0.03885659265027069</v>
       </c>
       <c r="D8">
-        <v>0.001625305452980707</v>
+        <v>0.002715637704704578</v>
       </c>
       <c r="E8">
-        <v>0.03085380520932721</v>
+        <v>0.04126872598156785</v>
       </c>
       <c r="F8">
-        <v>6.699910293249449</v>
+        <v>6.699910262198417</v>
       </c>
       <c r="K8">
-        <v>8.292141872601382</v>
+        <v>6.52155150189077</v>
       </c>
       <c r="L8">
-        <v>8.675390456666955</v>
+        <v>5.214066561322065</v>
       </c>
       <c r="M8">
-        <v>8.290270500884805</v>
+        <v>6.545719467678331</v>
       </c>
       <c r="N8">
-        <v>0.008996881973279044</v>
+        <v>0.006027349226798001</v>
       </c>
       <c r="O8">
-        <v>0.0006485956424672422</v>
+        <v>0.0002483906415905916</v>
       </c>
       <c r="P8">
-        <v>0.008666948184575312</v>
+        <v>0.00909242392746153</v>
       </c>
       <c r="Q8">
-        <v>0.0004882153947830378</v>
+        <v>0.003590917263692063</v>
       </c>
       <c r="R8">
-        <v>3.437915827215135E-06</v>
+        <v>0.0009269000754719418</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.639233978820198E-05</v>
       </c>
       <c r="T8">
-        <v>0.002731016590556723</v>
+        <v>0.002743426769506483</v>
       </c>
       <c r="U8">
-        <v>0.0007075000716904721</v>
+        <v>0.0005253470730720043</v>
       </c>
       <c r="V8">
-        <v>9.685832227519164</v>
+        <v>7.14942962294439</v>
       </c>
       <c r="W8">
-        <v>-1.393282707275652</v>
+        <v>-0.3237684796375149</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0003587167243835701</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.7929713588511413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:101">
+        <v>-0.8616251428032147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.461938069780134E-06</v>
+        <v>5.476806894655576E-06</v>
       </c>
       <c r="C9">
-        <v>0.02932555230004609</v>
+        <v>0.03924520506904022</v>
       </c>
       <c r="D9">
-        <v>0.001644502427888019</v>
+        <v>0.002748180321653598</v>
       </c>
       <c r="E9">
-        <v>0.03118237087712157</v>
+        <v>0.04170069826520743</v>
       </c>
       <c r="F9">
-        <v>6.699895061227576</v>
+        <v>6.699895024512902</v>
       </c>
       <c r="K9">
-        <v>8.29079528170552</v>
+        <v>6.525246973796551</v>
       </c>
       <c r="L9">
-        <v>8.671495553146453</v>
+        <v>5.218608715171023</v>
       </c>
       <c r="M9">
-        <v>8.288943975329309</v>
+        <v>6.549599363489338</v>
       </c>
       <c r="N9">
-        <v>0.009086648492965192</v>
+        <v>0.006089488566423888</v>
       </c>
       <c r="O9">
-        <v>0.0006545093119979923</v>
+        <v>0.0002513793776831582</v>
       </c>
       <c r="P9">
-        <v>0.008754891547906412</v>
+        <v>0.009151579913093458</v>
       </c>
       <c r="Q9">
-        <v>0.0004940811831957222</v>
+        <v>0.003596112956401796</v>
       </c>
       <c r="R9">
-        <v>3.47488266406691E-06</v>
+        <v>0.0009365829543502615</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.661720781034126E-05</v>
       </c>
       <c r="T9">
-        <v>0.00275277483269507</v>
+        <v>0.002767277088822982</v>
       </c>
       <c r="U9">
-        <v>0.0007131293936641298</v>
+        <v>0.0005306685389252432</v>
       </c>
       <c r="V9">
-        <v>9.724060190907785</v>
+        <v>7.185150532436539</v>
       </c>
       <c r="W9">
-        <v>-1.379504492644028</v>
+        <v>-0.293596990746007</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.0003643110441366803</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.7990855261624485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:101">
+        <v>-0.8506472242991379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.455165334465397E-06</v>
+        <v>5.467824938916982E-06</v>
       </c>
       <c r="C10">
-        <v>0.02962643327691737</v>
+        <v>0.03964191185977267</v>
       </c>
       <c r="D10">
-        <v>0.001664163554819929</v>
+        <v>0.002781522548828568</v>
       </c>
       <c r="E10">
-        <v>0.03151811250129757</v>
+        <v>0.04214197379273325</v>
       </c>
       <c r="F10">
-        <v>6.699879744594659</v>
+        <v>6.699879702063087</v>
       </c>
       <c r="K10">
-        <v>8.289443107434336</v>
+        <v>6.528975785694882</v>
       </c>
       <c r="L10">
-        <v>8.667548899846798</v>
+        <v>5.223208267868543</v>
       </c>
       <c r="M10">
-        <v>8.287612727720965</v>
+        <v>6.553516246598933</v>
       </c>
       <c r="N10">
-        <v>0.009178302179714834</v>
+        <v>0.006152946274997156</v>
       </c>
       <c r="O10">
-        <v>0.0006605600749359502</v>
+        <v>0.0002544415616745788</v>
       </c>
       <c r="P10">
-        <v>0.008844682964914136</v>
+        <v>0.00921196542349228</v>
       </c>
       <c r="Q10">
-        <v>0.0005000862304787544</v>
+        <v>0.003601435488060625</v>
       </c>
       <c r="R10">
-        <v>3.512653127806768E-06</v>
+        <v>0.0009464738863778692</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.684617731823976E-05</v>
       </c>
       <c r="T10">
-        <v>0.002774944891814971</v>
+        <v>0.002791588051321871</v>
       </c>
       <c r="U10">
-        <v>0.0007188788678036005</v>
+        <v>0.0005361100743889938</v>
       </c>
       <c r="V10">
-        <v>9.762743704895392</v>
+        <v>7.221404723528499</v>
       </c>
       <c r="W10">
-        <v>-1.36558362132542</v>
+        <v>-0.2631645381459435</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.00037003983632709</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.8052678842050023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:101">
+        <v>-0.8395645550580717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.448245846052615E-06</v>
+        <v>5.458652339060975E-06</v>
       </c>
       <c r="C11">
-        <v>0.02993371096617119</v>
+        <v>0.04004697108296985</v>
       </c>
       <c r="D11">
-        <v>0.001684305845035318</v>
+        <v>0.002815694144933053</v>
       </c>
       <c r="E11">
-        <v>0.03186126767770267</v>
+        <v>0.04259285623168021</v>
       </c>
       <c r="F11">
-        <v>6.699864341596649</v>
+        <v>6.699864293089199</v>
       </c>
       <c r="K11">
-        <v>8.288083134084934</v>
+        <v>6.532738787130365</v>
       </c>
       <c r="L11">
-        <v>8.663545547681609</v>
+        <v>5.227865473715517</v>
       </c>
       <c r="M11">
-        <v>8.286275290216354</v>
+        <v>6.557469932624318</v>
       </c>
       <c r="N11">
-        <v>0.009271903741305812</v>
+        <v>0.00621776500811059</v>
       </c>
       <c r="O11">
-        <v>0.0006667520252559051</v>
+        <v>0.00025757975807225</v>
       </c>
       <c r="P11">
-        <v>0.008936381830127712</v>
+        <v>0.009273619598606913</v>
       </c>
       <c r="Q11">
-        <v>0.0005062358190557714</v>
+        <v>0.003606894177530412</v>
       </c>
       <c r="R11">
-        <v>3.55125371162882E-06</v>
+        <v>0.0009565796853785245</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.70793891034533E-05</v>
       </c>
       <c r="T11">
-        <v>0.002797539023946964</v>
+        <v>0.002816373523595858</v>
       </c>
       <c r="U11">
-        <v>0.0007247518878784959</v>
+        <v>0.0005416758772979537</v>
       </c>
       <c r="V11">
-        <v>9.801919204512414</v>
+        <v>7.258206322857812</v>
       </c>
       <c r="W11">
-        <v>-1.351520468245035</v>
+        <v>-0.2324650780186985</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.000375906964697674</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.8115180431262354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:101">
+        <v>-0.8283745114586196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.44117476816212E-06</v>
+        <v>5.449282936287054E-06</v>
       </c>
       <c r="C12">
-        <v>0.03024759324529492</v>
+        <v>0.04046065193783693</v>
       </c>
       <c r="D12">
-        <v>0.001704947150688945</v>
+        <v>0.002850726365498305</v>
       </c>
       <c r="E12">
-        <v>0.03221208456848825</v>
+        <v>0.0430536625444153</v>
       </c>
       <c r="F12">
-        <v>6.699848850420945</v>
+        <v>6.699848795772734</v>
       </c>
       <c r="K12">
-        <v>8.286715799432864</v>
+        <v>6.536536661287365</v>
       </c>
       <c r="L12">
-        <v>8.659483490498705</v>
+        <v>5.232582515498567</v>
       </c>
       <c r="M12">
-        <v>8.28493091968247</v>
+        <v>6.561461972702425</v>
       </c>
       <c r="N12">
-        <v>0.00936751653815081</v>
+        <v>0.006283989288666572</v>
       </c>
       <c r="O12">
-        <v>0.0006730899501824188</v>
+        <v>0.0002607970449592566</v>
       </c>
       <c r="P12">
-        <v>0.009030050119139621</v>
+        <v>0.009336583214396652</v>
       </c>
       <c r="Q12">
-        <v>0.0005125354101495632</v>
+        <v>0.003612490103710691</v>
       </c>
       <c r="R12">
-        <v>3.590712086202474E-06</v>
+        <v>0.0009669074664482475</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.731695521064815E-05</v>
       </c>
       <c r="T12">
-        <v>0.002820569992125502</v>
+        <v>0.002841647941888057</v>
       </c>
       <c r="U12">
-        <v>0.0007307523479654394</v>
+        <v>0.0005473703743246327</v>
       </c>
       <c r="V12">
-        <v>9.8416148356789</v>
+        <v>7.295569958476414</v>
       </c>
       <c r="W12">
-        <v>-1.337311152505617</v>
+        <v>-0.2014949392809164</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.0003819175658329647</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.8178380433065389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:101">
+        <v>-0.8170754648748186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.433947047373673E-06</v>
+        <v>5.439710328449642E-06</v>
       </c>
       <c r="C13">
-        <v>0.03056829713399836</v>
+        <v>0.040883235371234</v>
       </c>
       <c r="D13">
-        <v>0.001726106215528016</v>
+        <v>0.002886652037744619</v>
       </c>
       <c r="E13">
-        <v>0.03257082249466186</v>
+        <v>0.04352472373639786</v>
       </c>
       <c r="F13">
-        <v>6.699833269193681</v>
+        <v>6.699833208233476</v>
       </c>
       <c r="K13">
-        <v>8.285339739021905</v>
+        <v>6.5403700591001</v>
       </c>
       <c r="L13">
-        <v>8.655360387226654</v>
+        <v>5.23736067556769</v>
       </c>
       <c r="M13">
-        <v>8.28357974779933</v>
+        <v>6.565492700720955</v>
       </c>
       <c r="N13">
-        <v>0.009465206724532478</v>
+        <v>0.006351665606011599</v>
       </c>
       <c r="O13">
-        <v>0.0006795792470106983</v>
+        <v>0.0002640962890908894</v>
       </c>
       <c r="P13">
-        <v>0.009125752531600183</v>
+        <v>0.009400898867325709</v>
       </c>
       <c r="Q13">
-        <v>0.0005189904645702729</v>
+        <v>0.003618229546385355</v>
       </c>
       <c r="R13">
-        <v>3.631057165822726E-06</v>
+        <v>0.000977464663203726</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.755900665780136E-05</v>
       </c>
       <c r="T13">
-        <v>0.002844051089250896</v>
+        <v>0.002867426341523601</v>
       </c>
       <c r="U13">
-        <v>0.0007368846896911607</v>
+        <v>0.0005531981917646302</v>
       </c>
       <c r="V13">
-        <v>9.881854548310898</v>
+        <v>7.333510784004566</v>
       </c>
       <c r="W13">
-        <v>-1.322955133403347</v>
+        <v>-0.1702487042766307</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.0003880760714272061</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.8242281243922367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:101">
+        <v>-0.8056649462895855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.426557409486532E-06</v>
+        <v>5.429927818528992E-06</v>
       </c>
       <c r="C14">
-        <v>0.03089604930352643</v>
+        <v>0.04131501472729638</v>
       </c>
       <c r="D14">
-        <v>0.001747802728652907</v>
+        <v>0.002923505678402852</v>
       </c>
       <c r="E14">
-        <v>0.03293775257077929</v>
+        <v>0.04400638562350409</v>
       </c>
       <c r="F14">
-        <v>6.699817595976884</v>
+        <v>6.699817528527015</v>
       </c>
       <c r="K14">
-        <v>8.283956154949307</v>
+        <v>6.544239569392724</v>
       </c>
       <c r="L14">
-        <v>8.651172716061287</v>
+        <v>5.242201561321167</v>
       </c>
       <c r="M14">
-        <v>8.282220203764156</v>
+        <v>6.569563101534719</v>
       </c>
       <c r="N14">
-        <v>0.009565043400413406</v>
+        <v>0.006420842530067515</v>
       </c>
       <c r="O14">
-        <v>0.0006862245793784423</v>
+        <v>0.0002674807535718538</v>
       </c>
       <c r="P14">
-        <v>0.00922355664599825</v>
+        <v>0.009466611018700031</v>
       </c>
       <c r="Q14">
-        <v>0.0005256070815279777</v>
+        <v>0.003624117311893973</v>
       </c>
       <c r="R14">
-        <v>3.672319179070712E-06</v>
+        <v>0.000988259045664475</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.78056986226879E-05</v>
       </c>
       <c r="T14">
-        <v>0.002867996161973166</v>
+        <v>0.002893724388679954</v>
       </c>
       <c r="U14">
-        <v>0.0007431527428996129</v>
+        <v>0.0005591641966228278</v>
       </c>
       <c r="V14">
-        <v>9.92265905080748</v>
+        <v>7.372044535918249</v>
       </c>
       <c r="W14">
-        <v>-1.308446512284291</v>
+        <v>-0.1387201026350482</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.0003943884165979437</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.8306911452794337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:101">
+        <v>-0.7941403762367418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.419000342206697E-06</v>
+        <v>5.419928426032844E-06</v>
       </c>
       <c r="C15">
-        <v>0.031231086620479</v>
+        <v>0.04175629644050205</v>
       </c>
       <c r="D15">
-        <v>0.001770057386002036</v>
+        <v>0.002961323589644645</v>
       </c>
       <c r="E15">
-        <v>0.03331315837738789</v>
+        <v>0.04449900967193406</v>
       </c>
       <c r="F15">
-        <v>6.699801828765428</v>
+        <v>6.699801754641221</v>
       </c>
       <c r="K15">
-        <v>8.282566121097028</v>
+        <v>6.548145833089892</v>
       </c>
       <c r="L15">
-        <v>8.64692316648741</v>
+        <v>5.247106005381159</v>
       </c>
       <c r="M15">
-        <v>8.280854717312385</v>
+        <v>6.573673728149816</v>
       </c>
       <c r="N15">
-        <v>0.009667098789160933</v>
+        <v>0.006491570826349075</v>
       </c>
       <c r="O15">
-        <v>0.0006930331985879118</v>
+        <v>0.000270953699744707</v>
       </c>
       <c r="P15">
-        <v>0.009323533077773772</v>
+        <v>0.009533766118778261</v>
       </c>
       <c r="Q15">
-        <v>0.0005323907875091768</v>
+        <v>0.003630159839681762</v>
       </c>
       <c r="R15">
-        <v>3.714529744347387E-06</v>
+        <v>0.0009992987393086334</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.805716541785676E-05</v>
       </c>
       <c r="T15">
-        <v>0.002892419649548724</v>
+        <v>0.002920558413876013</v>
       </c>
       <c r="U15">
-        <v>0.0007495624361684621</v>
+        <v>0.0005652734877841952</v>
       </c>
       <c r="V15">
-        <v>9.964049068118111</v>
+        <v>7.411187557448685</v>
       </c>
       <c r="W15">
-        <v>-1.293779734094347</v>
+        <v>-0.1069046262160427</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.0004008606494337111</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.8372298351263892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:101">
+        <v>-0.7824996926976677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.411270076549577E-06</v>
+        <v>5.409704843492812E-06</v>
       </c>
       <c r="C16">
-        <v>0.03157365672785664</v>
+        <v>0.04220740077597714</v>
       </c>
       <c r="D16">
-        <v>0.001792891956793513</v>
+        <v>0.003000143989310052</v>
       </c>
       <c r="E16">
-        <v>0.03369733668132623</v>
+        <v>0.04500297388099337</v>
       </c>
       <c r="F16">
-        <v>6.699785965483977</v>
+        <v>6.69978588449364</v>
       </c>
       <c r="K16">
-        <v>8.281166396492587</v>
+        <v>6.552089721112421</v>
       </c>
       <c r="L16">
-        <v>8.642592345578397</v>
+        <v>5.252076482889791</v>
       </c>
       <c r="M16">
-        <v>8.27947500250208</v>
+        <v>6.577825885024541</v>
       </c>
       <c r="N16">
-        <v>0.009771448389051319</v>
+        <v>0.006563903583635172</v>
       </c>
       <c r="O16">
-        <v>0.0007000067874294213</v>
+        <v>0.0002745187115954517</v>
       </c>
       <c r="P16">
-        <v>0.009425755662544289</v>
+        <v>0.009602412703418918</v>
       </c>
       <c r="Q16">
-        <v>0.0005393499250768056</v>
+        <v>0.003636360099536984</v>
       </c>
       <c r="R16">
-        <v>3.757721950677007E-06</v>
+        <v>0.001010592245981782</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.831357094005717E-05</v>
       </c>
       <c r="T16">
-        <v>0.002917336593890355</v>
+        <v>0.002947945447900336</v>
       </c>
       <c r="U16">
-        <v>0.0007561150684681591</v>
+        <v>0.0005715314214279601</v>
       </c>
       <c r="V16">
-        <v>10.00604101186406</v>
+        <v>7.450956836660582</v>
       </c>
       <c r="W16">
-        <v>-1.278957367130047</v>
+        <v>-0.07479624543226748</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.0004074973099867988</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.8438430474840235</v>
+        <v>-0.7707401522795632</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1471,67 +1546,67 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.403360578530342E-06</v>
+        <v>5.399249453231531E-06</v>
       </c>
       <c r="C17">
-        <v>0.03192401866633974</v>
+        <v>0.04266866262052615</v>
       </c>
       <c r="D17">
-        <v>0.001816329351732087</v>
+        <v>0.003040007120597639</v>
       </c>
       <c r="E17">
-        <v>0.03409059820890178</v>
+        <v>0.04551867374509753</v>
       </c>
       <c r="F17">
-        <v>6.699770003983525</v>
+        <v>6.69976991592752</v>
       </c>
       <c r="K17">
-        <v>8.279759663494044</v>
+        <v>6.556071772608586</v>
       </c>
       <c r="L17">
-        <v>8.638219017275475</v>
+        <v>5.257113690688367</v>
       </c>
       <c r="M17">
-        <v>8.278099574313016</v>
+        <v>6.582019632528728</v>
       </c>
       <c r="N17">
-        <v>0.00987817123142334</v>
+        <v>0.006637896346835639</v>
       </c>
       <c r="O17">
-        <v>0.0007071619351916158</v>
+        <v>0.0002781794020050762</v>
       </c>
       <c r="P17">
-        <v>0.009530301612396848</v>
+        <v>0.009672601557582235</v>
       </c>
       <c r="Q17">
-        <v>0.0005464868492933599</v>
+        <v>0.003642729081817213</v>
       </c>
       <c r="R17">
-        <v>3.801930444214384E-06</v>
+        <v>0.001022148465688155</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.857504412086982E-05</v>
       </c>
       <c r="T17">
-        <v>0.002942762729483558</v>
+        <v>0.002975903259976482</v>
       </c>
       <c r="U17">
-        <v>0.0007628242675909716</v>
+        <v>0.0005779436264949406</v>
       </c>
       <c r="V17">
-        <v>10.04865912444863</v>
+        <v>7.491370043795584</v>
       </c>
       <c r="W17">
-        <v>-1.263970824362698</v>
+        <v>-0.04238915996723591</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.0004143056109898526</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.8505350255830404</v>
+        <v>-0.7588593222336844</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1539,67 +1614,67 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.395265535215918E-06</v>
+        <v>5.388554262340275E-06</v>
       </c>
       <c r="C18">
-        <v>0.03228244353913269</v>
+        <v>0.04314043232885863</v>
       </c>
       <c r="D18">
-        <v>0.001840393698033734</v>
+        <v>0.003080955411148681</v>
       </c>
       <c r="E18">
-        <v>0.03449326847270563</v>
+        <v>0.04604652324972414</v>
       </c>
       <c r="F18">
-        <v>6.699753942037807</v>
+        <v>6.699753846708718</v>
       </c>
       <c r="K18">
-        <v>8.278345097000907</v>
+        <v>6.560093050124632</v>
       </c>
       <c r="L18">
-        <v>8.633756298202572</v>
+        <v>5.262219268680779</v>
       </c>
       <c r="M18">
-        <v>8.276707942820972</v>
+        <v>6.586255784189235</v>
       </c>
       <c r="N18">
-        <v>0.009987349913521338</v>
+        <v>0.006713607262845527</v>
       </c>
       <c r="O18">
-        <v>0.0007144941680192031</v>
+        <v>0.0002819397689368026</v>
       </c>
       <c r="P18">
-        <v>0.009637251788148079</v>
+        <v>0.009744385753722296</v>
       </c>
       <c r="Q18">
-        <v>0.000553813382202092</v>
+        <v>0.003649275051252095</v>
       </c>
       <c r="R18">
-        <v>3.847191520931222E-06</v>
+        <v>0.001033976720706813</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.884180583608697E-05</v>
       </c>
       <c r="T18">
-        <v>0.002968714377839422</v>
+        <v>0.00300445039847031</v>
       </c>
       <c r="U18">
-        <v>0.0007696862638588862</v>
+        <v>0.0005845160080850941</v>
       </c>
       <c r="V18">
-        <v>10.09191883730029</v>
+        <v>7.532445558235858</v>
       </c>
       <c r="W18">
-        <v>-1.2488172032531</v>
+        <v>-0.009677844236797739</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.0004212916706046945</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.8573069753649483</v>
+        <v>-0.7468549331464551</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1607,67 +1682,67 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.386978323293732E-06</v>
+        <v>5.377610940805718E-06</v>
       </c>
       <c r="C19">
-        <v>0.03264921522396521</v>
+        <v>0.04362307662907201</v>
       </c>
       <c r="D19">
-        <v>0.001865110425508722</v>
+        <v>0.003123033592249241</v>
       </c>
       <c r="E19">
-        <v>0.03490568865157547</v>
+        <v>0.04658695598920397</v>
       </c>
       <c r="F19">
-        <v>6.699737777339688</v>
+        <v>6.699737674521625</v>
       </c>
       <c r="K19">
-        <v>8.276920816921553</v>
+        <v>6.56415423083707</v>
       </c>
       <c r="L19">
-        <v>8.629233796423065</v>
+        <v>5.267396505487761</v>
       </c>
       <c r="M19">
-        <v>8.275314180451881</v>
+        <v>6.590536931296977</v>
       </c>
       <c r="N19">
-        <v>0.0100990710670816</v>
+        <v>0.006791097232651657</v>
       </c>
       <c r="O19">
-        <v>0.00072201827781078</v>
+        <v>0.0002858038815539862</v>
       </c>
       <c r="P19">
-        <v>0.009746690805087188</v>
+        <v>0.009817820822426757</v>
       </c>
       <c r="Q19">
-        <v>0.0005613333927677002</v>
+        <v>0.00365599066250728</v>
       </c>
       <c r="R19">
-        <v>3.893543226002683E-06</v>
+        <v>0.001046086779922123</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2.911394958014688E-05</v>
       </c>
       <c r="T19">
-        <v>0.002995208692465693</v>
+        <v>0.003033606234499047</v>
       </c>
       <c r="U19">
-        <v>0.0007767132951796848</v>
+        <v>0.0005912548193664685</v>
       </c>
       <c r="V19">
-        <v>10.13584167849264</v>
+        <v>7.574202542452955</v>
       </c>
       <c r="W19">
-        <v>-1.233496872555129</v>
+        <v>0.02334459054818439</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>3.793011181371021E-06</v>
       </c>
       <c r="Y19">
-        <v>0.0004284614225203284</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.8641590772500187</v>
+        <v>-0.734723500424332</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -1675,67 +1750,67 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.378492017824728E-06</v>
+        <v>5.36641075008763E-06</v>
       </c>
       <c r="C20">
-        <v>0.0330246311361415</v>
+        <v>0.0441169795929357</v>
       </c>
       <c r="D20">
-        <v>0.001890506346712396</v>
+        <v>0.003166288882830647</v>
       </c>
       <c r="E20">
-        <v>0.03532821654908542</v>
+        <v>0.04714042630184031</v>
       </c>
       <c r="F20">
-        <v>6.699721507496825</v>
+        <v>6.699721396965056</v>
       </c>
       <c r="K20">
-        <v>8.275494316238856</v>
+        <v>6.568256151927731</v>
       </c>
       <c r="L20">
-        <v>8.624644547112331</v>
+        <v>5.272646460498724</v>
       </c>
       <c r="M20">
-        <v>8.273916021120774</v>
+        <v>6.594863036917851</v>
       </c>
       <c r="N20">
-        <v>0.01021342536938978</v>
+        <v>0.006870430078396749</v>
       </c>
       <c r="O20">
-        <v>0.000729740822268542</v>
+        <v>0.0002897761664798156</v>
       </c>
       <c r="P20">
-        <v>0.009858707358895961</v>
+        <v>0.009892965092669676</v>
       </c>
       <c r="Q20">
-        <v>0.0005690554020259819</v>
+        <v>0.003662891771162077</v>
       </c>
       <c r="R20">
-        <v>3.94102546046613E-06</v>
+        <v>0.00105848888760922</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.939170286504361E-05</v>
       </c>
       <c r="T20">
-        <v>0.003022263514383815</v>
+        <v>0.003063391007854322</v>
       </c>
       <c r="U20">
-        <v>0.000783910480670454</v>
+        <v>0.0005981666044051878</v>
       </c>
       <c r="V20">
-        <v>10.18044841881796</v>
+        <v>7.616660950446014</v>
       </c>
       <c r="W20">
-        <v>-1.217990868696361</v>
+        <v>0.05668394649591235</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>9.207645057604015E-06</v>
       </c>
       <c r="Y20">
-        <v>0.0004358252547740145</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.8711004969164016</v>
+        <v>-0.7224626095127835</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -1743,67 +1818,67 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.369799346238894E-06</v>
+        <v>5.354944551962831E-06</v>
       </c>
       <c r="C21">
-        <v>0.0334090030471221</v>
+        <v>0.0446225436757765</v>
       </c>
       <c r="D21">
-        <v>0.001916609760618056</v>
+        <v>0.003210771146918484</v>
       </c>
       <c r="E21">
-        <v>0.03576122760257906</v>
+        <v>0.04770741053819846</v>
       </c>
       <c r="F21">
-        <v>6.699705130027717</v>
+        <v>6.699705011548112</v>
       </c>
       <c r="K21">
-        <v>8.274052000747364</v>
+        <v>6.572399521021596</v>
       </c>
       <c r="L21">
-        <v>8.619963710858954</v>
+        <v>5.277969098376672</v>
       </c>
       <c r="M21">
-        <v>8.272503529840307</v>
+        <v>6.599233358661868</v>
       </c>
       <c r="N21">
-        <v>0.01033050789466289</v>
+        <v>0.006951672719284613</v>
       </c>
       <c r="O21">
-        <v>0.0007376645289840576</v>
+        <v>0.0002938610433799518</v>
       </c>
       <c r="P21">
-        <v>0.009973394420091887</v>
+        <v>0.009969879578120388</v>
       </c>
       <c r="Q21">
-        <v>0.0005769906400881475</v>
+        <v>0.003669997083522915</v>
       </c>
       <c r="R21">
-        <v>3.989680095780526E-06</v>
+        <v>0.001071193791124581</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.967530620459122E-05</v>
       </c>
       <c r="T21">
-        <v>0.00304989750245435</v>
+        <v>0.003093825877032707</v>
       </c>
       <c r="U21">
-        <v>0.0007912795799921635</v>
+        <v>0.0006052582608606715</v>
       </c>
       <c r="V21">
-        <v>10.22575690764057</v>
+        <v>7.659841577569655</v>
       </c>
       <c r="W21">
-        <v>-1.202320625875949</v>
+        <v>0.09034741638701149</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.475163800783189E-05</v>
       </c>
       <c r="Y21">
-        <v>0.0004433846223605404</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0.8781205558867686</v>
+        <v>-0.7100691688359753</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -1811,67 +1886,67 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.360892682981145E-06</v>
+        <v>5.343202755325078E-06</v>
       </c>
       <c r="C22">
-        <v>0.03380265796320341</v>
+        <v>0.04514019083238723</v>
       </c>
       <c r="D22">
-        <v>0.001943450551415432</v>
+        <v>0.003256533095816962</v>
       </c>
       <c r="E22">
-        <v>0.0362051159821059</v>
+        <v>0.04828840838147043</v>
       </c>
       <c r="F22">
-        <v>6.699688642356935</v>
+        <v>6.699688515685598</v>
       </c>
       <c r="K22">
-        <v>8.272601927143205</v>
+        <v>6.576585040652708</v>
       </c>
       <c r="L22">
-        <v>8.615202767328064</v>
+        <v>5.28336837847478</v>
       </c>
       <c r="M22">
-        <v>8.271082370200645</v>
+        <v>6.603650721213521</v>
       </c>
       <c r="N22">
-        <v>0.01045041843673387</v>
+        <v>0.007034895365233421</v>
       </c>
       <c r="O22">
-        <v>0.0007458002794534693</v>
+        <v>0.0002980633390495139</v>
       </c>
       <c r="P22">
-        <v>0.01009084946734193</v>
+        <v>0.01004862810930286</v>
       </c>
       <c r="Q22">
-        <v>0.0005851454410254971</v>
+        <v>0.003677299728822699</v>
       </c>
       <c r="R22">
-        <v>4.039551096977783E-06</v>
+        <v>0.00108421277218608</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.996488693032761E-05</v>
       </c>
       <c r="T22">
-        <v>0.003078130226485128</v>
+        <v>0.003124932972234857</v>
       </c>
       <c r="U22">
-        <v>0.0007988300389006129</v>
+        <v>0.0006125370994788679</v>
       </c>
       <c r="V22">
-        <v>10.27178789656418</v>
+        <v>7.703766135818644</v>
       </c>
       <c r="W22">
-        <v>-1.18646644955356</v>
+        <v>0.1243397811729068</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>2.042944258945386E-05</v>
       </c>
       <c r="Y22">
-        <v>0.0004511509423630943</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.8852291554922651</v>
+        <v>-0.6975407941443326</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -1879,67 +1954,67 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.351764031539249E-06</v>
+        <v>5.33117532571106E-06</v>
       </c>
       <c r="C23">
-        <v>0.03420593906968174</v>
+        <v>0.04567036371512863</v>
       </c>
       <c r="D23">
-        <v>0.001971060299292963</v>
+        <v>0.003303630473218059</v>
       </c>
       <c r="E23">
-        <v>0.03666029576823659</v>
+        <v>0.04888394430367165</v>
       </c>
       <c r="F23">
-        <v>6.699672041810229</v>
+        <v>6.699671906692848</v>
       </c>
       <c r="K23">
-        <v>8.2711459956033</v>
+        <v>6.580814216277258</v>
       </c>
       <c r="L23">
-        <v>8.610370269600766</v>
+        <v>5.288846252923159</v>
       </c>
       <c r="M23">
-        <v>8.26965784132423</v>
+        <v>6.608115981258488</v>
       </c>
       <c r="N23">
-        <v>0.01057326170454755</v>
+        <v>0.007120171719995242</v>
       </c>
       <c r="O23">
-        <v>0.000754160521245666</v>
+        <v>0.0003023884400532696</v>
       </c>
       <c r="P23">
-        <v>0.01021117483476366</v>
+        <v>0.01012927783563805</v>
       </c>
       <c r="Q23">
-        <v>0.0005935284746356982</v>
+        <v>0.003684812385639555</v>
       </c>
       <c r="R23">
-        <v>4.090684655167375E-06</v>
+        <v>0.001097557682126027</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3.026066216407562E-05</v>
       </c>
       <c r="T23">
-        <v>0.003106982127593792</v>
+        <v>0.003156735451636832</v>
       </c>
       <c r="U23">
-        <v>0.0008065713289131344</v>
+        <v>0.000620010779972811</v>
       </c>
       <c r="V23">
-        <v>10.31856439623863</v>
+        <v>7.748457267745027</v>
       </c>
       <c r="W23">
-        <v>-1.170420242202482</v>
+        <v>0.1586704874387763</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>2.624647400369731E-05</v>
       </c>
       <c r="Y23">
-        <v>0.0004591330170996958</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.8924299926154209</v>
+        <v>-0.6848735179166745</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -1947,67 +2022,67 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.342404977359431E-06</v>
+        <v>5.318851734805753E-06</v>
       </c>
       <c r="C24">
-        <v>0.03461920674622519</v>
+        <v>0.0462135269618198</v>
       </c>
       <c r="D24">
-        <v>0.001999472409810909</v>
+        <v>0.003352122288132789</v>
       </c>
       <c r="E24">
-        <v>0.03712720220778736</v>
+        <v>0.0494945690984747</v>
       </c>
       <c r="F24">
-        <v>6.699655325609735</v>
+        <v>6.699655181780953</v>
       </c>
       <c r="K24">
-        <v>8.26967711886074</v>
+        <v>6.585087658492892</v>
       </c>
       <c r="L24">
-        <v>8.605442027080295</v>
+        <v>5.294405150187466</v>
       </c>
       <c r="M24">
-        <v>8.268219906113575</v>
+        <v>6.612630653237949</v>
       </c>
       <c r="N24">
-        <v>0.01069914761715398</v>
+        <v>0.007207579197943217</v>
       </c>
       <c r="O24">
-        <v>0.000762748600370611</v>
+        <v>0.0003068417907634035</v>
       </c>
       <c r="P24">
-        <v>0.01033447799322684</v>
+        <v>0.0102118991875611</v>
       </c>
       <c r="Q24">
-        <v>0.000602151586985772</v>
+        <v>0.003692540193169749</v>
       </c>
       <c r="R24">
-        <v>4.143129330233623E-06</v>
+        <v>0.001111240977253744</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>3.056288304135965E-05</v>
       </c>
       <c r="T24">
-        <v>0.003136474573730723</v>
+        <v>0.003189257562812012</v>
       </c>
       <c r="U24">
-        <v>0.0008145062682139456</v>
+        <v>0.0006276874393154374</v>
       </c>
       <c r="V24">
-        <v>10.36610713222589</v>
+        <v>7.793938634897356</v>
       </c>
       <c r="W24">
-        <v>-1.154191101915835</v>
+        <v>0.193346601153273</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>3.220798681351136E-05</v>
       </c>
       <c r="Y24">
-        <v>0.0004673368028633076</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.8997194703877938</v>
+        <v>-0.6720641284462197</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2015,67 +2090,67 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.332806694030324E-06</v>
+        <v>5.306220923156881E-06</v>
       </c>
       <c r="C25">
-        <v>0.03504283965968511</v>
+        <v>0.04677016858095859</v>
       </c>
       <c r="D25">
-        <v>0.002028722235976108</v>
+        <v>0.003402071059627608</v>
       </c>
       <c r="E25">
-        <v>0.03760629308783429</v>
+        <v>0.05012086153235667</v>
       </c>
       <c r="F25">
-        <v>6.699638490867937</v>
+        <v>6.699638338050985</v>
       </c>
       <c r="K25">
-        <v>8.268201331506109</v>
+        <v>6.589405844304451</v>
       </c>
       <c r="L25">
-        <v>8.600444660455738</v>
+        <v>5.300045833991346</v>
       </c>
       <c r="M25">
-        <v>8.266781167649794</v>
+        <v>6.61719448737493</v>
       </c>
       <c r="N25">
-        <v>0.01082819176022909</v>
+        <v>0.007297199164270228</v>
       </c>
       <c r="O25">
-        <v>0.0007715811941986248</v>
+        <v>0.0003114286043797271</v>
       </c>
       <c r="P25">
-        <v>0.01046087184265854</v>
+        <v>0.01029656618748826</v>
       </c>
       <c r="Q25">
-        <v>0.0006110212700695286</v>
+        <v>0.003700496625350888</v>
       </c>
       <c r="R25">
-        <v>4.196936204652242E-06</v>
+        <v>0.001125275757698061</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3.08717863525914E-05</v>
       </c>
       <c r="T25">
-        <v>0.003166630006269902</v>
+        <v>0.003222524707273006</v>
       </c>
       <c r="U25">
-        <v>0.0008226486244473345</v>
+        <v>0.0006355756545238414</v>
       </c>
       <c r="V25">
-        <v>10.41444141326363</v>
+        <v>7.840234962423865</v>
       </c>
       <c r="W25">
-        <v>-1.137761862028476</v>
+        <v>0.2283735283865411</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>3.831919623058107E-05</v>
       </c>
       <c r="Y25">
-        <v>0.0004757734928756261</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.9071049357189498</v>
+        <v>-0.6591100315078613</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2083,67 +2158,67 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.322959890344303E-06</v>
+        <v>5.293271291160442E-06</v>
       </c>
       <c r="C26">
-        <v>0.03547723594157602</v>
+        <v>0.04734080144308137</v>
       </c>
       <c r="D26">
-        <v>0.002058847230626287</v>
+        <v>0.003453543066533583</v>
       </c>
       <c r="E26">
-        <v>0.03809805019346681</v>
+        <v>0.05076343014435039</v>
       </c>
       <c r="F26">
-        <v>6.699621534582231</v>
+        <v>6.699621372488031</v>
       </c>
       <c r="K26">
-        <v>8.266716031415443</v>
+        <v>6.593770633825399</v>
       </c>
       <c r="L26">
-        <v>8.595333800503948</v>
+        <v>5.305771895794303</v>
       </c>
       <c r="M26">
-        <v>8.265323911795937</v>
+        <v>6.621809560212534</v>
       </c>
       <c r="N26">
-        <v>0.01096051558346633</v>
+        <v>0.007389117197952997</v>
       </c>
       <c r="O26">
-        <v>0.0007806595026861225</v>
+        <v>0.0003161557150480466</v>
       </c>
       <c r="P26">
-        <v>0.01059047513966629</v>
+        <v>0.01038335657646376</v>
       </c>
       <c r="Q26">
-        <v>0.0006201541379043063</v>
+        <v>0.003708692469524836</v>
       </c>
       <c r="R26">
-        <v>4.252159049450298E-06</v>
+        <v>0.001139675809952607</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3.118759307661066E-05</v>
       </c>
       <c r="T26">
-        <v>0.003197471866557042</v>
+        <v>0.003256563510598653</v>
       </c>
       <c r="U26">
-        <v>0.0008309983631018612</v>
+        <v>0.0006436844710426766</v>
       </c>
       <c r="V26">
-        <v>10.46358847934989</v>
+        <v>7.887372088878069</v>
       </c>
       <c r="W26">
-        <v>-1.121132893887467</v>
+        <v>0.2637617366499292</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>4.458637019058854E-05</v>
       </c>
       <c r="Y26">
-        <v>0.0004844519900972221</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.9145872145246923</v>
+        <v>-0.6460067792797872</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2151,67 +2226,67 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.312854798066006E-06</v>
+        <v>5.279990650418963E-06</v>
       </c>
       <c r="C27">
-        <v>0.03592281445772202</v>
+        <v>0.047925964888102</v>
       </c>
       <c r="D27">
-        <v>0.002089887097559415</v>
+        <v>0.003506608640848662</v>
       </c>
       <c r="E27">
-        <v>0.0386029808977001</v>
+        <v>0.05142291515834162</v>
       </c>
       <c r="F27">
-        <v>6.699604453628335</v>
+        <v>6.699604281954855</v>
       </c>
       <c r="K27">
-        <v>8.26522674224959</v>
+        <v>6.598183190018712</v>
       </c>
       <c r="L27">
-        <v>8.590170266588425</v>
+        <v>5.311587824931775</v>
       </c>
       <c r="M27">
-        <v>8.263874881411139</v>
+        <v>6.626479313431999</v>
       </c>
       <c r="N27">
-        <v>0.01109624699787674</v>
+        <v>0.007483423351058397</v>
       </c>
       <c r="O27">
-        <v>0.0007900094060376702</v>
+        <v>0.0003210296585272504</v>
       </c>
       <c r="P27">
-        <v>0.01072341275302312</v>
+        <v>0.01047235209788961</v>
       </c>
       <c r="Q27">
-        <v>0.0006295535902525188</v>
+        <v>0.0037171204196609</v>
       </c>
       <c r="R27">
-        <v>4.308854503442969E-06</v>
+        <v>0.001154455652844287</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3.151048600123682E-05</v>
       </c>
       <c r="T27">
-        <v>0.003229024846603111</v>
+        <v>0.003291401897792733</v>
       </c>
       <c r="U27">
-        <v>0.0008395770093508638</v>
+        <v>0.0006520235108498197</v>
       </c>
       <c r="V27">
-        <v>10.51357790237547</v>
+        <v>7.935377062787252</v>
       </c>
       <c r="W27">
-        <v>-1.104288027078002</v>
+        <v>0.2995199718011747</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>5.101578092648038E-05</v>
       </c>
       <c r="Y27">
-        <v>0.0004933842153874536</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.922173280022764</v>
+        <v>-0.6327506598958159</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2219,67 +2294,67 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.302481129520016E-06</v>
+        <v>5.266366187172123E-06</v>
       </c>
       <c r="C28">
-        <v>0.03638001617880529</v>
+        <v>0.04852622645901083</v>
       </c>
       <c r="D28">
-        <v>0.002121883966206196</v>
+        <v>0.003561342479743684</v>
       </c>
       <c r="E28">
-        <v>0.03912161986623395</v>
+        <v>0.05209999055495553</v>
       </c>
       <c r="F28">
-        <v>6.699587244753768</v>
+        <v>6.699587063185209</v>
       </c>
       <c r="K28">
-        <v>8.26371531854986</v>
+        <v>6.602643041555574</v>
       </c>
       <c r="L28">
-        <v>8.584857449679962</v>
+        <v>5.317490506432926</v>
       </c>
       <c r="M28">
-        <v>8.262394797305184</v>
+        <v>6.631199520595491</v>
       </c>
       <c r="N28">
-        <v>0.01123552047884753</v>
+        <v>0.00758021245501152</v>
       </c>
       <c r="O28">
-        <v>0.0007996199768218609</v>
+        <v>0.0003260562325150886</v>
       </c>
       <c r="P28">
-        <v>0.01085981625522272</v>
+        <v>0.01056363901246027</v>
       </c>
       <c r="Q28">
-        <v>0.0006392429730639655</v>
+        <v>0.003725822135866057</v>
       </c>
       <c r="R28">
-        <v>4.367082267003009E-06</v>
+        <v>0.001169630587531355</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>3.184091618227289E-05</v>
       </c>
       <c r="T28">
-        <v>0.003261314682241655</v>
+        <v>0.003327069173291962</v>
       </c>
       <c r="U28">
-        <v>0.0008483749233155681</v>
+        <v>0.0006606029368063747</v>
       </c>
       <c r="V28">
-        <v>10.56442987082728</v>
+        <v>7.984278199261579</v>
       </c>
       <c r="W28">
-        <v>-1.087256090093774</v>
+        <v>0.3356507628229259</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>5.761296044050576E-05</v>
       </c>
       <c r="Y28">
-        <v>0.0005025733654820843</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.9298499401114677</v>
+        <v>-0.6193395345862314</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2287,67 +2362,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.291828043442749E-06</v>
+        <v>5.252384433946082E-06</v>
       </c>
       <c r="C29">
-        <v>0.03684930566116967</v>
+        <v>0.04914218377379531</v>
       </c>
       <c r="D29">
-        <v>0.002154882578525984</v>
+        <v>0.003617823980261723</v>
       </c>
       <c r="E29">
-        <v>0.039654530904252</v>
+        <v>0.05279536631639924</v>
       </c>
       <c r="F29">
-        <v>6.69956990457069</v>
+        <v>6.699569712776888</v>
       </c>
       <c r="K29">
-        <v>8.262209921704136</v>
+        <v>6.607152523301269</v>
       </c>
       <c r="L29">
-        <v>8.57950610628162</v>
+        <v>5.323486476796208</v>
       </c>
       <c r="M29">
-        <v>8.260931003117317</v>
+        <v>6.635974963622869</v>
       </c>
       <c r="N29">
-        <v>0.01137847801997117</v>
+        <v>0.007679584458059417</v>
       </c>
       <c r="O29">
-        <v>0.0008095316857719399</v>
+        <v>0.0003312436646670959</v>
       </c>
       <c r="P29">
-        <v>0.01099982410840298</v>
+        <v>0.01065730773679717</v>
       </c>
       <c r="Q29">
-        <v>0.0006492222566745544</v>
+        <v>0.003734791592551584</v>
       </c>
       <c r="R29">
-        <v>4.426905311756474E-06</v>
+        <v>0.001185216747412849</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3.217906936554815E-05</v>
       </c>
       <c r="T29">
-        <v>0.003294368651542012</v>
+        <v>0.00336359610803834</v>
       </c>
       <c r="U29">
-        <v>0.0008574247770864862</v>
+        <v>0.0006694335163111599</v>
       </c>
       <c r="V29">
-        <v>10.61617803800341</v>
+        <v>8.034105156324941</v>
       </c>
       <c r="W29">
-        <v>-1.069978492311193</v>
+        <v>0.3721686615822932</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>6.438573725554767E-05</v>
       </c>
       <c r="Y29">
-        <v>0.0005120425539071853</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0.9376453636608844</v>
+        <v>-0.6057676484843384</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2355,67 +2430,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.280884120303506E-06</v>
+        <v>5.238031201666482E-06</v>
       </c>
       <c r="C30">
-        <v>0.03733117264842861</v>
+        <v>0.04977446654870549</v>
       </c>
       <c r="D30">
-        <v>0.002188930488876843</v>
+        <v>0.003676137626934859</v>
       </c>
       <c r="E30">
-        <v>0.04020230895958589</v>
+        <v>0.05350979081405952</v>
       </c>
       <c r="F30">
-        <v>6.699552429547922</v>
+        <v>6.699552227183181</v>
       </c>
       <c r="K30">
-        <v>8.260684781789287</v>
+        <v>6.611713501780927</v>
       </c>
       <c r="L30">
-        <v>8.574019643021485</v>
+        <v>5.329580544570496</v>
       </c>
       <c r="M30">
-        <v>8.259444587115322</v>
+        <v>6.64080909675963</v>
       </c>
       <c r="N30">
-        <v>0.0115252689412795</v>
+        <v>0.007781644746856532</v>
       </c>
       <c r="O30">
-        <v>0.0008197342772690798</v>
+        <v>0.0003366001740746034</v>
       </c>
       <c r="P30">
-        <v>0.01114358246745476</v>
+        <v>0.01075345379435614</v>
       </c>
       <c r="Q30">
-        <v>0.000659515467708729</v>
+        <v>0.003744028322118984</v>
       </c>
       <c r="R30">
-        <v>4.488390107753093E-06</v>
+        <v>0.00120123115960795</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>3.252520425444461E-05</v>
       </c>
       <c r="T30">
-        <v>0.003328215094242784</v>
+        <v>0.00340101503292344</v>
       </c>
       <c r="U30">
-        <v>0.0008667180423762859</v>
+        <v>0.0006785266831455299</v>
       </c>
       <c r="V30">
-        <v>10.6688472950286</v>
+        <v>8.084889025332771</v>
       </c>
       <c r="W30">
-        <v>-1.052497230872863</v>
+        <v>0.4090830304684872</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>7.134134176005856E-05</v>
       </c>
       <c r="Y30">
-        <v>0.0005217925870925883</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.9455393152339076</v>
+        <v>-0.5920308712894151</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2423,67 +2498,67 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.269637304318627E-06</v>
+        <v>5.223291561618164E-06</v>
       </c>
       <c r="C31">
-        <v>0.0378261338056054</v>
+        <v>0.0504237387870403</v>
       </c>
       <c r="D31">
-        <v>0.002224078294115089</v>
+        <v>0.003736373385272222</v>
       </c>
       <c r="E31">
-        <v>0.04076558227778509</v>
+        <v>0.05424405344310631</v>
       </c>
       <c r="F31">
-        <v>6.699534816003106</v>
+        <v>6.699534602705469</v>
       </c>
       <c r="K31">
-        <v>8.259144687307707</v>
+        <v>6.616324707189196</v>
       </c>
       <c r="L31">
-        <v>8.568404056830659</v>
+        <v>5.335768620879848</v>
       </c>
       <c r="M31">
-        <v>8.257939603820619</v>
+        <v>6.645696425157934</v>
       </c>
       <c r="N31">
-        <v>0.01167605111964584</v>
+        <v>0.007886504529571771</v>
       </c>
       <c r="O31">
-        <v>0.0008302442551212164</v>
+        <v>0.0003421323764140528</v>
       </c>
       <c r="P31">
-        <v>0.01129124538294415</v>
+        <v>0.01085217809678202</v>
       </c>
       <c r="Q31">
-        <v>0.0006701362939942173</v>
+        <v>0.003753581328528248</v>
       </c>
       <c r="R31">
-        <v>4.551606869834122E-06</v>
+        <v>0.001217691806866451</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>3.287979390355238E-05</v>
       </c>
       <c r="T31">
-        <v>0.003362884066804284</v>
+        <v>0.00343935993925834</v>
       </c>
       <c r="U31">
-        <v>0.0008762676557313715</v>
+        <v>0.0006878945996517528</v>
       </c>
       <c r="V31">
-        <v>10.72246525600939</v>
+        <v>8.136662432345704</v>
       </c>
       <c r="W31">
-        <v>-1.034797458400035</v>
+        <v>0.4463966079094099</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>7.848637427517488E-05</v>
       </c>
       <c r="Y31">
-        <v>0.0005318379342711162</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.9535391606905357</v>
+        <v>-0.5781271591613617</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -2491,67 +2566,67 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.25807487581697E-06</v>
+        <v>5.208149776864752E-06</v>
       </c>
       <c r="C32">
-        <v>0.03833473459862669</v>
+        <v>0.0510907011499227</v>
       </c>
       <c r="D32">
-        <v>0.002260379873138543</v>
+        <v>0.00379862716181497</v>
       </c>
       <c r="E32">
-        <v>0.04134501475344414</v>
+        <v>0.05499898742371719</v>
       </c>
       <c r="F32">
-        <v>6.699517060093472</v>
+        <v>6.699516835483696</v>
       </c>
       <c r="K32">
-        <v>8.257601551336764</v>
+        <v>6.620989211689974</v>
       </c>
       <c r="L32">
-        <v>8.5626981579087</v>
+        <v>5.342059075298999</v>
       </c>
       <c r="M32">
-        <v>8.256433579780047</v>
+        <v>6.650643694648019</v>
       </c>
       <c r="N32">
-        <v>0.01183099121771048</v>
+        <v>0.007994281274616882</v>
       </c>
       <c r="O32">
-        <v>0.0008410872233248067</v>
+        <v>0.0003478505354789612</v>
       </c>
       <c r="P32">
-        <v>0.01144297551278629</v>
+        <v>0.01095358662204278</v>
       </c>
       <c r="Q32">
-        <v>0.0006810956341275761</v>
+        <v>0.003763437289981719</v>
       </c>
       <c r="R32">
-        <v>4.616629825117467E-06</v>
+        <v>0.001234617692765921</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>3.324304461327979E-05</v>
       </c>
       <c r="T32">
-        <v>0.003398407158391039</v>
+        <v>0.003478666586967006</v>
       </c>
       <c r="U32">
-        <v>0.0008860936794513629</v>
+        <v>0.0006975501602905038</v>
       </c>
       <c r="V32">
-        <v>10.77706503945403</v>
+        <v>8.189459621490366</v>
       </c>
       <c r="W32">
-        <v>-1.016850276572789</v>
+        <v>0.4841239068882714</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>8.582962339246548E-05</v>
       </c>
       <c r="Y32">
-        <v>0.0005421968062741836</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.961658861055751</v>
+        <v>-0.5640505156287556</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -2559,67 +2634,67 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.246183395914076E-06</v>
+        <v>5.192589269578322E-06</v>
       </c>
       <c r="C33">
-        <v>0.0388575513337787</v>
+        <v>0.05177609352656195</v>
       </c>
       <c r="D33">
-        <v>0.002297892659142733</v>
+        <v>0.003863001285090173</v>
       </c>
       <c r="E33">
-        <v>0.04194130847021002</v>
+        <v>0.05577547287237408</v>
       </c>
       <c r="F33">
-        <v>6.699499157806574</v>
+        <v>6.699498921486892</v>
       </c>
       <c r="K33">
-        <v>8.256059181017724</v>
+        <v>6.625708836145217</v>
       </c>
       <c r="L33">
-        <v>8.556941850578257</v>
+        <v>5.348457725857514</v>
       </c>
       <c r="M33">
-        <v>8.254942910413808</v>
+        <v>6.655654836961509</v>
       </c>
       <c r="N33">
-        <v>0.0119902651886436</v>
+        <v>0.008105099111415982</v>
       </c>
       <c r="O33">
-        <v>0.0008522882820002102</v>
+        <v>0.0003537643172768509</v>
       </c>
       <c r="P33">
-        <v>0.01159894478639004</v>
+        <v>0.01105779168482628</v>
       </c>
       <c r="Q33">
-        <v>0.0006924036447643247</v>
+        <v>0.003773592967963034</v>
       </c>
       <c r="R33">
-        <v>4.683537503742359E-06</v>
+        <v>0.001252028919550741</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>3.361527556567E-05</v>
       </c>
       <c r="T33">
-        <v>0.003434817498665527</v>
+        <v>0.003518972622136231</v>
       </c>
       <c r="U33">
-        <v>0.0008962168197064579</v>
+        <v>0.0007075071074178061</v>
       </c>
       <c r="V33">
-        <v>10.83268469012443</v>
+        <v>8.243316573382256</v>
       </c>
       <c r="W33">
-        <v>-0.9986420029242495</v>
+        <v>0.5222782663352739</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>9.338020002259964E-05</v>
       </c>
       <c r="Y33">
-        <v>0.0005528849287975118</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.9699052765285794</v>
+        <v>-0.5497951873045643</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -2627,67 +2702,67 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.23394866253112E-06</v>
+        <v>5.176592532849971E-06</v>
       </c>
       <c r="C34">
-        <v>0.03939519337311158</v>
+        <v>0.05248069782423066</v>
       </c>
       <c r="D34">
-        <v>0.002336677932922061</v>
+        <v>0.003929605067874712</v>
       </c>
       <c r="E34">
-        <v>0.0425552064665253</v>
+        <v>0.0565744400870508</v>
       </c>
       <c r="F34">
-        <v>6.699481104949845</v>
+        <v>6.699480856502943</v>
       </c>
       <c r="K34">
-        <v>8.254485154810578</v>
+        <v>6.630483380175881</v>
       </c>
       <c r="L34">
-        <v>8.550965488090242</v>
+        <v>5.354961874078729</v>
       </c>
       <c r="M34">
-        <v>8.253402784838471</v>
+        <v>6.660725342096104</v>
       </c>
       <c r="N34">
-        <v>0.01215405896668248</v>
+        <v>0.008219089328976852</v>
       </c>
       <c r="O34">
-        <v>0.0008638265410765966</v>
+        <v>0.0003598828557809776</v>
       </c>
       <c r="P34">
-        <v>0.0117593350972963</v>
+        <v>0.01116491225419191</v>
       </c>
       <c r="Q34">
-        <v>0.0007040997802461092</v>
+        <v>0.003784101866001884</v>
       </c>
       <c r="R34">
-        <v>4.752413055267982E-06</v>
+        <v>0.001269946767256404</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>3.399701852747347E-05</v>
       </c>
       <c r="T34">
-        <v>0.003472149861591396</v>
+        <v>0.003560317703235031</v>
       </c>
       <c r="U34">
-        <v>0.0009066176739184216</v>
+        <v>0.000717780054068231</v>
       </c>
       <c r="V34">
-        <v>10.88934940343191</v>
+        <v>8.298271111690367</v>
       </c>
       <c r="W34">
-        <v>-0.9802259121055599</v>
+        <v>0.5608644637936528</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>0.0001011461765318938</v>
       </c>
       <c r="Y34">
-        <v>0.0005639029347011113</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.9782525999674174</v>
+        <v>-0.5353583515048115</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -2695,67 +2770,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.221355641916801E-06</v>
+        <v>5.160141086265452E-06</v>
       </c>
       <c r="C35">
-        <v>0.03994830554386068</v>
+        <v>0.05320534099969865</v>
       </c>
       <c r="D35">
-        <v>0.002376801153878092</v>
+        <v>0.00399855539539614</v>
       </c>
       <c r="E35">
-        <v>0.04318749573283742</v>
+        <v>0.05739687315288067</v>
       </c>
       <c r="F35">
-        <v>6.699462897139976</v>
+        <v>6.699462636127612</v>
       </c>
       <c r="K35">
-        <v>8.252912279725633</v>
+        <v>6.635315022045135</v>
       </c>
       <c r="L35">
-        <v>8.544945951882269</v>
+        <v>5.361577738217027</v>
       </c>
       <c r="M35">
-        <v>8.251883347252884</v>
+        <v>6.665859740046597</v>
       </c>
       <c r="N35">
-        <v>0.01232256989840794</v>
+        <v>0.008336390918129028</v>
       </c>
       <c r="O35">
-        <v>0.0008757608752487744</v>
+        <v>0.0003662174063332885</v>
       </c>
       <c r="P35">
-        <v>0.01192433860949108</v>
+        <v>0.01127507360326938</v>
       </c>
       <c r="Q35">
-        <v>0.000716178739403281</v>
+        <v>0.003794961534745546</v>
       </c>
       <c r="R35">
-        <v>4.82334459340631E-06</v>
+        <v>0.001288393778431463</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>3.438858497143718E-05</v>
       </c>
       <c r="T35">
-        <v>0.003510441386780545</v>
+        <v>0.003602743638297222</v>
       </c>
       <c r="U35">
-        <v>0.000917345424748042</v>
+        <v>0.0007283845928096922</v>
       </c>
       <c r="V35">
-        <v>10.94710167821758</v>
+        <v>8.354363035754082</v>
       </c>
       <c r="W35">
-        <v>-0.961533362379285</v>
+        <v>0.5998953070971211</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.0001091373941508658</v>
       </c>
       <c r="Y35">
-        <v>0.0005752805762320171</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.9867340420824853</v>
+        <v>-0.5207342978636831</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -2763,67 +2838,67 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.208388426905732E-06</v>
+        <v>5.143215414997847E-06</v>
       </c>
       <c r="C36">
-        <v>0.04051757076189071</v>
+        <v>0.05395089835733961</v>
       </c>
       <c r="D36">
-        <v>0.002418332312169095</v>
+        <v>0.00406997738201305</v>
       </c>
       <c r="E36">
-        <v>0.04383901049005624</v>
+        <v>0.05824381384645948</v>
       </c>
       <c r="F36">
-        <v>6.699444529790492</v>
+        <v>6.699444255752316</v>
       </c>
       <c r="K36">
-        <v>8.251329321961704</v>
+        <v>6.640204190112947</v>
       </c>
       <c r="L36">
-        <v>8.538762792372761</v>
+        <v>5.368306728285465</v>
       </c>
       <c r="M36">
-        <v>8.250340156453911</v>
+        <v>6.67105705212336</v>
       </c>
       <c r="N36">
-        <v>0.01249600639875883</v>
+        <v>0.008457151122853206</v>
       </c>
       <c r="O36">
-        <v>0.0008880849054318152</v>
+        <v>0.0003727789028808846</v>
       </c>
       <c r="P36">
-        <v>0.01209415921358332</v>
+        <v>0.01138840863461065</v>
       </c>
       <c r="Q36">
-        <v>0.0007286764547235724</v>
+        <v>0.003806204106971424</v>
       </c>
       <c r="R36">
-        <v>4.896425572094285E-06</v>
+        <v>0.001307393857120251</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>3.479052106376527E-05</v>
       </c>
       <c r="T36">
-        <v>0.003549730719538613</v>
+        <v>0.003646294532925821</v>
       </c>
       <c r="U36">
-        <v>0.000928392346113931</v>
+        <v>0.0007393373735977981</v>
       </c>
       <c r="V36">
-        <v>11.00597606345143</v>
+        <v>8.411634261631928</v>
       </c>
       <c r="W36">
-        <v>-0.9425781022651094</v>
+        <v>0.6393799503611888</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>0.0001173636729175983</v>
       </c>
       <c r="Y36">
-        <v>0.0005870297005683396</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.9953434211858134</v>
+        <v>-0.5059185190655793</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -2831,67 +2906,67 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.195030157231918E-06</v>
+        <v>5.125794877343951E-06</v>
       </c>
       <c r="C37">
-        <v>0.04110371289188643</v>
+        <v>0.0547182971415754</v>
       </c>
       <c r="D37">
-        <v>0.002461346331230818</v>
+        <v>0.004144005115308463</v>
       </c>
       <c r="E37">
-        <v>0.044510635745997</v>
+        <v>0.0591163658599649</v>
       </c>
       <c r="F37">
-        <v>6.699425998099516</v>
+        <v>6.699425710551438</v>
       </c>
       <c r="K37">
-        <v>8.249732568328628</v>
+        <v>6.645153735478799</v>
       </c>
       <c r="L37">
-        <v>8.53247035179171</v>
+        <v>5.3751559464194</v>
       </c>
       <c r="M37">
-        <v>8.248795187585934</v>
+        <v>6.676322506558913</v>
       </c>
       <c r="N37">
-        <v>0.01267458980634848</v>
+        <v>0.00858152608008355</v>
       </c>
       <c r="O37">
-        <v>0.0009008315863884022</v>
+        <v>0.0003795807119882239</v>
       </c>
       <c r="P37">
-        <v>0.01226901279448885</v>
+        <v>0.01150505793503587</v>
       </c>
       <c r="Q37">
-        <v>0.0007416058501805531</v>
+        <v>0.003817829769671854</v>
       </c>
       <c r="R37">
-        <v>4.971755196280351E-06</v>
+        <v>0.001326972369982659</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>3.520316702326817E-05</v>
       </c>
       <c r="T37">
-        <v>0.003590059002206685</v>
+        <v>0.003691016950761636</v>
       </c>
       <c r="U37">
-        <v>0.0009397854287851381</v>
+        <v>0.0007506561536060809</v>
       </c>
       <c r="V37">
-        <v>11.06601377398635</v>
+        <v>8.470128959035897</v>
       </c>
       <c r="W37">
-        <v>-0.92335885132184</v>
+        <v>0.679333585797572</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>0.00012583626437432</v>
       </c>
       <c r="Y37">
-        <v>0.0005991660297978976</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>1.004081123557884</v>
+        <v>-0.4909045025517251</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -2899,67 +2974,67 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.181262956848106E-06</v>
+        <v>5.107857647522767E-06</v>
       </c>
       <c r="C38">
-        <v>0.04170749986939667</v>
+        <v>0.05550852045448581</v>
       </c>
       <c r="D38">
-        <v>0.002505923503309109</v>
+        <v>0.00422078245126351</v>
       </c>
       <c r="E38">
-        <v>0.04520331118587191</v>
+        <v>0.06001569943422471</v>
       </c>
       <c r="F38">
-        <v>6.699407297035476</v>
+        <v>6.69940699546811</v>
       </c>
       <c r="K38">
-        <v>8.24811798276823</v>
+        <v>6.650164947176593</v>
       </c>
       <c r="L38">
-        <v>8.526017255544494</v>
+        <v>5.382130053548693</v>
       </c>
       <c r="M38">
-        <v>8.247230896759984</v>
+        <v>6.681658299044916</v>
       </c>
       <c r="N38">
-        <v>0.01285855477853536</v>
+        <v>0.008709681476460038</v>
       </c>
       <c r="O38">
-        <v>0.000914012396344107</v>
+        <v>0.0003866360035111953</v>
       </c>
       <c r="P38">
-        <v>0.01244912852799367</v>
+        <v>0.01162517087511968</v>
       </c>
       <c r="Q38">
-        <v>0.0007549962324105141</v>
+        <v>0.00382985351916266</v>
       </c>
       <c r="R38">
-        <v>5.04943887122223E-06</v>
+        <v>0.001347156263778899</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>3.562697221250369E-05</v>
       </c>
       <c r="T38">
-        <v>0.003631469526791397</v>
+        <v>0.003736960088217191</v>
       </c>
       <c r="U38">
-        <v>0.0009515323406508274</v>
+        <v>0.000762359958460331</v>
       </c>
       <c r="V38">
-        <v>11.12725447265858</v>
+        <v>8.529893727115676</v>
       </c>
       <c r="W38">
-        <v>-0.9038746034227003</v>
+        <v>0.7197692559873374</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.0001345667875226464</v>
       </c>
       <c r="Y38">
-        <v>0.0006117065454473921</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.01294784380082</v>
+        <v>-0.4756865909205068</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -2967,67 +3042,67 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.167067859547932E-06</v>
+        <v>5.089380614004172E-06</v>
       </c>
       <c r="C39">
-        <v>0.04232974711330282</v>
+        <v>0.05632261153390204</v>
       </c>
       <c r="D39">
-        <v>0.002552149974437987</v>
+        <v>0.004300463923288048</v>
       </c>
       <c r="E39">
-        <v>0.04591803542172202</v>
+        <v>0.06094305637258028</v>
       </c>
       <c r="F39">
-        <v>6.699388421322285</v>
+        <v>6.699388105199086</v>
       </c>
       <c r="K39">
-        <v>8.246501853734184</v>
+        <v>6.65523832814593</v>
       </c>
       <c r="L39">
-        <v>8.519435286670051</v>
+        <v>5.389228539267012</v>
       </c>
       <c r="M39">
-        <v>8.245661434024232</v>
+        <v>6.687061420824673</v>
       </c>
       <c r="N39">
-        <v>0.01304815068936379</v>
+        <v>0.008841793309363988</v>
       </c>
       <c r="O39">
-        <v>0.0009276602618825181</v>
+        <v>0.0003939581348050502</v>
       </c>
       <c r="P39">
-        <v>0.01263474967554261</v>
+        <v>0.01174890607124598</v>
       </c>
       <c r="Q39">
-        <v>0.0007688680434192795</v>
+        <v>0.003842326486572329</v>
       </c>
       <c r="R39">
-        <v>5.129588694574964E-06</v>
+        <v>0.001367974189041858</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>3.60626716301118E-05</v>
       </c>
       <c r="T39">
-        <v>0.003674008212285691</v>
+        <v>0.003784175963292697</v>
       </c>
       <c r="U39">
-        <v>0.0009636582872664829</v>
+        <v>0.0007744691192961128</v>
       </c>
       <c r="V39">
-        <v>11.18974294082258</v>
+        <v>8.590977756150995</v>
       </c>
       <c r="W39">
-        <v>-0.8840866408536954</v>
+        <v>0.7606955511472151</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>0.000143566681912854</v>
       </c>
       <c r="Y39">
-        <v>0.0006246783142731925</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1.021962736819898</v>
+        <v>-0.4602599318707448</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -3035,67 +3110,67 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.152424708499532E-06</v>
+        <v>5.070339280133819E-06</v>
       </c>
       <c r="C40">
-        <v>0.04297132126070387</v>
+        <v>0.05716167843084743</v>
       </c>
       <c r="D40">
-        <v>0.002600118291020531</v>
+        <v>0.004383215746013635</v>
       </c>
       <c r="E40">
-        <v>0.04665587062643362</v>
+        <v>0.06189975552425896</v>
       </c>
       <c r="F40">
-        <v>6.699369365423536</v>
+        <v>6.699369034179169</v>
       </c>
       <c r="K40">
-        <v>8.244872614002535</v>
+        <v>6.660377541937666</v>
       </c>
       <c r="L40">
-        <v>8.512739826400967</v>
+        <v>5.396462706546212</v>
       </c>
       <c r="M40">
-        <v>8.244094057767292</v>
+        <v>6.692540733892947</v>
       </c>
       <c r="N40">
-        <v>0.0132436424704522</v>
+        <v>0.008978048715405262</v>
       </c>
       <c r="O40">
-        <v>0.0009418038153187959</v>
+        <v>0.0004015639989805827</v>
       </c>
       <c r="P40">
-        <v>0.0128261348631575</v>
+        <v>0.01187643154841814</v>
       </c>
       <c r="Q40">
-        <v>0.0007832434280620094</v>
+        <v>0.003855229956153056</v>
       </c>
       <c r="R40">
-        <v>5.212323996100367E-06</v>
+        <v>0.00138945663287108</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>3.651054868603635E-05</v>
       </c>
       <c r="T40">
-        <v>0.003717723533656968</v>
+        <v>0.003832719622066836</v>
       </c>
       <c r="U40">
-        <v>0.0009761862365438487</v>
+        <v>0.0007870054593560198</v>
       </c>
       <c r="V40">
-        <v>11.25352761824292</v>
+        <v>8.653433031404488</v>
       </c>
       <c r="W40">
-        <v>-0.8640071002110581</v>
+        <v>0.8021321475695338</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>0.0001528498771297698</v>
       </c>
       <c r="Y40">
-        <v>0.0006380971799513063</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.031119665882475</v>
+        <v>-0.4446166061938843</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -3103,67 +3178,67 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.137312087392319E-06</v>
+        <v>5.050707688357074E-06</v>
       </c>
       <c r="C41">
-        <v>0.04363314426020688</v>
+        <v>0.0580268991305988</v>
       </c>
       <c r="D41">
-        <v>0.002649927989926143</v>
+        <v>0.004469216908382726</v>
       </c>
       <c r="E41">
-        <v>0.04741794763334359</v>
+        <v>0.06288719879271003</v>
       </c>
       <c r="F41">
-        <v>6.699350123524278</v>
+        <v>6.699349776562279</v>
       </c>
       <c r="K41">
-        <v>8.243225660512714</v>
+        <v>6.665581932607526</v>
       </c>
       <c r="L41">
-        <v>8.505826546690114</v>
+        <v>5.403830540285874</v>
       </c>
       <c r="M41">
-        <v>8.24249232473522</v>
+        <v>6.6980913137506</v>
       </c>
       <c r="N41">
-        <v>0.01344531195660193</v>
+        <v>0.009118646825510585</v>
       </c>
       <c r="O41">
-        <v>0.0009564482195301548</v>
+        <v>0.0004094685074455008</v>
       </c>
       <c r="P41">
-        <v>0.01302355931291317</v>
+        <v>0.01200792665648805</v>
       </c>
       <c r="Q41">
-        <v>0.0007981648566911549</v>
+        <v>0.003868628377407788</v>
       </c>
       <c r="R41">
-        <v>5.297771930462668E-06</v>
+        <v>0.001411636076874113</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>3.697146212931392E-05</v>
       </c>
       <c r="T41">
-        <v>0.003762666768035872</v>
+        <v>0.003882649362439144</v>
       </c>
       <c r="U41">
-        <v>0.0009891175298992923</v>
+        <v>0.0007999923990548227</v>
       </c>
       <c r="V41">
-        <v>11.31865257057232</v>
+        <v>8.717314543198304</v>
       </c>
       <c r="W41">
-        <v>-0.8436352391087603</v>
+        <v>0.84408535138639</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>0.0001624288923353819</v>
       </c>
       <c r="Y41">
-        <v>0.0006519837326945666</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.040419487595008</v>
+        <v>-0.4287521352882369</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -3171,67 +3246,67 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.121707200259268E-06</v>
+        <v>5.030458284126737E-06</v>
       </c>
       <c r="C42">
-        <v>0.04431619786471155</v>
+        <v>0.05891952716763574</v>
       </c>
       <c r="D42">
-        <v>0.002701686275319218</v>
+        <v>0.004558660432942655</v>
       </c>
       <c r="E42">
-        <v>0.04820547150056202</v>
+        <v>0.0639068776674591</v>
       </c>
       <c r="F42">
-        <v>6.699330689512521</v>
+        <v>6.699330326203335</v>
       </c>
       <c r="K42">
-        <v>8.24156916423923</v>
+        <v>6.670855607627021</v>
       </c>
       <c r="L42">
-        <v>8.498791618507344</v>
+        <v>5.411344072573723</v>
       </c>
       <c r="M42">
-        <v>8.240893714915583</v>
+        <v>6.703722295170313</v>
       </c>
       <c r="N42">
-        <v>0.01365345968555312</v>
+        <v>0.009263799797478336</v>
       </c>
       <c r="O42">
-        <v>0.0009716452963050548</v>
+        <v>0.0004176912297156055</v>
       </c>
       <c r="P42">
-        <v>0.01322731588718354</v>
+        <v>0.01214358162780606</v>
       </c>
       <c r="Q42">
-        <v>0.0008136482721615262</v>
+        <v>0.00388250647636249</v>
       </c>
       <c r="R42">
-        <v>5.386068129303712E-06</v>
+        <v>0.001434547153786527</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>3.744582649795415E-05</v>
       </c>
       <c r="T42">
-        <v>0.003808892588671481</v>
+        <v>0.00393402697849555</v>
       </c>
       <c r="U42">
-        <v>0.001002493663003819</v>
+        <v>0.00081345509318248</v>
       </c>
       <c r="V42">
-        <v>11.38517174476194</v>
+        <v>8.782680513134435</v>
       </c>
       <c r="W42">
-        <v>-0.8229459771429362</v>
+        <v>0.8865775743628106</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>0.0001723197216557647</v>
       </c>
       <c r="Y42">
-        <v>0.0006663653647911828</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>1.04987441074419</v>
+        <v>-0.4126576651843195</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -3239,67 +3314,67 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.105585779240654E-06</v>
+        <v>5.009561802591338E-06</v>
       </c>
       <c r="C43">
-        <v>0.0450215285696165</v>
+        <v>0.05984089779025765</v>
       </c>
       <c r="D43">
-        <v>0.002755508756532491</v>
+        <v>0.004651754757176943</v>
       </c>
       <c r="E43">
-        <v>0.04901972764543178</v>
+        <v>0.06496038039531399</v>
       </c>
       <c r="F43">
-        <v>6.699311056958043</v>
+        <v>6.69931067663642</v>
       </c>
       <c r="K43">
-        <v>8.239904208438288</v>
+        <v>6.676198587589131</v>
       </c>
       <c r="L43">
-        <v>8.491594102056119</v>
+        <v>5.419002421013088</v>
       </c>
       <c r="M43">
-        <v>8.23928553147006</v>
+        <v>6.709429597826711</v>
       </c>
       <c r="N43">
-        <v>0.01386840569215055</v>
+        <v>0.009413733840999739</v>
       </c>
       <c r="O43">
-        <v>0.0009874197918169165</v>
+        <v>0.0004262500078584958</v>
       </c>
       <c r="P43">
-        <v>0.01343771703320086</v>
+        <v>0.01228359985071188</v>
       </c>
       <c r="Q43">
-        <v>0.0008297323724275903</v>
+        <v>0.003896929499722198</v>
       </c>
       <c r="R43">
-        <v>5.477357419630894E-06</v>
+        <v>0.001458226837299893</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>3.793450884122537E-05</v>
       </c>
       <c r="T43">
-        <v>0.003856458672157374</v>
+        <v>0.003986918027399161</v>
       </c>
       <c r="U43">
-        <v>0.001016331552129145</v>
+        <v>0.0008274205981090414</v>
       </c>
       <c r="V43">
-        <v>11.45313959314573</v>
+        <v>8.84959264377661</v>
       </c>
       <c r="W43">
-        <v>-0.8019264524366463</v>
+        <v>0.929617717978136</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>0.0001825369604407835</v>
       </c>
       <c r="Y43">
-        <v>0.0006812682248620211</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>1.059490735761157</v>
+        <v>-0.3963280273680354</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -3307,67 +3382,67 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.088921945206546E-06</v>
+        <v>4.987987148099148E-06</v>
       </c>
       <c r="C44">
-        <v>0.04575025304915243</v>
+        <v>0.06079243473910386</v>
       </c>
       <c r="D44">
-        <v>0.002811520290573594</v>
+        <v>0.004748725278221394</v>
       </c>
       <c r="E44">
-        <v>0.04986208856343179</v>
+        <v>0.06604939985798813</v>
       </c>
       <c r="F44">
-        <v>6.699291219090394</v>
+        <v>6.699290821052834</v>
       </c>
       <c r="K44">
-        <v>8.238218841043102</v>
+        <v>6.681613519796076</v>
       </c>
       <c r="L44">
-        <v>8.484211011084541</v>
+        <v>5.426812469763727</v>
       </c>
       <c r="M44">
-        <v>8.237661665599694</v>
+        <v>6.715216858248604</v>
       </c>
       <c r="N44">
-        <v>0.0140904916559494</v>
+        <v>0.009568690458812517</v>
       </c>
       <c r="O44">
-        <v>0.001003799980876651</v>
+        <v>0.0004351661698170935</v>
       </c>
       <c r="P44">
-        <v>0.01365509607907626</v>
+        <v>0.01242819761538412</v>
       </c>
       <c r="Q44">
-        <v>0.0008464530657973542</v>
+        <v>0.003911920579820103</v>
       </c>
       <c r="R44">
-        <v>5.571794616521081E-06</v>
+        <v>0.001482714636066421</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>3.843824486413711E-05</v>
       </c>
       <c r="T44">
-        <v>0.003905426381123377</v>
+        <v>0.004041392121007611</v>
       </c>
       <c r="U44">
-        <v>0.001030652957869853</v>
+        <v>0.0008419180629338444</v>
       </c>
       <c r="V44">
-        <v>11.52261259313571</v>
+        <v>8.918116395776366</v>
       </c>
       <c r="W44">
-        <v>-0.7805878349297437</v>
+        <v>0.9732240151157541</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>0.0001930977327702358</v>
       </c>
       <c r="Y44">
-        <v>0.0006967140604578698</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>1.069262960007189</v>
+        <v>-0.3797550072718714</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -3375,67 +3450,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.071688091080309E-06</v>
+        <v>4.965701244874068E-06</v>
       </c>
       <c r="C45">
-        <v>0.04650356415018013</v>
+        <v>0.06177565771210181</v>
       </c>
       <c r="D45">
-        <v>0.002869855909324722</v>
+        <v>0.00484981609909359</v>
       </c>
       <c r="E45">
-        <v>0.050734021249976</v>
+        <v>0.06717574218780824</v>
       </c>
       <c r="F45">
-        <v>6.699271168773798</v>
+        <v>6.699270752275423</v>
       </c>
       <c r="K45">
-        <v>8.236526024341222</v>
+        <v>6.687102916799144</v>
       </c>
       <c r="L45">
-        <v>8.47666311011686</v>
+        <v>5.434783752068254</v>
       </c>
       <c r="M45">
-        <v>8.236032685579243</v>
+        <v>6.721089774852095</v>
       </c>
       <c r="N45">
-        <v>0.01432008273796822</v>
+        <v>0.009728927727040506</v>
       </c>
       <c r="O45">
-        <v>0.001020830393279877</v>
+        <v>0.0004444627914789686</v>
       </c>
       <c r="P45">
-        <v>0.01387980911439694</v>
+        <v>0.0125776059844291</v>
       </c>
       <c r="Q45">
-        <v>0.0008638456670740497</v>
+        <v>0.003927488613073595</v>
       </c>
       <c r="R45">
-        <v>5.669545399267065E-06</v>
+        <v>0.001508052818368215</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>3.895769588996633E-05</v>
       </c>
       <c r="T45">
-        <v>0.003955861002583966</v>
+        <v>0.004097523244833466</v>
       </c>
       <c r="U45">
-        <v>0.001045490716856243</v>
+        <v>0.0008569789845401106</v>
       </c>
       <c r="V45">
-        <v>11.59365254406155</v>
+        <v>8.988321308426711</v>
       </c>
       <c r="W45">
-        <v>-0.7588949528369646</v>
+        <v>1.017414577437201</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>0.0002040201820707909</v>
       </c>
       <c r="Y45">
-        <v>0.0007127380857852606</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>1.079208803533994</v>
+        <v>-0.362930227033571</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -3443,67 +3518,67 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.053854724955095E-06</v>
+        <v>4.942668884201707E-06</v>
       </c>
       <c r="C46">
-        <v>0.04728273751162398</v>
+        <v>0.06279219059804839</v>
       </c>
       <c r="D46">
-        <v>0.002930661874161661</v>
+        <v>0.00495529198523483</v>
       </c>
       <c r="E46">
-        <v>0.0516370953641734</v>
+        <v>0.06834133625944366</v>
       </c>
       <c r="F46">
-        <v>6.69925089848075</v>
+        <v>6.699250462732361</v>
       </c>
       <c r="K46">
-        <v>8.234819390633133</v>
+        <v>6.692669340115529</v>
       </c>
       <c r="L46">
-        <v>8.468927916611564</v>
+        <v>5.442922284757142</v>
       </c>
       <c r="M46">
-        <v>8.234391331717585</v>
+        <v>6.727050497902946</v>
       </c>
       <c r="N46">
-        <v>0.01455756938698051</v>
+        <v>0.009894721743746962</v>
       </c>
       <c r="O46">
-        <v>0.001038544800467966</v>
+        <v>0.0004541648614541836</v>
       </c>
       <c r="P46">
-        <v>0.01411223703309913</v>
+        <v>0.01273207236606045</v>
       </c>
       <c r="Q46">
-        <v>0.000881953037136755</v>
+        <v>0.003943674770194625</v>
       </c>
       <c r="R46">
-        <v>5.770787281396834E-06</v>
+        <v>0.001534286659841041</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>3.949373943433471E-05</v>
       </c>
       <c r="T46">
-        <v>0.004007831900543389</v>
+        <v>0.004155390106624419</v>
       </c>
       <c r="U46">
-        <v>0.001060869966145399</v>
+        <v>0.0008726373202554969</v>
       </c>
       <c r="V46">
-        <v>11.66632357854159</v>
+        <v>9.060281312552778</v>
       </c>
       <c r="W46">
-        <v>-0.7368473567020501</v>
+        <v>1.062209333388822</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>0.0002153239848118893</v>
       </c>
       <c r="Y46">
-        <v>0.0007293686249958249</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>1.089328585669843</v>
+        <v>-0.3458449716552856</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -3511,67 +3586,67 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.035390328806598E-06</v>
+        <v>4.918852538774596E-06</v>
       </c>
       <c r="C47">
-        <v>0.04808913888685057</v>
+        <v>0.06384377057282681</v>
       </c>
       <c r="D47">
-        <v>0.00299409684720915</v>
+        <v>0.005065440584431778</v>
       </c>
       <c r="E47">
-        <v>0.05257299226615514</v>
+        <v>0.06954824410085031</v>
       </c>
       <c r="F47">
-        <v>6.699230400262012</v>
+        <v>6.699229944426719</v>
       </c>
       <c r="K47">
-        <v>8.233098456657657</v>
+        <v>6.698313766026998</v>
       </c>
       <c r="L47">
-        <v>8.4609840264841</v>
+        <v>5.451231859056368</v>
       </c>
       <c r="M47">
-        <v>8.232735713478309</v>
+        <v>6.733098813188679</v>
       </c>
       <c r="N47">
-        <v>0.01480336983400801</v>
+        <v>0.01006636823251592</v>
       </c>
       <c r="O47">
-        <v>0.001056985458875847</v>
+        <v>0.0004642981301601625</v>
       </c>
       <c r="P47">
-        <v>0.01435278765120754</v>
+        <v>0.01289186141325801</v>
       </c>
       <c r="Q47">
-        <v>0.0009008215982819613</v>
+        <v>0.003960531311459023</v>
       </c>
       <c r="R47">
-        <v>5.87571068651314E-06</v>
+        <v>0.001561464712939345</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>4.004739098532151E-05</v>
       </c>
       <c r="T47">
-        <v>0.004061413026623353</v>
+        <v>0.004215076520922036</v>
       </c>
       <c r="U47">
-        <v>0.001076821012246642</v>
+        <v>0.0008889298751718611</v>
       </c>
       <c r="V47">
-        <v>11.74069348341215</v>
+        <v>9.134075120563217</v>
       </c>
       <c r="W47">
-        <v>-0.714432859149035</v>
+        <v>1.107621786685133</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>0.0002270288521891641</v>
       </c>
       <c r="Y47">
-        <v>0.0007466388892056023</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>1.099628148020168</v>
+        <v>-0.3284918975491689</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -3579,67 +3654,67 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.773861247957526E-06</v>
+        <v>5.729878654338334E-06</v>
       </c>
       <c r="C48">
-        <v>0.04892423225795504</v>
+        <v>0.0649322581652045</v>
       </c>
       <c r="D48">
-        <v>0.002587960407930598</v>
+        <v>0.004331921049383704</v>
       </c>
       <c r="E48">
-        <v>0.05172645332318211</v>
+        <v>0.06856945198401775</v>
       </c>
       <c r="F48">
-        <v>7.499230400262012</v>
+        <v>7.549229944426719</v>
       </c>
       <c r="K48">
-        <v>8.231362218392347</v>
+        <v>6.704037626180005</v>
       </c>
       <c r="L48">
-        <v>8.503370094162708</v>
+        <v>5.38512552584731</v>
       </c>
       <c r="M48">
-        <v>8.233147484876945</v>
+        <v>6.726291394449221</v>
       </c>
       <c r="N48">
-        <v>0.01505793250762157</v>
+        <v>0.01024418434552251</v>
       </c>
       <c r="O48">
-        <v>0.0009553039089383338</v>
+        <v>0.0003961432976983854</v>
       </c>
       <c r="P48">
-        <v>0.01460189813366913</v>
+        <v>0.01305725641514317</v>
       </c>
       <c r="Q48">
-        <v>0.0007979782464507441</v>
+        <v>0.003896344884737504</v>
       </c>
       <c r="R48">
-        <v>5.984520143670791E-06</v>
+        <v>0.001589639107790346</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>3.498238441857648E-05</v>
       </c>
       <c r="T48">
-        <v>0.00411668324911181</v>
+        <v>0.004276671829176669</v>
       </c>
       <c r="U48">
-        <v>0.0009881108770878571</v>
+        <v>0.00077930709863254</v>
       </c>
       <c r="V48">
-        <v>11.78545365395398</v>
+        <v>9.172049517124435</v>
       </c>
       <c r="W48">
-        <v>-0.6916406539415689</v>
+        <v>1.15366808593712</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>0.000239164651481633</v>
       </c>
       <c r="Y48">
-        <v>0.0007645892933418363</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>1.110113201858759</v>
+        <v>-0.3108633032236234</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -3647,67 +3722,67 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.754721258057685E-06</v>
+        <v>5.704821587500798E-06</v>
       </c>
       <c r="C49">
-        <v>0.04979850153814418</v>
+        <v>0.06607566075229546</v>
       </c>
       <c r="D49">
-        <v>0.002644432868610942</v>
+        <v>0.004429170994600378</v>
       </c>
       <c r="E49">
-        <v>0.05268874226550613</v>
+        <v>0.06982158896750053</v>
       </c>
       <c r="F49">
-        <v>7.499230400262012</v>
+        <v>7.549229944426719</v>
       </c>
       <c r="K49">
-        <v>8.229496022175576</v>
+        <v>6.709884652062434</v>
       </c>
       <c r="L49">
-        <v>8.494760647685972</v>
+        <v>5.393325541946075</v>
       </c>
       <c r="M49">
-        <v>8.231310910277584</v>
+        <v>6.732118729567391</v>
       </c>
       <c r="N49">
-        <v>0.0153240198396722</v>
+        <v>0.01042999644076448</v>
       </c>
       <c r="O49">
-        <v>0.0009724233293106517</v>
+        <v>0.0004053195180339775</v>
       </c>
       <c r="P49">
-        <v>0.01486234945229589</v>
+        <v>0.01323010380250932</v>
       </c>
       <c r="Q49">
-        <v>0.0008156421665762136</v>
+        <v>0.003915769619715231</v>
       </c>
       <c r="R49">
-        <v>6.097435618079673E-06</v>
+        <v>0.001618972253514341</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>3.564921328240847E-05</v>
       </c>
       <c r="T49">
-        <v>0.00417571291650849</v>
+        <v>0.004342659842960521</v>
       </c>
       <c r="U49">
-        <v>0.001003247098724242</v>
+        <v>0.0007942679146524267</v>
       </c>
       <c r="V49">
-        <v>11.83276701741797</v>
+        <v>9.212808647021742</v>
       </c>
       <c r="W49">
-        <v>-0.6687755207849904</v>
+        <v>1.200454195484205</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>0.0002517639325792195</v>
       </c>
       <c r="Y49">
-        <v>0.0007832634073785931</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>1.12072113858923</v>
+        <v>-0.2928777589352407</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -3715,67 +3790,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.734865352330799E-06</v>
+        <v>5.678852645924553E-06</v>
       </c>
       <c r="C50">
-        <v>0.05070531055101982</v>
+        <v>0.06726117017071266</v>
       </c>
       <c r="D50">
-        <v>0.002703437960137213</v>
+        <v>0.004530905801399311</v>
       </c>
       <c r="E50">
-        <v>0.05368785931488994</v>
+        <v>0.07112082919350951</v>
       </c>
       <c r="F50">
-        <v>7.499230400262012</v>
+        <v>7.549229944426719</v>
       </c>
       <c r="K50">
-        <v>8.227609588312244</v>
+        <v>6.715821289950892</v>
       </c>
       <c r="L50">
-        <v>8.486258232165424</v>
+        <v>5.401730074268339</v>
       </c>
       <c r="M50">
-        <v>8.229489150989643</v>
+        <v>6.738338829339376</v>
       </c>
       <c r="N50">
-        <v>0.01560001208025607</v>
+        <v>0.01062277868927853</v>
       </c>
       <c r="O50">
-        <v>0.0009899882284415947</v>
+        <v>0.0004146096859474045</v>
       </c>
       <c r="P50">
-        <v>0.01513247843855973</v>
+        <v>0.0134092256137169</v>
       </c>
       <c r="Q50">
-        <v>0.0008336771820936557</v>
+        <v>0.003932862298519539</v>
       </c>
       <c r="R50">
-        <v>6.214693995350436E-06</v>
+        <v>0.001649420773518801</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>3.616207238037785E-05</v>
       </c>
       <c r="T50">
-        <v>0.004236721874542802</v>
+        <v>0.004410898149274139</v>
       </c>
       <c r="U50">
-        <v>0.001018995363475063</v>
+        <v>0.0008098730306694232</v>
       </c>
       <c r="V50">
-        <v>11.88265226272881</v>
+        <v>9.25636624672965</v>
       </c>
       <c r="W50">
-        <v>-0.6455157863755758</v>
+        <v>1.247928081047942</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>0.0002648383396835009</v>
       </c>
       <c r="Y50">
-        <v>0.0008026932640037564</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>1.131525544245574</v>
+        <v>-0.2745913367370978</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -3783,67 +3858,67 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.714252710984479E-06</v>
+        <v>5.651921470978951E-06</v>
       </c>
       <c r="C51">
-        <v>0.05164652373907634</v>
+        <v>0.0684911753544247</v>
       </c>
       <c r="D51">
-        <v>0.002765149049275133</v>
+        <v>0.004637440544681051</v>
       </c>
       <c r="E51">
-        <v>0.05472595161133435</v>
+        <v>0.07246986752416125</v>
       </c>
       <c r="F51">
-        <v>7.499230400262012</v>
+        <v>7.549229944426719</v>
       </c>
       <c r="K51">
-        <v>8.225705964753017</v>
+        <v>6.721849486387256</v>
       </c>
       <c r="L51">
-        <v>8.477508419160783</v>
+        <v>5.410333006287494</v>
       </c>
       <c r="M51">
-        <v>8.227649281855289</v>
+        <v>6.744662679727736</v>
       </c>
       <c r="N51">
-        <v>0.01588648313617401</v>
+        <v>0.01082293886581443</v>
       </c>
       <c r="O51">
-        <v>0.001008314487788187</v>
+        <v>0.0004243431278768712</v>
       </c>
       <c r="P51">
-        <v>0.0154128470906473</v>
+        <v>0.01359503665911292</v>
       </c>
       <c r="Q51">
-        <v>0.0008525161250904492</v>
+        <v>0.003950668428069073</v>
       </c>
       <c r="R51">
-        <v>6.336550740357308E-06</v>
+        <v>0.001681053297070535</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>3.669254873569252E-05</v>
       </c>
       <c r="T51">
-        <v>0.004299814551230405</v>
+        <v>0.004481506484933055</v>
       </c>
       <c r="U51">
-        <v>0.001035371175151954</v>
+        <v>0.0008261586076367579</v>
       </c>
       <c r="V51">
-        <v>11.93513092817531</v>
+        <v>9.302745086827031</v>
       </c>
       <c r="W51">
-        <v>-0.6218405587522327</v>
+        <v>1.296110313023632</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>0.0002784154213672619</v>
       </c>
       <c r="Y51">
-        <v>0.0008229250605869486</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>1.142537183511547</v>
+        <v>-0.2559933520221236</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -3851,67 +3926,67 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.692839361596358E-06</v>
+        <v>5.623973964462808E-06</v>
       </c>
       <c r="C52">
-        <v>0.05262415123287237</v>
+        <v>0.06976825005061957</v>
       </c>
       <c r="D52">
-        <v>0.002829755597422691</v>
+        <v>0.004749120260192632</v>
       </c>
       <c r="E52">
-        <v>0.05580533535573608</v>
+        <v>0.07387160653717555</v>
       </c>
       <c r="F52">
-        <v>7.499230400262012</v>
+        <v>7.549229944426719</v>
       </c>
       <c r="K52">
-        <v>8.223792957018627</v>
+        <v>6.727971148428864</v>
       </c>
       <c r="L52">
-        <v>8.468575187628714</v>
+        <v>5.419135389184182</v>
       </c>
       <c r="M52">
-        <v>8.225813403213849</v>
+        <v>6.751089442201481</v>
       </c>
       <c r="N52">
-        <v>0.01618404650914172</v>
+        <v>0.01103091078057318</v>
       </c>
       <c r="O52">
-        <v>0.001027467623776617</v>
+        <v>0.0004345468747297478</v>
       </c>
       <c r="P52">
-        <v>0.01570405370995844</v>
+        <v>0.0137879240237338</v>
       </c>
       <c r="Q52">
-        <v>0.0008722016694955349</v>
+        <v>0.003969255269517801</v>
       </c>
       <c r="R52">
-        <v>6.463281755164454E-06</v>
+        <v>0.001713940512037232</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>3.724188113835684E-05</v>
       </c>
       <c r="T52">
-        <v>0.004365103418751974</v>
+        <v>0.004554613442478981</v>
       </c>
       <c r="U52">
-        <v>0.001052427678794587</v>
+        <v>0.00084317090835423</v>
       </c>
       <c r="V52">
-        <v>11.99023746306581</v>
+        <v>9.351978861535347</v>
       </c>
       <c r="W52">
-        <v>-0.597720073403174</v>
+        <v>1.345022435254243</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>0.0002925247739815952</v>
       </c>
       <c r="Y52">
-        <v>0.0008440101641604253</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>1.153771189309075</v>
+        <v>-0.2370736881325506</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -3919,67 +3994,67 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.669898896411883E-06</v>
+        <v>5.594253538500698E-06</v>
       </c>
       <c r="C53">
-        <v>0.05364036338869787</v>
+        <v>0.07109517106675073</v>
       </c>
       <c r="D53">
-        <v>0.002897772682162112</v>
+        <v>0.004866854428406903</v>
       </c>
       <c r="E53">
-        <v>0.05692808651242113</v>
+        <v>0.07532859771899465</v>
       </c>
       <c r="F53">
-        <v>7.498467539744334</v>
+        <v>7.548466576556363</v>
       </c>
       <c r="K53">
-        <v>8.221849636655257</v>
+        <v>6.734187383354252</v>
       </c>
       <c r="L53">
-        <v>8.459303460834796</v>
+        <v>5.428186766560433</v>
       </c>
       <c r="M53">
-        <v>8.223946211274619</v>
+        <v>6.757615187999308</v>
       </c>
       <c r="N53">
-        <v>0.01649336444557774</v>
+        <v>0.01124716310518223</v>
       </c>
       <c r="O53">
-        <v>0.001047554629038527</v>
+        <v>0.0004453030506586958</v>
       </c>
       <c r="P53">
-        <v>0.01600674456792707</v>
+        <v>0.0139883050187178</v>
       </c>
       <c r="Q53">
-        <v>0.0008928834329778465</v>
+        <v>0.003988750625558537</v>
       </c>
       <c r="R53">
-        <v>6.595185464453525E-06</v>
+        <v>0.001748158851443332</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>3.781603222361323E-05</v>
       </c>
       <c r="T53">
-        <v>0.004432709046098044</v>
+        <v>0.0046303571676652</v>
       </c>
       <c r="U53">
-        <v>0.001070258185768326</v>
+        <v>0.0008610453152964476</v>
       </c>
       <c r="V53">
-        <v>12.04802880879147</v>
+        <v>9.404135150979252</v>
       </c>
       <c r="W53">
-        <v>-0.5731740216821457</v>
+        <v>1.394682668138103</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>0.0003071974753127481</v>
       </c>
       <c r="Y53">
-        <v>0.0008659922076099483</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>1.16521791391305</v>
+        <v>-0.2178219233115133</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -3987,67 +4062,67 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.64672193778059E-06</v>
+        <v>5.564078121244694E-06</v>
       </c>
       <c r="C54">
-        <v>0.05469750069508404</v>
+        <v>0.0724749276633829</v>
       </c>
       <c r="D54">
-        <v>0.002968828283950359</v>
+        <v>0.004990025282453009</v>
       </c>
       <c r="E54">
-        <v>0.05809773025536015</v>
+        <v>0.07684533195573111</v>
       </c>
       <c r="F54">
-        <v>7.498448542816468</v>
+        <v>7.548447556124953</v>
       </c>
       <c r="K54">
-        <v>8.219887945956447</v>
+        <v>6.740505058059471</v>
       </c>
       <c r="L54">
-        <v>8.449741253872395</v>
+        <v>5.437415551597093</v>
       </c>
       <c r="M54">
-        <v>8.222049232572743</v>
+        <v>6.764256770679861</v>
       </c>
       <c r="N54">
-        <v>0.01681515215008898</v>
+        <v>0.01147220185631814</v>
       </c>
       <c r="O54">
-        <v>0.001068492134870065</v>
+        <v>0.0004565570788029622</v>
       </c>
       <c r="P54">
-        <v>0.01632161667490518</v>
+        <v>0.01419662906857528</v>
       </c>
       <c r="Q54">
-        <v>0.0009144802088221946</v>
+        <v>0.004009073018309462</v>
       </c>
       <c r="R54">
-        <v>6.732585161629641E-06</v>
+        <v>0.001783790993510409</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>3.840695587578086E-05</v>
       </c>
       <c r="T54">
-        <v>0.004502760105688246</v>
+        <v>0.004708884497922883</v>
       </c>
       <c r="U54">
-        <v>0.001088772698974874</v>
+        <v>0.0008796715179903914</v>
       </c>
       <c r="V54">
-        <v>12.1085338177829</v>
+        <v>9.459247273386501</v>
       </c>
       <c r="W54">
-        <v>-0.5481618002222035</v>
+        <v>1.445129560033795</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>0.0003224706579244234</v>
       </c>
       <c r="Y54">
-        <v>0.0008889336463538346</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>1.176897933578418</v>
+        <v>-0.1982216917408461</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -4055,67 +4130,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.622590187726403E-06</v>
+        <v>5.532697993318556E-06</v>
       </c>
       <c r="C55">
-        <v>0.05579811074638475</v>
+        <v>0.07391077665021119</v>
       </c>
       <c r="D55">
-        <v>0.003043465579410537</v>
+        <v>0.005119596523556903</v>
       </c>
       <c r="E55">
-        <v>0.05931680473386067</v>
+        <v>0.07842493144199356</v>
       </c>
       <c r="F55">
-        <v>7.498429281400592</v>
+        <v>7.548428270018578</v>
       </c>
       <c r="K55">
-        <v>8.2179127770249</v>
+        <v>6.746925446744874</v>
       </c>
       <c r="L55">
-        <v>8.439948018445914</v>
+        <v>5.446869474444076</v>
       </c>
       <c r="M55">
-        <v>8.22015254698592</v>
+        <v>6.771008419665172</v>
       </c>
       <c r="N55">
-        <v>0.01715018746956172</v>
+        <v>0.01170657727711633</v>
       </c>
       <c r="O55">
-        <v>0.001090440778051686</v>
+        <v>0.0004683955770061515</v>
       </c>
       <c r="P55">
-        <v>0.01664942808907716</v>
+        <v>0.01441338558028307</v>
       </c>
       <c r="Q55">
-        <v>0.0009371208223203492</v>
+        <v>0.004030370709077978</v>
       </c>
       <c r="R55">
-        <v>6.875831654430271E-06</v>
+        <v>0.00182092682409838</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>3.902095319273993E-05</v>
       </c>
       <c r="T55">
-        <v>0.004575398135618318</v>
+        <v>0.004790357114517192</v>
       </c>
       <c r="U55">
-        <v>0.001108109008003562</v>
+        <v>0.0008991913722057028</v>
       </c>
       <c r="V55">
-        <v>12.17181495654873</v>
+        <v>9.517382885286272</v>
       </c>
       <c r="W55">
-        <v>-0.5226554422446341</v>
+        <v>1.496384700906102</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>0.0003383812369065077</v>
       </c>
       <c r="Y55">
-        <v>0.0009128975186310202</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>1.188825224036806</v>
+        <v>-0.1782614792846733</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -4123,67 +4198,67 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.597443694966439E-06</v>
+        <v>5.50004031626747E-06</v>
       </c>
       <c r="C56">
-        <v>0.05694495085871028</v>
+        <v>0.07540623708774716</v>
       </c>
       <c r="D56">
-        <v>0.003121960429528645</v>
+        <v>0.005256075079163407</v>
       </c>
       <c r="E56">
-        <v>0.06058849245031143</v>
+        <v>0.08007135675806472</v>
       </c>
       <c r="F56">
-        <v>7.49840974389658</v>
+        <v>7.548408706550993</v>
       </c>
       <c r="K56">
-        <v>8.215912223355513</v>
+        <v>6.753453406881413</v>
       </c>
       <c r="L56">
-        <v>8.429847503006101</v>
+        <v>5.456568387288883</v>
       </c>
       <c r="M56">
-        <v>8.218237772139013</v>
+        <v>6.777882678639553</v>
       </c>
       <c r="N56">
-        <v>0.01749931239763803</v>
+        <v>0.01195088557494482</v>
       </c>
       <c r="O56">
-        <v>0.001113461602504049</v>
+        <v>0.0004808670229325824</v>
       </c>
       <c r="P56">
-        <v>0.01699099998618057</v>
+        <v>0.01463910329487448</v>
       </c>
       <c r="Q56">
-        <v>0.0009608913672761352</v>
+        <v>0.004052658986952967</v>
       </c>
       <c r="R56">
-        <v>7.025306255613538E-06</v>
+        <v>0.001859663908248503</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>3.965914176279992E-05</v>
       </c>
       <c r="T56">
-        <v>0.00465077398621864</v>
+        <v>0.004874947674132659</v>
       </c>
       <c r="U56">
-        <v>0.001128312656282371</v>
+        <v>0.0009196718797540651</v>
       </c>
       <c r="V56">
-        <v>12.23794175056007</v>
+        <v>9.57862179113987</v>
       </c>
       <c r="W56">
-        <v>-0.4966559193064626</v>
+        <v>1.548481364501036</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>0.0003549709586543596</v>
       </c>
       <c r="Y56">
-        <v>0.0009379451845445788</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>1.200999713621725</v>
+        <v>-0.1579259942667228</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -4191,67 +4266,67 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.571217462743493E-06</v>
+        <v>5.466026396588327E-06</v>
       </c>
       <c r="C57">
-        <v>0.05814101731269209</v>
+        <v>0.07696512957682679</v>
       </c>
       <c r="D57">
-        <v>0.003204617528172982</v>
+        <v>0.005400022240568481</v>
       </c>
       <c r="E57">
-        <v>0.06191625268345995</v>
+        <v>0.08178890451052542</v>
       </c>
       <c r="F57">
-        <v>7.498389917904142</v>
+        <v>7.548388853228316</v>
       </c>
       <c r="K57">
-        <v>8.21389433911445</v>
+        <v>6.760089150534436</v>
       </c>
       <c r="L57">
-        <v>8.419425975309549</v>
+        <v>5.466512169004361</v>
       </c>
       <c r="M57">
-        <v>8.216305593973813</v>
+        <v>6.784871683169365</v>
       </c>
       <c r="N57">
-        <v>0.01786344241530767</v>
+        <v>0.01220577487610065</v>
       </c>
       <c r="O57">
-        <v>0.00113763805543678</v>
+        <v>0.0004940198554849867</v>
       </c>
       <c r="P57">
-        <v>0.01734722462215622</v>
+        <v>0.01487435761282829</v>
       </c>
       <c r="Q57">
-        <v>0.0009858788293595163</v>
+        <v>0.004076089969224724</v>
       </c>
       <c r="R57">
-        <v>7.18142417240495E-06</v>
+        <v>0.001900108458614852</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>4.032375216699889E-05</v>
       </c>
       <c r="T57">
-        <v>0.004729050904661669</v>
+        <v>0.004962842691785517</v>
       </c>
       <c r="U57">
-        <v>0.001149446217805046</v>
+        <v>0.0009411867385455655</v>
       </c>
       <c r="V57">
-        <v>12.30699441497268</v>
+        <v>9.643056534043835</v>
       </c>
       <c r="W57">
-        <v>-0.4701258115081508</v>
+        <v>1.601441748123715</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>0.0003722833895974106</v>
       </c>
       <c r="Y57">
-        <v>0.0009641534023420694</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>1.213440303505164</v>
+        <v>-0.1372031094633197</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -4259,67 +4334,67 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.543840852473154E-06</v>
+        <v>5.430571050909089E-06</v>
       </c>
       <c r="C58">
-        <v>0.05938957185324934</v>
+        <v>0.07859160928901449</v>
       </c>
       <c r="D58">
-        <v>0.003291774272276191</v>
+        <v>0.005552061116012441</v>
       </c>
       <c r="E58">
-        <v>0.06330385190641358</v>
+        <v>0.08358224323168317</v>
       </c>
       <c r="F58">
-        <v>7.498369790149511</v>
+        <v>7.548368696673089</v>
       </c>
       <c r="K58">
-        <v>8.211850616036292</v>
+        <v>6.76684259673242</v>
       </c>
       <c r="L58">
-        <v>8.40865187900601</v>
+        <v>5.476726744109289</v>
       </c>
       <c r="M58">
-        <v>8.21435083771153</v>
+        <v>6.791992656062102</v>
       </c>
       <c r="N58">
-        <v>0.01824357433257746</v>
+        <v>0.01247195112656918</v>
       </c>
       <c r="O58">
-        <v>0.001163056063134256</v>
+        <v>0.0005079147725967281</v>
       </c>
       <c r="P58">
-        <v>0.01771907339017433</v>
+        <v>0.01511977278654656</v>
       </c>
       <c r="Q58">
-        <v>0.001012179895066601</v>
+        <v>0.004100667528047225</v>
       </c>
       <c r="R58">
-        <v>7.344638358141426E-06</v>
+        <v>0.001942376292852303</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>4.101614013231094E-05</v>
       </c>
       <c r="T58">
-        <v>0.004810405556635682</v>
+        <v>0.005054243963450062</v>
       </c>
       <c r="U58">
-        <v>0.001171574752008749</v>
+        <v>0.0009638173053657179</v>
       </c>
       <c r="V58">
-        <v>12.37906352787482</v>
+        <v>9.710793160911118</v>
       </c>
       <c r="W58">
-        <v>-0.4430591042061067</v>
+        <v>1.655316260243403</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>0.0003903703261625857</v>
       </c>
       <c r="Y58">
-        <v>0.0009915958806794873</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>1.226150730131398</v>
+        <v>-0.1160706354072829</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -4327,67 +4402,67 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.515237042750885E-06</v>
+        <v>5.393582003451951E-06</v>
       </c>
       <c r="C59">
-        <v>0.06069417179699291</v>
+        <v>0.08029020343257266</v>
       </c>
       <c r="D59">
-        <v>0.003383805195831833</v>
+        <v>0.005712885232808987</v>
       </c>
       <c r="E59">
-        <v>0.06475539834754561</v>
+        <v>0.0854564540202442</v>
       </c>
       <c r="F59">
-        <v>7.498349346399793</v>
+        <v>7.548348222538504</v>
       </c>
       <c r="K59">
-        <v>8.209786332646377</v>
+        <v>6.773713555917386</v>
       </c>
       <c r="L59">
-        <v>8.397516762963592</v>
+        <v>5.487217004364976</v>
       </c>
       <c r="M59">
-        <v>8.212376406589446</v>
+        <v>6.799240999862604</v>
       </c>
       <c r="N59">
-        <v>0.01864079568768079</v>
+        <v>0.01275018453014994</v>
       </c>
       <c r="O59">
-        <v>0.001189818366677125</v>
+        <v>0.0005226128324747352</v>
       </c>
       <c r="P59">
-        <v>0.0181076057970373</v>
+        <v>0.01537603104837213</v>
       </c>
       <c r="Q59">
-        <v>0.001039899035617884</v>
+        <v>0.004126541191525327</v>
       </c>
       <c r="R59">
-        <v>7.515443901354018E-06</v>
+        <v>0.001986593970822535</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>4.173885546312477E-05</v>
       </c>
       <c r="T59">
-        <v>0.004895029528836309</v>
+        <v>0.005149370164800861</v>
       </c>
       <c r="U59">
-        <v>0.001194775219005386</v>
+        <v>0.000987653929755865</v>
       </c>
       <c r="V59">
-        <v>12.45425201176464</v>
+        <v>9.781952230719712</v>
       </c>
       <c r="W59">
-        <v>-0.4154192711476767</v>
+        <v>1.710127922572035</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>0.0004092831946854198</v>
       </c>
       <c r="Y59">
-        <v>0.001020362952000069</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>1.23914940192688</v>
+        <v>-0.0945158548491225</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -4395,67 +4470,67 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.485322290734289E-06</v>
+        <v>5.354959119553761E-06</v>
       </c>
       <c r="C60">
-        <v>0.06205870433511577</v>
+        <v>0.08206585386590036</v>
       </c>
       <c r="D60">
-        <v>0.00348112721153027</v>
+        <v>0.00588326869007324</v>
       </c>
       <c r="E60">
-        <v>0.06627538118334353</v>
+        <v>0.08741707646619333</v>
       </c>
       <c r="F60">
-        <v>7.498328571369192</v>
+        <v>7.548327415413333</v>
       </c>
       <c r="K60">
-        <v>8.207700319572664</v>
+        <v>6.780709531378272</v>
       </c>
       <c r="L60">
-        <v>8.38598896205383</v>
+        <v>5.498004169924938</v>
       </c>
       <c r="M60">
-        <v>8.210378877845864</v>
+        <v>6.806627612335314</v>
       </c>
       <c r="N60">
-        <v>0.01905629514770469</v>
+        <v>0.01304131718961839</v>
       </c>
       <c r="O60">
-        <v>0.001218034199482015</v>
+        <v>0.0005381863459760675</v>
       </c>
       <c r="P60">
-        <v>0.01851397976754728</v>
+        <v>0.01564387604496371</v>
       </c>
       <c r="Q60">
-        <v>0.0010691558629853</v>
+        <v>0.004153771518487787</v>
       </c>
       <c r="R60">
-        <v>7.694383041862446E-06</v>
+        <v>0.002032900044997759</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>4.249395337762837E-05</v>
       </c>
       <c r="T60">
-        <v>0.004983130821927521</v>
+        <v>0.005248458646587645</v>
       </c>
       <c r="U60">
-        <v>0.001219128311866937</v>
+        <v>0.001012796785981742</v>
       </c>
       <c r="V60">
-        <v>12.5326749738969</v>
+        <v>9.856669917798872</v>
       </c>
       <c r="W60">
-        <v>-0.387181440227252</v>
+        <v>1.76592409453972</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>0.0004290823915467953</v>
       </c>
       <c r="Y60">
-        <v>0.001050548152171262</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>1.252448689554324</v>
+        <v>-0.07251659250591302</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -4463,67 +4538,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.454005169642174E-06</v>
+        <v>5.314593574255017E-06</v>
       </c>
       <c r="C61">
-        <v>0.06348742572837396</v>
+        <v>0.08392396569945712</v>
       </c>
       <c r="D61">
-        <v>0.003584205715688335</v>
+        <v>0.00606407807261976</v>
       </c>
       <c r="E61">
-        <v>0.06786871524387149</v>
+        <v>0.08947016078101963</v>
       </c>
       <c r="F61">
-        <v>7.49830744861295</v>
+        <v>7.548306258714398</v>
       </c>
       <c r="K61">
-        <v>8.205585135377007</v>
+        <v>6.787833917784964</v>
       </c>
       <c r="L61">
-        <v>8.37407911570577</v>
+        <v>5.509106187928729</v>
       </c>
       <c r="M61">
-        <v>8.20836664333963</v>
+        <v>6.814158701594469</v>
       </c>
       <c r="N61">
-        <v>0.01949137468302719</v>
+        <v>0.01334627160043894</v>
       </c>
       <c r="O61">
-        <v>0.001247833141128856</v>
+        <v>0.0005547154199849982</v>
       </c>
       <c r="P61">
-        <v>0.01893946327741464</v>
+        <v>0.01592412249682898</v>
       </c>
       <c r="Q61">
-        <v>0.0011000750136376</v>
+        <v>0.004182466219682196</v>
       </c>
       <c r="R61">
-        <v>7.882050920932262E-06</v>
+        <v>0.002081446535037274</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>4.328401607953542E-05</v>
       </c>
       <c r="T61">
-        <v>0.005074935761197291</v>
+        <v>0.005351767472456082</v>
       </c>
       <c r="U61">
-        <v>0.001244731453222892</v>
+        <v>0.001039357677265396</v>
       </c>
       <c r="V61">
-        <v>12.61446259751705</v>
+        <v>9.93509942610498</v>
       </c>
       <c r="W61">
-        <v>-0.3583306310786121</v>
+        <v>1.822741943784965</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>0.0004498316425239551</v>
       </c>
       <c r="Y61">
-        <v>0.001082251664103411</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>1.266056661192392</v>
+        <v>-0.05005510970207538</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -4531,67 +4606,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.421185674674243E-06</v>
+        <v>5.272366959265359E-06</v>
       </c>
       <c r="C62">
-        <v>0.06498500622869111</v>
+        <v>0.08587046289012805</v>
       </c>
       <c r="D62">
-        <v>0.003693561787881475</v>
+        <v>0.006256286476827723</v>
       </c>
       <c r="E62">
-        <v>0.06954079205848308</v>
+        <v>0.09162232712932558</v>
       </c>
       <c r="F62">
-        <v>7.498285960406594</v>
+        <v>7.548284734563085</v>
       </c>
       <c r="K62">
-        <v>8.203445923510172</v>
+        <v>6.795092620153744</v>
       </c>
       <c r="L62">
-        <v>8.361721676966118</v>
+        <v>5.520537745756141</v>
       </c>
       <c r="M62">
-        <v>8.20632834059659</v>
+        <v>6.821836758111376</v>
       </c>
       <c r="N62">
-        <v>0.01994746322157465</v>
+        <v>0.01366606050495029</v>
       </c>
       <c r="O62">
-        <v>0.00127934542336688</v>
+        <v>0.0005722888657232659</v>
       </c>
       <c r="P62">
-        <v>0.01938544798400907</v>
+        <v>0.01621766390375765</v>
       </c>
       <c r="Q62">
-        <v>0.001132808870752984</v>
+        <v>0.004212771828886575</v>
       </c>
       <c r="R62">
-        <v>8.079102193955568E-06</v>
+        <v>0.002132400598011218</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>4.411212788790672E-05</v>
       </c>
       <c r="T62">
-        <v>0.005170690868896651</v>
+        <v>0.005459577717335849</v>
       </c>
       <c r="U62">
-        <v>0.001271679101282233</v>
+        <v>0.001067461153113127</v>
       </c>
       <c r="V62">
-        <v>12.69975822523095</v>
+        <v>10.01741252102569</v>
       </c>
       <c r="W62">
-        <v>-0.3288281551604513</v>
+        <v>1.880627350575985</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>0.0004716023063147852</v>
       </c>
       <c r="Y62">
-        <v>0.001115589015599272</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>1.279993602286692</v>
+        <v>-0.02710863996319901</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -4599,67 +4674,67 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.386754245799935E-06</v>
+        <v>5.228150196260211E-06</v>
       </c>
       <c r="C63">
-        <v>0.06655658172717341</v>
+        <v>0.08791185202893062</v>
       </c>
       <c r="D63">
-        <v>0.003809780677045194</v>
+        <v>0.006460990228448471</v>
       </c>
       <c r="E63">
-        <v>0.07129753837259507</v>
+        <v>0.09388083321731538</v>
       </c>
       <c r="F63">
-        <v>7.49826408761002</v>
+        <v>7.548262823649765</v>
       </c>
       <c r="K63">
-        <v>8.201285463061831</v>
+        <v>6.802490894688212</v>
       </c>
       <c r="L63">
-        <v>8.348958323580337</v>
+        <v>5.532319866839725</v>
       </c>
       <c r="M63">
-        <v>8.204280608683813</v>
+        <v>6.829668789553794</v>
       </c>
       <c r="N63">
-        <v>0.02042613290870818</v>
+        <v>0.01400179823928944</v>
       </c>
       <c r="O63">
-        <v>0.001312739497255308</v>
+        <v>0.0005910075961113524</v>
       </c>
       <c r="P63">
-        <v>0.01985346437152846</v>
+        <v>0.01652548164926717</v>
       </c>
       <c r="Q63">
-        <v>0.001167511286099891</v>
+        <v>0.004244819016060877</v>
       </c>
       <c r="R63">
-        <v>8.28625866046725E-06</v>
+        <v>0.002185946456219508</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>4.498149340283809E-05</v>
       </c>
       <c r="T63">
-        <v>0.005270665529604713</v>
+        <v>0.005572196090777457</v>
       </c>
       <c r="U63">
-        <v>0.001300095823032795</v>
+        <v>0.001097246998336628</v>
       </c>
       <c r="V63">
-        <v>12.78872410186452</v>
+        <v>10.10380147542357</v>
       </c>
       <c r="W63">
-        <v>-0.2986341627354534</v>
+        <v>1.939626028433388</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>0.0004944721447840194</v>
       </c>
       <c r="Y63">
-        <v>0.001150687676828403</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>1.294279176717497</v>
+        <v>-0.003654857060809036</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -4667,67 +4742,67 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.350590570073678E-06</v>
+        <v>5.181802418416458E-06</v>
       </c>
       <c r="C64">
-        <v>0.06820781333375572</v>
+        <v>0.09005529576052226</v>
       </c>
       <c r="D64">
-        <v>0.003933521928230894</v>
+        <v>0.00667942869338397</v>
       </c>
       <c r="E64">
-        <v>0.07314548330930314</v>
+        <v>0.09625365166703134</v>
       </c>
       <c r="F64">
-        <v>7.498241809514497</v>
+        <v>7.548240505074824</v>
       </c>
       <c r="K64">
-        <v>8.199095450357859</v>
+        <v>6.810033601328843</v>
       </c>
       <c r="L64">
-        <v>8.335660272277421</v>
+        <v>5.544475700418531</v>
       </c>
       <c r="M64">
-        <v>8.20219569215678</v>
+        <v>6.837662455161987</v>
       </c>
       <c r="N64">
-        <v>0.02092911694585168</v>
+        <v>0.01435471378253097</v>
       </c>
       <c r="O64">
-        <v>0.001348167725576733</v>
+        <v>0.0006109858729977064</v>
       </c>
       <c r="P64">
-        <v>0.02034519997903973</v>
+        <v>0.01684865698171997</v>
       </c>
       <c r="Q64">
-        <v>0.00120438144189241</v>
+        <v>0.004278753384332042</v>
       </c>
       <c r="R64">
-        <v>8.504318098900599E-06</v>
+        <v>0.002242287639451526</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>4.589575111690597E-05</v>
       </c>
       <c r="T64">
-        <v>0.005375154206093448</v>
+        <v>0.005689957908999585</v>
       </c>
       <c r="U64">
-        <v>0.001330089612640308</v>
+        <v>0.001128872407181846</v>
       </c>
       <c r="V64">
-        <v>12.88153618854451</v>
+        <v>10.19448131386169</v>
       </c>
       <c r="W64">
-        <v>-0.2677290324890933</v>
+        <v>1.999787274001605</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>0.000518527634704646</v>
       </c>
       <c r="Y64">
-        <v>0.001187682090265808</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>1.308924238178122</v>
+        <v>0.02032982458973187</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -4735,67 +4810,67 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.312562292725584E-06</v>
+        <v>5.133169621630283E-06</v>
       </c>
       <c r="C65">
-        <v>0.06994495634471586</v>
+        <v>0.09230869757314762</v>
       </c>
       <c r="D65">
-        <v>0.004065531417091516</v>
+        <v>0.006913008092129953</v>
       </c>
       <c r="E65">
-        <v>0.07509183582148364</v>
+        <v>0.09874955864235201</v>
       </c>
       <c r="F65">
-        <v>7.498219103665314</v>
+        <v>7.548217756171104</v>
       </c>
       <c r="K65">
-        <v>8.196874419582933</v>
+        <v>6.817731358516315</v>
       </c>
       <c r="L65">
-        <v>8.321870551610122</v>
+        <v>5.557033311709448</v>
       </c>
       <c r="M65">
-        <v>8.200093425544821</v>
+        <v>6.845828831857411</v>
       </c>
       <c r="N65">
-        <v>0.02145833178964289</v>
+        <v>0.01472616588819403</v>
       </c>
       <c r="O65">
-        <v>0.001385841910856611</v>
+        <v>0.0006323549998489322</v>
       </c>
       <c r="P65">
-        <v>0.02086251939896263</v>
+        <v>0.01718838410597369</v>
       </c>
       <c r="Q65">
-        <v>0.001243613427346282</v>
+        <v>0.004314724016265797</v>
       </c>
       <c r="R65">
-        <v>8.734164534006021E-06</v>
+        <v>0.002301649582379489</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>4.685880468629398E-05</v>
       </c>
       <c r="T65">
-        <v>0.005484480276186776</v>
+        <v>0.005813230490129794</v>
       </c>
       <c r="U65">
-        <v>0.001361815910120982</v>
+        <v>0.00116251425965917</v>
       </c>
       <c r="V65">
-        <v>12.97839347804702</v>
+        <v>10.28969234477142</v>
       </c>
       <c r="W65">
-        <v>-0.2360776772040332</v>
+        <v>2.061176890862271</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>0.0005438663416999404</v>
       </c>
       <c r="Y65">
-        <v>0.001226723634977566</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>1.323946548905318</v>
+        <v>0.04487664013718451</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -4803,67 +4878,67 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.272523534367262E-06</v>
+        <v>5.082083200058821E-06</v>
       </c>
       <c r="C66">
-        <v>0.0717749403704832</v>
+        <v>0.09468080005873146</v>
       </c>
       <c r="D66">
-        <v>0.004206655783837206</v>
+        <v>0.007163330101742221</v>
       </c>
       <c r="E66">
-        <v>0.07714457423319049</v>
+        <v>0.1013782358122489</v>
       </c>
       <c r="F66">
-        <v>7.498195945660719</v>
+        <v>7.548194552299849</v>
       </c>
       <c r="K66">
-        <v>8.194626590752605</v>
+        <v>6.82558505091012</v>
       </c>
       <c r="L66">
-        <v>8.30753090792386</v>
+        <v>5.570010553908098</v>
       </c>
       <c r="M66">
-        <v>8.197965669016527</v>
+        <v>6.854166823134525</v>
       </c>
       <c r="N66">
-        <v>0.02201590095294251</v>
+        <v>0.01511766063509251</v>
       </c>
       <c r="O66">
-        <v>0.001425978693900945</v>
+        <v>0.0006552599479728823</v>
       </c>
       <c r="P66">
-        <v>0.02140748900928531</v>
+        <v>0.01754598577513224</v>
       </c>
       <c r="Q66">
-        <v>0.001285446821527963</v>
+        <v>0.004352982179557994</v>
       </c>
       <c r="R66">
-        <v>8.976780215506189E-06</v>
+        <v>0.002364282659537633</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>4.78758775666166E-05</v>
       </c>
       <c r="T66">
-        <v>0.005598998730799716</v>
+        <v>0.005942417052087312</v>
       </c>
       <c r="U66">
-        <v>0.001395428400974687</v>
+        <v>0.001198373296763024</v>
       </c>
       <c r="V66">
-        <v>13.07951584493947</v>
+        <v>10.38970335886643</v>
       </c>
       <c r="W66">
-        <v>-0.2036295089265145</v>
+        <v>2.123837752981931</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>0.0005705920729530143</v>
       </c>
       <c r="Y66">
-        <v>0.001267986254886401</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>1.339371972206735</v>
+        <v>0.07000824145802298</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -4871,67 +4946,67 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.230313118688954E-06</v>
+        <v>5.028358241465572E-06</v>
       </c>
       <c r="C67">
-        <v>0.07370546278724451</v>
+        <v>0.09718129920035973</v>
       </c>
       <c r="D67">
-        <v>0.004357859884175181</v>
+        <v>0.007432226531827905</v>
       </c>
       <c r="E67">
-        <v>0.07931255001410308</v>
+        <v>0.104150387851072</v>
       </c>
       <c r="F67">
-        <v>7.498172308921676</v>
+        <v>7.548170866615132</v>
       </c>
       <c r="K67">
-        <v>8.192348899452568</v>
+        <v>6.833606727647482</v>
       </c>
       <c r="L67">
-        <v>8.292646945303067</v>
+        <v>5.583445818747818</v>
       </c>
       <c r="M67">
-        <v>8.195820794029068</v>
+        <v>6.862693324079957</v>
       </c>
       <c r="N67">
-        <v>0.02260418444605799</v>
+        <v>0.01553087208329593</v>
       </c>
       <c r="O67">
-        <v>0.001468837670742491</v>
+        <v>0.0006798726407684122</v>
       </c>
       <c r="P67">
-        <v>0.02198240450036409</v>
+        <v>0.01792292873500579</v>
       </c>
       <c r="Q67">
-        <v>0.001330141138261481</v>
+        <v>0.004393689435813539</v>
       </c>
       <c r="R67">
-        <v>9.233259650234937E-06</v>
+        <v>0.002430465710451091</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>4.89517939471036E-05</v>
       </c>
       <c r="T67">
-        <v>0.005719100740223288</v>
+        <v>0.006077961159382292</v>
       </c>
       <c r="U67">
-        <v>0.001431112934999614</v>
+        <v>0.001236677175565126</v>
       </c>
       <c r="V67">
-        <v>13.18514929171735</v>
+        <v>10.49481518535092</v>
       </c>
       <c r="W67">
-        <v>-0.170345784787898</v>
+        <v>2.18784673668813</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>0.0005988255930559389</v>
       </c>
       <c r="Y67">
-        <v>0.001311657001118992</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>1.355220340245913</v>
+        <v>0.09576041554229064</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -4939,67 +5014,67 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.185752597552863E-06</v>
+        <v>4.971791706753227E-06</v>
       </c>
       <c r="C68">
-        <v>0.07574509816674654</v>
+        <v>0.09982097780825773</v>
       </c>
       <c r="D68">
-        <v>0.004520247908378626</v>
+        <v>0.007721801406051877</v>
       </c>
       <c r="E68">
-        <v>0.08160560859915229</v>
+        <v>0.1070778785069942</v>
       </c>
       <c r="F68">
-        <v>7.498148164425749</v>
+        <v>7.548146669793507</v>
       </c>
       <c r="K68">
-        <v>8.19003903762342</v>
+        <v>6.841803249708241</v>
       </c>
       <c r="L68">
-        <v>8.277124628376193</v>
+        <v>5.597368374565013</v>
       </c>
       <c r="M68">
-        <v>8.193644286160808</v>
+        <v>6.87141406971936</v>
       </c>
       <c r="N68">
-        <v>0.0232258122923908</v>
+        <v>0.01596766618454674</v>
       </c>
       <c r="O68">
-        <v>0.001514695785679102</v>
+        <v>0.0007063868112860311</v>
       </c>
       <c r="P68">
-        <v>0.02258982401101417</v>
+        <v>0.01832084753792321</v>
       </c>
       <c r="Q68">
-        <v>0.001378009011428918</v>
+        <v>0.004437116611586974</v>
       </c>
       <c r="R68">
-        <v>9.504826110535965E-06</v>
+        <v>0.002500510237407091</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>5.009284626293854E-05</v>
       </c>
       <c r="T68">
-        <v>0.005845218028612219</v>
+        <v>0.006220351864788679</v>
       </c>
       <c r="U68">
-        <v>0.001469062829601485</v>
+        <v>0.001277685714405811</v>
       </c>
       <c r="V68">
-        <v>13.29556556058047</v>
+        <v>10.60536502653284</v>
       </c>
       <c r="W68">
-        <v>-0.1361823004584259</v>
+        <v>2.253270170440651</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>0.0006286991466224309</v>
       </c>
       <c r="Y68">
-        <v>0.001357946578360801</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>1.371514738677434</v>
+        <v>0.1221662044915313</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -5007,67 +5082,67 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.138643933707363E-06</v>
+        <v>4.912160239050893E-06</v>
       </c>
       <c r="C69">
-        <v>0.07790342696245466</v>
+        <v>0.1026118619416579</v>
       </c>
       <c r="D69">
-        <v>0.004695089175950466</v>
+        <v>0.008034482674135413</v>
       </c>
       <c r="E69">
-        <v>0.08403473044075027</v>
+        <v>0.1101738882984399</v>
       </c>
       <c r="F69">
-        <v>7.498123480400523</v>
+        <v>7.548121929722226</v>
       </c>
       <c r="K69">
-        <v>8.187691243984464</v>
+        <v>6.85018160406119</v>
       </c>
       <c r="L69">
-        <v>8.26093259353242</v>
+        <v>5.611814630270406</v>
       </c>
       <c r="M69">
-        <v>8.191437094301133</v>
+        <v>6.880338466556625</v>
       </c>
       <c r="N69">
-        <v>0.02388372491380631</v>
+        <v>0.01643012919585767</v>
       </c>
       <c r="O69">
-        <v>0.001563884107269579</v>
+        <v>0.0007350269271920935</v>
       </c>
       <c r="P69">
-        <v>0.02323260628372888</v>
+        <v>0.0187415666569031</v>
       </c>
       <c r="Q69">
-        <v>0.001429396571379652</v>
+        <v>0.004483547442764502</v>
       </c>
       <c r="R69">
-        <v>9.79285114418857E-06</v>
+        <v>0.002574765309866004</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>5.130606097054325E-05</v>
       </c>
       <c r="T69">
-        <v>0.005977828792218605</v>
+        <v>0.006370129626921493</v>
       </c>
       <c r="U69">
-        <v>0.001509510069025368</v>
+        <v>0.00132169672101974</v>
       </c>
       <c r="V69">
-        <v>13.41106820788244</v>
+        <v>10.72173161082218</v>
       </c>
       <c r="W69">
-        <v>-0.1010968721299115</v>
+        <v>2.320179846035032</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>0.0006603609488365113</v>
       </c>
       <c r="Y69">
-        <v>0.001407088293918335</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>1.388276840998666</v>
+        <v>0.1492605631793236</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -5075,67 +5150,67 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.088766878862305E-06</v>
+        <v>4.849217815644954E-06</v>
       </c>
       <c r="C70">
-        <v>0.08019118751828291</v>
+        <v>0.105567405043768</v>
       </c>
       <c r="D70">
-        <v>0.004883849764902388</v>
+        <v>0.008373085797475439</v>
       </c>
       <c r="E70">
-        <v>0.08661219638917395</v>
+        <v>0.1134530982742912</v>
       </c>
       <c r="F70">
-        <v>7.498098221964723</v>
+        <v>7.548096611133892</v>
       </c>
       <c r="K70">
-        <v>8.185314691340313</v>
+        <v>6.858752584810126</v>
       </c>
       <c r="L70">
-        <v>8.244065102494073</v>
+        <v>5.62682603706157</v>
       </c>
       <c r="M70">
-        <v>8.189205847602384</v>
+        <v>6.889478065543986</v>
       </c>
       <c r="N70">
-        <v>0.02458121993901058</v>
+        <v>0.01692060114175347</v>
       </c>
       <c r="O70">
-        <v>0.001616790447088585</v>
+        <v>0.0007660547916224504</v>
       </c>
       <c r="P70">
-        <v>0.02391395658723979</v>
+        <v>0.01918712975734493</v>
       </c>
       <c r="Q70">
-        <v>0.001484699883862123</v>
+        <v>0.004533302009296966</v>
       </c>
       <c r="R70">
-        <v>1.009887774244446E-05</v>
+        <v>0.002653623411393987</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>5.25995173233935E-05</v>
       </c>
       <c r="T70">
-        <v>0.006117463752318394</v>
+        <v>0.006527893155230924</v>
       </c>
       <c r="U70">
-        <v>0.001552723694262743</v>
+        <v>0.001369052587291937</v>
       </c>
       <c r="V70">
-        <v>13.53199782342495</v>
+        <v>10.84434123676022</v>
       </c>
       <c r="W70">
-        <v>-0.06501442202265295</v>
+        <v>2.388661535003486</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>0.0006939788257252303</v>
       </c>
       <c r="Y70">
-        <v>0.001459353220586496</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>1.40554466187047</v>
+        <v>0.1770850841785094</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -5143,67 +5218,67 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.035875842896069E-06</v>
+        <v>4.782693077230783E-06</v>
       </c>
       <c r="C71">
-        <v>0.08262045647806937</v>
+        <v>0.1087027056646161</v>
       </c>
       <c r="D71">
-        <v>0.005088231692916665</v>
+        <v>0.00874089270539251</v>
       </c>
       <c r="E71">
-        <v>0.08935178217276543</v>
+        <v>0.1169319046901177</v>
       </c>
       <c r="F71">
-        <v>7.498072350713421</v>
+        <v>7.548070675184288</v>
       </c>
       <c r="K71">
-        <v>8.182901903688586</v>
+        <v>6.867526564478029</v>
       </c>
       <c r="L71">
-        <v>8.226490188402311</v>
+        <v>5.642448602968837</v>
       </c>
       <c r="M71">
-        <v>8.186951509862</v>
+        <v>6.898844630478488</v>
       </c>
       <c r="N71">
-        <v>0.02532200798713709</v>
+        <v>0.01744171554014479</v>
       </c>
       <c r="O71">
-        <v>0.001673856045832262</v>
+        <v>0.0007997750681382888</v>
       </c>
       <c r="P71">
-        <v>0.02463748099702617</v>
+        <v>0.01965983387824971</v>
       </c>
       <c r="Q71">
-        <v>0.001544378917621609</v>
+        <v>0.004586750745704584</v>
       </c>
       <c r="R71">
-        <v>1.042464799220074E-05</v>
+        <v>0.00273752740797691</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>5.398254358566794E-05</v>
       </c>
       <c r="T71">
-        <v>0.006264713431610513</v>
+        <v>0.006694307367099924</v>
       </c>
       <c r="U71">
-        <v>0.001599007483303801</v>
+        <v>0.001420149286143364</v>
       </c>
       <c r="V71">
-        <v>13.65873633806987</v>
+        <v>10.97367509978014</v>
       </c>
       <c r="W71">
-        <v>-0.0278857258855183</v>
+        <v>2.45880604004136</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>0.0007297420542144354</v>
       </c>
       <c r="Y71">
-        <v>0.001515038125753828</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>1.423343778163022</v>
+        <v>0.2056840610035895</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -5211,67 +5286,67 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.979696317432084E-06</v>
+        <v>4.712286311329545E-06</v>
       </c>
       <c r="C72">
-        <v>0.08520486397090779</v>
+        <v>0.1120347660965903</v>
       </c>
       <c r="D72">
-        <v>0.005310221672523117</v>
+        <v>0.009141750540264365</v>
       </c>
       <c r="E72">
-        <v>0.09226898818050239</v>
+        <v>0.1206286706553711</v>
       </c>
       <c r="F72">
-        <v>7.498045824229123</v>
+        <v>7.548044078951978</v>
       </c>
       <c r="K72">
-        <v>8.18044769909975</v>
+        <v>6.876511783598345</v>
       </c>
       <c r="L72">
-        <v>8.208131326208525</v>
+        <v>5.658729178630647</v>
       </c>
       <c r="M72">
-        <v>8.184665782337662</v>
+        <v>6.9084463714588</v>
       </c>
       <c r="N72">
-        <v>0.02611027971851392</v>
+        <v>0.01799644688921168</v>
       </c>
       <c r="O72">
-        <v>0.001735587803887117</v>
+        <v>0.0008365445694860458</v>
       </c>
       <c r="P72">
-        <v>0.02540725106633965</v>
+        <v>0.02016226998266788</v>
       </c>
       <c r="Q72">
-        <v>0.001608977699805138</v>
+        <v>0.004644360126010633</v>
       </c>
       <c r="R72">
-        <v>1.077213625860743E-05</v>
+        <v>0.002826978903456618</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>5.54664296817218E-05</v>
       </c>
       <c r="T72">
-        <v>0.006420236963220737</v>
+        <v>0.006870112636465143</v>
       </c>
       <c r="U72">
-        <v>0.001648704591567668</v>
+        <v>0.001475447097063995</v>
       </c>
       <c r="V72">
-        <v>13.7917118830612</v>
+        <v>11.11027811636019</v>
       </c>
       <c r="W72">
-        <v>0.01034863276439779</v>
+        <v>2.530704336684853</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>0.0007678634664386142</v>
       </c>
       <c r="Y72">
-        <v>0.001574479493167543</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>1.44170471868768</v>
+        <v>0.2351025372419002</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -5279,67 +5354,67 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.647804709329816E-06</v>
+        <v>5.927103510379784E-06</v>
       </c>
       <c r="C73">
-        <v>0.08795985163636931</v>
+        <v>0.1155828011157739</v>
       </c>
       <c r="D73">
-        <v>0.004776547882782523</v>
+        <v>0.004527685080315842</v>
       </c>
       <c r="E73">
-        <v>0.0918371821727275</v>
+        <v>0.1222296944374834</v>
       </c>
       <c r="F73">
-        <v>8.798045824229124</v>
+        <v>11.04804407895198</v>
       </c>
       <c r="K73">
-        <v>8.177954840231006</v>
+        <v>6.885722097455624</v>
       </c>
       <c r="L73">
-        <v>8.197334030995609</v>
+        <v>5.577238005586588</v>
       </c>
       <c r="M73">
-        <v>8.184016238445814</v>
+        <v>6.909639624768427</v>
       </c>
       <c r="N73">
-        <v>0.02695078633625967</v>
+        <v>0.01858816765885738</v>
       </c>
       <c r="O73">
-        <v>0.001817535749866714</v>
+        <v>0.0006829210295685787</v>
       </c>
       <c r="P73">
-        <v>0.02622788118242704</v>
+        <v>0.02069737032255261</v>
       </c>
       <c r="Q73">
-        <v>0.001689123240248359</v>
+        <v>0.004512770019097645</v>
       </c>
       <c r="R73">
-        <v>1.114358923304216E-05</v>
+        <v>0.002922548299104026</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>4.529794427821448E-05</v>
       </c>
       <c r="T73">
-        <v>0.006584772562243254</v>
+        <v>0.007056135586099663</v>
       </c>
       <c r="U73">
-        <v>0.001725868674020028</v>
+        <v>0.001237218371334267</v>
       </c>
       <c r="V73">
-        <v>13.93600957901444</v>
+        <v>11.19672795642136</v>
       </c>
       <c r="W73">
-        <v>0.04977099739792124</v>
+        <v>2.604470014215885</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>0.0008086339134135164</v>
       </c>
       <c r="Y73">
-        <v>0.001638079116201561</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>1.460669519661613</v>
+        <v>0.2653953701626754</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -5347,67 +5422,67 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.601160060393782E-06</v>
+        <v>5.860735005529572E-06</v>
       </c>
       <c r="C74">
-        <v>0.09093068391328311</v>
+        <v>0.1195490552598974</v>
       </c>
       <c r="D74">
-        <v>0.004989668843551388</v>
+        <v>0.004739190604717589</v>
       </c>
       <c r="E74">
-        <v>0.09502208059860971</v>
+        <v>0.126559981284302</v>
       </c>
       <c r="F74">
-        <v>8.798045824229124</v>
+        <v>11.04804407895198</v>
       </c>
       <c r="K74">
-        <v>8.175366112082502</v>
+        <v>6.89522338044259</v>
       </c>
       <c r="L74">
-        <v>8.178508494167481</v>
+        <v>5.592529698256977</v>
       </c>
       <c r="M74">
-        <v>8.181597333160447</v>
+        <v>6.918774691632381</v>
       </c>
       <c r="N74">
-        <v>0.02784840242863084</v>
+        <v>0.01922764075276055</v>
       </c>
       <c r="O74">
-        <v>0.001886311046798228</v>
+        <v>0.0007146796198516306</v>
       </c>
       <c r="P74">
-        <v>0.02710426539464771</v>
+        <v>0.02127539176196171</v>
       </c>
       <c r="Q74">
-        <v>0.001761188389783146</v>
+        <v>0.004577354823390725</v>
       </c>
       <c r="R74">
-        <v>1.154157456279367E-05</v>
+        <v>0.003025307240347806</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>4.675044333311633E-05</v>
       </c>
       <c r="T74">
-        <v>0.006758304843965512</v>
+        <v>0.007263954058055569</v>
       </c>
       <c r="U74">
-        <v>0.001780496899466164</v>
+        <v>0.001285896042335657</v>
       </c>
       <c r="V74">
-        <v>14.0868387910611</v>
+        <v>11.29015208645895</v>
       </c>
       <c r="W74">
-        <v>0.09027433107669225</v>
+        <v>2.679940934278878</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>0.0008522431402825588</v>
       </c>
       <c r="Y74">
-        <v>0.001706203726851491</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>1.480205072644067</v>
+        <v>0.2966735577717756</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -5415,67 +5490,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.551259020411249E-06</v>
+        <v>5.789663768373688E-06</v>
       </c>
       <c r="C75">
-        <v>0.09411368447142134</v>
+        <v>0.1238012724693485</v>
       </c>
       <c r="D75">
-        <v>0.005222668497335154</v>
+        <v>0.004971202760696572</v>
       </c>
       <c r="E75">
-        <v>0.09843724539582255</v>
+        <v>0.1312062576240483</v>
       </c>
       <c r="F75">
-        <v>8.798045824229124</v>
+        <v>11.04804407895198</v>
       </c>
       <c r="K75">
-        <v>8.172731132933382</v>
+        <v>6.905008112611882</v>
       </c>
       <c r="L75">
-        <v>8.158779690045368</v>
+        <v>5.608914509385332</v>
       </c>
       <c r="M75">
-        <v>8.179138422271643</v>
+        <v>6.929102010635621</v>
       </c>
       <c r="N75">
-        <v>0.02880996136869872</v>
+        <v>0.01991330597990533</v>
       </c>
       <c r="O75">
-        <v>0.001961205519783664</v>
+        <v>0.0007485730600722053</v>
       </c>
       <c r="P75">
-        <v>0.02804289787630937</v>
+        <v>0.02189383757450138</v>
       </c>
       <c r="Q75">
-        <v>0.001839719965209657</v>
+        <v>0.004637728193392368</v>
       </c>
       <c r="R75">
-        <v>1.196904028734158E-05</v>
+        <v>0.003135624158755757</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>4.797189961807562E-05</v>
       </c>
       <c r="T75">
-        <v>0.006942668101169192</v>
+        <v>0.007485363614193344</v>
       </c>
       <c r="U75">
-        <v>0.0018394710440418</v>
+        <v>0.001338931510818336</v>
       </c>
       <c r="V75">
-        <v>14.2447575749396</v>
+        <v>11.39109286094025</v>
       </c>
       <c r="W75">
-        <v>0.1321198144414737</v>
+        <v>2.757576679072365</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>0.0008990668082461195</v>
       </c>
       <c r="Y75">
-        <v>0.00177941969561906</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>1.50042795052078</v>
+        <v>0.3289787191353817</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -5483,67 +5558,67 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.497752119638706E-06</v>
+        <v>5.71338091915966E-06</v>
       </c>
       <c r="C76">
-        <v>0.09753256970119388</v>
+        <v>0.1283716597658351</v>
       </c>
       <c r="D76">
-        <v>0.005478434494672683</v>
+        <v>0.005226812530404674</v>
       </c>
       <c r="E76">
-        <v>0.1021083966935584</v>
+        <v>0.13620387822882</v>
       </c>
       <c r="F76">
-        <v>8.798045824229124</v>
+        <v>11.04804407895198</v>
       </c>
       <c r="K76">
-        <v>8.170043386659517</v>
+        <v>6.915067304404814</v>
       </c>
       <c r="L76">
-        <v>8.138122963933409</v>
+        <v>5.626084808350047</v>
       </c>
       <c r="M76">
-        <v>8.176638352055605</v>
+        <v>6.939735828454459</v>
       </c>
       <c r="N76">
-        <v>0.02984260582442622</v>
+        <v>0.0206504110922066</v>
       </c>
       <c r="O76">
-        <v>0.002043044560673646</v>
+        <v>0.0007858657718298655</v>
       </c>
       <c r="P76">
-        <v>0.02905071241135166</v>
+        <v>0.02255753408915942</v>
       </c>
       <c r="Q76">
-        <v>0.00192557821185557</v>
+        <v>0.004703175514865782</v>
       </c>
       <c r="R76">
-        <v>1.242938799070087E-05</v>
+        <v>0.003254380014876437</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>4.92874827138995E-05</v>
       </c>
       <c r="T76">
-        <v>0.007138944911058707</v>
+        <v>0.007721764848938537</v>
       </c>
       <c r="U76">
-        <v>0.001903353553954915</v>
+        <v>0.001396889104526178</v>
       </c>
       <c r="V76">
-        <v>14.41039929586656</v>
+        <v>11.50016913270793</v>
       </c>
       <c r="W76">
-        <v>0.1753967349343952</v>
+        <v>2.837454247422475</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>0.0009494644548080105</v>
       </c>
       <c r="Y76">
-        <v>0.001858307408777101</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>1.521385042520389</v>
+        <v>0.3623597465778019</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -5551,67 +5626,67 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.439507222884009E-06</v>
+        <v>5.630546167338005E-06</v>
       </c>
       <c r="C77">
-        <v>0.1012147351094547</v>
+        <v>0.1332974536552523</v>
       </c>
       <c r="D77">
-        <v>0.005761287031886232</v>
+        <v>0.005510422383486755</v>
       </c>
       <c r="E77">
-        <v>0.1060643277815604</v>
+        <v>0.1415923856806574</v>
       </c>
       <c r="F77">
-        <v>8.796939845650758</v>
+        <v>11.04693665417204</v>
       </c>
       <c r="K77">
-        <v>8.167291876194577</v>
+        <v>6.925418137166273</v>
       </c>
       <c r="L77">
-        <v>8.116404559840994</v>
+        <v>5.644156744351269</v>
       </c>
       <c r="M77">
-        <v>8.174082231515703</v>
+        <v>6.950687293227418</v>
       </c>
       <c r="N77">
-        <v>0.03095458827497633</v>
+        <v>0.02144499290502167</v>
       </c>
       <c r="O77">
-        <v>0.002133084208192179</v>
+        <v>0.0008271723455083832</v>
       </c>
       <c r="P77">
-        <v>0.03013571777933151</v>
+        <v>0.02327170843213117</v>
       </c>
       <c r="Q77">
-        <v>0.002020094023164862</v>
+        <v>0.004774513726576013</v>
       </c>
       <c r="R77">
-        <v>1.292656351032891E-05</v>
+        <v>0.003382583716162939</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>5.071787547588255E-05</v>
       </c>
       <c r="T77">
-        <v>0.007348368565342859</v>
+        <v>0.007974759878715031</v>
       </c>
       <c r="U77">
-        <v>0.001972991556051882</v>
+        <v>0.001460653843250315</v>
       </c>
       <c r="V77">
-        <v>14.58452015633994</v>
+        <v>11.61813034145888</v>
       </c>
       <c r="W77">
-        <v>0.2201993249289202</v>
+        <v>2.919731645386307</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>0.001003864427966825</v>
       </c>
       <c r="Y77">
-        <v>0.001943538573056066</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>1.543125487433763</v>
+        <v>0.3968967207405463</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -5619,67 +5694,67 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.377512843386575E-06</v>
+        <v>5.541988285207157E-06</v>
       </c>
       <c r="C78">
-        <v>0.1051919621126868</v>
+        <v>0.1386219132915759</v>
       </c>
       <c r="D78">
-        <v>0.006073799975358164</v>
+        <v>0.005825320226037239</v>
       </c>
       <c r="E78">
-        <v>0.1103410054666971</v>
+        <v>0.1474211818500665</v>
       </c>
       <c r="F78">
-        <v>8.796913494995524</v>
+        <v>11.04691020695608</v>
       </c>
       <c r="K78">
-        <v>8.164479839586511</v>
+        <v>6.936082761536359</v>
       </c>
       <c r="L78">
-        <v>8.093707701917078</v>
+        <v>5.66313304691098</v>
       </c>
       <c r="M78">
-        <v>8.171481791213509</v>
+        <v>6.961990617862335</v>
       </c>
       <c r="N78">
-        <v>0.032155484277759</v>
+        <v>0.02230406876166806</v>
       </c>
       <c r="O78">
-        <v>0.002232109041538217</v>
+        <v>0.0008729568749526594</v>
       </c>
       <c r="P78">
-        <v>0.03130720210250512</v>
+        <v>0.02404242487819596</v>
       </c>
       <c r="Q78">
-        <v>0.002124088258430849</v>
+        <v>0.004852343014229662</v>
       </c>
       <c r="R78">
-        <v>1.346517032325928E-05</v>
+        <v>0.0035214114595249</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>5.226617864438005E-05</v>
       </c>
       <c r="T78">
-        <v>0.007572342607396649</v>
+        <v>0.00824618096352606</v>
       </c>
       <c r="U78">
-        <v>0.002048813247227982</v>
+        <v>0.001530801113896176</v>
       </c>
       <c r="V78">
-        <v>14.76791499076294</v>
+        <v>11.74579169295681</v>
       </c>
       <c r="W78">
-        <v>0.2666642120008653</v>
+        <v>3.004594793376029</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>0.001062768331703349</v>
       </c>
       <c r="Y78">
-        <v>0.002035905320986513</v>
+        <v>0</v>
       </c>
       <c r="Z78">
-        <v>1.565718505667713</v>
+        <v>0.432682156006031</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -5687,67 +5762,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.310520125267195E-06</v>
+        <v>5.446190729801093E-06</v>
       </c>
       <c r="C79">
-        <v>0.1095014474230054</v>
+        <v>0.1443956782074689</v>
       </c>
       <c r="D79">
-        <v>0.006421900282685722</v>
+        <v>0.006177735672083147</v>
       </c>
       <c r="E79">
-        <v>0.1149777058159245</v>
+        <v>0.153744081060069</v>
       </c>
       <c r="F79">
-        <v>8.796886203944542</v>
+        <v>11.04688280955294</v>
       </c>
       <c r="K79">
-        <v>8.16160252877682</v>
+        <v>6.947079675641476</v>
       </c>
       <c r="L79">
-        <v>8.069943221522632</v>
+        <v>5.683158944800006</v>
       </c>
       <c r="M79">
-        <v>8.168828533593453</v>
+        <v>6.973658724447278</v>
       </c>
       <c r="N79">
-        <v>0.03345650059237729</v>
+        <v>0.02323585623500351</v>
       </c>
       <c r="O79">
-        <v>0.002341848757478253</v>
+        <v>0.0009240997493888499</v>
       </c>
       <c r="P79">
-        <v>0.03257603313920401</v>
+        <v>0.0248767762635858</v>
       </c>
       <c r="Q79">
-        <v>0.002239373103040739</v>
+        <v>0.004937818327905507</v>
       </c>
       <c r="R79">
-        <v>1.405061251122708E-05</v>
+        <v>0.003672243863041445</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>5.395982630465536E-05</v>
       </c>
       <c r="T79">
-        <v>0.007812496057838765</v>
+        <v>0.008538154000466491</v>
       </c>
       <c r="U79">
-        <v>0.002131946740969448</v>
+        <v>0.001608548280414056</v>
       </c>
       <c r="V79">
-        <v>14.96154051380089</v>
+        <v>11.88414526044302</v>
       </c>
       <c r="W79">
-        <v>0.3149246813558833</v>
+        <v>3.092236545908463</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>0.001126762338118377</v>
       </c>
       <c r="Y79">
-        <v>0.002136328928093806</v>
+        <v>0</v>
       </c>
       <c r="Z79">
-        <v>1.589233849725569</v>
+        <v>0.4698140401512951</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -5755,67 +5830,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.237912248345444E-06</v>
+        <v>5.342255399823844E-06</v>
       </c>
       <c r="C80">
-        <v>0.114186881383929</v>
+        <v>0.1506783119590773</v>
       </c>
       <c r="D80">
-        <v>0.006811937829397029</v>
+        <v>0.006574665346990597</v>
       </c>
       <c r="E80">
-        <v>0.1200213290535905</v>
+        <v>0.1606252857504784</v>
       </c>
       <c r="F80">
-        <v>8.796857882387394</v>
+        <v>11.04685437037319</v>
       </c>
       <c r="K80">
-        <v>8.158650732149656</v>
+        <v>6.958435798250964</v>
       </c>
       <c r="L80">
-        <v>8.045087405911799</v>
+        <v>5.704368430831759</v>
       </c>
       <c r="M80">
-        <v>8.166117884473163</v>
+        <v>6.985726470121562</v>
       </c>
       <c r="N80">
-        <v>0.03487080294850907</v>
+        <v>0.02425002698434963</v>
       </c>
       <c r="O80">
-        <v>0.002464157960763344</v>
+        <v>0.0009815899307401546</v>
       </c>
       <c r="P80">
-        <v>0.03395497223175688</v>
+        <v>0.02578309253338945</v>
       </c>
       <c r="Q80">
-        <v>0.002367892428559846</v>
+        <v>0.005032099147359731</v>
       </c>
       <c r="R80">
-        <v>1.468927671628285E-05</v>
+        <v>0.003836711319256753</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>5.582314164445717E-05</v>
       </c>
       <c r="T80">
-        <v>0.008070702844969189</v>
+        <v>0.008853136078650693</v>
       </c>
       <c r="U80">
-        <v>0.002223542993102316</v>
+        <v>0.001695212759987427</v>
       </c>
       <c r="V80">
-        <v>15.16650912598514</v>
+        <v>12.03436653537645</v>
       </c>
       <c r="W80">
-        <v>0.3651302491634851</v>
+        <v>3.182890457470823</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>0.001196541374980691</v>
       </c>
       <c r="Y80">
-        <v>0.002245900165152668</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>1.613747713264345</v>
+        <v>0.508409040739374</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -5823,67 +5898,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.158970333513514E-06</v>
+        <v>5.229136357986141E-06</v>
       </c>
       <c r="C81">
-        <v>0.1192999739341448</v>
+        <v>0.1575403903691767</v>
       </c>
       <c r="D81">
-        <v>0.007251844310948882</v>
+        <v>0.00702492941899666</v>
       </c>
       <c r="E81">
-        <v>0.125527159418773</v>
+        <v>0.1681403409854962</v>
       </c>
       <c r="F81">
-        <v>8.796828426682216</v>
+        <v>11.04682478399136</v>
       </c>
       <c r="K81">
-        <v>8.155622567483608</v>
+        <v>6.970175851105482</v>
       </c>
       <c r="L81">
-        <v>8.019151857544433</v>
+        <v>5.726903720935481</v>
       </c>
       <c r="M81">
-        <v>8.163348043597312</v>
+        <v>6.998216966488667</v>
       </c>
       <c r="N81">
-        <v>0.0364139765193541</v>
+        <v>0.02535804779642628</v>
       </c>
       <c r="O81">
-        <v>0.002601348697462221</v>
+        <v>0.001046666969473297</v>
       </c>
       <c r="P81">
-        <v>0.03545911888905198</v>
+        <v>0.02677123507558135</v>
       </c>
       <c r="Q81">
-        <v>0.002512058265167989</v>
+        <v>0.005136753112196185</v>
       </c>
       <c r="R81">
-        <v>1.538876608372489E-05</v>
+        <v>0.004016753613428767</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>5.788817516900151E-05</v>
       </c>
       <c r="T81">
-        <v>0.008349139028391421</v>
+        <v>0.009193989570015611</v>
       </c>
       <c r="U81">
-        <v>0.002325013855303012</v>
+        <v>0.001792433352195073</v>
       </c>
       <c r="V81">
-        <v>15.38412487599346</v>
+        <v>12.19785924990431</v>
       </c>
       <c r="W81">
-        <v>0.4174633708548541</v>
+        <v>3.276809060884119</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>0.001272931549009552</v>
       </c>
       <c r="Y81">
-        <v>0.002365918311136897</v>
+        <v>0</v>
       </c>
       <c r="Z81">
-        <v>1.639354019405797</v>
+        <v>0.5485948126507854</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -5891,67 +5966,67 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.072852717742984E-06</v>
+        <v>5.10561032465041E-06</v>
       </c>
       <c r="C82">
-        <v>0.1249023804153047</v>
+        <v>0.1650661634166857</v>
       </c>
       <c r="D82">
-        <v>0.007751650549090153</v>
+        <v>0.007539797165558955</v>
       </c>
       <c r="E82">
-        <v>0.1315607917485244</v>
+        <v>0.1763786842455927</v>
       </c>
       <c r="F82">
-        <v>8.796797716836018</v>
+        <v>11.04679392824422</v>
       </c>
       <c r="K82">
-        <v>8.152509366291737</v>
+        <v>6.982332571240814</v>
       </c>
       <c r="L82">
-        <v>7.992150286043033</v>
+        <v>5.750946290230038</v>
       </c>
       <c r="M82">
-        <v>8.160511971219071</v>
+        <v>7.011166277911679</v>
       </c>
       <c r="N82">
-        <v>0.03810460791044869</v>
+        <v>0.02657361683777393</v>
       </c>
       <c r="O82">
-        <v>0.002756331082776359</v>
+        <v>0.001120915304567879</v>
       </c>
       <c r="P82">
-        <v>0.03710647192024619</v>
+        <v>0.02785295917375061</v>
       </c>
       <c r="Q82">
-        <v>0.002674912685293235</v>
+        <v>0.005253655167745031</v>
       </c>
       <c r="R82">
-        <v>1.615820438791114E-05</v>
+        <v>0.004214696885341756</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>6.019478632298966E-05</v>
       </c>
       <c r="T82">
-        <v>0.008650345287045842</v>
+        <v>0.009564067380906639</v>
       </c>
       <c r="U82">
-        <v>0.002438101809734253</v>
+        <v>0.00190227384536451</v>
       </c>
       <c r="V82">
-        <v>15.61592882142794</v>
+        <v>12.3763148004907</v>
       </c>
       <c r="W82">
-        <v>0.4721231230894105</v>
+        <v>3.374293270415983</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>0.001356925917765001</v>
       </c>
       <c r="Y82">
-        <v>0.002497939006865761</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>1.666154348309584</v>
+        <v>0.5905217710612245</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -5959,67 +6034,67 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.978569480026064E-06</v>
+        <v>4.970240950494794E-06</v>
       </c>
       <c r="C83">
-        <v>0.1310682083030002</v>
+        <v>0.173357024798324</v>
       </c>
       <c r="D83">
-        <v>0.008324217719607681</v>
+        <v>0.008133884591255015</v>
       </c>
       <c r="E83">
-        <v>0.1382006042463656</v>
+        <v>0.185446894600265</v>
       </c>
       <c r="F83">
-        <v>8.796765612917724</v>
+        <v>11.04676166053649</v>
       </c>
       <c r="K83">
-        <v>8.149301847507905</v>
+        <v>6.994937530197904</v>
       </c>
       <c r="L83">
-        <v>7.964182273152</v>
+        <v>5.776709676887137</v>
       </c>
       <c r="M83">
-        <v>8.157609691561889</v>
+        <v>7.024608500681628</v>
       </c>
       <c r="N83">
-        <v>0.03996504353295777</v>
+        <v>0.02791323270794267</v>
       </c>
       <c r="O83">
-        <v>0.002932828862456792</v>
+        <v>0.001206382152478443</v>
       </c>
       <c r="P83">
-        <v>0.03891865924840161</v>
+        <v>0.02904239622669827</v>
       </c>
       <c r="Q83">
-        <v>0.002860321527382606</v>
+        <v>0.005385239274139922</v>
       </c>
       <c r="R83">
-        <v>1.70086361978012E-05</v>
+        <v>0.00443335489055327</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>6.279501352612672E-05</v>
       </c>
       <c r="T83">
-        <v>0.008977305470062242</v>
+        <v>0.009967319672250962</v>
       </c>
       <c r="U83">
-        <v>0.002564996027677243</v>
+        <v>0.002027369149652271</v>
       </c>
       <c r="V83">
-        <v>15.86376090096889</v>
+        <v>12.57179229262835</v>
       </c>
       <c r="W83">
-        <v>0.5293418978496618</v>
+        <v>3.475676109493925</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>0.001449724908295439</v>
       </c>
       <c r="Y83">
-        <v>0.002643843810425879</v>
+        <v>0</v>
       </c>
       <c r="Z83">
-        <v>1.694266305111046</v>
+        <v>0.6343575226777567</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -6027,67 +6102,67 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.874951263650158E-06</v>
+        <v>4.821335636874881E-06</v>
       </c>
       <c r="C84">
-        <v>0.1378873188909664</v>
+        <v>0.1825360881431612</v>
       </c>
       <c r="D84">
-        <v>0.0089862914365139</v>
+        <v>0.008826470877178574</v>
       </c>
       <c r="E84">
-        <v>0.1455409634265066</v>
+        <v>0.1954728681928775</v>
       </c>
       <c r="F84">
-        <v>8.796731950439817</v>
+        <v>11.04672781307412</v>
       </c>
       <c r="K84">
-        <v>8.145997031608458</v>
+        <v>7.008032111678435</v>
       </c>
       <c r="L84">
-        <v>7.935367720604011</v>
+        <v>5.80445948196235</v>
       </c>
       <c r="M84">
-        <v>8.154636477444448</v>
+        <v>7.038588531751905</v>
       </c>
       <c r="N84">
-        <v>0.04202238879243005</v>
+        <v>0.02939694662769069</v>
       </c>
       <c r="O84">
-        <v>0.003135670360300352</v>
+        <v>0.001305765682411321</v>
       </c>
       <c r="P84">
-        <v>0.04092190023290267</v>
+        <v>0.03035668272406263</v>
       </c>
       <c r="Q84">
-        <v>0.003073298595892871</v>
+        <v>0.005534598680912052</v>
       </c>
       <c r="R84">
-        <v>1.795356043101238E-05</v>
+        <v>0.004676163772610335</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>6.575650029416284E-05</v>
       </c>
       <c r="T84">
-        <v>0.009333544883528076</v>
+        <v>0.01040842803461756</v>
       </c>
       <c r="U84">
-        <v>0.002708469396240582</v>
+        <v>0.002172806516158105</v>
       </c>
       <c r="V84">
-        <v>16.12984046494188</v>
+        <v>12.78711036257128</v>
       </c>
       <c r="W84">
-        <v>0.5894021507730365</v>
+        <v>3.581357902269847</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>0.001552798580193038</v>
       </c>
       <c r="Y84">
-        <v>0.002805936552884684</v>
+        <v>0</v>
       </c>
       <c r="Z84">
-        <v>1.723833398334348</v>
+        <v>0.6803016639483515</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -6095,67 +6170,67 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.760611378717622E-06</v>
+        <v>4.65689422768457E-06</v>
       </c>
       <c r="C85">
-        <v>0.1454697322706401</v>
+        <v>0.1927543009235131</v>
       </c>
       <c r="D85">
-        <v>0.009760054917535994</v>
+        <v>0.00964347622440871</v>
       </c>
       <c r="E85">
-        <v>0.1536964218971233</v>
+        <v>0.2066112339624013</v>
       </c>
       <c r="F85">
-        <v>8.796696534336213</v>
+        <v>11.04669218663936</v>
       </c>
       <c r="K85">
-        <v>8.142579451318372</v>
+        <v>7.021655942027476</v>
       </c>
       <c r="L85">
-        <v>7.905890923785175</v>
+        <v>5.834519565685881</v>
       </c>
       <c r="M85">
-        <v>8.151585541712224</v>
+        <v>7.053148708925657</v>
       </c>
       <c r="N85">
-        <v>0.04430984281784944</v>
+        <v>0.03104936903623653</v>
       </c>
       <c r="O85">
-        <v>0.003371225913970479</v>
+        <v>0.001422681557925552</v>
       </c>
       <c r="P85">
-        <v>0.04314828856449149</v>
+        <v>0.0318168053148362</v>
       </c>
       <c r="Q85">
-        <v>0.003320447346198832</v>
+        <v>0.005705886393012925</v>
       </c>
       <c r="R85">
-        <v>1.900965222107193E-05</v>
+        <v>0.004947364200393639</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>6.916902113517895E-05</v>
       </c>
       <c r="T85">
-        <v>0.009723255206309693</v>
+        <v>0.01089287635923282</v>
       </c>
       <c r="U85">
-        <v>0.002872090348566296</v>
+        <v>0.002342752181690746</v>
       </c>
       <c r="V85">
-        <v>16.41687638647545</v>
+        <v>13.02564834417959</v>
       </c>
       <c r="W85">
-        <v>0.6526165412656226</v>
+        <v>3.691787617751576</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>0.0016679596753448</v>
       </c>
       <c r="Y85">
-        <v>0.002987054538519249</v>
+        <v>0</v>
       </c>
       <c r="Z85">
-        <v>1.755012429971518</v>
+        <v>0.7285792173715366</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -6163,67 +6238,67 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.633900420568158E-06</v>
+        <v>4.474549721642402E-06</v>
       </c>
       <c r="C86">
-        <v>0.153951587105209</v>
+        <v>0.204198727467207</v>
       </c>
       <c r="D86">
-        <v>0.01067547424722541</v>
+        <v>0.01062051550776823</v>
       </c>
       <c r="E86">
-        <v>0.1628072795678409</v>
+        <v>0.2190504484419049</v>
       </c>
       <c r="F86">
-        <v>8.796659130993937</v>
+        <v>11.04665454234272</v>
       </c>
       <c r="K86">
-        <v>8.139043092988942</v>
+        <v>7.035861135626573</v>
       </c>
       <c r="L86">
-        <v>7.876024332350777</v>
+        <v>5.867304847997014</v>
       </c>
       <c r="M86">
-        <v>8.14845385178001</v>
+        <v>7.06834357087471</v>
       </c>
       <c r="N86">
-        <v>0.04686850637434185</v>
+        <v>0.03290103700363096</v>
       </c>
       <c r="O86">
-        <v>0.00364807981367343</v>
+        <v>0.001562088273574878</v>
       </c>
       <c r="P86">
-        <v>0.04563752864063475</v>
+        <v>0.03344873774745013</v>
       </c>
       <c r="Q86">
-        <v>0.003610631556846586</v>
+        <v>0.005904629788848753</v>
       </c>
       <c r="R86">
-        <v>2.019775548488892E-05</v>
+        <v>0.005252251399097289</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>7.315719001452415E-05</v>
       </c>
       <c r="T86">
-        <v>0.01015145300991865</v>
+        <v>0.01142725912032919</v>
       </c>
       <c r="U86">
-        <v>0.003060533443822339</v>
+        <v>0.002542247118610872</v>
       </c>
       <c r="V86">
-        <v>16.72822059465098</v>
+        <v>13.29145747399932</v>
       </c>
       <c r="W86">
-        <v>0.7193777111215347</v>
+        <v>3.807512323549275</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>0.001797477975788128</v>
       </c>
       <c r="Y86">
-        <v>0.003190748173133403</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>1.787999199585895</v>
+        <v>0.7794613449207635</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -6231,67 +6306,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.492853817189201E-06</v>
+        <v>4.271503768146982E-06</v>
       </c>
       <c r="C87">
-        <v>0.1635033279624079</v>
+        <v>0.2171039415978362</v>
       </c>
       <c r="D87">
-        <v>0.01177393743691858</v>
+        <v>0.01180775995548717</v>
       </c>
       <c r="E87">
-        <v>0.1730470445737339</v>
+        <v>0.2330221947942525</v>
       </c>
       <c r="F87">
-        <v>8.796619457537467</v>
+        <v>11.04661459050043</v>
       </c>
       <c r="K87">
-        <v>8.135371546287553</v>
+        <v>7.050701951010655</v>
       </c>
       <c r="L87">
-        <v>7.846139789706798</v>
+        <v>5.90332337258945</v>
       </c>
       <c r="M87">
-        <v>8.145236976065625</v>
+        <v>7.084215218378948</v>
       </c>
       <c r="N87">
-        <v>0.04974986814505308</v>
+        <v>0.03499030025230136</v>
       </c>
       <c r="O87">
-        <v>0.00397804324622368</v>
+        <v>0.001730945325918686</v>
       </c>
       <c r="P87">
-        <v>0.04843932177955396</v>
+        <v>0.03528501161135689</v>
       </c>
       <c r="Q87">
-        <v>0.003956018188852095</v>
+        <v>0.006138651145704029</v>
       </c>
       <c r="R87">
-        <v>2.154427251721484E-05</v>
+        <v>0.005597524346369474</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>7.789894672071763E-05</v>
       </c>
       <c r="T87">
-        <v>0.01062418098099174</v>
+        <v>0.01201959325377708</v>
       </c>
       <c r="U87">
-        <v>0.00328002588288092</v>
+        <v>0.002779577274615797</v>
       </c>
       <c r="V87">
-        <v>17.06808364174858</v>
+        <v>13.58975049400679</v>
       </c>
       <c r="W87">
-        <v>0.7901402247343654</v>
+        <v>3.929170126734519</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>0.001944227191109664</v>
       </c>
       <c r="Y87">
-        <v>0.003421509773822349</v>
+        <v>0</v>
       </c>
       <c r="Z87">
-        <v>1.823018708153006</v>
+        <v>0.8332639997293354</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -6299,67 +6374,67 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.639780807390958E-06</v>
+        <v>7.484152424726055E-06</v>
       </c>
       <c r="C88">
-        <v>0.1743411415713715</v>
+        <v>0.2317679545722897</v>
       </c>
       <c r="D88">
-        <v>0.006891548013494821</v>
+        <v>0.007389447190186325</v>
       </c>
       <c r="E88">
-        <v>0.186336129320225</v>
+        <v>0.2499497502858799</v>
       </c>
       <c r="F88">
-        <v>13.79661945753747</v>
+        <v>16.04661459050043</v>
       </c>
       <c r="K88">
-        <v>8.131550027972134</v>
+        <v>7.06624332075236</v>
       </c>
       <c r="L88">
-        <v>7.799137784116104</v>
+        <v>5.711160424034743</v>
       </c>
       <c r="M88">
-        <v>8.141389696932444</v>
+        <v>7.101777673369086</v>
       </c>
       <c r="N88">
-        <v>0.05301928420925518</v>
+        <v>0.03736596846132869</v>
       </c>
       <c r="O88">
-        <v>0.002605039327141453</v>
+        <v>0.001106278073288486</v>
       </c>
       <c r="P88">
-        <v>0.05161670060746124</v>
+        <v>0.03736689450176067</v>
       </c>
       <c r="Q88">
-        <v>0.002604058869630855</v>
+        <v>0.005585347840597767</v>
       </c>
       <c r="R88">
-        <v>2.308314912558734E-05</v>
+        <v>0.005991783303487244</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>4.626945452123586E-05</v>
       </c>
       <c r="T88">
-        <v>0.01114876348799965</v>
+        <v>0.01267959439514574</v>
       </c>
       <c r="U88">
-        <v>0.002290095588053382</v>
+        <v>0.001836176575641594</v>
       </c>
       <c r="V88">
-        <v>17.24070945373096</v>
+        <v>13.72925531592987</v>
       </c>
       <c r="W88">
-        <v>0.8654676301964805</v>
+        <v>4.057535713925279</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>0.002111994835643693</v>
       </c>
       <c r="Y88">
-        <v>0.003685168295283033</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>1.860345973164915</v>
+        <v>0.8903677138170076</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -6367,67 +6442,67 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.430977664278723E-06</v>
+        <v>7.193063146919202E-06</v>
       </c>
       <c r="C89">
-        <v>0.187221879537362</v>
+        <v>0.2490278397555285</v>
       </c>
       <c r="D89">
-        <v>0.007648078143237602</v>
+        <v>0.008266111502524117</v>
       </c>
       <c r="E89">
-        <v>0.2005289397660584</v>
+        <v>0.2690497168408185</v>
       </c>
       <c r="F89">
-        <v>13.79533181744587</v>
+        <v>16.0453249250898</v>
       </c>
       <c r="K89">
-        <v>8.126391844587273</v>
+        <v>7.082834571848917</v>
       </c>
       <c r="L89">
-        <v>7.742048871820041</v>
+        <v>5.744130635592946</v>
       </c>
       <c r="M89">
-        <v>8.13626838861869</v>
+        <v>7.114772175354709</v>
       </c>
       <c r="N89">
-        <v>0.05689730304634086</v>
+        <v>0.04015517541425487</v>
       </c>
       <c r="O89">
-        <v>0.002848978217393636</v>
+        <v>0.001236165385080242</v>
       </c>
       <c r="P89">
-        <v>0.05538690381806358</v>
+        <v>0.03981162886031166</v>
       </c>
       <c r="Q89">
-        <v>0.00287279170825057</v>
+        <v>0.005854393759078763</v>
       </c>
       <c r="R89">
-        <v>2.485877598140175E-05</v>
+        <v>0.006449130522638475</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>5.02277009935475E-05</v>
       </c>
       <c r="T89">
-        <v>0.01183019948030321</v>
+        <v>0.01351370345818453</v>
       </c>
       <c r="U89">
-        <v>0.002472049364213884</v>
+        <v>0.002029259320922643</v>
       </c>
       <c r="V89">
-        <v>17.43838188768857</v>
+        <v>13.89633141853802</v>
       </c>
       <c r="W89">
-        <v>0.9418027255506018</v>
+        <v>4.193463940320569</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>0.002305902486746258</v>
       </c>
       <c r="Y89">
-        <v>0.003989777461088581</v>
+        <v>0</v>
       </c>
       <c r="Z89">
-        <v>1.899700111297442</v>
+        <v>0.9519074544568742</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -6435,67 +6510,67 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.190778335170777E-06</v>
+        <v>6.85841638809942E-06</v>
       </c>
       <c r="C90">
-        <v>0.2021863629868723</v>
+        <v>0.2690913171099455</v>
       </c>
       <c r="D90">
-        <v>0.008585227567729926</v>
+        <v>0.009368910578336168</v>
       </c>
       <c r="E90">
-        <v>0.2170136229748411</v>
+        <v>0.2911929888638572</v>
       </c>
       <c r="F90">
-        <v>13.79529039389038</v>
+        <v>16.0452832732833</v>
       </c>
       <c r="K90">
-        <v>8.120952980861205</v>
+        <v>7.100631554783559</v>
       </c>
       <c r="L90">
-        <v>7.690761704771891</v>
+        <v>5.785332219505203</v>
       </c>
       <c r="M90">
-        <v>8.131118454968691</v>
+        <v>7.133806575286754</v>
       </c>
       <c r="N90">
-        <v>0.0614013301154198</v>
+        <v>0.04339842625001943</v>
       </c>
       <c r="O90">
-        <v>0.003143255940727166</v>
+        <v>0.001395242179754305</v>
       </c>
       <c r="P90">
-        <v>0.05976307982721468</v>
+        <v>0.04264139845208108</v>
       </c>
       <c r="Q90">
-        <v>0.003194379778496539</v>
+        <v>0.006111500535771666</v>
       </c>
       <c r="R90">
-        <v>2.693034064651856E-05</v>
+        <v>0.00698237242444222</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>5.373476740890254E-05</v>
       </c>
       <c r="T90">
-        <v>0.01261004532331066</v>
+        <v>0.01447074046962302</v>
       </c>
       <c r="U90">
-        <v>0.002691566202866318</v>
+        <v>0.002269048721871107</v>
       </c>
       <c r="V90">
-        <v>17.66617011443769</v>
+        <v>14.09740231992676</v>
       </c>
       <c r="W90">
-        <v>1.023733429033271</v>
+        <v>4.33885732177815</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>0.002532240049413397</v>
       </c>
       <c r="Y90">
-        <v>0.004344938099334346</v>
+        <v>0</v>
       </c>
       <c r="Z90">
-        <v>1.942085177359401</v>
+        <v>1.018169033575277</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -6503,67 +6578,67 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.910632491948735E-06</v>
+        <v>6.469116418268157E-06</v>
       </c>
       <c r="C91">
-        <v>0.2197864662067944</v>
+        <v>0.2927024449764555</v>
       </c>
       <c r="D91">
-        <v>0.009775960886149083</v>
+        <v>0.01079652690929989</v>
       </c>
       <c r="E91">
-        <v>0.2363724787437676</v>
+        <v>0.3171298141427467</v>
       </c>
       <c r="F91">
-        <v>13.79524536745307</v>
+        <v>16.04523797127781</v>
       </c>
       <c r="K91">
-        <v>8.115154914781984</v>
+        <v>7.119488782683223</v>
       </c>
       <c r="L91">
-        <v>7.641575057831095</v>
+        <v>5.832072711164348</v>
       </c>
       <c r="M91">
-        <v>8.125649499265354</v>
+        <v>7.153961621529528</v>
       </c>
       <c r="N91">
-        <v>0.0666975186767555</v>
+        <v>0.04721689752913444</v>
       </c>
       <c r="O91">
-        <v>0.003512443644551198</v>
+        <v>0.001600062158098121</v>
       </c>
       <c r="P91">
-        <v>0.06490568892255269</v>
+        <v>0.04596229826265467</v>
       </c>
       <c r="Q91">
-        <v>0.003596739848304895</v>
+        <v>0.006427201566829837</v>
       </c>
       <c r="R91">
-        <v>2.93785534325657E-05</v>
+        <v>0.007612248575081612</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>5.814564473271033E-05</v>
       </c>
       <c r="T91">
-        <v>0.01351172524335105</v>
+        <v>0.0155799851739641</v>
       </c>
       <c r="U91">
-        <v>0.0029617801460341</v>
+        <v>0.002573503665609889</v>
       </c>
       <c r="V91">
-        <v>17.93096268678931</v>
+        <v>14.34140184813713</v>
       </c>
       <c r="W91">
-        <v>1.112170304558735</v>
+        <v>4.494533577282134</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>0.002799738943329614</v>
       </c>
       <c r="Y91">
-        <v>0.00476437894452861</v>
+        <v>0</v>
       </c>
       <c r="Z91">
-        <v>1.98799597758287</v>
+        <v>1.089652481478984</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -6571,67 +6646,67 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.580344312474674E-06</v>
+        <v>6.011932592166926E-06</v>
       </c>
       <c r="C92">
-        <v>0.240787516738859</v>
+        <v>0.320893036783171</v>
       </c>
       <c r="D92">
-        <v>0.01133549529642071</v>
+        <v>0.01271072554304113</v>
       </c>
       <c r="E92">
-        <v>0.2593981098315765</v>
+        <v>0.3478687306408377</v>
       </c>
       <c r="F92">
-        <v>13.79519596979617</v>
+        <v>16.04518823504224</v>
       </c>
       <c r="K92">
-        <v>8.108928412657161</v>
+        <v>7.139544255579303</v>
       </c>
       <c r="L92">
-        <v>7.596006617548755</v>
+        <v>5.88598174660287</v>
       </c>
       <c r="M92">
-        <v>8.119812578779261</v>
+        <v>7.175338658658079</v>
       </c>
       <c r="N92">
-        <v>0.07301602617997593</v>
+        <v>0.05177858106623807</v>
       </c>
       <c r="O92">
-        <v>0.003989506883977739</v>
+        <v>0.001872938465646663</v>
       </c>
       <c r="P92">
-        <v>0.07103658382997748</v>
+        <v>0.04991580793223716</v>
       </c>
       <c r="Q92">
-        <v>0.00411460807980823</v>
+        <v>0.006826880667744546</v>
       </c>
       <c r="R92">
-        <v>3.231640877582228E-05</v>
+        <v>0.008367658868116502</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>6.390395333756219E-05</v>
       </c>
       <c r="T92">
-        <v>0.01456671975308275</v>
+        <v>0.01688063332479952</v>
       </c>
       <c r="U92">
-        <v>0.003303196084324776</v>
+        <v>0.002972275503001813</v>
       </c>
       <c r="V92">
-        <v>18.24250244119244</v>
+        <v>14.64143646598791</v>
       </c>
       <c r="W92">
-        <v>1.208353531903107</v>
+        <v>4.662358212635638</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>0.003120770875378432</v>
       </c>
       <c r="Y92">
-        <v>0.005267325350120015</v>
+        <v>0</v>
       </c>
       <c r="Z92">
-        <v>2.038094390362945</v>
+        <v>1.167304749583105</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -6639,67 +6714,67 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.186364922368657E-06</v>
+        <v>5.469883841380087E-06</v>
       </c>
       <c r="C93">
-        <v>0.2662821857880188</v>
+        <v>0.3551355158098521</v>
       </c>
       <c r="D93">
-        <v>0.01345865967004097</v>
+        <v>0.01539719709524355</v>
       </c>
       <c r="E93">
-        <v>0.2871901122770928</v>
+        <v>0.384787019875143</v>
       </c>
       <c r="F93">
-        <v>13.79514116498967</v>
+        <v>16.04513300539586</v>
       </c>
       <c r="K93">
-        <v>8.102178293030775</v>
+        <v>7.160959826428861</v>
       </c>
       <c r="L93">
-        <v>7.555764318151993</v>
+        <v>5.94951338256688</v>
       </c>
       <c r="M93">
-        <v>8.113538970192645</v>
+        <v>7.198029218615452</v>
       </c>
       <c r="N93">
-        <v>0.08068563943508686</v>
+        <v>0.05732365246630379</v>
       </c>
       <c r="O93">
-        <v>0.004629825327284138</v>
+        <v>0.002253131038823772</v>
       </c>
       <c r="P93">
-        <v>0.07847235891332963</v>
+        <v>0.05470346651718079</v>
       </c>
       <c r="Q93">
-        <v>0.004805909648261122</v>
+        <v>0.007354088598122785</v>
       </c>
       <c r="R93">
-        <v>3.590712086202476E-05</v>
+        <v>0.009290298303091941</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>7.179203322674614E-05</v>
       </c>
       <c r="T93">
-        <v>0.01581822238294475</v>
+        <v>0.01842600641611038</v>
       </c>
       <c r="U93">
-        <v>0.003749079268106267</v>
+        <v>0.003515770504217415</v>
       </c>
       <c r="V93">
-        <v>18.6151746931951</v>
+        <v>15.01771933629881</v>
       </c>
       <c r="W93">
-        <v>1.313925685581165</v>
+        <v>4.844776677140366</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>0.003513214022040273</v>
       </c>
       <c r="Y93">
-        <v>0.005881537340310415</v>
+        <v>0</v>
       </c>
       <c r="Z93">
-        <v>2.093247927262309</v>
+        <v>1.252355573195132</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -6707,67 +6782,67 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.710731364595459E-06</v>
+        <v>4.82180821055819E-06</v>
       </c>
       <c r="C94">
-        <v>0.2978851265527661</v>
+        <v>0.3976028056491783</v>
       </c>
       <c r="D94">
-        <v>0.01650001160040938</v>
+        <v>0.01940588464335007</v>
       </c>
       <c r="E94">
-        <v>0.3213122553738893</v>
+        <v>0.4298069982681327</v>
       </c>
       <c r="F94">
-        <v>13.79507951191433</v>
+        <v>16.04507080527537</v>
       </c>
       <c r="K94">
-        <v>8.094783073133959</v>
+        <v>7.183923193366524</v>
       </c>
       <c r="L94">
-        <v>7.523150939403268</v>
+        <v>6.026511682415628</v>
       </c>
       <c r="M94">
-        <v>8.106755482220066</v>
+        <v>7.22207857977452</v>
       </c>
       <c r="N94">
-        <v>0.09019261619856221</v>
+        <v>0.06420746764473879</v>
       </c>
       <c r="O94">
-        <v>0.005533579791127114</v>
+        <v>0.002815818661091899</v>
       </c>
       <c r="P94">
-        <v>0.0876806650714632</v>
+        <v>0.06062213875706305</v>
       </c>
       <c r="Q94">
-        <v>0.005774477080123129</v>
+        <v>0.00809044148980294</v>
       </c>
       <c r="R94">
-        <v>4.039551096977786E-05</v>
+        <v>0.01044261158682509</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>8.331476909842184E-05</v>
       </c>
       <c r="T94">
-        <v>0.01732686527229955</v>
+        <v>0.020289785905097</v>
       </c>
       <c r="U94">
-        <v>0.00435700001111303</v>
+        <v>0.004296146316221981</v>
       </c>
       <c r="V94">
-        <v>19.07141934332961</v>
+        <v>15.50347833307609</v>
       </c>
       <c r="W94">
-        <v>1.431156981536361</v>
+        <v>5.0450882277228</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>0.004003899083640509</v>
       </c>
       <c r="Y94">
-        <v>0.006648643187805258</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>2.1546364304957</v>
+        <v>1.346441203439085</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -6775,67 +6850,67 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.129031917515383E-06</v>
+        <v>4.042676240372293E-06</v>
       </c>
       <c r="C95">
-        <v>0.3380830001173886</v>
+        <v>0.4516309372214395</v>
       </c>
       <c r="D95">
-        <v>0.02117498818071521</v>
+        <v>0.02592916441637784</v>
       </c>
       <c r="E95">
-        <v>0.364046368773594</v>
+        <v>0.4856801158146121</v>
       </c>
       <c r="F95">
-        <v>13.79280755038857</v>
+        <v>16.04279187336026</v>
       </c>
       <c r="K95">
-        <v>8.086574366518525</v>
+        <v>7.208644342802113</v>
       </c>
       <c r="L95">
-        <v>7.501673424426277</v>
+        <v>6.123443902251879</v>
       </c>
       <c r="M95">
-        <v>8.099385587371861</v>
+        <v>7.247408433740611</v>
       </c>
       <c r="N95">
-        <v>0.1022867642567672</v>
+        <v>0.07297770321383122</v>
       </c>
       <c r="O95">
-        <v>0.006901832909413939</v>
+        <v>0.003723211830718215</v>
       </c>
       <c r="P95">
-        <v>0.09938154907022609</v>
+        <v>0.06812666693810022</v>
       </c>
       <c r="Q95">
-        <v>0.007226775988454906</v>
+        <v>0.009208644534825844</v>
       </c>
       <c r="R95">
-        <v>4.61662982511747E-05</v>
+        <v>0.01192251113221462</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>0.0001017359141573733</v>
       </c>
       <c r="T95">
-        <v>0.01917970316675478</v>
+        <v>0.02257459156065058</v>
       </c>
       <c r="U95">
-        <v>0.005235829097131509</v>
+        <v>0.005498960501175474</v>
       </c>
       <c r="V95">
-        <v>19.64894894052727</v>
+        <v>16.1581853250856</v>
       </c>
       <c r="W95">
-        <v>1.563298742704639</v>
+        <v>5.267905074932287</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>0.004635004856229151</v>
       </c>
       <c r="Y95">
-        <v>0.007634036715223579</v>
+        <v>0</v>
       </c>
       <c r="Z95">
-        <v>2.223912104359518</v>
+        <v>1.451799664537456</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -6843,67 +6918,67 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.417393183245204E-06</v>
+        <v>3.118785126625552E-06</v>
       </c>
       <c r="C96">
-        <v>0.3909010021068342</v>
+        <v>0.52258123268895</v>
       </c>
       <c r="D96">
-        <v>0.02908703607351248</v>
+        <v>0.03791926429623315</v>
       </c>
       <c r="E96">
-        <v>0.418898168616371</v>
+        <v>0.5566124112246335</v>
       </c>
       <c r="F96">
-        <v>13.79261185440518</v>
+        <v>16.04259378847814</v>
       </c>
       <c r="K96">
-        <v>8.077309287286768</v>
+        <v>7.235350654364638</v>
       </c>
       <c r="L96">
-        <v>7.496596653853369</v>
+        <v>6.251143389910284</v>
       </c>
       <c r="M96">
-        <v>8.09131467565801</v>
+        <v>7.273763685983199</v>
       </c>
       <c r="N96">
-        <v>0.1181842528146595</v>
+        <v>0.08452011844435008</v>
       </c>
       <c r="O96">
-        <v>0.009183089537428005</v>
+        <v>0.005375132713250016</v>
       </c>
       <c r="P96">
-        <v>0.114740677917188</v>
+        <v>0.07794633733864599</v>
       </c>
       <c r="Q96">
-        <v>0.009620002312532135</v>
+        <v>0.01112699095394984</v>
       </c>
       <c r="R96">
-        <v>5.386068129303717E-05</v>
+        <v>0.01389264033522416</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>0.0001349864719546855</v>
       </c>
       <c r="T96">
-        <v>0.02150368217835866</v>
+        <v>0.02542053007056311</v>
       </c>
       <c r="U96">
-        <v>0.006606540458054109</v>
+        <v>0.007529740117888619</v>
       </c>
       <c r="V96">
-        <v>20.41647830281431</v>
+        <v>17.09861694052404</v>
       </c>
       <c r="W96">
-        <v>1.71526310061363</v>
+        <v>5.520013261958781</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>0.005448861977638134</v>
       </c>
       <c r="Y96">
-        <v>0.008946662660168369</v>
+        <v>9.837990154733153E-05</v>
       </c>
       <c r="Z96">
-        <v>2.303486086798026</v>
+        <v>1.571605584642743</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -6911,19 +6986,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.558986759694716E-06</v>
+        <v>2.082787399837242E-06</v>
       </c>
       <c r="C97">
-        <v>0.4632637953134977</v>
+        <v>0.6195136263674921</v>
       </c>
       <c r="D97">
-        <v>0.04454488597593823</v>
+        <v>0.06411321105163319</v>
       </c>
       <c r="E97">
-        <v>0.491563605287847</v>
+        <v>0.6497894748299115</v>
       </c>
       <c r="F97">
-        <v>13.79237540043024</v>
+        <v>16.04235382804302</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6935,31 +7010,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.1399844854701055</v>
+        <v>0.1003491155905699</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.1357648130381189</v>
+        <v>0.09131020661558505</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>6.463281755164448E-05</v>
+        <v>0.01664417110787803</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.02448311052241953</v>
+        <v>0.02899868806109795</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>20.20380665382666</v>
+        <v>16.92050634739358</v>
       </c>
       <c r="W97">
         <v>0</v>

--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Recovery</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>SI_Calcite</t>
+  </si>
+  <si>
+    <t>Pnh4</t>
+  </si>
+  <si>
+    <t>osmotic_pressure</t>
+  </si>
+  <si>
+    <t>NH3_p</t>
+  </si>
+  <si>
+    <t>NH4_p</t>
   </si>
 </sst>
 </file>
@@ -423,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,6497 +520,7364 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.534732375732904E-06</v>
+        <v>5.42908334279434E-06</v>
       </c>
       <c r="C2">
-        <v>0.03668171535821034</v>
+        <v>0.03099832303898501</v>
       </c>
       <c r="D2">
-        <v>0.002535704496452969</v>
+        <v>0.001741046352626919</v>
       </c>
       <c r="E2">
-        <v>0.03885673392660242</v>
+        <v>0.03282488913627535</v>
       </c>
       <c r="F2">
         <v>6.7</v>
       </c>
       <c r="G2">
-        <v>19.0209619183396</v>
+        <v>18.77888735663428</v>
       </c>
       <c r="H2">
-        <v>19.10798355231376</v>
+        <v>19.16450334489229</v>
       </c>
       <c r="I2">
-        <v>18.90747234554232</v>
+        <v>25.89295825661296</v>
       </c>
       <c r="J2">
-        <v>19.27894384402313</v>
+        <v>27.83604795245944</v>
       </c>
       <c r="K2">
-        <v>6.50004121086048</v>
+        <v>8.300025269762747</v>
       </c>
       <c r="L2">
-        <v>5.186890122178355</v>
+        <v>8.980013434689912</v>
       </c>
       <c r="M2">
-        <v>6.521565897723999</v>
+        <v>8.289583058016744</v>
       </c>
       <c r="N2">
-        <v>0.005680021619262197</v>
+        <v>0.01016394586841863</v>
       </c>
       <c r="O2">
-        <v>0.0002318283604299532</v>
+        <v>0.001462489782619887</v>
       </c>
       <c r="P2">
-        <v>0.008761386286703468</v>
+        <v>0.008758905017605265</v>
       </c>
       <c r="Q2">
-        <v>0.003569905484230828</v>
+        <v>0.0005668360567112872</v>
       </c>
       <c r="R2">
-        <v>0.0008728331328645815</v>
+        <v>0.0003193018282950542</v>
       </c>
       <c r="S2">
-        <v>2.598159485517872E-05</v>
+        <v>7.318936203138847E-07</v>
       </c>
       <c r="T2">
-        <v>0.002609286775726215</v>
+        <v>0.01083440680465336</v>
       </c>
       <c r="U2">
-        <v>0.0004957180068267278</v>
+        <v>0.002515306399620824</v>
       </c>
       <c r="V2">
-        <v>6.945504993649283</v>
+        <v>35.24195796508736</v>
       </c>
       <c r="W2">
-        <v>-0.4995814423797675</v>
+        <v>3.07297700129849</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>7.645574593503783E-05</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.000534711156625407</v>
       </c>
       <c r="Z2">
-        <v>-0.9254070582685241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>0.9885182196424349</v>
+      </c>
+      <c r="AA2">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB2">
+        <v>0.7408960769796412</v>
+      </c>
+      <c r="AC2">
+        <v>0.001529468013736741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.527008932763763E-06</v>
+        <v>5.422975226444155E-06</v>
       </c>
       <c r="C3">
-        <v>0.03702662455883415</v>
+        <v>0.03129385108632196</v>
       </c>
       <c r="D3">
-        <v>0.002563970787480316</v>
+        <v>0.001760287788488826</v>
       </c>
       <c r="E3">
-        <v>0.03923863291416005</v>
+        <v>0.03315230024660015</v>
       </c>
       <c r="F3">
-        <v>6.699985236939199</v>
+        <v>6.699985244131857</v>
       </c>
       <c r="K3">
-        <v>6.503557242763681</v>
+        <v>8.297495808105841</v>
       </c>
       <c r="L3">
-        <v>5.192152458437484</v>
+        <v>9.019786445753075</v>
       </c>
       <c r="M3">
-        <v>6.526845936127727</v>
+        <v>8.323403141406736</v>
       </c>
       <c r="N3">
-        <v>0.005735053874401918</v>
+        <v>0.01025183936423478</v>
       </c>
       <c r="O3">
-        <v>0.0002344520005062068</v>
+        <v>0.001547076575624237</v>
       </c>
       <c r="P3">
-        <v>0.008813825486728445</v>
+        <v>0.008841653188927427</v>
       </c>
       <c r="Q3">
-        <v>0.003566727159543499</v>
+        <v>0.0005652664456104517</v>
       </c>
       <c r="R3">
-        <v>0.0008813871888040704</v>
+        <v>0.0003225197064230818</v>
       </c>
       <c r="S3">
-        <v>2.532571592081948E-05</v>
+        <v>4.739524925793556E-07</v>
       </c>
       <c r="T3">
-        <v>0.002630635955210048</v>
+        <v>0.01091843812187591</v>
       </c>
       <c r="U3">
-        <v>0.0005004057309471415</v>
+        <v>0.00259937976235885</v>
       </c>
       <c r="V3">
-        <v>6.97834484497484</v>
+        <v>35.8309339077486</v>
       </c>
       <c r="W3">
-        <v>-0.470860736205907</v>
+        <v>3.083490594366541</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>7.720965363957527E-05</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0005410064423595035</v>
       </c>
       <c r="Z3">
-        <v>-0.9150087638804205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>0.993008288809679</v>
+      </c>
+      <c r="AA3">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB3">
+        <v>0.7475857494349416</v>
+      </c>
+      <c r="AC3">
+        <v>0.001532748299235532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.519055081225148E-06</v>
+        <v>5.416266729421158E-06</v>
       </c>
       <c r="C4">
-        <v>0.03737828429119491</v>
+        <v>0.03159521397711618</v>
       </c>
       <c r="D4">
-        <v>0.002592915470160422</v>
+        <v>0.001780103608226027</v>
       </c>
       <c r="E4">
-        <v>0.03962822421958115</v>
+        <v>0.03348622991345537</v>
       </c>
       <c r="F4">
-        <v>6.699970398569491</v>
+        <v>6.699970413138819</v>
       </c>
       <c r="K4">
-        <v>6.507093570485576</v>
+        <v>8.294651433899794</v>
       </c>
       <c r="L4">
-        <v>5.196443627888327</v>
+        <v>9.015966633345693</v>
       </c>
       <c r="M4">
-        <v>6.530552261379247</v>
+        <v>8.320681568196377</v>
       </c>
       <c r="N4">
-        <v>0.005791182464951874</v>
+        <v>0.01034066347432264</v>
       </c>
       <c r="O4">
-        <v>0.000237119253566663</v>
+        <v>0.001554673138385185</v>
       </c>
       <c r="P4">
-        <v>0.008867367306393597</v>
+        <v>0.00892610611487964</v>
       </c>
       <c r="Q4">
-        <v>0.003571341747953955</v>
+        <v>0.0005720084167551225</v>
       </c>
       <c r="R4">
-        <v>0.0008901225099559403</v>
+        <v>0.000325805887585638</v>
       </c>
       <c r="S4">
-        <v>2.553169525023216E-05</v>
+        <v>4.817788168740346E-07</v>
       </c>
       <c r="T4">
-        <v>0.002652372998314772</v>
+        <v>0.01100332647248323</v>
       </c>
       <c r="U4">
-        <v>0.0005051838664071579</v>
+        <v>0.002616776401525782</v>
       </c>
       <c r="V4">
-        <v>7.011606947393457</v>
+        <v>36.10850732575831</v>
       </c>
       <c r="W4">
-        <v>-0.441929290983218</v>
+        <v>3.09358489241173</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>7.800561209600505E-05</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.0005471867565043556</v>
       </c>
       <c r="Z4">
-        <v>-0.9045263437675821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>0.9972766081754916</v>
+      </c>
+      <c r="AA4">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB4">
+        <v>0.7549343402937768</v>
+      </c>
+      <c r="AC4">
+        <v>0.001548211537801192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.510942580621164E-06</v>
+        <v>5.409422534682816E-06</v>
       </c>
       <c r="C5">
-        <v>0.0377368963408963</v>
+        <v>0.0319025862489604</v>
       </c>
       <c r="D5">
-        <v>0.002622530427806336</v>
+        <v>0.001800375686511064</v>
       </c>
       <c r="E5">
-        <v>0.04002577733146206</v>
+        <v>0.03382705466151188</v>
       </c>
       <c r="F5">
-        <v>6.699955483435412</v>
+        <v>6.69995550557184</v>
       </c>
       <c r="K5">
-        <v>6.510660700637119</v>
+        <v>8.291786691666278</v>
       </c>
       <c r="L5">
-        <v>5.200769813644659</v>
+        <v>9.012334513737061</v>
       </c>
       <c r="M5">
-        <v>6.534292310153373</v>
+        <v>8.318276610385277</v>
       </c>
       <c r="N5">
-        <v>0.005848440848574402</v>
+        <v>0.01043124069428076</v>
       </c>
       <c r="O5">
-        <v>0.0002398392588337943</v>
+        <v>0.001562891505983888</v>
       </c>
       <c r="P5">
-        <v>0.008921965508026994</v>
+        <v>0.009012230833417007</v>
       </c>
       <c r="Q5">
-        <v>0.003576063375395933</v>
+        <v>0.0005787931440131129</v>
       </c>
       <c r="R5">
-        <v>0.0008990358173240404</v>
+        <v>0.0003291597443770685</v>
       </c>
       <c r="S5">
-        <v>2.574125328035545E-05</v>
+        <v>4.874577316533935E-07</v>
       </c>
       <c r="T5">
-        <v>0.002674508968746809</v>
+        <v>0.01108978575156527</v>
       </c>
       <c r="U5">
-        <v>0.0005100636249275476</v>
+        <v>0.002635191800864413</v>
       </c>
       <c r="V5">
-        <v>7.04533057276006</v>
+        <v>36.31179857479655</v>
       </c>
       <c r="W5">
-        <v>-0.4127581163051275</v>
+        <v>3.10378003017891</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.881721150320982E-05</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0005534986383677712</v>
       </c>
       <c r="Z5">
-        <v>-0.8939484036597136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>1.001591433613969</v>
+      </c>
+      <c r="AA5">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB5">
+        <v>0.7624317999364316</v>
+      </c>
+      <c r="AC5">
+        <v>0.001563896202192846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.502666613646892E-06</v>
+        <v>5.402438471533006E-06</v>
       </c>
       <c r="C6">
-        <v>0.03810267098582431</v>
+        <v>0.03221615094231925</v>
       </c>
       <c r="D6">
-        <v>0.002652839178173546</v>
+        <v>0.001821119937351105</v>
       </c>
       <c r="E6">
-        <v>0.04043153891189515</v>
+        <v>0.03417499020872271</v>
       </c>
       <c r="F6">
-        <v>6.699940490036032</v>
+        <v>6.699940519936694</v>
       </c>
       <c r="K6">
-        <v>6.514259090890265</v>
+        <v>8.288896756337444</v>
       </c>
       <c r="L6">
-        <v>5.20514866325811</v>
+        <v>9.008665359041998</v>
       </c>
       <c r="M6">
-        <v>6.538066873674818</v>
+        <v>8.315858416982834</v>
       </c>
       <c r="N6">
-        <v>0.005906863781800867</v>
+        <v>0.01052361933165885</v>
       </c>
       <c r="O6">
-        <v>0.0002426230546510673</v>
+        <v>0.001571299051552018</v>
       </c>
       <c r="P6">
-        <v>0.008977651988575234</v>
+        <v>0.009100079142681631</v>
       </c>
       <c r="Q6">
-        <v>0.00358089509199625</v>
+        <v>0.000585735706316286</v>
       </c>
       <c r="R6">
-        <v>0.0009081326356994955</v>
+        <v>0.0003325834140296249</v>
       </c>
       <c r="S6">
-        <v>2.595446703371466E-05</v>
+        <v>4.932270092445703E-07</v>
       </c>
       <c r="T6">
-        <v>0.002697055274411593</v>
+        <v>0.01117785443855173</v>
       </c>
       <c r="U6">
-        <v>0.0005150483759052654</v>
+        <v>0.002654009829783442</v>
       </c>
       <c r="V6">
-        <v>7.079533017169783</v>
+        <v>36.48650520485641</v>
       </c>
       <c r="W6">
-        <v>-0.3833445964106126</v>
+        <v>3.114070758437968</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>7.964540526166811E-05</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.0005599425419164119</v>
       </c>
       <c r="Z6">
-        <v>-0.8832737638244694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.00594970159575</v>
+      </c>
+      <c r="AA6">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB6">
+        <v>0.770082704741221</v>
+      </c>
+      <c r="AC6">
+        <v>0.001579923598209562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.494222194916854E-06</v>
+        <v>5.395310194601883E-06</v>
       </c>
       <c r="C7">
-        <v>0.03847582711011537</v>
+        <v>0.03253609863710839</v>
       </c>
       <c r="D7">
-        <v>0.002683866335516014</v>
+        <v>0.001842353021436788</v>
       </c>
       <c r="E7">
-        <v>0.04084576589240589</v>
+        <v>0.03453026133349404</v>
       </c>
       <c r="F7">
-        <v>6.699925416822969</v>
+        <v>6.699925454692038</v>
       </c>
       <c r="K7">
-        <v>6.517889054840977</v>
+        <v>8.285978260959956</v>
       </c>
       <c r="L7">
-        <v>5.209580191940089</v>
+        <v>9.004956100311192</v>
       </c>
       <c r="M7">
-        <v>6.541875421677537</v>
+        <v>8.313425079407363</v>
       </c>
       <c r="N7">
-        <v>0.005966487368402444</v>
+        <v>0.01061785428197577</v>
       </c>
       <c r="O7">
-        <v>0.0002454726792200657</v>
+        <v>0.001579896254638578</v>
       </c>
       <c r="P7">
-        <v>0.009034459955907645</v>
+        <v>0.009189703810432845</v>
       </c>
       <c r="Q7">
-        <v>0.003585846629842557</v>
+        <v>0.0005928415849899873</v>
       </c>
       <c r="R7">
-        <v>0.0009174187216854512</v>
+        <v>0.0003360791002087868</v>
       </c>
       <c r="S7">
-        <v>2.617146575533978E-05</v>
+        <v>4.991029550443271E-07</v>
       </c>
       <c r="T7">
-        <v>0.00272002376808008</v>
+        <v>0.01126757911864403</v>
       </c>
       <c r="U7">
-        <v>0.0005201416339982838</v>
+        <v>0.002673241349363144</v>
       </c>
       <c r="V7">
-        <v>7.114228253299812</v>
+        <v>36.64788509503484</v>
       </c>
       <c r="W7">
-        <v>-0.3536821699634203</v>
+        <v>3.124452919875264</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>8.049081304365966E-05</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.000566520810841142</v>
       </c>
       <c r="Z7">
-        <v>-0.8724997678648752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.010349496923624</v>
+      </c>
+      <c r="AA7">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB7">
+        <v>0.7778918227689477</v>
+      </c>
+      <c r="AC7">
+        <v>0.001596306085018503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.485604093790756E-06</v>
+        <v>5.388033181106292E-06</v>
       </c>
       <c r="C8">
-        <v>0.03885659265027069</v>
+        <v>0.03286262784578574</v>
       </c>
       <c r="D8">
-        <v>0.002715637704704578</v>
+        <v>0.001864092388352745</v>
       </c>
       <c r="E8">
-        <v>0.04126872598156785</v>
+        <v>0.03489310235610002</v>
       </c>
       <c r="F8">
-        <v>6.699910262198417</v>
+        <v>6.699910308247389</v>
       </c>
       <c r="K8">
-        <v>6.52155150189077</v>
+        <v>8.283036252349271</v>
       </c>
       <c r="L8">
-        <v>5.214066561322065</v>
+        <v>9.001207613696746</v>
       </c>
       <c r="M8">
-        <v>6.545719467678331</v>
+        <v>8.310978060745969</v>
       </c>
       <c r="N8">
-        <v>0.006027349226798001</v>
+        <v>0.01071400277162829</v>
       </c>
       <c r="O8">
-        <v>0.0002483906415905916</v>
+        <v>0.00158869273011578</v>
       </c>
       <c r="P8">
-        <v>0.00909242392746153</v>
+        <v>0.009281159791554576</v>
       </c>
       <c r="Q8">
-        <v>0.003590917263692063</v>
+        <v>0.0006001160436410495</v>
       </c>
       <c r="R8">
-        <v>0.0009269000754719418</v>
+        <v>0.0003396491001795714</v>
       </c>
       <c r="S8">
-        <v>2.639233978820198E-05</v>
+        <v>5.05086139335893E-07</v>
       </c>
       <c r="T8">
-        <v>0.002743426769506483</v>
+        <v>0.01135900824384915</v>
       </c>
       <c r="U8">
-        <v>0.0005253470730720043</v>
+        <v>0.002692902576605621</v>
       </c>
       <c r="V8">
-        <v>7.14942962294439</v>
+        <v>36.80250979586149</v>
       </c>
       <c r="W8">
-        <v>-0.3237684796375149</v>
+        <v>3.134939083976324</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>8.135348903098397E-05</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.0005732426896109749</v>
       </c>
       <c r="Z8">
-        <v>-0.8616251428032147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.014797033055295</v>
+      </c>
+      <c r="AA8">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB8">
+        <v>0.7858641167272252</v>
+      </c>
+      <c r="AC8">
+        <v>0.001613054797753405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.476806894655576E-06</v>
+        <v>5.380602715492221E-06</v>
       </c>
       <c r="C9">
-        <v>0.03924520506904022</v>
+        <v>0.03319594543134953</v>
       </c>
       <c r="D9">
-        <v>0.002748180321653598</v>
+        <v>0.00188635632549484</v>
       </c>
       <c r="E9">
-        <v>0.04170069826520743</v>
+        <v>0.03526375764531288</v>
       </c>
       <c r="F9">
-        <v>6.699895024512902</v>
+        <v>6.699895078960968</v>
       </c>
       <c r="K9">
-        <v>6.525246973796551</v>
+        <v>8.280066888844466</v>
       </c>
       <c r="L9">
-        <v>5.218608715171023</v>
+        <v>8.997417696170039</v>
       </c>
       <c r="M9">
-        <v>6.549599363489338</v>
+        <v>8.308516550886228</v>
       </c>
       <c r="N9">
-        <v>0.006089488566423888</v>
+        <v>0.01081212438497789</v>
       </c>
       <c r="O9">
-        <v>0.0002513793776831582</v>
+        <v>0.001597694191074413</v>
       </c>
       <c r="P9">
-        <v>0.009151579913093458</v>
+        <v>0.009374504347983753</v>
       </c>
       <c r="Q9">
-        <v>0.003596112956401796</v>
+        <v>0.0006075653106597404</v>
       </c>
       <c r="R9">
-        <v>0.0009365829543502615</v>
+        <v>0.000343295810007961</v>
       </c>
       <c r="S9">
-        <v>2.661720781034126E-05</v>
+        <v>5.111797984919482E-07</v>
       </c>
       <c r="T9">
-        <v>0.002767277088822982</v>
+        <v>0.01145219217575499</v>
       </c>
       <c r="U9">
-        <v>0.0005306685389252432</v>
+        <v>0.002713007447513179</v>
       </c>
       <c r="V9">
-        <v>7.185150532436539</v>
+        <v>36.95368948976719</v>
       </c>
       <c r="W9">
-        <v>-0.293596990746007</v>
+        <v>3.145525380138032</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>8.223425656394671E-05</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.0005801103542447418</v>
       </c>
       <c r="Z9">
-        <v>-0.8506472242991379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>1.019290201426652</v>
+      </c>
+      <c r="AA9">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB9">
+        <v>0.7940047609111524</v>
+      </c>
+      <c r="AC9">
+        <v>0.001630182932470112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.467824938916982E-06</v>
+        <v>5.37301388694531E-06</v>
       </c>
       <c r="C10">
-        <v>0.03964191185977267</v>
+        <v>0.03353626705206534</v>
       </c>
       <c r="D10">
-        <v>0.002781522548828568</v>
+        <v>0.001909164006322644</v>
       </c>
       <c r="E10">
-        <v>0.04214197379273325</v>
+        <v>0.0356424821635383</v>
       </c>
       <c r="F10">
-        <v>6.699879702063087</v>
+        <v>6.699879765137447</v>
       </c>
       <c r="K10">
-        <v>6.528975785694882</v>
+        <v>8.277071761222487</v>
       </c>
       <c r="L10">
-        <v>5.223208267868543</v>
+        <v>8.993588935121666</v>
       </c>
       <c r="M10">
-        <v>6.553516246598933</v>
+        <v>8.306042903762078</v>
       </c>
       <c r="N10">
-        <v>0.006152946274997156</v>
+        <v>0.01091228123491162</v>
       </c>
       <c r="O10">
-        <v>0.0002544415616745788</v>
+        <v>0.001606912599455739</v>
       </c>
       <c r="P10">
-        <v>0.00921196542349228</v>
+        <v>0.00946979716360684</v>
       </c>
       <c r="Q10">
-        <v>0.003601435488060625</v>
+        <v>0.0006151950435972624</v>
       </c>
       <c r="R10">
-        <v>0.0009464738863778692</v>
+        <v>0.0003470217299015422</v>
       </c>
       <c r="S10">
-        <v>2.684617731823976E-05</v>
+        <v>5.173837056872259E-07</v>
       </c>
       <c r="T10">
-        <v>0.002791588051321871</v>
+        <v>0.01154718331410545</v>
       </c>
       <c r="U10">
-        <v>0.0005361100743889938</v>
+        <v>0.002733575217251206</v>
       </c>
       <c r="V10">
-        <v>7.221404723528499</v>
+        <v>37.10329314300491</v>
       </c>
       <c r="W10">
-        <v>-0.2631645381459435</v>
+        <v>3.156218105720896</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>8.313343640692558E-05</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.0005871312386126353</v>
       </c>
       <c r="Z10">
-        <v>-0.8395645550580717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1.023832160454906</v>
+      </c>
+      <c r="AA10">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB10">
+        <v>0.8023191438510487</v>
+      </c>
+      <c r="AC10">
+        <v>0.001647702834155855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.458652339060975E-06</v>
+        <v>5.365261550661603E-06</v>
       </c>
       <c r="C11">
-        <v>0.04004697108296985</v>
+        <v>0.03388381763498559</v>
       </c>
       <c r="D11">
-        <v>0.002815694144933053</v>
+        <v>0.001932535553447739</v>
       </c>
       <c r="E11">
-        <v>0.04259285623168021</v>
+        <v>0.03602954203244967</v>
       </c>
       <c r="F11">
-        <v>6.699864293089199</v>
+        <v>6.69986436502557</v>
       </c>
       <c r="K11">
-        <v>6.532738787130365</v>
+        <v>8.274048945119022</v>
       </c>
       <c r="L11">
-        <v>5.227865473715517</v>
+        <v>8.98971250532686</v>
       </c>
       <c r="M11">
-        <v>6.557469932624318</v>
+        <v>8.303550880846894</v>
       </c>
       <c r="N11">
-        <v>0.00621776500811059</v>
+        <v>0.01101453803310344</v>
       </c>
       <c r="O11">
-        <v>0.00025757975807225</v>
+        <v>0.001616342539178182</v>
       </c>
       <c r="P11">
-        <v>0.009273619598606913</v>
+        <v>0.009567100483606945</v>
       </c>
       <c r="Q11">
-        <v>0.003606894177530412</v>
+        <v>0.0006230133403271112</v>
       </c>
       <c r="R11">
-        <v>0.0009565796853785245</v>
+        <v>0.0003508294699696285</v>
       </c>
       <c r="S11">
-        <v>2.70793891034533E-05</v>
+        <v>5.237081686068268E-07</v>
       </c>
       <c r="T11">
-        <v>0.002816373523595858</v>
+        <v>0.01164403615033461</v>
       </c>
       <c r="U11">
-        <v>0.0005416758772979537</v>
+        <v>0.002754610954174871</v>
       </c>
       <c r="V11">
-        <v>7.258206322857812</v>
+        <v>37.25244923659884</v>
       </c>
       <c r="W11">
-        <v>-0.2324650780186985</v>
+        <v>3.16701508351391</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>8.405167273063307E-05</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.0005943082375978589</v>
       </c>
       <c r="Z11">
-        <v>-0.8283745114586196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>1.028421823051738</v>
+      </c>
+      <c r="AA11">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB11">
+        <v>0.8108129108773181</v>
+      </c>
+      <c r="AC11">
+        <v>0.001665630540967812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.449282936287054E-06</v>
+        <v>5.35734037135117E-06</v>
       </c>
       <c r="C12">
-        <v>0.04046065193783693</v>
+        <v>0.03423883188033601</v>
       </c>
       <c r="D12">
-        <v>0.002850726365498305</v>
+        <v>0.001956492079692753</v>
       </c>
       <c r="E12">
-        <v>0.0430536625444153</v>
+        <v>0.03642521517077369</v>
       </c>
       <c r="F12">
-        <v>6.699848795772734</v>
+        <v>6.699848876815591</v>
       </c>
       <c r="K12">
-        <v>6.536536661287365</v>
+        <v>8.270995366122934</v>
       </c>
       <c r="L12">
-        <v>5.232582515498567</v>
+        <v>8.985795931814263</v>
       </c>
       <c r="M12">
-        <v>6.561461972702425</v>
+        <v>8.301047303317148</v>
       </c>
       <c r="N12">
-        <v>0.006283989288666572</v>
+        <v>0.01111896242748039</v>
       </c>
       <c r="O12">
-        <v>0.0002607970449592566</v>
+        <v>0.001626006709618815</v>
       </c>
       <c r="P12">
-        <v>0.009336583214396652</v>
+        <v>0.009666479229643388</v>
       </c>
       <c r="Q12">
-        <v>0.003612490103710691</v>
+        <v>0.0006310247886861825</v>
       </c>
       <c r="R12">
-        <v>0.0009669074664482475</v>
+        <v>0.0003547217562118621</v>
       </c>
       <c r="S12">
-        <v>2.731695521064815E-05</v>
+        <v>5.301470023950313E-07</v>
       </c>
       <c r="T12">
-        <v>0.002841647941888057</v>
+        <v>0.01174280754140306</v>
       </c>
       <c r="U12">
-        <v>0.0005473703743246327</v>
+        <v>0.00277614491701514</v>
       </c>
       <c r="V12">
-        <v>7.295569958476414</v>
+        <v>37.40191443620795</v>
       </c>
       <c r="W12">
-        <v>-0.2014949392809164</v>
+        <v>3.177915799265143</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>8.498980939730586E-05</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.0006016460400763916</v>
       </c>
       <c r="Z12">
-        <v>-0.8170754648748186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.033058724535593</v>
+      </c>
+      <c r="AA12">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB12">
+        <v>0.8194919163290472</v>
+      </c>
+      <c r="AC12">
+        <v>0.001683978567179682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.439710328449642E-06</v>
+        <v>5.349244758329396E-06</v>
       </c>
       <c r="C13">
-        <v>0.040883235371234</v>
+        <v>0.03460155479944436</v>
       </c>
       <c r="D13">
-        <v>0.002886652037744619</v>
+        <v>0.001981055767328657</v>
       </c>
       <c r="E13">
-        <v>0.04352472373639786</v>
+        <v>0.03682979192879743</v>
       </c>
       <c r="F13">
-        <v>6.699833208233476</v>
+        <v>6.699833298636659</v>
       </c>
       <c r="K13">
-        <v>6.5403700591001</v>
+        <v>8.267913817880416</v>
       </c>
       <c r="L13">
-        <v>5.23736067556769</v>
+        <v>8.981832641460265</v>
       </c>
       <c r="M13">
-        <v>6.565492700720955</v>
+        <v>8.298527502631089</v>
       </c>
       <c r="N13">
-        <v>0.006351665606011599</v>
+        <v>0.01122562485127659</v>
       </c>
       <c r="O13">
-        <v>0.0002640962890908894</v>
+        <v>0.001635904377812125</v>
       </c>
       <c r="P13">
-        <v>0.009400898867325709</v>
+        <v>0.009768001189654145</v>
       </c>
       <c r="Q13">
-        <v>0.003618229546385355</v>
+        <v>0.0006392389040683012</v>
       </c>
       <c r="R13">
-        <v>0.000977464663203726</v>
+        <v>0.0003587014372142156</v>
       </c>
       <c r="S13">
-        <v>2.755900665780136E-05</v>
+        <v>5.367088023730878E-07</v>
       </c>
       <c r="T13">
-        <v>0.002867426341523601</v>
+        <v>0.01184355655965461</v>
       </c>
       <c r="U13">
-        <v>0.0005531981917646302</v>
+        <v>0.002798185833338822</v>
       </c>
       <c r="V13">
-        <v>7.333510784004566</v>
+        <v>37.55220337576647</v>
       </c>
       <c r="W13">
-        <v>-0.1702487042766307</v>
+        <v>3.188927788771458</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>8.594806122365803E-05</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.0006091532788118387</v>
       </c>
       <c r="Z13">
-        <v>-0.8056649462895855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>1.037746772910832</v>
+      </c>
+      <c r="AA13">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB13">
+        <v>0.8283622948087185</v>
+      </c>
+      <c r="AC13">
+        <v>0.001702763401546237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.429927818528992E-06</v>
+        <v>5.340968868643074E-06</v>
       </c>
       <c r="C14">
-        <v>0.04131501472729638</v>
+        <v>0.03497224228844567</v>
       </c>
       <c r="D14">
-        <v>0.002923505678402852</v>
+        <v>0.002006249930580814</v>
       </c>
       <c r="E14">
-        <v>0.04400638562350409</v>
+        <v>0.03724357579446802</v>
       </c>
       <c r="F14">
-        <v>6.699817528527015</v>
+        <v>6.699817628553955</v>
       </c>
       <c r="K14">
-        <v>6.544239569392724</v>
+        <v>8.264806150342961</v>
       </c>
       <c r="L14">
-        <v>5.242201561321167</v>
+        <v>8.977825224024466</v>
       </c>
       <c r="M14">
-        <v>6.569563101534719</v>
+        <v>8.295993836969194</v>
       </c>
       <c r="N14">
-        <v>0.006420842530067515</v>
+        <v>0.01133459894756595</v>
       </c>
       <c r="O14">
-        <v>0.0002674807535718538</v>
+        <v>0.001646048366323587</v>
       </c>
       <c r="P14">
-        <v>0.009466611018700031</v>
+        <v>0.009871737124717622</v>
       </c>
       <c r="Q14">
-        <v>0.003624117311893973</v>
+        <v>0.0006476618358822706</v>
       </c>
       <c r="R14">
-        <v>0.000988259045664475</v>
+        <v>0.0003627714909461684</v>
       </c>
       <c r="S14">
-        <v>2.78056986226879E-05</v>
+        <v>5.433933510683876E-07</v>
       </c>
       <c r="T14">
-        <v>0.002893724388679954</v>
+        <v>0.01194634486336274</v>
       </c>
       <c r="U14">
-        <v>0.0005591641966228278</v>
+        <v>0.002820756137626521</v>
       </c>
       <c r="V14">
-        <v>7.372044535918249</v>
+        <v>37.70369651949868</v>
       </c>
       <c r="W14">
-        <v>-0.1387201026350482</v>
+        <v>3.200057416544844</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>8.69268771058289E-05</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.000616837342807568</v>
       </c>
       <c r="Z14">
-        <v>-0.7941403762367418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>1.042488991425518</v>
+      </c>
+      <c r="AA14">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB14">
+        <v>0.8374304577808943</v>
+      </c>
+      <c r="AC14">
+        <v>0.00172200011935736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.419928426032844E-06</v>
+        <v>5.332506628907447E-06</v>
       </c>
       <c r="C15">
-        <v>0.04175629644050205</v>
+        <v>0.03535116174083492</v>
       </c>
       <c r="D15">
-        <v>0.002961323589644645</v>
+        <v>0.002032099076374181</v>
       </c>
       <c r="E15">
-        <v>0.04449900967193406</v>
+        <v>0.03766688415763968</v>
       </c>
       <c r="F15">
-        <v>6.699801754641221</v>
+        <v>6.699801864565702</v>
       </c>
       <c r="K15">
-        <v>6.548145833089892</v>
+        <v>8.261665124629831</v>
       </c>
       <c r="L15">
-        <v>5.247106005381159</v>
+        <v>8.973774476210201</v>
       </c>
       <c r="M15">
-        <v>6.573673728149816</v>
+        <v>8.293447903509238</v>
       </c>
       <c r="N15">
-        <v>0.006491570826349075</v>
+        <v>0.01144596159792506</v>
       </c>
       <c r="O15">
-        <v>0.000270953699744707</v>
+        <v>0.001656452039140122</v>
       </c>
       <c r="P15">
-        <v>0.009533766118778261</v>
+        <v>0.00997776097861228</v>
       </c>
       <c r="Q15">
-        <v>0.003630159839681762</v>
+        <v>0.0006563006293715241</v>
       </c>
       <c r="R15">
-        <v>0.0009992987393086334</v>
+        <v>0.0003669350322978362</v>
       </c>
       <c r="S15">
-        <v>2.805716541785676E-05</v>
+        <v>5.502019941176398E-07</v>
       </c>
       <c r="T15">
-        <v>0.002920558413876013</v>
+        <v>0.01205123668779649</v>
       </c>
       <c r="U15">
-        <v>0.0005652734877841952</v>
+        <v>0.002843879880033708</v>
       </c>
       <c r="V15">
-        <v>7.411187557448685</v>
+        <v>37.8566896966168</v>
       </c>
       <c r="W15">
-        <v>-0.1069046262160427</v>
+        <v>3.211297231625608</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>8.792750566126189E-05</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.0006247013305826605</v>
       </c>
       <c r="Z15">
-        <v>-0.7824996926976677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>1.047281376130153</v>
+      </c>
+      <c r="AA15">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB15">
+        <v>0.846703069530819</v>
+      </c>
+      <c r="AC15">
+        <v>0.001741705520314571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.409704843492812E-06</v>
+        <v>5.323851641319343E-06</v>
       </c>
       <c r="C16">
-        <v>0.04220740077597714</v>
+        <v>0.03573859270204958</v>
       </c>
       <c r="D16">
-        <v>0.003000143989310052</v>
+        <v>0.002058629008795255</v>
       </c>
       <c r="E16">
-        <v>0.04500297388099337</v>
+        <v>0.03810004907305989</v>
       </c>
       <c r="F16">
-        <v>6.69978588449364</v>
+        <v>6.699786004600043</v>
       </c>
       <c r="K16">
-        <v>6.552089721112421</v>
+        <v>8.258494395391011</v>
       </c>
       <c r="L16">
-        <v>5.252076482889791</v>
+        <v>8.969669558884473</v>
       </c>
       <c r="M16">
-        <v>6.577825885024541</v>
+        <v>8.290881821080788</v>
       </c>
       <c r="N16">
-        <v>0.006563903583635172</v>
+        <v>0.01155979310442256</v>
       </c>
       <c r="O16">
-        <v>0.0002745187115954517</v>
+        <v>0.001667108410383977</v>
       </c>
       <c r="P16">
-        <v>0.009602412703418918</v>
+        <v>0.01008615005244066</v>
       </c>
       <c r="Q16">
-        <v>0.003636360099536984</v>
+        <v>0.0006651667320899427</v>
       </c>
       <c r="R16">
-        <v>0.001010592245981782</v>
+        <v>0.0003711953210222981</v>
       </c>
       <c r="S16">
-        <v>2.831357094005717E-05</v>
+        <v>5.571474011598732E-07</v>
       </c>
       <c r="T16">
-        <v>0.002947945447900336</v>
+        <v>0.01215829897625885</v>
       </c>
       <c r="U16">
-        <v>0.0005715314214279601</v>
+        <v>0.002867562097170554</v>
       </c>
       <c r="V16">
-        <v>7.450956836660582</v>
+        <v>38.01140455307279</v>
       </c>
       <c r="W16">
-        <v>-0.07479624543226748</v>
+        <v>3.222655113247566</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>8.89501808432035E-05</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.0006327535569433779</v>
       </c>
       <c r="Z16">
-        <v>-0.7707401522795632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1.052128043125843</v>
+      </c>
+      <c r="AA16">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB16">
+        <v>0.8561871503907325</v>
+      </c>
+      <c r="AC16">
+        <v>0.001761899584757076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.399249453231531E-06</v>
+        <v>5.314997248156622E-06</v>
       </c>
       <c r="C17">
-        <v>0.04266866262052615</v>
+        <v>0.03613482756902904</v>
       </c>
       <c r="D17">
-        <v>0.003040007120597639</v>
+        <v>0.002085866886910508</v>
       </c>
       <c r="E17">
-        <v>0.04551867374509753</v>
+        <v>0.0385434181511756</v>
       </c>
       <c r="F17">
-        <v>6.69976991592752</v>
+        <v>6.699770046511636</v>
       </c>
       <c r="K17">
-        <v>6.556071772608586</v>
+        <v>8.255293287946399</v>
       </c>
       <c r="L17">
-        <v>5.257113690688367</v>
+        <v>8.965516289879648</v>
       </c>
       <c r="M17">
-        <v>6.582019632528728</v>
+        <v>8.28830105435738</v>
       </c>
       <c r="N17">
-        <v>0.006637896346835639</v>
+        <v>0.01167617763023478</v>
       </c>
       <c r="O17">
-        <v>0.0002781794020050762</v>
+        <v>0.001678039291096225</v>
       </c>
       <c r="P17">
-        <v>0.009672601557582235</v>
+        <v>0.01019698515032714</v>
       </c>
       <c r="Q17">
-        <v>0.003642729081817213</v>
+        <v>0.0006742672059501185</v>
       </c>
       <c r="R17">
-        <v>0.001022148465688155</v>
+        <v>0.0003755557701237233</v>
       </c>
       <c r="S17">
-        <v>2.857504412086982E-05</v>
+        <v>5.64225016472398E-07</v>
       </c>
       <c r="T17">
-        <v>0.002975903259976482</v>
+        <v>0.01226760176307165</v>
       </c>
       <c r="U17">
-        <v>0.0005779436264949406</v>
+        <v>0.002891834535685473</v>
       </c>
       <c r="V17">
-        <v>7.491370043795584</v>
+        <v>38.16803512347381</v>
       </c>
       <c r="W17">
-        <v>-0.04238915996723591</v>
+        <v>3.234134162230504</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>8.999551906861897E-05</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>0.0006410022614132156</v>
       </c>
       <c r="Z17">
-        <v>-0.7588593222336844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>1.057030649161577</v>
+      </c>
+      <c r="AA17">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB17">
+        <v>0.8658900059009</v>
+      </c>
+      <c r="AC17">
+        <v>0.00178259909373195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.388554262340275E-06</v>
+        <v>5.305936484330051E-06</v>
       </c>
       <c r="C18">
-        <v>0.04314043232885863</v>
+        <v>0.03654017233905426</v>
       </c>
       <c r="D18">
-        <v>0.003080955411148681</v>
+        <v>0.002113841325833732</v>
       </c>
       <c r="E18">
-        <v>0.04604652324972414</v>
+        <v>0.0389973554592344</v>
       </c>
       <c r="F18">
-        <v>6.699753846708718</v>
+        <v>6.69975398807811</v>
       </c>
       <c r="K18">
-        <v>6.560093050124632</v>
+        <v>8.252060188412205</v>
       </c>
       <c r="L18">
-        <v>5.262219268680779</v>
+        <v>8.961319541018403</v>
       </c>
       <c r="M18">
-        <v>6.586255784189235</v>
+        <v>8.285709819372581</v>
       </c>
       <c r="N18">
-        <v>0.006713607262845527</v>
+        <v>0.0117952030866531</v>
       </c>
       <c r="O18">
-        <v>0.0002819397689368026</v>
+        <v>0.001689266308816711</v>
       </c>
       <c r="P18">
-        <v>0.009744385753722296</v>
+        <v>0.01031035084014115</v>
       </c>
       <c r="Q18">
-        <v>0.003649275051252095</v>
+        <v>0.0006836094980298762</v>
       </c>
       <c r="R18">
-        <v>0.001033976720706813</v>
+        <v>0.0003800199551845239</v>
       </c>
       <c r="S18">
-        <v>2.884180583608697E-05</v>
+        <v>5.71432916750516E-07</v>
       </c>
       <c r="T18">
-        <v>0.00300445039847031</v>
+        <v>0.01237921803958815</v>
       </c>
       <c r="U18">
-        <v>0.0005845160080850941</v>
+        <v>0.002916729701298752</v>
       </c>
       <c r="V18">
-        <v>7.532445558235858</v>
+        <v>38.32675657767517</v>
       </c>
       <c r="W18">
-        <v>-0.009677844236797739</v>
+        <v>3.245736806142737</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>9.106455436748477E-05</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.0006494543810019399</v>
       </c>
       <c r="Z18">
-        <v>-0.7468549331464551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.06198951914731</v>
+      </c>
+      <c r="AA18">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB18">
+        <v>0.8758192789129711</v>
+      </c>
+      <c r="AC18">
+        <v>0.001803821936703667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.377610940805718E-06</v>
+        <v>5.296662036710209E-06</v>
       </c>
       <c r="C19">
-        <v>0.04362307662907201</v>
+        <v>0.0369549474115027</v>
       </c>
       <c r="D19">
-        <v>0.003123033592249241</v>
+        <v>0.002142582503191562</v>
       </c>
       <c r="E19">
-        <v>0.04658695598920397</v>
+        <v>0.03946224248929529</v>
       </c>
       <c r="F19">
-        <v>6.699737674521625</v>
+        <v>6.699737826996314</v>
       </c>
       <c r="K19">
-        <v>6.56415423083707</v>
+        <v>8.248793678598203</v>
       </c>
       <c r="L19">
-        <v>5.267396505487761</v>
+        <v>8.9570606472529</v>
       </c>
       <c r="M19">
-        <v>6.590536931296977</v>
+        <v>8.283094793827654</v>
       </c>
       <c r="N19">
-        <v>0.006791097232651657</v>
+        <v>0.01191696136108486</v>
       </c>
       <c r="O19">
-        <v>0.0002858038815539862</v>
+        <v>0.001700768395861215</v>
       </c>
       <c r="P19">
-        <v>0.009817820822426757</v>
+        <v>0.01042633567558828</v>
       </c>
       <c r="Q19">
-        <v>0.00365599066250728</v>
+        <v>0.0006932077697344393</v>
       </c>
       <c r="R19">
-        <v>0.001046086779922123</v>
+        <v>0.0003845916241275091</v>
       </c>
       <c r="S19">
-        <v>2.911394958014688E-05</v>
+        <v>5.787923096620204E-07</v>
       </c>
       <c r="T19">
-        <v>0.003033606234499047</v>
+        <v>0.012493223923182</v>
       </c>
       <c r="U19">
-        <v>0.0005912548193664685</v>
+        <v>0.002942243275326935</v>
       </c>
       <c r="V19">
-        <v>7.574202542452955</v>
+        <v>38.48770179728242</v>
       </c>
       <c r="W19">
-        <v>0.02334459054818439</v>
+        <v>3.257462781038761</v>
       </c>
       <c r="X19">
-        <v>3.793011181371021E-06</v>
+        <v>9.215774087697482E-05</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.0006581176337985451</v>
       </c>
       <c r="Z19">
-        <v>-0.734723500424332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>1.067005604471673</v>
+      </c>
+      <c r="AA19">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB19">
+        <v>0.8859829941938717</v>
+      </c>
+      <c r="AC19">
+        <v>0.00182559390054147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.36641075008763E-06</v>
+        <v>5.287166266169166E-06</v>
       </c>
       <c r="C20">
-        <v>0.0441169795929357</v>
+        <v>0.03737948844696991</v>
       </c>
       <c r="D20">
-        <v>0.003166288882830647</v>
+        <v>0.002172122251293606</v>
       </c>
       <c r="E20">
-        <v>0.04714042630184031</v>
+        <v>0.03993847922796163</v>
       </c>
       <c r="F20">
-        <v>6.699721396965056</v>
+        <v>6.699721560878248</v>
       </c>
       <c r="K20">
-        <v>6.568256151927731</v>
+        <v>8.245498056428646</v>
       </c>
       <c r="L20">
-        <v>5.272646460498724</v>
+        <v>8.952764007499388</v>
       </c>
       <c r="M20">
-        <v>6.594863036917851</v>
+        <v>8.28047587121972</v>
       </c>
       <c r="N20">
-        <v>0.006870430078396749</v>
+        <v>0.01204154908017295</v>
       </c>
       <c r="O20">
-        <v>0.0002897761664798156</v>
+        <v>0.00171260512388778</v>
       </c>
       <c r="P20">
-        <v>0.009892965092669676</v>
+        <v>0.01054503235736698</v>
       </c>
       <c r="Q20">
-        <v>0.003662891771162077</v>
+        <v>0.0007030663004834716</v>
       </c>
       <c r="R20">
-        <v>0.00105848888760922</v>
+        <v>0.0003892747074423608</v>
       </c>
       <c r="S20">
-        <v>2.939170286504361E-05</v>
+        <v>5.862788836447611E-07</v>
       </c>
       <c r="T20">
-        <v>0.003063391007854322</v>
+        <v>0.01260969929693633</v>
       </c>
       <c r="U20">
-        <v>0.0005981666044051878</v>
+        <v>0.002968440931550183</v>
       </c>
       <c r="V20">
-        <v>7.616660950446014</v>
+        <v>38.65102411805437</v>
       </c>
       <c r="W20">
-        <v>0.05668394649591235</v>
+        <v>3.269325930131998</v>
       </c>
       <c r="X20">
-        <v>9.207645057604015E-06</v>
+        <v>9.327575019062143E-05</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.0006670046935186278</v>
       </c>
       <c r="Z20">
-        <v>-0.7224626095127835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.072084520779342</v>
+      </c>
+      <c r="AA20">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB20">
+        <v>0.8963895342658553</v>
+      </c>
+      <c r="AC20">
+        <v>0.001847928691845206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.354944551962831E-06</v>
+        <v>5.277441145536411E-06</v>
       </c>
       <c r="C21">
-        <v>0.0446225436757765</v>
+        <v>0.03781414728889184</v>
       </c>
       <c r="D21">
-        <v>0.003210771146918484</v>
+        <v>0.002202494187112694</v>
       </c>
       <c r="E21">
-        <v>0.04770741053819846</v>
+        <v>0.04042648526170676</v>
       </c>
       <c r="F21">
-        <v>6.699705011548112</v>
+        <v>6.699705187246852</v>
       </c>
       <c r="K21">
-        <v>6.572399521021596</v>
+        <v>8.242164892593928</v>
       </c>
       <c r="L21">
-        <v>5.277969098376672</v>
+        <v>8.948406618287482</v>
       </c>
       <c r="M21">
-        <v>6.599233358661868</v>
+        <v>8.277835887993591</v>
       </c>
       <c r="N21">
-        <v>0.006951672719284613</v>
+        <v>0.01216906690679376</v>
       </c>
       <c r="O21">
-        <v>0.0002938610433799518</v>
+        <v>0.001724748363719807</v>
       </c>
       <c r="P21">
-        <v>0.009969879578120388</v>
+        <v>0.01066653811115567</v>
       </c>
       <c r="Q21">
-        <v>0.003669997083522915</v>
+        <v>0.0007132001414219271</v>
       </c>
       <c r="R21">
-        <v>0.001071193791124581</v>
+        <v>0.0003940733300171598</v>
       </c>
       <c r="S21">
-        <v>2.967530620459122E-05</v>
+        <v>5.939204105198871E-07</v>
       </c>
       <c r="T21">
-        <v>0.003093825877032707</v>
+        <v>0.01272872717799048</v>
       </c>
       <c r="U21">
-        <v>0.0006052582608606715</v>
+        <v>0.002995315505967809</v>
       </c>
       <c r="V21">
-        <v>7.659841577569655</v>
+        <v>38.8168411898574</v>
       </c>
       <c r="W21">
-        <v>0.09034741638701149</v>
+        <v>3.281313323859912</v>
       </c>
       <c r="X21">
-        <v>1.475163800783189E-05</v>
+        <v>9.441974067915186E-05</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>0.0006761179064885319</v>
       </c>
       <c r="Z21">
-        <v>-0.7100691688359753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.077220867118914</v>
+      </c>
+      <c r="AA21">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB21">
+        <v>0.9070477074829626</v>
+      </c>
+      <c r="AC21">
+        <v>0.001870856232181306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.343202755325078E-06</v>
+        <v>5.267478267453826E-06</v>
       </c>
       <c r="C22">
-        <v>0.04514019083238723</v>
+        <v>0.03825929295266408</v>
       </c>
       <c r="D22">
-        <v>0.003256533095816962</v>
+        <v>0.002233733826794814</v>
       </c>
       <c r="E22">
-        <v>0.04828840838147043</v>
+        <v>0.04092670100071752</v>
       </c>
       <c r="F22">
-        <v>6.699688515685598</v>
+        <v>6.699688703531472</v>
       </c>
       <c r="K22">
-        <v>6.576585040652708</v>
+        <v>8.238799098212327</v>
       </c>
       <c r="L22">
-        <v>5.28336837847478</v>
+        <v>8.943997297778472</v>
       </c>
       <c r="M22">
-        <v>6.603650721213521</v>
+        <v>8.27518281423532</v>
       </c>
       <c r="N22">
-        <v>0.007034895365233421</v>
+        <v>0.01229962088858218</v>
       </c>
       <c r="O22">
-        <v>0.0002980633390495139</v>
+        <v>0.00173723027465523</v>
       </c>
       <c r="P22">
-        <v>0.01004862810930286</v>
+        <v>0.01079095483577734</v>
       </c>
       <c r="Q22">
-        <v>0.003677299728822699</v>
+        <v>0.000723619665151923</v>
       </c>
       <c r="R22">
-        <v>0.00108421277218608</v>
+        <v>0.0003989918226372428</v>
       </c>
       <c r="S22">
-        <v>2.996488693032761E-05</v>
+        <v>6.017078188885546E-07</v>
       </c>
       <c r="T22">
-        <v>0.003124932972234857</v>
+        <v>0.01285039482389076</v>
       </c>
       <c r="U22">
-        <v>0.0006125370994788679</v>
+        <v>0.003022909608311993</v>
       </c>
       <c r="V22">
-        <v>7.703766135818644</v>
+        <v>38.98527668186702</v>
       </c>
       <c r="W22">
-        <v>0.1243397811729068</v>
+        <v>3.293439032638233</v>
       </c>
       <c r="X22">
-        <v>2.042944258945386E-05</v>
+        <v>9.559031035272973E-05</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.0006854706003052011</v>
       </c>
       <c r="Z22">
-        <v>-0.6975407941443326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1.082420658586537</v>
+      </c>
+      <c r="AA22">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB22">
+        <v>0.9179667394190141</v>
+      </c>
+      <c r="AC22">
+        <v>0.001894397253628571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.33117532571106E-06</v>
+        <v>5.257268832405659E-06</v>
       </c>
       <c r="C23">
-        <v>0.04567036371512863</v>
+        <v>0.03871531268843457</v>
       </c>
       <c r="D23">
-        <v>0.003303630473218059</v>
+        <v>0.002265878716672442</v>
       </c>
       <c r="E23">
-        <v>0.04888394430367165</v>
+        <v>0.04143958898393991</v>
       </c>
       <c r="F23">
-        <v>6.699671906692848</v>
+        <v>6.699672107062933</v>
       </c>
       <c r="K23">
-        <v>6.580814216277258</v>
+        <v>8.235394583032745</v>
       </c>
       <c r="L23">
-        <v>5.288846252923159</v>
+        <v>8.939528911966582</v>
       </c>
       <c r="M23">
-        <v>6.608115981258488</v>
+        <v>8.272511449692189</v>
       </c>
       <c r="N23">
-        <v>0.007120171719995242</v>
+        <v>0.01243332203559392</v>
       </c>
       <c r="O23">
-        <v>0.0003023884400532696</v>
+        <v>0.001750053071998423</v>
       </c>
       <c r="P23">
-        <v>0.01012927783563805</v>
+        <v>0.01091838945819032</v>
       </c>
       <c r="Q23">
-        <v>0.003684812385639555</v>
+        <v>0.0007343372708309776</v>
       </c>
       <c r="R23">
-        <v>0.001097557682126027</v>
+        <v>0.0004040347354830447</v>
       </c>
       <c r="S23">
-        <v>3.026066216407562E-05</v>
+        <v>6.09652897224876E-07</v>
       </c>
       <c r="T23">
-        <v>0.003156735451636832</v>
+        <v>0.0129747933709234</v>
       </c>
       <c r="U23">
-        <v>0.000620010779972811</v>
+        <v>0.003051243989733399</v>
       </c>
       <c r="V23">
-        <v>7.748457267745027</v>
+        <v>39.15644499360737</v>
       </c>
       <c r="W23">
-        <v>0.1586704874387763</v>
+        <v>3.305698171422939</v>
       </c>
       <c r="X23">
-        <v>2.624647400369731E-05</v>
+        <v>9.678859833307358E-05</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.0006950710307956577</v>
       </c>
       <c r="Z23">
-        <v>-0.6848735179166745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1.087682048623946</v>
+      </c>
+      <c r="AA23">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB23">
+        <v>0.9291562859841516</v>
+      </c>
+      <c r="AC23">
+        <v>0.001918579469798743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.318851734805753E-06</v>
+        <v>5.246803563564241E-06</v>
       </c>
       <c r="C24">
-        <v>0.0462135269618198</v>
+        <v>0.03918261312396999</v>
       </c>
       <c r="D24">
-        <v>0.003352122288132789</v>
+        <v>0.002298968602975156</v>
       </c>
       <c r="E24">
-        <v>0.0494945690984747</v>
+        <v>0.04196563524315523</v>
       </c>
       <c r="F24">
-        <v>6.699655181780953</v>
+        <v>6.699655395068514</v>
       </c>
       <c r="K24">
-        <v>6.585087658492892</v>
+        <v>8.231959340997138</v>
       </c>
       <c r="L24">
-        <v>5.294405150187466</v>
+        <v>8.935009158085588</v>
       </c>
       <c r="M24">
-        <v>6.612630653237949</v>
+        <v>8.269829617026261</v>
       </c>
       <c r="N24">
-        <v>0.007207579197943217</v>
+        <v>0.01257028702230668</v>
       </c>
       <c r="O24">
-        <v>0.0003068417907634035</v>
+        <v>0.00176324887842106</v>
       </c>
       <c r="P24">
-        <v>0.0102118991875611</v>
+        <v>0.01104895422982313</v>
       </c>
       <c r="Q24">
-        <v>0.003692540193169749</v>
+        <v>0.0007453638054384577</v>
       </c>
       <c r="R24">
-        <v>0.001111240977253744</v>
+        <v>0.0004092068519264527</v>
       </c>
       <c r="S24">
-        <v>3.056288304135965E-05</v>
+        <v>6.177477650392686E-07</v>
       </c>
       <c r="T24">
-        <v>0.003189257562812012</v>
+        <v>0.01310201836298994</v>
       </c>
       <c r="U24">
-        <v>0.0006276874393154374</v>
+        <v>0.003080363257756668</v>
       </c>
       <c r="V24">
-        <v>7.793938634897356</v>
+        <v>39.33046780277351</v>
       </c>
       <c r="W24">
-        <v>0.193346601153273</v>
+        <v>3.318108515709589</v>
       </c>
       <c r="X24">
-        <v>3.220798681351136E-05</v>
+        <v>9.801483432397926E-05</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>0.0007049351747525785</v>
       </c>
       <c r="Z24">
-        <v>-0.6720641284462197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.093013234855064</v>
+      </c>
+      <c r="AA24">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB24">
+        <v>0.9406265268800067</v>
+      </c>
+      <c r="AC24">
+        <v>0.001943426129261948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.306220923156881E-06</v>
+        <v>5.236072744109616E-06</v>
       </c>
       <c r="C25">
-        <v>0.04677016858095859</v>
+        <v>0.03966162149437252</v>
       </c>
       <c r="D25">
-        <v>0.003402071059627608</v>
+        <v>0.00233304556817362</v>
       </c>
       <c r="E25">
-        <v>0.05012086153235667</v>
+        <v>0.04250535084055887</v>
       </c>
       <c r="F25">
-        <v>6.699638338050985</v>
+        <v>6.699638564666397</v>
       </c>
       <c r="K25">
-        <v>6.589405844304451</v>
+        <v>8.228481316995195</v>
       </c>
       <c r="L25">
-        <v>5.300045833991346</v>
+        <v>8.93042269272761</v>
       </c>
       <c r="M25">
-        <v>6.61719448737493</v>
+        <v>8.267125954736061</v>
       </c>
       <c r="N25">
-        <v>0.007297199164270228</v>
+        <v>0.01271063816703247</v>
       </c>
       <c r="O25">
-        <v>0.0003114286043797271</v>
+        <v>0.001776807502353959</v>
       </c>
       <c r="P25">
-        <v>0.01029656618748826</v>
+        <v>0.01118276709247748</v>
       </c>
       <c r="Q25">
-        <v>0.003700496625350888</v>
+        <v>0.0007567159531054688</v>
       </c>
       <c r="R25">
-        <v>0.001125275757698061</v>
+        <v>0.0004145132039285489</v>
       </c>
       <c r="S25">
-        <v>3.08717863525914E-05</v>
+        <v>6.260130754691772E-07</v>
       </c>
       <c r="T25">
-        <v>0.003222524707273006</v>
+        <v>0.01323216972799298</v>
       </c>
       <c r="U25">
-        <v>0.0006355756545238414</v>
+        <v>0.00311027957781046</v>
       </c>
       <c r="V25">
-        <v>7.840234962423865</v>
+        <v>39.50745360952055</v>
       </c>
       <c r="W25">
-        <v>0.2283735283865411</v>
+        <v>3.330653257813129</v>
       </c>
       <c r="X25">
-        <v>3.831919623058107E-05</v>
+        <v>9.927077963562265E-05</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>0.0007150656319347878</v>
       </c>
       <c r="Z25">
-        <v>-0.6591100315078613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>1.098406530786731</v>
+      </c>
+      <c r="AA25">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB25">
+        <v>0.9523881246722108</v>
+      </c>
+      <c r="AC25">
+        <v>0.001968970947077046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.293271291160442E-06</v>
+        <v>5.22506615365088E-06</v>
       </c>
       <c r="C26">
-        <v>0.04734080144308137</v>
+        <v>0.04015278696708566</v>
       </c>
       <c r="D26">
-        <v>0.003453543066533583</v>
+        <v>0.002368154218304861</v>
       </c>
       <c r="E26">
-        <v>0.05076343014435039</v>
+        <v>0.04305927346816606</v>
       </c>
       <c r="F26">
-        <v>6.699621372488031</v>
+        <v>6.699621612859803</v>
       </c>
       <c r="K26">
-        <v>6.593770633825399</v>
+        <v>8.224967908540231</v>
       </c>
       <c r="L26">
-        <v>5.305771895794303</v>
+        <v>8.925781071901536</v>
       </c>
       <c r="M26">
-        <v>6.621809560212534</v>
+        <v>8.264411015138402</v>
       </c>
       <c r="N26">
-        <v>0.007389117197952997</v>
+        <v>0.01285450435998877</v>
       </c>
       <c r="O26">
-        <v>0.0003161557150480466</v>
+        <v>0.001790769920318839</v>
       </c>
       <c r="P26">
-        <v>0.01038335657646376</v>
+        <v>0.01131995197589027</v>
       </c>
       <c r="Q26">
-        <v>0.003708692469524836</v>
+        <v>0.0007684049590155593</v>
       </c>
       <c r="R26">
-        <v>0.001139675809952607</v>
+        <v>0.000419959088018721</v>
       </c>
       <c r="S26">
-        <v>3.118759307661066E-05</v>
+        <v>6.344357088756127E-07</v>
       </c>
       <c r="T26">
-        <v>0.003256563510598653</v>
+        <v>0.01336535249312695</v>
       </c>
       <c r="U26">
-        <v>0.0006436844710426766</v>
+        <v>0.003141047478898346</v>
       </c>
       <c r="V26">
-        <v>7.887372088878069</v>
+        <v>39.68752411421351</v>
       </c>
       <c r="W26">
-        <v>0.2637617366499292</v>
+        <v>3.343351955311523</v>
       </c>
       <c r="X26">
-        <v>4.458637019058854E-05</v>
+        <v>0.0001005569540743565</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>0.0007254807244481593</v>
       </c>
       <c r="Z26">
-        <v>-0.6460067792797872</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>1.103870564231363</v>
+      </c>
+      <c r="AA26">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB26">
+        <v>0.9644522945254187</v>
+      </c>
+      <c r="AC26">
+        <v>0.001995239253412927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.279990650418963E-06</v>
+        <v>5.213773049424239E-06</v>
       </c>
       <c r="C27">
-        <v>0.047925964888102</v>
+        <v>0.04065658207040274</v>
       </c>
       <c r="D27">
-        <v>0.003506608640848662</v>
+        <v>0.0024043418684291</v>
       </c>
       <c r="E27">
-        <v>0.05142291515834162</v>
+        <v>0.04362796919987035</v>
       </c>
       <c r="F27">
-        <v>6.699604281954855</v>
+        <v>6.699604536530743</v>
       </c>
       <c r="K27">
-        <v>6.598183190018712</v>
+        <v>8.221416308889491</v>
       </c>
       <c r="L27">
-        <v>5.311587824931775</v>
+        <v>8.921072494910941</v>
       </c>
       <c r="M27">
-        <v>6.626479313431999</v>
+        <v>8.261676578279852</v>
       </c>
       <c r="N27">
-        <v>0.007483423351058397</v>
+        <v>0.01300202081918437</v>
       </c>
       <c r="O27">
-        <v>0.0003210296585272504</v>
+        <v>0.001805134400617571</v>
       </c>
       <c r="P27">
-        <v>0.01047235209788961</v>
+        <v>0.0114606392694486</v>
       </c>
       <c r="Q27">
-        <v>0.0037171204196609</v>
+        <v>0.0007804486127837069</v>
       </c>
       <c r="R27">
-        <v>0.001154455652844287</v>
+        <v>0.0004255500833828523</v>
       </c>
       <c r="S27">
-        <v>3.151048600123682E-05</v>
+        <v>6.430331194659901E-07</v>
       </c>
       <c r="T27">
-        <v>0.003291401897792733</v>
+        <v>0.01350167655998334</v>
       </c>
       <c r="U27">
-        <v>0.0006520235108498197</v>
+        <v>0.003172687347450462</v>
       </c>
       <c r="V27">
-        <v>7.935377062787252</v>
+        <v>39.87079328001793</v>
       </c>
       <c r="W27">
-        <v>0.2995199718011747</v>
+        <v>3.35620446637067</v>
       </c>
       <c r="X27">
-        <v>5.101578092648038E-05</v>
+        <v>0.0001018742400016852</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>0.0007361928608440895</v>
       </c>
       <c r="Z27">
-        <v>-0.6327506598958159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1.109406027674476</v>
+      </c>
+      <c r="AA27">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB27">
+        <v>0.9768308248724056</v>
+      </c>
+      <c r="AC27">
+        <v>0.002022266133275925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.266366187172123E-06</v>
+        <v>5.20218211518453E-06</v>
       </c>
       <c r="C28">
-        <v>0.04852622645901083</v>
+        <v>0.04117350423529428</v>
       </c>
       <c r="D28">
-        <v>0.003561342479743684</v>
+        <v>0.002441658757204326</v>
       </c>
       <c r="E28">
-        <v>0.05209999055495553</v>
+        <v>0.04421203436347891</v>
       </c>
       <c r="F28">
-        <v>6.699587063185209</v>
+        <v>6.699587332433365</v>
       </c>
       <c r="K28">
-        <v>6.602643041555574</v>
+        <v>8.217824302042317</v>
       </c>
       <c r="L28">
-        <v>5.317490506432926</v>
+        <v>8.916301120976124</v>
       </c>
       <c r="M28">
-        <v>6.631199520595491</v>
+        <v>8.25892675760451</v>
       </c>
       <c r="N28">
-        <v>0.00758021245501152</v>
+        <v>0.01315333009511094</v>
       </c>
       <c r="O28">
-        <v>0.0003260562325150886</v>
+        <v>0.001819928316140766</v>
       </c>
       <c r="P28">
-        <v>0.01056363901246027</v>
+        <v>0.01160496617021434</v>
       </c>
       <c r="Q28">
-        <v>0.003725822135866057</v>
+        <v>0.0007928607477878261</v>
       </c>
       <c r="R28">
-        <v>0.001169630587531355</v>
+        <v>0.0004312920705485737</v>
       </c>
       <c r="S28">
-        <v>3.184091618227289E-05</v>
+        <v>6.518020077849577E-07</v>
       </c>
       <c r="T28">
-        <v>0.003327069173291962</v>
+        <v>0.01364125749528784</v>
       </c>
       <c r="U28">
-        <v>0.0006606029368063747</v>
+        <v>0.003205246447448615</v>
       </c>
       <c r="V28">
-        <v>7.984278199261579</v>
+        <v>40.05738271317292</v>
       </c>
       <c r="W28">
-        <v>0.3356507628229259</v>
+        <v>3.369212135345954</v>
       </c>
       <c r="X28">
-        <v>5.761296044050576E-05</v>
+        <v>0.0001032239423237007</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.0007472131194817007</v>
       </c>
       <c r="Z28">
-        <v>-0.6193395345862314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1.115013177514866</v>
+      </c>
+      <c r="AA28">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB28">
+        <v>0.9895361334602638</v>
+      </c>
+      <c r="AC28">
+        <v>0.002050083998637211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.252384433946082E-06</v>
+        <v>5.190281448587239E-06</v>
       </c>
       <c r="C29">
-        <v>0.04914218377379531</v>
+        <v>0.04170407746102154</v>
       </c>
       <c r="D29">
-        <v>0.003617823980261723</v>
+        <v>0.002480158264335554</v>
       </c>
       <c r="E29">
-        <v>0.05279536631639924</v>
+        <v>0.0448120975880264</v>
       </c>
       <c r="F29">
-        <v>6.699569712776888</v>
+        <v>6.699569997186729</v>
       </c>
       <c r="K29">
-        <v>6.607152523301269</v>
+        <v>8.214192210489944</v>
       </c>
       <c r="L29">
-        <v>5.323486476796208</v>
+        <v>8.911465834371631</v>
       </c>
       <c r="M29">
-        <v>6.635974963622869</v>
+        <v>8.256162244146852</v>
       </c>
       <c r="N29">
-        <v>0.007679584458059417</v>
+        <v>0.01330858217427492</v>
       </c>
       <c r="O29">
-        <v>0.0003312436646670959</v>
+        <v>0.001835173866687862</v>
       </c>
       <c r="P29">
-        <v>0.01065730773679717</v>
+        <v>0.01175307720339826</v>
       </c>
       <c r="Q29">
-        <v>0.003734791592551584</v>
+        <v>0.0008056591625933356</v>
       </c>
       <c r="R29">
-        <v>0.001185216747412849</v>
+        <v>0.0004371912523094065</v>
       </c>
       <c r="S29">
-        <v>3.217906936554815E-05</v>
+        <v>6.607459377860729E-07</v>
       </c>
       <c r="T29">
-        <v>0.00336359610803834</v>
+        <v>0.01378421655073769</v>
       </c>
       <c r="U29">
-        <v>0.0006694335163111599</v>
+        <v>0.003238767240772319</v>
       </c>
       <c r="V29">
-        <v>8.034105156324941</v>
+        <v>40.24741789521892</v>
       </c>
       <c r="W29">
-        <v>0.3721686615822932</v>
+        <v>3.382381730556752</v>
       </c>
       <c r="X29">
-        <v>6.438573725554767E-05</v>
+        <v>0.0001046070794006841</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.0007585571137055431</v>
       </c>
       <c r="Z29">
-        <v>-0.6057676484843384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>1.120695114503441</v>
+      </c>
+      <c r="AA29">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB29">
+        <v>1.002581281231192</v>
+      </c>
+      <c r="AC29">
+        <v>0.002078728215534948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.238031201666482E-06</v>
+        <v>5.178058509363851E-06</v>
       </c>
       <c r="C30">
-        <v>0.04977446654870549</v>
+        <v>0.04224885411653106</v>
       </c>
       <c r="D30">
-        <v>0.003676137626934859</v>
+        <v>0.002519897163796161</v>
       </c>
       <c r="E30">
-        <v>0.05350979081405952</v>
+        <v>0.04542882199432841</v>
       </c>
       <c r="F30">
-        <v>6.699552227183181</v>
+        <v>6.699552527267168</v>
       </c>
       <c r="K30">
-        <v>6.611713501780927</v>
+        <v>8.210523810608299</v>
       </c>
       <c r="L30">
-        <v>5.329580544570496</v>
+        <v>8.906576542162966</v>
       </c>
       <c r="M30">
-        <v>6.64080909675963</v>
+        <v>8.253392519151273</v>
       </c>
       <c r="N30">
-        <v>0.007781644746856532</v>
+        <v>0.01346793506743585</v>
       </c>
       <c r="O30">
-        <v>0.0003366001740746034</v>
+        <v>0.001850913375142275</v>
       </c>
       <c r="P30">
-        <v>0.01075345379435614</v>
+        <v>0.01190512467618722</v>
       </c>
       <c r="Q30">
-        <v>0.003744028322118984</v>
+        <v>0.0008188573043989122</v>
       </c>
       <c r="R30">
-        <v>0.00120123115960795</v>
+        <v>0.0004432541760090123</v>
       </c>
       <c r="S30">
-        <v>3.252520425444461E-05</v>
+        <v>6.698542599936724E-07</v>
       </c>
       <c r="T30">
-        <v>0.00340101503292344</v>
+        <v>0.01393068112448721</v>
       </c>
       <c r="U30">
-        <v>0.0006785266831455299</v>
+        <v>0.003273312119547148</v>
       </c>
       <c r="V30">
-        <v>8.084889025332771</v>
+        <v>40.44103714390017</v>
       </c>
       <c r="W30">
-        <v>0.4090830304684872</v>
+        <v>3.395726462293116</v>
       </c>
       <c r="X30">
-        <v>7.134134176005856E-05</v>
+        <v>0.0001060242931809147</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.0007702448400038347</v>
       </c>
       <c r="Z30">
-        <v>-0.5920308712894151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1.126458345728922</v>
+      </c>
+      <c r="AA30">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB30">
+        <v>1.015980029207516</v>
+      </c>
+      <c r="AC30">
+        <v>0.002108232577765931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.223291561618164E-06</v>
+        <v>5.165500072476198E-06</v>
       </c>
       <c r="C31">
-        <v>0.0504237387870403</v>
+        <v>0.04280841689051325</v>
       </c>
       <c r="D31">
-        <v>0.003736373385272222</v>
+        <v>0.002560935897836108</v>
       </c>
       <c r="E31">
-        <v>0.05424405344310631</v>
+        <v>0.04606290757029925</v>
       </c>
       <c r="F31">
-        <v>6.699534602705469</v>
+        <v>6.699534919000098</v>
       </c>
       <c r="K31">
-        <v>6.616324707189196</v>
+        <v>8.206806280181732</v>
       </c>
       <c r="L31">
-        <v>5.335768620879848</v>
+        <v>8.901602860337006</v>
       </c>
       <c r="M31">
-        <v>6.645696425157934</v>
+        <v>8.250594768303605</v>
       </c>
       <c r="N31">
-        <v>0.007886504529571771</v>
+        <v>0.01363155509127097</v>
       </c>
       <c r="O31">
-        <v>0.0003421323764140528</v>
+        <v>0.001867114317530492</v>
       </c>
       <c r="P31">
-        <v>0.01085217809678202</v>
+        <v>0.01206126928705748</v>
       </c>
       <c r="Q31">
-        <v>0.003753581328528248</v>
+        <v>0.0008324827567743724</v>
       </c>
       <c r="R31">
-        <v>0.001217691806866451</v>
+        <v>0.0004494877580054774</v>
       </c>
       <c r="S31">
-        <v>3.287979390355238E-05</v>
+        <v>6.791673841472709E-07</v>
       </c>
       <c r="T31">
-        <v>0.00343935993925834</v>
+        <v>0.01408078491328918</v>
       </c>
       <c r="U31">
-        <v>0.0006878945996517528</v>
+        <v>0.003308881724469442</v>
       </c>
       <c r="V31">
-        <v>8.136662432345704</v>
+        <v>40.63836063382154</v>
       </c>
       <c r="W31">
-        <v>0.4463966079094099</v>
+        <v>3.40922932271075</v>
       </c>
       <c r="X31">
-        <v>7.848637427517488E-05</v>
+        <v>0.0001074778660753271</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.0007822818180966996</v>
       </c>
       <c r="Z31">
-        <v>-0.5781271591613617</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>1.132294666509161</v>
+      </c>
+      <c r="AA31">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB31">
+        <v>1.029746889844699</v>
+      </c>
+      <c r="AC31">
+        <v>0.002138647660768928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.208149776864752E-06</v>
+        <v>5.152592179440614E-06</v>
       </c>
       <c r="C32">
-        <v>0.0510907011499227</v>
+        <v>0.04338338090469435</v>
       </c>
       <c r="D32">
-        <v>0.00379862716181497</v>
+        <v>0.002603338876907377</v>
       </c>
       <c r="E32">
-        <v>0.05499898742371719</v>
+        <v>0.04671509374417255</v>
       </c>
       <c r="F32">
-        <v>6.699516835483696</v>
+        <v>6.699517168551167</v>
       </c>
       <c r="K32">
-        <v>6.620989211689974</v>
+        <v>8.203046074977172</v>
       </c>
       <c r="L32">
-        <v>5.342059075298999</v>
+        <v>8.89656259389568</v>
       </c>
       <c r="M32">
-        <v>6.650643694648019</v>
+        <v>8.247784532029067</v>
       </c>
       <c r="N32">
-        <v>0.007994281274616882</v>
+        <v>0.01379961853089584</v>
       </c>
       <c r="O32">
-        <v>0.0003478505354789612</v>
+        <v>0.001883836903294135</v>
       </c>
       <c r="P32">
-        <v>0.01095358662204278</v>
+        <v>0.01222168052320438</v>
       </c>
       <c r="Q32">
-        <v>0.003763437289981719</v>
+        <v>0.0008465506173674452</v>
       </c>
       <c r="R32">
-        <v>0.001234617692765921</v>
+        <v>0.0004558993093000678</v>
       </c>
       <c r="S32">
-        <v>3.324304461327979E-05</v>
+        <v>6.886628635341837E-07</v>
       </c>
       <c r="T32">
-        <v>0.003478666586967006</v>
+        <v>0.01423466924455803</v>
       </c>
       <c r="U32">
-        <v>0.0006975501602905038</v>
+        <v>0.003345555844238617</v>
       </c>
       <c r="V32">
-        <v>8.189459621490366</v>
+        <v>40.8395290951056</v>
       </c>
       <c r="W32">
-        <v>0.4841239068882714</v>
+        <v>3.422907923868546</v>
       </c>
       <c r="X32">
-        <v>8.582962339246548E-05</v>
+        <v>0.0001089683671924953</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>0.0007946911771751094</v>
       </c>
       <c r="Z32">
-        <v>-0.5640505156287556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>1.138212369926611</v>
+      </c>
+      <c r="AA32">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB32">
+        <v>1.043897180519925</v>
+      </c>
+      <c r="AC32">
+        <v>0.002170009678269434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.192589269578322E-06</v>
+        <v>5.139320106964878E-06</v>
       </c>
       <c r="C33">
-        <v>0.05177609352656195</v>
+        <v>0.04397439600654634</v>
       </c>
       <c r="D33">
-        <v>0.003863001285090173</v>
+        <v>0.002647174799829086</v>
       </c>
       <c r="E33">
-        <v>0.05577547287237408</v>
+        <v>0.04738616218978717</v>
       </c>
       <c r="F33">
-        <v>6.699498921486892</v>
+        <v>6.699499271916772</v>
       </c>
       <c r="K33">
-        <v>6.625708836145217</v>
+        <v>8.199240305804915</v>
       </c>
       <c r="L33">
-        <v>5.348457725857514</v>
+        <v>8.891449404804026</v>
       </c>
       <c r="M33">
-        <v>6.655654836961509</v>
+        <v>8.244958639197382</v>
       </c>
       <c r="N33">
-        <v>0.008105099111415982</v>
+        <v>0.01397231101825238</v>
       </c>
       <c r="O33">
-        <v>0.0003537643172768509</v>
+        <v>0.001901099364118388</v>
       </c>
       <c r="P33">
-        <v>0.01105779168482628</v>
+        <v>0.01238653747836143</v>
       </c>
       <c r="Q33">
-        <v>0.003773592967963034</v>
+        <v>0.000861083242865272</v>
       </c>
       <c r="R33">
-        <v>0.001252028919550741</v>
+        <v>0.0004624965650455248</v>
       </c>
       <c r="S33">
-        <v>3.361527556567E-05</v>
+        <v>6.983520309202416E-07</v>
       </c>
       <c r="T33">
-        <v>0.003518972622136231</v>
+        <v>0.01439248248224382</v>
       </c>
       <c r="U33">
-        <v>0.0007075071074178061</v>
+        <v>0.00338338159892246</v>
       </c>
       <c r="V33">
-        <v>8.243316573382256</v>
+        <v>41.04468629783675</v>
       </c>
       <c r="W33">
-        <v>0.5222782663352739</v>
+        <v>3.436764721958681</v>
       </c>
       <c r="X33">
-        <v>9.338020002259964E-05</v>
+        <v>0.000110497288471684</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>0.000807490012095558</v>
       </c>
       <c r="Z33">
-        <v>-0.5497951873045643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>1.144212682230421</v>
+      </c>
+      <c r="AA33">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB33">
+        <v>1.05844705787358</v>
+      </c>
+      <c r="AC33">
+        <v>0.002202365590953629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.176592532849971E-06</v>
+        <v>5.125668300493539E-06</v>
       </c>
       <c r="C34">
-        <v>0.05248069782423066</v>
+        <v>0.0445821492595863</v>
       </c>
       <c r="D34">
-        <v>0.003929605067874712</v>
+        <v>0.00269251702004575</v>
       </c>
       <c r="E34">
-        <v>0.0565744400870508</v>
+        <v>0.04807693984943124</v>
       </c>
       <c r="F34">
-        <v>6.699480856502943</v>
+        <v>6.699481224913889</v>
       </c>
       <c r="K34">
-        <v>6.630483380175881</v>
+        <v>8.195391675892894</v>
       </c>
       <c r="L34">
-        <v>5.354961874078729</v>
+        <v>8.886266153896884</v>
       </c>
       <c r="M34">
-        <v>6.660725342096104</v>
+        <v>8.242120860382546</v>
       </c>
       <c r="N34">
-        <v>0.008219089328976852</v>
+        <v>0.01414982883669553</v>
       </c>
       <c r="O34">
-        <v>0.0003598828557809776</v>
+        <v>0.001918935277990372</v>
       </c>
       <c r="P34">
-        <v>0.01116491225419191</v>
+        <v>0.01255602945241285</v>
       </c>
       <c r="Q34">
-        <v>0.003784101866001884</v>
+        <v>0.0008761025452360004</v>
       </c>
       <c r="R34">
-        <v>0.001269946767256404</v>
+        <v>0.0004692877152369161</v>
       </c>
       <c r="S34">
-        <v>3.399701852747347E-05</v>
+        <v>7.082319855734673E-07</v>
       </c>
       <c r="T34">
-        <v>0.003560317703235031</v>
+        <v>0.01455438102464561</v>
       </c>
       <c r="U34">
-        <v>0.000717780054068231</v>
+        <v>0.003422420111877845</v>
       </c>
       <c r="V34">
-        <v>8.298271111690367</v>
+        <v>41.25398453691808</v>
       </c>
       <c r="W34">
-        <v>0.5608644637936528</v>
+        <v>3.450811879964768</v>
       </c>
       <c r="X34">
-        <v>0.0001011461765318938</v>
+        <v>0.000112065584228782</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.0008207018209345976</v>
       </c>
       <c r="Z34">
-        <v>-0.5353583515048115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>1.150301426215504</v>
+      </c>
+      <c r="AA34">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB34">
+        <v>1.073413590843716</v>
+      </c>
+      <c r="AC34">
+        <v>0.002235762497163375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.160141086265452E-06</v>
+        <v>5.11162030976528E-06</v>
       </c>
       <c r="C35">
-        <v>0.05320534099969865</v>
+        <v>0.04520736765122123</v>
       </c>
       <c r="D35">
-        <v>0.00399855539539614</v>
+        <v>0.002739443946257837</v>
       </c>
       <c r="E35">
-        <v>0.05739687315288067</v>
+        <v>0.04878830222227845</v>
       </c>
       <c r="F35">
-        <v>6.699462636127612</v>
+        <v>6.699463023169097</v>
       </c>
       <c r="K35">
-        <v>6.635315022045135</v>
+        <v>8.191493584039513</v>
       </c>
       <c r="L35">
-        <v>5.361577738217027</v>
+        <v>8.881002787783027</v>
       </c>
       <c r="M35">
-        <v>6.665859740046597</v>
+        <v>8.239265169422445</v>
       </c>
       <c r="N35">
-        <v>0.008336390918129028</v>
+        <v>0.01433237948682546</v>
       </c>
       <c r="O35">
-        <v>0.0003662174063332885</v>
+        <v>0.00193735916564375</v>
       </c>
       <c r="P35">
-        <v>0.01127507360326938</v>
+        <v>0.01273035671968414</v>
       </c>
       <c r="Q35">
-        <v>0.003794961534745546</v>
+        <v>0.0008916351665688766</v>
       </c>
       <c r="R35">
-        <v>0.001288393778431463</v>
+        <v>0.0004762814388675331</v>
       </c>
       <c r="S35">
-        <v>3.438858497143718E-05</v>
+        <v>7.183177027524549E-07</v>
       </c>
       <c r="T35">
-        <v>0.003602743638297222</v>
+        <v>0.01472052969498542</v>
       </c>
       <c r="U35">
-        <v>0.0007283845928096922</v>
+        <v>0.003462719848880265</v>
       </c>
       <c r="V35">
-        <v>8.354363035754082</v>
+        <v>41.46757816238112</v>
       </c>
       <c r="W35">
-        <v>0.5998953070971211</v>
+        <v>3.465044845688396</v>
       </c>
       <c r="X35">
-        <v>0.0001091373941508658</v>
+        <v>0.0001136752282537443</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>0.0008343420081377757</v>
       </c>
       <c r="Z35">
-        <v>-0.5207342978636831</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>1.1564763355808</v>
+      </c>
+      <c r="AA35">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB35">
+        <v>1.088814831277592</v>
+      </c>
+      <c r="AC35">
+        <v>0.002270255250064715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.143215414997847E-06</v>
+        <v>5.097158726223217E-06</v>
       </c>
       <c r="C36">
-        <v>0.05395089835733961</v>
+        <v>0.04585082104069037</v>
       </c>
       <c r="D36">
-        <v>0.00406997738201305</v>
+        <v>0.002788039481399958</v>
       </c>
       <c r="E36">
-        <v>0.05824381384645948</v>
+        <v>0.04952117694620529</v>
       </c>
       <c r="F36">
-        <v>6.699444255752316</v>
+        <v>6.699444662106782</v>
       </c>
       <c r="K36">
-        <v>6.640204190112947</v>
+        <v>8.187548728440181</v>
       </c>
       <c r="L36">
-        <v>5.368306728285465</v>
+        <v>8.875660969594108</v>
       </c>
       <c r="M36">
-        <v>6.67105705212336</v>
+        <v>8.236394433276914</v>
       </c>
       <c r="N36">
-        <v>0.008457151122853206</v>
+        <v>0.01452018282502518</v>
       </c>
       <c r="O36">
-        <v>0.0003727789028808846</v>
+        <v>0.001956408258952714</v>
       </c>
       <c r="P36">
-        <v>0.01138840863461065</v>
+        <v>0.01290973128867074</v>
       </c>
       <c r="Q36">
-        <v>0.003806204106971424</v>
+        <v>0.0009077067142436812</v>
       </c>
       <c r="R36">
-        <v>0.001307393857120251</v>
+        <v>0.0004834869407033631</v>
       </c>
       <c r="S36">
-        <v>3.479052106376527E-05</v>
+        <v>7.286079630764737E-07</v>
       </c>
       <c r="T36">
-        <v>0.003646294532925821</v>
+        <v>0.01489110257144156</v>
       </c>
       <c r="U36">
-        <v>0.0007393373735977981</v>
+        <v>0.003504349456420067</v>
       </c>
       <c r="V36">
-        <v>8.411634261631928</v>
+        <v>41.68563136442456</v>
       </c>
       <c r="W36">
-        <v>0.6393799503611888</v>
+        <v>3.479476043781808</v>
       </c>
       <c r="X36">
-        <v>0.0001173636729175983</v>
+        <v>0.0001153273946493566</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>0.0008484355490124492</v>
       </c>
       <c r="Z36">
-        <v>-0.5059185190655793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>1.162743184123344</v>
+      </c>
+      <c r="AA36">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB36">
+        <v>1.104669882671275</v>
+      </c>
+      <c r="AC36">
+        <v>0.002305897758571328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.125794877343951E-06</v>
+        <v>5.082265129678365E-06</v>
       </c>
       <c r="C37">
-        <v>0.0547182971415754</v>
+        <v>0.04651332537237177</v>
       </c>
       <c r="D37">
-        <v>0.004144005115308463</v>
+        <v>0.002838393500793814</v>
       </c>
       <c r="E37">
-        <v>0.0591163658599649</v>
+        <v>0.05027654770971257</v>
       </c>
       <c r="F37">
-        <v>6.699425710551438</v>
+        <v>6.699426136936355</v>
       </c>
       <c r="K37">
-        <v>6.645153735478799</v>
+        <v>8.183553090870154</v>
       </c>
       <c r="L37">
-        <v>5.3751559464194</v>
+        <v>8.870234178643331</v>
       </c>
       <c r="M37">
-        <v>6.676322506558913</v>
+        <v>8.233505964282541</v>
       </c>
       <c r="N37">
-        <v>0.00858152608008355</v>
+        <v>0.01471347166450322</v>
       </c>
       <c r="O37">
-        <v>0.0003795807119882239</v>
+        <v>0.001976106160281228</v>
       </c>
       <c r="P37">
-        <v>0.01150505793503587</v>
+        <v>0.013094377820585</v>
       </c>
       <c r="Q37">
-        <v>0.003817829769671854</v>
+        <v>0.0009243456117884691</v>
       </c>
       <c r="R37">
-        <v>0.001326972369982659</v>
+        <v>0.0004909139919762907</v>
       </c>
       <c r="S37">
-        <v>3.520316702326817E-05</v>
+        <v>7.391126176551649E-07</v>
       </c>
       <c r="T37">
-        <v>0.003691016950761636</v>
+        <v>0.01506628338859574</v>
       </c>
       <c r="U37">
-        <v>0.0007506561536060809</v>
+        <v>0.003547370156600207</v>
       </c>
       <c r="V37">
-        <v>8.470128959035897</v>
+        <v>41.90831391719403</v>
       </c>
       <c r="W37">
-        <v>0.679333585797572</v>
+        <v>3.494106566219831</v>
       </c>
       <c r="X37">
-        <v>0.00012583626437432</v>
+        <v>0.0001170237789209323</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>0.0008630045056826709</v>
       </c>
       <c r="Z37">
-        <v>-0.4909045025517251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>1.169102780372043</v>
+      </c>
+      <c r="AA37">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB37">
+        <v>1.120998958745788</v>
+      </c>
+      <c r="AC37">
+        <v>0.002342751005281045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.107857647522767E-06</v>
+        <v>5.066919996391653E-06</v>
       </c>
       <c r="C38">
-        <v>0.05550852045448581</v>
+        <v>0.04719574618286516</v>
       </c>
       <c r="D38">
-        <v>0.00422078245126351</v>
+        <v>0.002890602397464038</v>
       </c>
       <c r="E38">
-        <v>0.06001569943422471</v>
+        <v>0.05105545849048976</v>
       </c>
       <c r="F38">
-        <v>6.69940699546811</v>
+        <v>6.699407442638483</v>
       </c>
       <c r="K38">
-        <v>6.650164947176593</v>
+        <v>8.179508739378576</v>
       </c>
       <c r="L38">
-        <v>5.382130053548693</v>
+        <v>8.864733928884394</v>
       </c>
       <c r="M38">
-        <v>6.681658299044916</v>
+        <v>8.230610525369135</v>
       </c>
       <c r="N38">
-        <v>0.008709681476460038</v>
+        <v>0.01491249300050669</v>
       </c>
       <c r="O38">
-        <v>0.0003866360035111953</v>
+        <v>0.001996514242274656</v>
       </c>
       <c r="P38">
-        <v>0.01162517087511968</v>
+        <v>0.01328453457384744</v>
       </c>
       <c r="Q38">
-        <v>0.00382985351916266</v>
+        <v>0.0009415781123893548</v>
       </c>
       <c r="R38">
-        <v>0.001347156263778899</v>
+        <v>0.0004985729744662693</v>
       </c>
       <c r="S38">
-        <v>3.562697221250369E-05</v>
+        <v>7.49816540488672E-07</v>
       </c>
       <c r="T38">
-        <v>0.003736960088217191</v>
+        <v>0.01524626640784567</v>
       </c>
       <c r="U38">
-        <v>0.000762359958460331</v>
+        <v>0.003591876467785658</v>
       </c>
       <c r="V38">
-        <v>8.529893727115676</v>
+        <v>42.13581303267919</v>
       </c>
       <c r="W38">
-        <v>0.7197692559873374</v>
+        <v>3.508948697464461</v>
       </c>
       <c r="X38">
-        <v>0.0001345667875226464</v>
+        <v>0.0001187658175833764</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>0.00087807659985006</v>
       </c>
       <c r="Z38">
-        <v>-0.4756865909205068</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>1.175560617215048</v>
+      </c>
+      <c r="AA38">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB38">
+        <v>1.137823484238098</v>
+      </c>
+      <c r="AC38">
+        <v>0.002380873699182051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.089380614004172E-06</v>
+        <v>5.051102622809047E-06</v>
       </c>
       <c r="C39">
-        <v>0.05632261153390204</v>
+        <v>0.04789900243342709</v>
       </c>
       <c r="D39">
-        <v>0.004300463923288048</v>
+        <v>0.0029447696759141</v>
       </c>
       <c r="E39">
-        <v>0.06094305637258028</v>
+        <v>0.05185901819963491</v>
       </c>
       <c r="F39">
-        <v>6.699388105199086</v>
+        <v>6.699388573950261</v>
       </c>
       <c r="K39">
-        <v>6.65523832814593</v>
+        <v>8.175411754708952</v>
       </c>
       <c r="L39">
-        <v>5.389228539267012</v>
+        <v>8.85914216134481</v>
       </c>
       <c r="M39">
-        <v>6.687061420824673</v>
+        <v>8.227696221191808</v>
       </c>
       <c r="N39">
-        <v>0.008841793309363988</v>
+        <v>0.01511750853635164</v>
       </c>
       <c r="O39">
-        <v>0.0003939581348050502</v>
+        <v>0.002017639334502535</v>
       </c>
       <c r="P39">
-        <v>0.01174890607124598</v>
+        <v>0.01348045451768011</v>
       </c>
       <c r="Q39">
-        <v>0.003842326486572329</v>
+        <v>0.0009594405320806742</v>
       </c>
       <c r="R39">
-        <v>0.001367974189041858</v>
+        <v>0.0005064749293539801</v>
       </c>
       <c r="S39">
-        <v>3.60626716301118E-05</v>
+        <v>7.607463073720924E-07</v>
       </c>
       <c r="T39">
-        <v>0.003784175963292697</v>
+        <v>0.01543125672435456</v>
       </c>
       <c r="U39">
-        <v>0.0007744691192961128</v>
+        <v>0.003637920925976672</v>
       </c>
       <c r="V39">
-        <v>8.590977756150995</v>
+        <v>42.36831558692077</v>
       </c>
       <c r="W39">
-        <v>0.7606955511472151</v>
+        <v>3.524003815841411</v>
       </c>
       <c r="X39">
-        <v>0.000143566681912854</v>
+        <v>0.0001205552747208287</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>0.0008936768542626005</v>
       </c>
       <c r="Z39">
-        <v>-0.4602599318707448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>1.182117809411015</v>
+      </c>
+      <c r="AA39">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB39">
+        <v>1.155166178638764</v>
+      </c>
+      <c r="AC39">
+        <v>0.002420338997452426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.070339280133819E-06</v>
+        <v>5.034791045056596E-06</v>
       </c>
       <c r="C40">
-        <v>0.05716167843084743</v>
+        <v>0.04862407070370955</v>
       </c>
       <c r="D40">
-        <v>0.004383215746013635</v>
+        <v>0.003001006610163142</v>
       </c>
       <c r="E40">
-        <v>0.06189975552425896</v>
+        <v>0.0526884057584582</v>
       </c>
       <c r="F40">
-        <v>6.699369034179169</v>
+        <v>6.699369525348969</v>
       </c>
       <c r="K40">
-        <v>6.660377541937666</v>
+        <v>8.171257648834739</v>
       </c>
       <c r="L40">
-        <v>5.396462706546212</v>
+        <v>8.853455570049844</v>
       </c>
       <c r="M40">
-        <v>6.692540733892947</v>
+        <v>8.224763151446336</v>
       </c>
       <c r="N40">
-        <v>0.008978048715405262</v>
+        <v>0.01532879674928469</v>
       </c>
       <c r="O40">
-        <v>0.0004015639989805827</v>
+        <v>0.00203951924189782</v>
       </c>
       <c r="P40">
-        <v>0.01187643154841814</v>
+        <v>0.01368240635615752</v>
       </c>
       <c r="Q40">
-        <v>0.003855229956153056</v>
+        <v>0.0009779678963209013</v>
       </c>
       <c r="R40">
-        <v>0.00138945663287108</v>
+        <v>0.0005146316097256996</v>
       </c>
       <c r="S40">
-        <v>3.651054868603635E-05</v>
+        <v>7.719045575109596E-07</v>
       </c>
       <c r="T40">
-        <v>0.003832719622066836</v>
+        <v>0.01562147181787678</v>
       </c>
       <c r="U40">
-        <v>0.0007870054593560198</v>
+        <v>0.003685585256310471</v>
       </c>
       <c r="V40">
-        <v>8.653433031404488</v>
+        <v>42.60601864946551</v>
       </c>
       <c r="W40">
-        <v>0.8021321475695338</v>
+        <v>3.539273803719873</v>
       </c>
       <c r="X40">
-        <v>0.0001528498771297698</v>
+        <v>0.0001223944049844416</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>0.000909831128221956</v>
       </c>
       <c r="Z40">
-        <v>-0.4446166061938843</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>1.188774910355984</v>
+      </c>
+      <c r="AA40">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB40">
+        <v>1.173051144547179</v>
+      </c>
+      <c r="AC40">
+        <v>0.002461220672692051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.050707688357074E-06</v>
+        <v>5.017961930425813E-06</v>
       </c>
       <c r="C41">
-        <v>0.0580268991305988</v>
+        <v>0.04937198978721032</v>
       </c>
       <c r="D41">
-        <v>0.004469216908382726</v>
+        <v>0.003059432986604216</v>
       </c>
       <c r="E41">
-        <v>0.06288719879271003</v>
+        <v>0.0535448756367042</v>
       </c>
       <c r="F41">
-        <v>6.699349776562279</v>
+        <v>6.699350291034732</v>
       </c>
       <c r="K41">
-        <v>6.665581932607526</v>
+        <v>8.1670477265139</v>
       </c>
       <c r="L41">
-        <v>5.403830540285874</v>
+        <v>8.847680323570128</v>
       </c>
       <c r="M41">
-        <v>6.6980913137506</v>
+        <v>8.221818268738671</v>
       </c>
       <c r="N41">
-        <v>0.009118646825510585</v>
+        <v>0.01554665375760251</v>
       </c>
       <c r="O41">
-        <v>0.0004094685074455008</v>
+        <v>0.002062214480899427</v>
       </c>
       <c r="P41">
-        <v>0.01200792665648805</v>
+        <v>0.01389067583910567</v>
       </c>
       <c r="Q41">
-        <v>0.003868628377407788</v>
+        <v>0.0009971943378114211</v>
       </c>
       <c r="R41">
-        <v>0.001411636076874113</v>
+        <v>0.0005230555393186208</v>
       </c>
       <c r="S41">
-        <v>3.697146212931392E-05</v>
+        <v>7.832835758291416E-07</v>
       </c>
       <c r="T41">
-        <v>0.003882649362439144</v>
+        <v>0.01581714208937787</v>
       </c>
       <c r="U41">
-        <v>0.0007999923990548227</v>
+        <v>0.003734973589548057</v>
       </c>
       <c r="V41">
-        <v>8.717314543198304</v>
+        <v>42.84913605730782</v>
       </c>
       <c r="W41">
-        <v>0.84408535138639</v>
+        <v>3.554771118385787</v>
       </c>
       <c r="X41">
-        <v>0.0001624288923353819</v>
+        <v>0.0001242849393274505</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>0.0009265728138066085</v>
       </c>
       <c r="Z41">
-        <v>-0.4287521352882369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>1.19553754882805</v>
+      </c>
+      <c r="AA41">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB41">
+        <v>1.191503986773776</v>
+      </c>
+      <c r="AC41">
+        <v>0.002503593756514631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.030458284126737E-06</v>
+        <v>5.000590462402316E-06</v>
       </c>
       <c r="C42">
-        <v>0.05891952716763574</v>
+        <v>0.05014386573388709</v>
       </c>
       <c r="D42">
-        <v>0.004558660432942655</v>
+        <v>0.003120177931078694</v>
       </c>
       <c r="E42">
-        <v>0.0639068776674591</v>
+        <v>0.05442976391927401</v>
       </c>
       <c r="F42">
-        <v>6.699330326203335</v>
+        <v>6.699330864911474</v>
       </c>
       <c r="K42">
-        <v>6.670855607627021</v>
+        <v>8.162783161107184</v>
       </c>
       <c r="L42">
-        <v>5.411344072573723</v>
+        <v>8.841815598962645</v>
       </c>
       <c r="M42">
-        <v>6.703722295170313</v>
+        <v>8.21886306620021</v>
       </c>
       <c r="N42">
-        <v>0.009263799797478336</v>
+        <v>0.01577139441221423</v>
       </c>
       <c r="O42">
-        <v>0.0004176912297156055</v>
+        <v>0.002085773378188649</v>
       </c>
       <c r="P42">
-        <v>0.01214358162780606</v>
+        <v>0.01410556719746057</v>
       </c>
       <c r="Q42">
-        <v>0.00388250647636249</v>
+        <v>0.001017158627990044</v>
       </c>
       <c r="R42">
-        <v>0.001434547153786527</v>
+        <v>0.000531760076914334</v>
       </c>
       <c r="S42">
-        <v>3.744582649795415E-05</v>
+        <v>7.948849322012993E-07</v>
       </c>
       <c r="T42">
-        <v>0.00393402697849555</v>
+        <v>0.01601851156437503</v>
       </c>
       <c r="U42">
-        <v>0.00081345509318248</v>
+        <v>0.003786183767286224</v>
       </c>
       <c r="V42">
-        <v>8.782680513134435</v>
+        <v>43.0978942208722</v>
       </c>
       <c r="W42">
-        <v>0.8865775743628106</v>
+        <v>3.570507447351538</v>
       </c>
       <c r="X42">
-        <v>0.0001723197216557647</v>
+        <v>0.0001262284485445157</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>0.0009439374039217941</v>
       </c>
       <c r="Z42">
-        <v>-0.4126576651843195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>1.202411618173212</v>
+      </c>
+      <c r="AA42">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB42">
+        <v>1.210551938448359</v>
+      </c>
+      <c r="AC42">
+        <v>0.002547541613197703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.009561802591338E-06</v>
+        <v>4.982650256261796E-06</v>
       </c>
       <c r="C43">
-        <v>0.05984089779025765</v>
+        <v>0.05094087739156181</v>
       </c>
       <c r="D43">
-        <v>0.004651754757176943</v>
+        <v>0.003183380810959121</v>
       </c>
       <c r="E43">
-        <v>0.06496038039531399</v>
+        <v>0.0553444949992072</v>
       </c>
       <c r="F43">
-        <v>6.69931067663642</v>
+        <v>6.699311240566279</v>
       </c>
       <c r="K43">
-        <v>6.676198587589131</v>
+        <v>8.15846179286188</v>
       </c>
       <c r="L43">
-        <v>5.419002421013088</v>
+        <v>8.835856967987196</v>
       </c>
       <c r="M43">
-        <v>6.709429597826711</v>
+        <v>8.215896345371007</v>
       </c>
       <c r="N43">
-        <v>0.009413733840999739</v>
+        <v>0.01600335409075704</v>
       </c>
       <c r="O43">
-        <v>0.0004262500078584958</v>
+        <v>0.002110241518544899</v>
       </c>
       <c r="P43">
-        <v>0.01228359985071188</v>
+        <v>0.01432740463084143</v>
       </c>
       <c r="Q43">
-        <v>0.003896929499722198</v>
+        <v>0.00103790544444014</v>
       </c>
       <c r="R43">
-        <v>0.001458226837299893</v>
+        <v>0.0005407594869479294</v>
       </c>
       <c r="S43">
-        <v>3.793450884122537E-05</v>
+        <v>8.067160212573798E-07</v>
       </c>
       <c r="T43">
-        <v>0.003986918027399161</v>
+        <v>0.0162258391541562</v>
       </c>
       <c r="U43">
-        <v>0.0008274205981090414</v>
+        <v>0.003839314856632726</v>
       </c>
       <c r="V43">
-        <v>8.84959264377661</v>
+        <v>43.35253103600098</v>
       </c>
       <c r="W43">
-        <v>0.929617717978136</v>
+        <v>3.586490282926707</v>
       </c>
       <c r="X43">
-        <v>0.0001825369604407835</v>
+        <v>0.0001282271274683476</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>0.000961960542940976</v>
       </c>
       <c r="Z43">
-        <v>-0.3963280273680354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>1.209400533000338</v>
+      </c>
+      <c r="AA43">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB43">
+        <v>1.230223953753466</v>
+      </c>
+      <c r="AC43">
+        <v>0.002593155781564752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.987987148099148E-06</v>
+        <v>4.964113199242295E-06</v>
       </c>
       <c r="C44">
-        <v>0.06079243473910386</v>
+        <v>0.05176428250502046</v>
       </c>
       <c r="D44">
-        <v>0.004748725278221394</v>
+        <v>0.003249192280797726</v>
       </c>
       <c r="E44">
-        <v>0.06604939985798813</v>
+        <v>0.05629058886728256</v>
       </c>
       <c r="F44">
-        <v>6.699290821052834</v>
+        <v>6.699291411247021</v>
       </c>
       <c r="K44">
-        <v>6.681613519796076</v>
+        <v>8.154078344804185</v>
       </c>
       <c r="L44">
-        <v>5.426812469763727</v>
+        <v>8.829793220051902</v>
       </c>
       <c r="M44">
-        <v>6.715216858248604</v>
+        <v>8.212914268347575</v>
       </c>
       <c r="N44">
-        <v>0.009568690458812517</v>
+        <v>0.01624289051441586</v>
       </c>
       <c r="O44">
-        <v>0.0004351661698170935</v>
+        <v>0.002135658569800402</v>
       </c>
       <c r="P44">
-        <v>0.01242819761538412</v>
+        <v>0.01455653392715869</v>
       </c>
       <c r="Q44">
-        <v>0.003911920579820103</v>
+        <v>0.001059480899980926</v>
       </c>
       <c r="R44">
-        <v>0.001482714636066421</v>
+        <v>0.0005500690174811477</v>
       </c>
       <c r="S44">
-        <v>3.843824486413711E-05</v>
+        <v>8.187874845196012E-07</v>
       </c>
       <c r="T44">
-        <v>0.004041392121007611</v>
+        <v>0.0164393999179066</v>
       </c>
       <c r="U44">
-        <v>0.0008419180629338444</v>
+        <v>0.003894468350308187</v>
       </c>
       <c r="V44">
-        <v>8.918116395776366</v>
+        <v>43.61329533879556</v>
       </c>
       <c r="W44">
-        <v>0.9732240151157541</v>
+        <v>3.602720559843036</v>
       </c>
       <c r="X44">
-        <v>0.0001930977327702358</v>
+        <v>0.0001302834025873345</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>0.0009806766664452655</v>
       </c>
       <c r="Z44">
-        <v>-0.3797550072718714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>1.216504985436876</v>
+      </c>
+      <c r="AA44">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB44">
+        <v>1.250550883218773</v>
+      </c>
+      <c r="AC44">
+        <v>0.002640536587958109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.965701244874068E-06</v>
+        <v>4.94494933971063E-06</v>
       </c>
       <c r="C45">
-        <v>0.06177565771210181</v>
+        <v>0.05261542443877875</v>
       </c>
       <c r="D45">
-        <v>0.00484981609909359</v>
+        <v>0.003317775420670134</v>
       </c>
       <c r="E45">
-        <v>0.06717574218780824</v>
+        <v>0.05726966918814337</v>
       </c>
       <c r="F45">
-        <v>6.699270752275423</v>
+        <v>6.69927136983784</v>
       </c>
       <c r="K45">
-        <v>6.687102916799144</v>
+        <v>8.149632878582873</v>
       </c>
       <c r="L45">
-        <v>5.434783752068254</v>
+        <v>8.823622813752285</v>
       </c>
       <c r="M45">
-        <v>6.721089774852095</v>
+        <v>8.209917770939731</v>
       </c>
       <c r="N45">
-        <v>0.009728927727040506</v>
+        <v>0.01649038581168982</v>
       </c>
       <c r="O45">
-        <v>0.0004444627914789686</v>
+        <v>0.002162084444402827</v>
       </c>
       <c r="P45">
-        <v>0.0125776059844291</v>
+        <v>0.01479332433114426</v>
       </c>
       <c r="Q45">
-        <v>0.003927488613073595</v>
+        <v>0.001081935663543419</v>
       </c>
       <c r="R45">
-        <v>0.001508052818368215</v>
+        <v>0.0005597049864284571</v>
       </c>
       <c r="S45">
-        <v>3.895769588996633E-05</v>
+        <v>8.311001996385659E-07</v>
       </c>
       <c r="T45">
-        <v>0.004097523244833466</v>
+        <v>0.0166594864366364</v>
       </c>
       <c r="U45">
-        <v>0.0008569789845401106</v>
+        <v>0.003951765242659088</v>
       </c>
       <c r="V45">
-        <v>8.988321308426711</v>
+        <v>43.88045187234331</v>
       </c>
       <c r="W45">
-        <v>1.017414577437201</v>
+        <v>3.619211233498</v>
       </c>
       <c r="X45">
-        <v>0.0002040201820707909</v>
+        <v>0.0001323995759043944</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>0.001000128844902847</v>
       </c>
       <c r="Z45">
-        <v>-0.362930227033571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>1.223730793183909</v>
+      </c>
+      <c r="AA45">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB45">
+        <v>1.271565595437661</v>
+      </c>
+      <c r="AC45">
+        <v>0.002689789141532416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.942668884201707E-06</v>
+        <v>4.925126719718431E-06</v>
       </c>
       <c r="C46">
-        <v>0.06279219059804839</v>
+        <v>0.05349573959981641</v>
       </c>
       <c r="D46">
-        <v>0.00495529198523483</v>
+        <v>0.003389307040880521</v>
       </c>
       <c r="E46">
-        <v>0.06834133625944366</v>
+        <v>0.05828347215111259</v>
       </c>
       <c r="F46">
-        <v>6.699250462732361</v>
+        <v>6.699251108832323</v>
       </c>
       <c r="K46">
-        <v>6.692669340115529</v>
+        <v>8.145119717297991</v>
       </c>
       <c r="L46">
-        <v>5.442922284757142</v>
+        <v>8.817340478996645</v>
       </c>
       <c r="M46">
-        <v>6.727050497902946</v>
+        <v>8.206905028146457</v>
       </c>
       <c r="N46">
-        <v>0.009894721743746962</v>
+        <v>0.01674624833610565</v>
       </c>
       <c r="O46">
-        <v>0.0004541648614541836</v>
+        <v>0.002189574617747452</v>
       </c>
       <c r="P46">
-        <v>0.01273207236606045</v>
+        <v>0.01503817055735142</v>
       </c>
       <c r="Q46">
-        <v>0.003943674770194625</v>
+        <v>0.001105324969714332</v>
       </c>
       <c r="R46">
-        <v>0.001534286659841041</v>
+        <v>0.0005696848772539717</v>
       </c>
       <c r="S46">
-        <v>3.949373943433471E-05</v>
+        <v>8.436614860643492E-07</v>
       </c>
       <c r="T46">
-        <v>0.004155390106624419</v>
+        <v>0.01688641002938599</v>
       </c>
       <c r="U46">
-        <v>0.0008726373202554969</v>
+        <v>0.004011329893618407</v>
       </c>
       <c r="V46">
-        <v>9.060281312552778</v>
+        <v>44.15428056716873</v>
       </c>
       <c r="W46">
-        <v>1.062209333388822</v>
+        <v>3.635964593102059</v>
       </c>
       <c r="X46">
-        <v>0.0002153239848118893</v>
+        <v>0.0001345785159900361</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>0.001020357503611997</v>
       </c>
       <c r="Z46">
-        <v>-0.3458449716552856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>1.231078972540949</v>
+      </c>
+      <c r="AA46">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB46">
+        <v>1.293303160773195</v>
+      </c>
+      <c r="AC46">
+        <v>0.002741029442527797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.918852538774596E-06</v>
+        <v>4.904611193053177E-06</v>
       </c>
       <c r="C47">
-        <v>0.06384377057282681</v>
+        <v>0.05440676564634252</v>
       </c>
       <c r="D47">
-        <v>0.005065440584431778</v>
+        <v>0.003463979152079466</v>
       </c>
       <c r="E47">
-        <v>0.06954824410085031</v>
+        <v>0.05933385623383753</v>
       </c>
       <c r="F47">
-        <v>6.699229944426719</v>
+        <v>6.69923062030481</v>
       </c>
       <c r="K47">
-        <v>6.698313766026998</v>
+        <v>8.140541171082464</v>
       </c>
       <c r="L47">
-        <v>5.451231859056368</v>
+        <v>8.81094700797984</v>
       </c>
       <c r="M47">
-        <v>6.733098813188679</v>
+        <v>8.203881925223937</v>
       </c>
       <c r="N47">
-        <v>0.01006636823251592</v>
+        <v>0.01701091513098489</v>
       </c>
       <c r="O47">
-        <v>0.0004642981301601625</v>
+        <v>0.0022182073216355</v>
       </c>
       <c r="P47">
-        <v>0.01289186141325801</v>
+        <v>0.01529149502258119</v>
       </c>
       <c r="Q47">
-        <v>0.003960531311459023</v>
+        <v>0.001129703528189167</v>
       </c>
       <c r="R47">
-        <v>0.001561464712939345</v>
+        <v>0.0005800274448133882</v>
       </c>
       <c r="S47">
-        <v>4.004739098532151E-05</v>
+        <v>8.564636331296387E-07</v>
       </c>
       <c r="T47">
-        <v>0.004215076520922036</v>
+        <v>0.01712050239549085</v>
       </c>
       <c r="U47">
-        <v>0.0008889298751718611</v>
+        <v>0.004073311984847268</v>
       </c>
       <c r="V47">
-        <v>9.134075120563217</v>
+        <v>44.43508260309321</v>
       </c>
       <c r="W47">
-        <v>1.107621786685133</v>
+        <v>3.652996990490813</v>
       </c>
       <c r="X47">
-        <v>0.0002270288521891641</v>
+        <v>0.0001368221780784516</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>0.001041414157608017</v>
       </c>
       <c r="Z47">
-        <v>-0.3284918975491689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>1.238557612638314</v>
+      </c>
+      <c r="AA47">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB47">
+        <v>1.315801051080632</v>
+      </c>
+      <c r="AC47">
+        <v>0.00279437859814902</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.729878654338334E-06</v>
+        <v>5.687062707192568E-06</v>
       </c>
       <c r="C48">
-        <v>0.0649322581652045</v>
+        <v>0.05535015058142146</v>
       </c>
       <c r="D48">
-        <v>0.004331921049383704</v>
+        <v>0.00296766697957228</v>
       </c>
       <c r="E48">
-        <v>0.06856945198401775</v>
+        <v>0.05846869696047374</v>
       </c>
       <c r="F48">
-        <v>7.549229944426719</v>
+        <v>7.54923062030481</v>
       </c>
       <c r="K48">
-        <v>6.704037626180005</v>
+        <v>8.135893333198524</v>
       </c>
       <c r="L48">
-        <v>5.38512552584731</v>
+        <v>8.829642619274114</v>
       </c>
       <c r="M48">
-        <v>6.726291394449221</v>
+        <v>8.177273178084061</v>
       </c>
       <c r="N48">
-        <v>0.01024418434552251</v>
+        <v>0.01728485416449136</v>
       </c>
       <c r="O48">
-        <v>0.0003961432976983854</v>
+        <v>0.00200684455716217</v>
       </c>
       <c r="P48">
-        <v>0.01305725641514317</v>
+        <v>0.01555375042062548</v>
       </c>
       <c r="Q48">
-        <v>0.003896344884737504</v>
+        <v>0.001004731771853687</v>
       </c>
       <c r="R48">
-        <v>0.001589639107790346</v>
+        <v>0.0005907528333537633</v>
       </c>
       <c r="S48">
-        <v>3.498238441857648E-05</v>
+        <v>1.017618043915195E-06</v>
       </c>
       <c r="T48">
-        <v>0.004276671829176669</v>
+        <v>0.017362117032725</v>
       </c>
       <c r="U48">
-        <v>0.00077930709863254</v>
+        <v>0.003616935651902555</v>
       </c>
       <c r="V48">
-        <v>9.172049517124435</v>
+        <v>44.56788691832116</v>
       </c>
       <c r="W48">
-        <v>1.15366808593712</v>
+        <v>3.670316637006394</v>
       </c>
       <c r="X48">
-        <v>0.000239164651481633</v>
+        <v>0.0001391354549828878</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>0.001063350121932541</v>
       </c>
       <c r="Z48">
-        <v>-0.3108633032236234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>1.246169860083992</v>
+      </c>
+      <c r="AA48">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB48">
+        <v>1.30696179717921</v>
+      </c>
+      <c r="AC48">
+        <v>0.002415083548598375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.704821587500798E-06</v>
+        <v>5.665672110427012E-06</v>
       </c>
       <c r="C49">
-        <v>0.06607566075229546</v>
+        <v>0.05633849932862616</v>
       </c>
       <c r="D49">
-        <v>0.004429170994600378</v>
+        <v>0.003033552076627414</v>
       </c>
       <c r="E49">
-        <v>0.06982158896750053</v>
+        <v>0.05955336988081661</v>
       </c>
       <c r="F49">
-        <v>7.549229944426719</v>
+        <v>7.54923062030481</v>
       </c>
       <c r="K49">
-        <v>6.709884652062434</v>
+        <v>8.131491056496257</v>
       </c>
       <c r="L49">
-        <v>5.393325541946075</v>
+        <v>8.81290499718094</v>
       </c>
       <c r="M49">
-        <v>6.732118729567391</v>
+        <v>8.167299583066082</v>
       </c>
       <c r="N49">
-        <v>0.01042999644076448</v>
+        <v>0.01757311849670512</v>
       </c>
       <c r="O49">
-        <v>0.0004053195180339775</v>
+        <v>0.002015885920209684</v>
       </c>
       <c r="P49">
-        <v>0.01323010380250932</v>
+        <v>0.01582826020645137</v>
       </c>
       <c r="Q49">
-        <v>0.003915769619715231</v>
+        <v>0.001031104578843713</v>
       </c>
       <c r="R49">
-        <v>0.001618972253514341</v>
+        <v>0.0006018799128879115</v>
       </c>
       <c r="S49">
-        <v>3.564921328240847E-05</v>
+        <v>1.115505060887955E-06</v>
       </c>
       <c r="T49">
-        <v>0.004342659842960521</v>
+        <v>0.01762146007764618</v>
       </c>
       <c r="U49">
-        <v>0.0007942679146524267</v>
+        <v>0.003658759576946741</v>
       </c>
       <c r="V49">
-        <v>9.212808647021742</v>
+        <v>44.70736594986865</v>
       </c>
       <c r="W49">
-        <v>1.200454195484205</v>
+        <v>3.68837668511366</v>
       </c>
       <c r="X49">
-        <v>0.0002517639325792195</v>
+        <v>0.0001414102476377462</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>0.001086887110454908</v>
       </c>
       <c r="Z49">
-        <v>-0.2928777589352407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>1.254253727543446</v>
+      </c>
+      <c r="AA49">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB49">
+        <v>1.330440675851394</v>
+      </c>
+      <c r="AC49">
+        <v>0.00246588805741456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.678852645924553E-06</v>
+        <v>5.643487896411222E-06</v>
       </c>
       <c r="C50">
-        <v>0.06726117017071266</v>
+        <v>0.05736359446808768</v>
       </c>
       <c r="D50">
-        <v>0.004530905801399311</v>
+        <v>0.003102438431182341</v>
       </c>
       <c r="E50">
-        <v>0.07112082919350951</v>
+        <v>0.06067938517635174</v>
       </c>
       <c r="F50">
-        <v>7.549229944426719</v>
+        <v>7.54923062030481</v>
       </c>
       <c r="K50">
-        <v>6.715821289950892</v>
+        <v>8.127133166518934</v>
       </c>
       <c r="L50">
-        <v>5.401730074268339</v>
+        <v>8.805799115532452</v>
       </c>
       <c r="M50">
-        <v>6.738338829339376</v>
+        <v>8.163966330638969</v>
       </c>
       <c r="N50">
-        <v>0.01062277868927853</v>
+        <v>0.01787229604625311</v>
       </c>
       <c r="O50">
-        <v>0.0004146096859474045</v>
+        <v>0.002042779462306991</v>
       </c>
       <c r="P50">
-        <v>0.0134092256137169</v>
+        <v>0.01611282089159767</v>
       </c>
       <c r="Q50">
-        <v>0.003932862298519539</v>
+        <v>0.001054738516890622</v>
       </c>
       <c r="R50">
-        <v>0.001649420773518801</v>
+        <v>0.0006134330745768927</v>
       </c>
       <c r="S50">
-        <v>3.616207238037785E-05</v>
+        <v>1.138808292921226E-06</v>
       </c>
       <c r="T50">
-        <v>0.004410898149274139</v>
+        <v>0.01788997354881347</v>
       </c>
       <c r="U50">
-        <v>0.0008098730306694232</v>
+        <v>0.003717739915065858</v>
       </c>
       <c r="V50">
-        <v>9.25636624672965</v>
+        <v>44.85801672538129</v>
       </c>
       <c r="W50">
-        <v>1.247928081047942</v>
+        <v>3.706955735860969</v>
       </c>
       <c r="X50">
-        <v>0.0002648383396835009</v>
+        <v>0.0001437372958051321</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>0.001111578778298049</v>
       </c>
       <c r="Z50">
-        <v>-0.2745913367370978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>1.262590926791649</v>
+      </c>
+      <c r="AA50">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB50">
+        <v>1.354790649572184</v>
+      </c>
+      <c r="AC50">
+        <v>0.002516322371599353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.651921470978951E-06</v>
+        <v>5.620465244396908E-06</v>
       </c>
       <c r="C51">
-        <v>0.0684911753544247</v>
+        <v>0.05842753870410543</v>
       </c>
       <c r="D51">
-        <v>0.004637440544681051</v>
+        <v>0.003174534520681698</v>
       </c>
       <c r="E51">
-        <v>0.07246986752416125</v>
+        <v>0.06184914052755362</v>
       </c>
       <c r="F51">
-        <v>7.549229944426719</v>
+        <v>7.54923062030481</v>
       </c>
       <c r="K51">
-        <v>6.721849486387256</v>
+        <v>8.122713334426882</v>
       </c>
       <c r="L51">
-        <v>5.410333006287494</v>
+        <v>8.798479583212572</v>
       </c>
       <c r="M51">
-        <v>6.744662679727736</v>
+        <v>8.16053739053527</v>
       </c>
       <c r="N51">
-        <v>0.01082293886581443</v>
+        <v>0.0181826787243697</v>
       </c>
       <c r="O51">
-        <v>0.0004243431278768712</v>
+        <v>0.002070741763336918</v>
       </c>
       <c r="P51">
-        <v>0.01359503665911292</v>
+        <v>0.01640807740874878</v>
       </c>
       <c r="Q51">
-        <v>0.003950668428069073</v>
+        <v>0.001079489702488194</v>
       </c>
       <c r="R51">
-        <v>0.001681053297070535</v>
+        <v>0.0006254388445040294</v>
       </c>
       <c r="S51">
-        <v>3.669254873569252E-05</v>
+        <v>1.163886871135866E-06</v>
       </c>
       <c r="T51">
-        <v>0.004481506484933055</v>
+        <v>0.01816786048280852</v>
       </c>
       <c r="U51">
-        <v>0.0008261586076367579</v>
+        <v>0.003779107444021857</v>
       </c>
       <c r="V51">
-        <v>9.302745086827031</v>
+        <v>45.01983787883747</v>
       </c>
       <c r="W51">
-        <v>1.296110313023632</v>
+        <v>3.725876527868639</v>
       </c>
       <c r="X51">
-        <v>0.0002784154213672619</v>
+        <v>0.0001461330317019288</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>0.001137371376866316</v>
       </c>
       <c r="Z51">
-        <v>-0.2559933520221236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>1.271092103302641</v>
+      </c>
+      <c r="AA51">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB51">
+        <v>1.380060914796556</v>
+      </c>
+      <c r="AC51">
+        <v>0.002569012708612316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.623973964462808E-06</v>
+        <v>5.59655595143818E-06</v>
       </c>
       <c r="C52">
-        <v>0.06976825005061957</v>
+        <v>0.05953259878777391</v>
       </c>
       <c r="D52">
-        <v>0.004749120260192632</v>
+        <v>0.003250068429336467</v>
       </c>
       <c r="E52">
-        <v>0.07387160653717555</v>
+        <v>0.06306522121563116</v>
       </c>
       <c r="F52">
-        <v>7.549229944426719</v>
+        <v>7.54923062030481</v>
       </c>
       <c r="K52">
-        <v>6.727971148428864</v>
+        <v>8.118235653679212</v>
       </c>
       <c r="L52">
-        <v>5.419135389184182</v>
+        <v>8.791003900232058</v>
       </c>
       <c r="M52">
-        <v>6.751089442201481</v>
+        <v>8.157084252872485</v>
       </c>
       <c r="N52">
-        <v>0.01103091078057318</v>
+        <v>0.01850491746359036</v>
       </c>
       <c r="O52">
-        <v>0.0004345468747297478</v>
+        <v>0.002099950682676795</v>
       </c>
       <c r="P52">
-        <v>0.0137879240237338</v>
+        <v>0.016714649162874</v>
       </c>
       <c r="Q52">
-        <v>0.003969255269517801</v>
+        <v>0.001105380283975488</v>
       </c>
       <c r="R52">
-        <v>0.001713940512037232</v>
+        <v>0.0006379243436566873</v>
       </c>
       <c r="S52">
-        <v>3.724188113835684E-05</v>
+        <v>1.189916793740407E-06</v>
       </c>
       <c r="T52">
-        <v>0.004554613442478981</v>
+        <v>0.01845563554358426</v>
       </c>
       <c r="U52">
-        <v>0.00084317090835423</v>
+        <v>0.003843192033604233</v>
       </c>
       <c r="V52">
-        <v>9.351978861535347</v>
+        <v>45.19291877499415</v>
       </c>
       <c r="W52">
-        <v>1.345022435254243</v>
+        <v>3.745164325653455</v>
       </c>
       <c r="X52">
-        <v>0.0002925247739815952</v>
+        <v>0.000148599687387669</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>0.001164344098325644</v>
       </c>
       <c r="Z52">
-        <v>-0.2370736881325506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>1.2797693366813</v>
+      </c>
+      <c r="AA52">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB52">
+        <v>1.406304380297707</v>
+      </c>
+      <c r="AC52">
+        <v>0.002624084706890766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.594253538500698E-06</v>
+        <v>5.571031539670619E-06</v>
       </c>
       <c r="C53">
-        <v>0.07109517106675073</v>
+        <v>0.06068122185631344</v>
       </c>
       <c r="D53">
-        <v>0.004866854428406903</v>
+        <v>0.003329648756802184</v>
       </c>
       <c r="E53">
-        <v>0.07532859771899465</v>
+        <v>0.06432993893461152</v>
       </c>
       <c r="F53">
-        <v>7.548466576556363</v>
+        <v>7.548468004656097</v>
       </c>
       <c r="K53">
-        <v>6.734187383354252</v>
+        <v>8.113692738825678</v>
       </c>
       <c r="L53">
-        <v>5.428186766560433</v>
+        <v>8.783315564391406</v>
       </c>
       <c r="M53">
-        <v>6.757615187999308</v>
+        <v>8.153603475024138</v>
       </c>
       <c r="N53">
-        <v>0.01124716310518223</v>
+        <v>0.01883971270401717</v>
       </c>
       <c r="O53">
-        <v>0.0004453030506586958</v>
+        <v>0.002130574772851904</v>
       </c>
       <c r="P53">
-        <v>0.0139883050187178</v>
+        <v>0.01703320567060662</v>
       </c>
       <c r="Q53">
-        <v>0.003988750625558537</v>
+        <v>0.001132587446587367</v>
       </c>
       <c r="R53">
-        <v>0.001748158851443332</v>
+        <v>0.0006509189237967475</v>
       </c>
       <c r="S53">
-        <v>3.781603222361323E-05</v>
+        <v>1.217145352850148E-06</v>
       </c>
       <c r="T53">
-        <v>0.0046303571676652</v>
+        <v>0.01875384867644099</v>
       </c>
       <c r="U53">
-        <v>0.0008610453152964476</v>
+        <v>0.00391047550403235</v>
       </c>
       <c r="V53">
-        <v>9.404135150979252</v>
+        <v>45.37747172714806</v>
       </c>
       <c r="W53">
-        <v>1.394682668138103</v>
+        <v>3.76482437156303</v>
       </c>
       <c r="X53">
-        <v>0.0003071974753127481</v>
+        <v>0.0001511408444397337</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>0.001192571491370857</v>
       </c>
       <c r="Z53">
-        <v>-0.2178219233115133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>1.288625213063741</v>
+      </c>
+      <c r="AA53">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB53">
+        <v>1.433558026825975</v>
+      </c>
+      <c r="AC53">
+        <v>0.002682016007323144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.564078121244694E-06</v>
+        <v>5.545173025991671E-06</v>
       </c>
       <c r="C54">
-        <v>0.0724749276633829</v>
+        <v>0.0618760462958866</v>
       </c>
       <c r="D54">
-        <v>0.004990025282453009</v>
+        <v>0.00341285166844447</v>
       </c>
       <c r="E54">
-        <v>0.07684533195573111</v>
+        <v>0.06564723298176932</v>
       </c>
       <c r="F54">
-        <v>7.548447556124953</v>
+        <v>7.548449019063421</v>
       </c>
       <c r="K54">
-        <v>6.740505058059471</v>
+        <v>8.109089693040454</v>
       </c>
       <c r="L54">
-        <v>5.437415551597093</v>
+        <v>8.775525249890235</v>
       </c>
       <c r="M54">
-        <v>6.764256770679861</v>
+        <v>8.150115074721489</v>
       </c>
       <c r="N54">
-        <v>0.01147220185631814</v>
+        <v>0.01918781974424977</v>
       </c>
       <c r="O54">
-        <v>0.0004565570788029622</v>
+        <v>0.002162578266604053</v>
       </c>
       <c r="P54">
-        <v>0.01419662906857528</v>
+        <v>0.01736446855027369</v>
       </c>
       <c r="Q54">
-        <v>0.004009073018309462</v>
+        <v>0.001160998491609552</v>
       </c>
       <c r="R54">
-        <v>0.001783790993510409</v>
+        <v>0.0006644543775143287</v>
       </c>
       <c r="S54">
-        <v>3.840695587578086E-05</v>
+        <v>1.24516561392209E-06</v>
       </c>
       <c r="T54">
-        <v>0.004708884497922883</v>
+        <v>0.01906308561753284</v>
       </c>
       <c r="U54">
-        <v>0.0008796715179903914</v>
+        <v>0.003980614632873657</v>
       </c>
       <c r="V54">
-        <v>9.459247273386501</v>
+        <v>45.57360229118665</v>
       </c>
       <c r="W54">
-        <v>1.445129560033795</v>
+        <v>3.784884567350716</v>
       </c>
       <c r="X54">
-        <v>0.0003224706579244234</v>
+        <v>0.0001537587049740348</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>0.001222146296201981</v>
       </c>
       <c r="Z54">
-        <v>-0.1982216917408461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>1.297673290553753</v>
+      </c>
+      <c r="AA54">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB54">
+        <v>1.461922022413695</v>
+      </c>
+      <c r="AC54">
+        <v>0.002742379975966603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.532697993318556E-06</v>
+        <v>5.518259265082112E-06</v>
       </c>
       <c r="C55">
-        <v>0.07391077665021119</v>
+        <v>0.06311994405391728</v>
       </c>
       <c r="D55">
-        <v>0.005119596523556903</v>
+        <v>0.003500320725317284</v>
       </c>
       <c r="E55">
-        <v>0.07842493144199356</v>
+        <v>0.06701992766155671</v>
       </c>
       <c r="F55">
-        <v>7.548428270018578</v>
+        <v>7.548429769554645</v>
       </c>
       <c r="K55">
-        <v>6.746925446744874</v>
+        <v>8.10442023726876</v>
       </c>
       <c r="L55">
-        <v>5.446869474444076</v>
+        <v>8.76755596603855</v>
       </c>
       <c r="M55">
-        <v>6.771008419665172</v>
+        <v>8.146601316272244</v>
       </c>
       <c r="N55">
-        <v>0.01170657727711633</v>
+        <v>0.01955005892462522</v>
       </c>
       <c r="O55">
-        <v>0.0004683955770061515</v>
+        <v>0.002196108003921702</v>
       </c>
       <c r="P55">
-        <v>0.01441338558028307</v>
+        <v>0.01770922323237292</v>
       </c>
       <c r="Q55">
-        <v>0.004030370709077978</v>
+        <v>0.001190811513631766</v>
       </c>
       <c r="R55">
-        <v>0.00182092682409838</v>
+        <v>0.0006785652118100821</v>
       </c>
       <c r="S55">
-        <v>3.902095319273993E-05</v>
+        <v>1.274361505121359E-06</v>
       </c>
       <c r="T55">
-        <v>0.004790357114517192</v>
+        <v>0.01938398925550431</v>
       </c>
       <c r="U55">
-        <v>0.0008991913722057028</v>
+        <v>0.004054084385943501</v>
       </c>
       <c r="V55">
-        <v>9.517382885286272</v>
+        <v>45.7815314400805</v>
       </c>
       <c r="W55">
-        <v>1.496384700906102</v>
+        <v>3.805354867927875</v>
       </c>
       <c r="X55">
-        <v>0.0003383812369065077</v>
+        <v>0.000156457054203138</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.001253159372622548</v>
       </c>
       <c r="Z55">
-        <v>-0.1782614792846733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>1.306918346293641</v>
+      </c>
+      <c r="AA55">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB55">
+        <v>1.491444021041496</v>
+      </c>
+      <c r="AC55">
+        <v>0.002805679536081781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.50004031626747E-06</v>
+        <v>5.490224773119451E-06</v>
       </c>
       <c r="C56">
-        <v>0.07540623708774716</v>
+        <v>0.06441602282193033</v>
       </c>
       <c r="D56">
-        <v>0.005256075079163407</v>
+        <v>0.003592389784127118</v>
       </c>
       <c r="E56">
-        <v>0.08007135675806472</v>
+        <v>0.06845156761804452</v>
       </c>
       <c r="F56">
-        <v>7.548408706550993</v>
+        <v>7.548410244570438</v>
       </c>
       <c r="K56">
-        <v>6.753453406881413</v>
+        <v>8.099679721177059</v>
       </c>
       <c r="L56">
-        <v>5.456568387288883</v>
+        <v>8.759401369963147</v>
       </c>
       <c r="M56">
-        <v>6.777882678639553</v>
+        <v>8.143063675766379</v>
       </c>
       <c r="N56">
-        <v>0.01195088557494482</v>
+        <v>0.0199273187272492</v>
       </c>
       <c r="O56">
-        <v>0.0004808670229325824</v>
+        <v>0.002231278021151191</v>
       </c>
       <c r="P56">
-        <v>0.01463910329487448</v>
+        <v>0.01806831913930208</v>
       </c>
       <c r="Q56">
-        <v>0.004052658986952967</v>
+        <v>0.001222129573450329</v>
       </c>
       <c r="R56">
-        <v>0.001859663908248503</v>
+        <v>0.0006932889259471465</v>
       </c>
       <c r="S56">
-        <v>3.965914176279992E-05</v>
+        <v>1.304750678133163E-06</v>
       </c>
       <c r="T56">
-        <v>0.004874947674132659</v>
+        <v>0.0197172480570165</v>
       </c>
       <c r="U56">
-        <v>0.0009196718797540651</v>
+        <v>0.004131133828022831</v>
       </c>
       <c r="V56">
-        <v>9.57862179113987</v>
+        <v>46.00152752415953</v>
       </c>
       <c r="W56">
-        <v>1.548481364501036</v>
+        <v>3.826247243233336</v>
       </c>
       <c r="X56">
-        <v>0.0003549709586543596</v>
+        <v>0.0001592393999894288</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>0.001285709774566016</v>
       </c>
       <c r="Z56">
-        <v>-0.1579259942667228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>1.316366464050075</v>
+      </c>
+      <c r="AA56">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB56">
+        <v>1.522195887932102</v>
+      </c>
+      <c r="AC56">
+        <v>0.002872136642919318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.466026396588327E-06</v>
+        <v>5.460998650622713E-06</v>
       </c>
       <c r="C57">
-        <v>0.07696512957682679</v>
+        <v>0.0657676591116593</v>
       </c>
       <c r="D57">
-        <v>0.005400022240568481</v>
+        <v>0.003689428120712255</v>
       </c>
       <c r="E57">
-        <v>0.08178890451052542</v>
+        <v>0.06994600343979253</v>
       </c>
       <c r="F57">
-        <v>7.548388853228316</v>
+        <v>7.548390431756403</v>
       </c>
       <c r="K57">
-        <v>6.760089150534436</v>
+        <v>8.094867920283018</v>
       </c>
       <c r="L57">
-        <v>5.466512169004361</v>
+        <v>8.751060117356479</v>
       </c>
       <c r="M57">
-        <v>6.784871683169365</v>
+        <v>8.13950710582048</v>
       </c>
       <c r="N57">
-        <v>0.01220577487610065</v>
+        <v>0.02032056407627361</v>
       </c>
       <c r="O57">
-        <v>0.0004940198554849867</v>
+        <v>0.002268225456540186</v>
       </c>
       <c r="P57">
-        <v>0.01487435761282829</v>
+        <v>0.01844267890743212</v>
       </c>
       <c r="Q57">
-        <v>0.004076089969224724</v>
+        <v>0.00125506532562616</v>
       </c>
       <c r="R57">
-        <v>0.001900108458614852</v>
+        <v>0.0007086663520642357</v>
       </c>
       <c r="S57">
-        <v>4.032375216699889E-05</v>
+        <v>1.336393977356974E-06</v>
       </c>
       <c r="T57">
-        <v>0.004962842691785517</v>
+        <v>0.02006360615099414</v>
       </c>
       <c r="U57">
-        <v>0.0009411867385455655</v>
+        <v>0.004212045273031148</v>
       </c>
       <c r="V57">
-        <v>9.643056534043835</v>
+        <v>46.2339103598074</v>
       </c>
       <c r="W57">
-        <v>1.601441748123715</v>
+        <v>3.847585940271131</v>
       </c>
       <c r="X57">
-        <v>0.0003722833895974106</v>
+        <v>0.0001621093702061592</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>0.001319912424184332</v>
       </c>
       <c r="Z57">
-        <v>-0.1372031094633197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>1.326028976429882</v>
+      </c>
+      <c r="AA57">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB57">
+        <v>1.55425543183229</v>
+      </c>
+      <c r="AC57">
+        <v>0.002941993879759012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.430571050909089E-06</v>
+        <v>5.43050394468757E-06</v>
       </c>
       <c r="C58">
-        <v>0.07859160928901449</v>
+        <v>0.06717852799781719</v>
       </c>
       <c r="D58">
-        <v>0.005552061116012441</v>
+        <v>0.003791845258100565</v>
       </c>
       <c r="E58">
-        <v>0.08358224323168317</v>
+        <v>0.07150742496068856</v>
       </c>
       <c r="F58">
-        <v>7.548368696673089</v>
+        <v>7.548370317888058</v>
       </c>
       <c r="K58">
-        <v>6.76684259673242</v>
+        <v>8.089983598215168</v>
       </c>
       <c r="L58">
-        <v>5.476726744109289</v>
+        <v>8.742513613227981</v>
       </c>
       <c r="M58">
-        <v>6.791992656062102</v>
+        <v>8.135926190058148</v>
       </c>
       <c r="N58">
-        <v>0.01247195112656918</v>
+        <v>0.02073084449944937</v>
       </c>
       <c r="O58">
-        <v>0.0005079147725967281</v>
+        <v>0.002307072481028081</v>
       </c>
       <c r="P58">
-        <v>0.01511977278654656</v>
+        <v>0.0188333064888368</v>
       </c>
       <c r="Q58">
-        <v>0.004100667528047225</v>
+        <v>0.001289750189917219</v>
       </c>
       <c r="R58">
-        <v>0.001942376292852303</v>
+        <v>0.0007247420329298465</v>
       </c>
       <c r="S58">
-        <v>4.101614013231094E-05</v>
+        <v>1.36939073075524E-06</v>
       </c>
       <c r="T58">
-        <v>0.005054243963450062</v>
+        <v>0.02042386889822057</v>
       </c>
       <c r="U58">
-        <v>0.0009638173053657179</v>
+        <v>0.004297105312922283</v>
       </c>
       <c r="V58">
-        <v>9.710793160911118</v>
+        <v>46.47904776646612</v>
       </c>
       <c r="W58">
-        <v>1.655316260243403</v>
+        <v>3.869392256971906</v>
       </c>
       <c r="X58">
-        <v>0.0003903703261625857</v>
+        <v>0.0001650702561928615</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>0.001355891489949136</v>
       </c>
       <c r="Z58">
-        <v>-0.1160706354072829</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>1.335916689812384</v>
+      </c>
+      <c r="AA58">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB58">
+        <v>1.587707105065857</v>
+      </c>
+      <c r="AC58">
+        <v>0.00301552418094063</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.393582003451951E-06</v>
+        <v>5.398657052258358E-06</v>
       </c>
       <c r="C59">
-        <v>0.08029020343257266</v>
+        <v>0.06865263689874083</v>
       </c>
       <c r="D59">
-        <v>0.005712885232808987</v>
+        <v>0.003900096522879203</v>
       </c>
       <c r="E59">
-        <v>0.0854564540202442</v>
+        <v>0.07314039905742527</v>
       </c>
       <c r="F59">
-        <v>7.548348222538504</v>
+        <v>7.548349888787392</v>
       </c>
       <c r="K59">
-        <v>6.773713555917386</v>
+        <v>8.08502399251239</v>
       </c>
       <c r="L59">
-        <v>5.487217004364976</v>
+        <v>8.733767384936042</v>
       </c>
       <c r="M59">
-        <v>6.799240999862604</v>
+        <v>8.132330960245396</v>
       </c>
       <c r="N59">
-        <v>0.01275018453014994</v>
+        <v>0.02115930431383126</v>
       </c>
       <c r="O59">
-        <v>0.0005226128324747352</v>
+        <v>0.002347996112457657</v>
       </c>
       <c r="P59">
-        <v>0.01537603104837213</v>
+        <v>0.01924129617020702</v>
       </c>
       <c r="Q59">
-        <v>0.004126541191525327</v>
+        <v>0.001326318409523686</v>
       </c>
       <c r="R59">
-        <v>0.001986593970822535</v>
+        <v>0.0007415646525158719</v>
       </c>
       <c r="S59">
-        <v>4.173885546312477E-05</v>
+        <v>1.403798295477072E-06</v>
       </c>
       <c r="T59">
-        <v>0.005149370164800861</v>
+        <v>0.02079890991183216</v>
       </c>
       <c r="U59">
-        <v>0.000987653929755865</v>
+        <v>0.004386668235669799</v>
       </c>
       <c r="V59">
-        <v>9.781952230719712</v>
+        <v>46.73736778169894</v>
       </c>
       <c r="W59">
-        <v>1.710127922572035</v>
+        <v>3.89168834332618</v>
       </c>
       <c r="X59">
-        <v>0.0004092831946854198</v>
+        <v>0.0001681262743456459</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>0.001393781058445983</v>
       </c>
       <c r="Z59">
-        <v>-0.0945158548491225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>1.346039962553346</v>
+      </c>
+      <c r="AA59">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB59">
+        <v>1.622642658325337</v>
+      </c>
+      <c r="AC59">
+        <v>0.003093023989520921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.354959119553761E-06</v>
+        <v>5.365367000175837E-06</v>
       </c>
       <c r="C60">
-        <v>0.08206585386590036</v>
+        <v>0.07019436405054705</v>
       </c>
       <c r="D60">
-        <v>0.00588326869007324</v>
+        <v>0.004014689571644414</v>
       </c>
       <c r="E60">
-        <v>0.08741707646619333</v>
+        <v>0.07484991251107359</v>
       </c>
       <c r="F60">
-        <v>7.548327415413333</v>
+        <v>7.54832912922888</v>
       </c>
       <c r="K60">
-        <v>6.780709531378272</v>
+        <v>8.07998772665648</v>
       </c>
       <c r="L60">
-        <v>5.498004169924938</v>
+        <v>8.724807925584383</v>
       </c>
       <c r="M60">
-        <v>6.806627612335314</v>
+        <v>8.12872037181411</v>
       </c>
       <c r="N60">
-        <v>0.01304131718961839</v>
+        <v>0.02160719260434015</v>
       </c>
       <c r="O60">
-        <v>0.0005381863459760675</v>
+        <v>0.002391161914216025</v>
       </c>
       <c r="P60">
-        <v>0.01564387604496371</v>
+        <v>0.0196678432597471</v>
       </c>
       <c r="Q60">
-        <v>0.004153771518487787</v>
+        <v>0.001364928107430444</v>
       </c>
       <c r="R60">
-        <v>0.002032900044997759</v>
+        <v>0.0007591875299973095</v>
       </c>
       <c r="S60">
-        <v>4.249395337762837E-05</v>
+        <v>1.439719195876636E-06</v>
       </c>
       <c r="T60">
-        <v>0.005248458646587645</v>
+        <v>0.0211896775707884</v>
       </c>
       <c r="U60">
-        <v>0.001012796785981742</v>
+        <v>0.004481099304967974</v>
       </c>
       <c r="V60">
-        <v>9.856669917798872</v>
+        <v>47.00935616441432</v>
       </c>
       <c r="W60">
-        <v>1.76592409453972</v>
+        <v>3.914500117998742</v>
       </c>
       <c r="X60">
-        <v>0.0004290823915467953</v>
+        <v>0.0001712813347454831</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>0.001433731939747033</v>
       </c>
       <c r="Z60">
-        <v>-0.07251659250591302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>1.356411463524518</v>
+      </c>
+      <c r="AA60">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB60">
+        <v>1.659161930932789</v>
+      </c>
+      <c r="AC60">
+        <v>0.003174827479267737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.314593574255017E-06</v>
+        <v>5.33053458232356E-06</v>
       </c>
       <c r="C61">
-        <v>0.08392396569945712</v>
+        <v>0.0718085024524715</v>
       </c>
       <c r="D61">
-        <v>0.00606407807261976</v>
+        <v>0.004136192090258614</v>
       </c>
       <c r="E61">
-        <v>0.08947016078101963</v>
+        <v>0.07664142072736185</v>
       </c>
       <c r="F61">
-        <v>7.548306258714398</v>
+        <v>7.548308022834262</v>
       </c>
       <c r="K61">
-        <v>6.787833917784964</v>
+        <v>8.07486721595769</v>
       </c>
       <c r="L61">
-        <v>5.509106187928729</v>
+        <v>8.715606037094686</v>
       </c>
       <c r="M61">
-        <v>6.814158701594469</v>
+        <v>8.125084018868034</v>
       </c>
       <c r="N61">
-        <v>0.01334627160043894</v>
+        <v>0.02207587627970903</v>
       </c>
       <c r="O61">
-        <v>0.0005547154199849982</v>
+        <v>0.002436725142298159</v>
       </c>
       <c r="P61">
-        <v>0.01592412249682898</v>
+        <v>0.02011425582443775</v>
       </c>
       <c r="Q61">
-        <v>0.004182466219682196</v>
+        <v>0.001405760590048599</v>
       </c>
       <c r="R61">
-        <v>0.002081446535037274</v>
+        <v>0.0007776691839192958</v>
       </c>
       <c r="S61">
-        <v>4.328401607953542E-05</v>
+        <v>1.477295316233277E-06</v>
       </c>
       <c r="T61">
-        <v>0.005351767472456082</v>
+        <v>0.02159720386995475</v>
       </c>
       <c r="U61">
-        <v>0.001039357677265396</v>
+        <v>0.00458078245880834</v>
       </c>
       <c r="V61">
-        <v>9.93509942610498</v>
+        <v>47.29555594551347</v>
       </c>
       <c r="W61">
-        <v>1.822741943784965</v>
+        <v>3.937843430353247</v>
       </c>
       <c r="X61">
-        <v>0.0004498316425239551</v>
+        <v>0.0001745402428839671</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>0.001475901646502568</v>
       </c>
       <c r="Z61">
-        <v>-0.05005510970207538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>1.367039064945452</v>
+      </c>
+      <c r="AA61">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB61">
+        <v>1.697373797723873</v>
+      </c>
+      <c r="AC61">
+        <v>0.003261312808317202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.272366959265359E-06</v>
+        <v>5.294051497547213E-06</v>
       </c>
       <c r="C62">
-        <v>0.08587046289012805</v>
+        <v>0.07350031021152682</v>
       </c>
       <c r="D62">
-        <v>0.006256286476827723</v>
+        <v>0.004265240799971489</v>
       </c>
       <c r="E62">
-        <v>0.09162232712932558</v>
+        <v>0.07852090341462026</v>
       </c>
       <c r="F62">
-        <v>7.548284734563085</v>
+        <v>7.5482865519531</v>
       </c>
       <c r="K62">
-        <v>6.795092620153744</v>
+        <v>8.069662832835373</v>
       </c>
       <c r="L62">
-        <v>5.520537745756141</v>
+        <v>8.70617243398995</v>
       </c>
       <c r="M62">
-        <v>6.821836758111376</v>
+        <v>8.12143642469308</v>
       </c>
       <c r="N62">
-        <v>0.01366606050495029</v>
+        <v>0.0225668550581443</v>
       </c>
       <c r="O62">
-        <v>0.0005722888657232659</v>
+        <v>0.002484933734642463</v>
       </c>
       <c r="P62">
-        <v>0.01621766390375765</v>
+        <v>0.02058196820529748</v>
       </c>
       <c r="Q62">
-        <v>0.004212771828886575</v>
+        <v>0.001449000928354026</v>
       </c>
       <c r="R62">
-        <v>0.002132400598011218</v>
+        <v>0.0007970739811343725</v>
       </c>
       <c r="S62">
-        <v>4.411212788790672E-05</v>
+        <v>1.516596680013456E-06</v>
       </c>
       <c r="T62">
-        <v>0.005459577717335849</v>
+        <v>0.02202261440523341</v>
       </c>
       <c r="U62">
-        <v>0.001067461153113127</v>
+        <v>0.004686208497129191</v>
       </c>
       <c r="V62">
-        <v>10.01741252102569</v>
+        <v>47.59658727842763</v>
       </c>
       <c r="W62">
-        <v>1.880627350575985</v>
+        <v>3.961751987863085</v>
       </c>
       <c r="X62">
-        <v>0.0004716023063147852</v>
+        <v>0.0001779073691096841</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>0.0015204740980279</v>
       </c>
       <c r="Z62">
-        <v>-0.02710863996319901</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>1.377938724908997</v>
+      </c>
+      <c r="AA62">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB62">
+        <v>1.737397115232709</v>
+      </c>
+      <c r="AC62">
+        <v>0.003352889965335954</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.228150196260211E-06</v>
+        <v>5.255799267941585E-06</v>
       </c>
       <c r="C63">
-        <v>0.08791185202893062</v>
+        <v>0.07527556840156671</v>
       </c>
       <c r="D63">
-        <v>0.006460990228448471</v>
+        <v>0.004402552196394992</v>
       </c>
       <c r="E63">
-        <v>0.09388083321731538</v>
+        <v>0.08049492817353143</v>
       </c>
       <c r="F63">
-        <v>7.548262823649765</v>
+        <v>7.548264697527535</v>
       </c>
       <c r="K63">
-        <v>6.802490894688212</v>
+        <v>8.064368527353375</v>
       </c>
       <c r="L63">
-        <v>5.532319866839725</v>
+        <v>8.696472824818764</v>
       </c>
       <c r="M63">
-        <v>6.829668789553794</v>
+        <v>8.117766347347803</v>
       </c>
       <c r="N63">
-        <v>0.01400179823928944</v>
+        <v>0.02308177611772127</v>
       </c>
       <c r="O63">
-        <v>0.0005910075961113524</v>
+        <v>0.002535987181027575</v>
       </c>
       <c r="P63">
-        <v>0.01652548164926717</v>
+        <v>0.02107255710983449</v>
       </c>
       <c r="Q63">
-        <v>0.004244819016060877</v>
+        <v>0.001494876456434922</v>
       </c>
       <c r="R63">
-        <v>0.002185946456219508</v>
+        <v>0.000817472888428074</v>
       </c>
       <c r="S63">
-        <v>4.498149340283809E-05</v>
+        <v>1.55779677009371E-06</v>
       </c>
       <c r="T63">
-        <v>0.005572196090777457</v>
+        <v>0.02246713763364634</v>
       </c>
       <c r="U63">
-        <v>0.001097246998336628</v>
+        <v>0.004797860690996214</v>
       </c>
       <c r="V63">
-        <v>10.10380147542357</v>
+        <v>47.91313951815538</v>
       </c>
       <c r="W63">
-        <v>1.939626028433388</v>
+        <v>3.986249622708801</v>
       </c>
       <c r="X63">
-        <v>0.0004944721447840194</v>
+        <v>0.0001813877418214219</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>0.00156764622704606</v>
       </c>
       <c r="Z63">
-        <v>-0.003654857060809036</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>1.389122106722198</v>
+      </c>
+      <c r="AA63">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB63">
+        <v>1.779361908854134</v>
+      </c>
+      <c r="AC63">
+        <v>0.003450032353012153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.181802418416458E-06</v>
+        <v>5.215648050021147E-06</v>
       </c>
       <c r="C64">
-        <v>0.09005529576052226</v>
+        <v>0.07714064777538701</v>
       </c>
       <c r="D64">
-        <v>0.00667942869338397</v>
+        <v>0.00454893530701461</v>
       </c>
       <c r="E64">
-        <v>0.09625365166703134</v>
+        <v>0.08257072347401485</v>
       </c>
       <c r="F64">
-        <v>7.548240505074824</v>
+        <v>7.548242438939765</v>
       </c>
       <c r="K64">
-        <v>6.810033601328843</v>
+        <v>8.058981348067354</v>
       </c>
       <c r="L64">
-        <v>5.544475700418531</v>
+        <v>8.6865056883048</v>
       </c>
       <c r="M64">
-        <v>6.837662455161987</v>
+        <v>8.114082810652478</v>
       </c>
       <c r="N64">
-        <v>0.01435471378253097</v>
+        <v>0.02362245477395005</v>
       </c>
       <c r="O64">
-        <v>0.0006109858729977064</v>
+        <v>0.002590170017480822</v>
       </c>
       <c r="P64">
-        <v>0.01684865698171997</v>
+        <v>0.02158775923229238</v>
       </c>
       <c r="Q64">
-        <v>0.004278753384332042</v>
+        <v>0.001543625746740613</v>
       </c>
       <c r="R64">
-        <v>0.002242287639451526</v>
+        <v>0.0008389443382085472</v>
       </c>
       <c r="S64">
-        <v>4.589575111690597E-05</v>
+        <v>1.601008791572424E-06</v>
       </c>
       <c r="T64">
-        <v>0.005689957908999585</v>
+        <v>0.02293211860582135</v>
       </c>
       <c r="U64">
-        <v>0.001128872407181846</v>
+        <v>0.004916334300327538</v>
       </c>
       <c r="V64">
-        <v>10.19448131386169</v>
+        <v>48.24599063504004</v>
       </c>
       <c r="W64">
-        <v>1.999787274001605</v>
+        <v>4.01136841386154</v>
       </c>
       <c r="X64">
-        <v>0.000518527634704646</v>
+        <v>0.0001849863655012165</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>0.001617639215286803</v>
       </c>
       <c r="Z64">
-        <v>0.02032982458973187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>1.40060463062807</v>
+      </c>
+      <c r="AA64">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB64">
+        <v>1.823410677561733</v>
+      </c>
+      <c r="AC64">
+        <v>0.003553262718660751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.133169621630283E-06</v>
+        <v>5.173455300943036E-06</v>
       </c>
       <c r="C65">
-        <v>0.09230869757314762</v>
+        <v>0.0791025859502079</v>
       </c>
       <c r="D65">
-        <v>0.006913008092129953</v>
+        <v>0.004705306936565804</v>
       </c>
       <c r="E65">
-        <v>0.09874955864235201</v>
+        <v>0.08475626261922688</v>
       </c>
       <c r="F65">
-        <v>7.548217756171104</v>
+        <v>7.548219753836746</v>
       </c>
       <c r="K65">
-        <v>6.817731358516315</v>
+        <v>8.053500501923327</v>
       </c>
       <c r="L65">
-        <v>5.557033311709448</v>
+        <v>8.676254028815608</v>
       </c>
       <c r="M65">
-        <v>6.845828831857411</v>
+        <v>8.110385872514795</v>
       </c>
       <c r="N65">
-        <v>0.01472616588819403</v>
+        <v>0.02419089490250327</v>
       </c>
       <c r="O65">
-        <v>0.0006323549998489322</v>
+        <v>0.002647775332031299</v>
       </c>
       <c r="P65">
-        <v>0.01718838410597369</v>
+        <v>0.02212949256973972</v>
       </c>
       <c r="Q65">
-        <v>0.004314724016265797</v>
+        <v>0.001595526207423314</v>
       </c>
       <c r="R65">
-        <v>0.002301649582379489</v>
+        <v>0.0008615752390036006</v>
       </c>
       <c r="S65">
-        <v>4.685880468629398E-05</v>
+        <v>1.646398846722866E-06</v>
       </c>
       <c r="T65">
-        <v>0.005813230490129794</v>
+        <v>0.02341903169515902</v>
       </c>
       <c r="U65">
-        <v>0.00116251425965917</v>
+        <v>0.005042275401293345</v>
       </c>
       <c r="V65">
-        <v>10.28969234477142</v>
+        <v>48.59601141648505</v>
       </c>
       <c r="W65">
-        <v>2.061176890862271</v>
+        <v>4.037147680203887</v>
       </c>
       <c r="X65">
-        <v>0.0005438663416999404</v>
+        <v>0.0001887079592353845</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>0.001670703150685934</v>
       </c>
       <c r="Z65">
-        <v>0.04487664013718451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>1.412405387609104</v>
+      </c>
+      <c r="AA65">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB65">
+        <v>1.869699857773382</v>
+      </c>
+      <c r="AC65">
+        <v>0.003663175547137627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.082083200058821E-06</v>
+        <v>5.129064245707038E-06</v>
       </c>
       <c r="C66">
-        <v>0.09468080005873146</v>
+        <v>0.0811691770339202</v>
       </c>
       <c r="D66">
-        <v>0.007163330101742221</v>
+        <v>0.004872710006859718</v>
       </c>
       <c r="E66">
-        <v>0.1013782358122489</v>
+        <v>0.08706036062306902</v>
       </c>
       <c r="F66">
-        <v>7.548194552299849</v>
+        <v>7.548196617931192</v>
       </c>
       <c r="K66">
-        <v>6.82558505091012</v>
+        <v>8.047918179939087</v>
       </c>
       <c r="L66">
-        <v>5.570010553908098</v>
+        <v>8.665694928253675</v>
       </c>
       <c r="M66">
-        <v>6.854166823134525</v>
+        <v>8.106673872539957</v>
       </c>
       <c r="N66">
-        <v>0.01511766063509251</v>
+        <v>0.02478931489057194</v>
       </c>
       <c r="O66">
-        <v>0.0006552599479728823</v>
+        <v>0.0027091285591105</v>
       </c>
       <c r="P66">
-        <v>0.01754598577513224</v>
+        <v>0.02269988052424851</v>
       </c>
       <c r="Q66">
-        <v>0.004352982179557994</v>
+        <v>0.001650893525982594</v>
       </c>
       <c r="R66">
-        <v>0.002364282659537633</v>
+        <v>0.0008854621512301807</v>
       </c>
       <c r="S66">
-        <v>4.78758775666166E-05</v>
+        <v>1.694157875843965E-06</v>
       </c>
       <c r="T66">
-        <v>0.005942417052087312</v>
+        <v>0.0239294971477664</v>
       </c>
       <c r="U66">
-        <v>0.001198373296763024</v>
+        <v>0.005176411251829799</v>
       </c>
       <c r="V66">
-        <v>10.38970335886643</v>
+        <v>48.964175826222</v>
       </c>
       <c r="W66">
-        <v>2.123837752981931</v>
+        <v>4.063617811102088</v>
       </c>
       <c r="X66">
-        <v>0.0005705920729530143</v>
+        <v>0.0001925585726835597</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>0.001727109599184596</v>
       </c>
       <c r="Z66">
-        <v>0.07000824145802298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>1.424538875674264</v>
+      </c>
+      <c r="AA66">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB66">
+        <v>1.918401505546787</v>
+      </c>
+      <c r="AC66">
+        <v>0.003780447393124411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.028358241465572E-06</v>
+        <v>5.08230206745348E-06</v>
       </c>
       <c r="C67">
-        <v>0.09718129920035973</v>
+        <v>0.08334907609183621</v>
       </c>
       <c r="D67">
-        <v>0.007432226531827905</v>
+        <v>0.005052335781261382</v>
       </c>
       <c r="E67">
-        <v>0.104150387851072</v>
+        <v>0.0894927862616255</v>
       </c>
       <c r="F67">
-        <v>7.548170866615132</v>
+        <v>7.548173004772282</v>
       </c>
       <c r="K67">
-        <v>6.833606727647482</v>
+        <v>8.042233344881605</v>
       </c>
       <c r="L67">
-        <v>5.583445818747818</v>
+        <v>8.654816560448971</v>
       </c>
       <c r="M67">
-        <v>6.862693324079957</v>
+        <v>8.102953133497468</v>
       </c>
       <c r="N67">
-        <v>0.01553087208329593</v>
+        <v>0.02542017735718512</v>
       </c>
       <c r="O67">
-        <v>0.0006798726407684122</v>
+        <v>0.002774622221489712</v>
       </c>
       <c r="P67">
-        <v>0.01792292873500579</v>
+        <v>0.02330128015277039</v>
       </c>
       <c r="Q67">
-        <v>0.004393689435813539</v>
+        <v>0.001710079550518765</v>
       </c>
       <c r="R67">
-        <v>0.002430465710451091</v>
+        <v>0.0009107126653260187</v>
       </c>
       <c r="S67">
-        <v>4.89517939471036E-05</v>
+        <v>1.744468030995671E-06</v>
       </c>
       <c r="T67">
-        <v>0.006077961159382292</v>
+        <v>0.02446529960193602</v>
       </c>
       <c r="U67">
-        <v>0.001236677175565126</v>
+        <v>0.005319586290168299</v>
       </c>
       <c r="V67">
-        <v>10.49481518535092</v>
+        <v>49.35157806387846</v>
       </c>
       <c r="W67">
-        <v>2.18784673668813</v>
+        <v>4.090823949080345</v>
       </c>
       <c r="X67">
-        <v>0.0005988255930559389</v>
+        <v>0.0001965432392547769</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>0.001787168796074969</v>
       </c>
       <c r="Z67">
-        <v>0.09576041554229064</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>1.437026968208348</v>
+      </c>
+      <c r="AA67">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB67">
+        <v>1.969705282709776</v>
+      </c>
+      <c r="AC67">
+        <v>0.00390584327890531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.971791706753227E-06</v>
+        <v>5.032977943196601E-06</v>
       </c>
       <c r="C68">
-        <v>0.09982097780825773</v>
+        <v>0.08565192139508841</v>
       </c>
       <c r="D68">
-        <v>0.007721801406051877</v>
+        <v>0.005245550807761832</v>
       </c>
       <c r="E68">
-        <v>0.1070778785069942</v>
+        <v>0.09206439231975638</v>
       </c>
       <c r="F68">
-        <v>7.548146669793507</v>
+        <v>7.548148885482398</v>
       </c>
       <c r="K68">
-        <v>6.841803249708241</v>
+        <v>8.036435065309339</v>
       </c>
       <c r="L68">
-        <v>5.597368374565013</v>
+        <v>8.643584831320974</v>
       </c>
       <c r="M68">
-        <v>6.87141406971936</v>
+        <v>8.099217092626596</v>
       </c>
       <c r="N68">
-        <v>0.01596766618454674</v>
+        <v>0.02608622309647028</v>
       </c>
       <c r="O68">
-        <v>0.0007063868112860311</v>
+        <v>0.002844663394750817</v>
       </c>
       <c r="P68">
-        <v>0.01832084753792321</v>
+        <v>0.02393631546460133</v>
       </c>
       <c r="Q68">
-        <v>0.004437116611586974</v>
+        <v>0.001773497497615032</v>
       </c>
       <c r="R68">
-        <v>0.002500510237407091</v>
+        <v>0.0009374470240699901</v>
       </c>
       <c r="S68">
-        <v>5.009284626293854E-05</v>
+        <v>1.797592601432035E-06</v>
       </c>
       <c r="T68">
-        <v>0.006220351864788679</v>
+        <v>0.02502840881698801</v>
       </c>
       <c r="U68">
-        <v>0.001277685714405811</v>
+        <v>0.005472731146544461</v>
       </c>
       <c r="V68">
-        <v>10.60536502653284</v>
+        <v>49.75944161657034</v>
       </c>
       <c r="W68">
-        <v>2.253270170440651</v>
+        <v>4.118797833072424</v>
       </c>
       <c r="X68">
-        <v>0.0006286991466224309</v>
+        <v>0.0002006687797817754</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>0.001851218125065675</v>
       </c>
       <c r="Z68">
-        <v>0.1221662044915313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>1.449884719323112</v>
+      </c>
+      <c r="AA68">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB68">
+        <v>2.023820612720372</v>
+      </c>
+      <c r="AC68">
+        <v>0.00404024648879346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.912160239050893E-06</v>
+        <v>4.980880713988973E-06</v>
       </c>
       <c r="C69">
-        <v>0.1026118619416579</v>
+        <v>0.08808847807955285</v>
       </c>
       <c r="D69">
-        <v>0.008034482674135413</v>
+        <v>0.005453929956838306</v>
       </c>
       <c r="E69">
-        <v>0.1101738882984399</v>
+        <v>0.09478726724995098</v>
       </c>
       <c r="F69">
-        <v>7.548121929722226</v>
+        <v>7.548124228451611</v>
       </c>
       <c r="K69">
-        <v>6.85018160406119</v>
+        <v>8.030524479013575</v>
       </c>
       <c r="L69">
-        <v>5.611814630270406</v>
+        <v>8.631985972287609</v>
       </c>
       <c r="M69">
-        <v>6.880338466556625</v>
+        <v>8.095474118087969</v>
       </c>
       <c r="N69">
-        <v>0.01643012919585767</v>
+        <v>0.02679051278440117</v>
       </c>
       <c r="O69">
-        <v>0.0007350269271920935</v>
+        <v>0.002919766390053871</v>
       </c>
       <c r="P69">
-        <v>0.0187415666569031</v>
+        <v>0.02460791600905546</v>
       </c>
       <c r="Q69">
-        <v>0.004483547442764502</v>
+        <v>0.001841607911174607</v>
       </c>
       <c r="R69">
-        <v>0.002574765309866004</v>
+        <v>0.000965800037144795</v>
       </c>
       <c r="S69">
-        <v>5.130606097054325E-05</v>
+        <v>1.853763669338177E-06</v>
       </c>
       <c r="T69">
-        <v>0.006370129626921493</v>
+        <v>0.02562100511003175</v>
       </c>
       <c r="U69">
-        <v>0.00132169672101974</v>
+        <v>0.005636949985560333</v>
       </c>
       <c r="V69">
-        <v>10.72173161082218</v>
+        <v>50.18914550820439</v>
       </c>
       <c r="W69">
-        <v>2.320179846035032</v>
+        <v>4.147598631317351</v>
       </c>
       <c r="X69">
-        <v>0.0006603609488365113</v>
+        <v>0.000204940317817918</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.001919653321980945</v>
       </c>
       <c r="Z69">
-        <v>0.1492605631793236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
+        <v>1.463140498170899</v>
+      </c>
+      <c r="AA69">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB69">
+        <v>2.080979237532088</v>
+      </c>
+      <c r="AC69">
+        <v>0.004184660753412163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.849217815644954E-06</v>
+        <v>4.925776242705736E-06</v>
       </c>
       <c r="C70">
-        <v>0.105567405043768</v>
+        <v>0.09067080770838769</v>
       </c>
       <c r="D70">
-        <v>0.008373085797475439</v>
+        <v>0.005679297094456213</v>
       </c>
       <c r="E70">
-        <v>0.1134530982742912</v>
+        <v>0.09767491254757911</v>
       </c>
       <c r="F70">
-        <v>7.548096611133892</v>
+        <v>7.548098998984398</v>
       </c>
       <c r="K70">
-        <v>6.858752584810126</v>
+        <v>8.024494568887707</v>
       </c>
       <c r="L70">
-        <v>5.62682603706157</v>
+        <v>8.619995420601292</v>
       </c>
       <c r="M70">
-        <v>6.889478065543986</v>
+        <v>8.091727047985497</v>
       </c>
       <c r="N70">
-        <v>0.01692060114175347</v>
+        <v>0.02753647360922452</v>
       </c>
       <c r="O70">
-        <v>0.0007660547916224504</v>
+        <v>0.003000500413347252</v>
       </c>
       <c r="P70">
-        <v>0.01918712975734493</v>
+        <v>0.02531936313711423</v>
       </c>
       <c r="Q70">
-        <v>0.004533302009296966</v>
+        <v>0.001914946555274927</v>
       </c>
       <c r="R70">
-        <v>0.002653623411393987</v>
+        <v>0.0009959233581909031</v>
       </c>
       <c r="S70">
-        <v>5.25995173233935E-05</v>
+        <v>1.913276720868876E-06</v>
       </c>
       <c r="T70">
-        <v>0.006527893155230924</v>
+        <v>0.02624550683267149</v>
       </c>
       <c r="U70">
-        <v>0.001369052587291937</v>
+        <v>0.005813496283425504</v>
       </c>
       <c r="V70">
-        <v>10.84434123676022</v>
+        <v>50.64224334760831</v>
       </c>
       <c r="W70">
-        <v>2.388661535003486</v>
+        <v>4.177275383358076</v>
       </c>
       <c r="X70">
-        <v>0.0006939788257252303</v>
+        <v>0.0002093642652588838</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>0.00199291111250036</v>
       </c>
       <c r="Z70">
-        <v>0.1770850841785094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>1.476817645502694</v>
+      </c>
+      <c r="AA70">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB70">
+        <v>2.141438117502614</v>
+      </c>
+      <c r="AC70">
+        <v>0.004340249574827446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.782693077230783E-06</v>
+        <v>4.86740435615175E-06</v>
       </c>
       <c r="C71">
-        <v>0.1087027056646161</v>
+        <v>0.09341246934109516</v>
       </c>
       <c r="D71">
-        <v>0.00874089270539251</v>
+        <v>0.005923775562161194</v>
       </c>
       <c r="E71">
-        <v>0.1169319046901177</v>
+        <v>0.100742450875814</v>
       </c>
       <c r="F71">
-        <v>7.548070675184288</v>
+        <v>7.548073158887052</v>
       </c>
       <c r="K71">
-        <v>6.867526564478029</v>
+        <v>8.018338384821956</v>
       </c>
       <c r="L71">
-        <v>5.642448602968837</v>
+        <v>8.607575537360644</v>
       </c>
       <c r="M71">
-        <v>6.898844630478488</v>
+        <v>8.087973057630755</v>
       </c>
       <c r="N71">
-        <v>0.01744171554014479</v>
+        <v>0.02832795661554315</v>
       </c>
       <c r="O71">
-        <v>0.0007997750681382888</v>
+        <v>0.003087506823105919</v>
       </c>
       <c r="P71">
-        <v>0.01965983387824971</v>
+        <v>0.02607434431717357</v>
       </c>
       <c r="Q71">
-        <v>0.004586750745704584</v>
+        <v>0.001994141078196951</v>
       </c>
       <c r="R71">
-        <v>0.00273752740797691</v>
+        <v>0.001027988199528646</v>
       </c>
       <c r="S71">
-        <v>5.398254358566794E-05</v>
+        <v>1.97649739410734E-06</v>
       </c>
       <c r="T71">
-        <v>0.006694307367099924</v>
+        <v>0.02690460394716329</v>
       </c>
       <c r="U71">
-        <v>0.001420149286143364</v>
+        <v>0.006003804487269133</v>
       </c>
       <c r="V71">
-        <v>10.97367509978014</v>
+        <v>51.12048708080144</v>
       </c>
       <c r="W71">
-        <v>2.45880604004136</v>
+        <v>4.207882207878242</v>
       </c>
       <c r="X71">
-        <v>0.0007297420542144354</v>
+        <v>0.0002139464589819421</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>0.0020714885401671</v>
       </c>
       <c r="Z71">
-        <v>0.2056840610035895</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
+        <v>1.49094238407929</v>
+      </c>
+      <c r="AA71">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB71">
+        <v>2.205482787312346</v>
+      </c>
+      <c r="AC71">
+        <v>0.004508365151442089</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.712286311329545E-06</v>
+        <v>4.805475354519901E-06</v>
       </c>
       <c r="C72">
-        <v>0.1120347660965903</v>
+        <v>0.09632875913372629</v>
       </c>
       <c r="D72">
-        <v>0.009141750540264365</v>
+        <v>0.006189851247878728</v>
       </c>
       <c r="E72">
-        <v>0.1206286706553711</v>
+        <v>0.1040068712742705</v>
       </c>
       <c r="F72">
-        <v>7.548044078951978</v>
+        <v>7.54804666598254</v>
       </c>
       <c r="K72">
-        <v>6.876511783598345</v>
+        <v>8.012043899374548</v>
       </c>
       <c r="L72">
-        <v>5.658729178630647</v>
+        <v>8.594685252572052</v>
       </c>
       <c r="M72">
-        <v>6.9084463714588</v>
+        <v>8.084211311381569</v>
       </c>
       <c r="N72">
-        <v>0.01799644688921168</v>
+        <v>0.02916930494195772</v>
       </c>
       <c r="O72">
-        <v>0.0008365445694860458</v>
+        <v>0.003181534390821608</v>
       </c>
       <c r="P72">
-        <v>0.02016226998266788</v>
+        <v>0.02687701775847279</v>
       </c>
       <c r="Q72">
-        <v>0.004644360126010633</v>
+        <v>0.002079918055238119</v>
       </c>
       <c r="R72">
-        <v>0.002826978903456618</v>
+        <v>0.001062188589599797</v>
       </c>
       <c r="S72">
-        <v>5.54664296817218E-05</v>
+        <v>2.043839331425565E-06</v>
       </c>
       <c r="T72">
-        <v>0.006870112636465143</v>
+        <v>0.0276012972624931</v>
       </c>
       <c r="U72">
-        <v>0.001475447097063995</v>
+        <v>0.006209548158039902</v>
       </c>
       <c r="V72">
-        <v>11.11027811636019</v>
+        <v>51.6258602098366</v>
       </c>
       <c r="W72">
-        <v>2.530704336684853</v>
+        <v>4.239472352219199</v>
       </c>
       <c r="X72">
-        <v>0.0007678634664386142</v>
+        <v>0.0002186945937631882</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>0.002155943168778571</v>
       </c>
       <c r="Z72">
-        <v>0.2351025372419002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>1.50553928644751</v>
+      </c>
+      <c r="AA72">
+        <v>1.2E-06</v>
+      </c>
+      <c r="AB72">
+        <v>2.273431186908923</v>
+      </c>
+      <c r="AC72">
+        <v>0.004690584490594661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.927103510379784E-06</v>
+        <v>7.969474578658164E-06</v>
       </c>
       <c r="C73">
-        <v>0.1155828011157739</v>
+        <v>0.09943699733668653</v>
       </c>
       <c r="D73">
-        <v>0.004527685080315842</v>
+        <v>0.003939875928992023</v>
       </c>
       <c r="E73">
-        <v>0.1222296944374834</v>
+        <v>0.1071946395159865</v>
       </c>
       <c r="F73">
-        <v>11.04804407895198</v>
+        <v>11.14804666598254</v>
       </c>
       <c r="K73">
-        <v>6.885722097455624</v>
+        <v>8.005612713518158</v>
       </c>
       <c r="L73">
-        <v>5.577238005586588</v>
+        <v>8.787023693101023</v>
       </c>
       <c r="M73">
-        <v>6.909639624768427</v>
+        <v>8.07627359987684</v>
       </c>
       <c r="N73">
-        <v>0.01858816765885738</v>
+        <v>0.03006543496096241</v>
       </c>
       <c r="O73">
-        <v>0.0006829210295685787</v>
+        <v>0.002580897687084545</v>
       </c>
       <c r="P73">
-        <v>0.02069737032255261</v>
+        <v>0.0277320901620326</v>
       </c>
       <c r="Q73">
-        <v>0.004512770019097645</v>
+        <v>0.001490898326834883</v>
       </c>
       <c r="R73">
-        <v>0.002922548299104026</v>
+        <v>0.001098745305126292</v>
       </c>
       <c r="S73">
-        <v>4.529794427821448E-05</v>
+        <v>1.341558923917893E-06</v>
       </c>
       <c r="T73">
-        <v>0.007056135586099663</v>
+        <v>0.02833894378333631</v>
       </c>
       <c r="U73">
-        <v>0.001237218371334267</v>
+        <v>0.004224320674085802</v>
       </c>
       <c r="V73">
-        <v>11.19672795642136</v>
+        <v>51.73087544254187</v>
       </c>
       <c r="W73">
-        <v>2.604470014215885</v>
+        <v>4.272129274741431</v>
       </c>
       <c r="X73">
-        <v>0.0008086339134135164</v>
+        <v>0.0002236238668389311</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>0.002246951851184906</v>
       </c>
       <c r="Z73">
-        <v>0.2653953701626754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>1.520649034453177</v>
+      </c>
+      <c r="AA73">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB73">
+        <v>2.400542855948649</v>
+      </c>
+      <c r="AC73">
+        <v>0.002698395643943194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.860735005529572E-06</v>
+        <v>7.893535484312593E-06</v>
       </c>
       <c r="C74">
-        <v>0.1195490552598974</v>
+        <v>0.1028476088155328</v>
       </c>
       <c r="D74">
-        <v>0.004739190604717589</v>
+        <v>0.004119243238701943</v>
       </c>
       <c r="E74">
-        <v>0.126559981284302</v>
+        <v>0.1110461157869887</v>
       </c>
       <c r="F74">
-        <v>11.04804407895198</v>
+        <v>11.14804666598254</v>
       </c>
       <c r="K74">
-        <v>6.89522338044259</v>
+        <v>7.998544945055946</v>
       </c>
       <c r="L74">
-        <v>5.592529698256977</v>
+        <v>8.714416087875509</v>
       </c>
       <c r="M74">
-        <v>6.918774691632381</v>
+        <v>8.041954342868474</v>
       </c>
       <c r="N74">
-        <v>0.01922764075276055</v>
+        <v>0.03104702557788662</v>
       </c>
       <c r="O74">
-        <v>0.0007146796198516306</v>
+        <v>0.002560409292814941</v>
       </c>
       <c r="P74">
-        <v>0.02127539176196171</v>
+        <v>0.02866927558471823</v>
       </c>
       <c r="Q74">
-        <v>0.004577354823390725</v>
+        <v>0.001592236296995051</v>
       </c>
       <c r="R74">
-        <v>0.003025307240347806</v>
+        <v>0.001137938296062092</v>
       </c>
       <c r="S74">
-        <v>4.675044333311633E-05</v>
+        <v>1.825023286833135E-06</v>
       </c>
       <c r="T74">
-        <v>0.007263954058055569</v>
+        <v>0.0292001803229524</v>
       </c>
       <c r="U74">
-        <v>0.001285896042335657</v>
+        <v>0.004274423493564787</v>
       </c>
       <c r="V74">
-        <v>11.29015208645895</v>
+        <v>51.84262985522398</v>
       </c>
       <c r="W74">
-        <v>2.679940934278878</v>
+        <v>4.304350844264643</v>
       </c>
       <c r="X74">
-        <v>0.0008522431402825588</v>
+        <v>0.000228214364142106</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>0.002346957618343692</v>
       </c>
       <c r="Z74">
-        <v>0.2966735577717756</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+        <v>1.536004301348758</v>
+      </c>
+      <c r="AA74">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB74">
+        <v>2.483895592764872</v>
+      </c>
+      <c r="AC74">
+        <v>0.002819253665286059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.789663768373688E-06</v>
+        <v>7.812148978973705E-06</v>
       </c>
       <c r="C75">
-        <v>0.1238012724693485</v>
+        <v>0.106504214948008</v>
       </c>
       <c r="D75">
-        <v>0.004971202760696572</v>
+        <v>0.004315505646465266</v>
       </c>
       <c r="E75">
-        <v>0.1312062576240483</v>
+        <v>0.1151819367352511</v>
       </c>
       <c r="F75">
-        <v>11.04804407895198</v>
+        <v>11.14804666598254</v>
       </c>
       <c r="K75">
-        <v>6.905008112611882</v>
+        <v>7.992176595051269</v>
       </c>
       <c r="L75">
-        <v>5.608914509385332</v>
+        <v>8.700682277803537</v>
       </c>
       <c r="M75">
-        <v>6.929102010635621</v>
+        <v>8.037856528812423</v>
       </c>
       <c r="N75">
-        <v>0.01991330597990533</v>
+        <v>0.03210208544029668</v>
       </c>
       <c r="O75">
-        <v>0.0007485730600722053</v>
+        <v>0.002641212323050627</v>
       </c>
       <c r="P75">
-        <v>0.02189383757450138</v>
+        <v>0.02967212889167094</v>
       </c>
       <c r="Q75">
-        <v>0.004637728193392368</v>
+        <v>0.001664732186348173</v>
       </c>
       <c r="R75">
-        <v>0.003135624158755757</v>
+        <v>0.001180016565424138</v>
       </c>
       <c r="S75">
-        <v>4.797189961807562E-05</v>
+        <v>1.89252138845282E-06</v>
       </c>
       <c r="T75">
-        <v>0.007485363614193344</v>
+        <v>0.0301233565018186</v>
       </c>
       <c r="U75">
-        <v>0.001338931510818336</v>
+        <v>0.004425768170672297</v>
       </c>
       <c r="V75">
-        <v>11.39109286094025</v>
+        <v>51.98001915230596</v>
       </c>
       <c r="W75">
-        <v>2.757576679072365</v>
+        <v>4.339323382736296</v>
       </c>
       <c r="X75">
-        <v>0.0008990668082461195</v>
+        <v>0.0002327291865440927</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>0.002456544580476369</v>
       </c>
       <c r="Z75">
-        <v>0.3289787191353817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+        <v>1.5527342562659</v>
+      </c>
+      <c r="AA75">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB75">
+        <v>2.573227550411123</v>
+      </c>
+      <c r="AC75">
+        <v>0.002941007577913795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.71338091915966E-06</v>
+        <v>7.724718351537874E-06</v>
       </c>
       <c r="C76">
-        <v>0.1283716597658351</v>
+        <v>0.1104345499211443</v>
       </c>
       <c r="D76">
-        <v>0.005226812530404674</v>
+        <v>0.004531129626200195</v>
       </c>
       <c r="E76">
-        <v>0.13620387822882</v>
+        <v>0.1196342246859049</v>
       </c>
       <c r="F76">
-        <v>11.04804407895198</v>
+        <v>11.14804666598254</v>
       </c>
       <c r="K76">
-        <v>6.915067304404814</v>
+        <v>7.985655097668668</v>
       </c>
       <c r="L76">
-        <v>5.626084808350047</v>
+        <v>8.685535067341728</v>
       </c>
       <c r="M76">
-        <v>6.939735828454459</v>
+        <v>8.033248805493367</v>
       </c>
       <c r="N76">
-        <v>0.0206504110922066</v>
+        <v>0.03323519594480615</v>
       </c>
       <c r="O76">
-        <v>0.0007858657718298655</v>
+        <v>0.002728077190146085</v>
       </c>
       <c r="P76">
-        <v>0.02255753408915942</v>
+        <v>0.03074933645726028</v>
       </c>
       <c r="Q76">
-        <v>0.004703175514865782</v>
+        <v>0.001744609114583779</v>
       </c>
       <c r="R76">
-        <v>0.003254380014876437</v>
+        <v>0.00122532902865628</v>
       </c>
       <c r="S76">
-        <v>4.92874827138995E-05</v>
+        <v>1.973318430549103E-06</v>
       </c>
       <c r="T76">
-        <v>0.007721764848938537</v>
+        <v>0.03111172528378577</v>
       </c>
       <c r="U76">
-        <v>0.001396889104526178</v>
+        <v>0.004589188158967348</v>
       </c>
       <c r="V76">
-        <v>11.50016913270793</v>
+        <v>52.14427376754576</v>
       </c>
       <c r="W76">
-        <v>2.837454247422475</v>
+        <v>4.3755848958772</v>
       </c>
       <c r="X76">
-        <v>0.0009494644548080105</v>
+        <v>0.0002373136868294797</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>0.002575646496272148</v>
       </c>
       <c r="Z76">
-        <v>0.3623597465778019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>1.570113495099715</v>
+      </c>
+      <c r="AA76">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB76">
+        <v>2.669193694616353</v>
+      </c>
+      <c r="AC76">
+        <v>0.003074359336583751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.630546167338005E-06</v>
+        <v>7.629591894563997E-06</v>
       </c>
       <c r="C77">
-        <v>0.1332974536552523</v>
+        <v>0.114670686732942</v>
       </c>
       <c r="D77">
-        <v>0.005510422383486755</v>
+        <v>0.004769609172911301</v>
       </c>
       <c r="E77">
-        <v>0.1415923856806574</v>
+        <v>0.1244386922926527</v>
       </c>
       <c r="F77">
-        <v>11.04693665417204</v>
+        <v>11.14694138433677</v>
       </c>
       <c r="K77">
-        <v>6.925418137166273</v>
+        <v>7.978983405391203</v>
       </c>
       <c r="L77">
-        <v>5.644156744351269</v>
+        <v>8.669684521138617</v>
       </c>
       <c r="M77">
-        <v>6.950687293227418</v>
+        <v>8.028610096082035</v>
       </c>
       <c r="N77">
-        <v>0.02144499290502167</v>
+        <v>0.03445548069499255</v>
       </c>
       <c r="O77">
-        <v>0.0008271723455083832</v>
+        <v>0.002823140886231464</v>
       </c>
       <c r="P77">
-        <v>0.02327170843213117</v>
+        <v>0.03190952555096734</v>
       </c>
       <c r="Q77">
-        <v>0.004774513726576013</v>
+        <v>0.001832243873245879</v>
       </c>
       <c r="R77">
-        <v>0.003382583716162939</v>
+        <v>0.001274263257065309</v>
       </c>
       <c r="S77">
-        <v>5.071787547588255E-05</v>
+        <v>2.06118642107489E-06</v>
       </c>
       <c r="T77">
-        <v>0.007974759878715031</v>
+        <v>0.03217262676877851</v>
       </c>
       <c r="U77">
-        <v>0.001460653843250315</v>
+        <v>0.004768347278083438</v>
       </c>
       <c r="V77">
-        <v>11.61813034145888</v>
+        <v>52.33723481946262</v>
       </c>
       <c r="W77">
-        <v>2.919731645386307</v>
+        <v>4.413261943083384</v>
       </c>
       <c r="X77">
-        <v>0.001003864427966825</v>
+        <v>0.0002419472082840427</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>0.002705505732802079</v>
       </c>
       <c r="Z77">
-        <v>0.3968967207405463</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+        <v>1.588204894467061</v>
+      </c>
+      <c r="AA77">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB77">
+        <v>2.772501701016418</v>
+      </c>
+      <c r="AC77">
+        <v>0.003221218696237017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.541988285207157E-06</v>
+        <v>7.527894610290402E-06</v>
       </c>
       <c r="C78">
-        <v>0.1386219132915759</v>
+        <v>0.1192498982979433</v>
       </c>
       <c r="D78">
-        <v>0.005825320226037239</v>
+        <v>0.005033522461167101</v>
       </c>
       <c r="E78">
-        <v>0.1474211818500665</v>
+        <v>0.1296407986168957</v>
       </c>
       <c r="F78">
-        <v>11.04691020695608</v>
+        <v>11.14691508011866</v>
       </c>
       <c r="K78">
-        <v>6.936082761536359</v>
+        <v>7.972152611294137</v>
       </c>
       <c r="L78">
-        <v>5.66313304691098</v>
+        <v>8.653182246121334</v>
       </c>
       <c r="M78">
-        <v>6.961990617862335</v>
+        <v>8.023957104822049</v>
       </c>
       <c r="N78">
-        <v>0.02230406876166806</v>
+        <v>0.03577349485369093</v>
       </c>
       <c r="O78">
-        <v>0.0008729568749526594</v>
+        <v>0.002927395860318263</v>
       </c>
       <c r="P78">
-        <v>0.02404242487819596</v>
+        <v>0.0331627456208724</v>
       </c>
       <c r="Q78">
-        <v>0.004852343014229662</v>
+        <v>0.001928493947608168</v>
       </c>
       <c r="R78">
-        <v>0.0035214114595249</v>
+        <v>0.001327271676675486</v>
       </c>
       <c r="S78">
-        <v>5.226617864438005E-05</v>
+        <v>2.156396345793659E-06</v>
       </c>
       <c r="T78">
-        <v>0.00824618096352606</v>
+        <v>0.03331447174755747</v>
       </c>
       <c r="U78">
-        <v>0.001530801113896176</v>
+        <v>0.004964928642360405</v>
       </c>
       <c r="V78">
-        <v>11.74579169295681</v>
+        <v>52.56095404528924</v>
       </c>
       <c r="W78">
-        <v>3.004594793376029</v>
+        <v>4.4524720967325</v>
       </c>
       <c r="X78">
-        <v>0.001062768331703349</v>
+        <v>0.0002466034196141712</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>0.002847564652646841</v>
       </c>
       <c r="Z78">
-        <v>0.432682156006031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
+        <v>1.607067475641166</v>
+      </c>
+      <c r="AA78">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB78">
+        <v>2.884100996813053</v>
+      </c>
+      <c r="AC78">
+        <v>0.0033829456422274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.446190729801093E-06</v>
+        <v>7.417765358956623E-06</v>
       </c>
       <c r="C79">
-        <v>0.1443956782074689</v>
+        <v>0.124215827682151</v>
       </c>
       <c r="D79">
-        <v>0.006177735672083147</v>
+        <v>0.005327753667249406</v>
       </c>
       <c r="E79">
-        <v>0.153744081060069</v>
+        <v>0.1352893656701984</v>
       </c>
       <c r="F79">
-        <v>11.04688280955294</v>
+        <v>11.14688784020166</v>
       </c>
       <c r="K79">
-        <v>6.947079675641476</v>
+        <v>7.965153356808641</v>
       </c>
       <c r="L79">
-        <v>5.683158944800006</v>
+        <v>8.635882091216624</v>
       </c>
       <c r="M79">
-        <v>6.973658724447278</v>
+        <v>8.019274292024434</v>
       </c>
       <c r="N79">
-        <v>0.02323585623500351</v>
+        <v>0.03720158611427236</v>
       </c>
       <c r="O79">
-        <v>0.0009240997493888499</v>
+        <v>0.003042350994054854</v>
       </c>
       <c r="P79">
-        <v>0.0248767762635858</v>
+        <v>0.03452075656318823</v>
       </c>
       <c r="Q79">
-        <v>0.004937818327905507</v>
+        <v>0.002034891649505403</v>
       </c>
       <c r="R79">
-        <v>0.003672243863041445</v>
+        <v>0.001384885384515907</v>
       </c>
       <c r="S79">
-        <v>5.395982630465536E-05</v>
+        <v>2.260608544554771E-06</v>
       </c>
       <c r="T79">
-        <v>0.008538154000466491</v>
+        <v>0.03454706057821821</v>
       </c>
       <c r="U79">
-        <v>0.001608548280414056</v>
+        <v>0.005181994273724464</v>
       </c>
       <c r="V79">
-        <v>11.88414526044302</v>
+        <v>52.81792799046699</v>
       </c>
       <c r="W79">
-        <v>3.092236545908463</v>
+        <v>4.493348359363729</v>
       </c>
       <c r="X79">
-        <v>0.001126762338118377</v>
+        <v>0.0002512451043035598</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>0.003003538652381493</v>
       </c>
       <c r="Z79">
-        <v>0.4698140401512951</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26">
+        <v>1.62676891349655</v>
+      </c>
+      <c r="AA79">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB79">
+        <v>3.004954504571943</v>
+      </c>
+      <c r="AC79">
+        <v>0.003562371611108151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.342255399823844E-06</v>
+        <v>7.298141802279025E-06</v>
       </c>
       <c r="C80">
-        <v>0.1506783119590773</v>
+        <v>0.1296198310464647</v>
       </c>
       <c r="D80">
-        <v>0.006574665346990597</v>
+        <v>0.005657732710029072</v>
       </c>
       <c r="E80">
-        <v>0.1606252857504784</v>
+        <v>0.1414429791738541</v>
       </c>
       <c r="F80">
-        <v>11.04685437037319</v>
+        <v>11.14685957518205</v>
       </c>
       <c r="K80">
-        <v>6.958435798250964</v>
+        <v>7.957968669265047</v>
       </c>
       <c r="L80">
-        <v>5.704368430831759</v>
+        <v>8.617709850267504</v>
       </c>
       <c r="M80">
-        <v>6.985726470121562</v>
+        <v>8.014567176750544</v>
       </c>
       <c r="N80">
-        <v>0.02425002698434963</v>
+        <v>0.03875427861973679</v>
       </c>
       <c r="O80">
-        <v>0.0009815899307401546</v>
+        <v>0.003169771582279469</v>
       </c>
       <c r="P80">
-        <v>0.02578309253338945</v>
+        <v>0.03599738678653745</v>
       </c>
       <c r="Q80">
-        <v>0.005032099147359731</v>
+        <v>0.002153118035905394</v>
       </c>
       <c r="R80">
-        <v>0.003836711319256753</v>
+        <v>0.001447731965241878</v>
       </c>
       <c r="S80">
-        <v>5.582314164445717E-05</v>
+        <v>2.375178023190543E-06</v>
       </c>
       <c r="T80">
-        <v>0.008853136078650693</v>
+        <v>0.03588183631933157</v>
       </c>
       <c r="U80">
-        <v>0.001695212759987427</v>
+        <v>0.005422965628310748</v>
       </c>
       <c r="V80">
-        <v>12.03436653537645</v>
+        <v>53.11113360347705</v>
       </c>
       <c r="W80">
-        <v>3.182890457470823</v>
+        <v>4.53603210129787</v>
       </c>
       <c r="X80">
-        <v>0.001196541374980691</v>
+        <v>0.0002558263538489087</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>0.003175453272610697</v>
       </c>
       <c r="Z80">
-        <v>0.508409040739374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
+        <v>1.647379434254283</v>
+      </c>
+      <c r="AA80">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB80">
+        <v>3.136228185180615</v>
+      </c>
+      <c r="AC80">
+        <v>0.003762563402054619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.229136357986141E-06</v>
+        <v>7.167782927235499E-06</v>
       </c>
       <c r="C81">
-        <v>0.1575403903691767</v>
+        <v>0.1355227881101045</v>
       </c>
       <c r="D81">
-        <v>0.00702492941899666</v>
+        <v>0.006030243633984033</v>
       </c>
       <c r="E81">
-        <v>0.1681403409854962</v>
+        <v>0.1481706539294272</v>
       </c>
       <c r="F81">
-        <v>11.04682478399136</v>
+        <v>11.14683018227109</v>
       </c>
       <c r="K81">
-        <v>6.970175851105482</v>
+        <v>7.950587411904747</v>
       </c>
       <c r="L81">
-        <v>5.726903720935481</v>
+        <v>8.598558694169684</v>
       </c>
       <c r="M81">
-        <v>6.998216966488667</v>
+        <v>8.009834459503763</v>
       </c>
       <c r="N81">
-        <v>0.02535804779642628</v>
+        <v>0.04044877895485381</v>
       </c>
       <c r="O81">
-        <v>0.001046666969473297</v>
+        <v>0.003311809330135819</v>
       </c>
       <c r="P81">
-        <v>0.02677123507558135</v>
+        <v>0.03760901863180565</v>
       </c>
       <c r="Q81">
-        <v>0.005136753112196185</v>
+        <v>0.002285266057693921</v>
       </c>
       <c r="R81">
-        <v>0.004016753613428767</v>
+        <v>0.001516558478918958</v>
       </c>
       <c r="S81">
-        <v>5.788817516900151E-05</v>
+        <v>2.50191091761419E-06</v>
       </c>
       <c r="T81">
-        <v>0.009193989570015611</v>
+        <v>0.0373322587331897</v>
       </c>
       <c r="U81">
-        <v>0.001792433352195073</v>
+        <v>0.00569204387428239</v>
       </c>
       <c r="V81">
-        <v>12.19785924990431</v>
+        <v>53.44413476746571</v>
       </c>
       <c r="W81">
-        <v>3.276809060884119</v>
+        <v>4.580697478609537</v>
       </c>
       <c r="X81">
-        <v>0.001272931549009552</v>
+        <v>0.0002602811256868194</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>0.003365761246503693</v>
       </c>
       <c r="Z81">
-        <v>0.5485948126507854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26">
+        <v>1.668986902436146</v>
+      </c>
+      <c r="AA81">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB81">
+        <v>3.279284104216091</v>
+      </c>
+      <c r="AC81">
+        <v>0.003987336027245033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.10561032465041E-06</v>
+        <v>7.025231966525672E-06</v>
       </c>
       <c r="C82">
-        <v>0.1650661634166857</v>
+        <v>0.1419974153339105</v>
       </c>
       <c r="D82">
-        <v>0.007539797165558955</v>
+        <v>0.006453867629075864</v>
       </c>
       <c r="E82">
-        <v>0.1763786842455927</v>
+        <v>0.1555541904792486</v>
       </c>
       <c r="F82">
-        <v>11.04679392824422</v>
+        <v>11.14679954251331</v>
       </c>
       <c r="K82">
-        <v>6.982332571240814</v>
+        <v>7.942992416992194</v>
       </c>
       <c r="L82">
-        <v>5.750946290230038</v>
+        <v>8.578310941922549</v>
       </c>
       <c r="M82">
-        <v>7.011166277911679</v>
+        <v>8.005076910839547</v>
       </c>
       <c r="N82">
-        <v>0.02657361683777393</v>
+        <v>0.04230562743608972</v>
       </c>
       <c r="O82">
-        <v>0.001120915304567879</v>
+        <v>0.003471156340125622</v>
       </c>
       <c r="P82">
-        <v>0.02785295917375061</v>
+        <v>0.03937520626051124</v>
       </c>
       <c r="Q82">
-        <v>0.005253655167745031</v>
+        <v>0.002433947218948848</v>
       </c>
       <c r="R82">
-        <v>0.004214696885341756</v>
+        <v>0.001592261307319026</v>
       </c>
       <c r="S82">
-        <v>6.019478632298966E-05</v>
+        <v>2.643062893447378E-06</v>
       </c>
       <c r="T82">
-        <v>0.009564067380906639</v>
+        <v>0.03891426947613508</v>
       </c>
       <c r="U82">
-        <v>0.00190227384536451</v>
+        <v>0.00599448909303067</v>
       </c>
       <c r="V82">
-        <v>12.3763148004907</v>
+        <v>53.82122923555197</v>
       </c>
       <c r="W82">
-        <v>3.374293270415983</v>
+        <v>4.6275378073423</v>
       </c>
       <c r="X82">
-        <v>0.001356925917765001</v>
+        <v>0.0002645237349720373</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>0.003577419453429527</v>
       </c>
       <c r="Z82">
-        <v>0.5905217710612245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26">
+        <v>1.691687561637489</v>
+      </c>
+      <c r="AA82">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB82">
+        <v>3.435721128623747</v>
+      </c>
+      <c r="AC82">
+        <v>0.004241487608221696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.970240950494794E-06</v>
+        <v>6.868770777513212E-06</v>
       </c>
       <c r="C83">
-        <v>0.173357024798324</v>
+        <v>0.149131286265744</v>
       </c>
       <c r="D83">
-        <v>0.008133884591255015</v>
+        <v>0.006939609224923601</v>
       </c>
       <c r="E83">
-        <v>0.185446894600265</v>
+        <v>0.1636911796531401</v>
       </c>
       <c r="F83">
-        <v>11.04676166053649</v>
+        <v>11.14676751724929</v>
       </c>
       <c r="K83">
-        <v>6.994937530197904</v>
+        <v>7.935167165445923</v>
       </c>
       <c r="L83">
-        <v>5.776709676887137</v>
+        <v>8.556823299710718</v>
       </c>
       <c r="M83">
-        <v>7.024608500681628</v>
+        <v>8.000295479688274</v>
       </c>
       <c r="N83">
-        <v>0.02791323270794267</v>
+        <v>0.04434954696745625</v>
       </c>
       <c r="O83">
-        <v>0.001206382152478443</v>
+        <v>0.003651217099568754</v>
       </c>
       <c r="P83">
-        <v>0.02904239622669827</v>
+        <v>0.04131948305217242</v>
       </c>
       <c r="Q83">
-        <v>0.005385239274139922</v>
+        <v>0.002602474933765816</v>
       </c>
       <c r="R83">
-        <v>0.00443335489055327</v>
+        <v>0.001675925425446688</v>
       </c>
       <c r="S83">
-        <v>6.279501352612672E-05</v>
+        <v>2.801527256858627E-06</v>
       </c>
       <c r="T83">
-        <v>0.009967319672250962</v>
+        <v>0.04064688949629847</v>
       </c>
       <c r="U83">
-        <v>0.002027369149652271</v>
+        <v>0.006336961346343711</v>
       </c>
       <c r="V83">
-        <v>12.57179229262835</v>
+        <v>54.24764309150404</v>
       </c>
       <c r="W83">
-        <v>3.475676109493925</v>
+        <v>4.676781310227565</v>
       </c>
       <c r="X83">
-        <v>0.001449724908295439</v>
+        <v>0.0002684370863036404</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>0.003814048803065214</v>
       </c>
       <c r="Z83">
-        <v>0.6343575226777567</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26">
+        <v>1.715595330191839</v>
+      </c>
+      <c r="AA83">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB83">
+        <v>3.607424998048746</v>
+      </c>
+      <c r="AC83">
+        <v>0.004531134836675978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.821335636874881E-06</v>
+        <v>6.696363409141874E-06</v>
       </c>
       <c r="C84">
-        <v>0.1825360881431612</v>
+        <v>0.1570308238791229</v>
       </c>
       <c r="D84">
-        <v>0.008826470877178574</v>
+        <v>0.007501799477639533</v>
       </c>
       <c r="E84">
-        <v>0.1954728681928775</v>
+        <v>0.1726988645727923</v>
       </c>
       <c r="F84">
-        <v>11.04672781307412</v>
+        <v>11.14673394356982</v>
       </c>
       <c r="K84">
-        <v>7.008032111678435</v>
+        <v>7.927087960749287</v>
       </c>
       <c r="L84">
-        <v>5.80445948196235</v>
+        <v>8.533895612220952</v>
       </c>
       <c r="M84">
-        <v>7.038588531751905</v>
+        <v>7.995479986638432</v>
       </c>
       <c r="N84">
-        <v>0.02939694662769069</v>
+        <v>0.04661056529345001</v>
       </c>
       <c r="O84">
-        <v>0.001305765682411321</v>
+        <v>0.003856314579369217</v>
       </c>
       <c r="P84">
-        <v>0.03035668272406263</v>
+        <v>0.04347042794763946</v>
       </c>
       <c r="Q84">
-        <v>0.005534598680912052</v>
+        <v>0.002795134015204894</v>
       </c>
       <c r="R84">
-        <v>0.004676163772610335</v>
+        <v>0.001768876753123901</v>
       </c>
       <c r="S84">
-        <v>6.575650029416284E-05</v>
+        <v>2.981151046519976E-06</v>
       </c>
       <c r="T84">
-        <v>0.01040842803461756</v>
+        <v>0.0425529966157404</v>
       </c>
       <c r="U84">
-        <v>0.002172806516158105</v>
+        <v>0.00672797752827828</v>
       </c>
       <c r="V84">
-        <v>12.78711036257128</v>
+        <v>54.72978827291612</v>
       </c>
       <c r="W84">
-        <v>3.581357902269847</v>
+        <v>4.7286867636764</v>
       </c>
       <c r="X84">
-        <v>0.001552798580193038</v>
+        <v>0.0002718650645348135</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>0.004080111921236735</v>
       </c>
       <c r="Z84">
-        <v>0.6803016639483515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26">
+        <v>1.740838593379908</v>
+      </c>
+      <c r="AA84">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB84">
+        <v>3.796630262747805</v>
+      </c>
+      <c r="AC84">
+        <v>0.004864196584720941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.65689422768457E-06</v>
+        <v>6.505586742916266E-06</v>
       </c>
       <c r="C85">
-        <v>0.1927543009235131</v>
+        <v>0.165826648843916</v>
       </c>
       <c r="D85">
-        <v>0.00964347622440871</v>
+        <v>0.008159427842380114</v>
       </c>
       <c r="E85">
-        <v>0.2066112339624013</v>
+        <v>0.1827191489814178</v>
       </c>
       <c r="F85">
-        <v>11.04669218663936</v>
+        <v>11.14669862838976</v>
       </c>
       <c r="K85">
-        <v>7.021655942027476</v>
+        <v>7.918733254870829</v>
       </c>
       <c r="L85">
-        <v>5.834519565685881</v>
+        <v>8.509312773094081</v>
       </c>
       <c r="M85">
-        <v>7.053148708925657</v>
+        <v>7.990630481017793</v>
       </c>
       <c r="N85">
-        <v>0.03104936903623653</v>
+        <v>0.04912552121780771</v>
       </c>
       <c r="O85">
-        <v>0.001422681557925552</v>
+        <v>0.00409214289530166</v>
       </c>
       <c r="P85">
-        <v>0.0318168053148362</v>
+        <v>0.04586309229660621</v>
       </c>
       <c r="Q85">
-        <v>0.005705886393012925</v>
+        <v>0.003017512101878655</v>
       </c>
       <c r="R85">
-        <v>0.004947364200393639</v>
+        <v>0.001872752965010806</v>
       </c>
       <c r="S85">
-        <v>6.916902113517895E-05</v>
+        <v>3.186964263938286E-06</v>
       </c>
       <c r="T85">
-        <v>0.01089287635923282</v>
+        <v>0.04466035067970876</v>
       </c>
       <c r="U85">
-        <v>0.002342752181690746</v>
+        <v>0.007178709645694985</v>
       </c>
       <c r="V85">
-        <v>13.02564834417959</v>
+        <v>55.27563485116514</v>
       </c>
       <c r="W85">
-        <v>3.691787617751576</v>
+        <v>4.783567669787381</v>
       </c>
       <c r="X85">
-        <v>0.0016679596753448</v>
+        <v>0.0002745931430807609</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>0.004381185147159612</v>
       </c>
       <c r="Z85">
-        <v>0.7285792173715366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26">
+        <v>1.767572705539236</v>
+      </c>
+      <c r="AA85">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB85">
+        <v>4.005996407868293</v>
+      </c>
+      <c r="AC85">
+        <v>0.00525108486954321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.474549721642402E-06</v>
+        <v>6.293545907428682E-06</v>
       </c>
       <c r="C86">
-        <v>0.204198727467207</v>
+        <v>0.1756808501565119</v>
       </c>
       <c r="D86">
-        <v>0.01062051550776823</v>
+        <v>0.00893815612050545</v>
       </c>
       <c r="E86">
-        <v>0.2190504484419049</v>
+        <v>0.1939251529706673</v>
       </c>
       <c r="F86">
-        <v>11.04665454234272</v>
+        <v>11.1466613406099</v>
       </c>
       <c r="K86">
-        <v>7.035861135626573</v>
+        <v>7.910075662905979</v>
       </c>
       <c r="L86">
-        <v>5.867304847997014</v>
+        <v>8.482781816355768</v>
       </c>
       <c r="M86">
-        <v>7.06834357087471</v>
+        <v>7.985735926202706</v>
       </c>
       <c r="N86">
-        <v>0.03290103700363096</v>
+        <v>0.0519401073629643</v>
       </c>
       <c r="O86">
-        <v>0.001562088273574878</v>
+        <v>0.004366234376977197</v>
       </c>
       <c r="P86">
-        <v>0.03344873774745013</v>
+        <v>0.04854094105877665</v>
       </c>
       <c r="Q86">
-        <v>0.005904629788848753</v>
+        <v>0.003277091132481945</v>
       </c>
       <c r="R86">
-        <v>0.005252251399097289</v>
+        <v>0.001989600840057484</v>
       </c>
       <c r="S86">
-        <v>7.315719001452415E-05</v>
+        <v>3.425902126569804E-06</v>
       </c>
       <c r="T86">
-        <v>0.01142725912032919</v>
+        <v>0.0470029532443346</v>
       </c>
       <c r="U86">
-        <v>0.002542247118610872</v>
+        <v>0.007703984250347276</v>
       </c>
       <c r="V86">
-        <v>13.29145747399932</v>
+        <v>55.89522177446455</v>
       </c>
       <c r="W86">
-        <v>3.807512323549275</v>
+        <v>4.841794254664222</v>
       </c>
       <c r="X86">
-        <v>0.001797477975788128</v>
+        <v>0.0002763296511394122</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>0.004724310809394833</v>
       </c>
       <c r="Z86">
-        <v>0.7794613449207635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26">
+        <v>1.795979702065546</v>
+      </c>
+      <c r="AA86">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB86">
+        <v>4.238700688934971</v>
+      </c>
+      <c r="AC86">
+        <v>0.005705761264095715</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.271503768146982E-06</v>
+        <v>6.056773278887084E-06</v>
       </c>
       <c r="C87">
-        <v>0.2171039415978362</v>
+        <v>0.1867970297589123</v>
       </c>
       <c r="D87">
-        <v>0.01180775995548717</v>
+        <v>0.009873450995215131</v>
       </c>
       <c r="E87">
-        <v>0.2330221947942525</v>
+        <v>0.2065298821774971</v>
       </c>
       <c r="F87">
-        <v>11.04661459050043</v>
+        <v>11.14662180059663</v>
       </c>
       <c r="K87">
-        <v>7.050701951010655</v>
+        <v>7.901082565588758</v>
       </c>
       <c r="L87">
-        <v>5.90332337258945</v>
+        <v>8.453923205949117</v>
       </c>
       <c r="M87">
-        <v>7.084215218378948</v>
+        <v>7.980778606116659</v>
       </c>
       <c r="N87">
-        <v>0.03499030025230136</v>
+        <v>0.05511169889536345</v>
       </c>
       <c r="O87">
-        <v>0.001730945325918686</v>
+        <v>0.004688820630611292</v>
       </c>
       <c r="P87">
-        <v>0.03528501161135689</v>
+        <v>0.05155853105386296</v>
       </c>
       <c r="Q87">
-        <v>0.006138651145704029</v>
+        <v>0.003584097035357346</v>
       </c>
       <c r="R87">
-        <v>0.005597524346369474</v>
+        <v>0.002122012502586212</v>
       </c>
       <c r="S87">
-        <v>7.789894672071763E-05</v>
+        <v>3.707689919033176E-06</v>
       </c>
       <c r="T87">
-        <v>0.01201959325377708</v>
+        <v>0.04962288451060043</v>
       </c>
       <c r="U87">
-        <v>0.002779577274615797</v>
+        <v>0.008323938193839826</v>
       </c>
       <c r="V87">
-        <v>13.58975049400679</v>
+        <v>56.60140173096949</v>
       </c>
       <c r="W87">
-        <v>3.929170126734519</v>
+        <v>4.903809656071736</v>
       </c>
       <c r="X87">
-        <v>0.001944227191109664</v>
+        <v>0.000276672152304092</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.005118504202739389</v>
       </c>
       <c r="Z87">
-        <v>0.8332639997293354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26">
+        <v>1.826276277268819</v>
+      </c>
+      <c r="AA87">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB87">
+        <v>4.498548980913015</v>
+      </c>
+      <c r="AC87">
+        <v>0.00624734569866822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.484152424726055E-06</v>
+        <v>1.023601804569062E-05</v>
       </c>
       <c r="C88">
-        <v>0.2317679545722897</v>
+        <v>0.1994344282420336</v>
       </c>
       <c r="D88">
-        <v>0.007389447190186325</v>
+        <v>0.006381020519403134</v>
       </c>
       <c r="E88">
-        <v>0.2499497502858799</v>
+        <v>0.2211734871790519</v>
       </c>
       <c r="F88">
-        <v>16.04661459050043</v>
+        <v>16.14662180059663</v>
       </c>
       <c r="K88">
-        <v>7.06624332075236</v>
+        <v>7.891717483389742</v>
       </c>
       <c r="L88">
-        <v>5.711160424034743</v>
+        <v>8.59408086185366</v>
       </c>
       <c r="M88">
-        <v>7.101777673369086</v>
+        <v>7.975068681325855</v>
       </c>
       <c r="N88">
-        <v>0.03736596846132869</v>
+        <v>0.05871333305713147</v>
       </c>
       <c r="O88">
-        <v>0.001106278073288486</v>
+        <v>0.00384026847391761</v>
       </c>
       <c r="P88">
-        <v>0.03736689450176067</v>
+        <v>0.05498527634089909</v>
       </c>
       <c r="Q88">
-        <v>0.005585347840597767</v>
+        <v>0.002723824593587899</v>
       </c>
       <c r="R88">
-        <v>0.005991783303487244</v>
+        <v>0.002273319989205296</v>
       </c>
       <c r="S88">
-        <v>4.626945452123586E-05</v>
+        <v>2.347474524125563E-06</v>
       </c>
       <c r="T88">
-        <v>0.01267959439514574</v>
+        <v>0.0525728092475119</v>
       </c>
       <c r="U88">
-        <v>0.001836176575641594</v>
+        <v>0.006241428846212501</v>
       </c>
       <c r="V88">
-        <v>13.72925531592987</v>
+        <v>56.95596791296161</v>
       </c>
       <c r="W88">
-        <v>4.057535713925279</v>
+        <v>4.970156512189277</v>
       </c>
       <c r="X88">
-        <v>0.002111994835643693</v>
+        <v>0.0002750908658799795</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>0.005575499196688894</v>
       </c>
       <c r="Z88">
-        <v>0.8903677138170076</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26">
+        <v>1.858726168738308</v>
+      </c>
+      <c r="AA88">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB88">
+        <v>4.911300579541</v>
+      </c>
+      <c r="AC88">
+        <v>0.004081554631428995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.193063146919202E-06</v>
+        <v>9.899858614736418E-06</v>
       </c>
       <c r="C89">
-        <v>0.2490278397555285</v>
+        <v>0.2142846903745436</v>
       </c>
       <c r="D89">
-        <v>0.008266111502524117</v>
+        <v>0.007104576657911489</v>
       </c>
       <c r="E89">
-        <v>0.2690497168408185</v>
+        <v>0.2383989448741644</v>
       </c>
       <c r="F89">
-        <v>16.0453249250898</v>
+        <v>16.14533520150091</v>
       </c>
       <c r="K89">
-        <v>7.082834571848917</v>
+        <v>7.881336539038872</v>
       </c>
       <c r="L89">
-        <v>5.744130635592946</v>
+        <v>8.469715437393111</v>
       </c>
       <c r="M89">
-        <v>7.114772175354709</v>
+        <v>7.941246852882347</v>
       </c>
       <c r="N89">
-        <v>0.04015517541425487</v>
+        <v>0.06293433802507099</v>
       </c>
       <c r="O89">
-        <v>0.001236165385080242</v>
+        <v>0.004000935597252829</v>
       </c>
       <c r="P89">
-        <v>0.03981162886031166</v>
+        <v>0.05900538801376918</v>
       </c>
       <c r="Q89">
-        <v>0.005854393759078763</v>
+        <v>0.003078542343940143</v>
       </c>
       <c r="R89">
-        <v>0.006449130522638475</v>
+        <v>0.002448010182642309</v>
       </c>
       <c r="S89">
-        <v>5.02277009935475E-05</v>
+        <v>3.184895202683764E-06</v>
       </c>
       <c r="T89">
-        <v>0.01351370345818453</v>
+        <v>0.05613676158607339</v>
       </c>
       <c r="U89">
-        <v>0.002029259320922643</v>
+        <v>0.00664818957730175</v>
       </c>
       <c r="V89">
-        <v>13.89633141853802</v>
+        <v>57.36723855221857</v>
       </c>
       <c r="W89">
-        <v>4.193463940320569</v>
+        <v>5.039140273255782</v>
       </c>
       <c r="X89">
-        <v>0.002305902486746258</v>
+        <v>0.000267982131883036</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>0.006119602054238174</v>
       </c>
       <c r="Z89">
-        <v>0.9519074544568742</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26">
+        <v>1.893385152706346</v>
+      </c>
+      <c r="AA89">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB89">
+        <v>5.278991367095444</v>
+      </c>
+      <c r="AC89">
+        <v>0.004520600408304777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.85841638809942E-06</v>
+        <v>9.51276598495487E-06</v>
       </c>
       <c r="C90">
-        <v>0.2690913171099455</v>
+        <v>0.2315496998509296</v>
       </c>
       <c r="D90">
-        <v>0.009368910578336168</v>
+        <v>0.008004513930478957</v>
       </c>
       <c r="E90">
-        <v>0.2911929888638572</v>
+        <v>0.258407578299441</v>
       </c>
       <c r="F90">
-        <v>16.0452832732833</v>
+        <v>16.14529389604911</v>
       </c>
       <c r="K90">
-        <v>7.100631554783559</v>
+        <v>7.872127015036741</v>
       </c>
       <c r="L90">
-        <v>5.785332219505203</v>
+        <v>8.435814123062835</v>
       </c>
       <c r="M90">
-        <v>7.133806575286754</v>
+        <v>7.93652818256925</v>
       </c>
       <c r="N90">
-        <v>0.04339842625001943</v>
+        <v>0.06784545489405584</v>
       </c>
       <c r="O90">
-        <v>0.001395242179754305</v>
+        <v>0.004352453674588383</v>
       </c>
       <c r="P90">
-        <v>0.04264139845208108</v>
+        <v>0.06366595848625493</v>
       </c>
       <c r="Q90">
-        <v>0.006111500535771666</v>
+        <v>0.00341309158242897</v>
       </c>
       <c r="R90">
-        <v>0.00698237242444222</v>
+        <v>0.002651745623262278</v>
       </c>
       <c r="S90">
-        <v>5.373476740890254E-05</v>
+        <v>3.483537797188341E-06</v>
       </c>
       <c r="T90">
-        <v>0.01447074046962302</v>
+        <v>0.06026080925347103</v>
       </c>
       <c r="U90">
-        <v>0.002269048721871107</v>
+        <v>0.007297906863506805</v>
       </c>
       <c r="V90">
-        <v>14.09740231992676</v>
+        <v>57.87155017595311</v>
       </c>
       <c r="W90">
-        <v>4.33885732177815</v>
+        <v>5.116791713769317</v>
       </c>
       <c r="X90">
-        <v>0.002532240049413397</v>
+        <v>0.0002551006354016213</v>
       </c>
       <c r="Y90">
-        <v>0</v>
+        <v>0.006769782877323236</v>
       </c>
       <c r="Z90">
-        <v>1.018169033575277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26">
+        <v>1.93245506764026</v>
+      </c>
+      <c r="AA90">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB90">
+        <v>5.703833059954326</v>
+      </c>
+      <c r="AC90">
+        <v>0.005051144124574914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.469116418268157E-06</v>
+        <v>9.061420250574247E-06</v>
       </c>
       <c r="C91">
-        <v>0.2927024449764555</v>
+        <v>0.2518719894800615</v>
       </c>
       <c r="D91">
-        <v>0.01079652690929989</v>
+        <v>0.009152753519606103</v>
       </c>
       <c r="E91">
-        <v>0.3171298141427467</v>
+        <v>0.2818909102859367</v>
       </c>
       <c r="F91">
-        <v>16.04523797127781</v>
+        <v>16.14524901221177</v>
       </c>
       <c r="K91">
-        <v>7.119488782683223</v>
+        <v>7.86239127619245</v>
       </c>
       <c r="L91">
-        <v>5.832072711164348</v>
+        <v>8.39503594898013</v>
       </c>
       <c r="M91">
-        <v>7.153961621529528</v>
+        <v>7.930900491519633</v>
       </c>
       <c r="N91">
-        <v>0.04721689752913444</v>
+        <v>0.07361754591400745</v>
       </c>
       <c r="O91">
-        <v>0.001600062158098121</v>
+        <v>0.00478292061304879</v>
       </c>
       <c r="P91">
-        <v>0.04596229826265467</v>
+        <v>0.06914349184114821</v>
       </c>
       <c r="Q91">
-        <v>0.006427201566829837</v>
+        <v>0.003831414897652176</v>
       </c>
       <c r="R91">
-        <v>0.007612248575081612</v>
+        <v>0.002892496721940923</v>
       </c>
       <c r="S91">
-        <v>5.814564473271033E-05</v>
+        <v>3.878330836433262E-06</v>
       </c>
       <c r="T91">
-        <v>0.0155799851739641</v>
+        <v>0.0650756185616496</v>
       </c>
       <c r="U91">
-        <v>0.002573503665609889</v>
+        <v>0.008103561488853845</v>
       </c>
       <c r="V91">
-        <v>14.34140184813713</v>
+        <v>58.4900773964462</v>
       </c>
       <c r="W91">
-        <v>4.494533577282134</v>
+        <v>5.201090242944044</v>
       </c>
       <c r="X91">
-        <v>0.002799738943329614</v>
+        <v>0.0002347429848113764</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>0.007553950361154953</v>
       </c>
       <c r="Z91">
-        <v>1.089652481478984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26">
+        <v>1.974963661610719</v>
+      </c>
+      <c r="AA91">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB91">
+        <v>6.199197063127301</v>
+      </c>
+      <c r="AC91">
+        <v>0.005723513650607266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.011932592166926E-06</v>
+        <v>8.529844872700798E-06</v>
       </c>
       <c r="C92">
-        <v>0.320893036783171</v>
+        <v>0.276143913076107</v>
       </c>
       <c r="D92">
-        <v>0.01271072554304113</v>
+        <v>0.0106635252840263</v>
       </c>
       <c r="E92">
-        <v>0.3478687306408377</v>
+        <v>0.3097796306109595</v>
       </c>
       <c r="F92">
-        <v>16.04518823504224</v>
+        <v>16.14519978975608</v>
       </c>
       <c r="K92">
-        <v>7.139544255579303</v>
+        <v>7.852085703547161</v>
       </c>
       <c r="L92">
-        <v>5.88598174660287</v>
+        <v>8.348583925667221</v>
       </c>
       <c r="M92">
-        <v>7.175338658658079</v>
+        <v>7.925031542039522</v>
       </c>
       <c r="N92">
-        <v>0.05177858106623807</v>
+        <v>0.08050100844410331</v>
       </c>
       <c r="O92">
-        <v>0.001872938465646663</v>
+        <v>0.005328495684753268</v>
       </c>
       <c r="P92">
-        <v>0.04991580793223716</v>
+        <v>0.07567469953549782</v>
       </c>
       <c r="Q92">
-        <v>0.006826880667744546</v>
+        <v>0.004364967572437616</v>
       </c>
       <c r="R92">
-        <v>0.008367658868116502</v>
+        <v>0.003181358561051372</v>
       </c>
       <c r="S92">
-        <v>6.390395333756219E-05</v>
+        <v>4.388426747704866E-06</v>
       </c>
       <c r="T92">
-        <v>0.01688063332479952</v>
+        <v>0.07077282426892918</v>
       </c>
       <c r="U92">
-        <v>0.002972275503001813</v>
+        <v>0.009136193089545301</v>
       </c>
       <c r="V92">
-        <v>14.64143646598791</v>
+        <v>59.25400183579975</v>
       </c>
       <c r="W92">
-        <v>4.662358212635638</v>
+        <v>5.293415440978492</v>
       </c>
       <c r="X92">
-        <v>0.003120770875378432</v>
+        <v>0.0002033849120684657</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>0.008516148727863024</v>
       </c>
       <c r="Z92">
-        <v>1.167304749583105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26">
+        <v>2.021612553227889</v>
+      </c>
+      <c r="AA92">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB92">
+        <v>6.782618883515962</v>
+      </c>
+      <c r="AC92">
+        <v>0.006601116298306192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.469883841380087E-06</v>
+        <v>7.897127733886135E-06</v>
       </c>
       <c r="C93">
-        <v>0.3551355158098521</v>
+        <v>0.3056417339418938</v>
       </c>
       <c r="D93">
-        <v>0.01539719709524355</v>
+        <v>0.01273072923996564</v>
       </c>
       <c r="E93">
-        <v>0.384787019875143</v>
+        <v>0.3433440179161069</v>
       </c>
       <c r="F93">
-        <v>16.04513300539586</v>
+        <v>16.14514520476293</v>
       </c>
       <c r="K93">
-        <v>7.160959826428861</v>
+        <v>7.841109505261077</v>
       </c>
       <c r="L93">
-        <v>5.94951338256688</v>
+        <v>8.294361680601469</v>
       </c>
       <c r="M93">
-        <v>7.198029218615452</v>
+        <v>7.918747524694824</v>
       </c>
       <c r="N93">
-        <v>0.05732365246630379</v>
+        <v>0.08885350986180889</v>
       </c>
       <c r="O93">
-        <v>0.002253131038823772</v>
+        <v>0.006044093181212283</v>
       </c>
       <c r="P93">
-        <v>0.05470346651718079</v>
+        <v>0.08359800308694897</v>
       </c>
       <c r="Q93">
-        <v>0.007354088598122785</v>
+        <v>0.005070326863128081</v>
       </c>
       <c r="R93">
-        <v>0.009290298303091941</v>
+        <v>0.003534355242640669</v>
       </c>
       <c r="S93">
-        <v>7.179203322674614E-05</v>
+        <v>5.07876917276841E-06</v>
       </c>
       <c r="T93">
-        <v>0.01842600641611038</v>
+        <v>0.0776213388444163</v>
       </c>
       <c r="U93">
-        <v>0.003515770504217415</v>
+        <v>0.01050788493452217</v>
       </c>
       <c r="V93">
-        <v>15.01771933629881</v>
+        <v>60.21021894429746</v>
       </c>
       <c r="W93">
-        <v>4.844776677140366</v>
+        <v>5.395514361307988</v>
       </c>
       <c r="X93">
-        <v>0.003513214022040273</v>
+        <v>0.000155491175932463</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>0.009721293011585697</v>
       </c>
       <c r="Z93">
-        <v>1.252355573195132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26">
+        <v>2.073285748922807</v>
+      </c>
+      <c r="AA93">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB93">
+        <v>7.477051184429156</v>
+      </c>
+      <c r="AC93">
+        <v>0.007791058736314666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.82180821055819E-06</v>
+        <v>7.136116151017911E-06</v>
       </c>
       <c r="C94">
-        <v>0.3976028056491783</v>
+        <v>0.3422556095296349</v>
       </c>
       <c r="D94">
-        <v>0.01940588464335007</v>
+        <v>0.01570891506503857</v>
       </c>
       <c r="E94">
-        <v>0.4298069982681327</v>
+        <v>0.384351890863619</v>
       </c>
       <c r="F94">
-        <v>16.04507080527537</v>
+        <v>16.14508383464147</v>
       </c>
       <c r="K94">
-        <v>7.183923193366524</v>
+        <v>7.829334286106255</v>
       </c>
       <c r="L94">
-        <v>6.026511682415628</v>
+        <v>8.229113996237873</v>
       </c>
       <c r="M94">
-        <v>7.22207857977452</v>
+        <v>7.911755601432664</v>
       </c>
       <c r="N94">
-        <v>0.06420746764473879</v>
+        <v>0.09920468694688347</v>
       </c>
       <c r="O94">
-        <v>0.002815818661091899</v>
+        <v>0.007027211962171645</v>
       </c>
       <c r="P94">
-        <v>0.06062213875706305</v>
+        <v>0.0934139626149266</v>
       </c>
       <c r="Q94">
-        <v>0.00809044148980294</v>
+        <v>0.006048531897670923</v>
       </c>
       <c r="R94">
-        <v>0.01044261158682509</v>
+        <v>0.003975514801824157</v>
       </c>
       <c r="S94">
-        <v>8.331476909842184E-05</v>
+        <v>6.072047748948242E-06</v>
       </c>
       <c r="T94">
-        <v>0.020289785905097</v>
+        <v>0.08601052058315307</v>
       </c>
       <c r="U94">
-        <v>0.004296146316221981</v>
+        <v>0.01241825799248294</v>
       </c>
       <c r="V94">
-        <v>15.50347833307609</v>
+        <v>61.43368124309725</v>
       </c>
       <c r="W94">
-        <v>5.0450882277228</v>
+        <v>5.509790869877083</v>
       </c>
       <c r="X94">
-        <v>0.004003899083640509</v>
+        <v>8.201528456569264E-05</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>0.01126898257429615</v>
       </c>
       <c r="Z94">
-        <v>1.346441203439085</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26">
+        <v>2.131186120422115</v>
+      </c>
+      <c r="AA94">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB94">
+        <v>8.312296038690262</v>
+      </c>
+      <c r="AC94">
+        <v>0.00948675573604712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.042676240372293E-06</v>
+        <v>6.211238688878755E-06</v>
       </c>
       <c r="C95">
-        <v>0.4516309372214395</v>
+        <v>0.3889051373102915</v>
       </c>
       <c r="D95">
-        <v>0.02592916441637784</v>
+        <v>0.02031714275695303</v>
       </c>
       <c r="E95">
-        <v>0.4856801158146121</v>
+        <v>0.4353081754757518</v>
       </c>
       <c r="F95">
-        <v>16.04279187336026</v>
+        <v>16.14281546937787</v>
       </c>
       <c r="K95">
-        <v>7.208644342802113</v>
+        <v>7.816605769529988</v>
       </c>
       <c r="L95">
-        <v>6.123443902251879</v>
+        <v>8.147414451218918</v>
       </c>
       <c r="M95">
-        <v>7.247408433740611</v>
+        <v>7.903490297097475</v>
       </c>
       <c r="N95">
-        <v>0.07297770321383122</v>
+        <v>0.1123728976589852</v>
       </c>
       <c r="O95">
-        <v>0.003723211830718215</v>
+        <v>0.008470099538372982</v>
       </c>
       <c r="P95">
-        <v>0.06812666693810022</v>
+        <v>0.1058947384316774</v>
       </c>
       <c r="Q95">
-        <v>0.009208644534825844</v>
+        <v>0.007500088370675619</v>
       </c>
       <c r="R95">
-        <v>0.01192251113221462</v>
+        <v>0.00454257805240633</v>
       </c>
       <c r="S95">
-        <v>0.0001017359141573733</v>
+        <v>7.631134651427673E-06</v>
       </c>
       <c r="T95">
-        <v>0.02257459156065058</v>
+        <v>0.09652370095324883</v>
       </c>
       <c r="U95">
-        <v>0.005498960501175474</v>
+        <v>0.01525957081070539</v>
       </c>
       <c r="V95">
-        <v>16.1581853250856</v>
+        <v>63.05461917273232</v>
       </c>
       <c r="W95">
-        <v>5.267905074932287</v>
+        <v>5.639706276785716</v>
       </c>
       <c r="X95">
-        <v>0.004635004856229151</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>0.01322386748770189</v>
       </c>
       <c r="Z95">
-        <v>1.451799664537456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
+        <v>2.197018946533214</v>
+      </c>
+      <c r="AA95">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB95">
+        <v>9.32519737426588</v>
+      </c>
+      <c r="AC95">
+        <v>0.01207349046055422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.118785126625552E-06</v>
+        <v>5.088780187849808E-06</v>
       </c>
       <c r="C96">
-        <v>0.52258123268895</v>
+        <v>0.4503364697358481</v>
       </c>
       <c r="D96">
-        <v>0.03791926429623315</v>
+        <v>0.02819100599844902</v>
       </c>
       <c r="E96">
-        <v>0.5566124112246335</v>
+        <v>0.4999521056744084</v>
       </c>
       <c r="F96">
-        <v>16.04259378847814</v>
+        <v>16.14262100735655</v>
       </c>
       <c r="K96">
-        <v>7.235350654364638</v>
+        <v>7.80274220754733</v>
       </c>
       <c r="L96">
-        <v>6.251143389910284</v>
+        <v>8.041278774418458</v>
       </c>
       <c r="M96">
-        <v>7.273763685983199</v>
+        <v>7.892940602481913</v>
       </c>
       <c r="N96">
-        <v>0.08452011844435008</v>
+        <v>0.1296900306790873</v>
       </c>
       <c r="O96">
-        <v>0.005375132713250016</v>
+        <v>0.0108015808275376</v>
       </c>
       <c r="P96">
-        <v>0.07794633733864599</v>
+        <v>0.1222938467751778</v>
       </c>
       <c r="Q96">
-        <v>0.01112699095394984</v>
+        <v>0.009872119363197557</v>
       </c>
       <c r="R96">
-        <v>0.01389264033522416</v>
+        <v>0.005298402538698816</v>
       </c>
       <c r="S96">
-        <v>0.0001349864719546855</v>
+        <v>1.038790457340956E-05</v>
       </c>
       <c r="T96">
-        <v>0.02542053007056311</v>
+        <v>0.1100677226436728</v>
       </c>
       <c r="U96">
-        <v>0.007529740117888619</v>
+        <v>0.01988733326093537</v>
       </c>
       <c r="V96">
-        <v>17.09861694052404</v>
+        <v>65.32395398479794</v>
       </c>
       <c r="W96">
-        <v>5.520013261958781</v>
+        <v>5.790498496426679</v>
       </c>
       <c r="X96">
-        <v>0.005448861977638134</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>9.837990154733153E-05</v>
+        <v>0.01550929328982386</v>
       </c>
       <c r="Z96">
-        <v>1.571605584642743</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26">
+        <v>2.273304151018751</v>
+      </c>
+      <c r="AA96">
+        <v>8.81E-07</v>
+      </c>
+      <c r="AB96">
+        <v>10.55704273086777</v>
+      </c>
+      <c r="AC96">
+        <v>0.01639955688242923</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.082787399837242E-06</v>
+        <v>3.749184893208873E-06</v>
       </c>
       <c r="C97">
-        <v>0.6195136263674921</v>
+        <v>0.5347655624833269</v>
       </c>
       <c r="D97">
-        <v>0.06411321105163319</v>
+        <v>0.04382955265616861</v>
       </c>
       <c r="E97">
-        <v>0.6497894748299115</v>
+        <v>0.5842126520498028</v>
       </c>
       <c r="F97">
-        <v>16.04235382804302</v>
+        <v>16.14238636219715</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7010,31 +7889,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.1003491155905699</v>
+        <v>0.1534677206493969</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.09131020661558505</v>
+        <v>0.1447781922575735</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.01664417110787803</v>
+        <v>0.006356005465523886</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.02899868806109795</v>
+        <v>0.12810380052022</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>16.92050634739358</v>
+        <v>64.64349613078964</v>
       </c>
       <c r="W97">
         <v>0</v>
@@ -7046,6 +7925,15 @@
         <v>0</v>
       </c>
       <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>12.02718293013355</v>
+      </c>
+      <c r="AC97">
         <v>0</v>
       </c>
     </row>
